--- a/projects/current/hattrick/4-SimuladorPartidos.xlsx
+++ b/projects/current/hattrick/4-SimuladorPartidos.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7350"/>
   </bookViews>
   <sheets>
-    <sheet name="OBIWAN-Agricola" sheetId="462" r:id="rId1"/>
+    <sheet name="Pueblica-VADER" sheetId="463" r:id="rId1"/>
     <sheet name="SIMULADOR" sheetId="285" r:id="rId2"/>
     <sheet name="SIMULADOR&gt;22-12-17" sheetId="435" r:id="rId3"/>
     <sheet name="SIMULADOR_sinJC" sheetId="273" r:id="rId4"/>
@@ -2078,7 +2078,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="152">
   <si>
     <t>LOCAL</t>
   </si>
@@ -2530,7 +2530,10 @@
     <t>0,4</t>
   </si>
   <si>
-    <t>Agricola</t>
+    <t>Pueblica</t>
+  </si>
+  <si>
+    <t>CA</t>
   </si>
 </sst>
 </file>
@@ -4284,7 +4287,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'OBIWAN-Agricola'!$G$25:$G$35</c:f>
+              <c:f>'Pueblica-VADER'!$G$25:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4326,42 +4329,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'OBIWAN-Agricola'!$H$25:$H$35</c:f>
+              <c:f>'Pueblica-VADER'!$H$25:$H$35</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.4642898846447353E-2</c:v>
+                  <c:v>1.6678990383695198E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4858238953470158E-2</c:v>
+                  <c:v>8.1632923354939838E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1743372282531615</c:v>
+                  <c:v>0.18271134726622734</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2445269194440999</c:v>
+                  <c:v>0.24730247181371739</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23007077870182072</c:v>
+                  <c:v>0.22549348317336929</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15306464221161231</c:v>
+                  <c:v>0.14599370709848394</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.3949765995134698E-2</c:v>
+                  <c:v>6.8892582708431002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.6233276949455868E-2</c:v>
+                  <c:v>2.3924210592187169E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.8317771035248109E-3</c:v>
+                  <c:v>6.0936537139224022E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2931365134453679E-3</c:v>
+                  <c:v>1.1200022581772707E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7426594882519232E-4</c:v>
+                  <c:v>1.4381422176174878E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4394,42 +4397,42 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'OBIWAN-Agricola'!$H$39:$H$49</c:f>
+              <c:f>'Pueblica-VADER'!$H$39:$H$49</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>7.8669560159200624E-2</c:v>
+                  <c:v>0.1057409967417637</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22182598384678365</c:v>
+                  <c:v>0.26869262738538735</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28744495477774895</c:v>
+                  <c:v>0.30355050802843309</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22675720780898631</c:v>
+                  <c:v>0.20142402949157073</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12160703190569232</c:v>
+                  <c:v>8.7521271393562472E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6883886015268009E-2</c:v>
+                  <c:v>2.6351274806542382E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3397558470065228E-2</c:v>
+                  <c:v>5.6943395950289754E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.882211933042539E-3</c:v>
+                  <c:v>9.0609200980668948E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.6883972843597932E-4</c:v>
+                  <c:v>1.0831065717318878E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.7282334582236616E-5</c:v>
+                  <c:v>9.840317040759606E-6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.1454465516326047E-6</c:v>
+                  <c:v>6.7500448216795176E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4446,11 +4449,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="291728640"/>
-        <c:axId val="291724720"/>
+        <c:axId val="308865784"/>
+        <c:axId val="308865392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="291728640"/>
+        <c:axId val="308865784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4460,7 +4463,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="291724720"/>
+        <c:crossAx val="308865392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4468,7 +4471,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="291724720"/>
+        <c:axId val="308865392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4479,7 +4482,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="291728640"/>
+        <c:crossAx val="308865784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4547,18 +4550,18 @@
           </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>'OBIWAN-Agricola'!$B$37:$B$39</c:f>
+              <c:f>'Pueblica-VADER'!$B$37:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.15954217501646925</c:v>
+                  <c:v>0.15296984344391826</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20631506668572325</c:v>
+                  <c:v>0.17043718995137969</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6339510846576043</c:v>
+                  <c:v>0.67643630450113379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4798,11 +4801,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="293747000"/>
-        <c:axId val="293749744"/>
+        <c:axId val="309392104"/>
+        <c:axId val="309397592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="293747000"/>
+        <c:axId val="309392104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4812,7 +4815,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="293749744"/>
+        <c:crossAx val="309397592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4820,7 +4823,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="293749744"/>
+        <c:axId val="309397592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4831,7 +4834,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="293747000"/>
+        <c:crossAx val="309392104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5150,11 +5153,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="293748960"/>
-        <c:axId val="293751312"/>
+        <c:axId val="309392496"/>
+        <c:axId val="309393672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="293748960"/>
+        <c:axId val="309392496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5164,7 +5167,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="293751312"/>
+        <c:crossAx val="309393672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5172,7 +5175,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="293751312"/>
+        <c:axId val="309393672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5183,7 +5186,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="293748960"/>
+        <c:crossAx val="309392496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5502,11 +5505,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="293752096"/>
-        <c:axId val="293745040"/>
+        <c:axId val="309394848"/>
+        <c:axId val="309395240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="293752096"/>
+        <c:axId val="309394848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5516,7 +5519,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="293745040"/>
+        <c:crossAx val="309395240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5524,7 +5527,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="293745040"/>
+        <c:axId val="309395240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5535,7 +5538,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="293752096"/>
+        <c:crossAx val="309394848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6208,12 +6211,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
+    <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:BR59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6279,7 +6282,7 @@
   <sheetData>
     <row r="1" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A1" s="195" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B1" t="s">
         <v>146</v>
@@ -6330,12 +6333,12 @@
       </c>
       <c r="AF1">
         <f>COUNTA(J16:J18)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A2" s="195" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
         <v>146</v>
@@ -6526,7 +6529,7 @@
       </c>
       <c r="BJ4" s="107">
         <f t="shared" ref="BJ4:BJ13" si="0">$H$25*H40</f>
-        <v>3.2481754429821174E-3</v>
+        <v>4.4815217483306731E-3</v>
       </c>
       <c r="BL4">
         <v>0</v>
@@ -6536,7 +6539,7 @@
       </c>
       <c r="BN4" s="107">
         <f>H25*H39</f>
-        <v>1.1519504117056794E-3</v>
+        <v>1.763653067818222E-3</v>
       </c>
       <c r="BP4">
         <v>1</v>
@@ -6546,7 +6549,7 @@
       </c>
       <c r="BR4" s="107">
         <f>$H$26*H39</f>
-        <v>5.8890647327618359E-3</v>
+        <v>8.6319466824953395E-3</v>
       </c>
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.25">
@@ -6557,7 +6560,7 @@
         <v>352</v>
       </c>
       <c r="C5" s="161">
-        <v>253</v>
+        <v>532</v>
       </c>
       <c r="E5" s="192" t="s">
         <v>15</v>
@@ -6580,7 +6583,7 @@
       <c r="M5" s="10"/>
       <c r="O5" s="67">
         <f>COUNTIF(F5:F18,"IMP")*0.017</f>
-        <v>1.7000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="P5" s="16" t="str">
         <f>P3</f>
@@ -6588,23 +6591,23 @@
       </c>
       <c r="Q5" s="16">
         <f>P5*O5</f>
-        <v>1.0200000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="R5" s="157">
         <f>IF($M$2="SI",Q5*$B$22/0.5*$S$1,Q5*$B$22/0.5*$S$2)</f>
-        <v>1.1830740585257441E-2</v>
+        <v>0</v>
       </c>
       <c r="S5" s="176">
         <f>(1-R5)</f>
-        <v>0.98816925941474254</v>
+        <v>1</v>
       </c>
       <c r="T5" s="177">
         <f>R5*PRODUCT(S6:S19)</f>
-        <v>8.8796118973699153E-3</v>
+        <v>0</v>
       </c>
       <c r="U5" s="177">
         <f>R5*R6*PRODUCT(S7:S19)+R5*R7*PRODUCT(S8:S19)*PRODUCT(S6)+R5*R8*PRODUCT(S9:S19)*PRODUCT(S6:S7)+R5*R9*PRODUCT(S10:S19)*PRODUCT(S6:S8)+R5*R10*PRODUCT(S11:S19)*PRODUCT(S6:S9)+R5*R11*PRODUCT(S12:S19)*PRODUCT(S6:S10)+R5*R12*PRODUCT(S13:S19)*PRODUCT(S6:S11)+R5*R13*PRODUCT(S14:S19)*PRODUCT(S6:S12)+R5*R14*PRODUCT(S15:S19)*PRODUCT(S6:S13)+R5*R15*PRODUCT(S16:S19)*PRODUCT(S6:S14)+R5*R16*PRODUCT(S17:S19)*PRODUCT(S6:S15)+R5*R17*PRODUCT(S18:S19)*PRODUCT(S6:S16)+R5*R18*PRODUCT(S19)*PRODUCT(S6:S17)+R5*R19*PRODUCT(S6:S18)</f>
-        <v>2.6180876340922525E-3</v>
+        <v>0</v>
       </c>
       <c r="V5" s="18"/>
       <c r="W5" s="186" t="s">
@@ -6615,7 +6618,7 @@
       </c>
       <c r="Y5" s="69">
         <f>COUNTIF(J5:J18,"IMP")*0.017</f>
-        <v>1.7000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="146" t="str">
         <f>Z3</f>
@@ -6623,23 +6626,23 @@
       </c>
       <c r="AA5" s="19">
         <f>Z5*Y5</f>
-        <v>1.0200000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="157">
         <f>IF($M$2="SI",AA5*$C$22/0.5*$S$1,AA5*$C$22/0.5*$S$2)</f>
-        <v>1.0078038276330411E-2</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="176">
         <f>(1-AB5)</f>
-        <v>0.98992196172366964</v>
+        <v>1</v>
       </c>
       <c r="AD5" s="177">
         <f>AB5*PRODUCT(AC6:AC19)</f>
-        <v>7.5057994757555344E-3</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="177">
         <f>AB5*AB6*PRODUCT(AC7:AC19)+AB5*AB7*PRODUCT(AC8:AC19)*PRODUCT(AC6)+AB5*AB8*PRODUCT(AC9:AC19)*PRODUCT(AC6:AC7)+AB5*AB9*PRODUCT(AC10:AC19)*PRODUCT(AC6:AC8)+AB5*AB10*PRODUCT(AC11:AC19)*PRODUCT(AC6:AC9)+AB5*AB11*PRODUCT(AC12:AC19)*PRODUCT(AC6:AC10)+AB5*AB12*PRODUCT(AC13:AC19)*PRODUCT(AC6:AC11)+AB5*AB13*PRODUCT(AC14:AC19)*PRODUCT(AC6:AC12)+AB5*AB14*PRODUCT(AC15:AC19)*PRODUCT(AC6:AC13)+AB5*AB15*PRODUCT(AC16:AC19)*PRODUCT(AC6:AC14)+AB5*AB16*PRODUCT(AC17:AC19)*PRODUCT(AC6:AC15)+AB5*AB17*PRODUCT(AC18:AC19)*PRODUCT(AC6:AC16)+AB5*AB18*PRODUCT(AC19)*PRODUCT(AC6:AC17)+AB5*AB19*PRODUCT(AC6:AC18)</f>
-        <v>2.2742703297136176E-3</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="18"/>
       <c r="BH5">
@@ -6650,7 +6653,7 @@
       </c>
       <c r="BJ5" s="107">
         <f t="shared" si="0"/>
-        <v>4.2090273967322119E-3</v>
+        <v>5.0629160043720277E-3</v>
       </c>
       <c r="BL5">
         <v>1</v>
@@ -6660,7 +6663,7 @@
       </c>
       <c r="BN5" s="107">
         <f>$H$26*H40</f>
-        <v>1.660550250489114E-2</v>
+        <v>2.1934164657388733E-2</v>
       </c>
       <c r="BP5">
         <f>BP4+1</f>
@@ -6671,7 +6674,7 @@
       </c>
       <c r="BR5" s="107">
         <f>$H$27*H39</f>
-        <v>1.371503306605038E-2</v>
+        <v>1.9320079975961399E-2</v>
       </c>
     </row>
     <row r="6" spans="1:70" x14ac:dyDescent="0.25">
@@ -6679,27 +6682,29 @@
         <v>1</v>
       </c>
       <c r="B6" s="168">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="C6" s="169">
-        <v>11.5</v>
+        <v>5.5</v>
       </c>
       <c r="E6" s="192" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="167" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="G6" s="167"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="166"/>
+      <c r="J6" s="166" t="s">
+        <v>16</v>
+      </c>
       <c r="K6" s="166"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="O6" s="67">
         <f>COUNTIF(F14:F18,"IMP")*0.017</f>
-        <v>1.7000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="P6" s="16" t="str">
         <f>P3</f>
@@ -6707,23 +6712,23 @@
       </c>
       <c r="Q6" s="16">
         <f t="shared" ref="Q6:Q19" si="1">P6*O6</f>
-        <v>1.0200000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="R6" s="157">
         <f>IF($M$2="SI",Q6*$B$22/0.5*$S$1,Q6*$B$22/0.5*$S$2)</f>
-        <v>1.1830740585257441E-2</v>
+        <v>0</v>
       </c>
       <c r="S6" s="176">
         <f t="shared" ref="S6:S19" si="2">(1-R6)</f>
-        <v>0.98816925941474254</v>
+        <v>1</v>
       </c>
       <c r="T6" s="177">
         <f>R6*S5*PRODUCT(S7:S19)</f>
-        <v>8.8796118973699153E-3</v>
+        <v>0</v>
       </c>
       <c r="U6" s="177">
         <f>R6*R7*PRODUCT(S8:S19)*PRODUCT(S5)+R6*R8*PRODUCT(S9:S19)*S5*PRODUCT(S7)+R6*R9*PRODUCT(S10:S19)*S5*PRODUCT(S7:S8)+R6*R10*PRODUCT(S11:S19)*S5*PRODUCT(S7:S9)+R6*R11*PRODUCT(S12:S19)*S5*PRODUCT(S7:S10)+R6*R12*PRODUCT(S13:S19)*S5*PRODUCT(S7:S11)+R6*R13*PRODUCT(S14:S19)*S5*PRODUCT(S7:S12)+R6*R14*PRODUCT(S15:S19)*S5*PRODUCT(S7:S13)+R6*R15*PRODUCT(S16:S19)*S5*PRODUCT(S7:S14)+R6*R16*PRODUCT(S17:S19)*S5*PRODUCT(S7:S15)+R6*R17*PRODUCT(S18:S19)*S5*PRODUCT(S7:S16)+R6*R18*PRODUCT(S19)*S5*PRODUCT(S7:S17)+R6*R19*S5*PRODUCT(S7:S18)</f>
-        <v>2.511777521877501E-3</v>
+        <v>0</v>
       </c>
       <c r="V6" s="18"/>
       <c r="W6" s="186" t="s">
@@ -6769,7 +6774,7 @@
       </c>
       <c r="BJ6" s="107">
         <f t="shared" si="0"/>
-        <v>3.3203828566498285E-3</v>
+        <v>3.3595494509350461E-3</v>
       </c>
       <c r="BL6">
         <f>BH14+1</f>
@@ -6780,7 +6785,7 @@
       </c>
       <c r="BN6" s="107">
         <f>$H$27*H41</f>
-        <v>5.0112356691308105E-2</v>
+        <v>5.5462122285222772E-2</v>
       </c>
       <c r="BP6">
         <f>BL5+1</f>
@@ -6791,7 +6796,7 @@
       </c>
       <c r="BR6" s="107">
         <f>$H$27*H40</f>
-        <v>3.8672527178378838E-2</v>
+        <v>4.9093191950086532E-2</v>
       </c>
     </row>
     <row r="7" spans="1:70" x14ac:dyDescent="0.25">
@@ -6799,10 +6804,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="168">
-        <v>14.25</v>
+        <v>12</v>
       </c>
       <c r="C7" s="169">
-        <v>15.25</v>
+        <v>17</v>
       </c>
       <c r="E7" s="192" t="s">
         <v>18</v>
@@ -6811,7 +6816,9 @@
       <c r="G7" s="167"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="166"/>
+      <c r="J7" s="166" t="s">
+        <v>16</v>
+      </c>
       <c r="K7" s="166"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
@@ -6881,7 +6888,7 @@
       </c>
       <c r="BJ7" s="107">
         <f t="shared" si="0"/>
-        <v>1.7806794672117485E-3</v>
+        <v>1.4597664439420061E-3</v>
       </c>
       <c r="BL7">
         <f>BH23+1</f>
@@ -6892,7 +6899,7 @@
       </c>
       <c r="BN7" s="107">
         <f>$H$28*H42</f>
-        <v>5.544824148727702E-2</v>
+        <v>4.9812660375944555E-2</v>
       </c>
       <c r="BP7">
         <f>BP5+1</f>
@@ -6903,7 +6910,7 @@
       </c>
       <c r="BR7" s="107">
         <f>$H$28*H39</f>
-        <v>1.9236825199751624E-2</v>
+        <v>2.61500098662844E-2</v>
       </c>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.25">
@@ -6911,10 +6918,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="168">
-        <v>14</v>
+        <v>11.75</v>
       </c>
       <c r="C8" s="169">
-        <v>13.75</v>
+        <v>15</v>
       </c>
       <c r="E8" s="192" t="s">
         <v>18</v>
@@ -6925,15 +6932,13 @@
       <c r="G8" s="167"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="166" t="s">
-        <v>147</v>
-      </c>
+      <c r="J8" s="166"/>
       <c r="K8" s="166"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="O8" s="67">
         <f>COUNTIF(F6:F18,"IMP")*0.01</f>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="P8" s="16" t="str">
         <f>P3</f>
@@ -6941,23 +6946,23 @@
       </c>
       <c r="Q8" s="16">
         <f t="shared" si="1"/>
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="R8" s="157">
         <f t="shared" si="6"/>
-        <v>6.9592591677984945E-3</v>
+        <v>0</v>
       </c>
       <c r="S8" s="176">
         <f t="shared" si="2"/>
-        <v>0.99304074083220151</v>
+        <v>1</v>
       </c>
       <c r="T8" s="177">
         <f>R8*PRODUCT(S5:S7)*PRODUCT(S9:S19)</f>
-        <v>5.1976775809531939E-3</v>
+        <v>0</v>
       </c>
       <c r="U8" s="177">
         <f>R8*R9*PRODUCT(S5:S7)*PRODUCT(S10:S19)+R8*R10*PRODUCT(S5:S7)*PRODUCT(S9)*PRODUCT(S11:S19)+R8*R11*PRODUCT(S5:S7)*PRODUCT(S9:S10)*PRODUCT(S12:S19)+R8*R12*PRODUCT(S5:S7)*PRODUCT(S9:S11)*PRODUCT(S13:S19)+R8*R13*PRODUCT(S5:S7)*PRODUCT(S9:S12)*PRODUCT(S14:S19)+R8*R14*PRODUCT(S5:S7)*PRODUCT(S9:S13)*PRODUCT(S15:S19)+R8*R15*PRODUCT(S5:S7)*PRODUCT(S9:S14)*PRODUCT(S16:S19)+R8*R16*PRODUCT(S5:S7)*PRODUCT(S9:S15)*PRODUCT(S17:S19)+R8*R17*PRODUCT(S5:S7)*PRODUCT(S9:S16)*PRODUCT(S18:S19)+R8*R18*PRODUCT(S5:S7)*PRODUCT(S9:S17)*PRODUCT(S19)+R8*R19*PRODUCT(S5:S7)*PRODUCT(S9:S18)</f>
-        <v>1.433842575324105E-3</v>
+        <v>0</v>
       </c>
       <c r="W8" s="186" t="s">
         <v>42</v>
@@ -6967,7 +6972,7 @@
       </c>
       <c r="Y8" s="69">
         <f>COUNTIF(J6:J18,"IMP")*0.01</f>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="146" t="str">
         <f>Z3</f>
@@ -6975,23 +6980,23 @@
       </c>
       <c r="AA8" s="19">
         <f t="shared" si="3"/>
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="157">
         <f t="shared" si="4"/>
-        <v>5.9282578096061245E-3</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="176">
         <f t="shared" si="5"/>
-        <v>0.99407174219039385</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="177">
         <f>AB8*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC19)</f>
-        <v>4.396744885051305E-3</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="177">
         <f>AB8*AB9*PRODUCT(AC5:AC7)*PRODUCT(AC10:AC19)+AB8*AB10*PRODUCT(AC5:AC7)*PRODUCT(AC9)*PRODUCT(AC11:AC19)+AB8*AB11*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC10)*PRODUCT(AC12:AC19)+AB8*AB12*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC11)*PRODUCT(AC13:AC19)+AB8*AB13*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC12)*PRODUCT(AC14:AC19)+AB8*AB14*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC13)*PRODUCT(AC15:AC19)+AB8*AB15*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC14)*PRODUCT(AC16:AC19)+AB8*AB16*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC15)*PRODUCT(AC17:AC19)+AB8*AB17*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC16)*PRODUCT(AC18:AC19)+AB8*AB18*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC17)*PRODUCT(AC19)+AB8*AB19*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC18)</f>
-        <v>1.3060008882221524E-3</v>
+        <v>0</v>
       </c>
       <c r="BH8">
         <v>0</v>
@@ -7001,7 +7006,7 @@
       </c>
       <c r="BJ8" s="107">
         <f t="shared" si="0"/>
-        <v>6.8651600044993715E-4</v>
+        <v>4.3951265909642997E-4</v>
       </c>
       <c r="BL8">
         <f>BH31+1</f>
@@ -7012,7 +7017,7 @@
       </c>
       <c r="BN8" s="107">
         <f>$H$29*H43</f>
-        <v>2.7978224526159789E-2</v>
+        <v>1.9735476338296167E-2</v>
       </c>
       <c r="BP8">
         <f>BP6+1</f>
@@ -7023,7 +7028,7 @@
       </c>
       <c r="BR8" s="107">
         <f>$H$28*H40</f>
-        <v>5.4242424482710674E-2</v>
+        <v>6.644835091052842E-2</v>
       </c>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.25">
@@ -7031,10 +7036,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="168">
-        <v>15</v>
+        <v>11.75</v>
       </c>
       <c r="C9" s="169">
-        <v>8.25</v>
+        <v>16.75</v>
       </c>
       <c r="E9" s="192" t="s">
         <v>18</v>
@@ -7043,36 +7048,38 @@
       <c r="G9" s="167"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="166"/>
+      <c r="J9" s="166" t="s">
+        <v>144</v>
+      </c>
       <c r="K9" s="166"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="O9" s="67">
         <f>COUNTIF(J6:J13,"IMP")*0.025</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="P9" s="144">
         <v>0.5</v>
       </c>
       <c r="Q9" s="16">
         <f t="shared" si="1"/>
-        <v>1.2500000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="R9" s="157">
         <f t="shared" si="6"/>
-        <v>1.4498456599580198E-2</v>
+        <v>0</v>
       </c>
       <c r="S9" s="176">
         <f t="shared" si="2"/>
-        <v>0.98550154340041984</v>
+        <v>1</v>
       </c>
       <c r="T9" s="177">
         <f>R9*PRODUCT(S5:S8)*PRODUCT(S10:S19)</f>
-        <v>1.0911334162288551E-2</v>
+        <v>0</v>
       </c>
       <c r="U9" s="177">
         <f>R9*R10*PRODUCT(S5:S8)*PRODUCT(S11:S19)+R9*R11*PRODUCT(S5:S8)*PRODUCT(S10)*PRODUCT(S12:S19)+R9*R12*PRODUCT(S5:S8)*PRODUCT(S10:S11)*PRODUCT(S13:S19)+R9*R13*PRODUCT(S5:S8)*PRODUCT(S10:S12)*PRODUCT(S14:S19)+R9*R14*PRODUCT(S5:S8)*PRODUCT(S10:S13)*PRODUCT(S15:S19)+R9*R15*PRODUCT(S5:S8)*PRODUCT(S10:S14)*PRODUCT(S16:S19)+R9*R16*PRODUCT(S5:S8)*PRODUCT(S10:S15)*PRODUCT(S17:S19)+R9*R17*PRODUCT(S5:S8)*PRODUCT(S10:S16)*PRODUCT(S18:S19)+R9*R18*PRODUCT(S5:S8)*PRODUCT(S10:S17)*PRODUCT(S19)+R9*R19*PRODUCT(S5:S8)*PRODUCT(S10:S18)</f>
-        <v>2.8494993656644116E-3</v>
+        <v>0</v>
       </c>
       <c r="W9" s="187" t="s">
         <v>44</v>
@@ -7115,7 +7122,7 @@
       </c>
       <c r="BJ9" s="107">
         <f t="shared" si="0"/>
-        <v>1.9617909346652911E-4</v>
+        <v>9.4975835346983092E-5</v>
       </c>
       <c r="BL9">
         <f>BH38+1</f>
@@ -7126,7 +7133,7 @@
       </c>
       <c r="BN9" s="107">
         <f>$H$30*H44</f>
-        <v>7.1762652384170121E-3</v>
+        <v>3.8471202957780079E-3</v>
       </c>
       <c r="BP9">
         <f>BL6+1</f>
@@ -7137,7 +7144,7 @@
       </c>
       <c r="BR9" s="107">
         <f>$H$28*H41</f>
-        <v>7.0288029301551563E-2</v>
+        <v>7.5068790955741163E-2</v>
       </c>
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.25">
@@ -7145,29 +7152,29 @@
         <v>5</v>
       </c>
       <c r="B10" s="168">
-        <v>15.25</v>
+        <v>13</v>
       </c>
       <c r="C10" s="169">
-        <v>16.25</v>
+        <v>13.5</v>
       </c>
       <c r="E10" s="192" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="167" t="s">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="G10" s="167"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="166" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K10" s="166"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="O10" s="67">
         <f>COUNTIF(F14:F18,"RAP")*0.0785</f>
-        <v>7.85E-2</v>
+        <v>0</v>
       </c>
       <c r="P10" s="16" t="str">
         <f>R3</f>
@@ -7175,23 +7182,23 @@
       </c>
       <c r="Q10" s="16">
         <f t="shared" si="1"/>
-        <v>5.6520000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="R10" s="157">
         <f t="shared" si="6"/>
-        <v>6.5556221360661818E-2</v>
+        <v>0</v>
       </c>
       <c r="S10" s="176">
         <f t="shared" si="2"/>
-        <v>0.93444377863933814</v>
+        <v>1</v>
       </c>
       <c r="T10" s="177">
         <f>R10*PRODUCT(S5:S9)*PRODUCT(S11:S19)</f>
-        <v>5.203243236454453E-2</v>
+        <v>0</v>
       </c>
       <c r="U10" s="177">
         <f>R10*R11*PRODUCT(S5:S9)*PRODUCT(S12:S19)+R10*R12*PRODUCT(S5:S9)*S11*PRODUCT(S13:S19)+R10*R13*PRODUCT(S5:S9)*PRODUCT(S11:S12)*PRODUCT(S14:S19)+R10*R14*PRODUCT(S5:S9)*PRODUCT(S11:S13)*PRODUCT(S15:S19)+R10*R15*PRODUCT(S5:S9)*PRODUCT(S11:S14)*PRODUCT(S16:S19)+R10*R16*PRODUCT(S5:S9)*PRODUCT(S11:S15)*PRODUCT(S17:S19)+R10*R17*PRODUCT(S5:S9)*PRODUCT(S11:S16)*PRODUCT(S18:S19)+R10*R18*PRODUCT(S5:S9)*PRODUCT(S11:S17)*PRODUCT(S19)+R10*R19*PRODUCT(S5:S9)*PRODUCT(S11:S18)</f>
-        <v>9.9379379250660437E-3</v>
+        <v>0</v>
       </c>
       <c r="W10" s="186" t="s">
         <v>46</v>
@@ -7213,19 +7220,19 @@
       </c>
       <c r="AB10" s="157">
         <f t="shared" si="4"/>
-        <v>5.5844188566489691E-2</v>
+        <v>3.3385112729966665E-2</v>
       </c>
       <c r="AC10" s="176">
         <f t="shared" si="5"/>
-        <v>0.94415581143351035</v>
+        <v>0.96661488727003331</v>
       </c>
       <c r="AD10" s="177">
         <f>AB10*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC19)</f>
-        <v>4.3607001797968753E-2</v>
+        <v>2.8531228308320104E-2</v>
       </c>
       <c r="AE10" s="177">
         <f>AB10*AB11*PRODUCT(AC5:AC9)*PRODUCT(AC12:AC19)+AB10*AB12*PRODUCT(AC5:AC9)*AC11*PRODUCT(AC13:AC19)+AB10*AB13*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC12)*PRODUCT(AC14:AC19)+AB10*AB14*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC13)*PRODUCT(AC15:AC19)+AB10*AB15*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC14)*PRODUCT(AC16:AC19)+AB10*AB16*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC15)*PRODUCT(AC17:AC19)+AB10*AB17*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC16)*PRODUCT(AC18:AC19)+AB10*AB18*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC17)*PRODUCT(AC19)+AB10*AB19*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC18)</f>
-        <v>1.0373709569278562E-2</v>
+        <v>4.6043016145690873E-3</v>
       </c>
       <c r="BH10">
         <v>0</v>
@@ -7235,7 +7242,7 @@
       </c>
       <c r="BJ10" s="107">
         <f t="shared" si="0"/>
-        <v>4.2203937789565393E-5</v>
+        <v>1.5112699918308829E-5</v>
       </c>
       <c r="BL10">
         <f>BH44+1</f>
@@ -7246,7 +7253,7 @@
       </c>
       <c r="BN10" s="107">
         <f>$H$31*H45</f>
-        <v>9.9074631376745844E-4</v>
+        <v>3.9229776152042718E-4</v>
       </c>
       <c r="BP10">
         <f>BP7+1</f>
@@ -7257,7 +7264,7 @@
       </c>
       <c r="BR10" s="107">
         <f>$H$29*H39</f>
-        <v>1.809956696595702E-2</v>
+        <v>2.3843905669524188E-2</v>
       </c>
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.25">
@@ -7265,29 +7272,27 @@
         <v>6</v>
       </c>
       <c r="B11" s="168">
-        <v>10.75</v>
+        <v>12.25</v>
       </c>
       <c r="C11" s="169">
-        <v>17.25</v>
+        <v>10</v>
       </c>
       <c r="E11" s="192" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="167" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G11" s="167"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="166" t="s">
-        <v>16</v>
-      </c>
+      <c r="J11" s="166"/>
       <c r="K11" s="166"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="O11" s="67">
         <f>IF(COUNTA(F16:F18)=0,0,COUNTIF(F14:F15,"RAP")*0.035)+IF(COUNTA(F17:F18)=0,0,COUNTIF(F16:F16,"RAP")*0.035)+IF(COUNTA(F16:F17)=0,0,COUNTIF(F18:F18,"RAP")*0.035)+IF(COUNTA(F16,F18)=0,0,COUNTIF(F17:F17,"RAP")*0.035)</f>
-        <v>3.5000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="P11" s="16" t="str">
         <f>R3</f>
@@ -7295,23 +7300,23 @@
       </c>
       <c r="Q11" s="16">
         <f t="shared" si="1"/>
-        <v>2.52E-2</v>
+        <v>0</v>
       </c>
       <c r="R11" s="157">
         <f t="shared" si="6"/>
-        <v>2.9228888504753674E-2</v>
+        <v>0</v>
       </c>
       <c r="S11" s="176">
         <f t="shared" si="2"/>
-        <v>0.97077111149524631</v>
+        <v>1</v>
       </c>
       <c r="T11" s="177">
         <f>R11*PRODUCT(S5:S10)*PRODUCT(S12:S19)</f>
-        <v>2.2331034828710222E-2</v>
+        <v>0</v>
       </c>
       <c r="U11" s="177">
         <f>R11*R12*PRODUCT(S5:S10)*PRODUCT(S13:S19)+R11*R13*PRODUCT(S5:S10)*S12*PRODUCT(S14:S19)+R11*R14*PRODUCT(S5:S10)*PRODUCT(S12:S13)*PRODUCT(S15:S19)+R11*R15*PRODUCT(S5:S10)*PRODUCT(S12:S14)*PRODUCT(S16:S19)+R11*R16*PRODUCT(S5:S10)*PRODUCT(S12:S15)*PRODUCT(S17:S19)+R11*R17*PRODUCT(S5:S10)*PRODUCT(S12:S16)*PRODUCT(S18:S19)+R11*R18*PRODUCT(S5:S10)*PRODUCT(S12:S17)*PRODUCT(S19)+R11*R19*PRODUCT(S5:S10)*PRODUCT(S12:S18)</f>
-        <v>3.5927537286678008E-3</v>
+        <v>0</v>
       </c>
       <c r="W11" s="186" t="s">
         <v>48</v>
@@ -7333,19 +7338,19 @@
       </c>
       <c r="AB11" s="157">
         <f t="shared" si="4"/>
-        <v>2.4898682800345722E-2</v>
+        <v>1.4885082108902334E-2</v>
       </c>
       <c r="AC11" s="176">
         <f t="shared" si="5"/>
-        <v>0.97510131719965432</v>
+        <v>0.98511491789109762</v>
       </c>
       <c r="AD11" s="177">
         <f>AB11*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC19)</f>
-        <v>1.8825587697580692E-2</v>
+        <v>1.2482036277841E-2</v>
       </c>
       <c r="AE11" s="177">
         <f>AB11*AB12*PRODUCT(AC5:AC10)*PRODUCT(AC13:AC19)+AB11*AB13*PRODUCT(AC5:AC10)*AC12*PRODUCT(AC14:AC19)+AB11*AB14*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC13)*PRODUCT(AC15:AC19)+AB11*AB15*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC14)*PRODUCT(AC16:AC19)+AB11*AB16*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC15)*PRODUCT(AC17:AC19)+AB11*AB17*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC16)*PRODUCT(AC18:AC19)+AB11*AB18*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC17)*PRODUCT(AC19)+AB11*AB19*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC18)</f>
-        <v>3.9977351252292277E-3</v>
+        <v>1.8257177474459759E-3</v>
       </c>
       <c r="BH11">
         <v>0</v>
@@ -7355,7 +7360,7 @@
       </c>
       <c r="BJ11" s="107">
         <f t="shared" si="0"/>
-        <v>6.8651727186838913E-6</v>
+        <v>1.8065124094433229E-6</v>
       </c>
       <c r="BL11">
         <f>BH50+1</f>
@@ -7366,7 +7371,7 @@
       </c>
       <c r="BN11" s="107">
         <f>$H$32*H46</f>
-        <v>7.5609863866531478E-5</v>
+        <v>2.167753605851336E-5</v>
       </c>
       <c r="BP11">
         <f>BP8+1</f>
@@ -7377,7 +7382,7 @@
       </c>
       <c r="BR11" s="107">
         <f>$H$29*H40</f>
-        <v>5.1035676839927019E-2</v>
+        <v>6.0588436452135228E-2</v>
       </c>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.25">
@@ -7385,22 +7390,22 @@
         <v>7</v>
       </c>
       <c r="B12" s="168">
-        <v>17</v>
+        <v>13.25</v>
       </c>
       <c r="C12" s="169">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="E12" s="192" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="167" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="G12" s="167"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="166" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="K12" s="166"/>
       <c r="L12" s="10"/>
@@ -7467,7 +7472,7 @@
       </c>
       <c r="BJ12" s="107">
         <f t="shared" si="0"/>
-        <v>8.3877943097604384E-7</v>
+        <v>1.6412655329534145E-7</v>
       </c>
       <c r="BL12">
         <f>BH54+1</f>
@@ -7478,7 +7483,7 @@
       </c>
       <c r="BN12" s="107">
         <f>$H$33*H47</f>
-        <v>3.2030085219517139E-6</v>
+        <v>6.6000763834077787E-7</v>
       </c>
       <c r="BP12">
         <f>BP9+1</f>
@@ -7489,7 +7494,7 @@
       </c>
       <c r="BR12" s="107">
         <f>$H$29*H41</f>
-        <v>6.6132684579626344E-2</v>
+        <v>6.8448661374377176E-2</v>
       </c>
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.25">
@@ -7497,23 +7502,21 @@
         <v>8</v>
       </c>
       <c r="B13" s="168">
-        <v>13</v>
+        <v>10.75</v>
       </c>
       <c r="C13" s="169">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="E13" s="192" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="167" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G13" s="167"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
-      <c r="J13" s="166" t="s">
-        <v>131</v>
-      </c>
+      <c r="J13" s="166"/>
       <c r="K13" s="166"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
@@ -7530,19 +7533,19 @@
       </c>
       <c r="R13" s="157">
         <f t="shared" si="6"/>
-        <v>4.5235184590690224E-2</v>
+        <v>6.0732423756019276E-2</v>
       </c>
       <c r="S13" s="176">
         <f t="shared" si="2"/>
-        <v>0.9547648154093098</v>
+        <v>0.93926757624398072</v>
       </c>
       <c r="T13" s="177">
         <f>R13*PRODUCT(S5:S12)*PRODUCT(S14:S19)</f>
-        <v>3.5139319997873605E-2</v>
+        <v>3.7795887878560579E-2</v>
       </c>
       <c r="U13" s="177">
         <f>R13*R14*PRODUCT(S5:S12)*PRODUCT(S15:S19)+R13*R15*PRODUCT(S5:S12)*S14*PRODUCT(S16:S19)+R13*R16*PRODUCT(S5:S12)*PRODUCT(S14:S15)*PRODUCT(S17:S19)+R13*R17*PRODUCT(S5:S12)*PRODUCT(S14:S16)*PRODUCT(S18:S19)+R13*R18*PRODUCT(S5:S12)*PRODUCT(S14:S17)*PRODUCT(S19)+R13*R19*PRODUCT(S5:S12)*PRODUCT(S14:S18)</f>
-        <v>3.9885860243580023E-3</v>
+        <v>2.1101401483463133E-2</v>
       </c>
       <c r="W13" s="186" t="s">
         <v>52</v>
@@ -7563,19 +7566,19 @@
       </c>
       <c r="AB13" s="157">
         <f t="shared" si="4"/>
-        <v>3.8533675762439809E-2</v>
+        <v>2.3036436597110761E-2</v>
       </c>
       <c r="AC13" s="176">
         <f t="shared" si="5"/>
-        <v>0.96146632423756018</v>
+        <v>0.97696356340288926</v>
       </c>
       <c r="AD13" s="177">
         <f>AB13*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC19)</f>
-        <v>2.9548012545890595E-2</v>
+        <v>1.9478613299617656E-2</v>
       </c>
       <c r="AE13" s="177">
         <f>AB13*AB14*PRODUCT(AC5:AC12)*PRODUCT(AC15:AC19)+AB13*AB15*PRODUCT(AC5:AC12)*AC14*PRODUCT(AC16:AC19)+AB13*AB16*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC15)*PRODUCT(AC17:AC19)+AB13*AB17*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC16)*PRODUCT(AC18:AC19)+AB13*AB18*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC17)*PRODUCT(AC19)+AB13*AB19*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC18)</f>
-        <v>5.0904851681145549E-3</v>
+        <v>2.389791981577898E-3</v>
       </c>
       <c r="BH13">
         <v>0</v>
@@ -7585,7 +7588,7 @@
       </c>
       <c r="BJ13" s="107">
         <f t="shared" si="0"/>
-        <v>7.5344253375357576E-8</v>
+        <v>1.1258393267030424E-8</v>
       </c>
       <c r="BL13">
         <f>BH57+1</f>
@@ -7596,7 +7599,7 @@
       </c>
       <c r="BN13" s="107">
         <f>$H$34*H48</f>
-        <v>7.4073878423684477E-8</v>
+        <v>1.1021177306831036E-8</v>
       </c>
       <c r="BP13">
         <f>BL7+1</f>
@@ -7607,7 +7610,7 @@
       </c>
       <c r="BR13" s="107">
         <f>$H$29*H42</f>
-        <v>5.2170207376864064E-2</v>
+        <v>4.5419806004869744E-2</v>
       </c>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.25">
@@ -7615,7 +7618,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="168">
-        <v>11</v>
+        <v>8.75</v>
       </c>
       <c r="C14" s="169">
         <v>9</v>
@@ -7624,43 +7627,43 @@
         <v>20</v>
       </c>
       <c r="F14" s="167" t="s">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="G14" s="167"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="166" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="K14" s="166"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="O14" s="67">
         <f>COUNTIF(F6:F18,"CAB")*0.071</f>
-        <v>7.0999999999999994E-2</v>
+        <v>0.21299999999999997</v>
       </c>
       <c r="P14" s="144">
         <v>0.95</v>
       </c>
       <c r="Q14" s="16">
         <f t="shared" si="1"/>
-        <v>6.7449999999999996E-2</v>
+        <v>0.20234999999999995</v>
       </c>
       <c r="R14" s="157">
         <f t="shared" si="6"/>
-        <v>7.8233671811334726E-2</v>
+        <v>0.31510784479565374</v>
       </c>
       <c r="S14" s="176">
         <f t="shared" si="2"/>
-        <v>0.92176632818866522</v>
+        <v>0.68489215520434632</v>
       </c>
       <c r="T14" s="177">
         <f>R14*PRODUCT(S5:S13)*PRODUCT(S15:S19)</f>
-        <v>6.2948627682954936E-2</v>
+        <v>0.26893683684171932</v>
       </c>
       <c r="U14" s="177">
         <f>R14*R15*PRODUCT(S5:S13)*PRODUCT(S16:S19)+R14*R16*PRODUCT(S5:S13)*S15*PRODUCT(S17:S19)+R14*R17*PRODUCT(S5:S13)*PRODUCT(S15:S16)*PRODUCT(S18:S19)+R14*R18*PRODUCT(S5:S13)*PRODUCT(S15:S17)*PRODUCT(S19)+R14*R19*PRODUCT(S5:S13)*PRODUCT(S15:S18)</f>
-        <v>1.8024789292647502E-3</v>
+        <v>2.6413626846418965E-2</v>
       </c>
       <c r="W14" s="186" t="s">
         <v>54</v>
@@ -7670,30 +7673,30 @@
       </c>
       <c r="Y14" s="69">
         <f>COUNTIF(J6:J18,"CAB")*0.071</f>
-        <v>7.0999999999999994E-2</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="Z14" s="147">
         <v>0.95</v>
       </c>
       <c r="AA14" s="19">
         <f t="shared" si="3"/>
-        <v>6.7449999999999996E-2</v>
+        <v>0.13489999999999999</v>
       </c>
       <c r="AB14" s="157">
         <f t="shared" si="4"/>
-        <v>6.6643498209655511E-2</v>
+        <v>7.9682443511544632E-2</v>
       </c>
       <c r="AC14" s="176">
         <f t="shared" si="5"/>
-        <v>0.93335650179034446</v>
+        <v>0.92031755648845537</v>
       </c>
       <c r="AD14" s="177">
         <f>AB14*PRODUCT(AC5:AC13)*PRODUCT(AC15:AC19)</f>
-        <v>5.2641971060356806E-2</v>
+        <v>7.152305199846537E-2</v>
       </c>
       <c r="AE14" s="177">
         <f>AB14*AB15*PRODUCT(AC5:AC13)*PRODUCT(AC16:AC19)+AB14*AB16*PRODUCT(AC5:AC13)*AC15*PRODUCT(AC17:AC19)+AB14*AB17*PRODUCT(AC5:AC13)*PRODUCT(AC15:AC16)*PRODUCT(AC18:AC19)+AB14*AB18*PRODUCT(AC5:AC13)*PRODUCT(AC15:AC17)*PRODUCT(AC19)+AB14*AB19*PRODUCT(AC5:AC13)*PRODUCT(AC15:AC18)</f>
-        <v>5.3103353143362543E-3</v>
+        <v>2.5824490205440019E-3</v>
       </c>
       <c r="BH14">
         <v>1</v>
@@ -7703,7 +7706,7 @@
       </c>
       <c r="BJ14" s="107">
         <f t="shared" ref="BJ14:BJ22" si="7">$H$26*H41</f>
-        <v>2.1517623110722153E-2</v>
+        <v>2.4779715356238127E-2</v>
       </c>
       <c r="BL14">
         <f>BP39+1</f>
@@ -7714,7 +7717,7 @@
       </c>
       <c r="BN14" s="107">
         <f>$H$35*H49</f>
-        <v>8.9667612544956982E-10</v>
+        <v>9.7075244288676208E-11</v>
       </c>
       <c r="BP14">
         <f>BP10+1</f>
@@ -7725,7 +7728,7 @@
       </c>
       <c r="BR14" s="107">
         <f>$H$30*H39</f>
-        <v>1.2041528078712954E-2</v>
+        <v>1.5437520106618793E-2</v>
       </c>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.25">
@@ -7733,22 +7736,22 @@
         <v>71</v>
       </c>
       <c r="B15" s="170">
-        <v>9</v>
+        <v>7.75</v>
       </c>
       <c r="C15" s="171">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="E15" s="192" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="167" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G15" s="167"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="166" t="s">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="K15" s="166"/>
       <c r="L15" s="10"/>
@@ -7815,7 +7818,7 @@
       </c>
       <c r="BJ15" s="107">
         <f t="shared" si="7"/>
-        <v>1.6974645246586786E-2</v>
+        <v>1.6442832361328534E-2</v>
       </c>
       <c r="BP15">
         <f>BP11+1</f>
@@ -7826,7 +7829,7 @@
       </c>
       <c r="BR15" s="107">
         <f>$H$30*H40</f>
-        <v>3.395371485074683E-2</v>
+        <v>3.9227432742024324E-2</v>
       </c>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.25">
@@ -7850,9 +7853,7 @@
       <c r="G16" s="167"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="166" t="s">
-        <v>123</v>
-      </c>
+      <c r="J16" s="166"/>
       <c r="K16" s="166"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
@@ -7924,7 +7925,7 @@
       </c>
       <c r="BJ16" s="107">
         <f t="shared" si="7"/>
-        <v>9.1032882528185848E-3</v>
+        <v>7.1446172395975742E-3</v>
       </c>
       <c r="BP16">
         <f>BP12+1</f>
@@ -7935,7 +7936,7 @@
       </c>
       <c r="BR16" s="107">
         <f>$H$30*H41</f>
-        <v>4.3997659158589227E-2</v>
+        <v>4.4316463958699058E-2</v>
       </c>
     </row>
     <row r="17" spans="1:70" x14ac:dyDescent="0.25">
@@ -7946,7 +7947,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="173" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="E17" s="192" t="s">
         <v>22</v>
@@ -7975,19 +7976,19 @@
       </c>
       <c r="R17" s="157">
         <f t="shared" si="6"/>
-        <v>2.7837036671193978E-2</v>
+        <v>3.7373799234473391E-2</v>
       </c>
       <c r="S17" s="176">
         <f t="shared" si="2"/>
-        <v>0.97216296332880603</v>
+        <v>0.96262620076552663</v>
       </c>
       <c r="T17" s="177">
         <f>R17*PRODUCT(S5:S16)*PRODUCT(S18:S19)</f>
-        <v>2.1237203186276723E-2</v>
+        <v>2.269461602274353E-2</v>
       </c>
       <c r="U17" s="177">
         <f>R17*R18*PRODUCT(S5:S16)*S19+R17*R19*PRODUCT(S5:S16)*S18</f>
-        <v>0</v>
+        <v>1.3478367018499094E-3</v>
       </c>
       <c r="W17" s="186" t="s">
         <v>60</v>
@@ -8009,19 +8010,19 @@
       </c>
       <c r="AB17" s="157">
         <f t="shared" si="4"/>
-        <v>2.3713031238424498E-2</v>
+        <v>1.4176268675145083E-2</v>
       </c>
       <c r="AC17" s="176">
         <f t="shared" si="5"/>
-        <v>0.9762869687615755</v>
+        <v>0.9858237313248549</v>
       </c>
       <c r="AD17" s="177">
         <f>AB17*PRODUCT(AC5:AC16)*PRODUCT(AC18:AC19)</f>
-        <v>1.7907357109944344E-2</v>
+        <v>1.1879106300594062E-2</v>
       </c>
       <c r="AE17" s="177">
         <f>AB17*AB18*PRODUCT(AC5:AC16)*AC19+AB17*AB19*PRODUCT(AC5:AC16)*AC18</f>
-        <v>1.3714789232896225E-3</v>
+        <v>2.5809023865515704E-4</v>
       </c>
       <c r="BH17">
         <v>1</v>
@@ -8031,7 +8032,7 @@
       </c>
       <c r="BJ17" s="107">
         <f t="shared" si="7"/>
-        <v>3.5096451423981905E-3</v>
+        <v>2.1511315965874315E-3</v>
       </c>
       <c r="BP17">
         <f>BP13+1</f>
@@ -8042,7 +8043,7 @@
       </c>
       <c r="BR17" s="107">
         <f>$H$30*H42</f>
-        <v>3.4708510882186711E-2</v>
+        <v>2.9406640764188769E-2</v>
       </c>
     </row>
     <row r="18" spans="1:70" x14ac:dyDescent="0.25">
@@ -8059,13 +8060,13 @@
         <v>22</v>
       </c>
       <c r="F18" s="167" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="G18" s="167"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="166" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="K18" s="166"/>
       <c r="L18" s="10"/>
@@ -8136,7 +8137,7 @@
       </c>
       <c r="BJ18" s="107">
         <f t="shared" si="7"/>
-        <v>1.0029176333452309E-3</v>
+        <v>4.6484558771799951E-4</v>
       </c>
       <c r="BP18">
         <f>BL8+1</f>
@@ -8147,7 +8148,7 @@
       </c>
       <c r="BR18" s="107">
         <f>$H$30*H43</f>
-        <v>1.8613736829060916E-2</v>
+        <v>1.277755486071868E-2</v>
       </c>
     </row>
     <row r="19" spans="1:70" x14ac:dyDescent="0.25">
@@ -8159,7 +8160,7 @@
       </c>
       <c r="O19" s="67">
         <f>COUNTIF(F14:F18,"TEC")*0.06*IF(COUNTIF(J6:J13,"CAB")&lt;&gt;0,1,0)</f>
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="P19" s="16" t="str">
         <f>P3</f>
@@ -8167,19 +8168,19 @@
       </c>
       <c r="Q19" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="R19" s="157">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5.6060698851710083E-2</v>
       </c>
       <c r="S19" s="178">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.94393930114828994</v>
       </c>
       <c r="T19" s="179">
         <f>R19*PRODUCT(S5:S18)</f>
-        <v>0</v>
+        <v>3.4715842385040253E-2</v>
       </c>
       <c r="U19" s="179">
         <v>0</v>
@@ -8195,7 +8196,7 @@
       </c>
       <c r="Y19" s="69">
         <f>COUNTIF(J14:J18,"TEC")*0.06*IF(COUNTIF(F6:F13,"CAB")&lt;&gt;0,1,0)</f>
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="Z19" s="146" t="str">
         <f>Z3</f>
@@ -8203,19 +8204,19 @@
       </c>
       <c r="AA19" s="19">
         <f t="shared" si="3"/>
-        <v>7.1999999999999995E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="AB19" s="157">
         <f t="shared" si="4"/>
-        <v>7.113909371527348E-2</v>
+        <v>2.1264403012717623E-2</v>
       </c>
       <c r="AC19" s="178">
         <f t="shared" si="5"/>
-        <v>0.92886090628472651</v>
+        <v>0.97873559698728241</v>
       </c>
       <c r="AD19" s="179">
         <f>AB19*PRODUCT(AC5:AC18)</f>
-        <v>5.6465029176412267E-2</v>
+        <v>1.7947704570218669E-2</v>
       </c>
       <c r="AE19" s="179">
         <v>0</v>
@@ -8231,7 +8232,7 @@
       </c>
       <c r="BJ19" s="107">
         <f t="shared" si="7"/>
-        <v>2.1575730959824151E-4</v>
+        <v>7.3966939589072876E-5</v>
       </c>
       <c r="BP19">
         <f>BP15+1</f>
@@ -8242,7 +8243,7 @@
       </c>
       <c r="BR19" s="107">
         <f>$H$31*H40</f>
-        <v>1.640397959711018E-2</v>
+        <v>1.8510929055293432E-2</v>
       </c>
     </row>
     <row r="20" spans="1:70" x14ac:dyDescent="0.25">
@@ -8259,19 +8260,19 @@
       <c r="Q20" s="22"/>
       <c r="S20" s="180">
         <f>PRODUCT(S5:S19)</f>
-        <v>0.74167457643763623</v>
+        <v>0.58453869949766901</v>
       </c>
       <c r="T20" s="181">
         <f>SUM(T5:T19)</f>
-        <v>0.22755685359834157</v>
+        <v>0.36414318312806371</v>
       </c>
       <c r="U20" s="181">
         <f>SUM(U5:U19)</f>
-        <v>2.8734963704314866E-2</v>
+        <v>4.8862865031732004E-2</v>
       </c>
       <c r="V20" s="181">
         <f>1-S20-T20-U20</f>
-        <v>2.0336062597073254E-3</v>
+        <v>2.455252342535276E-3</v>
       </c>
       <c r="W20" s="21"/>
       <c r="X20" s="22"/>
@@ -8281,19 +8282,19 @@
       <c r="AB20" s="23"/>
       <c r="AC20" s="184">
         <f>PRODUCT(AC5:AC19)</f>
-        <v>0.73726210772537948</v>
+        <v>0.82607808630125179</v>
       </c>
       <c r="AD20" s="181">
         <f>SUM(AD5:AD19)</f>
-        <v>0.23089750374896031</v>
+        <v>0.16184174075505683</v>
       </c>
       <c r="AE20" s="181">
         <f>SUM(AE5:AE19)</f>
-        <v>2.9724015318183993E-2</v>
+        <v>1.1660350602792122E-2</v>
       </c>
       <c r="AF20" s="181">
         <f>1-AC20-AD20-AE20</f>
-        <v>2.1163732074762145E-3</v>
+        <v>4.1982234089925352E-4</v>
       </c>
       <c r="BH20">
         <v>1</v>
@@ -8303,7 +8304,7 @@
       </c>
       <c r="BJ20" s="107">
         <f t="shared" si="7"/>
-        <v>3.5096516422140596E-5</v>
+        <v>8.841715575542084E-6</v>
       </c>
       <c r="BP20">
         <f>BP16+1</f>
@@ -8314,7 +8315,7 @@
       </c>
       <c r="BR20" s="107">
         <f>$H$31*H41</f>
-        <v>2.125648714229661E-2</v>
+        <v>2.0912378480535076E-2</v>
       </c>
     </row>
     <row r="21" spans="1:70" x14ac:dyDescent="0.25">
@@ -8333,19 +8334,19 @@
       <c r="Q21" s="22"/>
       <c r="S21" s="182">
         <f>1-T21-U21-V21</f>
-        <v>0.74167457643763635</v>
+        <v>0.58453869949766901</v>
       </c>
       <c r="T21" s="183">
         <f>T20*V1</f>
-        <v>0.22755685359834157</v>
+        <v>0.36414318312806371</v>
       </c>
       <c r="U21" s="183">
         <f>U20*V1</f>
-        <v>2.8734963704314866E-2</v>
+        <v>4.8862865031732004E-2</v>
       </c>
       <c r="V21" s="183">
         <f>V20*V1</f>
-        <v>2.0336062597073254E-3</v>
+        <v>2.455252342535276E-3</v>
       </c>
       <c r="W21" s="21"/>
       <c r="X21" s="22"/>
@@ -8355,19 +8356,19 @@
       <c r="AB21" s="23"/>
       <c r="AC21" s="185">
         <f>1-AD21-AE21-AF21</f>
-        <v>0.73726210772537937</v>
+        <v>0.82607808630125179</v>
       </c>
       <c r="AD21" s="183">
         <f>AD20*V1</f>
-        <v>0.23089750374896031</v>
+        <v>0.16184174075505683</v>
       </c>
       <c r="AE21" s="183">
         <f>AE20*V1</f>
-        <v>2.9724015318183993E-2</v>
+        <v>1.1660350602792122E-2</v>
       </c>
       <c r="AF21" s="183">
         <f>AF20*V1</f>
-        <v>2.1163732074762145E-3</v>
+        <v>4.1982234089925352E-4</v>
       </c>
       <c r="BH21" s="18">
         <v>1</v>
@@ -8377,7 +8378,7 @@
       </c>
       <c r="BJ21" s="107">
         <f t="shared" si="7"/>
-        <v>4.288054689969696E-6</v>
+        <v>8.0329384677663733E-7</v>
       </c>
       <c r="BP21">
         <f>BP17+1</f>
@@ -8388,7 +8389,7 @@
       </c>
       <c r="BR21" s="107">
         <f>$H$31*H42</f>
-        <v>1.6768642455184668E-2</v>
+        <v>1.3876621611213481E-2</v>
       </c>
     </row>
     <row r="22" spans="1:70" x14ac:dyDescent="0.25">
@@ -8397,11 +8398,11 @@
       </c>
       <c r="B22" s="62">
         <f>(B6)/((B6)+(C6))</f>
-        <v>0.54</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="C22" s="63">
         <f>1-B22</f>
-        <v>0.45999999999999996</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
@@ -8421,7 +8422,7 @@
       </c>
       <c r="BJ22" s="107">
         <f t="shared" si="7"/>
-        <v>3.8517906748442255E-7</v>
+        <v>5.5102589157057258E-8</v>
       </c>
       <c r="BP22">
         <f>BP18+1</f>
@@ -8432,7 +8433,7 @@
       </c>
       <c r="BR22" s="107">
         <f>$H$31*H43</f>
-        <v>8.9928115527888267E-3</v>
+        <v>6.0295664282280391E-3</v>
       </c>
     </row>
     <row r="23" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8441,11 +8442,11 @@
       </c>
       <c r="B23" s="56">
         <f>((B22^2.8)/((B22^2.8)+(C22^2.8)))*B21</f>
-        <v>3.0519589915804435</v>
+        <v>4.6893322789493048</v>
       </c>
       <c r="C23" s="57">
         <f>B21-B23</f>
-        <v>1.9480410084195565</v>
+        <v>0.31066772105069518</v>
       </c>
       <c r="D23" s="151">
         <f>SUM(D25:D30)</f>
@@ -8457,11 +8458,11 @@
       </c>
       <c r="H23" s="59">
         <f>SUM(H25:H35)</f>
-        <v>0.99998292892099783</v>
+        <v>0.9999871865849127</v>
       </c>
       <c r="J23" s="59">
         <f>SUM(J25:J35)</f>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="K23" s="59"/>
       <c r="L23" s="59">
@@ -8479,69 +8480,69 @@
       </c>
       <c r="R23" s="59">
         <f>SUM(R25:R35)</f>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="T23" s="59">
         <f>SUM(T25:T35)</f>
-        <v>1</v>
+        <v>1.0050760126517704</v>
       </c>
       <c r="V23" s="59">
         <f>SUM(V25:V34)</f>
-        <v>0.99259149374528632</v>
+        <v>0.47411340380807321</v>
       </c>
       <c r="Y23" s="80">
         <f>SUM(Y25:Y35)</f>
-        <v>8.0187004034813848E-5</v>
+        <v>8.5755359647577123E-13</v>
       </c>
       <c r="Z23" s="81"/>
       <c r="AA23" s="80">
         <f>SUM(AA25:AA35)</f>
-        <v>1.2566775708587185E-3</v>
+        <v>1.2944658762021439E-10</v>
       </c>
       <c r="AB23" s="81"/>
       <c r="AC23" s="80">
         <f>SUM(AC25:AC35)</f>
-        <v>8.8631305002636503E-3</v>
+        <v>8.7929715547280814E-9</v>
       </c>
       <c r="AD23" s="81"/>
       <c r="AE23" s="80">
         <f>SUM(AE25:AE35)</f>
-        <v>3.7046662639518724E-2</v>
+        <v>3.539495535519797E-7</v>
       </c>
       <c r="AF23" s="81"/>
       <c r="AG23" s="80">
         <f>SUM(AG25:AG35)</f>
-        <v>0.10163445157200952</v>
+        <v>9.3502387759839012E-6</v>
       </c>
       <c r="AH23" s="81"/>
       <c r="AI23" s="80">
         <f>SUM(AI25:AI35)</f>
-        <v>0.19123474705381099</v>
+        <v>1.6937788536577783E-4</v>
       </c>
       <c r="AJ23" s="81"/>
       <c r="AK23" s="80">
         <f>SUM(AK25:AK35)</f>
-        <v>0.2499627330210481</v>
+        <v>2.1308034058828457E-3</v>
       </c>
       <c r="AL23" s="81"/>
       <c r="AM23" s="80">
         <f>SUM(AM25:AM35)</f>
-        <v>0.22417147856758435</v>
+        <v>1.8382297760037417E-2</v>
       </c>
       <c r="AN23" s="81"/>
       <c r="AO23" s="80">
         <f>SUM(AO25:AO35)</f>
-        <v>0.13208702477427156</v>
+        <v>0.10408271775751167</v>
       </c>
       <c r="AP23" s="81"/>
       <c r="AQ23" s="80">
         <f>SUM(AQ25:AQ35)</f>
-        <v>4.6254401041885856E-2</v>
+        <v>0.34933849388767035</v>
       </c>
       <c r="AR23" s="81"/>
       <c r="AS23" s="80">
         <f>SUM(AS25:AS35)</f>
-        <v>7.4085062547136768E-3</v>
+        <v>0.52588659619192679</v>
       </c>
       <c r="BH23">
         <f t="shared" ref="BH23:BH30" si="8">BH15+1</f>
@@ -8552,7 +8553,7 @@
       </c>
       <c r="BJ23" s="107">
         <f t="shared" ref="BJ23:BJ30" si="9">$H$27*H42</f>
-        <v>3.9532223095844823E-2</v>
+        <v>3.6802455800197198E-2</v>
       </c>
       <c r="BP23">
         <f>BL9+1</f>
@@ -8563,7 +8564,7 @@
       </c>
       <c r="BR23" s="107">
         <f>$H$31*H44</f>
-        <v>3.4670523997716372E-3</v>
+        <v>1.8154073790823152E-3</v>
       </c>
     </row>
     <row r="24" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8572,11 +8573,11 @@
       </c>
       <c r="B24" s="64">
         <f>B23/B21</f>
-        <v>0.6103917983160887</v>
+        <v>0.93786645578986094</v>
       </c>
       <c r="C24" s="65">
         <f>C23/B21</f>
-        <v>0.3896082016839113</v>
+        <v>6.2133544210139037E-2</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>79</v>
@@ -8743,7 +8744,7 @@
       </c>
       <c r="BJ24" s="107">
         <f t="shared" si="9"/>
-        <v>2.1200632878532175E-2</v>
+        <v>1.5991129410770921E-2</v>
       </c>
       <c r="BP24">
         <f>BH49+1</f>
@@ -8754,7 +8755,7 @@
       </c>
       <c r="BR24" s="107">
         <f t="shared" ref="BR24:BR30" si="10">$H$32*H39</f>
-        <v>2.0637603591481895E-3</v>
+        <v>2.5297698742777321E-3</v>
       </c>
     </row>
     <row r="25" spans="1:70" x14ac:dyDescent="0.25">
@@ -8763,11 +8764,11 @@
       </c>
       <c r="B25" s="117">
         <f>1/(1+EXP(-3.1416*4*((B11/(B11+C8))-(3.1416/6))))</f>
-        <v>0.25617624216563017</v>
+        <v>0.28279256940107977</v>
       </c>
       <c r="C25" s="118">
         <f>1/(1+EXP(-3.1416*4*((C11/(C11+B8))-(3.1416/6))))</f>
-        <v>0.58828635588143896</v>
+        <v>0.30957395125511972</v>
       </c>
       <c r="D25" s="153">
         <f>IF(B17="AOW", 0.36-0.08, IF(B17="AIM", 0.36+0.08, IF(B17="TL",(0.361)-(0.36*B32),0.36)))</f>
@@ -8782,137 +8783,137 @@
       </c>
       <c r="H25" s="127">
         <f>L25*J25</f>
-        <v>1.4642898846447353E-2</v>
+        <v>1.6678990383695198E-2</v>
       </c>
       <c r="I25" s="97">
         <v>0</v>
       </c>
       <c r="J25" s="98">
         <f t="shared" ref="J25:J35" si="11">Y25+AA25+AC25+AE25+AG25+AI25+AK25+AM25+AO25+AQ25+AS25</f>
-        <v>1.9743023843124277E-2</v>
+        <v>2.853359477829014E-2</v>
       </c>
       <c r="K25" s="97">
         <v>0</v>
       </c>
       <c r="L25" s="98">
         <f>S21</f>
-        <v>0.74167457643763635</v>
+        <v>0.58453869949766901</v>
       </c>
       <c r="M25" s="84">
         <v>0</v>
       </c>
       <c r="N25" s="71">
         <f>(1-$B$24)^$B$21</f>
-        <v>8.9771907523363351E-3</v>
+        <v>9.2604189779716298E-7</v>
       </c>
       <c r="O25" s="70">
         <v>0</v>
       </c>
       <c r="P25" s="71">
         <f>N25</f>
-        <v>8.9771907523363351E-3</v>
+        <v>9.2604189779716298E-7</v>
       </c>
       <c r="Q25" s="12">
         <v>0</v>
       </c>
       <c r="R25" s="73">
         <f>P25*N25</f>
-        <v>8.0589953803833017E-5</v>
+        <v>8.5755359647577123E-13</v>
       </c>
       <c r="S25" s="70">
         <v>0</v>
       </c>
       <c r="T25" s="135">
         <f>(1-$B$33)^(INT(C23*2*(1-C31)))</f>
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="U25" s="140">
         <v>0</v>
       </c>
       <c r="V25" s="86">
         <f>R25*T25</f>
-        <v>8.0187004034813848E-5</v>
+        <v>8.5755359647577123E-13</v>
       </c>
       <c r="W25" s="136">
         <f>B31</f>
-        <v>0.53154530578560644</v>
+        <v>0.31914375977506182</v>
       </c>
       <c r="X25" s="12">
         <v>0</v>
       </c>
       <c r="Y25" s="79">
         <f>V25</f>
-        <v>8.0187004034813848E-5</v>
+        <v>8.5755359647577123E-13</v>
       </c>
       <c r="Z25" s="12">
         <v>0</v>
       </c>
       <c r="AA25" s="78">
         <f>((1-W25)^Z26)*V26</f>
-        <v>5.8869650718270782E-4</v>
+        <v>8.8134516957047199E-11</v>
       </c>
       <c r="AB25" s="12">
         <v>0</v>
       </c>
       <c r="AC25" s="79">
         <f>(((1-$W$25)^AB27))*V27</f>
-        <v>1.9450122203675205E-3</v>
+        <v>4.0761157919307978E-9</v>
       </c>
       <c r="AD25" s="12">
         <v>0</v>
       </c>
       <c r="AE25" s="79">
         <f>(((1-$W$25)^AB28))*V28</f>
-        <v>3.8084817266883747E-3</v>
+        <v>1.1171400855953957E-7</v>
       </c>
       <c r="AF25" s="12">
         <v>0</v>
       </c>
       <c r="AG25" s="79">
         <f>(((1-$W$25)^AB29))*V29</f>
-        <v>4.8945337654671753E-3</v>
+        <v>2.0092981783073814E-6</v>
       </c>
       <c r="AH25" s="12">
         <v>0</v>
       </c>
       <c r="AI25" s="79">
         <f>(((1-$W$25)^AB30))*V30</f>
-        <v>4.3142447751202484E-3</v>
+        <v>2.4781855350866764E-5</v>
       </c>
       <c r="AJ25" s="12">
         <v>0</v>
       </c>
       <c r="AK25" s="79">
         <f>(((1-$W$25)^AB31))*V31</f>
-        <v>2.6416838173534359E-3</v>
+        <v>2.1226379067066238E-4</v>
       </c>
       <c r="AL25" s="12">
         <v>0</v>
       </c>
       <c r="AM25" s="79">
         <f>(((1-$W$25)^AB32))*V32</f>
-        <v>1.1098224937786359E-3</v>
+        <v>1.2467740438750208E-3</v>
       </c>
       <c r="AN25" s="12">
         <v>0</v>
       </c>
       <c r="AO25" s="79">
         <f>(((1-$W$25)^AB33))*V33</f>
-        <v>3.0633803315454749E-4</v>
+        <v>4.8064231382687261E-3</v>
       </c>
       <c r="AP25" s="12">
         <v>0</v>
       </c>
       <c r="AQ25" s="79">
         <f>(((1-$W$25)^AB34))*V34</f>
-        <v>5.025293348243874E-5</v>
+        <v>1.0983613537368682E-2</v>
       </c>
       <c r="AR25" s="12">
         <v>0</v>
       </c>
       <c r="AS25" s="79">
         <f>(((1-$W$25)^AB35))*V35</f>
-        <v>3.7705664943768735E-6</v>
+        <v>1.1257613235461452E-2</v>
       </c>
       <c r="AV25" s="14">
         <v>1</v>
@@ -8957,7 +8958,7 @@
       </c>
       <c r="BJ25" s="107">
         <f t="shared" si="9"/>
-        <v>8.1736067376389845E-3</v>
+        <v>4.8146769220859531E-3</v>
       </c>
       <c r="BP25">
         <f>BP19+1</f>
@@ -8968,7 +8969,7 @@
       </c>
       <c r="BR25" s="107">
         <f t="shared" si="10"/>
-        <v>5.8192224688381989E-3</v>
+        <v>6.4282590021360842E-3</v>
       </c>
     </row>
     <row r="26" spans="1:70" x14ac:dyDescent="0.25">
@@ -8977,11 +8978,11 @@
       </c>
       <c r="B26" s="119">
         <f>1/(1+EXP(-3.1416*4*((B10/(B10+C9))-(3.1416/6))))</f>
-        <v>0.82849870402811132</v>
+        <v>0.25188821013257229</v>
       </c>
       <c r="C26" s="120">
         <f>1/(1+EXP(-3.1416*4*((C10/(C10+B9))-(3.1416/6))))</f>
-        <v>0.48869216845731994</v>
+        <v>0.53466984178502042</v>
       </c>
       <c r="D26" s="153">
         <f>IF(B17="AOW", 0.257+0.04, IF(B17="AIM", 0.257-0.04, IF(B17="TL",(0.257)-(0.257*B32),0.257)))</f>
@@ -8996,56 +8997,56 @@
       </c>
       <c r="H26" s="128">
         <f>L25*J26+L26*J25</f>
-        <v>7.4858238953470158E-2</v>
+        <v>8.1632923354939838E-2</v>
       </c>
       <c r="I26" s="93">
         <v>1</v>
       </c>
       <c r="J26" s="86">
         <f t="shared" si="11"/>
-        <v>9.4873925576884649E-2</v>
+        <v>0.12187834507366277</v>
       </c>
       <c r="K26" s="93">
         <v>1</v>
       </c>
       <c r="L26" s="86">
         <f>T21</f>
-        <v>0.22755685359834157</v>
+        <v>0.36414318312806371</v>
       </c>
       <c r="M26" s="85">
         <v>1</v>
       </c>
       <c r="N26" s="71">
         <f>(($B$24)^M26)*((1-($B$24))^($B$21-M26))*HLOOKUP($B$21,$AV$24:$BF$34,M26+1)</f>
-        <v>7.0321974530591788E-2</v>
+        <v>6.9890076579457223E-5</v>
       </c>
       <c r="O26" s="72">
         <v>1</v>
       </c>
       <c r="P26" s="71">
         <f t="shared" ref="P26:P30" si="12">N26</f>
-        <v>7.0321974530591788E-2</v>
+        <v>6.9890076579457223E-5</v>
       </c>
       <c r="Q26" s="28">
         <v>1</v>
       </c>
       <c r="R26" s="37">
         <f>N26*P25+P26*N25</f>
-        <v>1.2625875588841199E-3</v>
+        <v>1.2944227830565924E-10</v>
       </c>
       <c r="S26" s="72">
         <v>1</v>
       </c>
       <c r="T26" s="135">
         <f t="shared" ref="T26:T35" si="13">(($B$33)^S26)*((1-($B$33))^(INT($C$23*2*(1-$C$31))-S26))*HLOOKUP(INT($C$23*2*(1-$C$31)),$AV$24:$BF$34,S26+1)</f>
-        <v>5.0000000000000001E-3</v>
+        <v>5.0251256281407036E-3</v>
       </c>
       <c r="U26" s="93">
         <v>1</v>
       </c>
       <c r="V26" s="86">
         <f>R26*T25+T26*R25</f>
-        <v>1.2566775708587185E-3</v>
+        <v>1.2944658762021439E-10</v>
       </c>
       <c r="W26" s="137"/>
       <c r="X26" s="28">
@@ -9057,70 +9058,70 @@
       </c>
       <c r="AA26" s="79">
         <f>(1-((1-W25)^Z26))*V26</f>
-        <v>6.6798106367601064E-4</v>
+        <v>4.1312070663167192E-11</v>
       </c>
       <c r="AB26" s="28">
         <v>1</v>
       </c>
       <c r="AC26" s="79">
         <f>((($W$25)^M26)*((1-($W$25))^($U$27-M26))*HLOOKUP($U$27,$AV$24:$BF$34,M26+1))*V27</f>
-        <v>4.4139257358315059E-3</v>
+        <v>3.8212675224523875E-9</v>
       </c>
       <c r="AD26" s="28">
         <v>1</v>
       </c>
       <c r="AE26" s="79">
         <f>((($W$25)^M26)*((1-($W$25))^($U$28-M26))*HLOOKUP($U$28,$AV$24:$BF$34,M26+1))*V28</f>
-        <v>1.296420299973546E-2</v>
+        <v>1.5709408214921877E-7</v>
       </c>
       <c r="AF26" s="28">
         <v>1</v>
       </c>
       <c r="AG26" s="79">
         <f>((($W$25)^M26)*((1-($W$25))^($U$29-M26))*HLOOKUP($U$29,$AV$24:$BF$34,M26+1))*V29</f>
-        <v>2.2214882072267537E-2</v>
+        <v>3.7673443364334617E-6</v>
       </c>
       <c r="AH26" s="28">
         <v>1</v>
       </c>
       <c r="AI26" s="79">
         <f>((($W$25)^M26)*((1-($W$25))^($U$30-M26))*HLOOKUP($U$30,$AV$24:$BF$34,M26+1))*V30</f>
-        <v>2.4476396400200565E-2</v>
+        <v>5.8081089836706361E-5</v>
       </c>
       <c r="AJ26" s="28">
         <v>1</v>
       </c>
       <c r="AK26" s="79">
         <f>((($W$25)^M26)*((1-($W$25))^($U$31-M26))*HLOOKUP($U$31,$AV$24:$BF$34,M26+1))*V31</f>
-        <v>1.7984765440408425E-2</v>
+        <v>5.9697768970754851E-4</v>
       </c>
       <c r="AL26" s="28">
         <v>1</v>
       </c>
       <c r="AM26" s="79">
         <f>((($W$25)^Q26)*((1-($W$25))^($U$32-Q26))*HLOOKUP($U$32,$AV$24:$BF$34,Q26+1))*V32</f>
-        <v>8.8150393384109783E-3</v>
+        <v>4.0908798761180899E-3</v>
       </c>
       <c r="AN26" s="28">
         <v>1</v>
       </c>
       <c r="AO26" s="79">
         <f>((($W$25)^Q26)*((1-($W$25))^($U$33-Q26))*HLOOKUP($U$33,$AV$24:$BF$34,Q26+1))*V33</f>
-        <v>2.7807605818525199E-3</v>
+        <v>1.8023657398338975E-2</v>
       </c>
       <c r="AP26" s="28">
         <v>1</v>
       </c>
       <c r="AQ26" s="79">
         <f>((($W$25)^Q26)*((1-($W$25))^($U$34-Q26))*HLOOKUP($U$34,$AV$24:$BF$34,Q26+1))*V34</f>
-        <v>5.1318815035909435E-4</v>
+        <v>4.6336015766949915E-2</v>
       </c>
       <c r="AR26" s="28">
         <v>1</v>
       </c>
       <c r="AS26" s="79">
         <f>((($W$25)^Q26)*((1-($W$25))^($U$35-Q26))*HLOOKUP($U$35,$AV$24:$BF$34,Q26+1))*V35</f>
-        <v>4.278379414256141E-5</v>
+        <v>5.2768804951713363E-2</v>
       </c>
       <c r="AV26" s="14">
         <v>2</v>
@@ -9165,7 +9166,7 @@
       </c>
       <c r="BJ26" s="107">
         <f t="shared" si="9"/>
-        <v>2.3356932090308389E-3</v>
+        <v>1.0404204591991674E-3</v>
       </c>
       <c r="BP26">
         <f>BP20+1</f>
@@ -9176,7 +9177,7 @@
       </c>
       <c r="BR26" s="107">
         <f t="shared" si="10"/>
-        <v>7.5406231064085059E-3</v>
+        <v>7.2622062794376347E-3</v>
       </c>
     </row>
     <row r="27" spans="1:70" x14ac:dyDescent="0.25">
@@ -9185,11 +9186,11 @@
       </c>
       <c r="B27" s="119">
         <f>1/(1+EXP(-3.1416*4*((B12/(B12+C7))-(3.1416/6))))</f>
-        <v>0.51109362839484374</v>
+        <v>0.2543630711343593</v>
       </c>
       <c r="C27" s="120">
         <f>1/(1+EXP(-3.1416*4*((C12/(C12+B7))-(3.1416/6))))</f>
-        <v>0.35783179909605456</v>
+        <v>0.51825012882279253</v>
       </c>
       <c r="D27" s="153">
         <f>D26</f>
@@ -9204,56 +9205,56 @@
       </c>
       <c r="H27" s="128">
         <f>L25*J27+J26*L26+J25*L27</f>
-        <v>0.1743372282531615</v>
+        <v>0.18271134726622734</v>
       </c>
       <c r="I27" s="93">
         <v>2</v>
       </c>
       <c r="J27" s="86">
         <f t="shared" si="11"/>
-        <v>0.20518527400219294</v>
+        <v>0.23426326719493373</v>
       </c>
       <c r="K27" s="93">
         <v>2</v>
       </c>
       <c r="L27" s="86">
         <f>U21</f>
-        <v>2.8734963704314866E-2</v>
+        <v>4.8862865031732004E-2</v>
       </c>
       <c r="M27" s="85">
         <v>2</v>
       </c>
       <c r="N27" s="71">
         <f>(($B$24)^M27)*((1-($B$24))^($B$21-M27))*HLOOKUP($B$21,$AV$24:$BF$34,M27+1)</f>
-        <v>0.2203442140557928</v>
+        <v>2.1098927881780596E-3</v>
       </c>
       <c r="O27" s="72">
         <v>2</v>
       </c>
       <c r="P27" s="71">
         <f t="shared" si="12"/>
-        <v>0.2203442140557928</v>
+        <v>2.1098927881780596E-3</v>
       </c>
       <c r="Q27" s="28">
         <v>2</v>
       </c>
       <c r="R27" s="37">
         <f>P25*N27+P26*N26+P27*N25</f>
-        <v>8.9013241833861608E-3</v>
+        <v>8.7923210477083102E-9</v>
       </c>
       <c r="S27" s="72">
         <v>2</v>
       </c>
       <c r="T27" s="135">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>5.0503775157192999E-5</v>
       </c>
       <c r="U27" s="93">
         <v>2</v>
       </c>
       <c r="V27" s="86">
         <f>R27*T25+T26*R26+R25*T27</f>
-        <v>8.8631305002636503E-3</v>
+        <v>8.7929715547280831E-9</v>
       </c>
       <c r="W27" s="137"/>
       <c r="X27" s="28">
@@ -9269,63 +9270,63 @@
       </c>
       <c r="AC27" s="79">
         <f>((($W$25)^M27)*((1-($W$25))^($U$27-M27))*HLOOKUP($U$27,$AV$24:$BF$34,M27+1))*V27</f>
-        <v>2.5041925440646242E-3</v>
+        <v>8.9558824034489753E-10</v>
       </c>
       <c r="AD27" s="28">
         <v>2</v>
       </c>
       <c r="AE27" s="79">
         <f>((($W$25)^M27)*((1-($W$25))^($U$28-M27))*HLOOKUP($U$28,$AV$24:$BF$34,M27+1))*V28</f>
-        <v>1.4710197875842589E-2</v>
+        <v>7.3636096805032636E-8</v>
       </c>
       <c r="AF27" s="28">
         <v>2</v>
       </c>
       <c r="AG27" s="79">
         <f>((($W$25)^M27)*((1-($W$25))^($U$29-M27))*HLOOKUP($U$29,$AV$24:$BF$34,M27+1))*V29</f>
-        <v>3.7810111938030244E-2</v>
+        <v>2.6488508840708614E-6</v>
       </c>
       <c r="AH27" s="28">
         <v>2</v>
       </c>
       <c r="AI27" s="79">
         <f>((($W$25)^M27)*((1-($W$25))^($U$30-M27))*HLOOKUP($U$30,$AV$24:$BF$34,M27+1))*V30</f>
-        <v>5.5545664371632941E-2</v>
+        <v>5.4449724588543666E-5</v>
       </c>
       <c r="AJ27" s="28">
         <v>2</v>
       </c>
       <c r="AK27" s="79">
         <f>((($W$25)^M27)*((1-($W$25))^($U$31-M27))*HLOOKUP($U$31,$AV$24:$BF$34,M27+1))*V31</f>
-        <v>5.101730094484435E-2</v>
+        <v>6.9956656463981872E-4</v>
       </c>
       <c r="AL27" s="28">
         <v>2</v>
       </c>
       <c r="AM27" s="79">
         <f>((($W$25)^Q27)*((1-($W$25))^($U$32-Q27))*HLOOKUP($U$32,$AV$24:$BF$34,Q27+1))*V32</f>
-        <v>3.0006697585807939E-2</v>
+        <v>5.7526627824743227E-3</v>
       </c>
       <c r="AN27" s="28">
         <v>2</v>
       </c>
       <c r="AO27" s="79">
         <f>((($W$25)^Q27)*((1-($W$25))^($U$33-Q27))*HLOOKUP($U$33,$AV$24:$BF$34,Q27+1))*V33</f>
-        <v>1.1043438954041335E-2</v>
+        <v>2.9569358500497848E-2</v>
       </c>
       <c r="AP27" s="28">
         <v>2</v>
       </c>
       <c r="AQ27" s="79">
         <f>((($W$25)^Q27)*((1-($W$25))^($U$34-Q27))*HLOOKUP($U$34,$AV$24:$BF$34,Q27+1))*V34</f>
-        <v>2.3292135241862466E-3</v>
+        <v>8.6877959905165281E-2</v>
       </c>
       <c r="AR27" s="28">
         <v>2</v>
       </c>
       <c r="AS27" s="79">
         <f>((($W$25)^Q27)*((1-($W$25))^($U$35-Q27))*HLOOKUP($U$35,$AV$24:$BF$34,Q27+1))*V35</f>
-        <v>2.1845626374267368E-4</v>
+        <v>0.1113065463349988</v>
       </c>
       <c r="AV27" s="14">
         <v>3</v>
@@ -9367,7 +9368,7 @@
       </c>
       <c r="BJ27" s="107">
         <f t="shared" si="9"/>
-        <v>5.0247683964482293E-4</v>
+        <v>1.6555329185894392E-4</v>
       </c>
       <c r="BP27">
         <f>BP21+1</f>
@@ -9378,7 +9379,7 @@
       </c>
       <c r="BR27" s="107">
         <f t="shared" si="10"/>
-        <v>5.9485846327384543E-3</v>
+        <v>4.8189108998832574E-3</v>
       </c>
     </row>
     <row r="28" spans="1:70" x14ac:dyDescent="0.25">
@@ -9402,56 +9403,56 @@
       </c>
       <c r="H28" s="128">
         <f>J28*L25+J27*L26+L28*J25+L27*J26</f>
-        <v>0.2445269194440999</v>
+        <v>0.24730247181371739</v>
       </c>
       <c r="I28" s="93">
         <v>3</v>
       </c>
       <c r="J28" s="86">
         <f t="shared" si="11"/>
-        <v>0.26301192185874944</v>
+        <v>0.26682872808997055</v>
       </c>
       <c r="K28" s="93">
         <v>3</v>
       </c>
       <c r="L28" s="86">
         <f>V21</f>
-        <v>2.0336062597073254E-3</v>
+        <v>2.455252342535276E-3</v>
       </c>
       <c r="M28" s="85">
         <v>3</v>
       </c>
       <c r="N28" s="71">
         <f>(($B$24)^M28)*((1-($B$24))^($B$21-M28))*HLOOKUP($B$21,$AV$24:$BF$34,M28+1)</f>
-        <v>0.34520911131942045</v>
+        <v>3.1847493918144155E-2</v>
       </c>
       <c r="O28" s="72">
         <v>3</v>
       </c>
       <c r="P28" s="71">
         <f t="shared" si="12"/>
-        <v>0.34520911131942045</v>
+        <v>3.1847493918144155E-2</v>
       </c>
       <c r="Q28" s="28">
         <v>3</v>
       </c>
       <c r="R28" s="37">
         <f>P25*N28+P26*N27+P27*N26+P28*N25</f>
-        <v>3.718809650110734E-2</v>
+        <v>3.539053644965018E-7</v>
       </c>
       <c r="S28" s="72">
         <v>3</v>
       </c>
       <c r="T28" s="135">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3.8068172229039952E-7</v>
       </c>
       <c r="U28" s="93">
         <v>3</v>
       </c>
       <c r="V28" s="86">
         <f>R28*T25+R27*T26+R26*T27+R25*T28</f>
-        <v>3.7046662639518731E-2</v>
+        <v>3.539495535519797E-7</v>
       </c>
       <c r="W28" s="137"/>
       <c r="X28" s="28">
@@ -9471,56 +9472,56 @@
       </c>
       <c r="AE28" s="79">
         <f>((($W$25)^M28)*((1-($W$25))^($U$28-M28))*HLOOKUP($U$28,$AV$24:$BF$34,M28+1))*V28</f>
-        <v>5.5637800372523053E-3</v>
+        <v>1.1505366038188691E-8</v>
       </c>
       <c r="AF28" s="28">
         <v>3</v>
       </c>
       <c r="AG28" s="79">
         <f>((($W$25)^M28)*((1-($W$25))^($U$29-M28))*HLOOKUP($U$29,$AV$24:$BF$34,M28+1))*V29</f>
-        <v>2.8601538576521434E-2</v>
+        <v>8.2774618221567942E-7</v>
       </c>
       <c r="AH28" s="28">
         <v>3</v>
       </c>
       <c r="AI28" s="79">
         <f>((($W$25)^M28)*((1-($W$25))^($U$30-M28))*HLOOKUP($U$30,$AV$24:$BF$34,M28+1))*V30</f>
-        <v>6.3026451689203983E-2</v>
+        <v>2.5522700384097856E-5</v>
       </c>
       <c r="AJ28" s="28">
         <v>3</v>
       </c>
       <c r="AK28" s="79">
         <f>((($W$25)^M28)*((1-($W$25))^($U$31-M28))*HLOOKUP($U$31,$AV$24:$BF$34,M28+1))*V31</f>
-        <v>7.7184288871480461E-2</v>
+        <v>4.3721868721913095E-4</v>
       </c>
       <c r="AL28" s="28">
         <v>3</v>
       </c>
       <c r="AM28" s="79">
         <f>((($W$25)^Q28)*((1-($W$25))^($U$32-Q28))*HLOOKUP($U$32,$AV$24:$BF$34,Q28+1))*V32</f>
-        <v>5.6746573506653922E-2</v>
+        <v>4.4941607362673679E-3</v>
       </c>
       <c r="AN28" s="28">
         <v>3</v>
       </c>
       <c r="AO28" s="79">
         <f>((($W$25)^Q28)*((1-($W$25))^($U$33-Q28))*HLOOKUP($U$33,$AV$24:$BF$34,Q28+1))*V33</f>
-        <v>2.5061497763811783E-2</v>
+        <v>2.7720613217462334E-2</v>
       </c>
       <c r="AP28" s="28">
         <v>3</v>
       </c>
       <c r="AQ28" s="79">
         <f>((($W$25)^Q28)*((1-($W$25))^($U$34-Q28))*HLOOKUP($U$34,$AV$24:$BF$34,Q28+1))*V34</f>
-        <v>6.1667846159657886E-3</v>
+        <v>9.5020505011909423E-2</v>
       </c>
       <c r="AR28" s="28">
         <v>3</v>
       </c>
       <c r="AS28" s="79">
         <f>((($W$25)^Q28)*((1-($W$25))^($U$35-Q28))*HLOOKUP($U$35,$AV$24:$BF$34,Q28+1))*V35</f>
-        <v>6.6100679785972914E-4</v>
+        <v>0.13912986848517994</v>
       </c>
       <c r="AV28" s="14">
         <v>4</v>
@@ -9559,7 +9560,7 @@
       </c>
       <c r="BJ28" s="107">
         <f t="shared" si="9"/>
-        <v>8.1736218750493581E-5</v>
+        <v>1.9789586095403794E-5</v>
       </c>
       <c r="BP28">
         <f>BP22+1</f>
@@ -9570,7 +9571,7 @@
       </c>
       <c r="BR28" s="107">
         <f t="shared" si="10"/>
-        <v>3.1901509469833425E-3</v>
+        <v>2.0938773281155552E-3</v>
       </c>
     </row>
     <row r="29" spans="1:70" x14ac:dyDescent="0.25">
@@ -9579,11 +9580,11 @@
       </c>
       <c r="B29" s="123">
         <f>1/(1+EXP(-3.1416*4*((B14/(B14+C13))-(3.1416/6))))</f>
-        <v>0.46245925406483274</v>
+        <v>0.26651538810374431</v>
       </c>
       <c r="C29" s="118">
         <f>1/(1+EXP(-3.1416*4*((C14/(C14+B13))-(3.1416/6))))</f>
-        <v>0.19170535930287408</v>
+        <v>0.29873974998865505</v>
       </c>
       <c r="D29" s="153">
         <v>0.04</v>
@@ -9596,14 +9597,14 @@
       </c>
       <c r="H29" s="128">
         <f>J29*L25+J28*L26+J27*L27+J26*L28</f>
-        <v>0.23007077870182072</v>
+        <v>0.22549348317336929</v>
       </c>
       <c r="I29" s="93">
         <v>4</v>
       </c>
       <c r="J29" s="86">
         <f t="shared" si="11"/>
-        <v>0.22129878913079173</v>
+        <v>0.19944548475195467</v>
       </c>
       <c r="K29" s="93">
         <v>4</v>
@@ -9614,35 +9615,35 @@
       </c>
       <c r="N29" s="71">
         <f>(($B$24)^M29)*((1-($B$24))^($B$21-M29))*HLOOKUP($B$21,$AV$24:$BF$34,M29+1)</f>
-        <v>0.27041629172928833</v>
+        <v>0.240358864334066</v>
       </c>
       <c r="O29" s="72">
         <v>4</v>
       </c>
       <c r="P29" s="71">
         <f t="shared" si="12"/>
-        <v>0.27041629172928833</v>
+        <v>0.240358864334066</v>
       </c>
       <c r="Q29" s="28">
         <v>4</v>
       </c>
       <c r="R29" s="37">
         <f>P25*N29+P26*N28+P27*N27+P28*N26+P29*N25</f>
-        <v>0.10195830260251657</v>
+        <v>9.3484599129721514E-6</v>
       </c>
       <c r="S29" s="72">
         <v>4</v>
       </c>
       <c r="T29" s="135">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2.5506313051283046E-9</v>
       </c>
       <c r="U29" s="93">
         <v>4</v>
       </c>
       <c r="V29" s="86">
         <f>T29*R25+T28*R26+T27*R27+T26*R28+T25*R29</f>
-        <v>0.10163445157200951</v>
+        <v>9.3502387759839029E-6</v>
       </c>
       <c r="W29" s="137"/>
       <c r="X29" s="28">
@@ -9666,49 +9667,49 @@
       </c>
       <c r="AG29" s="79">
         <f>((($W$25)^M29)*((1-($W$25))^($U$29-M29))*HLOOKUP($U$29,$AV$24:$BF$34,M29+1))*V29</f>
-        <v>8.1133852197231241E-3</v>
+        <v>9.6999194956519046E-8</v>
       </c>
       <c r="AH29" s="28">
         <v>4</v>
       </c>
       <c r="AI29" s="79">
         <f>((($W$25)^M29)*((1-($W$25))^($U$30-M29))*HLOOKUP($U$30,$AV$24:$BF$34,M29+1))*V30</f>
-        <v>3.5757368801589362E-2</v>
+        <v>5.9817404019843922E-6</v>
       </c>
       <c r="AJ29" s="28">
         <v>4</v>
       </c>
       <c r="AK29" s="79">
         <f>((($W$25)^M29)*((1-($W$25))^($U$31-M29))*HLOOKUP($U$31,$AV$24:$BF$34,M29+1))*V31</f>
-        <v>6.5684494578774386E-2</v>
+        <v>1.5370603304994067E-4</v>
       </c>
       <c r="AL29" s="28">
         <v>4</v>
       </c>
       <c r="AM29" s="79">
         <f>((($W$25)^Q29)*((1-($W$25))^($U$32-Q29))*HLOOKUP($U$32,$AV$24:$BF$34,Q29+1))*V32</f>
-        <v>6.4389097044836405E-2</v>
+        <v>2.1065876607548988E-3</v>
       </c>
       <c r="AN29" s="28">
         <v>4</v>
       </c>
       <c r="AO29" s="79">
         <f>((($W$25)^Q29)*((1-($W$25))^($U$33-Q29))*HLOOKUP($U$33,$AV$24:$BF$34,Q29+1))*V33</f>
-        <v>3.5545917398294796E-2</v>
+        <v>1.6242159876819998E-2</v>
       </c>
       <c r="AP29" s="28">
         <v>4</v>
       </c>
       <c r="AQ29" s="79">
         <f>((($W$25)^Q29)*((1-($W$25))^($U$34-Q29))*HLOOKUP($U$34,$AV$24:$BF$34,Q29+1))*V34</f>
-        <v>1.0495973639151951E-2</v>
+        <v>6.680970100650141E-2</v>
       </c>
       <c r="AR29" s="28">
         <v>4</v>
       </c>
       <c r="AS29" s="79">
         <f>((($W$25)^Q29)*((1-($W$25))^($U$35-Q29))*HLOOKUP($U$35,$AV$24:$BF$34,Q29+1))*V35</f>
-        <v>1.3125524484217186E-3</v>
+        <v>0.11412725143523147</v>
       </c>
       <c r="AV29" s="14">
         <v>5</v>
@@ -9744,7 +9745,7 @@
       </c>
       <c r="BJ29" s="107">
         <f t="shared" si="9"/>
-        <v>9.9864434389373513E-6</v>
+        <v>1.7979375840440029E-6</v>
       </c>
       <c r="BP29">
         <f>BP23+1</f>
@@ -9755,7 +9756,7 @@
       </c>
       <c r="BR29" s="107">
         <f t="shared" si="10"/>
-        <v>1.2299179663052466E-3</v>
+        <v>6.3043344784431612E-4</v>
       </c>
     </row>
     <row r="30" spans="1:70" x14ac:dyDescent="0.25">
@@ -9781,14 +9782,14 @@
       </c>
       <c r="H30" s="128">
         <f>J30*L25+J29*L26+J28*L27+J27*L28</f>
-        <v>0.15306464221161231</v>
+        <v>0.14599370709848394</v>
       </c>
       <c r="I30" s="93">
         <v>5</v>
       </c>
       <c r="J30" s="86">
         <f t="shared" si="11"/>
-        <v>0.12772674832791453</v>
+        <v>0.1022238594449579</v>
       </c>
       <c r="K30" s="93">
         <v>5</v>
@@ -9799,35 +9800,35 @@
       </c>
       <c r="N30" s="71">
         <f>(($B$24)^M30)*((1-($B$24))^($B$21-M30))*HLOOKUP($B$21,$AV$24:$BF$34,M30+1)</f>
-        <v>8.4731217612570311E-2</v>
+        <v>0.72561293284113459</v>
       </c>
       <c r="O30" s="72">
         <v>5</v>
       </c>
       <c r="P30" s="71">
         <f t="shared" si="12"/>
-        <v>8.4731217612570311E-2</v>
+        <v>0.72561293284113459</v>
       </c>
       <c r="Q30" s="28">
         <v>5</v>
       </c>
       <c r="R30" s="37">
         <f>P25*N30+P26*N29+P27*N28+P28*N27+P29*N26+P30*N25</f>
-        <v>0.19168337240281247</v>
+        <v>1.6933089030338116E-4</v>
       </c>
       <c r="S30" s="72">
         <v>5</v>
       </c>
       <c r="T30" s="135">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1.6021553424172769E-11</v>
       </c>
       <c r="U30" s="93">
         <v>5</v>
       </c>
       <c r="V30" s="86">
         <f>T30*R25+T29*R26+T28*R27+T27*R28+T26*R29+T25*R30</f>
-        <v>0.19123474705381099</v>
+        <v>1.6937788536577783E-4</v>
       </c>
       <c r="W30" s="137"/>
       <c r="X30" s="28">
@@ -9855,42 +9856,42 @@
       </c>
       <c r="AI30" s="79">
         <f>((($W$25)^M30)*((1-($W$25))^($U$30-M30))*HLOOKUP($U$30,$AV$24:$BF$34,M30+1))*V30</f>
-        <v>8.1146210160638974E-3</v>
+        <v>5.6077480357879664E-7</v>
       </c>
       <c r="AJ30" s="28">
         <v>5</v>
       </c>
       <c r="AK30" s="79">
         <f>((($W$25)^M30)*((1-($W$25))^($U$31-M30))*HLOOKUP($U$31,$AV$24:$BF$34,M30+1))*V31</f>
-        <v>2.9812304316684867E-2</v>
+        <v>2.8819194649056388E-5</v>
       </c>
       <c r="AL30" s="28">
         <v>5</v>
       </c>
       <c r="AM30" s="79">
         <f>((($W$25)^Q30)*((1-($W$25))^($U$32-Q30))*HLOOKUP($U$32,$AV$24:$BF$34,Q30+1))*V32</f>
-        <v>4.3836540908640607E-2</v>
+        <v>5.9246366556936427E-4</v>
       </c>
       <c r="AN30" s="28">
         <v>5</v>
       </c>
       <c r="AO30" s="79">
         <f>((($W$25)^Q30)*((1-($W$25))^($U$33-Q30))*HLOOKUP($U$33,$AV$24:$BF$34,Q30+1))*V33</f>
-        <v>3.2266540634573029E-2</v>
+        <v>6.0906648584064796E-3</v>
       </c>
       <c r="AP30" s="28">
         <v>5</v>
       </c>
       <c r="AQ30" s="79">
         <f>((($W$25)^Q30)*((1-($W$25))^($U$34-Q30))*HLOOKUP($U$34,$AV$24:$BF$34,Q30+1))*V34</f>
-        <v>1.1909551951223181E-2</v>
+        <v>3.1316301311446249E-2</v>
       </c>
       <c r="AR30" s="28">
         <v>5</v>
       </c>
       <c r="AS30" s="79">
         <f>((($W$25)^Q30)*((1-($W$25))^($U$35-Q30))*HLOOKUP($U$35,$AV$24:$BF$34,Q30+1))*V35</f>
-        <v>1.7871895007289663E-3</v>
+        <v>6.4195049640083171E-2</v>
       </c>
       <c r="AV30" s="29">
         <v>6</v>
@@ -9922,7 +9923,7 @@
       </c>
       <c r="BJ30" s="107">
         <f t="shared" si="9"/>
-        <v>8.9704288993641619E-7</v>
+        <v>1.2333097834764859E-7</v>
       </c>
       <c r="BP30">
         <f>BL10+1</f>
@@ -9933,7 +9934,7 @@
       </c>
       <c r="BR30" s="107">
         <f t="shared" si="10"/>
-        <v>3.5146186179174936E-4</v>
+        <v>1.3623257965490301E-4</v>
       </c>
     </row>
     <row r="31" spans="1:70" x14ac:dyDescent="0.25">
@@ -9942,25 +9943,25 @@
       </c>
       <c r="B31" s="60">
         <f>(B25*D25)+(B26*D26)+(B27*D27)+(B28*D28)+(B29*D29)+(B30*D30)/(B25+B26+B27+B28+B29+B30)</f>
-        <v>0.53154530578560644</v>
+        <v>0.31914375977506182</v>
       </c>
       <c r="C31" s="61">
         <f>(C25*E25)+(C26*E26)+(C27*E27)+(C28*E28)+(C29*E29)+(C30*E30)/(C25+C26+C27+C28+C29+C30)</f>
-        <v>0.51356400516245371</v>
+        <v>0.47055197026536516</v>
       </c>
       <c r="G31" s="87">
         <v>6</v>
       </c>
       <c r="H31" s="128">
         <f>J31*L25+J30*L26+J29*L27+J28*L28</f>
-        <v>7.3949765995134698E-2</v>
+        <v>6.8892582708431002E-2</v>
       </c>
       <c r="I31" s="93">
         <v>6</v>
       </c>
       <c r="J31" s="86">
         <f t="shared" si="11"/>
-        <v>5.1222995728949547E-2</v>
+        <v>3.6383992188136267E-2</v>
       </c>
       <c r="K31" s="93">
         <v>6</v>
@@ -9975,21 +9976,21 @@
       </c>
       <c r="R31" s="37">
         <f>P26*N30+P27*N29+P28*N28+P29*N27+P30*N26</f>
-        <v>0.25025559412968246</v>
+        <v>2.1299520246190807E-3</v>
       </c>
       <c r="S31" s="70">
         <v>6</v>
       </c>
       <c r="T31" s="135">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>9.6612382457323207E-14</v>
       </c>
       <c r="U31" s="93">
         <v>6</v>
       </c>
       <c r="V31" s="86">
         <f>T31*R25+T30*R26+T29*R27+T28*R28+T27*R29+T26*R30+T25*R31</f>
-        <v>0.2499627330210481</v>
+        <v>2.1308034058828453E-3</v>
       </c>
       <c r="W31" s="137"/>
       <c r="X31" s="28">
@@ -10021,35 +10022,35 @@
       </c>
       <c r="AK31" s="79">
         <f>((($W$25)^Q31)*((1-($W$25))^($U$31-Q31))*HLOOKUP($U$31,$AV$24:$BF$34,Q31+1))*V31</f>
-        <v>5.6378950515021927E-3</v>
+        <v>2.2514459466878015E-6</v>
       </c>
       <c r="AL31" s="28">
         <v>6</v>
       </c>
       <c r="AM31" s="79">
         <f>((($W$25)^Q31)*((1-($W$25))^($U$32-Q31))*HLOOKUP($U$32,$AV$24:$BF$34,Q31+1))*V32</f>
-        <v>1.6580121713401383E-2</v>
+        <v>9.2570242482443389E-5</v>
       </c>
       <c r="AN31" s="28">
         <v>6</v>
       </c>
       <c r="AO31" s="79">
         <f>((($W$25)^Q31)*((1-($W$25))^($U$33-Q31))*HLOOKUP($U$33,$AV$24:$BF$34,Q31+1))*V33</f>
-        <v>1.8306069316917136E-2</v>
+        <v>1.4274655702645137E-3</v>
       </c>
       <c r="AP31" s="28">
         <v>6</v>
       </c>
       <c r="AQ31" s="79">
         <f>((($W$25)^Q31)*((1-($W$25))^($U$34-Q31))*HLOOKUP($U$34,$AV$24:$BF$34,Q31+1))*V34</f>
-        <v>9.0090055834873405E-3</v>
+        <v>9.7861110293334472E-3</v>
       </c>
       <c r="AR31" s="28">
         <v>6</v>
       </c>
       <c r="AS31" s="79">
         <f>((($W$25)^Q31)*((1-($W$25))^($U$35-Q31))*HLOOKUP($U$35,$AV$24:$BF$34,Q31+1))*V35</f>
-        <v>1.6899040636414926E-3</v>
+        <v>2.5075593900109175E-2</v>
       </c>
       <c r="AV31" s="14">
         <v>7</v>
@@ -10077,7 +10078,7 @@
       </c>
       <c r="BJ31" s="107">
         <f t="shared" ref="BJ31:BJ37" si="16">$H$28*H43</f>
-        <v>2.9736192894639312E-2</v>
+        <v>2.1644226751907195E-2</v>
       </c>
       <c r="BP31">
         <f t="shared" ref="BP31:BP37" si="17">BP24+1</f>
@@ -10088,7 +10089,7 @@
       </c>
       <c r="BR31" s="107">
         <f t="shared" ref="BR31:BR38" si="18">$H$33*H39</f>
-        <v>5.3745289983999451E-4</v>
+        <v>6.4434901750930499E-4</v>
       </c>
     </row>
     <row r="32" spans="1:70" x14ac:dyDescent="0.25">
@@ -10108,14 +10109,14 @@
       </c>
       <c r="H32" s="128">
         <f>J32*L25+J31*L26+J30*L27+J29*L28</f>
-        <v>2.6233276949455868E-2</v>
+        <v>2.3924210592187169E-2</v>
       </c>
       <c r="I32" s="93">
         <v>7</v>
       </c>
       <c r="J32" s="86">
         <f t="shared" si="11"/>
-        <v>1.4099007113882478E-2</v>
+        <v>8.8798025274052506E-3</v>
       </c>
       <c r="K32" s="93">
         <v>7</v>
@@ -10130,21 +10131,21 @@
       </c>
       <c r="R32" s="37">
         <f>P27*N30+P28*N29+P29*N28+P30*N27</f>
-        <v>0.22404040260998587</v>
+        <v>1.8371585928122887E-2</v>
       </c>
       <c r="S32" s="72">
         <v>7</v>
       </c>
       <c r="T32" s="135">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>5.6640425226236405E-16</v>
       </c>
       <c r="U32" s="93">
         <v>7</v>
       </c>
       <c r="V32" s="86">
         <f>T32*R25+T31*R26+T30*R27+T29*R28+T28*R29+T27*R30+T26*R31+T25*R32</f>
-        <v>0.22417147856758435</v>
+        <v>1.8382297760037414E-2</v>
       </c>
       <c r="W32" s="137"/>
       <c r="X32" s="28">
@@ -10180,28 +10181,28 @@
       </c>
       <c r="AM32" s="79">
         <f>((($W$25)^Q32)*((1-($W$25))^($U$32-Q32))*HLOOKUP($U$32,$AV$24:$BF$34,Q32+1))*V32</f>
-        <v>2.6875859760544969E-3</v>
+        <v>6.1987524959067462E-6</v>
       </c>
       <c r="AN32" s="28">
         <v>7</v>
       </c>
       <c r="AO32" s="79">
         <f>((($W$25)^Q32)*((1-($W$25))^($U$33-Q32))*HLOOKUP($U$33,$AV$24:$BF$34,Q32+1))*V33</f>
-        <v>5.9347133903198453E-3</v>
+        <v>1.9117387033260248E-4</v>
       </c>
       <c r="AP32" s="28">
         <v>7</v>
       </c>
       <c r="AQ32" s="79">
         <f>((($W$25)^Q32)*((1-($W$25))^($U$34-Q32))*HLOOKUP($U$34,$AV$24:$BF$34,Q32+1))*V34</f>
-        <v>4.3809950523113657E-3</v>
+        <v>1.9659129718647811E-3</v>
       </c>
       <c r="AR32" s="28">
         <v>7</v>
       </c>
       <c r="AS32" s="79">
         <f>((($W$25)^Q32)*((1-($W$25))^($U$35-Q32))*HLOOKUP($U$35,$AV$24:$BF$34,Q32+1))*V35</f>
-        <v>1.0957126951967706E-3</v>
+        <v>6.7165169327119602E-3</v>
       </c>
       <c r="AV32" s="14">
         <v>8</v>
@@ -10225,7 +10226,7 @@
       </c>
       <c r="BJ32" s="107">
         <f t="shared" si="16"/>
-        <v>1.1464372218881802E-2</v>
+        <v>6.5167353951004689E-3</v>
       </c>
       <c r="BP32">
         <f t="shared" si="17"/>
@@ -10236,7 +10237,7 @@
       </c>
       <c r="BR32" s="107">
         <f t="shared" si="18"/>
-        <v>1.5154656774113212E-3</v>
+        <v>1.6373198267705337E-3</v>
       </c>
     </row>
     <row r="33" spans="1:70" x14ac:dyDescent="0.25">
@@ -10249,21 +10250,21 @@
       </c>
       <c r="C33" s="58">
         <f>IF(C17&lt;&gt;"CA",0.005,IF((C18-C16)&lt;0,0.1,0.1+0.055*(C18-C16)))</f>
-        <v>5.0000000000000001E-3</v>
+        <v>0.54</v>
       </c>
       <c r="G33" s="87">
         <v>8</v>
       </c>
       <c r="H33" s="128">
         <f>J33*L25+J32*L26+J31*L27+J30*L28</f>
-        <v>6.8317771035248109E-3</v>
+        <v>6.0936537139224022E-3</v>
       </c>
       <c r="I33" s="93">
         <v>8</v>
       </c>
       <c r="J33" s="86">
         <f t="shared" si="11"/>
-        <v>2.5507340117904152E-3</v>
+        <v>1.4221858822848071E-3</v>
       </c>
       <c r="K33" s="93">
         <v>8</v>
@@ -10278,21 +10279,21 @@
       </c>
       <c r="R33" s="37">
         <f>P28*N30+P29*N29+P30*N28</f>
-        <v>0.1316249474987152</v>
+        <v>0.1039902905951315</v>
       </c>
       <c r="S33" s="72">
         <v>8</v>
       </c>
       <c r="T33" s="135">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3.2528600273502595E-18</v>
       </c>
       <c r="U33" s="93">
         <v>8</v>
       </c>
       <c r="V33" s="86">
         <f>T33*R25+T32*R26+T31*R27+T30*R28+T29*R29+T28*R30+T27*R31+T26*R32+T25*R33</f>
-        <v>0.13208702477427156</v>
+        <v>0.10408271775751167</v>
       </c>
       <c r="W33" s="137"/>
       <c r="X33" s="28">
@@ -10332,21 +10333,21 @@
       </c>
       <c r="AO33" s="79">
         <f>((($W$25)^Q33)*((1-($W$25))^($U$33-Q33))*HLOOKUP($U$33,$AV$24:$BF$34,Q33+1))*V33</f>
-        <v>8.4174870130658021E-4</v>
+        <v>1.1201327120197222E-5</v>
       </c>
       <c r="AP33" s="28">
         <v>8</v>
       </c>
       <c r="AQ33" s="79">
         <f>((($W$25)^Q33)*((1-($W$25))^($U$34-Q33))*HLOOKUP($U$34,$AV$24:$BF$34,Q33+1))*V34</f>
-        <v>1.2427548402686723E-3</v>
+        <v>2.3037493826310942E-4</v>
       </c>
       <c r="AR33" s="28">
         <v>8</v>
       </c>
       <c r="AS33" s="79">
         <f>((($W$25)^Q33)*((1-($W$25))^($U$35-Q33))*HLOOKUP($U$35,$AV$24:$BF$34,Q33+1))*V35</f>
-        <v>4.6623047021516247E-4</v>
+        <v>1.1806096169015006E-3</v>
       </c>
       <c r="AV33" s="29">
         <v>9</v>
@@ -10367,7 +10368,7 @@
       </c>
       <c r="BJ33" s="107">
         <f t="shared" si="16"/>
-        <v>3.2760637007572583E-3</v>
+        <v>1.4082242571973882E-3</v>
       </c>
       <c r="BP33">
         <f t="shared" si="17"/>
@@ -10378,7 +10379,7 @@
       </c>
       <c r="BR33" s="107">
         <f t="shared" si="18"/>
-        <v>1.9637598605743499E-3</v>
+        <v>1.8497316806104932E-3</v>
       </c>
     </row>
     <row r="34" spans="1:70" x14ac:dyDescent="0.25">
@@ -10387,25 +10388,25 @@
       </c>
       <c r="B34" s="56">
         <f>B23*2</f>
-        <v>6.103917983160887</v>
+        <v>9.3786645578986096</v>
       </c>
       <c r="C34" s="57">
         <f>C23*2</f>
-        <v>3.896082016839113</v>
+        <v>0.62133544210139036</v>
       </c>
       <c r="G34" s="87">
         <v>9</v>
       </c>
       <c r="H34" s="128">
         <f>J34*L25+J33*L26+J32*L27+J31*L28</f>
-        <v>1.2931365134453679E-3</v>
+        <v>1.1200022581772707E-3</v>
       </c>
       <c r="I34" s="93">
         <v>9</v>
       </c>
       <c r="J34" s="86">
         <f t="shared" si="11"/>
-        <v>2.7424109087488058E-4</v>
+        <v>1.349756476591669E-4</v>
       </c>
       <c r="K34" s="93">
         <v>9</v>
@@ -10420,21 +10421,21 @@
       </c>
       <c r="R34" s="37">
         <f>P29*N30+P30*N29</f>
-        <v>4.582540332099725E-2</v>
+        <v>0.34881500096761203</v>
       </c>
       <c r="S34" s="72">
         <v>9</v>
       </c>
       <c r="T34" s="135">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1.8389284074216291E-20</v>
       </c>
       <c r="U34" s="93">
         <v>9</v>
       </c>
       <c r="V34" s="86">
         <f>T34*R25+T33*R26+T32*R27+T31*R28+T30*R29+T29*R30+T28*R31+T27*R32+T26*R33+T25*R34</f>
-        <v>4.6254401041885843E-2</v>
+        <v>0.3493384938876703</v>
       </c>
       <c r="W34" s="137"/>
       <c r="X34" s="28">
@@ -10478,14 +10479,14 @@
       </c>
       <c r="AQ34" s="79">
         <f>((($W$25)^Q34)*((1-($W$25))^($U$34-Q34))*HLOOKUP($U$34,$AV$24:$BF$34,Q34+1))*V34</f>
-        <v>1.5668075144977079E-4</v>
+        <v>1.1998408868049638E-5</v>
       </c>
       <c r="AR34" s="28">
         <v>9</v>
       </c>
       <c r="AS34" s="79">
         <f>((($W$25)^Q34)*((1-($W$25))^($U$35-Q34))*HLOOKUP($U$35,$AV$24:$BF$34,Q34+1))*V35</f>
-        <v>1.1756033942510981E-4</v>
+        <v>1.2297723879111725E-4</v>
       </c>
       <c r="AV34" s="14">
         <v>10</v>
@@ -10503,7 +10504,7 @@
       </c>
       <c r="BJ34" s="107">
         <f t="shared" si="16"/>
-        <v>7.047784051719164E-4</v>
+        <v>2.2407879371585338E-4</v>
       </c>
       <c r="BP34">
         <f t="shared" si="17"/>
@@ -10514,7 +10515,7 @@
       </c>
       <c r="BR34" s="107">
         <f t="shared" si="18"/>
-        <v>1.5491547003686501E-3</v>
+        <v>1.2274082853845254E-3</v>
       </c>
     </row>
     <row r="35" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10523,14 +10524,14 @@
       </c>
       <c r="H35" s="129">
         <f>J35*L25+J34*L26+J33*L27+J32*L28</f>
-        <v>1.7426594882519232E-4</v>
+        <v>1.4381422176174878E-4</v>
       </c>
       <c r="I35" s="94">
         <v>10</v>
       </c>
       <c r="J35" s="89">
         <f t="shared" si="11"/>
-        <v>1.3339314845115212E-5</v>
+        <v>5.7644207449117828E-6</v>
       </c>
       <c r="K35" s="94">
         <v>10</v>
@@ -10545,21 +10546,21 @@
       </c>
       <c r="R35" s="37">
         <f>P30*N30</f>
-        <v>7.179379238108745E-3</v>
+        <v>0.52651412830631295</v>
       </c>
       <c r="S35" s="72">
         <v>10</v>
       </c>
       <c r="T35" s="135">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1.0267606964944888E-22</v>
       </c>
       <c r="U35" s="94">
         <v>10</v>
       </c>
       <c r="V35" s="89">
         <f>IF(((T35*R25+T34*R26+T33*R27+T32*R28+T31*R29+T30*R30+T29*R31+T28*R32+T27*R33+T26*R34+T25*R35)+V23)&lt;&gt;1,1-V23,(T35*R25+T34*R26+T33*R27+T32*R28+T31*R29+T30*R30+T29*R31+T28*R32+T27*R33+T26*R34+T25*R35))</f>
-        <v>7.408506254713676E-3</v>
+        <v>0.52588659619192679</v>
       </c>
       <c r="W35" s="137"/>
       <c r="X35" s="28">
@@ -10607,7 +10608,7 @@
       </c>
       <c r="AS35" s="79">
         <f>((($W$25)^Q35)*((1-($W$25))^($U$35-Q35))*HLOOKUP($U$35,$AV$24:$BF$34,Q35+1))*V35</f>
-        <v>1.3339314845115212E-5</v>
+        <v>5.7644207449117828E-6</v>
       </c>
       <c r="BH35">
         <f t="shared" si="15"/>
@@ -10618,7 +10619,7 @@
       </c>
       <c r="BJ35" s="107">
         <f t="shared" si="16"/>
-        <v>1.1464393450745839E-4</v>
+        <v>2.6785493242697725E-5</v>
       </c>
       <c r="BP35">
         <f t="shared" si="17"/>
@@ -10629,14 +10630,14 @@
       </c>
       <c r="BR35" s="107">
         <f t="shared" si="18"/>
-        <v>8.3079213620091991E-4</v>
+        <v>5.3332432047459245E-4</v>
       </c>
     </row>
     <row r="36" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="108">
         <f>SUM(B37:B39)</f>
-        <v>0.99980832635979677</v>
+        <v>0.99984333789643176</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
@@ -10661,7 +10662,7 @@
       <c r="X36" s="13"/>
       <c r="AS36" s="82">
         <f>Y37+AA37+AC37+AE37+AG37+AI37+AK37+AM37+AO37+AQ37+AS37</f>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="BH36">
         <f t="shared" si="15"/>
@@ -10672,7 +10673,7 @@
       </c>
       <c r="BJ36" s="107">
         <f t="shared" si="16"/>
-        <v>1.4007072813960551E-5</v>
+        <v>2.4335347276104956E-6</v>
       </c>
       <c r="BP36">
         <f t="shared" si="17"/>
@@ -10683,7 +10684,7 @@
       </c>
       <c r="BR36" s="107">
         <f t="shared" si="18"/>
-        <v>3.2030025900337504E-4</v>
+        <v>1.6057554359147683E-4</v>
       </c>
     </row>
     <row r="37" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10692,17 +10693,17 @@
       </c>
       <c r="B37" s="107">
         <f>SUM(BN4:BN14)</f>
-        <v>0.15954217501646925</v>
+        <v>0.15296984344391826</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="59">
         <f>SUM(H39:H49)</f>
-        <v>0.99999966242635752</v>
+        <v>0.99999996543079173</v>
       </c>
       <c r="I37" s="13"/>
       <c r="J37" s="59">
         <f>SUM(J39:J49)</f>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="K37" s="59"/>
       <c r="L37" s="59">
@@ -10712,12 +10713,12 @@
       <c r="M37" s="13"/>
       <c r="N37" s="74">
         <f>SUM(N39:N49)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="O37" s="13"/>
       <c r="P37" s="74">
         <f>SUM(P39:P49)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="13"/>
       <c r="R37" s="59">
@@ -10727,68 +10728,68 @@
       <c r="S37" s="13"/>
       <c r="T37" s="59">
         <f>SUM(T39:T49)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="U37" s="13"/>
       <c r="V37" s="59">
         <f>SUM(V39:V48)</f>
-        <v>0.99990659320219177</v>
+        <v>0.99991732483233098</v>
       </c>
       <c r="W37" s="13"/>
       <c r="X37" s="13"/>
       <c r="Y37" s="80">
         <f>SUM(Y39:Y49)</f>
-        <v>7.1077649302086106E-3</v>
+        <v>4.9883511715126437E-3</v>
       </c>
       <c r="Z37" s="81"/>
       <c r="AA37" s="80">
         <f>SUM(AA39:AA49)</f>
-        <v>4.5439729746289487E-2</v>
+        <v>3.8440119915078216E-2</v>
       </c>
       <c r="AB37" s="81"/>
       <c r="AC37" s="80">
         <f>SUM(AC39:AC49)</f>
-        <v>0.13076813089494038</v>
+        <v>0.12737695269249294</v>
       </c>
       <c r="AD37" s="81"/>
       <c r="AE37" s="80">
         <f>SUM(AE39:AE49)</f>
-        <v>0.22311641345664651</v>
+        <v>0.2368235927490118</v>
       </c>
       <c r="AF37" s="81"/>
       <c r="AG37" s="80">
         <f>SUM(AG39:AG49)</f>
-        <v>0.24999178720789572</v>
+        <v>0.27063650018142449</v>
       </c>
       <c r="AH37" s="81"/>
       <c r="AI37" s="80">
         <f>SUM(AI39:AI49)</f>
-        <v>0.19226697493475001</v>
+        <v>0.19648424258360525</v>
       </c>
       <c r="AJ37" s="81"/>
       <c r="AK37" s="80">
         <f>SUM(AK39:AK49)</f>
-        <v>0.10285477447931771</v>
+        <v>9.1385786903495497E-2</v>
       </c>
       <c r="AL37" s="81"/>
       <c r="AM37" s="80">
         <f>SUM(AM39:AM49)</f>
-        <v>3.7836422433713914E-2</v>
+        <v>2.7472433084421148E-2</v>
       </c>
       <c r="AN37" s="81"/>
       <c r="AO37" s="80">
         <f>SUM(AO39:AO49)</f>
-        <v>9.1851039924079666E-3</v>
+        <v>5.5352600885162128E-3</v>
       </c>
       <c r="AP37" s="81"/>
       <c r="AQ37" s="80">
         <f>SUM(AQ39:AQ49)</f>
-        <v>1.3394911260214712E-3</v>
+        <v>7.7408546277307505E-4</v>
       </c>
       <c r="AR37" s="81"/>
       <c r="AS37" s="80">
         <f>SUM(AS39:AS49)</f>
-        <v>9.3406797808226512E-5</v>
+        <v>8.2675167669021886E-5</v>
       </c>
       <c r="BH37">
         <f t="shared" si="15"/>
@@ -10799,7 +10800,7 @@
       </c>
       <c r="BJ37" s="107">
         <f t="shared" si="16"/>
-        <v>1.2582001944349876E-6</v>
+        <v>1.669302769254728E-7</v>
       </c>
       <c r="BP37">
         <f t="shared" si="17"/>
@@ -10810,7 +10811,7 @@
       </c>
       <c r="BR37" s="107">
         <f t="shared" si="18"/>
-        <v>9.1529133198926522E-5</v>
+        <v>3.4699333621583702E-5</v>
       </c>
     </row>
     <row r="38" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10819,7 +10820,7 @@
       </c>
       <c r="B38" s="107">
         <f>SUM(BJ4:BJ59)</f>
-        <v>0.20631506668572325</v>
+        <v>0.17043718995137969</v>
       </c>
       <c r="G38" s="103" t="str">
         <f t="shared" ref="G38:T38" si="19">G24</f>
@@ -11019,7 +11020,7 @@
       </c>
       <c r="BJ38" s="107">
         <f t="shared" ref="BJ38:BJ43" si="32">$H$29*H44</f>
-        <v>1.0786612164100113E-2</v>
+        <v>5.9420407421858943E-3</v>
       </c>
       <c r="BP38">
         <f>BL11+1</f>
@@ -11030,7 +11031,7 @@
       </c>
       <c r="BR38" s="107">
         <f t="shared" si="18"/>
-        <v>1.9690629491666004E-5</v>
+        <v>5.5214109407139468E-6</v>
       </c>
     </row>
     <row r="39" spans="1:70" x14ac:dyDescent="0.25">
@@ -11039,144 +11040,144 @@
       </c>
       <c r="B39" s="107">
         <f>SUM(BR4:BR47)</f>
-        <v>0.6339510846576043</v>
+        <v>0.67643630450113379</v>
       </c>
       <c r="G39" s="130">
         <v>0</v>
       </c>
       <c r="H39" s="131">
         <f>L39*J39</f>
-        <v>7.8669560159200624E-2</v>
+        <v>0.1057409967417637</v>
       </c>
       <c r="I39" s="97">
         <v>0</v>
       </c>
       <c r="J39" s="98">
         <f t="shared" ref="J39:J49" si="33">Y39+AA39+AC39+AE39+AG39+AI39+AK39+AM39+AO39+AQ39+AS39</f>
-        <v>0.10670500943268879</v>
+        <v>0.1280036336700528</v>
       </c>
       <c r="K39" s="102">
         <v>0</v>
       </c>
       <c r="L39" s="98">
         <f>AC21</f>
-        <v>0.73726210772537937</v>
+        <v>0.82607808630125179</v>
       </c>
       <c r="M39" s="84">
         <v>0</v>
       </c>
       <c r="N39" s="71">
         <f>(1-$C$24)^$B$21</f>
-        <v>8.4731217612570311E-2</v>
+        <v>0.72561293284113459</v>
       </c>
       <c r="O39" s="70">
         <v>0</v>
       </c>
       <c r="P39" s="71">
         <f>N39</f>
-        <v>8.4731217612570311E-2</v>
+        <v>0.72561293284113459</v>
       </c>
       <c r="Q39" s="12">
         <v>0</v>
       </c>
       <c r="R39" s="73">
         <f>P39*N39</f>
-        <v>7.179379238108745E-3</v>
+        <v>0.52651412830631295</v>
       </c>
       <c r="S39" s="70">
         <v>0</v>
       </c>
       <c r="T39" s="135">
         <f>(1-$C$33)^(INT(B23*2*(1-B31)))</f>
-        <v>0.99002500000000004</v>
+        <v>9.4742968959999948E-3</v>
       </c>
       <c r="U39" s="140">
         <v>0</v>
       </c>
       <c r="V39" s="86">
         <f>R39*T39</f>
-        <v>7.1077649302086106E-3</v>
+        <v>4.9883511715126437E-3</v>
       </c>
       <c r="W39" s="136">
         <f>C31</f>
-        <v>0.51356400516245371</v>
+        <v>0.47055197026536516</v>
       </c>
       <c r="X39" s="12">
         <v>0</v>
       </c>
       <c r="Y39" s="79">
         <f>V39</f>
-        <v>7.1077649302086106E-3</v>
+        <v>4.9883511715126437E-3</v>
       </c>
       <c r="Z39" s="12">
         <v>0</v>
       </c>
       <c r="AA39" s="78">
         <f>((1-W39)^Z40)*V40</f>
-        <v>2.2103520144285571E-2</v>
+        <v>2.0352045751801263E-2</v>
       </c>
       <c r="AB39" s="12">
         <v>0</v>
       </c>
       <c r="AC39" s="79">
         <f>(((1-$W$39)^AB41))*V41</f>
-        <v>3.0942352134317449E-2</v>
+        <v>3.570569803160515E-2</v>
       </c>
       <c r="AD39" s="12">
         <v>0</v>
       </c>
       <c r="AE39" s="79">
         <f>(((1-$W$39)^AB42))*V42</f>
-        <v>2.5680804934043198E-2</v>
+        <v>3.5147543310459613E-2</v>
       </c>
       <c r="AF39" s="12">
         <v>0</v>
       </c>
       <c r="AG39" s="79">
         <f>(((1-$W$39)^AB43))*V43</f>
-        <v>1.3996793561448551E-2</v>
+        <v>2.1265701548605284E-2</v>
       </c>
       <c r="AH39" s="12">
         <v>0</v>
       </c>
       <c r="AI39" s="79">
         <f>(((1-$W$39)^AB44))*V44</f>
-        <v>5.2364048106511478E-3</v>
+        <v>8.1741840009086578E-3</v>
       </c>
       <c r="AJ39" s="12">
         <v>0</v>
       </c>
       <c r="AK39" s="79">
         <f>(((1-$W$39)^AB45))*V45</f>
-        <v>1.362632302577893E-3</v>
+        <v>2.0128836612924683E-3</v>
       </c>
       <c r="AL39" s="12">
         <v>0</v>
       </c>
       <c r="AM39" s="79">
         <f>(((1-$W$39)^AB46))*V46</f>
-        <v>2.4383160277457233E-4</v>
+        <v>3.2037637239686333E-4</v>
       </c>
       <c r="AN39" s="12">
         <v>0</v>
       </c>
       <c r="AO39" s="79">
         <f>(((1-$W$39)^AB47))*V47</f>
-        <v>2.8793185120364374E-5</v>
+        <v>3.4176274873432791E-5</v>
       </c>
       <c r="AP39" s="12">
         <v>0</v>
       </c>
       <c r="AQ39" s="79">
         <f>(((1-$W$39)^AB48))*V48</f>
-        <v>2.0425428513872516E-6</v>
+        <v>2.5304568723879254E-6</v>
       </c>
       <c r="AR39" s="12">
         <v>0</v>
       </c>
       <c r="AS39" s="79">
         <f>(((1-$W$39)^AB49))*V49</f>
-        <v>6.9284410071991188E-8</v>
+        <v>1.4308972504098785E-7</v>
       </c>
       <c r="AV39" s="14">
         <v>1</v>
@@ -11221,7 +11222,7 @@
       </c>
       <c r="BJ39" s="107">
         <f t="shared" si="32"/>
-        <v>3.0823867099110808E-3</v>
+        <v>1.2840364696551168E-3</v>
       </c>
       <c r="BP39">
         <f t="shared" ref="BP39:BP46" si="34">BP31+1</f>
@@ -11232,7 +11233,7 @@
       </c>
       <c r="BR39" s="107">
         <f t="shared" ref="BR39:BR47" si="35">$H$34*H39</f>
-        <v>1.0173048073854931E-4</v>
+        <v>1.1843015513269077E-4</v>
       </c>
     </row>
     <row r="40" spans="1:70" x14ac:dyDescent="0.25">
@@ -11241,56 +11242,56 @@
       </c>
       <c r="H40" s="132">
         <f>L39*J40+L40*J39</f>
-        <v>0.22182598384678365</v>
+        <v>0.26869262738538735</v>
       </c>
       <c r="I40" s="93">
         <v>1</v>
       </c>
       <c r="J40" s="86">
         <f t="shared" si="33"/>
-        <v>0.26745991888778387</v>
+        <v>0.30018505586991462</v>
       </c>
       <c r="K40" s="95">
         <v>1</v>
       </c>
       <c r="L40" s="86">
         <f>AD21</f>
-        <v>0.23089750374896031</v>
+        <v>0.16184174075505683</v>
       </c>
       <c r="M40" s="85">
         <v>1</v>
       </c>
       <c r="N40" s="71">
         <f>(($C$24)^M26)*((1-($C$24))^($B$21-M26))*HLOOKUP($B$21,$AV$24:$BF$34,M26+1)</f>
-        <v>0.27041629172928833</v>
+        <v>0.24035886433406592</v>
       </c>
       <c r="O40" s="72">
         <v>1</v>
       </c>
       <c r="P40" s="71">
         <f t="shared" ref="P40:P44" si="36">N40</f>
-        <v>0.27041629172928833</v>
+        <v>0.24035886433406592</v>
       </c>
       <c r="Q40" s="28">
         <v>1</v>
       </c>
       <c r="R40" s="37">
         <f>P40*N39+P39*N40</f>
-        <v>4.582540332099725E-2</v>
+        <v>0.34881500096761192</v>
       </c>
       <c r="S40" s="72">
         <v>1</v>
       </c>
       <c r="T40" s="135">
         <f t="shared" ref="T40:T49" si="37">(($C$33)^S40)*((1-($C$33))^(INT($B$23*2*(1-$B$31))-S40))*HLOOKUP(INT($B$23*2*(1-$B$31)),$AV$24:$BF$34,S40+1)</f>
-        <v>9.9500000000000005E-3</v>
+        <v>6.6732004223999969E-2</v>
       </c>
       <c r="U40" s="93">
         <v>1</v>
       </c>
       <c r="V40" s="86">
         <f>R40*T39+T40*R39</f>
-        <v>4.5439729746289487E-2</v>
+        <v>3.8440119915078216E-2</v>
       </c>
       <c r="W40" s="137"/>
       <c r="X40" s="28">
@@ -11302,70 +11303,70 @@
       </c>
       <c r="AA40" s="79">
         <f>(1-((1-W39)^Z40))*V40</f>
-        <v>2.3336209602003916E-2</v>
+        <v>1.8088074163276954E-2</v>
       </c>
       <c r="AB40" s="28">
         <v>1</v>
       </c>
       <c r="AC40" s="79">
         <f>((($W$39)^M40)*((1-($W$39))^($U$27-M40))*HLOOKUP($U$27,$AV$24:$BF$34,M40+1))*V41</f>
-        <v>6.533594742121869E-2</v>
+        <v>6.3467557210074077E-2</v>
       </c>
       <c r="AD40" s="28">
         <v>1</v>
       </c>
       <c r="AE40" s="79">
         <f>((($W$39)^M40)*((1-($W$39))^($U$28-M40))*HLOOKUP($U$28,$AV$24:$BF$34,M40+1))*V42</f>
-        <v>8.1338987108432625E-2</v>
+        <v>9.3713139869535986E-2</v>
       </c>
       <c r="AF40" s="28">
         <v>1</v>
       </c>
       <c r="AG40" s="79">
         <f>((($W$39)^M40)*((1-($W$39))^($U$29-M40))*HLOOKUP($U$29,$AV$24:$BF$34,M40+1))*V43</f>
-        <v>5.9109518515382084E-2</v>
+        <v>7.5600377757846171E-2</v>
       </c>
       <c r="AH40" s="28">
         <v>1</v>
       </c>
       <c r="AI40" s="79">
         <f>((($W$39)^M40)*((1-($W$39))^($U$30-M40))*HLOOKUP($U$30,$AV$24:$BF$34,M40+1))*V44</f>
-        <v>2.7642167271236355E-2</v>
+        <v>3.6324418742922145E-2</v>
       </c>
       <c r="AJ40" s="28">
         <v>1</v>
       </c>
       <c r="AK40" s="79">
         <f>((($W$39)^M40)*((1-($W$39))^($U$31-M40))*HLOOKUP($U$31,$AV$24:$BF$34,M40+1))*V45</f>
-        <v>8.6317490107945122E-3</v>
+        <v>1.0733816951335483E-2</v>
       </c>
       <c r="AL40" s="28">
         <v>1</v>
       </c>
       <c r="AM40" s="79">
         <f>((($W$39)^Q40)*((1-($W$39))^($U$32-Q40))*HLOOKUP($U$32,$AV$24:$BF$34,Q40+1))*V46</f>
-        <v>1.802008796317328E-3</v>
+        <v>1.9931628290950796E-3</v>
       </c>
       <c r="AN40" s="28">
         <v>1</v>
       </c>
       <c r="AO40" s="79">
         <f>((($W$39)^Q40)*((1-($W$39))^($U$33-Q40))*HLOOKUP($U$33,$AV$24:$BF$34,Q40+1))*V47</f>
-        <v>2.4319159977849444E-4</v>
+        <v>2.4299591385518716E-4</v>
       </c>
       <c r="AP40" s="28">
         <v>1</v>
       </c>
       <c r="AQ40" s="79">
         <f>((($W$39)^Q40)*((1-($W$39))^($U$34-Q40))*HLOOKUP($U$34,$AV$24:$BF$34,Q40+1))*V48</f>
-        <v>1.9408079351574907E-5</v>
+        <v>2.0240708437680328E-5</v>
       </c>
       <c r="AR40" s="28">
         <v>1</v>
       </c>
       <c r="AS40" s="79">
         <f>((($W$39)^Q40)*((1-($W$39))^($U$35-Q40))*HLOOKUP($U$35,$AV$24:$BF$34,Q40+1))*V49</f>
-        <v>7.3148326829252958E-7</v>
+        <v>1.2717235358589073E-6</v>
       </c>
       <c r="AV40" s="14">
         <v>2</v>
@@ -11410,7 +11411,7 @@
       </c>
       <c r="BJ40" s="107">
         <f t="shared" si="32"/>
-        <v>6.6311274381877696E-4</v>
+        <v>2.043178433668691E-4</v>
       </c>
       <c r="BP40">
         <f t="shared" si="34"/>
@@ -11421,7 +11422,7 @@
       </c>
       <c r="BR40" s="107">
         <f t="shared" si="35"/>
-        <v>2.8685127934321828E-4</v>
+        <v>3.0093634942721781E-4</v>
       </c>
     </row>
     <row r="41" spans="1:70" x14ac:dyDescent="0.25">
@@ -11430,56 +11431,56 @@
       </c>
       <c r="H41" s="132">
         <f>L39*J41+J40*L40+J39*L41</f>
-        <v>0.28744495477774895</v>
+        <v>0.30355050802843309</v>
       </c>
       <c r="I41" s="93">
         <v>2</v>
       </c>
       <c r="J41" s="86">
         <f t="shared" si="33"/>
-        <v>0.3018158989687843</v>
+        <v>0.30684202013601319</v>
       </c>
       <c r="K41" s="95">
         <v>2</v>
       </c>
       <c r="L41" s="86">
         <f>AE21</f>
-        <v>2.9724015318183993E-2</v>
+        <v>1.1660350602792122E-2</v>
       </c>
       <c r="M41" s="85">
         <v>2</v>
       </c>
       <c r="N41" s="71">
         <f>(($C$24)^M27)*((1-($C$24))^($B$21-M27))*HLOOKUP($B$21,$AV$24:$BF$34,M27+1)</f>
-        <v>0.34520911131942045</v>
+        <v>3.1847493918144135E-2</v>
       </c>
       <c r="O41" s="72">
         <v>2</v>
       </c>
       <c r="P41" s="71">
         <f t="shared" si="36"/>
-        <v>0.34520911131942045</v>
+        <v>3.1847493918144135E-2</v>
       </c>
       <c r="Q41" s="28">
         <v>2</v>
       </c>
       <c r="R41" s="37">
         <f>P41*N39+P40*N40+P39*N41</f>
-        <v>0.1316249474987152</v>
+        <v>0.10399029059513143</v>
       </c>
       <c r="S41" s="72">
         <v>2</v>
       </c>
       <c r="T41" s="135">
         <f t="shared" si="37"/>
-        <v>2.5000000000000001E-5</v>
+        <v>0.19584392543999996</v>
       </c>
       <c r="U41" s="93">
         <v>2</v>
       </c>
       <c r="V41" s="86">
         <f>R41*T39+T40*R40+R39*T41</f>
-        <v>0.13076813089494038</v>
+        <v>0.12737695269249294</v>
       </c>
       <c r="W41" s="137"/>
       <c r="X41" s="28">
@@ -11495,63 +11496,63 @@
       </c>
       <c r="AC41" s="79">
         <f>((($W$39)^M41)*((1-($W$39))^($U$27-M41))*HLOOKUP($U$27,$AV$24:$BF$34,M41+1))*V41</f>
-        <v>3.4489831339404239E-2</v>
+        <v>2.8203697450813723E-2</v>
       </c>
       <c r="AD41" s="28">
         <v>2</v>
       </c>
       <c r="AE41" s="79">
         <f>((($W$39)^M41)*((1-($W$39))^($U$28-M41))*HLOOKUP($U$28,$AV$24:$BF$34,M41+1))*V42</f>
-        <v>8.5875174614112593E-2</v>
+        <v>8.3288444056474717E-2</v>
       </c>
       <c r="AF41" s="28">
         <v>2</v>
       </c>
       <c r="AG41" s="79">
         <f>((($W$39)^M41)*((1-($W$39))^($U$29-M41))*HLOOKUP($U$29,$AV$24:$BF$34,M41+1))*V43</f>
-        <v>9.3608988831475934E-2</v>
+        <v>0.10078583177821183</v>
       </c>
       <c r="AH41" s="28">
         <v>2</v>
       </c>
       <c r="AI41" s="79">
         <f>((($W$39)^M41)*((1-($W$39))^($U$30-M41))*HLOOKUP($U$30,$AV$24:$BF$34,M41+1))*V44</f>
-        <v>5.8367482200521126E-2</v>
+        <v>6.4567345039675109E-2</v>
       </c>
       <c r="AJ41" s="28">
         <v>2</v>
       </c>
       <c r="AK41" s="79">
         <f>((($W$39)^M41)*((1-($W$39))^($U$31-M41))*HLOOKUP($U$31,$AV$24:$BF$34,M41+1))*V45</f>
-        <v>2.2782830837904691E-2</v>
+        <v>2.3849454673814788E-2</v>
       </c>
       <c r="AL41" s="28">
         <v>2</v>
       </c>
       <c r="AM41" s="79">
         <f>((($W$39)^Q41)*((1-($W$39))^($U$32-Q41))*HLOOKUP($U$32,$AV$24:$BF$34,Q41+1))*V46</f>
-        <v>5.7075146448636168E-3</v>
+        <v>5.3143272443215523E-3</v>
       </c>
       <c r="AN41" s="28">
         <v>2</v>
       </c>
       <c r="AO41" s="79">
         <f>((($W$39)^Q41)*((1-($W$39))^($U$33-Q41))*HLOOKUP($U$33,$AV$24:$BF$34,Q41+1))*V47</f>
-        <v>8.9863946470566133E-4</v>
+        <v>7.5587725070778511E-4</v>
       </c>
       <c r="AP41" s="28">
         <v>2</v>
       </c>
       <c r="AQ41" s="79">
         <f>((($W$39)^Q41)*((1-($W$39))^($U$34-Q41))*HLOOKUP($U$34,$AV$24:$BF$34,Q41+1))*V48</f>
-        <v>8.1961787944037948E-5</v>
+        <v>7.1956488267155982E-5</v>
       </c>
       <c r="AR41" s="28">
         <v>2</v>
       </c>
       <c r="AS41" s="79">
         <f>((($W$39)^Q41)*((1-($W$39))^($U$35-Q41))*HLOOKUP($U$35,$AV$24:$BF$34,Q41+1))*V49</f>
-        <v>3.4752478523837781E-6</v>
+        <v>5.0861537265334484E-6</v>
       </c>
       <c r="AV41" s="14">
         <v>3</v>
@@ -11593,7 +11594,7 @@
       </c>
       <c r="BJ41" s="107">
         <f t="shared" si="32"/>
-        <v>1.0786632140761592E-4</v>
+        <v>2.4423347350779012E-5</v>
       </c>
       <c r="BP41">
         <f t="shared" si="34"/>
@@ -11604,7 +11605,7 @@
       </c>
       <c r="BR41" s="107">
         <f t="shared" si="35"/>
-        <v>3.7170556662875971E-4</v>
+        <v>3.399772544627028E-4</v>
       </c>
     </row>
     <row r="42" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11613,56 +11614,56 @@
       </c>
       <c r="H42" s="132">
         <f>J42*L39+J41*L40+L42*J39+L41*J40</f>
-        <v>0.22675720780898631</v>
+        <v>0.20142402949157073</v>
       </c>
       <c r="I42" s="93">
         <v>3</v>
       </c>
       <c r="J42" s="86">
         <f t="shared" si="33"/>
-        <v>0.20195376683012536</v>
+        <v>0.17941425089397464</v>
       </c>
       <c r="K42" s="95">
         <v>3</v>
       </c>
       <c r="L42" s="86">
         <f>AF21</f>
-        <v>2.1163732074762145E-3</v>
+        <v>4.1982234089925352E-4</v>
       </c>
       <c r="M42" s="85">
         <v>3</v>
       </c>
       <c r="N42" s="71">
         <f>(($C$24)^M28)*((1-($C$24))^($B$21-M28))*HLOOKUP($B$21,$AV$24:$BF$34,M28+1)</f>
-        <v>0.2203442140557928</v>
+        <v>2.1098927881780575E-3</v>
       </c>
       <c r="O42" s="72">
         <v>3</v>
       </c>
       <c r="P42" s="71">
         <f t="shared" si="36"/>
-        <v>0.2203442140557928</v>
+        <v>2.1098927881780575E-3</v>
       </c>
       <c r="Q42" s="28">
         <v>3</v>
       </c>
       <c r="R42" s="37">
         <f>P42*N39+P41*N40+P40*N41+P39*N42</f>
-        <v>0.22404040260998587</v>
+        <v>1.8371585928122866E-2</v>
       </c>
       <c r="S42" s="72">
         <v>3</v>
       </c>
       <c r="T42" s="135">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>0.30653831807999998</v>
       </c>
       <c r="U42" s="93">
         <v>3</v>
       </c>
       <c r="V42" s="86">
         <f>R42*T39+R41*T40+R40*T41+R39*T42</f>
-        <v>0.22311641345664651</v>
+        <v>0.23682359274901171</v>
       </c>
       <c r="W42" s="137"/>
       <c r="X42" s="28">
@@ -11682,56 +11683,56 @@
       </c>
       <c r="AE42" s="79">
         <f>((($W$39)^M42)*((1-($W$39))^($U$28-M42))*HLOOKUP($U$28,$AV$24:$BF$34,M42+1))*V42</f>
-        <v>3.0221446800058102E-2</v>
+        <v>2.4674465512541457E-2</v>
       </c>
       <c r="AF42" s="28">
         <v>3</v>
       </c>
       <c r="AG42" s="79">
         <f>((($W$39)^M42)*((1-($W$39))^($U$29-M42))*HLOOKUP($U$29,$AV$24:$BF$34,M42+1))*V43</f>
-        <v>6.5886307391863408E-2</v>
+        <v>5.9716244156946034E-2</v>
       </c>
       <c r="AH42" s="28">
         <v>3</v>
       </c>
       <c r="AI42" s="79">
         <f>((($W$39)^M42)*((1-($W$39))^($U$30-M42))*HLOOKUP($U$30,$AV$24:$BF$34,M42+1))*V44</f>
-        <v>6.1622573675204018E-2</v>
+        <v>5.7384841791649911E-2</v>
       </c>
       <c r="AJ42" s="28">
         <v>3</v>
       </c>
       <c r="AK42" s="79">
         <f>((($W$39)^M42)*((1-($W$39))^($U$31-M42))*HLOOKUP($U$31,$AV$24:$BF$34,M42+1))*V45</f>
-        <v>3.2071206292921255E-2</v>
+        <v>2.8261906126758364E-2</v>
       </c>
       <c r="AL42" s="28">
         <v>3</v>
       </c>
       <c r="AM42" s="79">
         <f>((($W$39)^Q42)*((1-($W$39))^($U$32-Q42))*HLOOKUP($U$32,$AV$24:$BF$34,Q42+1))*V46</f>
-        <v>1.0043027625585269E-2</v>
+        <v>7.8719314424614897E-3</v>
       </c>
       <c r="AN42" s="28">
         <v>3</v>
       </c>
       <c r="AO42" s="79">
         <f>((($W$39)^Q42)*((1-($W$39))^($U$33-Q42))*HLOOKUP($U$33,$AV$24:$BF$34,Q42+1))*V47</f>
-        <v>1.8975112351437386E-3</v>
+        <v>1.343586186457568E-3</v>
       </c>
       <c r="AP42" s="28">
         <v>3</v>
       </c>
       <c r="AQ42" s="79">
         <f>((($W$39)^Q42)*((1-($W$39))^($U$34-Q42))*HLOOKUP($U$34,$AV$24:$BF$34,Q42+1))*V48</f>
-        <v>2.0190965288668231E-4</v>
+        <v>1.4922136387412289E-4</v>
       </c>
       <c r="AR42" s="28">
         <v>3</v>
       </c>
       <c r="AS42" s="79">
         <f>((($W$39)^Q42)*((1-($W$39))^($U$35-Q42))*HLOOKUP($U$35,$AV$24:$BF$34,Q42+1))*V49</f>
-        <v>9.784156462892135E-6</v>
+        <v>1.2054313285693106E-5</v>
       </c>
       <c r="AV42" s="14">
         <v>4</v>
@@ -11770,7 +11771,7 @@
       </c>
       <c r="BJ42" s="107">
         <f t="shared" si="32"/>
-        <v>1.3178991323193413E-5</v>
+        <v>2.2189273650511452E-6</v>
       </c>
       <c r="BP42">
         <f t="shared" si="34"/>
@@ -11781,7 +11782,7 @@
       </c>
       <c r="BR42" s="107">
         <f t="shared" si="35"/>
-        <v>2.9322802510471928E-4</v>
+        <v>2.2559536788172439E-4</v>
       </c>
     </row>
     <row r="43" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11790,14 +11791,14 @@
       </c>
       <c r="H43" s="132">
         <f>J43*L39+J42*L40+J41*L41+J40*L42</f>
-        <v>0.12160703190569232</v>
+        <v>8.7521271393562472E-2</v>
       </c>
       <c r="I43" s="93">
         <v>4</v>
       </c>
       <c r="J43" s="86">
         <f t="shared" si="33"/>
-        <v>8.8759730326008521E-2</v>
+        <v>6.6314126586486721E-2</v>
       </c>
       <c r="K43" s="95">
         <v>4</v>
@@ -11808,35 +11809,35 @@
       </c>
       <c r="N43" s="71">
         <f>(($C$24)^M29)*((1-($C$24))^($B$21-M29))*HLOOKUP($B$21,$AV$24:$BF$34,M29+1)</f>
-        <v>7.0321974530591788E-2</v>
+        <v>6.9890076579457141E-5</v>
       </c>
       <c r="O43" s="72">
         <v>4</v>
       </c>
       <c r="P43" s="71">
         <f t="shared" si="36"/>
-        <v>7.0321974530591788E-2</v>
+        <v>6.9890076579457141E-5</v>
       </c>
       <c r="Q43" s="28">
         <v>4</v>
       </c>
       <c r="R43" s="37">
         <f>P43*N39+P42*N40+P41*N41+P40*N42+P39*N43</f>
-        <v>0.25025559412968246</v>
+        <v>2.1299520246190781E-3</v>
       </c>
       <c r="S43" s="72">
         <v>4</v>
       </c>
       <c r="T43" s="135">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>0.26988699744</v>
       </c>
       <c r="U43" s="93">
         <v>4</v>
       </c>
       <c r="V43" s="86">
         <f>T43*R39+T42*R40+T41*R41+T40*R42+T39*R43</f>
-        <v>0.24999178720789572</v>
+        <v>0.27063650018142438</v>
       </c>
       <c r="W43" s="137"/>
       <c r="X43" s="28">
@@ -11860,49 +11861,49 @@
       </c>
       <c r="AG43" s="79">
         <f>((($W$39)^M43)*((1-($W$39))^($U$29-M43))*HLOOKUP($U$29,$AV$24:$BF$34,M43+1))*V43</f>
-        <v>1.7390178907725751E-2</v>
+        <v>1.3268344939815142E-2</v>
       </c>
       <c r="AH43" s="28">
         <v>4</v>
       </c>
       <c r="AI43" s="79">
         <f>((($W$39)^M43)*((1-($W$39))^($U$30-M43))*HLOOKUP($U$30,$AV$24:$BF$34,M43+1))*V44</f>
-        <v>3.2529599043780957E-2</v>
+        <v>2.5500661870402182E-2</v>
       </c>
       <c r="AJ43" s="28">
         <v>4</v>
       </c>
       <c r="AK43" s="79">
         <f>((($W$39)^M43)*((1-($W$39))^($U$31-M43))*HLOOKUP($U$31,$AV$24:$BF$34,M43+1))*V45</f>
-        <v>2.5394837135281144E-2</v>
+        <v>1.8838528332138279E-2</v>
       </c>
       <c r="AL43" s="28">
         <v>4</v>
       </c>
       <c r="AM43" s="79">
         <f>((($W$39)^Q43)*((1-($W$39))^($U$32-Q43))*HLOOKUP($U$32,$AV$24:$BF$34,Q43+1))*V46</f>
-        <v>1.0603116434825621E-2</v>
+        <v>6.9962539135346152E-3</v>
       </c>
       <c r="AN43" s="28">
         <v>4</v>
       </c>
       <c r="AO43" s="79">
         <f>((($W$39)^Q43)*((1-($W$39))^($U$33-Q43))*HLOOKUP($U$33,$AV$24:$BF$34,Q43+1))*V47</f>
-        <v>2.5041667354577194E-3</v>
+        <v>1.4926562470536911E-3</v>
       </c>
       <c r="AP43" s="28">
         <v>4</v>
       </c>
       <c r="AQ43" s="79">
         <f>((($W$39)^Q43)*((1-($W$39))^($U$34-Q43))*HLOOKUP($U$34,$AV$24:$BF$34,Q43+1))*V48</f>
-        <v>3.1975490440034856E-4</v>
+        <v>1.9893285884503169E-4</v>
       </c>
       <c r="AR43" s="28">
         <v>4</v>
       </c>
       <c r="AS43" s="79">
         <f>((($W$39)^Q43)*((1-($W$39))^($U$35-Q43))*HLOOKUP($U$35,$AV$24:$BF$34,Q43+1))*V49</f>
-        <v>1.8077164536970457E-5</v>
+        <v>1.8748424697770964E-5</v>
       </c>
       <c r="AV43" s="14">
         <v>5</v>
@@ -11938,7 +11939,7 @@
       </c>
       <c r="BJ43" s="107">
         <f t="shared" si="32"/>
-        <v>1.1838168949027115E-6</v>
+        <v>1.5220911184168787E-7</v>
       </c>
       <c r="BP43">
         <f t="shared" si="34"/>
@@ -11949,7 +11950,7 @@
       </c>
       <c r="BR43" s="107">
         <f t="shared" si="35"/>
-        <v>1.5725449324896658E-4</v>
+        <v>9.8024021599335732E-5</v>
       </c>
     </row>
     <row r="44" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11958,14 +11959,14 @@
       </c>
       <c r="H44" s="132">
         <f>J44*L39+J43*L40+J42*L41+J41*L42</f>
-        <v>4.6883886015268009E-2</v>
+        <v>2.6351274806542382E-2</v>
       </c>
       <c r="I44" s="93">
         <v>5</v>
       </c>
       <c r="J44" s="86">
         <f t="shared" si="33"/>
-        <v>2.6785391113476411E-2</v>
+        <v>1.6218840738631349E-2</v>
       </c>
       <c r="K44" s="95">
         <v>5</v>
@@ -11976,35 +11977,35 @@
       </c>
       <c r="N44" s="71">
         <f>(($C$24)^M30)*((1-($C$24))^($B$21-M30))*HLOOKUP($B$21,$AV$24:$BF$34,M30+1)</f>
-        <v>8.9771907523363351E-3</v>
+        <v>9.260418977971615E-7</v>
       </c>
       <c r="O44" s="72">
         <v>5</v>
       </c>
       <c r="P44" s="71">
         <f t="shared" si="36"/>
-        <v>8.9771907523363351E-3</v>
+        <v>9.260418977971615E-7</v>
       </c>
       <c r="Q44" s="28">
         <v>5</v>
       </c>
       <c r="R44" s="37">
         <f>P44*N39+P43*N40+P42*N41+P41*N42+P40*N43+P39*N44</f>
-        <v>0.19168337240281247</v>
+        <v>1.6933089030338088E-4</v>
       </c>
       <c r="S44" s="72">
         <v>5</v>
       </c>
       <c r="T44" s="135">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>0.12672954662400002</v>
       </c>
       <c r="U44" s="93">
         <v>5</v>
       </c>
       <c r="V44" s="86">
         <f>T44*R39+T43*R40+T42*R41+T41*R42+T40*R43+T39*R44</f>
-        <v>0.19226697493475001</v>
+        <v>0.19648424258360517</v>
       </c>
       <c r="W44" s="137"/>
       <c r="X44" s="28">
@@ -12032,42 +12033,42 @@
       </c>
       <c r="AI44" s="79">
         <f>((($W$39)^M44)*((1-($W$39))^($U$30-M44))*HLOOKUP($U$30,$AV$24:$BF$34,M44+1))*V44</f>
-        <v>6.8687479333564274E-3</v>
+        <v>4.5327911380472381E-3</v>
       </c>
       <c r="AJ44" s="28">
         <v>5</v>
       </c>
       <c r="AK44" s="79">
         <f>((($W$39)^M44)*((1-($W$39))^($U$31-M44))*HLOOKUP($U$31,$AV$24:$BF$34,M44+1))*V45</f>
-        <v>1.072443191544553E-2</v>
+        <v>6.6971684665862712E-3</v>
       </c>
       <c r="AL44" s="28">
         <v>5</v>
       </c>
       <c r="AM44" s="79">
         <f>((($W$39)^Q44)*((1-($W$39))^($U$32-Q44))*HLOOKUP($U$32,$AV$24:$BF$34,Q44+1))*V46</f>
-        <v>6.7166644754051907E-3</v>
+        <v>3.7307923104073376E-3</v>
       </c>
       <c r="AN44" s="28">
         <v>5</v>
       </c>
       <c r="AO44" s="79">
         <f>((($W$39)^Q44)*((1-($W$39))^($U$33-Q44))*HLOOKUP($U$33,$AV$24:$BF$34,Q44+1))*V47</f>
-        <v>2.1150571288389153E-3</v>
+        <v>1.0612899450502162E-3</v>
       </c>
       <c r="AP44" s="28">
         <v>5</v>
       </c>
       <c r="AQ44" s="79">
         <f>((($W$39)^Q44)*((1-($W$39))^($U$34-Q44))*HLOOKUP($U$34,$AV$24:$BF$34,Q44+1))*V48</f>
-        <v>3.375872902436481E-4</v>
+        <v>1.7680346969459667E-4</v>
       </c>
       <c r="AR44" s="28">
         <v>5</v>
       </c>
       <c r="AS44" s="79">
         <f>((($W$39)^Q44)*((1-($W$39))^($U$35-Q44))*HLOOKUP($U$35,$AV$24:$BF$34,Q44+1))*V49</f>
-        <v>2.2902370186698944E-5</v>
+        <v>1.9995408845690925E-5</v>
       </c>
       <c r="AV44" s="29">
         <v>6</v>
@@ -12099,7 +12100,7 @@
       </c>
       <c r="BJ44" s="107">
         <f>$H$30*H45</f>
-        <v>2.0506924937296902E-3</v>
+        <v>8.3133774695595989E-4</v>
       </c>
       <c r="BP44">
         <f t="shared" si="34"/>
@@ -12110,7 +12111,7 @@
       </c>
       <c r="BR44" s="107">
         <f t="shared" si="35"/>
-        <v>6.0627264898553716E-5</v>
+        <v>2.9513487289177291E-5</v>
       </c>
     </row>
     <row r="45" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12134,14 +12135,14 @@
       </c>
       <c r="H45" s="132">
         <f>J45*L39+J44*L40+J43*L41+J42*L42</f>
-        <v>1.3397558470065228E-2</v>
+        <v>5.6943395950289754E-3</v>
       </c>
       <c r="I45" s="93">
         <v>6</v>
       </c>
       <c r="J45" s="86">
         <f t="shared" si="33"/>
-        <v>5.6251004309750517E-3</v>
+        <v>2.6884699364032902E-3</v>
       </c>
       <c r="K45" s="95">
         <v>6</v>
@@ -12156,21 +12157,21 @@
       </c>
       <c r="R45" s="37">
         <f>P44*N40+P43*N41+P42*N42+P41*N43+P40*N44</f>
-        <v>0.10195830260251657</v>
+        <v>9.3484599129721344E-6</v>
       </c>
       <c r="S45" s="70">
         <v>6</v>
       </c>
       <c r="T45" s="135">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>2.4794911296000009E-2</v>
       </c>
       <c r="U45" s="93">
         <v>6</v>
       </c>
       <c r="V45" s="86">
         <f>T45*R39+T44*R40+T43*R41+T42*R42+T41*R43+T40*R44+T39*R45</f>
-        <v>0.10285477447931769</v>
+        <v>9.1385786903495442E-2</v>
       </c>
       <c r="W45" s="137"/>
       <c r="X45" s="28">
@@ -12202,35 +12203,35 @@
       </c>
       <c r="AK45" s="79">
         <f>((($W$39)^Q45)*((1-($W$39))^($U$31-Q45))*HLOOKUP($U$31,$AV$24:$BF$34,Q45+1))*V45</f>
-        <v>1.8870869843926872E-3</v>
+        <v>9.9202869156982967E-4</v>
       </c>
       <c r="AL45" s="28">
         <v>6</v>
       </c>
       <c r="AM45" s="79">
         <f>((($W$39)^Q45)*((1-($W$39))^($U$32-Q45))*HLOOKUP($U$32,$AV$24:$BF$34,Q45+1))*V46</f>
-        <v>2.3637485341885937E-3</v>
+        <v>1.1052590457228558E-3</v>
       </c>
       <c r="AN45" s="28">
         <v>6</v>
       </c>
       <c r="AO45" s="79">
         <f>((($W$39)^Q45)*((1-($W$39))^($U$33-Q45))*HLOOKUP($U$33,$AV$24:$BF$34,Q45+1))*V47</f>
-        <v>1.116505790856076E-3</v>
+        <v>4.7161576455058407E-4</v>
       </c>
       <c r="AP45" s="28">
         <v>6</v>
       </c>
       <c r="AQ45" s="79">
         <f>((($W$39)^Q45)*((1-($W$39))^($U$34-Q45))*HLOOKUP($U$34,$AV$24:$BF$34,Q45+1))*V48</f>
-        <v>2.3760944599692367E-4</v>
+        <v>1.0475717645821136E-4</v>
       </c>
       <c r="AR45" s="28">
         <v>6</v>
       </c>
       <c r="AS45" s="79">
         <f>((($W$39)^Q45)*((1-($W$39))^($U$35-Q45))*HLOOKUP($U$35,$AV$24:$BF$34,Q45+1))*V49</f>
-        <v>2.0149675540770705E-5</v>
+        <v>1.4809258101809048E-5</v>
       </c>
       <c r="AV45" s="14">
         <v>7</v>
@@ -12258,7 +12259,7 @@
       </c>
       <c r="BJ45" s="107">
         <f>$H$30*H46</f>
-        <v>4.4116473830919576E-4</v>
+        <v>1.3228373148399446E-4</v>
       </c>
       <c r="BP45">
         <f t="shared" si="34"/>
@@ -12269,7 +12270,7 @@
       </c>
       <c r="BR45" s="107">
         <f t="shared" si="35"/>
-        <v>1.7324872048660607E-5</v>
+        <v>6.3776732052606982E-6</v>
       </c>
     </row>
     <row r="46" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12293,14 +12294,14 @@
       </c>
       <c r="H46" s="132">
         <f>J46*L39+J45*L40+J44*L41+J43*L42</f>
-        <v>2.882211933042539E-3</v>
+        <v>9.0609200980668948E-4</v>
       </c>
       <c r="I46" s="93">
         <v>7</v>
       </c>
       <c r="J46" s="86">
         <f t="shared" si="33"/>
-        <v>8.1297029643514031E-4</v>
+        <v>3.0751068004652071E-4</v>
       </c>
       <c r="K46" s="95">
         <v>7</v>
@@ -12315,7 +12316,7 @@
       </c>
       <c r="R46" s="37">
         <f>P44*N41+P43*N42+P42*N43+P41*N44</f>
-        <v>3.718809650110734E-2</v>
+        <v>3.5390536449650106E-7</v>
       </c>
       <c r="S46" s="72">
         <v>7</v>
@@ -12329,7 +12330,7 @@
       </c>
       <c r="V46" s="86">
         <f>T46*R39+T45*R40+T44*R41+T43*R42+T42*R43+T41*R44+T40*R45+T39*R46</f>
-        <v>3.7836422433713907E-2</v>
+        <v>2.7472433084421131E-2</v>
       </c>
       <c r="W46" s="137"/>
       <c r="X46" s="28">
@@ -12365,28 +12366,28 @@
       </c>
       <c r="AM46" s="79">
         <f>((($W$39)^Q46)*((1-($W$39))^($U$32-Q46))*HLOOKUP($U$32,$AV$24:$BF$34,Q46+1))*V46</f>
-        <v>3.565103197537217E-4</v>
+        <v>1.4032992648135232E-4</v>
       </c>
       <c r="AN46" s="28">
         <v>7</v>
       </c>
       <c r="AO46" s="79">
         <f>((($W$39)^Q46)*((1-($W$39))^($U$33-Q46))*HLOOKUP($U$33,$AV$24:$BF$34,Q46+1))*V47</f>
-        <v>3.3679203244148747E-4</v>
+        <v>1.1975799849445492E-4</v>
       </c>
       <c r="AP46" s="28">
         <v>7</v>
       </c>
       <c r="AQ46" s="79">
         <f>((($W$39)^Q46)*((1-($W$39))^($U$34-Q46))*HLOOKUP($U$34,$AV$24:$BF$34,Q46+1))*V48</f>
-        <v>1.075117149861457E-4</v>
+        <v>3.9901687104927876E-5</v>
       </c>
       <c r="AR46" s="28">
         <v>7</v>
       </c>
       <c r="AS46" s="79">
         <f>((($W$39)^Q46)*((1-($W$39))^($U$35-Q46))*HLOOKUP($U$35,$AV$24:$BF$34,Q46+1))*V49</f>
-        <v>1.2156229253785354E-5</v>
+        <v>7.5210679657856057E-6</v>
       </c>
       <c r="AV46" s="14">
         <v>8</v>
@@ -12410,7 +12411,7 @@
       </c>
       <c r="BJ46" s="107">
         <f>$H$30*H47</f>
-        <v>7.1762785287642647E-5</v>
+        <v>1.5812674358986831E-5</v>
       </c>
       <c r="BP46">
         <f t="shared" si="34"/>
@@ -12421,7 +12422,7 @@
       </c>
       <c r="BR46" s="107">
         <f t="shared" si="35"/>
-        <v>3.7270934901052631E-6</v>
+        <v>1.014825097099874E-6</v>
       </c>
     </row>
     <row r="47" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12445,14 +12446,14 @@
       </c>
       <c r="H47" s="132">
         <f>J47*L39+J46*L40+J45*L41+J44*L42</f>
-        <v>4.6883972843597932E-4</v>
+        <v>1.0831065717318878E-4</v>
       </c>
       <c r="I47" s="93">
         <v>8</v>
       </c>
       <c r="J47" s="86">
         <f t="shared" si="33"/>
-        <v>7.7636515272279421E-5</v>
+        <v>2.4676916168868786E-5</v>
       </c>
       <c r="K47" s="95">
         <v>8</v>
@@ -12467,7 +12468,7 @@
       </c>
       <c r="R47" s="37">
         <f>P44*N42+P43*N43+P42*N44</f>
-        <v>8.9013241833861608E-3</v>
+        <v>8.7923210477082903E-9</v>
       </c>
       <c r="S47" s="72">
         <v>8</v>
@@ -12481,7 +12482,7 @@
       </c>
       <c r="V47" s="86">
         <f>T47*R39+T46*R40+T45*R41+T44*R42+T43*R43+T42*R44+T41*R45+T40*R46+T39*R47</f>
-        <v>9.1851039924079649E-3</v>
+        <v>5.5352600885162102E-3</v>
       </c>
       <c r="W47" s="137"/>
       <c r="X47" s="28">
@@ -12521,21 +12522,21 @@
       </c>
       <c r="AO47" s="79">
         <f>((($W$39)^Q47)*((1-($W$39))^($U$33-Q47))*HLOOKUP($U$33,$AV$24:$BF$34,Q47+1))*V47</f>
-        <v>4.4446820065509797E-5</v>
+        <v>1.3304507473294125E-5</v>
       </c>
       <c r="AP47" s="28">
         <v>8</v>
       </c>
       <c r="AQ47" s="79">
         <f>((($W$39)^Q47)*((1-($W$39))^($U$34-Q47))*HLOOKUP($U$34,$AV$24:$BF$34,Q47+1))*V48</f>
-        <v>2.8376881818032874E-5</v>
+        <v>8.865750947050727E-6</v>
       </c>
       <c r="AR47" s="28">
         <v>8</v>
       </c>
       <c r="AS47" s="79">
         <f>((($W$39)^Q47)*((1-($W$39))^($U$35-Q47))*HLOOKUP($U$35,$AV$24:$BF$34,Q47+1))*V49</f>
-        <v>4.8128133887367482E-6</v>
+        <v>2.5066577485239332E-6</v>
       </c>
       <c r="AV47" s="29">
         <v>9</v>
@@ -12556,7 +12557,7 @@
       </c>
       <c r="BJ47" s="107">
         <f>$H$30*H48</f>
-        <v>8.7679000478759144E-6</v>
+        <v>1.4366243638048781E-6</v>
       </c>
       <c r="BP47">
         <f>BL12+1</f>
@@ -12567,7 +12568,7 @@
       </c>
       <c r="BR47" s="107">
         <f t="shared" si="35"/>
-        <v>6.0627377179437541E-7</v>
+        <v>1.2130818061863563E-7</v>
       </c>
     </row>
     <row r="48" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12591,14 +12592,14 @@
       </c>
       <c r="H48" s="132">
         <f>J48*L39+J47*L40+J46*L41+J45*L42</f>
-        <v>5.7282334582236616E-5</v>
+        <v>9.840317040759606E-6</v>
       </c>
       <c r="I48" s="93">
         <v>9</v>
       </c>
       <c r="J48" s="86">
         <f t="shared" si="33"/>
-        <v>4.457985275134084E-6</v>
+        <v>1.3705724733712722E-6</v>
       </c>
       <c r="K48" s="95">
         <v>9</v>
@@ -12613,7 +12614,7 @@
       </c>
       <c r="R48" s="37">
         <f>P44*N43+P43*N44</f>
-        <v>1.2625875588841199E-3</v>
+        <v>1.2944227830565888E-10</v>
       </c>
       <c r="S48" s="72">
         <v>9</v>
@@ -12627,7 +12628,7 @@
       </c>
       <c r="V48" s="86">
         <f>T48*R39+T47*R40+T46*R41+T45*R42+T44*R43+T43*R44+T42*R45+T41*R46+T40*R47+T39*R48</f>
-        <v>1.3394911260214708E-3</v>
+        <v>7.7408546277307451E-4</v>
       </c>
       <c r="W48" s="137"/>
       <c r="X48" s="28">
@@ -12671,14 +12672,14 @@
       </c>
       <c r="AQ48" s="79">
         <f>((($W$39)^Q48)*((1-($W$39))^($U$34-Q48))*HLOOKUP($U$34,$AV$24:$BF$34,Q48+1))*V48</f>
-        <v>3.32882554268981E-6</v>
+        <v>8.75502271909629E-7</v>
       </c>
       <c r="AR48" s="28">
         <v>9</v>
       </c>
       <c r="AS48" s="79">
         <f>((($W$39)^Q48)*((1-($W$39))^($U$35-Q48))*HLOOKUP($U$35,$AV$24:$BF$34,Q48+1))*V49</f>
-        <v>1.129159732444274E-6</v>
+        <v>4.9507020146164316E-7</v>
       </c>
       <c r="AV48" s="14">
         <v>10</v>
@@ -12696,7 +12697,7 @@
       </c>
       <c r="BJ48" s="107">
         <f>$H$30*H49</f>
-        <v>7.8758593544461903E-7</v>
+        <v>9.854640665979178E-8</v>
       </c>
     </row>
     <row r="49" spans="1:62" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12720,14 +12721,14 @@
       </c>
       <c r="H49" s="133">
         <f>J49*L39+J48*L40+J47*L41+J46*L42</f>
-        <v>5.1454465516326047E-6</v>
+        <v>6.7500448216795176E-7</v>
       </c>
       <c r="I49" s="94">
         <v>10</v>
       </c>
       <c r="J49" s="89">
         <f t="shared" si="33"/>
-        <v>1.1921317517958602E-7</v>
+        <v>4.3999834853329734E-8</v>
       </c>
       <c r="K49" s="96">
         <v>10</v>
@@ -12742,7 +12743,7 @@
       </c>
       <c r="R49" s="37">
         <f>P44*N44</f>
-        <v>8.0589953803833017E-5</v>
+        <v>8.575535964757685E-13</v>
       </c>
       <c r="S49" s="72">
         <v>10</v>
@@ -12756,7 +12757,7 @@
       </c>
       <c r="V49" s="89">
         <f>IF(((T49*R39+T48*R40+T47*R41+T46*R42+T45*R43+T44*R44+T43*R45+T42*R46+T41*R47+T40*R48+T39*R49)+V37)&lt;&gt;1,1-V37,(T49*R39+T48*R40+T47*R41+T46*R42+T45*R43+T44*R44+T43*R45+T42*R46+T41*R47+T40*R48+T39*R49))</f>
-        <v>9.3406797808226472E-5</v>
+        <v>8.2675167669021832E-5</v>
       </c>
       <c r="W49" s="137"/>
       <c r="X49" s="28">
@@ -12804,7 +12805,7 @@
       </c>
       <c r="AS49" s="79">
         <f>((($W$39)^Q49)*((1-($W$39))^($U$35-Q49))*HLOOKUP($U$35,$AV$24:$BF$34,Q49+1))*V49</f>
-        <v>1.1921317517958602E-7</v>
+        <v>4.3999834853329734E-8</v>
       </c>
       <c r="BH49">
         <f>BP14+1</f>
@@ -12815,7 +12816,7 @@
       </c>
       <c r="BJ49" s="107">
         <f>$H$31*H39</f>
-        <v>5.8175955647130576E-3</v>
+        <v>7.2847703637038885E-3</v>
       </c>
     </row>
     <row r="50" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12862,7 +12863,7 @@
       </c>
       <c r="BJ50" s="107">
         <f>$H$31*H46</f>
-        <v>2.1313889799688061E-4</v>
+        <v>6.2423018727055831E-5</v>
       </c>
     </row>
     <row r="51" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12890,7 +12891,7 @@
       </c>
       <c r="BJ51" s="107">
         <f>$H$31*H47</f>
-        <v>3.4670588207063167E-5</v>
+        <v>7.4618009075084233E-6</v>
       </c>
     </row>
     <row r="52" spans="1:62" x14ac:dyDescent="0.25">
@@ -12904,7 +12905,7 @@
       </c>
       <c r="BJ52" s="107">
         <f>$H$31*H48</f>
-        <v>4.2360152380114097E-6</v>
+        <v>6.7792485560771412E-7</v>
       </c>
     </row>
     <row r="53" spans="1:62" x14ac:dyDescent="0.25">
@@ -12917,7 +12918,7 @@
       </c>
       <c r="BJ53" s="107">
         <f>$H$31*H49</f>
-        <v>3.805045684337039E-7</v>
+        <v>4.6502802116317257E-8</v>
       </c>
     </row>
     <row r="54" spans="1:62" x14ac:dyDescent="0.25">
@@ -12930,7 +12931,7 @@
       </c>
       <c r="BJ54" s="107">
         <f>$H$32*H47</f>
-        <v>1.2299202440968725E-5</v>
+        <v>2.5912469715895562E-6</v>
       </c>
     </row>
     <row r="55" spans="1:62" x14ac:dyDescent="0.25">
@@ -12943,7 +12944,7 @@
       </c>
       <c r="BJ55" s="107">
         <f>$H$32*H48</f>
-        <v>1.5027033474072066E-6</v>
+        <v>2.3542181717702086E-7</v>
       </c>
     </row>
     <row r="56" spans="1:62" x14ac:dyDescent="0.25">
@@ -12956,7 +12957,7 @@
       </c>
       <c r="BJ56" s="107">
         <f>$H$32*H49</f>
-        <v>1.349819244176008E-7</v>
+        <v>1.6148949382056327E-8</v>
       </c>
     </row>
     <row r="57" spans="1:62" x14ac:dyDescent="0.25">
@@ -12969,7 +12970,7 @@
       </c>
       <c r="BJ57" s="107">
         <f>$H$33*H48</f>
-        <v>3.9134014183537157E-7</v>
+        <v>5.9963484481598675E-8</v>
       </c>
     </row>
     <row r="58" spans="1:62" x14ac:dyDescent="0.25">
@@ -12982,7 +12983,7 @@
       </c>
       <c r="BJ58" s="107">
         <f>$H$33*H49</f>
-        <v>3.5152543938854323E-8</v>
+        <v>4.1132435696770072E-9</v>
       </c>
     </row>
     <row r="59" spans="1:62" x14ac:dyDescent="0.25">
@@ -12995,7 +12996,7 @@
       </c>
       <c r="BJ59" s="107">
         <f>$H$34*H49</f>
-        <v>6.6537648138976772E-9</v>
+        <v>7.5600654430788524E-10</v>
       </c>
     </row>
   </sheetData>

--- a/projects/current/hattrick/4-SimuladorPartidos.xlsx
+++ b/projects/current/hattrick/4-SimuladorPartidos.xlsx
@@ -3111,7 +3111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="324">
   <si>
     <t>LOCAL</t>
   </si>
@@ -4080,9 +4080,6 @@
   </si>
   <si>
     <t>Orienteers</t>
-  </si>
-  <si>
-    <t>CA</t>
   </si>
   <si>
     <t>AOW</t>
@@ -6344,11 +6341,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="291079744"/>
-        <c:axId val="291080528"/>
+        <c:axId val="291822288"/>
+        <c:axId val="291823856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="291079744"/>
+        <c:axId val="291822288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6358,7 +6355,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="291080528"/>
+        <c:crossAx val="291823856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6366,7 +6363,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="291080528"/>
+        <c:axId val="291823856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6377,7 +6374,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="291079744"/>
+        <c:crossAx val="291822288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6696,11 +6693,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="292983656"/>
-        <c:axId val="292982872"/>
+        <c:axId val="293142520"/>
+        <c:axId val="293143304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="292983656"/>
+        <c:axId val="293142520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6710,7 +6707,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="292982872"/>
+        <c:crossAx val="293143304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6718,7 +6715,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="292982872"/>
+        <c:axId val="293143304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6729,7 +6726,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="292983656"/>
+        <c:crossAx val="293142520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7140,11 +7137,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="291083272"/>
-        <c:axId val="291083664"/>
+        <c:axId val="291821504"/>
+        <c:axId val="291816408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="291083272"/>
+        <c:axId val="291821504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7154,7 +7151,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="291083664"/>
+        <c:crossAx val="291816408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7162,7 +7159,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="291083664"/>
+        <c:axId val="291816408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7173,7 +7170,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="291083272"/>
+        <c:crossAx val="291821504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7377,37 +7374,37 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.975414833706843E-2</c:v>
+                  <c:v>0.1211083740886893</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12072468020063268</c:v>
+                  <c:v>0.27716273762468996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22507284868049804</c:v>
+                  <c:v>0.29298994742192286</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25542503022020813</c:v>
+                  <c:v>0.18971269640384864</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19704108447605037</c:v>
+                  <c:v>8.411536271310556E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10926893331135296</c:v>
+                  <c:v>2.7036380294892363E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.4912790539959738E-2</c:v>
+                  <c:v>6.501203698527783E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3897564371286281E-2</c:v>
+                  <c:v>1.1884720745820791E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2512607171760492E-3</c:v>
+                  <c:v>1.6585055016220515E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.7100634561586664E-4</c:v>
+                  <c:v>1.7527108812462658E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.3625238230008163E-5</c:v>
+                  <c:v>1.3699259260558894E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7445,37 +7442,37 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.12412579448269455</c:v>
+                  <c:v>4.1984437600272977E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2909881580780308</c:v>
+                  <c:v>0.16701674497253305</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2980868671429574</c:v>
+                  <c:v>0.2747672795063606</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18221082931635321</c:v>
+                  <c:v>0.25936034217879606</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.5560961739622096E-2</c:v>
+                  <c:v>0.16014719318434101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2769385317149171E-2</c:v>
+                  <c:v>6.9132531485514695E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.1948145992971456E-3</c:v>
+                  <c:v>2.1628146334126443E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.1995177421920992E-4</c:v>
+                  <c:v>4.991986007759925E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2802282204017921E-4</c:v>
+                  <c:v>8.5376650956513547E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3972888238593322E-5</c:v>
+                  <c:v>1.0728753768780315E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1684262961363009E-6</c:v>
+                  <c:v>9.6676777792887202E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7492,11 +7489,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="302207408"/>
-        <c:axId val="302211720"/>
+        <c:axId val="291817584"/>
+        <c:axId val="291817976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="302207408"/>
+        <c:axId val="291817584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7506,7 +7503,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="302211720"/>
+        <c:crossAx val="291817976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7514,7 +7511,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="302211720"/>
+        <c:axId val="291817976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7525,7 +7522,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="302207408"/>
+        <c:crossAx val="291817584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7598,13 +7595,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.17007829985451239</c:v>
+                  <c:v>0.19657010383776058</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19996421098317302</c:v>
+                  <c:v>0.54443570645269335</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6298767630410087</c:v>
+                  <c:v>0.25899212469765381</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7844,11 +7841,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="292985616"/>
-        <c:axId val="292979736"/>
+        <c:axId val="293144088"/>
+        <c:axId val="293137816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="292985616"/>
+        <c:axId val="293144088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7858,7 +7855,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="292979736"/>
+        <c:crossAx val="293137816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7866,7 +7863,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="292979736"/>
+        <c:axId val="293137816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7877,7 +7874,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="292985616"/>
+        <c:crossAx val="293144088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8196,11 +8193,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="292978560"/>
-        <c:axId val="292978952"/>
+        <c:axId val="293139776"/>
+        <c:axId val="293137424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="292978560"/>
+        <c:axId val="293139776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8210,7 +8207,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="292978952"/>
+        <c:crossAx val="293137424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8218,7 +8215,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="292978952"/>
+        <c:axId val="293137424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8229,7 +8226,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="292978560"/>
+        <c:crossAx val="293139776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23826,7 +23823,7 @@
   <dimension ref="A1:BR59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23917,11 +23914,11 @@
       </c>
       <c r="L1" s="70">
         <f>K1+K2+K3</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M1" s="150">
         <f>L1+H1</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P1" s="199" t="s">
         <v>135</v>
@@ -24020,7 +24017,7 @@
       </c>
       <c r="K3" s="70">
         <f>IF(D3="SI",COUNTIF($J$6:$J$18,"POT"),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3" s="13"/>
       <c r="O3" t="s">
@@ -24139,7 +24136,7 @@
       </c>
       <c r="BJ4" s="107">
         <f t="shared" ref="BJ4:BJ13" si="0">$H$25*H40</f>
-        <v>8.658104819784046E-3</v>
+        <v>2.022712642920875E-2</v>
       </c>
       <c r="BL4">
         <v>0</v>
@@ -24149,7 +24146,7 @@
       </c>
       <c r="BN4" s="107">
         <f>H25*H39</f>
-        <v>3.6932573014945638E-3</v>
+        <v>5.0846669747970927E-3</v>
       </c>
       <c r="BP4">
         <v>1</v>
@@ -24159,7 +24156,7 @@
       </c>
       <c r="BR4" s="107">
         <f>$H$26*H39</f>
-        <v>1.4985046843572755E-2</v>
+        <v>1.1636521662924627E-2</v>
       </c>
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.25">
@@ -24205,19 +24202,19 @@
       </c>
       <c r="R5" s="157">
         <f>IF($M$2="SI",Q5*$B$22/0.5*$S$1,Q5*$B$22/0.5*$S$2)</f>
-        <v>1.1105863789430414E-2</v>
+        <v>8.2358091022742413E-3</v>
       </c>
       <c r="S5" s="176">
         <f>(1-R5)</f>
-        <v>0.98889413621056954</v>
+        <v>0.99176419089772572</v>
       </c>
       <c r="T5" s="177">
         <f>R5*PRODUCT(S6:S19)</f>
-        <v>7.273973455454821E-3</v>
+        <v>6.0356087643114384E-3</v>
       </c>
       <c r="U5" s="177">
         <f>R5*R6*PRODUCT(S7:S19)+R5*R7*PRODUCT(S8:S19)*PRODUCT(S6)+R5*R8*PRODUCT(S9:S19)*PRODUCT(S6:S7)+R5*R9*PRODUCT(S10:S19)*PRODUCT(S6:S8)+R5*R10*PRODUCT(S11:S19)*PRODUCT(S6:S9)+R5*R11*PRODUCT(S12:S19)*PRODUCT(S6:S10)+R5*R12*PRODUCT(S13:S19)*PRODUCT(S6:S11)+R5*R13*PRODUCT(S14:S19)*PRODUCT(S6:S12)+R5*R14*PRODUCT(S15:S19)*PRODUCT(S6:S13)+R5*R15*PRODUCT(S16:S19)*PRODUCT(S6:S14)+R5*R16*PRODUCT(S17:S19)*PRODUCT(S6:S15)+R5*R17*PRODUCT(S18:S19)*PRODUCT(S6:S16)+R5*R18*PRODUCT(S19)*PRODUCT(S6:S17)+R5*R19*PRODUCT(S6:S18)</f>
-        <v>3.1935287922962119E-3</v>
+        <v>1.9271256951114472E-3</v>
       </c>
       <c r="V5" s="18"/>
       <c r="W5" s="186" t="s">
@@ -24263,7 +24260,7 @@
       </c>
       <c r="BJ5" s="107">
         <f t="shared" si="0"/>
-        <v>8.8693208623035636E-3</v>
+        <v>3.3276618473787774E-2</v>
       </c>
       <c r="BL5">
         <v>1</v>
@@ -24273,7 +24270,7 @@
       </c>
       <c r="BN5" s="107">
         <f>$H$26*H40</f>
-        <v>3.5129452326141418E-2</v>
+        <v>4.6290818265751932E-2</v>
       </c>
       <c r="BP5">
         <f>BP4+1</f>
@@ -24284,7 +24281,7 @@
       </c>
       <c r="BR5" s="107">
         <f>$H$27*H39</f>
-        <v>2.7937346158950108E-2</v>
+        <v>1.2301018165042981E-2</v>
       </c>
     </row>
     <row r="6" spans="1:70" x14ac:dyDescent="0.25">
@@ -24295,7 +24292,7 @@
         <v>10.25</v>
       </c>
       <c r="C6" s="169">
-        <v>6.25</v>
+        <v>12</v>
       </c>
       <c r="E6" s="192" t="s">
         <v>17</v>
@@ -24326,19 +24323,19 @@
       </c>
       <c r="R6" s="157">
         <f>IF($M$2="SI",Q6*$B$22/0.5*$S$1,Q6*$B$22/0.5*$S$2)</f>
-        <v>1.1105863789430414E-2</v>
+        <v>8.2358091022742413E-3</v>
       </c>
       <c r="S6" s="176">
         <f t="shared" ref="S6:S19" si="2">(1-R6)</f>
-        <v>0.98889413621056954</v>
+        <v>0.99176419089772572</v>
       </c>
       <c r="T6" s="177">
         <f>R6*S5*PRODUCT(S7:S19)</f>
-        <v>7.273973455454821E-3</v>
+        <v>6.0356087643114367E-3</v>
       </c>
       <c r="U6" s="177">
         <f>R6*R7*PRODUCT(S8:S19)*PRODUCT(S5)+R6*R8*PRODUCT(S9:S19)*S5*PRODUCT(S7)+R6*R9*PRODUCT(S10:S19)*S5*PRODUCT(S7:S8)+R6*R10*PRODUCT(S11:S19)*S5*PRODUCT(S7:S9)+R6*R11*PRODUCT(S12:S19)*S5*PRODUCT(S7:S10)+R6*R12*PRODUCT(S13:S19)*S5*PRODUCT(S7:S11)+R6*R13*PRODUCT(S14:S19)*S5*PRODUCT(S7:S12)+R6*R14*PRODUCT(S15:S19)*S5*PRODUCT(S7:S13)+R6*R15*PRODUCT(S16:S19)*S5*PRODUCT(S7:S14)+R6*R16*PRODUCT(S17:S19)*S5*PRODUCT(S7:S15)+R6*R17*PRODUCT(S18:S19)*S5*PRODUCT(S7:S16)+R6*R18*PRODUCT(S19)*S5*PRODUCT(S7:S17)+R6*R19*S5*PRODUCT(S7:S18)</f>
-        <v>3.1118377846886878E-3</v>
+        <v>1.8770047872836623E-3</v>
       </c>
       <c r="V6" s="18"/>
       <c r="W6" s="186" t="s">
@@ -24384,7 +24381,7 @@
       </c>
       <c r="BJ6" s="107">
         <f t="shared" si="0"/>
-        <v>5.4215280440990301E-3</v>
+        <v>3.1410709344360091E-2</v>
       </c>
       <c r="BL6">
         <f>BH14+1</f>
@@ -24395,7 +24392,7 @@
       </c>
       <c r="BN6" s="107">
         <f>$H$27*H41</f>
-        <v>6.7091260342110576E-2</v>
+        <v>8.0504050775833377E-2</v>
       </c>
       <c r="BP6">
         <f>BL5+1</f>
@@ -24406,7 +24403,7 @@
       </c>
       <c r="BR6" s="107">
         <f>$H$27*H40</f>
-        <v>6.549353367091347E-2</v>
+        <v>4.8934227328083155E-2</v>
       </c>
     </row>
     <row r="7" spans="1:70" x14ac:dyDescent="0.25">
@@ -24417,7 +24414,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="169">
-        <v>17.75</v>
+        <v>12.25</v>
       </c>
       <c r="E7" s="192" t="s">
         <v>18</v>
@@ -24426,9 +24423,7 @@
       <c r="G7" s="167"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="166" t="s">
-        <v>144</v>
-      </c>
+      <c r="J7" s="166"/>
       <c r="K7" s="166"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
@@ -24498,7 +24493,7 @@
       </c>
       <c r="BJ7" s="107">
         <f t="shared" si="0"/>
-        <v>2.248252064092268E-3</v>
+        <v>1.9395166181422764E-2</v>
       </c>
       <c r="BL7">
         <f>BH23+1</f>
@@ -24509,7 +24504,7 @@
       </c>
       <c r="BN7" s="107">
         <f>$H$28*H42</f>
-        <v>4.6541206584578707E-2</v>
+        <v>4.9203949854964235E-2</v>
       </c>
       <c r="BP7">
         <f>BP5+1</f>
@@ -24520,7 +24515,7 @@
       </c>
       <c r="BR7" s="107">
         <f>$H$28*H39</f>
-        <v>3.1704834806849595E-2</v>
+        <v>7.9649808641469137E-3</v>
       </c>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.25">
@@ -24531,7 +24526,7 @@
         <v>11.75</v>
       </c>
       <c r="C8" s="169">
-        <v>13.75</v>
+        <v>14.25</v>
       </c>
       <c r="E8" s="192" t="s">
         <v>18</v>
@@ -24560,19 +24555,19 @@
       </c>
       <c r="R8" s="157">
         <f t="shared" si="6"/>
-        <v>6.5328610526061261E-3</v>
+        <v>4.8445935895730825E-3</v>
       </c>
       <c r="S8" s="176">
         <f t="shared" si="2"/>
-        <v>0.99346713894739391</v>
+        <v>0.99515540641042688</v>
       </c>
       <c r="T8" s="177">
         <f>R8*PRODUCT(S5:S7)*PRODUCT(S9:S19)</f>
-        <v>4.2591122455965273E-3</v>
+        <v>3.5382594541950715E-3</v>
       </c>
       <c r="U8" s="177">
         <f>R8*R9*PRODUCT(S5:S7)*PRODUCT(S10:S19)+R8*R10*PRODUCT(S5:S7)*PRODUCT(S9)*PRODUCT(S11:S19)+R8*R11*PRODUCT(S5:S7)*PRODUCT(S9:S10)*PRODUCT(S12:S19)+R8*R12*PRODUCT(S5:S7)*PRODUCT(S9:S11)*PRODUCT(S13:S19)+R8*R13*PRODUCT(S5:S7)*PRODUCT(S9:S12)*PRODUCT(S14:S19)+R8*R14*PRODUCT(S5:S7)*PRODUCT(S9:S13)*PRODUCT(S15:S19)+R8*R15*PRODUCT(S5:S7)*PRODUCT(S9:S14)*PRODUCT(S16:S19)+R8*R16*PRODUCT(S5:S7)*PRODUCT(S9:S15)*PRODUCT(S17:S19)+R8*R17*PRODUCT(S5:S7)*PRODUCT(S9:S16)*PRODUCT(S18:S19)+R8*R18*PRODUCT(S5:S7)*PRODUCT(S9:S17)*PRODUCT(S19)+R8*R19*PRODUCT(S5:S7)*PRODUCT(S9:S18)</f>
-        <v>1.7940597653160824E-3</v>
+        <v>1.0831330480994014E-3</v>
       </c>
       <c r="W8" s="186" t="s">
         <v>42</v>
@@ -24616,7 +24611,7 @@
       </c>
       <c r="BJ8" s="107">
         <f t="shared" si="0"/>
-        <v>6.7748366827032438E-4</v>
+        <v>8.3725284848458047E-3</v>
       </c>
       <c r="BL8">
         <f>BH31+1</f>
@@ -24627,7 +24622,7 @@
       </c>
       <c r="BN8" s="107">
         <f>$H$29*H43</f>
-        <v>1.4888613845228488E-2</v>
+        <v>1.347083924218663E-2</v>
       </c>
       <c r="BP8">
         <f>BP6+1</f>
@@ -24638,7 +24633,7 @@
       </c>
       <c r="BR8" s="107">
         <f>$H$28*H40</f>
-        <v>7.4325659070803712E-2</v>
+        <v>3.1685197033333175E-2</v>
       </c>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.25">
@@ -24649,7 +24644,7 @@
         <v>15.5</v>
       </c>
       <c r="C9" s="169">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="E9" s="192" t="s">
         <v>18</v>
@@ -24659,7 +24654,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="166" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="K9" s="166"/>
       <c r="L9" s="10"/>
@@ -24732,7 +24727,7 @@
       </c>
       <c r="BJ9" s="107">
         <f t="shared" si="0"/>
-        <v>1.5456728417105598E-4</v>
+        <v>2.6193496370782994E-3</v>
       </c>
       <c r="BL9">
         <f>BH38+1</f>
@@ -24743,7 +24738,7 @@
       </c>
       <c r="BN9" s="107">
         <f>$H$30*H44</f>
-        <v>2.4879864457600718E-3</v>
+        <v>1.8690934119909954E-3</v>
       </c>
       <c r="BP9">
         <f>BL6+1</f>
@@ -24754,7 +24749,7 @@
       </c>
       <c r="BR9" s="107">
         <f>$H$28*H41</f>
-        <v>7.6138847048237063E-2</v>
+        <v>5.2126841478701606E-2</v>
       </c>
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.25">
@@ -24765,7 +24760,7 @@
         <v>14.25</v>
       </c>
       <c r="C10" s="169">
-        <v>15.75</v>
+        <v>12.25</v>
       </c>
       <c r="E10" s="192" t="s">
         <v>17</v>
@@ -24796,19 +24791,19 @@
       </c>
       <c r="R10" s="157">
         <f t="shared" si="6"/>
-        <v>6.6635182736582491E-2</v>
+        <v>4.9414854613645441E-2</v>
       </c>
       <c r="S10" s="176">
         <f t="shared" si="2"/>
-        <v>0.93336481726341747</v>
+        <v>0.95058514538635452</v>
       </c>
       <c r="T10" s="177">
         <f>R10*PRODUCT(S5:S9)*PRODUCT(S11:S19)</f>
-        <v>4.6240373950289071E-2</v>
+        <v>3.7782416473253345E-2</v>
       </c>
       <c r="U10" s="177">
         <f>R10*R11*PRODUCT(S5:S9)*PRODUCT(S12:S19)+R10*R12*PRODUCT(S5:S9)*S11*PRODUCT(S13:S19)+R10*R13*PRODUCT(S5:S9)*PRODUCT(S11:S12)*PRODUCT(S14:S19)+R10*R14*PRODUCT(S5:S9)*PRODUCT(S11:S13)*PRODUCT(S15:S19)+R10*R15*PRODUCT(S5:S9)*PRODUCT(S11:S14)*PRODUCT(S16:S19)+R10*R16*PRODUCT(S5:S9)*PRODUCT(S11:S15)*PRODUCT(S17:S19)+R10*R17*PRODUCT(S5:S9)*PRODUCT(S11:S16)*PRODUCT(S18:S19)+R10*R18*PRODUCT(S5:S9)*PRODUCT(S11:S17)*PRODUCT(S19)+R10*R19*PRODUCT(S5:S9)*PRODUCT(S11:S18)</f>
-        <v>1.6176553967616768E-2</v>
+        <v>9.6018980054933152E-3</v>
       </c>
       <c r="W10" s="186" t="s">
         <v>46</v>
@@ -24830,19 +24825,19 @@
       </c>
       <c r="AB10" s="157">
         <f t="shared" si="4"/>
-        <v>4.0631208985721028E-2</v>
+        <v>5.7851537108658077E-2</v>
       </c>
       <c r="AC10" s="176">
         <f t="shared" si="5"/>
-        <v>0.95936879101427897</v>
+        <v>0.94214846289134191</v>
       </c>
       <c r="AD10" s="177">
         <f>AB10*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC19)</f>
-        <v>2.1531148797175149E-2</v>
+        <v>2.0443077456260419E-2</v>
       </c>
       <c r="AE10" s="177">
         <f>AB10*AB11*PRODUCT(AC5:AC9)*PRODUCT(AC12:AC19)+AB10*AB12*PRODUCT(AC5:AC9)*AC11*PRODUCT(AC13:AC19)+AB10*AB13*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC12)*PRODUCT(AC14:AC19)+AB10*AB14*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC13)*PRODUCT(AC15:AC19)+AB10*AB15*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC14)*PRODUCT(AC16:AC19)+AB10*AB16*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC15)*PRODUCT(AC17:AC19)+AB10*AB17*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC16)*PRODUCT(AC18:AC19)+AB10*AB18*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC17)*PRODUCT(AC19)+AB10*AB19*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC18)</f>
-        <v>1.7554501956483917E-2</v>
+        <v>3.3051432942899528E-2</v>
       </c>
       <c r="BH10">
         <v>0</v>
@@ -24852,7 +24847,7 @@
       </c>
       <c r="BJ10" s="107">
         <f t="shared" si="0"/>
-        <v>2.7372381553067656E-5</v>
+        <v>6.0457130887329167E-4</v>
       </c>
       <c r="BL10">
         <f>BH44+1</f>
@@ -24863,7 +24858,7 @@
       </c>
       <c r="BN10" s="107">
         <f>$H$31*H45</f>
-        <v>2.3331361999215757E-4</v>
+        <v>1.4060898493972295E-4</v>
       </c>
       <c r="BP10">
         <f>BP7+1</f>
@@ -24874,7 +24869,7 @@
       </c>
       <c r="BR10" s="107">
         <f>$H$29*H39</f>
-        <v>2.4457881156321484E-2</v>
+        <v>3.5315361970527084E-3</v>
       </c>
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.25">
@@ -24885,7 +24880,7 @@
         <v>8.75</v>
       </c>
       <c r="C11" s="169">
-        <v>6.75</v>
+        <v>9.5</v>
       </c>
       <c r="E11" s="192" t="s">
         <v>19</v>
@@ -24916,19 +24911,19 @@
       </c>
       <c r="R11" s="157">
         <f t="shared" si="6"/>
-        <v>6.6635182736582491E-2</v>
+        <v>4.9414854613645441E-2</v>
       </c>
       <c r="S11" s="176">
         <f t="shared" si="2"/>
-        <v>0.93336481726341747</v>
+        <v>0.95058514538635452</v>
       </c>
       <c r="T11" s="177">
         <f>R11*PRODUCT(S5:S10)*PRODUCT(S12:S19)</f>
-        <v>4.6240373950289071E-2</v>
+        <v>3.7782416473253345E-2</v>
       </c>
       <c r="U11" s="177">
         <f>R11*R12*PRODUCT(S5:S10)*PRODUCT(S13:S19)+R11*R13*PRODUCT(S5:S10)*S12*PRODUCT(S14:S19)+R11*R14*PRODUCT(S5:S10)*PRODUCT(S12:S13)*PRODUCT(S15:S19)+R11*R15*PRODUCT(S5:S10)*PRODUCT(S12:S14)*PRODUCT(S16:S19)+R11*R16*PRODUCT(S5:S10)*PRODUCT(S12:S15)*PRODUCT(S17:S19)+R11*R17*PRODUCT(S5:S10)*PRODUCT(S12:S16)*PRODUCT(S18:S19)+R11*R18*PRODUCT(S5:S10)*PRODUCT(S12:S17)*PRODUCT(S19)+R11*R19*PRODUCT(S5:S10)*PRODUCT(S12:S18)</f>
-        <v>1.2875341289577905E-2</v>
+        <v>7.6378313187377683E-3</v>
       </c>
       <c r="W11" s="186" t="s">
         <v>48</v>
@@ -24950,19 +24945,19 @@
       </c>
       <c r="AB11" s="157">
         <f t="shared" si="4"/>
-        <v>4.0631208985721028E-2</v>
+        <v>5.7851537108658077E-2</v>
       </c>
       <c r="AC11" s="176">
         <f t="shared" si="5"/>
-        <v>0.95936879101427897</v>
+        <v>0.94214846289134191</v>
       </c>
       <c r="AD11" s="177">
         <f>AB11*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC19)</f>
-        <v>2.1531148797175149E-2</v>
+        <v>2.0443077456260415E-2</v>
       </c>
       <c r="AE11" s="177">
         <f>AB11*AB12*PRODUCT(AC5:AC10)*PRODUCT(AC13:AC19)+AB11*AB13*PRODUCT(AC5:AC10)*AC12*PRODUCT(AC14:AC19)+AB11*AB14*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC13)*PRODUCT(AC15:AC19)+AB11*AB15*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC14)*PRODUCT(AC16:AC19)+AB11*AB16*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC15)*PRODUCT(AC17:AC19)+AB11*AB17*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC16)*PRODUCT(AC18:AC19)+AB11*AB18*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC17)*PRODUCT(AC19)+AB11*AB19*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC18)</f>
-        <v>1.6642614250030829E-2</v>
+        <v>3.1796149406750067E-2</v>
       </c>
       <c r="BH11">
         <v>0</v>
@@ -24972,7 +24967,7 @@
       </c>
       <c r="BJ11" s="107">
         <f t="shared" si="0"/>
-        <v>3.8092100375136058E-6</v>
+        <v>1.0339827382480895E-4</v>
       </c>
       <c r="BL11">
         <f>BH50+1</f>
@@ -24983,7 +24978,7 @@
       </c>
       <c r="BN11" s="107">
         <f>$H$32*H46</f>
-        <v>1.2785089000690492E-5</v>
+        <v>5.9328359669271491E-6</v>
       </c>
       <c r="BP11">
         <f>BP8+1</f>
@@ -24994,7 +24989,7 @@
       </c>
       <c r="BR11" s="107">
         <f>$H$29*H40</f>
-        <v>5.7336622237383568E-2</v>
+        <v>1.4048674082526866E-2</v>
       </c>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.25">
@@ -25005,7 +25000,7 @@
         <v>15.5</v>
       </c>
       <c r="C12" s="169">
-        <v>14.75</v>
+        <v>11</v>
       </c>
       <c r="E12" s="192" t="s">
         <v>19</v>
@@ -25016,7 +25011,9 @@
       <c r="G12" s="167"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
-      <c r="J12" s="166"/>
+      <c r="J12" s="166" t="s">
+        <v>144</v>
+      </c>
       <c r="K12" s="166"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
@@ -25082,7 +25079,7 @@
       </c>
       <c r="BJ12" s="107">
         <f t="shared" si="0"/>
-        <v>4.157513893483845E-7</v>
+        <v>1.2993419249348816E-5</v>
       </c>
       <c r="BL12">
         <f>BH54+1</f>
@@ -25093,7 +25090,7 @@
       </c>
       <c r="BN12" s="107">
         <f>$H$33*H47</f>
-        <v>4.1623557220125477E-7</v>
+        <v>1.4159764532144329E-7</v>
       </c>
       <c r="BP12">
         <f>BP9+1</f>
@@ -25104,7 +25101,7 @@
       </c>
       <c r="BR12" s="107">
         <f>$H$29*H41</f>
-        <v>5.873535956991667E-2</v>
+        <v>2.3112149377370779E-2</v>
       </c>
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.25">
@@ -25145,19 +25142,19 @@
       </c>
       <c r="R13" s="157">
         <f t="shared" si="6"/>
-        <v>5.4440508771717716E-2</v>
+        <v>4.0371613246442353E-2</v>
       </c>
       <c r="S13" s="176">
         <f t="shared" si="2"/>
-        <v>0.94555949122828231</v>
+        <v>0.95962838675355766</v>
       </c>
       <c r="T13" s="177">
         <f>R13*PRODUCT(S5:S12)*PRODUCT(S14:S19)</f>
-        <v>3.7290867614546266E-2</v>
+        <v>3.057709694128791E-2</v>
       </c>
       <c r="U13" s="177">
         <f>R13*R14*PRODUCT(S5:S12)*PRODUCT(S15:S19)+R13*R15*PRODUCT(S5:S12)*S14*PRODUCT(S16:S19)+R13*R16*PRODUCT(S5:S12)*PRODUCT(S14:S15)*PRODUCT(S17:S19)+R13*R17*PRODUCT(S5:S12)*PRODUCT(S14:S16)*PRODUCT(S18:S19)+R13*R18*PRODUCT(S5:S12)*PRODUCT(S14:S17)*PRODUCT(S19)+R13*R19*PRODUCT(S5:S12)*PRODUCT(S14:S18)</f>
-        <v>8.2363889500197286E-3</v>
+        <v>4.8948739197672651E-3</v>
       </c>
       <c r="W13" s="186" t="s">
         <v>52</v>
@@ -25178,19 +25175,19 @@
       </c>
       <c r="AB13" s="157">
         <f t="shared" si="4"/>
-        <v>3.3195432177876655E-2</v>
+        <v>4.7264327703152025E-2</v>
       </c>
       <c r="AC13" s="176">
         <f t="shared" si="5"/>
-        <v>0.96680456782212332</v>
+        <v>0.95273567229684797</v>
       </c>
       <c r="AD13" s="177">
         <f>AB13*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC19)</f>
-        <v>1.74555154298008E-2</v>
+        <v>1.6516262392894838E-2</v>
       </c>
       <c r="AE13" s="177">
         <f>AB13*AB14*PRODUCT(AC5:AC12)*PRODUCT(AC15:AC19)+AB13*AB15*PRODUCT(AC5:AC12)*AC14*PRODUCT(AC16:AC19)+AB13*AB16*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC15)*PRODUCT(AC17:AC19)+AB13*AB17*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC16)*PRODUCT(AC18:AC19)+AB13*AB18*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC17)*PRODUCT(AC19)+AB13*AB19*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC18)</f>
-        <v>1.2892993403949993E-2</v>
+        <v>2.4869219525281306E-2</v>
       </c>
       <c r="BH13">
         <v>0</v>
@@ -25200,7 +25197,7 @@
       </c>
       <c r="BJ13" s="107">
         <f t="shared" si="0"/>
-        <v>3.4765529336170946E-8</v>
+        <v>1.1708367370630072E-6</v>
       </c>
       <c r="BL13">
         <f>BH57+1</f>
@@ -25211,7 +25208,7 @@
       </c>
       <c r="BN13" s="107">
         <f>$H$34*H48</f>
-        <v>7.9786078508180963E-9</v>
+        <v>1.8804403472753141E-9</v>
       </c>
       <c r="BP13">
         <f>BL7+1</f>
@@ -25222,7 +25219,7 @@
       </c>
       <c r="BR13" s="107">
         <f>$H$29*H42</f>
-        <v>3.5903019411774748E-2</v>
+        <v>2.18161892557646E-2</v>
       </c>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.25">
@@ -25263,19 +25260,19 @@
       </c>
       <c r="R14" s="157">
         <f t="shared" si="6"/>
-        <v>9.8265118332950471E-2</v>
+        <v>7.2870761909828441E-2</v>
       </c>
       <c r="S14" s="176">
         <f t="shared" si="2"/>
-        <v>0.90173488166704951</v>
+        <v>0.92712923809017156</v>
       </c>
       <c r="T14" s="177">
         <f>R14*PRODUCT(S5:S13)*PRODUCT(S15:S19)</f>
-        <v>7.0581304792947247E-2</v>
+        <v>5.7126322255809575E-2</v>
       </c>
       <c r="U14" s="177">
         <f>R14*R15*PRODUCT(S5:S13)*PRODUCT(S16:S19)+R14*R16*PRODUCT(S5:S13)*S15*PRODUCT(S17:S19)+R14*R17*PRODUCT(S5:S13)*PRODUCT(S15:S16)*PRODUCT(S18:S19)+R14*R18*PRODUCT(S5:S13)*PRODUCT(S15:S17)*PRODUCT(S19)+R14*R19*PRODUCT(S5:S13)*PRODUCT(S15:S18)</f>
-        <v>7.8977227089594426E-3</v>
+        <v>4.654923421676135E-3</v>
       </c>
       <c r="W14" s="186" t="s">
         <v>54</v>
@@ -25296,19 +25293,19 @@
       </c>
       <c r="AB14" s="157">
         <f t="shared" si="4"/>
-        <v>0.41942428556747158</v>
+        <v>0.59718478052932578</v>
       </c>
       <c r="AC14" s="176">
         <f t="shared" si="5"/>
-        <v>0.58057571443252842</v>
+        <v>0.40281521947067422</v>
       </c>
       <c r="AD14" s="177">
         <f>AB14*PRODUCT(AC5:AC13)*PRODUCT(AC15:AC19)</f>
-        <v>0.36727194242975414</v>
+        <v>0.49357547875977187</v>
       </c>
       <c r="AE14" s="177">
         <f>AB14*AB15*PRODUCT(AC5:AC13)*PRODUCT(AC16:AC19)+AB14*AB16*PRODUCT(AC5:AC13)*AC15*PRODUCT(AC17:AC19)+AB14*AB17*PRODUCT(AC5:AC13)*PRODUCT(AC15:AC16)*PRODUCT(AC18:AC19)+AB14*AB18*PRODUCT(AC5:AC13)*PRODUCT(AC15:AC17)*PRODUCT(AC19)+AB14*AB19*PRODUCT(AC5:AC13)*PRODUCT(AC15:AC18)</f>
-        <v>5.9467955052646239E-3</v>
+        <v>1.14576240342707E-2</v>
       </c>
       <c r="BH14">
         <v>1</v>
@@ -25318,7 +25315,7 @@
       </c>
       <c r="BJ14" s="107">
         <f t="shared" ref="BJ14:BJ22" si="7">$H$26*H41</f>
-        <v>3.5986441707842015E-2</v>
+        <v>7.6155251397671278E-2</v>
       </c>
       <c r="BL14">
         <f>BP39+1</f>
@@ -25329,7 +25326,7 @@
       </c>
       <c r="BN14" s="107">
         <f>$H$35*H49</f>
-        <v>8.602566440724122E-11</v>
+        <v>1.3244002434602044E-11</v>
       </c>
       <c r="BP14">
         <f>BP10+1</f>
@@ -25340,7 +25337,7 @@
       </c>
       <c r="BR14" s="107">
         <f>$H$30*H39</f>
-        <v>1.3563093159548253E-2</v>
+        <v>1.1351072214281584E-3</v>
       </c>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.25">
@@ -25430,7 +25427,7 @@
       </c>
       <c r="BJ15" s="107">
         <f t="shared" si="7"/>
-        <v>2.1997344098308808E-2</v>
+        <v>7.188502246955146E-2</v>
       </c>
       <c r="BP15">
         <f>BP11+1</f>
@@ -25441,7 +25438,7 @@
       </c>
       <c r="BR15" s="107">
         <f>$H$30*H40</f>
-        <v>3.1795965639421782E-2</v>
+        <v>4.515528232692456E-3</v>
       </c>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.25">
@@ -25466,7 +25463,7 @@
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="166" t="s">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="K16" s="166"/>
       <c r="L16" s="10"/>
@@ -25539,7 +25536,7 @@
       </c>
       <c r="BJ16" s="107">
         <f t="shared" si="7"/>
-        <v>9.1220729416681186E-3</v>
+        <v>4.4386834485882043E-2</v>
       </c>
       <c r="BP16">
         <f>BP12+1</f>
@@ -25550,7 +25547,7 @@
       </c>
       <c r="BR16" s="107">
         <f>$H$30*H41</f>
-        <v>3.2571634006833938E-2</v>
+        <v>7.4287126613269494E-3</v>
       </c>
     </row>
     <row r="17" spans="1:70" x14ac:dyDescent="0.25">
@@ -25558,10 +25555,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="172" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C17" s="173" t="s">
-        <v>323</v>
+        <v>11</v>
       </c>
       <c r="E17" s="192" t="s">
         <v>22</v>
@@ -25588,19 +25585,19 @@
       </c>
       <c r="R17" s="157">
         <f t="shared" si="6"/>
-        <v>2.6131444210424504E-2</v>
+        <v>1.937837435829233E-2</v>
       </c>
       <c r="S17" s="176">
         <f t="shared" si="2"/>
-        <v>0.97386855578957554</v>
+        <v>0.98062162564170763</v>
       </c>
       <c r="T17" s="177">
         <f>R17*PRODUCT(S5:S16)*PRODUCT(S18:S19)</f>
-        <v>1.7379298394773719E-2</v>
+        <v>1.4362799812092058E-2</v>
       </c>
       <c r="U17" s="177">
         <f>R17*R18*PRODUCT(S5:S16)*S19+R17*R19*PRODUCT(S5:S16)*S18</f>
-        <v>1.4783312944981583E-3</v>
+        <v>8.86521150997514E-4</v>
       </c>
       <c r="W17" s="186" t="s">
         <v>60</v>
@@ -25622,15 +25619,15 @@
       </c>
       <c r="AB17" s="157">
         <f t="shared" si="4"/>
-        <v>1.5933807445380792E-2</v>
+        <v>2.268687729751297E-2</v>
       </c>
       <c r="AC17" s="176">
         <f t="shared" si="5"/>
-        <v>0.98406619255461925</v>
+        <v>0.97731312270248705</v>
       </c>
       <c r="AD17" s="177">
         <f>AB17*PRODUCT(AC5:AC16)*PRODUCT(AC18:AC19)</f>
-        <v>8.2316765334222736E-3</v>
+        <v>7.7284376468642786E-3</v>
       </c>
       <c r="AE17" s="177">
         <f>AB17*AB18*PRODUCT(AC5:AC16)*AC19+AB17*AB19*PRODUCT(AC5:AC16)*AC18</f>
@@ -25644,7 +25641,7 @@
       </c>
       <c r="BJ17" s="107">
         <f t="shared" si="7"/>
-        <v>2.7488267607778151E-3</v>
+        <v>1.9160961685450326E-2</v>
       </c>
       <c r="BP17">
         <f>BP13+1</f>
@@ -25655,7 +25652,7 @@
       </c>
       <c r="BR17" s="107">
         <f>$H$30*H42</f>
-        <v>1.9909982957174915E-2</v>
+        <v>7.0121648445593422E-3</v>
       </c>
     </row>
     <row r="18" spans="1:70" x14ac:dyDescent="0.25">
@@ -25749,7 +25746,7 @@
       </c>
       <c r="BJ18" s="107">
         <f t="shared" si="7"/>
-        <v>6.2714233120172568E-4</v>
+        <v>5.9945162477138868E-3</v>
       </c>
       <c r="BP18">
         <f>BL8+1</f>
@@ -25760,7 +25757,7 @@
       </c>
       <c r="BR18" s="107">
         <f>$H$30*H43</f>
-        <v>8.2564656892684593E-3</v>
+        <v>4.3298004180914373E-3</v>
       </c>
     </row>
     <row r="19" spans="1:70" x14ac:dyDescent="0.25">
@@ -25784,15 +25781,15 @@
       </c>
       <c r="R19" s="157">
         <f t="shared" si="6"/>
-        <v>7.8394332631273503E-2</v>
+        <v>5.8135123074876983E-2</v>
       </c>
       <c r="S19" s="178">
         <f t="shared" si="2"/>
-        <v>0.92160566736872651</v>
+        <v>0.941864876925123</v>
       </c>
       <c r="T19" s="179">
         <f>R19*PRODUCT(S5:S18)</f>
-        <v>5.5094557773317468E-2</v>
+        <v>4.4861441738271196E-2</v>
       </c>
       <c r="U19" s="179">
         <v>0</v>
@@ -25844,7 +25841,7 @@
       </c>
       <c r="BJ19" s="107">
         <f t="shared" si="7"/>
-        <v>1.1106088374261875E-4</v>
+        <v>1.3835925080948877E-3</v>
       </c>
       <c r="BP19">
         <f>BP15+1</f>
@@ -25855,7 +25852,7 @@
       </c>
       <c r="BR19" s="107">
         <f>$H$31*H40</f>
-        <v>1.3069090193367291E-2</v>
+        <v>1.0858098801315033E-3</v>
       </c>
     </row>
     <row r="20" spans="1:70" x14ac:dyDescent="0.25">
@@ -25872,19 +25869,19 @@
       <c r="Q20" s="22"/>
       <c r="S20" s="180">
         <f>PRODUCT(S5:S19)</f>
-        <v>0.64769295152858375</v>
+        <v>0.7268139132874758</v>
       </c>
       <c r="T20" s="181">
         <f>SUM(T5:T19)</f>
-        <v>0.29163383563266904</v>
+        <v>0.23810197067678537</v>
       </c>
       <c r="U20" s="181">
         <f>SUM(U5:U19)</f>
-        <v>5.4763764552972986E-2</v>
+        <v>3.2563311347166508E-2</v>
       </c>
       <c r="V20" s="181">
         <f>1-S20-T20-U20</f>
-        <v>5.9094482857742284E-3</v>
+        <v>2.5208046885723187E-3</v>
       </c>
       <c r="W20" s="21"/>
       <c r="X20" s="22"/>
@@ -25894,19 +25891,19 @@
       <c r="AB20" s="23"/>
       <c r="AC20" s="184">
         <f>PRODUCT(AC5:AC19)</f>
-        <v>0.50838536943248935</v>
+        <v>0.33292830173222615</v>
       </c>
       <c r="AD20" s="181">
         <f>SUM(AD5:AD19)</f>
-        <v>0.43602143198732751</v>
+        <v>0.55870633371205181</v>
       </c>
       <c r="AE20" s="181">
         <f>SUM(AE5:AE19)</f>
-        <v>5.3036905115729366E-2</v>
+        <v>0.1011744259092016</v>
       </c>
       <c r="AF20" s="181">
         <f>1-AC20-AD20-AE20</f>
-        <v>2.5562934644537683E-3</v>
+        <v>7.1909386465203867E-3</v>
       </c>
       <c r="BH20">
         <v>1</v>
@@ -25916,7 +25913,7 @@
       </c>
       <c r="BJ20" s="107">
         <f t="shared" si="7"/>
-        <v>1.5455514249183144E-5</v>
+        <v>2.3663226308334899E-4</v>
       </c>
       <c r="BP20">
         <f>BP16+1</f>
@@ -25927,7 +25924,7 @@
       </c>
       <c r="BR20" s="107">
         <f>$H$31*H41</f>
-        <v>1.3387913026704452E-2</v>
+        <v>1.7863180537611685E-3</v>
       </c>
     </row>
     <row r="21" spans="1:70" x14ac:dyDescent="0.25">
@@ -25946,19 +25943,19 @@
       <c r="Q21" s="22"/>
       <c r="S21" s="182">
         <f>1-T21-U21-V21</f>
-        <v>0.64769295152858375</v>
+        <v>0.7268139132874758</v>
       </c>
       <c r="T21" s="183">
         <f>T20*V1</f>
-        <v>0.29163383563266904</v>
+        <v>0.23810197067678537</v>
       </c>
       <c r="U21" s="183">
         <f>U20*V1</f>
-        <v>5.4763764552972986E-2</v>
+        <v>3.2563311347166508E-2</v>
       </c>
       <c r="V21" s="183">
         <f>V20*V1</f>
-        <v>5.9094482857742284E-3</v>
+        <v>2.5208046885723187E-3</v>
       </c>
       <c r="W21" s="21"/>
       <c r="X21" s="22"/>
@@ -25968,19 +25965,19 @@
       <c r="AB21" s="23"/>
       <c r="AC21" s="185">
         <f>1-AD21-AE21-AF21</f>
-        <v>0.50838536943248946</v>
+        <v>0.33292830173222621</v>
       </c>
       <c r="AD21" s="183">
         <f>AD20*V1</f>
-        <v>0.43602143198732751</v>
+        <v>0.55870633371205181</v>
       </c>
       <c r="AE21" s="183">
         <f>AE20*V1</f>
-        <v>5.3036905115729366E-2</v>
+        <v>0.1011744259092016</v>
       </c>
       <c r="AF21" s="183">
         <f>AF20*V1</f>
-        <v>2.5562934644537683E-3</v>
+        <v>7.1909386465203867E-3</v>
       </c>
       <c r="BH21" s="18">
         <v>1</v>
@@ -25990,7 +25987,7 @@
       </c>
       <c r="BJ21" s="107">
         <f t="shared" si="7"/>
-        <v>1.6868724640833603E-6</v>
+        <v>2.9736107658563621E-5</v>
       </c>
       <c r="BP21">
         <f>BP17+1</f>
@@ -26001,7 +25998,7 @@
       </c>
       <c r="BR21" s="107">
         <f>$H$31*H42</f>
-        <v>8.1835968111977266E-3</v>
+        <v>1.6861544158242204E-3</v>
       </c>
     </row>
     <row r="22" spans="1:70" x14ac:dyDescent="0.25">
@@ -26010,11 +26007,11 @@
       </c>
       <c r="B22" s="62">
         <f>(B6)/((B6)+(C6))</f>
-        <v>0.62121212121212122</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="C22" s="63">
         <f>1-B22</f>
-        <v>0.37878787878787878</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
@@ -26024,7 +26021,7 @@
       </c>
       <c r="AS22" s="82">
         <f>Y23+AA23+AC23+AE23+AG23+AI23+AK23+AM23+AO23+AQ23+AS23</f>
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
       <c r="BH22">
         <v>1</v>
@@ -26034,7 +26031,7 @@
       </c>
       <c r="BJ22" s="107">
         <f t="shared" si="7"/>
-        <v>1.4105789093906465E-7</v>
+        <v>2.6795200397810447E-6</v>
       </c>
       <c r="BP22">
         <f>BP18+1</f>
@@ -26045,7 +26042,7 @@
       </c>
       <c r="BR22" s="107">
         <f>$H$31*H43</f>
-        <v>3.3936536476095588E-3</v>
+        <v>1.0411495246388811E-3</v>
       </c>
     </row>
     <row r="23" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26054,11 +26051,11 @@
       </c>
       <c r="B23" s="56">
         <f>((B22^2.8)/((B22^2.8)+(C22^2.8)))*B21</f>
-        <v>3.9990837782267574</v>
+        <v>1.9570835379829266</v>
       </c>
       <c r="C23" s="57">
         <f>B21-B23</f>
-        <v>1.0009162217732426</v>
+        <v>3.0429164620170734</v>
       </c>
       <c r="D23" s="151">
         <f>SUM(D25:D30)</f>
@@ -26070,16 +26067,16 @@
       </c>
       <c r="H23" s="59">
         <f>SUM(H25:H35)</f>
-        <v>0.99999297243807861</v>
+        <v>0.99999992190515929</v>
       </c>
       <c r="J23" s="59">
         <f>SUM(J25:J35)</f>
-        <v>0.99999999999999989</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="K23" s="59"/>
       <c r="L23" s="59">
         <f>SUM(L25:L35)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="N23" s="59">
         <f>SUM(N25:N35)</f>
@@ -26092,7 +26089,7 @@
       </c>
       <c r="R23" s="59">
         <f>SUM(R25:R35)</f>
-        <v>1.0000000000000002</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="T23" s="59">
         <f>SUM(T25:T35)</f>
@@ -26100,61 +26097,61 @@
       </c>
       <c r="V23" s="59">
         <f>SUM(V25:V34)</f>
-        <v>0.89153087053923752</v>
+        <v>0.99988815052152891</v>
       </c>
       <c r="Y23" s="80">
         <f>SUM(Y25:Y35)</f>
-        <v>1.0282537836051516E-7</v>
+        <v>6.831130417971211E-3</v>
       </c>
       <c r="Z23" s="81"/>
       <c r="AA23" s="80">
         <f>SUM(AA25:AA35)</f>
-        <v>4.1088256142907605E-6</v>
+        <v>4.4072438671171908E-2</v>
       </c>
       <c r="AB23" s="81"/>
       <c r="AC23" s="80">
         <f>SUM(AC25:AC35)</f>
-        <v>7.388558981735895E-5</v>
+        <v>0.12804217379624222</v>
       </c>
       <c r="AD23" s="81"/>
       <c r="AE23" s="80">
         <f>SUM(AE25:AE35)</f>
-        <v>7.8736239820631352E-4</v>
+        <v>0.22065062817711509</v>
       </c>
       <c r="AF23" s="81"/>
       <c r="AG23" s="80">
         <f>SUM(AG25:AG35)</f>
-        <v>5.5065897663956979E-3</v>
+        <v>0.24986775908256359</v>
       </c>
       <c r="AH23" s="81"/>
       <c r="AI23" s="80">
         <f>SUM(AI25:AI35)</f>
-        <v>2.6410077494282955E-2</v>
+        <v>0.19441496994066376</v>
       </c>
       <c r="AJ23" s="81"/>
       <c r="AK23" s="80">
         <f>SUM(AK25:AK35)</f>
-        <v>8.7973370101759138E-2</v>
+        <v>0.105383129130536</v>
       </c>
       <c r="AL23" s="81"/>
       <c r="AM23" s="80">
         <f>SUM(AM25:AM35)</f>
-        <v>0.20099063417244001</v>
+        <v>3.9386999249958816E-2</v>
       </c>
       <c r="AN23" s="81"/>
       <c r="AO23" s="80">
         <f>SUM(AO25:AO35)</f>
-        <v>0.30148740844342498</v>
+        <v>9.7659326888206669E-3</v>
       </c>
       <c r="AP23" s="81"/>
       <c r="AQ23" s="80">
         <f>SUM(AQ25:AQ35)</f>
-        <v>0.26829733092191821</v>
+        <v>1.4729893664856943E-3</v>
       </c>
       <c r="AR23" s="81"/>
       <c r="AS23" s="80">
         <f>SUM(AS25:AS35)</f>
-        <v>0.10846912946076245</v>
+        <v>1.1184947847109329E-4</v>
       </c>
       <c r="BH23">
         <f t="shared" ref="BH23:BH30" si="8">BH15+1</f>
@@ -26165,7 +26162,7 @@
       </c>
       <c r="BJ23" s="107">
         <f t="shared" ref="BJ23:BJ30" si="9">$H$27*H42</f>
-        <v>4.1010710414667625E-2</v>
+        <v>7.598997301829738E-2</v>
       </c>
       <c r="BP23">
         <f>BL9+1</f>
@@ -26176,7 +26173,7 @@
       </c>
       <c r="BR23" s="107">
         <f>$H$31*H44</f>
-        <v>1.0226366334727555E-3</v>
+        <v>4.4944466938221656E-4</v>
       </c>
     </row>
     <row r="24" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26185,11 +26182,11 @@
       </c>
       <c r="B24" s="64">
         <f>B23/B21</f>
-        <v>0.79981675564535148</v>
+        <v>0.39141670759658531</v>
       </c>
       <c r="C24" s="65">
         <f>C23/B21</f>
-        <v>0.20018324435464852</v>
+        <v>0.60858329240341469</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>79</v>
@@ -26356,7 +26353,7 @@
       </c>
       <c r="BJ24" s="107">
         <f t="shared" si="9"/>
-        <v>1.7006720907774865E-2</v>
+        <v>4.6921517710848591E-2</v>
       </c>
       <c r="BP24">
         <f>BH49+1</f>
@@ -26367,7 +26364,7 @@
       </c>
       <c r="BR24" s="107">
         <f t="shared" ref="BR24:BR30" si="10">$H$32*H39</f>
-        <v>1.7250462189602989E-3</v>
+        <v>4.9897331654958271E-5</v>
       </c>
     </row>
     <row r="25" spans="1:70" x14ac:dyDescent="0.25">
@@ -26376,11 +26373,11 @@
       </c>
       <c r="B25" s="117">
         <f>1/(1+EXP(-3.1416*4*((B11/(B11+C8))-(3.1416/6))))</f>
-        <v>0.15540354352997165</v>
+        <v>0.14196414184697126</v>
       </c>
       <c r="C25" s="118">
         <f>1/(1+EXP(-3.1416*4*((C11/(C11+B8))-(3.1416/6))))</f>
-        <v>0.11975743366405972</v>
+        <v>0.27650853914150708</v>
       </c>
       <c r="D25" s="153">
         <f>IF(B17="AOW", 0.36-0.08, IF(B17="AIM", 0.36+0.08, IF(B17="TL",(0.361)-(0.36*B32),0.36)))</f>
@@ -26395,137 +26392,137 @@
       </c>
       <c r="H25" s="127">
         <f>L25*J25</f>
-        <v>2.975414833706843E-2</v>
+        <v>0.1211083740886893</v>
       </c>
       <c r="I25" s="97">
         <v>0</v>
       </c>
       <c r="J25" s="98">
         <f t="shared" ref="J25:J35" si="11">Y25+AA25+AC25+AE25+AG25+AI25+AK25+AM25+AO25+AQ25+AS25</f>
-        <v>4.5938663168785976E-2</v>
+        <v>0.16662913556635156</v>
       </c>
       <c r="K25" s="97">
         <v>0</v>
       </c>
       <c r="L25" s="98">
         <f>S21</f>
-        <v>0.64769295152858375</v>
+        <v>0.7268139132874758</v>
       </c>
       <c r="M25" s="84">
         <v>0</v>
       </c>
       <c r="N25" s="71">
         <f>(1-$B$24)^$B$21</f>
-        <v>3.2146864357902443E-4</v>
+        <v>8.3483399771431377E-2</v>
       </c>
       <c r="O25" s="70">
         <v>0</v>
       </c>
       <c r="P25" s="71">
         <f>N25</f>
-        <v>3.2146864357902443E-4</v>
+        <v>8.3483399771431377E-2</v>
       </c>
       <c r="Q25" s="12">
         <v>0</v>
       </c>
       <c r="R25" s="73">
         <f>P25*N25</f>
-        <v>1.0334208880453785E-7</v>
+        <v>6.9694780373966286E-3</v>
       </c>
       <c r="S25" s="70">
         <v>0</v>
       </c>
       <c r="T25" s="135">
         <f>(1-$B$33)^(INT(C23*2*(1-C31)))</f>
-        <v>0.995</v>
+        <v>0.98014950062500006</v>
       </c>
       <c r="U25" s="140">
         <v>0</v>
       </c>
       <c r="V25" s="86">
         <f>R25*T25</f>
-        <v>1.0282537836051516E-7</v>
+        <v>6.831130417971211E-3</v>
       </c>
       <c r="W25" s="136">
         <f>B31</f>
-        <v>0.33132694112449163</v>
+        <v>0.41735886132672617</v>
       </c>
       <c r="X25" s="12">
         <v>0</v>
       </c>
       <c r="Y25" s="79">
         <f>V25</f>
-        <v>1.0282537836051516E-7</v>
+        <v>6.831130417971211E-3</v>
       </c>
       <c r="Z25" s="12">
         <v>0</v>
       </c>
       <c r="AA25" s="78">
         <f>((1-W25)^Z26)*V26</f>
-        <v>2.7474609918938421E-6</v>
+        <v>2.5678415851479629E-2</v>
       </c>
       <c r="AB25" s="12">
         <v>0</v>
       </c>
       <c r="AC25" s="79">
         <f>(((1-$W$25)^AB27))*V27</f>
-        <v>3.3035995315713235E-5</v>
+        <v>4.3466565916717929E-2</v>
       </c>
       <c r="AD25" s="12">
         <v>0</v>
       </c>
       <c r="AE25" s="79">
         <f>(((1-$W$25)^AB28))*V28</f>
-        <v>2.3540525172679181E-4</v>
+        <v>4.3642397973260326E-2</v>
       </c>
       <c r="AF25" s="12">
         <v>0</v>
       </c>
       <c r="AG25" s="79">
         <f>(((1-$W$25)^AB29))*V29</f>
-        <v>1.1008750419264717E-3</v>
+        <v>2.8794848951111118E-2</v>
       </c>
       <c r="AH25" s="12">
         <v>0</v>
       </c>
       <c r="AI25" s="79">
         <f>(((1-$W$25)^AB30))*V30</f>
-        <v>3.5305210379944752E-3</v>
+        <v>1.3053754208745799E-2</v>
       </c>
       <c r="AJ25" s="12">
         <v>0</v>
       </c>
       <c r="AK25" s="79">
         <f>(((1-$W$25)^AB31))*V31</f>
-        <v>7.8638312098492143E-3</v>
+        <v>4.1226642198736304E-3</v>
       </c>
       <c r="AL25" s="12">
         <v>0</v>
       </c>
       <c r="AM25" s="79">
         <f>(((1-$W$25)^AB32))*V32</f>
-        <v>1.2013584294085524E-2</v>
+        <v>8.9776137121752684E-4</v>
       </c>
       <c r="AN25" s="12">
         <v>0</v>
       </c>
       <c r="AO25" s="79">
         <f>(((1-$W$25)^AB33))*V33</f>
-        <v>1.2049798477495148E-2</v>
+        <v>1.2969489808545588E-4</v>
       </c>
       <c r="AP25" s="12">
         <v>0</v>
       </c>
       <c r="AQ25" s="79">
         <f>(((1-$W$25)^AB34))*V34</f>
-        <v>7.1703570663056099E-3</v>
+        <v>1.1397508453742168E-5</v>
       </c>
       <c r="AR25" s="12">
         <v>0</v>
       </c>
       <c r="AS25" s="79">
         <f>(((1-$W$25)^AB35))*V35</f>
-        <v>1.9384045077167787E-3</v>
+        <v>5.042494351991106E-7</v>
       </c>
       <c r="AV25" s="14">
         <v>1</v>
@@ -26570,7 +26567,7 @@
       </c>
       <c r="BJ25" s="107">
         <f t="shared" si="9"/>
-        <v>5.1247704160346692E-3</v>
+        <v>2.0255136765085377E-2</v>
       </c>
       <c r="BP25">
         <f>BP19+1</f>
@@ -26581,7 +26578,7 @@
       </c>
       <c r="BR25" s="107">
         <f t="shared" si="10"/>
-        <v>4.044026658171461E-3</v>
+        <v>1.9849473738745238E-4</v>
       </c>
     </row>
     <row r="26" spans="1:70" x14ac:dyDescent="0.25">
@@ -26590,11 +26587,11 @@
       </c>
       <c r="B26" s="119">
         <f>1/(1+EXP(-3.1416*4*((B10/(B10+C9))-(3.1416/6))))</f>
-        <v>0.31944720558296319</v>
+        <v>0.3407265942093135</v>
       </c>
       <c r="C26" s="120">
         <f>1/(1+EXP(-3.1416*4*((C10/(C10+B9))-(3.1416/6))))</f>
-        <v>0.43873404914256364</v>
+        <v>0.26261185366149137</v>
       </c>
       <c r="D26" s="153">
         <f>IF(B17="AOW", 0.257+0.04, IF(B17="AIM", 0.257-0.04, IF(B17="TL",(0.257)-(0.257*B32),0.257)))</f>
@@ -26609,56 +26606,56 @@
       </c>
       <c r="H26" s="128">
         <f>L25*J26+L26*J25</f>
-        <v>0.12072468020063268</v>
+        <v>0.27716273762468996</v>
       </c>
       <c r="I26" s="93">
         <v>1</v>
       </c>
       <c r="J26" s="86">
         <f t="shared" si="11"/>
-        <v>0.16570724045025503</v>
+        <v>0.32675215448199474</v>
       </c>
       <c r="K26" s="93">
         <v>1</v>
       </c>
       <c r="L26" s="86">
         <f>T21</f>
-        <v>0.29163383563266904</v>
+        <v>0.23810197067678537</v>
       </c>
       <c r="M26" s="85">
         <v>1</v>
       </c>
       <c r="N26" s="71">
         <f>(($B$24)^M26)*((1-($B$24))^($B$21-M26))*HLOOKUP($B$21,$AV$24:$BF$34,M26+1)</f>
-        <v>6.4220161976587678E-3</v>
+        <v>0.26846610714908153</v>
       </c>
       <c r="O26" s="72">
         <v>1</v>
       </c>
       <c r="P26" s="71">
         <f t="shared" ref="P26:P30" si="12">N26</f>
-        <v>6.4220161976587678E-3</v>
+        <v>0.26846610714908153</v>
       </c>
       <c r="Q26" s="28">
         <v>1</v>
       </c>
       <c r="R26" s="37">
         <f>N26*P25+P26*N25</f>
-        <v>4.1289536722077766E-6</v>
+        <v>4.4824926696413407E-2</v>
       </c>
       <c r="S26" s="72">
         <v>1</v>
       </c>
       <c r="T26" s="135">
         <f t="shared" ref="T26:T35" si="13">(($B$33)^S26)*((1-($B$33))^(INT($C$23*2*(1-$C$31))-S26))*HLOOKUP(INT($C$23*2*(1-$C$31)),$AV$24:$BF$34,S26+1)</f>
-        <v>5.0000000000000001E-3</v>
+        <v>1.9701497500000002E-2</v>
       </c>
       <c r="U26" s="93">
         <v>1</v>
       </c>
       <c r="V26" s="86">
         <f>R26*T25+T26*R25</f>
-        <v>4.1088256142907605E-6</v>
+        <v>4.4072438671171908E-2</v>
       </c>
       <c r="W26" s="137"/>
       <c r="X26" s="28">
@@ -26670,70 +26667,70 @@
       </c>
       <c r="AA26" s="79">
         <f>(1-((1-W25)^Z26))*V26</f>
-        <v>1.3613646223969182E-6</v>
+        <v>1.8394022819692279E-2</v>
       </c>
       <c r="AB26" s="28">
         <v>1</v>
       </c>
       <c r="AC26" s="79">
         <f>((($W$25)^M26)*((1-($W$25))^($U$27-M26))*HLOOKUP($U$27,$AV$24:$BF$34,M26+1))*V27</f>
-        <v>3.2738616068562569E-5</v>
+        <v>6.2272144044251736E-2</v>
       </c>
       <c r="AD26" s="28">
         <v>1</v>
       </c>
       <c r="AE26" s="79">
         <f>((($W$25)^M26)*((1-($W$25))^($U$28-M26))*HLOOKUP($U$28,$AV$24:$BF$34,M26+1))*V28</f>
-        <v>3.4992931572767303E-4</v>
+        <v>9.3786073354675412E-2</v>
       </c>
       <c r="AF26" s="28">
         <v>1</v>
       </c>
       <c r="AG26" s="79">
         <f>((($W$25)^M26)*((1-($W$25))^($U$29-M26))*HLOOKUP($U$29,$AV$24:$BF$34,M26+1))*V29</f>
-        <v>2.1819306482314988E-3</v>
+        <v>8.2505573826636314E-2</v>
       </c>
       <c r="AH26" s="28">
         <v>1</v>
       </c>
       <c r="AI26" s="79">
         <f>((($W$25)^M26)*((1-($W$25))^($U$30-M26))*HLOOKUP($U$30,$AV$24:$BF$34,M26+1))*V30</f>
-        <v>8.7468510998598252E-3</v>
+        <v>4.6753478522018881E-2</v>
       </c>
       <c r="AJ26" s="28">
         <v>1</v>
       </c>
       <c r="AK26" s="79">
         <f>((($W$25)^M26)*((1-($W$25))^($U$31-M26))*HLOOKUP($U$31,$AV$24:$BF$34,M26+1))*V31</f>
-        <v>2.3379130703966956E-2</v>
+        <v>1.7718938779608909E-2</v>
       </c>
       <c r="AL26" s="28">
         <v>1</v>
       </c>
       <c r="AM26" s="79">
         <f>((($W$25)^Q26)*((1-($W$25))^($U$32-Q26))*HLOOKUP($U$32,$AV$24:$BF$34,Q26+1))*V32</f>
-        <v>4.1669046752923829E-2</v>
+        <v>4.5016056562941454E-3</v>
       </c>
       <c r="AN26" s="28">
         <v>1</v>
       </c>
       <c r="AO26" s="79">
         <f>((($W$25)^Q26)*((1-($W$25))^($U$33-Q26))*HLOOKUP($U$33,$AV$24:$BF$34,Q26+1))*V33</f>
-        <v>4.7765320498229562E-2</v>
+        <v>7.4322681859491011E-4</v>
       </c>
       <c r="AP26" s="28">
         <v>1</v>
       </c>
       <c r="AQ26" s="79">
         <f>((($W$25)^Q26)*((1-($W$25))^($U$34-Q26))*HLOOKUP($U$34,$AV$24:$BF$34,Q26+1))*V34</f>
-        <v>3.1976153335535475E-2</v>
+        <v>7.3478608890244326E-5</v>
       </c>
       <c r="AR26" s="28">
         <v>1</v>
       </c>
       <c r="AS26" s="79">
         <f>((($W$25)^Q26)*((1-($W$25))^($U$35-Q26))*HLOOKUP($U$35,$AV$24:$BF$34,Q26+1))*V35</f>
-        <v>9.6047781150892433E-3</v>
+        <v>3.6120513319496428E-6</v>
       </c>
       <c r="AV26" s="14">
         <v>2</v>
@@ -26778,7 +26775,7 @@
       </c>
       <c r="BJ26" s="107">
         <f t="shared" si="9"/>
-        <v>1.1692117202308486E-3</v>
+        <v>6.3368294572693599E-3</v>
       </c>
       <c r="BP26">
         <f>BP20+1</f>
@@ -26789,7 +26786,7 @@
       </c>
       <c r="BR26" s="107">
         <f t="shared" si="10"/>
-        <v>4.1426814243543117E-3</v>
+        <v>3.2655323870219835E-4</v>
       </c>
     </row>
     <row r="27" spans="1:70" x14ac:dyDescent="0.25">
@@ -26798,11 +26795,11 @@
       </c>
       <c r="B27" s="119">
         <f>1/(1+EXP(-3.1416*4*((B12/(B12+C7))-(3.1416/6))))</f>
-        <v>0.32700862054297697</v>
+        <v>0.6080929919498167</v>
       </c>
       <c r="C27" s="120">
         <f>1/(1+EXP(-3.1416*4*((C12/(C12+B7))-(3.1416/6))))</f>
-        <v>0.41353592064438333</v>
+        <v>0.22042125474416366</v>
       </c>
       <c r="D27" s="153">
         <f>D26</f>
@@ -26817,56 +26814,56 @@
       </c>
       <c r="H27" s="128">
         <f>L25*J27+J26*L26+J25*L27</f>
-        <v>0.22507284868049804</v>
+        <v>0.29298994742192286</v>
       </c>
       <c r="I27" s="93">
         <v>2</v>
       </c>
       <c r="J27" s="86">
         <f t="shared" si="11"/>
-        <v>0.26900282921257385</v>
+        <v>0.2886070495639379</v>
       </c>
       <c r="K27" s="93">
         <v>2</v>
       </c>
       <c r="L27" s="86">
         <f>U21</f>
-        <v>5.4763764552972986E-2</v>
+        <v>3.2563311347166508E-2</v>
       </c>
       <c r="M27" s="85">
         <v>2</v>
       </c>
       <c r="N27" s="71">
         <f>(($B$24)^M27)*((1-($B$24))^($B$21-M27))*HLOOKUP($B$21,$AV$24:$BF$34,M27+1)</f>
-        <v>5.1317343531644653E-2</v>
+        <v>0.3453335675600811</v>
       </c>
       <c r="O27" s="72">
         <v>2</v>
       </c>
       <c r="P27" s="71">
         <f t="shared" si="12"/>
-        <v>5.1317343531644653E-2</v>
+        <v>0.3453335675600811</v>
       </c>
       <c r="Q27" s="28">
         <v>2</v>
       </c>
       <c r="R27" s="37">
         <f>P25*N27+P26*N26+P27*N25</f>
-        <v>7.4236125677384839E-5</v>
+        <v>0.12973329123800784</v>
       </c>
       <c r="S27" s="72">
         <v>2</v>
       </c>
       <c r="T27" s="135">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1.4850375000000001E-4</v>
       </c>
       <c r="U27" s="93">
         <v>2</v>
       </c>
       <c r="V27" s="86">
         <f>R27*T25+T26*R26+R25*T27</f>
-        <v>7.388558981735895E-5</v>
+        <v>0.12804217379624222</v>
       </c>
       <c r="W27" s="137"/>
       <c r="X27" s="28">
@@ -26882,63 +26879,63 @@
       </c>
       <c r="AC27" s="79">
         <f>((($W$25)^M27)*((1-($W$25))^($U$27-M27))*HLOOKUP($U$27,$AV$24:$BF$34,M27+1))*V27</f>
-        <v>8.1109784330831422E-6</v>
+        <v>2.2303463835272562E-2</v>
       </c>
       <c r="AD27" s="28">
         <v>2</v>
       </c>
       <c r="AE27" s="79">
         <f>((($W$25)^M27)*((1-($W$25))^($U$28-M27))*HLOOKUP($U$28,$AV$24:$BF$34,M27+1))*V28</f>
-        <v>1.733896831207939E-4</v>
+        <v>6.7181059121130718E-2</v>
       </c>
       <c r="AF27" s="28">
         <v>2</v>
       </c>
       <c r="AG27" s="79">
         <f>((($W$25)^M27)*((1-($W$25))^($U$29-M27))*HLOOKUP($U$29,$AV$24:$BF$34,M27+1))*V29</f>
-        <v>1.6217172155254618E-3</v>
+        <v>8.8650878027090652E-2</v>
       </c>
       <c r="AH27" s="28">
         <v>2</v>
       </c>
       <c r="AI27" s="79">
         <f>((($W$25)^M27)*((1-($W$25))^($U$30-M27))*HLOOKUP($U$30,$AV$24:$BF$34,M27+1))*V30</f>
-        <v>8.6681148011602625E-3</v>
+        <v>6.6981121873564073E-2</v>
       </c>
       <c r="AJ27" s="28">
         <v>2</v>
       </c>
       <c r="AK27" s="79">
         <f>((($W$25)^M27)*((1-($W$25))^($U$31-M27))*HLOOKUP($U$31,$AV$24:$BF$34,M27+1))*V31</f>
-        <v>2.8960849250161017E-2</v>
+        <v>3.1731179031637642E-2</v>
       </c>
       <c r="AL27" s="28">
         <v>2</v>
       </c>
       <c r="AM27" s="79">
         <f>((($W$25)^Q27)*((1-($W$25))^($U$32-Q27))*HLOOKUP($U$32,$AV$24:$BF$34,Q27+1))*V32</f>
-        <v>6.1940933391740213E-2</v>
+        <v>9.6738020342901111E-3</v>
       </c>
       <c r="AN27" s="28">
         <v>2</v>
       </c>
       <c r="AO27" s="79">
         <f>((($W$25)^Q27)*((1-($W$25))^($U$33-Q27))*HLOOKUP($U$33,$AV$24:$BF$34,Q27+1))*V33</f>
-        <v>8.2836867178307155E-2</v>
+        <v>1.8633648972660507E-3</v>
       </c>
       <c r="AP27" s="28">
         <v>2</v>
       </c>
       <c r="AQ27" s="79">
         <f>((($W$25)^Q27)*((1-($W$25))^($U$34-Q27))*HLOOKUP($U$34,$AV$24:$BF$34,Q27+1))*V34</f>
-        <v>6.3376628879933034E-2</v>
+        <v>2.1053747497566422E-4</v>
       </c>
       <c r="AR27" s="28">
         <v>2</v>
       </c>
       <c r="AS27" s="79">
         <f>((($W$25)^Q27)*((1-($W$25))^($U$35-Q27))*HLOOKUP($U$35,$AV$24:$BF$34,Q27+1))*V35</f>
-        <v>2.1416217834192789E-2</v>
+        <v>1.1643268710393975E-5</v>
       </c>
       <c r="AV27" s="14">
         <v>3</v>
@@ -26980,7 +26977,7 @@
       </c>
       <c r="BJ27" s="107">
         <f t="shared" si="9"/>
-        <v>2.0705616647219592E-4</v>
+        <v>1.4626017179445549E-3</v>
       </c>
       <c r="BP27">
         <f>BP21+1</f>
@@ -26991,7 +26988,7 @@
       </c>
       <c r="BR27" s="107">
         <f t="shared" si="10"/>
-        <v>2.5322867295694759E-3</v>
+        <v>3.0824252393355168E-4</v>
       </c>
     </row>
     <row r="28" spans="1:70" x14ac:dyDescent="0.25">
@@ -27015,56 +27012,56 @@
       </c>
       <c r="H28" s="128">
         <f>J28*L25+J27*L26+L28*J25+L27*J26</f>
-        <v>0.25542503022020813</v>
+        <v>0.18971269640384864</v>
       </c>
       <c r="I28" s="93">
         <v>3</v>
       </c>
       <c r="J28" s="86">
         <f t="shared" si="11"/>
-        <v>0.25880855811421238</v>
+        <v>0.15125552152444416</v>
       </c>
       <c r="K28" s="93">
         <v>3</v>
       </c>
       <c r="L28" s="86">
         <f>V21</f>
-        <v>5.9094482857742284E-3</v>
+        <v>2.5208046885723187E-3</v>
       </c>
       <c r="M28" s="85">
         <v>3</v>
       </c>
       <c r="N28" s="71">
         <f>(($B$24)^M28)*((1-($B$24))^($B$21-M28))*HLOOKUP($B$21,$AV$24:$BF$34,M28+1)</f>
-        <v>0.20503449898685233</v>
+        <v>0.22210489463675503</v>
       </c>
       <c r="O28" s="72">
         <v>3</v>
       </c>
       <c r="P28" s="71">
         <f t="shared" si="12"/>
-        <v>0.20503449898685233</v>
+        <v>0.22210489463675503</v>
       </c>
       <c r="Q28" s="28">
         <v>3</v>
       </c>
       <c r="R28" s="37">
         <f>P25*N28+P26*N27+P27*N26+P28*N25</f>
-        <v>7.9094594731449934E-4</v>
+        <v>0.22250486052182239</v>
       </c>
       <c r="S28" s="72">
         <v>3</v>
       </c>
       <c r="T28" s="135">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4.9750000000000011E-7</v>
       </c>
       <c r="U28" s="93">
         <v>3</v>
       </c>
       <c r="V28" s="86">
         <f>R28*T25+R27*T26+R26*T27+R25*T28</f>
-        <v>7.8736239820631374E-4</v>
+        <v>0.22065062817711509</v>
       </c>
       <c r="W28" s="137"/>
       <c r="X28" s="28">
@@ -27084,56 +27081,56 @@
       </c>
       <c r="AE28" s="79">
         <f>((($W$25)^M28)*((1-($W$25))^($U$28-M28))*HLOOKUP($U$28,$AV$24:$BF$34,M28+1))*V28</f>
-        <v>2.8638147631054865E-5</v>
+        <v>1.604109772804865E-2</v>
       </c>
       <c r="AF28" s="28">
         <v>3</v>
       </c>
       <c r="AG28" s="79">
         <f>((($W$25)^M28)*((1-($W$25))^($U$29-M28))*HLOOKUP($U$29,$AV$24:$BF$34,M28+1))*V29</f>
-        <v>5.3570634882222322E-4</v>
+        <v>4.2335069339881737E-2</v>
       </c>
       <c r="AH28" s="28">
         <v>3</v>
       </c>
       <c r="AI28" s="79">
         <f>((($W$25)^M28)*((1-($W$25))^($U$30-M28))*HLOOKUP($U$30,$AV$24:$BF$34,M28+1))*V30</f>
-        <v>4.2950436304613525E-3</v>
+        <v>4.7980073667976471E-2</v>
       </c>
       <c r="AJ28" s="28">
         <v>3</v>
       </c>
       <c r="AK28" s="79">
         <f>((($W$25)^M28)*((1-($W$25))^($U$31-M28))*HLOOKUP($U$31,$AV$24:$BF$34,M28+1))*V31</f>
-        <v>1.9133435425198506E-2</v>
+        <v>3.0306336371086401E-2</v>
       </c>
       <c r="AL28" s="28">
         <v>3</v>
       </c>
       <c r="AM28" s="79">
         <f>((($W$25)^Q28)*((1-($W$25))^($U$32-Q28))*HLOOKUP($U$32,$AV$24:$BF$34,Q28+1))*V32</f>
-        <v>5.1152801105305748E-2</v>
+        <v>1.1549267447097647E-2</v>
       </c>
       <c r="AN28" s="28">
         <v>3</v>
       </c>
       <c r="AO28" s="79">
         <f>((($W$25)^Q28)*((1-($W$25))^($U$33-Q28))*HLOOKUP($U$33,$AV$24:$BF$34,Q28+1))*V33</f>
-        <v>8.2091196737250738E-2</v>
+        <v>2.6695397909252509E-3</v>
       </c>
       <c r="AP28" s="28">
         <v>3</v>
       </c>
       <c r="AQ28" s="79">
         <f>((($W$25)^Q28)*((1-($W$25))^($U$34-Q28))*HLOOKUP($U$34,$AV$24:$BF$34,Q28+1))*V34</f>
-        <v>7.3273822011103468E-2</v>
+        <v>3.5189629026066916E-4</v>
       </c>
       <c r="AR28" s="28">
         <v>3</v>
       </c>
       <c r="AS28" s="79">
         <f>((($W$25)^Q28)*((1-($W$25))^($U$35-Q28))*HLOOKUP($U$35,$AV$24:$BF$34,Q28+1))*V35</f>
-        <v>2.8297914708439304E-2</v>
+        <v>2.2240889167359364E-5</v>
       </c>
       <c r="AV28" s="14">
         <v>4</v>
@@ -27172,7 +27169,7 @@
       </c>
       <c r="BJ28" s="107">
         <f t="shared" si="9"/>
-        <v>2.8814461252699584E-5</v>
+        <v>2.5014500474808762E-4</v>
       </c>
       <c r="BP28">
         <f>BP22+1</f>
@@ -27183,7 +27180,7 @@
       </c>
       <c r="BR28" s="107">
         <f t="shared" si="10"/>
-        <v>1.0501133297326978E-3</v>
+        <v>1.9033046692229076E-4</v>
       </c>
     </row>
     <row r="29" spans="1:70" x14ac:dyDescent="0.25">
@@ -27209,14 +27206,14 @@
       </c>
       <c r="H29" s="128">
         <f>J29*L25+J28*L26+J27*L27+J26*L28</f>
-        <v>0.19704108447605037</v>
+        <v>8.411536271310556E-2</v>
       </c>
       <c r="I29" s="93">
         <v>4</v>
       </c>
       <c r="J29" s="86">
         <f t="shared" si="11"/>
-        <v>0.16343069004799948</v>
+        <v>5.2117116492858225E-2</v>
       </c>
       <c r="K29" s="93">
         <v>4</v>
@@ -27227,35 +27224,35 @@
       </c>
       <c r="N29" s="71">
         <f>(($B$24)^M29)*((1-($B$24))^($B$21-M29))*HLOOKUP($B$21,$AV$24:$BF$34,M29+1)</f>
-        <v>0.40959978519607376</v>
+        <v>7.142454260983698E-2</v>
       </c>
       <c r="O29" s="72">
         <v>4</v>
       </c>
       <c r="P29" s="71">
         <f t="shared" si="12"/>
-        <v>0.40959978519607376</v>
+        <v>7.142454260983698E-2</v>
       </c>
       <c r="Q29" s="28">
         <v>4</v>
       </c>
       <c r="R29" s="37">
         <f>P25*N29+P26*N28+P27*N27+P28*N26+P29*N25</f>
-        <v>5.5302864690041469E-3</v>
+        <v>0.25043607305592347</v>
       </c>
       <c r="S29" s="72">
         <v>4</v>
       </c>
       <c r="T29" s="135">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>6.2500000000000001E-10</v>
       </c>
       <c r="U29" s="93">
         <v>4</v>
       </c>
       <c r="V29" s="86">
         <f>T29*R25+T28*R26+T27*R27+T26*R28+T25*R29</f>
-        <v>5.5065897663956987E-3</v>
+        <v>0.24986775908256359</v>
       </c>
       <c r="W29" s="137"/>
       <c r="X29" s="28">
@@ -27279,49 +27276,49 @@
       </c>
       <c r="AG29" s="79">
         <f>((($W$25)^M29)*((1-($W$25))^($U$29-M29))*HLOOKUP($U$29,$AV$24:$BF$34,M29+1))*V29</f>
-        <v>6.6360511890042556E-5</v>
+        <v>7.5813889378437754E-3</v>
       </c>
       <c r="AH29" s="28">
         <v>4</v>
       </c>
       <c r="AI29" s="79">
         <f>((($W$25)^M29)*((1-($W$25))^($U$30-M29))*HLOOKUP($U$30,$AV$24:$BF$34,M29+1))*V30</f>
-        <v>1.064095262391851E-3</v>
+        <v>1.7184599218343567E-2</v>
       </c>
       <c r="AJ29" s="28">
         <v>4</v>
       </c>
       <c r="AK29" s="79">
         <f>((($W$25)^M29)*((1-($W$25))^($U$31-M29))*HLOOKUP($U$31,$AV$24:$BF$34,M29+1))*V31</f>
-        <v>7.1104509316872273E-3</v>
+        <v>1.6281829241782605E-2</v>
       </c>
       <c r="AL29" s="28">
         <v>4</v>
       </c>
       <c r="AM29" s="79">
         <f>((($W$25)^Q29)*((1-($W$25))^($U$32-Q29))*HLOOKUP($U$32,$AV$24:$BF$34,Q29+1))*V32</f>
-        <v>2.5346170142807944E-2</v>
+        <v>8.272998233277009E-3</v>
       </c>
       <c r="AN29" s="28">
         <v>4</v>
       </c>
       <c r="AO29" s="79">
         <f>((($W$25)^Q29)*((1-($W$25))^($U$33-Q29))*HLOOKUP($U$33,$AV$24:$BF$34,Q29+1))*V33</f>
-        <v>5.0845149111327474E-2</v>
+        <v>2.3903137228345711E-3</v>
       </c>
       <c r="AP29" s="28">
         <v>4</v>
       </c>
       <c r="AQ29" s="79">
         <f>((($W$25)^Q29)*((1-($W$25))^($U$34-Q29))*HLOOKUP($U$34,$AV$24:$BF$34,Q29+1))*V34</f>
-        <v>5.446067623600629E-2</v>
+        <v>3.78106758843157E-4</v>
       </c>
       <c r="AR29" s="28">
         <v>4</v>
       </c>
       <c r="AS29" s="79">
         <f>((($W$25)^Q29)*((1-($W$25))^($U$35-Q29))*HLOOKUP($U$35,$AV$24:$BF$34,Q29+1))*V35</f>
-        <v>2.4537787851888652E-2</v>
+        <v>2.7880379933538373E-5</v>
       </c>
       <c r="AV29" s="14">
         <v>5</v>
@@ -27357,7 +27354,7 @@
       </c>
       <c r="BJ29" s="107">
         <f t="shared" si="9"/>
-        <v>3.1449177601544253E-6</v>
+        <v>3.1434170026177014E-5</v>
       </c>
       <c r="BP29">
         <f>BP23+1</f>
@@ -27368,7 +27365,7 @@
       </c>
       <c r="BR29" s="107">
         <f t="shared" si="10"/>
-        <v>3.1643899813970131E-4</v>
+        <v>8.2162083115700551E-5</v>
       </c>
     </row>
     <row r="30" spans="1:70" x14ac:dyDescent="0.25">
@@ -27394,14 +27391,14 @@
       </c>
       <c r="H30" s="128">
         <f>J30*L25+J29*L26+J28*L27+J27*L28</f>
-        <v>0.10926893331135296</v>
+        <v>2.7036380294892363E-2</v>
       </c>
       <c r="I30" s="93">
         <v>5</v>
       </c>
       <c r="J30" s="86">
         <f t="shared" si="11"/>
-        <v>7.0780490903208482E-2</v>
+        <v>1.2347437691836421E-2</v>
       </c>
       <c r="K30" s="93">
         <v>5</v>
@@ -27412,21 +27409,21 @@
       </c>
       <c r="N30" s="71">
         <f>(($B$24)^M30)*((1-($B$24))^($B$21-M30))*HLOOKUP($B$21,$AV$24:$BF$34,M30+1)</f>
-        <v>0.32730488744419151</v>
+        <v>9.1874882728139613E-3</v>
       </c>
       <c r="O30" s="72">
         <v>5</v>
       </c>
       <c r="P30" s="71">
         <f t="shared" si="12"/>
-        <v>0.32730488744419151</v>
+        <v>9.1874882728139613E-3</v>
       </c>
       <c r="Q30" s="28">
         <v>5</v>
       </c>
       <c r="R30" s="37">
         <f>P25*N30+P26*N29+P27*N28+P28*N27+P29*N26+P30*N25</f>
-        <v>2.6515001067274311E-2</v>
+        <v>0.19328469460641567</v>
       </c>
       <c r="S30" s="72">
         <v>5</v>
@@ -27440,7 +27437,7 @@
       </c>
       <c r="V30" s="86">
         <f>T30*R25+T29*R26+T28*R27+T27*R28+T26*R29+T25*R30</f>
-        <v>2.6410077494282959E-2</v>
+        <v>0.19441496994066376</v>
       </c>
       <c r="W30" s="137"/>
       <c r="X30" s="28">
@@ -27468,42 +27465,42 @@
       </c>
       <c r="AI30" s="79">
         <f>((($W$25)^M30)*((1-($W$25))^($U$30-M30))*HLOOKUP($U$30,$AV$24:$BF$34,M30+1))*V30</f>
-        <v>1.0545166241518776E-4</v>
+        <v>2.4619424500149914E-3</v>
       </c>
       <c r="AJ30" s="28">
         <v>5</v>
       </c>
       <c r="AK30" s="79">
         <f>((($W$25)^M30)*((1-($W$25))^($U$31-M30))*HLOOKUP($U$31,$AV$24:$BF$34,M30+1))*V31</f>
-        <v>1.4092889946387586E-3</v>
+        <v>4.6652151807476143E-3</v>
       </c>
       <c r="AL30" s="28">
         <v>5</v>
       </c>
       <c r="AM30" s="79">
         <f>((($W$25)^Q30)*((1-($W$25))^($U$32-Q30))*HLOOKUP($U$32,$AV$24:$BF$34,Q30+1))*V32</f>
-        <v>7.5354036575901312E-3</v>
+        <v>3.5556800505994477E-3</v>
       </c>
       <c r="AN30" s="28">
         <v>5</v>
       </c>
       <c r="AO30" s="79">
         <f>((($W$25)^Q30)*((1-($W$25))^($U$33-Q30))*HLOOKUP($U$33,$AV$24:$BF$34,Q30+1))*V33</f>
-        <v>2.0154983069788912E-2</v>
+        <v>1.3697880871886958E-3</v>
       </c>
       <c r="AP30" s="28">
         <v>5</v>
       </c>
       <c r="AQ30" s="79">
         <f>((($W$25)^Q30)*((1-($W$25))^($U$34-Q30))*HLOOKUP($U$34,$AV$24:$BF$34,Q30+1))*V34</f>
-        <v>2.6985219502026769E-2</v>
+        <v>2.7084631663678595E-4</v>
       </c>
       <c r="AR30" s="28">
         <v>5</v>
       </c>
       <c r="AS30" s="79">
         <f>((($W$25)^Q30)*((1-($W$25))^($U$35-Q30))*HLOOKUP($U$35,$AV$24:$BF$34,Q30+1))*V35</f>
-        <v>1.4590144016748734E-2</v>
+        <v>2.3965606648884236E-5</v>
       </c>
       <c r="AV30" s="29">
         <v>6</v>
@@ -27535,7 +27532,7 @@
       </c>
       <c r="BJ30" s="107">
         <f t="shared" si="9"/>
-        <v>2.6298103494460043E-7</v>
+        <v>2.8325324042458939E-6</v>
       </c>
       <c r="BP30">
         <f>BL10+1</f>
@@ -27546,7 +27543,7 @@
       </c>
       <c r="BR30" s="107">
         <f t="shared" si="10"/>
-        <v>7.2195270290629826E-5</v>
+        <v>2.5704447943084043E-5</v>
       </c>
     </row>
     <row r="31" spans="1:70" x14ac:dyDescent="0.25">
@@ -27555,25 +27552,25 @@
       </c>
       <c r="B31" s="60">
         <f>(B25*D25)+(B26*D26)+(B27*D27)+(B28*D28)+(B29*D29)+(B30*D30)/(B25+B26+B27+B28+B29+B30)</f>
-        <v>0.33132694112449163</v>
+        <v>0.41735886132672617</v>
       </c>
       <c r="C31" s="61">
         <f>(C25*E25)+(C26*E26)+(C27*E27)+(C28*E28)+(C29*E29)+(C30*E30)/(C25+C26+C27+C28+C29+C30)</f>
-        <v>0.34536895833952497</v>
+        <v>0.30691285403141</v>
       </c>
       <c r="G31" s="87">
         <v>6</v>
       </c>
       <c r="H31" s="128">
         <f>J31*L25+J30*L26+J29*L27+J28*L28</f>
-        <v>4.4912790539959738E-2</v>
+        <v>6.501203698527783E-3</v>
       </c>
       <c r="I31" s="93">
         <v>6</v>
       </c>
       <c r="J31" s="86">
         <f t="shared" si="11"/>
-        <v>2.1292973525086897E-2</v>
+        <v>2.0402236466288432E-3</v>
       </c>
       <c r="K31" s="93">
         <v>6</v>
@@ -27588,7 +27585,7 @@
       </c>
       <c r="R31" s="37">
         <f>P26*N30+P27*N29+P28*N28+P29*N27+P30*N26</f>
-        <v>8.8282206127058074E-2</v>
+        <v>0.10359422686536852</v>
       </c>
       <c r="S31" s="70">
         <v>6</v>
@@ -27602,7 +27599,7 @@
       </c>
       <c r="V31" s="86">
         <f>T31*R25+T30*R26+T29*R27+T28*R28+T27*R29+T26*R30+T25*R31</f>
-        <v>8.7973370101759152E-2</v>
+        <v>0.10538312913053599</v>
       </c>
       <c r="W31" s="137"/>
       <c r="X31" s="28">
@@ -27634,35 +27631,35 @@
       </c>
       <c r="AK31" s="79">
         <f>((($W$25)^Q31)*((1-($W$25))^($U$31-Q31))*HLOOKUP($U$31,$AV$24:$BF$34,Q31+1))*V31</f>
-        <v>1.1638358625746144E-4</v>
+        <v>5.5696630579920702E-4</v>
       </c>
       <c r="AL31" s="28">
         <v>6</v>
       </c>
       <c r="AM31" s="79">
         <f>((($W$25)^Q31)*((1-($W$25))^($U$32-Q31))*HLOOKUP($U$32,$AV$24:$BF$34,Q31+1))*V32</f>
-        <v>1.2445954022265407E-3</v>
+        <v>8.4900434627709846E-4</v>
       </c>
       <c r="AN31" s="28">
         <v>6</v>
       </c>
       <c r="AO31" s="79">
         <f>((($W$25)^Q31)*((1-($W$25))^($U$33-Q31))*HLOOKUP($U$33,$AV$24:$BF$34,Q31+1))*V33</f>
-        <v>4.9933886226544892E-3</v>
+        <v>4.9060490101144011E-4</v>
       </c>
       <c r="AP31" s="28">
         <v>6</v>
       </c>
       <c r="AQ31" s="79">
         <f>((($W$25)^Q31)*((1-($W$25))^($U$34-Q31))*HLOOKUP($U$34,$AV$24:$BF$34,Q31+1))*V34</f>
-        <v>8.9141024546088889E-3</v>
+        <v>1.2934217743185727E-4</v>
       </c>
       <c r="AR31" s="28">
         <v>6</v>
       </c>
       <c r="AS31" s="79">
         <f>((($W$25)^Q31)*((1-($W$25))^($U$35-Q31))*HLOOKUP($U$35,$AV$24:$BF$34,Q31+1))*V35</f>
-        <v>6.0245034593395157E-3</v>
+        <v>1.4305916109240333E-5</v>
       </c>
       <c r="AV31" s="14">
         <v>7</v>
@@ -27690,7 +27687,7 @@
       </c>
       <c r="BJ31" s="107">
         <f t="shared" ref="BJ31:BJ37" si="16">$H$28*H43</f>
-        <v>1.9300160935810964E-2</v>
+        <v>3.0381955840509383E-2</v>
       </c>
       <c r="BP31">
         <f t="shared" ref="BP31:BP37" si="17">BP24+1</f>
@@ -27701,7 +27698,7 @@
       </c>
       <c r="BR31" s="107">
         <f t="shared" ref="BR31:BR38" si="18">$H$33*H39</f>
-        <v>4.0356531958985235E-4</v>
+        <v>6.9631420742560448E-6</v>
       </c>
     </row>
     <row r="32" spans="1:70" x14ac:dyDescent="0.25">
@@ -27721,14 +27718,14 @@
       </c>
       <c r="H32" s="128">
         <f>J32*L25+J31*L26+J30*L27+J29*L28</f>
-        <v>1.3897564371286281E-2</v>
+        <v>1.1884720745820791E-3</v>
       </c>
       <c r="I32" s="93">
         <v>7</v>
       </c>
       <c r="J32" s="86">
         <f t="shared" si="11"/>
-        <v>4.393781765742311E-3</v>
+        <v>2.3285227634650338E-4</v>
       </c>
       <c r="K32" s="93">
         <v>7</v>
@@ -27743,7 +27740,7 @@
       </c>
       <c r="R32" s="37">
         <f>P27*N30+P28*N29+P29*N28+P30*N27</f>
-        <v>0.20155700818271838</v>
+        <v>3.8072977226007026E-2</v>
       </c>
       <c r="S32" s="72">
         <v>7</v>
@@ -27757,7 +27754,7 @@
       </c>
       <c r="V32" s="86">
         <f>T32*R25+T31*R26+T30*R27+T29*R28+T28*R29+T27*R30+T26*R31+T25*R32</f>
-        <v>0.20099063417244009</v>
+        <v>3.9386999249958816E-2</v>
       </c>
       <c r="W32" s="137"/>
       <c r="X32" s="28">
@@ -27793,28 +27790,28 @@
       </c>
       <c r="AM32" s="79">
         <f>((($W$25)^Q32)*((1-($W$25))^($U$32-Q32))*HLOOKUP($U$32,$AV$24:$BF$34,Q32+1))*V32</f>
-        <v>8.8099425760111382E-5</v>
+        <v>8.6880110905834804E-5</v>
       </c>
       <c r="AN32" s="28">
         <v>7</v>
       </c>
       <c r="AO32" s="79">
         <f>((($W$25)^Q32)*((1-($W$25))^($U$33-Q32))*HLOOKUP($U$33,$AV$24:$BF$34,Q32+1))*V33</f>
-        <v>7.0691996686785257E-4</v>
+        <v>1.0040892817033575E-4</v>
       </c>
       <c r="AP32" s="28">
         <v>7</v>
       </c>
       <c r="AQ32" s="79">
         <f>((($W$25)^Q32)*((1-($W$25))^($U$34-Q32))*HLOOKUP($U$34,$AV$24:$BF$34,Q32+1))*V34</f>
-        <v>1.8929701315292926E-3</v>
+        <v>3.9707438846541434E-5</v>
       </c>
       <c r="AR32" s="28">
         <v>7</v>
       </c>
       <c r="AS32" s="79">
         <f>((($W$25)^Q32)*((1-($W$25))^($U$35-Q32))*HLOOKUP($U$35,$AV$24:$BF$34,Q32+1))*V35</f>
-        <v>1.7057922415850539E-3</v>
+        <v>5.8557984237913928E-6</v>
       </c>
       <c r="AV32" s="14">
         <v>8</v>
@@ -27838,7 +27835,7 @@
       </c>
       <c r="BJ32" s="107">
         <f t="shared" si="16"/>
-        <v>5.8158709327283901E-3</v>
+        <v>1.3115318957340956E-2</v>
       </c>
       <c r="BP32">
         <f t="shared" si="17"/>
@@ -27849,7 +27846,7 @@
       </c>
       <c r="BR32" s="107">
         <f t="shared" si="18"/>
-        <v>9.4607836752251605E-4</v>
+        <v>2.7699819039995318E-5</v>
       </c>
     </row>
     <row r="33" spans="1:70" x14ac:dyDescent="0.25">
@@ -27862,21 +27859,21 @@
       </c>
       <c r="C33" s="58">
         <f>IF(C17&lt;&gt;"CA",0.005,IF((C18-C16)&lt;0,0.1,0.1+0.055*(C18-C16)))</f>
-        <v>0.375</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G33" s="87">
         <v>8</v>
       </c>
       <c r="H33" s="128">
         <f>J33*L25+J32*L26+J31*L27+J30*L28</f>
-        <v>3.2512607171760492E-3</v>
+        <v>1.6585055016220515E-4</v>
       </c>
       <c r="I33" s="93">
         <v>8</v>
       </c>
       <c r="J33" s="86">
         <f t="shared" si="11"/>
-        <v>5.9523304614494293E-4</v>
+        <v>1.7674465780326916E-5</v>
       </c>
       <c r="K33" s="93">
         <v>8</v>
@@ -27891,7 +27888,7 @@
       </c>
       <c r="R33" s="37">
         <f>P28*N30+P29*N29+P30*N28</f>
-        <v>0.30198957125880554</v>
+        <v>9.1826375166439538E-3</v>
       </c>
       <c r="S33" s="72">
         <v>8</v>
@@ -27905,7 +27902,7 @@
       </c>
       <c r="V33" s="86">
         <f>T33*R25+T32*R26+T31*R27+T30*R28+T29*R29+T28*R30+T27*R31+T26*R32+T25*R33</f>
-        <v>0.30148740844342509</v>
+        <v>9.7659326888206669E-3</v>
       </c>
       <c r="W33" s="137"/>
       <c r="X33" s="28">
@@ -27945,21 +27942,21 @@
       </c>
       <c r="AO33" s="79">
         <f>((($W$25)^Q33)*((1-($W$25))^($U$33-Q33))*HLOOKUP($U$33,$AV$24:$BF$34,Q33+1))*V33</f>
-        <v>4.3784781503691357E-5</v>
+        <v>8.9906447439570932E-6</v>
       </c>
       <c r="AP33" s="28">
         <v>8</v>
       </c>
       <c r="AQ33" s="79">
         <f>((($W$25)^Q33)*((1-($W$25))^($U$34-Q33))*HLOOKUP($U$34,$AV$24:$BF$34,Q33+1))*V34</f>
-        <v>2.3449127903192373E-4</v>
+        <v>7.1108313347602139E-6</v>
       </c>
       <c r="AR33" s="28">
         <v>8</v>
       </c>
       <c r="AS33" s="79">
         <f>((($W$25)^Q33)*((1-($W$25))^($U$35-Q33))*HLOOKUP($U$35,$AV$24:$BF$34,Q33+1))*V35</f>
-        <v>3.1695698560932784E-4</v>
+        <v>1.5729897016096082E-6</v>
       </c>
       <c r="AV33" s="29">
         <v>9</v>
@@ -27980,7 +27977,7 @@
       </c>
       <c r="BJ33" s="107">
         <f t="shared" si="16"/>
-        <v>1.3268856760138518E-3</v>
+        <v>4.1031339592641413E-3</v>
       </c>
       <c r="BP33">
         <f t="shared" si="17"/>
@@ -27991,7 +27988,7 @@
       </c>
       <c r="BR33" s="107">
         <f t="shared" si="18"/>
-        <v>9.6915812144797333E-4</v>
+        <v>4.5570304472702299E-5</v>
       </c>
     </row>
     <row r="34" spans="1:70" x14ac:dyDescent="0.25">
@@ -28000,25 +27997,25 @@
       </c>
       <c r="B34" s="56">
         <f>B23*2</f>
-        <v>7.9981675564535148</v>
+        <v>3.9141670759658531</v>
       </c>
       <c r="C34" s="57">
         <f>C23*2</f>
-        <v>2.0018324435464852</v>
+        <v>6.0858329240341469</v>
       </c>
       <c r="G34" s="87">
         <v>9</v>
       </c>
       <c r="H34" s="128">
         <f>J34*L25+J33*L26+J32*L27+J31*L28</f>
-        <v>5.7100634561586664E-4</v>
+        <v>1.7527108812462658E-5</v>
       </c>
       <c r="I34" s="93">
         <v>9</v>
       </c>
       <c r="J34" s="86">
         <f t="shared" si="11"/>
-        <v>4.781045275712589E-5</v>
+        <v>8.1635362495734739E-7</v>
       </c>
       <c r="K34" s="93">
         <v>9</v>
@@ -28033,7 +28030,7 @@
       </c>
       <c r="R34" s="37">
         <f>P29*N30+P30*N29</f>
-        <v>0.26812802318153189</v>
+        <v>1.3124242952379567E-3</v>
       </c>
       <c r="S34" s="72">
         <v>9</v>
@@ -28047,7 +28044,7 @@
       </c>
       <c r="V34" s="86">
         <f>T34*R25+T33*R26+T32*R27+T31*R28+T30*R29+T29*R30+T28*R31+T27*R32+T26*R33+T25*R34</f>
-        <v>0.26829733092191826</v>
+        <v>1.4729893664856941E-3</v>
       </c>
       <c r="W34" s="137"/>
       <c r="X34" s="28">
@@ -28091,14 +28088,14 @@
       </c>
       <c r="AQ34" s="79">
         <f>((($W$25)^Q34)*((1-($W$25))^($U$34-Q34))*HLOOKUP($U$34,$AV$24:$BF$34,Q34+1))*V34</f>
-        <v>1.2910025837451843E-5</v>
+        <v>5.6596081227246636E-7</v>
       </c>
       <c r="AR34" s="28">
         <v>9</v>
       </c>
       <c r="AS34" s="79">
         <f>((($W$25)^Q34)*((1-($W$25))^($U$35-Q34))*HLOOKUP($U$35,$AV$24:$BF$34,Q34+1))*V35</f>
-        <v>3.4900426919674045E-5</v>
+        <v>2.5039281268488097E-7</v>
       </c>
       <c r="AV34" s="14">
         <v>10</v>
@@ -28116,7 +28113,7 @@
       </c>
       <c r="BJ34" s="107">
         <f t="shared" si="16"/>
-        <v>2.3497870973107578E-4</v>
+        <v>9.4704312594241899E-4</v>
       </c>
       <c r="BP34">
         <f t="shared" si="17"/>
@@ -28127,7 +28124,7 @@
       </c>
       <c r="BR34" s="107">
         <f t="shared" si="18"/>
-        <v>5.9241491160032928E-4</v>
+        <v>4.3015055440611107E-5</v>
       </c>
     </row>
     <row r="35" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28136,14 +28133,14 @@
       </c>
       <c r="H35" s="129">
         <f>J35*L25+J34*L26+J33*L27+J32*L28</f>
-        <v>7.3625238230008163E-5</v>
+        <v>1.3699259260558894E-6</v>
       </c>
       <c r="I35" s="94">
         <v>10</v>
       </c>
       <c r="J35" s="89">
         <f t="shared" si="11"/>
-        <v>1.729313233387995E-6</v>
+        <v>1.7936196442380019E-8</v>
       </c>
       <c r="K35" s="94">
         <v>10</v>
@@ -28158,7 +28155,7 @@
       </c>
       <c r="R35" s="37">
         <f>P30*N30</f>
-        <v>0.10712848934485487</v>
+        <v>8.4409940763094065E-5</v>
       </c>
       <c r="S35" s="72">
         <v>10</v>
@@ -28172,7 +28169,7 @@
       </c>
       <c r="V35" s="89">
         <f>IF(((T35*R25+T34*R26+T33*R27+T32*R28+T31*R29+T30*R30+T29*R31+T28*R32+T27*R33+T26*R34+T25*R35)+V23)&lt;&gt;1,1-V23,(T35*R25+T34*R26+T33*R27+T32*R28+T31*R29+T30*R30+T29*R31+T28*R32+T27*R33+T26*R34+T25*R35))</f>
-        <v>0.10846912946076248</v>
+        <v>1.1184947847109328E-4</v>
       </c>
       <c r="W35" s="137"/>
       <c r="X35" s="28">
@@ -28220,7 +28217,7 @@
       </c>
       <c r="AS35" s="79">
         <f>((($W$25)^Q35)*((1-($W$25))^($U$35-Q35))*HLOOKUP($U$35,$AV$24:$BF$34,Q35+1))*V35</f>
-        <v>1.729313233387995E-6</v>
+        <v>1.7936196442380019E-8</v>
       </c>
       <c r="BH35">
         <f t="shared" si="15"/>
@@ -28231,7 +28228,7 @@
       </c>
       <c r="BJ35" s="107">
         <f t="shared" si="16"/>
-        <v>3.2700233188489103E-5</v>
+        <v>1.6197034662890407E-4</v>
       </c>
       <c r="BP35">
         <f t="shared" si="17"/>
@@ -28242,14 +28239,14 @@
       </c>
       <c r="BR35" s="107">
         <f t="shared" si="18"/>
-        <v>2.4566838665607575E-4</v>
+        <v>2.6560500096555906E-5</v>
       </c>
     </row>
     <row r="36" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="108">
         <f>SUM(B37:B39)</f>
-        <v>0.99991927387869417</v>
+        <v>0.99999793498810785</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
@@ -28274,7 +28271,7 @@
       <c r="X36" s="13"/>
       <c r="AS36" s="82">
         <f>Y37+AA37+AC37+AE37+AG37+AI37+AK37+AM37+AO37+AQ37+AS37</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="BH36">
         <f t="shared" si="15"/>
@@ -28285,7 +28282,7 @@
       </c>
       <c r="BJ36" s="107">
         <f t="shared" si="16"/>
-        <v>3.56902540060629E-6</v>
+        <v>2.0353808065282669E-5</v>
       </c>
       <c r="BP36">
         <f t="shared" si="17"/>
@@ -28296,7 +28293,7 @@
       </c>
       <c r="BR36" s="107">
         <f t="shared" si="18"/>
-        <v>7.4029208035892216E-5</v>
+        <v>1.1465668380978581E-5</v>
       </c>
     </row>
     <row r="37" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28305,12 +28302,12 @@
       </c>
       <c r="B37" s="107">
         <f>SUM(BN4:BN14)</f>
-        <v>0.17007829985451239</v>
+        <v>0.19657010383776058</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="59">
         <f>SUM(H39:H49)</f>
-        <v>0.99999992658689851</v>
+        <v>0.99999938299473712</v>
       </c>
       <c r="I37" s="13"/>
       <c r="J37" s="59">
@@ -28320,22 +28317,22 @@
       <c r="K37" s="59"/>
       <c r="L37" s="59">
         <f>SUM(L39:L49)</f>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="74">
         <f>SUM(N39:N49)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="O37" s="13"/>
       <c r="P37" s="74">
         <f>SUM(P39:P49)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="Q37" s="13"/>
       <c r="R37" s="59">
         <f>SUM(R39:R49)</f>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="S37" s="13"/>
       <c r="T37" s="59">
@@ -28345,63 +28342,63 @@
       <c r="U37" s="13"/>
       <c r="V37" s="59">
         <f>SUM(V39:V48)</f>
-        <v>0.99915316820659106</v>
+        <v>0.99258014998652566</v>
       </c>
       <c r="W37" s="13"/>
       <c r="X37" s="13"/>
       <c r="Y37" s="80">
         <f>SUM(Y39:Y49)</f>
-        <v>1.0216568884358871E-2</v>
+        <v>8.3567951603982199E-5</v>
       </c>
       <c r="Z37" s="81"/>
       <c r="AA37" s="80">
         <f>SUM(AA39:AA49)</f>
-        <v>5.6220387574777278E-2</v>
+        <v>1.3001727418035509E-3</v>
       </c>
       <c r="AB37" s="81"/>
       <c r="AC37" s="80">
         <f>SUM(AC39:AC49)</f>
-        <v>0.14229166054199971</v>
+        <v>9.1041014394015671E-3</v>
       </c>
       <c r="AD37" s="81"/>
       <c r="AE37" s="80">
         <f>SUM(AE39:AE49)</f>
-        <v>0.21974412368750917</v>
+        <v>3.7784599332075598E-2</v>
       </c>
       <c r="AF37" s="81"/>
       <c r="AG37" s="80">
         <f>SUM(AG39:AG49)</f>
-        <v>0.23161806854004741</v>
+        <v>0.10293993014172316</v>
       </c>
       <c r="AH37" s="81"/>
       <c r="AI37" s="80">
         <f>SUM(AI39:AI49)</f>
-        <v>0.17655769283088146</v>
+        <v>0.19238839415945774</v>
       </c>
       <c r="AJ37" s="81"/>
       <c r="AK37" s="80">
         <f>SUM(AK39:AK49)</f>
-        <v>0.10059292284595583</v>
+        <v>0.2498637457941961</v>
       </c>
       <c r="AL37" s="81"/>
       <c r="AM37" s="80">
         <f>SUM(AM39:AM49)</f>
-        <v>4.3641760329670536E-2</v>
+        <v>0.22278204558238882</v>
       </c>
       <c r="AN37" s="81"/>
       <c r="AO37" s="80">
         <f>SUM(AO39:AO49)</f>
-        <v>1.454433918838216E-2</v>
+        <v>0.13065938592192719</v>
       </c>
       <c r="AP37" s="81"/>
       <c r="AQ37" s="80">
         <f>SUM(AQ39:AQ49)</f>
-        <v>3.7256437830085094E-3</v>
+        <v>4.5674206921947909E-2</v>
       </c>
       <c r="AR37" s="81"/>
       <c r="AS37" s="80">
         <f>SUM(AS39:AS49)</f>
-        <v>8.4683179340894188E-4</v>
+        <v>7.4198500134743366E-3</v>
       </c>
       <c r="BH37">
         <f t="shared" si="15"/>
@@ -28412,7 +28409,7 @@
       </c>
       <c r="BJ37" s="107">
         <f t="shared" si="16"/>
-        <v>2.984453220007005E-7</v>
+        <v>1.8340812194724346E-6</v>
       </c>
       <c r="BP37">
         <f t="shared" si="17"/>
@@ -28423,7 +28420,7 @@
       </c>
       <c r="BR37" s="107">
         <f t="shared" si="18"/>
-        <v>1.6889696639707448E-5</v>
+        <v>3.5870399685035508E-6</v>
       </c>
     </row>
     <row r="38" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28432,7 +28429,7 @@
       </c>
       <c r="B38" s="107">
         <f>SUM(BJ4:BJ59)</f>
-        <v>0.19996421098317302</v>
+        <v>0.54443570645269335</v>
       </c>
       <c r="G38" s="103" t="str">
         <f t="shared" ref="G38:T38" si="19">G24</f>
@@ -28632,7 +28629,7 @@
       </c>
       <c r="BJ38" s="107">
         <f t="shared" ref="BJ38:BJ43" si="32">$H$29*H44</f>
-        <v>4.4865043757441308E-3</v>
+        <v>5.8151079611792585E-3</v>
       </c>
       <c r="BP38">
         <f>BL11+1</f>
@@ -28643,7 +28640,7 @@
       </c>
       <c r="BR38" s="107">
         <f t="shared" si="18"/>
-        <v>2.9910030652153275E-6</v>
+        <v>8.2792362578901361E-7</v>
       </c>
     </row>
     <row r="39" spans="1:70" x14ac:dyDescent="0.25">
@@ -28652,144 +28649,144 @@
       </c>
       <c r="B39" s="107">
         <f>SUM(BR4:BR47)</f>
-        <v>0.6298767630410087</v>
+        <v>0.25899212469765381</v>
       </c>
       <c r="G39" s="130">
         <v>0</v>
       </c>
       <c r="H39" s="131">
         <f>L39*J39</f>
-        <v>0.12412579448269455</v>
+        <v>4.1984437600272977E-2</v>
       </c>
       <c r="I39" s="97">
         <v>0</v>
       </c>
       <c r="J39" s="98">
         <f t="shared" ref="J39:J49" si="33">Y39+AA39+AC39+AE39+AG39+AI39+AK39+AM39+AO39+AQ39+AS39</f>
-        <v>0.24415689739705956</v>
+        <v>0.1261065442073501</v>
       </c>
       <c r="K39" s="102">
         <v>0</v>
       </c>
       <c r="L39" s="98">
         <f>AC21</f>
-        <v>0.50838536943248946</v>
+        <v>0.33292830173222621</v>
       </c>
       <c r="M39" s="84">
         <v>0</v>
       </c>
       <c r="N39" s="71">
         <f>(1-$C$24)^$B$21</f>
-        <v>0.32730488744419151</v>
+        <v>9.1874882728139613E-3</v>
       </c>
       <c r="O39" s="70">
         <v>0</v>
       </c>
       <c r="P39" s="71">
         <f>N39</f>
-        <v>0.32730488744419151</v>
+        <v>9.1874882728139613E-3</v>
       </c>
       <c r="Q39" s="12">
         <v>0</v>
       </c>
       <c r="R39" s="73">
         <f>P39*N39</f>
-        <v>0.10712848934485487</v>
+        <v>8.4409940763094065E-5</v>
       </c>
       <c r="S39" s="70">
         <v>0</v>
       </c>
       <c r="T39" s="135">
         <f>(1-$C$33)^(INT(B23*2*(1-B31)))</f>
-        <v>9.5367431640625E-2</v>
+        <v>0.99002500000000004</v>
       </c>
       <c r="U39" s="140">
         <v>0</v>
       </c>
       <c r="V39" s="86">
         <f>R39*T39</f>
-        <v>1.0216568884358871E-2</v>
+        <v>8.3567951603982199E-5</v>
       </c>
       <c r="W39" s="136">
         <f>C31</f>
-        <v>0.34536895833952497</v>
+        <v>0.30691285403141</v>
       </c>
       <c r="X39" s="12">
         <v>0</v>
       </c>
       <c r="Y39" s="79">
         <f>V39</f>
-        <v>1.0216568884358871E-2</v>
+        <v>8.3567951603982199E-5</v>
       </c>
       <c r="Z39" s="12">
         <v>0</v>
       </c>
       <c r="AA39" s="78">
         <f>((1-W39)^Z40)*V40</f>
-        <v>3.6803610880632075E-2</v>
+        <v>9.0113301488277961E-4</v>
       </c>
       <c r="AB39" s="12">
         <v>0</v>
       </c>
       <c r="AC39" s="79">
         <f>(((1-$W$39)^AB41))*V41</f>
-        <v>6.097792443404125E-2</v>
+        <v>4.3733353139445083E-3</v>
       </c>
       <c r="AD39" s="12">
         <v>0</v>
       </c>
       <c r="AE39" s="79">
         <f>(((1-$W$39)^AB42))*V42</f>
-        <v>6.1646305672947967E-2</v>
+        <v>1.2579933771959794E-2</v>
       </c>
       <c r="AF39" s="12">
         <v>0</v>
       </c>
       <c r="AG39" s="79">
         <f>(((1-$W$39)^AB43))*V43</f>
-        <v>4.2536212411455589E-2</v>
+        <v>2.3753917680221604E-2</v>
       </c>
       <c r="AH39" s="12">
         <v>0</v>
       </c>
       <c r="AI39" s="79">
         <f>(((1-$W$39)^AB44))*V44</f>
-        <v>2.1226071383701507E-2</v>
+        <v>3.0769333712471588E-2</v>
       </c>
       <c r="AJ39" s="12">
         <v>0</v>
       </c>
       <c r="AK39" s="79">
         <f>(((1-$W$39)^AB45))*V45</f>
-        <v>7.9167512214114583E-3</v>
+        <v>2.7696845804168115E-2</v>
       </c>
       <c r="AL39" s="12">
         <v>0</v>
       </c>
       <c r="AM39" s="79">
         <f>(((1-$W$39)^AB46))*V46</f>
-        <v>2.2484251033191376E-3</v>
+        <v>1.7115717063130503E-2</v>
       </c>
       <c r="AN39" s="12">
         <v>0</v>
       </c>
       <c r="AO39" s="79">
         <f>(((1-$W$39)^AB47))*V47</f>
-        <v>4.9053133454147991E-4</v>
+        <v>6.9573422588964122E-3</v>
       </c>
       <c r="AP39" s="12">
         <v>0</v>
       </c>
       <c r="AQ39" s="79">
         <f>(((1-$W$39)^AB48))*V48</f>
-        <v>8.2256586745019792E-5</v>
+        <v>1.6856275288409937E-3</v>
       </c>
       <c r="AR39" s="12">
         <v>0</v>
       </c>
       <c r="AS39" s="79">
         <f>(((1-$W$39)^AB49))*V49</f>
-        <v>1.2239483905269006E-5</v>
+        <v>1.8979010722983505E-4</v>
       </c>
       <c r="AV39" s="14">
         <v>1</v>
@@ -28834,7 +28831,7 @@
       </c>
       <c r="BJ39" s="107">
         <f t="shared" si="32"/>
-        <v>1.0235919022975287E-3</v>
+        <v>1.8192593737071702E-3</v>
       </c>
       <c r="BP39">
         <f t="shared" ref="BP39:BP46" si="34">BP31+1</f>
@@ -28845,7 +28842,7 @@
       </c>
       <c r="BR39" s="107">
         <f t="shared" ref="BR39:BR47" si="35">$H$34*H39</f>
-        <v>7.087661630422951E-5</v>
+        <v>7.3586580625003308E-7</v>
       </c>
     </row>
     <row r="40" spans="1:70" x14ac:dyDescent="0.25">
@@ -28854,56 +28851,56 @@
       </c>
       <c r="H40" s="132">
         <f>L39*J40+L40*J39</f>
-        <v>0.2909881580780308</v>
+        <v>0.16701674497253305</v>
       </c>
       <c r="I40" s="93">
         <v>1</v>
       </c>
       <c r="J40" s="86">
         <f t="shared" si="33"/>
-        <v>0.36297369897047455</v>
+        <v>0.2900330776895349</v>
       </c>
       <c r="K40" s="95">
         <v>1</v>
       </c>
       <c r="L40" s="86">
         <f>AD21</f>
-        <v>0.43602143198732751</v>
+        <v>0.55870633371205181</v>
       </c>
       <c r="M40" s="85">
         <v>1</v>
       </c>
       <c r="N40" s="71">
         <f>(($C$24)^M26)*((1-($C$24))^($B$21-M26))*HLOOKUP($B$21,$AV$24:$BF$34,M26+1)</f>
-        <v>0.40959978519607376</v>
+        <v>7.142454260983698E-2</v>
       </c>
       <c r="O40" s="72">
         <v>1</v>
       </c>
       <c r="P40" s="71">
         <f t="shared" ref="P40:P44" si="36">N40</f>
-        <v>0.40959978519607376</v>
+        <v>7.142454260983698E-2</v>
       </c>
       <c r="Q40" s="28">
         <v>1</v>
       </c>
       <c r="R40" s="37">
         <f>P40*N39+P39*N40</f>
-        <v>0.26812802318153189</v>
+        <v>1.3124242952379567E-3</v>
       </c>
       <c r="S40" s="72">
         <v>1</v>
       </c>
       <c r="T40" s="135">
         <f t="shared" ref="T40:T49" si="37">(($C$33)^S40)*((1-($C$33))^(INT($B$23*2*(1-$B$31))-S40))*HLOOKUP(INT($B$23*2*(1-$B$31)),$AV$24:$BF$34,S40+1)</f>
-        <v>0.286102294921875</v>
+        <v>9.9500000000000005E-3</v>
       </c>
       <c r="U40" s="93">
         <v>1</v>
       </c>
       <c r="V40" s="86">
         <f>R40*T39+T40*R39</f>
-        <v>5.6220387574777271E-2</v>
+        <v>1.3001727418035509E-3</v>
       </c>
       <c r="W40" s="137"/>
       <c r="X40" s="28">
@@ -28915,70 +28912,70 @@
       </c>
       <c r="AA40" s="79">
         <f>(1-((1-W39)^Z40))*V40</f>
-        <v>1.94167766941452E-2</v>
+        <v>3.9903972692077136E-4</v>
       </c>
       <c r="AB40" s="28">
         <v>1</v>
       </c>
       <c r="AC40" s="79">
         <f>((($W$39)^M40)*((1-($W$39))^($U$27-M40))*HLOOKUP($U$27,$AV$24:$BF$34,M40+1))*V41</f>
-        <v>6.4341227052333458E-2</v>
+        <v>3.8732007385977119E-3</v>
       </c>
       <c r="AD40" s="28">
         <v>1</v>
       </c>
       <c r="AE40" s="79">
         <f>((($W$39)^M40)*((1-($W$39))^($U$28-M40))*HLOOKUP($U$28,$AV$24:$BF$34,M40+1))*V42</f>
-        <v>9.7569710359633882E-2</v>
+        <v>1.6711939039423224E-2</v>
       </c>
       <c r="AF40" s="28">
         <v>1</v>
       </c>
       <c r="AG40" s="79">
         <f>((($W$39)^M40)*((1-($W$39))^($U$29-M40))*HLOOKUP($U$29,$AV$24:$BF$34,M40+1))*V43</f>
-        <v>8.9764685371412772E-2</v>
+        <v>4.2074839864332879E-2</v>
       </c>
       <c r="AH40" s="28">
         <v>1</v>
       </c>
       <c r="AI40" s="79">
         <f>((($W$39)^M40)*((1-($W$39))^($U$30-M40))*HLOOKUP($U$30,$AV$24:$BF$34,M40+1))*V44</f>
-        <v>5.5992045113188574E-2</v>
+        <v>6.8126382672573066E-2</v>
       </c>
       <c r="AJ40" s="28">
         <v>1</v>
       </c>
       <c r="AK40" s="79">
         <f>((($W$39)^M40)*((1-($W$39))^($U$31-M40))*HLOOKUP($U$31,$AV$24:$BF$34,M40+1))*V45</f>
-        <v>2.5060224298286169E-2</v>
+        <v>7.3588304525939258E-2</v>
       </c>
       <c r="AL40" s="28">
         <v>1</v>
       </c>
       <c r="AM40" s="79">
         <f>((($W$39)^Q40)*((1-($W$39))^($U$32-Q40))*HLOOKUP($U$32,$AV$24:$BF$34,Q40+1))*V46</f>
-        <v>8.3035378784919352E-3</v>
+        <v>5.3054273509990667E-2</v>
       </c>
       <c r="AN40" s="28">
         <v>1</v>
       </c>
       <c r="AO40" s="79">
         <f>((($W$39)^Q40)*((1-($W$39))^($U$33-Q40))*HLOOKUP($U$33,$AV$24:$BF$34,Q40+1))*V47</f>
-        <v>2.0703484590497596E-3</v>
+        <v>2.4646802718202538E-2</v>
       </c>
       <c r="AP40" s="28">
         <v>1</v>
       </c>
       <c r="AQ40" s="79">
         <f>((($W$39)^Q40)*((1-($W$39))^($U$34-Q40))*HLOOKUP($U$34,$AV$24:$BF$34,Q40+1))*V48</f>
-        <v>3.9057091530168977E-4</v>
+        <v>6.7178663296195784E-3</v>
       </c>
       <c r="AR40" s="28">
         <v>1</v>
       </c>
       <c r="AS40" s="79">
         <f>((($W$39)^Q40)*((1-($W$39))^($U$35-Q40))*HLOOKUP($U$35,$AV$24:$BF$34,Q40+1))*V49</f>
-        <v>6.4572828631132139E-5</v>
+        <v>8.4042856393524577E-4</v>
       </c>
       <c r="AV40" s="14">
         <v>2</v>
@@ -29023,7 +29020,7 @@
       </c>
       <c r="BJ40" s="107">
         <f t="shared" si="32"/>
-        <v>1.8126829525781977E-4</v>
+        <v>4.1990271370147389E-4</v>
       </c>
       <c r="BP40">
         <f t="shared" si="34"/>
@@ -29034,7 +29031,7 @@
       </c>
       <c r="BR40" s="107">
         <f t="shared" si="35"/>
-        <v>1.661560847616285E-4</v>
+        <v>2.9273206626369126E-6</v>
       </c>
     </row>
     <row r="41" spans="1:70" x14ac:dyDescent="0.25">
@@ -29043,56 +29040,56 @@
       </c>
       <c r="H41" s="132">
         <f>L39*J41+J40*L40+J39*L41</f>
-        <v>0.2980868671429574</v>
+        <v>0.2747672795063606</v>
       </c>
       <c r="I41" s="93">
         <v>2</v>
       </c>
       <c r="J41" s="86">
         <f t="shared" si="33"/>
-        <v>0.2495611332897793</v>
+        <v>0.30026045932871076</v>
       </c>
       <c r="K41" s="95">
         <v>2</v>
       </c>
       <c r="L41" s="86">
         <f>AE21</f>
-        <v>5.3036905115729366E-2</v>
+        <v>0.1011744259092016</v>
       </c>
       <c r="M41" s="85">
         <v>2</v>
       </c>
       <c r="N41" s="71">
         <f>(($C$24)^M27)*((1-($C$24))^($B$21-M27))*HLOOKUP($B$21,$AV$24:$BF$34,M27+1)</f>
-        <v>0.20503449898685233</v>
+        <v>0.22210489463675503</v>
       </c>
       <c r="O41" s="72">
         <v>2</v>
       </c>
       <c r="P41" s="71">
         <f t="shared" si="36"/>
-        <v>0.20503449898685233</v>
+        <v>0.22210489463675503</v>
       </c>
       <c r="Q41" s="28">
         <v>2</v>
       </c>
       <c r="R41" s="37">
         <f>P41*N39+P40*N40+P39*N41</f>
-        <v>0.30198957125880554</v>
+        <v>9.1826375166439538E-3</v>
       </c>
       <c r="S41" s="72">
         <v>2</v>
       </c>
       <c r="T41" s="135">
         <f t="shared" si="37"/>
-        <v>0.34332275390625</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="U41" s="93">
         <v>2</v>
       </c>
       <c r="V41" s="86">
         <f>R41*T39+T40*R40+R39*T41</f>
-        <v>0.14229166054199971</v>
+        <v>9.1041014394015671E-3</v>
       </c>
       <c r="W41" s="137"/>
       <c r="X41" s="28">
@@ -29108,63 +29105,63 @@
       </c>
       <c r="AC41" s="79">
         <f>((($W$39)^M41)*((1-($W$39))^($U$27-M41))*HLOOKUP($U$27,$AV$24:$BF$34,M41+1))*V41</f>
-        <v>1.6972509055624994E-2</v>
+        <v>8.5756538685934688E-4</v>
       </c>
       <c r="AD41" s="28">
         <v>2</v>
       </c>
       <c r="AE41" s="79">
         <f>((($W$39)^M41)*((1-($W$39))^($U$28-M41))*HLOOKUP($U$28,$AV$24:$BF$34,M41+1))*V42</f>
-        <v>5.147563602685553E-2</v>
+        <v>7.4003809431790694E-3</v>
       </c>
       <c r="AF41" s="28">
         <v>2</v>
       </c>
       <c r="AG41" s="79">
         <f>((($W$39)^M41)*((1-($W$39))^($U$29-M41))*HLOOKUP($U$29,$AV$24:$BF$34,M41+1))*V43</f>
-        <v>7.1036814425489495E-2</v>
+        <v>2.7947371252205058E-2</v>
       </c>
       <c r="AH41" s="28">
         <v>2</v>
       </c>
       <c r="AI41" s="79">
         <f>((($W$39)^M41)*((1-($W$39))^($U$30-M41))*HLOOKUP($U$30,$AV$24:$BF$34,M41+1))*V44</f>
-        <v>5.9080346226756696E-2</v>
+        <v>6.0335450347027419E-2</v>
       </c>
       <c r="AJ41" s="28">
         <v>2</v>
       </c>
       <c r="AK41" s="79">
         <f>((($W$39)^M41)*((1-($W$39))^($U$31-M41))*HLOOKUP($U$31,$AV$24:$BF$34,M41+1))*V45</f>
-        <v>3.3053059704060306E-2</v>
+        <v>8.1465933601414992E-2</v>
       </c>
       <c r="AL41" s="28">
         <v>2</v>
       </c>
       <c r="AM41" s="79">
         <f>((($W$39)^Q41)*((1-($W$39))^($U$32-Q41))*HLOOKUP($U$32,$AV$24:$BF$34,Q41+1))*V46</f>
-        <v>1.3142292582185222E-2</v>
+        <v>7.0480481117964053E-2</v>
       </c>
       <c r="AN41" s="28">
         <v>2</v>
       </c>
       <c r="AO41" s="79">
         <f>((($W$39)^Q41)*((1-($W$39))^($U$33-Q41))*HLOOKUP($U$33,$AV$24:$BF$34,Q41+1))*V47</f>
-        <v>3.8229462982821436E-3</v>
+        <v>3.8199340633384267E-2</v>
       </c>
       <c r="AP41" s="28">
         <v>2</v>
       </c>
       <c r="AQ41" s="79">
         <f>((($W$39)^Q41)*((1-($W$39))^($U$34-Q41))*HLOOKUP($U$34,$AV$24:$BF$34,Q41+1))*V48</f>
-        <v>8.242265434483981E-4</v>
+        <v>1.1899222429489391E-2</v>
       </c>
       <c r="AR41" s="28">
         <v>2</v>
       </c>
       <c r="AS41" s="79">
         <f>((($W$39)^Q41)*((1-($W$39))^($U$35-Q41))*HLOOKUP($U$35,$AV$24:$BF$34,Q41+1))*V49</f>
-        <v>1.5330242707650029E-4</v>
+        <v>1.674713617187164E-3</v>
       </c>
       <c r="AV41" s="14">
         <v>3</v>
@@ -29206,7 +29203,7 @@
       </c>
       <c r="BJ41" s="107">
         <f t="shared" si="32"/>
-        <v>2.5225755692481315E-5</v>
+        <v>7.1814879624373476E-5</v>
       </c>
       <c r="BP41">
         <f t="shared" si="34"/>
@@ -29217,7 +29214,7 @@
       </c>
       <c r="BR41" s="107">
         <f t="shared" si="35"/>
-        <v>1.7020949268338245E-4</v>
+        <v>4.815876006012323E-6</v>
       </c>
     </row>
     <row r="42" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -29226,56 +29223,56 @@
       </c>
       <c r="H42" s="132">
         <f>J42*L39+J41*L40+L42*J39+L41*J40</f>
-        <v>0.18221082931635321</v>
+        <v>0.25936034217879606</v>
       </c>
       <c r="I42" s="93">
         <v>3</v>
       </c>
       <c r="J42" s="86">
         <f t="shared" si="33"/>
-        <v>0.10527779026723331</v>
+        <v>0.18428041988951591</v>
       </c>
       <c r="K42" s="95">
         <v>3</v>
       </c>
       <c r="L42" s="86">
         <f>AF21</f>
-        <v>2.5562934644537683E-3</v>
+        <v>7.1909386465203867E-3</v>
       </c>
       <c r="M42" s="85">
         <v>3</v>
       </c>
       <c r="N42" s="71">
         <f>(($C$24)^M28)*((1-($C$24))^($B$21-M28))*HLOOKUP($B$21,$AV$24:$BF$34,M28+1)</f>
-        <v>5.1317343531644653E-2</v>
+        <v>0.3453335675600811</v>
       </c>
       <c r="O42" s="72">
         <v>3</v>
       </c>
       <c r="P42" s="71">
         <f t="shared" si="36"/>
-        <v>5.1317343531644653E-2</v>
+        <v>0.3453335675600811</v>
       </c>
       <c r="Q42" s="28">
         <v>3</v>
       </c>
       <c r="R42" s="37">
         <f>P42*N39+P41*N40+P40*N41+P39*N42</f>
-        <v>0.20155700818271838</v>
+        <v>3.8072977226007026E-2</v>
       </c>
       <c r="S42" s="72">
         <v>3</v>
       </c>
       <c r="T42" s="135">
         <f t="shared" si="37"/>
-        <v>0.20599365234375</v>
+        <v>0</v>
       </c>
       <c r="U42" s="93">
         <v>3</v>
       </c>
       <c r="V42" s="86">
         <f>R42*T39+R41*T40+R40*T41+R39*T42</f>
-        <v>0.21974412368750917</v>
+        <v>3.7784599332075598E-2</v>
       </c>
       <c r="W42" s="137"/>
       <c r="X42" s="28">
@@ -29295,56 +29292,56 @@
       </c>
       <c r="AE42" s="79">
         <f>((($W$39)^M42)*((1-($W$39))^($U$28-M42))*HLOOKUP($U$28,$AV$24:$BF$34,M42+1))*V42</f>
-        <v>9.0524716280718006E-3</v>
+        <v>1.0923455775135081E-3</v>
       </c>
       <c r="AF42" s="28">
         <v>3</v>
       </c>
       <c r="AG42" s="79">
         <f>((($W$39)^M42)*((1-($W$39))^($U$29-M42))*HLOOKUP($U$29,$AV$24:$BF$34,M42+1))*V43</f>
-        <v>2.4984975291994563E-2</v>
+        <v>8.2504367342365482E-3</v>
       </c>
       <c r="AH42" s="28">
         <v>3</v>
       </c>
       <c r="AI42" s="79">
         <f>((($W$39)^M42)*((1-($W$39))^($U$30-M42))*HLOOKUP($U$30,$AV$24:$BF$34,M42+1))*V44</f>
-        <v>3.116949294509053E-2</v>
+        <v>2.6717744475549417E-2</v>
       </c>
       <c r="AJ42" s="28">
         <v>3</v>
       </c>
       <c r="AK42" s="79">
         <f>((($W$39)^M42)*((1-($W$39))^($U$31-M42))*HLOOKUP($U$31,$AV$24:$BF$34,M42+1))*V45</f>
-        <v>2.3250757701050364E-2</v>
+        <v>4.8099660258455149E-2</v>
       </c>
       <c r="AL42" s="28">
         <v>3</v>
       </c>
       <c r="AM42" s="79">
         <f>((($W$39)^Q42)*((1-($W$39))^($U$32-Q42))*HLOOKUP($U$32,$AV$24:$BF$34,Q42+1))*V46</f>
-        <v>1.1555974817482764E-2</v>
+        <v>5.2016945101449913E-2</v>
       </c>
       <c r="AN42" s="28">
         <v>3</v>
       </c>
       <c r="AO42" s="79">
         <f>((($W$39)^Q42)*((1-($W$39))^($U$33-Q42))*HLOOKUP($U$33,$AV$24:$BF$34,Q42+1))*V47</f>
-        <v>4.0338049887662852E-3</v>
+        <v>3.3830864485376817E-2</v>
       </c>
       <c r="AP42" s="28">
         <v>3</v>
       </c>
       <c r="AQ42" s="79">
         <f>((($W$39)^Q42)*((1-($W$39))^($U$34-Q42))*HLOOKUP($U$34,$AV$24:$BF$34,Q42+1))*V48</f>
-        <v>1.0146355796447786E-3</v>
+        <v>1.2294832073581041E-2</v>
       </c>
       <c r="AR42" s="28">
         <v>3</v>
       </c>
       <c r="AS42" s="79">
         <f>((($W$39)^Q42)*((1-($W$39))^($U$35-Q42))*HLOOKUP($U$35,$AV$24:$BF$34,Q42+1))*V49</f>
-        <v>2.1567731513223834E-4</v>
+        <v>1.9775911833535284E-3</v>
       </c>
       <c r="AV42" s="14">
         <v>4</v>
@@ -29383,7 +29380,7 @@
       </c>
       <c r="BJ42" s="107">
         <f t="shared" si="32"/>
-        <v>2.7532330517950775E-6</v>
+        <v>9.0245301472055443E-6</v>
       </c>
       <c r="BP42">
         <f t="shared" si="34"/>
@@ -29394,7 +29391,7 @@
       </c>
       <c r="BR42" s="107">
         <f t="shared" si="35"/>
-        <v>1.0404353977956727E-4</v>
+        <v>4.5458369390053067E-6</v>
       </c>
     </row>
     <row r="43" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -29403,14 +29400,14 @@
       </c>
       <c r="H43" s="132">
         <f>J43*L39+J42*L40+J41*L41+J40*L42</f>
-        <v>7.5560961739622096E-2</v>
+        <v>0.16014719318434101</v>
       </c>
       <c r="I43" s="93">
         <v>4</v>
       </c>
       <c r="J43" s="86">
         <f t="shared" si="33"/>
-        <v>3.0476430599933386E-2</v>
+        <v>7.4263033876571447E-2</v>
       </c>
       <c r="K43" s="95">
         <v>4</v>
@@ -29421,35 +29418,35 @@
       </c>
       <c r="N43" s="71">
         <f>(($C$24)^M29)*((1-($C$24))^($B$21-M29))*HLOOKUP($B$21,$AV$24:$BF$34,M29+1)</f>
-        <v>6.4220161976587678E-3</v>
+        <v>0.26846610714908153</v>
       </c>
       <c r="O43" s="72">
         <v>4</v>
       </c>
       <c r="P43" s="71">
         <f t="shared" si="36"/>
-        <v>6.4220161976587678E-3</v>
+        <v>0.26846610714908153</v>
       </c>
       <c r="Q43" s="28">
         <v>4</v>
       </c>
       <c r="R43" s="37">
         <f>P43*N39+P42*N40+P41*N41+P40*N42+P39*N43</f>
-        <v>8.8282206127058074E-2</v>
+        <v>0.10359422686536852</v>
       </c>
       <c r="S43" s="72">
         <v>4</v>
       </c>
       <c r="T43" s="135">
         <f t="shared" si="37"/>
-        <v>6.1798095703125E-2</v>
+        <v>0</v>
       </c>
       <c r="U43" s="93">
         <v>4</v>
       </c>
       <c r="V43" s="86">
         <f>T43*R39+T42*R40+T41*R41+T40*R42+T39*R43</f>
-        <v>0.23161806854004746</v>
+        <v>0.10293993014172316</v>
       </c>
       <c r="W43" s="137"/>
       <c r="X43" s="28">
@@ -29473,49 +29470,49 @@
       </c>
       <c r="AG43" s="79">
         <f>((($W$39)^M43)*((1-($W$39))^($U$29-M43))*HLOOKUP($U$29,$AV$24:$BF$34,M43+1))*V43</f>
-        <v>3.2953810396950233E-3</v>
+        <v>9.1336461072706143E-4</v>
       </c>
       <c r="AH43" s="28">
         <v>4</v>
       </c>
       <c r="AI43" s="79">
         <f>((($W$39)^M43)*((1-($W$39))^($U$30-M43))*HLOOKUP($U$30,$AV$24:$BF$34,M43+1))*V44</f>
-        <v>8.2221699135376115E-3</v>
+        <v>5.9155758824622814E-3</v>
       </c>
       <c r="AJ43" s="28">
         <v>4</v>
       </c>
       <c r="AK43" s="79">
         <f>((($W$39)^M43)*((1-($W$39))^($U$31-M43))*HLOOKUP($U$31,$AV$24:$BF$34,M43+1))*V45</f>
-        <v>9.1999417879513722E-3</v>
+        <v>1.597461887772408E-2</v>
       </c>
       <c r="AL43" s="28">
         <v>4</v>
       </c>
       <c r="AM43" s="79">
         <f>((($W$39)^Q43)*((1-($W$39))^($U$32-Q43))*HLOOKUP($U$32,$AV$24:$BF$34,Q43+1))*V46</f>
-        <v>6.096678481955913E-3</v>
+        <v>2.3034143934051073E-2</v>
       </c>
       <c r="AN43" s="28">
         <v>4</v>
       </c>
       <c r="AO43" s="79">
         <f>((($W$39)^Q43)*((1-($W$39))^($U$33-Q43))*HLOOKUP($U$33,$AV$24:$BF$34,Q43+1))*V47</f>
-        <v>2.6601836348557045E-3</v>
+        <v>1.8726229511597775E-2</v>
       </c>
       <c r="AP43" s="28">
         <v>4</v>
       </c>
       <c r="AQ43" s="79">
         <f>((($W$39)^Q43)*((1-($W$39))^($U$34-Q43))*HLOOKUP($U$34,$AV$24:$BF$34,Q43+1))*V48</f>
-        <v>8.0294916739806401E-4</v>
+        <v>8.1665964160963205E-3</v>
       </c>
       <c r="AR43" s="28">
         <v>4</v>
       </c>
       <c r="AS43" s="79">
         <f>((($W$39)^Q43)*((1-($W$39))^($U$35-Q43))*HLOOKUP($U$35,$AV$24:$BF$34,Q43+1))*V49</f>
-        <v>1.9912657453969321E-4</v>
+        <v>1.5325046439128587E-3</v>
       </c>
       <c r="AV43" s="14">
         <v>5</v>
@@ -29551,7 +29548,7 @@
       </c>
       <c r="BJ43" s="107">
         <f t="shared" si="32"/>
-        <v>2.3022798452103152E-7</v>
+        <v>8.1320022299830156E-7</v>
       </c>
       <c r="BP43">
         <f t="shared" si="34"/>
@@ -29562,7 +29559,7 @@
       </c>
       <c r="BR43" s="107">
         <f t="shared" si="35"/>
-        <v>4.3145788634161929E-5</v>
+        <v>2.8069172809524231E-6</v>
       </c>
     </row>
     <row r="44" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -29571,14 +29568,14 @@
       </c>
       <c r="H44" s="132">
         <f>J44*L39+J43*L40+J42*L41+J41*L42</f>
-        <v>2.2769385317149171E-2</v>
+        <v>6.9132531485514695E-2</v>
       </c>
       <c r="I44" s="93">
         <v>5</v>
       </c>
       <c r="J44" s="86">
         <f t="shared" si="33"/>
-        <v>6.4113739967282743E-3</v>
+        <v>2.0538007230950048E-2</v>
       </c>
       <c r="K44" s="95">
         <v>5</v>
@@ -29589,35 +29586,35 @@
       </c>
       <c r="N44" s="71">
         <f>(($C$24)^M30)*((1-($C$24))^($B$21-M30))*HLOOKUP($B$21,$AV$24:$BF$34,M30+1)</f>
-        <v>3.2146864357902443E-4</v>
+        <v>8.3483399771431377E-2</v>
       </c>
       <c r="O44" s="72">
         <v>5</v>
       </c>
       <c r="P44" s="71">
         <f t="shared" si="36"/>
-        <v>3.2146864357902443E-4</v>
+        <v>8.3483399771431377E-2</v>
       </c>
       <c r="Q44" s="28">
         <v>5</v>
       </c>
       <c r="R44" s="37">
         <f>P44*N39+P43*N40+P42*N41+P41*N42+P40*N43+P39*N44</f>
-        <v>2.6515001067274311E-2</v>
+        <v>0.19328469460641567</v>
       </c>
       <c r="S44" s="72">
         <v>5</v>
       </c>
       <c r="T44" s="135">
         <f t="shared" si="37"/>
-        <v>7.415771484375E-3</v>
+        <v>0</v>
       </c>
       <c r="U44" s="93">
         <v>5</v>
       </c>
       <c r="V44" s="86">
         <f>T44*R39+T43*R40+T42*R41+T41*R42+T40*R43+T39*R44</f>
-        <v>0.17655769283088146</v>
+        <v>0.19238839415945777</v>
       </c>
       <c r="W44" s="137"/>
       <c r="X44" s="28">
@@ -29645,42 +29642,42 @@
       </c>
       <c r="AI44" s="79">
         <f>((($W$39)^M44)*((1-($W$39))^($U$30-M44))*HLOOKUP($U$30,$AV$24:$BF$34,M44+1))*V44</f>
-        <v>8.6756724860654266E-4</v>
+        <v>5.2390706937397303E-4</v>
       </c>
       <c r="AJ44" s="28">
         <v>5</v>
       </c>
       <c r="AK44" s="79">
         <f>((($W$39)^M44)*((1-($W$39))^($U$31-M44))*HLOOKUP($U$31,$AV$24:$BF$34,M44+1))*V45</f>
-        <v>1.9414748827245377E-3</v>
+        <v>2.8295523299452612E-3</v>
       </c>
       <c r="AL44" s="28">
         <v>5</v>
       </c>
       <c r="AM44" s="79">
         <f>((($W$39)^Q44)*((1-($W$39))^($U$32-Q44))*HLOOKUP($U$32,$AV$24:$BF$34,Q44+1))*V46</f>
-        <v>1.9298841906151315E-3</v>
+        <v>6.1199878509565833E-3</v>
       </c>
       <c r="AN44" s="28">
         <v>5</v>
       </c>
       <c r="AO44" s="79">
         <f>((($W$39)^Q44)*((1-($W$39))^($U$33-Q44))*HLOOKUP($U$33,$AV$24:$BF$34,Q44+1))*V47</f>
-        <v>1.1227635629762556E-3</v>
+        <v>6.6338792494785685E-3</v>
       </c>
       <c r="AP44" s="28">
         <v>5</v>
       </c>
       <c r="AQ44" s="79">
         <f>((($W$39)^Q44)*((1-($W$39))^($U$34-Q44))*HLOOKUP($U$34,$AV$24:$BF$34,Q44+1))*V48</f>
-        <v>4.2361834360993722E-4</v>
+        <v>3.6163322727390409E-3</v>
       </c>
       <c r="AR44" s="28">
         <v>5</v>
       </c>
       <c r="AS44" s="79">
         <f>((($W$39)^Q44)*((1-($W$39))^($U$35-Q44))*HLOOKUP($U$35,$AV$24:$BF$34,Q44+1))*V49</f>
-        <v>1.2606576819586935E-4</v>
+        <v>8.1434845845662369E-4</v>
       </c>
       <c r="AV44" s="29">
         <v>6</v>
@@ -29712,7 +29709,7 @@
       </c>
       <c r="BJ44" s="107">
         <f>$H$30*H45</f>
-        <v>5.6763185001544255E-4</v>
+        <v>5.8474678936302463E-4</v>
       </c>
       <c r="BP44">
         <f t="shared" si="34"/>
@@ -29723,7 +29720,7 @@
       </c>
       <c r="BR44" s="107">
         <f t="shared" si="35"/>
-        <v>1.3001463501864918E-5</v>
+        <v>1.2116934018276169E-6</v>
       </c>
     </row>
     <row r="45" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -29747,14 +29744,14 @@
       </c>
       <c r="H45" s="132">
         <f>J45*L39+J44*L40+J43*L41+J42*L42</f>
-        <v>5.1948145992971456E-3</v>
+        <v>2.1628146334126443E-2</v>
       </c>
       <c r="I45" s="93">
         <v>6</v>
       </c>
       <c r="J45" s="86">
         <f t="shared" si="33"/>
-        <v>1.0106932140944698E-3</v>
+        <v>3.9490863156174784E-3</v>
       </c>
       <c r="K45" s="95">
         <v>6</v>
@@ -29769,7 +29766,7 @@
       </c>
       <c r="R45" s="37">
         <f>P44*N40+P43*N41+P42*N42+P41*N43+P40*N44</f>
-        <v>5.5302864690041469E-3</v>
+        <v>0.25043607305592347</v>
       </c>
       <c r="S45" s="70">
         <v>6</v>
@@ -29783,7 +29780,7 @@
       </c>
       <c r="V45" s="86">
         <f>T45*R39+T44*R40+T43*R41+T42*R42+T41*R43+T40*R44+T39*R45</f>
-        <v>0.10059292284595583</v>
+        <v>0.2498637457941961</v>
       </c>
       <c r="W45" s="137"/>
       <c r="X45" s="28">
@@ -29815,35 +29812,35 @@
       </c>
       <c r="AK45" s="79">
         <f>((($W$39)^Q45)*((1-($W$39))^($U$31-Q45))*HLOOKUP($U$31,$AV$24:$BF$34,Q45+1))*V45</f>
-        <v>1.7071325047162813E-4</v>
+        <v>2.0883039654921983E-4</v>
       </c>
       <c r="AL45" s="28">
         <v>6</v>
       </c>
       <c r="AM45" s="79">
         <f>((($W$39)^Q45)*((1-($W$39))^($U$32-Q45))*HLOOKUP($U$32,$AV$24:$BF$34,Q45+1))*V46</f>
-        <v>3.3938816942239119E-4</v>
+        <v>9.0335101865134646E-4</v>
       </c>
       <c r="AN45" s="28">
         <v>6</v>
       </c>
       <c r="AO45" s="79">
         <f>((($W$39)^Q45)*((1-($W$39))^($U$33-Q45))*HLOOKUP($U$33,$AV$24:$BF$34,Q45+1))*V47</f>
-        <v>2.9617269693101348E-4</v>
+        <v>1.4688072240265481E-3</v>
       </c>
       <c r="AP45" s="28">
         <v>6</v>
       </c>
       <c r="AQ45" s="79">
         <f>((($W$39)^Q45)*((1-($W$39))^($U$34-Q45))*HLOOKUP($U$34,$AV$24:$BF$34,Q45+1))*V48</f>
-        <v>1.4899448875810159E-4</v>
+        <v>1.067589518776555E-3</v>
       </c>
       <c r="AR45" s="28">
         <v>6</v>
       </c>
       <c r="AS45" s="79">
         <f>((($W$39)^Q45)*((1-($W$39))^($U$35-Q45))*HLOOKUP($U$35,$AV$24:$BF$34,Q45+1))*V49</f>
-        <v>5.5424608511335386E-5</v>
+        <v>3.0050815761380965E-4</v>
       </c>
       <c r="AV45" s="14">
         <v>7</v>
@@ -29871,7 +29868,7 @@
       </c>
       <c r="BJ45" s="107">
         <f>$H$30*H46</f>
-        <v>1.0052214906681968E-4</v>
+        <v>1.3496523213257883E-4</v>
       </c>
       <c r="BP45">
         <f t="shared" si="34"/>
@@ -29882,7 +29879,7 @@
       </c>
       <c r="BR45" s="107">
         <f t="shared" si="35"/>
-        <v>2.9662721004966157E-6</v>
+        <v>3.790788742100995E-7</v>
       </c>
     </row>
     <row r="46" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -29906,14 +29903,14 @@
       </c>
       <c r="H46" s="132">
         <f>J46*L39+J45*L40+J44*L41+J43*L42</f>
-        <v>9.1995177421920992E-4</v>
+        <v>4.991986007759925E-3</v>
       </c>
       <c r="I46" s="93">
         <v>7</v>
       </c>
       <c r="J46" s="86">
         <f t="shared" si="33"/>
-        <v>1.2062057783035233E-4</v>
+        <v>5.2162720538920801E-4</v>
       </c>
       <c r="K46" s="95">
         <v>7</v>
@@ -29928,7 +29925,7 @@
       </c>
       <c r="R46" s="37">
         <f>P44*N41+P43*N42+P42*N43+P41*N44</f>
-        <v>7.9094594731449934E-4</v>
+        <v>0.22250486052182239</v>
       </c>
       <c r="S46" s="72">
         <v>7</v>
@@ -29942,7 +29939,7 @@
       </c>
       <c r="V46" s="86">
         <f>T46*R39+T45*R40+T44*R41+T43*R42+T42*R43+T41*R44+T40*R45+T39*R46</f>
-        <v>4.3641760329670536E-2</v>
+        <v>0.22278204558238882</v>
       </c>
       <c r="W46" s="137"/>
       <c r="X46" s="28">
@@ -29978,28 +29975,28 @@
       </c>
       <c r="AM46" s="79">
         <f>((($W$39)^Q46)*((1-($W$39))^($U$32-Q46))*HLOOKUP($U$32,$AV$24:$BF$34,Q46+1))*V46</f>
-        <v>2.5579106198040349E-5</v>
+        <v>5.7145986194648618E-5</v>
       </c>
       <c r="AN46" s="28">
         <v>7</v>
       </c>
       <c r="AO46" s="79">
         <f>((($W$39)^Q46)*((1-($W$39))^($U$33-Q46))*HLOOKUP($U$33,$AV$24:$BF$34,Q46+1))*V47</f>
-        <v>4.46440598129971E-5</v>
+        <v>1.8583349243826347E-4</v>
       </c>
       <c r="AP46" s="28">
         <v>7</v>
       </c>
       <c r="AQ46" s="79">
         <f>((($W$39)^Q46)*((1-($W$39))^($U$34-Q46))*HLOOKUP($U$34,$AV$24:$BF$34,Q46+1))*V48</f>
-        <v>3.36883798043324E-5</v>
+        <v>2.0260714154937971E-4</v>
       </c>
       <c r="AR46" s="28">
         <v>7</v>
       </c>
       <c r="AS46" s="79">
         <f>((($W$39)^Q46)*((1-($W$39))^($U$35-Q46))*HLOOKUP($U$35,$AV$24:$BF$34,Q46+1))*V49</f>
-        <v>1.6709032014982484E-5</v>
+        <v>7.6040585206916208E-5</v>
       </c>
       <c r="AV46" s="14">
         <v>8</v>
@@ -30023,7 +30020,7 @@
       </c>
       <c r="BJ46" s="107">
         <f>$H$30*H47</f>
-        <v>1.398891720383955E-5</v>
+        <v>2.3082756035645862E-5</v>
       </c>
       <c r="BP46">
         <f t="shared" si="34"/>
@@ -30034,7 +30031,7 @@
       </c>
       <c r="BR46" s="107">
         <f t="shared" si="35"/>
-        <v>5.2529830073974389E-7</v>
+        <v>8.7495081948299263E-8</v>
       </c>
     </row>
     <row r="47" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30058,14 +30055,14 @@
       </c>
       <c r="H47" s="132">
         <f>J47*L39+J46*L40+J45*L41+J44*L42</f>
-        <v>1.2802282204017921E-4</v>
+        <v>8.5376650956513547E-4</v>
       </c>
       <c r="I47" s="93">
         <v>8</v>
       </c>
       <c r="J47" s="86">
         <f t="shared" si="33"/>
-        <v>1.0693209819301755E-5</v>
+        <v>4.5343082072286314E-5</v>
       </c>
       <c r="K47" s="95">
         <v>8</v>
@@ -30080,7 +30077,7 @@
       </c>
       <c r="R47" s="37">
         <f>P44*N42+P43*N43+P42*N44</f>
-        <v>7.4236125677384839E-5</v>
+        <v>0.12973329123800784</v>
       </c>
       <c r="S47" s="72">
         <v>8</v>
@@ -30094,7 +30091,7 @@
       </c>
       <c r="V47" s="86">
         <f>T47*R39+T46*R40+T45*R41+T44*R42+T43*R43+T42*R44+T41*R45+T40*R46+T39*R47</f>
-        <v>1.454433918838216E-2</v>
+        <v>0.13065938592192725</v>
       </c>
       <c r="W47" s="137"/>
       <c r="X47" s="28">
@@ -30134,21 +30131,21 @@
       </c>
       <c r="AO47" s="79">
         <f>((($W$39)^Q47)*((1-($W$39))^($U$33-Q47))*HLOOKUP($U$33,$AV$24:$BF$34,Q47+1))*V47</f>
-        <v>2.9441531665212347E-6</v>
+        <v>1.0286348526047516E-5</v>
       </c>
       <c r="AP47" s="28">
         <v>8</v>
       </c>
       <c r="AQ47" s="79">
         <f>((($W$39)^Q47)*((1-($W$39))^($U$34-Q47))*HLOOKUP($U$34,$AV$24:$BF$34,Q47+1))*V48</f>
-        <v>4.4433123014058939E-6</v>
+        <v>2.2429623901466814E-5</v>
       </c>
       <c r="AR47" s="28">
         <v>8</v>
       </c>
       <c r="AS47" s="79">
         <f>((($W$39)^Q47)*((1-($W$39))^($U$35-Q47))*HLOOKUP($U$35,$AV$24:$BF$34,Q47+1))*V49</f>
-        <v>3.3057443513746262E-6</v>
+        <v>1.2627109644771989E-5</v>
       </c>
       <c r="AV47" s="29">
         <v>9</v>
@@ -30169,7 +30166,7 @@
       </c>
       <c r="BJ47" s="107">
         <f>$H$30*H48</f>
-        <v>1.5268025931098417E-6</v>
+        <v>2.9006666698300429E-6</v>
       </c>
       <c r="BP47">
         <f>BL12+1</f>
@@ -30180,7 +30177,7 @@
       </c>
       <c r="BR47" s="107">
         <f t="shared" si="35"/>
-        <v>7.3101843768593158E-8</v>
+        <v>1.496405851358457E-8</v>
       </c>
     </row>
     <row r="48" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30204,14 +30201,14 @@
       </c>
       <c r="H48" s="132">
         <f>J48*L39+J47*L40+J46*L41+J45*L42</f>
-        <v>1.3972888238593322E-5</v>
+        <v>1.0728753768780315E-4</v>
       </c>
       <c r="I48" s="93">
         <v>9</v>
       </c>
       <c r="J48" s="86">
         <f t="shared" si="33"/>
-        <v>6.480300207259511E-7</v>
+        <v>2.3461510800808642E-6</v>
       </c>
       <c r="K48" s="95">
         <v>9</v>
@@ -30226,7 +30223,7 @@
       </c>
       <c r="R48" s="37">
         <f>P44*N43+P43*N44</f>
-        <v>4.1289536722077766E-6</v>
+        <v>4.4824926696413407E-2</v>
       </c>
       <c r="S48" s="72">
         <v>9</v>
@@ -30240,7 +30237,7 @@
       </c>
       <c r="V48" s="86">
         <f>T48*R39+T47*R40+T46*R41+T45*R42+T44*R43+T43*R44+T42*R45+T41*R46+T40*R47+T39*R48</f>
-        <v>3.7256437830085094E-3</v>
+        <v>4.5674206921947909E-2</v>
       </c>
       <c r="W48" s="137"/>
       <c r="X48" s="28">
@@ -30284,14 +30281,14 @@
       </c>
       <c r="AQ48" s="79">
         <f>((($W$39)^Q48)*((1-($W$39))^($U$34-Q48))*HLOOKUP($U$34,$AV$24:$BF$34,Q48+1))*V48</f>
-        <v>2.6046599678182002E-7</v>
+        <v>1.1035873541366376E-6</v>
       </c>
       <c r="AR48" s="28">
         <v>9</v>
       </c>
       <c r="AS48" s="79">
         <f>((($W$39)^Q48)*((1-($W$39))^($U$35-Q48))*HLOOKUP($U$35,$AV$24:$BF$34,Q48+1))*V49</f>
-        <v>3.8756402394413108E-7</v>
+        <v>1.2425637259442266E-6</v>
       </c>
       <c r="AV48" s="14">
         <v>10</v>
@@ -30309,7 +30306,7 @@
       </c>
       <c r="BJ48" s="107">
         <f>$H$30*H49</f>
-        <v>1.2767269503174861E-7</v>
+        <v>2.6137901300933033E-7</v>
       </c>
     </row>
     <row r="49" spans="1:62" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30333,14 +30330,14 @@
       </c>
       <c r="H49" s="133">
         <f>J49*L39+J48*L40+J47*L41+J46*L42</f>
-        <v>1.1684262961363009E-6</v>
+        <v>9.6676777792887202E-6</v>
       </c>
       <c r="I49" s="94">
         <v>10</v>
       </c>
       <c r="J49" s="89">
         <f t="shared" si="33"/>
-        <v>2.0447026602945914E-8</v>
+        <v>5.5023207638989763E-8</v>
       </c>
       <c r="K49" s="96">
         <v>10</v>
@@ -30355,7 +30352,7 @@
       </c>
       <c r="R49" s="37">
         <f>P44*N44</f>
-        <v>1.0334208880453785E-7</v>
+        <v>6.9694780373966286E-3</v>
       </c>
       <c r="S49" s="72">
         <v>10</v>
@@ -30369,7 +30366,7 @@
       </c>
       <c r="V49" s="89">
         <f>IF(((T49*R39+T48*R40+T47*R41+T46*R42+T45*R43+T44*R44+T43*R45+T42*R46+T41*R47+T40*R48+T39*R49)+V37)&lt;&gt;1,1-V37,(T49*R39+T48*R40+T47*R41+T46*R42+T45*R43+T44*R44+T43*R45+T42*R46+T41*R47+T40*R48+T39*R49))</f>
-        <v>8.4683179340894199E-4</v>
+        <v>7.4198500134743384E-3</v>
       </c>
       <c r="W49" s="137"/>
       <c r="X49" s="28">
@@ -30417,7 +30414,7 @@
       </c>
       <c r="AS49" s="79">
         <f>((($W$39)^Q49)*((1-($W$39))^($U$35-Q49))*HLOOKUP($U$35,$AV$24:$BF$34,Q49+1))*V49</f>
-        <v>2.0447026602945914E-8</v>
+        <v>5.5023207638989763E-8</v>
       </c>
       <c r="BH49">
         <f>BP14+1</f>
@@ -30428,7 +30425,7 @@
       </c>
       <c r="BJ49" s="107">
         <f>$H$31*H39</f>
-        <v>5.5748358082073502E-3</v>
+        <v>2.7294938100750357E-4</v>
       </c>
     </row>
     <row r="50" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30475,7 +30472,7 @@
       </c>
       <c r="BJ50" s="107">
         <f>$H$31*H46</f>
-        <v>4.1317601342371708E-5</v>
+        <v>3.2453917896647764E-5</v>
       </c>
     </row>
     <row r="51" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30503,7 +30500,7 @@
       </c>
       <c r="BJ51" s="107">
         <f>$H$31*H47</f>
-        <v>5.7498621906251104E-6</v>
+        <v>5.5505099896640147E-6</v>
       </c>
     </row>
     <row r="52" spans="1:62" x14ac:dyDescent="0.25">
@@ -30517,7 +30514,7 @@
       </c>
       <c r="BJ52" s="107">
         <f>$H$31*H48</f>
-        <v>6.2756140269820883E-7</v>
+        <v>6.9749813682188476E-7</v>
       </c>
     </row>
     <row r="53" spans="1:62" x14ac:dyDescent="0.25">
@@ -30530,7 +30527,7 @@
       </c>
       <c r="BJ53" s="107">
         <f>$H$31*H49</f>
-        <v>5.2477285499750652E-8</v>
+        <v>6.2851542534886687E-8</v>
       </c>
     </row>
     <row r="54" spans="1:62" x14ac:dyDescent="0.25">
@@ -30543,7 +30540,7 @@
       </c>
       <c r="BJ54" s="107">
         <f>$H$32*H47</f>
-        <v>1.7792054102971186E-6</v>
+        <v>1.014677654831577E-6</v>
       </c>
     </row>
     <row r="55" spans="1:62" x14ac:dyDescent="0.25">
@@ -30556,7 +30553,7 @@
       </c>
       <c r="BJ55" s="107">
         <f>$H$32*H48</f>
-        <v>1.9418911374863967E-7</v>
+        <v>1.2750824249262641E-7</v>
       </c>
     </row>
     <row r="56" spans="1:62" x14ac:dyDescent="0.25">
@@ -30569,7 +30566,7 @@
       </c>
       <c r="BJ56" s="107">
         <f>$H$32*H49</f>
-        <v>1.6238279663657847E-8</v>
+        <v>1.1489765066742333E-8</v>
       </c>
     </row>
     <row r="57" spans="1:62" x14ac:dyDescent="0.25">
@@ -30582,7 +30579,7 @@
       </c>
       <c r="BJ57" s="107">
         <f>$H$33*H48</f>
-        <v>4.5429502635629707E-8</v>
+        <v>1.7793697151070473E-8</v>
       </c>
     </row>
     <row r="58" spans="1:62" x14ac:dyDescent="0.25">
@@ -30595,7 +30592,7 @@
       </c>
       <c r="BJ58" s="107">
         <f>$H$33*H49</f>
-        <v>3.7988585175434645E-9</v>
+        <v>1.60338967848596E-9</v>
       </c>
     </row>
     <row r="59" spans="1:62" x14ac:dyDescent="0.25">
@@ -30608,7 +30605,7 @@
       </c>
       <c r="BJ59" s="107">
         <f>$H$34*H49</f>
-        <v>6.6717882947827157E-10</v>
+        <v>1.6944644040142075E-10</v>
       </c>
     </row>
   </sheetData>
@@ -30617,72 +30614,72 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <conditionalFormatting sqref="V25:V35 V39:V49">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="14" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="13" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V49">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="12" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V25:V35 V39:V49">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="11" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="10" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V49">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="9" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H35">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="8" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="7" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H35">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="6" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="5" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H49">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="4" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H49">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37420,72 +37417,72 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <conditionalFormatting sqref="V25:V35 V39:V49">
-    <cfRule type="cellIs" dxfId="55" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="14" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="54" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="13" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V49">
-    <cfRule type="cellIs" dxfId="53" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="12" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V25:V35 V39:V49">
-    <cfRule type="cellIs" dxfId="52" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="11" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="51" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="10" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V49">
-    <cfRule type="cellIs" dxfId="50" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="9" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H35">
-    <cfRule type="cellIs" dxfId="49" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="8" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="48" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="7" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H35">
-    <cfRule type="cellIs" dxfId="47" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="46" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H49">
-    <cfRule type="cellIs" dxfId="45" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="44" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H49">
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44350,72 +44347,72 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <conditionalFormatting sqref="V25:V35 V39:V49">
-    <cfRule type="cellIs" dxfId="41" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="14" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="40" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="13" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V49">
-    <cfRule type="cellIs" dxfId="39" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V25:V35 V39:V49">
-    <cfRule type="cellIs" dxfId="38" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="11" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="37" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V49">
-    <cfRule type="cellIs" dxfId="36" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H35">
-    <cfRule type="cellIs" dxfId="35" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="34" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H35">
-    <cfRule type="cellIs" dxfId="33" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="32" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H49">
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H49">
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
@@ -51087,72 +51084,72 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <conditionalFormatting sqref="V24:V34 V38:V48">
-    <cfRule type="cellIs" dxfId="27" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V34">
-    <cfRule type="cellIs" dxfId="26" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V48">
-    <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V24:V34 V38:V48">
-    <cfRule type="cellIs" dxfId="24" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V34">
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V48">
-    <cfRule type="cellIs" dxfId="22" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H34">
-    <cfRule type="cellIs" dxfId="21" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H34">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:H48">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:H48">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>

--- a/projects/current/hattrick/4-SimuladorPartidos.xlsx
+++ b/projects/current/hattrick/4-SimuladorPartidos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7350" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="Marmota-VADER" sheetId="465" r:id="rId1"/>
@@ -6341,11 +6341,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="291822288"/>
-        <c:axId val="291823856"/>
+        <c:axId val="289648376"/>
+        <c:axId val="289644456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="291822288"/>
+        <c:axId val="289648376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6355,7 +6355,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="291823856"/>
+        <c:crossAx val="289644456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6363,7 +6363,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="291823856"/>
+        <c:axId val="289644456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6374,7 +6374,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="291822288"/>
+        <c:crossAx val="289648376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6693,11 +6693,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="293142520"/>
-        <c:axId val="293143304"/>
+        <c:axId val="467857656"/>
+        <c:axId val="467855696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="293142520"/>
+        <c:axId val="467857656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6707,7 +6707,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="293143304"/>
+        <c:crossAx val="467855696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6715,7 +6715,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="293143304"/>
+        <c:axId val="467855696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6726,7 +6726,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="293142520"/>
+        <c:crossAx val="467857656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7137,11 +7137,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="291821504"/>
-        <c:axId val="291816408"/>
+        <c:axId val="289651120"/>
+        <c:axId val="289647984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="291821504"/>
+        <c:axId val="289651120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7151,7 +7151,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="291816408"/>
+        <c:crossAx val="289647984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7159,7 +7159,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="291816408"/>
+        <c:axId val="289647984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7170,7 +7170,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="291821504"/>
+        <c:crossAx val="289651120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7374,37 +7374,37 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.1211083740886893</c:v>
+                  <c:v>0.11241879518833622</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27716273762468996</c:v>
+                  <c:v>0.2672553606560451</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29298994742192286</c:v>
+                  <c:v>0.2933215853276675</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18971269640384864</c:v>
+                  <c:v>0.1970704199929163</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.411536271310556E-2</c:v>
+                  <c:v>9.0600685564830155E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7036380294892363E-2</c:v>
+                  <c:v>3.0172108855274021E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.501203698527783E-3</c:v>
+                  <c:v>7.5112598745292122E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1884720745820791E-3</c:v>
+                  <c:v>1.4205312798382845E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6585055016220515E-4</c:v>
+                  <c:v>2.049544165122692E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7527108812462658E-5</c:v>
+                  <c:v>2.238453200215951E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3699259260558894E-6</c:v>
+                  <c:v>1.8077313396289465E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7442,37 +7442,37 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>4.1984437600272977E-2</c:v>
+                  <c:v>4.500009553378749E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16701674497253305</c:v>
+                  <c:v>0.17440341012484778</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2747672795063606</c:v>
+                  <c:v>0.27939222760487059</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25936034217879606</c:v>
+                  <c:v>0.25679059778017815</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16014719318434101</c:v>
+                  <c:v>0.15440780584476341</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.9132531485514695E-2</c:v>
+                  <c:v>6.4923090530752542E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1628146334126443E-2</c:v>
+                  <c:v>1.9789195142879523E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.991986007759925E-3</c:v>
+                  <c:v>4.45171503721977E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5376650956513547E-4</c:v>
+                  <c:v>7.4236113391633969E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0728753768780315E-4</c:v>
+                  <c:v>9.1000305034114154E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.6676777792887202E-6</c:v>
+                  <c:v>8.0027159045232213E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7489,11 +7489,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="291817584"/>
-        <c:axId val="291817976"/>
+        <c:axId val="289649552"/>
+        <c:axId val="289639752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="291817584"/>
+        <c:axId val="289649552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7503,7 +7503,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="291817976"/>
+        <c:crossAx val="289639752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7511,7 +7511,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="291817976"/>
+        <c:axId val="289639752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7522,7 +7522,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="291817584"/>
+        <c:crossAx val="289649552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7595,13 +7595,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.19657010383776058</c:v>
+                  <c:v>0.20033014429024534</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.54443570645269335</c:v>
+                  <c:v>0.52044915089817578</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25899212469765381</c:v>
+                  <c:v>0.279218292269105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7841,11 +7841,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="293144088"/>
-        <c:axId val="293137816"/>
+        <c:axId val="289655432"/>
+        <c:axId val="289653472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="293144088"/>
+        <c:axId val="289655432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7855,7 +7855,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="293137816"/>
+        <c:crossAx val="289653472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7863,7 +7863,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="293137816"/>
+        <c:axId val="289653472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7874,7 +7874,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="293144088"/>
+        <c:crossAx val="289655432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8193,11 +8193,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="293139776"/>
-        <c:axId val="293137424"/>
+        <c:axId val="467855304"/>
+        <c:axId val="467850600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="293139776"/>
+        <c:axId val="467855304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8207,7 +8207,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="293137424"/>
+        <c:crossAx val="467850600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8215,7 +8215,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="293137424"/>
+        <c:axId val="467850600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8226,7 +8226,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="293139776"/>
+        <c:crossAx val="467855304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8949,9 +8949,7 @@
   </sheetPr>
   <dimension ref="A1:BR59"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23822,8 +23820,8 @@
   </sheetPr>
   <dimension ref="A1:BR59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24136,7 +24134,7 @@
       </c>
       <c r="BJ4" s="107">
         <f t="shared" ref="BJ4:BJ13" si="0">$H$25*H40</f>
-        <v>2.022712642920875E-2</v>
+        <v>1.9606221242972666E-2</v>
       </c>
       <c r="BL4">
         <v>0</v>
@@ -24146,7 +24144,7 @@
       </c>
       <c r="BN4" s="107">
         <f>H25*H39</f>
-        <v>5.0846669747970927E-3</v>
+        <v>5.0588565232684195E-3</v>
       </c>
       <c r="BP4">
         <v>1</v>
@@ -24156,7 +24154,7 @@
       </c>
       <c r="BR4" s="107">
         <f>$H$26*H39</f>
-        <v>1.1636521662924627E-2</v>
+        <v>1.2026516761438861E-2</v>
       </c>
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.25">
@@ -24202,19 +24200,19 @@
       </c>
       <c r="R5" s="157">
         <f>IF($M$2="SI",Q5*$B$22/0.5*$S$1,Q5*$B$22/0.5*$S$2)</f>
-        <v>8.2358091022742413E-3</v>
+        <v>8.3293978420728113E-3</v>
       </c>
       <c r="S5" s="176">
         <f>(1-R5)</f>
-        <v>0.99176419089772572</v>
+        <v>0.99167060215792724</v>
       </c>
       <c r="T5" s="177">
         <f>R5*PRODUCT(S6:S19)</f>
-        <v>6.0356087643114384E-3</v>
+        <v>6.0820804170160087E-3</v>
       </c>
       <c r="U5" s="177">
         <f>R5*R6*PRODUCT(S7:S19)+R5*R7*PRODUCT(S8:S19)*PRODUCT(S6)+R5*R8*PRODUCT(S9:S19)*PRODUCT(S6:S7)+R5*R9*PRODUCT(S10:S19)*PRODUCT(S6:S8)+R5*R10*PRODUCT(S11:S19)*PRODUCT(S6:S9)+R5*R11*PRODUCT(S12:S19)*PRODUCT(S6:S10)+R5*R12*PRODUCT(S13:S19)*PRODUCT(S6:S11)+R5*R13*PRODUCT(S14:S19)*PRODUCT(S6:S12)+R5*R14*PRODUCT(S15:S19)*PRODUCT(S6:S13)+R5*R15*PRODUCT(S16:S19)*PRODUCT(S6:S14)+R5*R16*PRODUCT(S17:S19)*PRODUCT(S6:S15)+R5*R17*PRODUCT(S18:S19)*PRODUCT(S6:S16)+R5*R18*PRODUCT(S19)*PRODUCT(S6:S17)+R5*R19*PRODUCT(S6:S18)</f>
-        <v>1.9271256951114472E-3</v>
+        <v>1.9652657785754293E-3</v>
       </c>
       <c r="V5" s="18"/>
       <c r="W5" s="186" t="s">
@@ -24260,7 +24258,7 @@
       </c>
       <c r="BJ5" s="107">
         <f t="shared" si="0"/>
-        <v>3.3276618473787774E-2</v>
+        <v>3.1408937612324966E-2</v>
       </c>
       <c r="BL5">
         <v>1</v>
@@ -24270,7 +24268,7 @@
       </c>
       <c r="BN5" s="107">
         <f>$H$26*H40</f>
-        <v>4.6290818265751932E-2</v>
+        <v>4.6610246272560343E-2</v>
       </c>
       <c r="BP5">
         <f>BP4+1</f>
@@ -24281,7 +24279,7 @@
       </c>
       <c r="BR5" s="107">
         <f>$H$27*H39</f>
-        <v>1.2301018165042981E-2</v>
+        <v>1.3199499361867036E-2</v>
       </c>
     </row>
     <row r="6" spans="1:70" x14ac:dyDescent="0.25">
@@ -24292,7 +24290,7 @@
         <v>10.25</v>
       </c>
       <c r="C6" s="169">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="E6" s="192" t="s">
         <v>17</v>
@@ -24323,19 +24321,19 @@
       </c>
       <c r="R6" s="157">
         <f>IF($M$2="SI",Q6*$B$22/0.5*$S$1,Q6*$B$22/0.5*$S$2)</f>
-        <v>8.2358091022742413E-3</v>
+        <v>8.3293978420728113E-3</v>
       </c>
       <c r="S6" s="176">
         <f t="shared" ref="S6:S19" si="2">(1-R6)</f>
-        <v>0.99176419089772572</v>
+        <v>0.99167060215792724</v>
       </c>
       <c r="T6" s="177">
         <f>R6*S5*PRODUCT(S7:S19)</f>
-        <v>6.0356087643114367E-3</v>
+        <v>6.0820804170160078E-3</v>
       </c>
       <c r="U6" s="177">
         <f>R6*R7*PRODUCT(S8:S19)*PRODUCT(S5)+R6*R8*PRODUCT(S9:S19)*S5*PRODUCT(S7)+R6*R9*PRODUCT(S10:S19)*S5*PRODUCT(S7:S8)+R6*R10*PRODUCT(S11:S19)*S5*PRODUCT(S7:S9)+R6*R11*PRODUCT(S12:S19)*S5*PRODUCT(S7:S10)+R6*R12*PRODUCT(S13:S19)*S5*PRODUCT(S7:S11)+R6*R13*PRODUCT(S14:S19)*S5*PRODUCT(S7:S12)+R6*R14*PRODUCT(S15:S19)*S5*PRODUCT(S7:S13)+R6*R15*PRODUCT(S16:S19)*S5*PRODUCT(S7:S14)+R6*R16*PRODUCT(S17:S19)*S5*PRODUCT(S7:S15)+R6*R17*PRODUCT(S18:S19)*S5*PRODUCT(S7:S16)+R6*R18*PRODUCT(S19)*S5*PRODUCT(S7:S17)+R6*R19*S5*PRODUCT(S7:S18)</f>
-        <v>1.8770047872836623E-3</v>
+        <v>1.914180198957996E-3</v>
       </c>
       <c r="V6" s="18"/>
       <c r="W6" s="186" t="s">
@@ -24381,7 +24379,7 @@
       </c>
       <c r="BJ6" s="107">
         <f t="shared" si="0"/>
-        <v>3.1410709344360091E-2</v>
+        <v>2.8868089618140275E-2</v>
       </c>
       <c r="BL6">
         <f>BH14+1</f>
@@ -24392,7 +24390,7 @@
       </c>
       <c r="BN6" s="107">
         <f>$H$27*H41</f>
-        <v>8.0504050775833377E-2</v>
+        <v>8.1951771129289142E-2</v>
       </c>
       <c r="BP6">
         <f>BL5+1</f>
@@ -24403,7 +24401,7 @@
       </c>
       <c r="BR6" s="107">
         <f>$H$27*H40</f>
-        <v>4.8934227328083155E-2</v>
+        <v>5.1156284744371727E-2</v>
       </c>
     </row>
     <row r="7" spans="1:70" x14ac:dyDescent="0.25">
@@ -24493,7 +24491,7 @@
       </c>
       <c r="BJ7" s="107">
         <f t="shared" si="0"/>
-        <v>1.9395166181422764E-2</v>
+        <v>1.7358339500742843E-2</v>
       </c>
       <c r="BL7">
         <f>BH23+1</f>
@@ -24504,7 +24502,7 @@
       </c>
       <c r="BN7" s="107">
         <f>$H$28*H42</f>
-        <v>4.9203949854964235E-2</v>
+        <v>5.0605830954771752E-2</v>
       </c>
       <c r="BP7">
         <f>BP5+1</f>
@@ -24515,7 +24513,7 @@
       </c>
       <c r="BR7" s="107">
         <f>$H$28*H39</f>
-        <v>7.9649808641469137E-3</v>
+        <v>8.8681877265648582E-3</v>
       </c>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.25">
@@ -24555,19 +24553,19 @@
       </c>
       <c r="R8" s="157">
         <f t="shared" si="6"/>
-        <v>4.8445935895730825E-3</v>
+        <v>4.8996457894545939E-3</v>
       </c>
       <c r="S8" s="176">
         <f t="shared" si="2"/>
-        <v>0.99515540641042688</v>
+        <v>0.99510035421054543</v>
       </c>
       <c r="T8" s="177">
         <f>R8*PRODUCT(S5:S7)*PRODUCT(S9:S19)</f>
-        <v>3.5382594541950715E-3</v>
+        <v>3.5653633407244918E-3</v>
       </c>
       <c r="U8" s="177">
         <f>R8*R9*PRODUCT(S5:S7)*PRODUCT(S10:S19)+R8*R10*PRODUCT(S5:S7)*PRODUCT(S9)*PRODUCT(S11:S19)+R8*R11*PRODUCT(S5:S7)*PRODUCT(S9:S10)*PRODUCT(S12:S19)+R8*R12*PRODUCT(S5:S7)*PRODUCT(S9:S11)*PRODUCT(S13:S19)+R8*R13*PRODUCT(S5:S7)*PRODUCT(S9:S12)*PRODUCT(S14:S19)+R8*R14*PRODUCT(S5:S7)*PRODUCT(S9:S13)*PRODUCT(S15:S19)+R8*R15*PRODUCT(S5:S7)*PRODUCT(S9:S14)*PRODUCT(S16:S19)+R8*R16*PRODUCT(S5:S7)*PRODUCT(S9:S15)*PRODUCT(S17:S19)+R8*R17*PRODUCT(S5:S7)*PRODUCT(S9:S16)*PRODUCT(S18:S19)+R8*R18*PRODUCT(S5:S7)*PRODUCT(S9:S17)*PRODUCT(S19)+R8*R19*PRODUCT(S5:S7)*PRODUCT(S9:S18)</f>
-        <v>1.0831330480994014E-3</v>
+        <v>1.1045524456353834E-3</v>
       </c>
       <c r="W8" s="186" t="s">
         <v>42</v>
@@ -24611,7 +24609,7 @@
       </c>
       <c r="BJ8" s="107">
         <f t="shared" si="0"/>
-        <v>8.3725284848458047E-3</v>
+        <v>7.298575617370481E-3</v>
       </c>
       <c r="BL8">
         <f>BH31+1</f>
@@ -24622,7 +24620,7 @@
       </c>
       <c r="BN8" s="107">
         <f>$H$29*H43</f>
-        <v>1.347083924218663E-2</v>
+        <v>1.3989453066096754E-2</v>
       </c>
       <c r="BP8">
         <f>BP6+1</f>
@@ -24633,7 +24631,7 @@
       </c>
       <c r="BR8" s="107">
         <f>$H$28*H40</f>
-        <v>3.1685197033333175E-2</v>
+        <v>3.4369753281500583E-2</v>
       </c>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.25">
@@ -24727,7 +24725,7 @@
       </c>
       <c r="BJ9" s="107">
         <f t="shared" si="0"/>
-        <v>2.6193496370782994E-3</v>
+        <v>2.2246774757093911E-3</v>
       </c>
       <c r="BL9">
         <f>BH38+1</f>
@@ -24738,7 +24736,7 @@
       </c>
       <c r="BN9" s="107">
         <f>$H$30*H44</f>
-        <v>1.8690934119909954E-3</v>
+        <v>1.9588665547146757E-3</v>
       </c>
       <c r="BP9">
         <f>BL6+1</f>
@@ -24749,7 +24747,7 @@
       </c>
       <c r="BR9" s="107">
         <f>$H$28*H41</f>
-        <v>5.2126841478701606E-2</v>
+        <v>5.505994363684831E-2</v>
       </c>
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.25">
@@ -24791,19 +24789,19 @@
       </c>
       <c r="R10" s="157">
         <f t="shared" si="6"/>
-        <v>4.9414854613645441E-2</v>
+        <v>4.9976387052436858E-2</v>
       </c>
       <c r="S10" s="176">
         <f t="shared" si="2"/>
-        <v>0.95058514538635452</v>
+        <v>0.9500236129475631</v>
       </c>
       <c r="T10" s="177">
         <f>R10*PRODUCT(S5:S9)*PRODUCT(S11:S19)</f>
-        <v>3.7782416473253345E-2</v>
+        <v>3.8092234344377973E-2</v>
       </c>
       <c r="U10" s="177">
         <f>R10*R11*PRODUCT(S5:S9)*PRODUCT(S12:S19)+R10*R12*PRODUCT(S5:S9)*S11*PRODUCT(S13:S19)+R10*R13*PRODUCT(S5:S9)*PRODUCT(S11:S12)*PRODUCT(S14:S19)+R10*R14*PRODUCT(S5:S9)*PRODUCT(S11:S13)*PRODUCT(S15:S19)+R10*R15*PRODUCT(S5:S9)*PRODUCT(S11:S14)*PRODUCT(S16:S19)+R10*R16*PRODUCT(S5:S9)*PRODUCT(S11:S15)*PRODUCT(S17:S19)+R10*R17*PRODUCT(S5:S9)*PRODUCT(S11:S16)*PRODUCT(S18:S19)+R10*R18*PRODUCT(S5:S9)*PRODUCT(S11:S17)*PRODUCT(S19)+R10*R19*PRODUCT(S5:S9)*PRODUCT(S11:S18)</f>
-        <v>9.6018980054933152E-3</v>
+        <v>9.7971471769776868E-3</v>
       </c>
       <c r="W10" s="186" t="s">
         <v>46</v>
@@ -24825,19 +24823,19 @@
       </c>
       <c r="AB10" s="157">
         <f t="shared" si="4"/>
-        <v>5.7851537108658077E-2</v>
+        <v>5.7290004669866661E-2</v>
       </c>
       <c r="AC10" s="176">
         <f t="shared" si="5"/>
-        <v>0.94214846289134191</v>
+        <v>0.94270999533013333</v>
       </c>
       <c r="AD10" s="177">
         <f>AB10*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC19)</f>
-        <v>2.0443077456260419E-2</v>
+        <v>2.056273618784752E-2</v>
       </c>
       <c r="AE10" s="177">
         <f>AB10*AB11*PRODUCT(AC5:AC9)*PRODUCT(AC12:AC19)+AB10*AB12*PRODUCT(AC5:AC9)*AC11*PRODUCT(AC13:AC19)+AB10*AB13*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC12)*PRODUCT(AC14:AC19)+AB10*AB14*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC13)*PRODUCT(AC15:AC19)+AB10*AB15*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC14)*PRODUCT(AC16:AC19)+AB10*AB16*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC15)*PRODUCT(AC17:AC19)+AB10*AB17*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC16)*PRODUCT(AC18:AC19)+AB10*AB18*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC17)*PRODUCT(AC19)+AB10*AB19*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC18)</f>
-        <v>3.3051432942899528E-2</v>
+        <v>3.2492606645588486E-2</v>
       </c>
       <c r="BH10">
         <v>0</v>
@@ -24847,7 +24845,7 @@
       </c>
       <c r="BJ10" s="107">
         <f t="shared" si="0"/>
-        <v>6.0457130887329167E-4</v>
+        <v>5.0045644100604584E-4</v>
       </c>
       <c r="BL10">
         <f>BH44+1</f>
@@ -24858,7 +24856,7 @@
       </c>
       <c r="BN10" s="107">
         <f>$H$31*H45</f>
-        <v>1.4060898493972295E-4</v>
+        <v>1.4864178742593934E-4</v>
       </c>
       <c r="BP10">
         <f>BP7+1</f>
@@ -24869,7 +24867,7 @@
       </c>
       <c r="BR10" s="107">
         <f>$H$29*H39</f>
-        <v>3.5315361970527084E-3</v>
+        <v>4.0770395058439979E-3</v>
       </c>
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.25">
@@ -24911,19 +24909,19 @@
       </c>
       <c r="R11" s="157">
         <f t="shared" si="6"/>
-        <v>4.9414854613645441E-2</v>
+        <v>4.9976387052436858E-2</v>
       </c>
       <c r="S11" s="176">
         <f t="shared" si="2"/>
-        <v>0.95058514538635452</v>
+        <v>0.9500236129475631</v>
       </c>
       <c r="T11" s="177">
         <f>R11*PRODUCT(S5:S10)*PRODUCT(S12:S19)</f>
-        <v>3.7782416473253345E-2</v>
+        <v>3.8092234344377973E-2</v>
       </c>
       <c r="U11" s="177">
         <f>R11*R12*PRODUCT(S5:S10)*PRODUCT(S13:S19)+R11*R13*PRODUCT(S5:S10)*S12*PRODUCT(S14:S19)+R11*R14*PRODUCT(S5:S10)*PRODUCT(S12:S13)*PRODUCT(S15:S19)+R11*R15*PRODUCT(S5:S10)*PRODUCT(S12:S14)*PRODUCT(S16:S19)+R11*R16*PRODUCT(S5:S10)*PRODUCT(S12:S15)*PRODUCT(S17:S19)+R11*R17*PRODUCT(S5:S10)*PRODUCT(S12:S16)*PRODUCT(S18:S19)+R11*R18*PRODUCT(S5:S10)*PRODUCT(S12:S17)*PRODUCT(S19)+R11*R19*PRODUCT(S5:S10)*PRODUCT(S12:S18)</f>
-        <v>7.6378313187377683E-3</v>
+        <v>7.7932893556123158E-3</v>
       </c>
       <c r="W11" s="186" t="s">
         <v>48</v>
@@ -24945,19 +24943,19 @@
       </c>
       <c r="AB11" s="157">
         <f t="shared" si="4"/>
-        <v>5.7851537108658077E-2</v>
+        <v>5.7290004669866661E-2</v>
       </c>
       <c r="AC11" s="176">
         <f t="shared" si="5"/>
-        <v>0.94214846289134191</v>
+        <v>0.94270999533013333</v>
       </c>
       <c r="AD11" s="177">
         <f>AB11*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC19)</f>
-        <v>2.0443077456260415E-2</v>
+        <v>2.056273618784752E-2</v>
       </c>
       <c r="AE11" s="177">
         <f>AB11*AB12*PRODUCT(AC5:AC10)*PRODUCT(AC13:AC19)+AB11*AB13*PRODUCT(AC5:AC10)*AC12*PRODUCT(AC14:AC19)+AB11*AB14*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC13)*PRODUCT(AC15:AC19)+AB11*AB15*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC14)*PRODUCT(AC16:AC19)+AB11*AB16*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC15)*PRODUCT(AC17:AC19)+AB11*AB17*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC16)*PRODUCT(AC18:AC19)+AB11*AB18*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC17)*PRODUCT(AC19)+AB11*AB19*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC18)</f>
-        <v>3.1796149406750067E-2</v>
+        <v>3.1242976050747419E-2</v>
       </c>
       <c r="BH11">
         <v>0</v>
@@ -24967,7 +24965,7 @@
       </c>
       <c r="BJ11" s="107">
         <f t="shared" si="0"/>
-        <v>1.0339827382480895E-4</v>
+        <v>8.3455344269522036E-5</v>
       </c>
       <c r="BL11">
         <f>BH50+1</f>
@@ -24978,7 +24976,7 @@
       </c>
       <c r="BN11" s="107">
         <f>$H$32*H46</f>
-        <v>5.9328359669271491E-6</v>
+        <v>6.3238004592971362E-6</v>
       </c>
       <c r="BP11">
         <f>BP8+1</f>
@@ -24989,7 +24987,7 @@
       </c>
       <c r="BR11" s="107">
         <f>$H$29*H40</f>
-        <v>1.4048674082526866E-2</v>
+        <v>1.5801068522155449E-2</v>
       </c>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.25">
@@ -25079,7 +25077,7 @@
       </c>
       <c r="BJ12" s="107">
         <f t="shared" si="0"/>
-        <v>1.2993419249348816E-5</v>
+        <v>1.0230144653706201E-5</v>
       </c>
       <c r="BL12">
         <f>BH54+1</f>
@@ -25090,7 +25088,7 @@
       </c>
       <c r="BN12" s="107">
         <f>$H$33*H47</f>
-        <v>1.4159764532144329E-7</v>
+        <v>1.5215019304320994E-7</v>
       </c>
       <c r="BP12">
         <f>BP9+1</f>
@@ -25101,7 +25099,7 @@
       </c>
       <c r="BR12" s="107">
         <f>$H$29*H41</f>
-        <v>2.3112149377370779E-2</v>
+        <v>2.5313127362486341E-2</v>
       </c>
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.25">
@@ -25142,19 +25140,19 @@
       </c>
       <c r="R13" s="157">
         <f t="shared" si="6"/>
-        <v>4.0371613246442353E-2</v>
+        <v>4.0830381578788287E-2</v>
       </c>
       <c r="S13" s="176">
         <f t="shared" si="2"/>
-        <v>0.95962838675355766</v>
+        <v>0.95916961842121173</v>
       </c>
       <c r="T13" s="177">
         <f>R13*PRODUCT(S5:S12)*PRODUCT(S14:S19)</f>
-        <v>3.057709694128791E-2</v>
+        <v>3.0824356254840965E-2</v>
       </c>
       <c r="U13" s="177">
         <f>R13*R14*PRODUCT(S5:S12)*PRODUCT(S15:S19)+R13*R15*PRODUCT(S5:S12)*S14*PRODUCT(S16:S19)+R13*R16*PRODUCT(S5:S12)*PRODUCT(S14:S15)*PRODUCT(S17:S19)+R13*R17*PRODUCT(S5:S12)*PRODUCT(S14:S16)*PRODUCT(S18:S19)+R13*R18*PRODUCT(S5:S12)*PRODUCT(S14:S17)*PRODUCT(S19)+R13*R19*PRODUCT(S5:S12)*PRODUCT(S14:S18)</f>
-        <v>4.8948739197672651E-3</v>
+        <v>4.9942087082982239E-3</v>
       </c>
       <c r="W13" s="186" t="s">
         <v>52</v>
@@ -25175,19 +25173,19 @@
       </c>
       <c r="AB13" s="157">
         <f t="shared" si="4"/>
-        <v>4.7264327703152025E-2</v>
+        <v>4.6805559370806091E-2</v>
       </c>
       <c r="AC13" s="176">
         <f t="shared" si="5"/>
-        <v>0.95273567229684797</v>
+        <v>0.9531944406291939</v>
       </c>
       <c r="AD13" s="177">
         <f>AB13*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC19)</f>
-        <v>1.6516262392894838E-2</v>
+        <v>1.6614837460216827E-2</v>
       </c>
       <c r="AE13" s="177">
         <f>AB13*AB14*PRODUCT(AC5:AC12)*PRODUCT(AC15:AC19)+AB13*AB15*PRODUCT(AC5:AC12)*AC14*PRODUCT(AC16:AC19)+AB13*AB16*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC15)*PRODUCT(AC17:AC19)+AB13*AB17*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC16)*PRODUCT(AC18:AC19)+AB13*AB18*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC17)*PRODUCT(AC19)+AB13*AB19*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC18)</f>
-        <v>2.4869219525281306E-2</v>
+        <v>2.4428694195895648E-2</v>
       </c>
       <c r="BH13">
         <v>0</v>
@@ -25197,7 +25195,7 @@
       </c>
       <c r="BJ13" s="107">
         <f t="shared" si="0"/>
-        <v>1.1708367370630072E-6</v>
+        <v>8.9965568022103684E-7</v>
       </c>
       <c r="BL13">
         <f>BH57+1</f>
@@ -25208,7 +25206,7 @@
       </c>
       <c r="BN13" s="107">
         <f>$H$34*H48</f>
-        <v>1.8804403472753141E-9</v>
+        <v>2.0369992402424055E-9</v>
       </c>
       <c r="BP13">
         <f>BL7+1</f>
@@ -25219,7 +25217,7 @@
       </c>
       <c r="BR13" s="107">
         <f>$H$29*H42</f>
-        <v>2.18161892557646E-2</v>
+        <v>2.3265404205486694E-2</v>
       </c>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.25">
@@ -25260,19 +25258,19 @@
       </c>
       <c r="R14" s="157">
         <f t="shared" si="6"/>
-        <v>7.2870761909828441E-2</v>
+        <v>7.369883874971285E-2</v>
       </c>
       <c r="S14" s="176">
         <f t="shared" si="2"/>
-        <v>0.92712923809017156</v>
+        <v>0.92630116125028716</v>
       </c>
       <c r="T14" s="177">
         <f>R14*PRODUCT(S5:S13)*PRODUCT(S15:S19)</f>
-        <v>5.7126322255809575E-2</v>
+        <v>5.7612195699686834E-2</v>
       </c>
       <c r="U14" s="177">
         <f>R14*R15*PRODUCT(S5:S13)*PRODUCT(S16:S19)+R14*R16*PRODUCT(S5:S13)*S15*PRODUCT(S17:S19)+R14*R17*PRODUCT(S5:S13)*PRODUCT(S15:S16)*PRODUCT(S18:S19)+R14*R18*PRODUCT(S5:S13)*PRODUCT(S15:S17)*PRODUCT(S19)+R14*R19*PRODUCT(S5:S13)*PRODUCT(S15:S18)</f>
-        <v>4.654923421676135E-3</v>
+        <v>4.750644390184312E-3</v>
       </c>
       <c r="W14" s="186" t="s">
         <v>54</v>
@@ -25293,19 +25291,19 @@
       </c>
       <c r="AB14" s="157">
         <f t="shared" si="4"/>
-        <v>0.59718478052932578</v>
+        <v>0.59138824265013501</v>
       </c>
       <c r="AC14" s="176">
         <f t="shared" si="5"/>
-        <v>0.40281521947067422</v>
+        <v>0.40861175734986499</v>
       </c>
       <c r="AD14" s="177">
         <f>AB14*PRODUCT(AC5:AC13)*PRODUCT(AC15:AC19)</f>
-        <v>0.49357547875977187</v>
+        <v>0.4897133970890386</v>
       </c>
       <c r="AE14" s="177">
         <f>AB14*AB15*PRODUCT(AC5:AC13)*PRODUCT(AC16:AC19)+AB14*AB16*PRODUCT(AC5:AC13)*AC15*PRODUCT(AC17:AC19)+AB14*AB17*PRODUCT(AC5:AC13)*PRODUCT(AC15:AC16)*PRODUCT(AC18:AC19)+AB14*AB18*PRODUCT(AC5:AC13)*PRODUCT(AC15:AC17)*PRODUCT(AC19)+AB14*AB19*PRODUCT(AC5:AC13)*PRODUCT(AC15:AC18)</f>
-        <v>1.14576240342707E-2</v>
+        <v>1.125509299464722E-2</v>
       </c>
       <c r="BH14">
         <v>1</v>
@@ -25315,7 +25313,7 @@
       </c>
       <c r="BJ14" s="107">
         <f t="shared" ref="BJ14:BJ22" si="7">$H$26*H41</f>
-        <v>7.6155251397671278E-2</v>
+        <v>7.4669070553035524E-2</v>
       </c>
       <c r="BL14">
         <f>BP39+1</f>
@@ -25326,7 +25324,7 @@
       </c>
       <c r="BN14" s="107">
         <f>$H$35*H49</f>
-        <v>1.3244002434602044E-11</v>
+        <v>1.446676034275364E-11</v>
       </c>
       <c r="BP14">
         <f>BP10+1</f>
@@ -25337,7 +25335,7 @@
       </c>
       <c r="BR14" s="107">
         <f>$H$30*H39</f>
-        <v>1.1351072214281584E-3</v>
+        <v>1.3577477809431665E-3</v>
       </c>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.25">
@@ -25427,7 +25425,7 @@
       </c>
       <c r="BJ15" s="107">
         <f t="shared" si="7"/>
-        <v>7.188502246955146E-2</v>
+        <v>6.8628663822822927E-2</v>
       </c>
       <c r="BP15">
         <f>BP11+1</f>
@@ -25438,7 +25436,7 @@
       </c>
       <c r="BR15" s="107">
         <f>$H$30*H40</f>
-        <v>4.515528232692456E-3</v>
+        <v>5.2621186750179067E-3</v>
       </c>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.25">
@@ -25536,7 +25534,7 @@
       </c>
       <c r="BJ16" s="107">
         <f t="shared" si="7"/>
-        <v>4.4386834485882043E-2</v>
+        <v>4.1266313839150831E-2</v>
       </c>
       <c r="BP16">
         <f>BP12+1</f>
@@ -25547,7 +25545,7 @@
       </c>
       <c r="BR16" s="107">
         <f>$H$30*H41</f>
-        <v>7.4287126613269494E-3</v>
+        <v>8.4298527046116501E-3</v>
       </c>
     </row>
     <row r="17" spans="1:70" x14ac:dyDescent="0.25">
@@ -25585,19 +25583,19 @@
       </c>
       <c r="R17" s="157">
         <f t="shared" si="6"/>
-        <v>1.937837435829233E-2</v>
+        <v>1.9598583157818376E-2</v>
       </c>
       <c r="S17" s="176">
         <f t="shared" si="2"/>
-        <v>0.98062162564170763</v>
+        <v>0.98040141684218163</v>
       </c>
       <c r="T17" s="177">
         <f>R17*PRODUCT(S5:S16)*PRODUCT(S18:S19)</f>
-        <v>1.4362799812092058E-2</v>
+        <v>1.4475272117299895E-2</v>
       </c>
       <c r="U17" s="177">
         <f>R17*R18*PRODUCT(S5:S16)*S19+R17*R19*PRODUCT(S5:S16)*S18</f>
-        <v>8.86521150997514E-4</v>
+        <v>9.0425056250301292E-4</v>
       </c>
       <c r="W17" s="186" t="s">
         <v>60</v>
@@ -25619,15 +25617,15 @@
       </c>
       <c r="AB17" s="157">
         <f t="shared" si="4"/>
-        <v>2.268687729751297E-2</v>
+        <v>2.2466668497986925E-2</v>
       </c>
       <c r="AC17" s="176">
         <f t="shared" si="5"/>
-        <v>0.97731312270248705</v>
+        <v>0.97753333150201305</v>
       </c>
       <c r="AD17" s="177">
         <f>AB17*PRODUCT(AC5:AC16)*PRODUCT(AC18:AC19)</f>
-        <v>7.7284376468642786E-3</v>
+        <v>7.7765552238070104E-3</v>
       </c>
       <c r="AE17" s="177">
         <f>AB17*AB18*PRODUCT(AC5:AC16)*AC19+AB17*AB19*PRODUCT(AC5:AC16)*AC18</f>
@@ -25641,7 +25639,7 @@
       </c>
       <c r="BJ17" s="107">
         <f t="shared" si="7"/>
-        <v>1.9160961685450326E-2</v>
+        <v>1.7351043974701337E-2</v>
       </c>
       <c r="BP17">
         <f>BP13+1</f>
@@ -25652,7 +25650,7 @@
       </c>
       <c r="BR17" s="107">
         <f>$H$30*H42</f>
-        <v>7.0121648445593422E-3</v>
+        <v>7.7479138692344227E-3</v>
       </c>
     </row>
     <row r="18" spans="1:70" x14ac:dyDescent="0.25">
@@ -25746,7 +25744,7 @@
       </c>
       <c r="BJ18" s="107">
         <f t="shared" si="7"/>
-        <v>5.9945162477138868E-3</v>
+        <v>5.2887684850031228E-3</v>
       </c>
       <c r="BP18">
         <f>BL8+1</f>
@@ -25757,7 +25755,7 @@
       </c>
       <c r="BR18" s="107">
         <f>$H$30*H43</f>
-        <v>4.3298004180914373E-3</v>
+        <v>4.658809126052218E-3</v>
       </c>
     </row>
     <row r="19" spans="1:70" x14ac:dyDescent="0.25">
@@ -25781,15 +25779,15 @@
       </c>
       <c r="R19" s="157">
         <f t="shared" si="6"/>
-        <v>5.8135123074876983E-2</v>
+        <v>5.8795749473455117E-2</v>
       </c>
       <c r="S19" s="178">
         <f t="shared" si="2"/>
-        <v>0.941864876925123</v>
+        <v>0.94120425052654488</v>
       </c>
       <c r="T19" s="179">
         <f>R19*PRODUCT(S5:S18)</f>
-        <v>4.4861441738271196E-2</v>
+        <v>4.5234317476905705E-2</v>
       </c>
       <c r="U19" s="179">
         <v>0</v>
@@ -25841,7 +25839,7 @@
       </c>
       <c r="BJ19" s="107">
         <f t="shared" si="7"/>
-        <v>1.3835925080948877E-3</v>
+        <v>1.1897447078101089E-3</v>
       </c>
       <c r="BP19">
         <f>BP15+1</f>
@@ -25852,7 +25850,7 @@
       </c>
       <c r="BR19" s="107">
         <f>$H$31*H40</f>
-        <v>1.0858098801315033E-3</v>
+        <v>1.3099893364518309E-3</v>
       </c>
     </row>
     <row r="20" spans="1:70" x14ac:dyDescent="0.25">
@@ -25869,19 +25867,19 @@
       <c r="Q20" s="22"/>
       <c r="S20" s="180">
         <f>PRODUCT(S5:S19)</f>
-        <v>0.7268139132874758</v>
+        <v>0.72411241050940778</v>
       </c>
       <c r="T20" s="181">
         <f>SUM(T5:T19)</f>
-        <v>0.23810197067678537</v>
+        <v>0.24006013441224586</v>
       </c>
       <c r="U20" s="181">
         <f>SUM(U5:U19)</f>
-        <v>3.2563311347166508E-2</v>
+        <v>3.3223538616744361E-2</v>
       </c>
       <c r="V20" s="181">
         <f>1-S20-T20-U20</f>
-        <v>2.5208046885723187E-3</v>
+        <v>2.6039164616020044E-3</v>
       </c>
       <c r="W20" s="21"/>
       <c r="X20" s="22"/>
@@ -25891,19 +25889,19 @@
       <c r="AB20" s="23"/>
       <c r="AC20" s="184">
         <f>PRODUCT(AC5:AC19)</f>
-        <v>0.33292830173222615</v>
+        <v>0.33836088943131887</v>
       </c>
       <c r="AD20" s="181">
         <f>SUM(AD5:AD19)</f>
-        <v>0.55870633371205181</v>
+        <v>0.55523026214875748</v>
       </c>
       <c r="AE20" s="181">
         <f>SUM(AE5:AE19)</f>
-        <v>0.1011744259092016</v>
+        <v>9.9419369886878772E-2</v>
       </c>
       <c r="AF20" s="181">
         <f>1-AC20-AD20-AE20</f>
-        <v>7.1909386465203867E-3</v>
+        <v>6.9894785330449349E-3</v>
       </c>
       <c r="BH20">
         <v>1</v>
@@ -25913,7 +25911,7 @@
       </c>
       <c r="BJ20" s="107">
         <f t="shared" si="7"/>
-        <v>2.3663226308334899E-4</v>
+        <v>1.9839999258184195E-4</v>
       </c>
       <c r="BP20">
         <f>BP16+1</f>
@@ -25924,7 +25922,7 @@
       </c>
       <c r="BR20" s="107">
         <f>$H$31*H41</f>
-        <v>1.7863180537611685E-3</v>
+        <v>2.0985876284637973E-3</v>
       </c>
     </row>
     <row r="21" spans="1:70" x14ac:dyDescent="0.25">
@@ -25943,19 +25941,19 @@
       <c r="Q21" s="22"/>
       <c r="S21" s="182">
         <f>1-T21-U21-V21</f>
-        <v>0.7268139132874758</v>
+        <v>0.72411241050940789</v>
       </c>
       <c r="T21" s="183">
         <f>T20*V1</f>
-        <v>0.23810197067678537</v>
+        <v>0.24006013441224586</v>
       </c>
       <c r="U21" s="183">
         <f>U20*V1</f>
-        <v>3.2563311347166508E-2</v>
+        <v>3.3223538616744361E-2</v>
       </c>
       <c r="V21" s="183">
         <f>V20*V1</f>
-        <v>2.5208046885723187E-3</v>
+        <v>2.6039164616020044E-3</v>
       </c>
       <c r="W21" s="21"/>
       <c r="X21" s="22"/>
@@ -25965,19 +25963,19 @@
       <c r="AB21" s="23"/>
       <c r="AC21" s="185">
         <f>1-AD21-AE21-AF21</f>
-        <v>0.33292830173222621</v>
+        <v>0.33836088943131881</v>
       </c>
       <c r="AD21" s="183">
         <f>AD20*V1</f>
-        <v>0.55870633371205181</v>
+        <v>0.55523026214875748</v>
       </c>
       <c r="AE21" s="183">
         <f>AE20*V1</f>
-        <v>0.1011744259092016</v>
+        <v>9.9419369886878772E-2</v>
       </c>
       <c r="AF21" s="183">
         <f>AF20*V1</f>
-        <v>7.1909386465203867E-3</v>
+        <v>6.9894785330449349E-3</v>
       </c>
       <c r="BH21" s="18">
         <v>1</v>
@@ -25987,7 +25985,7 @@
       </c>
       <c r="BJ21" s="107">
         <f t="shared" si="7"/>
-        <v>2.9736107658563621E-5</v>
+        <v>2.4320319341702297E-5</v>
       </c>
       <c r="BP21">
         <f>BP17+1</f>
@@ -25998,7 +25996,7 @@
       </c>
       <c r="BR21" s="107">
         <f>$H$31*H42</f>
-        <v>1.6861544158242204E-3</v>
+        <v>1.9288209132626224E-3</v>
       </c>
     </row>
     <row r="22" spans="1:70" x14ac:dyDescent="0.25">
@@ -26007,11 +26005,11 @@
       </c>
       <c r="B22" s="62">
         <f>(B6)/((B6)+(C6))</f>
-        <v>0.4606741573033708</v>
+        <v>0.46590909090909088</v>
       </c>
       <c r="C22" s="63">
         <f>1-B22</f>
-        <v>0.5393258426966292</v>
+        <v>0.53409090909090917</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
@@ -26031,7 +26029,7 @@
       </c>
       <c r="BJ22" s="107">
         <f t="shared" si="7"/>
-        <v>2.6795200397810447E-6</v>
+        <v>2.1387687252912219E-6</v>
       </c>
       <c r="BP22">
         <f>BP18+1</f>
@@ -26042,7 +26040,7 @@
       </c>
       <c r="BR22" s="107">
         <f>$H$31*H43</f>
-        <v>1.0411495246388811E-3</v>
+        <v>1.1597971563558685E-3</v>
       </c>
     </row>
     <row r="23" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26051,11 +26049,11 @@
       </c>
       <c r="B23" s="56">
         <f>((B22^2.8)/((B22^2.8)+(C22^2.8)))*B21</f>
-        <v>1.9570835379829266</v>
+        <v>2.0277270249191264</v>
       </c>
       <c r="C23" s="57">
         <f>B21-B23</f>
-        <v>3.0429164620170734</v>
+        <v>2.9722729750808736</v>
       </c>
       <c r="D23" s="151">
         <f>SUM(D25:D30)</f>
@@ -26067,11 +26065,11 @@
       </c>
       <c r="H23" s="59">
         <f>SUM(H25:H35)</f>
-        <v>0.99999992190515929</v>
+        <v>0.99999989341929085</v>
       </c>
       <c r="J23" s="59">
         <f>SUM(J25:J35)</f>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="K23" s="59"/>
       <c r="L23" s="59">
@@ -26080,16 +26078,16 @@
       </c>
       <c r="N23" s="59">
         <f>SUM(N25:N35)</f>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="O23" s="34"/>
       <c r="P23" s="59">
         <f>SUM(P25:P35)</f>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="R23" s="59">
         <f>SUM(R25:R35)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="T23" s="59">
         <f>SUM(T25:T35)</f>
@@ -26097,61 +26095,61 @@
       </c>
       <c r="V23" s="59">
         <f>SUM(V25:V34)</f>
-        <v>0.99988815052152891</v>
+        <v>0.99984289353484068</v>
       </c>
       <c r="Y23" s="80">
         <f>SUM(Y25:Y35)</f>
-        <v>6.831130417971211E-3</v>
+        <v>5.4010625526795444E-3</v>
       </c>
       <c r="Z23" s="81"/>
       <c r="AA23" s="80">
         <f>SUM(AA25:AA35)</f>
-        <v>4.4072438671171908E-2</v>
+        <v>3.6955383300889405E-2</v>
       </c>
       <c r="AB23" s="81"/>
       <c r="AC23" s="80">
         <f>SUM(AC25:AC35)</f>
-        <v>0.12804217379624222</v>
+        <v>0.11385987364959152</v>
       </c>
       <c r="AD23" s="81"/>
       <c r="AE23" s="80">
         <f>SUM(AE25:AE35)</f>
-        <v>0.22065062817711509</v>
+        <v>0.20806864758674368</v>
       </c>
       <c r="AF23" s="81"/>
       <c r="AG23" s="80">
         <f>SUM(AG25:AG35)</f>
-        <v>0.24986775908256359</v>
+        <v>0.24984034958323034</v>
       </c>
       <c r="AH23" s="81"/>
       <c r="AI23" s="80">
         <f>SUM(AI25:AI35)</f>
-        <v>0.19441496994066376</v>
+        <v>0.20610284847042351</v>
       </c>
       <c r="AJ23" s="81"/>
       <c r="AK23" s="80">
         <f>SUM(AK25:AK35)</f>
-        <v>0.105383129130536</v>
+        <v>0.11842681369530549</v>
       </c>
       <c r="AL23" s="81"/>
       <c r="AM23" s="80">
         <f>SUM(AM25:AM35)</f>
-        <v>3.9386999249958816E-2</v>
+        <v>4.6905529536489694E-2</v>
       </c>
       <c r="AN23" s="81"/>
       <c r="AO23" s="80">
         <f>SUM(AO25:AO35)</f>
-        <v>9.7659326888206669E-3</v>
+        <v>1.2317460472916935E-2</v>
       </c>
       <c r="AP23" s="81"/>
       <c r="AQ23" s="80">
         <f>SUM(AQ25:AQ35)</f>
-        <v>1.4729893664856943E-3</v>
+        <v>1.9649246865706279E-3</v>
       </c>
       <c r="AR23" s="81"/>
       <c r="AS23" s="80">
         <f>SUM(AS25:AS35)</f>
-        <v>1.1184947847109329E-4</v>
+        <v>1.5710646515931795E-4</v>
       </c>
       <c r="BH23">
         <f t="shared" ref="BH23:BH30" si="8">BH15+1</f>
@@ -26162,7 +26160,7 @@
       </c>
       <c r="BJ23" s="107">
         <f t="shared" ref="BJ23:BJ30" si="9">$H$27*H42</f>
-        <v>7.598997301829738E-2</v>
+        <v>7.5322225238121265E-2</v>
       </c>
       <c r="BP23">
         <f>BL9+1</f>
@@ -26173,7 +26171,7 @@
       </c>
       <c r="BR23" s="107">
         <f>$H$31*H44</f>
-        <v>4.4944466938221656E-4</v>
+        <v>4.8765420483406905E-4</v>
       </c>
     </row>
     <row r="24" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26182,11 +26180,11 @@
       </c>
       <c r="B24" s="64">
         <f>B23/B21</f>
-        <v>0.39141670759658531</v>
+        <v>0.4055454049838253</v>
       </c>
       <c r="C24" s="65">
         <f>C23/B21</f>
-        <v>0.60858329240341469</v>
+        <v>0.5944545950161747</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>79</v>
@@ -26353,7 +26351,7 @@
       </c>
       <c r="BJ24" s="107">
         <f t="shared" si="9"/>
-        <v>4.6921517710848591E-2</v>
+        <v>4.5291142397352685E-2</v>
       </c>
       <c r="BP24">
         <f>BH49+1</f>
@@ -26364,7 +26362,7 @@
       </c>
       <c r="BR24" s="107">
         <f t="shared" ref="BR24:BR30" si="10">$H$32*H39</f>
-        <v>4.9897331654958271E-5</v>
+        <v>6.3924043301456218E-5</v>
       </c>
     </row>
     <row r="25" spans="1:70" x14ac:dyDescent="0.25">
@@ -26392,42 +26390,42 @@
       </c>
       <c r="H25" s="127">
         <f>L25*J25</f>
-        <v>0.1211083740886893</v>
+        <v>0.11241879518833622</v>
       </c>
       <c r="I25" s="97">
         <v>0</v>
       </c>
       <c r="J25" s="98">
         <f t="shared" ref="J25:J35" si="11">Y25+AA25+AC25+AE25+AG25+AI25+AK25+AM25+AO25+AQ25+AS25</f>
-        <v>0.16662913556635156</v>
+        <v>0.15525047431413364</v>
       </c>
       <c r="K25" s="97">
         <v>0</v>
       </c>
       <c r="L25" s="98">
         <f>S21</f>
-        <v>0.7268139132874758</v>
+        <v>0.72411241050940789</v>
       </c>
       <c r="M25" s="84">
         <v>0</v>
       </c>
       <c r="N25" s="71">
         <f>(1-$B$24)^$B$21</f>
-        <v>8.3483399771431377E-2</v>
+        <v>7.4232389771098278E-2</v>
       </c>
       <c r="O25" s="70">
         <v>0</v>
       </c>
       <c r="P25" s="71">
         <f>N25</f>
-        <v>8.3483399771431377E-2</v>
+        <v>7.4232389771098278E-2</v>
       </c>
       <c r="Q25" s="12">
         <v>0</v>
       </c>
       <c r="R25" s="73">
         <f>P25*N25</f>
-        <v>6.9694780373966286E-3</v>
+        <v>5.5104476911282561E-3</v>
       </c>
       <c r="S25" s="70">
         <v>0</v>
@@ -26441,7 +26439,7 @@
       </c>
       <c r="V25" s="86">
         <f>R25*T25</f>
-        <v>6.831130417971211E-3</v>
+        <v>5.4010625526795444E-3</v>
       </c>
       <c r="W25" s="136">
         <f>B31</f>
@@ -26452,77 +26450,77 @@
       </c>
       <c r="Y25" s="79">
         <f>V25</f>
-        <v>6.831130417971211E-3</v>
+        <v>5.4010625526795444E-3</v>
       </c>
       <c r="Z25" s="12">
         <v>0</v>
       </c>
       <c r="AA25" s="78">
         <f>((1-W25)^Z26)*V26</f>
-        <v>2.5678415851479629E-2</v>
+        <v>2.1531726606537491E-2</v>
       </c>
       <c r="AB25" s="12">
         <v>0</v>
       </c>
       <c r="AC25" s="79">
         <f>(((1-$W$25)^AB27))*V27</f>
-        <v>4.3466565916717929E-2</v>
+        <v>3.8652090608324162E-2</v>
       </c>
       <c r="AD25" s="12">
         <v>0</v>
       </c>
       <c r="AE25" s="79">
         <f>(((1-$W$25)^AB28))*V28</f>
-        <v>4.3642397973260326E-2</v>
+        <v>4.1153813151394054E-2</v>
       </c>
       <c r="AF25" s="12">
         <v>0</v>
       </c>
       <c r="AG25" s="79">
         <f>(((1-$W$25)^AB29))*V29</f>
-        <v>2.8794848951111118E-2</v>
+        <v>2.8791690270711434E-2</v>
       </c>
       <c r="AH25" s="12">
         <v>0</v>
       </c>
       <c r="AI25" s="79">
         <f>(((1-$W$25)^AB30))*V30</f>
-        <v>1.3053754208745799E-2</v>
+        <v>1.3838522447507074E-2</v>
       </c>
       <c r="AJ25" s="12">
         <v>0</v>
       </c>
       <c r="AK25" s="79">
         <f>(((1-$W$25)^AB31))*V31</f>
-        <v>4.1226642198736304E-3</v>
+        <v>4.6329425926469742E-3</v>
       </c>
       <c r="AL25" s="12">
         <v>0</v>
       </c>
       <c r="AM25" s="79">
         <f>(((1-$W$25)^AB32))*V32</f>
-        <v>8.9776137121752684E-4</v>
+        <v>1.0691338085220396E-3</v>
       </c>
       <c r="AN25" s="12">
         <v>0</v>
       </c>
       <c r="AO25" s="79">
         <f>(((1-$W$25)^AB33))*V33</f>
-        <v>1.2969489808545588E-4</v>
+        <v>1.6358005237280708E-4</v>
       </c>
       <c r="AP25" s="12">
         <v>0</v>
       </c>
       <c r="AQ25" s="79">
         <f>(((1-$W$25)^AB34))*V34</f>
-        <v>1.1397508453742168E-5</v>
+        <v>1.5203942564491633E-5</v>
       </c>
       <c r="AR25" s="12">
         <v>0</v>
       </c>
       <c r="AS25" s="79">
         <f>(((1-$W$25)^AB35))*V35</f>
-        <v>5.042494351991106E-7</v>
+        <v>7.0828087359556965E-7</v>
       </c>
       <c r="AV25" s="14">
         <v>1</v>
@@ -26567,7 +26565,7 @@
       </c>
       <c r="BJ25" s="107">
         <f t="shared" si="9"/>
-        <v>2.0255136765085377E-2</v>
+        <v>1.9043343838852013E-2</v>
       </c>
       <c r="BP25">
         <f>BP19+1</f>
@@ -26578,7 +26576,7 @@
       </c>
       <c r="BR25" s="107">
         <f t="shared" si="10"/>
-        <v>1.9849473738745238E-4</v>
+        <v>2.4774549939281124E-4</v>
       </c>
     </row>
     <row r="26" spans="1:70" x14ac:dyDescent="0.25">
@@ -26606,42 +26604,42 @@
       </c>
       <c r="H26" s="128">
         <f>L25*J26+L26*J25</f>
-        <v>0.27716273762468996</v>
+        <v>0.2672553606560451</v>
       </c>
       <c r="I26" s="93">
         <v>1</v>
       </c>
       <c r="J26" s="86">
         <f t="shared" si="11"/>
-        <v>0.32675215448199474</v>
+        <v>0.31761078471619597</v>
       </c>
       <c r="K26" s="93">
         <v>1</v>
       </c>
       <c r="L26" s="86">
         <f>T21</f>
-        <v>0.23810197067678537</v>
+        <v>0.24006013441224586</v>
       </c>
       <c r="M26" s="85">
         <v>1</v>
       </c>
       <c r="N26" s="71">
         <f>(($B$24)^M26)*((1-($B$24))^($B$21-M26))*HLOOKUP($B$21,$AV$24:$BF$34,M26+1)</f>
-        <v>0.26846610714908153</v>
+        <v>0.25321197636480625</v>
       </c>
       <c r="O26" s="72">
         <v>1</v>
       </c>
       <c r="P26" s="71">
         <f t="shared" ref="P26:P30" si="12">N26</f>
-        <v>0.26846610714908153</v>
+        <v>0.25321197636480625</v>
       </c>
       <c r="Q26" s="28">
         <v>1</v>
       </c>
       <c r="R26" s="37">
         <f>N26*P25+P26*N25</f>
-        <v>4.4824926696413407E-2</v>
+        <v>3.7593060248444846E-2</v>
       </c>
       <c r="S26" s="72">
         <v>1</v>
@@ -26655,7 +26653,7 @@
       </c>
       <c r="V26" s="86">
         <f>R26*T25+T26*R25</f>
-        <v>4.4072438671171908E-2</v>
+        <v>3.6955383300889405E-2</v>
       </c>
       <c r="W26" s="137"/>
       <c r="X26" s="28">
@@ -26667,70 +26665,70 @@
       </c>
       <c r="AA26" s="79">
         <f>(1-((1-W25)^Z26))*V26</f>
-        <v>1.8394022819692279E-2</v>
+        <v>1.5423656694351914E-2</v>
       </c>
       <c r="AB26" s="28">
         <v>1</v>
       </c>
       <c r="AC26" s="79">
         <f>((($W$25)^M26)*((1-($W$25))^($U$27-M26))*HLOOKUP($U$27,$AV$24:$BF$34,M26+1))*V27</f>
-        <v>6.2272144044251736E-2</v>
+        <v>5.5374711648137849E-2</v>
       </c>
       <c r="AD26" s="28">
         <v>1</v>
       </c>
       <c r="AE26" s="79">
         <f>((($W$25)^M26)*((1-($W$25))^($U$28-M26))*HLOOKUP($U$28,$AV$24:$BF$34,M26+1))*V28</f>
-        <v>9.3786073354675412E-2</v>
+        <v>8.8438186678148539E-2</v>
       </c>
       <c r="AF26" s="28">
         <v>1</v>
       </c>
       <c r="AG26" s="79">
         <f>((($W$25)^M26)*((1-($W$25))^($U$29-M26))*HLOOKUP($U$29,$AV$24:$BF$34,M26+1))*V29</f>
-        <v>8.2505573826636314E-2</v>
+        <v>8.2496523293349847E-2</v>
       </c>
       <c r="AH26" s="28">
         <v>1</v>
       </c>
       <c r="AI26" s="79">
         <f>((($W$25)^M26)*((1-($W$25))^($U$30-M26))*HLOOKUP($U$30,$AV$24:$BF$34,M26+1))*V30</f>
-        <v>4.6753478522018881E-2</v>
+        <v>4.9564213610864487E-2</v>
       </c>
       <c r="AJ26" s="28">
         <v>1</v>
       </c>
       <c r="AK26" s="79">
         <f>((($W$25)^M26)*((1-($W$25))^($U$31-M26))*HLOOKUP($U$31,$AV$24:$BF$34,M26+1))*V31</f>
-        <v>1.7718938779608909E-2</v>
+        <v>1.9912081554648318E-2</v>
       </c>
       <c r="AL26" s="28">
         <v>1</v>
       </c>
       <c r="AM26" s="79">
         <f>((($W$25)^Q26)*((1-($W$25))^($U$32-Q26))*HLOOKUP($U$32,$AV$24:$BF$34,Q26+1))*V32</f>
-        <v>4.5016056562941454E-3</v>
+        <v>5.3609109882407427E-3</v>
       </c>
       <c r="AN26" s="28">
         <v>1</v>
       </c>
       <c r="AO26" s="79">
         <f>((($W$25)^Q26)*((1-($W$25))^($U$33-Q26))*HLOOKUP($U$33,$AV$24:$BF$34,Q26+1))*V33</f>
-        <v>7.4322681859491011E-4</v>
+        <v>9.374083615110529E-4</v>
       </c>
       <c r="AP26" s="28">
         <v>1</v>
       </c>
       <c r="AQ26" s="79">
         <f>((($W$25)^Q26)*((1-($W$25))^($U$34-Q26))*HLOOKUP($U$34,$AV$24:$BF$34,Q26+1))*V34</f>
-        <v>7.3478608890244326E-5</v>
+        <v>9.8018312846192117E-5</v>
       </c>
       <c r="AR26" s="28">
         <v>1</v>
       </c>
       <c r="AS26" s="79">
         <f>((($W$25)^Q26)*((1-($W$25))^($U$35-Q26))*HLOOKUP($U$35,$AV$24:$BF$34,Q26+1))*V35</f>
-        <v>3.6120513319496428E-6</v>
+        <v>5.0735740970242865E-6</v>
       </c>
       <c r="AV26" s="14">
         <v>2</v>
@@ -26775,7 +26773,7 @@
       </c>
       <c r="BJ26" s="107">
         <f t="shared" si="9"/>
-        <v>6.3368294572693599E-3</v>
+        <v>5.8045980916679989E-3</v>
       </c>
       <c r="BP26">
         <f>BP20+1</f>
@@ -26786,7 +26784,7 @@
       </c>
       <c r="BR26" s="107">
         <f t="shared" si="10"/>
-        <v>3.2655323870219835E-4</v>
+        <v>3.9688539865641613E-4</v>
       </c>
     </row>
     <row r="27" spans="1:70" x14ac:dyDescent="0.25">
@@ -26814,42 +26812,42 @@
       </c>
       <c r="H27" s="128">
         <f>L25*J27+J26*L26+J25*L27</f>
-        <v>0.29298994742192286</v>
+        <v>0.2933215853276675</v>
       </c>
       <c r="I27" s="93">
         <v>2</v>
       </c>
       <c r="J27" s="86">
         <f t="shared" si="11"/>
-        <v>0.2886070495639379</v>
+        <v>0.29265888065665435</v>
       </c>
       <c r="K27" s="93">
         <v>2</v>
       </c>
       <c r="L27" s="86">
         <f>U21</f>
-        <v>3.2563311347166508E-2</v>
+        <v>3.3223538616744361E-2</v>
       </c>
       <c r="M27" s="85">
         <v>2</v>
       </c>
       <c r="N27" s="71">
         <f>(($B$24)^M27)*((1-($B$24))^($B$21-M27))*HLOOKUP($B$21,$AV$24:$BF$34,M27+1)</f>
-        <v>0.3453335675600811</v>
+        <v>0.3454896450041775</v>
       </c>
       <c r="O27" s="72">
         <v>2</v>
       </c>
       <c r="P27" s="71">
         <f t="shared" si="12"/>
-        <v>0.3453335675600811</v>
+        <v>0.3454896450041775</v>
       </c>
       <c r="Q27" s="28">
         <v>2</v>
       </c>
       <c r="R27" s="37">
         <f>P25*N27+P26*N26+P27*N25</f>
-        <v>0.12973329123800784</v>
+        <v>0.11540934895422816</v>
       </c>
       <c r="S27" s="72">
         <v>2</v>
@@ -26863,7 +26861,7 @@
       </c>
       <c r="V27" s="86">
         <f>R27*T25+T26*R26+R25*T27</f>
-        <v>0.12804217379624222</v>
+        <v>0.11385987364959151</v>
       </c>
       <c r="W27" s="137"/>
       <c r="X27" s="28">
@@ -26879,63 +26877,63 @@
       </c>
       <c r="AC27" s="79">
         <f>((($W$25)^M27)*((1-($W$25))^($U$27-M27))*HLOOKUP($U$27,$AV$24:$BF$34,M27+1))*V27</f>
-        <v>2.2303463835272562E-2</v>
+        <v>1.9833071393129502E-2</v>
       </c>
       <c r="AD27" s="28">
         <v>2</v>
       </c>
       <c r="AE27" s="79">
         <f>((($W$25)^M27)*((1-($W$25))^($U$28-M27))*HLOOKUP($U$28,$AV$24:$BF$34,M27+1))*V28</f>
-        <v>6.7181059121130718E-2</v>
+        <v>6.3350248445966151E-2</v>
       </c>
       <c r="AF27" s="28">
         <v>2</v>
       </c>
       <c r="AG27" s="79">
         <f>((($W$25)^M27)*((1-($W$25))^($U$29-M27))*HLOOKUP($U$29,$AV$24:$BF$34,M27+1))*V29</f>
-        <v>8.8650878027090652E-2</v>
+        <v>8.8641153378376081E-2</v>
       </c>
       <c r="AH27" s="28">
         <v>2</v>
       </c>
       <c r="AI27" s="79">
         <f>((($W$25)^M27)*((1-($W$25))^($U$30-M27))*HLOOKUP($U$30,$AV$24:$BF$34,M27+1))*V30</f>
-        <v>6.6981121873564073E-2</v>
+        <v>7.1007906521290437E-2</v>
       </c>
       <c r="AJ27" s="28">
         <v>2</v>
       </c>
       <c r="AK27" s="79">
         <f>((($W$25)^M27)*((1-($W$25))^($U$31-M27))*HLOOKUP($U$31,$AV$24:$BF$34,M27+1))*V31</f>
-        <v>3.1731179031637642E-2</v>
+        <v>3.5658671919462502E-2</v>
       </c>
       <c r="AL27" s="28">
         <v>2</v>
       </c>
       <c r="AM27" s="79">
         <f>((($W$25)^Q27)*((1-($W$25))^($U$32-Q27))*HLOOKUP($U$32,$AV$24:$BF$34,Q27+1))*V32</f>
-        <v>9.6738020342901111E-3</v>
+        <v>1.1520420841656864E-2</v>
       </c>
       <c r="AN27" s="28">
         <v>2</v>
       </c>
       <c r="AO27" s="79">
         <f>((($W$25)^Q27)*((1-($W$25))^($U$33-Q27))*HLOOKUP($U$33,$AV$24:$BF$34,Q27+1))*V33</f>
-        <v>1.8633648972660507E-3</v>
+        <v>2.3502029145633175E-3</v>
       </c>
       <c r="AP27" s="28">
         <v>2</v>
       </c>
       <c r="AQ27" s="79">
         <f>((($W$25)^Q27)*((1-($W$25))^($U$34-Q27))*HLOOKUP($U$34,$AV$24:$BF$34,Q27+1))*V34</f>
-        <v>2.1053747497566422E-4</v>
+        <v>2.8085082719566686E-4</v>
       </c>
       <c r="AR27" s="28">
         <v>2</v>
       </c>
       <c r="AS27" s="79">
         <f>((($W$25)^Q27)*((1-($W$25))^($U$35-Q27))*HLOOKUP($U$35,$AV$24:$BF$34,Q27+1))*V35</f>
-        <v>1.1643268710393975E-5</v>
+        <v>1.6354415013770853E-5</v>
       </c>
       <c r="AV27" s="14">
         <v>3</v>
@@ -26977,7 +26975,7 @@
       </c>
       <c r="BJ27" s="107">
         <f t="shared" si="9"/>
-        <v>1.4626017179445549E-3</v>
+        <v>1.3057841121443192E-3</v>
       </c>
       <c r="BP27">
         <f>BP21+1</f>
@@ -26988,7 +26986,7 @@
       </c>
       <c r="BR27" s="107">
         <f t="shared" si="10"/>
-        <v>3.0824252393355168E-4</v>
+        <v>3.6477907651511464E-4</v>
       </c>
     </row>
     <row r="28" spans="1:70" x14ac:dyDescent="0.25">
@@ -27012,42 +27010,42 @@
       </c>
       <c r="H28" s="128">
         <f>J28*L25+J27*L26+L28*J25+L27*J26</f>
-        <v>0.18971269640384864</v>
+        <v>0.1970704199929163</v>
       </c>
       <c r="I28" s="93">
         <v>3</v>
       </c>
       <c r="J28" s="86">
         <f t="shared" si="11"/>
-        <v>0.15125552152444416</v>
+        <v>0.16000040138406943</v>
       </c>
       <c r="K28" s="93">
         <v>3</v>
       </c>
       <c r="L28" s="86">
         <f>V21</f>
-        <v>2.5208046885723187E-3</v>
+        <v>2.6039164616020044E-3</v>
       </c>
       <c r="M28" s="85">
         <v>3</v>
       </c>
       <c r="N28" s="71">
         <f>(($B$24)^M28)*((1-($B$24))^($B$21-M28))*HLOOKUP($B$21,$AV$24:$BF$34,M28+1)</f>
-        <v>0.22210489463675503</v>
+        <v>0.23569796444609006</v>
       </c>
       <c r="O28" s="72">
         <v>3</v>
       </c>
       <c r="P28" s="71">
         <f t="shared" si="12"/>
-        <v>0.22210489463675503</v>
+        <v>0.23569796444609006</v>
       </c>
       <c r="Q28" s="28">
         <v>3</v>
       </c>
       <c r="R28" s="37">
         <f>P25*N28+P26*N27+P27*N26+P28*N25</f>
-        <v>0.22250486052182239</v>
+        <v>0.20995707798019944</v>
       </c>
       <c r="S28" s="72">
         <v>3</v>
@@ -27061,7 +27059,7 @@
       </c>
       <c r="V28" s="86">
         <f>R28*T25+R27*T26+R26*T27+R25*T28</f>
-        <v>0.22065062817711509</v>
+        <v>0.20806864758674365</v>
       </c>
       <c r="W28" s="137"/>
       <c r="X28" s="28">
@@ -27081,56 +27079,56 @@
       </c>
       <c r="AE28" s="79">
         <f>((($W$25)^M28)*((1-($W$25))^($U$28-M28))*HLOOKUP($U$28,$AV$24:$BF$34,M28+1))*V28</f>
-        <v>1.604109772804865E-2</v>
+        <v>1.5126399311234931E-2</v>
       </c>
       <c r="AF28" s="28">
         <v>3</v>
       </c>
       <c r="AG28" s="79">
         <f>((($W$25)^M28)*((1-($W$25))^($U$29-M28))*HLOOKUP($U$29,$AV$24:$BF$34,M28+1))*V29</f>
-        <v>4.2335069339881737E-2</v>
+        <v>4.2330425351161043E-2</v>
       </c>
       <c r="AH28" s="28">
         <v>3</v>
       </c>
       <c r="AI28" s="79">
         <f>((($W$25)^M28)*((1-($W$25))^($U$30-M28))*HLOOKUP($U$30,$AV$24:$BF$34,M28+1))*V30</f>
-        <v>4.7980073667976471E-2</v>
+        <v>5.0864549452178609E-2</v>
       </c>
       <c r="AJ28" s="28">
         <v>3</v>
       </c>
       <c r="AK28" s="79">
         <f>((($W$25)^M28)*((1-($W$25))^($U$31-M28))*HLOOKUP($U$31,$AV$24:$BF$34,M28+1))*V31</f>
-        <v>3.0306336371086401E-2</v>
+        <v>3.4057470876198634E-2</v>
       </c>
       <c r="AL28" s="28">
         <v>3</v>
       </c>
       <c r="AM28" s="79">
         <f>((($W$25)^Q28)*((1-($W$25))^($U$32-Q28))*HLOOKUP($U$32,$AV$24:$BF$34,Q28+1))*V32</f>
-        <v>1.1549267447097647E-2</v>
+        <v>1.3753891275817972E-2</v>
       </c>
       <c r="AN28" s="28">
         <v>3</v>
       </c>
       <c r="AO28" s="79">
         <f>((($W$25)^Q28)*((1-($W$25))^($U$33-Q28))*HLOOKUP($U$33,$AV$24:$BF$34,Q28+1))*V33</f>
-        <v>2.6695397909252509E-3</v>
+        <v>3.3670056822367412E-3</v>
       </c>
       <c r="AP28" s="28">
         <v>3</v>
       </c>
       <c r="AQ28" s="79">
         <f>((($W$25)^Q28)*((1-($W$25))^($U$34-Q28))*HLOOKUP($U$34,$AV$24:$BF$34,Q28+1))*V34</f>
-        <v>3.5189629026066916E-4</v>
+        <v>4.6941934787723228E-4</v>
       </c>
       <c r="AR28" s="28">
         <v>3</v>
       </c>
       <c r="AS28" s="79">
         <f>((($W$25)^Q28)*((1-($W$25))^($U$35-Q28))*HLOOKUP($U$35,$AV$24:$BF$34,Q28+1))*V35</f>
-        <v>2.2240889167359364E-5</v>
+        <v>3.1240087364261102E-5</v>
       </c>
       <c r="AV28" s="14">
         <v>4</v>
@@ -27169,7 +27167,7 @@
       </c>
       <c r="BJ28" s="107">
         <f t="shared" si="9"/>
-        <v>2.5014500474808762E-4</v>
+        <v>2.1775054468598564E-4</v>
       </c>
       <c r="BP28">
         <f>BP22+1</f>
@@ -27180,7 +27178,7 @@
       </c>
       <c r="BR28" s="107">
         <f t="shared" si="10"/>
-        <v>1.9033046692229076E-4</v>
+        <v>2.1934111805368311E-4</v>
       </c>
     </row>
     <row r="29" spans="1:70" x14ac:dyDescent="0.25">
@@ -27206,14 +27204,14 @@
       </c>
       <c r="H29" s="128">
         <f>J29*L25+J28*L26+J27*L27+J26*L28</f>
-        <v>8.411536271310556E-2</v>
+        <v>9.0600685564830155E-2</v>
       </c>
       <c r="I29" s="93">
         <v>4</v>
       </c>
       <c r="J29" s="86">
         <f t="shared" si="11"/>
-        <v>5.2117116492858225E-2</v>
+        <v>5.7505950076907009E-2</v>
       </c>
       <c r="K29" s="93">
         <v>4</v>
@@ -27224,21 +27222,21 @@
       </c>
       <c r="N29" s="71">
         <f>(($B$24)^M29)*((1-($B$24))^($B$21-M29))*HLOOKUP($B$21,$AV$24:$BF$34,M29+1)</f>
-        <v>7.142454260983698E-2</v>
+        <v>8.0398256861444584E-2</v>
       </c>
       <c r="O29" s="72">
         <v>4</v>
       </c>
       <c r="P29" s="71">
         <f t="shared" si="12"/>
-        <v>7.142454260983698E-2</v>
+        <v>8.0398256861444584E-2</v>
       </c>
       <c r="Q29" s="28">
         <v>4</v>
       </c>
       <c r="R29" s="37">
         <f>P25*N29+P26*N28+P27*N27+P28*N26+P29*N25</f>
-        <v>0.25043607305592347</v>
+        <v>0.25066249909073646</v>
       </c>
       <c r="S29" s="72">
         <v>4</v>
@@ -27252,7 +27250,7 @@
       </c>
       <c r="V29" s="86">
         <f>T29*R25+T28*R26+T27*R27+T26*R28+T25*R29</f>
-        <v>0.24986775908256359</v>
+        <v>0.24984034958323031</v>
       </c>
       <c r="W29" s="137"/>
       <c r="X29" s="28">
@@ -27276,49 +27274,49 @@
       </c>
       <c r="AG29" s="79">
         <f>((($W$25)^M29)*((1-($W$25))^($U$29-M29))*HLOOKUP($U$29,$AV$24:$BF$34,M29+1))*V29</f>
-        <v>7.5813889378437754E-3</v>
+        <v>7.5805572896319364E-3</v>
       </c>
       <c r="AH29" s="28">
         <v>4</v>
       </c>
       <c r="AI29" s="79">
         <f>((($W$25)^M29)*((1-($W$25))^($U$30-M29))*HLOOKUP($U$30,$AV$24:$BF$34,M29+1))*V30</f>
-        <v>1.7184599218343567E-2</v>
+        <v>1.8217706433841963E-2</v>
       </c>
       <c r="AJ29" s="28">
         <v>4</v>
       </c>
       <c r="AK29" s="79">
         <f>((($W$25)^M29)*((1-($W$25))^($U$31-M29))*HLOOKUP($U$31,$AV$24:$BF$34,M29+1))*V31</f>
-        <v>1.6281829241782605E-2</v>
+        <v>1.8297095314440091E-2</v>
       </c>
       <c r="AL29" s="28">
         <v>4</v>
       </c>
       <c r="AM29" s="79">
         <f>((($W$25)^Q29)*((1-($W$25))^($U$32-Q29))*HLOOKUP($U$32,$AV$24:$BF$34,Q29+1))*V32</f>
-        <v>8.272998233277009E-3</v>
+        <v>9.8522195235959103E-3</v>
       </c>
       <c r="AN29" s="28">
         <v>4</v>
       </c>
       <c r="AO29" s="79">
         <f>((($W$25)^Q29)*((1-($W$25))^($U$33-Q29))*HLOOKUP($U$33,$AV$24:$BF$34,Q29+1))*V33</f>
-        <v>2.3903137228345711E-3</v>
+        <v>3.0148267182498107E-3</v>
       </c>
       <c r="AP29" s="28">
         <v>4</v>
       </c>
       <c r="AQ29" s="79">
         <f>((($W$25)^Q29)*((1-($W$25))^($U$34-Q29))*HLOOKUP($U$34,$AV$24:$BF$34,Q29+1))*V34</f>
-        <v>3.78106758843157E-4</v>
+        <v>5.0438334553811728E-4</v>
       </c>
       <c r="AR29" s="28">
         <v>4</v>
       </c>
       <c r="AS29" s="79">
         <f>((($W$25)^Q29)*((1-($W$25))^($U$35-Q29))*HLOOKUP($U$35,$AV$24:$BF$34,Q29+1))*V35</f>
-        <v>2.7880379933538373E-5</v>
+        <v>3.9161451609173323E-5</v>
       </c>
       <c r="AV29" s="14">
         <v>5</v>
@@ -27354,7 +27352,7 @@
       </c>
       <c r="BJ29" s="107">
         <f t="shared" si="9"/>
-        <v>3.1434170026177014E-5</v>
+        <v>2.6692353737907684E-5</v>
       </c>
       <c r="BP29">
         <f>BP23+1</f>
@@ -27365,7 +27363,7 @@
       </c>
       <c r="BR29" s="107">
         <f t="shared" si="10"/>
-        <v>8.2162083115700551E-5</v>
+        <v>9.222528088270672E-5</v>
       </c>
     </row>
     <row r="30" spans="1:70" x14ac:dyDescent="0.25">
@@ -27391,14 +27389,14 @@
       </c>
       <c r="H30" s="128">
         <f>J30*L25+J29*L26+J28*L27+J27*L28</f>
-        <v>2.7036380294892363E-2</v>
+        <v>3.0172108855274021E-2</v>
       </c>
       <c r="I30" s="93">
         <v>5</v>
       </c>
       <c r="J30" s="86">
         <f t="shared" si="11"/>
-        <v>1.2347437691836421E-2</v>
+        <v>1.4209650062502327E-2</v>
       </c>
       <c r="K30" s="93">
         <v>5</v>
@@ -27409,21 +27407,21 @@
       </c>
       <c r="N30" s="71">
         <f>(($B$24)^M30)*((1-($B$24))^($B$21-M30))*HLOOKUP($B$21,$AV$24:$BF$34,M30+1)</f>
-        <v>9.1874882728139613E-3</v>
+        <v>1.096976755238337E-2</v>
       </c>
       <c r="O30" s="72">
         <v>5</v>
       </c>
       <c r="P30" s="71">
         <f t="shared" si="12"/>
-        <v>9.1874882728139613E-3</v>
+        <v>1.096976755238337E-2</v>
       </c>
       <c r="Q30" s="28">
         <v>5</v>
       </c>
       <c r="R30" s="37">
         <f>P25*N30+P26*N29+P27*N28+P28*N27+P29*N26+P30*N25</f>
-        <v>0.19328469460641567</v>
+        <v>0.20520663928301097</v>
       </c>
       <c r="S30" s="72">
         <v>5</v>
@@ -27437,7 +27435,7 @@
       </c>
       <c r="V30" s="86">
         <f>T30*R25+T29*R26+T28*R27+T27*R28+T26*R29+T25*R30</f>
-        <v>0.19441496994066376</v>
+        <v>0.20610284847042348</v>
       </c>
       <c r="W30" s="137"/>
       <c r="X30" s="28">
@@ -27465,42 +27463,42 @@
       </c>
       <c r="AI30" s="79">
         <f>((($W$25)^M30)*((1-($W$25))^($U$30-M30))*HLOOKUP($U$30,$AV$24:$BF$34,M30+1))*V30</f>
-        <v>2.4619424500149914E-3</v>
+        <v>2.6099500047409288E-3</v>
       </c>
       <c r="AJ30" s="28">
         <v>5</v>
       </c>
       <c r="AK30" s="79">
         <f>((($W$25)^M30)*((1-($W$25))^($U$31-M30))*HLOOKUP($U$31,$AV$24:$BF$34,M30+1))*V31</f>
-        <v>4.6652151807476143E-3</v>
+        <v>5.2426472208331786E-3</v>
       </c>
       <c r="AL30" s="28">
         <v>5</v>
       </c>
       <c r="AM30" s="79">
         <f>((($W$25)^Q30)*((1-($W$25))^($U$32-Q30))*HLOOKUP($U$32,$AV$24:$BF$34,Q30+1))*V32</f>
-        <v>3.5556800505994477E-3</v>
+        <v>4.2344189405562277E-3</v>
       </c>
       <c r="AN30" s="28">
         <v>5</v>
       </c>
       <c r="AO30" s="79">
         <f>((($W$25)^Q30)*((1-($W$25))^($U$33-Q30))*HLOOKUP($U$33,$AV$24:$BF$34,Q30+1))*V33</f>
-        <v>1.3697880871886958E-3</v>
+        <v>1.7276701732271266E-3</v>
       </c>
       <c r="AP30" s="28">
         <v>5</v>
       </c>
       <c r="AQ30" s="79">
         <f>((($W$25)^Q30)*((1-($W$25))^($U$34-Q30))*HLOOKUP($U$34,$AV$24:$BF$34,Q30+1))*V34</f>
-        <v>2.7084631663678595E-4</v>
+        <v>3.6130105616177539E-4</v>
       </c>
       <c r="AR30" s="28">
         <v>5</v>
       </c>
       <c r="AS30" s="79">
         <f>((($W$25)^Q30)*((1-($W$25))^($U$35-Q30))*HLOOKUP($U$35,$AV$24:$BF$34,Q30+1))*V35</f>
-        <v>2.3965606648884236E-5</v>
+        <v>3.3662666983091266E-5</v>
       </c>
       <c r="AV30" s="29">
         <v>6</v>
@@ -27532,7 +27530,7 @@
       </c>
       <c r="BJ30" s="107">
         <f t="shared" si="9"/>
-        <v>2.8325324042458939E-6</v>
+        <v>2.3473693160416899E-6</v>
       </c>
       <c r="BP30">
         <f>BL10+1</f>
@@ -27543,7 +27541,7 @@
       </c>
       <c r="BR30" s="107">
         <f t="shared" si="10"/>
-        <v>2.5704447943084043E-5</v>
+        <v>2.8111170703284213E-5</v>
       </c>
     </row>
     <row r="31" spans="1:70" x14ac:dyDescent="0.25">
@@ -27563,14 +27561,14 @@
       </c>
       <c r="H31" s="128">
         <f>J31*L25+J30*L26+J29*L27+J28*L28</f>
-        <v>6.501203698527783E-3</v>
+        <v>7.5112598745292122E-3</v>
       </c>
       <c r="I31" s="93">
         <v>6</v>
       </c>
       <c r="J31" s="86">
         <f t="shared" si="11"/>
-        <v>2.0402236466288432E-3</v>
+        <v>2.4483913170706413E-3</v>
       </c>
       <c r="K31" s="93">
         <v>6</v>
@@ -27585,7 +27583,7 @@
       </c>
       <c r="R31" s="37">
         <f>P26*N30+P27*N29+P28*N28+P29*N27+P30*N26</f>
-        <v>0.10359422686536852</v>
+        <v>0.1166624139324637</v>
       </c>
       <c r="S31" s="70">
         <v>6</v>
@@ -27599,7 +27597,7 @@
       </c>
       <c r="V31" s="86">
         <f>T31*R25+T30*R26+T29*R27+T28*R28+T27*R29+T26*R30+T25*R31</f>
-        <v>0.10538312913053599</v>
+        <v>0.11842681369530547</v>
       </c>
       <c r="W31" s="137"/>
       <c r="X31" s="28">
@@ -27631,35 +27629,35 @@
       </c>
       <c r="AK31" s="79">
         <f>((($W$25)^Q31)*((1-($W$25))^($U$31-Q31))*HLOOKUP($U$31,$AV$24:$BF$34,Q31+1))*V31</f>
-        <v>5.5696630579920702E-4</v>
+        <v>6.2590421707579206E-4</v>
       </c>
       <c r="AL31" s="28">
         <v>6</v>
       </c>
       <c r="AM31" s="79">
         <f>((($W$25)^Q31)*((1-($W$25))^($U$32-Q31))*HLOOKUP($U$32,$AV$24:$BF$34,Q31+1))*V32</f>
-        <v>8.4900434627709846E-4</v>
+        <v>1.0110696219375027E-3</v>
       </c>
       <c r="AN31" s="28">
         <v>6</v>
       </c>
       <c r="AO31" s="79">
         <f>((($W$25)^Q31)*((1-($W$25))^($U$33-Q31))*HLOOKUP($U$33,$AV$24:$BF$34,Q31+1))*V33</f>
-        <v>4.9060490101144011E-4</v>
+        <v>6.1878436689875372E-4</v>
       </c>
       <c r="AP31" s="28">
         <v>6</v>
       </c>
       <c r="AQ31" s="79">
         <f>((($W$25)^Q31)*((1-($W$25))^($U$34-Q31))*HLOOKUP($U$34,$AV$24:$BF$34,Q31+1))*V34</f>
-        <v>1.2934217743185727E-4</v>
+        <v>1.7253867762603636E-4</v>
       </c>
       <c r="AR31" s="28">
         <v>6</v>
       </c>
       <c r="AS31" s="79">
         <f>((($W$25)^Q31)*((1-($W$25))^($U$35-Q31))*HLOOKUP($U$35,$AV$24:$BF$34,Q31+1))*V35</f>
-        <v>1.4305916109240333E-5</v>
+        <v>2.0094433532556484E-5</v>
       </c>
       <c r="AV31" s="14">
         <v>7</v>
@@ -27687,7 +27685,7 @@
       </c>
       <c r="BJ31" s="107">
         <f t="shared" ref="BJ31:BJ37" si="16">$H$28*H43</f>
-        <v>3.0381955840509383E-2</v>
+        <v>3.0429211148012201E-2</v>
       </c>
       <c r="BP31">
         <f t="shared" ref="BP31:BP37" si="17">BP24+1</f>
@@ -27698,7 +27696,7 @@
       </c>
       <c r="BR31" s="107">
         <f t="shared" ref="BR31:BR38" si="18">$H$33*H39</f>
-        <v>6.9631420742560448E-6</v>
+        <v>9.2229683231237863E-6</v>
       </c>
     </row>
     <row r="32" spans="1:70" x14ac:dyDescent="0.25">
@@ -27718,14 +27716,14 @@
       </c>
       <c r="H32" s="128">
         <f>J32*L25+J31*L26+J30*L27+J29*L28</f>
-        <v>1.1884720745820791E-3</v>
+        <v>1.4205312798382845E-3</v>
       </c>
       <c r="I32" s="93">
         <v>7</v>
       </c>
       <c r="J32" s="86">
         <f t="shared" si="11"/>
-        <v>2.3285227634650338E-4</v>
+        <v>2.9130088157562243E-4</v>
       </c>
       <c r="K32" s="93">
         <v>7</v>
@@ -27740,7 +27738,7 @@
       </c>
       <c r="R32" s="37">
         <f>P27*N30+P28*N29+P29*N28+P30*N27</f>
-        <v>3.8072977226007026E-2</v>
+        <v>4.5479293169415312E-2</v>
       </c>
       <c r="S32" s="72">
         <v>7</v>
@@ -27754,7 +27752,7 @@
       </c>
       <c r="V32" s="86">
         <f>T32*R25+T31*R26+T30*R27+T29*R28+T28*R29+T27*R30+T26*R31+T25*R32</f>
-        <v>3.9386999249958816E-2</v>
+        <v>4.6905529536489687E-2</v>
       </c>
       <c r="W32" s="137"/>
       <c r="X32" s="28">
@@ -27790,28 +27788,28 @@
       </c>
       <c r="AM32" s="79">
         <f>((($W$25)^Q32)*((1-($W$25))^($U$32-Q32))*HLOOKUP($U$32,$AV$24:$BF$34,Q32+1))*V32</f>
-        <v>8.6880110905834804E-5</v>
+        <v>1.0346453616243423E-4</v>
       </c>
       <c r="AN32" s="28">
         <v>7</v>
       </c>
       <c r="AO32" s="79">
         <f>((($W$25)^Q32)*((1-($W$25))^($U$33-Q32))*HLOOKUP($U$33,$AV$24:$BF$34,Q32+1))*V33</f>
-        <v>1.0040892817033575E-4</v>
+        <v>1.2664258942536499E-4</v>
       </c>
       <c r="AP32" s="28">
         <v>7</v>
       </c>
       <c r="AQ32" s="79">
         <f>((($W$25)^Q32)*((1-($W$25))^($U$34-Q32))*HLOOKUP($U$34,$AV$24:$BF$34,Q32+1))*V34</f>
-        <v>3.9707438846541434E-5</v>
+        <v>5.2968560809240956E-5</v>
       </c>
       <c r="AR32" s="28">
         <v>7</v>
       </c>
       <c r="AS32" s="79">
         <f>((($W$25)^Q32)*((1-($W$25))^($U$35-Q32))*HLOOKUP($U$35,$AV$24:$BF$34,Q32+1))*V35</f>
-        <v>5.8557984237913928E-6</v>
+        <v>8.2251951785822112E-6</v>
       </c>
       <c r="AV32" s="14">
         <v>8</v>
@@ -27835,7 +27833,7 @@
       </c>
       <c r="BJ32" s="107">
         <f t="shared" si="16"/>
-        <v>1.3115318957340956E-2</v>
+        <v>1.2794420718133531E-2</v>
       </c>
       <c r="BP32">
         <f t="shared" si="17"/>
@@ -27846,7 +27844,7 @@
       </c>
       <c r="BR32" s="107">
         <f t="shared" si="18"/>
-        <v>2.7699819039995318E-5</v>
+        <v>3.5744749159888159E-5</v>
       </c>
     </row>
     <row r="33" spans="1:70" x14ac:dyDescent="0.25">
@@ -27866,14 +27864,14 @@
       </c>
       <c r="H33" s="128">
         <f>J33*L25+J32*L26+J31*L27+J30*L28</f>
-        <v>1.6585055016220515E-4</v>
+        <v>2.049544165122692E-4</v>
       </c>
       <c r="I33" s="93">
         <v>8</v>
       </c>
       <c r="J33" s="86">
         <f t="shared" si="11"/>
-        <v>1.7674465780326916E-5</v>
+        <v>2.303471436449168E-5</v>
       </c>
       <c r="K33" s="93">
         <v>8</v>
@@ -27888,7 +27886,7 @@
       </c>
       <c r="R33" s="37">
         <f>P28*N30+P29*N29+P30*N28</f>
-        <v>9.1826375166439538E-3</v>
+        <v>1.1634983471445877E-2</v>
       </c>
       <c r="S33" s="72">
         <v>8</v>
@@ -27902,7 +27900,7 @@
       </c>
       <c r="V33" s="86">
         <f>T33*R25+T32*R26+T31*R27+T30*R28+T29*R29+T28*R30+T27*R31+T26*R32+T25*R33</f>
-        <v>9.7659326888206669E-3</v>
+        <v>1.2317460472916937E-2</v>
       </c>
       <c r="W33" s="137"/>
       <c r="X33" s="28">
@@ -27942,21 +27940,21 @@
       </c>
       <c r="AO33" s="79">
         <f>((($W$25)^Q33)*((1-($W$25))^($U$33-Q33))*HLOOKUP($U$33,$AV$24:$BF$34,Q33+1))*V33</f>
-        <v>8.9906447439570932E-6</v>
+        <v>1.1339614431962985E-5</v>
       </c>
       <c r="AP33" s="28">
         <v>8</v>
       </c>
       <c r="AQ33" s="79">
         <f>((($W$25)^Q33)*((1-($W$25))^($U$34-Q33))*HLOOKUP($U$34,$AV$24:$BF$34,Q33+1))*V34</f>
-        <v>7.1108313347602139E-6</v>
+        <v>9.4856407993261735E-6</v>
       </c>
       <c r="AR33" s="28">
         <v>8</v>
       </c>
       <c r="AS33" s="79">
         <f>((($W$25)^Q33)*((1-($W$25))^($U$35-Q33))*HLOOKUP($U$35,$AV$24:$BF$34,Q33+1))*V35</f>
-        <v>1.5729897016096082E-6</v>
+        <v>2.209459133202521E-6</v>
       </c>
       <c r="AV33" s="29">
         <v>9</v>
@@ -27977,7 +27975,7 @@
       </c>
       <c r="BJ33" s="107">
         <f t="shared" si="16"/>
-        <v>4.1031339592641413E-3</v>
+        <v>3.8998649981290471E-3</v>
       </c>
       <c r="BP33">
         <f t="shared" si="17"/>
@@ -27988,7 +27986,7 @@
       </c>
       <c r="BR33" s="107">
         <f t="shared" si="18"/>
-        <v>4.5570304472702299E-5</v>
+        <v>5.7262670986819365E-5</v>
       </c>
     </row>
     <row r="34" spans="1:70" x14ac:dyDescent="0.25">
@@ -27997,25 +27995,25 @@
       </c>
       <c r="B34" s="56">
         <f>B23*2</f>
-        <v>3.9141670759658531</v>
+        <v>4.0554540498382528</v>
       </c>
       <c r="C34" s="57">
         <f>C23*2</f>
-        <v>6.0858329240341469</v>
+        <v>5.9445459501617472</v>
       </c>
       <c r="G34" s="87">
         <v>9</v>
       </c>
       <c r="H34" s="128">
         <f>J34*L25+J33*L26+J32*L27+J31*L28</f>
-        <v>1.7527108812462658E-5</v>
+        <v>2.238453200215951E-5</v>
       </c>
       <c r="I34" s="93">
         <v>9</v>
       </c>
       <c r="J34" s="86">
         <f t="shared" si="11"/>
-        <v>8.1635362495734739E-7</v>
+        <v>1.1066829140867383E-6</v>
       </c>
       <c r="K34" s="93">
         <v>9</v>
@@ -28030,7 +28028,7 @@
       </c>
       <c r="R34" s="37">
         <f>P29*N30+P30*N29</f>
-        <v>1.3124242952379567E-3</v>
+        <v>1.7639003787737169E-3</v>
       </c>
       <c r="S34" s="72">
         <v>9</v>
@@ -28044,7 +28042,7 @@
       </c>
       <c r="V34" s="86">
         <f>T34*R25+T33*R26+T32*R27+T31*R28+T30*R29+T29*R30+T28*R31+T27*R32+T26*R33+T25*R34</f>
-        <v>1.4729893664856941E-3</v>
+        <v>1.9649246865706279E-3</v>
       </c>
       <c r="W34" s="137"/>
       <c r="X34" s="28">
@@ -28088,14 +28086,14 @@
       </c>
       <c r="AQ34" s="79">
         <f>((($W$25)^Q34)*((1-($W$25))^($U$34-Q34))*HLOOKUP($U$34,$AV$24:$BF$34,Q34+1))*V34</f>
-        <v>5.6596081227246636E-7</v>
+        <v>7.5497515254909656E-7</v>
       </c>
       <c r="AR34" s="28">
         <v>9</v>
       </c>
       <c r="AS34" s="79">
         <f>((($W$25)^Q34)*((1-($W$25))^($U$35-Q34))*HLOOKUP($U$35,$AV$24:$BF$34,Q34+1))*V35</f>
-        <v>2.5039281268488097E-7</v>
+        <v>3.5170776153764177E-7</v>
       </c>
       <c r="AV34" s="14">
         <v>10</v>
@@ -28113,7 +28111,7 @@
       </c>
       <c r="BJ34" s="107">
         <f t="shared" si="16"/>
-        <v>9.4704312594241899E-4</v>
+        <v>8.7730135207368112E-4</v>
       </c>
       <c r="BP34">
         <f t="shared" si="17"/>
@@ -28124,7 +28122,7 @@
       </c>
       <c r="BR34" s="107">
         <f t="shared" si="18"/>
-        <v>4.3015055440611107E-5</v>
+        <v>5.2630367133873225E-5</v>
       </c>
     </row>
     <row r="35" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28133,14 +28131,14 @@
       </c>
       <c r="H35" s="129">
         <f>J35*L25+J34*L26+J33*L27+J32*L28</f>
-        <v>1.3699259260558894E-6</v>
+        <v>1.8077313396289465E-6</v>
       </c>
       <c r="I35" s="94">
         <v>10</v>
       </c>
       <c r="J35" s="89">
         <f t="shared" si="11"/>
-        <v>1.7936196442380019E-8</v>
+        <v>2.5193612522688007E-8</v>
       </c>
       <c r="K35" s="94">
         <v>10</v>
@@ -28155,7 +28153,7 @@
       </c>
       <c r="R35" s="37">
         <f>P30*N30</f>
-        <v>8.4409940763094065E-5</v>
+        <v>1.2033580015332303E-4</v>
       </c>
       <c r="S35" s="72">
         <v>10</v>
@@ -28169,7 +28167,7 @@
       </c>
       <c r="V35" s="89">
         <f>IF(((T35*R25+T34*R26+T33*R27+T32*R28+T31*R29+T30*R30+T29*R31+T28*R32+T27*R33+T26*R34+T25*R35)+V23)&lt;&gt;1,1-V23,(T35*R25+T34*R26+T33*R27+T32*R28+T31*R29+T30*R30+T29*R31+T28*R32+T27*R33+T26*R34+T25*R35))</f>
-        <v>1.1184947847109328E-4</v>
+        <v>1.5710646515931792E-4</v>
       </c>
       <c r="W35" s="137"/>
       <c r="X35" s="28">
@@ -28217,7 +28215,7 @@
       </c>
       <c r="AS35" s="79">
         <f>((($W$25)^Q35)*((1-($W$25))^($U$35-Q35))*HLOOKUP($U$35,$AV$24:$BF$34,Q35+1))*V35</f>
-        <v>1.7936196442380019E-8</v>
+        <v>2.5193612522688007E-8</v>
       </c>
       <c r="BH35">
         <f t="shared" si="15"/>
@@ -28228,7 +28226,7 @@
       </c>
       <c r="BJ35" s="107">
         <f t="shared" si="16"/>
-        <v>1.6197034662890407E-4</v>
+        <v>1.4629742044731063E-4</v>
       </c>
       <c r="BP35">
         <f t="shared" si="17"/>
@@ -28239,14 +28237,14 @@
       </c>
       <c r="BR35" s="107">
         <f t="shared" si="18"/>
-        <v>2.6560500096555906E-5</v>
+        <v>3.1646561751853233E-5</v>
       </c>
     </row>
     <row r="36" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="108">
         <f>SUM(B37:B39)</f>
-        <v>0.99999793498810785</v>
+        <v>0.99999758745752609</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
@@ -28271,7 +28269,7 @@
       <c r="X36" s="13"/>
       <c r="AS36" s="82">
         <f>Y37+AA37+AC37+AE37+AG37+AI37+AK37+AM37+AO37+AQ37+AS37</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="BH36">
         <f t="shared" si="15"/>
@@ -28282,7 +28280,7 @@
       </c>
       <c r="BJ36" s="107">
         <f t="shared" si="16"/>
-        <v>2.0353808065282669E-5</v>
+        <v>1.7933468332556373E-5</v>
       </c>
       <c r="BP36">
         <f t="shared" si="17"/>
@@ -28293,7 +28291,7 @@
       </c>
       <c r="BR36" s="107">
         <f t="shared" si="18"/>
-        <v>1.1465668380978581E-5</v>
+        <v>1.3306274137903617E-5</v>
       </c>
     </row>
     <row r="37" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28302,17 +28300,17 @@
       </c>
       <c r="B37" s="107">
         <f>SUM(BN4:BN14)</f>
-        <v>0.19657010383776058</v>
+        <v>0.20033014429024534</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="59">
         <f>SUM(H39:H49)</f>
-        <v>0.99999938299473712</v>
+        <v>0.99999950175415409</v>
       </c>
       <c r="I37" s="13"/>
       <c r="J37" s="59">
         <f>SUM(J39:J49)</f>
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
       <c r="K37" s="59"/>
       <c r="L37" s="59">
@@ -28332,7 +28330,7 @@
       <c r="Q37" s="13"/>
       <c r="R37" s="59">
         <f>SUM(R39:R49)</f>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="S37" s="13"/>
       <c r="T37" s="59">
@@ -28342,63 +28340,63 @@
       <c r="U37" s="13"/>
       <c r="V37" s="59">
         <f>SUM(V39:V48)</f>
-        <v>0.99258014998652566</v>
+        <v>0.99411167629916974</v>
       </c>
       <c r="W37" s="13"/>
       <c r="X37" s="13"/>
       <c r="Y37" s="80">
         <f>SUM(Y39:Y49)</f>
-        <v>8.3567951603982199E-5</v>
+        <v>1.1913545054679363E-4</v>
       </c>
       <c r="Z37" s="81"/>
       <c r="AA37" s="80">
         <f>SUM(AA39:AA49)</f>
-        <v>1.3001727418035509E-3</v>
+        <v>1.7475028137069746E-3</v>
       </c>
       <c r="AB37" s="81"/>
       <c r="AC37" s="80">
         <f>SUM(AC39:AC49)</f>
-        <v>9.1041014394015671E-3</v>
+        <v>1.1536478328482007E-2</v>
       </c>
       <c r="AD37" s="81"/>
       <c r="AE37" s="80">
         <f>SUM(AE39:AE49)</f>
-        <v>3.7784599332075598E-2</v>
+        <v>4.5141449403100747E-2</v>
       </c>
       <c r="AF37" s="81"/>
       <c r="AG37" s="80">
         <f>SUM(AG39:AG49)</f>
-        <v>0.10293993014172316</v>
+        <v>0.11595151619510984</v>
       </c>
       <c r="AH37" s="81"/>
       <c r="AI37" s="80">
         <f>SUM(AI39:AI49)</f>
-        <v>0.19238839415945774</v>
+        <v>0.20432163105712017</v>
       </c>
       <c r="AJ37" s="81"/>
       <c r="AK37" s="80">
         <f>SUM(AK39:AK49)</f>
-        <v>0.2498637457941961</v>
+        <v>0.25020686328352065</v>
       </c>
       <c r="AL37" s="81"/>
       <c r="AM37" s="80">
         <f>SUM(AM39:AM49)</f>
-        <v>0.22278204558238882</v>
+        <v>0.21036197815928184</v>
       </c>
       <c r="AN37" s="81"/>
       <c r="AO37" s="80">
         <f>SUM(AO39:AO49)</f>
-        <v>0.13065938592192719</v>
+        <v>0.11635348018679</v>
       </c>
       <c r="AP37" s="81"/>
       <c r="AQ37" s="80">
         <f>SUM(AQ39:AQ49)</f>
-        <v>4.5674206921947909E-2</v>
+        <v>3.8371641421510692E-2</v>
       </c>
       <c r="AR37" s="81"/>
       <c r="AS37" s="80">
         <f>SUM(AS39:AS49)</f>
-        <v>7.4198500134743366E-3</v>
+        <v>5.8883237008302541E-3</v>
       </c>
       <c r="BH37">
         <f t="shared" si="15"/>
@@ -28409,7 +28407,7 @@
       </c>
       <c r="BJ37" s="107">
         <f t="shared" si="16"/>
-        <v>1.8340812194724346E-6</v>
+        <v>1.5770985843883822E-6</v>
       </c>
       <c r="BP37">
         <f t="shared" si="17"/>
@@ -28420,7 +28418,7 @@
       </c>
       <c r="BR37" s="107">
         <f t="shared" si="18"/>
-        <v>3.5870399685035508E-6</v>
+        <v>4.0558829437563048E-6</v>
       </c>
     </row>
     <row r="38" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28429,7 +28427,7 @@
       </c>
       <c r="B38" s="107">
         <f>SUM(BJ4:BJ59)</f>
-        <v>0.54443570645269335</v>
+        <v>0.52044915089817578</v>
       </c>
       <c r="G38" s="103" t="str">
         <f t="shared" ref="G38:T38" si="19">G24</f>
@@ -28629,7 +28627,7 @@
       </c>
       <c r="BJ38" s="107">
         <f t="shared" ref="BJ38:BJ43" si="32">$H$29*H44</f>
-        <v>5.8151079611792585E-3</v>
+        <v>5.8820765110737128E-3</v>
       </c>
       <c r="BP38">
         <f>BL11+1</f>
@@ -28640,7 +28638,7 @@
       </c>
       <c r="BR38" s="107">
         <f t="shared" si="18"/>
-        <v>8.2792362578901361E-7</v>
+        <v>9.1239865793227277E-7</v>
       </c>
     </row>
     <row r="39" spans="1:70" x14ac:dyDescent="0.25">
@@ -28649,49 +28647,49 @@
       </c>
       <c r="B39" s="107">
         <f>SUM(BR4:BR47)</f>
-        <v>0.25899212469765381</v>
+        <v>0.279218292269105</v>
       </c>
       <c r="G39" s="130">
         <v>0</v>
       </c>
       <c r="H39" s="131">
         <f>L39*J39</f>
-        <v>4.1984437600272977E-2</v>
+        <v>4.500009553378749E-2</v>
       </c>
       <c r="I39" s="97">
         <v>0</v>
       </c>
       <c r="J39" s="98">
         <f t="shared" ref="J39:J49" si="33">Y39+AA39+AC39+AE39+AG39+AI39+AK39+AM39+AO39+AQ39+AS39</f>
-        <v>0.1261065442073501</v>
+        <v>0.13299437653512169</v>
       </c>
       <c r="K39" s="102">
         <v>0</v>
       </c>
       <c r="L39" s="98">
         <f>AC21</f>
-        <v>0.33292830173222621</v>
+        <v>0.33836088943131881</v>
       </c>
       <c r="M39" s="84">
         <v>0</v>
       </c>
       <c r="N39" s="71">
         <f>(1-$C$24)^$B$21</f>
-        <v>9.1874882728139613E-3</v>
+        <v>1.096976755238337E-2</v>
       </c>
       <c r="O39" s="70">
         <v>0</v>
       </c>
       <c r="P39" s="71">
         <f>N39</f>
-        <v>9.1874882728139613E-3</v>
+        <v>1.096976755238337E-2</v>
       </c>
       <c r="Q39" s="12">
         <v>0</v>
       </c>
       <c r="R39" s="73">
         <f>P39*N39</f>
-        <v>8.4409940763094065E-5</v>
+        <v>1.2033580015332303E-4</v>
       </c>
       <c r="S39" s="70">
         <v>0</v>
@@ -28705,7 +28703,7 @@
       </c>
       <c r="V39" s="86">
         <f>R39*T39</f>
-        <v>8.3567951603982199E-5</v>
+        <v>1.1913545054679363E-4</v>
       </c>
       <c r="W39" s="136">
         <f>C31</f>
@@ -28716,77 +28714,77 @@
       </c>
       <c r="Y39" s="79">
         <f>V39</f>
-        <v>8.3567951603982199E-5</v>
+        <v>1.1913545054679363E-4</v>
       </c>
       <c r="Z39" s="12">
         <v>0</v>
       </c>
       <c r="AA39" s="78">
         <f>((1-W39)^Z40)*V40</f>
-        <v>9.0113301488277961E-4</v>
+        <v>1.2111717377242476E-3</v>
       </c>
       <c r="AB39" s="12">
         <v>0</v>
       </c>
       <c r="AC39" s="79">
         <f>(((1-$W$39)^AB41))*V41</f>
-        <v>4.3733353139445083E-3</v>
+        <v>5.5417756939911966E-3</v>
       </c>
       <c r="AD39" s="12">
         <v>0</v>
       </c>
       <c r="AE39" s="79">
         <f>(((1-$W$39)^AB42))*V42</f>
-        <v>1.2579933771959794E-2</v>
+        <v>1.5029309663188816E-2</v>
       </c>
       <c r="AF39" s="12">
         <v>0</v>
       </c>
       <c r="AG39" s="79">
         <f>(((1-$W$39)^AB43))*V43</f>
-        <v>2.3753917680221604E-2</v>
+        <v>2.6756408002254504E-2</v>
       </c>
       <c r="AH39" s="12">
         <v>0</v>
       </c>
       <c r="AI39" s="79">
         <f>(((1-$W$39)^AB44))*V44</f>
-        <v>3.0769333712471588E-2</v>
+        <v>3.267785709288832E-2</v>
       </c>
       <c r="AJ39" s="12">
         <v>0</v>
       </c>
       <c r="AK39" s="79">
         <f>(((1-$W$39)^AB45))*V45</f>
-        <v>2.7696845804168115E-2</v>
+        <v>2.7734879622016838E-2</v>
       </c>
       <c r="AL39" s="12">
         <v>0</v>
       </c>
       <c r="AM39" s="79">
         <f>(((1-$W$39)^AB46))*V46</f>
-        <v>1.7115717063130503E-2</v>
+        <v>1.6161518265991406E-2</v>
       </c>
       <c r="AN39" s="12">
         <v>0</v>
       </c>
       <c r="AO39" s="79">
         <f>(((1-$W$39)^AB47))*V47</f>
-        <v>6.9573422588964122E-3</v>
+        <v>6.1955823453580796E-3</v>
       </c>
       <c r="AP39" s="12">
         <v>0</v>
       </c>
       <c r="AQ39" s="79">
         <f>(((1-$W$39)^AB48))*V48</f>
-        <v>1.6856275288409937E-3</v>
+        <v>1.4161230038968193E-3</v>
       </c>
       <c r="AR39" s="12">
         <v>0</v>
       </c>
       <c r="AS39" s="79">
         <f>(((1-$W$39)^AB49))*V49</f>
-        <v>1.8979010722983505E-4</v>
+        <v>1.5061565726464917E-4</v>
       </c>
       <c r="AV39" s="14">
         <v>1</v>
@@ -28831,7 +28829,7 @@
       </c>
       <c r="BJ39" s="107">
         <f t="shared" si="32"/>
-        <v>1.8192593737071702E-3</v>
+        <v>1.7929146467210919E-3</v>
       </c>
       <c r="BP39">
         <f t="shared" ref="BP39:BP46" si="34">BP31+1</f>
@@ -28842,7 +28840,7 @@
       </c>
       <c r="BR39" s="107">
         <f t="shared" ref="BR39:BR47" si="35">$H$34*H39</f>
-        <v>7.3586580625003308E-7</v>
+        <v>1.0073060785763014E-6</v>
       </c>
     </row>
     <row r="40" spans="1:70" x14ac:dyDescent="0.25">
@@ -28851,42 +28849,42 @@
       </c>
       <c r="H40" s="132">
         <f>L39*J40+L40*J39</f>
-        <v>0.16701674497253305</v>
+        <v>0.17440341012484778</v>
       </c>
       <c r="I40" s="93">
         <v>1</v>
       </c>
       <c r="J40" s="86">
         <f t="shared" si="33"/>
-        <v>0.2900330776895349</v>
+        <v>0.29720015142989403</v>
       </c>
       <c r="K40" s="95">
         <v>1</v>
       </c>
       <c r="L40" s="86">
         <f>AD21</f>
-        <v>0.55870633371205181</v>
+        <v>0.55523026214875748</v>
       </c>
       <c r="M40" s="85">
         <v>1</v>
       </c>
       <c r="N40" s="71">
         <f>(($C$24)^M26)*((1-($C$24))^($B$21-M26))*HLOOKUP($B$21,$AV$24:$BF$34,M26+1)</f>
-        <v>7.142454260983698E-2</v>
+        <v>8.0398256861444584E-2</v>
       </c>
       <c r="O40" s="72">
         <v>1</v>
       </c>
       <c r="P40" s="71">
         <f t="shared" ref="P40:P44" si="36">N40</f>
-        <v>7.142454260983698E-2</v>
+        <v>8.0398256861444584E-2</v>
       </c>
       <c r="Q40" s="28">
         <v>1</v>
       </c>
       <c r="R40" s="37">
         <f>P40*N39+P39*N40</f>
-        <v>1.3124242952379567E-3</v>
+        <v>1.7639003787737169E-3</v>
       </c>
       <c r="S40" s="72">
         <v>1</v>
@@ -28900,7 +28898,7 @@
       </c>
       <c r="V40" s="86">
         <f>R40*T39+T40*R39</f>
-        <v>1.3001727418035509E-3</v>
+        <v>1.7475028137069746E-3</v>
       </c>
       <c r="W40" s="137"/>
       <c r="X40" s="28">
@@ -28912,70 +28910,70 @@
       </c>
       <c r="AA40" s="79">
         <f>(1-((1-W39)^Z40))*V40</f>
-        <v>3.9903972692077136E-4</v>
+        <v>5.3633107598272697E-4</v>
       </c>
       <c r="AB40" s="28">
         <v>1</v>
       </c>
       <c r="AC40" s="79">
         <f>((($W$39)^M40)*((1-($W$39))^($U$27-M40))*HLOOKUP($U$27,$AV$24:$BF$34,M40+1))*V41</f>
-        <v>3.8732007385977119E-3</v>
+        <v>4.9080182904497737E-3</v>
       </c>
       <c r="AD40" s="28">
         <v>1</v>
       </c>
       <c r="AE40" s="79">
         <f>((($W$39)^M40)*((1-($W$39))^($U$28-M40))*HLOOKUP($U$28,$AV$24:$BF$34,M40+1))*V42</f>
-        <v>1.6711939039423224E-2</v>
+        <v>1.996583697886169E-2</v>
       </c>
       <c r="AF40" s="28">
         <v>1</v>
       </c>
       <c r="AG40" s="79">
         <f>((($W$39)^M40)*((1-($W$39))^($U$29-M40))*HLOOKUP($U$29,$AV$24:$BF$34,M40+1))*V43</f>
-        <v>4.2074839864332879E-2</v>
+        <v>4.7393090992184944E-2</v>
       </c>
       <c r="AH40" s="28">
         <v>1</v>
       </c>
       <c r="AI40" s="79">
         <f>((($W$39)^M40)*((1-($W$39))^($U$30-M40))*HLOOKUP($U$30,$AV$24:$BF$34,M40+1))*V44</f>
-        <v>6.8126382672573066E-2</v>
+        <v>7.2352044344964825E-2</v>
       </c>
       <c r="AJ40" s="28">
         <v>1</v>
       </c>
       <c r="AK40" s="79">
         <f>((($W$39)^M40)*((1-($W$39))^($U$31-M40))*HLOOKUP($U$31,$AV$24:$BF$34,M40+1))*V45</f>
-        <v>7.3588304525939258E-2</v>
+        <v>7.3689357338592554E-2</v>
       </c>
       <c r="AL40" s="28">
         <v>1</v>
       </c>
       <c r="AM40" s="79">
         <f>((($W$39)^Q40)*((1-($W$39))^($U$32-Q40))*HLOOKUP($U$32,$AV$24:$BF$34,Q40+1))*V46</f>
-        <v>5.3054273509990667E-2</v>
+        <v>5.009650529148154E-2</v>
       </c>
       <c r="AN40" s="28">
         <v>1</v>
       </c>
       <c r="AO40" s="79">
         <f>((($W$39)^Q40)*((1-($W$39))^($U$33-Q40))*HLOOKUP($U$33,$AV$24:$BF$34,Q40+1))*V47</f>
-        <v>2.4646802718202538E-2</v>
+        <v>2.1948222483256268E-2</v>
       </c>
       <c r="AP40" s="28">
         <v>1</v>
       </c>
       <c r="AQ40" s="79">
         <f>((($W$39)^Q40)*((1-($W$39))^($U$34-Q40))*HLOOKUP($U$34,$AV$24:$BF$34,Q40+1))*V48</f>
-        <v>6.7178663296195784E-3</v>
+        <v>5.6437883718115141E-3</v>
       </c>
       <c r="AR40" s="28">
         <v>1</v>
       </c>
       <c r="AS40" s="79">
         <f>((($W$39)^Q40)*((1-($W$39))^($U$35-Q40))*HLOOKUP($U$35,$AV$24:$BF$34,Q40+1))*V49</f>
-        <v>8.4042856393524577E-4</v>
+        <v>6.669562623082474E-4</v>
       </c>
       <c r="AV40" s="14">
         <v>2</v>
@@ -29020,7 +29018,7 @@
       </c>
       <c r="BJ40" s="107">
         <f t="shared" si="32"/>
-        <v>4.1990271370147389E-4</v>
+        <v>4.0332843431137457E-4</v>
       </c>
       <c r="BP40">
         <f t="shared" si="34"/>
@@ -29031,7 +29029,7 @@
       </c>
       <c r="BR40" s="107">
         <f t="shared" si="35"/>
-        <v>2.9273206626369126E-6</v>
+        <v>3.9039387152254047E-6</v>
       </c>
     </row>
     <row r="41" spans="1:70" x14ac:dyDescent="0.25">
@@ -29040,42 +29038,42 @@
       </c>
       <c r="H41" s="132">
         <f>L39*J41+J40*L40+J39*L41</f>
-        <v>0.2747672795063606</v>
+        <v>0.27939222760487059</v>
       </c>
       <c r="I41" s="93">
         <v>2</v>
       </c>
       <c r="J41" s="86">
         <f t="shared" si="33"/>
-        <v>0.30026045932871076</v>
+        <v>0.29895740217550398</v>
       </c>
       <c r="K41" s="95">
         <v>2</v>
       </c>
       <c r="L41" s="86">
         <f>AE21</f>
-        <v>0.1011744259092016</v>
+        <v>9.9419369886878772E-2</v>
       </c>
       <c r="M41" s="85">
         <v>2</v>
       </c>
       <c r="N41" s="71">
         <f>(($C$24)^M27)*((1-($C$24))^($B$21-M27))*HLOOKUP($B$21,$AV$24:$BF$34,M27+1)</f>
-        <v>0.22210489463675503</v>
+        <v>0.23569796444609006</v>
       </c>
       <c r="O41" s="72">
         <v>2</v>
       </c>
       <c r="P41" s="71">
         <f t="shared" si="36"/>
-        <v>0.22210489463675503</v>
+        <v>0.23569796444609006</v>
       </c>
       <c r="Q41" s="28">
         <v>2</v>
       </c>
       <c r="R41" s="37">
         <f>P41*N39+P40*N40+P39*N41</f>
-        <v>9.1826375166439538E-3</v>
+        <v>1.1634983471445877E-2</v>
       </c>
       <c r="S41" s="72">
         <v>2</v>
@@ -29089,7 +29087,7 @@
       </c>
       <c r="V41" s="86">
         <f>R41*T39+T40*R40+R39*T41</f>
-        <v>9.1041014394015671E-3</v>
+        <v>1.1536478328482007E-2</v>
       </c>
       <c r="W41" s="137"/>
       <c r="X41" s="28">
@@ -29105,63 +29103,63 @@
       </c>
       <c r="AC41" s="79">
         <f>((($W$39)^M41)*((1-($W$39))^($U$27-M41))*HLOOKUP($U$27,$AV$24:$BF$34,M41+1))*V41</f>
-        <v>8.5756538685934688E-4</v>
+        <v>1.086684344041036E-3</v>
       </c>
       <c r="AD41" s="28">
         <v>2</v>
       </c>
       <c r="AE41" s="79">
         <f>((($W$39)^M41)*((1-($W$39))^($U$28-M41))*HLOOKUP($U$28,$AV$24:$BF$34,M41+1))*V42</f>
-        <v>7.4003809431790694E-3</v>
+        <v>8.8412720477520027E-3</v>
       </c>
       <c r="AF41" s="28">
         <v>2</v>
       </c>
       <c r="AG41" s="79">
         <f>((($W$39)^M41)*((1-($W$39))^($U$29-M41))*HLOOKUP($U$29,$AV$24:$BF$34,M41+1))*V43</f>
-        <v>2.7947371252205058E-2</v>
+        <v>3.1479913245514829E-2</v>
       </c>
       <c r="AH41" s="28">
         <v>2</v>
       </c>
       <c r="AI41" s="79">
         <f>((($W$39)^M41)*((1-($W$39))^($U$30-M41))*HLOOKUP($U$30,$AV$24:$BF$34,M41+1))*V44</f>
-        <v>6.0335450347027419E-2</v>
+        <v>6.4077865399992981E-2</v>
       </c>
       <c r="AJ41" s="28">
         <v>2</v>
       </c>
       <c r="AK41" s="79">
         <f>((($W$39)^M41)*((1-($W$39))^($U$31-M41))*HLOOKUP($U$31,$AV$24:$BF$34,M41+1))*V45</f>
-        <v>8.1465933601414992E-2</v>
+        <v>8.1577804119140368E-2</v>
       </c>
       <c r="AL41" s="28">
         <v>2</v>
       </c>
       <c r="AM41" s="79">
         <f>((($W$39)^Q41)*((1-($W$39))^($U$32-Q41))*HLOOKUP($U$32,$AV$24:$BF$34,Q41+1))*V46</f>
-        <v>7.0480481117964053E-2</v>
+        <v>6.6551204298506875E-2</v>
       </c>
       <c r="AN41" s="28">
         <v>2</v>
       </c>
       <c r="AO41" s="79">
         <f>((($W$39)^Q41)*((1-($W$39))^($U$33-Q41))*HLOOKUP($U$33,$AV$24:$BF$34,Q41+1))*V47</f>
-        <v>3.8199340633384267E-2</v>
+        <v>3.4016892029407747E-2</v>
       </c>
       <c r="AP41" s="28">
         <v>2</v>
       </c>
       <c r="AQ41" s="79">
         <f>((($W$39)^Q41)*((1-($W$39))^($U$34-Q41))*HLOOKUP($U$34,$AV$24:$BF$34,Q41+1))*V48</f>
-        <v>1.1899222429489391E-2</v>
+        <v>9.9967295992556531E-3</v>
       </c>
       <c r="AR41" s="28">
         <v>2</v>
       </c>
       <c r="AS41" s="79">
         <f>((($W$39)^Q41)*((1-($W$39))^($U$35-Q41))*HLOOKUP($U$35,$AV$24:$BF$34,Q41+1))*V49</f>
-        <v>1.674713617187164E-3</v>
+        <v>1.3290370918924844E-3</v>
       </c>
       <c r="AV41" s="14">
         <v>3</v>
@@ -29203,7 +29201,7 @@
       </c>
       <c r="BJ41" s="107">
         <f t="shared" si="32"/>
-        <v>7.1814879624373476E-5</v>
+        <v>6.725842766950506E-5</v>
       </c>
       <c r="BP41">
         <f t="shared" si="34"/>
@@ -29214,7 +29212,7 @@
       </c>
       <c r="BR41" s="107">
         <f t="shared" si="35"/>
-        <v>4.815876006012323E-6</v>
+        <v>6.2540642599758599E-6</v>
       </c>
     </row>
     <row r="42" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -29223,42 +29221,42 @@
       </c>
       <c r="H42" s="132">
         <f>J42*L39+J41*L40+L42*J39+L41*J40</f>
-        <v>0.25936034217879606</v>
+        <v>0.25679059778017815</v>
       </c>
       <c r="I42" s="93">
         <v>3</v>
       </c>
       <c r="J42" s="86">
         <f t="shared" si="33"/>
-        <v>0.18428041988951591</v>
+        <v>0.17828120730824942</v>
       </c>
       <c r="K42" s="95">
         <v>3</v>
       </c>
       <c r="L42" s="86">
         <f>AF21</f>
-        <v>7.1909386465203867E-3</v>
+        <v>6.9894785330449349E-3</v>
       </c>
       <c r="M42" s="85">
         <v>3</v>
       </c>
       <c r="N42" s="71">
         <f>(($C$24)^M28)*((1-($C$24))^($B$21-M28))*HLOOKUP($B$21,$AV$24:$BF$34,M28+1)</f>
-        <v>0.3453335675600811</v>
+        <v>0.3454896450041775</v>
       </c>
       <c r="O42" s="72">
         <v>3</v>
       </c>
       <c r="P42" s="71">
         <f t="shared" si="36"/>
-        <v>0.3453335675600811</v>
+        <v>0.3454896450041775</v>
       </c>
       <c r="Q42" s="28">
         <v>3</v>
       </c>
       <c r="R42" s="37">
         <f>P42*N39+P41*N40+P40*N41+P39*N42</f>
-        <v>3.8072977226007026E-2</v>
+        <v>4.5479293169415312E-2</v>
       </c>
       <c r="S42" s="72">
         <v>3</v>
@@ -29272,7 +29270,7 @@
       </c>
       <c r="V42" s="86">
         <f>R42*T39+R41*T40+R40*T41+R39*T42</f>
-        <v>3.7784599332075598E-2</v>
+        <v>4.5141449403100754E-2</v>
       </c>
       <c r="W42" s="137"/>
       <c r="X42" s="28">
@@ -29292,56 +29290,56 @@
       </c>
       <c r="AE42" s="79">
         <f>((($W$39)^M42)*((1-($W$39))^($U$28-M42))*HLOOKUP($U$28,$AV$24:$BF$34,M42+1))*V42</f>
-        <v>1.0923455775135081E-3</v>
+        <v>1.3050307132982421E-3</v>
       </c>
       <c r="AF42" s="28">
         <v>3</v>
       </c>
       <c r="AG42" s="79">
         <f>((($W$39)^M42)*((1-($W$39))^($U$29-M42))*HLOOKUP($U$29,$AV$24:$BF$34,M42+1))*V43</f>
-        <v>8.2504367342365482E-3</v>
+        <v>9.2932902449951518E-3</v>
       </c>
       <c r="AH42" s="28">
         <v>3</v>
       </c>
       <c r="AI42" s="79">
         <f>((($W$39)^M42)*((1-($W$39))^($U$30-M42))*HLOOKUP($U$30,$AV$24:$BF$34,M42+1))*V44</f>
-        <v>2.6717744475549417E-2</v>
+        <v>2.837496073119157E-2</v>
       </c>
       <c r="AJ42" s="28">
         <v>3</v>
       </c>
       <c r="AK42" s="79">
         <f>((($W$39)^M42)*((1-($W$39))^($U$31-M42))*HLOOKUP($U$31,$AV$24:$BF$34,M42+1))*V45</f>
-        <v>4.8099660258455149E-2</v>
+        <v>4.8165711596206404E-2</v>
       </c>
       <c r="AL42" s="28">
         <v>3</v>
       </c>
       <c r="AM42" s="79">
         <f>((($W$39)^Q42)*((1-($W$39))^($U$32-Q42))*HLOOKUP($U$32,$AV$24:$BF$34,Q42+1))*V46</f>
-        <v>5.2016945101449913E-2</v>
+        <v>4.9117007794495168E-2</v>
       </c>
       <c r="AN42" s="28">
         <v>3</v>
       </c>
       <c r="AO42" s="79">
         <f>((($W$39)^Q42)*((1-($W$39))^($U$33-Q42))*HLOOKUP($U$33,$AV$24:$BF$34,Q42+1))*V47</f>
-        <v>3.3830864485376817E-2</v>
+        <v>3.0126720654828004E-2</v>
       </c>
       <c r="AP42" s="28">
         <v>3</v>
       </c>
       <c r="AQ42" s="79">
         <f>((($W$39)^Q42)*((1-($W$39))^($U$34-Q42))*HLOOKUP($U$34,$AV$24:$BF$34,Q42+1))*V48</f>
-        <v>1.2294832073581041E-2</v>
+        <v>1.0329087672421928E-2</v>
       </c>
       <c r="AR42" s="28">
         <v>3</v>
       </c>
       <c r="AS42" s="79">
         <f>((($W$39)^Q42)*((1-($W$39))^($U$35-Q42))*HLOOKUP($U$35,$AV$24:$BF$34,Q42+1))*V49</f>
-        <v>1.9775911833535284E-3</v>
+        <v>1.5693979008129457E-3</v>
       </c>
       <c r="AV42" s="14">
         <v>4</v>
@@ -29380,7 +29378,7 @@
       </c>
       <c r="BJ42" s="107">
         <f t="shared" si="32"/>
-        <v>9.0245301472055443E-6</v>
+        <v>8.2446900226994074E-6</v>
       </c>
       <c r="BP42">
         <f t="shared" si="34"/>
@@ -29391,7 +29389,7 @@
       </c>
       <c r="BR42" s="107">
         <f t="shared" si="35"/>
-        <v>4.5458369390053067E-6</v>
+        <v>5.7481373538640688E-6</v>
       </c>
     </row>
     <row r="43" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -29400,14 +29398,14 @@
       </c>
       <c r="H43" s="132">
         <f>J43*L39+J42*L40+J41*L41+J40*L42</f>
-        <v>0.16014719318434101</v>
+        <v>0.15440780584476341</v>
       </c>
       <c r="I43" s="93">
         <v>4</v>
       </c>
       <c r="J43" s="86">
         <f t="shared" si="33"/>
-        <v>7.4263033876571447E-2</v>
+        <v>6.9810827689818014E-2</v>
       </c>
       <c r="K43" s="95">
         <v>4</v>
@@ -29418,21 +29416,21 @@
       </c>
       <c r="N43" s="71">
         <f>(($C$24)^M29)*((1-($C$24))^($B$21-M29))*HLOOKUP($B$21,$AV$24:$BF$34,M29+1)</f>
-        <v>0.26846610714908153</v>
+        <v>0.25321197636480625</v>
       </c>
       <c r="O43" s="72">
         <v>4</v>
       </c>
       <c r="P43" s="71">
         <f t="shared" si="36"/>
-        <v>0.26846610714908153</v>
+        <v>0.25321197636480625</v>
       </c>
       <c r="Q43" s="28">
         <v>4</v>
       </c>
       <c r="R43" s="37">
         <f>P43*N39+P42*N40+P41*N41+P40*N42+P39*N43</f>
-        <v>0.10359422686536852</v>
+        <v>0.1166624139324637</v>
       </c>
       <c r="S43" s="72">
         <v>4</v>
@@ -29446,7 +29444,7 @@
       </c>
       <c r="V43" s="86">
         <f>T43*R39+T42*R40+T41*R41+T40*R42+T39*R43</f>
-        <v>0.10293993014172316</v>
+        <v>0.11595151619510984</v>
       </c>
       <c r="W43" s="137"/>
       <c r="X43" s="28">
@@ -29470,49 +29468,49 @@
       </c>
       <c r="AG43" s="79">
         <f>((($W$39)^M43)*((1-($W$39))^($U$29-M43))*HLOOKUP($U$29,$AV$24:$BF$34,M43+1))*V43</f>
-        <v>9.1336461072706143E-4</v>
+        <v>1.0288137101604044E-3</v>
       </c>
       <c r="AH43" s="28">
         <v>4</v>
       </c>
       <c r="AI43" s="79">
         <f>((($W$39)^M43)*((1-($W$39))^($U$30-M43))*HLOOKUP($U$30,$AV$24:$BF$34,M43+1))*V44</f>
-        <v>5.9155758824622814E-3</v>
+        <v>6.2825001384702187E-3</v>
       </c>
       <c r="AJ43" s="28">
         <v>4</v>
       </c>
       <c r="AK43" s="79">
         <f>((($W$39)^M43)*((1-($W$39))^($U$31-M43))*HLOOKUP($U$31,$AV$24:$BF$34,M43+1))*V45</f>
-        <v>1.597461887772408E-2</v>
+        <v>1.599655551805107E-2</v>
       </c>
       <c r="AL43" s="28">
         <v>4</v>
       </c>
       <c r="AM43" s="79">
         <f>((($W$39)^Q43)*((1-($W$39))^($U$32-Q43))*HLOOKUP($U$32,$AV$24:$BF$34,Q43+1))*V46</f>
-        <v>2.3034143934051073E-2</v>
+        <v>2.1749993678824759E-2</v>
       </c>
       <c r="AN43" s="28">
         <v>4</v>
       </c>
       <c r="AO43" s="79">
         <f>((($W$39)^Q43)*((1-($W$39))^($U$33-Q43))*HLOOKUP($U$33,$AV$24:$BF$34,Q43+1))*V47</f>
-        <v>1.8726229511597775E-2</v>
+        <v>1.6675893270713109E-2</v>
       </c>
       <c r="AP43" s="28">
         <v>4</v>
       </c>
       <c r="AQ43" s="79">
         <f>((($W$39)^Q43)*((1-($W$39))^($U$34-Q43))*HLOOKUP($U$34,$AV$24:$BF$34,Q43+1))*V48</f>
-        <v>8.1665964160963205E-3</v>
+        <v>6.8608899952690827E-3</v>
       </c>
       <c r="AR43" s="28">
         <v>4</v>
       </c>
       <c r="AS43" s="79">
         <f>((($W$39)^Q43)*((1-($W$39))^($U$35-Q43))*HLOOKUP($U$35,$AV$24:$BF$34,Q43+1))*V49</f>
-        <v>1.5325046439128587E-3</v>
+        <v>1.2161813783293839E-3</v>
       </c>
       <c r="AV43" s="14">
         <v>5</v>
@@ -29548,7 +29546,7 @@
       </c>
       <c r="BJ43" s="107">
         <f t="shared" si="32"/>
-        <v>8.1320022299830156E-7</v>
+        <v>7.2505154733037371E-7</v>
       </c>
       <c r="BP43">
         <f t="shared" si="34"/>
@@ -29559,7 +29557,7 @@
       </c>
       <c r="BR43" s="107">
         <f t="shared" si="35"/>
-        <v>2.8069172809524231E-6</v>
+        <v>3.4563464713153389E-6</v>
       </c>
     </row>
     <row r="44" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -29568,14 +29566,14 @@
       </c>
       <c r="H44" s="132">
         <f>J44*L39+J43*L40+J42*L41+J41*L42</f>
-        <v>6.9132531485514695E-2</v>
+        <v>6.4923090530752542E-2</v>
       </c>
       <c r="I44" s="93">
         <v>5</v>
       </c>
       <c r="J44" s="86">
         <f t="shared" si="33"/>
-        <v>2.0538007230950048E-2</v>
+        <v>1.8760574676119308E-2</v>
       </c>
       <c r="K44" s="95">
         <v>5</v>
@@ -29586,21 +29584,21 @@
       </c>
       <c r="N44" s="71">
         <f>(($C$24)^M30)*((1-($C$24))^($B$21-M30))*HLOOKUP($B$21,$AV$24:$BF$34,M30+1)</f>
-        <v>8.3483399771431377E-2</v>
+        <v>7.4232389771098278E-2</v>
       </c>
       <c r="O44" s="72">
         <v>5</v>
       </c>
       <c r="P44" s="71">
         <f t="shared" si="36"/>
-        <v>8.3483399771431377E-2</v>
+        <v>7.4232389771098278E-2</v>
       </c>
       <c r="Q44" s="28">
         <v>5</v>
       </c>
       <c r="R44" s="37">
         <f>P44*N39+P43*N40+P42*N41+P41*N42+P40*N43+P39*N44</f>
-        <v>0.19328469460641567</v>
+        <v>0.20520663928301097</v>
       </c>
       <c r="S44" s="72">
         <v>5</v>
@@ -29614,7 +29612,7 @@
       </c>
       <c r="V44" s="86">
         <f>T44*R39+T43*R40+T42*R41+T41*R42+T40*R43+T39*R44</f>
-        <v>0.19238839415945777</v>
+        <v>0.2043216310571202</v>
       </c>
       <c r="W44" s="137"/>
       <c r="X44" s="28">
@@ -29642,42 +29640,42 @@
       </c>
       <c r="AI44" s="79">
         <f>((($W$39)^M44)*((1-($W$39))^($U$30-M44))*HLOOKUP($U$30,$AV$24:$BF$34,M44+1))*V44</f>
-        <v>5.2390706937397303E-4</v>
+        <v>5.5640334961225973E-4</v>
       </c>
       <c r="AJ44" s="28">
         <v>5</v>
       </c>
       <c r="AK44" s="79">
         <f>((($W$39)^M44)*((1-($W$39))^($U$31-M44))*HLOOKUP($U$31,$AV$24:$BF$34,M44+1))*V45</f>
-        <v>2.8295523299452612E-3</v>
+        <v>2.8334379232244195E-3</v>
       </c>
       <c r="AL44" s="28">
         <v>5</v>
       </c>
       <c r="AM44" s="79">
         <f>((($W$39)^Q44)*((1-($W$39))^($U$32-Q44))*HLOOKUP($U$32,$AV$24:$BF$34,Q44+1))*V46</f>
-        <v>6.1199878509565833E-3</v>
+        <v>5.778799396838695E-3</v>
       </c>
       <c r="AN44" s="28">
         <v>5</v>
       </c>
       <c r="AO44" s="79">
         <f>((($W$39)^Q44)*((1-($W$39))^($U$33-Q44))*HLOOKUP($U$33,$AV$24:$BF$34,Q44+1))*V47</f>
-        <v>6.6338792494785685E-3</v>
+        <v>5.9075353245344308E-3</v>
       </c>
       <c r="AP44" s="28">
         <v>5</v>
       </c>
       <c r="AQ44" s="79">
         <f>((($W$39)^Q44)*((1-($W$39))^($U$34-Q44))*HLOOKUP($U$34,$AV$24:$BF$34,Q44+1))*V48</f>
-        <v>3.6163322727390409E-3</v>
+        <v>3.0381393478317508E-3</v>
       </c>
       <c r="AR44" s="28">
         <v>5</v>
       </c>
       <c r="AS44" s="79">
         <f>((($W$39)^Q44)*((1-($W$39))^($U$35-Q44))*HLOOKUP($U$35,$AV$24:$BF$34,Q44+1))*V49</f>
-        <v>8.1434845845662369E-4</v>
+        <v>6.462593340777513E-4</v>
       </c>
       <c r="AV44" s="29">
         <v>6</v>
@@ -29709,7 +29707,7 @@
       </c>
       <c r="BJ44" s="107">
         <f>$H$30*H45</f>
-        <v>5.8474678936302463E-4</v>
+        <v>5.9708175000922092E-4</v>
       </c>
       <c r="BP44">
         <f t="shared" si="34"/>
@@ -29720,7 +29718,7 @@
       </c>
       <c r="BR44" s="107">
         <f t="shared" si="35"/>
-        <v>1.2116934018276169E-6</v>
+        <v>1.4532729976647293E-6</v>
       </c>
     </row>
     <row r="45" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -29744,14 +29742,14 @@
       </c>
       <c r="H45" s="132">
         <f>J45*L39+J44*L40+J43*L41+J42*L42</f>
-        <v>2.1628146334126443E-2</v>
+        <v>1.9789195142879523E-2</v>
       </c>
       <c r="I45" s="93">
         <v>6</v>
       </c>
       <c r="J45" s="86">
         <f t="shared" si="33"/>
-        <v>3.9490863156174784E-3</v>
+        <v>3.505473631602158E-3</v>
       </c>
       <c r="K45" s="95">
         <v>6</v>
@@ -29766,7 +29764,7 @@
       </c>
       <c r="R45" s="37">
         <f>P44*N40+P43*N41+P42*N42+P41*N43+P40*N44</f>
-        <v>0.25043607305592347</v>
+        <v>0.25066249909073646</v>
       </c>
       <c r="S45" s="70">
         <v>6</v>
@@ -29780,7 +29778,7 @@
       </c>
       <c r="V45" s="86">
         <f>T45*R39+T44*R40+T43*R41+T42*R42+T41*R43+T40*R44+T39*R45</f>
-        <v>0.2498637457941961</v>
+        <v>0.25020686328352065</v>
       </c>
       <c r="W45" s="137"/>
       <c r="X45" s="28">
@@ -29812,35 +29810,35 @@
       </c>
       <c r="AK45" s="79">
         <f>((($W$39)^Q45)*((1-($W$39))^($U$31-Q45))*HLOOKUP($U$31,$AV$24:$BF$34,Q45+1))*V45</f>
-        <v>2.0883039654921983E-4</v>
+        <v>2.0911716628898685E-4</v>
       </c>
       <c r="AL45" s="28">
         <v>6</v>
       </c>
       <c r="AM45" s="79">
         <f>((($W$39)^Q45)*((1-($W$39))^($U$32-Q45))*HLOOKUP($U$32,$AV$24:$BF$34,Q45+1))*V46</f>
-        <v>9.0335101865134646E-4</v>
+        <v>8.5298932756869208E-4</v>
       </c>
       <c r="AN45" s="28">
         <v>6</v>
       </c>
       <c r="AO45" s="79">
         <f>((($W$39)^Q45)*((1-($W$39))^($U$33-Q45))*HLOOKUP($U$33,$AV$24:$BF$34,Q45+1))*V47</f>
-        <v>1.4688072240265481E-3</v>
+        <v>1.3079874134806139E-3</v>
       </c>
       <c r="AP45" s="28">
         <v>6</v>
       </c>
       <c r="AQ45" s="79">
         <f>((($W$39)^Q45)*((1-($W$39))^($U$34-Q45))*HLOOKUP($U$34,$AV$24:$BF$34,Q45+1))*V48</f>
-        <v>1.067589518776555E-3</v>
+        <v>8.9689925585050608E-4</v>
       </c>
       <c r="AR45" s="28">
         <v>6</v>
       </c>
       <c r="AS45" s="79">
         <f>((($W$39)^Q45)*((1-($W$39))^($U$35-Q45))*HLOOKUP($U$35,$AV$24:$BF$34,Q45+1))*V49</f>
-        <v>3.0050815761380965E-4</v>
+        <v>2.3848046841335916E-4</v>
       </c>
       <c r="AV45" s="14">
         <v>7</v>
@@ -29868,7 +29866,7 @@
       </c>
       <c r="BJ45" s="107">
         <f>$H$30*H46</f>
-        <v>1.3496523213257883E-4</v>
+        <v>1.3431763069565513E-4</v>
       </c>
       <c r="BP45">
         <f t="shared" si="34"/>
@@ -29879,7 +29877,7 @@
       </c>
       <c r="BR45" s="107">
         <f t="shared" si="35"/>
-        <v>3.790788742100995E-7</v>
+        <v>4.4297187197276621E-7</v>
       </c>
     </row>
     <row r="46" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -29903,14 +29901,14 @@
       </c>
       <c r="H46" s="132">
         <f>J46*L39+J45*L40+J44*L41+J43*L42</f>
-        <v>4.991986007759925E-3</v>
+        <v>4.45171503721977E-3</v>
       </c>
       <c r="I46" s="93">
         <v>7</v>
       </c>
       <c r="J46" s="86">
         <f t="shared" si="33"/>
-        <v>5.2162720538920801E-4</v>
+        <v>4.5000531686170301E-4</v>
       </c>
       <c r="K46" s="95">
         <v>7</v>
@@ -29925,7 +29923,7 @@
       </c>
       <c r="R46" s="37">
         <f>P44*N41+P43*N42+P42*N43+P41*N44</f>
-        <v>0.22250486052182239</v>
+        <v>0.20995707798019944</v>
       </c>
       <c r="S46" s="72">
         <v>7</v>
@@ -29939,7 +29937,7 @@
       </c>
       <c r="V46" s="86">
         <f>T46*R39+T45*R40+T44*R41+T43*R42+T42*R43+T41*R44+T40*R45+T39*R46</f>
-        <v>0.22278204558238882</v>
+        <v>0.21036197815928184</v>
       </c>
       <c r="W46" s="137"/>
       <c r="X46" s="28">
@@ -29975,28 +29973,28 @@
       </c>
       <c r="AM46" s="79">
         <f>((($W$39)^Q46)*((1-($W$39))^($U$32-Q46))*HLOOKUP($U$32,$AV$24:$BF$34,Q46+1))*V46</f>
-        <v>5.7145986194648618E-5</v>
+        <v>5.3960105574681896E-5</v>
       </c>
       <c r="AN46" s="28">
         <v>7</v>
       </c>
       <c r="AO46" s="79">
         <f>((($W$39)^Q46)*((1-($W$39))^($U$33-Q46))*HLOOKUP($U$33,$AV$24:$BF$34,Q46+1))*V47</f>
-        <v>1.8583349243826347E-4</v>
+        <v>1.6548656973925676E-4</v>
       </c>
       <c r="AP46" s="28">
         <v>7</v>
       </c>
       <c r="AQ46" s="79">
         <f>((($W$39)^Q46)*((1-($W$39))^($U$34-Q46))*HLOOKUP($U$34,$AV$24:$BF$34,Q46+1))*V48</f>
-        <v>2.0260714154937971E-4</v>
+        <v>1.7021354302343072E-4</v>
       </c>
       <c r="AR46" s="28">
         <v>7</v>
       </c>
       <c r="AS46" s="79">
         <f>((($W$39)^Q46)*((1-($W$39))^($U$35-Q46))*HLOOKUP($U$35,$AV$24:$BF$34,Q46+1))*V49</f>
-        <v>7.6040585206916208E-5</v>
+        <v>6.0345098524333642E-5</v>
       </c>
       <c r="AV46" s="14">
         <v>8</v>
@@ -30020,7 +30018,7 @@
       </c>
       <c r="BJ46" s="107">
         <f>$H$30*H47</f>
-        <v>2.3082756035645862E-5</v>
+        <v>2.2398600942448457E-5</v>
       </c>
       <c r="BP46">
         <f t="shared" si="34"/>
@@ -30031,7 +30029,7 @@
       </c>
       <c r="BR46" s="107">
         <f t="shared" si="35"/>
-        <v>8.7495081948299263E-8</v>
+        <v>9.9649557715140656E-8</v>
       </c>
     </row>
     <row r="47" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30055,14 +30053,14 @@
       </c>
       <c r="H47" s="132">
         <f>J47*L39+J46*L40+J45*L41+J44*L42</f>
-        <v>8.5376650956513547E-4</v>
+        <v>7.4236113391633969E-4</v>
       </c>
       <c r="I47" s="93">
         <v>8</v>
       </c>
       <c r="J47" s="86">
         <f t="shared" si="33"/>
-        <v>4.5343082072286314E-5</v>
+        <v>3.8024342332318025E-5</v>
       </c>
       <c r="K47" s="95">
         <v>8</v>
@@ -30077,7 +30075,7 @@
       </c>
       <c r="R47" s="37">
         <f>P44*N42+P43*N43+P42*N44</f>
-        <v>0.12973329123800784</v>
+        <v>0.11540934895422816</v>
       </c>
       <c r="S47" s="72">
         <v>8</v>
@@ -30091,7 +30089,7 @@
       </c>
       <c r="V47" s="86">
         <f>T47*R39+T46*R40+T45*R41+T44*R42+T43*R43+T42*R44+T41*R45+T40*R46+T39*R47</f>
-        <v>0.13065938592192725</v>
+        <v>0.11635348018679</v>
       </c>
       <c r="W47" s="137"/>
       <c r="X47" s="28">
@@ -30131,21 +30129,21 @@
       </c>
       <c r="AO47" s="79">
         <f>((($W$39)^Q47)*((1-($W$39))^($U$33-Q47))*HLOOKUP($U$33,$AV$24:$BF$34,Q47+1))*V47</f>
-        <v>1.0286348526047516E-5</v>
+        <v>9.1600954724755864E-6</v>
       </c>
       <c r="AP47" s="28">
         <v>8</v>
       </c>
       <c r="AQ47" s="79">
         <f>((($W$39)^Q47)*((1-($W$39))^($U$34-Q47))*HLOOKUP($U$34,$AV$24:$BF$34,Q47+1))*V48</f>
-        <v>2.2429623901466814E-5</v>
+        <v>1.8843490529287215E-5</v>
       </c>
       <c r="AR47" s="28">
         <v>8</v>
       </c>
       <c r="AS47" s="79">
         <f>((($W$39)^Q47)*((1-($W$39))^($U$35-Q47))*HLOOKUP($U$35,$AV$24:$BF$34,Q47+1))*V49</f>
-        <v>1.2627109644771989E-5</v>
+        <v>1.0020756330555221E-5</v>
       </c>
       <c r="AV47" s="29">
         <v>9</v>
@@ -30166,7 +30164,7 @@
       </c>
       <c r="BJ47" s="107">
         <f>$H$30*H48</f>
-        <v>2.9006666698300429E-6</v>
+        <v>2.7456711093524326E-6</v>
       </c>
       <c r="BP47">
         <f>BL12+1</f>
@@ -30177,7 +30175,7 @@
       </c>
       <c r="BR47" s="107">
         <f t="shared" si="35"/>
-        <v>1.496405851358457E-8</v>
+        <v>1.6617406559309728E-8</v>
       </c>
     </row>
     <row r="48" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30201,14 +30199,14 @@
       </c>
       <c r="H48" s="132">
         <f>J48*L39+J47*L40+J46*L41+J45*L42</f>
-        <v>1.0728753768780315E-4</v>
+        <v>9.1000305034114154E-5</v>
       </c>
       <c r="I48" s="93">
         <v>9</v>
       </c>
       <c r="J48" s="86">
         <f t="shared" si="33"/>
-        <v>2.3461510800808642E-6</v>
+        <v>1.9132285933550284E-6</v>
       </c>
       <c r="K48" s="95">
         <v>9</v>
@@ -30223,7 +30221,7 @@
       </c>
       <c r="R48" s="37">
         <f>P44*N43+P43*N44</f>
-        <v>4.4824926696413407E-2</v>
+        <v>3.7593060248444846E-2</v>
       </c>
       <c r="S48" s="72">
         <v>9</v>
@@ -30237,7 +30235,7 @@
       </c>
       <c r="V48" s="86">
         <f>T48*R39+T47*R40+T46*R41+T45*R42+T44*R43+T43*R44+T42*R45+T41*R46+T40*R47+T39*R48</f>
-        <v>4.5674206921947909E-2</v>
+        <v>3.8371641421510685E-2</v>
       </c>
       <c r="W48" s="137"/>
       <c r="X48" s="28">
@@ -30281,14 +30279,14 @@
       </c>
       <c r="AQ48" s="79">
         <f>((($W$39)^Q48)*((1-($W$39))^($U$34-Q48))*HLOOKUP($U$34,$AV$24:$BF$34,Q48+1))*V48</f>
-        <v>1.1035873541366376E-6</v>
+        <v>9.2714162070969574E-7</v>
       </c>
       <c r="AR48" s="28">
         <v>9</v>
       </c>
       <c r="AS48" s="79">
         <f>((($W$39)^Q48)*((1-($W$39))^($U$35-Q48))*HLOOKUP($U$35,$AV$24:$BF$34,Q48+1))*V49</f>
-        <v>1.2425637259442266E-6</v>
+        <v>9.8608697264533252E-7</v>
       </c>
       <c r="AV48" s="14">
         <v>10</v>
@@ -30306,7 +30304,7 @@
       </c>
       <c r="BJ48" s="107">
         <f>$H$30*H49</f>
-        <v>2.6137901300933033E-7</v>
+        <v>2.4145881540910731E-7</v>
       </c>
     </row>
     <row r="49" spans="1:62" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30330,14 +30328,14 @@
       </c>
       <c r="H49" s="133">
         <f>J49*L39+J48*L40+J47*L41+J46*L42</f>
-        <v>9.6676777792887202E-6</v>
+        <v>8.0027159045232213E-6</v>
       </c>
       <c r="I49" s="94">
         <v>10</v>
       </c>
       <c r="J49" s="89">
         <f t="shared" si="33"/>
-        <v>5.5023207638989763E-8</v>
+        <v>4.366590389940479E-8</v>
       </c>
       <c r="K49" s="96">
         <v>10</v>
@@ -30352,7 +30350,7 @@
       </c>
       <c r="R49" s="37">
         <f>P44*N44</f>
-        <v>6.9694780373966286E-3</v>
+        <v>5.5104476911282561E-3</v>
       </c>
       <c r="S49" s="72">
         <v>10</v>
@@ -30366,7 +30364,7 @@
       </c>
       <c r="V49" s="89">
         <f>IF(((T49*R39+T48*R40+T47*R41+T46*R42+T45*R43+T44*R44+T43*R45+T42*R46+T41*R47+T40*R48+T39*R49)+V37)&lt;&gt;1,1-V37,(T49*R39+T48*R40+T47*R41+T46*R42+T45*R43+T44*R44+T43*R45+T42*R46+T41*R47+T40*R48+T39*R49))</f>
-        <v>7.4198500134743384E-3</v>
+        <v>5.8883237008302558E-3</v>
       </c>
       <c r="W49" s="137"/>
       <c r="X49" s="28">
@@ -30414,7 +30412,7 @@
       </c>
       <c r="AS49" s="79">
         <f>((($W$39)^Q49)*((1-($W$39))^($U$35-Q49))*HLOOKUP($U$35,$AV$24:$BF$34,Q49+1))*V49</f>
-        <v>5.5023207638989763E-8</v>
+        <v>4.366590389940479E-8</v>
       </c>
       <c r="BH49">
         <f>BP14+1</f>
@@ -30425,7 +30423,7 @@
       </c>
       <c r="BJ49" s="107">
         <f>$H$31*H39</f>
-        <v>2.7294938100750357E-4</v>
+        <v>3.3800741193291918E-4</v>
       </c>
     </row>
     <row r="50" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30472,7 +30470,7 @@
       </c>
       <c r="BJ50" s="107">
         <f>$H$31*H46</f>
-        <v>3.2453917896647764E-5</v>
+        <v>3.3437988531907175E-5</v>
       </c>
     </row>
     <row r="51" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30500,7 +30498,7 @@
       </c>
       <c r="BJ51" s="107">
         <f>$H$31*H47</f>
-        <v>5.5505099896640147E-6</v>
+        <v>5.576067397595809E-6</v>
       </c>
     </row>
     <row r="52" spans="1:62" x14ac:dyDescent="0.25">
@@ -30514,7 +30512,7 @@
       </c>
       <c r="BJ52" s="107">
         <f>$H$31*H48</f>
-        <v>6.9749813682188476E-7</v>
+        <v>6.8352693977266027E-7</v>
       </c>
     </row>
     <row r="53" spans="1:62" x14ac:dyDescent="0.25">
@@ -30527,7 +30525,7 @@
       </c>
       <c r="BJ53" s="107">
         <f>$H$31*H49</f>
-        <v>6.2851542534886687E-8</v>
+        <v>6.0110478860902027E-8</v>
       </c>
     </row>
     <row r="54" spans="1:62" x14ac:dyDescent="0.25">
@@ -30540,7 +30538,7 @@
       </c>
       <c r="BJ54" s="107">
         <f>$H$32*H47</f>
-        <v>1.014677654831577E-6</v>
+        <v>1.0545472116643782E-6</v>
       </c>
     </row>
     <row r="55" spans="1:62" x14ac:dyDescent="0.25">
@@ -30553,7 +30551,7 @@
       </c>
       <c r="BJ55" s="107">
         <f>$H$32*H48</f>
-        <v>1.2750824249262641E-7</v>
+        <v>1.2926877977578446E-7</v>
       </c>
     </row>
     <row r="56" spans="1:62" x14ac:dyDescent="0.25">
@@ -30566,7 +30564,7 @@
       </c>
       <c r="BJ56" s="107">
         <f>$H$32*H49</f>
-        <v>1.1489765066742333E-8</v>
+        <v>1.1368108266034567E-8</v>
       </c>
     </row>
     <row r="57" spans="1:62" x14ac:dyDescent="0.25">
@@ -30579,7 +30577,7 @@
       </c>
       <c r="BJ57" s="107">
         <f>$H$33*H48</f>
-        <v>1.7793697151070473E-8</v>
+        <v>1.8650914420705381E-8</v>
       </c>
     </row>
     <row r="58" spans="1:62" x14ac:dyDescent="0.25">
@@ -30592,7 +30590,7 @@
       </c>
       <c r="BJ58" s="107">
         <f>$H$33*H49</f>
-        <v>1.60338967848596E-9</v>
+        <v>1.6401919687250136E-9</v>
       </c>
     </row>
     <row r="59" spans="1:62" x14ac:dyDescent="0.25">
@@ -30605,7 +30603,7 @@
       </c>
       <c r="BJ59" s="107">
         <f>$H$34*H49</f>
-        <v>1.6944644040142075E-10</v>
+        <v>1.7913705026899095E-10</v>
       </c>
     </row>
   </sheetData>

--- a/projects/current/hattrick/4-SimuladorPartidos.xlsx
+++ b/projects/current/hattrick/4-SimuladorPartidos.xlsx
@@ -3111,7 +3111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="245">
   <si>
     <t>LOCAL</t>
   </si>
@@ -3578,9 +3578,6 @@
     <t>CAB</t>
   </si>
   <si>
-    <t>Nac</t>
-  </si>
-  <si>
     <t>Jugador</t>
   </si>
   <si>
@@ -3593,25 +3590,16 @@
     <t>Anys</t>
   </si>
   <si>
-    <t>USA</t>
-  </si>
-  <si>
     <t>D. Mann</t>
   </si>
   <si>
     <t>32.70</t>
   </si>
   <si>
-    <t>France</t>
-  </si>
-  <si>
     <t>N. Gerbet</t>
   </si>
   <si>
     <t>30.96</t>
-  </si>
-  <si>
-    <t>Scotland</t>
   </si>
   <si>
     <t>L. Elder</t>
@@ -3647,16 +3635,10 @@
     <t>29.79</t>
   </si>
   <si>
-    <t>Deutschland</t>
-  </si>
-  <si>
     <t>K. Rödl</t>
   </si>
   <si>
     <t>35.52</t>
-  </si>
-  <si>
-    <t>România</t>
   </si>
   <si>
     <t>M. Sibian</t>
@@ -3674,9 +3656,6 @@
     <t>34.68</t>
   </si>
   <si>
-    <t>Belgium</t>
-  </si>
-  <si>
     <t>A. Develer</t>
   </si>
   <si>
@@ -3689,9 +3668,6 @@
     <t>32.66</t>
   </si>
   <si>
-    <t>Chile</t>
-  </si>
-  <si>
     <t>A. Sandoval</t>
   </si>
   <si>
@@ -3702,9 +3678,6 @@
   </si>
   <si>
     <t>18.59</t>
-  </si>
-  <si>
-    <t>Argentina</t>
   </si>
   <si>
     <t>F. NájeraEntrenador</t>
@@ -3723,9 +3696,6 @@
   </si>
   <si>
     <t>19.91</t>
-  </si>
-  <si>
-    <t>Suomi</t>
   </si>
   <si>
     <t>L. SalmivainioEntrenador</t>
@@ -3813,6 +3783,69 @@
   </si>
   <si>
     <t>CA</t>
+  </si>
+  <si>
+    <t>32.71</t>
+  </si>
+  <si>
+    <t>30.97</t>
+  </si>
+  <si>
+    <t>30.18</t>
+  </si>
+  <si>
+    <t>34.13</t>
+  </si>
+  <si>
+    <t>31.69</t>
+  </si>
+  <si>
+    <t>33.15</t>
+  </si>
+  <si>
+    <t>29.80</t>
+  </si>
+  <si>
+    <t>35.53</t>
+  </si>
+  <si>
+    <t>33.24</t>
+  </si>
+  <si>
+    <t>34.69</t>
+  </si>
+  <si>
+    <t>33.83</t>
+  </si>
+  <si>
+    <t>32.67</t>
+  </si>
+  <si>
+    <t>36.16</t>
+  </si>
+  <si>
+    <t>18.60</t>
+  </si>
+  <si>
+    <t>36.82</t>
+  </si>
+  <si>
+    <t>18.64</t>
+  </si>
+  <si>
+    <t>19.92</t>
+  </si>
+  <si>
+    <t>18.14</t>
+  </si>
+  <si>
+    <t>Dif_TSI</t>
+  </si>
+  <si>
+    <t>DifF</t>
+  </si>
+  <si>
+    <t>DifR</t>
   </si>
 </sst>
 </file>
@@ -4364,7 +4397,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4856,6 +4889,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="5" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4868,9 +4905,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="5" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -5994,37 +6028,37 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.1065647268984898E-2</c:v>
+                  <c:v>1.7953293836062173E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.2991101663153132E-2</c:v>
+                  <c:v>9.4368514328365405E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19164632608679291</c:v>
+                  <c:v>0.21014502063125143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27004040160035364</c:v>
+                  <c:v>0.26688489773640023</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23622202736034476</c:v>
+                  <c:v>0.21877855367746896</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13897226916300273</c:v>
+                  <c:v>0.12358832077921528</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.7531669685572093E-2</c:v>
+                  <c:v>4.9902843433881794E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7162327248111259E-2</c:v>
+                  <c:v>1.4672334562973205E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7183107929876719E-3</c:v>
+                  <c:v>3.1557298860386473E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.8108363727492373E-4</c:v>
+                  <c:v>4.9208899746433976E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.3922980806687416E-5</c:v>
+                  <c:v>5.4216365885647271E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6062,37 +6096,37 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.00682745825288E-2</c:v>
+                  <c:v>1.5471230862608329E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.0315550370672709E-2</c:v>
+                  <c:v>7.6939555144782165E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18825407601088967</c:v>
+                  <c:v>0.17446572369547103</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24161515147544382</c:v>
+                  <c:v>0.23971561316215531</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21417790069975329</c:v>
+                  <c:v>0.22386659312657523</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13942956904653228</c:v>
+                  <c:v>0.15118346185058193</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.9154415405959499E-2</c:v>
+                  <c:v>7.6708720357658883E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.6687491776088593E-2</c:v>
+                  <c:v>2.9959602744717394E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.058750197481113E-3</c:v>
+                  <c:v>9.1134438778405786E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8755487977135904E-3</c:v>
+                  <c:v>2.146643742757472E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2227460832004782E-4</c:v>
+                  <c:v>3.7870470911612021E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6109,11 +6143,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="412182984"/>
-        <c:axId val="412179848"/>
+        <c:axId val="281915312"/>
+        <c:axId val="281915704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="412182984"/>
+        <c:axId val="281915312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6123,7 +6157,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="412179848"/>
+        <c:crossAx val="281915704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6131,7 +6165,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="412179848"/>
+        <c:axId val="281915704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6142,7 +6176,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="412182984"/>
+        <c:crossAx val="281915312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6461,11 +6495,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="280366656"/>
-        <c:axId val="280364304"/>
+        <c:axId val="284710600"/>
+        <c:axId val="284714912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="280366656"/>
+        <c:axId val="284710600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6475,7 +6509,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="280364304"/>
+        <c:crossAx val="284714912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6483,7 +6517,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="280364304"/>
+        <c:axId val="284714912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6494,7 +6528,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="280366656"/>
+        <c:crossAx val="284710600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6659,13 +6693,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.18257639990113642</c:v>
+                  <c:v>0.18013712773228452</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41052727110178389</c:v>
+                  <c:v>0.465645854753238</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40678651989784537</c:v>
+                  <c:v>0.35410793215123748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6905,11 +6939,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="290339576"/>
-        <c:axId val="290339968"/>
+        <c:axId val="284261696"/>
+        <c:axId val="284262480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="290339576"/>
+        <c:axId val="284261696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6919,7 +6953,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="290339968"/>
+        <c:crossAx val="284262480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6927,7 +6961,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="290339968"/>
+        <c:axId val="284262480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6938,7 +6972,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="290339576"/>
+        <c:crossAx val="284261696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7257,11 +7291,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="278548200"/>
-        <c:axId val="278550552"/>
+        <c:axId val="284264048"/>
+        <c:axId val="284258952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="278548200"/>
+        <c:axId val="284264048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7271,7 +7305,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="278550552"/>
+        <c:crossAx val="284258952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7279,7 +7313,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="278550552"/>
+        <c:axId val="284258952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7290,7 +7324,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="278548200"/>
+        <c:crossAx val="284264048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7609,11 +7643,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="280365872"/>
-        <c:axId val="280362736"/>
+        <c:axId val="284260912"/>
+        <c:axId val="284260520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="280365872"/>
+        <c:axId val="284260912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7623,7 +7657,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="280362736"/>
+        <c:crossAx val="284260520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7631,7 +7665,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="280362736"/>
+        <c:axId val="284260520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7642,7 +7676,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="280365872"/>
+        <c:crossAx val="284260912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7961,11 +7995,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="280361952"/>
-        <c:axId val="280360776"/>
+        <c:axId val="284709424"/>
+        <c:axId val="284711776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="280361952"/>
+        <c:axId val="284709424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7975,7 +8009,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="280360776"/>
+        <c:crossAx val="284711776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7983,7 +8017,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="280360776"/>
+        <c:axId val="284711776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7994,7 +8028,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="280361952"/>
+        <c:crossAx val="284709424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8715,218 +8749,405 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:AL21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:38" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="E1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E1" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="G1" t="s">
+      <c r="Q1" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="R1" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="H1" t="s">
+      <c r="S1" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="X1" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="I1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J1" t="s">
-        <v>212</v>
-      </c>
-      <c r="K1" t="s">
-        <v>213</v>
-      </c>
-      <c r="L1" t="s">
-        <v>214</v>
-      </c>
-      <c r="M1" t="s">
-        <v>215</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="Y1" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC1" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD1" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE1" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF1" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG1" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="AH1" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI1" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ1" s="210" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK1" s="210" t="s">
+        <v>243</v>
+      </c>
+      <c r="AL1" s="210" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2">
+        <v>25440</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>14</v>
+      </c>
+      <c r="L2" s="208">
+        <v>43111</v>
+      </c>
+      <c r="M2" t="s">
         <v>216</v>
       </c>
-      <c r="O1" t="s">
-        <v>217</v>
-      </c>
-      <c r="P1" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>219</v>
-      </c>
-      <c r="R1" t="s">
-        <v>103</v>
-      </c>
-      <c r="S1" t="s">
-        <v>220</v>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2">
+        <v>26256</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>72</v>
+      </c>
+      <c r="R2" t="s">
+        <v>210</v>
+      </c>
+      <c r="S2" t="s">
+        <v>179</v>
+      </c>
+      <c r="T2" t="s">
+        <v>164</v>
+      </c>
+      <c r="U2" t="s">
+        <v>233</v>
+      </c>
+      <c r="V2">
+        <v>25060</v>
+      </c>
+      <c r="W2">
+        <v>4</v>
+      </c>
+      <c r="X2">
+        <v>14</v>
+      </c>
+      <c r="Y2">
+        <v>4</v>
+      </c>
+      <c r="Z2">
+        <v>6</v>
+      </c>
+      <c r="AA2">
+        <v>14</v>
+      </c>
+      <c r="AC2" s="208">
+        <v>43111</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF2">
+        <v>26256</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>72</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ2">
+        <f t="shared" ref="AJ2:AJ21" si="0">V2-E2</f>
+        <v>-380</v>
+      </c>
+      <c r="AK2" s="13">
+        <f>Y2-H2</f>
+        <v>0</v>
+      </c>
+      <c r="AL2" s="13">
+        <f>Z2-I2</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F2">
-        <v>84120</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2">
-        <v>5</v>
-      </c>
-      <c r="J2">
-        <v>7</v>
-      </c>
-      <c r="K2">
-        <v>20</v>
-      </c>
-      <c r="M2" s="212">
-        <v>43111</v>
-      </c>
-      <c r="N2">
-        <v>9</v>
-      </c>
-      <c r="O2" t="s">
-        <v>221</v>
-      </c>
-      <c r="P2">
-        <v>34050</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>3</v>
-      </c>
-      <c r="S2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" t="s">
-        <v>165</v>
+        <v>131</v>
+      </c>
+      <c r="D3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3">
+        <v>4550</v>
       </c>
       <c r="F3">
-        <v>256510</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I3">
         <v>6</v>
       </c>
       <c r="J3">
+        <v>14</v>
+      </c>
+      <c r="L3" s="208">
+        <v>43108</v>
+      </c>
+      <c r="M3">
         <v>7</v>
       </c>
-      <c r="K3">
-        <v>20</v>
-      </c>
-      <c r="M3" s="212">
-        <v>43111</v>
-      </c>
       <c r="N3" t="s">
-        <v>222</v>
-      </c>
-      <c r="O3" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="O3">
+        <v>2868</v>
       </c>
       <c r="P3">
-        <v>25632</v>
+        <v>0</v>
       </c>
       <c r="Q3">
+        <v>38</v>
+      </c>
+      <c r="R3" t="s">
+        <v>210</v>
+      </c>
+      <c r="S3" t="s">
+        <v>185</v>
+      </c>
+      <c r="U3" t="s">
+        <v>236</v>
+      </c>
+      <c r="V3">
+        <v>4610</v>
+      </c>
+      <c r="W3">
+        <v>6</v>
+      </c>
+      <c r="X3">
+        <v>12</v>
+      </c>
+      <c r="Y3">
+        <v>8</v>
+      </c>
+      <c r="Z3">
+        <v>6</v>
+      </c>
+      <c r="AA3">
+        <v>14</v>
+      </c>
+      <c r="AC3" s="208">
+        <v>43108</v>
+      </c>
+      <c r="AD3">
+        <v>7</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF3">
+        <v>2868</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>38</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="AK3" s="13">
+        <f t="shared" ref="AK3:AK21" si="1">Y3-H3</f>
+        <v>0</v>
+      </c>
+      <c r="AL3" s="13">
+        <f t="shared" ref="AL3:AL21" si="2">Z3-I3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4">
+        <v>1520</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
         <v>2</v>
-      </c>
-      <c r="R3">
-        <v>140</v>
-      </c>
-      <c r="S3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F4">
-        <v>211470</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
       </c>
       <c r="H4">
         <v>7</v>
@@ -8935,933 +9156,1954 @@
         <v>7</v>
       </c>
       <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>218</v>
+      </c>
+      <c r="L4" s="208">
+        <v>43097</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4">
+        <v>370</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s">
+        <v>210</v>
+      </c>
+      <c r="S4" t="s">
+        <v>193</v>
+      </c>
+      <c r="U4" t="s">
+        <v>240</v>
+      </c>
+      <c r="V4">
+        <v>1510</v>
+      </c>
+      <c r="W4">
+        <v>3</v>
+      </c>
+      <c r="X4">
+        <v>2</v>
+      </c>
+      <c r="Y4">
+        <v>7</v>
+      </c>
+      <c r="Z4">
+        <v>7</v>
+      </c>
+      <c r="AA4">
+        <v>20</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC4" s="208">
+        <v>43097</v>
+      </c>
+      <c r="AD4">
+        <v>3</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF4">
+        <v>370</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>4</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="AK4" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL4" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5">
+        <v>256510</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>7</v>
+      </c>
+      <c r="J5">
+        <v>20</v>
+      </c>
+      <c r="L5" s="208">
+        <v>43111</v>
+      </c>
+      <c r="M5" t="s">
+        <v>212</v>
+      </c>
+      <c r="N5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5">
+        <v>25632</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>140</v>
+      </c>
+      <c r="R5" t="s">
+        <v>210</v>
+      </c>
+      <c r="S5" t="s">
+        <v>161</v>
+      </c>
+      <c r="U5" t="s">
+        <v>225</v>
+      </c>
+      <c r="V5">
+        <v>257540</v>
+      </c>
+      <c r="W5">
+        <v>2</v>
+      </c>
+      <c r="X5">
+        <v>11</v>
+      </c>
+      <c r="Y5">
+        <v>6</v>
+      </c>
+      <c r="Z5">
+        <v>7</v>
+      </c>
+      <c r="AA5">
+        <v>20</v>
+      </c>
+      <c r="AC5" s="208">
+        <v>43111</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF5">
+        <v>25632</v>
+      </c>
+      <c r="AG5">
+        <v>2</v>
+      </c>
+      <c r="AH5">
+        <v>140</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" si="0"/>
+        <v>1030</v>
+      </c>
+      <c r="AK5" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL5" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6">
+        <v>211470</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6">
         <v>8</v>
       </c>
-      <c r="K4">
+      <c r="J6">
         <v>20</v>
       </c>
-      <c r="M4" s="212">
+      <c r="L6" s="208">
         <v>43108</v>
       </c>
-      <c r="N4" t="s">
-        <v>222</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="M6" t="s">
+        <v>212</v>
+      </c>
+      <c r="N6" t="s">
         <v>22</v>
       </c>
-      <c r="P4">
+      <c r="O6">
         <v>28392</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>96</v>
       </c>
-      <c r="S4" t="s">
-        <v>220</v>
+      <c r="R6" t="s">
+        <v>210</v>
+      </c>
+      <c r="S6" t="s">
+        <v>163</v>
+      </c>
+      <c r="T6" t="s">
+        <v>164</v>
+      </c>
+      <c r="U6" t="s">
+        <v>226</v>
+      </c>
+      <c r="V6">
+        <v>212150</v>
+      </c>
+      <c r="W6">
+        <v>4</v>
+      </c>
+      <c r="X6">
+        <v>7</v>
+      </c>
+      <c r="Y6">
+        <v>7</v>
+      </c>
+      <c r="Z6">
+        <v>8</v>
+      </c>
+      <c r="AA6">
+        <v>20</v>
+      </c>
+      <c r="AC6" s="208">
+        <v>43108</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF6">
+        <v>28392</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>96</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="0"/>
+        <v>680</v>
+      </c>
+      <c r="AK6" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL6" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B7" t="s">
         <v>123</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D7" t="s">
         <v>171</v>
       </c>
-      <c r="F5">
-        <v>25220</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>13</v>
-      </c>
-      <c r="I5">
-        <v>6</v>
-      </c>
-      <c r="J5">
-        <v>6</v>
-      </c>
-      <c r="K5">
-        <v>20</v>
-      </c>
-      <c r="M5" s="212">
-        <v>43111</v>
-      </c>
-      <c r="N5" t="s">
-        <v>223</v>
-      </c>
-      <c r="O5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5">
-        <v>13680</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>51</v>
-      </c>
-      <c r="S5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" t="s">
-        <v>173</v>
-      </c>
-      <c r="F6">
-        <v>263960</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>12</v>
-      </c>
-      <c r="I6">
+      <c r="E7">
+        <v>124120</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>14</v>
+      </c>
+      <c r="H7">
         <v>7</v>
-      </c>
-      <c r="J6">
-        <v>7</v>
-      </c>
-      <c r="K6">
-        <v>12</v>
-      </c>
-      <c r="M6" s="212">
-        <v>43111</v>
-      </c>
-      <c r="N6">
-        <v>10</v>
-      </c>
-      <c r="O6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6">
-        <v>25220</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>45</v>
-      </c>
-      <c r="S6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F7">
-        <v>124120</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-      <c r="H7">
-        <v>14</v>
       </c>
       <c r="I7">
         <v>7</v>
       </c>
       <c r="J7">
+        <v>17</v>
+      </c>
+      <c r="L7" s="208">
+        <v>43111</v>
+      </c>
+      <c r="M7" t="s">
+        <v>214</v>
+      </c>
+      <c r="N7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7">
+        <v>36960</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>136</v>
+      </c>
+      <c r="R7" t="s">
+        <v>210</v>
+      </c>
+      <c r="S7" t="s">
+        <v>170</v>
+      </c>
+      <c r="U7" t="s">
+        <v>229</v>
+      </c>
+      <c r="V7">
+        <v>120430</v>
+      </c>
+      <c r="W7">
+        <v>4</v>
+      </c>
+      <c r="X7">
+        <v>14</v>
+      </c>
+      <c r="Y7">
         <v>7</v>
       </c>
-      <c r="K7">
+      <c r="Z7">
+        <v>7</v>
+      </c>
+      <c r="AA7">
         <v>17</v>
       </c>
-      <c r="M7" s="212">
+      <c r="AC7" s="208">
         <v>43111</v>
       </c>
-      <c r="N7" t="s">
-        <v>224</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="AD7" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE7" t="s">
         <v>22</v>
       </c>
-      <c r="P7">
+      <c r="AF7">
         <v>36960</v>
       </c>
-      <c r="Q7">
+      <c r="AG7">
         <v>2</v>
       </c>
-      <c r="R7">
+      <c r="AH7">
         <v>136</v>
       </c>
-      <c r="S7" t="s">
+      <c r="AI7" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="0"/>
+        <v>-3690</v>
+      </c>
+      <c r="AK7" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL7" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8">
+        <v>1430</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s">
+        <v>218</v>
+      </c>
+      <c r="L8" s="208">
+        <v>43090</v>
+      </c>
+      <c r="M8" t="s">
+        <v>219</v>
+      </c>
+      <c r="N8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8">
+        <v>310</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s">
+        <v>210</v>
+      </c>
+      <c r="S8" t="s">
+        <v>187</v>
+      </c>
+      <c r="U8" t="s">
+        <v>237</v>
+      </c>
+      <c r="V8">
+        <v>1460</v>
+      </c>
+      <c r="W8">
+        <v>3</v>
+      </c>
+      <c r="X8">
+        <v>2</v>
+      </c>
+      <c r="Y8">
+        <v>7</v>
+      </c>
+      <c r="Z8">
+        <v>6</v>
+      </c>
+      <c r="AA8">
+        <v>20</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC8" s="208">
+        <v>43090</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF8">
+        <v>310</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="AK8" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL8" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9">
+        <v>3430</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s">
+        <v>218</v>
+      </c>
+      <c r="L9" s="208">
+        <v>43104</v>
+      </c>
+      <c r="M9" t="s">
         <v>220</v>
       </c>
+      <c r="N9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9">
+        <v>410</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s">
+        <v>210</v>
+      </c>
+      <c r="S9" t="s">
+        <v>191</v>
+      </c>
+      <c r="U9" t="s">
+        <v>239</v>
+      </c>
+      <c r="V9">
+        <v>3270</v>
+      </c>
+      <c r="W9">
+        <v>5</v>
+      </c>
+      <c r="X9">
+        <v>2</v>
+      </c>
+      <c r="Y9">
+        <v>5</v>
+      </c>
+      <c r="Z9">
+        <v>8</v>
+      </c>
+      <c r="AA9">
+        <v>20</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC9" s="208">
+        <v>43104</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF9">
+        <v>410</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="0"/>
+        <v>-160</v>
+      </c>
+      <c r="AK9" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL9" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" t="s">
         <v>123</v>
       </c>
-      <c r="E8" t="s">
-        <v>177</v>
-      </c>
-      <c r="F8">
-        <v>274910</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>11</v>
-      </c>
-      <c r="I8">
-        <v>7</v>
-      </c>
-      <c r="J8">
-        <v>7</v>
-      </c>
-      <c r="K8">
-        <v>20</v>
-      </c>
-      <c r="M8" s="212">
-        <v>43111</v>
-      </c>
-      <c r="N8">
-        <v>9</v>
-      </c>
-      <c r="O8" t="s">
-        <v>225</v>
-      </c>
-      <c r="P8">
-        <v>27570</v>
-      </c>
-      <c r="Q8">
+      <c r="D10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10">
+        <v>1820</v>
+      </c>
+      <c r="F10">
         <v>4</v>
       </c>
-      <c r="R8">
-        <v>104</v>
-      </c>
-      <c r="S8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>178</v>
-      </c>
-      <c r="B9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E9" t="s">
-        <v>180</v>
-      </c>
-      <c r="F9">
-        <v>29750</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>12</v>
-      </c>
-      <c r="I9">
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
         <v>6</v>
-      </c>
-      <c r="J9">
-        <v>6</v>
-      </c>
-      <c r="K9">
-        <v>20</v>
-      </c>
-      <c r="M9" s="212">
-        <v>43111</v>
-      </c>
-      <c r="N9" t="s">
-        <v>223</v>
-      </c>
-      <c r="O9" t="s">
-        <v>225</v>
-      </c>
-      <c r="P9">
-        <v>18156</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>65</v>
-      </c>
-      <c r="S9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>181</v>
-      </c>
-      <c r="B10" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="211">
-        <v>32110</v>
-      </c>
-      <c r="F10">
-        <v>193370</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="H10">
-        <v>13</v>
       </c>
       <c r="I10">
         <v>7</v>
       </c>
       <c r="J10">
-        <v>6</v>
-      </c>
-      <c r="K10">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
+        <v>218</v>
+      </c>
+      <c r="L10" s="208">
+        <v>43104</v>
+      </c>
+      <c r="M10" t="s">
+        <v>219</v>
+      </c>
+      <c r="N10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10">
+        <v>330</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="S10" t="s">
+        <v>197</v>
+      </c>
+      <c r="U10" t="s">
+        <v>241</v>
+      </c>
+      <c r="V10">
+        <v>1930</v>
+      </c>
+      <c r="W10">
+        <v>4</v>
+      </c>
+      <c r="X10">
+        <v>2</v>
+      </c>
+      <c r="Y10">
         <v>7</v>
       </c>
-      <c r="M10" s="212">
-        <v>43111</v>
-      </c>
-      <c r="N10" t="s">
-        <v>224</v>
-      </c>
-      <c r="O10" t="s">
-        <v>225</v>
-      </c>
-      <c r="P10">
-        <v>52416</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>88</v>
-      </c>
-      <c r="S10" t="s">
-        <v>220</v>
+      <c r="Z10">
+        <v>7</v>
+      </c>
+      <c r="AA10">
+        <v>20</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC10" s="208">
+        <v>43104</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF10">
+        <v>330</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>3</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="AK10" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AL10" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>160</v>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>168</v>
       </c>
       <c r="B11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C11" t="s">
         <v>123</v>
       </c>
-      <c r="E11" t="s">
-        <v>184</v>
+      <c r="D11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E11">
+        <v>263960</v>
       </c>
       <c r="F11">
-        <v>56080</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I11">
         <v>7</v>
       </c>
       <c r="J11">
+        <v>12</v>
+      </c>
+      <c r="L11" s="208">
+        <v>43111</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11">
+        <v>25220</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>45</v>
+      </c>
+      <c r="R11" t="s">
+        <v>210</v>
+      </c>
+      <c r="S11" t="s">
+        <v>168</v>
+      </c>
+      <c r="U11" t="s">
+        <v>228</v>
+      </c>
+      <c r="V11">
+        <v>278560</v>
+      </c>
+      <c r="W11">
+        <v>2</v>
+      </c>
+      <c r="X11">
+        <v>12</v>
+      </c>
+      <c r="Y11">
         <v>7</v>
       </c>
-      <c r="K11">
+      <c r="Z11">
+        <v>7</v>
+      </c>
+      <c r="AA11">
+        <v>12</v>
+      </c>
+      <c r="AC11" s="208">
+        <v>43111</v>
+      </c>
+      <c r="AD11">
+        <v>10</v>
+      </c>
+      <c r="AE11" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="212">
-        <v>43104</v>
-      </c>
-      <c r="N11">
-        <v>10</v>
-      </c>
-      <c r="O11" t="s">
-        <v>225</v>
-      </c>
-      <c r="P11">
-        <v>21480</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>65</v>
-      </c>
-      <c r="S11" t="s">
-        <v>220</v>
+      <c r="AF11">
+        <v>25220</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <v>45</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="0"/>
+        <v>14600</v>
+      </c>
+      <c r="AK11" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12" t="s">
         <v>123</v>
       </c>
       <c r="D12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E12" t="s">
-        <v>186</v>
+        <v>190</v>
+      </c>
+      <c r="E12">
+        <v>12030</v>
       </c>
       <c r="F12">
-        <v>25440</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I12">
         <v>4</v>
       </c>
       <c r="J12">
+        <v>20</v>
+      </c>
+      <c r="L12" s="208">
+        <v>43111</v>
+      </c>
+      <c r="M12" t="s">
+        <v>216</v>
+      </c>
+      <c r="N12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12">
+        <v>5232</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>67</v>
+      </c>
+      <c r="R12" t="s">
+        <v>210</v>
+      </c>
+      <c r="S12" t="s">
+        <v>189</v>
+      </c>
+      <c r="U12" t="s">
+        <v>238</v>
+      </c>
+      <c r="V12">
+        <v>12170</v>
+      </c>
+      <c r="W12">
         <v>6</v>
       </c>
-      <c r="K12">
-        <v>14</v>
-      </c>
-      <c r="M12" s="212">
+      <c r="X12">
+        <v>13</v>
+      </c>
+      <c r="Y12">
+        <v>5</v>
+      </c>
+      <c r="Z12">
+        <v>4</v>
+      </c>
+      <c r="AA12">
+        <v>20</v>
+      </c>
+      <c r="AC12" s="208">
         <v>43111</v>
       </c>
-      <c r="N12" t="s">
-        <v>226</v>
-      </c>
-      <c r="O12" t="s">
-        <v>18</v>
-      </c>
-      <c r="P12">
-        <v>26256</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>72</v>
-      </c>
-      <c r="S12" t="s">
-        <v>220</v>
+      <c r="AD12" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF12">
+        <v>5232</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>67</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="AK12" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>187</v>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="B13" t="s">
-        <v>188</v>
-      </c>
-      <c r="C13" t="s">
         <v>123</v>
       </c>
-      <c r="E13" t="s">
-        <v>189</v>
+      <c r="D13" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13">
+        <v>25220</v>
       </c>
       <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>13</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>20</v>
+      </c>
+      <c r="L13" s="208">
+        <v>43111</v>
+      </c>
+      <c r="M13" t="s">
+        <v>213</v>
+      </c>
+      <c r="N13" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13">
+        <v>13680</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>51</v>
+      </c>
+      <c r="R13" t="s">
+        <v>210</v>
+      </c>
+      <c r="S13" t="s">
+        <v>166</v>
+      </c>
+      <c r="U13" t="s">
+        <v>227</v>
+      </c>
+      <c r="V13">
+        <v>23090</v>
+      </c>
+      <c r="W13">
+        <v>3</v>
+      </c>
+      <c r="X13">
+        <v>13</v>
+      </c>
+      <c r="Y13">
+        <v>5</v>
+      </c>
+      <c r="Z13">
+        <v>6</v>
+      </c>
+      <c r="AA13">
+        <v>20</v>
+      </c>
+      <c r="AC13" s="208">
+        <v>43111</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF13">
+        <v>13680</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>51</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="0"/>
+        <v>-2130</v>
+      </c>
+      <c r="AK13" s="13">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="AL13" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14">
         <v>40400</v>
       </c>
-      <c r="G13">
+      <c r="F14">
         <v>3</v>
       </c>
-      <c r="H13">
+      <c r="G14">
         <v>12</v>
       </c>
-      <c r="I13">
+      <c r="H14">
         <v>4</v>
       </c>
-      <c r="J13">
+      <c r="I14">
         <v>7</v>
       </c>
-      <c r="K13">
+      <c r="J14">
         <v>10</v>
       </c>
-      <c r="M13" s="212">
+      <c r="L14" s="208">
         <v>43108</v>
       </c>
-      <c r="N13" t="s">
-        <v>227</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="M14" t="s">
+        <v>217</v>
+      </c>
+      <c r="N14" t="s">
         <v>17</v>
       </c>
-      <c r="P13">
+      <c r="O14">
         <v>30636</v>
       </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>40</v>
       </c>
-      <c r="S13" t="s">
-        <v>220</v>
+      <c r="R14" t="s">
+        <v>210</v>
+      </c>
+      <c r="S14" t="s">
+        <v>181</v>
+      </c>
+      <c r="U14" t="s">
+        <v>234</v>
+      </c>
+      <c r="V14">
+        <v>45390</v>
+      </c>
+      <c r="W14">
+        <v>3</v>
+      </c>
+      <c r="X14">
+        <v>12</v>
+      </c>
+      <c r="Y14">
+        <v>5</v>
+      </c>
+      <c r="Z14">
+        <v>7</v>
+      </c>
+      <c r="AA14">
+        <v>10</v>
+      </c>
+      <c r="AC14" s="208">
+        <v>43108</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF14">
+        <v>30636</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>40</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="0"/>
+        <v>4990</v>
+      </c>
+      <c r="AK14" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AL14" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>178</v>
-      </c>
-      <c r="B14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" t="s">
         <v>123</v>
       </c>
-      <c r="E14" t="s">
-        <v>191</v>
-      </c>
-      <c r="F14">
+      <c r="D15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15">
         <v>46860</v>
       </c>
-      <c r="G14">
+      <c r="F15">
         <v>3</v>
       </c>
-      <c r="H14">
+      <c r="G15">
         <v>9</v>
       </c>
-      <c r="I14">
+      <c r="H15">
         <v>4</v>
       </c>
-      <c r="J14">
+      <c r="I15">
         <v>6</v>
       </c>
-      <c r="K14">
+      <c r="J15">
         <v>20</v>
       </c>
-      <c r="M14" s="212">
+      <c r="L15" s="208">
         <v>43111</v>
       </c>
-      <c r="N14" t="s">
-        <v>227</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="M15" t="s">
+        <v>217</v>
+      </c>
+      <c r="N15" t="s">
         <v>17</v>
       </c>
-      <c r="P14">
+      <c r="O15">
         <v>15588</v>
       </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>43</v>
       </c>
-      <c r="S14" t="s">
-        <v>220</v>
+      <c r="R15" t="s">
+        <v>210</v>
+      </c>
+      <c r="S15" t="s">
+        <v>183</v>
+      </c>
+      <c r="U15" t="s">
+        <v>235</v>
+      </c>
+      <c r="V15">
+        <v>56060</v>
+      </c>
+      <c r="W15">
+        <v>3</v>
+      </c>
+      <c r="X15">
+        <v>9</v>
+      </c>
+      <c r="Y15">
+        <v>6</v>
+      </c>
+      <c r="Z15">
+        <v>7</v>
+      </c>
+      <c r="AA15">
+        <v>20</v>
+      </c>
+      <c r="AC15" s="208">
+        <v>43111</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF15">
+        <v>15588</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>43</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="0"/>
+        <v>9200</v>
+      </c>
+      <c r="AK15" s="13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AL15" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>192</v>
-      </c>
-      <c r="B15" t="s">
-        <v>193</v>
-      </c>
-      <c r="C15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" t="s">
-        <v>194</v>
-      </c>
-      <c r="F15">
-        <v>4550</v>
-      </c>
-      <c r="G15">
-        <v>6</v>
-      </c>
-      <c r="H15">
-        <v>12</v>
-      </c>
-      <c r="I15">
-        <v>8</v>
-      </c>
-      <c r="J15">
-        <v>6</v>
-      </c>
-      <c r="K15">
-        <v>14</v>
-      </c>
-      <c r="M15" s="212">
-        <v>43108</v>
-      </c>
-      <c r="N15">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16">
+        <v>274910</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>11</v>
+      </c>
+      <c r="H16">
         <v>7</v>
-      </c>
-      <c r="O15" t="s">
-        <v>18</v>
-      </c>
-      <c r="P15">
-        <v>2868</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>38</v>
-      </c>
-      <c r="S15" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>160</v>
-      </c>
-      <c r="B16" t="s">
-        <v>195</v>
-      </c>
-      <c r="E16" t="s">
-        <v>196</v>
-      </c>
-      <c r="F16">
-        <v>1430</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
       </c>
       <c r="I16">
         <v>7</v>
       </c>
       <c r="J16">
+        <v>20</v>
+      </c>
+      <c r="L16" s="208">
+        <v>43111</v>
+      </c>
+      <c r="M16">
+        <v>9</v>
+      </c>
+      <c r="N16" t="s">
+        <v>215</v>
+      </c>
+      <c r="O16">
+        <v>27570</v>
+      </c>
+      <c r="P16">
+        <v>4</v>
+      </c>
+      <c r="Q16">
+        <v>104</v>
+      </c>
+      <c r="R16" t="s">
+        <v>210</v>
+      </c>
+      <c r="S16" t="s">
+        <v>172</v>
+      </c>
+      <c r="U16" t="s">
+        <v>230</v>
+      </c>
+      <c r="V16">
+        <v>282330</v>
+      </c>
+      <c r="W16">
+        <v>3</v>
+      </c>
+      <c r="X16">
+        <v>11</v>
+      </c>
+      <c r="Y16">
+        <v>7</v>
+      </c>
+      <c r="Z16">
+        <v>8</v>
+      </c>
+      <c r="AA16">
+        <v>20</v>
+      </c>
+      <c r="AC16" s="208">
+        <v>43111</v>
+      </c>
+      <c r="AD16">
+        <v>9</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>215</v>
+      </c>
+      <c r="AF16">
+        <v>27570</v>
+      </c>
+      <c r="AG16">
+        <v>4</v>
+      </c>
+      <c r="AH16">
+        <v>104</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="0"/>
+        <v>7420</v>
+      </c>
+      <c r="AK16" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL16" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E17">
+        <v>29750</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>12</v>
+      </c>
+      <c r="H17">
         <v>6</v>
       </c>
-      <c r="K16">
+      <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="J17">
         <v>20</v>
       </c>
-      <c r="L16" t="s">
-        <v>228</v>
-      </c>
-      <c r="M16" s="212">
-        <v>43090</v>
-      </c>
-      <c r="N16" t="s">
-        <v>229</v>
-      </c>
-      <c r="O16" t="s">
-        <v>22</v>
-      </c>
-      <c r="P16">
-        <v>310</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>1</v>
-      </c>
-      <c r="S16" t="s">
-        <v>220</v>
+      <c r="L17" s="208">
+        <v>43111</v>
+      </c>
+      <c r="M17" t="s">
+        <v>213</v>
+      </c>
+      <c r="N17" t="s">
+        <v>215</v>
+      </c>
+      <c r="O17">
+        <v>18156</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>65</v>
+      </c>
+      <c r="R17" t="s">
+        <v>210</v>
+      </c>
+      <c r="S17" t="s">
+        <v>174</v>
+      </c>
+      <c r="U17" t="s">
+        <v>231</v>
+      </c>
+      <c r="V17">
+        <v>29160</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>12</v>
+      </c>
+      <c r="Y17">
+        <v>6</v>
+      </c>
+      <c r="Z17">
+        <v>6</v>
+      </c>
+      <c r="AA17">
+        <v>20</v>
+      </c>
+      <c r="AC17" s="208">
+        <v>43111</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>215</v>
+      </c>
+      <c r="AF17">
+        <v>18156</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>65</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="0"/>
+        <v>-590</v>
+      </c>
+      <c r="AK17" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL17" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>197</v>
-      </c>
-      <c r="B17" t="s">
-        <v>198</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" s="207">
+        <v>32110</v>
+      </c>
+      <c r="E18">
+        <v>193370</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>13</v>
+      </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
+      <c r="I18">
+        <v>6</v>
+      </c>
+      <c r="J18">
+        <v>7</v>
+      </c>
+      <c r="L18" s="208">
+        <v>43111</v>
+      </c>
+      <c r="M18" t="s">
+        <v>214</v>
+      </c>
+      <c r="N18" t="s">
+        <v>215</v>
+      </c>
+      <c r="O18">
+        <v>52416</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>88</v>
+      </c>
+      <c r="R18" t="s">
+        <v>210</v>
+      </c>
+      <c r="S18" t="s">
+        <v>176</v>
+      </c>
+      <c r="U18" s="207">
+        <v>32111</v>
+      </c>
+      <c r="V18">
+        <v>199650</v>
+      </c>
+      <c r="W18">
+        <v>4</v>
+      </c>
+      <c r="X18">
+        <v>13</v>
+      </c>
+      <c r="Y18">
+        <v>7</v>
+      </c>
+      <c r="Z18">
+        <v>6</v>
+      </c>
+      <c r="AA18">
+        <v>7</v>
+      </c>
+      <c r="AC18" s="208">
+        <v>43111</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>215</v>
+      </c>
+      <c r="AF18">
+        <v>52416</v>
+      </c>
+      <c r="AG18">
+        <v>1</v>
+      </c>
+      <c r="AH18">
+        <v>88</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="0"/>
+        <v>6280</v>
+      </c>
+      <c r="AK18" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL18" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19" t="s">
         <v>123</v>
       </c>
-      <c r="E17" t="s">
-        <v>199</v>
-      </c>
-      <c r="F17">
-        <v>12030</v>
-      </c>
-      <c r="G17">
-        <v>6</v>
-      </c>
-      <c r="H17">
-        <v>13</v>
-      </c>
-      <c r="I17">
-        <v>5</v>
-      </c>
-      <c r="J17">
-        <v>4</v>
-      </c>
-      <c r="K17">
-        <v>20</v>
-      </c>
-      <c r="M17" s="212">
-        <v>43111</v>
-      </c>
-      <c r="N17" t="s">
-        <v>226</v>
-      </c>
-      <c r="O17" t="s">
-        <v>20</v>
-      </c>
-      <c r="P17">
-        <v>5232</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>67</v>
-      </c>
-      <c r="S17" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>160</v>
-      </c>
-      <c r="B18" t="s">
-        <v>200</v>
-      </c>
-      <c r="C18" t="s">
-        <v>131</v>
-      </c>
-      <c r="E18" t="s">
-        <v>201</v>
-      </c>
-      <c r="F18">
-        <v>3430</v>
-      </c>
-      <c r="G18">
-        <v>5</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18">
-        <v>5</v>
-      </c>
-      <c r="J18">
-        <v>8</v>
-      </c>
-      <c r="K18">
-        <v>20</v>
-      </c>
-      <c r="L18" t="s">
-        <v>228</v>
-      </c>
-      <c r="M18" s="212">
-        <v>43104</v>
-      </c>
-      <c r="N18" t="s">
-        <v>230</v>
-      </c>
-      <c r="O18" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18">
-        <v>410</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>5</v>
-      </c>
-      <c r="S18" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>160</v>
-      </c>
-      <c r="B19" t="s">
-        <v>202</v>
-      </c>
-      <c r="E19" t="s">
-        <v>203</v>
+      <c r="D19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E19">
+        <v>56080</v>
       </c>
       <c r="F19">
-        <v>1520</v>
+        <v>3</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I19">
         <v>7</v>
       </c>
       <c r="J19">
+        <v>20</v>
+      </c>
+      <c r="L19" s="208">
+        <v>43104</v>
+      </c>
+      <c r="M19">
+        <v>10</v>
+      </c>
+      <c r="N19" t="s">
+        <v>215</v>
+      </c>
+      <c r="O19">
+        <v>21480</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>65</v>
+      </c>
+      <c r="R19" t="s">
+        <v>210</v>
+      </c>
+      <c r="S19" t="s">
+        <v>177</v>
+      </c>
+      <c r="U19" t="s">
+        <v>232</v>
+      </c>
+      <c r="V19">
+        <v>49360</v>
+      </c>
+      <c r="W19">
+        <v>3</v>
+      </c>
+      <c r="X19">
+        <v>12</v>
+      </c>
+      <c r="Y19">
+        <v>6</v>
+      </c>
+      <c r="Z19">
         <v>7</v>
       </c>
-      <c r="K19">
+      <c r="AA19">
         <v>20</v>
       </c>
-      <c r="L19" t="s">
-        <v>228</v>
-      </c>
-      <c r="M19" s="212">
+      <c r="AC19" s="208">
+        <v>43104</v>
+      </c>
+      <c r="AD19">
+        <v>10</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>215</v>
+      </c>
+      <c r="AF19">
+        <v>21480</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>65</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="0"/>
+        <v>-6720</v>
+      </c>
+      <c r="AK19" s="13">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="AL19" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20">
+        <v>84120</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>7</v>
+      </c>
+      <c r="J20">
+        <v>20</v>
+      </c>
+      <c r="L20" s="208">
+        <v>43111</v>
+      </c>
+      <c r="M20">
+        <v>9</v>
+      </c>
+      <c r="N20" t="s">
+        <v>211</v>
+      </c>
+      <c r="O20">
+        <v>34050</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
+      </c>
+      <c r="R20" t="s">
+        <v>210</v>
+      </c>
+      <c r="S20" t="s">
+        <v>159</v>
+      </c>
+      <c r="U20" t="s">
+        <v>224</v>
+      </c>
+      <c r="V20">
+        <v>79710</v>
+      </c>
+      <c r="W20">
+        <v>3</v>
+      </c>
+      <c r="X20">
+        <v>10</v>
+      </c>
+      <c r="Y20">
+        <v>5</v>
+      </c>
+      <c r="Z20">
+        <v>7</v>
+      </c>
+      <c r="AA20">
+        <v>20</v>
+      </c>
+      <c r="AC20" s="208">
+        <v>43111</v>
+      </c>
+      <c r="AD20">
+        <v>9</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>211</v>
+      </c>
+      <c r="AF20">
+        <v>34050</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>3</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ20">
+        <f t="shared" si="0"/>
+        <v>-4410</v>
+      </c>
+      <c r="AK20" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL20" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>195</v>
+      </c>
+      <c r="D21" t="s">
+        <v>196</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>11</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>20</v>
+      </c>
+      <c r="L21" s="208">
         <v>43097</v>
       </c>
-      <c r="N19">
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>211</v>
+      </c>
+      <c r="O21">
+        <v>300</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>80</v>
+      </c>
+      <c r="R21" t="s">
+        <v>210</v>
+      </c>
+      <c r="S21" t="s">
+        <v>195</v>
+      </c>
+      <c r="U21" s="207">
+        <v>46100</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>5</v>
+      </c>
+      <c r="X21">
+        <v>11</v>
+      </c>
+      <c r="Y21">
         <v>3</v>
       </c>
-      <c r="O19" t="s">
-        <v>18</v>
-      </c>
-      <c r="P19">
-        <v>370</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>4</v>
-      </c>
-      <c r="S19" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>204</v>
-      </c>
-      <c r="B20" t="s">
-        <v>205</v>
-      </c>
-      <c r="E20" t="s">
-        <v>206</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>5</v>
-      </c>
-      <c r="H20">
-        <v>11</v>
-      </c>
-      <c r="I20">
-        <v>4</v>
-      </c>
-      <c r="J20">
-        <v>3</v>
-      </c>
-      <c r="K20">
+      <c r="Z21">
+        <v>2</v>
+      </c>
+      <c r="AA21">
         <v>20</v>
       </c>
-      <c r="M20" s="212">
+      <c r="AC21" s="208">
         <v>43097</v>
       </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20" t="s">
-        <v>221</v>
-      </c>
-      <c r="P20">
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>211</v>
+      </c>
+      <c r="AF21">
         <v>300</v>
       </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
         <v>80</v>
       </c>
-      <c r="S20" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>160</v>
-      </c>
-      <c r="B21" t="s">
-        <v>207</v>
-      </c>
-      <c r="C21" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" t="s">
-        <v>208</v>
-      </c>
-      <c r="F21">
-        <v>1820</v>
-      </c>
-      <c r="G21">
-        <v>4</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21">
-        <v>6</v>
-      </c>
-      <c r="J21">
-        <v>7</v>
-      </c>
-      <c r="K21">
-        <v>20</v>
-      </c>
-      <c r="L21" t="s">
-        <v>228</v>
-      </c>
-      <c r="M21" s="212">
-        <v>43104</v>
-      </c>
-      <c r="N21" t="s">
-        <v>229</v>
-      </c>
-      <c r="O21" t="s">
-        <v>22</v>
-      </c>
-      <c r="P21">
-        <v>330</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>3</v>
+      <c r="AI21" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK21" s="13">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="AL21" s="13">
+        <f t="shared" si="2"/>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:AK21">
+    <sortCondition ref="AE2:AE21"/>
+  </sortState>
+  <conditionalFormatting sqref="AJ2:AJ21">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E532274F-0A76-4C68-9E1F-E6559891A524}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E532274F-0A76-4C68-9E1F-E6559891A524}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AJ2:AJ21</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9873,7 +11115,7 @@
   <dimension ref="A1:BR59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9939,7 +11181,7 @@
   <sheetData>
     <row r="1" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A1" s="206" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B1" t="s">
         <v>145</v>
@@ -9957,11 +11199,11 @@
       </c>
       <c r="K1" s="202">
         <f>IF(D3="SI",COUNTIF($J$6:$J$18,"RAP"),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1" s="13"/>
-      <c r="P1" s="207"/>
-      <c r="Q1" s="207"/>
+      <c r="P1" s="211"/>
+      <c r="Q1" s="211"/>
       <c r="R1" s="152">
         <v>0</v>
       </c>
@@ -9993,7 +11235,7 @@
       </c>
       <c r="K2" s="202">
         <f>IF(D3="SI",COUNTIF($J$6:$J$18,"TEC"),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L2" s="13"/>
       <c r="M2" s="163"/>
@@ -10025,10 +11267,10 @@
       <c r="A3" s="162" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="208" t="s">
+      <c r="B3" s="212" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="208"/>
+      <c r="C3" s="212"/>
       <c r="D3" t="str">
         <f>IF(B3="Sol","SI",IF(B3="Lluvia","SI","NO"))</f>
         <v>SI</v>
@@ -10177,7 +11419,7 @@
       </c>
       <c r="BJ4" s="107">
         <f t="shared" ref="BJ4:BJ13" si="0">$H$25*H40</f>
-        <v>9.9940002330610239E-4</v>
+        <v>1.3813184411301832E-3</v>
       </c>
       <c r="BL4">
         <v>0</v>
@@ -10187,7 +11429,7 @@
       </c>
       <c r="BN4" s="107">
         <f>H25*H39</f>
-        <v>2.2206844782739888E-4</v>
+        <v>2.7775955368196099E-4</v>
       </c>
       <c r="BP4">
         <v>1</v>
@@ -10197,7 +11439,7 @@
       </c>
       <c r="BR4" s="107">
         <f>$H$26*H39</f>
-        <v>1.4648054702574315E-3</v>
+        <v>1.4599970713355032E-3</v>
       </c>
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.25">
@@ -10208,7 +11450,7 @@
         <v>352</v>
       </c>
       <c r="C5" s="161">
-        <v>352</v>
+        <v>541</v>
       </c>
       <c r="E5" s="192" t="s">
         <v>15</v>
@@ -10320,7 +11562,7 @@
       </c>
       <c r="BJ5" s="107">
         <f t="shared" si="0"/>
-        <v>2.0831532020851766E-3</v>
+        <v>3.1322344018260262E-3</v>
       </c>
       <c r="BL5">
         <v>1</v>
@@ -10330,7 +11572,7 @@
       </c>
       <c r="BN5" s="107">
         <f>$H$26*H40</f>
-        <v>6.5922315188693993E-3</v>
+        <v>7.2606715120984364E-3</v>
       </c>
       <c r="BP5">
         <f>BP4+1</f>
@@ -10341,7 +11583,7 @@
       </c>
       <c r="BR5" s="107">
         <f>$H$27*H39</f>
-        <v>3.8460110946426122E-3</v>
+        <v>3.251202128813681E-3</v>
       </c>
     </row>
     <row r="6" spans="1:70" x14ac:dyDescent="0.25">
@@ -10364,10 +11606,10 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="166" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="K6" s="166">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
@@ -10428,11 +11670,11 @@
       </c>
       <c r="AD6" s="177">
         <f>AB6*AC5*PRODUCT(AC7:AC19)</f>
-        <v>4.5161944814896111E-2</v>
+        <v>4.4250442645471143E-2</v>
       </c>
       <c r="AE6" s="177">
         <f>AB6*AB7*PRODUCT(AC8:AC19)*PRODUCT(AC5)+AB6*AB8*PRODUCT(AC9:AC19)*AC5*PRODUCT(AC7)+AB6*AB9*PRODUCT(AC10:AC19)*AC5*PRODUCT(AC7:AC8)+AB6*AB10*PRODUCT(AC11:AC19)*AC5*PRODUCT(AC7:AC9)+AB6*AB11*PRODUCT(AC12:AC19)*AC5*PRODUCT(AC7:AC10)+AB6*AB12*PRODUCT(AC13:AC19)*AC5*PRODUCT(AC7:AC11)+AB6*AB13*PRODUCT(AC14:AC19)*AC5*PRODUCT(AC7:AC12)+AB6*AB14*PRODUCT(AC15:AC19)*AC5*PRODUCT(AC7:AC13)+AB6*AB15*PRODUCT(AC16:AC19)*AC5*PRODUCT(AC7:AC14)+AB6*AB16*PRODUCT(AC17:AC19)*AC5*PRODUCT(AC7:AC15)+AB6*AB17*PRODUCT(AC18:AC19)*AC5*PRODUCT(AC7:AC16)+AB6*AB18*PRODUCT(AC19)*AC5*PRODUCT(AC7:AC17)+AB6*AB19*AC5*PRODUCT(AC7:AC18)</f>
-        <v>1.263842116789006E-2</v>
+        <v>1.3290196252379843E-2</v>
       </c>
       <c r="AF6" s="18"/>
       <c r="AG6" s="203">
@@ -10462,7 +11704,7 @@
       </c>
       <c r="BJ6" s="107">
         <f t="shared" si="0"/>
-        <v>2.6736280410696173E-3</v>
+        <v>4.3036848401919875E-3</v>
       </c>
       <c r="BL6">
         <f>BH14+1</f>
@@ -10473,7 +11715,7 @@
       </c>
       <c r="BN6" s="107">
         <f>$H$27*H41</f>
-        <v>3.6078202038350861E-2</v>
+        <v>3.6663103105430972E-2</v>
       </c>
       <c r="BP6">
         <f>BL5+1</f>
@@ -10484,7 +11726,7 @@
       </c>
       <c r="BR6" s="107">
         <f>$H$27*H40</f>
-        <v>1.7308643417046111E-2</v>
+        <v>1.6168464403259555E-2</v>
       </c>
     </row>
     <row r="7" spans="1:70" x14ac:dyDescent="0.25">
@@ -10495,7 +11737,7 @@
         <v>8.75</v>
       </c>
       <c r="C7" s="169">
-        <v>16.75</v>
+        <v>18</v>
       </c>
       <c r="E7" s="192" t="s">
         <v>18</v>
@@ -10582,7 +11824,7 @@
       </c>
       <c r="BJ7" s="107">
         <f t="shared" si="0"/>
-        <v>2.3700171019551439E-3</v>
+        <v>4.0191427264795812E-3</v>
       </c>
       <c r="BL7">
         <f>BH23+1</f>
@@ -10593,7 +11835,7 @@
       </c>
       <c r="BN7" s="107">
         <f>$H$28*H42</f>
-        <v>6.524585253715913E-2</v>
+        <v>6.3976476904600302E-2</v>
       </c>
       <c r="BP7">
         <f>BP5+1</f>
@@ -10604,7 +11846,7 @@
       </c>
       <c r="BR7" s="107">
         <f>$H$28*H39</f>
-        <v>5.4192449276922461E-3</v>
+        <v>4.1290378666234634E-3</v>
       </c>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.25">
@@ -10615,7 +11857,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="169">
-        <v>23</v>
+        <v>22.25</v>
       </c>
       <c r="E8" s="192" t="s">
         <v>18</v>
@@ -10628,7 +11870,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="166">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
@@ -10688,11 +11930,11 @@
       </c>
       <c r="AD8" s="177">
         <f>AB8*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC19)</f>
-        <v>4.5161944814896111E-2</v>
+        <v>4.4250442645471143E-2</v>
       </c>
       <c r="AE8" s="177">
         <f>AB8*AB9*PRODUCT(AC5:AC7)*PRODUCT(AC10:AC19)+AB8*AB10*PRODUCT(AC5:AC7)*PRODUCT(AC9)*PRODUCT(AC11:AC19)+AB8*AB11*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC10)*PRODUCT(AC12:AC19)+AB8*AB12*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC11)*PRODUCT(AC13:AC19)+AB8*AB13*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC12)*PRODUCT(AC14:AC19)+AB8*AB14*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC13)*PRODUCT(AC15:AC19)+AB8*AB15*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC14)*PRODUCT(AC16:AC19)+AB8*AB16*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC15)*PRODUCT(AC17:AC19)+AB8*AB17*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC16)*PRODUCT(AC18:AC19)+AB8*AB18*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC17)*PRODUCT(AC19)+AB8*AB19*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC18)</f>
-        <v>9.7982788551574662E-3</v>
+        <v>1.0507376446243062E-2</v>
       </c>
       <c r="AG8" s="203">
         <f>IF(COUNTIF(F6:F18,"IMP")+COUNTIF(J6:J18,"IMP")=0,0,COUNTIF(F6:F18,"IMP")/(COUNTIF(F6:F18,"IMP")+COUNTIF(J6:J18,"IMP")))</f>
@@ -10721,7 +11963,7 @@
       </c>
       <c r="BJ8" s="107">
         <f t="shared" si="0"/>
-        <v>1.5428784299355012E-3</v>
+        <v>2.7142411137565932E-3</v>
       </c>
       <c r="BL8">
         <f>BH31+1</f>
@@ -10732,7 +11974,7 @@
       </c>
       <c r="BN8" s="107">
         <f>$H$29*H43</f>
-        <v>5.0593537919078321E-2</v>
+        <v>4.8977209460934541E-2</v>
       </c>
       <c r="BP8">
         <f>BP6+1</f>
@@ -10743,7 +11985,7 @@
       </c>
       <c r="BR8" s="107">
         <f>$H$28*H40</f>
-        <v>2.4388847492853426E-2</v>
+        <v>2.0534005306699313E-2</v>
       </c>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.25">
@@ -10754,7 +11996,7 @@
         <v>5.75</v>
       </c>
       <c r="C9" s="169">
-        <v>16.75</v>
+        <v>17</v>
       </c>
       <c r="E9" s="192" t="s">
         <v>18</v>
@@ -10769,7 +12011,7 @@
         <v>154</v>
       </c>
       <c r="K9" s="166">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
@@ -10862,7 +12104,7 @@
       </c>
       <c r="BJ9" s="107">
         <f t="shared" si="0"/>
-        <v>7.6523836797520294E-4</v>
+        <v>1.3771741963693742E-3</v>
       </c>
       <c r="BL9">
         <f>BH38+1</f>
@@ -10873,7 +12115,7 @@
       </c>
       <c r="BN9" s="107">
         <f>$H$30*H44</f>
-        <v>1.9376843598816158E-2</v>
+        <v>1.8684510179701973E-2</v>
       </c>
       <c r="BP9">
         <f>BL6+1</f>
@@ -10884,7 +12126,7 @@
       </c>
       <c r="BR9" s="107">
         <f>$H$28*H41</f>
-        <v>5.0836206288884148E-2</v>
+        <v>4.6562266826972842E-2</v>
       </c>
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.25">
@@ -10895,7 +12137,7 @@
         <v>13.25</v>
       </c>
       <c r="C10" s="169">
-        <v>12.5</v>
+        <v>12.75</v>
       </c>
       <c r="E10" s="192" t="s">
         <v>17</v>
@@ -10905,16 +12147,16 @@
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="166" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="K10" s="166">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="O10" s="67">
         <f>COUNTIF(F11:F18,"RAP")*AI10*AG10</f>
-        <v>0.76200000000000001</v>
+        <v>0.65314285714285714</v>
       </c>
       <c r="P10" s="196" t="str">
         <f>R3</f>
@@ -10922,23 +12164,23 @@
       </c>
       <c r="Q10" s="16">
         <f t="shared" si="1"/>
-        <v>0.54864000000000002</v>
+        <v>0.47026285714285709</v>
       </c>
       <c r="R10" s="157">
         <f>IF($M$2="SI",Q10*$B$22/0.5*$S$1,Q10*$B$22/0.5*$S$2)</f>
-        <v>0.67127717647058827</v>
+        <v>0.57538043697478991</v>
       </c>
       <c r="S10" s="176">
         <f t="shared" si="2"/>
-        <v>0.32872282352941173</v>
+        <v>0.42461956302521009</v>
       </c>
       <c r="T10" s="177">
         <f>R10*PRODUCT(S5:S9)*PRODUCT(S11:S19)</f>
-        <v>0.16221429257290343</v>
+        <v>0.17960253727930589</v>
       </c>
       <c r="U10" s="177">
         <f>R10*R11*PRODUCT(S5:S9)*PRODUCT(S12:S19)+R10*R12*PRODUCT(S5:S9)*S11*PRODUCT(S13:S19)+R10*R13*PRODUCT(S5:S9)*PRODUCT(S11:S12)*PRODUCT(S14:S19)+R10*R14*PRODUCT(S5:S9)*PRODUCT(S11:S13)*PRODUCT(S15:S19)+R10*R15*PRODUCT(S5:S9)*PRODUCT(S11:S14)*PRODUCT(S16:S19)+R10*R16*PRODUCT(S5:S9)*PRODUCT(S11:S15)*PRODUCT(S17:S19)+R10*R17*PRODUCT(S5:S9)*PRODUCT(S11:S16)*PRODUCT(S18:S19)+R10*R18*PRODUCT(S5:S9)*PRODUCT(S11:S17)*PRODUCT(S19)+R10*R19*PRODUCT(S5:S9)*PRODUCT(S11:S18)</f>
-        <v>0.38522336021741155</v>
+        <v>0.30312478383939589</v>
       </c>
       <c r="W10" s="186" t="s">
         <v>46</v>
@@ -10948,7 +12190,7 @@
       </c>
       <c r="Y10" s="69">
         <f>COUNTIF(J11:J18,"RAP")*AI10*AK10</f>
-        <v>0</v>
+        <v>1.8142857142857141E-2</v>
       </c>
       <c r="Z10" s="197" t="str">
         <f>AB3</f>
@@ -10956,27 +12198,27 @@
       </c>
       <c r="AA10" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.3062857142857142E-2</v>
       </c>
       <c r="AB10" s="157">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.0142924369747897E-2</v>
       </c>
       <c r="AC10" s="176">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.98985707563025205</v>
       </c>
       <c r="AD10" s="177">
         <f>AB10*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC19)</f>
-        <v>0</v>
+        <v>7.2100926996657528E-3</v>
       </c>
       <c r="AE10" s="177">
         <f>AB10*AB11*PRODUCT(AC5:AC9)*PRODUCT(AC12:AC19)+AB10*AB12*PRODUCT(AC5:AC9)*AC11*PRODUCT(AC13:AC19)+AB10*AB13*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC12)*PRODUCT(AC14:AC19)+AB10*AB14*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC13)*PRODUCT(AC15:AC19)+AB10*AB15*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC14)*PRODUCT(AC16:AC19)+AB10*AB16*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC15)*PRODUCT(AC17:AC19)+AB10*AB17*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC16)*PRODUCT(AC18:AC19)+AB10*AB18*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC17)*PRODUCT(AC19)+AB10*AB19*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC18)</f>
-        <v>0</v>
+        <v>1.6381734535149029E-3</v>
       </c>
       <c r="AG10" s="203">
         <f>IF(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")=0,0,COUNTIF(F11:F18,"RAP")/(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")))</f>
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AI10" s="206">
         <f t="shared" si="6"/>
@@ -10984,7 +12226,7 @@
       </c>
       <c r="AK10" s="203">
         <f>IF(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")=0,0,COUNTIF(J11:J18,"RAP")/(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")))</f>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AM10" s="13">
         <v>0.05</v>
@@ -11001,7 +12243,7 @@
       </c>
       <c r="BJ10" s="107">
         <f t="shared" si="0"/>
-        <v>2.9531437048813168E-4</v>
+        <v>5.3787355128760619E-4</v>
       </c>
       <c r="BL10">
         <f>BH44+1</f>
@@ -11012,7 +12254,7 @@
       </c>
       <c r="BN10" s="107">
         <f>$H$31*H45</f>
-        <v>3.9785689844345001E-3</v>
+        <v>3.8279832620216722E-3</v>
       </c>
       <c r="BP10">
         <f>BP7+1</f>
@@ -11023,7 +12265,7 @@
       </c>
       <c r="BR10" s="107">
         <f>$H$29*H39</f>
-        <v>4.7405685075090293E-3</v>
+        <v>3.3847735117316707E-3</v>
       </c>
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.25">
@@ -11034,7 +12276,7 @@
         <v>15.5</v>
       </c>
       <c r="C11" s="169">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="E11" s="192" t="s">
         <v>19</v>
@@ -11046,16 +12288,16 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="166" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="K11" s="166">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="O11" s="67">
         <f>COUNTIF(F11:F18,"RAP")*AI11*AG11</f>
-        <v>0.76200000000000001</v>
+        <v>0.65314285714285714</v>
       </c>
       <c r="P11" s="196" t="str">
         <f>R3</f>
@@ -11063,23 +12305,23 @@
       </c>
       <c r="Q11" s="16">
         <f t="shared" si="1"/>
-        <v>0.54864000000000002</v>
+        <v>0.47026285714285709</v>
       </c>
       <c r="R11" s="157">
         <f t="shared" si="8"/>
-        <v>0.67127717647058827</v>
+        <v>0.57538043697478991</v>
       </c>
       <c r="S11" s="176">
         <f t="shared" si="2"/>
-        <v>0.32872282352941173</v>
+        <v>0.42461956302521009</v>
       </c>
       <c r="T11" s="177">
         <f>R11*PRODUCT(S5:S10)*PRODUCT(S12:S19)</f>
-        <v>0.16221429257290343</v>
+        <v>0.17960253727930589</v>
       </c>
       <c r="U11" s="177">
         <f>R11*R12*PRODUCT(S5:S10)*PRODUCT(S13:S19)+R11*R13*PRODUCT(S5:S10)*S12*PRODUCT(S14:S19)+R11*R14*PRODUCT(S5:S10)*PRODUCT(S12:S13)*PRODUCT(S15:S19)+R11*R15*PRODUCT(S5:S10)*PRODUCT(S12:S14)*PRODUCT(S16:S19)+R11*R16*PRODUCT(S5:S10)*PRODUCT(S12:S15)*PRODUCT(S17:S19)+R11*R17*PRODUCT(S5:S10)*PRODUCT(S12:S16)*PRODUCT(S18:S19)+R11*R18*PRODUCT(S5:S10)*PRODUCT(S12:S17)*PRODUCT(S19)+R11*R19*PRODUCT(S5:S10)*PRODUCT(S12:S18)</f>
-        <v>5.3969353780070943E-2</v>
+        <v>5.9754493395635488E-2</v>
       </c>
       <c r="W11" s="186" t="s">
         <v>48</v>
@@ -11089,7 +12331,7 @@
       </c>
       <c r="Y11" s="69">
         <f>COUNTIF(J11:J18,"RAP")*AI11*AK11</f>
-        <v>0</v>
+        <v>1.8142857142857141E-2</v>
       </c>
       <c r="Z11" s="197" t="str">
         <f>AB3</f>
@@ -11097,27 +12339,27 @@
       </c>
       <c r="AA11" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.3062857142857142E-2</v>
       </c>
       <c r="AB11" s="157">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.0142924369747897E-2</v>
       </c>
       <c r="AC11" s="176">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.98985707563025205</v>
       </c>
       <c r="AD11" s="177">
         <f>AB11*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC19)</f>
-        <v>0</v>
+        <v>7.2100926996657528E-3</v>
       </c>
       <c r="AE11" s="177">
         <f>AB11*AB12*PRODUCT(AC5:AC10)*PRODUCT(AC13:AC19)+AB11*AB13*PRODUCT(AC5:AC10)*AC12*PRODUCT(AC14:AC19)+AB11*AB14*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC13)*PRODUCT(AC15:AC19)+AB11*AB15*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC14)*PRODUCT(AC16:AC19)+AB11*AB16*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC15)*PRODUCT(AC17:AC19)+AB11*AB17*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC16)*PRODUCT(AC18:AC19)+AB11*AB18*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC17)*PRODUCT(AC19)+AB11*AB19*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC18)</f>
-        <v>0</v>
+        <v>1.5642926612752582E-3</v>
       </c>
       <c r="AG11" s="203">
         <f>IF(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")=0,0,COUNTIF(F11:F18,"RAP")/(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")))</f>
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AI11" s="206">
         <f t="shared" si="6"/>
@@ -11125,7 +12367,7 @@
       </c>
       <c r="AK11" s="203">
         <f>IF(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")=0,0,COUNTIF(J11:J18,"RAP")/(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")))</f>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AM11" s="13">
         <v>0.05</v>
@@ -11142,7 +12384,7 @@
       </c>
       <c r="BJ11" s="107">
         <f t="shared" si="0"/>
-        <v>8.9175287114188394E-5</v>
+        <v>1.6361633579733381E-4</v>
       </c>
       <c r="BL11">
         <f>BH50+1</f>
@@ -11153,7 +12395,7 @@
       </c>
       <c r="BN11" s="107">
         <f>$H$32*H46</f>
-        <v>4.580194672925104E-4</v>
+        <v>4.3957731484426391E-4</v>
       </c>
       <c r="BP11">
         <f>BP8+1</f>
@@ -11164,7 +12406,7 @@
       </c>
       <c r="BR11" s="107">
         <f>$H$29*H40</f>
-        <v>2.1334522410725643E-2</v>
+        <v>1.6832724595163308E-2</v>
       </c>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.25">
@@ -11175,7 +12417,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="169">
-        <v>13.75</v>
+        <v>12.5</v>
       </c>
       <c r="E12" s="192" t="s">
         <v>19</v>
@@ -11258,7 +12500,7 @@
       </c>
       <c r="BJ12" s="107">
         <f t="shared" si="0"/>
-        <v>2.0754161431267301E-5</v>
+        <v>3.8539325875069156E-5</v>
       </c>
       <c r="BL12">
         <f>BH54+1</f>
@@ -11269,7 +12511,7 @@
       </c>
       <c r="BN12" s="107">
         <f>$H$33*H47</f>
-        <v>2.9964937837285556E-5</v>
+        <v>2.8759567210037457E-5</v>
       </c>
       <c r="BP12">
         <f>BP9+1</f>
@@ -11280,7 +12522,7 @@
       </c>
       <c r="BR12" s="107">
         <f>$H$29*H41</f>
-        <v>4.4469759494140802E-2</v>
+        <v>3.816935869638808E-2</v>
       </c>
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.25">
@@ -11332,11 +12574,11 @@
       </c>
       <c r="T13" s="177">
         <f>R13*PRODUCT(S5:S12)*PRODUCT(S14:S19)</f>
-        <v>1.3788447032243682E-2</v>
+        <v>2.300676921657719E-2</v>
       </c>
       <c r="U13" s="177">
         <f>R13*R14*PRODUCT(S5:S12)*PRODUCT(S15:S19)+R13*R15*PRODUCT(S5:S12)*S14*PRODUCT(S16:S19)+R13*R16*PRODUCT(S5:S12)*PRODUCT(S14:S15)*PRODUCT(S17:S19)+R13*R17*PRODUCT(S5:S12)*PRODUCT(S14:S16)*PRODUCT(S18:S19)+R13*R18*PRODUCT(S5:S12)*PRODUCT(S14:S17)*PRODUCT(S19)+R13*R19*PRODUCT(S5:S12)*PRODUCT(S14:S18)</f>
-        <v>2.1940815195966397E-3</v>
+        <v>3.6609436179197391E-3</v>
       </c>
       <c r="W13" s="186" t="s">
         <v>52</v>
@@ -11366,11 +12608,11 @@
       </c>
       <c r="AD13" s="177">
         <f>AB13*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC19)</f>
-        <v>4.5486691754708423E-2</v>
+        <v>4.4568635227596562E-2</v>
       </c>
       <c r="AE13" s="177">
         <f>AB13*AB14*PRODUCT(AC5:AC12)*PRODUCT(AC15:AC19)+AB13*AB15*PRODUCT(AC5:AC12)*AC14*PRODUCT(AC16:AC19)+AB13*AB16*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC15)*PRODUCT(AC17:AC19)+AB13*AB17*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC16)*PRODUCT(AC18:AC19)+AB13*AB18*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC17)*PRODUCT(AC19)+AB13*AB19*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC18)</f>
-        <v>6.987601035814528E-3</v>
+        <v>6.8465704949614622E-3</v>
       </c>
       <c r="AG13" s="13"/>
       <c r="AI13" s="206">
@@ -11389,7 +12631,7 @@
       </c>
       <c r="BJ13" s="107">
         <f t="shared" si="0"/>
-        <v>3.5661771394199149E-6</v>
+        <v>6.7989969198621592E-6</v>
       </c>
       <c r="BL13">
         <f>BH57+1</f>
@@ -11400,7 +12642,7 @@
       </c>
       <c r="BN13" s="107">
         <f>$H$34*H48</f>
-        <v>1.0898507172620233E-6</v>
+        <v>1.0563397672866225E-6</v>
       </c>
       <c r="BP13">
         <f>BL7+1</f>
@@ -11411,7 +12653,7 @@
       </c>
       <c r="BR13" s="107">
         <f>$H$29*H42</f>
-        <v>5.7074820922506132E-2</v>
+        <v>5.2444635141523976E-2</v>
       </c>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.25">
@@ -11437,7 +12679,7 @@
         <v>146</v>
       </c>
       <c r="K14" s="166">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
@@ -11497,11 +12739,11 @@
       </c>
       <c r="AD14" s="177">
         <f>AB14*PRODUCT(AC5:AC13)*PRODUCT(AC15:AC19)</f>
-        <v>4.1784129802261871E-2</v>
+        <v>4.0940801971310406E-2</v>
       </c>
       <c r="AE14" s="177">
         <f>AB14*AB15*PRODUCT(AC5:AC13)*PRODUCT(AC16:AC19)+AB14*AB16*PRODUCT(AC5:AC13)*AC15*PRODUCT(AC17:AC19)+AB14*AB17*PRODUCT(AC5:AC13)*PRODUCT(AC15:AC16)*PRODUCT(AC18:AC19)+AB14*AB18*PRODUCT(AC5:AC13)*PRODUCT(AC15:AC17)*PRODUCT(AC19)+AB14*AB19*PRODUCT(AC5:AC13)*PRODUCT(AC15:AC18)</f>
-        <v>3.9876362592816727E-3</v>
+        <v>3.9071539169886101E-3</v>
       </c>
       <c r="AG14" s="13"/>
       <c r="AI14" s="206">
@@ -11524,7 +12766,7 @@
       </c>
       <c r="BJ14" s="107">
         <f t="shared" ref="BJ14:BJ22" si="9">$H$26*H41</f>
-        <v>1.3740872400613805E-2</v>
+        <v>1.6464071146364698E-2</v>
       </c>
       <c r="BL14">
         <f>BP39+1</f>
@@ -11535,7 +12777,7 @@
       </c>
       <c r="BN14" s="107">
         <f>$H$35*H49</f>
-        <v>2.0600753602125121E-8</v>
+        <v>2.0531993072057191E-8</v>
       </c>
       <c r="BP14">
         <f>BP10+1</f>
@@ -11546,7 +12788,7 @@
       </c>
       <c r="BR14" s="107">
         <f>$H$30*H39</f>
-        <v>2.7889336569202386E-3</v>
+        <v>1.9120634426973337E-3</v>
       </c>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.25">
@@ -11644,7 +12886,7 @@
       </c>
       <c r="BJ15" s="107">
         <f t="shared" si="9"/>
-        <v>1.7635756084702265E-2</v>
+        <v>2.2621606275425751E-2</v>
       </c>
       <c r="BP15">
         <f>BP11+1</f>
@@ -11655,7 +12897,7 @@
       </c>
       <c r="BR15" s="107">
         <f>$H$30*H40</f>
-        <v>1.2551356975717859E-2</v>
+        <v>9.5088304218434606E-3</v>
       </c>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.25">
@@ -11668,7 +12910,7 @@
       </c>
       <c r="C16" s="54">
         <f>AVERAGE(K5:K18)</f>
-        <v>12.545454545454545</v>
+        <v>12.181818181818182</v>
       </c>
       <c r="E16" s="192" t="s">
         <v>22</v>
@@ -11751,7 +12993,7 @@
       </c>
       <c r="BJ16" s="107">
         <f t="shared" si="9"/>
-        <v>1.563308092397641E-2</v>
+        <v>2.1125957801107563E-2</v>
       </c>
       <c r="BP16">
         <f>BP12+1</f>
@@ -11762,7 +13004,7 @@
       </c>
       <c r="BR16" s="107">
         <f>$H$30*H41</f>
-        <v>2.6162096122417735E-2</v>
+        <v>2.1561925825053813E-2</v>
       </c>
     </row>
     <row r="17" spans="1:70" x14ac:dyDescent="0.25">
@@ -11770,10 +13012,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="172" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C17" s="173" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E17" s="192" t="s">
         <v>22</v>
@@ -11814,7 +13056,7 @@
       </c>
       <c r="T17" s="177">
         <f>R17*PRODUCT(S5:S16)*PRODUCT(S18:S19)</f>
-        <v>1.2640216090075304E-2</v>
+        <v>2.1090883821214993E-2</v>
       </c>
       <c r="U17" s="177">
         <f>R17*R18*PRODUCT(S5:S16)*S19+R17*R19*PRODUCT(S5:S16)*S18</f>
@@ -11848,7 +13090,7 @@
       </c>
       <c r="AD17" s="177">
         <f>AB17*PRODUCT(AC5:AC16)*PRODUCT(AC18:AC19)</f>
-        <v>6.853451501147538E-2</v>
+        <v>6.7151284963046565E-2</v>
       </c>
       <c r="AE17" s="177">
         <f>AB17*AB18*PRODUCT(AC5:AC16)*AC19+AB17*AB19*PRODUCT(AC5:AC16)*AC18</f>
@@ -11881,7 +13123,7 @@
       </c>
       <c r="BJ17" s="107">
         <f t="shared" si="9"/>
-        <v>1.0177117849125067E-2</v>
+        <v>1.4266958685858526E-2</v>
       </c>
       <c r="BP17">
         <f>BP13+1</f>
@@ -11892,7 +13134,7 @@
       </c>
       <c r="BR17" s="107">
         <f>$H$30*H42</f>
-        <v>3.3577805864705053E-2</v>
+        <v>2.962605009527073E-2</v>
       </c>
     </row>
     <row r="18" spans="1:70" x14ac:dyDescent="0.25">
@@ -11903,7 +13145,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="173">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18" s="192" t="s">
         <v>22</v>
@@ -11982,7 +13224,7 @@
       </c>
       <c r="BJ18" s="107">
         <f t="shared" si="9"/>
-        <v>5.047656965352313E-3</v>
+        <v>7.2388879761823071E-3</v>
       </c>
       <c r="BP18">
         <f>BL8+1</f>
@@ -11993,7 +13235,7 @@
       </c>
       <c r="BR18" s="107">
         <f>$H$30*H43</f>
-        <v>2.9764788864812985E-2</v>
+        <v>2.766729632307725E-2</v>
       </c>
     </row>
     <row r="19" spans="1:70" x14ac:dyDescent="0.25">
@@ -12096,7 +13338,7 @@
       </c>
       <c r="BJ19" s="107">
         <f t="shared" si="9"/>
-        <v>1.9479494253630456E-3</v>
+        <v>2.827243200886999E-3</v>
       </c>
       <c r="BP19">
         <f>BP15+1</f>
@@ -12107,7 +13349,7 @@
       </c>
       <c r="BR19" s="107">
         <f>$H$31*H40</f>
-        <v>5.1960044113961903E-3</v>
+        <v>3.8395025742625787E-3</v>
       </c>
     </row>
     <row r="20" spans="1:70" x14ac:dyDescent="0.25">
@@ -12124,19 +13366,19 @@
       <c r="Q20" s="22"/>
       <c r="S20" s="180">
         <f>PRODUCT(S5:S19)</f>
-        <v>7.9435950067233141E-2</v>
+        <v>0.13254317664800844</v>
       </c>
       <c r="T20" s="181">
         <f>SUM(T5:T19)</f>
-        <v>0.35085724826812587</v>
+        <v>0.40330272759640395</v>
       </c>
       <c r="U20" s="181">
         <f>SUM(U5:U19)</f>
-        <v>0.44138679551707916</v>
+        <v>0.36654022085295113</v>
       </c>
       <c r="V20" s="181">
         <f>1-S20-T20-U20</f>
-        <v>0.12832000614756178</v>
+        <v>9.761387490263651E-2</v>
       </c>
       <c r="W20" s="21"/>
       <c r="X20" s="22"/>
@@ -12146,19 +13388,19 @@
       <c r="AB20" s="23"/>
       <c r="AC20" s="184">
         <f>PRODUCT(AC5:AC19)</f>
-        <v>0.71813347180527609</v>
+        <v>0.70363940561370475</v>
       </c>
       <c r="AD20" s="181">
         <f>SUM(AD5:AD19)</f>
-        <v>0.2461292261982379</v>
+        <v>0.25558179285222732</v>
       </c>
       <c r="AE20" s="181">
         <f>SUM(AE5:AE19)</f>
-        <v>3.3411937318143729E-2</v>
+        <v>3.7753763225363141E-2</v>
       </c>
       <c r="AF20" s="181">
         <f>1-AC20-AD20-AE20</f>
-        <v>2.3253646783422746E-3</v>
+        <v>3.0250383087047916E-3</v>
       </c>
       <c r="BH20">
         <v>1</v>
@@ -12168,7 +13410,7 @@
       </c>
       <c r="BJ20" s="107">
         <f t="shared" si="9"/>
-        <v>5.8821705494229934E-4</v>
+        <v>8.6002215916675259E-4</v>
       </c>
       <c r="BP20">
         <f>BP16+1</f>
@@ -12179,7 +13421,7 @@
       </c>
       <c r="BR20" s="107">
         <f>$H$31*H41</f>
-        <v>1.0830571318021086E-2</v>
+        <v>8.7063356941539712E-3</v>
       </c>
     </row>
     <row r="21" spans="1:70" x14ac:dyDescent="0.25">
@@ -12204,7 +13446,7 @@
       </c>
       <c r="BJ21" s="107">
         <f t="shared" si="9"/>
-        <v>1.3689837296811732E-4</v>
+        <v>2.0257558079630445E-4</v>
       </c>
       <c r="BP21">
         <f>BP17+1</f>
@@ -12215,7 +13457,7 @@
       </c>
       <c r="BR21" s="107">
         <f>$H$31*H42</f>
-        <v>1.3900523085714701E-2</v>
+        <v>1.1962490712288011E-2</v>
       </c>
     </row>
     <row r="22" spans="1:70" x14ac:dyDescent="0.25">
@@ -12238,7 +13480,7 @@
       </c>
       <c r="AS22" s="82">
         <f>Y23+AA23+AC23+AE23+AG23+AI23+AK23+AM23+AO23+AQ23+AS23</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="BH22">
         <v>1</v>
@@ -12248,7 +13490,7 @@
       </c>
       <c r="BJ22" s="107">
         <f t="shared" si="9"/>
-        <v>2.3523178699341466E-5</v>
+        <v>3.573780076844404E-5</v>
       </c>
       <c r="BP22">
         <f>BP18+1</f>
@@ -12259,7 +13501,7 @@
       </c>
       <c r="BR22" s="107">
         <f>$H$31*H43</f>
-        <v>1.2322012237007466E-2</v>
+        <v>1.1171579546872002E-2</v>
       </c>
     </row>
     <row r="23" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12284,7 +13526,7 @@
       </c>
       <c r="H23" s="59">
         <f>SUM(H25:H35)</f>
-        <v>0.99999508748738486</v>
+        <v>0.99999581423500705</v>
       </c>
       <c r="J23" s="59">
         <f>SUM(J25:J35)</f>
@@ -12333,7 +13575,7 @@
       <c r="AD23" s="81"/>
       <c r="AE23" s="80">
         <f>SUM(AE25:AE35)</f>
-        <v>1.3702479483938765E-3</v>
+        <v>1.3702479483938767E-3</v>
       </c>
       <c r="AF23" s="81"/>
       <c r="AG23" s="80">
@@ -12348,12 +13590,12 @@
       <c r="AJ23" s="81"/>
       <c r="AK23" s="80">
         <f>SUM(AK25:AK35)</f>
-        <v>0.10945943434939422</v>
+        <v>0.10945943434939423</v>
       </c>
       <c r="AL23" s="81"/>
       <c r="AM23" s="80">
         <f>SUM(AM25:AM35)</f>
-        <v>0.22362618880225274</v>
+        <v>0.22362618880225277</v>
       </c>
       <c r="AN23" s="81"/>
       <c r="AO23" s="80">
@@ -12363,12 +13605,12 @@
       <c r="AP23" s="81"/>
       <c r="AQ23" s="80">
         <f>SUM(AQ25:AQ35)</f>
-        <v>0.23876552978584534</v>
+        <v>0.23876552978584542</v>
       </c>
       <c r="AR23" s="81"/>
       <c r="AS23" s="80">
         <f>SUM(AS25:AS35)</f>
-        <v>8.1331880971889245E-2</v>
+        <v>8.1331880971889259E-2</v>
       </c>
       <c r="BH23">
         <f t="shared" ref="BH23:BH30" si="10">BH15+1</f>
@@ -12379,7 +13621,7 @@
       </c>
       <c r="BJ23" s="107">
         <f t="shared" ref="BJ23:BJ30" si="11">$H$27*H42</f>
-        <v>4.630465610717277E-2</v>
+        <v>5.0375042473594214E-2</v>
       </c>
       <c r="BP23">
         <f>BL9+1</f>
@@ -12390,7 +13632,7 @@
       </c>
       <c r="BR23" s="107">
         <f>$H$31*H44</f>
-        <v>8.021615910786763E-3</v>
+        <v>7.5444846265218315E-3</v>
       </c>
     </row>
     <row r="24" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12570,7 +13812,7 @@
       </c>
       <c r="BJ24" s="107">
         <f t="shared" si="11"/>
-        <v>4.1046407798089671E-2</v>
+        <v>4.704444983123212E-2</v>
       </c>
       <c r="BP24">
         <f>BH49+1</f>
@@ -12581,7 +13823,7 @@
       </c>
       <c r="BR24" s="107">
         <f t="shared" ref="BR24:BR30" si="12">$H$32*H39</f>
-        <v>3.444182956903126E-4</v>
+        <v>2.2699907531718595E-4</v>
       </c>
     </row>
     <row r="25" spans="1:70" x14ac:dyDescent="0.25">
@@ -12590,11 +13832,11 @@
       </c>
       <c r="B25" s="117">
         <f>1/(1+EXP(-3.1416*4*((B11/(B11+C8))-(3.1416/6))))</f>
-        <v>0.17937803506156552</v>
+        <v>0.19465325419322257</v>
       </c>
       <c r="C25" s="118">
         <f>1/(1+EXP(-3.1416*4*((C11/(C11+B8))-(3.1416/6))))</f>
-        <v>0.14025163774291491</v>
+        <v>0.25313395312399234</v>
       </c>
       <c r="D25" s="153">
         <f>IF(B17="AOW", 0.36-0.08, IF(B17="AIM", 0.36+0.08, IF(B17="TL",(0.361)-(0.36*B32),0.36)))</f>
@@ -12609,21 +13851,21 @@
       </c>
       <c r="H25" s="127">
         <f>L25*J25</f>
-        <v>1.1065647268984898E-2</v>
+        <v>1.7953293836062173E-2</v>
       </c>
       <c r="I25" s="97">
         <v>0</v>
       </c>
       <c r="J25" s="98">
         <f t="shared" ref="J25:J35" si="13">Y25+AA25+AC25+AE25+AG25+AI25+AK25+AM25+AO25+AQ25+AS25</f>
-        <v>0.13930276228356475</v>
+        <v>0.13545241852577808</v>
       </c>
       <c r="K25" s="97">
         <v>0</v>
       </c>
       <c r="L25" s="98">
         <f>S20</f>
-        <v>7.9435950067233141E-2</v>
+        <v>0.13254317664800844</v>
       </c>
       <c r="M25" s="84">
         <v>0</v>
@@ -12662,7 +13904,7 @@
       </c>
       <c r="W25" s="136">
         <f>B31</f>
-        <v>0.22910911125066724</v>
+        <v>0.2320516428335283</v>
       </c>
       <c r="X25" s="12">
         <v>0</v>
@@ -12676,70 +13918,70 @@
       </c>
       <c r="AA25" s="78">
         <f>((1-W25)^Z26)*V26</f>
-        <v>6.8944890334225535E-6</v>
+        <v>6.86817240155595E-6</v>
       </c>
       <c r="AB25" s="12">
         <v>0</v>
       </c>
       <c r="AC25" s="79">
         <f>(((1-$W$25)^AB27))*V27</f>
-        <v>8.5457961178688052E-5</v>
+        <v>8.4806811113008791E-5</v>
       </c>
       <c r="AD25" s="12">
         <v>0</v>
       </c>
       <c r="AE25" s="79">
         <f>(((1-$W$25)^AB28))*V28</f>
-        <v>6.2773724735160422E-4</v>
+        <v>6.2057633111283297E-4</v>
       </c>
       <c r="AF25" s="12">
         <v>0</v>
       </c>
       <c r="AG25" s="79">
         <f>(((1-$W$25)^AB29))*V29</f>
-        <v>3.0262118769979699E-3</v>
+        <v>2.9802709063005348E-3</v>
       </c>
       <c r="AH25" s="12">
         <v>0</v>
       </c>
       <c r="AI25" s="79">
         <f>(((1-$W$25)^AB30))*V30</f>
-        <v>1.0004700840271359E-2</v>
+        <v>9.8152105813568129E-3</v>
       </c>
       <c r="AJ25" s="12">
         <v>0</v>
       </c>
       <c r="AK25" s="79">
         <f>(((1-$W$25)^AB31))*V31</f>
-        <v>2.2972627779606198E-2</v>
+        <v>2.2451496469399312E-2</v>
       </c>
       <c r="AL25" s="12">
         <v>0</v>
       </c>
       <c r="AM25" s="79">
         <f>(((1-$W$25)^AB32))*V32</f>
-        <v>3.6180373956314772E-2</v>
+        <v>3.5224656927960563E-2</v>
       </c>
       <c r="AN25" s="12">
         <v>0</v>
       </c>
       <c r="AO25" s="79">
         <f>(((1-$W$25)^AB33))*V33</f>
-        <v>3.7413661433729463E-2</v>
+        <v>3.6286329127449245E-2</v>
       </c>
       <c r="AP25" s="12">
         <v>0</v>
       </c>
       <c r="AQ25" s="79">
         <f>(((1-$W$25)^AB34))*V34</f>
-        <v>2.2956614589328243E-2</v>
+        <v>2.2179909488765411E-2</v>
       </c>
       <c r="AR25" s="12">
         <v>0</v>
       </c>
       <c r="AS25" s="79">
         <f>(((1-$W$25)^AB35))*V35</f>
-        <v>6.0282318000082205E-3</v>
+        <v>5.8020434001739814E-3</v>
       </c>
       <c r="AV25" s="14">
         <v>1</v>
@@ -12784,7 +14026,7 @@
       </c>
       <c r="BJ25" s="107">
         <f t="shared" si="11"/>
-        <v>2.6721164655632734E-2</v>
+        <v>3.1770451709694551E-2</v>
       </c>
       <c r="BP25">
         <f>BP19+1</f>
@@ -12795,7 +14037,7 @@
       </c>
       <c r="BR25" s="107">
         <f t="shared" si="12"/>
-        <v>1.5500250310547612E-3</v>
+        <v>1.1288828942105703E-3</v>
       </c>
     </row>
     <row r="26" spans="1:70" x14ac:dyDescent="0.25">
@@ -12804,11 +14046,11 @@
       </c>
       <c r="B26" s="119">
         <f>1/(1+EXP(-3.1416*4*((B10/(B10+C9))-(3.1416/6))))</f>
-        <v>0.26316029475130442</v>
+        <v>0.2543630711343593</v>
       </c>
       <c r="C26" s="120">
         <f>1/(1+EXP(-3.1416*4*((C10/(C10+B9))-(3.1416/6))))</f>
-        <v>0.883639521002753</v>
+        <v>0.88902890499768195</v>
       </c>
       <c r="D26" s="153">
         <f>IF(B17="AOW", 0.257+0.04, IF(B17="AIM", 0.257-0.04, IF(B17="TL",(0.257)-(0.257*B32),0.257)))</f>
@@ -12823,21 +14065,21 @@
       </c>
       <c r="H26" s="128">
         <f>L25*J26+L26*J25</f>
-        <v>7.2991101663153132E-2</v>
+        <v>9.4368514328365405E-2</v>
       </c>
       <c r="I26" s="93">
         <v>1</v>
       </c>
       <c r="J26" s="86">
         <f t="shared" si="13"/>
-        <v>0.30358695013758419</v>
+        <v>0.29982821811285271</v>
       </c>
       <c r="K26" s="93">
         <v>1</v>
       </c>
       <c r="L26" s="86">
         <f>T20</f>
-        <v>0.35085724826812587</v>
+        <v>0.40330272759640395</v>
       </c>
       <c r="M26" s="85">
         <v>1</v>
@@ -12884,70 +14126,70 @@
       </c>
       <c r="AA26" s="79">
         <f>(1-((1-W25)^Z26))*V26</f>
-        <v>2.0490451736141112E-6</v>
+        <v>2.0753618054807148E-6</v>
       </c>
       <c r="AB26" s="28">
         <v>1</v>
       </c>
       <c r="AC26" s="79">
         <f>((($W$25)^M26)*((1-($W$25))^($U$27-M26))*HLOOKUP($U$27,$AV$24:$BF$34,M26+1))*V27</f>
-        <v>5.0796287310407507E-5</v>
+        <v>5.1252300128250387E-5</v>
       </c>
       <c r="AD26" s="28">
         <v>1</v>
       </c>
       <c r="AE26" s="79">
         <f>((($W$25)^M26)*((1-($W$25))^($U$28-M26))*HLOOKUP($U$28,$AV$24:$BF$34,M26+1))*V28</f>
-        <v>5.5969135816222521E-4</v>
+        <v>5.6256031721851733E-4</v>
       </c>
       <c r="AF26" s="28">
         <v>1</v>
       </c>
       <c r="AG26" s="79">
         <f>((($W$25)^M26)*((1-($W$25))^($U$29-M26))*HLOOKUP($U$29,$AV$24:$BF$34,M26+1))*V29</f>
-        <v>3.5975660042891822E-3</v>
+        <v>3.602204515146016E-3</v>
       </c>
       <c r="AH26" s="28">
         <v>1</v>
       </c>
       <c r="AI26" s="79">
         <f>((($W$25)^M26)*((1-($W$25))^($U$30-M26))*HLOOKUP($U$30,$AV$24:$BF$34,M26+1))*V30</f>
-        <v>1.4867007453947926E-2</v>
+        <v>1.4829354857693544E-2</v>
       </c>
       <c r="AJ26" s="28">
         <v>1</v>
       </c>
       <c r="AK26" s="79">
         <f>((($W$25)^M26)*((1-($W$25))^($U$31-M26))*HLOOKUP($U$31,$AV$24:$BF$34,M26+1))*V31</f>
-        <v>4.0964850490451635E-2</v>
+        <v>4.07051327697487E-2</v>
       </c>
       <c r="AL26" s="28">
         <v>1</v>
       </c>
       <c r="AM26" s="79">
         <f>((($W$25)^Q26)*((1-($W$25))^($U$32-Q26))*HLOOKUP($U$32,$AV$24:$BF$34,Q26+1))*V32</f>
-        <v>7.5269761388766551E-2</v>
+        <v>7.4507062909519833E-2</v>
       </c>
       <c r="AN26" s="28">
         <v>1</v>
       </c>
       <c r="AO26" s="79">
         <f>((($W$25)^Q26)*((1-($W$25))^($U$33-Q26))*HLOOKUP($U$33,$AV$24:$BF$34,Q26+1))*V33</f>
-        <v>8.8954853090784214E-2</v>
+        <v>8.771738055398845E-2</v>
       </c>
       <c r="AP26" s="28">
         <v>1</v>
       </c>
       <c r="AQ26" s="79">
         <f>((($W$25)^Q26)*((1-($W$25))^($U$34-Q26))*HLOOKUP($U$34,$AV$24:$BF$34,Q26+1))*V34</f>
-        <v>6.1404443590924236E-2</v>
+        <v>6.0319108024162828E-2</v>
       </c>
       <c r="AR26" s="28">
         <v>1</v>
       </c>
       <c r="AS26" s="79">
         <f>((($W$25)^Q26)*((1-($W$25))^($U$35-Q26))*HLOOKUP($U$35,$AV$24:$BF$34,Q26+1))*V35</f>
-        <v>1.7915931427774173E-2</v>
+        <v>1.7532086503441055E-2</v>
       </c>
       <c r="AV26" s="14">
         <v>2</v>
@@ -12992,7 +14234,7 @@
       </c>
       <c r="BJ26" s="107">
         <f t="shared" si="11"/>
-        <v>1.325318964523205E-2</v>
+        <v>1.6119955622157123E-2</v>
       </c>
       <c r="BP26">
         <f>BP20+1</f>
@@ -13003,7 +14245,7 @@
       </c>
       <c r="BR26" s="107">
         <f t="shared" si="12"/>
-        <v>3.2308780582896999E-3</v>
+        <v>2.5598194678311927E-3</v>
       </c>
     </row>
     <row r="27" spans="1:70" x14ac:dyDescent="0.25">
@@ -13012,11 +14254,11 @@
       </c>
       <c r="B27" s="119">
         <f>1/(1+EXP(-3.1416*4*((B12/(B12+C7))-(3.1416/6))))</f>
-        <v>5.3353508686200042E-2</v>
+        <v>4.4737459645596445E-2</v>
       </c>
       <c r="C27" s="120">
         <f>1/(1+EXP(-3.1416*4*((C12/(C12+B7))-(3.1416/6))))</f>
-        <v>0.75020382044921841</v>
+        <v>0.69258513031411406</v>
       </c>
       <c r="D27" s="153">
         <f>D26</f>
@@ -13031,21 +14273,21 @@
       </c>
       <c r="H27" s="128">
         <f>L25*J27+J26*L26+J25*L27</f>
-        <v>0.19164632608679291</v>
+        <v>0.21014502063125143</v>
       </c>
       <c r="I27" s="93">
         <v>2</v>
       </c>
       <c r="J27" s="86">
         <f t="shared" si="13"/>
-        <v>0.2976516839085484</v>
+        <v>0.29857985944882648</v>
       </c>
       <c r="K27" s="93">
         <v>2</v>
       </c>
       <c r="L27" s="86">
         <f>U20</f>
-        <v>0.44138679551707916</v>
+        <v>0.36654022085295113</v>
       </c>
       <c r="M27" s="85">
         <v>2</v>
@@ -13096,63 +14338,63 @@
       </c>
       <c r="AC27" s="79">
         <f>((($W$25)^M27)*((1-($W$25))^($U$27-M27))*HLOOKUP($U$27,$AV$24:$BF$34,M27+1))*V27</f>
-        <v>7.5483394669522751E-6</v>
+        <v>7.7434767147886585E-6</v>
       </c>
       <c r="AD27" s="28">
         <v>2</v>
       </c>
       <c r="AE27" s="79">
         <f>((($W$25)^M27)*((1-($W$25))^($U$28-M27))*HLOOKUP($U$28,$AV$24:$BF$34,M27+1))*V28</f>
-        <v>1.6634051785365239E-4</v>
+        <v>1.6998935486388356E-4</v>
       </c>
       <c r="AF27" s="28">
         <v>2</v>
       </c>
       <c r="AG27" s="79">
         <f>((($W$25)^M27)*((1-($W$25))^($U$29-M27))*HLOOKUP($U$29,$AV$24:$BF$34,M27+1))*V29</f>
-        <v>1.6037972985622902E-3</v>
+        <v>1.6327220465310239E-3</v>
       </c>
       <c r="AH27" s="28">
         <v>2</v>
       </c>
       <c r="AI27" s="79">
         <f>((($W$25)^M27)*((1-($W$25))^($U$30-M27))*HLOOKUP($U$30,$AV$24:$BF$34,M27+1))*V30</f>
-        <v>8.8369623105991179E-3</v>
+        <v>8.9619988760342925E-3</v>
       </c>
       <c r="AJ27" s="28">
         <v>2</v>
       </c>
       <c r="AK27" s="79">
         <f>((($W$25)^M27)*((1-($W$25))^($U$31-M27))*HLOOKUP($U$31,$AV$24:$BF$34,M27+1))*V31</f>
-        <v>3.0436928965428624E-2</v>
+        <v>3.0749766057932618E-2</v>
       </c>
       <c r="AL27" s="28">
         <v>2</v>
       </c>
       <c r="AM27" s="79">
         <f>((($W$25)^Q27)*((1-($W$25))^($U$32-Q27))*HLOOKUP($U$32,$AV$24:$BF$34,Q27+1))*V32</f>
-        <v>6.7110618587571239E-2</v>
+        <v>6.7541597776113987E-2</v>
       </c>
       <c r="AN27" s="28">
         <v>2</v>
       </c>
       <c r="AO27" s="79">
         <f>((($W$25)^Q27)*((1-($W$25))^($U$33-Q27))*HLOOKUP($U$33,$AV$24:$BF$34,Q27+1))*V33</f>
-        <v>9.2530975144156646E-2</v>
+        <v>9.2769738035496971E-2</v>
       </c>
       <c r="AP27" s="28">
         <v>2</v>
       </c>
       <c r="AQ27" s="79">
         <f>((($W$25)^Q27)*((1-($W$25))^($U$34-Q27))*HLOOKUP($U$34,$AV$24:$BF$34,Q27+1))*V34</f>
-        <v>7.2997710587978756E-2</v>
+        <v>7.2906715565644833E-2</v>
       </c>
       <c r="AR27" s="28">
         <v>2</v>
       </c>
       <c r="AS27" s="79">
         <f>((($W$25)^Q27)*((1-($W$25))^($U$35-Q27))*HLOOKUP($U$35,$AV$24:$BF$34,Q27+1))*V35</f>
-        <v>2.3960802156931138E-2</v>
+        <v>2.3839588259494119E-2</v>
       </c>
       <c r="AV27" s="14">
         <v>3</v>
@@ -13194,7 +14436,7 @@
       </c>
       <c r="BJ27" s="107">
         <f t="shared" si="11"/>
-        <v>5.1145597513588791E-3</v>
+        <v>6.295861336892734E-3</v>
       </c>
       <c r="BP27">
         <f>BP21+1</f>
@@ -13205,7 +14447,7 @@
       </c>
       <c r="BR27" s="107">
         <f t="shared" si="12"/>
-        <v>4.1466782977235385E-3</v>
+        <v>3.5171876762834058E-3</v>
       </c>
     </row>
     <row r="28" spans="1:70" x14ac:dyDescent="0.25">
@@ -13215,8 +14457,8 @@
       <c r="B28" s="174">
         <v>0.9</v>
       </c>
-      <c r="C28" s="213">
-        <v>0.75</v>
+      <c r="C28" s="209">
+        <v>0.9</v>
       </c>
       <c r="D28" s="153">
         <v>8.5000000000000006E-2</v>
@@ -13229,21 +14471,21 @@
       </c>
       <c r="H28" s="128">
         <f>J28*L25+J27*L26+L28*J25+L27*J26</f>
-        <v>0.27004040160035364</v>
+        <v>0.26688489773640023</v>
       </c>
       <c r="I28" s="93">
         <v>3</v>
       </c>
       <c r="J28" s="86">
         <f t="shared" si="13"/>
-        <v>0.17287573744095014</v>
+        <v>0.17613648535880105</v>
       </c>
       <c r="K28" s="93">
         <v>3</v>
       </c>
       <c r="L28" s="86">
         <f>V20</f>
-        <v>0.12832000614756178</v>
+        <v>9.761387490263651E-2</v>
       </c>
       <c r="M28" s="85">
         <v>3</v>
@@ -13298,56 +14540,56 @@
       </c>
       <c r="AE28" s="79">
         <f>((($W$25)^M28)*((1-($W$25))^($U$28-M28))*HLOOKUP($U$28,$AV$24:$BF$34,M28+1))*V28</f>
-        <v>1.6478825026394513E-5</v>
+        <v>1.7121945198642592E-5</v>
       </c>
       <c r="AF28" s="28">
         <v>3</v>
       </c>
       <c r="AG28" s="79">
         <f>((($W$25)^M28)*((1-($W$25))^($U$29-M28))*HLOOKUP($U$29,$AV$24:$BF$34,M28+1))*V29</f>
-        <v>3.1776617509468558E-4</v>
+        <v>3.289073886738922E-4</v>
       </c>
       <c r="AH28" s="28">
         <v>3</v>
       </c>
       <c r="AI28" s="79">
         <f>((($W$25)^M28)*((1-($W$25))^($U$30-M28))*HLOOKUP($U$30,$AV$24:$BF$34,M28+1))*V30</f>
-        <v>2.626349086083629E-3</v>
+        <v>2.7080552264339007E-3</v>
       </c>
       <c r="AJ28" s="28">
         <v>3</v>
       </c>
       <c r="AK28" s="79">
         <f>((($W$25)^M28)*((1-($W$25))^($U$31-M28))*HLOOKUP($U$31,$AV$24:$BF$34,M28+1))*V31</f>
-        <v>1.2061158236945681E-2</v>
+        <v>1.23889124642325E-2</v>
       </c>
       <c r="AL28" s="28">
         <v>3</v>
       </c>
       <c r="AM28" s="79">
         <f>((($W$25)^Q28)*((1-($W$25))^($U$32-Q28))*HLOOKUP($U$32,$AV$24:$BF$34,Q28+1))*V32</f>
-        <v>3.3242175610234313E-2</v>
+        <v>3.4015175146625769E-2</v>
       </c>
       <c r="AN28" s="28">
         <v>3</v>
       </c>
       <c r="AO28" s="79">
         <f>((($W$25)^Q28)*((1-($W$25))^($U$33-Q28))*HLOOKUP($U$33,$AV$24:$BF$34,Q28+1))*V33</f>
-        <v>5.5000493034309886E-2</v>
+        <v>5.6064629647242126E-2</v>
       </c>
       <c r="AP28" s="28">
         <v>3</v>
       </c>
       <c r="AQ28" s="79">
         <f>((($W$25)^Q28)*((1-($W$25))^($U$34-Q28))*HLOOKUP($U$34,$AV$24:$BF$34,Q28+1))*V34</f>
-        <v>5.0621553962908551E-2</v>
+        <v>5.1404004248930088E-2</v>
       </c>
       <c r="AR28" s="28">
         <v>3</v>
       </c>
       <c r="AS28" s="79">
         <f>((($W$25)^Q28)*((1-($W$25))^($U$35-Q28))*HLOOKUP($U$35,$AV$24:$BF$34,Q28+1))*V35</f>
-        <v>1.8989762510347011E-2</v>
+        <v>1.9209679291464134E-2</v>
       </c>
       <c r="AV28" s="14">
         <v>4</v>
@@ -13386,7 +14628,7 @@
       </c>
       <c r="BJ28" s="107">
         <f t="shared" si="11"/>
-        <v>1.5444298681984723E-3</v>
+        <v>1.9151448517305603E-3</v>
       </c>
       <c r="BP28">
         <f>BP22+1</f>
@@ -13397,7 +14639,7 @@
       </c>
       <c r="BR28" s="107">
         <f t="shared" si="12"/>
-        <v>3.6757912211226431E-3</v>
+        <v>3.2846455518261092E-3</v>
       </c>
     </row>
     <row r="29" spans="1:70" x14ac:dyDescent="0.25">
@@ -13423,14 +14665,14 @@
       </c>
       <c r="H29" s="128">
         <f>J29*L25+J28*L26+J27*L27+J26*L28</f>
-        <v>0.23622202736034476</v>
+        <v>0.21877855367746896</v>
       </c>
       <c r="I29" s="93">
         <v>4</v>
       </c>
       <c r="J29" s="86">
         <f t="shared" si="13"/>
-        <v>6.5858337143711365E-2</v>
+        <v>6.8153692492564519E-2</v>
       </c>
       <c r="K29" s="93">
         <v>4</v>
@@ -13493,49 +14735,49 @@
       </c>
       <c r="AG29" s="79">
         <f>((($W$25)^M29)*((1-($W$25))^($U$29-M29))*HLOOKUP($U$29,$AV$24:$BF$34,M29+1))*V29</f>
-        <v>2.3610061755814969E-5</v>
+        <v>2.484656004847651E-5</v>
       </c>
       <c r="AH29" s="28">
         <v>4</v>
       </c>
       <c r="AI29" s="79">
         <f>((($W$25)^M29)*((1-($W$25))^($U$30-M29))*HLOOKUP($U$30,$AV$24:$BF$34,M29+1))*V30</f>
-        <v>3.9027605185659497E-4</v>
+        <v>4.0914773650703061E-4</v>
       </c>
       <c r="AJ29" s="28">
         <v>4</v>
       </c>
       <c r="AK29" s="79">
         <f>((($W$25)^M29)*((1-($W$25))^($U$31-M29))*HLOOKUP($U$31,$AV$24:$BF$34,M29+1))*V31</f>
-        <v>2.6884361502865291E-3</v>
+        <v>2.8076765808056109E-3</v>
       </c>
       <c r="AL29" s="28">
         <v>4</v>
       </c>
       <c r="AM29" s="79">
         <f>((($W$25)^Q29)*((1-($W$25))^($U$32-Q29))*HLOOKUP($U$32,$AV$24:$BF$34,Q29+1))*V32</f>
-        <v>9.8795892145715596E-3</v>
+        <v>1.0278395936894554E-2</v>
       </c>
       <c r="AN29" s="28">
         <v>4</v>
       </c>
       <c r="AO29" s="79">
         <f>((($W$25)^Q29)*((1-($W$25))^($U$33-Q29))*HLOOKUP($U$33,$AV$24:$BF$34,Q29+1))*V33</f>
-        <v>2.043271340559439E-2</v>
+        <v>2.1176374187612951E-2</v>
       </c>
       <c r="AP29" s="28">
         <v>4</v>
       </c>
       <c r="AQ29" s="79">
         <f>((($W$25)^Q29)*((1-($W$25))^($U$34-Q29))*HLOOKUP($U$34,$AV$24:$BF$34,Q29+1))*V34</f>
-        <v>2.2567122159244186E-2</v>
+        <v>2.3299190999376263E-2</v>
       </c>
       <c r="AR29" s="28">
         <v>4</v>
       </c>
       <c r="AS29" s="79">
         <f>((($W$25)^Q29)*((1-($W$25))^($U$35-Q29))*HLOOKUP($U$35,$AV$24:$BF$34,Q29+1))*V35</f>
-        <v>9.876590100402283E-3</v>
+        <v>1.0158060491319636E-2</v>
       </c>
       <c r="AV29" s="14">
         <v>5</v>
@@ -13571,7 +14813,7 @@
       </c>
       <c r="BJ29" s="107">
         <f t="shared" si="11"/>
-        <v>3.5944203647831111E-4</v>
+        <v>4.5110649360971576E-4</v>
       </c>
       <c r="BP29">
         <f>BP23+1</f>
@@ -13582,7 +14824,7 @@
       </c>
       <c r="BR29" s="107">
         <f t="shared" si="12"/>
-        <v>2.3929358920397113E-3</v>
+        <v>2.218214332660234E-3</v>
       </c>
     </row>
     <row r="30" spans="1:70" x14ac:dyDescent="0.25">
@@ -13608,14 +14850,14 @@
       </c>
       <c r="H30" s="128">
         <f>J30*L25+J29*L26+J28*L27+J27*L28</f>
-        <v>0.13897226916300273</v>
+        <v>0.12358832077921528</v>
       </c>
       <c r="I30" s="93">
         <v>5</v>
       </c>
       <c r="J30" s="86">
         <f t="shared" si="13"/>
-        <v>1.7191970831843942E-2</v>
+        <v>1.8070393885277078E-2</v>
       </c>
       <c r="K30" s="93">
         <v>5</v>
@@ -13682,42 +14924,42 @@
       </c>
       <c r="AI30" s="79">
         <f>((($W$25)^M30)*((1-($W$25))^($U$30-M30))*HLOOKUP($U$30,$AV$24:$BF$34,M30+1))*V30</f>
-        <v>2.3198042858788737E-5</v>
+        <v>2.4726507591836595E-5</v>
       </c>
       <c r="AJ30" s="28">
         <v>5</v>
       </c>
       <c r="AK30" s="79">
         <f>((($W$25)^M30)*((1-($W$25))^($U$31-M30))*HLOOKUP($U$31,$AV$24:$BF$34,M30+1))*V31</f>
-        <v>3.1960176260253931E-4</v>
+        <v>3.3935925875282853E-4</v>
       </c>
       <c r="AL30" s="28">
         <v>5</v>
       </c>
       <c r="AM30" s="79">
         <f>((($W$25)^Q30)*((1-($W$25))^($U$32-Q30))*HLOOKUP($U$32,$AV$24:$BF$34,Q30+1))*V32</f>
-        <v>1.7617309563570526E-3</v>
+        <v>1.863499263140798E-3</v>
       </c>
       <c r="AN30" s="28">
         <v>5</v>
       </c>
       <c r="AO30" s="79">
         <f>((($W$25)^Q30)*((1-($W$25))^($U$33-Q30))*HLOOKUP($U$33,$AV$24:$BF$34,Q30+1))*V33</f>
-        <v>4.8580891299832485E-3</v>
+        <v>5.1191071624915267E-3</v>
       </c>
       <c r="AP30" s="28">
         <v>5</v>
       </c>
       <c r="AQ30" s="79">
         <f>((($W$25)^Q30)*((1-($W$25))^($U$34-Q30))*HLOOKUP($U$34,$AV$24:$BF$34,Q30+1))*V34</f>
-        <v>6.7069586329887056E-3</v>
+        <v>7.0403374102477575E-3</v>
       </c>
       <c r="AR30" s="28">
         <v>5</v>
       </c>
       <c r="AS30" s="79">
         <f>((($W$25)^Q30)*((1-($W$25))^($U$35-Q30))*HLOOKUP($U$35,$AV$24:$BF$34,Q30+1))*V35</f>
-        <v>3.5223923070536057E-3</v>
+        <v>3.6833642830523296E-3</v>
       </c>
       <c r="AV30" s="29">
         <v>6</v>
@@ -13749,7 +14991,7 @@
       </c>
       <c r="BJ30" s="107">
         <f t="shared" si="11"/>
-        <v>6.1762744675597346E-5</v>
+        <v>7.9582908910359152E-5</v>
       </c>
       <c r="BP30">
         <f>BL10+1</f>
@@ -13760,7 +15002,7 @@
       </c>
       <c r="BR30" s="107">
         <f t="shared" si="12"/>
-        <v>1.1868507078489038E-3</v>
+        <v>1.1254960089851246E-3</v>
       </c>
     </row>
     <row r="31" spans="1:70" x14ac:dyDescent="0.25">
@@ -13769,25 +15011,25 @@
       </c>
       <c r="B31" s="60">
         <f>(B25*D25)+(B26*D26)+(B27*D27)+(B28*D28)+(B29*D29)+(B30*D30)/(B25+B26+B27+B28+B29+B30)</f>
-        <v>0.22910911125066724</v>
+        <v>0.2320516428335283</v>
       </c>
       <c r="C31" s="61">
         <f>(C25*E25)+(C26*E26)+(C27*E27)+(C28*E28)+(C29*E29)+(C30*E30)/(C25+C26+C27+C28+C29+C30)</f>
-        <v>0.55849373634350175</v>
+        <v>0.59845568139408334</v>
       </c>
       <c r="G31" s="87">
         <v>6</v>
       </c>
       <c r="H31" s="128">
         <f>J31*L25+J30*L26+J29*L27+J28*L28</f>
-        <v>5.7531669685572093E-2</v>
+        <v>4.9902843433881794E-2</v>
       </c>
       <c r="I31" s="93">
         <v>6</v>
       </c>
       <c r="J31" s="86">
         <f t="shared" si="13"/>
-        <v>3.1135276390970492E-3</v>
+        <v>3.3239730371438922E-3</v>
       </c>
       <c r="K31" s="93">
         <v>6</v>
@@ -13848,35 +15090,35 @@
       </c>
       <c r="AK31" s="79">
         <f>((($W$25)^Q31)*((1-($W$25))^($U$31-Q31))*HLOOKUP($U$31,$AV$24:$BF$34,Q31+1))*V31</f>
-        <v>1.5830964073011278E-5</v>
+        <v>1.7090748522666505E-5</v>
       </c>
       <c r="AL31" s="28">
         <v>6</v>
       </c>
       <c r="AM31" s="79">
         <f>((($W$25)^Q31)*((1-($W$25))^($U$32-Q31))*HLOOKUP($U$32,$AV$24:$BF$34,Q31+1))*V32</f>
-        <v>1.7452907173784601E-4</v>
+        <v>1.8769841374335718E-4</v>
       </c>
       <c r="AN31" s="28">
         <v>6</v>
       </c>
       <c r="AO31" s="79">
         <f>((($W$25)^Q31)*((1-($W$25))^($U$33-Q31))*HLOOKUP($U$33,$AV$24:$BF$34,Q31+1))*V33</f>
-        <v>7.2191311325052476E-4</v>
+        <v>7.7342259789451846E-4</v>
       </c>
       <c r="AP31" s="28">
         <v>6</v>
       </c>
       <c r="AQ31" s="79">
         <f>((($W$25)^Q31)*((1-($W$25))^($U$34-Q31))*HLOOKUP($U$34,$AV$24:$BF$34,Q31+1))*V34</f>
-        <v>1.3288740374071196E-3</v>
+        <v>1.4182567068948453E-3</v>
       </c>
       <c r="AR31" s="28">
         <v>6</v>
       </c>
       <c r="AS31" s="79">
         <f>((($W$25)^Q31)*((1-($W$25))^($U$35-Q31))*HLOOKUP($U$35,$AV$24:$BF$34,Q31+1))*V35</f>
-        <v>8.7238045262854713E-4</v>
+        <v>9.2750457008850473E-4</v>
       </c>
       <c r="AV31" s="14">
         <v>7</v>
@@ -13904,7 +15146,7 @@
       </c>
       <c r="BJ31" s="107">
         <f t="shared" ref="BJ31:BJ37" si="18">$H$28*H43</f>
-        <v>5.7836686318882044E-2</v>
+        <v>5.9746612813182345E-2</v>
       </c>
       <c r="BP31">
         <f t="shared" ref="BP31:BP37" si="19">BP24+1</f>
@@ -13915,7 +15157,7 @@
       </c>
       <c r="BR31" s="107">
         <f t="shared" ref="BR31:BR38" si="20">$H$33*H39</f>
-        <v>7.4620081976856998E-5</v>
+        <v>4.8823025606936585E-5</v>
       </c>
     </row>
     <row r="32" spans="1:70" x14ac:dyDescent="0.25">
@@ -13935,14 +15177,14 @@
       </c>
       <c r="H32" s="128">
         <f>J32*L25+J31*L26+J30*L27+J29*L28</f>
-        <v>1.7162327248111259E-2</v>
+        <v>1.4672334562973205E-2</v>
       </c>
       <c r="I32" s="93">
         <v>7</v>
       </c>
       <c r="J32" s="86">
         <f t="shared" si="13"/>
-        <v>3.8612702416249752E-4</v>
+        <v>4.1869369143248878E-4</v>
       </c>
       <c r="K32" s="93">
         <v>7</v>
@@ -14007,28 +15249,28 @@
       </c>
       <c r="AM32" s="79">
         <f>((($W$25)^Q32)*((1-($W$25))^($U$32-Q32))*HLOOKUP($U$32,$AV$24:$BF$34,Q32+1))*V32</f>
-        <v>7.4100166993864341E-6</v>
+        <v>8.102428253881655E-6</v>
       </c>
       <c r="AN32" s="28">
         <v>7</v>
       </c>
       <c r="AO32" s="79">
         <f>((($W$25)^Q32)*((1-($W$25))^($U$33-Q32))*HLOOKUP($U$33,$AV$24:$BF$34,Q32+1))*V33</f>
-        <v>6.1300827093466333E-5</v>
+        <v>6.6773085444819073E-5</v>
       </c>
       <c r="AP32" s="28">
         <v>7</v>
       </c>
       <c r="AQ32" s="79">
         <f>((($W$25)^Q32)*((1-($W$25))^($U$34-Q32))*HLOOKUP($U$34,$AV$24:$BF$34,Q32+1))*V34</f>
-        <v>1.6926083506635435E-4</v>
+        <v>1.8366681397074888E-4</v>
       </c>
       <c r="AR32" s="28">
         <v>7</v>
       </c>
       <c r="AS32" s="79">
         <f>((($W$25)^Q32)*((1-($W$25))^($U$35-Q32))*HLOOKUP($U$35,$AV$24:$BF$34,Q32+1))*V35</f>
-        <v>1.4815534530329043E-4</v>
+        <v>1.6015136376303917E-4</v>
       </c>
       <c r="AV32" s="14">
         <v>8</v>
@@ -14052,7 +15294,7 @@
       </c>
       <c r="BJ32" s="107">
         <f t="shared" si="18"/>
-        <v>3.7651616820289814E-2</v>
+        <v>4.034858275542752E-2</v>
       </c>
       <c r="BP32">
         <f t="shared" si="19"/>
@@ -14063,7 +15305,7 @@
       </c>
       <c r="BR32" s="107">
         <f t="shared" si="20"/>
-        <v>3.3582128571789404E-4</v>
+        <v>2.4280045358890764E-4</v>
       </c>
     </row>
     <row r="33" spans="1:70" x14ac:dyDescent="0.25">
@@ -14076,21 +15318,21 @@
       </c>
       <c r="C33" s="58">
         <f>IF(C17&lt;&gt;"CA",0.005,IF((C18-C16)&lt;0,0.1,0.1+0.055*(C18-C16)))</f>
-        <v>0.56500000000000006</v>
+        <v>0.64</v>
       </c>
       <c r="G33" s="87">
         <v>8</v>
       </c>
       <c r="H33" s="128">
         <f>J33*L25+J32*L26+J31*L27+J30*L28</f>
-        <v>3.7183107929876719E-3</v>
+        <v>3.1557298860386473E-3</v>
       </c>
       <c r="I33" s="93">
         <v>8</v>
       </c>
       <c r="J33" s="86">
         <f t="shared" si="13"/>
-        <v>3.1365365431246402E-5</v>
+        <v>3.4544207174806661E-5</v>
       </c>
       <c r="K33" s="93">
         <v>8</v>
@@ -14159,21 +15401,21 @@
       </c>
       <c r="AO33" s="79">
         <f>((($W$25)^Q33)*((1-($W$25))^($U$33-Q33))*HLOOKUP($U$33,$AV$24:$BF$34,Q33+1))*V33</f>
-        <v>2.277329097296172E-6</v>
+        <v>2.5221103785718079E-6</v>
       </c>
       <c r="AP33" s="28">
         <v>8</v>
       </c>
       <c r="AQ33" s="79">
         <f>((($W$25)^Q33)*((1-($W$25))^($U$34-Q33))*HLOOKUP($U$34,$AV$24:$BF$34,Q33+1))*V34</f>
-        <v>1.2576098659861023E-5</v>
+        <v>1.3874691415829587E-5</v>
       </c>
       <c r="AR33" s="28">
         <v>8</v>
       </c>
       <c r="AS33" s="79">
         <f>((($W$25)^Q33)*((1-($W$25))^($U$35-Q33))*HLOOKUP($U$35,$AV$24:$BF$34,Q33+1))*V35</f>
-        <v>1.6511937674089211E-5</v>
+        <v>1.8147405380405267E-5</v>
       </c>
       <c r="AV33" s="29">
         <v>9</v>
@@ -14194,7 +15436,7 @@
       </c>
       <c r="BJ33" s="107">
         <f t="shared" si="18"/>
-        <v>1.8674486108662985E-2</v>
+        <v>2.0472398988143913E-2</v>
       </c>
       <c r="BP33">
         <f t="shared" si="19"/>
@@ -14205,7 +15447,7 @@
       </c>
       <c r="BR33" s="107">
         <f t="shared" si="20"/>
-        <v>6.9998716265521265E-4</v>
+        <v>5.5056669835515891E-4</v>
       </c>
     </row>
     <row r="34" spans="1:70" x14ac:dyDescent="0.25">
@@ -14225,14 +15467,14 @@
       </c>
       <c r="H34" s="128">
         <f>J34*L25+J33*L26+J32*L27+J31*L28</f>
-        <v>5.8108363727492373E-4</v>
+        <v>4.9208899746433976E-4</v>
       </c>
       <c r="I34" s="93">
         <v>9</v>
       </c>
       <c r="J34" s="86">
         <f t="shared" si="13"/>
-        <v>1.5058147038429068E-6</v>
+        <v>1.6844181558691196E-6</v>
       </c>
       <c r="K34" s="93">
         <v>9</v>
@@ -14305,14 +15547,14 @@
       </c>
       <c r="AQ34" s="79">
         <f>((($W$25)^Q34)*((1-($W$25))^($U$34-Q34))*HLOOKUP($U$34,$AV$24:$BF$34,Q34+1))*V34</f>
-        <v>4.1529133932530512E-7</v>
+        <v>4.6583643675831925E-7</v>
       </c>
       <c r="AR34" s="28">
         <v>9</v>
       </c>
       <c r="AS34" s="79">
         <f>((($W$25)^Q34)*((1-($W$25))^($U$35-Q34))*HLOOKUP($U$35,$AV$24:$BF$34,Q34+1))*V35</f>
-        <v>1.0905233645176015E-6</v>
+        <v>1.2185817191108003E-6</v>
       </c>
       <c r="AV34" s="14">
         <v>10</v>
@@ -14330,7 +15572,7 @@
       </c>
       <c r="BJ34" s="107">
         <f t="shared" si="18"/>
-        <v>7.2067009969210985E-3</v>
+        <v>7.9957655147470767E-3</v>
       </c>
       <c r="BP34">
         <f t="shared" si="19"/>
@@ -14341,7 +15583,7 @@
       </c>
       <c r="BR34" s="107">
         <f t="shared" si="20"/>
-        <v>8.9840022548049402E-4</v>
+        <v>7.5647772460589284E-4</v>
       </c>
     </row>
     <row r="35" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14350,14 +15592,14 @@
       </c>
       <c r="H35" s="129">
         <f>J35*L25+J34*L26+J33*L27+J32*L28</f>
-        <v>6.3922980806687416E-5</v>
+        <v>5.4216365885647271E-5</v>
       </c>
       <c r="I35" s="94">
         <v>10</v>
       </c>
       <c r="J35" s="89">
         <f t="shared" si="13"/>
-        <v>3.2410402365510036E-8</v>
+        <v>3.6821992938422046E-8</v>
       </c>
       <c r="K35" s="94">
         <v>10</v>
@@ -14434,7 +15676,7 @@
       </c>
       <c r="AS35" s="79">
         <f>((($W$25)^Q35)*((1-($W$25))^($U$35-Q35))*HLOOKUP($U$35,$AV$24:$BF$34,Q35+1))*V35</f>
-        <v>3.2410402365510036E-8</v>
+        <v>3.6821992938422046E-8</v>
       </c>
       <c r="BH35">
         <f t="shared" si="17"/>
@@ -14445,7 +15687,7 @@
       </c>
       <c r="BJ35" s="107">
         <f t="shared" si="18"/>
-        <v>2.1761881397247291E-3</v>
+        <v>2.4322405373639056E-3</v>
       </c>
       <c r="BP35">
         <f t="shared" si="19"/>
@@ -14456,14 +15698,14 @@
       </c>
       <c r="BR35" s="107">
         <f t="shared" si="20"/>
-        <v>7.9637999979133452E-4</v>
+        <v>7.0646249841518742E-4</v>
       </c>
     </row>
     <row r="36" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="108">
         <f>SUM(B37:B39)</f>
-        <v>0.99989019090076559</v>
+        <v>0.99989091463676005</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
@@ -14488,7 +15730,7 @@
       <c r="X36" s="13"/>
       <c r="AS36" s="82">
         <f>Y37+AA37+AC37+AE37+AG37+AI37+AK37+AM37+AO37+AQ37+AS37</f>
-        <v>0.99999999999999967</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="BH36">
         <f t="shared" si="17"/>
@@ -14499,7 +15741,7 @@
       </c>
       <c r="BJ36" s="107">
         <f t="shared" si="18"/>
-        <v>5.0647395055563834E-4</v>
+        <v>5.7290679576231138E-4</v>
       </c>
       <c r="BP36">
         <f t="shared" si="19"/>
@@ -14510,7 +15752,7 @@
       </c>
       <c r="BR36" s="107">
         <f t="shared" si="20"/>
-        <v>5.1844247144734084E-4</v>
+        <v>4.7709416883666509E-4</v>
       </c>
     </row>
     <row r="37" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14519,17 +15761,17 @@
       </c>
       <c r="B37" s="107">
         <f>SUM(BN4:BN14)</f>
-        <v>0.18257639990113642</v>
+        <v>0.18013712773228452</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="59">
         <f>SUM(H39:H49)</f>
-        <v>0.9999590029713834</v>
+        <v>0.99994929327426463</v>
       </c>
       <c r="I37" s="13"/>
       <c r="J37" s="59">
         <f>SUM(J39:J49)</f>
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
       <c r="K37" s="59"/>
       <c r="L37" s="59">
@@ -14554,68 +15796,68 @@
       <c r="S37" s="13"/>
       <c r="T37" s="59">
         <f>SUM(T39:T49)</f>
-        <v>1.0000000000000002</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="U37" s="13"/>
       <c r="V37" s="59">
         <f>SUM(V39:V48)</f>
-        <v>0.98449619698808877</v>
+        <v>0.9913835719767139</v>
       </c>
       <c r="W37" s="13"/>
       <c r="X37" s="13"/>
       <c r="Y37" s="80">
         <f>SUM(Y39:Y49)</f>
-        <v>5.742706283290485E-4</v>
+        <v>5.1249964218399839E-4</v>
       </c>
       <c r="Z37" s="81"/>
       <c r="AA37" s="80">
         <f>SUM(AA39:AA49)</f>
-        <v>6.0828329888207864E-3</v>
+        <v>5.9901273015570767E-3</v>
       </c>
       <c r="AB37" s="81"/>
       <c r="AC37" s="80">
         <f>SUM(AC39:AC49)</f>
-        <v>2.9084136129666979E-2</v>
+        <v>3.0756326915955937E-2</v>
       </c>
       <c r="AD37" s="81"/>
       <c r="AE37" s="80">
         <f>SUM(AE39:AE49)</f>
-        <v>8.3135365476157352E-2</v>
+        <v>9.1546583813515284E-2</v>
       </c>
       <c r="AF37" s="81"/>
       <c r="AG37" s="80">
         <f>SUM(AG39:AG49)</f>
-        <v>0.15871909128194298</v>
+        <v>0.17596150886131123</v>
       </c>
       <c r="AH37" s="81"/>
       <c r="AI37" s="80">
         <f>SUM(AI39:AI49)</f>
-        <v>0.21436132080774642</v>
+        <v>0.23100501869572243</v>
       </c>
       <c r="AJ37" s="81"/>
       <c r="AK37" s="80">
         <f>SUM(AK39:AK49)</f>
-        <v>0.21181796572633352</v>
+        <v>0.21441895668282956</v>
       </c>
       <c r="AL37" s="81"/>
       <c r="AM37" s="80">
         <f>SUM(AM39:AM49)</f>
-        <v>0.15635091884627619</v>
+        <v>0.14406297689914382</v>
       </c>
       <c r="AN37" s="81"/>
       <c r="AO37" s="80">
         <f>SUM(AO39:AO49)</f>
-        <v>8.7290938904644483E-2</v>
+        <v>7.1133283858145782E-2</v>
       </c>
       <c r="AP37" s="81"/>
       <c r="AQ37" s="80">
         <f>SUM(AQ39:AQ49)</f>
-        <v>3.7079356198170869E-2</v>
+        <v>2.5996289306348872E-2</v>
       </c>
       <c r="AR37" s="81"/>
       <c r="AS37" s="80">
         <f>SUM(AS39:AS49)</f>
-        <v>1.5503803011911227E-2</v>
+        <v>8.6164280232861046E-3</v>
       </c>
       <c r="BH37">
         <f t="shared" si="17"/>
@@ -14626,7 +15868,7 @@
       </c>
       <c r="BJ37" s="107">
         <f t="shared" si="18"/>
-        <v>8.7027164656342386E-5</v>
+        <v>1.0107056756474894E-4</v>
       </c>
       <c r="BP37">
         <f t="shared" si="19"/>
@@ -14637,7 +15879,7 @@
       </c>
       <c r="BR37" s="107">
         <f t="shared" si="20"/>
-        <v>2.5713760918673215E-4</v>
+        <v>2.4207200135244533E-4</v>
       </c>
     </row>
     <row r="38" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14646,7 +15888,7 @@
       </c>
       <c r="B38" s="107">
         <f>SUM(BJ4:BJ59)</f>
-        <v>0.41052727110178389</v>
+        <v>0.465645854753238</v>
       </c>
       <c r="G38" s="103" t="str">
         <f t="shared" ref="G38:T38" si="21">G24</f>
@@ -14846,7 +16088,7 @@
       </c>
       <c r="BJ38" s="107">
         <f t="shared" ref="BJ38:BJ43" si="34">$H$29*H44</f>
-        <v>3.2936335474151028E-2</v>
+        <v>3.3075699123623119E-2</v>
       </c>
       <c r="BP38">
         <f>BL11+1</f>
@@ -14857,7 +16099,7 @@
       </c>
       <c r="BR38" s="107">
         <f t="shared" si="20"/>
-        <v>9.9232388708799944E-5</v>
+        <v>9.4544413755350167E-5</v>
       </c>
     </row>
     <row r="39" spans="1:70" x14ac:dyDescent="0.25">
@@ -14866,28 +16108,28 @@
       </c>
       <c r="B39" s="107">
         <f>SUM(BR4:BR47)</f>
-        <v>0.40678651989784537</v>
+        <v>0.35410793215123748</v>
       </c>
       <c r="G39" s="130">
         <v>0</v>
       </c>
       <c r="H39" s="131">
         <f>L39*J39</f>
-        <v>2.00682745825288E-2</v>
+        <v>1.5471230862608329E-2</v>
       </c>
       <c r="I39" s="97">
         <v>0</v>
       </c>
       <c r="J39" s="98">
         <f t="shared" ref="J39:J49" si="35">Y39+AA39+AC39+AE39+AG39+AI39+AK39+AM39+AO39+AQ39+AS39</f>
-        <v>2.7945048337713982E-2</v>
+        <v>2.1987442345009843E-2</v>
       </c>
       <c r="K39" s="102">
         <v>0</v>
       </c>
       <c r="L39" s="98">
         <f>AC20</f>
-        <v>0.71813347180527609</v>
+        <v>0.70363940561370475</v>
       </c>
       <c r="M39" s="84">
         <v>0</v>
@@ -14915,95 +16157,95 @@
       </c>
       <c r="T39" s="135">
         <f>(1-$C$33)^(INT(B23*2*(1-B31)))</f>
-        <v>6.77540939076562E-3</v>
+        <v>6.0466175999999991E-3</v>
       </c>
       <c r="U39" s="140">
         <v>0</v>
       </c>
       <c r="V39" s="86">
         <f>R39*T39</f>
-        <v>5.742706283290485E-4</v>
+        <v>5.1249964218399839E-4</v>
       </c>
       <c r="W39" s="136">
         <f>C31</f>
-        <v>0.55849373634350175</v>
+        <v>0.59845568139408334</v>
       </c>
       <c r="X39" s="12">
         <v>0</v>
       </c>
       <c r="Y39" s="79">
         <f>V39</f>
-        <v>5.742706283290485E-4</v>
+        <v>5.1249964218399839E-4</v>
       </c>
       <c r="Z39" s="12">
         <v>0</v>
       </c>
       <c r="AA39" s="78">
         <f>((1-W39)^Z40)*V40</f>
-        <v>2.6856088653407556E-3</v>
+        <v>2.4053015856664345E-3</v>
       </c>
       <c r="AB39" s="12">
         <v>0</v>
       </c>
       <c r="AC39" s="79">
         <f>(((1-$W$39)^AB41))*V41</f>
-        <v>5.6693061136348357E-3</v>
+        <v>4.9590837122555761E-3</v>
       </c>
       <c r="AD39" s="12">
         <v>0</v>
       </c>
       <c r="AE39" s="79">
         <f>(((1-$W$39)^AB42))*V42</f>
-        <v>7.1547822064534005E-3</v>
+        <v>5.9271047032594948E-3</v>
       </c>
       <c r="AF39" s="12">
         <v>0</v>
       </c>
       <c r="AG39" s="79">
         <f>(((1-$W$39)^AB43))*V43</f>
-        <v>6.0308238761175963E-3</v>
+        <v>4.5745841345346512E-3</v>
       </c>
       <c r="AH39" s="12">
         <v>0</v>
       </c>
       <c r="AI39" s="79">
         <f>(((1-$W$39)^AB44))*V44</f>
-        <v>3.5960918089403145E-3</v>
+        <v>2.4115087541945767E-3</v>
       </c>
       <c r="AJ39" s="12">
         <v>0</v>
       </c>
       <c r="AK39" s="79">
         <f>(((1-$W$39)^AB45))*V45</f>
-        <v>1.5688593437384636E-3</v>
+        <v>8.9880212717584026E-4</v>
       </c>
       <c r="AL39" s="12">
         <v>0</v>
       </c>
       <c r="AM39" s="79">
         <f>(((1-$W$39)^AB46))*V46</f>
-        <v>5.1127966850272562E-4</v>
+        <v>2.424860635385742E-4</v>
       </c>
       <c r="AN39" s="12">
         <v>0</v>
       </c>
       <c r="AO39" s="79">
         <f>(((1-$W$39)^AB47))*V47</f>
-        <v>1.2602715117510617E-4</v>
+        <v>4.8077374450378264E-5</v>
       </c>
       <c r="AP39" s="12">
         <v>0</v>
       </c>
       <c r="AQ39" s="79">
         <f>(((1-$W$39)^AB48))*V48</f>
-        <v>2.3635457256187094E-5</v>
+        <v>7.0552552585017537E-6</v>
       </c>
       <c r="AR39" s="12">
         <v>0</v>
       </c>
       <c r="AS39" s="79">
         <f>(((1-$W$39)^AB49))*V49</f>
-        <v>4.3632182255491301E-6</v>
+        <v>9.3899249181694877E-7</v>
       </c>
       <c r="AV39" s="14">
         <v>1</v>
@@ -15048,7 +16290,7 @@
       </c>
       <c r="BJ39" s="107">
         <f t="shared" si="34"/>
-        <v>1.6335796208115212E-2</v>
+        <v>1.6782222894298031E-2</v>
       </c>
       <c r="BP39">
         <f t="shared" ref="BP39:BP46" si="36">BP31+1</f>
@@ -15059,7 +16301,7 @@
       </c>
       <c r="BR39" s="107">
         <f t="shared" ref="BR39:BR47" si="37">$H$34*H39</f>
-        <v>1.1661345988247737E-5</v>
+        <v>7.6132224847202855E-6</v>
       </c>
     </row>
     <row r="40" spans="1:70" x14ac:dyDescent="0.25">
@@ -15068,21 +16310,21 @@
       </c>
       <c r="H40" s="132">
         <f>L39*J40+L40*J39</f>
-        <v>9.0315550370672709E-2</v>
+        <v>7.6939555144782165E-2</v>
       </c>
       <c r="I40" s="93">
         <v>1</v>
       </c>
       <c r="J40" s="86">
         <f t="shared" si="35"/>
-        <v>0.11618655935572809</v>
+        <v>0.1013586854872138</v>
       </c>
       <c r="K40" s="95">
         <v>1</v>
       </c>
       <c r="L40" s="86">
         <f>AD20</f>
-        <v>0.2461292261982379</v>
+        <v>0.25558179285222732</v>
       </c>
       <c r="M40" s="85">
         <v>1</v>
@@ -15110,14 +16352,14 @@
       </c>
       <c r="T40" s="135">
         <f t="shared" ref="T40:T49" si="39">(($C$33)^S40)*((1-($C$33))^(INT($B$23*2*(1-$B$31))-S40))*HLOOKUP(INT($B$23*2*(1-$B$31)),$AV$24:$BF$34,S40+1)</f>
-        <v>5.2801466286656218E-2</v>
+        <v>5.3747711999999996E-2</v>
       </c>
       <c r="U40" s="93">
         <v>1</v>
       </c>
       <c r="V40" s="86">
         <f>R40*T39+T40*R39</f>
-        <v>6.0828329888207864E-3</v>
+        <v>5.9901273015570767E-3</v>
       </c>
       <c r="W40" s="137"/>
       <c r="X40" s="28">
@@ -15129,70 +16371,70 @@
       </c>
       <c r="AA40" s="79">
         <f>(1-((1-W39)^Z40))*V40</f>
-        <v>3.3972241234800308E-3</v>
+        <v>3.5848257158906422E-3</v>
       </c>
       <c r="AB40" s="28">
         <v>1</v>
       </c>
       <c r="AC40" s="79">
         <f>((($W$39)^M40)*((1-($W$39))^($U$27-M40))*HLOOKUP($U$27,$AV$24:$BF$34,M40+1))*V41</f>
-        <v>1.43430443213028E-2</v>
+        <v>1.4781889244065529E-2</v>
       </c>
       <c r="AD40" s="28">
         <v>1</v>
       </c>
       <c r="AE40" s="79">
         <f>((($W$39)^M40)*((1-($W$39))^($U$28-M40))*HLOOKUP($U$28,$AV$24:$BF$34,M40+1))*V42</f>
-        <v>2.7151830287384535E-2</v>
+        <v>2.6501006136992106E-2</v>
       </c>
       <c r="AF40" s="28">
         <v>1</v>
       </c>
       <c r="AG40" s="79">
         <f>((($W$39)^M40)*((1-($W$39))^($U$29-M40))*HLOOKUP($U$29,$AV$24:$BF$34,M40+1))*V43</f>
-        <v>3.051533024159343E-2</v>
+        <v>2.7271568675977863E-2</v>
       </c>
       <c r="AH40" s="28">
         <v>1</v>
       </c>
       <c r="AI40" s="79">
         <f>((($W$39)^M40)*((1-($W$39))^($U$30-M40))*HLOOKUP($U$30,$AV$24:$BF$34,M40+1))*V44</f>
-        <v>2.2744804727979066E-2</v>
+        <v>1.7970383937814822E-2</v>
       </c>
       <c r="AJ40" s="28">
         <v>1</v>
       </c>
       <c r="AK40" s="79">
         <f>((($W$39)^M40)*((1-($W$39))^($U$31-M40))*HLOOKUP($U$31,$AV$24:$BF$34,M40+1))*V45</f>
-        <v>1.190739324183555E-2</v>
+        <v>8.0373679496937578E-3</v>
       </c>
       <c r="AL40" s="28">
         <v>1</v>
       </c>
       <c r="AM40" s="79">
         <f>((($W$39)^Q40)*((1-($W$39))^($U$32-Q40))*HLOOKUP($U$32,$AV$24:$BF$34,Q40+1))*V46</f>
-        <v>4.5272867254381932E-3</v>
+        <v>2.5297833629213179E-3</v>
       </c>
       <c r="AN40" s="28">
         <v>1</v>
       </c>
       <c r="AO40" s="79">
         <f>((($W$39)^Q40)*((1-($W$39))^($U$33-Q40))*HLOOKUP($U$33,$AV$24:$BF$34,Q40+1))*V47</f>
-        <v>1.275368081215242E-3</v>
+        <v>5.7323043167401282E-4</v>
       </c>
       <c r="AP40" s="28">
         <v>1</v>
       </c>
       <c r="AQ40" s="79">
         <f>((($W$39)^Q40)*((1-($W$39))^($U$34-Q40))*HLOOKUP($U$34,$AV$24:$BF$34,Q40+1))*V48</f>
-        <v>2.6908404994042484E-4</v>
+        <v>9.4635427716054812E-5</v>
       </c>
       <c r="AR40" s="28">
         <v>1</v>
       </c>
       <c r="AS40" s="79">
         <f>((($W$39)^Q40)*((1-($W$39))^($U$35-Q40))*HLOOKUP($U$35,$AV$24:$BF$34,Q40+1))*V49</f>
-        <v>5.5193555558815496E-5</v>
+        <v>1.3994604467701218E-5</v>
       </c>
       <c r="AV40" s="14">
         <v>2</v>
@@ -15237,7 +16479,7 @@
       </c>
       <c r="BJ40" s="107">
         <f t="shared" si="34"/>
-        <v>6.304173412510175E-3</v>
+        <v>6.5545185572408009E-3</v>
       </c>
       <c r="BP40">
         <f t="shared" si="36"/>
@@ -15248,7 +16490,7 @@
       </c>
       <c r="BR40" s="107">
         <f t="shared" si="37"/>
-        <v>5.2480888511877082E-5</v>
+        <v>3.7861108556548139E-5</v>
       </c>
     </row>
     <row r="41" spans="1:70" x14ac:dyDescent="0.25">
@@ -15257,21 +16499,21 @@
       </c>
       <c r="H41" s="132">
         <f>L39*J41+J40*L40+J39*L41</f>
-        <v>0.18825407601088967</v>
+        <v>0.17446572369547103</v>
       </c>
       <c r="I41" s="93">
         <v>2</v>
       </c>
       <c r="J41" s="86">
         <f t="shared" si="35"/>
-        <v>0.22102224181197169</v>
+        <v>0.2099515451617307</v>
       </c>
       <c r="K41" s="95">
         <v>2</v>
       </c>
       <c r="L41" s="86">
         <f>AE20</f>
-        <v>3.3411937318143729E-2</v>
+        <v>3.7753763225363141E-2</v>
       </c>
       <c r="M41" s="85">
         <v>2</v>
@@ -15299,14 +16541,14 @@
       </c>
       <c r="T41" s="135">
         <f t="shared" si="39"/>
-        <v>0.17145303708023435</v>
+        <v>0.19110297599999998</v>
       </c>
       <c r="U41" s="93">
         <v>2</v>
       </c>
       <c r="V41" s="86">
         <f>R41*T39+T40*R40+R39*T41</f>
-        <v>2.9084136129666979E-2</v>
+        <v>3.0756326915955937E-2</v>
       </c>
       <c r="W41" s="137"/>
       <c r="X41" s="28">
@@ -15322,63 +16564,63 @@
       </c>
       <c r="AC41" s="79">
         <f>((($W$39)^M41)*((1-($W$39))^($U$27-M41))*HLOOKUP($U$27,$AV$24:$BF$34,M41+1))*V41</f>
-        <v>9.0717856947293424E-3</v>
+        <v>1.101535395963483E-2</v>
       </c>
       <c r="AD41" s="28">
         <v>2</v>
       </c>
       <c r="AE41" s="79">
         <f>((($W$39)^M41)*((1-($W$39))^($U$28-M41))*HLOOKUP($U$28,$AV$24:$BF$34,M41+1))*V42</f>
-        <v>3.4346346573157736E-2</v>
+        <v>3.9496705470529608E-2</v>
       </c>
       <c r="AF41" s="28">
         <v>2</v>
       </c>
       <c r="AG41" s="79">
         <f>((($W$39)^M41)*((1-($W$39))^($U$29-M41))*HLOOKUP($U$29,$AV$24:$BF$34,M41+1))*V43</f>
-        <v>5.7901627469240984E-2</v>
+        <v>6.0967710630288267E-2</v>
       </c>
       <c r="AH41" s="28">
         <v>2</v>
       </c>
       <c r="AI41" s="79">
         <f>((($W$39)^M41)*((1-($W$39))^($U$30-M41))*HLOOKUP($U$30,$AV$24:$BF$34,M41+1))*V44</f>
-        <v>5.7543151799157512E-2</v>
+        <v>5.3565585994371466E-2</v>
       </c>
       <c r="AJ41" s="28">
         <v>2</v>
       </c>
       <c r="AK41" s="79">
         <f>((($W$39)^M41)*((1-($W$39))^($U$31-M41))*HLOOKUP($U$31,$AV$24:$BF$34,M41+1))*V45</f>
-        <v>3.7656343121091632E-2</v>
+        <v>2.9946934186793839E-2</v>
       </c>
       <c r="AL41" s="28">
         <v>2</v>
       </c>
       <c r="AM41" s="79">
         <f>((($W$39)^Q41)*((1-($W$39))^($U$32-Q41))*HLOOKUP($U$32,$AV$24:$BF$34,Q41+1))*V46</f>
-        <v>1.7180693595474198E-2</v>
+        <v>1.1311054516916169E-2</v>
       </c>
       <c r="AN41" s="28">
         <v>2</v>
       </c>
       <c r="AO41" s="79">
         <f>((($W$39)^Q41)*((1-($W$39))^($U$33-Q41))*HLOOKUP($U$33,$AV$24:$BF$34,Q41+1))*V47</f>
-        <v>5.6465740179364905E-3</v>
+        <v>2.990169389546043E-3</v>
       </c>
       <c r="AP41" s="28">
         <v>2</v>
       </c>
       <c r="AQ41" s="79">
         <f>((($W$39)^Q41)*((1-($W$39))^($U$34-Q41))*HLOOKUP($U$34,$AV$24:$BF$34,Q41+1))*V48</f>
-        <v>1.3615368008331754E-3</v>
+        <v>5.6417293686991394E-4</v>
       </c>
       <c r="AR41" s="28">
         <v>2</v>
       </c>
       <c r="AS41" s="79">
         <f>((($W$39)^Q41)*((1-($W$39))^($U$35-Q41))*HLOOKUP($U$35,$AV$24:$BF$34,Q41+1))*V49</f>
-        <v>3.1418274035062643E-4</v>
+        <v>9.3858076780567223E-5</v>
       </c>
       <c r="AV41" s="14">
         <v>3</v>
@@ -15420,7 +16662,7 @@
       </c>
       <c r="BJ41" s="107">
         <f t="shared" si="34"/>
-        <v>1.9036543096395671E-3</v>
+        <v>1.993826070614746E-3</v>
       </c>
       <c r="BP41">
         <f t="shared" si="36"/>
@@ -15431,7 +16673,7 @@
       </c>
       <c r="BR41" s="107">
         <f t="shared" si="37"/>
-        <v>1.0939136322023774E-4</v>
+        <v>8.585266306519485E-5</v>
       </c>
     </row>
     <row r="42" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15440,21 +16682,21 @@
       </c>
       <c r="H42" s="132">
         <f>J42*L39+J41*L40+L42*J39+L41*J40</f>
-        <v>0.24161515147544382</v>
+        <v>0.23971561316215531</v>
       </c>
       <c r="I42" s="93">
         <v>3</v>
       </c>
       <c r="J42" s="86">
         <f t="shared" si="35"/>
-        <v>0.25520063449794694</v>
+        <v>0.25888634820078421</v>
       </c>
       <c r="K42" s="95">
         <v>3</v>
       </c>
       <c r="L42" s="86">
         <f>AF20</f>
-        <v>2.3253646783422746E-3</v>
+        <v>3.0250383087047916E-3</v>
       </c>
       <c r="M42" s="85">
         <v>3</v>
@@ -15482,14 +16724,14 @@
       </c>
       <c r="T42" s="135">
         <f t="shared" si="39"/>
-        <v>0.29692250099718753</v>
+        <v>0.33973862400000004</v>
       </c>
       <c r="U42" s="93">
         <v>3</v>
       </c>
       <c r="V42" s="86">
         <f>R42*T39+R41*T40+R40*T41+R39*T42</f>
-        <v>8.3135365476157352E-2</v>
+        <v>9.1546583813515284E-2</v>
       </c>
       <c r="W42" s="137"/>
       <c r="X42" s="28">
@@ -15509,56 +16751,56 @@
       </c>
       <c r="AE42" s="79">
         <f>((($W$39)^M42)*((1-($W$39))^($U$28-M42))*HLOOKUP($U$28,$AV$24:$BF$34,M42+1))*V42</f>
-        <v>1.448240640916168E-2</v>
+        <v>1.9621767502734075E-2</v>
       </c>
       <c r="AF42" s="28">
         <v>3</v>
       </c>
       <c r="AG42" s="79">
         <f>((($W$39)^M42)*((1-($W$39))^($U$29-M42))*HLOOKUP($U$29,$AV$24:$BF$34,M42+1))*V43</f>
-        <v>4.8829350683648708E-2</v>
+        <v>6.0576912879688041E-2</v>
       </c>
       <c r="AH42" s="28">
         <v>3</v>
       </c>
       <c r="AI42" s="79">
         <f>((($W$39)^M42)*((1-($W$39))^($U$30-M42))*HLOOKUP($U$30,$AV$24:$BF$34,M42+1))*V44</f>
-        <v>7.2790563792083499E-2</v>
+        <v>7.9833352833453816E-2</v>
       </c>
       <c r="AJ42" s="28">
         <v>3</v>
       </c>
       <c r="AK42" s="79">
         <f>((($W$39)^M42)*((1-($W$39))^($U$31-M42))*HLOOKUP($U$31,$AV$24:$BF$34,M42+1))*V45</f>
-        <v>6.3512369654907364E-2</v>
+        <v>5.950995385895088E-2</v>
       </c>
       <c r="AL42" s="28">
         <v>3</v>
       </c>
       <c r="AM42" s="79">
         <f>((($W$39)^Q42)*((1-($W$39))^($U$32-Q42))*HLOOKUP($U$32,$AV$24:$BF$34,Q42+1))*V46</f>
-        <v>3.6221871009039716E-2</v>
+        <v>2.8096379090058708E-2</v>
       </c>
       <c r="AN42" s="28">
         <v>3</v>
       </c>
       <c r="AO42" s="79">
         <f>((($W$39)^Q42)*((1-($W$39))^($U$33-Q42))*HLOOKUP($U$33,$AV$24:$BF$34,Q42+1))*V47</f>
-        <v>1.4285533322675768E-2</v>
+        <v>8.9130079873486687E-3</v>
       </c>
       <c r="AP42" s="28">
         <v>3</v>
       </c>
       <c r="AQ42" s="79">
         <f>((($W$39)^Q42)*((1-($W$39))^($U$34-Q42))*HLOOKUP($U$34,$AV$24:$BF$34,Q42+1))*V48</f>
-        <v>4.018718693729789E-3</v>
+        <v>1.9619482300363561E-3</v>
       </c>
       <c r="AR42" s="28">
         <v>3</v>
       </c>
       <c r="AS42" s="79">
         <f>((($W$39)^Q42)*((1-($W$39))^($U$35-Q42))*HLOOKUP($U$35,$AV$24:$BF$34,Q42+1))*V49</f>
-        <v>1.0598209327003975E-3</v>
+        <v>3.7302581851363889E-4</v>
       </c>
       <c r="AV42" s="14">
         <v>4</v>
@@ -15597,7 +16839,7 @@
       </c>
       <c r="BJ42" s="107">
         <f t="shared" si="34"/>
-        <v>4.4304593940916145E-4</v>
+        <v>4.6963961330126843E-4</v>
       </c>
       <c r="BP42">
         <f t="shared" si="36"/>
@@ -15608,7 +16850,7 @@
       </c>
       <c r="BR42" s="107">
         <f t="shared" si="37"/>
-        <v>1.4039861104008254E-4</v>
+        <v>1.1796141575751449E-4</v>
       </c>
     </row>
     <row r="43" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15617,14 +16859,14 @@
       </c>
       <c r="H43" s="132">
         <f>J43*L39+J42*L40+J41*L41+J40*L42</f>
-        <v>0.21417790069975329</v>
+        <v>0.22386659312657523</v>
       </c>
       <c r="I43" s="93">
         <v>4</v>
       </c>
       <c r="J43" s="86">
         <f t="shared" si="35"/>
-        <v>0.20011685047021546</v>
+        <v>0.21241971396803155</v>
       </c>
       <c r="K43" s="95">
         <v>4</v>
@@ -15656,14 +16898,14 @@
       </c>
       <c r="T43" s="135">
         <f t="shared" si="39"/>
-        <v>0.28924347079898449</v>
+        <v>0.30198988799999998</v>
       </c>
       <c r="U43" s="93">
         <v>4</v>
       </c>
       <c r="V43" s="86">
         <f>T43*R39+T42*R40+T41*R41+T40*R42+T39*R43</f>
-        <v>0.158719091281943</v>
+        <v>0.17596150886131123</v>
       </c>
       <c r="W43" s="137"/>
       <c r="X43" s="28">
@@ -15687,49 +16929,49 @@
       </c>
       <c r="AG43" s="79">
         <f>((($W$39)^M43)*((1-($W$39))^($U$29-M43))*HLOOKUP($U$29,$AV$24:$BF$34,M43+1))*V43</f>
-        <v>1.5441959011342276E-2</v>
+        <v>2.2570732540822425E-2</v>
       </c>
       <c r="AH43" s="28">
         <v>4</v>
       </c>
       <c r="AI43" s="79">
         <f>((($W$39)^M43)*((1-($W$39))^($U$30-M43))*HLOOKUP($U$30,$AV$24:$BF$34,M43+1))*V44</f>
-        <v>4.6039068173243103E-2</v>
+        <v>5.9491220961350309E-2</v>
       </c>
       <c r="AJ43" s="28">
         <v>4</v>
       </c>
       <c r="AK43" s="79">
         <f>((($W$39)^M43)*((1-($W$39))^($U$31-M43))*HLOOKUP($U$31,$AV$24:$BF$34,M43+1))*V45</f>
-        <v>6.0256099775624516E-2</v>
+        <v>6.6519562728531406E-2</v>
       </c>
       <c r="AL43" s="28">
         <v>4</v>
       </c>
       <c r="AM43" s="79">
         <f>((($W$39)^Q43)*((1-($W$39))^($U$32-Q43))*HLOOKUP($U$32,$AV$24:$BF$34,Q43+1))*V46</f>
-        <v>4.5819707991572464E-2</v>
+        <v>4.1874425596218116E-2</v>
       </c>
       <c r="AN43" s="28">
         <v>4</v>
       </c>
       <c r="AO43" s="79">
         <f>((($W$39)^Q43)*((1-($W$39))^($U$33-Q43))*HLOOKUP($U$33,$AV$24:$BF$34,Q43+1))*V47</f>
-        <v>2.2588526873222766E-2</v>
+        <v>1.6604768207337608E-2</v>
       </c>
       <c r="AP43" s="28">
         <v>4</v>
       </c>
       <c r="AQ43" s="79">
         <f>((($W$39)^Q43)*((1-($W$39))^($U$34-Q43))*HLOOKUP($U$34,$AV$24:$BF$34,Q43+1))*V48</f>
-        <v>7.6253591511473186E-3</v>
+        <v>4.386087701138585E-3</v>
       </c>
       <c r="AR43" s="28">
         <v>4</v>
       </c>
       <c r="AS43" s="79">
         <f>((($W$39)^Q43)*((1-($W$39))^($U$35-Q43))*HLOOKUP($U$35,$AV$24:$BF$34,Q43+1))*V49</f>
-        <v>2.3461294940630207E-3</v>
+        <v>9.7291623263308954E-4</v>
       </c>
       <c r="AV43" s="14">
         <v>5</v>
@@ -15765,7 +17007,7 @@
       </c>
       <c r="BJ43" s="107">
         <f t="shared" si="34"/>
-        <v>7.6128361344122728E-5</v>
+        <v>8.2852468531271369E-5</v>
       </c>
       <c r="BP43">
         <f t="shared" si="36"/>
@@ -15776,7 +17018,7 @@
       </c>
       <c r="BR43" s="107">
         <f t="shared" si="37"/>
-        <v>1.2445527356252006E-4</v>
+        <v>1.1016228737741366E-4</v>
       </c>
     </row>
     <row r="44" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15785,14 +17027,14 @@
       </c>
       <c r="H44" s="132">
         <f>J44*L39+J43*L40+J42*L41+J41*L42</f>
-        <v>0.13942956904653228</v>
+        <v>0.15118346185058193</v>
       </c>
       <c r="I44" s="93">
         <v>5</v>
       </c>
       <c r="J44" s="86">
         <f t="shared" si="35"/>
-        <v>0.11297935795901175</v>
+        <v>0.12290926924808565</v>
       </c>
       <c r="K44" s="95">
         <v>5</v>
@@ -15824,14 +17066,14 @@
       </c>
       <c r="T44" s="135">
         <f t="shared" si="39"/>
-        <v>0.15027361931165634</v>
+        <v>0.1073741824</v>
       </c>
       <c r="U44" s="93">
         <v>5</v>
       </c>
       <c r="V44" s="86">
         <f>T44*R39+T43*R40+T42*R41+T41*R42+T40*R43+T39*R44</f>
-        <v>0.21436132080774645</v>
+        <v>0.2310050186957224</v>
       </c>
       <c r="W44" s="137"/>
       <c r="X44" s="28">
@@ -15859,42 +17101,42 @@
       </c>
       <c r="AI44" s="79">
         <f>((($W$39)^M44)*((1-($W$39))^($U$30-M44))*HLOOKUP($U$30,$AV$24:$BF$34,M44+1))*V44</f>
-        <v>1.1647640506342921E-2</v>
+        <v>1.7732966214537432E-2</v>
       </c>
       <c r="AJ44" s="28">
         <v>5</v>
       </c>
       <c r="AK44" s="79">
         <f>((($W$39)^M44)*((1-($W$39))^($U$31-M44))*HLOOKUP($U$31,$AV$24:$BF$34,M44+1))*V45</f>
-        <v>3.0488948466976126E-2</v>
+        <v>3.9655906851775502E-2</v>
       </c>
       <c r="AL44" s="28">
         <v>5</v>
       </c>
       <c r="AM44" s="79">
         <f>((($W$39)^Q44)*((1-($W$39))^($U$32-Q44))*HLOOKUP($U$32,$AV$24:$BF$34,Q44+1))*V46</f>
-        <v>3.4776430625171544E-2</v>
+        <v>3.7445412735770636E-2</v>
       </c>
       <c r="AN44" s="28">
         <v>5</v>
       </c>
       <c r="AO44" s="79">
         <f>((($W$39)^Q44)*((1-($W$39))^($U$33-Q44))*HLOOKUP($U$33,$AV$24:$BF$34,Q44+1))*V47</f>
-        <v>2.2859110840134231E-2</v>
+        <v>1.9797999695601459E-2</v>
       </c>
       <c r="AP44" s="28">
         <v>5</v>
       </c>
       <c r="AQ44" s="79">
         <f>((($W$39)^Q44)*((1-($W$39))^($U$34-Q44))*HLOOKUP($U$34,$AV$24:$BF$34,Q44+1))*V48</f>
-        <v>9.645877474116096E-3</v>
+        <v>6.5369598876461937E-3</v>
       </c>
       <c r="AR44" s="28">
         <v>5</v>
       </c>
       <c r="AS44" s="79">
         <f>((($W$39)^Q44)*((1-($W$39))^($U$35-Q44))*HLOOKUP($U$35,$AV$24:$BF$34,Q44+1))*V49</f>
-        <v>3.5613500462708379E-3</v>
+        <v>1.7400238627544239E-3</v>
       </c>
       <c r="AV44" s="29">
         <v>6</v>
@@ -15926,7 +17168,7 @@
       </c>
       <c r="BJ44" s="107">
         <f>$H$30*H45</f>
-        <v>9.6105460316071069E-3</v>
+        <v>9.4803019381254679E-3</v>
       </c>
       <c r="BP44">
         <f t="shared" si="36"/>
@@ -15937,7 +17179,7 @@
       </c>
       <c r="BR44" s="107">
         <f t="shared" si="37"/>
-        <v>8.1020241125234098E-5</v>
+        <v>7.4395718175241114E-5</v>
       </c>
     </row>
     <row r="45" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15961,14 +17203,14 @@
       </c>
       <c r="H45" s="132">
         <f>J45*L39+J44*L40+J43*L41+J42*L42</f>
-        <v>6.9154415405959499E-2</v>
+        <v>7.6708720357658883E-2</v>
       </c>
       <c r="I45" s="93">
         <v>6</v>
       </c>
       <c r="J45" s="86">
         <f t="shared" si="35"/>
-        <v>4.743848962216924E-2</v>
+        <v>5.1862593208223208E-2</v>
       </c>
       <c r="K45" s="95">
         <v>6</v>
@@ -15990,14 +17232,14 @@
       </c>
       <c r="T45" s="135">
         <f t="shared" si="39"/>
-        <v>3.2530496134515655E-2</v>
+        <v>0</v>
       </c>
       <c r="U45" s="93">
         <v>6</v>
       </c>
       <c r="V45" s="86">
         <f>T45*R39+T44*R40+T43*R41+T42*R42+T41*R43+T40*R44+T39*R45</f>
-        <v>0.21181796572633355</v>
+        <v>0.21441895668282954</v>
       </c>
       <c r="W45" s="137"/>
       <c r="X45" s="28">
@@ -16029,35 +17271,35 @@
       </c>
       <c r="AK45" s="79">
         <f>((($W$39)^Q45)*((1-($W$39))^($U$31-Q45))*HLOOKUP($U$31,$AV$24:$BF$34,Q45+1))*V45</f>
-        <v>6.4279521221598688E-3</v>
+        <v>9.8504289799083346E-3</v>
       </c>
       <c r="AL45" s="28">
         <v>6</v>
       </c>
       <c r="AM45" s="79">
         <f>((($W$39)^Q45)*((1-($W$39))^($U$32-Q45))*HLOOKUP($U$32,$AV$24:$BF$34,Q45+1))*V46</f>
-        <v>1.46637547228199E-2</v>
+        <v>1.8602695439837065E-2</v>
       </c>
       <c r="AN45" s="28">
         <v>6</v>
       </c>
       <c r="AO45" s="79">
         <f>((($W$39)^Q45)*((1-($W$39))^($U$33-Q45))*HLOOKUP($U$33,$AV$24:$BF$34,Q45+1))*V47</f>
-        <v>1.4458085052819957E-2</v>
+        <v>1.4753322172762581E-2</v>
       </c>
       <c r="AP45" s="28">
         <v>6</v>
       </c>
       <c r="AQ45" s="79">
         <f>((($W$39)^Q45)*((1-($W$39))^($U$34-Q45))*HLOOKUP($U$34,$AV$24:$BF$34,Q45+1))*V48</f>
-        <v>8.1345197781415093E-3</v>
+        <v>6.4950585403027207E-3</v>
       </c>
       <c r="AR45" s="28">
         <v>6</v>
       </c>
       <c r="AS45" s="79">
         <f>((($W$39)^Q45)*((1-($W$39))^($U$35-Q45))*HLOOKUP($U$35,$AV$24:$BF$34,Q45+1))*V49</f>
-        <v>3.7541779462280053E-3</v>
+        <v>2.1610880754125055E-3</v>
       </c>
       <c r="AV45" s="14">
         <v>7</v>
@@ -16085,7 +17327,7 @@
       </c>
       <c r="BJ45" s="107">
         <f>$H$30*H46</f>
-        <v>3.7088212903920057E-3</v>
+        <v>3.7026569944319915E-3</v>
       </c>
       <c r="BP45">
         <f t="shared" si="36"/>
@@ -16096,7 +17338,7 @@
       </c>
       <c r="BR45" s="107">
         <f t="shared" si="37"/>
-        <v>4.0184499237715967E-5</v>
+        <v>3.7747517297572748E-5</v>
       </c>
     </row>
     <row r="46" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16120,14 +17362,14 @@
       </c>
       <c r="H46" s="132">
         <f>J46*L39+J45*L40+J44*L41+J43*L42</f>
-        <v>2.6687491776088593E-2</v>
+        <v>2.9959602744717394E-2</v>
       </c>
       <c r="I46" s="93">
         <v>7</v>
       </c>
       <c r="J46" s="86">
         <f t="shared" si="35"/>
-        <v>1.499900725181132E-2</v>
+        <v>1.623218210606063E-2</v>
       </c>
       <c r="K46" s="95">
         <v>7</v>
@@ -16156,7 +17398,7 @@
       </c>
       <c r="V46" s="86">
         <f>T46*R39+T45*R40+T44*R41+T43*R42+T42*R43+T41*R44+T40*R45+T39*R46</f>
-        <v>0.15635091884627622</v>
+        <v>0.1440629768991438</v>
       </c>
       <c r="W46" s="137"/>
       <c r="X46" s="28">
@@ -16192,28 +17434,28 @@
       </c>
       <c r="AM46" s="79">
         <f>((($W$39)^Q46)*((1-($W$39))^($U$32-Q46))*HLOOKUP($U$32,$AV$24:$BF$34,Q46+1))*V46</f>
-        <v>2.6498945082574542E-3</v>
+        <v>3.960740093883218E-3</v>
       </c>
       <c r="AN46" s="28">
         <v>7</v>
       </c>
       <c r="AO46" s="79">
         <f>((($W$39)^Q46)*((1-($W$39))^($U$33-Q46))*HLOOKUP($U$33,$AV$24:$BF$34,Q46+1))*V47</f>
-        <v>5.2254556770190115E-3</v>
+        <v>6.2823234231424718E-3</v>
       </c>
       <c r="AP46" s="28">
         <v>7</v>
       </c>
       <c r="AQ46" s="79">
         <f>((($W$39)^Q46)*((1-($W$39))^($U$34-Q46))*HLOOKUP($U$34,$AV$24:$BF$34,Q46+1))*V48</f>
-        <v>4.4099795096539081E-3</v>
+        <v>4.1486308566240082E-3</v>
       </c>
       <c r="AR46" s="28">
         <v>7</v>
       </c>
       <c r="AS46" s="79">
         <f>((($W$39)^Q46)*((1-($W$39))^($U$35-Q46))*HLOOKUP($U$35,$AV$24:$BF$34,Q46+1))*V49</f>
-        <v>2.7136775568809461E-3</v>
+        <v>1.8404877324109327E-3</v>
       </c>
       <c r="AV46" s="14">
         <v>8</v>
@@ -16237,7 +17479,7 @@
       </c>
       <c r="BJ46" s="107">
         <f>$H$30*H47</f>
-        <v>1.1199428015617467E-3</v>
+        <v>1.1263152253779369E-3</v>
       </c>
       <c r="BP46">
         <f t="shared" si="36"/>
@@ -16248,7 +17490,7 @@
       </c>
       <c r="BR46" s="107">
         <f t="shared" si="37"/>
-        <v>1.5507664790994175E-5</v>
+        <v>1.4742790879077864E-5</v>
       </c>
     </row>
     <row r="47" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16272,14 +17514,14 @@
       </c>
       <c r="H47" s="132">
         <f>J47*L39+J46*L40+J45*L41+J44*L42</f>
-        <v>8.058750197481113E-3</v>
+        <v>9.1134438778405786E-3</v>
       </c>
       <c r="I47" s="93">
         <v>8</v>
       </c>
       <c r="J47" s="86">
         <f t="shared" si="35"/>
-        <v>3.5081585772834597E-3</v>
+        <v>3.744787941153762E-3</v>
       </c>
       <c r="K47" s="95">
         <v>8</v>
@@ -16308,7 +17550,7 @@
       </c>
       <c r="V47" s="86">
         <f>T47*R39+T46*R40+T45*R41+T44*R42+T43*R43+T42*R44+T41*R45+T40*R46+T39*R47</f>
-        <v>8.7290938904644511E-2</v>
+        <v>7.1133283858145768E-2</v>
       </c>
       <c r="W47" s="137"/>
       <c r="X47" s="28">
@@ -16348,21 +17590,21 @@
       </c>
       <c r="AO47" s="79">
         <f>((($W$39)^Q47)*((1-($W$39))^($U$33-Q47))*HLOOKUP($U$33,$AV$24:$BF$34,Q47+1))*V47</f>
-        <v>8.262578884459152E-4</v>
+        <v>1.1703851762825501E-3</v>
       </c>
       <c r="AP47" s="28">
         <v>8</v>
       </c>
       <c r="AQ47" s="79">
         <f>((($W$39)^Q47)*((1-($W$39))^($U$34-Q47))*HLOOKUP($U$34,$AV$24:$BF$34,Q47+1))*V48</f>
-        <v>1.3946268356121907E-3</v>
+        <v>1.5457644344048613E-3</v>
       </c>
       <c r="AR47" s="28">
         <v>8</v>
       </c>
       <c r="AS47" s="79">
         <f>((($W$39)^Q47)*((1-($W$39))^($U$35-Q47))*HLOOKUP($U$35,$AV$24:$BF$34,Q47+1))*V49</f>
-        <v>1.2872738532253539E-3</v>
+        <v>1.0286383304663508E-3</v>
       </c>
       <c r="AV47" s="29">
         <v>9</v>
@@ -16383,7 +17625,7 @@
       </c>
       <c r="BJ47" s="107">
         <f>$H$30*H48</f>
-        <v>2.6064927234419923E-4</v>
+        <v>2.6530009547860571E-4</v>
       </c>
       <c r="BP47">
         <f>BL12+1</f>
@@ -16394,7 +17636,7 @@
       </c>
       <c r="BR47" s="107">
         <f t="shared" si="37"/>
-        <v>4.6828078766423352E-6</v>
+        <v>4.4846254612940951E-6</v>
       </c>
     </row>
     <row r="48" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16418,14 +17660,14 @@
       </c>
       <c r="H48" s="132">
         <f>J48*L39+J47*L40+J46*L41+J45*L42</f>
-        <v>1.8755487977135904E-3</v>
+        <v>2.146643742757472E-3</v>
       </c>
       <c r="I48" s="93">
         <v>9</v>
       </c>
       <c r="J48" s="86">
         <f t="shared" si="35"/>
-        <v>5.57877858562665E-4</v>
+        <v>5.9665765227145473E-4</v>
       </c>
       <c r="K48" s="95">
         <v>9</v>
@@ -16454,7 +17696,7 @@
       </c>
       <c r="V48" s="86">
         <f>T48*R39+T47*R40+T46*R41+T45*R42+T44*R43+T43*R44+T42*R45+T41*R46+T40*R47+T39*R48</f>
-        <v>3.7079356198170876E-2</v>
+        <v>2.5996289306348872E-2</v>
       </c>
       <c r="W48" s="137"/>
       <c r="X48" s="28">
@@ -16498,14 +17740,14 @@
       </c>
       <c r="AQ48" s="79">
         <f>((($W$39)^Q48)*((1-($W$39))^($U$34-Q48))*HLOOKUP($U$34,$AV$24:$BF$34,Q48+1))*V48</f>
-        <v>1.960184477402671E-4</v>
+        <v>2.5597603635167795E-4</v>
       </c>
       <c r="AR48" s="28">
         <v>9</v>
       </c>
       <c r="AS48" s="79">
         <f>((($W$39)^Q48)*((1-($W$39))^($U$35-Q48))*HLOOKUP($U$35,$AV$24:$BF$34,Q48+1))*V49</f>
-        <v>3.6185941082239793E-4</v>
+        <v>3.4068161591977673E-4</v>
       </c>
       <c r="AV48" s="14">
         <v>10</v>
@@ -16523,7 +17765,7 @@
       </c>
       <c r="BJ48" s="107">
         <f>$H$30*H49</f>
-        <v>4.4787233611854962E-5</v>
+        <v>4.6803479070842477E-5</v>
       </c>
     </row>
     <row r="49" spans="1:62" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16547,14 +17789,14 @@
       </c>
       <c r="H49" s="133">
         <f>J49*L39+J48*L40+J47*L41+J46*L42</f>
-        <v>3.2227460832004782E-4</v>
+        <v>3.7870470911612021E-4</v>
       </c>
       <c r="I49" s="94">
         <v>10</v>
       </c>
       <c r="J49" s="89">
         <f t="shared" si="35"/>
-        <v>4.5774257585277333E-5</v>
+        <v>5.077468143530178E-5</v>
       </c>
       <c r="K49" s="96">
         <v>10</v>
@@ -16583,7 +17825,7 @@
       </c>
       <c r="V49" s="89">
         <f>IF(((T49*R39+T48*R40+T47*R41+T46*R42+T45*R43+T44*R44+T43*R45+T42*R46+T41*R47+T40*R48+T39*R49)+V37)&lt;&gt;1,1-V37,(T49*R39+T48*R40+T47*R41+T46*R42+T45*R43+T44*R44+T43*R45+T42*R46+T41*R47+T40*R48+T39*R49))</f>
-        <v>1.5503803011911232E-2</v>
+        <v>8.6164280232861046E-3</v>
       </c>
       <c r="W49" s="137"/>
       <c r="X49" s="28">
@@ -16631,7 +17873,7 @@
       </c>
       <c r="AS49" s="79">
         <f>((($W$39)^Q49)*((1-($W$39))^($U$35-Q49))*HLOOKUP($U$35,$AV$24:$BF$34,Q49+1))*V49</f>
-        <v>4.5774257585277333E-5</v>
+        <v>5.077468143530178E-5</v>
       </c>
       <c r="BH49">
         <f>BP14+1</f>
@@ -16642,7 +17884,7 @@
       </c>
       <c r="BJ49" s="107">
         <f>$H$31*H39</f>
-        <v>1.1545613444414091E-3</v>
+        <v>7.7205841146618345E-4</v>
       </c>
     </row>
     <row r="50" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16689,7 +17931,7 @@
       </c>
       <c r="BJ50" s="107">
         <f>$H$31*H46</f>
-        <v>1.5353759615983507E-3</v>
+        <v>1.4950693651109273E-3</v>
       </c>
     </row>
     <row r="51" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16717,7 +17959,7 @@
       </c>
       <c r="BJ51" s="107">
         <f>$H$31*H47</f>
-        <v>4.6363335444002228E-4</v>
+        <v>4.5478676297934696E-4</v>
       </c>
     </row>
     <row r="52" spans="1:62" x14ac:dyDescent="0.25">
@@ -16731,7 +17973,7 @@
       </c>
       <c r="BJ52" s="107">
         <f>$H$31*H48</f>
-        <v>1.0790345390923015E-4</v>
+        <v>1.0712362660314815E-4</v>
       </c>
     </row>
     <row r="53" spans="1:62" x14ac:dyDescent="0.25">
@@ -16744,7 +17986,7 @@
       </c>
       <c r="BJ53" s="107">
         <f>$H$31*H49</f>
-        <v>1.8540996313916116E-5</v>
+        <v>1.8898441806695494E-5</v>
       </c>
     </row>
     <row r="54" spans="1:62" x14ac:dyDescent="0.25">
@@ -16757,7 +17999,7 @@
       </c>
       <c r="BJ54" s="107">
         <f>$H$32*H47</f>
-        <v>1.383069080999521E-4</v>
+        <v>1.3371549759655688E-4</v>
       </c>
     </row>
     <row r="55" spans="1:62" x14ac:dyDescent="0.25">
@@ -16770,7 +18012,7 @@
       </c>
       <c r="BJ55" s="107">
         <f>$H$32*H48</f>
-        <v>3.2188782236162262E-5</v>
+        <v>3.1496275181250621E-5</v>
       </c>
     </row>
     <row r="56" spans="1:62" x14ac:dyDescent="0.25">
@@ -16783,7 +18025,7 @@
       </c>
       <c r="BJ56" s="107">
         <f>$H$32*H49</f>
-        <v>5.5309822917455401E-6</v>
+        <v>5.5564821927251642E-6</v>
       </c>
     </row>
     <row r="57" spans="1:62" x14ac:dyDescent="0.25">
@@ -16796,7 +18038,7 @@
       </c>
       <c r="BJ57" s="107">
         <f>$H$33*H48</f>
-        <v>6.9738733373134949E-6</v>
+        <v>6.7742278136976124E-6</v>
       </c>
     </row>
     <row r="58" spans="1:62" x14ac:dyDescent="0.25">
@@ -16809,7 +18051,7 @@
       </c>
       <c r="BJ58" s="107">
         <f>$H$33*H49</f>
-        <v>1.1983171544223084E-6</v>
+        <v>1.1950897685413131E-6</v>
       </c>
     </row>
     <row r="59" spans="1:62" x14ac:dyDescent="0.25">
@@ -16822,7 +18064,7 @@
       </c>
       <c r="BJ59" s="107">
         <f>$H$34*H49</f>
-        <v>1.8726850160396477E-7</v>
+        <v>1.8635642064397601E-7</v>
       </c>
     </row>
   </sheetData>
@@ -16831,72 +18073,72 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <conditionalFormatting sqref="V25:V35 V39:V49">
-    <cfRule type="cellIs" dxfId="27" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="83" priority="14" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="26" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="13" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V49">
-    <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="12" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V25:V35 V39:V49">
-    <cfRule type="cellIs" dxfId="24" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="11" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="79" priority="10" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V49">
-    <cfRule type="cellIs" dxfId="22" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="9" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H35">
-    <cfRule type="cellIs" dxfId="21" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="77" priority="8" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="7" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H35">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="6" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="5" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H49">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="4" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="3" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H49">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="2" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="1" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16981,7 +18223,7 @@
   <sheetData>
     <row r="1" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A1" s="206" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B1" t="s">
         <v>145</v>
@@ -17002,8 +18244,8 @@
         <v>0</v>
       </c>
       <c r="L1" s="13"/>
-      <c r="P1" s="207"/>
-      <c r="Q1" s="207"/>
+      <c r="P1" s="211"/>
+      <c r="Q1" s="211"/>
       <c r="R1" s="152">
         <v>0</v>
       </c>
@@ -17067,10 +18309,10 @@
       <c r="A3" s="162" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="208" t="s">
+      <c r="B3" s="212" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="208"/>
+      <c r="C3" s="212"/>
       <c r="D3" t="str">
         <f>IF(B3="Sol","SI",IF(B3="Lluvia","SI","NO"))</f>
         <v>SI</v>
@@ -18812,7 +20054,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="172" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C17" s="173" t="s">
         <v>11</v>
@@ -23873,72 +25115,72 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <conditionalFormatting sqref="V25:V35 V39:V49">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="14" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="13" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V49">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="12" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V25:V35 V39:V49">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="11" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="10" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V49">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="9" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H35">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="8" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="7" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H35">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="6" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="5" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H49">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="4" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="3" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H49">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="2" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="1" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23956,8 +25198,8 @@
   </sheetPr>
   <dimension ref="A1:BR59"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24044,8 +25286,8 @@
         <v>0</v>
       </c>
       <c r="L1" s="13"/>
-      <c r="P1" s="207"/>
-      <c r="Q1" s="207"/>
+      <c r="P1" s="211"/>
+      <c r="Q1" s="211"/>
       <c r="R1" s="152">
         <v>0</v>
       </c>
@@ -24109,10 +25351,10 @@
       <c r="A3" s="162" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="208" t="s">
+      <c r="B3" s="212" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="208"/>
+      <c r="C3" s="212"/>
       <c r="D3" t="str">
         <f>IF(B3="Sol","SI",IF(B3="Lluvia","SI","NO"))</f>
         <v>SI</v>
@@ -30823,72 +32065,72 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <conditionalFormatting sqref="V25:V35 V39:V49">
-    <cfRule type="cellIs" dxfId="83" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="14" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="82" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="13" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V49">
-    <cfRule type="cellIs" dxfId="81" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="12" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V25:V35 V39:V49">
-    <cfRule type="cellIs" dxfId="80" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="11" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="79" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="10" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V49">
-    <cfRule type="cellIs" dxfId="78" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="9" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H35">
-    <cfRule type="cellIs" dxfId="77" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="8" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="76" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="7" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H35">
-    <cfRule type="cellIs" dxfId="75" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="6" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="74" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="5" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H49">
-    <cfRule type="cellIs" dxfId="73" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="4" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="72" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H49">
-    <cfRule type="cellIs" dxfId="71" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="70" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31004,8 +32246,8 @@
         <f>L1+H1</f>
         <v>7</v>
       </c>
-      <c r="P1" s="207"/>
-      <c r="Q1" s="207"/>
+      <c r="P1" s="211"/>
+      <c r="Q1" s="211"/>
       <c r="R1" s="152">
         <v>0</v>
       </c>
@@ -31085,10 +32327,10 @@
       <c r="A3" s="162" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="209" t="s">
+      <c r="B3" s="213" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="209"/>
+      <c r="C3" s="213"/>
       <c r="D3" t="str">
         <f>IF(B3="Sol","SI",IF(B3="Lluvia","SI","NO"))</f>
         <v>SI</v>
@@ -37753,72 +38995,72 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <conditionalFormatting sqref="V25:V35 V39:V49">
-    <cfRule type="cellIs" dxfId="69" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="14" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="68" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="13" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V49">
-    <cfRule type="cellIs" dxfId="67" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="12" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V25:V35 V39:V49">
-    <cfRule type="cellIs" dxfId="66" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="11" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="65" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="10" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V49">
-    <cfRule type="cellIs" dxfId="64" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="9" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H35">
-    <cfRule type="cellIs" dxfId="63" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="8" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="62" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="7" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H35">
-    <cfRule type="cellIs" dxfId="61" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="60" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H49">
-    <cfRule type="cellIs" dxfId="59" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="58" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H49">
-    <cfRule type="cellIs" dxfId="57" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="56" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37934,10 +39176,10 @@
         <f>L1+H1</f>
         <v>0</v>
       </c>
-      <c r="P1" s="207" t="s">
+      <c r="P1" s="211" t="s">
         <v>135</v>
       </c>
-      <c r="Q1" s="207"/>
+      <c r="Q1" s="211"/>
       <c r="R1" s="152">
         <v>-0.12364059050405629</v>
       </c>
@@ -38010,10 +39252,10 @@
       <c r="A3" s="162" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="209" t="s">
+      <c r="B3" s="213" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="209"/>
+      <c r="C3" s="213"/>
       <c r="D3" t="str">
         <f>IF(B3="Sol","SI",IF(B3="Lluvia","SI","NO"))</f>
         <v>NO</v>
@@ -44558,72 +45800,72 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <conditionalFormatting sqref="V25:V35 V39:V49">
-    <cfRule type="cellIs" dxfId="55" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="14" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="54" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="13" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V49">
-    <cfRule type="cellIs" dxfId="53" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V25:V35 V39:V49">
-    <cfRule type="cellIs" dxfId="52" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="11" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="51" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V49">
-    <cfRule type="cellIs" dxfId="50" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H35">
-    <cfRule type="cellIs" dxfId="49" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="48" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H35">
-    <cfRule type="cellIs" dxfId="47" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="46" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H49">
-    <cfRule type="cellIs" dxfId="45" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="44" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H49">
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44736,10 +45978,10 @@
         <f>L1+H1</f>
         <v>0</v>
       </c>
-      <c r="P1" s="207" t="s">
+      <c r="P1" s="211" t="s">
         <v>135</v>
       </c>
-      <c r="Q1" s="207"/>
+      <c r="Q1" s="211"/>
       <c r="R1" s="152">
         <v>-0.12364059050405629</v>
       </c>
@@ -44790,10 +46032,10 @@
       <c r="A3" s="148" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="210" t="s">
+      <c r="B3" s="214" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="210"/>
+      <c r="C3" s="214"/>
       <c r="D3" t="str">
         <f>IF(B3="Sol","SI",IF(B3="Lluvia","SI","NO"))</f>
         <v>NO</v>
@@ -51295,72 +52537,72 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <conditionalFormatting sqref="V24:V34 V38:V48">
-    <cfRule type="cellIs" dxfId="41" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V34">
-    <cfRule type="cellIs" dxfId="40" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V48">
-    <cfRule type="cellIs" dxfId="39" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V24:V34 V38:V48">
-    <cfRule type="cellIs" dxfId="38" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V34">
-    <cfRule type="cellIs" dxfId="37" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V48">
-    <cfRule type="cellIs" dxfId="36" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H34">
-    <cfRule type="cellIs" dxfId="35" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="34" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H34">
-    <cfRule type="cellIs" dxfId="33" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="32" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:H48">
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:H48">
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>

--- a/projects/current/hattrick/4-SimuladorPartidos.xlsx
+++ b/projects/current/hattrick/4-SimuladorPartidos.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7350"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="OBIWAN-LA_Crsuh" sheetId="448" r:id="rId1"/>
-    <sheet name="SIMULADOR_v3" sheetId="446" r:id="rId2"/>
-    <sheet name="SIMULADOR&gt;22-12-17_v2" sheetId="436" r:id="rId3"/>
-    <sheet name="SIMULADOR&gt;22-12-17" sheetId="435" r:id="rId4"/>
-    <sheet name="SIMULADOR" sheetId="285" r:id="rId5"/>
-    <sheet name="SIMULADOR_sinJC" sheetId="273" r:id="rId6"/>
+    <sheet name="OlsTown-OBIWAN" sheetId="449" r:id="rId2"/>
+    <sheet name="SIMULADOR_v3" sheetId="446" r:id="rId3"/>
+    <sheet name="SIMULADOR&gt;22-12-17_v2" sheetId="436" r:id="rId4"/>
+    <sheet name="SIMULADOR&gt;22-12-17" sheetId="435" r:id="rId5"/>
+    <sheet name="SIMULADOR" sheetId="285" r:id="rId6"/>
+    <sheet name="SIMULADOR_sinJC" sheetId="273" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -1001,30 +1002,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="O7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Como distribución normal de un partdo, no evento</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="W7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1047,30 +1024,6 @@
           </rPr>
           <t>Solamente si hay jugadores con ANOTACION+BP
 Qualquier jugador de campo</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Como distribucion normal de un partido, no evento</t>
         </r>
       </text>
     </comment>
@@ -1874,7 +1827,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Incluyo en el 19</t>
+          <t>Incluyo en el 37!!!!!</t>
         </r>
       </text>
     </comment>
@@ -2961,6 +2914,521 @@
         </r>
       </text>
     </comment>
+    <comment ref="U35" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+10 o más</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U49" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+10 o más</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="W5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0,017
+Aparicion según PASES
+Conversión según ANOTACION receptor
+Receptor Extremos y delanteros</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0,028
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Solamente Extremos y Delanteros
+Aparición solo por ser IMP
+Conversión depende nivel anotación del IMP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Como distribución normal de un partdo, no evento</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0,04 (no es conocido)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Solamente si hay jugadores con ANOTACION+BP
+Qualquier jugador de campo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Como distribucion normal de un partido, no evento</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0,018
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Aparicion solo por IMP
+Conversión según ANOTACION receptor
+Receptor Extremos y delanteros</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Según nivel de defensa del IMP
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0,045 Medios
+0,015 Defensas</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0,075 lineal
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Se genera por ser RAP
+Conversión según anotación RAP y Defensa DEF</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0,075 lineal por ser RAP (puede de PASES pero no se sabe)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Remata siempre un delantero y no depende del rival</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0,1
+Defensa o Medio con Resistencia &gt;=debil
+Conversión depende de la anotación del jugador rival
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0,133
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">alto BP del lanzador + Anotación del receptor (qualquier)
+Conversión depende de la ANOTACION </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0,08 lineal
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gran efectividad 90% según cabezones del rival, pero no baja hasta grandes diferencias</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0,03 (depende del XP de los jugadores)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Evento que pueden provocar los delanteros y extremos con un nivel de experiencia alto. 
+Lanzador BP nunca
+De hecho es necesario un nivel de experiencia débil para conseguir el evento.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0,3 (muy común si es posible)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Evento negativo que pueden provocar los defensas o inner por tener un nivel bajo de experiencia (&lt;debil)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>"Pres" "normal" "AOW" "AIM"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0,04
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Si el rematador es cabezon efectividad 0,9 sino cuenta la anotación y baja mucho la conversión</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Incluyo en el 19</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0,045 lineal por TEC (extremos y delanteros)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Si el rival tiene CAB en medios y defensas
+Parece ser que depende de la anotacion y la defensa</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Si Pression me cargo 2 ocaciones</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Solo para el calculo de efectividad, no cuenta para nada más. Las ocasiones se miran en otra parte en el simulador</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="U34" authorId="0" shapeId="0">
       <text>
         <r>
@@ -3014,7 +3482,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="165">
   <si>
     <t>LOCAL</t>
   </si>
@@ -3503,6 +3971,12 @@
   </si>
   <si>
     <t>LA Crush</t>
+  </si>
+  <si>
+    <t>Old Town</t>
+  </si>
+  <si>
+    <t>OFF</t>
   </si>
 </sst>
 </file>
@@ -4055,7 +4529,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4575,6 +5049,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4590,7 +5067,175 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="84">
+  <dxfs count="98">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -5822,11 +6467,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="417124800"/>
-        <c:axId val="417124408"/>
+        <c:axId val="278570960"/>
+        <c:axId val="278569784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="417124800"/>
+        <c:axId val="278570960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5836,7 +6481,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="417124408"/>
+        <c:crossAx val="278569784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5844,7 +6489,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="417124408"/>
+        <c:axId val="278569784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5855,7 +6500,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="417124800"/>
+        <c:crossAx val="278570960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5873,6 +6518,358 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>'SIMULADOR&gt;22-12-17'!$B$37:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.17659899041025631</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59597225178515745</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.227419831552787</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000001388" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000001388" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="FF0000"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="FF0000"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SIMULADOR!$G$25:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SIMULADOR!$H$25:$H$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="00B050"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="00B050"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>SIMULADOR!$H$39:$H$49</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="280993408"/>
+        <c:axId val="280992624"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="280993408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="280992624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="280992624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="280993408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000001388" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000001388" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -5964,7 +6961,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -6174,11 +7171,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="308207352"/>
-        <c:axId val="308214800"/>
+        <c:axId val="280995368"/>
+        <c:axId val="281296232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="308207352"/>
+        <c:axId val="280995368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6188,7 +7185,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="308214800"/>
+        <c:crossAx val="281296232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6196,7 +7193,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="308214800"/>
+        <c:axId val="281296232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6207,7 +7204,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="308207352"/>
+        <c:crossAx val="280995368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6224,7 +7221,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -6456,6 +7453,358 @@
           </c:marker>
           <c:cat>
             <c:numRef>
+              <c:f>'OlsTown-OBIWAN'!$G$25:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'OlsTown-OBIWAN'!$H$25:$H$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.21522788271027415</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35249037749045425</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26468434489339215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12063391467226153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7230981316519612E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2186592388522918E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3359445119046625E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6212783747931103E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4724853052399642E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.9229606334709401E-7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8503150132474202E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="00B050"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="00B050"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'OlsTown-OBIWAN'!$H$39:$H$49</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.1024365650988042E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0111238290725864E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15022469408053443</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22780820666262819</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23390491240406325</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17180778963592011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.2988180418305671E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7631349852053568E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1429554858554828E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5881416686062879E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.282334692672882E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="290444248"/>
+        <c:axId val="290445816"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="290444248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="290445816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="290445816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="290444248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000001388" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000001388" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>'OlsTown-OBIWAN'!$B$37:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1010559425848194</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82583919702004882</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3051477230479792E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000001388" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000001388" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="FF0000"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="FF0000"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
               <c:f>SIMULADOR_v3!$G$25:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -6618,11 +7967,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="409415000"/>
-        <c:axId val="409411472"/>
+        <c:axId val="278571352"/>
+        <c:axId val="278565080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="409415000"/>
+        <c:axId val="278571352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6632,7 +7981,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="409411472"/>
+        <c:crossAx val="278565080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6640,7 +7989,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="409411472"/>
+        <c:axId val="278565080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6651,7 +8000,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="409415000"/>
+        <c:crossAx val="278571352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6668,7 +8017,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -6760,7 +8109,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -6970,11 +8319,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="409422448"/>
-        <c:axId val="409420880"/>
+        <c:axId val="280997720"/>
+        <c:axId val="280995760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="409422448"/>
+        <c:axId val="280997720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6984,7 +8333,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="409420880"/>
+        <c:crossAx val="280995760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6992,7 +8341,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="409420880"/>
+        <c:axId val="280995760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7003,7 +8352,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="409422448"/>
+        <c:crossAx val="280997720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7020,7 +8369,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -7112,7 +8461,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -7322,11 +8671,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="308209312"/>
-        <c:axId val="308215976"/>
+        <c:axId val="280996152"/>
+        <c:axId val="280997328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="308209312"/>
+        <c:axId val="280996152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7336,7 +8685,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="308215976"/>
+        <c:crossAx val="280997328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7344,7 +8693,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="308215976"/>
+        <c:axId val="280997328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7355,359 +8704,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="308209312"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000001388" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000001388" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:val>
-            <c:numRef>
-              <c:f>'SIMULADOR&gt;22-12-17'!$B$37:$B$39</c:f>
-              <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.17659899041025631</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.59597225178515745</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.227419831552787</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000001388" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000001388" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="FF0000"/>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="FF0000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>SIMULADOR!$G$25:$G$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>SIMULADOR!$H$25:$H$35</c:f>
-              <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="00B050"/>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:spPr>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="00B050"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>SIMULADOR!$H$39:$H$49</c:f>
-              <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="308204608"/>
-        <c:axId val="308205000"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="308204608"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="308205000"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="308205000"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="308204608"/>
+        <c:crossAx val="280996152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8075,6 +9072,75 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>535782</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>78241</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>176894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>299357</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
@@ -8430,8 +9496,8 @@
   </sheetPr>
   <dimension ref="A1:BR59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8518,8 +9584,8 @@
         <v>1</v>
       </c>
       <c r="L1" s="13"/>
-      <c r="P1" s="216"/>
-      <c r="Q1" s="216"/>
+      <c r="P1" s="217"/>
+      <c r="Q1" s="217"/>
       <c r="R1" s="153"/>
       <c r="S1" s="153"/>
       <c r="U1">
@@ -8577,10 +9643,10 @@
       <c r="A3" s="162" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="217" t="s">
+      <c r="B3" s="218" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="217"/>
+      <c r="C3" s="218"/>
       <c r="D3" t="str">
         <f>IF(B3="Sol","SI",IF(B3="Lluvia","SI","NO"))</f>
         <v>SI</v>
@@ -15660,6 +16726,7332 @@
       <c r="BJ59" s="107">
         <f>$H$34*H49</f>
         <v>8.3811229106467726E-9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="V25:V35 V39:V49">
+    <cfRule type="cellIs" dxfId="97" priority="14" operator="greaterThan">
+      <formula>0.15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V35">
+    <cfRule type="cellIs" dxfId="96" priority="13" operator="greaterThan">
+      <formula>0.15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V49">
+    <cfRule type="cellIs" dxfId="95" priority="12" operator="greaterThan">
+      <formula>0.15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V25:V35 V39:V49">
+    <cfRule type="cellIs" dxfId="94" priority="11" operator="greaterThan">
+      <formula>0.15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V35">
+    <cfRule type="cellIs" dxfId="93" priority="10" operator="greaterThan">
+      <formula>0.15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V49">
+    <cfRule type="cellIs" dxfId="92" priority="9" operator="greaterThan">
+      <formula>0.15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25:H35">
+    <cfRule type="cellIs" dxfId="91" priority="8" operator="greaterThan">
+      <formula>0.15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="cellIs" dxfId="90" priority="7" operator="greaterThan">
+      <formula>0.15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25:H35">
+    <cfRule type="cellIs" dxfId="89" priority="6" operator="greaterThan">
+      <formula>0.15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="cellIs" dxfId="88" priority="5" operator="greaterThan">
+      <formula>0.15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:H49">
+    <cfRule type="cellIs" dxfId="87" priority="4" operator="greaterThan">
+      <formula>0.15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="cellIs" dxfId="86" priority="3" operator="greaterThan">
+      <formula>0.15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:H49">
+    <cfRule type="cellIs" dxfId="85" priority="2" operator="greaterThan">
+      <formula>0.15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="cellIs" dxfId="84" priority="1" operator="greaterThan">
+      <formula>0.15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:BR59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AB14" sqref="AB14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.42578125" customWidth="1"/>
+    <col min="24" max="24" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10" customWidth="1"/>
+    <col min="29" max="29" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.140625" customWidth="1"/>
+    <col min="36" max="36" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="52" width="3" bestFit="1" customWidth="1"/>
+    <col min="53" max="56" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="4.7109375" customWidth="1"/>
+    <col min="64" max="65" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="4.42578125" customWidth="1"/>
+    <col min="68" max="69" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="5.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A1" s="216" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="204" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="202">
+        <f>IF(D3="SI",COUNTIF($F$6:$F$18,"RAP"),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H1" s="13"/>
+      <c r="J1" s="205" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="202">
+        <f>IF(D3="SI",COUNTIF($J$6:$J$18,"RAP"),0)</f>
+        <v>1</v>
+      </c>
+      <c r="L1" s="13"/>
+      <c r="P1" s="217"/>
+      <c r="Q1" s="217"/>
+      <c r="R1" s="153"/>
+      <c r="S1" s="153"/>
+      <c r="U1">
+        <v>1.5</v>
+      </c>
+      <c r="V1">
+        <v>2.5</v>
+      </c>
+      <c r="W1">
+        <v>3.5</v>
+      </c>
+      <c r="AI1" s="160"/>
+    </row>
+    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A2" s="216" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="204" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="202">
+        <f>IF(D3="SI",COUNTIF($F$6:$F$18,"TEC"),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="J2" s="205" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="202">
+        <f>IF(D3="SI",COUNTIF($J$6:$J$18,"TEC"),0)</f>
+        <v>3</v>
+      </c>
+      <c r="L2" s="13"/>
+      <c r="M2" s="163"/>
+      <c r="O2" t="s">
+        <v>147</v>
+      </c>
+      <c r="P2" s="212">
+        <v>0.45</v>
+      </c>
+      <c r="R2" s="153"/>
+      <c r="S2" s="153"/>
+      <c r="Y2" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z2" s="213">
+        <v>0.45</v>
+      </c>
+      <c r="AI2" s="13"/>
+    </row>
+    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A3" s="162" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="218" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="218"/>
+      <c r="D3" t="str">
+        <f>IF(B3="Sol","SI",IF(B3="Lluvia","SI","NO"))</f>
+        <v>SI</v>
+      </c>
+      <c r="F3" s="204" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="202">
+        <f>IF(D3="SI",COUNTIF($F$6:$F$18,"POT"),0)</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="J3" s="205" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" s="202">
+        <f>IF(D3="SI",COUNTIF($J$6:$J$18,"POT"),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="13"/>
+      <c r="O3" t="s">
+        <v>132</v>
+      </c>
+      <c r="P3" s="212">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>133</v>
+      </c>
+      <c r="R3" s="212">
+        <v>0.7</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z3" s="213">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB3" s="213">
+        <v>0.7</v>
+      </c>
+      <c r="AI3" s="208">
+        <f>SUM(AI5:AI19)</f>
+        <v>3.6837000000000004</v>
+      </c>
+      <c r="AM3" s="208">
+        <f>SUM(AM5:AM19)</f>
+        <v>3.6837000000000009</v>
+      </c>
+      <c r="AN3" s="208">
+        <f>SUM(AN5:AN19)</f>
+        <v>2.5904000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:70" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="124"/>
+      <c r="B4" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="N4" s="13"/>
+      <c r="O4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="V4" s="216"/>
+      <c r="W4" s="125"/>
+      <c r="X4" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH4" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI4" s="216" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK4" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AL4" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM4" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>160</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>1</v>
+      </c>
+      <c r="BJ4" s="107">
+        <f t="shared" ref="BJ4:BJ13" si="0">$H$25*H40</f>
+        <v>1.2937614544405687E-2</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4" s="107">
+        <f>H25*H39</f>
+        <v>2.3727508772860297E-3</v>
+      </c>
+      <c r="BP4">
+        <v>1</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4" s="107">
+        <f>$H$26*H39</f>
+        <v>3.8859828099095726E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="161">
+        <v>352</v>
+      </c>
+      <c r="C5" s="161">
+        <v>352</v>
+      </c>
+      <c r="E5" s="192" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="167" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="167">
+        <v>12</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="166" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="166">
+        <v>12</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="O5" s="67">
+        <f>AG5*AI5*AO5*AH5</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="210">
+        <f>P3</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Q5" s="214">
+        <f>P5*O5</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="157">
+        <f>IF($B$17="JC",IF($C$17="JC",$W$1,$V$1*1.1),IF($C$17="JC",$V$1/0.9,$U$1))*Q5/1.5</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="176">
+        <f>(1-R5)</f>
+        <v>1</v>
+      </c>
+      <c r="T5" s="177">
+        <f>R5*PRODUCT(S6:S19)</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="177">
+        <f>R5*R6*PRODUCT(S7:S19)+R5*R7*PRODUCT(S8:S19)*PRODUCT(S6)+R5*R8*PRODUCT(S9:S19)*PRODUCT(S6:S7)+R5*R9*PRODUCT(S10:S19)*PRODUCT(S6:S8)+R5*R10*PRODUCT(S11:S19)*PRODUCT(S6:S9)+R5*R11*PRODUCT(S12:S19)*PRODUCT(S6:S10)+R5*R12*PRODUCT(S13:S19)*PRODUCT(S6:S11)+R5*R13*PRODUCT(S14:S19)*PRODUCT(S6:S12)+R5*R14*PRODUCT(S15:S19)*PRODUCT(S6:S13)+R5*R15*PRODUCT(S16:S19)*PRODUCT(S6:S14)+R5*R16*PRODUCT(S17:S19)*PRODUCT(S6:S15)+R5*R17*PRODUCT(S18:S19)*PRODUCT(S6:S16)+R5*R18*PRODUCT(S19)*PRODUCT(S6:S17)+R5*R19*PRODUCT(S6:S18)</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="18"/>
+      <c r="W5" s="186" t="s">
+        <v>36</v>
+      </c>
+      <c r="X5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y5" s="69">
+        <f>AK5*AI5*AL5*AO5</f>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="69">
+        <f>Z3</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AA5" s="69">
+        <f>Z5*Y5</f>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="157">
+        <f>IF($B$17="JC",IF($C$17="JC",$W$1,$V$1/0.9),IF($C$17="JC",$V$1*1.1,$U$1))*AA5/1.5</f>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="176">
+        <f>(1-AB5)</f>
+        <v>1</v>
+      </c>
+      <c r="AD5" s="177">
+        <f>AB5*PRODUCT(AC6:AC19)</f>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="177">
+        <f>AB5*AB6*PRODUCT(AC7:AC19)+AB5*AB7*PRODUCT(AC8:AC19)*PRODUCT(AC6)+AB5*AB8*PRODUCT(AC9:AC19)*PRODUCT(AC6:AC7)+AB5*AB9*PRODUCT(AC10:AC19)*PRODUCT(AC6:AC8)+AB5*AB10*PRODUCT(AC11:AC19)*PRODUCT(AC6:AC9)+AB5*AB11*PRODUCT(AC12:AC19)*PRODUCT(AC6:AC10)+AB5*AB12*PRODUCT(AC13:AC19)*PRODUCT(AC6:AC11)+AB5*AB13*PRODUCT(AC14:AC19)*PRODUCT(AC6:AC12)+AB5*AB14*PRODUCT(AC15:AC19)*PRODUCT(AC6:AC13)+AB5*AB15*PRODUCT(AC16:AC19)*PRODUCT(AC6:AC14)+AB5*AB16*PRODUCT(AC17:AC19)*PRODUCT(AC6:AC15)+AB5*AB17*PRODUCT(AC18:AC19)*PRODUCT(AC6:AC16)+AB5*AB18*PRODUCT(AC19)*PRODUCT(AC6:AC17)+AB5*AB19*PRODUCT(AC6:AC18)</f>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="203">
+        <f>IF(COUNTIF(F5:F10,"IMP")+COUNTIF(J5:J10,"IMP")=0,0,COUNTIF(F5:F10,"IMP")/(COUNTIF(F5:F10,"IMP")+COUNTIF(J5:J10,"IMP")))</f>
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <f>COUNTIF(F5:F10,"IMP")</f>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="207">
+        <f>AN5*$AM$3/$AN$3</f>
+        <v>0</v>
+      </c>
+      <c r="AK5" s="203">
+        <f>IF(COUNTIF(F5:F10,"IMP")+COUNTIF(J5:J10,"IMP")=0,0,COUNTIF(J5:J10,"IMP")/(COUNTIF(F5:F10,"IMP")+COUNTIF(J5:J10,"IMP")))</f>
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <f>COUNTIF(J5:J10,"IMP")</f>
+        <v>0</v>
+      </c>
+      <c r="AM5" s="208">
+        <v>0.47310000000000002</v>
+      </c>
+      <c r="AN5" s="209">
+        <f>IF(AG5=0,IF(AK5=0,0,AM5),AM5)</f>
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>2</v>
+      </c>
+      <c r="BJ5" s="107">
+        <f t="shared" si="0"/>
+        <v>3.2332542837752082E-2</v>
+      </c>
+      <c r="BL5">
+        <v>1</v>
+      </c>
+      <c r="BM5">
+        <v>1</v>
+      </c>
+      <c r="BN5" s="107">
+        <f>$H$26*H40</f>
+        <v>2.1188633076516607E-2</v>
+      </c>
+      <c r="BP5">
+        <f>BP4+1</f>
+        <v>2</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="107">
+        <f>$H$27*H39</f>
+        <v>2.9179770001969848E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="168">
+        <v>10</v>
+      </c>
+      <c r="C6" s="169">
+        <v>10.75</v>
+      </c>
+      <c r="E6" s="192" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="167" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="167"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="166" t="s">
+        <v>154</v>
+      </c>
+      <c r="K6" s="166"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="O6" s="67">
+        <f t="shared" ref="O6:O19" si="1">AG6*AI6*AO6*AH6</f>
+        <v>3.6911302549799262E-2</v>
+      </c>
+      <c r="P6" s="210">
+        <f>P3</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Q6" s="214">
+        <f t="shared" ref="Q6:Q19" si="2">P6*O6</f>
+        <v>2.1039442453385578E-2</v>
+      </c>
+      <c r="R6" s="157">
+        <f t="shared" ref="R6:R19" si="3">IF($B$17="JC",IF($C$17="JC",$W$1,$V$1*1.1),IF($C$17="JC",$V$1/0.9,$U$1))*Q6/1.5</f>
+        <v>2.1039442453385581E-2</v>
+      </c>
+      <c r="S6" s="176">
+        <f t="shared" ref="S6:S19" si="4">(1-R6)</f>
+        <v>0.97896055754661437</v>
+      </c>
+      <c r="T6" s="177">
+        <f>R6*S5*PRODUCT(S7:S19)</f>
+        <v>1.8268526401437047E-2</v>
+      </c>
+      <c r="U6" s="177">
+        <f>R6*R7*PRODUCT(S8:S19)*PRODUCT(S5)+R6*R8*PRODUCT(S9:S19)*S5*PRODUCT(S7)+R6*R9*PRODUCT(S10:S19)*S5*PRODUCT(S7:S8)+R6*R10*PRODUCT(S11:S19)*S5*PRODUCT(S7:S9)+R6*R11*PRODUCT(S12:S19)*S5*PRODUCT(S7:S10)+R6*R12*PRODUCT(S13:S19)*S5*PRODUCT(S7:S11)+R6*R13*PRODUCT(S14:S19)*S5*PRODUCT(S7:S12)+R6*R14*PRODUCT(S15:S19)*S5*PRODUCT(S7:S13)+R6*R15*PRODUCT(S16:S19)*S5*PRODUCT(S7:S14)+R6*R16*PRODUCT(S17:S19)*S5*PRODUCT(S7:S15)+R6*R17*PRODUCT(S18:S19)*S5*PRODUCT(S7:S16)+R6*R18*PRODUCT(S19)*S5*PRODUCT(S7:S17)+R6*R19*S5*PRODUCT(S7:S18)</f>
+        <v>2.6361065512716399E-3</v>
+      </c>
+      <c r="V6" s="18"/>
+      <c r="W6" s="186" t="s">
+        <v>38</v>
+      </c>
+      <c r="X6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y6" s="69">
+        <f t="shared" ref="Y6:Y19" si="5">AK6*AI6*AL6*AO6</f>
+        <v>3.6911302549799262E-2</v>
+      </c>
+      <c r="Z6" s="69">
+        <f>Z3</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AA6" s="69">
+        <f t="shared" ref="AA6:AA19" si="6">Z6*Y6</f>
+        <v>2.1039442453385578E-2</v>
+      </c>
+      <c r="AB6" s="157">
+        <f t="shared" ref="AB6:AB19" si="7">IF($B$17="JC",IF($C$17="JC",$W$1,$V$1/0.9),IF($C$17="JC",$V$1*1.1,$U$1))*AA6/1.5</f>
+        <v>2.1039442453385581E-2</v>
+      </c>
+      <c r="AC6" s="176">
+        <f t="shared" ref="AC6:AC19" si="8">(1-AB6)</f>
+        <v>0.97896055754661437</v>
+      </c>
+      <c r="AD6" s="177">
+        <f>AB6*AC5*PRODUCT(AC7:AC19)</f>
+        <v>1.3017724763647659E-2</v>
+      </c>
+      <c r="AE6" s="177">
+        <f>AB6*AB7*PRODUCT(AC8:AC19)*PRODUCT(AC5)+AB6*AB8*PRODUCT(AC9:AC19)*AC5*PRODUCT(AC7)+AB6*AB9*PRODUCT(AC10:AC19)*AC5*PRODUCT(AC7:AC8)+AB6*AB10*PRODUCT(AC11:AC19)*AC5*PRODUCT(AC7:AC9)+AB6*AB11*PRODUCT(AC12:AC19)*AC5*PRODUCT(AC7:AC10)+AB6*AB12*PRODUCT(AC13:AC19)*AC5*PRODUCT(AC7:AC11)+AB6*AB13*PRODUCT(AC14:AC19)*AC5*PRODUCT(AC7:AC12)+AB6*AB14*PRODUCT(AC15:AC19)*AC5*PRODUCT(AC7:AC13)+AB6*AB15*PRODUCT(AC16:AC19)*AC5*PRODUCT(AC7:AC14)+AB6*AB16*PRODUCT(AC17:AC19)*AC5*PRODUCT(AC7:AC15)+AB6*AB17*PRODUCT(AC18:AC19)*AC5*PRODUCT(AC7:AC16)+AB6*AB18*PRODUCT(AC19)*AC5*PRODUCT(AC7:AC17)+AB6*AB19*AC5*PRODUCT(AC7:AC18)</f>
+        <v>6.6111246266558656E-3</v>
+      </c>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="203">
+        <f>IF(COUNTIF(F11:F18,"IMP")+COUNTIF(J11:J18,"IMP")=0,0,COUNTIF(F11:F18,"IMP")/(COUNTIF(F11:F18,"IMP")+COUNTIF(J11:J18,"IMP")))</f>
+        <v>0.5</v>
+      </c>
+      <c r="AH6">
+        <f>COUNTIF(F11:F18,"IMP")</f>
+        <v>1</v>
+      </c>
+      <c r="AI6" s="207">
+        <f t="shared" ref="AI6:AI19" si="9">AN6*$AM$3/$AN$3</f>
+        <v>0.59058084079678819</v>
+      </c>
+      <c r="AK6" s="203">
+        <f>IF(COUNTIF(F11:F18,"IMP")+COUNTIF(J11:J18,"IMP")=0,0,COUNTIF(J11:J18,"IMP")/(COUNTIF(F11:F18,"IMP")+COUNTIF(J11:J18,"IMP")))</f>
+        <v>0.5</v>
+      </c>
+      <c r="AL6">
+        <f>COUNTIF(J11:J18,"IMP")</f>
+        <v>1</v>
+      </c>
+      <c r="AM6" s="208">
+        <v>0.4153</v>
+      </c>
+      <c r="AN6" s="209">
+        <f t="shared" ref="AN6:AN19" si="10">IF(AG6=0,IF(AK6=0,0,AM6),AM6)</f>
+        <v>0.4153</v>
+      </c>
+      <c r="AO6">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>3</v>
+      </c>
+      <c r="BJ6" s="107">
+        <f t="shared" si="0"/>
+        <v>4.9030677984022032E-2</v>
+      </c>
+      <c r="BL6">
+        <f>BH14+1</f>
+        <v>2</v>
+      </c>
+      <c r="BM6">
+        <v>2</v>
+      </c>
+      <c r="BN6" s="107">
+        <f>$H$27*H41</f>
+        <v>3.97621247395165E-2</v>
+      </c>
+      <c r="BP6">
+        <f>BL5+1</f>
+        <v>2</v>
+      </c>
+      <c r="BQ6">
+        <v>1</v>
+      </c>
+      <c r="BR6" s="107">
+        <f>$H$27*H40</f>
+        <v>1.5910503727711366E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="168">
+        <v>10.5</v>
+      </c>
+      <c r="C7" s="169">
+        <v>15.25</v>
+      </c>
+      <c r="E7" s="192" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="167"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="166"/>
+      <c r="K7" s="166"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="O7" s="67">
+        <f t="shared" si="1"/>
+        <v>2.7730138202594198E-3</v>
+      </c>
+      <c r="P7" s="210">
+        <f>P2</f>
+        <v>0.45</v>
+      </c>
+      <c r="Q7" s="214">
+        <f t="shared" si="2"/>
+        <v>1.247856219116739E-3</v>
+      </c>
+      <c r="R7" s="157">
+        <f t="shared" si="3"/>
+        <v>1.247856219116739E-3</v>
+      </c>
+      <c r="S7" s="176">
+        <f t="shared" si="4"/>
+        <v>0.99875214378088328</v>
+      </c>
+      <c r="T7" s="177">
+        <f>R7*PRODUCT(S5:S6)*PRODUCT(S8:S19)</f>
+        <v>1.0620410612826989E-3</v>
+      </c>
+      <c r="U7" s="177">
+        <f>R7*R8*PRODUCT(S9:S19)*PRODUCT(S5:S6)+R7*R9*PRODUCT(S10:S19)*PRODUCT(S5:S6)*PRODUCT(S8)+R7*R10*PRODUCT(S11:S19)*PRODUCT(S5:S6)*PRODUCT(S8:S9)+R7*R11*PRODUCT(S12:S19)*PRODUCT(S5:S6)*PRODUCT(S8:S10)+R7*R12*PRODUCT(S13:S19)*PRODUCT(S5:S6)*PRODUCT(S8:S11)+R7*R13*PRODUCT(S14:S19)*PRODUCT(S5:S6)*PRODUCT(S8:S12)+R7*R14*PRODUCT(S15:S19)*PRODUCT(S5:S6)*PRODUCT(S8:S13)+R7*R15*PRODUCT(S16:S19)*PRODUCT(S5:S6)*PRODUCT(S8:S14)+R7*R16*PRODUCT(S17:S19)*PRODUCT(S5:S6)*PRODUCT(S8:S15)+R7*R17*PRODUCT(S18:S19)*PRODUCT(S5:S6)*PRODUCT(S8:S16)+R7*R18*PRODUCT(S19)*PRODUCT(S5:S6)*PRODUCT(S8:S17)+R7*R19*PRODUCT(S5:S6)*PRODUCT(S8:S18)</f>
+        <v>1.5192316424629846E-4</v>
+      </c>
+      <c r="W7" s="187" t="s">
+        <v>155</v>
+      </c>
+      <c r="X7" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y7" s="69">
+        <f t="shared" si="5"/>
+        <v>2.7730138202594198E-3</v>
+      </c>
+      <c r="Z7" s="69">
+        <f>Z2</f>
+        <v>0.45</v>
+      </c>
+      <c r="AA7" s="69">
+        <f t="shared" si="6"/>
+        <v>1.247856219116739E-3</v>
+      </c>
+      <c r="AB7" s="157">
+        <f t="shared" si="7"/>
+        <v>1.247856219116739E-3</v>
+      </c>
+      <c r="AC7" s="176">
+        <f t="shared" si="8"/>
+        <v>0.99875214378088328</v>
+      </c>
+      <c r="AD7" s="177">
+        <f>AB7*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC19)</f>
+        <v>7.5678562789732696E-4</v>
+      </c>
+      <c r="AE7" s="177">
+        <f>AB7*AB8*PRODUCT(AC9:AC19)*PRODUCT(AC5:AC6)+AB7*AB9*PRODUCT(AC10:AC19)*PRODUCT(AC5:AC6)*PRODUCT(AC8)+AB7*AB10*PRODUCT(AC11:AC19)*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC9)+AB7*AB11*PRODUCT(AC12:AC19)*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC10)+AB7*AB12*PRODUCT(AC13:AC19)*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC11)+AB7*AB13*PRODUCT(AC14:AC19)*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC12)+AB7*AB14*PRODUCT(AC15:AC19)*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC13)+AB7*AB15*PRODUCT(AC16:AC19)*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC14)+AB7*AB16*PRODUCT(AC17:AC19)*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC15)+AB7*AB17*PRODUCT(AC18:AC19)*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC16)+AB7*AB18*PRODUCT(AC19)*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC17)+AB7*AB19*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC18)</f>
+        <v>3.8339229156365959E-4</v>
+      </c>
+      <c r="AG7" s="203">
+        <f>IF(COUNTIF(F14:F18,"IMP")+COUNTIF(J14:J18,"IMP")=0,0,COUNTIF(J14:J18,"IMP")/(COUNTIF(F14:F18,"IMP")+COUNTIF(J14:J18,"IMP")))</f>
+        <v>0.5</v>
+      </c>
+      <c r="AH7">
+        <f>COUNTIF(J14:J18,"IMP")</f>
+        <v>1</v>
+      </c>
+      <c r="AI7" s="207">
+        <f t="shared" si="9"/>
+        <v>5.5460276405188396E-3</v>
+      </c>
+      <c r="AK7" s="203">
+        <f>IF(COUNTIF(F14:F18,"IMP")+COUNTIF(J14:J18,"IMP")=0,0,COUNTIF(F14:F18,"IMP")/(COUNTIF(F14:F18,"IMP")+COUNTIF(J14:J18,"IMP")))</f>
+        <v>0.5</v>
+      </c>
+      <c r="AL7">
+        <f>COUNTIF(F14:F18,"IMP")</f>
+        <v>1</v>
+      </c>
+      <c r="AM7" s="208">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="AN7" s="209">
+        <f t="shared" si="10"/>
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="AO7">
+        <v>1</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>4</v>
+      </c>
+      <c r="BJ7" s="107">
+        <f t="shared" si="0"/>
+        <v>5.0342859052258673E-2</v>
+      </c>
+      <c r="BL7">
+        <f>BH23+1</f>
+        <v>3</v>
+      </c>
+      <c r="BM7">
+        <v>3</v>
+      </c>
+      <c r="BN7" s="107">
+        <f>$H$28*H42</f>
+        <v>2.7481395764180409E-2</v>
+      </c>
+      <c r="BP7">
+        <f>BP5+1</f>
+        <v>3</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="107">
+        <f>$H$28*H39</f>
+        <v>1.3299123852571024E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="168">
+        <v>9.75</v>
+      </c>
+      <c r="C8" s="169">
+        <v>14.5</v>
+      </c>
+      <c r="E8" s="192" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="167" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="167"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="166" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="166"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="O8" s="67">
+        <f t="shared" si="1"/>
+        <v>2.5159494227205783E-2</v>
+      </c>
+      <c r="P8" s="210">
+        <f>P2</f>
+        <v>0.45</v>
+      </c>
+      <c r="Q8" s="214">
+        <f t="shared" si="2"/>
+        <v>1.1321772402242603E-2</v>
+      </c>
+      <c r="R8" s="157">
+        <f t="shared" si="3"/>
+        <v>1.1321772402242603E-2</v>
+      </c>
+      <c r="S8" s="176">
+        <f t="shared" si="4"/>
+        <v>0.98867822759775736</v>
+      </c>
+      <c r="T8" s="177">
+        <f>R8*PRODUCT(S5:S7)*PRODUCT(S9:S19)</f>
+        <v>9.7340581100008889E-3</v>
+      </c>
+      <c r="U8" s="177">
+        <f>R8*R9*PRODUCT(S5:S7)*PRODUCT(S10:S19)+R8*R10*PRODUCT(S5:S7)*PRODUCT(S9)*PRODUCT(S11:S19)+R8*R11*PRODUCT(S5:S7)*PRODUCT(S9:S10)*PRODUCT(S12:S19)+R8*R12*PRODUCT(S5:S7)*PRODUCT(S9:S11)*PRODUCT(S13:S19)+R8*R13*PRODUCT(S5:S7)*PRODUCT(S9:S12)*PRODUCT(S14:S19)+R8*R14*PRODUCT(S5:S7)*PRODUCT(S9:S13)*PRODUCT(S15:S19)+R8*R15*PRODUCT(S5:S7)*PRODUCT(S9:S14)*PRODUCT(S16:S19)+R8*R16*PRODUCT(S5:S7)*PRODUCT(S9:S15)*PRODUCT(S17:S19)+R8*R17*PRODUCT(S5:S7)*PRODUCT(S9:S16)*PRODUCT(S18:S19)+R8*R18*PRODUCT(S5:S7)*PRODUCT(S9:S17)*PRODUCT(S19)+R8*R19*PRODUCT(S5:S7)*PRODUCT(S9:S18)</f>
+        <v>1.280971612129747E-3</v>
+      </c>
+      <c r="W8" s="186" t="s">
+        <v>42</v>
+      </c>
+      <c r="X8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y8" s="69">
+        <f t="shared" si="5"/>
+        <v>2.5159494227205783E-2</v>
+      </c>
+      <c r="Z8" s="69">
+        <f>Z2</f>
+        <v>0.45</v>
+      </c>
+      <c r="AA8" s="69">
+        <f t="shared" si="6"/>
+        <v>1.1321772402242603E-2</v>
+      </c>
+      <c r="AB8" s="157">
+        <f t="shared" si="7"/>
+        <v>1.1321772402242603E-2</v>
+      </c>
+      <c r="AC8" s="176">
+        <f t="shared" si="8"/>
+        <v>0.98867822759775736</v>
+      </c>
+      <c r="AD8" s="177">
+        <f>AB8*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC19)</f>
+        <v>6.9362622099271324E-3</v>
+      </c>
+      <c r="AE8" s="177">
+        <f>AB8*AB9*PRODUCT(AC5:AC7)*PRODUCT(AC10:AC19)+AB8*AB10*PRODUCT(AC5:AC7)*PRODUCT(AC9)*PRODUCT(AC11:AC19)+AB8*AB11*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC10)*PRODUCT(AC12:AC19)+AB8*AB12*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC11)*PRODUCT(AC13:AC19)+AB8*AB13*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC12)*PRODUCT(AC14:AC19)+AB8*AB14*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC13)*PRODUCT(AC15:AC19)+AB8*AB15*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC14)*PRODUCT(AC16:AC19)+AB8*AB16*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC15)*PRODUCT(AC17:AC19)+AB8*AB17*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC16)*PRODUCT(AC18:AC19)+AB8*AB18*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC17)*PRODUCT(AC19)+AB8*AB19*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC18)</f>
+        <v>3.4345233727891048E-3</v>
+      </c>
+      <c r="AG8" s="203">
+        <f>IF(COUNTIF(F6:F18,"IMP")+COUNTIF(J6:J18,"IMP")=0,0,COUNTIF(F6:F18,"IMP")/(COUNTIF(F6:F18,"IMP")+COUNTIF(J6:J18,"IMP")))</f>
+        <v>0.5</v>
+      </c>
+      <c r="AH8">
+        <f>COUNTIF(F6:F18,"IMP")</f>
+        <v>1</v>
+      </c>
+      <c r="AI8" s="207">
+        <f t="shared" si="9"/>
+        <v>0.65414684990735028</v>
+      </c>
+      <c r="AK8" s="203">
+        <f>IF(COUNTIF(F6:F18,"IMP")+COUNTIF(J6:J18,"IMP")=0,0,COUNTIF(J6:J18,"IMP")/(COUNTIF(F6:F18,"IMP")+COUNTIF(J6:J18,"IMP")))</f>
+        <v>0.5</v>
+      </c>
+      <c r="AL8">
+        <f>COUNTIF(J6:J18,"IMP")</f>
+        <v>1</v>
+      </c>
+      <c r="AM8" s="208">
+        <v>0.46</v>
+      </c>
+      <c r="AN8" s="209">
+        <f t="shared" si="10"/>
+        <v>0.46</v>
+      </c>
+      <c r="AO8">
+        <f>1/13</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>5</v>
+      </c>
+      <c r="BJ8" s="107">
+        <f t="shared" si="0"/>
+        <v>3.6977826796471269E-2</v>
+      </c>
+      <c r="BL8">
+        <f>BH31+1</f>
+        <v>4</v>
+      </c>
+      <c r="BM8">
+        <v>4</v>
+      </c>
+      <c r="BN8" s="107">
+        <f>$H$29*H43</f>
+        <v>8.7085094235578361E-3</v>
+      </c>
+      <c r="BP8">
+        <f>BP6+1</f>
+        <v>3</v>
+      </c>
+      <c r="BQ8">
+        <v>1</v>
+      </c>
+      <c r="BR8" s="107">
+        <f>$H$28*H40</f>
+        <v>7.2514539908074037E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="168">
+        <v>10.5</v>
+      </c>
+      <c r="C9" s="169">
+        <v>14.75</v>
+      </c>
+      <c r="E9" s="192" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="166"/>
+      <c r="K9" s="166"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="O9" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="210">
+        <f>P2</f>
+        <v>0.45</v>
+      </c>
+      <c r="Q9" s="214">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="157">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="176">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T9" s="177">
+        <f>R9*PRODUCT(S5:S8)*PRODUCT(S10:S19)</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="177">
+        <f>R9*R10*PRODUCT(S5:S8)*PRODUCT(S11:S19)+R9*R11*PRODUCT(S5:S8)*PRODUCT(S10)*PRODUCT(S12:S19)+R9*R12*PRODUCT(S5:S8)*PRODUCT(S10:S11)*PRODUCT(S13:S19)+R9*R13*PRODUCT(S5:S8)*PRODUCT(S10:S12)*PRODUCT(S14:S19)+R9*R14*PRODUCT(S5:S8)*PRODUCT(S10:S13)*PRODUCT(S15:S19)+R9*R15*PRODUCT(S5:S8)*PRODUCT(S10:S14)*PRODUCT(S16:S19)+R9*R16*PRODUCT(S5:S8)*PRODUCT(S10:S15)*PRODUCT(S17:S19)+R9*R17*PRODUCT(S5:S8)*PRODUCT(S10:S16)*PRODUCT(S18:S19)+R9*R18*PRODUCT(S5:S8)*PRODUCT(S10:S17)*PRODUCT(S19)+R9*R19*PRODUCT(S5:S8)*PRODUCT(S10:S18)</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="187" t="s">
+        <v>44</v>
+      </c>
+      <c r="X9" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y9" s="69">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="69">
+        <f>Z2</f>
+        <v>0.45</v>
+      </c>
+      <c r="AA9" s="69">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="157">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="176">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AD9" s="177">
+        <f>AB9*PRODUCT(AC5:AC8)*PRODUCT(AC10:AC19)</f>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="177">
+        <f>AB9*AB10*PRODUCT(AC5:AC8)*PRODUCT(AC11:AC19)+AB9*AB11*PRODUCT(AC5:AC8)*PRODUCT(AC10)*PRODUCT(AC12:AC19)+AB9*AB12*PRODUCT(AC5:AC8)*PRODUCT(AC10:AC11)*PRODUCT(AC13:AC19)+AB9*AB13*PRODUCT(AC5:AC8)*PRODUCT(AC10:AC12)*PRODUCT(AC14:AC19)+AB9*AB14*PRODUCT(AC5:AC8)*PRODUCT(AC10:AC13)*PRODUCT(AC15:AC19)+AB9*AB15*PRODUCT(AC5:AC8)*PRODUCT(AC10:AC14)*PRODUCT(AC16:AC19)+AB9*AB16*PRODUCT(AC5:AC8)*PRODUCT(AC10:AC15)*PRODUCT(AC17:AC19)+AB9*AB17*PRODUCT(AC5:AC8)*PRODUCT(AC10:AC16)*PRODUCT(AC18:AC19)+AB9*AB18*PRODUCT(AC5:AC8)*PRODUCT(AC10:AC17)*PRODUCT(AC19)+AB9*AB19*PRODUCT(AC5:AC8)*PRODUCT(AC10:AC18)</f>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="203">
+        <f>IF(COUNTIF(J6:J13,"IMP")+COUNTIF(F6:F13,"IMP")=0,0,COUNTIF(J6:J13,"IMP")/(COUNTIF(J6:J13,"IMP")+COUNTIF(F6:F13,"IMP")))</f>
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <f>COUNTIF(J6:J13,"IMP")</f>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="207">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AK9" s="203">
+        <f>IF(COUNTIF(J6:J13,"IMP")+COUNTIF(F6:F13,"IMP")=0,0,COUNTIF(F6:F13,"IMP")/(COUNTIF(J6:J13,"IMP")+COUNTIF(F6:F13,"IMP")))</f>
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <f>COUNTIF(F6:F13,"IMP")</f>
+        <v>0</v>
+      </c>
+      <c r="AM9" s="208">
+        <v>1.15E-2</v>
+      </c>
+      <c r="AN9" s="209">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>1</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>6</v>
+      </c>
+      <c r="BJ9" s="107">
+        <f t="shared" si="0"/>
+        <v>2.0013649188512905E-2</v>
+      </c>
+      <c r="BL9">
+        <f>BH38+1</f>
+        <v>5</v>
+      </c>
+      <c r="BM9">
+        <v>5</v>
+      </c>
+      <c r="BN9" s="107">
+        <f>$H$30*H44</f>
+        <v>1.4120296775980458E-3</v>
+      </c>
+      <c r="BP9">
+        <f>BL6+1</f>
+        <v>3</v>
+      </c>
+      <c r="BQ9">
+        <v>2</v>
+      </c>
+      <c r="BR9" s="107">
+        <f>$H$28*H41</f>
+        <v>1.8122192927377784E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="168">
+        <v>9.5</v>
+      </c>
+      <c r="C10" s="169">
+        <v>14.25</v>
+      </c>
+      <c r="E10" s="192" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="167" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="167"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="166" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="166"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="O10" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="210">
+        <f>P3</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Q10" s="214">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="157">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="176">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T10" s="177">
+        <f>R10*PRODUCT(S5:S9)*PRODUCT(S11:S19)</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="177">
+        <f>R10*R11*PRODUCT(S5:S9)*PRODUCT(S12:S19)+R10*R12*PRODUCT(S5:S9)*S11*PRODUCT(S13:S19)+R10*R13*PRODUCT(S5:S9)*PRODUCT(S11:S12)*PRODUCT(S14:S19)+R10*R14*PRODUCT(S5:S9)*PRODUCT(S11:S13)*PRODUCT(S15:S19)+R10*R15*PRODUCT(S5:S9)*PRODUCT(S11:S14)*PRODUCT(S16:S19)+R10*R16*PRODUCT(S5:S9)*PRODUCT(S11:S15)*PRODUCT(S17:S19)+R10*R17*PRODUCT(S5:S9)*PRODUCT(S11:S16)*PRODUCT(S18:S19)+R10*R18*PRODUCT(S5:S9)*PRODUCT(S11:S17)*PRODUCT(S19)+R10*R19*PRODUCT(S5:S9)*PRODUCT(S11:S18)</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="186" t="s">
+        <v>46</v>
+      </c>
+      <c r="X10" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y10" s="69">
+        <f t="shared" si="5"/>
+        <v>8.8878648085237807E-2</v>
+      </c>
+      <c r="Z10" s="69">
+        <f>AB3</f>
+        <v>0.7</v>
+      </c>
+      <c r="AA10" s="69">
+        <f t="shared" si="6"/>
+        <v>6.221505365966646E-2</v>
+      </c>
+      <c r="AB10" s="157">
+        <f t="shared" si="7"/>
+        <v>6.221505365966646E-2</v>
+      </c>
+      <c r="AC10" s="176">
+        <f t="shared" si="8"/>
+        <v>0.93778494634033349</v>
+      </c>
+      <c r="AD10" s="177">
+        <f>AB10*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC19)</f>
+        <v>4.0184472850605474E-2</v>
+      </c>
+      <c r="AE10" s="177">
+        <f>AB10*AB11*PRODUCT(AC5:AC9)*PRODUCT(AC12:AC19)+AB10*AB12*PRODUCT(AC5:AC9)*AC11*PRODUCT(AC13:AC19)+AB10*AB13*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC12)*PRODUCT(AC14:AC19)+AB10*AB14*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC13)*PRODUCT(AC15:AC19)+AB10*AB15*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC14)*PRODUCT(AC16:AC19)+AB10*AB16*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC15)*PRODUCT(AC17:AC19)+AB10*AB17*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC16)*PRODUCT(AC18:AC19)+AB10*AB18*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC17)*PRODUCT(AC19)+AB10*AB19*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC18)</f>
+        <v>1.7231592938691358E-2</v>
+      </c>
+      <c r="AG10" s="203">
+        <f>IF(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")=0,0,COUNTIF(F11:F18,"RAP")/(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")))</f>
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <f>COUNTIF(F11:F18,"RAP")</f>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="207">
+        <f t="shared" si="9"/>
+        <v>0.71102918468190246</v>
+      </c>
+      <c r="AK10" s="203">
+        <f>IF(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")=0,0,COUNTIF(J11:J18,"RAP")/(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")))</f>
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <f>COUNTIF(J11:J18,"RAP")</f>
+        <v>1</v>
+      </c>
+      <c r="AM10" s="208">
+        <v>0.5</v>
+      </c>
+      <c r="AN10" s="209">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="AO10">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>7</v>
+      </c>
+      <c r="BJ10" s="107">
+        <f t="shared" si="0"/>
+        <v>8.0993157521870775E-3</v>
+      </c>
+      <c r="BL10">
+        <f>BH44+1</f>
+        <v>6</v>
+      </c>
+      <c r="BM10">
+        <v>6</v>
+      </c>
+      <c r="BN10" s="107">
+        <f>$H$31*H45</f>
+        <v>1.2422704930183605E-4</v>
+      </c>
+      <c r="BP10">
+        <f>BP7+1</f>
+        <v>4</v>
+      </c>
+      <c r="BQ10">
+        <v>0</v>
+      </c>
+      <c r="BR10" s="107">
+        <f>$H$29*H39</f>
+        <v>4.1044795157841636E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="168">
+        <v>13</v>
+      </c>
+      <c r="C11" s="169">
+        <v>9.25</v>
+      </c>
+      <c r="E11" s="192" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="167" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="167"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="166" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="166"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="O11" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="210">
+        <f>P3</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Q11" s="214">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="157">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="176">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T11" s="177">
+        <f>R11*PRODUCT(S5:S10)*PRODUCT(S12:S19)</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="177">
+        <f>R11*R12*PRODUCT(S5:S10)*PRODUCT(S13:S19)+R11*R13*PRODUCT(S5:S10)*S12*PRODUCT(S14:S19)+R11*R14*PRODUCT(S5:S10)*PRODUCT(S12:S13)*PRODUCT(S15:S19)+R11*R15*PRODUCT(S5:S10)*PRODUCT(S12:S14)*PRODUCT(S16:S19)+R11*R16*PRODUCT(S5:S10)*PRODUCT(S12:S15)*PRODUCT(S17:S19)+R11*R17*PRODUCT(S5:S10)*PRODUCT(S12:S16)*PRODUCT(S18:S19)+R11*R18*PRODUCT(S5:S10)*PRODUCT(S12:S17)*PRODUCT(S19)+R11*R19*PRODUCT(S5:S10)*PRODUCT(S12:S18)</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="186" t="s">
+        <v>48</v>
+      </c>
+      <c r="X11" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y11" s="69">
+        <f t="shared" si="5"/>
+        <v>8.8878648085237807E-2</v>
+      </c>
+      <c r="Z11" s="69">
+        <f>Z3</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AA11" s="69">
+        <f t="shared" si="6"/>
+        <v>5.0660829408585545E-2</v>
+      </c>
+      <c r="AB11" s="157">
+        <f t="shared" si="7"/>
+        <v>5.0660829408585545E-2</v>
+      </c>
+      <c r="AC11" s="176">
+        <f t="shared" si="8"/>
+        <v>0.94933917059141448</v>
+      </c>
+      <c r="AD11" s="177">
+        <f>AB11*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC19)</f>
+        <v>3.2323393371912791E-2</v>
+      </c>
+      <c r="AE11" s="177">
+        <f>AB11*AB12*PRODUCT(AC5:AC10)*PRODUCT(AC13:AC19)+AB11*AB13*PRODUCT(AC5:AC10)*AC12*PRODUCT(AC14:AC19)+AB11*AB14*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC13)*PRODUCT(AC15:AC19)+AB11*AB15*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC14)*PRODUCT(AC16:AC19)+AB11*AB16*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC15)*PRODUCT(AC17:AC19)+AB11*AB17*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC16)*PRODUCT(AC18:AC19)+AB11*AB18*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC17)*PRODUCT(AC19)+AB11*AB19*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC18)</f>
+        <v>1.2135750439286518E-2</v>
+      </c>
+      <c r="AG11" s="203">
+        <f>IF(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")=0,0,COUNTIF(F11:F18,"RAP")/(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")))</f>
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <f>COUNTIF(F11:F18,"RAP")</f>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="207">
+        <f t="shared" si="9"/>
+        <v>0.71102918468190246</v>
+      </c>
+      <c r="AK11" s="203">
+        <f>IF(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")=0,0,COUNTIF(J11:J18,"RAP")/(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")))</f>
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <f>COUNTIF(J11:J18,"RAP")</f>
+        <v>1</v>
+      </c>
+      <c r="AM11" s="208">
+        <v>0.5</v>
+      </c>
+      <c r="AN11" s="209">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="AO11">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>8</v>
+      </c>
+      <c r="BJ11" s="107">
+        <f t="shared" si="0"/>
+        <v>2.4599588925276823E-3</v>
+      </c>
+      <c r="BL11">
+        <f>BH50+1</f>
+        <v>7</v>
+      </c>
+      <c r="BM11">
+        <v>7</v>
+      </c>
+      <c r="BN11" s="107">
+        <f>$H$32*H46</f>
+        <v>6.1010893729408358E-6</v>
+      </c>
+      <c r="BP11">
+        <f>BP8+1</f>
+        <v>4</v>
+      </c>
+      <c r="BQ11">
+        <v>1</v>
+      </c>
+      <c r="BR11" s="107">
+        <f>$H$29*H40</f>
+        <v>2.2380003897148732E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="168">
+        <v>9.75</v>
+      </c>
+      <c r="C12" s="169">
+        <v>15.5</v>
+      </c>
+      <c r="E12" s="192" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="167" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="167"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="166" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="166"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="O12" s="67">
+        <f t="shared" si="1"/>
+        <v>4.0884178119209389E-3</v>
+      </c>
+      <c r="P12" s="210">
+        <f>P2</f>
+        <v>0.45</v>
+      </c>
+      <c r="Q12" s="214">
+        <f t="shared" si="2"/>
+        <v>1.8397880153644226E-3</v>
+      </c>
+      <c r="R12" s="157">
+        <f t="shared" si="3"/>
+        <v>1.8397880153644226E-3</v>
+      </c>
+      <c r="S12" s="176">
+        <f t="shared" si="4"/>
+        <v>0.99816021198463556</v>
+      </c>
+      <c r="T12" s="177">
+        <f>R12*PRODUCT(S5:S11)*PRODUCT(S13:S19)</f>
+        <v>1.5667583426452745E-3</v>
+      </c>
+      <c r="U12" s="177">
+        <f>R12*R13*PRODUCT(S5:S11)*PRODUCT(S14:S19)+R12*R14*PRODUCT(S5:S11)*S13*PRODUCT(S15:S19)+R12*R15*PRODUCT(S5:S11)*PRODUCT(S13:S14)*PRODUCT(S16:S19)+R12*R16*PRODUCT(S5:S11)*PRODUCT(S13:S15)*PRODUCT(S17:S19)+R12*R17*PRODUCT(S5:S11)*PRODUCT(S13:S16)*PRODUCT(S18:S19)+R12*R18*PRODUCT(S5:S11)*PRODUCT(S13:S17)*PRODUCT(S19)+R12*R19*PRODUCT(S5:S11)*PRODUCT(S13:S18)</f>
+        <v>2.0329268297103589E-4</v>
+      </c>
+      <c r="W12" s="187" t="s">
+        <v>50</v>
+      </c>
+      <c r="X12" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y12" s="69">
+        <f t="shared" si="5"/>
+        <v>4.0884178119209389E-3</v>
+      </c>
+      <c r="Z12" s="69">
+        <f>Z2</f>
+        <v>0.45</v>
+      </c>
+      <c r="AA12" s="69">
+        <f t="shared" si="6"/>
+        <v>1.8397880153644226E-3</v>
+      </c>
+      <c r="AB12" s="157">
+        <f t="shared" si="7"/>
+        <v>1.8397880153644226E-3</v>
+      </c>
+      <c r="AC12" s="176">
+        <f t="shared" si="8"/>
+        <v>0.99816021198463556</v>
+      </c>
+      <c r="AD12" s="177">
+        <f>AB12*PRODUCT(AC5:AC11)*PRODUCT(AC13:AC19)</f>
+        <v>1.1164353614257897E-3</v>
+      </c>
+      <c r="AE12" s="177">
+        <f>AB12*AB13*PRODUCT(AC5:AC11)*PRODUCT(AC14:AC19)+AB12*AB14*PRODUCT(AC5:AC11)*AC13*PRODUCT(AC15:AC19)+AB12*AB15*PRODUCT(AC5:AC11)*PRODUCT(AC13:AC14)*PRODUCT(AC16:AC19)+AB12*AB16*PRODUCT(AC5:AC11)*PRODUCT(AC13:AC15)*PRODUCT(AC17:AC19)+AB12*AB17*PRODUCT(AC5:AC11)*PRODUCT(AC13:AC16)*PRODUCT(AC18:AC19)+AB12*AB18*PRODUCT(AC5:AC11)*PRODUCT(AC13:AC17)*PRODUCT(AC19)+AB12*AB19*PRODUCT(AC5:AC11)*PRODUCT(AC13:AC18)</f>
+        <v>4.1710553120221489E-4</v>
+      </c>
+      <c r="AG12" s="203">
+        <f>IF(COUNTA(F6:F10)+COUNTA(J6:J10)=0,0,COUNTA(F6:F10)/(COUNTA(F6:F10)+COUNTA(J6:J10)))</f>
+        <v>0.5</v>
+      </c>
+      <c r="AH12">
+        <f>COUNTA(J6:J10)</f>
+        <v>3</v>
+      </c>
+      <c r="AI12" s="207">
+        <f t="shared" si="9"/>
+        <v>1.6353671247683756E-2</v>
+      </c>
+      <c r="AK12" s="203">
+        <f>IF(COUNTA(J6:J10)+COUNTA(F6:F10)=0,0,COUNTA(J6:J10)/(COUNTA(J6:J10)+COUNTA(F6:F10)))</f>
+        <v>0.5</v>
+      </c>
+      <c r="AL12">
+        <f>COUNTA(F6:F10)</f>
+        <v>3</v>
+      </c>
+      <c r="AM12" s="208">
+        <v>1.15E-2</v>
+      </c>
+      <c r="AN12" s="209">
+        <f t="shared" si="10"/>
+        <v>1.15E-2</v>
+      </c>
+      <c r="AO12">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>9</v>
+      </c>
+      <c r="BJ12" s="107">
+        <f t="shared" si="0"/>
+        <v>5.5704025148836742E-4</v>
+      </c>
+      <c r="BL12">
+        <f>BH54+1</f>
+        <v>8</v>
+      </c>
+      <c r="BM12">
+        <v>8</v>
+      </c>
+      <c r="BN12" s="107">
+        <f>$H$33*H47</f>
+        <v>1.6829851574656021E-7</v>
+      </c>
+      <c r="BP12">
+        <f>BP9+1</f>
+        <v>4</v>
+      </c>
+      <c r="BQ12">
+        <v>2</v>
+      </c>
+      <c r="BR12" s="107">
+        <f>$H$29*H41</f>
+        <v>5.5930127785922519E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="168">
+        <v>6.25</v>
+      </c>
+      <c r="C13" s="169">
+        <v>12.5</v>
+      </c>
+      <c r="E13" s="192" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="167" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="167"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="166" t="s">
+        <v>154</v>
+      </c>
+      <c r="K13" s="166"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="O13" s="67">
+        <f t="shared" si="1"/>
+        <v>0.10094901099146432</v>
+      </c>
+      <c r="P13" s="210">
+        <f>P3</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Q13" s="214">
+        <f t="shared" si="2"/>
+        <v>5.7540936265134658E-2</v>
+      </c>
+      <c r="R13" s="157">
+        <f t="shared" si="3"/>
+        <v>5.7540936265134658E-2</v>
+      </c>
+      <c r="S13" s="176">
+        <f t="shared" si="4"/>
+        <v>0.94245906373486532</v>
+      </c>
+      <c r="T13" s="177">
+        <f>R13*PRODUCT(S5:S12)*PRODUCT(S14:S19)</f>
+        <v>5.1897795861552493E-2</v>
+      </c>
+      <c r="U13" s="177">
+        <f>R13*R14*PRODUCT(S5:S12)*PRODUCT(S15:S19)+R13*R15*PRODUCT(S5:S12)*S14*PRODUCT(S16:S19)+R13*R16*PRODUCT(S5:S12)*PRODUCT(S14:S15)*PRODUCT(S17:S19)+R13*R17*PRODUCT(S5:S12)*PRODUCT(S14:S16)*PRODUCT(S18:S19)+R13*R18*PRODUCT(S5:S12)*PRODUCT(S14:S17)*PRODUCT(S19)+R13*R19*PRODUCT(S5:S12)*PRODUCT(S14:S18)</f>
+        <v>3.5653604734347762E-3</v>
+      </c>
+      <c r="W13" s="186" t="s">
+        <v>52</v>
+      </c>
+      <c r="X13" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y13" s="69">
+        <f t="shared" si="5"/>
+        <v>0.10852018681582414</v>
+      </c>
+      <c r="Z13" s="69">
+        <f>Z3</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AA13" s="69">
+        <f t="shared" si="6"/>
+        <v>6.1856506485019752E-2</v>
+      </c>
+      <c r="AB13" s="157">
+        <f t="shared" si="7"/>
+        <v>6.1856506485019752E-2</v>
+      </c>
+      <c r="AC13" s="176">
+        <f t="shared" si="8"/>
+        <v>0.93814349351498028</v>
+      </c>
+      <c r="AD13" s="177">
+        <f>AB13*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC19)</f>
+        <v>3.9937619043663969E-2</v>
+      </c>
+      <c r="AE13" s="177">
+        <f>AB13*AB14*PRODUCT(AC5:AC12)*PRODUCT(AC15:AC19)+AB13*AB15*PRODUCT(AC5:AC12)*AC14*PRODUCT(AC16:AC19)+AB13*AB16*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC15)*PRODUCT(AC17:AC19)+AB13*AB17*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC16)*PRODUCT(AC18:AC19)+AB13*AB18*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC17)*PRODUCT(AC19)+AB13*AB19*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC18)</f>
+        <v>1.2287595798984497E-2</v>
+      </c>
+      <c r="AG13" s="203">
+        <f>B22</f>
+        <v>0.48192771084337349</v>
+      </c>
+      <c r="AH13">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="207">
+        <f t="shared" si="9"/>
+        <v>0.20946919780728845</v>
+      </c>
+      <c r="AK13" s="203">
+        <f>C22</f>
+        <v>0.51807228915662651</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="208">
+        <v>0.14729999999999999</v>
+      </c>
+      <c r="AN13" s="209">
+        <f t="shared" si="10"/>
+        <v>0.14729999999999999</v>
+      </c>
+      <c r="AO13">
+        <v>1</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>10</v>
+      </c>
+      <c r="BJ13" s="107">
+        <f t="shared" si="0"/>
+        <v>9.2167782896073695E-5</v>
+      </c>
+      <c r="BL13">
+        <f>BH57+1</f>
+        <v>9</v>
+      </c>
+      <c r="BM13">
+        <v>9</v>
+      </c>
+      <c r="BN13" s="107">
+        <f>$H$34*H48</f>
+        <v>2.5682027891425989E-9</v>
+      </c>
+      <c r="BP13">
+        <f>BL7+1</f>
+        <v>4</v>
+      </c>
+      <c r="BQ13">
+        <v>3</v>
+      </c>
+      <c r="BR13" s="107">
+        <f>$H$29*H42</f>
+        <v>8.4815230860061479E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="168">
+        <v>5.5</v>
+      </c>
+      <c r="C14" s="169">
+        <v>10</v>
+      </c>
+      <c r="E14" s="192" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="167" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="167"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="166" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="166"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="O14" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="210">
+        <f>IF(COUNTIF(F6:F18,"CAB")-COUNTIF(J6:J18,"CAB")&gt;2,0.8,IF(COUNTIF(F6:F18,"CAB")-COUNTIF(J6:J18,"CAB")&gt;0,0.6,IF(COUNTIF(F6:F18,"CAB")-COUNTIF(J6:J18,"CAB")=0,0.5,0.15)))</f>
+        <v>0.15</v>
+      </c>
+      <c r="Q14" s="214">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="157">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="176">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T14" s="177">
+        <f>R14*PRODUCT(S5:S13)*PRODUCT(S15:S19)</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="177">
+        <f>R14*R15*PRODUCT(S5:S13)*PRODUCT(S16:S19)+R14*R16*PRODUCT(S5:S13)*S15*PRODUCT(S17:S19)+R14*R17*PRODUCT(S5:S13)*PRODUCT(S15:S16)*PRODUCT(S18:S19)+R14*R18*PRODUCT(S5:S13)*PRODUCT(S15:S17)*PRODUCT(S19)+R14*R19*PRODUCT(S5:S13)*PRODUCT(S15:S18)</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="186" t="s">
+        <v>54</v>
+      </c>
+      <c r="X14" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y14" s="69">
+        <f t="shared" si="5"/>
+        <v>0.29763681670784442</v>
+      </c>
+      <c r="Z14" s="211">
+        <f>IF(COUNTIF(J6:J18,"CAB")-COUNTIF(F6:F18,"CAB")&gt;2,0.8,IF(COUNTIF(J6:J18,"CAB")-COUNTIF(F6:F18,"CAB")&gt;0,0.6,IF(COUNTIF(J6:J18,"CAB")-COUNTIF(F6:F18,"CAB")=0,0.5,0.15)))</f>
+        <v>0.6</v>
+      </c>
+      <c r="AA14" s="69">
+        <f t="shared" si="6"/>
+        <v>0.17858209002470665</v>
+      </c>
+      <c r="AB14" s="157">
+        <f t="shared" si="7"/>
+        <v>0.17858209002470668</v>
+      </c>
+      <c r="AC14" s="176">
+        <f t="shared" si="8"/>
+        <v>0.82141790997529329</v>
+      </c>
+      <c r="AD14" s="177">
+        <f>AB14*PRODUCT(AC5:AC13)*PRODUCT(AC15:AC19)</f>
+        <v>0.13168605457534924</v>
+      </c>
+      <c r="AE14" s="177">
+        <f>AB14*AB15*PRODUCT(AC5:AC13)*PRODUCT(AC16:AC19)+AB14*AB16*PRODUCT(AC5:AC13)*AC15*PRODUCT(AC17:AC19)+AB14*AB17*PRODUCT(AC5:AC13)*PRODUCT(AC15:AC16)*PRODUCT(AC18:AC19)+AB14*AB18*PRODUCT(AC5:AC13)*PRODUCT(AC15:AC17)*PRODUCT(AC19)+AB14*AB19*PRODUCT(AC5:AC13)*PRODUCT(AC15:AC18)</f>
+        <v>1.1886326720338443E-2</v>
+      </c>
+      <c r="AG14" s="203">
+        <f>IF(AL14=0,1,B22)</f>
+        <v>0.48192771084337349</v>
+      </c>
+      <c r="AH14">
+        <f>IF(COUNTIF(F6:F18,"CAB")&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="207">
+        <f t="shared" si="9"/>
+        <v>0.29763681670784442</v>
+      </c>
+      <c r="AK14" s="203">
+        <f>IF(AH14=0,1,C22)</f>
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <f>IF(COUNTIF(J6:J18,"CAB")&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AM14" s="208">
+        <v>0.20930000000000001</v>
+      </c>
+      <c r="AN14" s="209">
+        <f t="shared" si="10"/>
+        <v>0.20930000000000001</v>
+      </c>
+      <c r="AO14">
+        <v>1</v>
+      </c>
+      <c r="BH14">
+        <v>1</v>
+      </c>
+      <c r="BI14">
+        <v>2</v>
+      </c>
+      <c r="BJ14" s="107">
+        <f t="shared" ref="BJ14:BJ22" si="11">$H$26*H41</f>
+        <v>5.2952759124835588E-2</v>
+      </c>
+      <c r="BL14">
+        <f>BP39+1</f>
+        <v>10</v>
+      </c>
+      <c r="BM14">
+        <v>10</v>
+      </c>
+      <c r="BN14" s="107">
+        <f>$H$35*H49</f>
+        <v>2.0770672251621557E-11</v>
+      </c>
+      <c r="BP14">
+        <f>BP10+1</f>
+        <v>5</v>
+      </c>
+      <c r="BQ14">
+        <v>0</v>
+      </c>
+      <c r="BR14" s="107">
+        <f>$H$30*H39</f>
+        <v>9.0605504609978738E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A15" s="189" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="170">
+        <v>5.25</v>
+      </c>
+      <c r="C15" s="171">
+        <v>9</v>
+      </c>
+      <c r="E15" s="192" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="167" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="167"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="166" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15" s="166"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="O15" s="67">
+        <f t="shared" si="1"/>
+        <v>2.67278440506932E-2</v>
+      </c>
+      <c r="P15" s="210">
+        <f>R3</f>
+        <v>0.7</v>
+      </c>
+      <c r="Q15" s="214">
+        <f t="shared" si="2"/>
+        <v>1.8709490835485239E-2</v>
+      </c>
+      <c r="R15" s="157">
+        <f t="shared" si="3"/>
+        <v>1.8709490835485239E-2</v>
+      </c>
+      <c r="S15" s="176">
+        <f t="shared" si="4"/>
+        <v>0.98129050916451477</v>
+      </c>
+      <c r="T15" s="177">
+        <f>R15*PRODUCT(S5:S14)*PRODUCT(S16:S19)</f>
+        <v>1.6206859043915448E-2</v>
+      </c>
+      <c r="U15" s="177">
+        <f>R15*R16*PRODUCT(S5:S14)*PRODUCT(S17:S19)+R15*R17*PRODUCT(S5:S14)*S16*PRODUCT(S18:S19)+R15*R18*PRODUCT(S5:S14)*S16*S17*S19+R15*R19*PRODUCT(S5:S14)*S16*S17*S18</f>
+        <v>8.0440218667332617E-4</v>
+      </c>
+      <c r="W15" s="186" t="s">
+        <v>56</v>
+      </c>
+      <c r="X15" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y15" s="69">
+        <f t="shared" si="5"/>
+        <v>2.8732432354495192E-2</v>
+      </c>
+      <c r="Z15" s="69">
+        <f>AB3</f>
+        <v>0.7</v>
+      </c>
+      <c r="AA15" s="69">
+        <f t="shared" si="6"/>
+        <v>2.0112702648146633E-2</v>
+      </c>
+      <c r="AB15" s="157">
+        <f t="shared" si="7"/>
+        <v>2.0112702648146633E-2</v>
+      </c>
+      <c r="AC15" s="176">
+        <f t="shared" si="8"/>
+        <v>0.97988729735185331</v>
+      </c>
+      <c r="AD15" s="177">
+        <f>AB15*PRODUCT(AC5:AC14)*PRODUCT(AC16:AC19)</f>
+        <v>1.2432554097276432E-2</v>
+      </c>
+      <c r="AE15" s="177">
+        <f>AB15*AB16*PRODUCT(AC5:AC14)*PRODUCT(AC17:AC19)+AB15*AB17*PRODUCT(AC5:AC14)*AC16*PRODUCT(AC18:AC19)+AB15*AB18*PRODUCT(AC5:AC14)*AC16*AC17*AC19+AB15*AB19*PRODUCT(AC5:AC14)*AC16*AC17*AC18</f>
+        <v>8.670100385805477E-4</v>
+      </c>
+      <c r="AG15" s="203">
+        <f>IF(AL15=0,1,B22)</f>
+        <v>0.48192771084337349</v>
+      </c>
+      <c r="AH15">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="207">
+        <f t="shared" si="9"/>
+        <v>5.5460276405188393E-2</v>
+      </c>
+      <c r="AK15" s="203">
+        <f>IF(AH15=0,1,C22)</f>
+        <v>0.51807228915662651</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="208">
+        <v>3.9E-2</v>
+      </c>
+      <c r="AN15" s="209">
+        <f t="shared" si="10"/>
+        <v>3.9E-2</v>
+      </c>
+      <c r="AO15">
+        <v>1</v>
+      </c>
+      <c r="BH15">
+        <v>1</v>
+      </c>
+      <c r="BI15">
+        <v>3</v>
+      </c>
+      <c r="BJ15" s="107">
+        <f t="shared" si="11"/>
+        <v>8.0300200761933227E-2</v>
+      </c>
+      <c r="BP15">
+        <f>BP11+1</f>
+        <v>5</v>
+      </c>
+      <c r="BQ15">
+        <v>1</v>
+      </c>
+      <c r="BR15" s="107">
+        <f>$H$30*H40</f>
+        <v>4.9403378393692574E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A16" s="189" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="52">
+        <f>AVERAGE(G5:G18)</f>
+        <v>12</v>
+      </c>
+      <c r="C16" s="54">
+        <f>AVERAGE(K5:K18)</f>
+        <v>12</v>
+      </c>
+      <c r="E16" s="192" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="167" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="167"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="166" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="166"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="O16" s="67">
+        <f t="shared" si="1"/>
+        <v>2.2985945883596155E-2</v>
+      </c>
+      <c r="P16" s="210">
+        <v>0.15</v>
+      </c>
+      <c r="Q16" s="214">
+        <f t="shared" si="2"/>
+        <v>3.4478918825394233E-3</v>
+      </c>
+      <c r="R16" s="157">
+        <f t="shared" si="3"/>
+        <v>3.4478918825394233E-3</v>
+      </c>
+      <c r="S16" s="176">
+        <f t="shared" si="4"/>
+        <v>0.99655210811746053</v>
+      </c>
+      <c r="T16" s="177">
+        <f>R16*PRODUCT(S5:S15)*PRODUCT(S17:S19)</f>
+        <v>2.9409531861142022E-3</v>
+      </c>
+      <c r="U16" s="177">
+        <f>R16*R17*PRODUCT(S5:S15)*PRODUCT(S18:S19)+R16*R18*PRODUCT(S5:S15)*S17*S19+R16*R19*PRODUCT(S5:S15)*S17*S18</f>
+        <v>1.3579445575872927E-4</v>
+      </c>
+      <c r="W16" s="187" t="s">
+        <v>58</v>
+      </c>
+      <c r="X16" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y16" s="69">
+        <f t="shared" si="5"/>
+        <v>2.1382275240554562E-2</v>
+      </c>
+      <c r="Z16" s="69">
+        <v>0.15</v>
+      </c>
+      <c r="AA16" s="69">
+        <f t="shared" si="6"/>
+        <v>3.2073412860831843E-3</v>
+      </c>
+      <c r="AB16" s="157">
+        <f t="shared" si="7"/>
+        <v>3.2073412860831843E-3</v>
+      </c>
+      <c r="AC16" s="176">
+        <f t="shared" si="8"/>
+        <v>0.99679265871391687</v>
+      </c>
+      <c r="AD16" s="177">
+        <f>AB16*PRODUCT(AC5:AC15)*PRODUCT(AC17:AC19)</f>
+        <v>1.9489755747131351E-3</v>
+      </c>
+      <c r="AE16" s="177">
+        <f>AB16*AB17*PRODUCT(AC5:AC15)*PRODUCT(AC18:AC19)+AB16*AB18*PRODUCT(AC5:AC15)*AC17*AC19+AB16*AB19*PRODUCT(AC5:AC15)*AC17*AC18</f>
+        <v>1.2964472500990372E-4</v>
+      </c>
+      <c r="AG16" s="203">
+        <f>C22</f>
+        <v>0.51807228915662651</v>
+      </c>
+      <c r="AH16">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="207">
+        <f t="shared" si="9"/>
+        <v>4.4368221124150717E-2</v>
+      </c>
+      <c r="AK16" s="203">
+        <f>B22</f>
+        <v>0.48192771084337349</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="208">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="AN16" s="209">
+        <f t="shared" si="10"/>
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="AO16">
+        <v>1</v>
+      </c>
+      <c r="BH16">
+        <v>1</v>
+      </c>
+      <c r="BI16">
+        <v>4</v>
+      </c>
+      <c r="BJ16" s="107">
+        <f t="shared" si="11"/>
+        <v>8.2449230870179885E-2</v>
+      </c>
+      <c r="BP16">
+        <f>BP12+1</f>
+        <v>5</v>
+      </c>
+      <c r="BQ16">
+        <v>2</v>
+      </c>
+      <c r="BR16" s="107">
+        <f>$H$30*H41</f>
+        <v>1.2346455699087436E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A17" s="188" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="172" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="173" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="192" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="167"/>
+      <c r="G17" s="167"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="166"/>
+      <c r="K17" s="166"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="O17" s="67">
+        <f t="shared" si="1"/>
+        <v>7.7431078211859183E-2</v>
+      </c>
+      <c r="P17" s="210">
+        <f>P3</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Q17" s="214">
+        <f t="shared" si="2"/>
+        <v>4.4135714580759731E-2</v>
+      </c>
+      <c r="R17" s="157">
+        <f t="shared" si="3"/>
+        <v>4.4135714580759731E-2</v>
+      </c>
+      <c r="S17" s="176">
+        <f t="shared" si="4"/>
+        <v>0.95586428541924029</v>
+      </c>
+      <c r="T17" s="177">
+        <f>R17*PRODUCT(S5:S16)*PRODUCT(S18:S19)</f>
+        <v>3.9248983369326272E-2</v>
+      </c>
+      <c r="U17" s="177">
+        <f>R17*R18*PRODUCT(S5:S16)*S19+R17*R19*PRODUCT(S5:S16)*S18</f>
+        <v>0</v>
+      </c>
+      <c r="W17" s="186" t="s">
+        <v>60</v>
+      </c>
+      <c r="X17" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y17" s="69">
+        <f t="shared" si="5"/>
+        <v>7.7431078211859183E-2</v>
+      </c>
+      <c r="Z17" s="69">
+        <f>Z3</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AA17" s="69">
+        <f t="shared" si="6"/>
+        <v>4.4135714580759731E-2</v>
+      </c>
+      <c r="AB17" s="157">
+        <f t="shared" si="7"/>
+        <v>4.4135714580759731E-2</v>
+      </c>
+      <c r="AC17" s="176">
+        <f t="shared" si="8"/>
+        <v>0.95586428541924029</v>
+      </c>
+      <c r="AD17" s="177">
+        <f>AB17*PRODUCT(AC5:AC16)*PRODUCT(AC18:AC19)</f>
+        <v>2.7967907839281578E-2</v>
+      </c>
+      <c r="AE17" s="177">
+        <f>AB17*AB18*PRODUCT(AC5:AC16)*AC19+AB17*AB19*PRODUCT(AC5:AC16)*AC18</f>
+        <v>5.690294533737142E-4</v>
+      </c>
+      <c r="AG17" s="203">
+        <f>COUNTA(F14:F15)/(COUNTA(F14:F15)+COUNTA(J14:J15))</f>
+        <v>0.5</v>
+      </c>
+      <c r="AH17">
+        <f>COUNTA(F14:F15)</f>
+        <v>2</v>
+      </c>
+      <c r="AI17" s="207">
+        <f t="shared" si="9"/>
+        <v>0.15486215642371837</v>
+      </c>
+      <c r="AK17" s="203">
+        <f>COUNTA(J14:J15)/(COUNTA(F14:F15)+COUNTA(J14:J15))</f>
+        <v>0.5</v>
+      </c>
+      <c r="AL17">
+        <f>COUNTA(J14:J15)</f>
+        <v>2</v>
+      </c>
+      <c r="AM17" s="208">
+        <v>0.1089</v>
+      </c>
+      <c r="AN17" s="209">
+        <f t="shared" si="10"/>
+        <v>0.1089</v>
+      </c>
+      <c r="AO17">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="BH17">
+        <v>1</v>
+      </c>
+      <c r="BI17">
+        <v>5</v>
+      </c>
+      <c r="BJ17" s="107">
+        <f t="shared" si="11"/>
+        <v>6.0560592624566034E-2</v>
+      </c>
+      <c r="BP17">
+        <f>BP13+1</f>
+        <v>5</v>
+      </c>
+      <c r="BQ17">
+        <v>3</v>
+      </c>
+      <c r="BR17" s="107">
+        <f>$H$30*H42</f>
+        <v>1.8722780223741813E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A18" s="188" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="172">
+        <v>20</v>
+      </c>
+      <c r="C18" s="173">
+        <v>20</v>
+      </c>
+      <c r="E18" s="192" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" s="167"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="166" t="s">
+        <v>123</v>
+      </c>
+      <c r="K18" s="166"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="O18" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="210">
+        <f>P17*1.2</f>
+        <v>0.68399999999999994</v>
+      </c>
+      <c r="Q18" s="214">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="157">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="176">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T18" s="177">
+        <f>R18*PRODUCT(S5:S17)*PRODUCT(S19:S19)</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="177">
+        <f>R18*R19*PRODUCT(S5:S17)</f>
+        <v>0</v>
+      </c>
+      <c r="W18" s="186" t="s">
+        <v>62</v>
+      </c>
+      <c r="X18" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y18" s="69">
+        <f t="shared" si="5"/>
+        <v>2.9152196571958004E-2</v>
+      </c>
+      <c r="Z18" s="69">
+        <f>Z17*1.2</f>
+        <v>0.68399999999999994</v>
+      </c>
+      <c r="AA18" s="69">
+        <f t="shared" si="6"/>
+        <v>1.9940102455219273E-2</v>
+      </c>
+      <c r="AB18" s="157">
+        <f t="shared" si="7"/>
+        <v>1.9940102455219273E-2</v>
+      </c>
+      <c r="AC18" s="176">
+        <f t="shared" si="8"/>
+        <v>0.98005989754478073</v>
+      </c>
+      <c r="AD18" s="177">
+        <f>AB18*PRODUCT(AC5:AC17)*PRODUCT(AC19:AC19)</f>
+        <v>1.2323691527330056E-2</v>
+      </c>
+      <c r="AE18" s="177">
+        <f>AB18*AB19*PRODUCT(AC5:AC17)</f>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="203">
+        <f>IF(COUNTA(F14:F15)&gt;0,IF(COUNTIF(F11:F18,"CAB")+COUNTIF(J11:J18,"CAB")=0,0,COUNTIF(F11:F18,"CAB")/(COUNTIF(F11:F18,"CAB")+COUNTIF(J11:J18,"CAB"))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <f>COUNTIF(F11:F18,"CAB")</f>
+        <v>0</v>
+      </c>
+      <c r="AI18" s="207">
+        <f t="shared" si="9"/>
+        <v>0.23321757257566403</v>
+      </c>
+      <c r="AK18" s="203">
+        <f>IF(COUNTA(J14:J15)&gt;0,IF(COUNTIF(J11:J18,"CAB")+COUNTIF(F11:F18,"CAB")=0,0,COUNTIF(J11:J18,"CAB")/(COUNTIF(J11:J18,"CAB")+COUNTIF(F11:F18,"CAB"))),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <f>COUNTIF(J11:J18,"CAB")</f>
+        <v>1</v>
+      </c>
+      <c r="AM18" s="208">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="AN18" s="209">
+        <f t="shared" si="10"/>
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="AO18">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="BH18">
+        <v>1</v>
+      </c>
+      <c r="BI18">
+        <v>6</v>
+      </c>
+      <c r="BJ18" s="107">
+        <f t="shared" si="11"/>
+        <v>3.2777438817799036E-2</v>
+      </c>
+      <c r="BP18">
+        <f>BL8+1</f>
+        <v>5</v>
+      </c>
+      <c r="BQ18">
+        <v>4</v>
+      </c>
+      <c r="BR18" s="107">
+        <f>$H$30*H43</f>
+        <v>1.9223847693425904E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="H19" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="O19" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="210">
+        <f>P3</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Q19" s="214">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="157">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="178">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T19" s="179">
+        <f>R19*PRODUCT(S5:S18)</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="179">
+        <v>0</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W19" s="186" t="s">
+        <v>64</v>
+      </c>
+      <c r="X19" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y19" s="69">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="69">
+        <f>Z3</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AA19" s="69">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="157">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="178">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AD19" s="179">
+        <f>AB19*PRODUCT(AC5:AC18)</f>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="179">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG19" s="203">
+        <f>IF(COUNTIF(F11:F18,"TEC")&gt;0,IF(COUNTIF(J6:J13,"CAB")&gt;0,IF(COUNTIF(F11:F18,"TEC")+COUNTIF(J11:J18,"TEC")&gt;0,COUNTIF(F11:F18,"TEC")/(COUNTIF(F11:F18,"TEC")+COUNTIF(J11:J18,"TEC")),0),0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <f>COUNTIF(F11:F18,"TEC")</f>
+        <v>0</v>
+      </c>
+      <c r="AI19" s="207">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AK19" s="203">
+        <f>IF(COUNTIF(J11:J18,"TEC")&gt;0,IF(COUNTIF(F6:F13,"CAB")&gt;0,IF(COUNTIF(F11:F18,"TEC")+COUNTIF(J11:J18,"TEC")&gt;0,COUNTIF(J11:J18,"TEC")/(COUNTIF(F11:F18,"TEC")+COUNTIF(J11:J18,"TEC")),0),0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <f>COUNTIF(J11:J18,"TEC")</f>
+        <v>3</v>
+      </c>
+      <c r="AM19" s="208">
+        <v>0.60870000000000002</v>
+      </c>
+      <c r="AN19" s="209">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="BH19">
+        <v>1</v>
+      </c>
+      <c r="BI19">
+        <v>7</v>
+      </c>
+      <c r="BJ19" s="107">
+        <f t="shared" si="11"/>
+        <v>1.3264688714825713E-2</v>
+      </c>
+      <c r="BP19">
+        <f>BP15+1</f>
+        <v>6</v>
+      </c>
+      <c r="BQ19">
+        <v>1</v>
+      </c>
+      <c r="BR19" s="107">
+        <f>$H$31*H40</f>
+        <v>8.0305278898288617E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A20" s="190" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20">
+        <f>IF(B17="Pres",IF(C17="Pres",2,1),IF(C17="Pres",1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="36"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="S20" s="180">
+        <f>PRODUCT(S5:S19)</f>
+        <v>0.85003045261914756</v>
+      </c>
+      <c r="T20" s="181">
+        <f>SUM(T5:T19)</f>
+        <v>0.14092597537627433</v>
+      </c>
+      <c r="U20" s="181">
+        <f>SUM(U5:U19)</f>
+        <v>8.7778511264855526E-3</v>
+      </c>
+      <c r="V20" s="181">
+        <f>1-S20-T20-U20</f>
+        <v>2.6572087809256274E-4</v>
+      </c>
+      <c r="W20" s="21"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="184">
+        <f>PRODUCT(AC5:AC19)</f>
+        <v>0.60571182534155943</v>
+      </c>
+      <c r="AD20" s="181">
+        <f>SUM(AD5:AD19)</f>
+        <v>0.32063187684303063</v>
+      </c>
+      <c r="AE20" s="181">
+        <f>SUM(AE5:AE19)</f>
+        <v>6.5953095936475803E-2</v>
+      </c>
+      <c r="AF20" s="181">
+        <f>1-AC20-AD20-AE20</f>
+        <v>7.7032018789341405E-3</v>
+      </c>
+      <c r="BH20">
+        <v>1</v>
+      </c>
+      <c r="BI20">
+        <v>8</v>
+      </c>
+      <c r="BJ20" s="107">
+        <f t="shared" si="11"/>
+        <v>4.0288081066398463E-3</v>
+      </c>
+      <c r="BP20">
+        <f>BP16+1</f>
+        <v>6</v>
+      </c>
+      <c r="BQ20">
+        <v>2</v>
+      </c>
+      <c r="BR20" s="107">
+        <f>$H$31*H41</f>
+        <v>2.0069185560944681E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A21" s="190" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="191">
+        <f>5-B20</f>
+        <v>5</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="BH21" s="18">
+        <v>1</v>
+      </c>
+      <c r="BI21">
+        <v>9</v>
+      </c>
+      <c r="BJ21" s="107">
+        <f t="shared" si="11"/>
+        <v>9.1229503376580464E-4</v>
+      </c>
+      <c r="BP21">
+        <f>BP17+1</f>
+        <v>6</v>
+      </c>
+      <c r="BQ21">
+        <v>3</v>
+      </c>
+      <c r="BR21" s="107">
+        <f>$H$31*H42</f>
+        <v>3.0433912345778131E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="62">
+        <f>(B6)/((B6)+(C6))</f>
+        <v>0.48192771084337349</v>
+      </c>
+      <c r="C22" s="63">
+        <f>1-B22</f>
+        <v>0.51807228915662651</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="V22" s="59">
+        <f>SUM(V25:V35)</f>
+        <v>1</v>
+      </c>
+      <c r="AS22" s="82">
+        <f>Y23+AA23+AC23+AE23+AG23+AI23+AK23+AM23+AO23+AQ23+AS23</f>
+        <v>1</v>
+      </c>
+      <c r="BH22">
+        <v>1</v>
+      </c>
+      <c r="BI22">
+        <v>10</v>
+      </c>
+      <c r="BJ22" s="107">
+        <f t="shared" si="11"/>
+        <v>1.5094817723607326E-4</v>
+      </c>
+      <c r="BP22">
+        <f>BP18+1</f>
+        <v>6</v>
+      </c>
+      <c r="BQ22">
+        <v>4</v>
+      </c>
+      <c r="BR22" s="107">
+        <f>$H$31*H43</f>
+        <v>3.1248398403374908E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="56">
+        <f>((B22^2.8)/((B22^2.8)+(C22^2.8)))*B21</f>
+        <v>2.2477391004409277</v>
+      </c>
+      <c r="C23" s="57">
+        <f>B21-B23</f>
+        <v>2.7522608995590723</v>
+      </c>
+      <c r="D23" s="151">
+        <f>SUM(D25:D30)</f>
+        <v>1</v>
+      </c>
+      <c r="E23" s="151">
+        <f>SUM(E25:E30)</f>
+        <v>1</v>
+      </c>
+      <c r="H23" s="59">
+        <f>SUM(H25:H35)</f>
+        <v>0.99999999832340392</v>
+      </c>
+      <c r="J23" s="59">
+        <f>SUM(J25:J35)</f>
+        <v>1</v>
+      </c>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59">
+        <f>SUM(L25:L35)</f>
+        <v>1</v>
+      </c>
+      <c r="N23" s="59">
+        <f>SUM(N25:N35)</f>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="O23" s="34"/>
+      <c r="P23" s="59">
+        <f>SUM(P25:P35)</f>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="R23" s="59">
+        <f>SUM(R25:R35)</f>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="T23" s="59">
+        <f>SUM(T25:T35)</f>
+        <v>1</v>
+      </c>
+      <c r="V23" s="59">
+        <f>SUM(V25:V34)</f>
+        <v>0.99962115795952822</v>
+      </c>
+      <c r="Y23" s="80">
+        <f>SUM(Y25:Y35)</f>
+        <v>2.5283786890701911E-3</v>
+      </c>
+      <c r="Z23" s="81"/>
+      <c r="AA23" s="80">
+        <f>SUM(AA25:AA35)</f>
+        <v>2.0674382168833001E-2</v>
+      </c>
+      <c r="AB23" s="81"/>
+      <c r="AC23" s="80">
+        <f>SUM(AC25:AC35)</f>
+        <v>7.6094565102444056E-2</v>
+      </c>
+      <c r="AD23" s="81"/>
+      <c r="AE23" s="80">
+        <f>SUM(AE25:AE35)</f>
+        <v>0.16603253496023787</v>
+      </c>
+      <c r="AF23" s="81"/>
+      <c r="AG23" s="80">
+        <f>SUM(AG25:AG35)</f>
+        <v>0.23786657104090075</v>
+      </c>
+      <c r="AH23" s="81"/>
+      <c r="AI23" s="80">
+        <f>SUM(AI25:AI35)</f>
+        <v>0.23386377663214686</v>
+      </c>
+      <c r="AJ23" s="81"/>
+      <c r="AK23" s="80">
+        <f>SUM(AK25:AK35)</f>
+        <v>0.15987549217351854</v>
+      </c>
+      <c r="AL23" s="81"/>
+      <c r="AM23" s="80">
+        <f>SUM(AM25:AM35)</f>
+        <v>7.5111218860966958E-2</v>
+      </c>
+      <c r="AN23" s="81"/>
+      <c r="AO23" s="80">
+        <f>SUM(AO25:AO35)</f>
+        <v>2.3259608345024541E-2</v>
+      </c>
+      <c r="AP23" s="81"/>
+      <c r="AQ23" s="80">
+        <f>SUM(AQ25:AQ35)</f>
+        <v>4.3146299863855327E-3</v>
+      </c>
+      <c r="AR23" s="81"/>
+      <c r="AS23" s="80">
+        <f>SUM(AS25:AS35)</f>
+        <v>3.788420404717831E-4</v>
+      </c>
+      <c r="BH23">
+        <f t="shared" ref="BH23:BH30" si="12">BH15+1</f>
+        <v>2</v>
+      </c>
+      <c r="BI23">
+        <v>3</v>
+      </c>
+      <c r="BJ23" s="107">
+        <f t="shared" ref="BJ23:BJ30" si="13">$H$27*H42</f>
+        <v>6.0297265941836237E-2</v>
+      </c>
+      <c r="BP23">
+        <f>BL9+1</f>
+        <v>6</v>
+      </c>
+      <c r="BQ23">
+        <v>5</v>
+      </c>
+      <c r="BR23" s="107">
+        <f>$H$31*H44</f>
+        <v>2.2952567366657823E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="64">
+        <f>B23/B21</f>
+        <v>0.44954782008818556</v>
+      </c>
+      <c r="C24" s="65">
+        <f>C23/B21</f>
+        <v>0.5504521799118145</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="99" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="J24" s="101" t="s">
+        <v>101</v>
+      </c>
+      <c r="K24" s="99" t="s">
+        <v>102</v>
+      </c>
+      <c r="L24" s="101" t="s">
+        <v>75</v>
+      </c>
+      <c r="M24" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="N24" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="O24" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="P24" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q24" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="R24" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="S24" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="T24" s="134" t="s">
+        <v>75</v>
+      </c>
+      <c r="U24" s="138" t="s">
+        <v>85</v>
+      </c>
+      <c r="V24" s="139" t="s">
+        <v>74</v>
+      </c>
+      <c r="W24" s="83" t="s">
+        <v>73</v>
+      </c>
+      <c r="X24" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y24" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z24" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA24" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB24" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC24" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD24" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE24" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF24" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG24" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH24" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI24" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ24" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK24" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL24" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM24" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN24" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO24" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP24" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ24" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR24" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS24" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW24" s="14">
+        <v>1</v>
+      </c>
+      <c r="AX24" s="14">
+        <v>2</v>
+      </c>
+      <c r="AY24" s="14">
+        <v>3</v>
+      </c>
+      <c r="AZ24" s="14">
+        <v>4</v>
+      </c>
+      <c r="BA24" s="14">
+        <v>5</v>
+      </c>
+      <c r="BB24" s="14">
+        <v>6</v>
+      </c>
+      <c r="BC24" s="14">
+        <v>7</v>
+      </c>
+      <c r="BD24" s="14">
+        <v>8</v>
+      </c>
+      <c r="BE24" s="14">
+        <v>9</v>
+      </c>
+      <c r="BF24" s="14">
+        <v>10</v>
+      </c>
+      <c r="BH24">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="BI24">
+        <v>4</v>
+      </c>
+      <c r="BJ24" s="107">
+        <f t="shared" si="13"/>
+        <v>6.1910968507015759E-2</v>
+      </c>
+      <c r="BP24">
+        <f>BH49+1</f>
+        <v>7</v>
+      </c>
+      <c r="BQ24">
+        <v>0</v>
+      </c>
+      <c r="BR24" s="107">
+        <f t="shared" ref="BR24:BR30" si="14">$H$32*H39</f>
+        <v>1.7873565625758882E-6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="117">
+        <f>1/(1+EXP(-3.1416*4*((B11/(B11+C8))-(3.1416/6))))</f>
+        <v>0.34540772275291143</v>
+      </c>
+      <c r="C25" s="118">
+        <f>1/(1+EXP(-3.1416*4*((C11/(C11+B8))-(3.1416/6))))</f>
+        <v>0.3865317713456482</v>
+      </c>
+      <c r="D25" s="153">
+        <f>IF(B17="AOW", 0.36-0.08, IF(B17="AIM", 0.36+0.08, IF(B17="TL",(0.361)-(0.36*B32),0.36)))</f>
+        <v>0.36</v>
+      </c>
+      <c r="E25" s="153">
+        <f>IF(C17="AOW", 0.36-0.08, IF(C17="AIM", 0.36+0.08, IF(C17="TL",(0.361)-(0.36*C32),0.36)))</f>
+        <v>0.36</v>
+      </c>
+      <c r="G25" s="126">
+        <v>0</v>
+      </c>
+      <c r="H25" s="127">
+        <f>L25*J25</f>
+        <v>0.21522788271027415</v>
+      </c>
+      <c r="I25" s="97">
+        <v>0</v>
+      </c>
+      <c r="J25" s="98">
+        <f t="shared" ref="J25:J35" si="15">Y25+AA25+AC25+AE25+AG25+AI25+AK25+AM25+AO25+AQ25+AS25</f>
+        <v>0.25320020247169434</v>
+      </c>
+      <c r="K25" s="97">
+        <v>0</v>
+      </c>
+      <c r="L25" s="98">
+        <f>S20</f>
+        <v>0.85003045261914756</v>
+      </c>
+      <c r="M25" s="84">
+        <v>0</v>
+      </c>
+      <c r="N25" s="71">
+        <f>(1-$B$24)^$B$21</f>
+        <v>5.0535664401497545E-2</v>
+      </c>
+      <c r="O25" s="70">
+        <v>0</v>
+      </c>
+      <c r="P25" s="71">
+        <f>N25</f>
+        <v>5.0535664401497545E-2</v>
+      </c>
+      <c r="Q25" s="12">
+        <v>0</v>
+      </c>
+      <c r="R25" s="73">
+        <f>P25*N25</f>
+        <v>2.5538533765007863E-3</v>
+      </c>
+      <c r="S25" s="70">
+        <v>0</v>
+      </c>
+      <c r="T25" s="135">
+        <f>(1-$B$33)^(INT(C23*2*(1-C31)))</f>
+        <v>0.99002500000000004</v>
+      </c>
+      <c r="U25" s="140">
+        <v>0</v>
+      </c>
+      <c r="V25" s="86">
+        <f>R25*T25</f>
+        <v>2.5283786890701911E-3</v>
+      </c>
+      <c r="W25" s="136">
+        <f>B31</f>
+        <v>0.28493711879428002</v>
+      </c>
+      <c r="X25" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="79">
+        <f>V25</f>
+        <v>2.5283786890701911E-3</v>
+      </c>
+      <c r="Z25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="78">
+        <f>((1-W25)^Z26)*V26</f>
+        <v>1.4783483280793888E-2</v>
+      </c>
+      <c r="AB25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="79">
+        <f>(((1-$W$25)^AB27))*V27</f>
+        <v>3.8908286778121783E-2</v>
+      </c>
+      <c r="AD25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="79">
+        <f>(((1-$W$25)^AB28))*V28</f>
+        <v>6.0705201095001625E-2</v>
+      </c>
+      <c r="AF25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="79">
+        <f>(((1-$W$25)^AB29))*V29</f>
+        <v>6.2188538416365118E-2</v>
+      </c>
+      <c r="AH25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="79">
+        <f>(((1-$W$25)^AB30))*V30</f>
+        <v>4.3720400447505574E-2</v>
+      </c>
+      <c r="AJ25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="79">
+        <f>(((1-$W$25)^AB31))*V31</f>
+        <v>2.1372105103717728E-2</v>
+      </c>
+      <c r="AL25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="79">
+        <f>(((1-$W$25)^AB32))*V32</f>
+        <v>7.1798347850392328E-3</v>
+      </c>
+      <c r="AN25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="79">
+        <f>(((1-$W$25)^AB33))*V33</f>
+        <v>1.5898504473099695E-3</v>
+      </c>
+      <c r="AP25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="79">
+        <f>(((1-$W$25)^AB34))*V34</f>
+        <v>2.1088304687168262E-4</v>
+      </c>
+      <c r="AR25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="79">
+        <f>(((1-$W$25)^AB35))*V35</f>
+        <v>1.3240381897555707E-5</v>
+      </c>
+      <c r="AV25" s="14">
+        <v>1</v>
+      </c>
+      <c r="AW25">
+        <v>1</v>
+      </c>
+      <c r="AX25">
+        <v>2</v>
+      </c>
+      <c r="AY25">
+        <v>3</v>
+      </c>
+      <c r="AZ25">
+        <v>4</v>
+      </c>
+      <c r="BA25">
+        <v>5</v>
+      </c>
+      <c r="BB25">
+        <v>6</v>
+      </c>
+      <c r="BC25">
+        <f>7</f>
+        <v>7</v>
+      </c>
+      <c r="BD25">
+        <v>8</v>
+      </c>
+      <c r="BE25">
+        <v>9</v>
+      </c>
+      <c r="BF25">
+        <v>10</v>
+      </c>
+      <c r="BH25">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="BI25">
+        <v>5</v>
+      </c>
+      <c r="BJ25" s="107">
+        <f t="shared" si="13"/>
+        <v>4.5474832247365246E-2</v>
+      </c>
+      <c r="BP25">
+        <f>BP19+1</f>
+        <v>7</v>
+      </c>
+      <c r="BQ25">
+        <v>1</v>
+      </c>
+      <c r="BR25" s="107">
+        <f t="shared" si="14"/>
+        <v>9.7457050722789401E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A26" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="119">
+        <f>1/(1+EXP(-3.1416*4*((B10/(B10+C9))-(3.1416/6))))</f>
+        <v>0.16018564301044741</v>
+      </c>
+      <c r="C26" s="120">
+        <f>1/(1+EXP(-3.1416*4*((C10/(C10+B9))-(3.1416/6))))</f>
+        <v>0.65823372130593427</v>
+      </c>
+      <c r="D26" s="153">
+        <f>IF(B17="AOW", 0.257+0.04, IF(B17="AIM", 0.257-0.04, IF(B17="TL",(0.257)-(0.257*B32),0.257)))</f>
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="E26" s="153">
+        <f>IF(C17="AOW", 0.257+0.04, IF(C17="AIM", 0.257-0.04, IF(C17="TL",(0.257)-(0.257*C32),0.257)))</f>
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="G26" s="87">
+        <v>1</v>
+      </c>
+      <c r="H26" s="128">
+        <f>L25*J26+L26*J25</f>
+        <v>0.35249037749045425</v>
+      </c>
+      <c r="I26" s="93">
+        <v>1</v>
+      </c>
+      <c r="J26" s="86">
+        <f t="shared" si="15"/>
+        <v>0.3727018144061775</v>
+      </c>
+      <c r="K26" s="93">
+        <v>1</v>
+      </c>
+      <c r="L26" s="86">
+        <f>T20</f>
+        <v>0.14092597537627433</v>
+      </c>
+      <c r="M26" s="85">
+        <v>1</v>
+      </c>
+      <c r="N26" s="71">
+        <f>(($B$24)^M26)*((1-($B$24))^($B$21-M26))*HLOOKUP($B$21,$AV$24:$BF$34,M26+1)</f>
+        <v>0.20635941320135132</v>
+      </c>
+      <c r="O26" s="72">
+        <v>1</v>
+      </c>
+      <c r="P26" s="71">
+        <f t="shared" ref="P26:P30" si="16">N26</f>
+        <v>0.20635941320135132</v>
+      </c>
+      <c r="Q26" s="28">
+        <v>1</v>
+      </c>
+      <c r="R26" s="37">
+        <f>N26*P25+P26*N25</f>
+        <v>2.0857020103266906E-2</v>
+      </c>
+      <c r="S26" s="72">
+        <v>1</v>
+      </c>
+      <c r="T26" s="135">
+        <f t="shared" ref="T26:T35" si="17">(($B$33)^S26)*((1-($B$33))^(INT($C$23*2*(1-$C$31))-S26))*HLOOKUP(INT($C$23*2*(1-$C$31)),$AV$24:$BF$34,S26+1)</f>
+        <v>9.9500000000000005E-3</v>
+      </c>
+      <c r="U26" s="93">
+        <v>1</v>
+      </c>
+      <c r="V26" s="86">
+        <f>R26*T25+T26*R25</f>
+        <v>2.0674382168833001E-2</v>
+      </c>
+      <c r="W26" s="137"/>
+      <c r="X26" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="73"/>
+      <c r="Z26" s="28">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="79">
+        <f>(1-((1-W25)^Z26))*V26</f>
+        <v>5.8908988880391122E-3</v>
+      </c>
+      <c r="AB26" s="28">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="79">
+        <f>((($W$25)^M26)*((1-($W$25))^($U$27-M26))*HLOOKUP($U$27,$AV$24:$BF$34,M26+1))*V27</f>
+        <v>3.1008224376256204E-2</v>
+      </c>
+      <c r="AD26" s="28">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="79">
+        <f>((($W$25)^M26)*((1-($W$25))^($U$28-M26))*HLOOKUP($U$28,$AV$24:$BF$34,M26+1))*V28</f>
+        <v>7.256913573812325E-2</v>
+      </c>
+      <c r="AF26" s="28">
+        <v>1</v>
+      </c>
+      <c r="AG26" s="79">
+        <f>((($W$25)^M26)*((1-($W$25))^($U$29-M26))*HLOOKUP($U$29,$AV$24:$BF$34,M26+1))*V29</f>
+        <v>9.9123159230459723E-2</v>
+      </c>
+      <c r="AH26" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="79">
+        <f>((($W$25)^M26)*((1-($W$25))^($U$30-M26))*HLOOKUP($U$30,$AV$24:$BF$34,M26+1))*V30</f>
+        <v>8.7108177920232496E-2</v>
+      </c>
+      <c r="AJ26" s="28">
+        <v>1</v>
+      </c>
+      <c r="AK26" s="79">
+        <f>((($W$25)^M26)*((1-($W$25))^($U$31-M26))*HLOOKUP($U$31,$AV$24:$BF$34,M26+1))*V31</f>
+        <v>5.1097934552722608E-2</v>
+      </c>
+      <c r="AL26" s="28">
+        <v>1</v>
+      </c>
+      <c r="AM26" s="79">
+        <f>((($W$25)^Q26)*((1-($W$25))^($U$32-Q26))*HLOOKUP($U$32,$AV$24:$BF$34,Q26+1))*V32</f>
+        <v>2.0027063963003033E-2</v>
+      </c>
+      <c r="AN26" s="28">
+        <v>1</v>
+      </c>
+      <c r="AO26" s="79">
+        <f>((($W$25)^Q26)*((1-($W$25))^($U$33-Q26))*HLOOKUP($U$33,$AV$24:$BF$34,Q26+1))*V33</f>
+        <v>5.0681686064470415E-3</v>
+      </c>
+      <c r="AP26" s="28">
+        <v>1</v>
+      </c>
+      <c r="AQ26" s="79">
+        <f>((($W$25)^Q26)*((1-($W$25))^($U$34-Q26))*HLOOKUP($U$34,$AV$24:$BF$34,Q26+1))*V34</f>
+        <v>7.5629106784526692E-4</v>
+      </c>
+      <c r="AR26" s="28">
+        <v>1</v>
+      </c>
+      <c r="AS26" s="79">
+        <f>((($W$25)^Q26)*((1-($W$25))^($U$35-Q26))*HLOOKUP($U$35,$AV$24:$BF$34,Q26+1))*V35</f>
+        <v>5.2760063048778007E-5</v>
+      </c>
+      <c r="AV26" s="14">
+        <v>2</v>
+      </c>
+      <c r="AX26">
+        <v>1</v>
+      </c>
+      <c r="AY26">
+        <v>3</v>
+      </c>
+      <c r="AZ26">
+        <v>6</v>
+      </c>
+      <c r="BA26">
+        <v>10</v>
+      </c>
+      <c r="BB26">
+        <v>15</v>
+      </c>
+      <c r="BC26">
+        <f>6+15</f>
+        <v>21</v>
+      </c>
+      <c r="BD26">
+        <f>21+7</f>
+        <v>28</v>
+      </c>
+      <c r="BE26">
+        <f>28+8</f>
+        <v>36</v>
+      </c>
+      <c r="BF26">
+        <f>36+9</f>
+        <v>45</v>
+      </c>
+      <c r="BH26">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="BI26">
+        <v>6</v>
+      </c>
+      <c r="BJ26" s="107">
+        <f t="shared" si="13"/>
+        <v>2.4612515616847793E-2</v>
+      </c>
+      <c r="BP26">
+        <f>BP20+1</f>
+        <v>7</v>
+      </c>
+      <c r="BQ26">
+        <v>2</v>
+      </c>
+      <c r="BR26" s="107">
+        <f t="shared" si="14"/>
+        <v>2.4355604787268104E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="119">
+        <f>1/(1+EXP(-3.1416*4*((B12/(B12+C7))-(3.1416/6))))</f>
+        <v>0.15724501967662297</v>
+      </c>
+      <c r="C27" s="120">
+        <f>1/(1+EXP(-3.1416*4*((C12/(C12+B7))-(3.1416/6))))</f>
+        <v>0.71335622195183945</v>
+      </c>
+      <c r="D27" s="153">
+        <f>D26</f>
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="E27" s="153">
+        <f>E26</f>
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="G27" s="87">
+        <v>2</v>
+      </c>
+      <c r="H27" s="128">
+        <f>L25*J27+J26*L26+J25*L27</f>
+        <v>0.26468434489339215</v>
+      </c>
+      <c r="I27" s="93">
+        <v>2</v>
+      </c>
+      <c r="J27" s="86">
+        <f t="shared" si="15"/>
+        <v>0.24697753338639961</v>
+      </c>
+      <c r="K27" s="93">
+        <v>2</v>
+      </c>
+      <c r="L27" s="86">
+        <f>U20</f>
+        <v>8.7778511264855526E-3</v>
+      </c>
+      <c r="M27" s="85">
+        <v>2</v>
+      </c>
+      <c r="N27" s="71">
+        <f>(($B$24)^M27)*((1-($B$24))^($B$21-M27))*HLOOKUP($B$21,$AV$24:$BF$34,M27+1)</f>
+        <v>0.337062610503992</v>
+      </c>
+      <c r="O27" s="72">
+        <v>2</v>
+      </c>
+      <c r="P27" s="71">
+        <f t="shared" si="16"/>
+        <v>0.337062610503992</v>
+      </c>
+      <c r="Q27" s="28">
+        <v>2</v>
+      </c>
+      <c r="R27" s="37">
+        <f>P25*N27+P26*N26+P27*N25</f>
+        <v>7.6651573350250884E-2</v>
+      </c>
+      <c r="S27" s="72">
+        <v>2</v>
+      </c>
+      <c r="T27" s="135">
+        <f t="shared" si="17"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="U27" s="93">
+        <v>2</v>
+      </c>
+      <c r="V27" s="86">
+        <f>R27*T25+T26*R26+R25*T27</f>
+        <v>7.6094565102444056E-2</v>
+      </c>
+      <c r="W27" s="137"/>
+      <c r="X27" s="28">
+        <v>2</v>
+      </c>
+      <c r="Y27" s="73"/>
+      <c r="Z27" s="28">
+        <v>2</v>
+      </c>
+      <c r="AA27" s="79"/>
+      <c r="AB27" s="28">
+        <v>2</v>
+      </c>
+      <c r="AC27" s="79">
+        <f>((($W$25)^M27)*((1-($W$25))^($U$27-M27))*HLOOKUP($U$27,$AV$24:$BF$34,M27+1))*V27</f>
+        <v>6.1780539480660764E-3</v>
+      </c>
+      <c r="AD27" s="28">
+        <v>2</v>
+      </c>
+      <c r="AE27" s="79">
+        <f>((($W$25)^M27)*((1-($W$25))^($U$28-M27))*HLOOKUP($U$28,$AV$24:$BF$34,M27+1))*V28</f>
+        <v>2.891723370642002E-2</v>
+      </c>
+      <c r="AF27" s="28">
+        <v>2</v>
+      </c>
+      <c r="AG27" s="79">
+        <f>((($W$25)^M27)*((1-($W$25))^($U$29-M27))*HLOOKUP($U$29,$AV$24:$BF$34,M27+1))*V29</f>
+        <v>5.9247658085586366E-2</v>
+      </c>
+      <c r="AH27" s="28">
+        <v>2</v>
+      </c>
+      <c r="AI27" s="79">
+        <f>((($W$25)^M27)*((1-($W$25))^($U$30-M27))*HLOOKUP($U$30,$AV$24:$BF$34,M27+1))*V30</f>
+        <v>6.9421456189025385E-2</v>
+      </c>
+      <c r="AJ27" s="28">
+        <v>2</v>
+      </c>
+      <c r="AK27" s="79">
+        <f>((($W$25)^M27)*((1-($W$25))^($U$31-M27))*HLOOKUP($U$31,$AV$24:$BF$34,M27+1))*V31</f>
+        <v>5.0903559080151435E-2</v>
+      </c>
+      <c r="AL27" s="28">
+        <v>2</v>
+      </c>
+      <c r="AM27" s="79">
+        <f>((($W$25)^Q27)*((1-($W$25))^($U$32-Q27))*HLOOKUP($U$32,$AV$24:$BF$34,Q27+1))*V32</f>
+        <v>2.3941057717489559E-2</v>
+      </c>
+      <c r="AN27" s="28">
+        <v>2</v>
+      </c>
+      <c r="AO27" s="79">
+        <f>((($W$25)^Q27)*((1-($W$25))^($U$33-Q27))*HLOOKUP($U$33,$AV$24:$BF$34,Q27+1))*V33</f>
+        <v>7.0684451589399788E-3</v>
+      </c>
+      <c r="AP27" s="28">
+        <v>2</v>
+      </c>
+      <c r="AQ27" s="79">
+        <f>((($W$25)^Q27)*((1-($W$25))^($U$34-Q27))*HLOOKUP($U$34,$AV$24:$BF$34,Q27+1))*V34</f>
+        <v>1.2054626439471569E-3</v>
+      </c>
+      <c r="AR27" s="28">
+        <v>2</v>
+      </c>
+      <c r="AS27" s="79">
+        <f>((($W$25)^Q27)*((1-($W$25))^($U$35-Q27))*HLOOKUP($U$35,$AV$24:$BF$34,Q27+1))*V35</f>
+        <v>9.4606856773610969E-5</v>
+      </c>
+      <c r="AV27" s="14">
+        <v>3</v>
+      </c>
+      <c r="AY27">
+        <v>1</v>
+      </c>
+      <c r="AZ27">
+        <v>4</v>
+      </c>
+      <c r="BA27">
+        <v>10</v>
+      </c>
+      <c r="BB27">
+        <v>20</v>
+      </c>
+      <c r="BC27">
+        <f>15+20</f>
+        <v>35</v>
+      </c>
+      <c r="BD27">
+        <f>21+35</f>
+        <v>56</v>
+      </c>
+      <c r="BE27">
+        <f>28+56</f>
+        <v>84</v>
+      </c>
+      <c r="BF27">
+        <f>36+84</f>
+        <v>120</v>
+      </c>
+      <c r="BH27">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="BI27">
+        <v>7</v>
+      </c>
+      <c r="BJ27" s="107">
+        <f t="shared" si="13"/>
+        <v>9.9604291830448482E-3</v>
+      </c>
+      <c r="BP27">
+        <f>BP21+1</f>
+        <v>7</v>
+      </c>
+      <c r="BQ27">
+        <v>3</v>
+      </c>
+      <c r="BR27" s="107">
+        <f t="shared" si="14"/>
+        <v>3.6934051906251882E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="174">
+        <v>0.9</v>
+      </c>
+      <c r="C28" s="175">
+        <v>0.9</v>
+      </c>
+      <c r="D28" s="153">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E28" s="153">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G28" s="87">
+        <v>3</v>
+      </c>
+      <c r="H28" s="128">
+        <f>J28*L25+J27*L26+L28*J25+L27*J26</f>
+        <v>0.12063391467226153</v>
+      </c>
+      <c r="I28" s="93">
+        <v>3</v>
+      </c>
+      <c r="J28" s="86">
+        <f t="shared" si="15"/>
+        <v>9.7043068290111514E-2</v>
+      </c>
+      <c r="K28" s="93">
+        <v>3</v>
+      </c>
+      <c r="L28" s="86">
+        <f>V20</f>
+        <v>2.6572087809256274E-4</v>
+      </c>
+      <c r="M28" s="85">
+        <v>3</v>
+      </c>
+      <c r="N28" s="71">
+        <f>(($B$24)^M28)*((1-($B$24))^($B$21-M28))*HLOOKUP($B$21,$AV$24:$BF$34,M28+1)</f>
+        <v>0.27527506896162718</v>
+      </c>
+      <c r="O28" s="72">
+        <v>3</v>
+      </c>
+      <c r="P28" s="71">
+        <f t="shared" si="16"/>
+        <v>0.27527506896162718</v>
+      </c>
+      <c r="Q28" s="28">
+        <v>3</v>
+      </c>
+      <c r="R28" s="37">
+        <f>P25*N28+P26*N27+P27*N26+P28*N25</f>
+        <v>0.16693450203772661</v>
+      </c>
+      <c r="S28" s="72">
+        <v>3</v>
+      </c>
+      <c r="T28" s="135">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="93">
+        <v>3</v>
+      </c>
+      <c r="V28" s="86">
+        <f>R28*T25+R27*T26+R26*T27+R25*T28</f>
+        <v>0.16603253496023787</v>
+      </c>
+      <c r="W28" s="137"/>
+      <c r="X28" s="28">
+        <v>3</v>
+      </c>
+      <c r="Y28" s="73"/>
+      <c r="Z28" s="28">
+        <v>3</v>
+      </c>
+      <c r="AA28" s="79"/>
+      <c r="AB28" s="28">
+        <v>3</v>
+      </c>
+      <c r="AC28" s="79"/>
+      <c r="AD28" s="28">
+        <v>3</v>
+      </c>
+      <c r="AE28" s="79">
+        <f>((($W$25)^M28)*((1-($W$25))^($U$28-M28))*HLOOKUP($U$28,$AV$24:$BF$34,M28+1))*V28</f>
+        <v>3.8409644206929871E-3</v>
+      </c>
+      <c r="AF28" s="28">
+        <v>3</v>
+      </c>
+      <c r="AG28" s="79">
+        <f>((($W$25)^M28)*((1-($W$25))^($U$29-M28))*HLOOKUP($U$29,$AV$24:$BF$34,M28+1))*V29</f>
+        <v>1.5739274996113974E-2</v>
+      </c>
+      <c r="AH28" s="28">
+        <v>3</v>
+      </c>
+      <c r="AI28" s="79">
+        <f>((($W$25)^M28)*((1-($W$25))^($U$30-M28))*HLOOKUP($U$30,$AV$24:$BF$34,M28+1))*V30</f>
+        <v>2.7662951369606059E-2</v>
+      </c>
+      <c r="AJ28" s="28">
+        <v>3</v>
+      </c>
+      <c r="AK28" s="79">
+        <f>((($W$25)^M28)*((1-($W$25))^($U$31-M28))*HLOOKUP($U$31,$AV$24:$BF$34,M28+1))*V31</f>
+        <v>2.7045292270829795E-2</v>
+      </c>
+      <c r="AL28" s="28">
+        <v>3</v>
+      </c>
+      <c r="AM28" s="79">
+        <f>((($W$25)^Q28)*((1-($W$25))^($U$32-Q28))*HLOOKUP($U$32,$AV$24:$BF$34,Q28+1))*V32</f>
+        <v>1.5899990956987527E-2</v>
+      </c>
+      <c r="AN28" s="28">
+        <v>3</v>
+      </c>
+      <c r="AO28" s="79">
+        <f>((($W$25)^Q28)*((1-($W$25))^($U$33-Q28))*HLOOKUP($U$33,$AV$24:$BF$34,Q28+1))*V33</f>
+        <v>5.6332455533076378E-3</v>
+      </c>
+      <c r="AP28" s="28">
+        <v>3</v>
+      </c>
+      <c r="AQ28" s="79">
+        <f>((($W$25)^Q28)*((1-($W$25))^($U$34-Q28))*HLOOKUP($U$34,$AV$24:$BF$34,Q28+1))*V34</f>
+        <v>1.1208186166829994E-3</v>
+      </c>
+      <c r="AR28" s="28">
+        <v>3</v>
+      </c>
+      <c r="AS28" s="79">
+        <f>((($W$25)^Q28)*((1-($W$25))^($U$35-Q28))*HLOOKUP($U$35,$AV$24:$BF$34,Q28+1))*V35</f>
+        <v>1.0053010589055383E-4</v>
+      </c>
+      <c r="AV28" s="14">
+        <v>4</v>
+      </c>
+      <c r="AZ28">
+        <v>1</v>
+      </c>
+      <c r="BA28">
+        <v>5</v>
+      </c>
+      <c r="BB28">
+        <v>15</v>
+      </c>
+      <c r="BC28">
+        <f>20+15</f>
+        <v>35</v>
+      </c>
+      <c r="BD28">
+        <f>35+35</f>
+        <v>70</v>
+      </c>
+      <c r="BE28">
+        <f>56+70</f>
+        <v>126</v>
+      </c>
+      <c r="BF28">
+        <f>BE27+BE28</f>
+        <v>210</v>
+      </c>
+      <c r="BH28">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="BI28">
+        <v>8</v>
+      </c>
+      <c r="BJ28" s="107">
+        <f t="shared" si="13"/>
+        <v>3.0252242401596721E-3</v>
+      </c>
+      <c r="BP28">
+        <f>BP22+1</f>
+        <v>7</v>
+      </c>
+      <c r="BQ28">
+        <v>4</v>
+      </c>
+      <c r="BR28" s="107">
+        <f t="shared" si="14"/>
+        <v>3.7922497623858448E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="123">
+        <f>1/(1+EXP(-3.1416*4*((B14/(B14+C13))-(3.1416/6))))</f>
+        <v>6.0651982906511165E-2</v>
+      </c>
+      <c r="C29" s="118">
+        <f>1/(1+EXP(-3.1416*4*((C14/(C14+B13))-(3.1416/6))))</f>
+        <v>0.7601317922144466</v>
+      </c>
+      <c r="D29" s="153">
+        <v>0.04</v>
+      </c>
+      <c r="E29" s="153">
+        <v>0.04</v>
+      </c>
+      <c r="G29" s="87">
+        <v>4</v>
+      </c>
+      <c r="H29" s="128">
+        <f>J29*L25+J28*L26+J27*L27+J26*L28</f>
+        <v>3.7230981316519612E-2</v>
+      </c>
+      <c r="I29" s="93">
+        <v>4</v>
+      </c>
+      <c r="J29" s="86">
+        <f t="shared" si="15"/>
+        <v>2.5043956396611795E-2</v>
+      </c>
+      <c r="K29" s="93">
+        <v>4</v>
+      </c>
+      <c r="L29" s="86"/>
+      <c r="M29" s="85">
+        <v>4</v>
+      </c>
+      <c r="N29" s="71">
+        <f>(($B$24)^M29)*((1-($B$24))^($B$21-M29))*HLOOKUP($B$21,$AV$24:$BF$34,M29+1)</f>
+        <v>0.11240695531094977</v>
+      </c>
+      <c r="O29" s="72">
+        <v>4</v>
+      </c>
+      <c r="P29" s="71">
+        <f t="shared" si="16"/>
+        <v>0.11240695531094977</v>
+      </c>
+      <c r="Q29" s="28">
+        <v>4</v>
+      </c>
+      <c r="R29" s="37">
+        <f>P25*N29+P26*N28+P27*N27+P28*N26+P29*N25</f>
+        <v>0.2385835271395082</v>
+      </c>
+      <c r="S29" s="72">
+        <v>4</v>
+      </c>
+      <c r="T29" s="135">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="93">
+        <v>4</v>
+      </c>
+      <c r="V29" s="86">
+        <f>T29*R25+T28*R26+T27*R27+T26*R28+T25*R29</f>
+        <v>0.23786657104090075</v>
+      </c>
+      <c r="W29" s="137"/>
+      <c r="X29" s="28">
+        <v>4</v>
+      </c>
+      <c r="Y29" s="73"/>
+      <c r="Z29" s="28">
+        <v>4</v>
+      </c>
+      <c r="AA29" s="79"/>
+      <c r="AB29" s="28">
+        <v>4</v>
+      </c>
+      <c r="AC29" s="79"/>
+      <c r="AD29" s="28">
+        <v>4</v>
+      </c>
+      <c r="AE29" s="79"/>
+      <c r="AF29" s="28">
+        <v>4</v>
+      </c>
+      <c r="AG29" s="79">
+        <f>((($W$25)^M29)*((1-($W$25))^($U$29-M29))*HLOOKUP($U$29,$AV$24:$BF$34,M29+1))*V29</f>
+        <v>1.5679403123755986E-3</v>
+      </c>
+      <c r="AH29" s="28">
+        <v>4</v>
+      </c>
+      <c r="AI29" s="79">
+        <f>((($W$25)^M29)*((1-($W$25))^($U$30-M29))*HLOOKUP($U$30,$AV$24:$BF$34,M29+1))*V30</f>
+        <v>5.5115444164232624E-3</v>
+      </c>
+      <c r="AJ29" s="28">
+        <v>4</v>
+      </c>
+      <c r="AK29" s="79">
+        <f>((($W$25)^M29)*((1-($W$25))^($U$31-M29))*HLOOKUP($U$31,$AV$24:$BF$34,M29+1))*V31</f>
+        <v>8.0827237636836753E-3</v>
+      </c>
+      <c r="AL29" s="28">
+        <v>4</v>
+      </c>
+      <c r="AM29" s="79">
+        <f>((($W$25)^Q29)*((1-($W$25))^($U$32-Q29))*HLOOKUP($U$32,$AV$24:$BF$34,Q29+1))*V32</f>
+        <v>6.3358030897925069E-3</v>
+      </c>
+      <c r="AN29" s="28">
+        <v>4</v>
+      </c>
+      <c r="AO29" s="79">
+        <f>((($W$25)^Q29)*((1-($W$25))^($U$33-Q29))*HLOOKUP($U$33,$AV$24:$BF$34,Q29+1))*V33</f>
+        <v>2.8059084026177804E-3</v>
+      </c>
+      <c r="AP29" s="28">
+        <v>4</v>
+      </c>
+      <c r="AQ29" s="79">
+        <f>((($W$25)^Q29)*((1-($W$25))^($U$34-Q29))*HLOOKUP($U$34,$AV$24:$BF$34,Q29+1))*V34</f>
+        <v>6.6993302768732037E-4</v>
+      </c>
+      <c r="AR29" s="28">
+        <v>4</v>
+      </c>
+      <c r="AS29" s="79">
+        <f>((($W$25)^Q29)*((1-($W$25))^($U$35-Q29))*HLOOKUP($U$35,$AV$24:$BF$34,Q29+1))*V35</f>
+        <v>7.0103384031649E-5</v>
+      </c>
+      <c r="AV29" s="14">
+        <v>5</v>
+      </c>
+      <c r="BA29">
+        <v>1</v>
+      </c>
+      <c r="BB29">
+        <v>6</v>
+      </c>
+      <c r="BC29">
+        <f>15+6</f>
+        <v>21</v>
+      </c>
+      <c r="BD29">
+        <f>35+21</f>
+        <v>56</v>
+      </c>
+      <c r="BE29">
+        <f>70+56</f>
+        <v>126</v>
+      </c>
+      <c r="BF29">
+        <f t="shared" ref="BF29:BF34" si="18">BE28+BE29</f>
+        <v>252</v>
+      </c>
+      <c r="BH29">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="BI29">
+        <v>9</v>
+      </c>
+      <c r="BJ29" s="107">
+        <f t="shared" si="13"/>
+        <v>6.8504058204634617E-4</v>
+      </c>
+      <c r="BP29">
+        <f>BP23+1</f>
+        <v>7</v>
+      </c>
+      <c r="BQ29">
+        <v>5</v>
+      </c>
+      <c r="BR29" s="107">
+        <f t="shared" si="14"/>
+        <v>2.7854825395772114E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" s="174">
+        <v>0.15</v>
+      </c>
+      <c r="C30" s="175">
+        <v>0.15</v>
+      </c>
+      <c r="D30" s="153">
+        <f>IF(B17="TL",0.875*B32,0.001)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="E30" s="153">
+        <f>IF(C17="TL",0.875*C32,0.001)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="G30" s="87">
+        <v>5</v>
+      </c>
+      <c r="H30" s="128">
+        <f>J30*L25+J29*L26+J28*L27+J27*L28</f>
+        <v>8.2186592388522918E-3</v>
+      </c>
+      <c r="I30" s="93">
+        <v>5</v>
+      </c>
+      <c r="J30" s="86">
+        <f t="shared" si="15"/>
+        <v>4.4373216881917008E-3</v>
+      </c>
+      <c r="K30" s="93">
+        <v>5</v>
+      </c>
+      <c r="L30" s="86"/>
+      <c r="M30" s="85">
+        <v>5</v>
+      </c>
+      <c r="N30" s="71">
+        <f>(($B$24)^M30)*((1-($B$24))^($B$21-M30))*HLOOKUP($B$21,$AV$24:$BF$34,M30+1)</f>
+        <v>1.8360287620582453E-2</v>
+      </c>
+      <c r="O30" s="72">
+        <v>5</v>
+      </c>
+      <c r="P30" s="71">
+        <f t="shared" si="16"/>
+        <v>1.8360287620582453E-2</v>
+      </c>
+      <c r="Q30" s="28">
+        <v>5</v>
+      </c>
+      <c r="R30" s="37">
+        <f>P25*N30+P26*N29+P27*N28+P28*N27+P29*N26+P30*N25</f>
+        <v>0.23381803204419865</v>
+      </c>
+      <c r="S30" s="72">
+        <v>5</v>
+      </c>
+      <c r="T30" s="135">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="93">
+        <v>5</v>
+      </c>
+      <c r="V30" s="86">
+        <f>T30*R25+T29*R26+T28*R27+T27*R28+T26*R29+T25*R30</f>
+        <v>0.23386377663214683</v>
+      </c>
+      <c r="W30" s="137"/>
+      <c r="X30" s="28">
+        <v>5</v>
+      </c>
+      <c r="Y30" s="73"/>
+      <c r="Z30" s="28">
+        <v>5</v>
+      </c>
+      <c r="AA30" s="79"/>
+      <c r="AB30" s="28">
+        <v>5</v>
+      </c>
+      <c r="AC30" s="79"/>
+      <c r="AD30" s="28">
+        <v>5</v>
+      </c>
+      <c r="AE30" s="79"/>
+      <c r="AF30" s="28">
+        <v>5</v>
+      </c>
+      <c r="AG30" s="79"/>
+      <c r="AH30" s="28">
+        <v>5</v>
+      </c>
+      <c r="AI30" s="79">
+        <f>((($W$25)^M30)*((1-($W$25))^($U$30-M30))*HLOOKUP($U$30,$AV$24:$BF$34,M30+1))*V30</f>
+        <v>4.3924628935410704E-4</v>
+      </c>
+      <c r="AJ30" s="28">
+        <v>5</v>
+      </c>
+      <c r="AK30" s="79">
+        <f>((($W$25)^M30)*((1-($W$25))^($U$31-M30))*HLOOKUP($U$31,$AV$24:$BF$34,M30+1))*V31</f>
+        <v>1.2883163602902803E-3</v>
+      </c>
+      <c r="AL30" s="28">
+        <v>5</v>
+      </c>
+      <c r="AM30" s="79">
+        <f>((($W$25)^Q30)*((1-($W$25))^($U$32-Q30))*HLOOKUP($U$32,$AV$24:$BF$34,Q30+1))*V32</f>
+        <v>1.5148084386167402E-3</v>
+      </c>
+      <c r="AN30" s="28">
+        <v>5</v>
+      </c>
+      <c r="AO30" s="79">
+        <f>((($W$25)^Q30)*((1-($W$25))^($U$33-Q30))*HLOOKUP($U$33,$AV$24:$BF$34,Q30+1))*V33</f>
+        <v>8.9447513146755748E-4</v>
+      </c>
+      <c r="AP30" s="28">
+        <v>5</v>
+      </c>
+      <c r="AQ30" s="79">
+        <f>((($W$25)^Q30)*((1-($W$25))^($U$34-Q30))*HLOOKUP($U$34,$AV$24:$BF$34,Q30+1))*V34</f>
+        <v>2.6695384659385768E-4</v>
+      </c>
+      <c r="AR30" s="28">
+        <v>5</v>
+      </c>
+      <c r="AS30" s="79">
+        <f>((($W$25)^Q30)*((1-($W$25))^($U$35-Q30))*HLOOKUP($U$35,$AV$24:$BF$34,Q30+1))*V35</f>
+        <v>3.3521621869157453E-5</v>
+      </c>
+      <c r="AV30" s="29">
+        <v>6</v>
+      </c>
+      <c r="BB30">
+        <v>1</v>
+      </c>
+      <c r="BC30">
+        <v>7</v>
+      </c>
+      <c r="BD30">
+        <f>28</f>
+        <v>28</v>
+      </c>
+      <c r="BE30">
+        <f>56+28</f>
+        <v>84</v>
+      </c>
+      <c r="BF30">
+        <f t="shared" si="18"/>
+        <v>210</v>
+      </c>
+      <c r="BH30">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="BI30">
+        <v>10</v>
+      </c>
+      <c r="BJ30" s="107">
+        <f t="shared" si="13"/>
+        <v>1.1334669527443676E-4</v>
+      </c>
+      <c r="BP30">
+        <f>BL10+1</f>
+        <v>7</v>
+      </c>
+      <c r="BQ30">
+        <v>6</v>
+      </c>
+      <c r="BR30" s="107">
+        <f t="shared" si="14"/>
+        <v>1.5075972602355914E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A31" s="189" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="60">
+        <f>(B25*D25)+(B26*D26)+(B27*D27)+(B28*D28)+(B29*D29)+(B30*D30)/(B25+B26+B27+B28+B29+B30)</f>
+        <v>0.28493711879428002</v>
+      </c>
+      <c r="C31" s="61">
+        <f>(C25*E25)+(C26*E26)+(C27*E27)+(C28*E28)+(C29*E29)+(C30*E30)/(C25+C26+C27+C28+C29+C30)</f>
+        <v>0.59859736216224324</v>
+      </c>
+      <c r="G31" s="87">
+        <v>6</v>
+      </c>
+      <c r="H31" s="128">
+        <f>J31*L25+J30*L26+J29*L27+J28*L28</f>
+        <v>1.3359445119046625E-3</v>
+      </c>
+      <c r="I31" s="93">
+        <v>6</v>
+      </c>
+      <c r="J31" s="86">
+        <f t="shared" si="15"/>
+        <v>5.4702997206594183E-4</v>
+      </c>
+      <c r="K31" s="93">
+        <v>6</v>
+      </c>
+      <c r="L31" s="86"/>
+      <c r="M31" s="85"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="28">
+        <v>6</v>
+      </c>
+      <c r="R31" s="37">
+        <f>P26*N30+P27*N29+P28*N28+P29*N27+P30*N26</f>
+        <v>0.15913036354284005</v>
+      </c>
+      <c r="S31" s="70">
+        <v>6</v>
+      </c>
+      <c r="T31" s="135">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="93">
+        <v>6</v>
+      </c>
+      <c r="V31" s="86">
+        <f>T31*R25+T30*R26+T29*R27+T28*R28+T27*R29+T26*R30+T25*R31</f>
+        <v>0.15987549217351849</v>
+      </c>
+      <c r="W31" s="137"/>
+      <c r="X31" s="28">
+        <v>6</v>
+      </c>
+      <c r="Y31" s="73"/>
+      <c r="Z31" s="28">
+        <v>6</v>
+      </c>
+      <c r="AA31" s="79"/>
+      <c r="AB31" s="28">
+        <v>6</v>
+      </c>
+      <c r="AC31" s="79"/>
+      <c r="AD31" s="28">
+        <v>6</v>
+      </c>
+      <c r="AE31" s="79"/>
+      <c r="AF31" s="28">
+        <v>6</v>
+      </c>
+      <c r="AG31" s="79"/>
+      <c r="AH31" s="28">
+        <v>6</v>
+      </c>
+      <c r="AI31" s="79"/>
+      <c r="AJ31" s="28">
+        <v>6</v>
+      </c>
+      <c r="AK31" s="79">
+        <f>((($W$25)^Q31)*((1-($W$25))^($U$31-Q31))*HLOOKUP($U$31,$AV$24:$BF$34,Q31+1))*V31</f>
+        <v>8.5561042123006515E-5</v>
+      </c>
+      <c r="AL31" s="28">
+        <v>6</v>
+      </c>
+      <c r="AM31" s="79">
+        <f>((($W$25)^Q31)*((1-($W$25))^($U$32-Q31))*HLOOKUP($U$32,$AV$24:$BF$34,Q31+1))*V32</f>
+        <v>2.0120615187339474E-4</v>
+      </c>
+      <c r="AN31" s="28">
+        <v>6</v>
+      </c>
+      <c r="AO31" s="79">
+        <f>((($W$25)^Q31)*((1-($W$25))^($U$33-Q31))*HLOOKUP($U$33,$AV$24:$BF$34,Q31+1))*V33</f>
+        <v>1.782145133612215E-4</v>
+      </c>
+      <c r="AP31" s="28">
+        <v>6</v>
+      </c>
+      <c r="AQ31" s="79">
+        <f>((($W$25)^Q31)*((1-($W$25))^($U$34-Q31))*HLOOKUP($U$34,$AV$24:$BF$34,Q31+1))*V34</f>
+        <v>7.0916895934378224E-5</v>
+      </c>
+      <c r="AR31" s="28">
+        <v>6</v>
+      </c>
+      <c r="AS31" s="79">
+        <f>((($W$25)^Q31)*((1-($W$25))^($U$35-Q31))*HLOOKUP($U$35,$AV$24:$BF$34,Q31+1))*V35</f>
+        <v>1.1131368773940874E-5</v>
+      </c>
+      <c r="AV31" s="14">
+        <v>7</v>
+      </c>
+      <c r="BC31">
+        <v>1</v>
+      </c>
+      <c r="BD31">
+        <v>8</v>
+      </c>
+      <c r="BE31">
+        <f>28+8</f>
+        <v>36</v>
+      </c>
+      <c r="BF31">
+        <f t="shared" si="18"/>
+        <v>120</v>
+      </c>
+      <c r="BH31">
+        <f t="shared" ref="BH31:BH37" si="19">BH24+1</f>
+        <v>3</v>
+      </c>
+      <c r="BI31">
+        <v>4</v>
+      </c>
+      <c r="BJ31" s="107">
+        <f t="shared" ref="BJ31:BJ37" si="20">$H$28*H43</f>
+        <v>2.8216865244374573E-2</v>
+      </c>
+      <c r="BP31">
+        <f t="shared" ref="BP31:BP37" si="21">BP24+1</f>
+        <v>8</v>
+      </c>
+      <c r="BQ31">
+        <v>0</v>
+      </c>
+      <c r="BR31" s="107">
+        <f t="shared" ref="BR31:BR38" si="22">$H$33*H39</f>
+        <v>1.6233216420672105E-7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" s="75">
+        <f>IF(B17&lt;&gt;"TL",0.001,IF(B18&lt;5,0.1,IF(B18&lt;10,0.2,IF(B18&lt;14,0.3,0.35))))</f>
+        <v>1E-3</v>
+      </c>
+      <c r="C32" s="58">
+        <f>IF(C17&lt;&gt;"TL",0.001,IF(C18&lt;5,0.1,IF(C18&lt;10,0.2,IF(C18&lt;14,0.3,0.35))))</f>
+        <v>1E-3</v>
+      </c>
+      <c r="G32" s="87">
+        <v>7</v>
+      </c>
+      <c r="H32" s="128">
+        <f>J32*L25+J31*L26+J30*L27+J29*L28</f>
+        <v>1.6212783747931103E-4</v>
+      </c>
+      <c r="I32" s="93">
+        <v>7</v>
+      </c>
+      <c r="J32" s="86">
+        <f t="shared" si="15"/>
+        <v>4.6389224904201985E-5</v>
+      </c>
+      <c r="K32" s="93">
+        <v>7</v>
+      </c>
+      <c r="L32" s="86"/>
+      <c r="M32" s="85"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="28">
+        <v>7</v>
+      </c>
+      <c r="R32" s="37">
+        <f>P27*N30+P28*N29+P29*N28+P30*N27</f>
+        <v>7.426279769997178E-2</v>
+      </c>
+      <c r="S32" s="72">
+        <v>7</v>
+      </c>
+      <c r="T32" s="135">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="93">
+        <v>7</v>
+      </c>
+      <c r="V32" s="86">
+        <f>T32*R25+T31*R26+T30*R27+T29*R28+T28*R29+T27*R30+T26*R31+T25*R32</f>
+        <v>7.511121886096693E-2</v>
+      </c>
+      <c r="W32" s="137"/>
+      <c r="X32" s="28">
+        <v>7</v>
+      </c>
+      <c r="Y32" s="73"/>
+      <c r="Z32" s="28">
+        <v>7</v>
+      </c>
+      <c r="AA32" s="79"/>
+      <c r="AB32" s="28">
+        <v>7</v>
+      </c>
+      <c r="AC32" s="79"/>
+      <c r="AD32" s="28">
+        <v>7</v>
+      </c>
+      <c r="AE32" s="79"/>
+      <c r="AF32" s="28">
+        <v>7</v>
+      </c>
+      <c r="AG32" s="79"/>
+      <c r="AH32" s="28">
+        <v>7</v>
+      </c>
+      <c r="AI32" s="79"/>
+      <c r="AJ32" s="28">
+        <v>7</v>
+      </c>
+      <c r="AK32" s="79"/>
+      <c r="AL32" s="28">
+        <v>7</v>
+      </c>
+      <c r="AM32" s="79">
+        <f>((($W$25)^Q32)*((1-($W$25))^($U$32-Q32))*HLOOKUP($U$32,$AV$24:$BF$34,Q32+1))*V32</f>
+        <v>1.1453758164960112E-5</v>
+      </c>
+      <c r="AN32" s="28">
+        <v>7</v>
+      </c>
+      <c r="AO32" s="79">
+        <f>((($W$25)^Q32)*((1-($W$25))^($U$33-Q32))*HLOOKUP($U$33,$AV$24:$BF$34,Q32+1))*V33</f>
+        <v>2.0289895895527965E-5</v>
+      </c>
+      <c r="AP32" s="28">
+        <v>7</v>
+      </c>
+      <c r="AQ32" s="79">
+        <f>((($W$25)^Q32)*((1-($W$25))^($U$34-Q32))*HLOOKUP($U$34,$AV$24:$BF$34,Q32+1))*V34</f>
+        <v>1.2110936493926595E-5</v>
+      </c>
+      <c r="AR32" s="28">
+        <v>7</v>
+      </c>
+      <c r="AS32" s="79">
+        <f>((($W$25)^Q32)*((1-($W$25))^($U$35-Q32))*HLOOKUP($U$35,$AV$24:$BF$34,Q32+1))*V35</f>
+        <v>2.5346343497873131E-6</v>
+      </c>
+      <c r="AV32" s="14">
+        <v>8</v>
+      </c>
+      <c r="BD32">
+        <v>1</v>
+      </c>
+      <c r="BE32">
+        <v>9</v>
+      </c>
+      <c r="BF32">
+        <f t="shared" si="18"/>
+        <v>45</v>
+      </c>
+      <c r="BH32">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="BI32">
+        <v>5</v>
+      </c>
+      <c r="BJ32" s="107">
+        <f t="shared" si="20"/>
+        <v>2.0725846234969446E-2</v>
+      </c>
+      <c r="BP32">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="BQ32">
+        <v>1</v>
+      </c>
+      <c r="BR32" s="107">
+        <f t="shared" si="22"/>
+        <v>8.8512915062871695E-7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="75">
+        <f>IF(B17&lt;&gt;"CA",0.005,IF((B18-B16)&lt;0,0.1,0.1+0.055*(B18-B16)))</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C33" s="58">
+        <f>IF(C17&lt;&gt;"CA",0.005,IF((C18-C16)&lt;0,0.1,0.1+0.055*(C18-C16)))</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G33" s="87">
+        <v>8</v>
+      </c>
+      <c r="H33" s="128">
+        <f>J33*L25+J32*L26+J31*L27+J30*L28</f>
+        <v>1.4724853052399642E-5</v>
+      </c>
+      <c r="I33" s="93">
+        <v>8</v>
+      </c>
+      <c r="J33" s="86">
+        <f t="shared" si="15"/>
+        <v>2.5958712504249612E-6</v>
+      </c>
+      <c r="K33" s="93">
+        <v>8</v>
+      </c>
+      <c r="L33" s="86"/>
+      <c r="M33" s="85"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="28">
+        <v>8</v>
+      </c>
+      <c r="R33" s="37">
+        <f>P28*N30+P29*N29+P30*N28</f>
+        <v>2.2743582484100147E-2</v>
+      </c>
+      <c r="S33" s="72">
+        <v>8</v>
+      </c>
+      <c r="T33" s="135">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="93">
+        <v>8</v>
+      </c>
+      <c r="V33" s="86">
+        <f>T33*R25+T32*R26+T31*R27+T30*R28+T29*R29+T28*R30+T27*R31+T26*R32+T25*R33</f>
+        <v>2.3259608345024538E-2</v>
+      </c>
+      <c r="W33" s="137"/>
+      <c r="X33" s="28">
+        <v>8</v>
+      </c>
+      <c r="Y33" s="73"/>
+      <c r="Z33" s="28">
+        <v>8</v>
+      </c>
+      <c r="AA33" s="79"/>
+      <c r="AB33" s="28">
+        <v>8</v>
+      </c>
+      <c r="AC33" s="79"/>
+      <c r="AD33" s="28">
+        <v>8</v>
+      </c>
+      <c r="AE33" s="79"/>
+      <c r="AF33" s="28">
+        <v>8</v>
+      </c>
+      <c r="AG33" s="79"/>
+      <c r="AH33" s="28">
+        <v>8</v>
+      </c>
+      <c r="AI33" s="79"/>
+      <c r="AJ33" s="28">
+        <v>8</v>
+      </c>
+      <c r="AK33" s="79"/>
+      <c r="AL33" s="28">
+        <v>8</v>
+      </c>
+      <c r="AM33" s="79"/>
+      <c r="AN33" s="28">
+        <v>8</v>
+      </c>
+      <c r="AO33" s="79">
+        <f>((($W$25)^Q33)*((1-($W$25))^($U$33-Q33))*HLOOKUP($U$33,$AV$24:$BF$34,Q33+1))*V33</f>
+        <v>1.0106356778300525E-6</v>
+      </c>
+      <c r="AP33" s="28">
+        <v>8</v>
+      </c>
+      <c r="AQ33" s="79">
+        <f>((($W$25)^Q33)*((1-($W$25))^($U$34-Q33))*HLOOKUP($U$34,$AV$24:$BF$34,Q33+1))*V34</f>
+        <v>1.2064866745219675E-6</v>
+      </c>
+      <c r="AR33" s="28">
+        <v>8</v>
+      </c>
+      <c r="AS33" s="79">
+        <f>((($W$25)^Q33)*((1-($W$25))^($U$35-Q33))*HLOOKUP($U$35,$AV$24:$BF$34,Q33+1))*V35</f>
+        <v>3.7874889807294118E-7</v>
+      </c>
+      <c r="AV33" s="29">
+        <v>9</v>
+      </c>
+      <c r="BE33">
+        <v>1</v>
+      </c>
+      <c r="BF33">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="BH33">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="BI33">
+        <v>6</v>
+      </c>
+      <c r="BJ33" s="107">
+        <f t="shared" si="20"/>
+        <v>1.1217528222110747E-2</v>
+      </c>
+      <c r="BP33">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="BQ33">
+        <v>2</v>
+      </c>
+      <c r="BR33" s="107">
+        <f t="shared" si="22"/>
+        <v>2.2120365451775598E-6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A34" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="56">
+        <f>B23*2</f>
+        <v>4.4954782008818555</v>
+      </c>
+      <c r="C34" s="57">
+        <f>C23*2</f>
+        <v>5.5045217991181445</v>
+      </c>
+      <c r="G34" s="87">
+        <v>9</v>
+      </c>
+      <c r="H34" s="128">
+        <f>J34*L25+J33*L26+J32*L27+J31*L28</f>
+        <v>9.9229606334709401E-7</v>
+      </c>
+      <c r="I34" s="93">
+        <v>9</v>
+      </c>
+      <c r="J34" s="86">
+        <f t="shared" si="15"/>
+        <v>8.6956156217137053E-8</v>
+      </c>
+      <c r="K34" s="93">
+        <v>9</v>
+      </c>
+      <c r="L34" s="86"/>
+      <c r="M34" s="85"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="28">
+        <v>9</v>
+      </c>
+      <c r="R34" s="37">
+        <f>P29*N30+P30*N29</f>
+        <v>4.1276480601259921E-3</v>
+      </c>
+      <c r="S34" s="72">
+        <v>9</v>
+      </c>
+      <c r="T34" s="135">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="93">
+        <v>9</v>
+      </c>
+      <c r="V34" s="86">
+        <f>T34*R25+T33*R26+T32*R27+T31*R28+T30*R29+T29*R30+T28*R31+T27*R32+T26*R33+T25*R34</f>
+        <v>4.3146299863855309E-3</v>
+      </c>
+      <c r="W34" s="137"/>
+      <c r="X34" s="28">
+        <v>9</v>
+      </c>
+      <c r="Y34" s="73"/>
+      <c r="Z34" s="28">
+        <v>9</v>
+      </c>
+      <c r="AA34" s="79"/>
+      <c r="AB34" s="28">
+        <v>9</v>
+      </c>
+      <c r="AC34" s="79"/>
+      <c r="AD34" s="28">
+        <v>9</v>
+      </c>
+      <c r="AE34" s="79"/>
+      <c r="AF34" s="28">
+        <v>9</v>
+      </c>
+      <c r="AG34" s="79"/>
+      <c r="AH34" s="28">
+        <v>9</v>
+      </c>
+      <c r="AI34" s="79"/>
+      <c r="AJ34" s="28">
+        <v>9</v>
+      </c>
+      <c r="AK34" s="79"/>
+      <c r="AL34" s="28">
+        <v>9</v>
+      </c>
+      <c r="AM34" s="79"/>
+      <c r="AN34" s="28">
+        <v>9</v>
+      </c>
+      <c r="AO34" s="79"/>
+      <c r="AP34" s="28">
+        <v>9</v>
+      </c>
+      <c r="AQ34" s="79">
+        <f>((($W$25)^Q34)*((1-($W$25))^($U$34-Q34))*HLOOKUP($U$34,$AV$24:$BF$34,Q34+1))*V34</f>
+        <v>5.3417654421652026E-8</v>
+      </c>
+      <c r="AR34" s="28">
+        <v>9</v>
+      </c>
+      <c r="AS34" s="79">
+        <f>((($W$25)^Q34)*((1-($W$25))^($U$35-Q34))*HLOOKUP($U$35,$AV$24:$BF$34,Q34+1))*V35</f>
+        <v>3.3538501795485027E-8</v>
+      </c>
+      <c r="AV34" s="14">
+        <v>10</v>
+      </c>
+      <c r="BF34">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="BH34">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="BI34">
+        <v>7</v>
+      </c>
+      <c r="BJ34" s="107">
+        <f t="shared" si="20"/>
+        <v>4.539617047054652E-3</v>
+      </c>
+      <c r="BP34">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="BQ34">
+        <v>3</v>
+      </c>
+      <c r="BR34" s="107">
+        <f t="shared" si="22"/>
+        <v>3.3544423672378893E-6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G35" s="88">
+        <v>10</v>
+      </c>
+      <c r="H35" s="129">
+        <f>J35*L25+J34*L26+J33*L27+J32*L28</f>
+        <v>4.8503150132474202E-8</v>
+      </c>
+      <c r="I35" s="94">
+        <v>10</v>
+      </c>
+      <c r="J35" s="89">
+        <f t="shared" si="15"/>
+        <v>1.3364368814905625E-9</v>
+      </c>
+      <c r="K35" s="94">
+        <v>10</v>
+      </c>
+      <c r="L35" s="89"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="28">
+        <v>10</v>
+      </c>
+      <c r="R35" s="37">
+        <f>P30*N30</f>
+        <v>3.3710016151051325E-4</v>
+      </c>
+      <c r="S35" s="72">
+        <v>10</v>
+      </c>
+      <c r="T35" s="135">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="94">
+        <v>10</v>
+      </c>
+      <c r="V35" s="89">
+        <f>IF(((T35*R25+T34*R26+T33*R27+T32*R28+T31*R29+T30*R30+T29*R31+T28*R32+T27*R33+T26*R34+T25*R35)+V23)&lt;&gt;1,1-V23,(T35*R25+T34*R26+T33*R27+T32*R28+T31*R29+T30*R30+T29*R31+T28*R32+T27*R33+T26*R34+T25*R35))</f>
+        <v>3.7884204047178294E-4</v>
+      </c>
+      <c r="W35" s="137"/>
+      <c r="X35" s="28">
+        <v>10</v>
+      </c>
+      <c r="Y35" s="73"/>
+      <c r="Z35" s="28">
+        <v>10</v>
+      </c>
+      <c r="AA35" s="79"/>
+      <c r="AB35" s="28">
+        <v>10</v>
+      </c>
+      <c r="AC35" s="79"/>
+      <c r="AD35" s="28">
+        <v>10</v>
+      </c>
+      <c r="AE35" s="79"/>
+      <c r="AF35" s="28">
+        <v>10</v>
+      </c>
+      <c r="AG35" s="79"/>
+      <c r="AH35" s="28">
+        <v>10</v>
+      </c>
+      <c r="AI35" s="79"/>
+      <c r="AJ35" s="28">
+        <v>10</v>
+      </c>
+      <c r="AK35" s="79"/>
+      <c r="AL35" s="28">
+        <v>10</v>
+      </c>
+      <c r="AM35" s="79"/>
+      <c r="AN35" s="28">
+        <v>10</v>
+      </c>
+      <c r="AO35" s="79"/>
+      <c r="AP35" s="28">
+        <v>10</v>
+      </c>
+      <c r="AQ35" s="79"/>
+      <c r="AR35" s="28">
+        <v>10</v>
+      </c>
+      <c r="AS35" s="79">
+        <f>((($W$25)^Q35)*((1-($W$25))^($U$35-Q35))*HLOOKUP($U$35,$AV$24:$BF$34,Q35+1))*V35</f>
+        <v>1.3364368814905625E-9</v>
+      </c>
+      <c r="BH35">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="BI35">
+        <v>8</v>
+      </c>
+      <c r="BJ35" s="107">
+        <f t="shared" si="20"/>
+        <v>1.3787919455488353E-3</v>
+      </c>
+      <c r="BP35">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="BQ35">
+        <v>4</v>
+      </c>
+      <c r="BR35" s="107">
+        <f t="shared" si="22"/>
+        <v>3.4442154633842415E-6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="108">
+        <f>SUM(B37:B39)</f>
+        <v>0.99994661683534802</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="59">
+        <f>SUM(V39:V49)</f>
+        <v>1</v>
+      </c>
+      <c r="W36" s="13"/>
+      <c r="X36" s="13"/>
+      <c r="AS36" s="82">
+        <f>Y37+AA37+AC37+AE37+AG37+AI37+AK37+AM37+AO37+AQ37+AS37</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="BH36">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="BI36">
+        <v>9</v>
+      </c>
+      <c r="BJ36" s="107">
+        <f t="shared" si="20"/>
+        <v>3.1221766121037551E-4</v>
+      </c>
+      <c r="BP36">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="BQ36">
+        <v>5</v>
+      </c>
+      <c r="BR36" s="107">
+        <f t="shared" si="22"/>
+        <v>2.5298444556465139E-6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="109" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="107">
+        <f>SUM(BN4:BN14)</f>
+        <v>0.1010559425848194</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="59">
+        <f>SUM(H39:H49)</f>
+        <v>0.99994666699164747</v>
+      </c>
+      <c r="I37" s="13"/>
+      <c r="J37" s="59">
+        <f>SUM(J39:J49)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59">
+        <f>SUM(L39:L49)</f>
+        <v>1</v>
+      </c>
+      <c r="M37" s="13"/>
+      <c r="N37" s="74">
+        <f>SUM(N39:N49)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="O37" s="13"/>
+      <c r="P37" s="74">
+        <f>SUM(P39:P49)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="59">
+        <f>SUM(R39:R49)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="S37" s="13"/>
+      <c r="T37" s="59">
+        <f>SUM(T39:T49)</f>
+        <v>1</v>
+      </c>
+      <c r="U37" s="13"/>
+      <c r="V37" s="59">
+        <f>SUM(V39:V48)</f>
+        <v>0.99712910241941</v>
+      </c>
+      <c r="W37" s="13"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="80">
+        <f>SUM(Y39:Y49)</f>
+        <v>3.3206889946244846E-4</v>
+      </c>
+      <c r="Z37" s="81"/>
+      <c r="AA37" s="80">
+        <f>SUM(AA39:AA49)</f>
+        <v>4.0710484606835927E-3</v>
+      </c>
+      <c r="AB37" s="81"/>
+      <c r="AC37" s="80">
+        <f>SUM(AC39:AC49)</f>
+        <v>2.2465453950237583E-2</v>
+      </c>
+      <c r="AD37" s="81"/>
+      <c r="AE37" s="80">
+        <f>SUM(AE39:AE49)</f>
+        <v>7.3492474958056289E-2</v>
+      </c>
+      <c r="AF37" s="81"/>
+      <c r="AG37" s="80">
+        <f>SUM(AG39:AG49)</f>
+        <v>0.15785985112586032</v>
+      </c>
+      <c r="AH37" s="81"/>
+      <c r="AI37" s="80">
+        <f>SUM(AI39:AI49)</f>
+        <v>0.2326969589654086</v>
+      </c>
+      <c r="AJ37" s="81"/>
+      <c r="AK37" s="80">
+        <f>SUM(AK39:AK49)</f>
+        <v>0.23850680801785759</v>
+      </c>
+      <c r="AL37" s="81"/>
+      <c r="AM37" s="80">
+        <f>SUM(AM39:AM49)</f>
+        <v>0.16800350713678183</v>
+      </c>
+      <c r="AN37" s="81"/>
+      <c r="AO37" s="80">
+        <f>SUM(AO39:AO49)</f>
+        <v>7.8004412515217017E-2</v>
+      </c>
+      <c r="AP37" s="81"/>
+      <c r="AQ37" s="80">
+        <f>SUM(AQ39:AQ49)</f>
+        <v>2.1696518389844825E-2</v>
+      </c>
+      <c r="AR37" s="81"/>
+      <c r="AS37" s="80">
+        <f>SUM(AS39:AS49)</f>
+        <v>2.8708975805900048E-3</v>
+      </c>
+      <c r="BH37">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="BI37">
+        <v>10</v>
+      </c>
+      <c r="BJ37" s="107">
+        <f t="shared" si="20"/>
+        <v>5.1659479791396576E-5</v>
+      </c>
+      <c r="BP37">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="BQ37">
+        <v>6</v>
+      </c>
+      <c r="BR37" s="107">
+        <f t="shared" si="22"/>
+        <v>1.3692372922695768E-6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="110" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="107">
+        <f>SUM(BJ4:BJ59)</f>
+        <v>0.82583919702004882</v>
+      </c>
+      <c r="G38" s="103" t="str">
+        <f t="shared" ref="G38:T38" si="23">G24</f>
+        <v>G</v>
+      </c>
+      <c r="H38" s="104" t="str">
+        <f t="shared" si="23"/>
+        <v>p</v>
+      </c>
+      <c r="I38" s="103" t="str">
+        <f t="shared" si="23"/>
+        <v>GT</v>
+      </c>
+      <c r="J38" s="105" t="str">
+        <f t="shared" si="23"/>
+        <v>p(x)</v>
+      </c>
+      <c r="K38" s="106" t="str">
+        <f t="shared" si="23"/>
+        <v>EE(x)</v>
+      </c>
+      <c r="L38" s="105" t="str">
+        <f t="shared" si="23"/>
+        <v>p</v>
+      </c>
+      <c r="M38" s="90" t="str">
+        <f t="shared" si="23"/>
+        <v>OcaS</v>
+      </c>
+      <c r="N38" s="30" t="str">
+        <f t="shared" si="23"/>
+        <v>P</v>
+      </c>
+      <c r="O38" s="30" t="str">
+        <f t="shared" si="23"/>
+        <v>O_CA</v>
+      </c>
+      <c r="P38" s="30" t="str">
+        <f t="shared" si="23"/>
+        <v>p</v>
+      </c>
+      <c r="Q38" s="30" t="str">
+        <f t="shared" si="23"/>
+        <v>TotalN</v>
+      </c>
+      <c r="R38" s="30" t="str">
+        <f t="shared" si="23"/>
+        <v>p</v>
+      </c>
+      <c r="S38" s="30" t="str">
+        <f t="shared" si="23"/>
+        <v>OcaCA</v>
+      </c>
+      <c r="T38" s="141" t="str">
+        <f t="shared" si="23"/>
+        <v>p</v>
+      </c>
+      <c r="U38" s="142" t="str">
+        <f>U24</f>
+        <v>Total</v>
+      </c>
+      <c r="V38" s="143" t="str">
+        <f>V24</f>
+        <v>P</v>
+      </c>
+      <c r="W38" s="90" t="str">
+        <f>W24</f>
+        <v>E(x)</v>
+      </c>
+      <c r="X38" s="30" t="str">
+        <f t="shared" ref="X38" si="24">X24</f>
+        <v>G0</v>
+      </c>
+      <c r="Y38" s="30" t="str">
+        <f>Y24</f>
+        <v>p</v>
+      </c>
+      <c r="Z38" s="30" t="str">
+        <f t="shared" ref="Z38" si="25">Z24</f>
+        <v>G1</v>
+      </c>
+      <c r="AA38" s="30" t="str">
+        <f>AA24</f>
+        <v>p</v>
+      </c>
+      <c r="AB38" s="30" t="str">
+        <f t="shared" ref="AB38" si="26">AB24</f>
+        <v>G2</v>
+      </c>
+      <c r="AC38" s="30" t="str">
+        <f>AC24</f>
+        <v>p</v>
+      </c>
+      <c r="AD38" s="30" t="str">
+        <f t="shared" ref="AD38" si="27">AD24</f>
+        <v>G3</v>
+      </c>
+      <c r="AE38" s="30" t="str">
+        <f>AE24</f>
+        <v>p</v>
+      </c>
+      <c r="AF38" s="30" t="str">
+        <f t="shared" ref="AF38" si="28">AF24</f>
+        <v>G4</v>
+      </c>
+      <c r="AG38" s="30" t="str">
+        <f>AG24</f>
+        <v>p</v>
+      </c>
+      <c r="AH38" s="30" t="str">
+        <f t="shared" ref="AH38" si="29">AH24</f>
+        <v>G5</v>
+      </c>
+      <c r="AI38" s="30" t="str">
+        <f>AI24</f>
+        <v>p</v>
+      </c>
+      <c r="AJ38" s="30" t="str">
+        <f t="shared" ref="AJ38" si="30">AJ24</f>
+        <v>G6</v>
+      </c>
+      <c r="AK38" s="30" t="str">
+        <f>AK24</f>
+        <v>p</v>
+      </c>
+      <c r="AL38" s="30" t="str">
+        <f t="shared" ref="AL38" si="31">AL24</f>
+        <v>G7</v>
+      </c>
+      <c r="AM38" s="30" t="str">
+        <f>AM24</f>
+        <v>p</v>
+      </c>
+      <c r="AN38" s="30" t="str">
+        <f t="shared" ref="AN38" si="32">AN24</f>
+        <v>G8</v>
+      </c>
+      <c r="AO38" s="30" t="str">
+        <f>AO24</f>
+        <v>p</v>
+      </c>
+      <c r="AP38" s="30" t="str">
+        <f t="shared" ref="AP38" si="33">AP24</f>
+        <v>G9</v>
+      </c>
+      <c r="AQ38" s="30" t="str">
+        <f>AQ24</f>
+        <v>p</v>
+      </c>
+      <c r="AR38" s="30" t="str">
+        <f t="shared" ref="AR38" si="34">AR24</f>
+        <v>G10</v>
+      </c>
+      <c r="AS38" s="30" t="str">
+        <f>AS24</f>
+        <v>p</v>
+      </c>
+      <c r="AV38" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW38" s="14">
+        <v>1</v>
+      </c>
+      <c r="AX38" s="14">
+        <v>2</v>
+      </c>
+      <c r="AY38" s="14">
+        <v>3</v>
+      </c>
+      <c r="AZ38" s="14">
+        <v>4</v>
+      </c>
+      <c r="BA38" s="14">
+        <v>5</v>
+      </c>
+      <c r="BB38" s="14">
+        <v>6</v>
+      </c>
+      <c r="BC38" s="14">
+        <v>7</v>
+      </c>
+      <c r="BD38" s="14">
+        <v>8</v>
+      </c>
+      <c r="BE38" s="14">
+        <v>9</v>
+      </c>
+      <c r="BF38" s="14">
+        <v>10</v>
+      </c>
+      <c r="BH38">
+        <f t="shared" ref="BH38:BH43" si="35">BH32+1</f>
+        <v>4</v>
+      </c>
+      <c r="BI38">
+        <v>5</v>
+      </c>
+      <c r="BJ38" s="107">
+        <f t="shared" ref="BJ38:BJ43" si="36">$H$29*H44</f>
+        <v>6.3965726059674738E-3</v>
+      </c>
+      <c r="BP38">
+        <f>BL11+1</f>
+        <v>8</v>
+      </c>
+      <c r="BQ38">
+        <v>7</v>
+      </c>
+      <c r="BR38" s="107">
+        <f t="shared" si="22"/>
+        <v>5.5411609673492979E-7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A39" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="107">
+        <f>SUM(BR4:BR47)</f>
+        <v>7.3051477230479792E-2</v>
+      </c>
+      <c r="G39" s="130">
+        <v>0</v>
+      </c>
+      <c r="H39" s="131">
+        <f>L39*J39</f>
+        <v>1.1024365650988042E-2</v>
+      </c>
+      <c r="I39" s="97">
+        <v>0</v>
+      </c>
+      <c r="J39" s="98">
+        <f t="shared" ref="J39:J49" si="37">Y39+AA39+AC39+AE39+AG39+AI39+AK39+AM39+AO39+AQ39+AS39</f>
+        <v>1.8200677599073501E-2</v>
+      </c>
+      <c r="K39" s="102">
+        <v>0</v>
+      </c>
+      <c r="L39" s="98">
+        <f>AC20</f>
+        <v>0.60571182534155943</v>
+      </c>
+      <c r="M39" s="84">
+        <v>0</v>
+      </c>
+      <c r="N39" s="71">
+        <f>(1-$C$24)^$B$21</f>
+        <v>1.8360287620582446E-2</v>
+      </c>
+      <c r="O39" s="70">
+        <v>0</v>
+      </c>
+      <c r="P39" s="71">
+        <f>N39</f>
+        <v>1.8360287620582446E-2</v>
+      </c>
+      <c r="Q39" s="12">
+        <v>0</v>
+      </c>
+      <c r="R39" s="73">
+        <f>P39*N39</f>
+        <v>3.3710016151051303E-4</v>
+      </c>
+      <c r="S39" s="70">
+        <v>0</v>
+      </c>
+      <c r="T39" s="135">
+        <f>(1-$C$33)^(INT(B23*2*(1-B31)))</f>
+        <v>0.98507487500000002</v>
+      </c>
+      <c r="U39" s="140">
+        <v>0</v>
+      </c>
+      <c r="V39" s="86">
+        <f>R39*T39</f>
+        <v>3.3206889946244846E-4</v>
+      </c>
+      <c r="W39" s="136">
+        <f>C31</f>
+        <v>0.59859736216224324</v>
+      </c>
+      <c r="X39" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="79">
+        <f>V39</f>
+        <v>3.3206889946244846E-4</v>
+      </c>
+      <c r="Z39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="78">
+        <f>((1-W39)^Z40)*V40</f>
+        <v>1.6341295908837332E-3</v>
+      </c>
+      <c r="AB39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="79">
+        <f>(((1-$W$39)^AB41))*V41</f>
+        <v>3.6197255470150863E-3</v>
+      </c>
+      <c r="AD39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="79">
+        <f>(((1-$W$39)^AB42))*V42</f>
+        <v>4.7531721029694246E-3</v>
+      </c>
+      <c r="AF39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="79">
+        <f>(((1-$W$39)^AB43))*V43</f>
+        <v>4.098194607147226E-3</v>
+      </c>
+      <c r="AH39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="79">
+        <f>(((1-$W$39)^AB44))*V44</f>
+        <v>2.4248887486882568E-3</v>
+      </c>
+      <c r="AJ39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="79">
+        <f>(((1-$W$39)^AB45))*V45</f>
+        <v>9.9765897327035906E-4</v>
+      </c>
+      <c r="AL39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="79">
+        <f>(((1-$W$39)^AB46))*V46</f>
+        <v>2.8208494152026192E-4</v>
+      </c>
+      <c r="AN39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO39" s="79">
+        <f>(((1-$W$39)^AB47))*V47</f>
+        <v>5.2572780583200302E-5</v>
+      </c>
+      <c r="AP39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="79">
+        <f>(((1-$W$39)^AB48))*V48</f>
+        <v>5.869647872330988E-6</v>
+      </c>
+      <c r="AR39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS39" s="79">
+        <f>(((1-$W$39)^AB49))*V49</f>
+        <v>3.1175966117441263E-7</v>
+      </c>
+      <c r="AV39" s="14">
+        <v>1</v>
+      </c>
+      <c r="AW39">
+        <v>1</v>
+      </c>
+      <c r="AX39">
+        <v>2</v>
+      </c>
+      <c r="AY39">
+        <v>3</v>
+      </c>
+      <c r="AZ39">
+        <v>4</v>
+      </c>
+      <c r="BA39">
+        <v>5</v>
+      </c>
+      <c r="BB39">
+        <v>6</v>
+      </c>
+      <c r="BC39">
+        <f>7</f>
+        <v>7</v>
+      </c>
+      <c r="BD39">
+        <v>8</v>
+      </c>
+      <c r="BE39">
+        <v>9</v>
+      </c>
+      <c r="BF39">
+        <v>10</v>
+      </c>
+      <c r="BH39">
+        <f t="shared" si="35"/>
+        <v>4</v>
+      </c>
+      <c r="BI39">
+        <v>6</v>
+      </c>
+      <c r="BJ39" s="107">
+        <f t="shared" si="36"/>
+        <v>3.4620412078110933E-3</v>
+      </c>
+      <c r="BP39">
+        <f t="shared" ref="BP39:BP46" si="38">BP31+1</f>
+        <v>9</v>
+      </c>
+      <c r="BQ39">
+        <v>0</v>
+      </c>
+      <c r="BR39" s="107">
+        <f t="shared" ref="BR39:BR47" si="39">$H$34*H39</f>
+        <v>1.0939434636374358E-8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="G40" s="91">
+        <v>1</v>
+      </c>
+      <c r="H40" s="132">
+        <f>L39*J40+L40*J39</f>
+        <v>6.0111238290725864E-2</v>
+      </c>
+      <c r="I40" s="93">
+        <v>1</v>
+      </c>
+      <c r="J40" s="86">
+        <f t="shared" si="37"/>
+        <v>8.960617673547018E-2</v>
+      </c>
+      <c r="K40" s="95">
+        <v>1</v>
+      </c>
+      <c r="L40" s="86">
+        <f>AD20</f>
+        <v>0.32063187684303063</v>
+      </c>
+      <c r="M40" s="85">
+        <v>1</v>
+      </c>
+      <c r="N40" s="71">
+        <f>(($C$24)^M26)*((1-($C$24))^($B$21-M26))*HLOOKUP($B$21,$AV$24:$BF$34,M26+1)</f>
+        <v>0.11240695531094974</v>
+      </c>
+      <c r="O40" s="72">
+        <v>1</v>
+      </c>
+      <c r="P40" s="71">
+        <f t="shared" ref="P40:P44" si="40">N40</f>
+        <v>0.11240695531094974</v>
+      </c>
+      <c r="Q40" s="28">
+        <v>1</v>
+      </c>
+      <c r="R40" s="37">
+        <f>P40*N39+P39*N40</f>
+        <v>4.1276480601259895E-3</v>
+      </c>
+      <c r="S40" s="72">
+        <v>1</v>
+      </c>
+      <c r="T40" s="135">
+        <f t="shared" ref="T40:T49" si="41">(($C$33)^S40)*((1-($C$33))^(INT($B$23*2*(1-$B$31))-S40))*HLOOKUP(INT($B$23*2*(1-$B$31)),$AV$24:$BF$34,S40+1)</f>
+        <v>1.4850375000000002E-2</v>
+      </c>
+      <c r="U40" s="93">
+        <v>1</v>
+      </c>
+      <c r="V40" s="86">
+        <f>R40*T39+T40*R39</f>
+        <v>4.0710484606835927E-3</v>
+      </c>
+      <c r="W40" s="137"/>
+      <c r="X40" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="73"/>
+      <c r="Z40" s="28">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="79">
+        <f>(1-((1-W39)^Z40))*V40</f>
+        <v>2.4369188697998595E-3</v>
+      </c>
+      <c r="AB40" s="28">
+        <v>1</v>
+      </c>
+      <c r="AC40" s="79">
+        <f>((($W$39)^M40)*((1-($W$39))^($U$27-M40))*HLOOKUP($U$27,$AV$24:$BF$34,M40+1))*V41</f>
+        <v>1.0795933857665864E-2</v>
+      </c>
+      <c r="AD40" s="28">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="79">
+        <f>((($W$39)^M40)*((1-($W$39))^($U$28-M40))*HLOOKUP($U$28,$AV$24:$BF$34,M40+1))*V42</f>
+        <v>2.1264705419479661E-2</v>
+      </c>
+      <c r="AF40" s="28">
+        <v>1</v>
+      </c>
+      <c r="AG40" s="79">
+        <f>((($W$39)^M40)*((1-($W$39))^($U$29-M40))*HLOOKUP($U$29,$AV$24:$BF$34,M40+1))*V43</f>
+        <v>2.444596273388127E-2</v>
+      </c>
+      <c r="AH40" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI40" s="79">
+        <f>((($W$39)^M40)*((1-($W$39))^($U$30-M40))*HLOOKUP($U$30,$AV$24:$BF$34,M40+1))*V44</f>
+        <v>1.8080748252187483E-2</v>
+      </c>
+      <c r="AJ40" s="28">
+        <v>1</v>
+      </c>
+      <c r="AK40" s="79">
+        <f>((($W$39)^M40)*((1-($W$39))^($U$31-M40))*HLOOKUP($U$31,$AV$24:$BF$34,M40+1))*V45</f>
+        <v>8.9266383442927442E-3</v>
+      </c>
+      <c r="AL40" s="28">
+        <v>1</v>
+      </c>
+      <c r="AM40" s="79">
+        <f>((($W$39)^Q40)*((1-($W$39))^($U$32-Q40))*HLOOKUP($U$32,$AV$24:$BF$34,Q40+1))*V46</f>
+        <v>2.9446421171147969E-3</v>
+      </c>
+      <c r="AN40" s="28">
+        <v>1</v>
+      </c>
+      <c r="AO40" s="79">
+        <f>((($W$39)^Q40)*((1-($W$39))^($U$33-Q40))*HLOOKUP($U$33,$AV$24:$BF$34,Q40+1))*V47</f>
+        <v>6.2719922217069151E-4</v>
+      </c>
+      <c r="AP40" s="28">
+        <v>1</v>
+      </c>
+      <c r="AQ40" s="79">
+        <f>((($W$39)^Q40)*((1-($W$39))^($U$34-Q40))*HLOOKUP($U$34,$AV$24:$BF$34,Q40+1))*V48</f>
+        <v>7.8778758827111373E-5</v>
+      </c>
+      <c r="AR40" s="28">
+        <v>1</v>
+      </c>
+      <c r="AS40" s="79">
+        <f>((($W$39)^Q40)*((1-($W$39))^($U$35-Q40))*HLOOKUP($U$35,$AV$24:$BF$34,Q40+1))*V49</f>
+        <v>4.6491600506877484E-6</v>
+      </c>
+      <c r="AV40" s="14">
+        <v>2</v>
+      </c>
+      <c r="AX40">
+        <v>1</v>
+      </c>
+      <c r="AY40">
+        <v>3</v>
+      </c>
+      <c r="AZ40">
+        <v>6</v>
+      </c>
+      <c r="BA40">
+        <v>10</v>
+      </c>
+      <c r="BB40">
+        <v>15</v>
+      </c>
+      <c r="BC40">
+        <f>6+15</f>
+        <v>21</v>
+      </c>
+      <c r="BD40">
+        <f>21+7</f>
+        <v>28</v>
+      </c>
+      <c r="BE40">
+        <f>28+8</f>
+        <v>36</v>
+      </c>
+      <c r="BF40">
+        <f>36+9</f>
+        <v>45</v>
+      </c>
+      <c r="BH40">
+        <f t="shared" si="35"/>
+        <v>4</v>
+      </c>
+      <c r="BI40">
+        <v>7</v>
+      </c>
+      <c r="BJ40" s="107">
+        <f t="shared" si="36"/>
+        <v>1.4010520832572195E-3</v>
+      </c>
+      <c r="BP40">
+        <f t="shared" si="38"/>
+        <v>9</v>
+      </c>
+      <c r="BQ40">
+        <v>1</v>
+      </c>
+      <c r="BR40" s="107">
+        <f t="shared" si="39"/>
+        <v>5.9648145118806379E-8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="G41" s="91">
+        <v>2</v>
+      </c>
+      <c r="H41" s="132">
+        <f>L39*J41+J40*L40+J39*L41</f>
+        <v>0.15022469408053443</v>
+      </c>
+      <c r="I41" s="93">
+        <v>2</v>
+      </c>
+      <c r="J41" s="86">
+        <f t="shared" si="37"/>
+        <v>0.19859890691993415</v>
+      </c>
+      <c r="K41" s="95">
+        <v>2</v>
+      </c>
+      <c r="L41" s="86">
+        <f>AE20</f>
+        <v>6.5953095936475803E-2</v>
+      </c>
+      <c r="M41" s="85">
+        <v>2</v>
+      </c>
+      <c r="N41" s="71">
+        <f>(($C$24)^M27)*((1-($C$24))^($B$21-M27))*HLOOKUP($B$21,$AV$24:$BF$34,M27+1)</f>
+        <v>0.27527506896162712</v>
+      </c>
+      <c r="O41" s="72">
+        <v>2</v>
+      </c>
+      <c r="P41" s="71">
+        <f t="shared" si="40"/>
+        <v>0.27527506896162712</v>
+      </c>
+      <c r="Q41" s="28">
+        <v>2</v>
+      </c>
+      <c r="R41" s="37">
+        <f>P41*N39+P40*N40+P39*N41</f>
+        <v>2.2743582484100137E-2</v>
+      </c>
+      <c r="S41" s="72">
+        <v>2</v>
+      </c>
+      <c r="T41" s="135">
+        <f t="shared" si="41"/>
+        <v>7.4625000000000011E-5</v>
+      </c>
+      <c r="U41" s="93">
+        <v>2</v>
+      </c>
+      <c r="V41" s="86">
+        <f>R41*T39+T40*R40+R39*T41</f>
+        <v>2.2465453950237583E-2</v>
+      </c>
+      <c r="W41" s="137"/>
+      <c r="X41" s="28">
+        <v>2</v>
+      </c>
+      <c r="Y41" s="73"/>
+      <c r="Z41" s="28">
+        <v>2</v>
+      </c>
+      <c r="AA41" s="79"/>
+      <c r="AB41" s="28">
+        <v>2</v>
+      </c>
+      <c r="AC41" s="79">
+        <f>((($W$39)^M41)*((1-($W$39))^($U$27-M41))*HLOOKUP($U$27,$AV$24:$BF$34,M41+1))*V41</f>
+        <v>8.0497945455566319E-3</v>
+      </c>
+      <c r="AD41" s="28">
+        <v>2</v>
+      </c>
+      <c r="AE41" s="79">
+        <f>((($W$39)^M41)*((1-($W$39))^($U$28-M41))*HLOOKUP($U$28,$AV$24:$BF$34,M41+1))*V42</f>
+        <v>3.1711292780299632E-2</v>
+      </c>
+      <c r="AF41" s="28">
+        <v>2</v>
+      </c>
+      <c r="AG41" s="79">
+        <f>((($W$39)^M41)*((1-($W$39))^($U$29-M41))*HLOOKUP($U$29,$AV$24:$BF$34,M41+1))*V43</f>
+        <v>5.4683081631612757E-2</v>
+      </c>
+      <c r="AH41" s="28">
+        <v>2</v>
+      </c>
+      <c r="AI41" s="79">
+        <f>((($W$39)^M41)*((1-($W$39))^($U$30-M41))*HLOOKUP($U$30,$AV$24:$BF$34,M41+1))*V44</f>
+        <v>5.3926343224747875E-2</v>
+      </c>
+      <c r="AJ41" s="28">
+        <v>2</v>
+      </c>
+      <c r="AK41" s="79">
+        <f>((($W$39)^M41)*((1-($W$39))^($U$31-M41))*HLOOKUP($U$31,$AV$24:$BF$34,M41+1))*V45</f>
+        <v>3.3279939281501116E-2</v>
+      </c>
+      <c r="AL41" s="28">
+        <v>2</v>
+      </c>
+      <c r="AM41" s="79">
+        <f>((($W$39)^Q41)*((1-($W$39))^($U$32-Q41))*HLOOKUP($U$32,$AV$24:$BF$34,Q41+1))*V46</f>
+        <v>1.3173717641555779E-2</v>
+      </c>
+      <c r="AN41" s="28">
+        <v>2</v>
+      </c>
+      <c r="AO41" s="79">
+        <f>((($W$39)^Q41)*((1-($W$39))^($U$33-Q41))*HLOOKUP($U$33,$AV$24:$BF$34,Q41+1))*V47</f>
+        <v>3.2736189948175576E-3</v>
+      </c>
+      <c r="AP41" s="28">
+        <v>2</v>
+      </c>
+      <c r="AQ41" s="79">
+        <f>((($W$39)^Q41)*((1-($W$39))^($U$34-Q41))*HLOOKUP($U$34,$AV$24:$BF$34,Q41+1))*V48</f>
+        <v>4.6991975421332175E-4</v>
+      </c>
+      <c r="AR41" s="28">
+        <v>2</v>
+      </c>
+      <c r="AS41" s="79">
+        <f>((($W$39)^Q41)*((1-($W$39))^($U$35-Q41))*HLOOKUP($U$35,$AV$24:$BF$34,Q41+1))*V49</f>
+        <v>3.1199065629495915E-5</v>
+      </c>
+      <c r="AV41" s="14">
+        <v>3</v>
+      </c>
+      <c r="AY41">
+        <v>1</v>
+      </c>
+      <c r="AZ41">
+        <v>4</v>
+      </c>
+      <c r="BA41">
+        <v>10</v>
+      </c>
+      <c r="BB41">
+        <v>20</v>
+      </c>
+      <c r="BC41">
+        <f>15+20</f>
+        <v>35</v>
+      </c>
+      <c r="BD41">
+        <f>21+35</f>
+        <v>56</v>
+      </c>
+      <c r="BE41">
+        <f>28+56</f>
+        <v>84</v>
+      </c>
+      <c r="BF41">
+        <f>36+84</f>
+        <v>120</v>
+      </c>
+      <c r="BH41">
+        <f t="shared" si="35"/>
+        <v>4</v>
+      </c>
+      <c r="BI41">
+        <v>8</v>
+      </c>
+      <c r="BJ41" s="107">
+        <f t="shared" si="36"/>
+        <v>4.2553354339499075E-4</v>
+      </c>
+      <c r="BP41">
+        <f t="shared" si="38"/>
+        <v>9</v>
+      </c>
+      <c r="BQ41">
+        <v>2</v>
+      </c>
+      <c r="BR41" s="107">
+        <f t="shared" si="39"/>
+        <v>1.4906737255363582E-7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G42" s="91">
+        <v>3</v>
+      </c>
+      <c r="H42" s="132">
+        <f>J42*L39+J41*L40+L42*J39+L41*J40</f>
+        <v>0.22780820666262819</v>
+      </c>
+      <c r="I42" s="93">
+        <v>3</v>
+      </c>
+      <c r="J42" s="86">
+        <f t="shared" si="37"/>
+        <v>0.26098393909374235</v>
+      </c>
+      <c r="K42" s="95">
+        <v>3</v>
+      </c>
+      <c r="L42" s="86">
+        <f>AF20</f>
+        <v>7.7032018789341405E-3</v>
+      </c>
+      <c r="M42" s="85">
+        <v>3</v>
+      </c>
+      <c r="N42" s="71">
+        <f>(($C$24)^M28)*((1-($C$24))^($B$21-M28))*HLOOKUP($B$21,$AV$24:$BF$34,M28+1)</f>
+        <v>0.33706261050399194</v>
+      </c>
+      <c r="O42" s="72">
+        <v>3</v>
+      </c>
+      <c r="P42" s="71">
+        <f t="shared" si="40"/>
+        <v>0.33706261050399194</v>
+      </c>
+      <c r="Q42" s="28">
+        <v>3</v>
+      </c>
+      <c r="R42" s="37">
+        <f>P42*N39+P41*N40+P40*N41+P39*N42</f>
+        <v>7.4262797699971753E-2</v>
+      </c>
+      <c r="S42" s="72">
+        <v>3</v>
+      </c>
+      <c r="T42" s="135">
+        <f t="shared" si="41"/>
+        <v>1.2500000000000002E-7</v>
+      </c>
+      <c r="U42" s="93">
+        <v>3</v>
+      </c>
+      <c r="V42" s="86">
+        <f>R42*T39+R41*T40+R40*T41+R39*T42</f>
+        <v>7.3492474958056289E-2</v>
+      </c>
+      <c r="W42" s="137"/>
+      <c r="X42" s="28">
+        <v>3</v>
+      </c>
+      <c r="Y42" s="73"/>
+      <c r="Z42" s="28">
+        <v>3</v>
+      </c>
+      <c r="AA42" s="79"/>
+      <c r="AB42" s="28">
+        <v>3</v>
+      </c>
+      <c r="AC42" s="79"/>
+      <c r="AD42" s="28">
+        <v>3</v>
+      </c>
+      <c r="AE42" s="79">
+        <f>((($W$39)^M42)*((1-($W$39))^($U$28-M42))*HLOOKUP($U$28,$AV$24:$BF$34,M42+1))*V42</f>
+        <v>1.5763304655307571E-2</v>
+      </c>
+      <c r="AF42" s="28">
+        <v>3</v>
+      </c>
+      <c r="AG42" s="79">
+        <f>((($W$39)^M42)*((1-($W$39))^($U$29-M42))*HLOOKUP($U$29,$AV$24:$BF$34,M42+1))*V43</f>
+        <v>5.4364612708925356E-2</v>
+      </c>
+      <c r="AH42" s="28">
+        <v>3</v>
+      </c>
+      <c r="AI42" s="79">
+        <f>((($W$39)^M42)*((1-($W$39))^($U$30-M42))*HLOOKUP($U$30,$AV$24:$BF$34,M42+1))*V44</f>
+        <v>8.0418422208867441E-2</v>
+      </c>
+      <c r="AJ42" s="28">
+        <v>3</v>
+      </c>
+      <c r="AK42" s="79">
+        <f>((($W$39)^M42)*((1-($W$39))^($U$31-M42))*HLOOKUP($U$31,$AV$24:$BF$34,M42+1))*V45</f>
+        <v>6.6172240335826887E-2</v>
+      </c>
+      <c r="AL42" s="28">
+        <v>3</v>
+      </c>
+      <c r="AM42" s="79">
+        <f>((($W$39)^Q42)*((1-($W$39))^($U$32-Q42))*HLOOKUP($U$32,$AV$24:$BF$34,Q42+1))*V46</f>
+        <v>3.274248799403276E-2</v>
+      </c>
+      <c r="AN42" s="28">
+        <v>3</v>
+      </c>
+      <c r="AO42" s="79">
+        <f>((($W$39)^Q42)*((1-($W$39))^($U$33-Q42))*HLOOKUP($U$33,$AV$24:$BF$34,Q42+1))*V47</f>
+        <v>9.7636612732677069E-3</v>
+      </c>
+      <c r="AP42" s="28">
+        <v>3</v>
+      </c>
+      <c r="AQ42" s="79">
+        <f>((($W$39)^Q42)*((1-($W$39))^($U$34-Q42))*HLOOKUP($U$34,$AV$24:$BF$34,Q42+1))*V48</f>
+        <v>1.6351404562319127E-3</v>
+      </c>
+      <c r="AR42" s="28">
+        <v>3</v>
+      </c>
+      <c r="AS42" s="79">
+        <f>((($W$39)^Q42)*((1-($W$39))^($U$35-Q42))*HLOOKUP($U$35,$AV$24:$BF$34,Q42+1))*V49</f>
+        <v>1.2406946128269009E-4</v>
+      </c>
+      <c r="AV42" s="14">
+        <v>4</v>
+      </c>
+      <c r="AZ42">
+        <v>1</v>
+      </c>
+      <c r="BA42">
+        <v>5</v>
+      </c>
+      <c r="BB42">
+        <v>15</v>
+      </c>
+      <c r="BC42">
+        <f>20+15</f>
+        <v>35</v>
+      </c>
+      <c r="BD42">
+        <f>35+35</f>
+        <v>70</v>
+      </c>
+      <c r="BE42">
+        <f>56+70</f>
+        <v>126</v>
+      </c>
+      <c r="BF42">
+        <f>BE41+BE42</f>
+        <v>210</v>
+      </c>
+      <c r="BH42">
+        <f t="shared" si="35"/>
+        <v>4</v>
+      </c>
+      <c r="BI42">
+        <v>9</v>
+      </c>
+      <c r="BJ42" s="107">
+        <f t="shared" si="36"/>
+        <v>9.6359054108386598E-5</v>
+      </c>
+      <c r="BP42">
+        <f t="shared" si="38"/>
+        <v>9</v>
+      </c>
+      <c r="BQ42">
+        <v>3</v>
+      </c>
+      <c r="BR42" s="107">
+        <f t="shared" si="39"/>
+        <v>2.2605318666948717E-7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G43" s="91">
+        <v>4</v>
+      </c>
+      <c r="H43" s="132">
+        <f>J43*L39+J42*L40+J41*L41+J40*L42</f>
+        <v>0.23390491240406325</v>
+      </c>
+      <c r="I43" s="93">
+        <v>4</v>
+      </c>
+      <c r="J43" s="86">
+        <f t="shared" si="37"/>
+        <v>0.22525014247435354</v>
+      </c>
+      <c r="K43" s="95">
+        <v>4</v>
+      </c>
+      <c r="L43" s="86"/>
+      <c r="M43" s="85">
+        <v>4</v>
+      </c>
+      <c r="N43" s="71">
+        <f>(($C$24)^M29)*((1-($C$24))^($B$21-M29))*HLOOKUP($B$21,$AV$24:$BF$34,M29+1)</f>
+        <v>0.20635941320135129</v>
+      </c>
+      <c r="O43" s="72">
+        <v>4</v>
+      </c>
+      <c r="P43" s="71">
+        <f t="shared" si="40"/>
+        <v>0.20635941320135129</v>
+      </c>
+      <c r="Q43" s="28">
+        <v>4</v>
+      </c>
+      <c r="R43" s="37">
+        <f>P43*N39+P42*N40+P41*N41+P40*N42+P39*N43</f>
+        <v>0.15913036354283999</v>
+      </c>
+      <c r="S43" s="72">
+        <v>4</v>
+      </c>
+      <c r="T43" s="135">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="U43" s="93">
+        <v>4</v>
+      </c>
+      <c r="V43" s="86">
+        <f>T43*R39+T42*R40+T41*R41+T40*R42+T39*R43</f>
+        <v>0.15785985112586026</v>
+      </c>
+      <c r="W43" s="137"/>
+      <c r="X43" s="28">
+        <v>4</v>
+      </c>
+      <c r="Y43" s="73"/>
+      <c r="Z43" s="28">
+        <v>4</v>
+      </c>
+      <c r="AA43" s="79"/>
+      <c r="AB43" s="28">
+        <v>4</v>
+      </c>
+      <c r="AC43" s="79"/>
+      <c r="AD43" s="28">
+        <v>4</v>
+      </c>
+      <c r="AE43" s="79"/>
+      <c r="AF43" s="28">
+        <v>4</v>
+      </c>
+      <c r="AG43" s="79">
+        <f>((($W$39)^M43)*((1-($W$39))^($U$29-M43))*HLOOKUP($U$29,$AV$24:$BF$34,M43+1))*V43</f>
+        <v>2.026799944429368E-2</v>
+      </c>
+      <c r="AH43" s="28">
+        <v>4</v>
+      </c>
+      <c r="AI43" s="79">
+        <f>((($W$39)^M43)*((1-($W$39))^($U$30-M43))*HLOOKUP($U$30,$AV$24:$BF$34,M43+1))*V44</f>
+        <v>5.9962554883526517E-2</v>
+      </c>
+      <c r="AJ43" s="28">
+        <v>4</v>
+      </c>
+      <c r="AK43" s="79">
+        <f>((($W$39)^M43)*((1-($W$39))^($U$31-M43))*HLOOKUP($U$31,$AV$24:$BF$34,M43+1))*V45</f>
+        <v>7.4010217135273629E-2</v>
+      </c>
+      <c r="AL43" s="28">
+        <v>4</v>
+      </c>
+      <c r="AM43" s="79">
+        <f>((($W$39)^Q43)*((1-($W$39))^($U$32-Q43))*HLOOKUP($U$32,$AV$24:$BF$34,Q43+1))*V46</f>
+        <v>4.8827698416319072E-2</v>
+      </c>
+      <c r="AN43" s="28">
+        <v>4</v>
+      </c>
+      <c r="AO43" s="79">
+        <f>((($W$39)^Q43)*((1-($W$39))^($U$33-Q43))*HLOOKUP($U$33,$AV$24:$BF$34,Q43+1))*V47</f>
+        <v>1.8200247495589426E-2</v>
+      </c>
+      <c r="AP43" s="28">
+        <v>4</v>
+      </c>
+      <c r="AQ43" s="79">
+        <f>((($W$39)^Q43)*((1-($W$39))^($U$34-Q43))*HLOOKUP($U$34,$AV$24:$BF$34,Q43+1))*V48</f>
+        <v>3.6576395055759755E-3</v>
+      </c>
+      <c r="AR43" s="28">
+        <v>4</v>
+      </c>
+      <c r="AS43" s="79">
+        <f>((($W$39)^Q43)*((1-($W$39))^($U$35-Q43))*HLOOKUP($U$35,$AV$24:$BF$34,Q43+1))*V49</f>
+        <v>3.2378559377522711E-4</v>
+      </c>
+      <c r="AV43" s="14">
+        <v>5</v>
+      </c>
+      <c r="BA43">
+        <v>1</v>
+      </c>
+      <c r="BB43">
+        <v>6</v>
+      </c>
+      <c r="BC43">
+        <f>15+6</f>
+        <v>21</v>
+      </c>
+      <c r="BD43">
+        <f>35+21</f>
+        <v>56</v>
+      </c>
+      <c r="BE43">
+        <f>70+56</f>
+        <v>126</v>
+      </c>
+      <c r="BF43">
+        <f t="shared" ref="BF43:BF48" si="42">BE42+BE43</f>
+        <v>252</v>
+      </c>
+      <c r="BH43">
+        <f t="shared" si="35"/>
+        <v>4</v>
+      </c>
+      <c r="BI43">
+        <v>10</v>
+      </c>
+      <c r="BJ43" s="107">
+        <f t="shared" si="36"/>
+        <v>1.5943552293398782E-5</v>
+      </c>
+      <c r="BP43">
+        <f t="shared" si="38"/>
+        <v>9</v>
+      </c>
+      <c r="BQ43">
+        <v>4</v>
+      </c>
+      <c r="BR43" s="107">
+        <f t="shared" si="39"/>
+        <v>2.3210292377609882E-7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G44" s="91">
+        <v>5</v>
+      </c>
+      <c r="H44" s="132">
+        <f>J44*L39+J43*L40+J42*L41+J41*L42</f>
+        <v>0.17180778963592011</v>
+      </c>
+      <c r="I44" s="93">
+        <v>5</v>
+      </c>
+      <c r="J44" s="86">
+        <f t="shared" si="37"/>
+        <v>0.1334675402841147</v>
+      </c>
+      <c r="K44" s="95">
+        <v>5</v>
+      </c>
+      <c r="L44" s="86"/>
+      <c r="M44" s="85">
+        <v>5</v>
+      </c>
+      <c r="N44" s="71">
+        <f>(($C$24)^M30)*((1-($C$24))^($B$21-M30))*HLOOKUP($B$21,$AV$24:$BF$34,M30+1)</f>
+        <v>5.0535664401497545E-2</v>
+      </c>
+      <c r="O44" s="72">
+        <v>5</v>
+      </c>
+      <c r="P44" s="71">
+        <f t="shared" si="40"/>
+        <v>5.0535664401497545E-2</v>
+      </c>
+      <c r="Q44" s="28">
+        <v>5</v>
+      </c>
+      <c r="R44" s="37">
+        <f>P44*N39+P43*N40+P42*N41+P41*N42+P40*N43+P39*N44</f>
+        <v>0.23381803204419854</v>
+      </c>
+      <c r="S44" s="72">
+        <v>5</v>
+      </c>
+      <c r="T44" s="135">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="U44" s="93">
+        <v>5</v>
+      </c>
+      <c r="V44" s="86">
+        <f>T44*R39+T43*R40+T42*R41+T41*R42+T40*R43+T39*R44</f>
+        <v>0.23269695896540857</v>
+      </c>
+      <c r="W44" s="137"/>
+      <c r="X44" s="28">
+        <v>5</v>
+      </c>
+      <c r="Y44" s="73"/>
+      <c r="Z44" s="28">
+        <v>5</v>
+      </c>
+      <c r="AA44" s="79"/>
+      <c r="AB44" s="28">
+        <v>5</v>
+      </c>
+      <c r="AC44" s="79"/>
+      <c r="AD44" s="28">
+        <v>5</v>
+      </c>
+      <c r="AE44" s="79"/>
+      <c r="AF44" s="28">
+        <v>5</v>
+      </c>
+      <c r="AG44" s="79"/>
+      <c r="AH44" s="28">
+        <v>5</v>
+      </c>
+      <c r="AI44" s="79">
+        <f>((($W$39)^M44)*((1-($W$39))^($U$30-M44))*HLOOKUP($U$30,$AV$24:$BF$34,M44+1))*V44</f>
+        <v>1.7884001647391019E-2</v>
+      </c>
+      <c r="AJ44" s="28">
+        <v>5</v>
+      </c>
+      <c r="AK44" s="79">
+        <f>((($W$39)^M44)*((1-($W$39))^($U$31-M44))*HLOOKUP($U$31,$AV$24:$BF$34,M44+1))*V45</f>
+        <v>4.4147513318670555E-2</v>
+      </c>
+      <c r="AL44" s="28">
+        <v>5</v>
+      </c>
+      <c r="AM44" s="79">
+        <f>((($W$39)^Q44)*((1-($W$39))^($U$32-Q44))*HLOOKUP($U$32,$AV$24:$BF$34,Q44+1))*V46</f>
+        <v>4.368899760585411E-2</v>
+      </c>
+      <c r="AN44" s="28">
+        <v>5</v>
+      </c>
+      <c r="AO44" s="79">
+        <f>((($W$39)^Q44)*((1-($W$39))^($U$33-Q44))*HLOOKUP($U$33,$AV$24:$BF$34,Q44+1))*V47</f>
+        <v>2.1713101239685052E-2</v>
+      </c>
+      <c r="AP44" s="28">
+        <v>5</v>
+      </c>
+      <c r="AQ44" s="79">
+        <f>((($W$39)^Q44)*((1-($W$39))^($U$34-Q44))*HLOOKUP($U$34,$AV$24:$BF$34,Q44+1))*V48</f>
+        <v>5.4545066558908551E-3</v>
+      </c>
+      <c r="AR44" s="28">
+        <v>5</v>
+      </c>
+      <c r="AS44" s="79">
+        <f>((($W$39)^Q44)*((1-($W$39))^($U$35-Q44))*HLOOKUP($U$35,$AV$24:$BF$34,Q44+1))*V49</f>
+        <v>5.7941981662310558E-4</v>
+      </c>
+      <c r="AV44" s="29">
+        <v>6</v>
+      </c>
+      <c r="BB44">
+        <v>1</v>
+      </c>
+      <c r="BC44">
+        <v>7</v>
+      </c>
+      <c r="BD44">
+        <f>28</f>
+        <v>28</v>
+      </c>
+      <c r="BE44">
+        <f>56+28</f>
+        <v>84</v>
+      </c>
+      <c r="BF44">
+        <f t="shared" si="42"/>
+        <v>210</v>
+      </c>
+      <c r="BH44">
+        <f>BH39+1</f>
+        <v>5</v>
+      </c>
+      <c r="BI44">
+        <v>6</v>
+      </c>
+      <c r="BJ44" s="107">
+        <f>$H$30*H45</f>
+        <v>7.6423816809897168E-4</v>
+      </c>
+      <c r="BP44">
+        <f t="shared" si="38"/>
+        <v>9</v>
+      </c>
+      <c r="BQ44">
+        <v>5</v>
+      </c>
+      <c r="BR44" s="107">
+        <f t="shared" si="39"/>
+        <v>1.7048419330808919E-7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="112" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="112" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="112" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="112" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" s="112" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" s="91">
+        <v>6</v>
+      </c>
+      <c r="H45" s="132">
+        <f>J45*L39+J44*L40+J43*L41+J42*L42</f>
+        <v>9.2988180418305671E-2</v>
+      </c>
+      <c r="I45" s="93">
+        <v>6</v>
+      </c>
+      <c r="J45" s="86">
+        <f t="shared" si="37"/>
+        <v>5.502266070879374E-2</v>
+      </c>
+      <c r="K45" s="95">
+        <v>6</v>
+      </c>
+      <c r="L45" s="86"/>
+      <c r="M45" s="85"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="28">
+        <v>6</v>
+      </c>
+      <c r="R45" s="37">
+        <f>P44*N40+P43*N41+P42*N42+P41*N43+P40*N44</f>
+        <v>0.23858352713950814</v>
+      </c>
+      <c r="S45" s="70">
+        <v>6</v>
+      </c>
+      <c r="T45" s="135">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="U45" s="93">
+        <v>6</v>
+      </c>
+      <c r="V45" s="86">
+        <f>T45*R39+T44*R40+T43*R41+T42*R42+T41*R43+T40*R44+T39*R45</f>
+        <v>0.23850680801785756</v>
+      </c>
+      <c r="W45" s="137"/>
+      <c r="X45" s="28">
+        <v>6</v>
+      </c>
+      <c r="Y45" s="73"/>
+      <c r="Z45" s="28">
+        <v>6</v>
+      </c>
+      <c r="AA45" s="79"/>
+      <c r="AB45" s="28">
+        <v>6</v>
+      </c>
+      <c r="AC45" s="79"/>
+      <c r="AD45" s="28">
+        <v>6</v>
+      </c>
+      <c r="AE45" s="79"/>
+      <c r="AF45" s="28">
+        <v>6</v>
+      </c>
+      <c r="AG45" s="79"/>
+      <c r="AH45" s="28">
+        <v>6</v>
+      </c>
+      <c r="AI45" s="79"/>
+      <c r="AJ45" s="28">
+        <v>6</v>
+      </c>
+      <c r="AK45" s="79">
+        <f>((($W$39)^Q45)*((1-($W$39))^($U$31-Q45))*HLOOKUP($U$31,$AV$24:$BF$34,Q45+1))*V45</f>
+        <v>1.0972600629022304E-2</v>
+      </c>
+      <c r="AL45" s="28">
+        <v>6</v>
+      </c>
+      <c r="AM45" s="79">
+        <f>((($W$39)^Q45)*((1-($W$39))^($U$32-Q45))*HLOOKUP($U$32,$AV$24:$BF$34,Q45+1))*V46</f>
+        <v>2.1717278576984397E-2</v>
+      </c>
+      <c r="AN45" s="28">
+        <v>6</v>
+      </c>
+      <c r="AO45" s="79">
+        <f>((($W$39)^Q45)*((1-($W$39))^($U$33-Q45))*HLOOKUP($U$33,$AV$24:$BF$34,Q45+1))*V47</f>
+        <v>1.6189984695230919E-2</v>
+      </c>
+      <c r="AP45" s="28">
+        <v>6</v>
+      </c>
+      <c r="AQ45" s="79">
+        <f>((($W$39)^Q45)*((1-($W$39))^($U$34-Q45))*HLOOKUP($U$34,$AV$24:$BF$34,Q45+1))*V48</f>
+        <v>5.4227401422514959E-3</v>
+      </c>
+      <c r="AR45" s="28">
+        <v>6</v>
+      </c>
+      <c r="AS45" s="79">
+        <f>((($W$39)^Q45)*((1-($W$39))^($U$35-Q45))*HLOOKUP($U$35,$AV$24:$BF$34,Q45+1))*V49</f>
+        <v>7.2005666530462374E-4</v>
+      </c>
+      <c r="AV45" s="14">
+        <v>7</v>
+      </c>
+      <c r="BC45">
+        <v>1</v>
+      </c>
+      <c r="BD45">
+        <v>8</v>
+      </c>
+      <c r="BE45">
+        <f>28+8</f>
+        <v>36</v>
+      </c>
+      <c r="BF45">
+        <f t="shared" si="42"/>
+        <v>120</v>
+      </c>
+      <c r="BH45">
+        <f>BH40+1</f>
+        <v>5</v>
+      </c>
+      <c r="BI45">
+        <v>7</v>
+      </c>
+      <c r="BJ45" s="107">
+        <f>$H$30*H46</f>
+        <v>3.0927924113206286E-4</v>
+      </c>
+      <c r="BP45">
+        <f t="shared" si="38"/>
+        <v>9</v>
+      </c>
+      <c r="BQ45">
+        <v>6</v>
+      </c>
+      <c r="BR45" s="107">
+        <f t="shared" si="39"/>
+        <v>9.2271805366894056E-8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" s="113" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="113" t="s">
+        <v>114</v>
+      </c>
+      <c r="E46" s="113" t="s">
+        <v>115</v>
+      </c>
+      <c r="G46" s="91">
+        <v>7</v>
+      </c>
+      <c r="H46" s="132">
+        <f>J46*L39+J45*L40+J44*L41+J43*L42</f>
+        <v>3.7631349852053568E-2</v>
+      </c>
+      <c r="I46" s="93">
+        <v>7</v>
+      </c>
+      <c r="J46" s="86">
+        <f t="shared" si="37"/>
+        <v>1.56040969899568E-2</v>
+      </c>
+      <c r="K46" s="95">
+        <v>7</v>
+      </c>
+      <c r="L46" s="86"/>
+      <c r="M46" s="85"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="28">
+        <v>7</v>
+      </c>
+      <c r="R46" s="37">
+        <f>P44*N41+P43*N42+P42*N43+P41*N44</f>
+        <v>0.16693450203772653</v>
+      </c>
+      <c r="S46" s="72">
+        <v>7</v>
+      </c>
+      <c r="T46" s="135">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="U46" s="93">
+        <v>7</v>
+      </c>
+      <c r="V46" s="86">
+        <f>T46*R39+T45*R40+T44*R41+T43*R42+T42*R43+T41*R44+T40*R45+T39*R46</f>
+        <v>0.1680035071367818</v>
+      </c>
+      <c r="W46" s="137"/>
+      <c r="X46" s="28">
+        <v>7</v>
+      </c>
+      <c r="Y46" s="73"/>
+      <c r="Z46" s="28">
+        <v>7</v>
+      </c>
+      <c r="AA46" s="79"/>
+      <c r="AB46" s="28">
+        <v>7</v>
+      </c>
+      <c r="AC46" s="79"/>
+      <c r="AD46" s="28">
+        <v>7</v>
+      </c>
+      <c r="AE46" s="79"/>
+      <c r="AF46" s="28">
+        <v>7</v>
+      </c>
+      <c r="AG46" s="79"/>
+      <c r="AH46" s="28">
+        <v>7</v>
+      </c>
+      <c r="AI46" s="79"/>
+      <c r="AJ46" s="28">
+        <v>7</v>
+      </c>
+      <c r="AK46" s="79"/>
+      <c r="AL46" s="28">
+        <v>7</v>
+      </c>
+      <c r="AM46" s="79">
+        <f>((($W$39)^Q46)*((1-($W$39))^($U$32-Q46))*HLOOKUP($U$32,$AV$24:$BF$34,Q46+1))*V46</f>
+        <v>4.6265998434006665E-3</v>
+      </c>
+      <c r="AN46" s="28">
+        <v>7</v>
+      </c>
+      <c r="AO46" s="79">
+        <f>((($W$39)^Q46)*((1-($W$39))^($U$33-Q46))*HLOOKUP($U$33,$AV$24:$BF$34,Q46+1))*V47</f>
+        <v>6.8981553457620748E-3</v>
+      </c>
+      <c r="AP46" s="28">
+        <v>7</v>
+      </c>
+      <c r="AQ46" s="79">
+        <f>((($W$39)^Q46)*((1-($W$39))^($U$34-Q46))*HLOOKUP($U$34,$AV$24:$BF$34,Q46+1))*V48</f>
+        <v>3.4657448359388843E-3</v>
+      </c>
+      <c r="AR46" s="28">
+        <v>7</v>
+      </c>
+      <c r="AS46" s="79">
+        <f>((($W$39)^Q46)*((1-($W$39))^($U$35-Q46))*HLOOKUP($U$35,$AV$24:$BF$34,Q46+1))*V49</f>
+        <v>6.1359696485517373E-4</v>
+      </c>
+      <c r="AV46" s="14">
+        <v>8</v>
+      </c>
+      <c r="BD46">
+        <v>1</v>
+      </c>
+      <c r="BE46">
+        <v>9</v>
+      </c>
+      <c r="BF46">
+        <f t="shared" si="42"/>
+        <v>45</v>
+      </c>
+      <c r="BH46">
+        <f>BH41+1</f>
+        <v>5</v>
+      </c>
+      <c r="BI46">
+        <v>8</v>
+      </c>
+      <c r="BJ46" s="107">
+        <f>$H$30*H47</f>
+        <v>9.3935616634230738E-5</v>
+      </c>
+      <c r="BP46">
+        <f t="shared" si="38"/>
+        <v>9</v>
+      </c>
+      <c r="BQ46">
+        <v>7</v>
+      </c>
+      <c r="BR46" s="107">
+        <f t="shared" si="39"/>
+        <v>3.7341440316630006E-8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="113" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" s="113" t="s">
+        <v>115</v>
+      </c>
+      <c r="G47" s="91">
+        <v>8</v>
+      </c>
+      <c r="H47" s="132">
+        <f>J47*L39+J46*L40+J45*L41+J44*L42</f>
+        <v>1.1429554858554828E-2</v>
+      </c>
+      <c r="I47" s="93">
+        <v>8</v>
+      </c>
+      <c r="J47" s="86">
+        <f t="shared" si="37"/>
+        <v>2.9210949047032793E-3</v>
+      </c>
+      <c r="K47" s="95">
+        <v>8</v>
+      </c>
+      <c r="L47" s="86"/>
+      <c r="M47" s="85"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="37"/>
+      <c r="P47" s="37"/>
+      <c r="Q47" s="28">
+        <v>8</v>
+      </c>
+      <c r="R47" s="37">
+        <f>P44*N42+P43*N43+P42*N44</f>
+        <v>7.6651573350250871E-2</v>
+      </c>
+      <c r="S47" s="72">
+        <v>8</v>
+      </c>
+      <c r="T47" s="135">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="U47" s="93">
+        <v>8</v>
+      </c>
+      <c r="V47" s="86">
+        <f>T47*R39+T46*R40+T45*R41+T44*R42+T43*R43+T42*R44+T41*R45+T40*R46+T39*R47</f>
+        <v>7.8004412515217003E-2</v>
+      </c>
+      <c r="W47" s="137"/>
+      <c r="X47" s="28">
+        <v>8</v>
+      </c>
+      <c r="Y47" s="73"/>
+      <c r="Z47" s="28">
+        <v>8</v>
+      </c>
+      <c r="AA47" s="79"/>
+      <c r="AB47" s="28">
+        <v>8</v>
+      </c>
+      <c r="AC47" s="79"/>
+      <c r="AD47" s="28">
+        <v>8</v>
+      </c>
+      <c r="AE47" s="79"/>
+      <c r="AF47" s="28">
+        <v>8</v>
+      </c>
+      <c r="AG47" s="79"/>
+      <c r="AH47" s="28">
+        <v>8</v>
+      </c>
+      <c r="AI47" s="79"/>
+      <c r="AJ47" s="28">
+        <v>8</v>
+      </c>
+      <c r="AK47" s="79"/>
+      <c r="AL47" s="28">
+        <v>8</v>
+      </c>
+      <c r="AM47" s="79"/>
+      <c r="AN47" s="28">
+        <v>8</v>
+      </c>
+      <c r="AO47" s="79">
+        <f>((($W$39)^Q47)*((1-($W$39))^($U$33-Q47))*HLOOKUP($U$33,$AV$24:$BF$34,Q47+1))*V47</f>
+        <v>1.2858714681103897E-3</v>
+      </c>
+      <c r="AP47" s="28">
+        <v>8</v>
+      </c>
+      <c r="AQ47" s="79">
+        <f>((($W$39)^Q47)*((1-($W$39))^($U$34-Q47))*HLOOKUP($U$34,$AV$24:$BF$34,Q47+1))*V48</f>
+        <v>1.2920852537838582E-3</v>
+      </c>
+      <c r="AR47" s="28">
+        <v>8</v>
+      </c>
+      <c r="AS47" s="79">
+        <f>((($W$39)^Q47)*((1-($W$39))^($U$35-Q47))*HLOOKUP($U$35,$AV$24:$BF$34,Q47+1))*V49</f>
+        <v>3.4313818280903142E-4</v>
+      </c>
+      <c r="AV47" s="29">
+        <v>9</v>
+      </c>
+      <c r="BE47">
+        <v>1</v>
+      </c>
+      <c r="BF47">
+        <f t="shared" si="42"/>
+        <v>10</v>
+      </c>
+      <c r="BH47">
+        <f>BH42+1</f>
+        <v>5</v>
+      </c>
+      <c r="BI47">
+        <v>9</v>
+      </c>
+      <c r="BJ47" s="107">
+        <f>$H$30*H48</f>
+        <v>2.1271054436149656E-5</v>
+      </c>
+      <c r="BP47">
+        <f>BL12+1</f>
+        <v>9</v>
+      </c>
+      <c r="BQ47">
+        <v>8</v>
+      </c>
+      <c r="BR47" s="107">
+        <f t="shared" si="39"/>
+        <v>1.1341502291953607E-8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="114" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" s="114" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" s="115" t="s">
+        <v>120</v>
+      </c>
+      <c r="E48" s="114" t="s">
+        <v>115</v>
+      </c>
+      <c r="G48" s="91">
+        <v>9</v>
+      </c>
+      <c r="H48" s="132">
+        <f>J48*L39+J47*L40+J46*L41+J45*L42</f>
+        <v>2.5881416686062879E-3</v>
+      </c>
+      <c r="I48" s="93">
+        <v>9</v>
+      </c>
+      <c r="J48" s="86">
+        <f t="shared" si="37"/>
+        <v>3.2780663911599611E-4</v>
+      </c>
+      <c r="K48" s="95">
+        <v>9</v>
+      </c>
+      <c r="L48" s="86"/>
+      <c r="M48" s="85"/>
+      <c r="N48" s="37"/>
+      <c r="O48" s="37"/>
+      <c r="P48" s="37"/>
+      <c r="Q48" s="28">
+        <v>9</v>
+      </c>
+      <c r="R48" s="37">
+        <f>P44*N43+P43*N44</f>
+        <v>2.0857020103266902E-2</v>
+      </c>
+      <c r="S48" s="72">
+        <v>9</v>
+      </c>
+      <c r="T48" s="135">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="U48" s="93">
+        <v>9</v>
+      </c>
+      <c r="V48" s="86">
+        <f>T48*R39+T47*R40+T46*R41+T45*R42+T44*R43+T43*R44+T42*R45+T41*R46+T40*R47+T39*R48</f>
+        <v>2.1696518389844821E-2</v>
+      </c>
+      <c r="W48" s="137"/>
+      <c r="X48" s="28">
+        <v>9</v>
+      </c>
+      <c r="Y48" s="73"/>
+      <c r="Z48" s="28">
+        <v>9</v>
+      </c>
+      <c r="AA48" s="79"/>
+      <c r="AB48" s="28">
+        <v>9</v>
+      </c>
+      <c r="AC48" s="79"/>
+      <c r="AD48" s="28">
+        <v>9</v>
+      </c>
+      <c r="AE48" s="79"/>
+      <c r="AF48" s="28">
+        <v>9</v>
+      </c>
+      <c r="AG48" s="79"/>
+      <c r="AH48" s="28">
+        <v>9</v>
+      </c>
+      <c r="AI48" s="79"/>
+      <c r="AJ48" s="28">
+        <v>9</v>
+      </c>
+      <c r="AK48" s="79"/>
+      <c r="AL48" s="28">
+        <v>9</v>
+      </c>
+      <c r="AM48" s="79"/>
+      <c r="AN48" s="28">
+        <v>9</v>
+      </c>
+      <c r="AO48" s="79"/>
+      <c r="AP48" s="28">
+        <v>9</v>
+      </c>
+      <c r="AQ48" s="79">
+        <f>((($W$39)^Q48)*((1-($W$39))^($U$34-Q48))*HLOOKUP($U$34,$AV$24:$BF$34,Q48+1))*V48</f>
+        <v>2.1409337925908114E-4</v>
+      </c>
+      <c r="AR48" s="28">
+        <v>9</v>
+      </c>
+      <c r="AS48" s="79">
+        <f>((($W$39)^Q48)*((1-($W$39))^($U$35-Q48))*HLOOKUP($U$35,$AV$24:$BF$34,Q48+1))*V49</f>
+        <v>1.1371325985691497E-4</v>
+      </c>
+      <c r="AV48" s="14">
+        <v>10</v>
+      </c>
+      <c r="BF48">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="BH48">
+        <f>BH43+1</f>
+        <v>5</v>
+      </c>
+      <c r="BI48">
+        <v>10</v>
+      </c>
+      <c r="BJ48" s="107">
+        <f>$H$30*H49</f>
+        <v>3.5195049585793671E-6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:62" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="114" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" s="114" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="114" t="s">
+        <v>121</v>
+      </c>
+      <c r="E49" s="114" t="s">
+        <v>122</v>
+      </c>
+      <c r="G49" s="92">
+        <v>10</v>
+      </c>
+      <c r="H49" s="133">
+        <f>J49*L39+J48*L40+J47*L41+J46*L42</f>
+        <v>4.282334692672882E-4</v>
+      </c>
+      <c r="I49" s="94">
+        <v>10</v>
+      </c>
+      <c r="J49" s="89">
+        <f t="shared" si="37"/>
+        <v>1.6957650741879691E-5</v>
+      </c>
+      <c r="K49" s="96">
+        <v>10</v>
+      </c>
+      <c r="L49" s="89"/>
+      <c r="M49" s="85"/>
+      <c r="N49" s="37"/>
+      <c r="O49" s="37"/>
+      <c r="P49" s="37"/>
+      <c r="Q49" s="28">
+        <v>10</v>
+      </c>
+      <c r="R49" s="37">
+        <f>P44*N44</f>
+        <v>2.5538533765007863E-3</v>
+      </c>
+      <c r="S49" s="72">
+        <v>10</v>
+      </c>
+      <c r="T49" s="135">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="U49" s="94">
+        <v>10</v>
+      </c>
+      <c r="V49" s="89">
+        <f>IF(((T49*R39+T48*R40+T47*R41+T46*R42+T45*R43+T44*R44+T43*R45+T42*R46+T41*R47+T40*R48+T39*R49)+V37)&lt;&gt;1,1-V37,(T49*R39+T48*R40+T47*R41+T46*R42+T45*R43+T44*R44+T43*R45+T42*R46+T41*R47+T40*R48+T39*R49))</f>
+        <v>2.8708975805900039E-3</v>
+      </c>
+      <c r="W49" s="137"/>
+      <c r="X49" s="28">
+        <v>10</v>
+      </c>
+      <c r="Y49" s="73"/>
+      <c r="Z49" s="28">
+        <v>10</v>
+      </c>
+      <c r="AA49" s="79"/>
+      <c r="AB49" s="28">
+        <v>10</v>
+      </c>
+      <c r="AC49" s="79"/>
+      <c r="AD49" s="28">
+        <v>10</v>
+      </c>
+      <c r="AE49" s="79"/>
+      <c r="AF49" s="28">
+        <v>10</v>
+      </c>
+      <c r="AG49" s="79"/>
+      <c r="AH49" s="28">
+        <v>10</v>
+      </c>
+      <c r="AI49" s="79"/>
+      <c r="AJ49" s="28">
+        <v>10</v>
+      </c>
+      <c r="AK49" s="79"/>
+      <c r="AL49" s="28">
+        <v>10</v>
+      </c>
+      <c r="AM49" s="79"/>
+      <c r="AN49" s="28">
+        <v>10</v>
+      </c>
+      <c r="AO49" s="79"/>
+      <c r="AP49" s="28">
+        <v>10</v>
+      </c>
+      <c r="AQ49" s="79"/>
+      <c r="AR49" s="28">
+        <v>10</v>
+      </c>
+      <c r="AS49" s="79">
+        <f>((($W$39)^Q49)*((1-($W$39))^($U$35-Q49))*HLOOKUP($U$35,$AV$24:$BF$34,Q49+1))*V49</f>
+        <v>1.6957650741879691E-5</v>
+      </c>
+      <c r="BH49">
+        <f>BP14+1</f>
+        <v>6</v>
+      </c>
+      <c r="BI49">
+        <v>0</v>
+      </c>
+      <c r="BJ49" s="107">
+        <f>$H$31*H39</f>
+        <v>1.4727940788667747E-5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="116" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" s="116" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" s="116" t="s">
+        <v>124</v>
+      </c>
+      <c r="E50" s="116" t="s">
+        <v>115</v>
+      </c>
+      <c r="G50" s="76"/>
+      <c r="H50" s="77"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="77"/>
+      <c r="L50" s="77"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="32"/>
+      <c r="S50" s="76"/>
+      <c r="T50" s="76"/>
+      <c r="U50" s="76"/>
+      <c r="V50" s="77"/>
+      <c r="W50" s="33"/>
+      <c r="X50" s="13"/>
+      <c r="Y50" s="13"/>
+      <c r="BH50">
+        <f>BH45+1</f>
+        <v>6</v>
+      </c>
+      <c r="BI50">
+        <v>7</v>
+      </c>
+      <c r="BJ50" s="107">
+        <f>$H$31*H46</f>
+        <v>5.0273395310415293E-5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="116" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="116" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" s="116" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" s="116" t="s">
+        <v>122</v>
+      </c>
+      <c r="BH51">
+        <f>BH46+1</f>
+        <v>6</v>
+      </c>
+      <c r="BI51">
+        <v>8</v>
+      </c>
+      <c r="BJ51" s="107">
+        <f>$H$31*H47</f>
+        <v>1.5269251086799592E-5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="H52" s="107"/>
+      <c r="BH52">
+        <f>BH47+1</f>
+        <v>6</v>
+      </c>
+      <c r="BI52">
+        <v>9</v>
+      </c>
+      <c r="BJ52" s="107">
+        <f>$H$31*H48</f>
+        <v>3.4576136582063461E-6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BH53">
+        <f>BH48+1</f>
+        <v>6</v>
+      </c>
+      <c r="BI53">
+        <v>10</v>
+      </c>
+      <c r="BJ53" s="107">
+        <f>$H$31*H49</f>
+        <v>5.7209615308152757E-7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BH54">
+        <f>BH51+1</f>
+        <v>7</v>
+      </c>
+      <c r="BI54">
+        <v>8</v>
+      </c>
+      <c r="BJ54" s="107">
+        <f>$H$32*H47</f>
+        <v>1.8530490125686469E-6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BH55">
+        <f>BH52+1</f>
+        <v>7</v>
+      </c>
+      <c r="BI55">
+        <v>9</v>
+      </c>
+      <c r="BJ55" s="107">
+        <f>$H$32*H48</f>
+        <v>4.196098118212331E-7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BH56">
+        <f>BH53+1</f>
+        <v>7</v>
+      </c>
+      <c r="BI56">
+        <v>10</v>
+      </c>
+      <c r="BJ56" s="107">
+        <f>$H$32*H49</f>
+        <v>6.9428566308568431E-8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BH57">
+        <f>BH55+1</f>
+        <v>8</v>
+      </c>
+      <c r="BI57">
+        <v>9</v>
+      </c>
+      <c r="BJ57" s="107">
+        <f>$H$33*H48</f>
+        <v>3.8110005749019999E-8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BH58">
+        <f>BH56+1</f>
+        <v>8</v>
+      </c>
+      <c r="BI58">
+        <v>10</v>
+      </c>
+      <c r="BJ58" s="107">
+        <f>$H$33*H49</f>
+        <v>6.3056749070801169E-9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BH59">
+        <f t="shared" ref="BH59" si="43">BH58+1</f>
+        <v>9</v>
+      </c>
+      <c r="BI59">
+        <v>10</v>
+      </c>
+      <c r="BJ59" s="107">
+        <f>$H$34*H49</f>
+        <v>4.2493438574739883E-10</v>
       </c>
     </row>
   </sheetData>
@@ -15744,7 +24136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -15752,7 +24144,7 @@
   <dimension ref="A1:BR59"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:I14"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15839,8 +24231,8 @@
         <v>1</v>
       </c>
       <c r="L1" s="13"/>
-      <c r="P1" s="216"/>
-      <c r="Q1" s="216"/>
+      <c r="P1" s="217"/>
+      <c r="Q1" s="217"/>
       <c r="R1" s="153"/>
       <c r="S1" s="153"/>
       <c r="U1">
@@ -15898,10 +24290,10 @@
       <c r="A3" s="162" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="217" t="s">
+      <c r="B3" s="218" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="217"/>
+      <c r="C3" s="218"/>
       <c r="D3" t="str">
         <f>IF(B3="Sol","SI",IF(B3="Lluvia","SI","NO"))</f>
         <v>SI</v>
@@ -16118,7 +24510,9 @@
       <c r="J5" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="166"/>
+      <c r="K5" s="166">
+        <v>12</v>
+      </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="O5" s="67">
@@ -17738,9 +26132,9 @@
         <f>AVERAGE(G5:G18)</f>
         <v>12</v>
       </c>
-      <c r="C16" s="54" t="e">
+      <c r="C16" s="54">
         <f>AVERAGE(K5:K18)</f>
-        <v>#DIV/0!</v>
+        <v>12</v>
       </c>
       <c r="E16" s="192" t="s">
         <v>22</v>
@@ -23068,7 +31462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -23163,8 +31557,8 @@
         <v>0</v>
       </c>
       <c r="L1" s="13"/>
-      <c r="P1" s="216"/>
-      <c r="Q1" s="216"/>
+      <c r="P1" s="217"/>
+      <c r="Q1" s="217"/>
       <c r="R1" s="152">
         <v>0</v>
       </c>
@@ -23228,10 +31622,10 @@
       <c r="A3" s="162" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="217" t="s">
+      <c r="B3" s="218" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="217"/>
+      <c r="C3" s="218"/>
       <c r="D3" t="str">
         <f>IF(B3="Sol","SI",IF(B3="Lluvia","SI","NO"))</f>
         <v>SI</v>
@@ -30018,7 +38412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -30123,8 +38517,8 @@
         <f>L1+H1</f>
         <v>7</v>
       </c>
-      <c r="P1" s="216"/>
-      <c r="Q1" s="216"/>
+      <c r="P1" s="217"/>
+      <c r="Q1" s="217"/>
       <c r="R1" s="152">
         <v>0</v>
       </c>
@@ -30204,10 +38598,10 @@
       <c r="A3" s="162" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="218" t="s">
+      <c r="B3" s="219" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="218"/>
+      <c r="C3" s="219"/>
       <c r="D3" t="str">
         <f>IF(B3="Sol","SI",IF(B3="Lluvia","SI","NO"))</f>
         <v>SI</v>
@@ -36948,7 +45342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -37053,10 +45447,10 @@
         <f>L1+H1</f>
         <v>0</v>
       </c>
-      <c r="P1" s="216" t="s">
+      <c r="P1" s="217" t="s">
         <v>135</v>
       </c>
-      <c r="Q1" s="216"/>
+      <c r="Q1" s="217"/>
       <c r="R1" s="152">
         <v>-0.12364059050405629</v>
       </c>
@@ -37129,10 +45523,10 @@
       <c r="A3" s="162" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="218" t="s">
+      <c r="B3" s="219" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="218"/>
+      <c r="C3" s="219"/>
       <c r="D3" t="str">
         <f>IF(B3="Sol","SI",IF(B3="Lluvia","SI","NO"))</f>
         <v>NO</v>
@@ -43753,7 +52147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -43855,10 +52249,10 @@
         <f>L1+H1</f>
         <v>0</v>
       </c>
-      <c r="P1" s="216" t="s">
+      <c r="P1" s="217" t="s">
         <v>135</v>
       </c>
-      <c r="Q1" s="216"/>
+      <c r="Q1" s="217"/>
       <c r="R1" s="152">
         <v>-0.12364059050405629</v>
       </c>
@@ -43909,10 +52303,10 @@
       <c r="A3" s="148" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="219" t="s">
+      <c r="B3" s="220" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="219"/>
+      <c r="C3" s="220"/>
       <c r="D3" t="str">
         <f>IF(B3="Sol","SI",IF(B3="Lluvia","SI","NO"))</f>
         <v>NO</v>

--- a/projects/current/hattrick/4-SimuladorPartidos.xlsx
+++ b/projects/current/hattrick/4-SimuladorPartidos.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7350"/>
   </bookViews>
   <sheets>
-    <sheet name="Knights-OBIWAN" sheetId="454" r:id="rId1"/>
+    <sheet name="SIMULADOR_v3 (2)" sheetId="455" r:id="rId1"/>
     <sheet name="SIMULADOR_v3" sheetId="446" r:id="rId2"/>
     <sheet name="SIMULADOR&gt;22-12-17_v2" sheetId="436" r:id="rId3"/>
     <sheet name="SIMULADOR&gt;22-12-17" sheetId="435" r:id="rId4"/>
@@ -3502,7 +3502,7 @@
     <t>N</t>
   </si>
   <si>
-    <t>Knights</t>
+    <t>Mariannah</t>
   </si>
 </sst>
 </file>
@@ -5660,7 +5660,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Knights-OBIWAN'!$G$25:$G$35</c:f>
+              <c:f>'SIMULADOR_v3 (2)'!$G$25:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5702,42 +5702,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Knights-OBIWAN'!$H$25:$H$35</c:f>
+              <c:f>'SIMULADOR_v3 (2)'!$H$25:$H$35</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>6.8096396333139991E-2</c:v>
+                  <c:v>0.12758684848188326</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2040863772080671</c:v>
+                  <c:v>0.28539496484918286</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28112423332691011</c:v>
+                  <c:v>0.29361823802639897</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23577880156944953</c:v>
+                  <c:v>0.18409185112506884</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1344490572289041</c:v>
+                  <c:v>7.8567185157793762E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5122166347747581E-2</c:v>
+                  <c:v>2.4144383188905504E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.675202134106828E-2</c:v>
+                  <c:v>5.5104507761645815E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8328665609097361E-3</c:v>
+                  <c:v>9.4903529357496044E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.6310192766261353E-4</c:v>
+                  <c:v>1.2392293080927536E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.6167925577191338E-5</c:v>
+                  <c:v>1.2189482671699438E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.2337613192123086E-6</c:v>
+                  <c:v>8.8407552039678037E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5745,7 +5745,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AD00-4720-BDD1-DAEC3CD50DD9}"/>
+              <c16:uniqueId val="{00000000-8F97-4565-8587-9E0326729AE1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5775,42 +5775,42 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Knights-OBIWAN'!$H$39:$H$49</c:f>
+              <c:f>'SIMULADOR_v3 (2)'!$H$39:$H$49</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.3951888209220278E-3</c:v>
+                  <c:v>2.1713609244028816E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8991109193155439E-2</c:v>
+                  <c:v>9.7675032421840779E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.86458579440586E-2</c:v>
+                  <c:v>0.20140916325265212</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14955042008514985</c:v>
+                  <c:v>0.25208456991165723</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21870851523846033</c:v>
+                  <c:v>0.21373977701926986</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.22628878518759804</c:v>
+                  <c:v>0.12975762374994679</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17005498085679691</c:v>
+                  <c:v>5.8121253055103947E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.378063713237475E-2</c:v>
+                  <c:v>1.9502938627175895E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.788684345235787E-2</c:v>
+                  <c:v>4.9241745467841162E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.107062670815317E-2</c:v>
+                  <c:v>9.2984078229629949E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.2812538436811454E-3</c:v>
+                  <c:v>1.2872671425720179E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5818,7 +5818,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AD00-4720-BDD1-DAEC3CD50DD9}"/>
+              <c16:uniqueId val="{00000001-8F97-4565-8587-9E0326729AE1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6408,7 +6408,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-C6E4-4C9E-AC3A-49BDB758D647}"/>
+                <c16:uniqueId val="{00000001-515D-48BE-9B60-B8A0E7FAE5BD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -6422,7 +6422,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-C6E4-4C9E-AC3A-49BDB758D647}"/>
+                <c16:uniqueId val="{00000003-515D-48BE-9B60-B8A0E7FAE5BD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -6436,31 +6436,31 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-C6E4-4C9E-AC3A-49BDB758D647}"/>
+                <c16:uniqueId val="{00000005-515D-48BE-9B60-B8A0E7FAE5BD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>'Knights-OBIWAN'!$B$37:$B$39</c:f>
+              <c:f>'SIMULADOR_v3 (2)'!$B$37:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.10371075404235458</c:v>
+                  <c:v>0.15645570754248334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.79531476331454676</c:v>
+                  <c:v>0.67322970380479152</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10061991270495774</c:v>
+                  <c:v>0.17030036741636539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-C6E4-4C9E-AC3A-49BDB758D647}"/>
+              <c16:uniqueId val="{00000006-515D-48BE-9B60-B8A0E7FAE5BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8606,12 +8606,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
+    <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:BR59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8687,7 +8687,7 @@
       </c>
       <c r="G1" s="202">
         <f>IF(D3="SI",COUNTIF($F$6:$F$18,"RAP"),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1" s="13"/>
       <c r="J1" s="205" t="s">
@@ -8695,7 +8695,7 @@
       </c>
       <c r="K1" s="202">
         <f>IF(D3="SI",COUNTIF($J$6:$J$18,"RAP"),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1" s="13"/>
       <c r="P1" s="216"/>
@@ -8725,7 +8725,7 @@
       </c>
       <c r="G2" s="202">
         <f>IF(D3="SI",COUNTIF($F$6:$F$18,"TEC"),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="13"/>
       <c r="J2" s="205" t="s">
@@ -8807,7 +8807,7 @@
       </c>
       <c r="AI3" s="208">
         <f>SUM(AI5:AI19)</f>
-        <v>3.6837000000000018</v>
+        <v>3.6837000000000009</v>
       </c>
       <c r="AM3" s="208">
         <f>SUM(AM5:AM19)</f>
@@ -8815,7 +8815,7 @@
       </c>
       <c r="AN3" s="208">
         <f>SUM(AN5:AN19)</f>
-        <v>2.1990999999999996</v>
+        <v>3.1991000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:70" ht="15.75" x14ac:dyDescent="0.25">
@@ -8930,7 +8930,7 @@
       </c>
       <c r="BJ4" s="107">
         <f t="shared" ref="BJ4:BJ13" si="0">$H$25*H40</f>
-        <v>1.2932260984230511E-3</v>
+        <v>1.2462049562068435E-2</v>
       </c>
       <c r="BL4">
         <v>0</v>
@@ -8940,7 +8940,7 @@
       </c>
       <c r="BN4" s="107">
         <f>H25*H39</f>
-        <v>1.6310372724221266E-4</v>
+        <v>2.7703709726127242E-3</v>
       </c>
       <c r="BP4">
         <v>1</v>
@@ -8950,7 +8950,7 @@
       </c>
       <c r="BR4" s="107">
         <f>$H$26*H39</f>
-        <v>4.8882540919123843E-4</v>
+        <v>6.1969547469484963E-3</v>
       </c>
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.25">
@@ -9085,7 +9085,7 @@
       </c>
       <c r="BJ5" s="107">
         <f t="shared" si="0"/>
-        <v>4.674535549187041E-3</v>
+        <v>2.5697160394779015E-2</v>
       </c>
       <c r="BL5">
         <v>1</v>
@@ -9095,7 +9095,7 @@
       </c>
       <c r="BN5" s="107">
         <f>$H$26*H40</f>
-        <v>3.8758266743939116E-3</v>
+        <v>2.7875962444674045E-2</v>
       </c>
       <c r="BP5">
         <f>BP4+1</f>
@@ -9106,7 +9106,7 @@
       </c>
       <c r="BR5" s="107">
         <f>$H$27*H39</f>
-        <v>6.733456209548908E-4</v>
+        <v>6.3755116874254702E-3</v>
       </c>
     </row>
     <row r="6" spans="1:70" x14ac:dyDescent="0.25">
@@ -9114,10 +9114,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="168">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="C6" s="169">
-        <v>13.25</v>
+        <v>12.75</v>
       </c>
       <c r="E6" s="192" t="s">
         <v>17</v>
@@ -9129,14 +9129,14 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="166" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="K6" s="166"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="O6" s="67">
         <f t="shared" ref="O6:O19" si="1">AG6*AI6*AO6*AH6</f>
-        <v>4.3479167898231114E-2</v>
+        <v>0</v>
       </c>
       <c r="P6" s="210">
         <f>P3</f>
@@ -9144,23 +9144,23 @@
       </c>
       <c r="Q6" s="214">
         <f t="shared" ref="Q6:Q19" si="2">P6*O6</f>
-        <v>2.4783125701991732E-2</v>
+        <v>0</v>
       </c>
       <c r="R6" s="157">
         <f t="shared" ref="R6:R19" si="3">IF($B$17="JC",IF($C$17="JC",$W$1,$V$1*1.1),IF($C$17="JC",$V$1/0.9,$U$1))*Q6/1.5</f>
-        <v>2.4783125701991732E-2</v>
+        <v>0</v>
       </c>
       <c r="S6" s="176">
         <f t="shared" ref="S6:S19" si="4">(1-R6)</f>
-        <v>0.9752168742980083</v>
+        <v>1</v>
       </c>
       <c r="T6" s="177">
         <f>R6*S5*PRODUCT(S7:S19)</f>
-        <v>1.8309962770000476E-2</v>
+        <v>0</v>
       </c>
       <c r="U6" s="177">
         <f>R6*R7*PRODUCT(S8:S19)*PRODUCT(S5)+R6*R8*PRODUCT(S9:S19)*S5*PRODUCT(S7)+R6*R9*PRODUCT(S10:S19)*S5*PRODUCT(S7:S8)+R6*R10*PRODUCT(S11:S19)*S5*PRODUCT(S7:S9)+R6*R11*PRODUCT(S12:S19)*S5*PRODUCT(S7:S10)+R6*R12*PRODUCT(S13:S19)*S5*PRODUCT(S7:S11)+R6*R13*PRODUCT(S14:S19)*S5*PRODUCT(S7:S12)+R6*R14*PRODUCT(S15:S19)*S5*PRODUCT(S7:S13)+R6*R15*PRODUCT(S16:S19)*S5*PRODUCT(S7:S14)+R6*R16*PRODUCT(S17:S19)*S5*PRODUCT(S7:S15)+R6*R17*PRODUCT(S18:S19)*S5*PRODUCT(S7:S16)+R6*R18*PRODUCT(S19)*S5*PRODUCT(S7:S17)+R6*R19*S5*PRODUCT(S7:S18)</f>
-        <v>5.7247969014709334E-3</v>
+        <v>0</v>
       </c>
       <c r="V6" s="18"/>
       <c r="W6" s="186" t="s">
@@ -9171,7 +9171,7 @@
       </c>
       <c r="Y6" s="69">
         <f t="shared" ref="Y6:Y19" si="5">AK6*AI6*AL6*AO6</f>
-        <v>4.3479167898231114E-2</v>
+        <v>5.9776210887437099E-2</v>
       </c>
       <c r="Z6" s="69">
         <f>Z3</f>
@@ -9179,40 +9179,40 @@
       </c>
       <c r="AA6" s="69">
         <f t="shared" ref="AA6:AA19" si="6">Z6*Y6</f>
-        <v>2.4783125701991732E-2</v>
+        <v>3.4072440205839147E-2</v>
       </c>
       <c r="AB6" s="157">
         <f t="shared" ref="AB6:AB19" si="7">IF($B$17="JC",IF($C$17="JC",$W$1,$V$1/0.9),IF($C$17="JC",$V$1*1.1,$U$1))*AA6/1.5</f>
-        <v>2.4783125701991732E-2</v>
+        <v>3.4072440205839147E-2</v>
       </c>
       <c r="AC6" s="176">
         <f t="shared" ref="AC6:AC19" si="8">(1-AB6)</f>
-        <v>0.9752168742980083</v>
+        <v>0.96592755979416089</v>
       </c>
       <c r="AD6" s="177">
         <f>AB6*AC5*PRODUCT(AC7:AC19)</f>
-        <v>1.5417876675783666E-2</v>
+        <v>2.3335691577618025E-2</v>
       </c>
       <c r="AE6" s="177">
         <f>AB6*AB7*PRODUCT(AC8:AC19)*PRODUCT(AC5)+AB6*AB8*PRODUCT(AC9:AC19)*AC5*PRODUCT(AC7)+AB6*AB9*PRODUCT(AC10:AC19)*AC5*PRODUCT(AC7:AC8)+AB6*AB10*PRODUCT(AC11:AC19)*AC5*PRODUCT(AC7:AC9)+AB6*AB11*PRODUCT(AC12:AC19)*AC5*PRODUCT(AC7:AC10)+AB6*AB12*PRODUCT(AC13:AC19)*AC5*PRODUCT(AC7:AC11)+AB6*AB13*PRODUCT(AC14:AC19)*AC5*PRODUCT(AC7:AC12)+AB6*AB14*PRODUCT(AC15:AC19)*AC5*PRODUCT(AC7:AC13)+AB6*AB15*PRODUCT(AC16:AC19)*AC5*PRODUCT(AC7:AC14)+AB6*AB16*PRODUCT(AC17:AC19)*AC5*PRODUCT(AC7:AC15)+AB6*AB17*PRODUCT(AC18:AC19)*AC5*PRODUCT(AC7:AC16)+AB6*AB18*PRODUCT(AC19)*AC5*PRODUCT(AC7:AC17)+AB6*AB19*AC5*PRODUCT(AC7:AC18)</f>
-        <v>7.9146809550446409E-3</v>
+        <v>9.1504202965746427E-3</v>
       </c>
       <c r="AF6" s="18"/>
       <c r="AG6" s="203">
         <f>IF(COUNTIF(F11:F18,"IMP")+COUNTIF(J11:J18,"IMP")=0,0,COUNTIF(F11:F18,"IMP")/(COUNTIF(F11:F18,"IMP")+COUNTIF(J11:J18,"IMP")))</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AH6">
         <f>COUNTIF(F11:F18,"IMP")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="207">
         <f t="shared" ref="AI6:AI19" si="9">AN6*$AM$3/$AN$3</f>
-        <v>0.69566668637169782</v>
+        <v>0.47820968709949679</v>
       </c>
       <c r="AK6" s="203">
         <f>IF(COUNTIF(F11:F18,"IMP")+COUNTIF(J11:J18,"IMP")=0,0,COUNTIF(J11:J18,"IMP")/(COUNTIF(F11:F18,"IMP")+COUNTIF(J11:J18,"IMP")))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AL6">
         <f>COUNTIF(J11:J18,"IMP")</f>
@@ -9237,7 +9237,7 @@
       </c>
       <c r="BJ6" s="107">
         <f t="shared" si="0"/>
-        <v>1.0183844677905944E-2</v>
+        <v>3.2162675825939319E-2</v>
       </c>
       <c r="BL6">
         <f>BH14+1</f>
@@ -9248,7 +9248,7 @@
       </c>
       <c r="BN6" s="107">
         <f>$H$27*H41</f>
-        <v>1.9298014185591454E-2</v>
+        <v>5.9137403636615057E-2</v>
       </c>
       <c r="BP6">
         <f>BL5+1</f>
@@ -9259,7 +9259,7 @@
       </c>
       <c r="BR6" s="107">
         <f>$H$27*H40</f>
-        <v>5.3388610119534568E-3</v>
+        <v>2.8679170918872284E-2</v>
       </c>
     </row>
     <row r="7" spans="1:70" x14ac:dyDescent="0.25">
@@ -9267,7 +9267,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="168">
-        <v>6.5</v>
+        <v>15.25</v>
       </c>
       <c r="C7" s="169">
         <v>15.75</v>
@@ -9285,7 +9285,7 @@
       <c r="M7" s="10"/>
       <c r="O7" s="67">
         <f t="shared" si="1"/>
-        <v>3.2664339957255255E-3</v>
+        <v>4.4907724047388332E-3</v>
       </c>
       <c r="P7" s="210">
         <f>P2</f>
@@ -9293,23 +9293,23 @@
       </c>
       <c r="Q7" s="214">
         <f t="shared" si="2"/>
-        <v>1.4698952980764866E-3</v>
+        <v>2.0208475821324751E-3</v>
       </c>
       <c r="R7" s="157">
         <f t="shared" si="3"/>
-        <v>1.4698952980764866E-3</v>
+        <v>2.0208475821324751E-3</v>
       </c>
       <c r="S7" s="176">
         <f t="shared" si="4"/>
-        <v>0.99853010470192349</v>
+        <v>0.9979791524178675</v>
       </c>
       <c r="T7" s="177">
         <f>R7*PRODUCT(S5:S6)*PRODUCT(S8:S19)</f>
-        <v>1.0606151506465605E-3</v>
+        <v>1.5760436519320796E-3</v>
       </c>
       <c r="U7" s="177">
         <f>R7*R8*PRODUCT(S9:S19)*PRODUCT(S5:S6)+R7*R9*PRODUCT(S10:S19)*PRODUCT(S5:S6)*PRODUCT(S8)+R7*R10*PRODUCT(S11:S19)*PRODUCT(S5:S6)*PRODUCT(S8:S9)+R7*R11*PRODUCT(S12:S19)*PRODUCT(S5:S6)*PRODUCT(S8:S10)+R7*R12*PRODUCT(S13:S19)*PRODUCT(S5:S6)*PRODUCT(S8:S11)+R7*R13*PRODUCT(S14:S19)*PRODUCT(S5:S6)*PRODUCT(S8:S12)+R7*R14*PRODUCT(S15:S19)*PRODUCT(S5:S6)*PRODUCT(S8:S13)+R7*R15*PRODUCT(S16:S19)*PRODUCT(S5:S6)*PRODUCT(S8:S14)+R7*R16*PRODUCT(S17:S19)*PRODUCT(S5:S6)*PRODUCT(S8:S15)+R7*R17*PRODUCT(S18:S19)*PRODUCT(S5:S6)*PRODUCT(S8:S16)+R7*R18*PRODUCT(S19)*PRODUCT(S5:S6)*PRODUCT(S8:S17)+R7*R19*PRODUCT(S5:S6)*PRODUCT(S8:S18)</f>
-        <v>3.3005087317922172E-4</v>
+        <v>4.0017288535159842E-4</v>
       </c>
       <c r="W7" s="187" t="s">
         <v>155</v>
@@ -9319,7 +9319,7 @@
       </c>
       <c r="Y7" s="69">
         <f t="shared" si="5"/>
-        <v>3.2664339957255255E-3</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="69">
         <f>Z2</f>
@@ -9327,27 +9327,27 @@
       </c>
       <c r="AA7" s="69">
         <f t="shared" si="6"/>
-        <v>1.4698952980764866E-3</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="157">
         <f t="shared" si="7"/>
-        <v>1.4698952980764866E-3</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="176">
         <f t="shared" si="8"/>
-        <v>0.99853010470192349</v>
+        <v>1</v>
       </c>
       <c r="AD7" s="177">
         <f>AB7*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC19)</f>
-        <v>8.930893961143733E-4</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="177">
         <f>AB7*AB8*PRODUCT(AC9:AC19)*PRODUCT(AC5:AC6)+AB7*AB9*PRODUCT(AC10:AC19)*PRODUCT(AC5:AC6)*PRODUCT(AC8)+AB7*AB10*PRODUCT(AC11:AC19)*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC9)+AB7*AB11*PRODUCT(AC12:AC19)*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC10)+AB7*AB12*PRODUCT(AC13:AC19)*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC11)+AB7*AB13*PRODUCT(AC14:AC19)*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC12)+AB7*AB14*PRODUCT(AC15:AC19)*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC13)+AB7*AB15*PRODUCT(AC16:AC19)*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC14)+AB7*AB16*PRODUCT(AC17:AC19)*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC15)+AB7*AB17*PRODUCT(AC18:AC19)*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC16)+AB7*AB18*PRODUCT(AC19)*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC17)+AB7*AB19*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC18)</f>
-        <v>4.5714777743667491E-4</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="203">
         <f>IF(COUNTIF(F14:F18,"IMP")+COUNTIF(J14:J18,"IMP")=0,0,COUNTIF(J14:J18,"IMP")/(COUNTIF(F14:F18,"IMP")+COUNTIF(J14:J18,"IMP")))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH7">
         <f>COUNTIF(J14:J18,"IMP")</f>
@@ -9355,15 +9355,15 @@
       </c>
       <c r="AI7" s="207">
         <f t="shared" si="9"/>
-        <v>6.532867991451051E-3</v>
+        <v>4.4907724047388332E-3</v>
       </c>
       <c r="AK7" s="203">
         <f>IF(COUNTIF(F14:F18,"IMP")+COUNTIF(J14:J18,"IMP")=0,0,COUNTIF(F14:F18,"IMP")/(COUNTIF(F14:F18,"IMP")+COUNTIF(J14:J18,"IMP")))</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AL7">
         <f>COUNTIF(F14:F18,"IMP")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" s="208">
         <v>3.8999999999999998E-3</v>
@@ -9383,7 +9383,7 @@
       </c>
       <c r="BJ7" s="107">
         <f t="shared" si="0"/>
-        <v>1.4893261735110781E-2</v>
+        <v>2.7270384545109095E-2</v>
       </c>
       <c r="BL7">
         <f>BH23+1</f>
@@ -9394,7 +9394,7 @@
       </c>
       <c r="BN7" s="107">
         <f>$H$28*H42</f>
-        <v>3.5260818821884365E-2</v>
+        <v>4.640671511510381E-2</v>
       </c>
       <c r="BP7">
         <f>BP5+1</f>
@@ -9405,7 +9405,7 @@
       </c>
       <c r="BR7" s="107">
         <f>$H$28*H39</f>
-        <v>5.6473474972953855E-4</v>
+        <v>3.9972985203396713E-3</v>
       </c>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.25">
@@ -9413,10 +9413,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="168">
-        <v>10.25</v>
+        <v>12.75</v>
       </c>
       <c r="C8" s="169">
-        <v>14.25</v>
+        <v>14.5</v>
       </c>
       <c r="E8" s="192" t="s">
         <v>18</v>
@@ -9428,14 +9428,14 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="166" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="K8" s="166"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="O8" s="67">
         <f t="shared" si="1"/>
-        <v>2.963628477384106E-2</v>
+        <v>0</v>
       </c>
       <c r="P8" s="210">
         <f>P2</f>
@@ -9443,23 +9443,23 @@
       </c>
       <c r="Q8" s="214">
         <f t="shared" si="2"/>
-        <v>1.3336328148228478E-2</v>
+        <v>0</v>
       </c>
       <c r="R8" s="157">
         <f t="shared" si="3"/>
-        <v>1.3336328148228478E-2</v>
+        <v>0</v>
       </c>
       <c r="S8" s="176">
         <f t="shared" si="4"/>
-        <v>0.98666367185177151</v>
+        <v>1</v>
       </c>
       <c r="T8" s="177">
         <f>R8*PRODUCT(S5:S7)*PRODUCT(S9:S19)</f>
-        <v>9.738671659736256E-3</v>
+        <v>0</v>
       </c>
       <c r="U8" s="177">
         <f>R8*R9*PRODUCT(S5:S7)*PRODUCT(S10:S19)+R8*R10*PRODUCT(S5:S7)*PRODUCT(S9)*PRODUCT(S11:S19)+R8*R11*PRODUCT(S5:S7)*PRODUCT(S9:S10)*PRODUCT(S12:S19)+R8*R12*PRODUCT(S5:S7)*PRODUCT(S9:S11)*PRODUCT(S13:S19)+R8*R13*PRODUCT(S5:S7)*PRODUCT(S9:S12)*PRODUCT(S14:S19)+R8*R14*PRODUCT(S5:S7)*PRODUCT(S9:S13)*PRODUCT(S15:S19)+R8*R15*PRODUCT(S5:S7)*PRODUCT(S9:S14)*PRODUCT(S16:S19)+R8*R16*PRODUCT(S5:S7)*PRODUCT(S9:S15)*PRODUCT(S17:S19)+R8*R17*PRODUCT(S5:S7)*PRODUCT(S9:S16)*PRODUCT(S18:S19)+R8*R18*PRODUCT(S5:S7)*PRODUCT(S9:S17)*PRODUCT(S19)+R8*R19*PRODUCT(S5:S7)*PRODUCT(S9:S18)</f>
-        <v>2.8989256474675276E-3</v>
+        <v>0</v>
       </c>
       <c r="W8" s="186" t="s">
         <v>42</v>
@@ -9469,7 +9469,7 @@
       </c>
       <c r="Y8" s="69">
         <f t="shared" si="5"/>
-        <v>2.963628477384106E-2</v>
+        <v>4.074468059526358E-2</v>
       </c>
       <c r="Z8" s="69">
         <f>Z2</f>
@@ -9477,39 +9477,39 @@
       </c>
       <c r="AA8" s="69">
         <f t="shared" si="6"/>
-        <v>1.3336328148228478E-2</v>
+        <v>1.8335106267868613E-2</v>
       </c>
       <c r="AB8" s="157">
         <f t="shared" si="7"/>
-        <v>1.3336328148228478E-2</v>
+        <v>1.8335106267868613E-2</v>
       </c>
       <c r="AC8" s="176">
         <f t="shared" si="8"/>
-        <v>0.98666367185177151</v>
+        <v>0.98166489373213139</v>
       </c>
       <c r="AD8" s="177">
         <f>AB8*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC19)</f>
-        <v>8.2004338578870375E-3</v>
+        <v>1.2356121410647191E-2</v>
       </c>
       <c r="AE8" s="177">
         <f>AB8*AB9*PRODUCT(AC5:AC7)*PRODUCT(AC10:AC19)+AB8*AB10*PRODUCT(AC5:AC7)*PRODUCT(AC9)*PRODUCT(AC11:AC19)+AB8*AB11*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC10)*PRODUCT(AC12:AC19)+AB8*AB12*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC11)*PRODUCT(AC13:AC19)+AB8*AB13*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC12)*PRODUCT(AC14:AC19)+AB8*AB14*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC13)*PRODUCT(AC15:AC19)+AB8*AB15*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC14)*PRODUCT(AC16:AC19)+AB8*AB16*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC15)*PRODUCT(AC17:AC19)+AB8*AB17*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC16)*PRODUCT(AC18:AC19)+AB8*AB18*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC17)*PRODUCT(AC19)+AB8*AB19*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC18)</f>
-        <v>4.0867335361227065E-3</v>
+        <v>4.6143154223918731E-3</v>
       </c>
       <c r="AG8" s="203">
         <f>IF(COUNTIF(F6:F18,"IMP")+COUNTIF(J6:J18,"IMP")=0,0,COUNTIF(F6:F18,"IMP")/(COUNTIF(F6:F18,"IMP")+COUNTIF(J6:J18,"IMP")))</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AH8">
         <f>COUNTIF(F6:F18,"IMP")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI8" s="207">
         <f t="shared" si="9"/>
-        <v>0.77054340411986755</v>
+        <v>0.5296808477384265</v>
       </c>
       <c r="AK8" s="203">
         <f>IF(COUNTIF(F6:F18,"IMP")+COUNTIF(J6:J18,"IMP")=0,0,COUNTIF(J6:J18,"IMP")/(COUNTIF(F6:F18,"IMP")+COUNTIF(J6:J18,"IMP")))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AL8">
         <f>COUNTIF(J6:J18,"IMP")</f>
@@ -9534,7 +9534,7 @@
       </c>
       <c r="BJ8" s="107">
         <f t="shared" si="0"/>
-        <v>1.5409450801879455E-2</v>
+        <v>1.6555366280753676E-2</v>
       </c>
       <c r="BL8">
         <f>BH31+1</f>
@@ -9545,7 +9545,7 @@
       </c>
       <c r="BN8" s="107">
         <f>$H$29*H43</f>
-        <v>2.9405153681744397E-2</v>
+        <v>1.6792932636658528E-2</v>
       </c>
       <c r="BP8">
         <f>BP6+1</f>
@@ -9556,7 +9556,7 @@
       </c>
       <c r="BR8" s="107">
         <f>$H$28*H40</f>
-        <v>4.4777009660367448E-3</v>
+        <v>1.7981177527237786E-2</v>
       </c>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.25">
@@ -9564,7 +9564,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="168">
-        <v>13.25</v>
+        <v>16</v>
       </c>
       <c r="C9" s="169">
         <v>16</v>
@@ -9680,7 +9680,7 @@
       </c>
       <c r="BJ9" s="107">
         <f t="shared" si="0"/>
-        <v>1.1580131374848977E-2</v>
+        <v>7.415507507118742E-3</v>
       </c>
       <c r="BL9">
         <f>BH38+1</f>
@@ -9691,7 +9691,7 @@
       </c>
       <c r="BN9" s="107">
         <f>$H$30*H44</f>
-        <v>1.2473528059740498E-2</v>
+        <v>3.1329177895005407E-3</v>
       </c>
       <c r="BP9">
         <f>BL6+1</f>
@@ -9702,7 +9702,7 @@
       </c>
       <c r="BR9" s="107">
         <f>$H$28*H41</f>
-        <v>1.6185238118756815E-2</v>
+        <v>3.7077785696731924E-2</v>
       </c>
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.25">
@@ -9710,10 +9710,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="168">
-        <v>18.5</v>
+        <v>16.25</v>
       </c>
       <c r="C10" s="169">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="E10" s="192" t="s">
         <v>17</v>
@@ -9725,14 +9725,14 @@
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="166" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="K10" s="166"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="O10" s="67">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.5956675314932321E-2</v>
       </c>
       <c r="P10" s="210">
         <f>P3</f>
@@ -9740,23 +9740,23 @@
       </c>
       <c r="Q10" s="214">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.4695304929511419E-2</v>
       </c>
       <c r="R10" s="157">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.4695304929511419E-2</v>
       </c>
       <c r="S10" s="176">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.94530469507048853</v>
       </c>
       <c r="T10" s="177">
         <f>R10*PRODUCT(S5:S9)*PRODUCT(S11:S19)</f>
-        <v>0</v>
+        <v>4.5033363477075317E-2</v>
       </c>
       <c r="U10" s="177">
         <f>R10*R11*PRODUCT(S5:S9)*PRODUCT(S12:S19)+R10*R12*PRODUCT(S5:S9)*S11*PRODUCT(S13:S19)+R10*R13*PRODUCT(S5:S9)*PRODUCT(S11:S12)*PRODUCT(S14:S19)+R10*R14*PRODUCT(S5:S9)*PRODUCT(S11:S13)*PRODUCT(S15:S19)+R10*R15*PRODUCT(S5:S9)*PRODUCT(S11:S14)*PRODUCT(S16:S19)+R10*R16*PRODUCT(S5:S9)*PRODUCT(S11:S15)*PRODUCT(S17:S19)+R10*R17*PRODUCT(S5:S9)*PRODUCT(S11:S16)*PRODUCT(S18:S19)+R10*R18*PRODUCT(S5:S9)*PRODUCT(S11:S17)*PRODUCT(S19)+R10*R19*PRODUCT(S5:S9)*PRODUCT(S11:S18)</f>
-        <v>0</v>
+        <v>8.828781849414628E-3</v>
       </c>
       <c r="W10" s="186" t="s">
         <v>46</v>
@@ -9766,7 +9766,7 @@
       </c>
       <c r="Y10" s="69">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.398916882873308E-2</v>
       </c>
       <c r="Z10" s="69">
         <f>Z3</f>
@@ -9774,50 +9774,50 @@
       </c>
       <c r="AA10" s="69">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.3673826232377855E-2</v>
       </c>
       <c r="AB10" s="157">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.3673826232377855E-2</v>
       </c>
       <c r="AC10" s="176">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.98632617376762211</v>
       </c>
       <c r="AD10" s="177">
         <f>AB10*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC19)</f>
-        <v>0</v>
+        <v>9.1713125532780961E-3</v>
       </c>
       <c r="AE10" s="177">
         <f>AB10*AB11*PRODUCT(AC5:AC9)*PRODUCT(AC12:AC19)+AB10*AB12*PRODUCT(AC5:AC9)*AC11*PRODUCT(AC13:AC19)+AB10*AB13*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC12)*PRODUCT(AC14:AC19)+AB10*AB14*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC13)*PRODUCT(AC15:AC19)+AB10*AB15*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC14)*PRODUCT(AC16:AC19)+AB10*AB16*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC15)*PRODUCT(AC17:AC19)+AB10*AB17*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC16)*PRODUCT(AC18:AC19)+AB10*AB18*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC17)*PRODUCT(AC19)+AB10*AB19*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC18)</f>
-        <v>0</v>
+        <v>3.2978231901013184E-3</v>
       </c>
       <c r="AG10" s="203">
         <f>IF(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")=0,0,COUNTIF(F11:F18,"RAP")/(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")))</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AH10">
         <f>COUNTIF(F11:F18,"RAP")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI10" s="207">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.57574005188959398</v>
       </c>
       <c r="AK10" s="203">
         <f>IF(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")=0,0,COUNTIF(J11:J18,"RAP")/(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")))</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AL10">
         <f>COUNTIF(J11:J18,"RAP")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM10" s="208">
         <v>0.5</v>
       </c>
       <c r="AN10" s="209">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO10">
         <f>1/8</f>
@@ -9831,7 +9831,7 @@
       </c>
       <c r="BJ10" s="107">
         <f t="shared" si="0"/>
-        <v>6.3861234345405759E-3</v>
+        <v>2.4883184755769591E-3</v>
       </c>
       <c r="BL10">
         <f>BH44+1</f>
@@ -9842,7 +9842,7 @@
       </c>
       <c r="BN10" s="107">
         <f>$H$31*H45</f>
-        <v>2.8487646684680198E-3</v>
+        <v>3.2027430400915558E-4</v>
       </c>
       <c r="BP10">
         <f>BP7+1</f>
@@ -9853,7 +9853,7 @@
       </c>
       <c r="BR10" s="107">
         <f>$H$29*H39</f>
-        <v>3.2203087885817705E-4</v>
+        <v>1.7059771579195943E-3</v>
       </c>
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.25">
@@ -9861,7 +9861,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="168">
-        <v>20.25</v>
+        <v>11.25</v>
       </c>
       <c r="C11" s="169">
         <v>10.5</v>
@@ -9876,14 +9876,14 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="166" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="K11" s="166"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="O11" s="67">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.5956675314932321E-2</v>
       </c>
       <c r="P11" s="210">
         <f>P3</f>
@@ -9891,23 +9891,23 @@
       </c>
       <c r="Q11" s="214">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.4695304929511419E-2</v>
       </c>
       <c r="R11" s="157">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.4695304929511419E-2</v>
       </c>
       <c r="S11" s="176">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.94530469507048853</v>
       </c>
       <c r="T11" s="177">
         <f>R11*PRODUCT(S5:S10)*PRODUCT(S12:S19)</f>
-        <v>0</v>
+        <v>4.5033363477075317E-2</v>
       </c>
       <c r="U11" s="177">
         <f>R11*R12*PRODUCT(S5:S10)*PRODUCT(S13:S19)+R11*R13*PRODUCT(S5:S10)*S12*PRODUCT(S14:S19)+R11*R14*PRODUCT(S5:S10)*PRODUCT(S12:S13)*PRODUCT(S15:S19)+R11*R15*PRODUCT(S5:S10)*PRODUCT(S12:S14)*PRODUCT(S16:S19)+R11*R16*PRODUCT(S5:S10)*PRODUCT(S12:S15)*PRODUCT(S17:S19)+R11*R17*PRODUCT(S5:S10)*PRODUCT(S12:S16)*PRODUCT(S18:S19)+R11*R18*PRODUCT(S5:S10)*PRODUCT(S12:S17)*PRODUCT(S19)+R11*R19*PRODUCT(S5:S10)*PRODUCT(S12:S18)</f>
-        <v>0</v>
+        <v>6.2231526166131442E-3</v>
       </c>
       <c r="W11" s="186" t="s">
         <v>48</v>
@@ -9917,7 +9917,7 @@
       </c>
       <c r="Y11" s="69">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.398916882873308E-2</v>
       </c>
       <c r="Z11" s="69">
         <f>Z3</f>
@@ -9925,50 +9925,50 @@
       </c>
       <c r="AA11" s="69">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.3673826232377855E-2</v>
       </c>
       <c r="AB11" s="157">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.3673826232377855E-2</v>
       </c>
       <c r="AC11" s="176">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.98632617376762211</v>
       </c>
       <c r="AD11" s="177">
         <f>AB11*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC19)</f>
-        <v>0</v>
+        <v>9.1713125532780961E-3</v>
       </c>
       <c r="AE11" s="177">
         <f>AB11*AB12*PRODUCT(AC5:AC10)*PRODUCT(AC13:AC19)+AB11*AB13*PRODUCT(AC5:AC10)*AC12*PRODUCT(AC14:AC19)+AB11*AB14*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC13)*PRODUCT(AC15:AC19)+AB11*AB15*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC14)*PRODUCT(AC16:AC19)+AB11*AB16*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC15)*PRODUCT(AC17:AC19)+AB11*AB17*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC16)*PRODUCT(AC18:AC19)+AB11*AB18*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC17)*PRODUCT(AC19)+AB11*AB19*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC18)</f>
-        <v>0</v>
+        <v>3.1706776904565975E-3</v>
       </c>
       <c r="AG11" s="203">
         <f>IF(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")=0,0,COUNTIF(F11:F18,"RAP")/(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")))</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AH11">
         <f>COUNTIF(F11:F18,"RAP")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI11" s="207">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.57574005188959398</v>
       </c>
       <c r="AK11" s="203">
         <f>IF(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")=0,0,COUNTIF(J11:J18,"RAP")/(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")))</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AL11">
         <f>COUNTIF(J11:J18,"RAP")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM11" s="208">
         <v>0.5</v>
       </c>
       <c r="AN11" s="209">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO11">
         <f>1/8</f>
@@ -9982,7 +9982,7 @@
       </c>
       <c r="BJ11" s="107">
         <f t="shared" si="0"/>
-        <v>2.5799575075433913E-3</v>
+        <v>6.2825991179889121E-4</v>
       </c>
       <c r="BL11">
         <f>BH50+1</f>
@@ -9993,7 +9993,7 @@
       </c>
       <c r="BN11" s="107">
         <f>$H$32*H46</f>
-        <v>3.5944866812548908E-4</v>
+        <v>1.850897708561631E-5</v>
       </c>
       <c r="BP11">
         <f>BP8+1</f>
@@ -10004,7 +10004,7 @@
       </c>
       <c r="BR11" s="107">
         <f>$H$29*H40</f>
-        <v>2.5533367267509223E-3</v>
+        <v>7.6740523575802733E-3</v>
       </c>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.25">
@@ -10012,29 +10012,29 @@
         <v>7</v>
       </c>
       <c r="B12" s="168">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="C12" s="169">
-        <v>18.5</v>
+        <v>17.25</v>
       </c>
       <c r="E12" s="192" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="167" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="G12" s="167"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="166" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K12" s="166"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="O12" s="67">
         <f t="shared" si="1"/>
-        <v>4.8158962757491718E-3</v>
+        <v>3.3105052983651651E-3</v>
       </c>
       <c r="P12" s="210">
         <f>P2</f>
@@ -10042,23 +10042,23 @@
       </c>
       <c r="Q12" s="214">
         <f t="shared" si="2"/>
-        <v>2.1671533240871276E-3</v>
+        <v>1.4897273842643243E-3</v>
       </c>
       <c r="R12" s="157">
         <f t="shared" si="3"/>
-        <v>2.1671533240871276E-3</v>
+        <v>1.4897273842643243E-3</v>
       </c>
       <c r="S12" s="176">
         <f t="shared" si="4"/>
-        <v>0.99783284667591288</v>
+        <v>0.99851027261573566</v>
       </c>
       <c r="T12" s="177">
         <f>R12*PRODUCT(S5:S11)*PRODUCT(S13:S19)</f>
-        <v>1.5648201552485967E-3</v>
+        <v>1.161209060653208E-3</v>
       </c>
       <c r="U12" s="177">
         <f>R12*R13*PRODUCT(S5:S11)*PRODUCT(S14:S19)+R12*R14*PRODUCT(S5:S11)*S13*PRODUCT(S15:S19)+R12*R15*PRODUCT(S5:S11)*PRODUCT(S13:S14)*PRODUCT(S16:S19)+R12*R16*PRODUCT(S5:S11)*PRODUCT(S13:S15)*PRODUCT(S17:S19)+R12*R17*PRODUCT(S5:S11)*PRODUCT(S13:S16)*PRODUCT(S18:S19)+R12*R18*PRODUCT(S5:S11)*PRODUCT(S13:S17)*PRODUCT(S19)+R12*R19*PRODUCT(S5:S11)*PRODUCT(S13:S18)</f>
-        <v>4.6240389630017482E-4</v>
+        <v>1.5873481100450116E-4</v>
       </c>
       <c r="W12" s="187" t="s">
         <v>50</v>
@@ -10068,7 +10068,7 @@
       </c>
       <c r="Y12" s="69">
         <f t="shared" si="5"/>
-        <v>4.8158962757491718E-3</v>
+        <v>3.3105052983651651E-3</v>
       </c>
       <c r="Z12" s="69">
         <f>Z2</f>
@@ -10076,23 +10076,23 @@
       </c>
       <c r="AA12" s="69">
         <f t="shared" si="6"/>
-        <v>2.1671533240871276E-3</v>
+        <v>1.4897273842643243E-3</v>
       </c>
       <c r="AB12" s="157">
         <f t="shared" si="7"/>
-        <v>2.1671533240871276E-3</v>
+        <v>1.4897273842643243E-3</v>
       </c>
       <c r="AC12" s="176">
         <f t="shared" si="8"/>
-        <v>0.99783284667591288</v>
+        <v>0.99851027261573566</v>
       </c>
       <c r="AD12" s="177">
         <f>AB12*PRODUCT(AC5:AC11)*PRODUCT(AC13:AC19)</f>
-        <v>1.3176544636634936E-3</v>
+        <v>9.8699797009060538E-4</v>
       </c>
       <c r="AE12" s="177">
         <f>AB12*AB13*PRODUCT(AC5:AC11)*PRODUCT(AC14:AC19)+AB12*AB14*PRODUCT(AC5:AC11)*AC13*PRODUCT(AC15:AC19)+AB12*AB15*PRODUCT(AC5:AC11)*PRODUCT(AC13:AC14)*PRODUCT(AC16:AC19)+AB12*AB16*PRODUCT(AC5:AC11)*PRODUCT(AC13:AC15)*PRODUCT(AC17:AC19)+AB12*AB17*PRODUCT(AC5:AC11)*PRODUCT(AC13:AC16)*PRODUCT(AC18:AC19)+AB12*AB18*PRODUCT(AC5:AC11)*PRODUCT(AC13:AC17)*PRODUCT(AC19)+AB12*AB19*PRODUCT(AC5:AC11)*PRODUCT(AC13:AC18)</f>
-        <v>6.5379894475796341E-4</v>
+        <v>3.3974932106756032E-4</v>
       </c>
       <c r="AG12" s="203">
         <f>IF(COUNTA(F6:F10)+COUNTA(J6:J10)=0,0,COUNTA(F6:F10)/(COUNTA(F6:F10)+COUNTA(J6:J10)))</f>
@@ -10104,7 +10104,7 @@
       </c>
       <c r="AI12" s="207">
         <f t="shared" si="9"/>
-        <v>1.9263585102996687E-2</v>
+        <v>1.324202119346066E-2</v>
       </c>
       <c r="AK12" s="203">
         <f>IF(COUNTA(J6:J10)+COUNTA(F6:F10)=0,0,COUNTA(J6:J10)/(COUNTA(J6:J10)+COUNTA(F6:F10)))</f>
@@ -10133,7 +10133,7 @@
       </c>
       <c r="BJ12" s="107">
         <f t="shared" si="0"/>
-        <v>7.5386978397464313E-4</v>
+        <v>1.1863545500311376E-4</v>
       </c>
       <c r="BL12">
         <f>BH54+1</f>
@@ -10144,7 +10144,7 @@
       </c>
       <c r="BN12" s="107">
         <f>$H$33*H47</f>
-        <v>2.5122838926310173E-5</v>
+        <v>6.1021814165392283E-7</v>
       </c>
       <c r="BP12">
         <f>BP9+1</f>
@@ -10155,7 +10155,7 @@
       </c>
       <c r="BR12" s="107">
         <f>$H$29*H41</f>
-        <v>9.2293708832479563E-3</v>
+        <v>1.5824151021747432E-2</v>
       </c>
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.25">
@@ -10163,7 +10163,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="168">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="C13" s="169">
         <v>12.5</v>
@@ -10172,7 +10172,7 @@
         <v>19</v>
       </c>
       <c r="F13" s="167" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="G13" s="167"/>
       <c r="H13" s="10"/>
@@ -10185,7 +10185,7 @@
       <c r="M13" s="10"/>
       <c r="O13" s="67">
         <f t="shared" si="1"/>
-        <v>0.11051958485857855</v>
+        <v>7.8557608932775497E-2</v>
       </c>
       <c r="P13" s="210">
         <f>P3</f>
@@ -10193,23 +10193,23 @@
       </c>
       <c r="Q13" s="214">
         <f t="shared" si="2"/>
-        <v>6.2996163369389763E-2</v>
+        <v>4.4777837091682031E-2</v>
       </c>
       <c r="R13" s="157">
         <f t="shared" si="3"/>
-        <v>6.2996163369389763E-2</v>
+        <v>4.4777837091682031E-2</v>
       </c>
       <c r="S13" s="176">
         <f t="shared" si="4"/>
-        <v>0.93700383663061027</v>
+        <v>0.95522216290831796</v>
       </c>
       <c r="T13" s="177">
         <f>R13*PRODUCT(S5:S12)*PRODUCT(S14:S19)</f>
-        <v>4.8440132270550815E-2</v>
+        <v>3.6485043944912164E-2</v>
       </c>
       <c r="U13" s="177">
         <f>R13*R14*PRODUCT(S5:S12)*PRODUCT(S15:S19)+R13*R15*PRODUCT(S5:S12)*S14*PRODUCT(S16:S19)+R13*R16*PRODUCT(S5:S12)*PRODUCT(S14:S15)*PRODUCT(S17:S19)+R13*R17*PRODUCT(S5:S12)*PRODUCT(S14:S16)*PRODUCT(S18:S19)+R13*R18*PRODUCT(S5:S12)*PRODUCT(S14:S17)*PRODUCT(S19)+R13*R19*PRODUCT(S5:S12)*PRODUCT(S14:S18)</f>
-        <v>1.1057342627445909E-2</v>
+        <v>3.2771228580010898E-3</v>
       </c>
       <c r="W13" s="186" t="s">
         <v>52</v>
@@ -10219,7 +10219,7 @@
       </c>
       <c r="Y13" s="69">
         <f t="shared" si="5"/>
-        <v>0.13622181389545726</v>
+        <v>9.1055410353898886E-2</v>
       </c>
       <c r="Z13" s="69">
         <f>Z3</f>
@@ -10227,38 +10227,38 @@
       </c>
       <c r="AA13" s="69">
         <f t="shared" si="6"/>
-        <v>7.7646433920410637E-2</v>
+        <v>5.1901583901722358E-2</v>
       </c>
       <c r="AB13" s="157">
         <f t="shared" si="7"/>
-        <v>7.7646433920410637E-2</v>
+        <v>5.1901583901722358E-2</v>
       </c>
       <c r="AC13" s="176">
         <f t="shared" si="8"/>
-        <v>0.9223535660795894</v>
+        <v>0.94809841609827761</v>
       </c>
       <c r="AD13" s="177">
         <f>AB13*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC19)</f>
-        <v>5.107328338905949E-2</v>
+        <v>3.6215058092450507E-2</v>
       </c>
       <c r="AE13" s="177">
         <f>AB13*AB14*PRODUCT(AC5:AC12)*PRODUCT(AC15:AC19)+AB13*AB15*PRODUCT(AC5:AC12)*AC14*PRODUCT(AC16:AC19)+AB13*AB16*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC15)*PRODUCT(AC17:AC19)+AB13*AB17*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC16)*PRODUCT(AC18:AC19)+AB13*AB18*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC17)*PRODUCT(AC19)+AB13*AB19*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC18)</f>
-        <v>2.1042242389050971E-2</v>
+        <v>1.0483611827174062E-2</v>
       </c>
       <c r="AG13" s="203">
         <f>B22</f>
-        <v>0.44791666666666669</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="AH13">
         <v>1</v>
       </c>
       <c r="AI13" s="207">
         <f t="shared" si="9"/>
-        <v>0.24674139875403581</v>
+        <v>0.16961301928667438</v>
       </c>
       <c r="AK13" s="203">
         <f>C22</f>
-        <v>0.55208333333333326</v>
+        <v>0.5368421052631579</v>
       </c>
       <c r="AL13">
         <v>1</v>
@@ -10281,7 +10281,7 @@
       </c>
       <c r="BJ13" s="107">
         <f t="shared" si="0"/>
-        <v>1.5534516587581025E-4</v>
+        <v>1.6423835787504288E-5</v>
       </c>
       <c r="BL13">
         <f>BH57+1</f>
@@ -10292,7 +10292,7 @@
       </c>
       <c r="BN13" s="107">
         <f>$H$34*H48</f>
-        <v>9.5393293828100904E-7</v>
+        <v>1.1334278103240192E-8</v>
       </c>
       <c r="BP13">
         <f>BL7+1</f>
@@ -10303,7 +10303,7 @@
       </c>
       <c r="BR13" s="107">
         <f>$H$29*H42</f>
-        <v>2.010691298863496E-2</v>
+        <v>1.980557507967198E-2</v>
       </c>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.25">
@@ -10311,7 +10311,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="168">
-        <v>9.75</v>
+        <v>6.5</v>
       </c>
       <c r="C14" s="169">
         <v>10.75</v>
@@ -10333,31 +10333,31 @@
       <c r="M14" s="10"/>
       <c r="O14" s="67">
         <f t="shared" si="1"/>
-        <v>0.15703835105838759</v>
+        <v>0.11162326917603473</v>
       </c>
       <c r="P14" s="210">
         <f>IF(COUNTIF(F6:F18,"CAB")-COUNTIF(J6:J18,"CAB")&gt;2,0.8,IF(COUNTIF(F6:F18,"CAB")-COUNTIF(J6:J18,"CAB")&gt;0,0.6,IF(COUNTIF(F6:F18,"CAB")-COUNTIF(J6:J18,"CAB")=0,0.5,0.15)))</f>
-        <v>0.6</v>
+        <v>0.15</v>
       </c>
       <c r="Q14" s="214">
         <f t="shared" si="2"/>
-        <v>9.422301063503255E-2</v>
+        <v>1.6743490376405209E-2</v>
       </c>
       <c r="R14" s="157">
         <f t="shared" si="3"/>
-        <v>9.4223010635032536E-2</v>
+        <v>1.6743490376405209E-2</v>
       </c>
       <c r="S14" s="176">
         <f t="shared" si="4"/>
-        <v>0.90577698936496742</v>
+        <v>0.98325650962359479</v>
       </c>
       <c r="T14" s="177">
         <f>R14*PRODUCT(S5:S13)*PRODUCT(S15:S19)</f>
-        <v>7.4949420997713373E-2</v>
+        <v>1.3253644535185863E-2</v>
       </c>
       <c r="U14" s="177">
         <f>R14*R15*PRODUCT(S5:S13)*PRODUCT(S16:S19)+R14*R16*PRODUCT(S5:S13)*S15*PRODUCT(S17:S19)+R14*R17*PRODUCT(S5:S13)*PRODUCT(S15:S16)*PRODUCT(S18:S19)+R14*R18*PRODUCT(S5:S13)*PRODUCT(S15:S17)*PRODUCT(S19)+R14*R19*PRODUCT(S5:S13)*PRODUCT(S15:S18)</f>
-        <v>9.3119936461895248E-3</v>
+        <v>9.6476437925838501E-4</v>
       </c>
       <c r="W14" s="186" t="s">
         <v>54</v>
@@ -10367,35 +10367,35 @@
       </c>
       <c r="Y14" s="69">
         <f t="shared" si="5"/>
-        <v>0.19355889781615213</v>
+        <v>0.12938151654494934</v>
       </c>
       <c r="Z14" s="211">
         <f>IF(COUNTIF(J6:J18,"CAB")-COUNTIF(F6:F18,"CAB")&gt;2,0.8,IF(COUNTIF(J6:J18,"CAB")-COUNTIF(F6:F18,"CAB")&gt;0,0.6,IF(COUNTIF(J6:J18,"CAB")-COUNTIF(F6:F18,"CAB")=0,0.5,0.15)))</f>
-        <v>0.15</v>
+        <v>0.6</v>
       </c>
       <c r="AA14" s="69">
         <f t="shared" si="6"/>
-        <v>2.9033834672422817E-2</v>
+        <v>7.7628909926969594E-2</v>
       </c>
       <c r="AB14" s="157">
         <f t="shared" si="7"/>
-        <v>2.9033834672422817E-2</v>
+        <v>7.7628909926969594E-2</v>
       </c>
       <c r="AC14" s="176">
         <f t="shared" si="8"/>
-        <v>0.97096616532757718</v>
+        <v>0.92237109007303042</v>
       </c>
       <c r="AD14" s="177">
         <f>AB14*PRODUCT(AC5:AC13)*PRODUCT(AC15:AC19)</f>
-        <v>1.8141366536708076E-2</v>
+        <v>5.5677509545774252E-2</v>
       </c>
       <c r="AE14" s="177">
         <f>AB14*AB15*PRODUCT(AC5:AC13)*PRODUCT(AC16:AC19)+AB14*AB16*PRODUCT(AC5:AC13)*AC15*PRODUCT(AC17:AC19)+AB14*AB17*PRODUCT(AC5:AC13)*PRODUCT(AC15:AC16)*PRODUCT(AC18:AC19)+AB14*AB18*PRODUCT(AC5:AC13)*PRODUCT(AC15:AC17)*PRODUCT(AC19)+AB14*AB19*PRODUCT(AC5:AC13)*PRODUCT(AC15:AC18)</f>
-        <v>6.9317974184823035E-3</v>
+        <v>1.1431694025638806E-2</v>
       </c>
       <c r="AG14" s="203">
         <f>IF(AL14=0,1,B22)</f>
-        <v>0.44791666666666669</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="AH14">
         <f>IF(COUNTIF(F6:F18,"CAB")&gt;0,1,0)</f>
@@ -10403,11 +10403,11 @@
       </c>
       <c r="AI14" s="207">
         <f t="shared" si="9"/>
-        <v>0.35059724887453975</v>
+        <v>0.24100478572098408</v>
       </c>
       <c r="AK14" s="203">
         <f>IF(AH14=0,1,C22)</f>
-        <v>0.55208333333333326</v>
+        <v>0.5368421052631579</v>
       </c>
       <c r="AL14">
         <f>IF(COUNTIF(J6:J18,"CAB")&gt;0,1,0)</f>
@@ -10431,7 +10431,7 @@
       </c>
       <c r="BJ14" s="107">
         <f t="shared" ref="BJ14:BJ22" si="11">$H$26*H41</f>
-        <v>1.4009684458142534E-2</v>
+        <v>5.7481161066793983E-2</v>
       </c>
       <c r="BL14">
         <f>BP39+1</f>
@@ -10442,7 +10442,7 @@
       </c>
       <c r="BN14" s="107">
         <f>$H$35*H49</f>
-        <v>1.8783299657406218E-8</v>
+        <v>1.1380413689590333E-10</v>
       </c>
       <c r="BP14">
         <f>BP10+1</f>
@@ -10453,7 +10453,7 @@
       </c>
       <c r="BR14" s="107">
         <f>$H$30*H39</f>
-        <v>1.320279966211294E-4</v>
+        <v>5.2426170200199249E-4</v>
       </c>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.25">
@@ -10461,7 +10461,7 @@
         <v>71</v>
       </c>
       <c r="B15" s="170">
-        <v>5</v>
+        <v>8.75</v>
       </c>
       <c r="C15" s="171">
         <v>8.25</v>
@@ -10470,7 +10470,7 @@
         <v>20</v>
       </c>
       <c r="F15" s="167" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="G15" s="167"/>
       <c r="H15" s="10"/>
@@ -10483,7 +10483,7 @@
       <c r="M15" s="10"/>
       <c r="O15" s="67">
         <f t="shared" si="1"/>
-        <v>2.9261804545041167E-2</v>
+        <v>2.0799366927211436E-2</v>
       </c>
       <c r="P15" s="210">
         <f>R3</f>
@@ -10491,23 +10491,23 @@
       </c>
       <c r="Q15" s="214">
         <f t="shared" si="2"/>
-        <v>2.0483263181528814E-2</v>
+        <v>1.4559556849048003E-2</v>
       </c>
       <c r="R15" s="157">
         <f t="shared" si="3"/>
-        <v>2.0483263181528814E-2</v>
+        <v>1.4559556849048005E-2</v>
       </c>
       <c r="S15" s="176">
         <f t="shared" si="4"/>
-        <v>0.97951673681847118</v>
+        <v>0.98544044315095203</v>
       </c>
       <c r="T15" s="177">
         <f>R15*PRODUCT(S5:S14)*PRODUCT(S16:S19)</f>
-        <v>1.5066760087370453E-2</v>
+        <v>1.1499366784830647E-2</v>
       </c>
       <c r="U15" s="177">
         <f>R15*R16*PRODUCT(S5:S14)*PRODUCT(S17:S19)+R15*R17*PRODUCT(S5:S14)*S16*PRODUCT(S18:S19)+R15*R18*PRODUCT(S5:S14)*S16*S17*S19+R15*R19*PRODUCT(S5:S14)*S16*S17*S18</f>
-        <v>1.5568799988195008E-3</v>
+        <v>6.6716697644501758E-4</v>
       </c>
       <c r="W15" s="186" t="s">
         <v>56</v>
@@ -10517,7 +10517,7 @@
       </c>
       <c r="Y15" s="69">
         <f t="shared" si="5"/>
-        <v>3.6066875369469342E-2</v>
+        <v>2.410835712017689E-2</v>
       </c>
       <c r="Z15" s="69">
         <f>AB3</f>
@@ -10525,38 +10525,38 @@
       </c>
       <c r="AA15" s="69">
         <f t="shared" si="6"/>
-        <v>2.5246812758628539E-2</v>
+        <v>1.6875849984123822E-2</v>
       </c>
       <c r="AB15" s="157">
         <f t="shared" si="7"/>
-        <v>2.5246812758628539E-2</v>
+        <v>1.6875849984123822E-2</v>
       </c>
       <c r="AC15" s="176">
         <f t="shared" si="8"/>
-        <v>0.9747531872413715</v>
+        <v>0.98312415001587616</v>
       </c>
       <c r="AD15" s="177">
         <f>AB15*PRODUCT(AC5:AC14)*PRODUCT(AC16:AC19)</f>
-        <v>1.5713813355643959E-2</v>
+        <v>1.1355840586593264E-2</v>
       </c>
       <c r="AE15" s="177">
         <f>AB15*AB16*PRODUCT(AC5:AC14)*PRODUCT(AC17:AC19)+AB15*AB17*PRODUCT(AC5:AC14)*AC16*PRODUCT(AC18:AC19)+AB15*AB18*PRODUCT(AC5:AC14)*AC16*AC17*AC19+AB15*AB19*PRODUCT(AC5:AC14)*AC16*AC17*AC18</f>
-        <v>5.5972327205583046E-3</v>
+        <v>2.1366496382790433E-3</v>
       </c>
       <c r="AG15" s="203">
         <f>IF(AL15=0,1,B22)</f>
-        <v>0.44791666666666669</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="AH15">
         <v>1</v>
       </c>
       <c r="AI15" s="207">
         <f t="shared" si="9"/>
-        <v>6.532867991451051E-2</v>
+        <v>4.4907724047388325E-2</v>
       </c>
       <c r="AK15" s="203">
         <f>IF(AH15=0,1,C22)</f>
-        <v>0.55208333333333326</v>
+        <v>0.5368421052631579</v>
       </c>
       <c r="AL15">
         <v>1</v>
@@ -10579,7 +10579,7 @@
       </c>
       <c r="BJ15" s="107">
         <f t="shared" si="11"/>
-        <v>3.0521203445122786E-2</v>
+        <v>7.1943666968958792E-2</v>
       </c>
       <c r="BP15">
         <f>BP11+1</f>
@@ -10590,7 +10590,7 @@
       </c>
       <c r="BR15" s="107">
         <f>$H$30*H40</f>
-        <v>1.0468310800733525E-3</v>
+        <v>2.3583034107816925E-3</v>
       </c>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.25">
@@ -10608,7 +10608,9 @@
       <c r="E16" s="192" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="167"/>
+      <c r="F16" s="167" t="s">
+        <v>123</v>
+      </c>
       <c r="G16" s="167"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -10620,30 +10622,30 @@
       <c r="M16" s="10"/>
       <c r="O16" s="67">
         <f t="shared" si="1"/>
-        <v>2.8853500295575471E-2</v>
+        <v>1.9286685696141514E-2</v>
       </c>
       <c r="P16" s="210">
         <v>0.15</v>
       </c>
       <c r="Q16" s="214">
         <f t="shared" si="2"/>
-        <v>4.3280250443363203E-3</v>
+        <v>2.8930028544212269E-3</v>
       </c>
       <c r="R16" s="157">
         <f t="shared" si="3"/>
-        <v>4.3280250443363203E-3</v>
+        <v>2.8930028544212269E-3</v>
       </c>
       <c r="S16" s="176">
         <f t="shared" si="4"/>
-        <v>0.99567197495566373</v>
+        <v>0.99710699714557882</v>
       </c>
       <c r="T16" s="177">
         <f>R16*PRODUCT(S5:S15)*PRODUCT(S17:S19)</f>
-        <v>3.1318869040371728E-3</v>
+        <v>2.2582044052461194E-3</v>
       </c>
       <c r="U16" s="177">
         <f>R16*R17*PRODUCT(S5:S15)*PRODUCT(S18:S19)+R16*R18*PRODUCT(S5:S15)*S17*S19+R16*R19*PRODUCT(S5:S15)*S17*S18</f>
-        <v>3.1001065297157351E-4</v>
+        <v>1.2446391136361652E-4</v>
       </c>
       <c r="W16" s="187" t="s">
         <v>58</v>
@@ -10653,45 +10655,45 @@
       </c>
       <c r="Y16" s="69">
         <f t="shared" si="5"/>
-        <v>2.3409443636032933E-2</v>
+        <v>1.6639493541769152E-2</v>
       </c>
       <c r="Z16" s="69">
         <v>0.15</v>
       </c>
       <c r="AA16" s="69">
         <f t="shared" si="6"/>
-        <v>3.5114165454049398E-3</v>
+        <v>2.4959240312653727E-3</v>
       </c>
       <c r="AB16" s="157">
         <f t="shared" si="7"/>
-        <v>3.5114165454049398E-3</v>
+        <v>2.4959240312653727E-3</v>
       </c>
       <c r="AC16" s="176">
         <f t="shared" si="8"/>
-        <v>0.99648858345459501</v>
+        <v>0.99750407596873458</v>
       </c>
       <c r="AD16" s="177">
         <f>AB16*PRODUCT(AC5:AC15)*PRODUCT(AC17:AC19)</f>
-        <v>2.1378622511605944E-3</v>
+        <v>1.6553074863529871E-3</v>
       </c>
       <c r="AE16" s="177">
         <f>AB16*AB17*PRODUCT(AC5:AC15)*PRODUCT(AC18:AC19)+AB16*AB18*PRODUCT(AC5:AC15)*AC17*AC19+AB16*AB19*PRODUCT(AC5:AC15)*AC17*AC18</f>
-        <v>7.5396940162532908E-4</v>
+        <v>3.0731127468022897E-4</v>
       </c>
       <c r="AG16" s="203">
         <f>C22</f>
-        <v>0.55208333333333326</v>
+        <v>0.5368421052631579</v>
       </c>
       <c r="AH16">
         <v>1</v>
       </c>
       <c r="AI16" s="207">
         <f t="shared" si="9"/>
-        <v>5.2262943931608408E-2</v>
+        <v>3.5926179237910666E-2</v>
       </c>
       <c r="AK16" s="203">
         <f>B22</f>
-        <v>0.44791666666666669</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="AL16">
         <v>1</v>
@@ -10714,7 +10716,7 @@
       </c>
       <c r="BJ16" s="107">
         <f t="shared" si="11"/>
-        <v>4.4635428539572704E-2</v>
+        <v>6.1000256149286704E-2</v>
       </c>
       <c r="BP16">
         <f>BP12+1</f>
@@ -10725,7 +10727,7 @@
       </c>
       <c r="BR16" s="107">
         <f>$H$30*H41</f>
-        <v>3.7839084006762477E-3</v>
+        <v>4.8629000153288578E-3</v>
       </c>
     </row>
     <row r="17" spans="1:70" x14ac:dyDescent="0.25">
@@ -10741,9 +10743,7 @@
       <c r="E17" s="192" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="167" t="s">
-        <v>16</v>
-      </c>
+      <c r="F17" s="167"/>
       <c r="G17" s="167"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -10753,7 +10753,7 @@
       <c r="M17" s="10"/>
       <c r="O17" s="67">
         <f t="shared" si="1"/>
-        <v>9.1208887726797361E-2</v>
+        <v>6.2698091650776777E-2</v>
       </c>
       <c r="P17" s="210">
         <f>P3</f>
@@ -10761,23 +10761,23 @@
       </c>
       <c r="Q17" s="214">
         <f t="shared" si="2"/>
-        <v>5.1989066004274491E-2</v>
+        <v>3.5737912240942762E-2</v>
       </c>
       <c r="R17" s="157">
         <f t="shared" si="3"/>
-        <v>5.1989066004274491E-2</v>
+        <v>3.5737912240942762E-2</v>
       </c>
       <c r="S17" s="176">
         <f t="shared" si="4"/>
-        <v>0.94801093399572556</v>
+        <v>0.9642620877590572</v>
       </c>
       <c r="T17" s="177">
         <f>R17*PRODUCT(S5:S16)*PRODUCT(S18:S19)</f>
-        <v>3.9512204222802196E-2</v>
+        <v>2.884630813258016E-2</v>
       </c>
       <c r="U17" s="177">
         <f>R17*R18*PRODUCT(S5:S16)*S19+R17*R19*PRODUCT(S5:S16)*S18</f>
-        <v>1.7442705975697227E-3</v>
+        <v>5.2078752473447775E-4</v>
       </c>
       <c r="W17" s="186" t="s">
         <v>60</v>
@@ -10787,7 +10787,7 @@
       </c>
       <c r="Y17" s="69">
         <f t="shared" si="5"/>
-        <v>9.1208887726797361E-2</v>
+        <v>6.2698091650776777E-2</v>
       </c>
       <c r="Z17" s="69">
         <f>Z3</f>
@@ -10795,23 +10795,23 @@
       </c>
       <c r="AA17" s="69">
         <f t="shared" si="6"/>
-        <v>5.1989066004274491E-2</v>
+        <v>3.5737912240942762E-2</v>
       </c>
       <c r="AB17" s="157">
         <f t="shared" si="7"/>
-        <v>5.1989066004274491E-2</v>
+        <v>3.5737912240942762E-2</v>
       </c>
       <c r="AC17" s="176">
         <f t="shared" si="8"/>
-        <v>0.94801093399572556</v>
+        <v>0.9642620877590572</v>
       </c>
       <c r="AD17" s="177">
         <f>AB17*PRODUCT(AC5:AC16)*PRODUCT(AC18:AC19)</f>
-        <v>3.3271192276461789E-2</v>
+        <v>2.4518623335102966E-2</v>
       </c>
       <c r="AE17" s="177">
         <f>AB17*AB18*PRODUCT(AC5:AC16)*AC19+AB17*AB19*PRODUCT(AC5:AC16)*AC18</f>
-        <v>9.9093022398813041E-3</v>
+        <v>3.6432132027562928E-3</v>
       </c>
       <c r="AG17" s="203">
         <f>COUNTA(F14:F15)/(COUNTA(F14:F15)+COUNTA(J14:J15))</f>
@@ -10823,7 +10823,7 @@
       </c>
       <c r="AI17" s="207">
         <f t="shared" si="9"/>
-        <v>0.18241777545359472</v>
+        <v>0.12539618330155355</v>
       </c>
       <c r="AK17" s="203">
         <f>COUNTA(J14:J15)/(COUNTA(F14:F15)+COUNTA(J14:J15))</f>
@@ -10852,7 +10852,7 @@
       </c>
       <c r="BJ17" s="107">
         <f t="shared" si="11"/>
-        <v>4.6182458371751403E-2</v>
+        <v>3.703217246902956E-2</v>
       </c>
       <c r="BP17">
         <f>BP13+1</f>
@@ -10863,7 +10863,7 @@
       </c>
       <c r="BR17" s="107">
         <f>$H$30*H42</f>
-        <v>8.2435431333091613E-3</v>
+        <v>6.0864264519574912E-3</v>
       </c>
     </row>
     <row r="18" spans="1:70" x14ac:dyDescent="0.25">
@@ -10880,20 +10880,20 @@
         <v>22</v>
       </c>
       <c r="F18" s="167" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="G18" s="167"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="166" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="K18" s="166"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
       <c r="O18" s="67">
         <f t="shared" si="1"/>
-        <v>6.1810981765267642E-2</v>
+        <v>7.8684473758244521E-3</v>
       </c>
       <c r="P18" s="210">
         <f>P17*1.2</f>
@@ -10901,23 +10901,23 @@
       </c>
       <c r="Q18" s="214">
         <f t="shared" si="2"/>
-        <v>4.2278711527443065E-2</v>
+        <v>5.3820180050639247E-3</v>
       </c>
       <c r="R18" s="157">
         <f t="shared" si="3"/>
-        <v>4.2278711527443065E-2</v>
+        <v>5.3820180050639247E-3</v>
       </c>
       <c r="S18" s="176">
         <f t="shared" si="4"/>
-        <v>0.95772128847255689</v>
+        <v>0.99461798199493612</v>
       </c>
       <c r="T18" s="177">
         <f>R18*PRODUCT(S5:S17)*PRODUCT(S19:S19)</f>
-        <v>3.1806449421641826E-2</v>
+        <v>4.2115793891843497E-3</v>
       </c>
       <c r="U18" s="177">
         <f>R18*R19*PRODUCT(S5:S17)</f>
-        <v>0</v>
+        <v>5.3245861506495288E-5</v>
       </c>
       <c r="W18" s="186" t="s">
         <v>62</v>
@@ -10927,7 +10927,7 @@
       </c>
       <c r="Y18" s="69">
         <f t="shared" si="5"/>
-        <v>2.7471547451230063E-2</v>
+        <v>3.1473789503297808E-2</v>
       </c>
       <c r="Z18" s="69">
         <f>Z17*1.2</f>
@@ -10935,39 +10935,39 @@
       </c>
       <c r="AA18" s="69">
         <f t="shared" si="6"/>
-        <v>1.8790538456641363E-2</v>
+        <v>2.1528072020255699E-2</v>
       </c>
       <c r="AB18" s="157">
         <f t="shared" si="7"/>
-        <v>1.8790538456641363E-2</v>
+        <v>2.1528072020255699E-2</v>
       </c>
       <c r="AC18" s="176">
         <f t="shared" si="8"/>
-        <v>0.98120946154335864</v>
+        <v>0.97847192797974425</v>
       </c>
       <c r="AD18" s="177">
         <f>AB18*PRODUCT(AC5:AC17)*PRODUCT(AC19:AC19)</f>
-        <v>1.1618423242374941E-2</v>
+        <v>1.4555219623029001E-2</v>
       </c>
       <c r="AE18" s="177">
         <f>AB18*AB19*PRODUCT(AC5:AC17)</f>
-        <v>3.2378676735406106E-3</v>
+        <v>1.8425147527602042E-3</v>
       </c>
       <c r="AG18" s="203">
         <f>IF(COUNTA(F14:F15)&gt;0,IF(COUNTIF(F11:F18,"CAB")+COUNTIF(J11:J18,"CAB")=0,0,COUNTIF(F11:F18,"CAB")/(COUNTIF(F11:F18,"CAB")+COUNTIF(J11:J18,"CAB"))),0)</f>
-        <v>0.6</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AH18">
         <f>COUNTIF(F11:F18,"CAB")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI18" s="207">
         <f t="shared" si="9"/>
-        <v>0.27471547451230061</v>
+        <v>0.18884273701978685</v>
       </c>
       <c r="AK18" s="203">
         <f>IF(COUNTA(J14:J15)&gt;0,IF(COUNTIF(J11:J18,"CAB")+COUNTIF(F11:F18,"CAB")=0,0,COUNTIF(J11:J18,"CAB")/(COUNTIF(J11:J18,"CAB")+COUNTIF(F11:F18,"CAB"))),0)</f>
-        <v>0.4</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AL18">
         <f>COUNTIF(J11:J18,"CAB")</f>
@@ -10992,7 +10992,7 @@
       </c>
       <c r="BJ18" s="107">
         <f t="shared" si="11"/>
-        <v>3.4705904969250884E-2</v>
+        <v>1.6587512972651854E-2</v>
       </c>
       <c r="BP18">
         <f>BL8+1</f>
@@ -11003,7 +11003,7 @@
       </c>
       <c r="BR18" s="107">
         <f>$H$30*H43</f>
-        <v>1.2055687158643297E-2</v>
+        <v>5.1606150790644697E-3</v>
       </c>
     </row>
     <row r="19" spans="1:70" x14ac:dyDescent="0.25">
@@ -11015,7 +11015,7 @@
       </c>
       <c r="O19" s="67">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.1903310599074743E-2</v>
       </c>
       <c r="P19" s="210">
         <f>P3</f>
@@ -11023,19 +11023,19 @@
       </c>
       <c r="Q19" s="214">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.2484887041472603E-2</v>
       </c>
       <c r="R19" s="157">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.2484887041472603E-2</v>
       </c>
       <c r="S19" s="178">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.98751511295852734</v>
       </c>
       <c r="T19" s="179">
         <f>R19*PRODUCT(S5:S18)</f>
-        <v>0</v>
+        <v>9.8400435062355705E-3</v>
       </c>
       <c r="U19" s="179">
         <v>0</v>
@@ -11051,7 +11051,7 @@
       </c>
       <c r="Y19" s="69">
         <f t="shared" si="5"/>
-        <v>0.38236122561502456</v>
+        <v>0.19712979539167269</v>
       </c>
       <c r="Z19" s="69">
         <f>Z3</f>
@@ -11059,19 +11059,19 @@
       </c>
       <c r="AA19" s="69">
         <f t="shared" si="6"/>
-        <v>0.21794589860056399</v>
+        <v>0.11236398337325343</v>
       </c>
       <c r="AB19" s="157">
         <f t="shared" si="7"/>
-        <v>0.21794589860056399</v>
+        <v>0.11236398337325343</v>
       </c>
       <c r="AC19" s="178">
         <f t="shared" si="8"/>
-        <v>0.78205410139943599</v>
+        <v>0.88763601662674652</v>
       </c>
       <c r="AD19" s="179">
         <f>AB19*PRODUCT(AC5:AC18)</f>
-        <v>0.1690758571838869</v>
+        <v>8.3744097509897947E-2</v>
       </c>
       <c r="AE19" s="179">
         <v>0</v>
@@ -11081,19 +11081,19 @@
       </c>
       <c r="AG19" s="203">
         <f>IF(COUNTIF(F11:F18,"TEC")&gt;0,IF(COUNTIF(J6:J13,"CAB")&gt;0,IF(COUNTIF(F11:F18,"TEC")+COUNTIF(J11:J18,"TEC")&gt;0,COUNTIF(F11:F18,"TEC")/(COUNTIF(F11:F18,"TEC")+COUNTIF(J11:J18,"TEC")),0),0),0)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AH19">
         <f>COUNTIF(F11:F18,"TEC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI19" s="207">
         <f t="shared" si="9"/>
-        <v>1.0196299349733988</v>
+        <v>0.70090593917039179</v>
       </c>
       <c r="AK19" s="203">
         <f>IF(COUNTIF(J11:J18,"TEC")&gt;0,IF(COUNTIF(F6:F13,"CAB")&gt;0,IF(COUNTIF(F11:F18,"TEC")+COUNTIF(J11:J18,"TEC")&gt;0,COUNTIF(J11:J18,"TEC")/(COUNTIF(F11:F18,"TEC")+COUNTIF(J11:J18,"TEC")),0),0),0)</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AL19">
         <f>COUNTIF(J11:J18,"TEC")</f>
@@ -11118,7 +11118,7 @@
       </c>
       <c r="BJ19" s="107">
         <f t="shared" si="11"/>
-        <v>1.9139350484610698E-2</v>
+        <v>5.5660404839586357E-3</v>
       </c>
       <c r="BP19">
         <f>BP15+1</f>
@@ -11129,7 +11129,7 @@
       </c>
       <c r="BR19" s="107">
         <f>$H$31*H40</f>
-        <v>3.1813946649429794E-4</v>
+        <v>5.3823345822083318E-4</v>
       </c>
     </row>
     <row r="20" spans="1:70" x14ac:dyDescent="0.25">
@@ -11146,19 +11146,19 @@
       <c r="Q20" s="22"/>
       <c r="S20" s="180">
         <f>PRODUCT(S5:S19)</f>
-        <v>0.72049768361695121</v>
+        <v>0.77831634698001173</v>
       </c>
       <c r="T20" s="181">
         <f>SUM(T5:T19)</f>
-        <v>0.24358092363974773</v>
+        <v>0.19919817036491083</v>
       </c>
       <c r="U20" s="181">
         <f>SUM(U5:U19)</f>
-        <v>3.3396674841414085E-2</v>
+        <v>2.1218393673692951E-2</v>
       </c>
       <c r="V20" s="181">
         <f>1-S20-T20-U20</f>
-        <v>2.5247179018869706E-3</v>
+        <v>1.2670889813844871E-3</v>
       </c>
       <c r="W20" s="21"/>
       <c r="X20" s="22"/>
@@ -11168,19 +11168,19 @@
       <c r="AB20" s="23"/>
       <c r="AC20" s="184">
         <f>PRODUCT(AC5:AC19)</f>
-        <v>0.60669399335942298</v>
+        <v>0.661548967009849</v>
       </c>
       <c r="AD20" s="181">
         <f>SUM(AD5:AD19)</f>
-        <v>0.32686085262874431</v>
+        <v>0.28274309224411293</v>
       </c>
       <c r="AE20" s="181">
         <f>SUM(AE5:AE19)</f>
-        <v>6.0584773056500812E-2</v>
+        <v>5.0417980641880633E-2</v>
       </c>
       <c r="AF20" s="181">
         <f>1-AC20-AD20-AE20</f>
-        <v>5.8603809553318953E-3</v>
+        <v>5.2899601041574429E-3</v>
       </c>
       <c r="BH20">
         <v>1</v>
@@ -11190,7 +11190,7 @@
       </c>
       <c r="BJ20" s="107">
         <f t="shared" si="11"/>
-        <v>7.7321886240408954E-3</v>
+        <v>1.4053346216906938E-3</v>
       </c>
       <c r="BP20">
         <f>BP16+1</f>
@@ -11201,7 +11201,7 @@
       </c>
       <c r="BR20" s="107">
         <f>$H$31*H41</f>
-        <v>1.1499568772548113E-3</v>
+        <v>1.1098552799722358E-3</v>
       </c>
     </row>
     <row r="21" spans="1:70" x14ac:dyDescent="0.25">
@@ -11226,7 +11226,7 @@
       </c>
       <c r="BJ21" s="107">
         <f t="shared" si="11"/>
-        <v>2.25936409828985E-3</v>
+        <v>2.6537187737878906E-4</v>
       </c>
       <c r="BP21">
         <f>BP17+1</f>
@@ -11237,7 +11237,7 @@
       </c>
       <c r="BR21" s="107">
         <f>$H$31*H42</f>
-        <v>2.5052718288321564E-3</v>
+        <v>1.3890996139288062E-3</v>
       </c>
     </row>
     <row r="22" spans="1:70" x14ac:dyDescent="0.25">
@@ -11246,11 +11246,11 @@
       </c>
       <c r="B22" s="62">
         <f>(B6)/((B6)+(C6))</f>
-        <v>0.44791666666666669</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="C22" s="63">
         <f>1-B22</f>
-        <v>0.55208333333333326</v>
+        <v>0.5368421052631579</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
@@ -11270,7 +11270,7 @@
       </c>
       <c r="BJ22" s="107">
         <f t="shared" si="11"/>
-        <v>4.6557283244886319E-4</v>
+        <v>3.6737956090584915E-5</v>
       </c>
       <c r="BP22">
         <f>BP18+1</f>
@@ -11281,7 +11281,7 @@
       </c>
       <c r="BR22" s="107">
         <f>$H$31*H43</f>
-        <v>3.6638097147480447E-3</v>
+        <v>1.1778025201730801E-3</v>
       </c>
     </row>
     <row r="23" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11290,11 +11290,11 @@
       </c>
       <c r="B23" s="56">
         <f>((B22^2.8)/((B22^2.8)+(C22^2.8)))*B21</f>
-        <v>1.7883894960102813</v>
+        <v>1.9905087362888483</v>
       </c>
       <c r="C23" s="57">
         <f>B21-B23</f>
-        <v>3.2116105039897187</v>
+        <v>3.0094912637111517</v>
       </c>
       <c r="D23" s="151">
         <f>SUM(D25:D30)</f>
@@ -11306,11 +11306,11 @@
       </c>
       <c r="H23" s="59">
         <f>SUM(H25:H35)</f>
-        <v>0.99999942353075533</v>
+        <v>0.99999995338797421</v>
       </c>
       <c r="J23" s="59">
         <f>SUM(J25:J35)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="K23" s="59"/>
       <c r="L23" s="59">
@@ -11319,16 +11319,16 @@
       </c>
       <c r="N23" s="59">
         <f>SUM(N25:N35)</f>
-        <v>0.99999999999999989</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="O23" s="34"/>
       <c r="P23" s="59">
         <f>SUM(P25:P35)</f>
-        <v>0.99999999999999989</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="R23" s="59">
         <f>SUM(R25:R35)</f>
-        <v>0.99999999999999989</v>
+        <v>0.99999999999999967</v>
       </c>
       <c r="T23" s="59">
         <f>SUM(T25:T35)</f>
@@ -11336,61 +11336,61 @@
       </c>
       <c r="V23" s="59">
         <f>SUM(V25:V34)</f>
-        <v>0.99995946615671549</v>
+        <v>0.99987667709133643</v>
       </c>
       <c r="Y23" s="80">
         <f>SUM(Y25:Y35)</f>
-        <v>1.1835178563870322E-2</v>
+        <v>6.1475216702185061E-3</v>
       </c>
       <c r="Z23" s="81"/>
       <c r="AA23" s="80">
         <f>SUM(AA25:AA35)</f>
-        <v>6.6023292642200221E-2</v>
+        <v>4.0753022154406134E-2</v>
       </c>
       <c r="AB23" s="81"/>
       <c r="AC23" s="80">
         <f>SUM(AC25:AC35)</f>
-        <v>0.16580779885142016</v>
+        <v>0.12163272117761488</v>
       </c>
       <c r="AD23" s="81"/>
       <c r="AE23" s="80">
         <f>SUM(AE25:AE35)</f>
-        <v>0.2468915188072448</v>
+        <v>0.21527658729124691</v>
       </c>
       <c r="AF23" s="81"/>
       <c r="AG23" s="80">
         <f>SUM(AG25:AG35)</f>
-        <v>0.24144302522378583</v>
+        <v>0.25028752784215869</v>
       </c>
       <c r="AH23" s="81"/>
       <c r="AI23" s="80">
         <f>SUM(AI25:AI35)</f>
-        <v>0.16209567796420776</v>
+        <v>0.19983079178567797</v>
       </c>
       <c r="AJ23" s="81"/>
       <c r="AK23" s="80">
         <f>SUM(AK25:AK35)</f>
-        <v>7.5712872292962516E-2</v>
+        <v>0.111054883467889</v>
       </c>
       <c r="AL23" s="81"/>
       <c r="AM23" s="80">
         <f>SUM(AM25:AM35)</f>
-        <v>2.4328066693360021E-2</v>
+        <v>4.2492940875405553E-2</v>
       </c>
       <c r="AN23" s="81"/>
       <c r="AO23" s="80">
         <f>SUM(AO25:AO35)</f>
-        <v>5.162658656859399E-3</v>
+        <v>1.0755681835936422E-2</v>
       </c>
       <c r="AP23" s="81"/>
       <c r="AQ23" s="80">
         <f>SUM(AQ25:AQ35)</f>
-        <v>6.5937646080435044E-4</v>
+        <v>1.6449989907823699E-3</v>
       </c>
       <c r="AR23" s="81"/>
       <c r="AS23" s="80">
         <f>SUM(AS25:AS35)</f>
-        <v>4.0533843284507036E-5</v>
+        <v>1.2332290866357015E-4</v>
       </c>
       <c r="BH23">
         <f t="shared" ref="BH23:BH30" si="12">BH15+1</f>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="BJ23" s="107">
         <f t="shared" ref="BJ23:BJ30" si="13">$H$27*H42</f>
-        <v>4.2042247190155091E-2</v>
+        <v>7.401662725110339E-2</v>
       </c>
       <c r="BP23">
         <f>BL9+1</f>
@@ -11412,7 +11412,7 @@
       </c>
       <c r="BR23" s="107">
         <f>$H$31*H44</f>
-        <v>3.7907945587070582E-3</v>
+        <v>7.1502299850616604E-4</v>
       </c>
     </row>
     <row r="24" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11421,11 +11421,11 @@
       </c>
       <c r="B24" s="64">
         <f>B23/B21</f>
-        <v>0.35767789920205628</v>
+        <v>0.39810174725776964</v>
       </c>
       <c r="C24" s="65">
         <f>C23/B21</f>
-        <v>0.64232210079794372</v>
+        <v>0.6018982527422303</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>79</v>
@@ -11592,7 +11592,7 @@
       </c>
       <c r="BJ24" s="107">
         <f t="shared" si="13"/>
-        <v>6.1484263668478999E-2</v>
+        <v>6.2757896724553411E-2</v>
       </c>
       <c r="BP24">
         <f>BH49+1</f>
@@ -11603,7 +11603,7 @@
       </c>
       <c r="BR24" s="107">
         <f t="shared" ref="BR24:BR30" si="14">$H$32*H39</f>
-        <v>9.1804391387768576E-6</v>
+        <v>2.0606981523478863E-5</v>
       </c>
     </row>
     <row r="25" spans="1:70" x14ac:dyDescent="0.25">
@@ -11612,11 +11612,11 @@
       </c>
       <c r="B25" s="117">
         <f>1/(1+EXP(-3.1416*4*((B11/(B11+C8))-(3.1416/6))))</f>
-        <v>0.6891531964781672</v>
+        <v>0.2516950619902949</v>
       </c>
       <c r="C25" s="118">
         <f>1/(1+EXP(-3.1416*4*((C11/(C11+B8))-(3.1416/6))))</f>
-        <v>0.44500691442140594</v>
+        <v>0.28810228831196311</v>
       </c>
       <c r="D25" s="153">
         <f>IF(B17="AOW", 0.36-0.08, IF(B17="AIM", 0.36+0.08, IF(B17="TL",(0.361)-(0.36*B32),0.36)))</f>
@@ -11631,137 +11631,137 @@
       </c>
       <c r="H25" s="127">
         <f>L25*J25</f>
-        <v>6.8096396333139991E-2</v>
+        <v>0.12758684848188326</v>
       </c>
       <c r="I25" s="97">
         <v>0</v>
       </c>
       <c r="J25" s="98">
         <f t="shared" ref="J25:J35" si="15">Y25+AA25+AC25+AE25+AG25+AI25+AK25+AM25+AO25+AQ25+AS25</f>
-        <v>9.4512998280981392E-2</v>
+        <v>0.16392672333934658</v>
       </c>
       <c r="K25" s="97">
         <v>0</v>
       </c>
       <c r="L25" s="98">
         <f>S20</f>
-        <v>0.72049768361695121</v>
+        <v>0.77831634698001173</v>
       </c>
       <c r="M25" s="84">
         <v>0</v>
       </c>
       <c r="N25" s="71">
         <f>(1-$B$24)^$B$21</f>
-        <v>0.10933628831590517</v>
+        <v>7.8997875705385634E-2</v>
       </c>
       <c r="O25" s="70">
         <v>0</v>
       </c>
       <c r="P25" s="71">
         <f>N25</f>
-        <v>0.10933628831590517</v>
+        <v>7.8997875705385634E-2</v>
       </c>
       <c r="Q25" s="12">
         <v>0</v>
       </c>
       <c r="R25" s="73">
         <f>P25*N25</f>
-        <v>1.1954423942698741E-2</v>
+        <v>6.240664365963558E-3</v>
       </c>
       <c r="S25" s="70">
         <v>0</v>
       </c>
       <c r="T25" s="135">
         <f>(1-$B$33)^(INT(C23*2*(1-C31)))</f>
-        <v>0.99002500000000004</v>
+        <v>0.98507487500000002</v>
       </c>
       <c r="U25" s="140">
         <v>0</v>
       </c>
       <c r="V25" s="86">
         <f>R25*T25</f>
-        <v>1.1835178563870322E-2</v>
+        <v>6.1475216702185061E-3</v>
       </c>
       <c r="W25" s="136">
         <f>B31</f>
-        <v>0.58621992624466734</v>
+        <v>0.4142320452153308</v>
       </c>
       <c r="X25" s="12">
         <v>0</v>
       </c>
       <c r="Y25" s="79">
         <f>V25</f>
-        <v>1.1835178563870322E-2</v>
+        <v>6.1475216702185061E-3</v>
       </c>
       <c r="Z25" s="12">
         <v>0</v>
       </c>
       <c r="AA25" s="78">
         <f>((1-W25)^Z26)*V26</f>
-        <v>2.7319122899059519E-2</v>
+        <v>2.3871814438680795E-2</v>
       </c>
       <c r="AB25" s="12">
         <v>0</v>
       </c>
       <c r="AC25" s="79">
         <f>(((1-$W$25)^AB27))*V27</f>
-        <v>2.83886080888021E-2</v>
+        <v>4.1735117601794956E-2</v>
       </c>
       <c r="AD25" s="12">
         <v>0</v>
       </c>
       <c r="AE25" s="79">
         <f>(((1-$W$25)^AB28))*V28</f>
-        <v>1.7491010053124593E-2</v>
+        <v>4.3268678180937305E-2</v>
       </c>
       <c r="AF25" s="12">
         <v>0</v>
       </c>
       <c r="AG25" s="79">
         <f>(((1-$W$25)^AB29))*V29</f>
-        <v>7.0777131094319178E-3</v>
+        <v>2.9467388305132597E-2</v>
       </c>
       <c r="AH25" s="12">
         <v>0</v>
       </c>
       <c r="AI25" s="79">
         <f>(((1-$W$25)^AB30))*V30</f>
-        <v>1.9661620017165644E-3</v>
+        <v>1.3781308537654453E-2</v>
       </c>
       <c r="AJ25" s="12">
         <v>0</v>
       </c>
       <c r="AK25" s="79">
         <f>(((1-$W$25)^AB31))*V31</f>
-        <v>3.8000311640660046E-4</v>
+        <v>4.4863310437406288E-3</v>
       </c>
       <c r="AL25" s="12">
         <v>0</v>
       </c>
       <c r="AM25" s="79">
         <f>(((1-$W$25)^AB32))*V32</f>
-        <v>5.0523637038584715E-5</v>
+        <v>1.0055323664560538E-3</v>
       </c>
       <c r="AN25" s="12">
         <v>0</v>
       </c>
       <c r="AO25" s="79">
         <f>(((1-$W$25)^AB33))*V33</f>
-        <v>4.436392811535251E-6</v>
+        <v>1.4908804558937342E-4</v>
       </c>
       <c r="AP25" s="12">
         <v>0</v>
       </c>
       <c r="AQ25" s="79">
         <f>(((1-$W$25)^AB34))*V34</f>
-        <v>2.3445505092251471E-7</v>
+        <v>1.3356606146534021E-5</v>
       </c>
       <c r="AR25" s="12">
         <v>0</v>
       </c>
       <c r="AS25" s="79">
         <f>(((1-$W$25)^AB35))*V35</f>
-        <v>5.9636687251521073E-9</v>
+        <v>5.8654299537496287E-7</v>
       </c>
       <c r="AV25" s="14">
         <v>1</v>
@@ -11806,7 +11806,7 @@
       </c>
       <c r="BJ25" s="107">
         <f t="shared" si="13"/>
-        <v>6.3615261246341356E-2</v>
+        <v>3.8099204855951793E-2</v>
       </c>
       <c r="BP25">
         <f>BP19+1</f>
@@ -11817,7 +11817,7 @@
       </c>
       <c r="BR25" s="107">
         <f t="shared" si="14"/>
-        <v>7.2790387381030952E-5</v>
+        <v>9.2697053069405448E-5</v>
       </c>
     </row>
     <row r="26" spans="1:70" x14ac:dyDescent="0.25">
@@ -11826,11 +11826,11 @@
       </c>
       <c r="B26" s="119">
         <f>1/(1+EXP(-3.1416*4*((B10/(B10+C9))-(3.1416/6))))</f>
-        <v>0.5396012074630302</v>
+        <v>0.43835028037106022</v>
       </c>
       <c r="C26" s="120">
         <f>1/(1+EXP(-3.1416*4*((C10/(C10+B9))-(3.1416/6))))</f>
-        <v>0.63918826345577995</v>
+        <v>0.56020472432617463</v>
       </c>
       <c r="D26" s="153">
         <f>IF(B17="AOW", 0.257+0.04, IF(B17="AIM", 0.257-0.04, IF(B17="TL",(0.257)-(0.257*B32),0.257)))</f>
@@ -11845,56 +11845,56 @@
       </c>
       <c r="H26" s="128">
         <f>L25*J26+L26*J25</f>
-        <v>0.2040863772080671</v>
+        <v>0.28539496484918286</v>
       </c>
       <c r="I26" s="93">
         <v>1</v>
       </c>
       <c r="J26" s="86">
         <f t="shared" si="15"/>
-        <v>0.25130519904223025</v>
+        <v>0.32472793674030448</v>
       </c>
       <c r="K26" s="93">
         <v>1</v>
       </c>
       <c r="L26" s="86">
         <f>T20</f>
-        <v>0.24358092363974773</v>
+        <v>0.19919817036491083</v>
       </c>
       <c r="M26" s="85">
         <v>1</v>
       </c>
       <c r="N26" s="71">
         <f>(($B$24)^M26)*((1-($B$24))^($B$21-M26))*HLOOKUP($B$21,$AV$24:$BF$34,M26+1)</f>
-        <v>0.30442027343291816</v>
+        <v>0.26125007179107562</v>
       </c>
       <c r="O26" s="72">
         <v>1</v>
       </c>
       <c r="P26" s="71">
         <f t="shared" ref="P26:P30" si="16">N26</f>
-        <v>0.30442027343291816</v>
+        <v>0.26125007179107562</v>
       </c>
       <c r="Q26" s="28">
         <v>1</v>
       </c>
       <c r="R26" s="37">
         <f>N26*P25+P26*N25</f>
-        <v>6.6568365570536456E-2</v>
+        <v>4.1276401398748934E-2</v>
       </c>
       <c r="S26" s="72">
         <v>1</v>
       </c>
       <c r="T26" s="135">
         <f t="shared" ref="T26:T35" si="17">(($B$33)^S26)*((1-($B$33))^(INT($C$23*2*(1-$C$31))-S26))*HLOOKUP(INT($C$23*2*(1-$C$31)),$AV$24:$BF$34,S26+1)</f>
-        <v>9.9500000000000005E-3</v>
+        <v>1.4850375000000002E-2</v>
       </c>
       <c r="U26" s="93">
         <v>1</v>
       </c>
       <c r="V26" s="86">
         <f>R26*T25+T26*R25</f>
-        <v>6.6023292642200221E-2</v>
+        <v>4.0753022154406134E-2</v>
       </c>
       <c r="W26" s="137"/>
       <c r="X26" s="28">
@@ -11906,70 +11906,70 @@
       </c>
       <c r="AA26" s="79">
         <f>(1-((1-W25)^Z26))*V26</f>
-        <v>3.8704169743140698E-2</v>
+        <v>1.6881207715725339E-2</v>
       </c>
       <c r="AB26" s="28">
         <v>1</v>
       </c>
       <c r="AC26" s="79">
         <f>((($W$25)^M26)*((1-($W$25))^($U$27-M26))*HLOOKUP($U$27,$AV$24:$BF$34,M26+1))*V27</f>
-        <v>8.0438710298295801E-2</v>
+        <v>5.9026865434620872E-2</v>
       </c>
       <c r="AD26" s="28">
         <v>1</v>
       </c>
       <c r="AE26" s="79">
         <f>((($W$25)^M26)*((1-($W$25))^($U$28-M26))*HLOOKUP($U$28,$AV$24:$BF$34,M26+1))*V28</f>
-        <v>7.4340785893066141E-2</v>
+        <v>9.179371922065431E-2</v>
       </c>
       <c r="AF26" s="28">
         <v>1</v>
       </c>
       <c r="AG26" s="79">
         <f>((($W$25)^M26)*((1-($W$25))^($U$29-M26))*HLOOKUP($U$29,$AV$24:$BF$34,M26+1))*V29</f>
-        <v>4.0109195392965653E-2</v>
+        <v>8.3352709379785006E-2</v>
       </c>
       <c r="AH26" s="28">
         <v>1</v>
       </c>
       <c r="AI26" s="79">
         <f>((($W$25)^M26)*((1-($W$25))^($U$30-M26))*HLOOKUP($U$30,$AV$24:$BF$34,M26+1))*V30</f>
-        <v>1.3927728964455694E-2</v>
+        <v>4.8727995229737614E-2</v>
       </c>
       <c r="AJ26" s="28">
         <v>1</v>
       </c>
       <c r="AK26" s="79">
         <f>((($W$25)^M26)*((1-($W$25))^($U$31-M26))*HLOOKUP($U$31,$AV$24:$BF$34,M26+1))*V31</f>
-        <v>3.2301999975621132E-3</v>
+        <v>1.90353405499438E-2</v>
       </c>
       <c r="AL26" s="28">
         <v>1</v>
       </c>
       <c r="AM26" s="79">
         <f>((($W$25)^Q26)*((1-($W$25))^($U$32-Q26))*HLOOKUP($U$32,$AV$24:$BF$34,Q26+1))*V32</f>
-        <v>5.0105298103647123E-4</v>
+        <v>4.9775104237017014E-3</v>
       </c>
       <c r="AN26" s="28">
         <v>1</v>
       </c>
       <c r="AO26" s="79">
         <f>((($W$25)^Q26)*((1-($W$25))^($U$33-Q26))*HLOOKUP($U$33,$AV$24:$BF$34,Q26+1))*V33</f>
-        <v>5.028181938617677E-5</v>
+        <v>8.4343358884280079E-4</v>
       </c>
       <c r="AP26" s="28">
         <v>1</v>
       </c>
       <c r="AQ26" s="79">
         <f>((($W$25)^Q26)*((1-($W$25))^($U$34-Q26))*HLOOKUP($U$34,$AV$24:$BF$34,Q26+1))*V34</f>
-        <v>2.9894624763076451E-6</v>
+        <v>8.5007396058793828E-5</v>
       </c>
       <c r="AR26" s="28">
         <v>1</v>
       </c>
       <c r="AS26" s="79">
         <f>((($W$25)^Q26)*((1-($W$25))^($U$35-Q26))*HLOOKUP($U$35,$AV$24:$BF$34,Q26+1))*V35</f>
-        <v>8.4489845257108465E-8</v>
+        <v>4.1478012341971159E-6</v>
       </c>
       <c r="AV26" s="14">
         <v>2</v>
@@ -12014,7 +12014,7 @@
       </c>
       <c r="BJ26" s="107">
         <f t="shared" si="13"/>
-        <v>4.7806576116789408E-2</v>
+        <v>1.7065459913926079E-2</v>
       </c>
       <c r="BP26">
         <f>BP20+1</f>
@@ -12025,7 +12025,7 @@
       </c>
       <c r="BR26" s="107">
         <f t="shared" si="14"/>
-        <v>2.6311041345874217E-4</v>
+        <v>1.9114440437616783E-4</v>
       </c>
     </row>
     <row r="27" spans="1:70" x14ac:dyDescent="0.25">
@@ -12034,11 +12034,11 @@
       </c>
       <c r="B27" s="119">
         <f>1/(1+EXP(-3.1416*4*((B12/(B12+C7))-(3.1416/6))))</f>
-        <v>0.43853913376732845</v>
+        <v>0.50853109621283821</v>
       </c>
       <c r="C27" s="120">
         <f>1/(1+EXP(-3.1416*4*((C12/(C12+B7))-(3.1416/6))))</f>
-        <v>0.93815993352117399</v>
+        <v>0.52250763390976884</v>
       </c>
       <c r="D27" s="153">
         <f>D26</f>
@@ -12053,56 +12053,56 @@
       </c>
       <c r="H27" s="128">
         <f>L25*J27+J26*L26+J25*L27</f>
-        <v>0.28112423332691011</v>
+        <v>0.29361823802639897</v>
       </c>
       <c r="I27" s="93">
         <v>2</v>
       </c>
       <c r="J27" s="86">
         <f t="shared" si="15"/>
-        <v>0.3008401912810208</v>
+        <v>0.28966983192207701</v>
       </c>
       <c r="K27" s="93">
         <v>2</v>
       </c>
       <c r="L27" s="86">
         <f>U20</f>
-        <v>3.3396674841414085E-2</v>
+        <v>2.1218393673692951E-2</v>
       </c>
       <c r="M27" s="85">
         <v>2</v>
       </c>
       <c r="N27" s="71">
         <f>(($B$24)^M27)*((1-($B$24))^($B$21-M27))*HLOOKUP($B$21,$AV$24:$BF$34,M27+1)</f>
-        <v>0.3390336522462386</v>
+        <v>0.34558701434139533</v>
       </c>
       <c r="O27" s="72">
         <v>2</v>
       </c>
       <c r="P27" s="71">
         <f t="shared" si="16"/>
-        <v>0.3390336522462386</v>
+        <v>0.34558701434139533</v>
       </c>
       <c r="Q27" s="28">
         <v>2</v>
       </c>
       <c r="R27" s="37">
         <f>P25*N27+P26*N26+P27*N25</f>
-        <v>0.16680906517855079</v>
+        <v>0.12285288001951591</v>
       </c>
       <c r="S27" s="72">
         <v>2</v>
       </c>
       <c r="T27" s="135">
         <f t="shared" si="17"/>
-        <v>2.5000000000000001E-5</v>
+        <v>7.4625000000000011E-5</v>
       </c>
       <c r="U27" s="93">
         <v>2</v>
       </c>
       <c r="V27" s="86">
         <f>R27*T25+T26*R26+R25*T27</f>
-        <v>0.16580779885142016</v>
+        <v>0.12163272117761488</v>
       </c>
       <c r="W27" s="137"/>
       <c r="X27" s="28">
@@ -12118,63 +12118,63 @@
       </c>
       <c r="AC27" s="79">
         <f>((($W$25)^M27)*((1-($W$25))^($U$27-M27))*HLOOKUP($U$27,$AV$24:$BF$34,M27+1))*V27</f>
-        <v>5.6980480464322275E-2</v>
+        <v>2.0870738141199056E-2</v>
       </c>
       <c r="AD27" s="28">
         <v>2</v>
       </c>
       <c r="AE27" s="79">
         <f>((($W$25)^M27)*((1-($W$25))^($U$28-M27))*HLOOKUP($U$28,$AV$24:$BF$34,M27+1))*V28</f>
-        <v>0.10532177063937748</v>
+        <v>6.4912905767730511E-2</v>
       </c>
       <c r="AF27" s="28">
         <v>2</v>
       </c>
       <c r="AG27" s="79">
         <f>((($W$25)^M27)*((1-($W$25))^($U$29-M27))*HLOOKUP($U$29,$AV$24:$BF$34,M27+1))*V29</f>
-        <v>8.5236618639955422E-2</v>
+        <v>8.8415633695734935E-2</v>
       </c>
       <c r="AH27" s="28">
         <v>2</v>
       </c>
       <c r="AI27" s="79">
         <f>((($W$25)^M27)*((1-($W$25))^($U$30-M27))*HLOOKUP($U$30,$AV$24:$BF$34,M27+1))*V30</f>
-        <v>3.9464018516883505E-2</v>
+        <v>6.8917041153871483E-2</v>
       </c>
       <c r="AJ27" s="28">
         <v>2</v>
       </c>
       <c r="AK27" s="79">
         <f>((($W$25)^M27)*((1-($W$25))^($U$31-M27))*HLOOKUP($U$31,$AV$24:$BF$34,M27+1))*V31</f>
-        <v>1.1440906198917597E-2</v>
+        <v>3.3652609292497561E-2</v>
       </c>
       <c r="AL27" s="28">
         <v>2</v>
       </c>
       <c r="AM27" s="79">
         <f>((($W$25)^Q27)*((1-($W$25))^($U$32-Q27))*HLOOKUP($U$32,$AV$24:$BF$34,Q27+1))*V32</f>
-        <v>2.1295895589323465E-3</v>
+        <v>1.055969845763512E-2</v>
       </c>
       <c r="AN27" s="28">
         <v>2</v>
       </c>
       <c r="AO27" s="79">
         <f>((($W$25)^Q27)*((1-($W$25))^($U$33-Q27))*HLOOKUP($U$33,$AV$24:$BF$34,Q27+1))*V33</f>
-        <v>2.4932741358406997E-4</v>
+        <v>2.0875506449193233E-3</v>
       </c>
       <c r="AP27" s="28">
         <v>2</v>
       </c>
       <c r="AQ27" s="79">
         <f>((($W$25)^Q27)*((1-($W$25))^($U$34-Q27))*HLOOKUP($U$34,$AV$24:$BF$34,Q27+1))*V34</f>
-        <v>1.6941197351214237E-5</v>
+        <v>2.4045554039096029E-4</v>
       </c>
       <c r="AR27" s="28">
         <v>2</v>
       </c>
       <c r="AS27" s="79">
         <f>((($W$25)^Q27)*((1-($W$25))^($U$35-Q27))*HLOOKUP($U$35,$AV$24:$BF$34,Q27+1))*V35</f>
-        <v>5.3865169684196804E-7</v>
+        <v>1.319922809807657E-5</v>
       </c>
       <c r="AV27" s="14">
         <v>3</v>
@@ -12216,7 +12216,7 @@
       </c>
       <c r="BJ27" s="107">
         <f t="shared" si="13"/>
-        <v>2.6364009714748008E-2</v>
+        <v>5.7264184760483826E-3</v>
       </c>
       <c r="BP27">
         <f>BP21+1</f>
@@ -12227,7 +12227,7 @@
       </c>
       <c r="BR27" s="107">
         <f t="shared" si="14"/>
-        <v>5.7320680431437458E-4</v>
+        <v>2.3923715381182726E-4</v>
       </c>
     </row>
     <row r="28" spans="1:70" x14ac:dyDescent="0.25">
@@ -12251,56 +12251,56 @@
       </c>
       <c r="H28" s="128">
         <f>J28*L25+J27*L26+L28*J25+L27*J26</f>
-        <v>0.23577880156944953</v>
+        <v>0.18409185112506884</v>
       </c>
       <c r="I28" s="93">
         <v>3</v>
       </c>
       <c r="J28" s="86">
         <f t="shared" si="15"/>
-        <v>0.2135586230614063</v>
+        <v>0.15326960061375128</v>
       </c>
       <c r="K28" s="93">
         <v>3</v>
       </c>
       <c r="L28" s="86">
         <f>V20</f>
-        <v>2.5247179018869706E-3</v>
+        <v>1.2670889813844871E-3</v>
       </c>
       <c r="M28" s="85">
         <v>3</v>
       </c>
       <c r="N28" s="71">
         <f>(($B$24)^M28)*((1-($B$24))^($B$21-M28))*HLOOKUP($B$21,$AV$24:$BF$34,M28+1)</f>
-        <v>0.18879133123956074</v>
+        <v>0.22857483571700121</v>
       </c>
       <c r="O28" s="72">
         <v>3</v>
       </c>
       <c r="P28" s="71">
         <f t="shared" si="16"/>
-        <v>0.18879133123956074</v>
+        <v>0.22857483571700121</v>
       </c>
       <c r="Q28" s="28">
         <v>3</v>
       </c>
       <c r="R28" s="37">
         <f>P25*N28+P26*N27+P27*N26+P28*N25</f>
-        <v>0.24770092108742603</v>
+        <v>0.21668311753620723</v>
       </c>
       <c r="S28" s="72">
         <v>3</v>
       </c>
       <c r="T28" s="135">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1.2500000000000002E-7</v>
       </c>
       <c r="U28" s="93">
         <v>3</v>
       </c>
       <c r="V28" s="86">
         <f>R28*T25+R27*T26+R26*T27+R25*T28</f>
-        <v>0.2468915188072448</v>
+        <v>0.21527658729124688</v>
       </c>
       <c r="W28" s="137"/>
       <c r="X28" s="28">
@@ -12320,56 +12320,56 @@
       </c>
       <c r="AE28" s="79">
         <f>((($W$25)^M28)*((1-($W$25))^($U$28-M28))*HLOOKUP($U$28,$AV$24:$BF$34,M28+1))*V28</f>
-        <v>4.9737952221676582E-2</v>
+        <v>1.5301284121924786E-2</v>
       </c>
       <c r="AF28" s="28">
         <v>3</v>
       </c>
       <c r="AG28" s="79">
         <f>((($W$25)^M28)*((1-($W$25))^($U$29-M28))*HLOOKUP($U$29,$AV$24:$BF$34,M28+1))*V29</f>
-        <v>8.0505575242699481E-2</v>
+        <v>4.1682704417493735E-2</v>
       </c>
       <c r="AH28" s="28">
         <v>3</v>
       </c>
       <c r="AI28" s="79">
         <f>((($W$25)^M28)*((1-($W$25))^($U$30-M28))*HLOOKUP($U$30,$AV$24:$BF$34,M28+1))*V30</f>
-        <v>5.5910362754599631E-2</v>
+        <v>4.8735419331451035E-2</v>
       </c>
       <c r="AJ28" s="28">
         <v>3</v>
       </c>
       <c r="AK28" s="79">
         <f>((($W$25)^M28)*((1-($W$25))^($U$31-M28))*HLOOKUP($U$31,$AV$24:$BF$34,M28+1))*V31</f>
-        <v>2.161176145976007E-2</v>
+        <v>3.1730401228448009E-2</v>
       </c>
       <c r="AL28" s="28">
         <v>3</v>
       </c>
       <c r="AM28" s="79">
         <f>((($W$25)^Q28)*((1-($W$25))^($U$32-Q28))*HLOOKUP($U$32,$AV$24:$BF$34,Q28+1))*V32</f>
-        <v>5.0284676705936735E-3</v>
+        <v>1.2445671968550901E-2</v>
       </c>
       <c r="AN28" s="28">
         <v>3</v>
       </c>
       <c r="AO28" s="79">
         <f>((($W$25)^Q28)*((1-($W$25))^($U$33-Q28))*HLOOKUP($U$33,$AV$24:$BF$34,Q28+1))*V33</f>
-        <v>7.064656191658555E-4</v>
+        <v>2.9524673245513826E-3</v>
       </c>
       <c r="AP28" s="28">
         <v>3</v>
       </c>
       <c r="AQ28" s="79">
         <f>((($W$25)^Q28)*((1-($W$25))^($U$34-Q28))*HLOOKUP($U$34,$AV$24:$BF$34,Q28+1))*V34</f>
-        <v>5.6003077191180015E-5</v>
+        <v>3.9676162222111798E-4</v>
       </c>
       <c r="AR28" s="28">
         <v>3</v>
       </c>
       <c r="AS28" s="79">
         <f>((($W$25)^Q28)*((1-($W$25))^($U$35-Q28))*HLOOKUP($U$35,$AV$24:$BF$34,Q28+1))*V35</f>
-        <v>2.0350157198465556E-6</v>
+        <v>2.4890599110312932E-5</v>
       </c>
       <c r="AV28" s="14">
         <v>4</v>
@@ -12408,7 +12408,7 @@
       </c>
       <c r="BJ28" s="107">
         <f t="shared" si="13"/>
-        <v>1.065090981872077E-2</v>
+        <v>1.4458274541611939E-3</v>
       </c>
       <c r="BP28">
         <f>BP22+1</f>
@@ -12419,7 +12419,7 @@
       </c>
       <c r="BR28" s="107">
         <f t="shared" si="14"/>
-        <v>8.3828055464371198E-4</v>
+        <v>2.0284659203212934E-4</v>
       </c>
     </row>
     <row r="29" spans="1:70" x14ac:dyDescent="0.25">
@@ -12428,11 +12428,11 @@
       </c>
       <c r="B29" s="123">
         <f>1/(1+EXP(-3.1416*4*((B14/(B14+C13))-(3.1416/6))))</f>
-        <v>0.2548059610679575</v>
+        <v>9.2731058764433549E-2</v>
       </c>
       <c r="C29" s="118">
         <f>1/(1+EXP(-3.1416*4*((C14/(C14+B13))-(3.1416/6))))</f>
-        <v>0.48264112301060463</v>
+        <v>0.54355754887355434</v>
       </c>
       <c r="D29" s="153">
         <v>0.04</v>
@@ -12445,14 +12445,14 @@
       </c>
       <c r="H29" s="128">
         <f>J29*L25+J28*L26+J27*L27+J26*L28</f>
-        <v>0.1344490572289041</v>
+        <v>7.8567185157793762E-2</v>
       </c>
       <c r="I29" s="93">
         <v>4</v>
       </c>
       <c r="J29" s="86">
         <f t="shared" si="15"/>
-        <v>9.9582157474663827E-2</v>
+        <v>5.329243511871485E-2</v>
       </c>
       <c r="K29" s="93">
         <v>4</v>
@@ -12463,21 +12463,21 @@
       </c>
       <c r="N29" s="71">
         <f>(($B$24)^M29)*((1-($B$24))^($B$21-M29))*HLOOKUP($B$21,$AV$24:$BF$34,M29+1)</f>
-        <v>5.2564349460682454E-2</v>
+        <v>7.5590883561732089E-2</v>
       </c>
       <c r="O29" s="72">
         <v>4</v>
       </c>
       <c r="P29" s="71">
         <f t="shared" si="16"/>
-        <v>5.2564349460682454E-2</v>
+        <v>7.5590883561732089E-2</v>
       </c>
       <c r="Q29" s="28">
         <v>4</v>
       </c>
       <c r="R29" s="37">
         <f>P25*N29+P26*N28+P27*N27+P28*N26+P29*N25</f>
-        <v>0.24138201644638921</v>
+        <v>0.25080380741093949</v>
       </c>
       <c r="S29" s="72">
         <v>4</v>
@@ -12491,7 +12491,7 @@
       </c>
       <c r="V29" s="86">
         <f>T29*R25+T28*R26+T27*R27+T26*R28+T25*R29</f>
-        <v>0.24144302522378583</v>
+        <v>0.25028752784215869</v>
       </c>
       <c r="W29" s="137"/>
       <c r="X29" s="28">
@@ -12515,49 +12515,49 @@
       </c>
       <c r="AG29" s="79">
         <f>((($W$25)^M29)*((1-($W$25))^($U$29-M29))*HLOOKUP($U$29,$AV$24:$BF$34,M29+1))*V29</f>
-        <v>2.8513922838733354E-2</v>
+        <v>7.3690920440124203E-3</v>
       </c>
       <c r="AH29" s="28">
         <v>4</v>
       </c>
       <c r="AI29" s="79">
         <f>((($W$25)^M29)*((1-($W$25))^($U$30-M29))*HLOOKUP($U$30,$AV$24:$BF$34,M29+1))*V30</f>
-        <v>3.9605300990997259E-2</v>
+        <v>1.7231885304749082E-2</v>
       </c>
       <c r="AJ29" s="28">
         <v>4</v>
       </c>
       <c r="AK29" s="79">
         <f>((($W$25)^M29)*((1-($W$25))^($U$31-M29))*HLOOKUP($U$31,$AV$24:$BF$34,M29+1))*V31</f>
-        <v>2.2963730032918149E-2</v>
+        <v>1.6828868268999233E-2</v>
       </c>
       <c r="AL29" s="28">
         <v>4</v>
       </c>
       <c r="AM29" s="79">
         <f>((($W$25)^Q29)*((1-($W$25))^($U$32-Q29))*HLOOKUP($U$32,$AV$24:$BF$34,Q29+1))*V32</f>
-        <v>7.1240451968263207E-3</v>
+        <v>8.8010894271385951E-3</v>
       </c>
       <c r="AN29" s="28">
         <v>4</v>
       </c>
       <c r="AO29" s="79">
         <f>((($W$25)^Q29)*((1-($W$25))^($U$33-Q29))*HLOOKUP($U$33,$AV$24:$BF$34,Q29+1))*V33</f>
-        <v>1.2511000693048225E-3</v>
+        <v>2.6098358750478627E-3</v>
       </c>
       <c r="AP29" s="28">
         <v>4</v>
       </c>
       <c r="AQ29" s="79">
         <f>((($W$25)^Q29)*((1-($W$25))^($U$34-Q29))*HLOOKUP($U$34,$AV$24:$BF$34,Q29+1))*V34</f>
-        <v>1.1901293173399769E-4</v>
+        <v>4.2086130751900486E-4</v>
       </c>
       <c r="AR29" s="28">
         <v>4</v>
       </c>
       <c r="AS29" s="79">
         <f>((($W$25)^Q29)*((1-($W$25))^($U$35-Q29))*HLOOKUP($U$35,$AV$24:$BF$34,Q29+1))*V35</f>
-        <v>5.0454141499477439E-6</v>
+        <v>3.0802891248647245E-5</v>
       </c>
       <c r="AV29" s="14">
         <v>5</v>
@@ -12593,7 +12593,7 @@
       </c>
       <c r="BJ29" s="107">
         <f t="shared" si="13"/>
-        <v>3.1122214457779745E-3</v>
+        <v>2.7301821214292788E-4</v>
       </c>
       <c r="BP29">
         <f>BP23+1</f>
@@ -12604,7 +12604,7 @@
       </c>
       <c r="BR29" s="107">
         <f t="shared" si="14"/>
-        <v>8.6733471785443094E-4</v>
+        <v>1.2314456454912002E-4</v>
       </c>
     </row>
     <row r="30" spans="1:70" x14ac:dyDescent="0.25">
@@ -12630,14 +12630,14 @@
       </c>
       <c r="H30" s="128">
         <f>J30*L25+J29*L26+J28*L27+J27*L28</f>
-        <v>5.5122166347747581E-2</v>
+        <v>2.4144383188905504E-2</v>
       </c>
       <c r="I30" s="93">
         <v>5</v>
       </c>
       <c r="J30" s="86">
         <f t="shared" si="15"/>
-        <v>3.1886525750092563E-2</v>
+        <v>1.2731912263075016E-2</v>
       </c>
       <c r="K30" s="93">
         <v>5</v>
@@ -12648,21 +12648,21 @@
       </c>
       <c r="N30" s="71">
         <f>(($B$24)^M30)*((1-($B$24))^($B$21-M30))*HLOOKUP($B$21,$AV$24:$BF$34,M30+1)</f>
-        <v>5.8541053046947652E-3</v>
+        <v>9.999318883409939E-3</v>
       </c>
       <c r="O30" s="72">
         <v>5</v>
       </c>
       <c r="P30" s="71">
         <f t="shared" si="16"/>
-        <v>5.8541053046947652E-3</v>
+        <v>9.999318883409939E-3</v>
       </c>
       <c r="Q30" s="28">
         <v>5</v>
       </c>
       <c r="R30" s="37">
         <f>P25*N30+P26*N29+P27*N28+P28*N27+P29*N26+P30*N25</f>
-        <v>0.16129666864729575</v>
+        <v>0.19906108747311371</v>
       </c>
       <c r="S30" s="72">
         <v>5</v>
@@ -12676,7 +12676,7 @@
       </c>
       <c r="V30" s="86">
         <f>T30*R25+T29*R26+T28*R27+T27*R28+T26*R29+T25*R30</f>
-        <v>0.16209567796420774</v>
+        <v>0.19983079178567795</v>
       </c>
       <c r="W30" s="137"/>
       <c r="X30" s="28">
@@ -12704,42 +12704,42 @@
       </c>
       <c r="AI30" s="79">
         <f>((($W$25)^M30)*((1-($W$25))^($U$30-M30))*HLOOKUP($U$30,$AV$24:$BF$34,M30+1))*V30</f>
-        <v>1.1222104735555089E-2</v>
+        <v>2.4371422282143018E-3</v>
       </c>
       <c r="AJ30" s="28">
         <v>5</v>
       </c>
       <c r="AK30" s="79">
         <f>((($W$25)^M30)*((1-($W$25))^($U$31-M30))*HLOOKUP($U$31,$AV$24:$BF$34,M30+1))*V31</f>
-        <v>1.3013479362623597E-2</v>
+        <v>4.7602853415151577E-3</v>
       </c>
       <c r="AL30" s="28">
         <v>5</v>
       </c>
       <c r="AM30" s="79">
         <f>((($W$25)^Q30)*((1-($W$25))^($U$32-Q30))*HLOOKUP($U$32,$AV$24:$BF$34,Q30+1))*V32</f>
-        <v>6.0557636987371433E-3</v>
+        <v>3.7342704500113702E-3</v>
       </c>
       <c r="AN30" s="28">
         <v>5</v>
       </c>
       <c r="AO30" s="79">
         <f>((($W$25)^Q30)*((1-($W$25))^($U$33-Q30))*HLOOKUP($U$33,$AV$24:$BF$34,Q30+1))*V33</f>
-        <v>1.4179895782729082E-3</v>
+        <v>1.4764585783390318E-3</v>
       </c>
       <c r="AP30" s="28">
         <v>5</v>
       </c>
       <c r="AQ30" s="79">
         <f>((($W$25)^Q30)*((1-($W$25))^($U$34-Q30))*HLOOKUP($U$34,$AV$24:$BF$34,Q30+1))*V34</f>
-        <v>1.6861071010519296E-4</v>
+        <v>2.9761655403235846E-4</v>
       </c>
       <c r="AR30" s="28">
         <v>5</v>
       </c>
       <c r="AS30" s="79">
         <f>((($W$25)^Q30)*((1-($W$25))^($U$35-Q30))*HLOOKUP($U$35,$AV$24:$BF$34,Q30+1))*V35</f>
-        <v>8.5776647986342511E-6</v>
+        <v>2.6139110962796916E-5</v>
       </c>
       <c r="AV30" s="29">
         <v>6</v>
@@ -12771,7 +12771,7 @@
       </c>
       <c r="BJ30" s="107">
         <f t="shared" si="13"/>
-        <v>6.4131573782892886E-4</v>
+        <v>3.7796511027127321E-5</v>
       </c>
       <c r="BP30">
         <f>BL10+1</f>
@@ -12782,7 +12782,7 @@
       </c>
       <c r="BR30" s="107">
         <f t="shared" si="14"/>
-        <v>6.5179804964216211E-4</v>
+        <v>5.5159120456095143E-5</v>
       </c>
     </row>
     <row r="31" spans="1:70" x14ac:dyDescent="0.25">
@@ -12791,25 +12791,25 @@
       </c>
       <c r="B31" s="60">
         <f>(B25*D25)+(B26*D26)+(B27*D27)+(B28*D28)+(B29*D29)+(B30*D30)/(B25+B26+B27+B28+B29+B30)</f>
-        <v>0.58621992624466734</v>
+        <v>0.4142320452153308</v>
       </c>
       <c r="C31" s="61">
         <f>(C25*E25)+(C26*E26)+(C27*E27)+(C28*E28)+(C29*E29)+(C30*E30)/(C25+C26+C27+C28+C29+C30)</f>
-        <v>0.66142881487272809</v>
+        <v>0.48026680274727512</v>
       </c>
       <c r="G31" s="87">
         <v>6</v>
       </c>
       <c r="H31" s="128">
         <f>J31*L25+J30*L26+J29*L27+J28*L28</f>
-        <v>1.675202134106828E-2</v>
+        <v>5.5104507761645815E-3</v>
       </c>
       <c r="I31" s="93">
         <v>6</v>
       </c>
       <c r="J31" s="86">
         <f t="shared" si="15"/>
-        <v>7.1064541242674539E-3</v>
+        <v>2.1190497465657199E-3</v>
       </c>
       <c r="K31" s="93">
         <v>6</v>
@@ -12824,7 +12824,7 @@
       </c>
       <c r="R31" s="37">
         <f>P26*N30+P27*N29+P28*N28+P29*N27+P30*N26</f>
-        <v>7.4848550177531642E-2</v>
+        <v>0.10971755659841359</v>
       </c>
       <c r="S31" s="70">
         <v>6</v>
@@ -12838,7 +12838,7 @@
       </c>
       <c r="V31" s="86">
         <f>T31*R25+T30*R26+T29*R27+T28*R28+T27*R29+T26*R30+T25*R31</f>
-        <v>7.5712872292962516E-2</v>
+        <v>0.11105488346788897</v>
       </c>
       <c r="W31" s="137"/>
       <c r="X31" s="28">
@@ -12870,35 +12870,35 @@
       </c>
       <c r="AK31" s="79">
         <f>((($W$25)^Q31)*((1-($W$25))^($U$31-Q31))*HLOOKUP($U$31,$AV$24:$BF$34,Q31+1))*V31</f>
-        <v>3.072792124774387E-3</v>
+        <v>5.610477427446072E-4</v>
       </c>
       <c r="AL31" s="28">
         <v>6</v>
       </c>
       <c r="AM31" s="79">
         <f>((($W$25)^Q31)*((1-($W$25))^($U$32-Q31))*HLOOKUP($U$32,$AV$24:$BF$34,Q31+1))*V32</f>
-        <v>2.8598198044435365E-3</v>
+        <v>8.8024303438495762E-4</v>
       </c>
       <c r="AN31" s="28">
         <v>6</v>
       </c>
       <c r="AO31" s="79">
         <f>((($W$25)^Q31)*((1-($W$25))^($U$33-Q31))*HLOOKUP($U$33,$AV$24:$BF$34,Q31+1))*V33</f>
-        <v>1.0044632387039136E-3</v>
+        <v>5.2204670090387766E-4</v>
       </c>
       <c r="AP31" s="28">
         <v>6</v>
       </c>
       <c r="AQ31" s="79">
         <f>((($W$25)^Q31)*((1-($W$25))^($U$34-Q31))*HLOOKUP($U$34,$AV$24:$BF$34,Q31+1))*V34</f>
-        <v>1.5925200255111505E-4</v>
+        <v>1.4030847637392746E-4</v>
       </c>
       <c r="AR31" s="28">
         <v>6</v>
       </c>
       <c r="AS31" s="79">
         <f>((($W$25)^Q31)*((1-($W$25))^($U$35-Q31))*HLOOKUP($U$35,$AV$24:$BF$34,Q31+1))*V35</f>
-        <v>1.0126953794501578E-5</v>
+        <v>1.5403792158350104E-5</v>
       </c>
       <c r="AV31" s="14">
         <v>7</v>
@@ -12926,7 +12926,7 @@
       </c>
       <c r="BJ31" s="107">
         <f t="shared" ref="BJ31:BJ37" si="20">$H$28*H43</f>
-        <v>5.1566831615957869E-2</v>
+        <v>3.9347751210536838E-2</v>
       </c>
       <c r="BP31">
         <f t="shared" ref="BP31:BP37" si="21">BP24+1</f>
@@ -12937,7 +12937,7 @@
       </c>
       <c r="BR31" s="107">
         <f t="shared" ref="BR31:BR38" si="22">$H$33*H39</f>
-        <v>1.5882543242693391E-6</v>
+        <v>2.6908140959674248E-6</v>
       </c>
     </row>
     <row r="32" spans="1:70" x14ac:dyDescent="0.25">
@@ -12957,14 +12957,14 @@
       </c>
       <c r="H32" s="128">
         <f>J32*L25+J31*L26+J30*L27+J29*L28</f>
-        <v>3.8328665609097361E-3</v>
+        <v>9.4903529357496044E-4</v>
       </c>
       <c r="I32" s="93">
         <v>7</v>
       </c>
       <c r="J32" s="86">
         <f t="shared" si="15"/>
-        <v>1.0902867995225619E-3</v>
+        <v>2.4314981682478428E-4</v>
       </c>
       <c r="K32" s="93">
         <v>7</v>
@@ -12979,7 +12979,7 @@
       </c>
       <c r="R32" s="37">
         <f>P27*N30+P28*N29+P29*N28+P30*N27</f>
-        <v>2.3816864425016945E-2</v>
+        <v>4.1467617100382111E-2</v>
       </c>
       <c r="S32" s="72">
         <v>7</v>
@@ -12993,7 +12993,7 @@
       </c>
       <c r="V32" s="86">
         <f>T32*R25+T31*R26+T30*R27+T29*R28+T28*R29+T27*R30+T26*R31+T25*R32</f>
-        <v>2.4328066693360025E-2</v>
+        <v>4.2492940875405547E-2</v>
       </c>
       <c r="W32" s="137"/>
       <c r="X32" s="28">
@@ -13029,28 +13029,28 @@
       </c>
       <c r="AM32" s="79">
         <f>((($W$25)^Q32)*((1-($W$25))^($U$32-Q32))*HLOOKUP($U$32,$AV$24:$BF$34,Q32+1))*V32</f>
-        <v>5.7880414575194647E-4</v>
+        <v>8.8924747526851892E-5</v>
       </c>
       <c r="AN32" s="28">
         <v>7</v>
       </c>
       <c r="AO32" s="79">
         <f>((($W$25)^Q32)*((1-($W$25))^($U$33-Q32))*HLOOKUP($U$33,$AV$24:$BF$34,Q32+1))*V33</f>
-        <v>4.0659029349604672E-4</v>
+        <v>1.0547739490501011E-4</v>
       </c>
       <c r="AP32" s="28">
         <v>7</v>
       </c>
       <c r="AQ32" s="79">
         <f>((($W$25)^Q32)*((1-($W$25))^($U$34-Q32))*HLOOKUP($U$34,$AV$24:$BF$34,Q32+1))*V34</f>
-        <v>9.6693909685495542E-5</v>
+        <v>4.2523128329484381E-5</v>
       </c>
       <c r="AR32" s="28">
         <v>7</v>
       </c>
       <c r="AS32" s="79">
         <f>((($W$25)^Q32)*((1-($W$25))^($U$35-Q32))*HLOOKUP($U$35,$AV$24:$BF$34,Q32+1))*V35</f>
-        <v>8.1984505890733265E-6</v>
+        <v>6.2245460634379179E-6</v>
       </c>
       <c r="AV32" s="14">
         <v>8</v>
@@ -13074,7 +13074,7 @@
       </c>
       <c r="BJ32" s="107">
         <f t="shared" si="20"/>
-        <v>5.3354098580138468E-2</v>
+        <v>2.3887321153717903E-2</v>
       </c>
       <c r="BP32">
         <f t="shared" si="21"/>
@@ -13085,7 +13085,7 @@
       </c>
       <c r="BR32" s="107">
         <f t="shared" si="22"/>
-        <v>1.2593041114432552E-5</v>
+        <v>1.2104176284605502E-5</v>
       </c>
     </row>
     <row r="33" spans="1:70" x14ac:dyDescent="0.25">
@@ -13105,14 +13105,14 @@
       </c>
       <c r="H33" s="128">
         <f>J33*L25+J32*L26+J31*L27+J30*L28</f>
-        <v>6.6310192766261353E-4</v>
+        <v>1.2392293080927536E-4</v>
       </c>
       <c r="I33" s="93">
         <v>8</v>
       </c>
       <c r="J33" s="86">
         <f t="shared" si="15"/>
-        <v>1.1060749223897118E-4</v>
+        <v>1.8492011316213085E-5</v>
       </c>
       <c r="K33" s="93">
         <v>8</v>
@@ -13127,7 +13127,7 @@
       </c>
       <c r="R33" s="37">
         <f>P28*N30+P29*N29+P30*N28</f>
-        <v>4.9734195016045459E-3</v>
+        <v>1.0285167019758007E-2</v>
       </c>
       <c r="S33" s="72">
         <v>8</v>
@@ -13141,7 +13141,7 @@
       </c>
       <c r="V33" s="86">
         <f>T33*R25+T32*R26+T31*R27+T30*R28+T29*R29+T28*R30+T27*R31+T26*R32+T25*R33</f>
-        <v>5.1626586568593981E-3</v>
+        <v>1.075568183593642E-2</v>
       </c>
       <c r="W33" s="137"/>
       <c r="X33" s="28">
@@ -13181,21 +13181,21 @@
       </c>
       <c r="AO33" s="79">
         <f>((($W$25)^Q33)*((1-($W$25))^($U$33-Q33))*HLOOKUP($U$33,$AV$24:$BF$34,Q33+1))*V33</f>
-        <v>7.2004232134069261E-5</v>
+        <v>9.32368283776057E-6</v>
       </c>
       <c r="AP33" s="28">
         <v>8</v>
       </c>
       <c r="AQ33" s="79">
         <f>((($W$25)^Q33)*((1-($W$25))^($U$34-Q33))*HLOOKUP($U$34,$AV$24:$BF$34,Q33+1))*V34</f>
-        <v>3.4247599267948808E-5</v>
+        <v>7.5176707231071681E-6</v>
       </c>
       <c r="AR33" s="28">
         <v>8</v>
       </c>
       <c r="AS33" s="79">
         <f>((($W$25)^Q33)*((1-($W$25))^($U$35-Q33))*HLOOKUP($U$35,$AV$24:$BF$34,Q33+1))*V35</f>
-        <v>4.3556608369531004E-6</v>
+        <v>1.6506577553453469E-6</v>
       </c>
       <c r="AV33" s="29">
         <v>9</v>
@@ -13216,7 +13216,7 @@
       </c>
       <c r="BJ33" s="107">
         <f t="shared" si="20"/>
-        <v>4.0095359587331257E-2</v>
+        <v>1.0699649064622648E-2</v>
       </c>
       <c r="BP33">
         <f t="shared" si="21"/>
@@ -13227,7 +13227,7 @@
       </c>
       <c r="BR33" s="107">
         <f t="shared" si="22"/>
-        <v>4.5519200728759192E-5</v>
+        <v>2.4959213802112454E-5</v>
       </c>
     </row>
     <row r="34" spans="1:70" x14ac:dyDescent="0.25">
@@ -13236,25 +13236,25 @@
       </c>
       <c r="B34" s="56">
         <f>B23*2</f>
-        <v>3.5767789920205626</v>
+        <v>3.9810174725776966</v>
       </c>
       <c r="C34" s="57">
         <f>C23*2</f>
-        <v>6.4232210079794374</v>
+        <v>6.0189825274223034</v>
       </c>
       <c r="G34" s="87">
         <v>9</v>
       </c>
       <c r="H34" s="128">
         <f>J34*L25+J33*L26+J32*L27+J31*L28</f>
-        <v>8.6167925577191338E-5</v>
+        <v>1.2189482671699438E-5</v>
       </c>
       <c r="I34" s="93">
         <v>9</v>
       </c>
       <c r="J34" s="86">
         <f t="shared" si="15"/>
-        <v>6.7624156092627911E-6</v>
+        <v>8.500845880421182E-7</v>
       </c>
       <c r="K34" s="93">
         <v>9</v>
@@ -13269,7 +13269,7 @@
       </c>
       <c r="R34" s="37">
         <f>P29*N30+P30*N29</f>
-        <v>6.1543447403122117E-4</v>
+        <v>1.5117146988249393E-3</v>
       </c>
       <c r="S34" s="72">
         <v>9</v>
@@ -13283,7 +13283,7 @@
       </c>
       <c r="V34" s="86">
         <f>T34*R25+T33*R26+T32*R27+T31*R28+T30*R29+T29*R30+T28*R31+T27*R32+T26*R33+T25*R34</f>
-        <v>6.5937646080435044E-4</v>
+        <v>1.6449989907823693E-3</v>
       </c>
       <c r="W34" s="137"/>
       <c r="X34" s="28">
@@ -13327,14 +13327,14 @@
       </c>
       <c r="AQ34" s="79">
         <f>((($W$25)^Q34)*((1-($W$25))^($U$34-Q34))*HLOOKUP($U$34,$AV$24:$BF$34,Q34+1))*V34</f>
-        <v>5.3911153909759582E-6</v>
+        <v>5.9068898708132425E-7</v>
       </c>
       <c r="AR34" s="28">
         <v>9</v>
       </c>
       <c r="AS34" s="79">
         <f>((($W$25)^Q34)*((1-($W$25))^($U$35-Q34))*HLOOKUP($U$35,$AV$24:$BF$34,Q34+1))*V35</f>
-        <v>1.3713002182868331E-6</v>
+        <v>2.5939560096079401E-7</v>
       </c>
       <c r="AV34" s="14">
         <v>10</v>
@@ -13352,7 +13352,7 @@
       </c>
       <c r="BJ34" s="107">
         <f t="shared" si="20"/>
-        <v>2.2111486233490737E-2</v>
+        <v>3.5903320742554194E-3</v>
       </c>
       <c r="BP34">
         <f t="shared" si="21"/>
@@ -13363,7 +13363,7 @@
       </c>
       <c r="BR34" s="107">
         <f t="shared" si="22"/>
-        <v>9.9167171841216503E-5</v>
+        <v>3.1239058715248236E-5</v>
       </c>
     </row>
     <row r="35" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13372,14 +13372,14 @@
       </c>
       <c r="H35" s="129">
         <f>J35*L25+J34*L26+J33*L27+J32*L28</f>
-        <v>8.2337613192123086E-6</v>
+        <v>8.8407552039678037E-7</v>
       </c>
       <c r="I35" s="94">
         <v>10</v>
       </c>
       <c r="J35" s="89">
         <f t="shared" si="15"/>
-        <v>1.9427796643942269E-7</v>
+        <v>1.8343436070235109E-8</v>
       </c>
       <c r="K35" s="94">
         <v>10</v>
@@ -13394,7 +13394,7 @@
       </c>
       <c r="R35" s="37">
         <f>P30*N30</f>
-        <v>3.427054891845539E-5</v>
+        <v>9.9986378132118595E-5</v>
       </c>
       <c r="S35" s="72">
         <v>10</v>
@@ -13408,7 +13408,7 @@
       </c>
       <c r="V35" s="89">
         <f>IF(((T35*R25+T34*R26+T33*R27+T32*R28+T31*R29+T30*R30+T29*R31+T28*R32+T27*R33+T26*R34+T25*R35)+V23)&lt;&gt;1,1-V23,(T35*R25+T34*R26+T33*R27+T32*R28+T31*R29+T30*R30+T29*R31+T28*R32+T27*R33+T26*R34+T25*R35))</f>
-        <v>4.0533843284507043E-5</v>
+        <v>1.233229086635701E-4</v>
       </c>
       <c r="W35" s="137"/>
       <c r="X35" s="28">
@@ -13456,7 +13456,7 @@
       </c>
       <c r="AS35" s="79">
         <f>((($W$25)^Q35)*((1-($W$25))^($U$35-Q35))*HLOOKUP($U$35,$AV$24:$BF$34,Q35+1))*V35</f>
-        <v>1.9427796643942269E-7</v>
+        <v>1.8343436070235109E-8</v>
       </c>
       <c r="BH35">
         <f t="shared" si="19"/>
@@ -13467,7 +13467,7 @@
       </c>
       <c r="BJ35" s="107">
         <f t="shared" si="20"/>
-        <v>8.9329145444462833E-3</v>
+        <v>9.0650040758043487E-4</v>
       </c>
       <c r="BP35">
         <f t="shared" si="21"/>
@@ -13478,14 +13478,14 @@
       </c>
       <c r="BR35" s="107">
         <f t="shared" si="22"/>
-        <v>1.4502603805085113E-4</v>
+        <v>2.6487259598748923E-5</v>
       </c>
     </row>
     <row r="36" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="108">
         <f>SUM(B37:B39)</f>
-        <v>0.99964543006185902</v>
+        <v>0.99998577876364036</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
@@ -13510,7 +13510,7 @@
       <c r="X36" s="13"/>
       <c r="AS36" s="82">
         <f>Y37+AA37+AC37+AE37+AG37+AI37+AK37+AM37+AO37+AQ37+AS37</f>
-        <v>1.0000000000000002</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="BH36">
         <f t="shared" si="19"/>
@@ -13521,7 +13521,7 @@
       </c>
       <c r="BJ36" s="107">
         <f t="shared" si="20"/>
-        <v>2.6102190978710945E-3</v>
+        <v>1.7117611086450791E-4</v>
       </c>
       <c r="BP36">
         <f t="shared" si="21"/>
@@ -13532,7 +13532,7 @@
       </c>
       <c r="BR36" s="107">
         <f t="shared" si="22"/>
-        <v>1.5005252966632734E-4</v>
+        <v>1.6079945029940641E-5</v>
       </c>
     </row>
     <row r="37" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13541,17 +13541,17 @@
       </c>
       <c r="B37" s="107">
         <f>SUM(BN4:BN14)</f>
-        <v>0.10371075404235458</v>
+        <v>0.15645570754248334</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="59">
         <f>SUM(H39:H49)</f>
-        <v>0.99965421846270808</v>
+        <v>0.9999867093250131</v>
       </c>
       <c r="I37" s="13"/>
       <c r="J37" s="59">
         <f>SUM(J39:J49)</f>
-        <v>1</v>
+        <v>0.99999999999999967</v>
       </c>
       <c r="K37" s="59"/>
       <c r="L37" s="59">
@@ -13561,17 +13561,17 @@
       <c r="M37" s="13"/>
       <c r="N37" s="74">
         <f>SUM(N39:N49)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="O37" s="13"/>
       <c r="P37" s="74">
         <f>SUM(P39:P49)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="13"/>
       <c r="R37" s="59">
         <f>SUM(R39:R49)</f>
-        <v>0.99999999999999978</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="S37" s="13"/>
       <c r="T37" s="59">
@@ -13581,63 +13581,63 @@
       <c r="U37" s="13"/>
       <c r="V37" s="59">
         <f>SUM(V39:V48)</f>
-        <v>0.98771273422944839</v>
+        <v>0.9933445322080835</v>
       </c>
       <c r="W37" s="13"/>
       <c r="X37" s="13"/>
       <c r="Y37" s="80">
         <f>SUM(Y39:Y49)</f>
-        <v>3.409919617386311E-5</v>
+        <v>9.8989014010250856E-5</v>
       </c>
       <c r="Z37" s="81"/>
       <c r="AA37" s="80">
         <f>SUM(AA39:AA49)</f>
-        <v>6.1252865440565736E-4</v>
+        <v>1.4976302091665764E-3</v>
       </c>
       <c r="AB37" s="81"/>
       <c r="AC37" s="80">
         <f>SUM(AC39:AC49)</f>
-        <v>4.951629576466679E-3</v>
+        <v>1.019761653964869E-2</v>
       </c>
       <c r="AD37" s="81"/>
       <c r="AE37" s="80">
         <f>SUM(AE39:AE49)</f>
-        <v>2.3722647200399884E-2</v>
+        <v>4.1156352824519869E-2</v>
       </c>
       <c r="AF37" s="81"/>
       <c r="AG37" s="80">
         <f>SUM(AG39:AG49)</f>
-        <v>7.459339174876907E-2</v>
+        <v>0.10903598389066876</v>
       </c>
       <c r="AH37" s="81"/>
       <c r="AI37" s="80">
         <f>SUM(AI39:AI49)</f>
-        <v>0.16086442805494691</v>
+        <v>0.19816817950415122</v>
       </c>
       <c r="AJ37" s="81"/>
       <c r="AK37" s="80">
         <f>SUM(AK39:AK49)</f>
-        <v>0.24098158970739375</v>
+        <v>0.25028544019128784</v>
       </c>
       <c r="AL37" s="81"/>
       <c r="AM37" s="80">
         <f>SUM(AM39:AM49)</f>
-        <v>0.24766932656422086</v>
+        <v>0.21702217784970926</v>
       </c>
       <c r="AN37" s="81"/>
       <c r="AO37" s="80">
         <f>SUM(AO39:AO49)</f>
-        <v>0.16721352445809518</v>
+        <v>0.12378968965599178</v>
       </c>
       <c r="AP37" s="81"/>
       <c r="AQ37" s="80">
         <f>SUM(AQ39:AQ49)</f>
-        <v>6.7069569068576529E-2</v>
+        <v>4.2092472528929004E-2</v>
       </c>
       <c r="AR37" s="81"/>
       <c r="AS37" s="80">
         <f>SUM(AS39:AS49)</f>
-        <v>1.2287265770551616E-2</v>
+        <v>6.6554677919165011E-3</v>
       </c>
       <c r="BH37">
         <f t="shared" si="19"/>
@@ -13648,7 +13648,7 @@
       </c>
       <c r="BJ37" s="107">
         <f t="shared" si="20"/>
-        <v>5.3787129733884082E-4</v>
+        <v>2.369753911685607E-5</v>
       </c>
       <c r="BP37">
         <f t="shared" si="21"/>
@@ -13659,7 +13659,7 @@
       </c>
       <c r="BR37" s="107">
         <f t="shared" si="22"/>
-        <v>1.1276378561477087E-4</v>
+        <v>7.20255602089603E-6</v>
       </c>
     </row>
     <row r="38" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13668,7 +13668,7 @@
       </c>
       <c r="B38" s="107">
         <f>SUM(BJ4:BJ59)</f>
-        <v>0.79531476331454676</v>
+        <v>0.67322970380479152</v>
       </c>
       <c r="G38" s="103" t="str">
         <f t="shared" ref="G38:T38" si="23">G24</f>
@@ -13868,7 +13868,7 @@
       </c>
       <c r="BJ38" s="107">
         <f t="shared" ref="BJ38:BJ43" si="36">$H$29*H44</f>
-        <v>3.0424313829946554E-2</v>
+        <v>1.0194691250797406E-2</v>
       </c>
       <c r="BP38">
         <f>BL11+1</f>
@@ -13879,7 +13879,7 @@
       </c>
       <c r="BR38" s="107">
         <f t="shared" si="22"/>
-        <v>6.2186121259905766E-5</v>
+        <v>2.4168613140730623E-6</v>
       </c>
     </row>
     <row r="39" spans="1:70" x14ac:dyDescent="0.25">
@@ -13888,144 +13888,144 @@
       </c>
       <c r="B39" s="107">
         <f>SUM(BR4:BR47)</f>
-        <v>0.10061991270495774</v>
+        <v>0.17030036741636539</v>
       </c>
       <c r="G39" s="130">
         <v>0</v>
       </c>
       <c r="H39" s="131">
         <f>L39*J39</f>
-        <v>2.3951888209220278E-3</v>
+        <v>2.1713609244028816E-2</v>
       </c>
       <c r="I39" s="97">
         <v>0</v>
       </c>
       <c r="J39" s="98">
         <f t="shared" ref="J39:J49" si="37">Y39+AA39+AC39+AE39+AG39+AI39+AK39+AM39+AO39+AQ39+AS39</f>
-        <v>3.9479356102723913E-3</v>
+        <v>3.2822376463185601E-2</v>
       </c>
       <c r="K39" s="102">
         <v>0</v>
       </c>
       <c r="L39" s="98">
         <f>AC20</f>
-        <v>0.60669399335942298</v>
+        <v>0.661548967009849</v>
       </c>
       <c r="M39" s="84">
         <v>0</v>
       </c>
       <c r="N39" s="71">
         <f>(1-$C$24)^$B$21</f>
-        <v>5.8541053046947652E-3</v>
+        <v>9.999318883409946E-3</v>
       </c>
       <c r="O39" s="70">
         <v>0</v>
       </c>
       <c r="P39" s="71">
         <f>N39</f>
-        <v>5.8541053046947652E-3</v>
+        <v>9.999318883409946E-3</v>
       </c>
       <c r="Q39" s="12">
         <v>0</v>
       </c>
       <c r="R39" s="73">
         <f>P39*N39</f>
-        <v>3.427054891845539E-5</v>
+        <v>9.9986378132118731E-5</v>
       </c>
       <c r="S39" s="70">
         <v>0</v>
       </c>
       <c r="T39" s="135">
         <f>(1-$C$33)^(INT(B23*2*(1-B31)))</f>
-        <v>0.995</v>
+        <v>0.99002500000000004</v>
       </c>
       <c r="U39" s="140">
         <v>0</v>
       </c>
       <c r="V39" s="86">
         <f>R39*T39</f>
-        <v>3.409919617386311E-5</v>
+        <v>9.8989014010250856E-5</v>
       </c>
       <c r="W39" s="136">
         <f>C31</f>
-        <v>0.66142881487272809</v>
+        <v>0.48026680274727512</v>
       </c>
       <c r="X39" s="12">
         <v>0</v>
       </c>
       <c r="Y39" s="79">
         <f>V39</f>
-        <v>3.409919617386311E-5</v>
+        <v>9.8989014010250856E-5</v>
       </c>
       <c r="Z39" s="12">
         <v>0</v>
       </c>
       <c r="AA39" s="78">
         <f>((1-W39)^Z40)*V40</f>
-        <v>2.0738455244653659E-4</v>
+        <v>7.7836813691241184E-4</v>
       </c>
       <c r="AB39" s="12">
         <v>0</v>
       </c>
       <c r="AC39" s="79">
         <f>(((1-$W$39)^AB41))*V41</f>
-        <v>5.6760751370194841E-4</v>
+        <v>2.7546066560323692E-3</v>
       </c>
       <c r="AD39" s="12">
         <v>0</v>
       </c>
       <c r="AE39" s="79">
         <f>(((1-$W$39)^AB42))*V42</f>
-        <v>9.2068937500429219E-4</v>
+        <v>5.7780095420059876E-3</v>
       </c>
       <c r="AF39" s="12">
         <v>0</v>
       </c>
       <c r="AG39" s="79">
         <f>(((1-$W$39)^AB43))*V43</f>
-        <v>9.8016757117712718E-4</v>
+        <v>7.9559432664115005E-3</v>
       </c>
       <c r="AH39" s="12">
         <v>0</v>
       </c>
       <c r="AI39" s="79">
         <f>(((1-$W$39)^AB44))*V44</f>
-        <v>7.1566534521995818E-4</v>
+        <v>7.5151249903131004E-3</v>
       </c>
       <c r="AJ39" s="12">
         <v>0</v>
       </c>
       <c r="AK39" s="79">
         <f>(((1-$W$39)^AB45))*V45</f>
-        <v>3.629809453171278E-4</v>
+        <v>4.9330819740914297E-3</v>
       </c>
       <c r="AL39" s="12">
         <v>0</v>
       </c>
       <c r="AM39" s="79">
         <f>(((1-$W$39)^AB46))*V46</f>
-        <v>1.2630547583662808E-4</v>
+        <v>2.223142602055909E-3</v>
       </c>
       <c r="AN39" s="12">
         <v>0</v>
       </c>
       <c r="AO39" s="79">
         <f>(((1-$W$39)^AB47))*V47</f>
-        <v>2.8871633137174059E-5</v>
+        <v>6.5906482817677857E-4</v>
       </c>
       <c r="AP39" s="12">
         <v>0</v>
       </c>
       <c r="AQ39" s="79">
         <f>(((1-$W$39)^AB48))*V48</f>
-        <v>3.9208069511269517E-6</v>
+        <v>1.1647388354949756E-4</v>
       </c>
       <c r="AR39" s="12">
         <v>0</v>
       </c>
       <c r="AS39" s="79">
         <f>(((1-$W$39)^AB49))*V49</f>
-        <v>2.4319530660821828E-7</v>
+        <v>9.5715696263671377E-6</v>
       </c>
       <c r="AV39" s="14">
         <v>1</v>
@@ -14070,7 +14070,7 @@
       </c>
       <c r="BJ39" s="107">
         <f t="shared" si="36"/>
-        <v>2.2863731853275678E-2</v>
+        <v>4.5664232503833382E-3</v>
       </c>
       <c r="BP39">
         <f t="shared" ref="BP39:BP46" si="38">BP31+1</f>
@@ -14081,7 +14081,7 @@
       </c>
       <c r="BR39" s="107">
         <f t="shared" ref="BR39:BR47" si="39">$H$34*H39</f>
-        <v>2.0638845206452997E-7</v>
+        <v>2.6467766362014199E-7</v>
       </c>
     </row>
     <row r="40" spans="1:70" x14ac:dyDescent="0.25">
@@ -14090,56 +14090,56 @@
       </c>
       <c r="H40" s="132">
         <f>L39*J40+L40*J39</f>
-        <v>1.8991109193155439E-2</v>
+        <v>9.7675032421840779E-2</v>
       </c>
       <c r="I40" s="93">
         <v>1</v>
       </c>
       <c r="J40" s="86">
         <f t="shared" si="37"/>
-        <v>2.9175636790872313E-2</v>
+        <v>0.13361782213246701</v>
       </c>
       <c r="K40" s="95">
         <v>1</v>
       </c>
       <c r="L40" s="86">
         <f>AD20</f>
-        <v>0.32686085262874431</v>
+        <v>0.28274309224411293</v>
       </c>
       <c r="M40" s="85">
         <v>1</v>
       </c>
       <c r="N40" s="71">
         <f>(($C$24)^M26)*((1-($C$24))^($B$21-M26))*HLOOKUP($B$21,$AV$24:$BF$34,M26+1)</f>
-        <v>5.2564349460682454E-2</v>
+        <v>7.5590883561732103E-2</v>
       </c>
       <c r="O40" s="72">
         <v>1</v>
       </c>
       <c r="P40" s="71">
         <f t="shared" ref="P40:P44" si="40">N40</f>
-        <v>5.2564349460682454E-2</v>
+        <v>7.5590883561732103E-2</v>
       </c>
       <c r="Q40" s="28">
         <v>1</v>
       </c>
       <c r="R40" s="37">
         <f>P40*N39+P39*N40</f>
-        <v>6.1543447403122117E-4</v>
+        <v>1.5117146988249406E-3</v>
       </c>
       <c r="S40" s="72">
         <v>1</v>
       </c>
       <c r="T40" s="135">
         <f t="shared" ref="T40:T49" si="41">(($C$33)^S40)*((1-($C$33))^(INT($B$23*2*(1-$B$31))-S40))*HLOOKUP(INT($B$23*2*(1-$B$31)),$AV$24:$BF$34,S40+1)</f>
-        <v>5.0000000000000001E-3</v>
+        <v>9.9500000000000005E-3</v>
       </c>
       <c r="U40" s="93">
         <v>1</v>
       </c>
       <c r="V40" s="86">
         <f>R40*T39+T40*R39</f>
-        <v>6.1252865440565736E-4</v>
+        <v>1.4976302091665764E-3</v>
       </c>
       <c r="W40" s="137"/>
       <c r="X40" s="28">
@@ -14151,70 +14151,70 @@
       </c>
       <c r="AA40" s="79">
         <f>(1-((1-W39)^Z40))*V40</f>
-        <v>4.051441019591208E-4</v>
+        <v>7.1926207225416459E-4</v>
       </c>
       <c r="AB40" s="28">
         <v>1</v>
       </c>
       <c r="AC40" s="79">
         <f>((($W$39)^M40)*((1-($W$39))^($U$27-M40))*HLOOKUP($U$27,$AV$24:$BF$34,M40+1))*V41</f>
-        <v>2.2177431606272531E-3</v>
+        <v>5.0908663849530272E-3</v>
       </c>
       <c r="AD40" s="28">
         <v>1</v>
       </c>
       <c r="AE40" s="79">
         <f>((($W$39)^M40)*((1-($W$39))^($U$28-M40))*HLOOKUP($U$28,$AV$24:$BF$34,M40+1))*V42</f>
-        <v>5.3959448611619236E-3</v>
+        <v>1.6017754014853326E-2</v>
       </c>
       <c r="AF40" s="28">
         <v>1</v>
       </c>
       <c r="AG40" s="79">
         <f>((($W$39)^M40)*((1-($W$39))^($U$29-M40))*HLOOKUP($U$29,$AV$24:$BF$34,M40+1))*V43</f>
-        <v>7.6593768573266106E-3</v>
+        <v>2.9407207048505551E-2</v>
       </c>
       <c r="AH40" s="28">
         <v>1</v>
       </c>
       <c r="AI40" s="79">
         <f>((($W$39)^M40)*((1-($W$39))^($U$30-M40))*HLOOKUP($U$30,$AV$24:$BF$34,M40+1))*V44</f>
-        <v>6.9905783765440337E-3</v>
+        <v>3.4722287035176456E-2</v>
       </c>
       <c r="AJ40" s="28">
         <v>1</v>
       </c>
       <c r="AK40" s="79">
         <f>((($W$39)^M40)*((1-($W$39))^($U$31-M40))*HLOOKUP($U$31,$AV$24:$BF$34,M40+1))*V45</f>
-        <v>4.2546926678164862E-3</v>
+        <v>2.7350904501507897E-2</v>
       </c>
       <c r="AL40" s="28">
         <v>1</v>
       </c>
       <c r="AM40" s="79">
         <f>((($W$39)^Q40)*((1-($W$39))^($U$32-Q40))*HLOOKUP($U$32,$AV$24:$BF$34,Q40+1))*V46</f>
-        <v>1.7272425830983484E-3</v>
+        <v>1.4380284281033308E-2</v>
       </c>
       <c r="AN40" s="28">
         <v>1</v>
       </c>
       <c r="AO40" s="79">
         <f>((($W$39)^Q40)*((1-($W$39))^($U$33-Q40))*HLOOKUP($U$33,$AV$24:$BF$34,Q40+1))*V47</f>
-        <v>4.5122635187475079E-4</v>
+        <v>4.8721453161704375E-3</v>
       </c>
       <c r="AP40" s="28">
         <v>1</v>
       </c>
       <c r="AQ40" s="79">
         <f>((($W$39)^Q40)*((1-($W$39))^($U$34-Q40))*HLOOKUP($U$34,$AV$24:$BF$34,Q40+1))*V48</f>
-        <v>6.8936794625579752E-5</v>
+        <v>9.6866403678669635E-4</v>
       </c>
       <c r="AR40" s="28">
         <v>1</v>
       </c>
       <c r="AS40" s="79">
         <f>((($W$39)^Q40)*((1-($W$39))^($U$35-Q40))*HLOOKUP($U$35,$AV$24:$BF$34,Q40+1))*V49</f>
-        <v>4.7510358382098038E-6</v>
+        <v>8.8447441226137212E-5</v>
       </c>
       <c r="AV40" s="14">
         <v>2</v>
@@ -14259,7 +14259,7 @@
       </c>
       <c r="BJ40" s="107">
         <f t="shared" si="36"/>
-        <v>1.2608718248773743E-2</v>
+        <v>1.5322909902424167E-3</v>
       </c>
       <c r="BP40">
         <f t="shared" si="38"/>
@@ -14270,7 +14270,7 @@
       </c>
       <c r="BR40" s="107">
         <f t="shared" si="39"/>
-        <v>1.636424483584132E-6</v>
+        <v>1.190608115163709E-6</v>
       </c>
     </row>
     <row r="41" spans="1:70" x14ac:dyDescent="0.25">
@@ -14279,56 +14279,56 @@
       </c>
       <c r="H41" s="132">
         <f>L39*J41+J40*L40+J39*L41</f>
-        <v>6.86458579440586E-2</v>
+        <v>0.20140916325265212</v>
       </c>
       <c r="I41" s="93">
         <v>2</v>
       </c>
       <c r="J41" s="86">
         <f t="shared" si="37"/>
-        <v>9.7034584630774509E-2</v>
+        <v>0.24484175349100304</v>
       </c>
       <c r="K41" s="95">
         <v>2</v>
       </c>
       <c r="L41" s="86">
         <f>AE20</f>
-        <v>6.0584773056500812E-2</v>
+        <v>5.0417980641880633E-2</v>
       </c>
       <c r="M41" s="85">
         <v>2</v>
       </c>
       <c r="N41" s="71">
         <f>(($C$24)^M27)*((1-($C$24))^($B$21-M27))*HLOOKUP($B$21,$AV$24:$BF$34,M27+1)</f>
-        <v>0.18879133123956074</v>
+        <v>0.2285748357170013</v>
       </c>
       <c r="O41" s="72">
         <v>2</v>
       </c>
       <c r="P41" s="71">
         <f t="shared" si="40"/>
-        <v>0.18879133123956074</v>
+        <v>0.2285748357170013</v>
       </c>
       <c r="Q41" s="28">
         <v>2</v>
       </c>
       <c r="R41" s="37">
         <f>P41*N39+P40*N40+P39*N41</f>
-        <v>4.9734195016045459E-3</v>
+        <v>1.0285167019758016E-2</v>
       </c>
       <c r="S41" s="72">
         <v>2</v>
       </c>
       <c r="T41" s="135">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="U41" s="93">
         <v>2</v>
       </c>
       <c r="V41" s="86">
         <f>R41*T39+T40*R40+R39*T41</f>
-        <v>4.951629576466679E-3</v>
+        <v>1.0197616539648692E-2</v>
       </c>
       <c r="W41" s="137"/>
       <c r="X41" s="28">
@@ -14344,63 +14344,63 @@
       </c>
       <c r="AC41" s="79">
         <f>((($W$39)^M41)*((1-($W$39))^($U$27-M41))*HLOOKUP($U$27,$AV$24:$BF$34,M41+1))*V41</f>
-        <v>2.1662789021374773E-3</v>
+        <v>2.3521434986632948E-3</v>
       </c>
       <c r="AD41" s="28">
         <v>2</v>
       </c>
       <c r="AE41" s="79">
         <f>((($W$39)^M41)*((1-($W$39))^($U$28-M41))*HLOOKUP($U$28,$AV$24:$BF$34,M41+1))*V42</f>
-        <v>1.054145648364992E-2</v>
+        <v>1.4801431866522174E-2</v>
       </c>
       <c r="AF41" s="28">
         <v>2</v>
       </c>
       <c r="AG41" s="79">
         <f>((($W$39)^M41)*((1-($W$39))^($U$29-M41))*HLOOKUP($U$29,$AV$24:$BF$34,M41+1))*V43</f>
-        <v>2.2444907215748745E-2</v>
+        <v>4.076121762541169E-2</v>
       </c>
       <c r="AH41" s="28">
         <v>2</v>
       </c>
       <c r="AI41" s="79">
         <f>((($W$39)^M41)*((1-($W$39))^($U$30-M41))*HLOOKUP($U$30,$AV$24:$BF$34,M41+1))*V44</f>
-        <v>2.7313428749905711E-2</v>
+        <v>6.4171239653750753E-2</v>
       </c>
       <c r="AJ41" s="28">
         <v>2</v>
       </c>
       <c r="AK41" s="79">
         <f>((($W$39)^M41)*((1-($W$39))^($U$31-M41))*HLOOKUP($U$31,$AV$24:$BF$34,M41+1))*V45</f>
-        <v>2.0779797960831122E-2</v>
+        <v>6.318497416857273E-2</v>
       </c>
       <c r="AL41" s="28">
         <v>2</v>
       </c>
       <c r="AM41" s="79">
         <f>((($W$39)^Q41)*((1-($W$39))^($U$32-Q41))*HLOOKUP($U$32,$AV$24:$BF$34,Q41+1))*V46</f>
-        <v>1.0122964371350683E-2</v>
+        <v>3.9864914483558458E-2</v>
       </c>
       <c r="AN41" s="28">
         <v>2</v>
       </c>
       <c r="AO41" s="79">
         <f>((($W$39)^Q41)*((1-($W$39))^($U$33-Q41))*HLOOKUP($U$33,$AV$24:$BF$34,Q41+1))*V47</f>
-        <v>3.0852873337902128E-3</v>
+        <v>1.5757611464114665E-2</v>
       </c>
       <c r="AP41" s="28">
         <v>2</v>
       </c>
       <c r="AQ41" s="79">
         <f>((($W$39)^Q41)*((1-($W$39))^($U$34-Q41))*HLOOKUP($U$34,$AV$24:$BF$34,Q41+1))*V48</f>
-        <v>5.3869655036569797E-4</v>
+        <v>3.5804307467209927E-3</v>
       </c>
       <c r="AR41" s="28">
         <v>2</v>
       </c>
       <c r="AS41" s="79">
         <f>((($W$39)^Q41)*((1-($W$39))^($U$35-Q41))*HLOOKUP($U$35,$AV$24:$BF$34,Q41+1))*V49</f>
-        <v>4.1767062994940307E-5</v>
+        <v>3.6778998368829492E-4</v>
       </c>
       <c r="AV41" s="14">
         <v>3</v>
@@ -14442,7 +14442,7 @@
       </c>
       <c r="BJ41" s="107">
         <f t="shared" si="36"/>
-        <v>5.0938503835485935E-3</v>
+        <v>3.8687853336648282E-4</v>
       </c>
       <c r="BP41">
         <f t="shared" si="38"/>
@@ -14453,7 +14453,7 @@
       </c>
       <c r="BR41" s="107">
         <f t="shared" si="39"/>
-        <v>5.9150711785060901E-6</v>
+        <v>2.4550735053896863E-6</v>
       </c>
     </row>
     <row r="42" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14462,42 +14462,42 @@
       </c>
       <c r="H42" s="132">
         <f>J42*L39+J41*L40+L42*J39+L41*J40</f>
-        <v>0.14955042008514985</v>
+        <v>0.25208456991165723</v>
       </c>
       <c r="I42" s="93">
         <v>3</v>
       </c>
       <c r="J42" s="86">
         <f t="shared" si="37"/>
-        <v>0.19127085243630307</v>
+        <v>0.26596199882634219</v>
       </c>
       <c r="K42" s="95">
         <v>3</v>
       </c>
       <c r="L42" s="86">
         <f>AF20</f>
-        <v>5.8603809553318953E-3</v>
+        <v>5.2899601041574429E-3</v>
       </c>
       <c r="M42" s="85">
         <v>3</v>
       </c>
       <c r="N42" s="71">
         <f>(($C$24)^M28)*((1-($C$24))^($B$21-M28))*HLOOKUP($B$21,$AV$24:$BF$34,M28+1)</f>
-        <v>0.3390336522462386</v>
+        <v>0.34558701434139538</v>
       </c>
       <c r="O42" s="72">
         <v>3</v>
       </c>
       <c r="P42" s="71">
         <f t="shared" si="40"/>
-        <v>0.3390336522462386</v>
+        <v>0.34558701434139538</v>
       </c>
       <c r="Q42" s="28">
         <v>3</v>
       </c>
       <c r="R42" s="37">
         <f>P42*N39+P41*N40+P40*N41+P39*N42</f>
-        <v>2.3816864425016945E-2</v>
+        <v>4.1467617100382131E-2</v>
       </c>
       <c r="S42" s="72">
         <v>3</v>
@@ -14511,7 +14511,7 @@
       </c>
       <c r="V42" s="86">
         <f>R42*T39+R41*T40+R40*T41+R39*T42</f>
-        <v>2.3722647200399884E-2</v>
+        <v>4.1156352824519883E-2</v>
       </c>
       <c r="W42" s="137"/>
       <c r="X42" s="28">
@@ -14531,56 +14531,56 @@
       </c>
       <c r="AE42" s="79">
         <f>((($W$39)^M42)*((1-($W$39))^($U$28-M42))*HLOOKUP($U$28,$AV$24:$BF$34,M42+1))*V42</f>
-        <v>6.8645564805837481E-3</v>
+        <v>4.5591574011383893E-3</v>
       </c>
       <c r="AF42" s="28">
         <v>3</v>
       </c>
       <c r="AG42" s="79">
         <f>((($W$39)^M42)*((1-($W$39))^($U$29-M42))*HLOOKUP($U$29,$AV$24:$BF$34,M42+1))*V43</f>
-        <v>2.9232076899988611E-2</v>
+        <v>2.5110652630389536E-2</v>
       </c>
       <c r="AH42" s="28">
         <v>3</v>
       </c>
       <c r="AI42" s="79">
         <f>((($W$39)^M42)*((1-($W$39))^($U$30-M42))*HLOOKUP($U$30,$AV$24:$BF$34,M42+1))*V44</f>
-        <v>5.3359203623219456E-2</v>
+        <v>5.929834049420913E-2</v>
       </c>
       <c r="AJ42" s="28">
         <v>3</v>
       </c>
       <c r="AK42" s="79">
         <f>((($W$39)^M42)*((1-($W$39))^($U$31-M42))*HLOOKUP($U$31,$AV$24:$BF$34,M42+1))*V45</f>
-        <v>5.412690247443093E-2</v>
+        <v>7.7849290587336348E-2</v>
       </c>
       <c r="AL42" s="28">
         <v>3</v>
       </c>
       <c r="AM42" s="79">
         <f>((($W$39)^Q42)*((1-($W$39))^($U$32-Q42))*HLOOKUP($U$32,$AV$24:$BF$34,Q42+1))*V46</f>
-        <v>3.2960180021543523E-2</v>
+        <v>6.1396228943412887E-2</v>
       </c>
       <c r="AN42" s="28">
         <v>3</v>
       </c>
       <c r="AO42" s="79">
         <f>((($W$39)^Q42)*((1-($W$39))^($U$33-Q42))*HLOOKUP($U$33,$AV$24:$BF$34,Q42+1))*V47</f>
-        <v>1.2054764459436105E-2</v>
+        <v>2.912208693540206E-2</v>
       </c>
       <c r="AP42" s="28">
         <v>3</v>
       </c>
       <c r="AQ42" s="79">
         <f>((($W$39)^Q42)*((1-($W$39))^($U$34-Q42))*HLOOKUP($U$34,$AV$24:$BF$34,Q42+1))*V48</f>
-        <v>2.455580053033056E-3</v>
+        <v>7.7199444214368319E-3</v>
       </c>
       <c r="AR42" s="28">
         <v>3</v>
       </c>
       <c r="AS42" s="79">
         <f>((($W$39)^Q42)*((1-($W$39))^($U$35-Q42))*HLOOKUP($U$35,$AV$24:$BF$34,Q42+1))*V49</f>
-        <v>2.1758842406763483E-4</v>
+        <v>9.0629741301700192E-4</v>
       </c>
       <c r="AV42" s="14">
         <v>4</v>
@@ -14619,7 +14619,7 @@
       </c>
       <c r="BJ42" s="107">
         <f t="shared" si="36"/>
-        <v>1.4884353238443198E-3</v>
+        <v>7.3054972909941164E-5</v>
       </c>
       <c r="BP42">
         <f t="shared" si="38"/>
@@ -14630,7 +14630,7 @@
       </c>
       <c r="BR42" s="107">
         <f t="shared" si="39"/>
-        <v>1.2886449467934893E-5</v>
+        <v>3.0727804967409514E-6</v>
       </c>
     </row>
     <row r="43" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14639,14 +14639,14 @@
       </c>
       <c r="H43" s="132">
         <f>J43*L39+J42*L40+J41*L41+J40*L42</f>
-        <v>0.21870851523846033</v>
+        <v>0.21373977701926986</v>
       </c>
       <c r="I43" s="93">
         <v>4</v>
       </c>
       <c r="J43" s="86">
         <f t="shared" si="37"/>
-        <v>0.24747197819125311</v>
+        <v>0.1896905680055242</v>
       </c>
       <c r="K43" s="95">
         <v>4</v>
@@ -14657,21 +14657,21 @@
       </c>
       <c r="N43" s="71">
         <f>(($C$24)^M29)*((1-($C$24))^($B$21-M29))*HLOOKUP($B$21,$AV$24:$BF$34,M29+1)</f>
-        <v>0.30442027343291816</v>
+        <v>0.26125007179107568</v>
       </c>
       <c r="O43" s="72">
         <v>4</v>
       </c>
       <c r="P43" s="71">
         <f t="shared" si="40"/>
-        <v>0.30442027343291816</v>
+        <v>0.26125007179107568</v>
       </c>
       <c r="Q43" s="28">
         <v>4</v>
       </c>
       <c r="R43" s="37">
         <f>P43*N39+P42*N40+P41*N41+P40*N42+P39*N43</f>
-        <v>7.4848550177531642E-2</v>
+        <v>0.10971755659841367</v>
       </c>
       <c r="S43" s="72">
         <v>4</v>
@@ -14685,7 +14685,7 @@
       </c>
       <c r="V43" s="86">
         <f>T43*R39+T42*R40+T41*R41+T40*R42+T39*R43</f>
-        <v>7.459339174876907E-2</v>
+        <v>0.10903598389066881</v>
       </c>
       <c r="W43" s="137"/>
       <c r="X43" s="28">
@@ -14709,49 +14709,49 @@
       </c>
       <c r="AG43" s="79">
         <f>((($W$39)^M43)*((1-($W$39))^($U$29-M43))*HLOOKUP($U$29,$AV$24:$BF$34,M43+1))*V43</f>
-        <v>1.4276863204527979E-2</v>
+        <v>5.8009633199505089E-3</v>
       </c>
       <c r="AH43" s="28">
         <v>4</v>
       </c>
       <c r="AI43" s="79">
         <f>((($W$39)^M43)*((1-($W$39))^($U$30-M43))*HLOOKUP($U$30,$AV$24:$BF$34,M43+1))*V44</f>
-        <v>5.2120966528488757E-2</v>
+        <v>2.7397734595280155E-2</v>
       </c>
       <c r="AJ43" s="28">
         <v>4</v>
       </c>
       <c r="AK43" s="79">
         <f>((($W$39)^M43)*((1-($W$39))^($U$31-M43))*HLOOKUP($U$31,$AV$24:$BF$34,M43+1))*V45</f>
-        <v>7.9306275598150719E-2</v>
+        <v>5.3953302508127715E-2</v>
       </c>
       <c r="AL43" s="28">
         <v>4</v>
       </c>
       <c r="AM43" s="79">
         <f>((($W$39)^Q43)*((1-($W$39))^($U$32-Q43))*HLOOKUP($U$32,$AV$24:$BF$34,Q43+1))*V46</f>
-        <v>6.4390632656604205E-2</v>
+        <v>5.673405264712101E-2</v>
       </c>
       <c r="AN43" s="28">
         <v>4</v>
       </c>
       <c r="AO43" s="79">
         <f>((($W$39)^Q43)*((1-($W$39))^($U$33-Q43))*HLOOKUP($U$33,$AV$24:$BF$34,Q43+1))*V47</f>
-        <v>2.9437563355315683E-2</v>
+        <v>3.3638344769308492E-2</v>
       </c>
       <c r="AP43" s="28">
         <v>4</v>
       </c>
       <c r="AQ43" s="79">
         <f>((($W$39)^Q43)*((1-($W$39))^($U$34-Q43))*HLOOKUP($U$34,$AV$24:$BF$34,Q43+1))*V48</f>
-        <v>7.1957898766202601E-3</v>
+        <v>1.0700585543510879E-2</v>
       </c>
       <c r="AR43" s="28">
         <v>4</v>
       </c>
       <c r="AS43" s="79">
         <f>((($W$39)^Q43)*((1-($W$39))^($U$35-Q43))*HLOOKUP($U$35,$AV$24:$BF$34,Q43+1))*V49</f>
-        <v>7.4388697154548016E-4</v>
+        <v>1.4655846222254374E-3</v>
       </c>
       <c r="AV43" s="14">
         <v>5</v>
@@ -14787,7 +14787,7 @@
       </c>
       <c r="BJ43" s="107">
         <f t="shared" si="36"/>
-        <v>3.0671242858274378E-4</v>
+        <v>1.0113695593799983E-5</v>
       </c>
       <c r="BP43">
         <f t="shared" si="38"/>
@@ -14798,7 +14798,7 @@
       </c>
       <c r="BR43" s="107">
         <f t="shared" si="39"/>
-        <v>1.8845659064165666E-5</v>
+        <v>2.6053773082292917E-6</v>
       </c>
     </row>
     <row r="44" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14807,14 +14807,14 @@
       </c>
       <c r="H44" s="132">
         <f>J44*L39+J43*L40+J42*L41+J41*L42</f>
-        <v>0.22628878518759804</v>
+        <v>0.12975762374994679</v>
       </c>
       <c r="I44" s="93">
         <v>5</v>
       </c>
       <c r="J44" s="86">
         <f t="shared" si="37"/>
-        <v>0.2196216280921548</v>
+        <v>9.2841889307200026E-2</v>
       </c>
       <c r="K44" s="95">
         <v>5</v>
@@ -14825,21 +14825,21 @@
       </c>
       <c r="N44" s="71">
         <f>(($C$24)^M30)*((1-($C$24))^($B$21-M30))*HLOOKUP($B$21,$AV$24:$BF$34,M30+1)</f>
-        <v>0.10933628831590517</v>
+        <v>7.8997875705385634E-2</v>
       </c>
       <c r="O44" s="72">
         <v>5</v>
       </c>
       <c r="P44" s="71">
         <f t="shared" si="40"/>
-        <v>0.10933628831590517</v>
+        <v>7.8997875705385634E-2</v>
       </c>
       <c r="Q44" s="28">
         <v>5</v>
       </c>
       <c r="R44" s="37">
         <f>P44*N39+P43*N40+P42*N41+P41*N42+P40*N43+P39*N44</f>
-        <v>0.16129666864729575</v>
+        <v>0.19906108747311382</v>
       </c>
       <c r="S44" s="72">
         <v>5</v>
@@ -14853,7 +14853,7 @@
       </c>
       <c r="V44" s="86">
         <f>T44*R39+T43*R40+T42*R41+T41*R42+T40*R43+T39*R44</f>
-        <v>0.16086442805494691</v>
+        <v>0.19816817950415125</v>
       </c>
       <c r="W44" s="137"/>
       <c r="X44" s="28">
@@ -14881,42 +14881,42 @@
       </c>
       <c r="AI44" s="79">
         <f>((($W$39)^M44)*((1-($W$39))^($U$30-M44))*HLOOKUP($U$30,$AV$24:$BF$34,M44+1))*V44</f>
-        <v>2.0364585431568993E-2</v>
+        <v>5.0634527354215973E-3</v>
       </c>
       <c r="AJ44" s="28">
         <v>5</v>
       </c>
       <c r="AK44" s="79">
         <f>((($W$39)^M44)*((1-($W$39))^($U$31-M44))*HLOOKUP($U$31,$AV$24:$BF$34,M44+1))*V45</f>
-        <v>6.19727350526139E-2</v>
+        <v>1.9942524533898581E-2</v>
       </c>
       <c r="AL44" s="28">
         <v>5</v>
       </c>
       <c r="AM44" s="79">
         <f>((($W$39)^Q44)*((1-($W$39))^($U$32-Q44))*HLOOKUP($U$32,$AV$24:$BF$34,Q44+1))*V46</f>
-        <v>7.5475684378077848E-2</v>
+        <v>3.145554166917576E-2</v>
       </c>
       <c r="AN44" s="28">
         <v>5</v>
       </c>
       <c r="AO44" s="79">
         <f>((($W$39)^Q44)*((1-($W$39))^($U$33-Q44))*HLOOKUP($U$33,$AV$24:$BF$34,Q44+1))*V47</f>
-        <v>4.6007111055308574E-2</v>
+        <v>2.4867190131340589E-2</v>
       </c>
       <c r="AP44" s="28">
         <v>5</v>
       </c>
       <c r="AQ44" s="79">
         <f>((($W$39)^Q44)*((1-($W$39))^($U$34-Q44))*HLOOKUP($U$34,$AV$24:$BF$34,Q44+1))*V48</f>
-        <v>1.405761322652716E-2</v>
+        <v>9.8880272294916208E-3</v>
       </c>
       <c r="AR44" s="28">
         <v>5</v>
       </c>
       <c r="AS44" s="79">
         <f>((($W$39)^Q44)*((1-($W$39))^($U$35-Q44))*HLOOKUP($U$35,$AV$24:$BF$34,Q44+1))*V49</f>
-        <v>1.7438989480583181E-3</v>
+        <v>1.6251530078718916E-3</v>
       </c>
       <c r="AV44" s="29">
         <v>6</v>
@@ -14948,7 +14948,7 @@
       </c>
       <c r="BJ44" s="107">
         <f>$H$30*H45</f>
-        <v>9.3737989430513896E-3</v>
+        <v>1.4033018051817744E-3</v>
       </c>
       <c r="BP44">
         <f t="shared" si="38"/>
@@ -14959,7 +14959,7 @@
       </c>
       <c r="BR44" s="107">
         <f t="shared" si="39"/>
-        <v>1.9498835200997987E-5</v>
+        <v>1.5816783062208718E-6</v>
       </c>
     </row>
     <row r="45" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14983,14 +14983,14 @@
       </c>
       <c r="H45" s="132">
         <f>J45*L39+J44*L40+J43*L41+J42*L42</f>
-        <v>0.17005498085679691</v>
+        <v>5.8121253055103947E-2</v>
       </c>
       <c r="I45" s="93">
         <v>6</v>
       </c>
       <c r="J45" s="86">
         <f t="shared" si="37"/>
-        <v>0.1354147485299444</v>
+        <v>3.159268244103574E-2</v>
       </c>
       <c r="K45" s="95">
         <v>6</v>
@@ -15005,7 +15005,7 @@
       </c>
       <c r="R45" s="37">
         <f>P44*N40+P43*N41+P42*N42+P41*N43+P40*N44</f>
-        <v>0.24138201644638921</v>
+        <v>0.25080380741093961</v>
       </c>
       <c r="S45" s="70">
         <v>6</v>
@@ -15019,7 +15019,7 @@
       </c>
       <c r="V45" s="86">
         <f>T45*R39+T44*R40+T43*R41+T42*R42+T41*R43+T40*R44+T39*R45</f>
-        <v>0.24098158970739375</v>
+        <v>0.2502854401912879</v>
       </c>
       <c r="W45" s="137"/>
       <c r="X45" s="28">
@@ -15051,35 +15051,35 @@
       </c>
       <c r="AK45" s="79">
         <f>((($W$39)^Q45)*((1-($W$39))^($U$31-Q45))*HLOOKUP($U$31,$AV$24:$BF$34,Q45+1))*V45</f>
-        <v>2.0178205008233484E-2</v>
+        <v>3.071361917753129E-3</v>
       </c>
       <c r="AL45" s="28">
         <v>6</v>
       </c>
       <c r="AM45" s="79">
         <f>((($W$39)^Q45)*((1-($W$39))^($U$32-Q45))*HLOOKUP($U$32,$AV$24:$BF$34,Q45+1))*V46</f>
-        <v>4.9149479403308806E-2</v>
+        <v>9.6889792083025214E-3</v>
       </c>
       <c r="AN45" s="28">
         <v>6</v>
       </c>
       <c r="AO45" s="79">
         <f>((($W$39)^Q45)*((1-($W$39))^($U$33-Q45))*HLOOKUP($U$33,$AV$24:$BF$34,Q45+1))*V47</f>
-        <v>4.4939484335608293E-2</v>
+        <v>1.1489439159184787E-2</v>
       </c>
       <c r="AP45" s="28">
         <v>6</v>
       </c>
       <c r="AQ45" s="79">
         <f>((($W$39)^Q45)*((1-($W$39))^($U$34-Q45))*HLOOKUP($U$34,$AV$24:$BF$34,Q45+1))*V48</f>
-        <v>1.8308528830976965E-2</v>
+        <v>6.0914474940710105E-3</v>
       </c>
       <c r="AR45" s="28">
         <v>6</v>
       </c>
       <c r="AS45" s="79">
         <f>((($W$39)^Q45)*((1-($W$39))^($U$35-Q45))*HLOOKUP($U$35,$AV$24:$BF$34,Q45+1))*V49</f>
-        <v>2.8390509518168559E-3</v>
+        <v>1.2514546617242894E-3</v>
       </c>
       <c r="AV45" s="14">
         <v>7</v>
@@ -15107,7 +15107,7 @@
       </c>
       <c r="BJ45" s="107">
         <f>$H$30*H46</f>
-        <v>5.1693918802085143E-3</v>
+        <v>4.7088642352424151E-4</v>
       </c>
       <c r="BP45">
         <f t="shared" si="38"/>
@@ -15118,7 +15118,7 @@
       </c>
       <c r="BR45" s="107">
         <f t="shared" si="39"/>
-        <v>1.4653284934499174E-5</v>
+        <v>7.0846800697264757E-7</v>
       </c>
     </row>
     <row r="46" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15142,14 +15142,14 @@
       </c>
       <c r="H46" s="132">
         <f>J46*L39+J45*L40+J44*L41+J43*L42</f>
-        <v>9.378063713237475E-2</v>
+        <v>1.9502938627175895E-2</v>
       </c>
       <c r="I46" s="93">
         <v>7</v>
       </c>
       <c r="J46" s="86">
         <f t="shared" si="37"/>
-        <v>5.72988207986804E-2</v>
+        <v>7.3856509955191199E-3</v>
       </c>
       <c r="K46" s="95">
         <v>7</v>
@@ -15164,7 +15164,7 @@
       </c>
       <c r="R46" s="37">
         <f>P44*N41+P43*N42+P42*N43+P41*N44</f>
-        <v>0.24770092108742603</v>
+        <v>0.21668311753620728</v>
       </c>
       <c r="S46" s="72">
         <v>7</v>
@@ -15178,7 +15178,7 @@
       </c>
       <c r="V46" s="86">
         <f>T46*R39+T45*R40+T44*R41+T43*R42+T42*R43+T41*R44+T40*R45+T39*R46</f>
-        <v>0.24766932656422086</v>
+        <v>0.21702217784970931</v>
       </c>
       <c r="W46" s="137"/>
       <c r="X46" s="28">
@@ -15214,28 +15214,28 @@
       </c>
       <c r="AM46" s="79">
         <f>((($W$39)^Q46)*((1-($W$39))^($U$32-Q46))*HLOOKUP($U$32,$AV$24:$BF$34,Q46+1))*V46</f>
-        <v>1.3716837674400828E-2</v>
+        <v>1.279034015049393E-3</v>
       </c>
       <c r="AN46" s="28">
         <v>7</v>
       </c>
       <c r="AO46" s="79">
         <f>((($W$39)^Q46)*((1-($W$39))^($U$33-Q46))*HLOOKUP($U$33,$AV$24:$BF$34,Q46+1))*V47</f>
-        <v>2.5083790074135307E-2</v>
+        <v>3.0334224447184934E-3</v>
       </c>
       <c r="AP46" s="28">
         <v>7</v>
       </c>
       <c r="AQ46" s="79">
         <f>((($W$39)^Q46)*((1-($W$39))^($U$34-Q46))*HLOOKUP($U$34,$AV$24:$BF$34,Q46+1))*V48</f>
-        <v>1.5328857258334978E-2</v>
+        <v>2.4123806166684502E-3</v>
       </c>
       <c r="AR46" s="28">
         <v>7</v>
       </c>
       <c r="AS46" s="79">
         <f>((($W$39)^Q46)*((1-($W$39))^($U$35-Q46))*HLOOKUP($U$35,$AV$24:$BF$34,Q46+1))*V49</f>
-        <v>3.1693357918092858E-3</v>
+        <v>6.6081391908278341E-4</v>
       </c>
       <c r="AV46" s="14">
         <v>8</v>
@@ -15259,7 +15259,7 @@
       </c>
       <c r="BJ46" s="107">
         <f>$H$30*H47</f>
-        <v>2.0884048871719417E-3</v>
+        <v>1.188911571466108E-4</v>
       </c>
       <c r="BP46">
         <f t="shared" si="38"/>
@@ -15270,7 +15270,7 @@
       </c>
       <c r="BR46" s="107">
         <f t="shared" si="39"/>
-        <v>8.0808829610040542E-6</v>
+        <v>2.3773073244317821E-7</v>
       </c>
     </row>
     <row r="47" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15294,14 +15294,14 @@
       </c>
       <c r="H47" s="132">
         <f>J47*L39+J46*L40+J45*L41+J44*L42</f>
-        <v>3.788684345235787E-2</v>
+        <v>4.9241745467841162E-3</v>
       </c>
       <c r="I47" s="93">
         <v>8</v>
       </c>
       <c r="J47" s="86">
         <f t="shared" si="37"/>
-        <v>1.5933838017928942E-2</v>
+        <v>1.1366711179478307E-3</v>
       </c>
       <c r="K47" s="95">
         <v>8</v>
@@ -15316,7 +15316,7 @@
       </c>
       <c r="R47" s="37">
         <f>P44*N42+P43*N43+P42*N44</f>
-        <v>0.16680906517855079</v>
+        <v>0.12285288001951596</v>
       </c>
       <c r="S47" s="72">
         <v>8</v>
@@ -15330,7 +15330,7 @@
       </c>
       <c r="V47" s="86">
         <f>T47*R39+T46*R40+T45*R41+T44*R42+T43*R43+T42*R44+T41*R45+T40*R46+T39*R47</f>
-        <v>0.16721352445809515</v>
+        <v>0.12378968965599182</v>
       </c>
       <c r="W47" s="137"/>
       <c r="X47" s="28">
@@ -15370,21 +15370,21 @@
       </c>
       <c r="AO47" s="79">
         <f>((($W$39)^Q47)*((1-($W$39))^($U$33-Q47))*HLOOKUP($U$33,$AV$24:$BF$34,Q47+1))*V47</f>
-        <v>6.1254258594890679E-3</v>
+        <v>3.5038460757548225E-4</v>
       </c>
       <c r="AP47" s="28">
         <v>8</v>
       </c>
       <c r="AQ47" s="79">
         <f>((($W$39)^Q47)*((1-($W$39))^($U$34-Q47))*HLOOKUP($U$34,$AV$24:$BF$34,Q47+1))*V48</f>
-        <v>7.4865702805765929E-3</v>
+        <v>5.5729859661700788E-4</v>
       </c>
       <c r="AR47" s="28">
         <v>8</v>
       </c>
       <c r="AS47" s="79">
         <f>((($W$39)^Q47)*((1-($W$39))^($U$35-Q47))*HLOOKUP($U$35,$AV$24:$BF$34,Q47+1))*V49</f>
-        <v>2.3218418778632784E-3</v>
+        <v>2.2898791375534051E-4</v>
       </c>
       <c r="AV47" s="29">
         <v>9</v>
@@ -15405,7 +15405,7 @@
       </c>
       <c r="BJ47" s="107">
         <f>$H$30*H48</f>
-        <v>6.1023692698063624E-4</v>
+        <v>2.2450432152433515E-5</v>
       </c>
       <c r="BP47">
         <f>BL12+1</f>
@@ -15416,7 +15416,7 @@
       </c>
       <c r="BR47" s="107">
         <f t="shared" si="39"/>
-        <v>3.2646307069574719E-6</v>
+        <v>6.0023140310448414E-8</v>
       </c>
     </row>
     <row r="48" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15440,14 +15440,14 @@
       </c>
       <c r="H48" s="132">
         <f>J48*L39+J47*L40+J46*L41+J45*L42</f>
-        <v>1.107062670815317E-2</v>
+        <v>9.2984078229629949E-4</v>
       </c>
       <c r="I48" s="93">
         <v>9</v>
       </c>
       <c r="J48" s="86">
         <f t="shared" si="37"/>
-        <v>2.6330584736300941E-3</v>
+        <v>1.0424207483641417E-4</v>
       </c>
       <c r="K48" s="95">
         <v>9</v>
@@ -15462,7 +15462,7 @@
       </c>
       <c r="R48" s="37">
         <f>P44*N43+P43*N44</f>
-        <v>6.6568365570536456E-2</v>
+        <v>4.1276401398748941E-2</v>
       </c>
       <c r="S48" s="72">
         <v>9</v>
@@ -15476,7 +15476,7 @@
       </c>
       <c r="V48" s="86">
         <f>T48*R39+T47*R40+T46*R41+T45*R42+T44*R43+T43*R44+T42*R45+T41*R46+T40*R47+T39*R48</f>
-        <v>6.7069569068576529E-2</v>
+        <v>4.2092472528929011E-2</v>
       </c>
       <c r="W48" s="137"/>
       <c r="X48" s="28">
@@ -15520,14 +15520,14 @@
       </c>
       <c r="AQ48" s="79">
         <f>((($W$39)^Q48)*((1-($W$39))^($U$34-Q48))*HLOOKUP($U$34,$AV$24:$BF$34,Q48+1))*V48</f>
-        <v>1.6250753905651171E-3</v>
+        <v>5.7219960076008354E-5</v>
       </c>
       <c r="AR48" s="28">
         <v>9</v>
       </c>
       <c r="AS48" s="79">
         <f>((($W$39)^Q48)*((1-($W$39))^($U$35-Q48))*HLOOKUP($U$35,$AV$24:$BF$34,Q48+1))*V49</f>
-        <v>1.0079830830649768E-3</v>
+        <v>4.702211476040582E-5</v>
       </c>
       <c r="AV48" s="14">
         <v>10</v>
@@ -15545,7 +15545,7 @@
       </c>
       <c r="BJ48" s="107">
         <f>$H$30*H49</f>
-        <v>1.2574765385283066E-4</v>
+        <v>3.1080271156746252E-6</v>
       </c>
     </row>
     <row r="49" spans="1:62" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15569,14 +15569,14 @@
       </c>
       <c r="H49" s="133">
         <f>J49*L39+J48*L40+J47*L41+J46*L42</f>
-        <v>2.2812538436811454E-3</v>
+        <v>1.2872671425720179E-4</v>
       </c>
       <c r="I49" s="94">
         <v>10</v>
       </c>
       <c r="J49" s="89">
         <f t="shared" si="37"/>
-        <v>1.9691842818602665E-4</v>
+        <v>4.3451449385509029E-6</v>
       </c>
       <c r="K49" s="96">
         <v>10</v>
@@ -15591,7 +15591,7 @@
       </c>
       <c r="R49" s="37">
         <f>P44*N44</f>
-        <v>1.1954423942698741E-2</v>
+        <v>6.240664365963558E-3</v>
       </c>
       <c r="S49" s="72">
         <v>10</v>
@@ -15605,7 +15605,7 @@
       </c>
       <c r="V49" s="89">
         <f>IF(((T49*R39+T48*R40+T47*R41+T46*R42+T45*R43+T44*R44+T43*R45+T42*R46+T41*R47+T40*R48+T39*R49)+V37)&lt;&gt;1,1-V37,(T49*R39+T48*R40+T47*R41+T46*R42+T45*R43+T44*R44+T43*R45+T42*R46+T41*R47+T40*R48+T39*R49))</f>
-        <v>1.2287265770551614E-2</v>
+        <v>6.6554677919165028E-3</v>
       </c>
       <c r="W49" s="137"/>
       <c r="X49" s="28">
@@ -15653,7 +15653,7 @@
       </c>
       <c r="AS49" s="79">
         <f>((($W$39)^Q49)*((1-($W$39))^($U$35-Q49))*HLOOKUP($U$35,$AV$24:$BF$34,Q49+1))*V49</f>
-        <v>1.9691842818602665E-4</v>
+        <v>4.3451449385509029E-6</v>
       </c>
       <c r="BH49">
         <f>BP14+1</f>
@@ -15664,7 +15664,7 @@
       </c>
       <c r="BJ49" s="107">
         <f>$H$31*H39</f>
-        <v>4.0124254243973982E-5</v>
+        <v>1.1965177491209303E-4</v>
       </c>
     </row>
     <row r="50" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15711,7 +15711,7 @@
       </c>
       <c r="BJ50" s="107">
         <f>$H$31*H46</f>
-        <v>1.5710152346205223E-3</v>
+        <v>1.0746998329561161E-4</v>
       </c>
     </row>
     <row r="51" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15739,7 +15739,7 @@
       </c>
       <c r="BJ51" s="107">
         <f>$H$31*H47</f>
-        <v>6.3468121005961207E-4</v>
+        <v>2.713442145329641E-5</v>
       </c>
     </row>
     <row r="52" spans="1:62" x14ac:dyDescent="0.25">
@@ -15753,7 +15753,7 @@
       </c>
       <c r="BJ52" s="107">
         <f>$H$31*H48</f>
-        <v>1.8545537487398239E-4</v>
+        <v>5.1238418605141251E-6</v>
       </c>
     </row>
     <row r="53" spans="1:62" x14ac:dyDescent="0.25">
@@ -15766,7 +15766,7 @@
       </c>
       <c r="BJ53" s="107">
         <f>$H$31*H49</f>
-        <v>3.8215613073740591E-5</v>
+        <v>7.0934222249171394E-7</v>
       </c>
     </row>
     <row r="54" spans="1:62" x14ac:dyDescent="0.25">
@@ -15779,7 +15779,7 @@
       </c>
       <c r="BJ54" s="107">
         <f>$H$32*H47</f>
-        <v>1.4521521536696447E-4</v>
+        <v>4.6732154366216113E-6</v>
       </c>
     </row>
     <row r="55" spans="1:62" x14ac:dyDescent="0.25">
@@ -15792,7 +15792,7 @@
       </c>
       <c r="BJ55" s="107">
         <f>$H$32*H48</f>
-        <v>4.2432234917994511E-5</v>
+        <v>8.8245171980453943E-7</v>
       </c>
     </row>
     <row r="56" spans="1:62" x14ac:dyDescent="0.25">
@@ -15805,7 +15805,7 @@
       </c>
       <c r="BJ56" s="107">
         <f>$H$32*H49</f>
-        <v>8.7437415743922686E-6</v>
+        <v>1.2216619505602356E-7</v>
       </c>
     </row>
     <row r="57" spans="1:62" x14ac:dyDescent="0.25">
@@ -15818,7 +15818,7 @@
       </c>
       <c r="BJ57" s="107">
         <f>$H$33*H48</f>
-        <v>7.3409539106095804E-6</v>
+        <v>1.152285949281468E-7</v>
       </c>
     </row>
     <row r="58" spans="1:62" x14ac:dyDescent="0.25">
@@ -15831,7 +15831,7 @@
       </c>
       <c r="BJ58" s="107">
         <f>$H$33*H49</f>
-        <v>1.512703821232714E-6</v>
+        <v>1.5952191704200578E-8</v>
       </c>
     </row>
     <row r="59" spans="1:62" x14ac:dyDescent="0.25">
@@ -15844,7 +15844,7 @@
       </c>
       <c r="BJ59" s="107">
         <f>$H$34*H49</f>
-        <v>1.9657091142499861E-7</v>
+        <v>1.5691120528229662E-9</v>
       </c>
     </row>
   </sheetData>

--- a/projects/current/hattrick/4-SimuladorPartidos.xlsx
+++ b/projects/current/hattrick/4-SimuladorPartidos.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E65709C-7F29-4444-AD2D-C7EA5015830D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EED8E01-408A-4449-9B18-DD7E252EC7B8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="OBIWAN-OldRasputins" sheetId="457" r:id="rId1"/>
+    <sheet name="VADER-Fernando" sheetId="458" r:id="rId1"/>
     <sheet name="SIMULADOR_v3" sheetId="446" r:id="rId2"/>
     <sheet name="SIMULADOR&gt;22-12-17_v2" sheetId="436" r:id="rId3"/>
     <sheet name="SIMULADOR&gt;22-12-17" sheetId="435" r:id="rId4"/>
@@ -26,7 +26,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="W5" authorId="0" shapeId="0" xr:uid="{3AF8D272-B51D-4DD0-92DB-306BE04EFD67}">
+    <comment ref="W5" authorId="0" shapeId="0" xr:uid="{3E9731FE-F513-4B26-A829-04329BC824E7}">
       <text>
         <r>
           <rPr>
@@ -42,7 +42,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W6" authorId="0" shapeId="0" xr:uid="{61C95BE1-A727-45D3-B109-E0FE19B37985}">
+    <comment ref="W6" authorId="0" shapeId="0" xr:uid="{0B09B650-D3C5-469A-A601-B2DA21F7F744}">
       <text>
         <r>
           <rPr>
@@ -68,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W7" authorId="0" shapeId="0" xr:uid="{47F37361-691E-4162-928B-234DCF55494B}">
+    <comment ref="W7" authorId="0" shapeId="0" xr:uid="{1639D8E1-AAA8-43FF-BD82-4DC8F0E3F076}">
       <text>
         <r>
           <rPr>
@@ -93,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W8" authorId="0" shapeId="0" xr:uid="{01CBADF1-DD35-4B3C-838E-DB9C734060A4}">
+    <comment ref="W8" authorId="0" shapeId="0" xr:uid="{ADEA9FAF-30B3-4BB3-9271-F0067CABA137}">
       <text>
         <r>
           <rPr>
@@ -119,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W9" authorId="0" shapeId="0" xr:uid="{BAC61045-D4B4-452F-9959-5E92C925324B}">
+    <comment ref="W9" authorId="0" shapeId="0" xr:uid="{FF1008DD-27AB-49F7-BF7F-D7F1E10FD463}">
       <text>
         <r>
           <rPr>
@@ -155,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W10" authorId="0" shapeId="0" xr:uid="{D8143CE3-2C21-47AE-A832-F5C4259F5209}">
+    <comment ref="W10" authorId="0" shapeId="0" xr:uid="{AC5B43CB-60AA-4093-9681-794B40D4308A}">
       <text>
         <r>
           <rPr>
@@ -180,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W11" authorId="0" shapeId="0" xr:uid="{386A3148-B3FF-4BCB-AB27-D131130784A6}">
+    <comment ref="W11" authorId="0" shapeId="0" xr:uid="{2B98FA62-F555-484C-B8F3-41B3005CBC1C}">
       <text>
         <r>
           <rPr>
@@ -204,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W12" authorId="0" shapeId="0" xr:uid="{52A4A1F0-E8F2-4E46-ADEF-74CB01E86CC0}">
+    <comment ref="W12" authorId="0" shapeId="0" xr:uid="{9C771387-686B-451C-8855-F17B0BD687F7}">
       <text>
         <r>
           <rPr>
@@ -220,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W13" authorId="0" shapeId="0" xr:uid="{1E70A454-BC35-4224-9E0D-6C4E4A6C0491}">
+    <comment ref="W13" authorId="0" shapeId="0" xr:uid="{D873E6B2-0B48-4063-96C5-DFFC6DAD5679}">
       <text>
         <r>
           <rPr>
@@ -245,7 +245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W14" authorId="0" shapeId="0" xr:uid="{7B4FEE18-9DD2-4DB7-8451-D5675A2BD652}">
+    <comment ref="W14" authorId="0" shapeId="0" xr:uid="{B9BBA181-D253-4169-9F4D-8E95ED056FDD}">
       <text>
         <r>
           <rPr>
@@ -269,7 +269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W15" authorId="0" shapeId="0" xr:uid="{D85F5FA3-62FF-4806-8EE6-BA7D9A93A453}">
+    <comment ref="W15" authorId="0" shapeId="0" xr:uid="{2F57D298-F570-404D-B2C3-128BCB00C924}">
       <text>
         <r>
           <rPr>
@@ -306,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W16" authorId="0" shapeId="0" xr:uid="{3CC80DDF-D669-46A1-955E-7E25258B6731}">
+    <comment ref="W16" authorId="0" shapeId="0" xr:uid="{AAD24A6F-6110-430B-A487-ADAB0BAB2A80}">
       <text>
         <r>
           <rPr>
@@ -330,7 +330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{7CDE8184-4B9E-4B10-A80B-58DDF8EFE64A}">
+    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{4C6131E0-768E-4DD2-988B-AD1B178CF6C4}">
       <text>
         <r>
           <rPr>
@@ -344,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W17" authorId="0" shapeId="0" xr:uid="{D236C7DA-3B2B-4B24-B6B6-6013A3B85465}">
+    <comment ref="W17" authorId="0" shapeId="0" xr:uid="{B39E40EA-960A-48A5-9E8A-9F5847988FE7}">
       <text>
         <r>
           <rPr>
@@ -368,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W18" authorId="0" shapeId="0" xr:uid="{4C31AE56-EF60-41F4-B0A8-D46049224B1D}">
+    <comment ref="W18" authorId="0" shapeId="0" xr:uid="{9822F42E-80B5-4B82-A982-0E5379C41073}">
       <text>
         <r>
           <rPr>
@@ -382,7 +382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W19" authorId="0" shapeId="0" xr:uid="{B6814337-67F9-4270-97BF-EF8B1BE3D47E}">
+    <comment ref="W19" authorId="0" shapeId="0" xr:uid="{5DAD8804-C724-4A03-A919-D8E3FDFD9A2E}">
       <text>
         <r>
           <rPr>
@@ -407,7 +407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{39D152E1-746B-415D-B29A-9943FDCCD69F}">
+    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{592B6980-3645-4595-9370-CDB4E42CF0BC}">
       <text>
         <r>
           <rPr>
@@ -421,7 +421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{C6567AAE-B985-4DA6-9D8D-0B56ED853EC1}">
+    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{8F6D9E56-6E11-4EBD-AF0A-ED3CC5442E28}">
       <text>
         <r>
           <rPr>
@@ -435,7 +435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U35" authorId="0" shapeId="0" xr:uid="{D61FC9B7-DA4C-4EED-9184-896F6EF4E995}">
+    <comment ref="U35" authorId="0" shapeId="0" xr:uid="{E5306390-CAD6-4127-ABED-AA76C786A746}">
       <text>
         <r>
           <rPr>
@@ -459,7 +459,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U49" authorId="0" shapeId="0" xr:uid="{E68C6516-2A86-4205-802A-446BB4527248}">
+    <comment ref="U49" authorId="0" shapeId="0" xr:uid="{DE44FA7D-F2F7-4033-9C5D-B6A9865FA59A}">
       <text>
         <r>
           <rPr>
@@ -3015,7 +3015,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="163">
   <si>
     <t>LOCAL</t>
   </si>
@@ -3503,10 +3503,7 @@
     <t>N</t>
   </si>
   <si>
-    <t>OldRasputins</t>
-  </si>
-  <si>
-    <t>AIM</t>
+    <t>CA</t>
   </si>
 </sst>
 </file>
@@ -5664,7 +5661,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'OBIWAN-OldRasputins'!$G$25:$G$35</c:f>
+              <c:f>'VADER-Fernando'!$G$25:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5706,42 +5703,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'OBIWAN-OldRasputins'!$H$25:$H$35</c:f>
+              <c:f>'VADER-Fernando'!$H$25:$H$35</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.3251899049573112E-2</c:v>
+                  <c:v>0.23781821078428603</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9728187569309374E-2</c:v>
+                  <c:v>0.35389557422789747</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16705993230941013</c:v>
+                  <c:v>0.25030059527877668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24092673703061812</c:v>
+                  <c:v>0.11203642434370767</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23292970080547629</c:v>
+                  <c:v>3.5585965866395335E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15912747345079836</c:v>
+                  <c:v>8.5118270748929907E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.8888716950055476E-2</c:v>
+                  <c:v>1.5860851512725454E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8701972895062194E-2</c:v>
+                  <c:v>2.3468727299244177E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.6665050004213493E-3</c:v>
+                  <c:v>2.7797693171991945E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4905696028388136E-3</c:v>
+                  <c:v>2.6268533069554845E-6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0716896211049008E-4</c:v>
+                  <c:v>1.9430117072301533E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5749,7 +5746,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9668-457A-8E99-DBB8FF966371}"/>
+              <c16:uniqueId val="{00000000-CD5F-4CF0-B366-DCFBC9F29A0B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5779,42 +5776,42 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'OBIWAN-OldRasputins'!$H$39:$H$49</c:f>
+              <c:f>'VADER-Fernando'!$H$39:$H$49</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.2293105688607187E-2</c:v>
+                  <c:v>6.1811157455250877E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.5905187892858277E-2</c:v>
+                  <c:v>0.1923611700500297</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16103657656617604</c:v>
+                  <c:v>0.27549444716583066</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23712464540242467</c:v>
+                  <c:v>0.24060475678850396</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23440026949686893</c:v>
+                  <c:v>0.14313820202608143</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16399981819550807</c:v>
+                  <c:v>6.1359154259542463E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.3431599264904038E-2</c:v>
+                  <c:v>1.9545617028671598E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1217557825008548E-2</c:v>
+                  <c:v>4.6993576243442104E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5938483992464339E-3</c:v>
+                  <c:v>8.5618830294895891E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7243421652860143E-3</c:v>
+                  <c:v>1.1728512153339801E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4712748133565431E-4</c:v>
+                  <c:v>1.179802171104016E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5822,7 +5819,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9668-457A-8E99-DBB8FF966371}"/>
+              <c16:uniqueId val="{00000001-CD5F-4CF0-B366-DCFBC9F29A0B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6412,7 +6409,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-1E2E-4A67-BA82-DCEE7CD25E18}"/>
+                <c16:uniqueId val="{00000001-7C2B-41D1-82E8-43FED2477B46}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -6426,7 +6423,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-1E2E-4A67-BA82-DCEE7CD25E18}"/>
+                <c16:uniqueId val="{00000003-7C2B-41D1-82E8-43FED2477B46}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -6440,31 +6437,31 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-1E2E-4A67-BA82-DCEE7CD25E18}"/>
+                <c16:uniqueId val="{00000005-7C2B-41D1-82E8-43FED2477B46}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>'OBIWAN-OldRasputins'!$B$37:$B$39</c:f>
+              <c:f>'VADER-Fernando'!$B$37:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.17703276787260702</c:v>
+                  <c:v>0.18433662404360182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42248056687842694</c:v>
+                  <c:v>0.63392873230444247</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40023249540594136</c:v>
+                  <c:v>0.18173357204557425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-1E2E-4A67-BA82-DCEE7CD25E18}"/>
+              <c16:uniqueId val="{00000006-7C2B-41D1-82E8-43FED2477B46}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7928,7 +7925,7 @@
         <xdr:cNvPr id="2" name="Graphique 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FCD32B2-F8C9-404C-9A0D-BDC88F7D7B04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F313E1A-5B12-44C4-937F-621C531CEA3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7966,7 +7963,7 @@
         <xdr:cNvPr id="3" name="Graphique 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16AF6268-F7A8-4C5A-9757-27669DE4D2E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D8B765C-70F3-4E5D-A945-6A9F6BF53BD3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8714,14 +8711,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B9F00D-640A-4F23-A040-52AF6595A526}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9CEB46-6FA4-4009-A53E-CCD437043365}">
   <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
+    <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:BR59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8787,7 +8784,7 @@
   <sheetData>
     <row r="1" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A1" s="215" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B1" t="s">
         <v>145</v>
@@ -8797,7 +8794,7 @@
       </c>
       <c r="G1" s="202">
         <f>IF(D3="SI",COUNTIF($F$6:$F$18,"RAP"),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1" s="13"/>
       <c r="J1" s="205" t="s">
@@ -8805,7 +8802,7 @@
       </c>
       <c r="K1" s="202">
         <f>IF(D3="SI",COUNTIF($J$6:$J$18,"RAP"),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L1" s="13"/>
       <c r="P1" s="216"/>
@@ -8825,7 +8822,7 @@
     </row>
     <row r="2" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A2" s="215" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
         <v>145</v>
@@ -8835,7 +8832,7 @@
       </c>
       <c r="G2" s="202">
         <f>IF(D3="SI",COUNTIF($F$6:$F$18,"TEC"),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H2" s="13"/>
       <c r="J2" s="205" t="s">
@@ -8843,7 +8840,7 @@
       </c>
       <c r="K2" s="202">
         <f>IF(D3="SI",COUNTIF($J$6:$J$18,"TEC"),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2" s="13"/>
       <c r="M2" s="163"/>
@@ -8880,7 +8877,7 @@
       </c>
       <c r="G3" s="202">
         <f>IF(D3="SI",COUNTIF($F$6:$F$18,"POT"),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="13"/>
       <c r="J3" s="205" t="s">
@@ -8888,7 +8885,7 @@
       </c>
       <c r="K3" s="202">
         <f>IF(D3="SI",COUNTIF($J$6:$J$18,"POT"),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L3" s="13"/>
       <c r="O3" t="s">
@@ -8917,7 +8914,7 @@
       </c>
       <c r="AI3" s="208">
         <f>SUM(AI5:AI19)</f>
-        <v>3.6837000000000009</v>
+        <v>3.6836999999999995</v>
       </c>
       <c r="AM3" s="208">
         <f>SUM(AM5:AM19)</f>
@@ -8925,7 +8922,7 @@
       </c>
       <c r="AN3" s="208">
         <f>SUM(AN5:AN19)</f>
-        <v>3.1991000000000005</v>
+        <v>3.0750000000000006</v>
       </c>
     </row>
     <row r="4" spans="1:70" ht="15.75" x14ac:dyDescent="0.25">
@@ -9040,7 +9037,7 @@
       </c>
       <c r="BJ4" s="107">
         <f t="shared" ref="BJ4:BJ13" si="0">$H$25*H40</f>
-        <v>8.7336889679930595E-4</v>
+        <v>4.5746989285669851E-2</v>
       </c>
       <c r="BL4">
         <v>0</v>
@@ -9050,7 +9047,7 @@
       </c>
       <c r="BN4" s="107">
         <f>H25*H39</f>
-        <v>1.629069955911554E-4</v>
+        <v>1.4699818872513546E-2</v>
       </c>
       <c r="BP4">
         <v>1</v>
@@ -9060,7 +9057,7 @@
       </c>
       <c r="BR4" s="107">
         <f>$H$26*H39</f>
-        <v>8.5717597926454603E-4</v>
+        <v>2.1874695061316996E-2</v>
       </c>
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.25">
@@ -9068,10 +9065,10 @@
         <v>150</v>
       </c>
       <c r="B5" s="161">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="C5" s="161">
-        <v>253</v>
+        <v>352</v>
       </c>
       <c r="E5" s="192" t="s">
         <v>15</v>
@@ -9094,7 +9091,7 @@
       <c r="M5" s="10"/>
       <c r="O5" s="67">
         <f>AG5*AI5*AO5*AH5</f>
-        <v>0</v>
+        <v>0.18891690731707317</v>
       </c>
       <c r="P5" s="210">
         <f>P3</f>
@@ -9102,23 +9099,23 @@
       </c>
       <c r="Q5" s="214">
         <f>P5*O5</f>
-        <v>0</v>
+        <v>0.10768263717073169</v>
       </c>
       <c r="R5" s="157">
         <f>IF($B$17="JC",IF($C$17="JC",$W$1,$V$1*1.1),IF($C$17="JC",$V$1/0.9,$U$1))*Q5/1.5</f>
-        <v>0</v>
+        <v>0.10768263717073169</v>
       </c>
       <c r="S5" s="176">
         <f>(1-R5)</f>
-        <v>1</v>
+        <v>0.89231736282926832</v>
       </c>
       <c r="T5" s="177">
         <f>R5*PRODUCT(S6:S19)</f>
-        <v>0</v>
+        <v>8.4738461140042826E-2</v>
       </c>
       <c r="U5" s="177">
         <f>R5*R6*PRODUCT(S7:S19)+R5*R7*PRODUCT(S8:S19)*PRODUCT(S6)+R5*R8*PRODUCT(S9:S19)*PRODUCT(S6:S7)+R5*R9*PRODUCT(S10:S19)*PRODUCT(S6:S8)+R5*R10*PRODUCT(S11:S19)*PRODUCT(S6:S9)+R5*R11*PRODUCT(S12:S19)*PRODUCT(S6:S10)+R5*R12*PRODUCT(S13:S19)*PRODUCT(S6:S11)+R5*R13*PRODUCT(S14:S19)*PRODUCT(S6:S12)+R5*R14*PRODUCT(S15:S19)*PRODUCT(S6:S13)+R5*R15*PRODUCT(S16:S19)*PRODUCT(S6:S14)+R5*R16*PRODUCT(S17:S19)*PRODUCT(S6:S15)+R5*R17*PRODUCT(S18:S19)*PRODUCT(S6:S16)+R5*R18*PRODUCT(S19)*PRODUCT(S6:S17)+R5*R19*PRODUCT(S6:S18)</f>
-        <v>0</v>
+        <v>2.0670094647408415E-2</v>
       </c>
       <c r="V5" s="18"/>
       <c r="W5" s="186" t="s">
@@ -9158,15 +9155,15 @@
       <c r="AF5" s="18"/>
       <c r="AG5" s="203">
         <f>IF(COUNTIF(F5:F10,"IMP")+COUNTIF(J5:J10,"IMP")=0,0,COUNTIF(F5:F10,"IMP")/(COUNTIF(F5:F10,"IMP")+COUNTIF(J5:J10,"IMP")))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH5">
         <f>COUNTIF(F5:F10,"IMP")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI5" s="207">
         <f>AN5*$AM$3/$AN$3</f>
-        <v>0</v>
+        <v>0.56675072195121956</v>
       </c>
       <c r="AK5" s="203">
         <f>IF(COUNTIF(F5:F10,"IMP")+COUNTIF(J5:J10,"IMP")=0,0,COUNTIF(J5:J10,"IMP")/(COUNTIF(F5:F10,"IMP")+COUNTIF(J5:J10,"IMP")))</f>
@@ -9181,7 +9178,7 @@
       </c>
       <c r="AN5" s="209">
         <f>IF(AG5=0,IF(AK5=0,0,AM5),AM5)</f>
-        <v>0</v>
+        <v>0.47310000000000002</v>
       </c>
       <c r="AO5">
         <f>1/6</f>
@@ -9195,7 +9192,7 @@
       </c>
       <c r="BJ5" s="107">
         <f t="shared" si="0"/>
-        <v>2.1340404559438159E-3</v>
+        <v>6.5517596505983863E-2</v>
       </c>
       <c r="BL5">
         <v>1</v>
@@ -9205,7 +9202,7 @@
       </c>
       <c r="BN5" s="107">
         <f>$H$26*H40</f>
-        <v>4.595449303183799E-3</v>
+        <v>6.8075766734005491E-2</v>
       </c>
       <c r="BP5">
         <f>BP4+1</f>
@@ -9216,7 +9213,7 @@
       </c>
       <c r="BR5" s="107">
         <f>$H$27*H39</f>
-        <v>2.0536854042111415E-3</v>
+        <v>1.5471369505919489E-2</v>
       </c>
     </row>
     <row r="6" spans="1:70" x14ac:dyDescent="0.25">
@@ -9224,28 +9221,30 @@
         <v>1</v>
       </c>
       <c r="B6" s="168">
-        <v>14.5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="169">
-        <f>16-(1.5/4)</f>
-        <v>15.625</v>
+        <f>12.25/1.2</f>
+        <v>10.208333333333334</v>
       </c>
       <c r="E6" s="192" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="167" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="G6" s="167"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="166"/>
+      <c r="J6" s="166" t="s">
+        <v>154</v>
+      </c>
       <c r="K6" s="166"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="O6" s="67">
         <f t="shared" ref="O6:O19" si="1">AG6*AI6*AO6*AH6</f>
-        <v>5.9776210887437099E-2</v>
+        <v>6.2188642682926835E-2</v>
       </c>
       <c r="P6" s="210">
         <f>P3</f>
@@ -9253,23 +9252,23 @@
       </c>
       <c r="Q6" s="214">
         <f t="shared" ref="Q6:Q19" si="2">P6*O6</f>
-        <v>3.4072440205839147E-2</v>
+        <v>3.5447526329268293E-2</v>
       </c>
       <c r="R6" s="157">
         <f t="shared" ref="R6:R19" si="3">IF($B$17="JC",IF($C$17="JC",$W$1,$V$1*1.1),IF($C$17="JC",$V$1/0.9,$U$1))*Q6/1.5</f>
-        <v>3.4072440205839147E-2</v>
+        <v>3.5447526329268293E-2</v>
       </c>
       <c r="S6" s="176">
         <f t="shared" ref="S6:S19" si="4">(1-R6)</f>
-        <v>0.96592755979416089</v>
+        <v>0.96455247367073171</v>
       </c>
       <c r="T6" s="177">
         <f>R6*S5*PRODUCT(S7:S19)</f>
-        <v>2.6458012951783686E-2</v>
+        <v>2.5805620616426342E-2</v>
       </c>
       <c r="U6" s="177">
         <f>R6*R7*PRODUCT(S8:S19)*PRODUCT(S5)+R6*R8*PRODUCT(S9:S19)*S5*PRODUCT(S7)+R6*R9*PRODUCT(S10:S19)*S5*PRODUCT(S7:S8)+R6*R10*PRODUCT(S11:S19)*S5*PRODUCT(S7:S9)+R6*R11*PRODUCT(S12:S19)*S5*PRODUCT(S7:S10)+R6*R12*PRODUCT(S13:S19)*S5*PRODUCT(S7:S11)+R6*R13*PRODUCT(S14:S19)*S5*PRODUCT(S7:S12)+R6*R14*PRODUCT(S15:S19)*S5*PRODUCT(S7:S13)+R6*R15*PRODUCT(S16:S19)*S5*PRODUCT(S7:S14)+R6*R16*PRODUCT(S17:S19)*S5*PRODUCT(S7:S15)+R6*R17*PRODUCT(S18:S19)*S5*PRODUCT(S7:S16)+R6*R18*PRODUCT(S19)*S5*PRODUCT(S7:S17)+R6*R19*S5*PRODUCT(S7:S18)</f>
-        <v>6.8280099907669541E-3</v>
+        <v>5.3463543447649425E-3</v>
       </c>
       <c r="V6" s="18"/>
       <c r="W6" s="186" t="s">
@@ -9317,7 +9316,7 @@
       </c>
       <c r="AI6" s="207">
         <f t="shared" ref="AI6:AI19" si="9">AN6*$AM$3/$AN$3</f>
-        <v>0.47820968709949679</v>
+        <v>0.49750914146341468</v>
       </c>
       <c r="AK6" s="203">
         <f>IF(COUNTIF(F11:F18,"IMP")+COUNTIF(J11:J18,"IMP")=0,0,COUNTIF(J11:J18,"IMP")/(COUNTIF(F11:F18,"IMP")+COUNTIF(J11:J18,"IMP")))</f>
@@ -9346,7 +9345,7 @@
       </c>
       <c r="BJ6" s="107">
         <f t="shared" si="0"/>
-        <v>3.1423518630387527E-3</v>
+        <v>5.7220192765630312E-2</v>
       </c>
       <c r="BL6">
         <f>BH14+1</f>
@@ -9357,7 +9356,7 @@
       </c>
       <c r="BN6" s="107">
         <f>$H$27*H41</f>
-        <v>2.6902759580484509E-2</v>
+        <v>6.8956424121604909E-2</v>
       </c>
       <c r="BP6">
         <f>BL5+1</f>
@@ -9368,7 +9367,7 @@
       </c>
       <c r="BR6" s="107">
         <f>$H$27*H40</f>
-        <v>1.101011622821986E-2</v>
+        <v>4.8148115372044421E-2</v>
       </c>
     </row>
     <row r="7" spans="1:70" x14ac:dyDescent="0.25">
@@ -9376,21 +9375,21 @@
         <v>2</v>
       </c>
       <c r="B7" s="168">
-        <v>11.52</v>
+        <v>14</v>
       </c>
       <c r="C7" s="169">
-        <v>5.25</v>
+        <v>12.25</v>
       </c>
       <c r="E7" s="192" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="167"/>
+      <c r="F7" s="167" t="s">
+        <v>146</v>
+      </c>
       <c r="G7" s="167"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="166" t="s">
-        <v>154</v>
-      </c>
+      <c r="J7" s="166"/>
       <c r="K7" s="166"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
@@ -9430,7 +9429,7 @@
       </c>
       <c r="Y7" s="69">
         <f t="shared" si="5"/>
-        <v>4.4907724047388332E-3</v>
+        <v>4.6720097560975608E-3</v>
       </c>
       <c r="Z7" s="69">
         <f>Z2</f>
@@ -9438,23 +9437,23 @@
       </c>
       <c r="AA7" s="69">
         <f t="shared" si="6"/>
-        <v>2.0208475821324751E-3</v>
+        <v>2.1024043902439023E-3</v>
       </c>
       <c r="AB7" s="157">
         <f t="shared" si="7"/>
-        <v>2.0208475821324751E-3</v>
+        <v>2.1024043902439023E-3</v>
       </c>
       <c r="AC7" s="176">
         <f t="shared" si="8"/>
-        <v>0.9979791524178675</v>
+        <v>0.99789759560975611</v>
       </c>
       <c r="AD7" s="177">
         <f>AB7*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC19)</f>
-        <v>1.4605351749403756E-3</v>
+        <v>1.4583330215988748E-3</v>
       </c>
       <c r="AE7" s="177">
         <f>AB7*AB8*PRODUCT(AC9:AC19)*PRODUCT(AC5:AC6)+AB7*AB9*PRODUCT(AC10:AC19)*PRODUCT(AC5:AC6)*PRODUCT(AC8)+AB7*AB10*PRODUCT(AC11:AC19)*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC9)+AB7*AB11*PRODUCT(AC12:AC19)*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC10)+AB7*AB12*PRODUCT(AC13:AC19)*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC11)+AB7*AB13*PRODUCT(AC14:AC19)*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC12)+AB7*AB14*PRODUCT(AC15:AC19)*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC13)+AB7*AB15*PRODUCT(AC16:AC19)*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC14)+AB7*AB16*PRODUCT(AC17:AC19)*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC15)+AB7*AB17*PRODUCT(AC18:AC19)*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC16)+AB7*AB18*PRODUCT(AC19)*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC17)+AB7*AB19*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC18)</f>
-        <v>4.8873601031142546E-4</v>
+        <v>5.5075807905643733E-4</v>
       </c>
       <c r="AG7" s="203">
         <f>IF(COUNTIF(F14:F18,"IMP")+COUNTIF(J14:J18,"IMP")=0,0,COUNTIF(J14:J18,"IMP")/(COUNTIF(F14:F18,"IMP")+COUNTIF(J14:J18,"IMP")))</f>
@@ -9466,7 +9465,7 @@
       </c>
       <c r="AI7" s="207">
         <f t="shared" si="9"/>
-        <v>4.4907724047388332E-3</v>
+        <v>4.6720097560975608E-3</v>
       </c>
       <c r="AK7" s="203">
         <f>IF(COUNTIF(F14:F18,"IMP")+COUNTIF(J14:J18,"IMP")=0,0,COUNTIF(F14:F18,"IMP")/(COUNTIF(F14:F18,"IMP")+COUNTIF(J14:J18,"IMP")))</f>
@@ -9494,7 +9493,7 @@
       </c>
       <c r="BJ7" s="107">
         <f t="shared" si="0"/>
-        <v>3.1062487085652389E-3</v>
+        <v>3.4040871100722354E-2</v>
       </c>
       <c r="BL7">
         <f>BH23+1</f>
@@ -9505,7 +9504,7 @@
       </c>
       <c r="BN7" s="107">
         <f>$H$28*H42</f>
-        <v>5.7129667086348541E-2</v>
+        <v>2.6956496630671407E-2</v>
       </c>
       <c r="BP7">
         <f>BP5+1</f>
@@ -9516,7 +9515,7 @@
       </c>
       <c r="BR7" s="107">
         <f>$H$28*H39</f>
-        <v>2.9617378415286596E-3</v>
+        <v>6.9251010658322168E-3</v>
       </c>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.25">
@@ -9524,10 +9523,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="168">
-        <v>12.25</v>
+        <v>14.25</v>
       </c>
       <c r="C8" s="169">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="E8" s="192" t="s">
         <v>18</v>
@@ -9538,13 +9537,15 @@
       <c r="G8" s="167"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="166"/>
+      <c r="J8" s="166" t="s">
+        <v>16</v>
+      </c>
       <c r="K8" s="166"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="O8" s="67">
         <f t="shared" si="1"/>
-        <v>4.074468059526358E-2</v>
+        <v>0.12716712945590997</v>
       </c>
       <c r="P8" s="210">
         <f>P2</f>
@@ -9552,23 +9553,23 @@
       </c>
       <c r="Q8" s="214">
         <f t="shared" si="2"/>
-        <v>1.8335106267868613E-2</v>
+        <v>5.7225208255159483E-2</v>
       </c>
       <c r="R8" s="157">
         <f t="shared" si="3"/>
-        <v>1.8335106267868613E-2</v>
+        <v>5.7225208255159483E-2</v>
       </c>
       <c r="S8" s="176">
         <f t="shared" si="4"/>
-        <v>0.98166489373213139</v>
+        <v>0.94277479174484047</v>
       </c>
       <c r="T8" s="177">
         <f>R8*PRODUCT(S5:S7)*PRODUCT(S9:S19)</f>
-        <v>1.4009373548211983E-2</v>
+        <v>4.2621983214792498E-2</v>
       </c>
       <c r="U8" s="177">
         <f>R8*R9*PRODUCT(S5:S7)*PRODUCT(S10:S19)+R8*R10*PRODUCT(S5:S7)*PRODUCT(S9)*PRODUCT(S11:S19)+R8*R11*PRODUCT(S5:S7)*PRODUCT(S9:S10)*PRODUCT(S12:S19)+R8*R12*PRODUCT(S5:S7)*PRODUCT(S9:S11)*PRODUCT(S13:S19)+R8*R13*PRODUCT(S5:S7)*PRODUCT(S9:S12)*PRODUCT(S14:S19)+R8*R14*PRODUCT(S5:S7)*PRODUCT(S9:S13)*PRODUCT(S15:S19)+R8*R15*PRODUCT(S5:S7)*PRODUCT(S9:S14)*PRODUCT(S16:S19)+R8*R16*PRODUCT(S5:S7)*PRODUCT(S9:S15)*PRODUCT(S17:S19)+R8*R17*PRODUCT(S5:S7)*PRODUCT(S9:S16)*PRODUCT(S18:S19)+R8*R18*PRODUCT(S5:S7)*PRODUCT(S9:S17)*PRODUCT(S19)+R8*R19*PRODUCT(S5:S7)*PRODUCT(S9:S18)</f>
-        <v>3.3537331143635883E-3</v>
+        <v>6.2432339172915751E-3</v>
       </c>
       <c r="W8" s="186" t="s">
         <v>42</v>
@@ -9610,11 +9611,11 @@
       </c>
       <c r="AH8">
         <f>COUNTIF(F6:F18,"IMP")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI8" s="207">
         <f t="shared" si="9"/>
-        <v>0.5296808477384265</v>
+        <v>0.55105756097560976</v>
       </c>
       <c r="AK8" s="203">
         <f>IF(COUNTIF(F6:F18,"IMP")+COUNTIF(J6:J18,"IMP")=0,0,COUNTIF(J6:J18,"IMP")/(COUNTIF(F6:F18,"IMP")+COUNTIF(J6:J18,"IMP")))</f>
@@ -9643,7 +9644,7 @@
       </c>
       <c r="BJ8" s="107">
         <f t="shared" si="0"/>
-        <v>2.1733090348752164E-3</v>
+        <v>1.4592324281241392E-2</v>
       </c>
       <c r="BL8">
         <f>BH31+1</f>
@@ -9654,7 +9655,7 @@
       </c>
       <c r="BN8" s="107">
         <f>$H$29*H43</f>
-        <v>5.4598784642628691E-2</v>
+        <v>5.0937111714773331E-3</v>
       </c>
       <c r="BP8">
         <f>BP6+1</f>
@@ -9665,7 +9666,7 @@
       </c>
       <c r="BR8" s="107">
         <f>$H$28*H40</f>
-        <v>1.5878321872416144E-2</v>
+        <v>2.1551457674977237E-2</v>
       </c>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.25">
@@ -9673,21 +9674,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="168">
-        <v>11.5</v>
+        <v>14.25</v>
       </c>
       <c r="C9" s="169">
-        <v>5.75</v>
+        <v>10.75</v>
       </c>
       <c r="E9" s="192" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="167"/>
+      <c r="F9" s="167" t="s">
+        <v>16</v>
+      </c>
       <c r="G9" s="167"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="166" t="s">
-        <v>131</v>
-      </c>
+      <c r="J9" s="166"/>
       <c r="K9" s="166"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
@@ -9727,7 +9728,7 @@
       </c>
       <c r="Y9" s="69">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.7552878048780486E-2</v>
       </c>
       <c r="Z9" s="69">
         <f>Z2</f>
@@ -9735,23 +9736,23 @@
       </c>
       <c r="AA9" s="69">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.2398795121951219E-2</v>
       </c>
       <c r="AB9" s="157">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.2398795121951219E-2</v>
       </c>
       <c r="AC9" s="176">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.98760120487804881</v>
       </c>
       <c r="AD9" s="177">
         <f>AB9*PRODUCT(AC5:AC8)*PRODUCT(AC10:AC19)</f>
-        <v>0</v>
+        <v>8.6900905924864168E-3</v>
       </c>
       <c r="AE9" s="177">
         <f>AB9*AB10*PRODUCT(AC5:AC8)*PRODUCT(AC11:AC19)+AB9*AB11*PRODUCT(AC5:AC8)*PRODUCT(AC10)*PRODUCT(AC12:AC19)+AB9*AB12*PRODUCT(AC5:AC8)*PRODUCT(AC10:AC11)*PRODUCT(AC13:AC19)+AB9*AB13*PRODUCT(AC5:AC8)*PRODUCT(AC10:AC12)*PRODUCT(AC14:AC19)+AB9*AB14*PRODUCT(AC5:AC8)*PRODUCT(AC10:AC13)*PRODUCT(AC15:AC19)+AB9*AB15*PRODUCT(AC5:AC8)*PRODUCT(AC10:AC14)*PRODUCT(AC16:AC19)+AB9*AB16*PRODUCT(AC5:AC8)*PRODUCT(AC10:AC15)*PRODUCT(AC17:AC19)+AB9*AB17*PRODUCT(AC5:AC8)*PRODUCT(AC10:AC16)*PRODUCT(AC18:AC19)+AB9*AB18*PRODUCT(AC5:AC8)*PRODUCT(AC10:AC17)*PRODUCT(AC19)+AB9*AB19*PRODUCT(AC5:AC8)*PRODUCT(AC10:AC18)</f>
-        <v>0</v>
+        <v>3.1728242749418131E-3</v>
       </c>
       <c r="AG9" s="203">
         <f>IF(COUNTIF(J6:J13,"IMP")+COUNTIF(F6:F13,"IMP")=0,0,COUNTIF(J6:J13,"IMP")/(COUNTIF(J6:J13,"IMP")+COUNTIF(F6:F13,"IMP")))</f>
@@ -9763,22 +9764,22 @@
       </c>
       <c r="AI9" s="207">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1.3776439024390243E-2</v>
       </c>
       <c r="AK9" s="203">
         <f>IF(COUNTIF(J6:J13,"IMP")+COUNTIF(F6:F13,"IMP")=0,0,COUNTIF(F6:F13,"IMP")/(COUNTIF(J6:J13,"IMP")+COUNTIF(F6:F13,"IMP")))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL9">
         <f>COUNTIF(F6:F13,"IMP")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM9" s="208">
         <v>1.15E-2</v>
       </c>
       <c r="AN9" s="209">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1.15E-2</v>
       </c>
       <c r="AO9">
         <v>1</v>
@@ -9791,7 +9792,7 @@
       </c>
       <c r="BJ9" s="107">
         <f t="shared" si="0"/>
-        <v>1.1056271310029466E-3</v>
+        <v>4.6483036704335528E-3</v>
       </c>
       <c r="BL9">
         <f>BH38+1</f>
@@ -9802,7 +9803,7 @@
       </c>
       <c r="BN9" s="107">
         <f>$H$30*H44</f>
-        <v>2.6096876715841467E-2</v>
+        <v>5.2227851051890909E-4</v>
       </c>
       <c r="BP9">
         <f>BL6+1</f>
@@ -9813,7 +9814,7 @@
       </c>
       <c r="BR9" s="107">
         <f>$H$28*H41</f>
-        <v>3.8798016934670096E-2</v>
+        <v>3.0865412787006156E-2</v>
       </c>
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.25">
@@ -9821,28 +9822,29 @@
         <v>5</v>
       </c>
       <c r="B10" s="168">
-        <v>10.75</v>
+        <v>9.5</v>
       </c>
       <c r="C10" s="169">
-        <f>11.75-(2.75/4)</f>
-        <v>11.0625</v>
+        <v>10.25</v>
       </c>
       <c r="E10" s="192" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="167" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="G10" s="167"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="166"/>
+      <c r="J10" s="166" t="s">
+        <v>16</v>
+      </c>
       <c r="K10" s="166"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="O10" s="67">
         <f t="shared" si="1"/>
-        <v>3.5983753243099624E-2</v>
+        <v>2.495731707317073E-2</v>
       </c>
       <c r="P10" s="210">
         <f>P3</f>
@@ -9850,23 +9852,23 @@
       </c>
       <c r="Q10" s="214">
         <f t="shared" si="2"/>
-        <v>2.0510739348566783E-2</v>
+        <v>1.4225670731707314E-2</v>
       </c>
       <c r="R10" s="157">
         <f t="shared" si="3"/>
-        <v>2.0510739348566783E-2</v>
+        <v>1.4225670731707314E-2</v>
       </c>
       <c r="S10" s="176">
         <f t="shared" si="4"/>
-        <v>0.97948926065143327</v>
+        <v>0.98577432926829267</v>
       </c>
       <c r="T10" s="177">
         <f>R10*PRODUCT(S5:S9)*PRODUCT(S11:S19)</f>
-        <v>1.5706527575964434E-2</v>
+        <v>1.0133266893486972E-2</v>
       </c>
       <c r="U10" s="177">
         <f>R10*R11*PRODUCT(S5:S9)*PRODUCT(S12:S19)+R10*R12*PRODUCT(S5:S9)*S11*PRODUCT(S13:S19)+R10*R13*PRODUCT(S5:S9)*PRODUCT(S11:S12)*PRODUCT(S14:S19)+R10*R14*PRODUCT(S5:S9)*PRODUCT(S11:S13)*PRODUCT(S15:S19)+R10*R15*PRODUCT(S5:S9)*PRODUCT(S11:S14)*PRODUCT(S16:S19)+R10*R16*PRODUCT(S5:S9)*PRODUCT(S11:S15)*PRODUCT(S17:S19)+R10*R17*PRODUCT(S5:S9)*PRODUCT(S11:S16)*PRODUCT(S18:S19)+R10*R18*PRODUCT(S5:S9)*PRODUCT(S11:S17)*PRODUCT(S19)+R10*R19*PRODUCT(S5:S9)*PRODUCT(S11:S18)</f>
-        <v>3.431119908706975E-3</v>
+        <v>1.3380800297895304E-3</v>
       </c>
       <c r="W10" s="186" t="s">
         <v>46</v>
@@ -9876,7 +9878,7 @@
       </c>
       <c r="Y10" s="69">
         <f t="shared" si="5"/>
-        <v>3.5983753243099624E-2</v>
+        <v>9.9829268292682918E-2</v>
       </c>
       <c r="Z10" s="69">
         <f>Z3</f>
@@ -9884,27 +9886,27 @@
       </c>
       <c r="AA10" s="69">
         <f t="shared" si="6"/>
-        <v>2.0510739348566783E-2</v>
+        <v>5.6902682926829255E-2</v>
       </c>
       <c r="AB10" s="157">
         <f t="shared" si="7"/>
-        <v>2.0510739348566783E-2</v>
+        <v>5.6902682926829255E-2</v>
       </c>
       <c r="AC10" s="176">
         <f t="shared" si="8"/>
-        <v>0.97948926065143327</v>
+        <v>0.94309731707317079</v>
       </c>
       <c r="AD10" s="177">
         <f>AB10*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC19)</f>
-        <v>1.5103637991081199E-2</v>
+        <v>4.1764055619777064E-2</v>
       </c>
       <c r="AE10" s="177">
         <f>AB10*AB11*PRODUCT(AC5:AC9)*PRODUCT(AC12:AC19)+AB10*AB12*PRODUCT(AC5:AC9)*AC11*PRODUCT(AC13:AC19)+AB10*AB13*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC12)*PRODUCT(AC14:AC19)+AB10*AB14*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC13)*PRODUCT(AC15:AC19)+AB10*AB15*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC14)*PRODUCT(AC16:AC19)+AB10*AB16*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC15)*PRODUCT(AC17:AC19)+AB10*AB17*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC16)*PRODUCT(AC18:AC19)+AB10*AB18*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC17)*PRODUCT(AC19)+AB10*AB19*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC18)</f>
-        <v>4.7378268558695442E-3</v>
+        <v>1.2728529263461037E-2</v>
       </c>
       <c r="AG10" s="203">
         <f>IF(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")=0,0,COUNTIF(F11:F18,"RAP")/(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")))</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AH10">
         <f>COUNTIF(F11:F18,"RAP")</f>
@@ -9912,15 +9914,15 @@
       </c>
       <c r="AI10" s="207">
         <f t="shared" si="9"/>
-        <v>0.57574005188959398</v>
+        <v>0.59897560975609754</v>
       </c>
       <c r="AK10" s="203">
         <f>IF(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")=0,0,COUNTIF(J11:J18,"RAP")/(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")))</f>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AL10">
         <f>COUNTIF(J11:J18,"RAP")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM10" s="208">
         <v>0.5</v>
@@ -9941,7 +9943,7 @@
       </c>
       <c r="BJ10" s="107">
         <f t="shared" si="0"/>
-        <v>4.1369192487122447E-4</v>
+        <v>1.1175928220570331E-3</v>
       </c>
       <c r="BL10">
         <f>BH44+1</f>
@@ -9952,7 +9954,7 @@
       </c>
       <c r="BN10" s="107">
         <f>$H$31*H45</f>
-        <v>6.5818118190994713E-3</v>
+        <v>3.1001012941635831E-5</v>
       </c>
       <c r="BP10">
         <f>BP7+1</f>
@@ -9963,7 +9965,7 @@
       </c>
       <c r="BR10" s="107">
         <f>$H$29*H39</f>
-        <v>2.8634294300173705E-3</v>
+        <v>2.1996097393649451E-3</v>
       </c>
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.25">
@@ -9971,10 +9973,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="168">
-        <v>10.75</v>
+        <v>5.25</v>
       </c>
       <c r="C11" s="169">
-        <v>21.5</v>
+        <v>8.25</v>
       </c>
       <c r="E11" s="192" t="s">
         <v>19</v>
@@ -9986,14 +9988,14 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="166" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="K11" s="166"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="O11" s="67">
         <f t="shared" si="1"/>
-        <v>3.5983753243099624E-2</v>
+        <v>2.495731707317073E-2</v>
       </c>
       <c r="P11" s="210">
         <f>P3</f>
@@ -10001,23 +10003,23 @@
       </c>
       <c r="Q11" s="214">
         <f t="shared" si="2"/>
-        <v>2.0510739348566783E-2</v>
+        <v>1.4225670731707314E-2</v>
       </c>
       <c r="R11" s="157">
         <f t="shared" si="3"/>
-        <v>2.0510739348566783E-2</v>
+        <v>1.4225670731707314E-2</v>
       </c>
       <c r="S11" s="176">
         <f t="shared" si="4"/>
-        <v>0.97948926065143327</v>
+        <v>0.98577432926829267</v>
       </c>
       <c r="T11" s="177">
         <f>R11*PRODUCT(S5:S10)*PRODUCT(S12:S19)</f>
-        <v>1.5706527575964441E-2</v>
+        <v>1.0133266893486974E-2</v>
       </c>
       <c r="U11" s="177">
         <f>R11*R12*PRODUCT(S5:S10)*PRODUCT(S13:S19)+R11*R13*PRODUCT(S5:S10)*S12*PRODUCT(S14:S19)+R11*R14*PRODUCT(S5:S10)*PRODUCT(S12:S13)*PRODUCT(S15:S19)+R11*R15*PRODUCT(S5:S10)*PRODUCT(S12:S14)*PRODUCT(S16:S19)+R11*R16*PRODUCT(S5:S10)*PRODUCT(S12:S15)*PRODUCT(S17:S19)+R11*R17*PRODUCT(S5:S10)*PRODUCT(S12:S16)*PRODUCT(S18:S19)+R11*R18*PRODUCT(S5:S10)*PRODUCT(S12:S17)*PRODUCT(S19)+R11*R19*PRODUCT(S5:S10)*PRODUCT(S12:S18)</f>
-        <v>3.1022214652800125E-3</v>
+        <v>1.1918472521818442E-3</v>
       </c>
       <c r="W11" s="186" t="s">
         <v>48</v>
@@ -10027,7 +10029,7 @@
       </c>
       <c r="Y11" s="69">
         <f t="shared" si="5"/>
-        <v>3.5983753243099624E-2</v>
+        <v>9.9829268292682918E-2</v>
       </c>
       <c r="Z11" s="69">
         <f>Z3</f>
@@ -10035,27 +10037,27 @@
       </c>
       <c r="AA11" s="69">
         <f t="shared" si="6"/>
-        <v>2.0510739348566783E-2</v>
+        <v>5.6902682926829255E-2</v>
       </c>
       <c r="AB11" s="157">
         <f t="shared" si="7"/>
-        <v>2.0510739348566783E-2</v>
+        <v>5.6902682926829255E-2</v>
       </c>
       <c r="AC11" s="176">
         <f t="shared" si="8"/>
-        <v>0.97948926065143327</v>
+        <v>0.94309731707317079</v>
       </c>
       <c r="AD11" s="177">
         <f>AB11*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC19)</f>
-        <v>1.5103637991081203E-2</v>
+        <v>4.1764055619777078E-2</v>
       </c>
       <c r="AE11" s="177">
         <f>AB11*AB12*PRODUCT(AC5:AC10)*PRODUCT(AC13:AC19)+AB11*AB13*PRODUCT(AC5:AC10)*AC12*PRODUCT(AC14:AC19)+AB11*AB14*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC13)*PRODUCT(AC15:AC19)+AB11*AB15*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC14)*PRODUCT(AC16:AC19)+AB11*AB16*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC15)*PRODUCT(AC17:AC19)+AB11*AB17*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC16)*PRODUCT(AC18:AC19)+AB11*AB18*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC17)*PRODUCT(AC19)+AB11*AB19*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC18)</f>
-        <v>4.4215530645222599E-3</v>
+        <v>1.020865483306198E-2</v>
       </c>
       <c r="AG11" s="203">
         <f>IF(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")=0,0,COUNTIF(F11:F18,"RAP")/(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")))</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AH11">
         <f>COUNTIF(F11:F18,"RAP")</f>
@@ -10063,15 +10065,15 @@
       </c>
       <c r="AI11" s="207">
         <f t="shared" si="9"/>
-        <v>0.57574005188959398</v>
+        <v>0.59897560975609754</v>
       </c>
       <c r="AK11" s="203">
         <f>IF(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")=0,0,COUNTIF(J11:J18,"RAP")/(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")))</f>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AL11">
         <f>COUNTIF(J11:J18,"RAP")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM11" s="208">
         <v>0.5</v>
@@ -10092,7 +10094,7 @@
       </c>
       <c r="BJ11" s="107">
         <f t="shared" si="0"/>
-        <v>1.1388481143414923E-4</v>
+        <v>2.0361717030175565E-4</v>
       </c>
       <c r="BL11">
         <f>BH50+1</f>
@@ -10103,7 +10105,7 @@
       </c>
       <c r="BN11" s="107">
         <f>$H$32*H46</f>
-        <v>8.9600549854343197E-4</v>
+        <v>1.1028794256735823E-6</v>
       </c>
       <c r="BP11">
         <f>BP8+1</f>
@@ -10114,7 +10116,7 @@
       </c>
       <c r="BR11" s="107">
         <f>$H$29*H40</f>
-        <v>1.5351275697412176E-2</v>
+        <v>6.8453580314202251E-3</v>
       </c>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.25">
@@ -10122,17 +10124,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="168">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="C12" s="169">
-        <f>10.75-(2.75/4)</f>
-        <v>10.0625</v>
+        <v>12.25</v>
       </c>
       <c r="E12" s="192" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="167" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="G12" s="167"/>
       <c r="H12" s="10"/>
@@ -10145,7 +10146,7 @@
       <c r="M12" s="10"/>
       <c r="O12" s="67">
         <f t="shared" si="1"/>
-        <v>2.6484042386921321E-3</v>
+        <v>4.3051371951219504E-3</v>
       </c>
       <c r="P12" s="210">
         <f>P2</f>
@@ -10153,23 +10154,23 @@
       </c>
       <c r="Q12" s="214">
         <f t="shared" si="2"/>
-        <v>1.1917819074114594E-3</v>
+        <v>1.9373117378048777E-3</v>
       </c>
       <c r="R12" s="157">
         <f t="shared" si="3"/>
-        <v>1.1917819074114594E-3</v>
+        <v>1.9373117378048777E-3</v>
       </c>
       <c r="S12" s="176">
         <f t="shared" si="4"/>
-        <v>0.99880821809258857</v>
+        <v>0.99806268826219513</v>
       </c>
       <c r="T12" s="177">
         <f>R12*PRODUCT(S5:S11)*PRODUCT(S13:S19)</f>
-        <v>8.9497978341822749E-4</v>
+        <v>1.3630002113550026E-3</v>
       </c>
       <c r="U12" s="177">
         <f>R12*R13*PRODUCT(S5:S11)*PRODUCT(S14:S19)+R12*R14*PRODUCT(S5:S11)*S13*PRODUCT(S15:S19)+R12*R15*PRODUCT(S5:S11)*PRODUCT(S13:S14)*PRODUCT(S16:S19)+R12*R16*PRODUCT(S5:S11)*PRODUCT(S13:S15)*PRODUCT(S17:S19)+R12*R17*PRODUCT(S5:S11)*PRODUCT(S13:S16)*PRODUCT(S18:S19)+R12*R18*PRODUCT(S5:S11)*PRODUCT(S13:S17)*PRODUCT(S19)+R12*R19*PRODUCT(S5:S11)*PRODUCT(S13:S18)</f>
-        <v>1.7570099975830993E-4</v>
+        <v>1.5766669065740371E-4</v>
       </c>
       <c r="W12" s="187" t="s">
         <v>50</v>
@@ -10179,7 +10180,7 @@
       </c>
       <c r="Y12" s="69">
         <f t="shared" si="5"/>
-        <v>2.6484042386921321E-3</v>
+        <v>4.3051371951219504E-3</v>
       </c>
       <c r="Z12" s="69">
         <f>Z2</f>
@@ -10187,43 +10188,43 @@
       </c>
       <c r="AA12" s="69">
         <f t="shared" si="6"/>
-        <v>1.1917819074114594E-3</v>
+        <v>1.9373117378048777E-3</v>
       </c>
       <c r="AB12" s="157">
         <f t="shared" si="7"/>
-        <v>1.1917819074114594E-3</v>
+        <v>1.9373117378048777E-3</v>
       </c>
       <c r="AC12" s="176">
         <f t="shared" si="8"/>
-        <v>0.99880821809258857</v>
+        <v>0.99806268826219513</v>
       </c>
       <c r="AD12" s="177">
         <f>AB12*PRODUCT(AC5:AC11)*PRODUCT(AC13:AC19)</f>
-        <v>8.6062629646866057E-4</v>
+        <v>1.343594201385782E-3</v>
       </c>
       <c r="AE12" s="177">
         <f>AB12*AB13*PRODUCT(AC5:AC11)*PRODUCT(AC14:AC19)+AB12*AB14*PRODUCT(AC5:AC11)*AC13*PRODUCT(AC15:AC19)+AB12*AB15*PRODUCT(AC5:AC11)*PRODUCT(AC13:AC14)*PRODUCT(AC16:AC19)+AB12*AB16*PRODUCT(AC5:AC11)*PRODUCT(AC13:AC15)*PRODUCT(AC17:AC19)+AB12*AB17*PRODUCT(AC5:AC11)*PRODUCT(AC13:AC16)*PRODUCT(AC18:AC19)+AB12*AB18*PRODUCT(AC5:AC11)*PRODUCT(AC13:AC17)*PRODUCT(AC19)+AB12*AB19*PRODUCT(AC5:AC11)*PRODUCT(AC13:AC18)</f>
-        <v>2.5091933971582362E-4</v>
+        <v>3.2581529789253374E-4</v>
       </c>
       <c r="AG12" s="203">
         <f>IF(COUNTA(F6:F10)+COUNTA(J6:J10)=0,0,COUNTA(F6:F10)/(COUNTA(F6:F10)+COUNTA(J6:J10)))</f>
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="AH12">
         <f>COUNTA(J6:J10)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI12" s="207">
         <f t="shared" si="9"/>
-        <v>1.324202119346066E-2</v>
+        <v>1.3776439024390243E-2</v>
       </c>
       <c r="AK12" s="203">
         <f>IF(COUNTA(J6:J10)+COUNTA(F6:F10)=0,0,COUNTA(J6:J10)/(COUNTA(J6:J10)+COUNTA(F6:F10)))</f>
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="AL12">
         <f>COUNTA(F6:F10)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM12" s="208">
         <v>1.15E-2</v>
@@ -10244,7 +10245,7 @@
       </c>
       <c r="BJ12" s="107">
         <f t="shared" si="0"/>
-        <v>2.2850808301292574E-5</v>
+        <v>2.7892537754690251E-5</v>
       </c>
       <c r="BL12">
         <f>BH54+1</f>
@@ -10255,7 +10256,7 @@
       </c>
       <c r="BN12" s="107">
         <f>$H$33*H47</f>
-        <v>6.5884781725685792E-5</v>
+        <v>2.3800059742823645E-8</v>
       </c>
       <c r="BP12">
         <f>BP9+1</f>
@@ -10266,7 +10267,7 @@
       </c>
       <c r="BR12" s="107">
         <f>$H$29*H41</f>
-        <v>3.7510201598297557E-2</v>
+        <v>9.8037359932247031E-3</v>
       </c>
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.25">
@@ -10274,29 +10275,27 @@
         <v>8</v>
       </c>
       <c r="B13" s="168">
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="C13" s="169">
-        <v>11.25</v>
+        <v>6.25</v>
       </c>
       <c r="E13" s="192" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="167" t="s">
-        <v>154</v>
-      </c>
+      <c r="F13" s="167"/>
       <c r="G13" s="167"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="166" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="K13" s="166"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="O13" s="67">
         <f t="shared" si="1"/>
-        <v>8.1639461565370247E-2</v>
+        <v>6.5321292820866489E-2</v>
       </c>
       <c r="P13" s="210">
         <f>P3</f>
@@ -10304,23 +10303,23 @@
       </c>
       <c r="Q13" s="214">
         <f t="shared" si="2"/>
-        <v>4.6534493092261035E-2</v>
+        <v>3.7233136907893899E-2</v>
       </c>
       <c r="R13" s="157">
         <f t="shared" si="3"/>
-        <v>4.6534493092261035E-2</v>
+        <v>3.7233136907893899E-2</v>
       </c>
       <c r="S13" s="176">
         <f t="shared" si="4"/>
-        <v>0.95346550690773901</v>
+        <v>0.96276686309210613</v>
       </c>
       <c r="T13" s="177">
         <f>R13*PRODUCT(S5:S12)*PRODUCT(S14:S19)</f>
-        <v>3.6607371384788791E-2</v>
+        <v>2.7155807828768391E-2</v>
       </c>
       <c r="U13" s="177">
         <f>R13*R14*PRODUCT(S5:S12)*PRODUCT(S15:S19)+R13*R15*PRODUCT(S5:S12)*S14*PRODUCT(S16:S19)+R13*R16*PRODUCT(S5:S12)*PRODUCT(S14:S15)*PRODUCT(S17:S19)+R13*R17*PRODUCT(S5:S12)*PRODUCT(S14:S16)*PRODUCT(S18:S19)+R13*R18*PRODUCT(S5:S12)*PRODUCT(S14:S17)*PRODUCT(S19)+R13*R19*PRODUCT(S5:S12)*PRODUCT(S14:S18)</f>
-        <v>5.4000544614100374E-3</v>
+        <v>2.0910826896950443E-3</v>
       </c>
       <c r="W13" s="186" t="s">
         <v>52</v>
@@ -10330,7 +10329,7 @@
       </c>
       <c r="Y13" s="69">
         <f t="shared" si="5"/>
-        <v>8.7973557721304135E-2</v>
+        <v>0.11113692181327983</v>
       </c>
       <c r="Z13" s="69">
         <f>Z3</f>
@@ -10338,38 +10337,38 @@
       </c>
       <c r="AA13" s="69">
         <f t="shared" si="6"/>
-        <v>5.0144927901143353E-2</v>
+        <v>6.3348045433569505E-2</v>
       </c>
       <c r="AB13" s="157">
         <f t="shared" si="7"/>
-        <v>5.0144927901143353E-2</v>
+        <v>6.3348045433569505E-2</v>
       </c>
       <c r="AC13" s="176">
         <f t="shared" si="8"/>
-        <v>0.94985507209885667</v>
+        <v>0.93665195456643047</v>
       </c>
       <c r="AD13" s="177">
         <f>AB13*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC19)</f>
-        <v>3.8077602500767554E-2</v>
+        <v>4.6814609708850215E-2</v>
       </c>
       <c r="AE13" s="177">
         <f>AB13*AB14*PRODUCT(AC5:AC12)*PRODUCT(AC15:AC19)+AB13*AB15*PRODUCT(AC5:AC12)*AC14*PRODUCT(AC16:AC19)+AB13*AB16*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC15)*PRODUCT(AC17:AC19)+AB13*AB17*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC16)*PRODUCT(AC18:AC19)+AB13*AB18*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC17)*PRODUCT(AC19)+AB13*AB19*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC18)</f>
-        <v>9.0914906494244316E-3</v>
+        <v>8.1861377877198126E-3</v>
       </c>
       <c r="AG13" s="203">
         <f>B22</f>
-        <v>0.48132780082987553</v>
+        <v>0.37017994858611819</v>
       </c>
       <c r="AH13">
         <v>1</v>
       </c>
       <c r="AI13" s="207">
         <f t="shared" si="9"/>
-        <v>0.16961301928667438</v>
+        <v>0.17645821463414632</v>
       </c>
       <c r="AK13" s="203">
         <f>C22</f>
-        <v>0.51867219917012441</v>
+        <v>0.62982005141388187</v>
       </c>
       <c r="AL13">
         <v>1</v>
@@ -10392,7 +10391,7 @@
       </c>
       <c r="BJ13" s="107">
         <f t="shared" si="0"/>
-        <v>3.2749084350353543E-6</v>
+        <v>2.8057844141137314E-6</v>
       </c>
       <c r="BL13">
         <f>BH57+1</f>
@@ -10403,7 +10402,7 @@
       </c>
       <c r="BN13" s="107">
         <f>$H$34*H48</f>
-        <v>2.5702520164685941E-6</v>
+        <v>3.0809080935668247E-10</v>
       </c>
       <c r="BP13">
         <f>BL7+1</f>
@@ -10414,7 +10413,7 @@
       </c>
       <c r="BR13" s="107">
         <f>$H$29*H42</f>
-        <v>5.523337270719144E-2</v>
+        <v>8.5621526623680527E-3</v>
       </c>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.25">
@@ -10422,16 +10421,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="168">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="C14" s="169">
-        <v>12.5</v>
+        <v>4.25</v>
       </c>
       <c r="E14" s="192" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="167" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="G14" s="167"/>
       <c r="H14" s="10"/>
@@ -10444,7 +10443,7 @@
       <c r="M14" s="10"/>
       <c r="O14" s="67">
         <f t="shared" si="1"/>
-        <v>0.11600230350055665</v>
+        <v>9.2815659113424029E-2</v>
       </c>
       <c r="P14" s="210">
         <f>IF(COUNTIF(F6:F18,"CAB")-COUNTIF(J6:J18,"CAB")&gt;2,0.8,IF(COUNTIF(F6:F18,"CAB")-COUNTIF(J6:J18,"CAB")&gt;0,0.6,IF(COUNTIF(F6:F18,"CAB")-COUNTIF(J6:J18,"CAB")=0,0.5,0.15)))</f>
@@ -10452,23 +10451,23 @@
       </c>
       <c r="Q14" s="214">
         <f t="shared" si="2"/>
-        <v>1.7400345525083499E-2</v>
+        <v>1.3922348867013604E-2</v>
       </c>
       <c r="R14" s="157">
         <f t="shared" si="3"/>
-        <v>1.7400345525083499E-2</v>
+        <v>1.3922348867013606E-2</v>
       </c>
       <c r="S14" s="176">
         <f t="shared" si="4"/>
-        <v>0.98259965447491648</v>
+        <v>0.9860776511329864</v>
       </c>
       <c r="T14" s="177">
         <f>R14*PRODUCT(S5:S13)*PRODUCT(S15:S19)</f>
-        <v>1.3282499535732515E-2</v>
+        <v>9.914153295441968E-3</v>
       </c>
       <c r="U14" s="177">
         <f>R14*R15*PRODUCT(S5:S13)*PRODUCT(S16:S19)+R14*R16*PRODUCT(S5:S13)*S15*PRODUCT(S17:S19)+R14*R17*PRODUCT(S5:S13)*PRODUCT(S15:S16)*PRODUCT(S18:S19)+R14*R18*PRODUCT(S5:S13)*PRODUCT(S15:S17)*PRODUCT(S19)+R14*R19*PRODUCT(S5:S13)*PRODUCT(S15:S18)</f>
-        <v>1.7241253258655862E-3</v>
+        <v>6.2344390257451892E-4</v>
       </c>
       <c r="W14" s="186" t="s">
         <v>54</v>
@@ -10478,35 +10477,35 @@
       </c>
       <c r="Y14" s="69">
         <f t="shared" si="5"/>
-        <v>0.1250024822204274</v>
+        <v>0.15791553113047843</v>
       </c>
       <c r="Z14" s="211">
         <f>IF(COUNTIF(J6:J18,"CAB")-COUNTIF(F6:F18,"CAB")&gt;2,0.8,IF(COUNTIF(J6:J18,"CAB")-COUNTIF(F6:F18,"CAB")&gt;0,0.6,IF(COUNTIF(J6:J18,"CAB")-COUNTIF(F6:F18,"CAB")=0,0.5,0.15)))</f>
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AA14" s="69">
         <f t="shared" si="6"/>
-        <v>0.10000198577634192</v>
+        <v>9.4749318678287051E-2</v>
       </c>
       <c r="AB14" s="157">
         <f t="shared" si="7"/>
-        <v>0.10000198577634194</v>
+        <v>9.4749318678287051E-2</v>
       </c>
       <c r="AC14" s="176">
         <f t="shared" si="8"/>
-        <v>0.8999980142236581</v>
+        <v>0.90525068132171294</v>
       </c>
       <c r="AD14" s="177">
         <f>AB14*PRODUCT(AC5:AC13)*PRODUCT(AC15:AC19)</f>
-        <v>8.0143259871778644E-2</v>
+        <v>7.2449212071878377E-2</v>
       </c>
       <c r="AE14" s="177">
         <f>AB14*AB15*PRODUCT(AC5:AC13)*PRODUCT(AC16:AC19)+AB14*AB16*PRODUCT(AC5:AC13)*AC15*PRODUCT(AC17:AC19)+AB14*AB17*PRODUCT(AC5:AC13)*PRODUCT(AC15:AC16)*PRODUCT(AC18:AC19)+AB14*AB18*PRODUCT(AC5:AC13)*PRODUCT(AC15:AC17)*PRODUCT(AC19)+AB14*AB19*PRODUCT(AC5:AC13)*PRODUCT(AC15:AC18)</f>
-        <v>1.0230174766750443E-2</v>
+        <v>5.0856810418204827E-3</v>
       </c>
       <c r="AG14" s="203">
         <f>IF(AL14=0,1,B22)</f>
-        <v>0.48132780082987553</v>
+        <v>0.37017994858611819</v>
       </c>
       <c r="AH14">
         <f>IF(COUNTIF(F6:F18,"CAB")&gt;0,1,0)</f>
@@ -10514,11 +10513,11 @@
       </c>
       <c r="AI14" s="207">
         <f t="shared" si="9"/>
-        <v>0.24100478572098408</v>
+        <v>0.25073119024390245</v>
       </c>
       <c r="AK14" s="203">
         <f>IF(AH14=0,1,C22)</f>
-        <v>0.51867219917012441</v>
+        <v>0.62982005141388187</v>
       </c>
       <c r="AL14">
         <f>IF(COUNTIF(J6:J18,"CAB")&gt;0,1,0)</f>
@@ -10542,7 +10541,7 @@
       </c>
       <c r="BJ14" s="107">
         <f t="shared" ref="BJ14:BJ22" si="11">$H$26*H41</f>
-        <v>1.1228788616325773E-2</v>
+        <v>9.7496265576348801E-2</v>
       </c>
       <c r="BL14">
         <f>BP39+1</f>
@@ -10553,7 +10552,7 @@
       </c>
       <c r="BN14" s="107">
         <f>$H$35*H49</f>
-        <v>5.1197143817287011E-8</v>
+        <v>2.2923694306706554E-12</v>
       </c>
       <c r="BP14">
         <f>BP10+1</f>
@@ -10564,7 +10563,7 @@
       </c>
       <c r="BR14" s="107">
         <f>$H$30*H39</f>
-        <v>1.9561708490916986E-3</v>
+        <v>5.2612588355807816E-4</v>
       </c>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.25">
@@ -10572,29 +10571,29 @@
         <v>71</v>
       </c>
       <c r="B15" s="170">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C15" s="171">
-        <v>10.5</v>
+        <v>6</v>
       </c>
       <c r="E15" s="192" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="167" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="G15" s="167"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="166" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="K15" s="166"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="O15" s="67">
         <f t="shared" si="1"/>
-        <v>2.1615336056004339E-2</v>
+        <v>1.7294843313060377E-2</v>
       </c>
       <c r="P15" s="210">
         <f>R3</f>
@@ -10602,23 +10601,23 @@
       </c>
       <c r="Q15" s="214">
         <f t="shared" si="2"/>
-        <v>1.5130735239203037E-2</v>
+        <v>1.2106390319142263E-2</v>
       </c>
       <c r="R15" s="157">
         <f t="shared" si="3"/>
-        <v>1.5130735239203037E-2</v>
+        <v>1.2106390319142263E-2</v>
       </c>
       <c r="S15" s="176">
         <f t="shared" si="4"/>
-        <v>0.98486926476079695</v>
+        <v>0.98789360968085771</v>
       </c>
       <c r="T15" s="177">
         <f>R15*PRODUCT(S5:S14)*PRODUCT(S16:S19)</f>
-        <v>1.1523382867730737E-2</v>
+        <v>8.605155628923996E-3</v>
       </c>
       <c r="U15" s="177">
         <f>R15*R16*PRODUCT(S5:S14)*PRODUCT(S17:S19)+R15*R17*PRODUCT(S5:S14)*S16*PRODUCT(S18:S19)+R15*R18*PRODUCT(S5:S14)*S16*S17*S19+R15*R19*PRODUCT(S5:S14)*S16*S17*S18</f>
-        <v>1.3187485092807025E-3</v>
+        <v>4.3567455081034725E-4</v>
       </c>
       <c r="W15" s="186" t="s">
         <v>56</v>
@@ -10628,7 +10627,7 @@
       </c>
       <c r="Y15" s="69">
         <f t="shared" si="5"/>
-        <v>2.3292387991383983E-2</v>
+        <v>2.9425254247915235E-2</v>
       </c>
       <c r="Z15" s="69">
         <f>AB3</f>
@@ -10636,38 +10635,38 @@
       </c>
       <c r="AA15" s="69">
         <f t="shared" si="6"/>
-        <v>1.6304671593968787E-2</v>
+        <v>2.0597677973540663E-2</v>
       </c>
       <c r="AB15" s="157">
         <f t="shared" si="7"/>
-        <v>1.6304671593968787E-2</v>
+        <v>2.0597677973540663E-2</v>
       </c>
       <c r="AC15" s="176">
         <f t="shared" si="8"/>
-        <v>0.98369532840603124</v>
+        <v>0.97940232202645938</v>
       </c>
       <c r="AD15" s="177">
         <f>AB15*PRODUCT(AC5:AC14)*PRODUCT(AC16:AC19)</f>
-        <v>1.1955049471502607E-2</v>
+        <v>1.4557391636651052E-2</v>
       </c>
       <c r="AE15" s="177">
         <f>AB15*AB16*PRODUCT(AC5:AC14)*PRODUCT(AC17:AC19)+AB15*AB17*PRODUCT(AC5:AC14)*AC16*PRODUCT(AC18:AC19)+AB15*AB18*PRODUCT(AC5:AC14)*AC16*AC17*AC19+AB15*AB19*PRODUCT(AC5:AC14)*AC16*AC17*AC18</f>
-        <v>1.3278913135237886E-3</v>
+        <v>7.1572338963417001E-4</v>
       </c>
       <c r="AG15" s="203">
         <f>IF(AL15=0,1,B22)</f>
-        <v>0.48132780082987553</v>
+        <v>0.37017994858611819</v>
       </c>
       <c r="AH15">
         <v>1</v>
       </c>
       <c r="AI15" s="207">
         <f t="shared" si="9"/>
-        <v>4.4907724047388325E-2</v>
+        <v>4.6720097560975608E-2</v>
       </c>
       <c r="AK15" s="203">
         <f>IF(AH15=0,1,C22)</f>
-        <v>0.51867219917012441</v>
+        <v>0.62982005141388187</v>
       </c>
       <c r="AL15">
         <v>1</v>
@@ -10690,7 +10689,7 @@
       </c>
       <c r="BJ15" s="107">
         <f t="shared" si="11"/>
-        <v>1.653427175192624E-2</v>
+        <v>8.5148958565631219E-2</v>
       </c>
       <c r="BP15">
         <f>BP11+1</f>
@@ -10701,7 +10700,7 @@
       </c>
       <c r="BR15" s="107">
         <f>$H$30*H40</f>
-        <v>1.0487326036690683E-2</v>
+        <v>1.6373450153899375E-3</v>
       </c>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.25">
@@ -10719,44 +10718,42 @@
       <c r="E16" s="192" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="167" t="s">
-        <v>123</v>
-      </c>
+      <c r="F16" s="167"/>
       <c r="G16" s="167"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="166" t="s">
-        <v>154</v>
+        <v>21</v>
       </c>
       <c r="K16" s="166"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
       <c r="O16" s="67">
         <f t="shared" si="1"/>
-        <v>1.8633910393107189E-2</v>
+        <v>2.3540203398332186E-2</v>
       </c>
       <c r="P16" s="210">
         <v>0.15</v>
       </c>
       <c r="Q16" s="214">
         <f t="shared" si="2"/>
-        <v>2.7950865589660783E-3</v>
+        <v>3.5310305097498275E-3</v>
       </c>
       <c r="R16" s="157">
         <f t="shared" si="3"/>
-        <v>2.7950865589660783E-3</v>
+        <v>3.531030509749828E-3</v>
       </c>
       <c r="S16" s="176">
         <f t="shared" si="4"/>
-        <v>0.9972049134410339</v>
+        <v>0.99646896949025021</v>
       </c>
       <c r="T16" s="177">
         <f>R16*PRODUCT(S5:S15)*PRODUCT(S17:S19)</f>
-        <v>2.1023711886074782E-3</v>
+        <v>2.4882380357891818E-3</v>
       </c>
       <c r="U16" s="177">
         <f>R16*R17*PRODUCT(S5:S15)*PRODUCT(S18:S19)+R16*R18*PRODUCT(S5:S15)*S17*S19+R16*R19*PRODUCT(S5:S15)*S17*S18</f>
-        <v>2.3470487257326188E-4</v>
+        <v>1.1716101856633795E-4</v>
       </c>
       <c r="W16" s="187" t="s">
         <v>58</v>
@@ -10766,45 +10763,45 @@
       </c>
       <c r="Y16" s="69">
         <f t="shared" si="5"/>
-        <v>1.7292268844803473E-2</v>
+        <v>1.3835874650448301E-2</v>
       </c>
       <c r="Z16" s="69">
         <v>0.15</v>
       </c>
       <c r="AA16" s="69">
         <f t="shared" si="6"/>
-        <v>2.5938403267205209E-3</v>
+        <v>2.075381197567245E-3</v>
       </c>
       <c r="AB16" s="157">
         <f t="shared" si="7"/>
-        <v>2.5938403267205209E-3</v>
+        <v>2.075381197567245E-3</v>
       </c>
       <c r="AC16" s="176">
         <f t="shared" si="8"/>
-        <v>0.9974061596732795</v>
+        <v>0.99792461880243277</v>
       </c>
       <c r="AD16" s="177">
         <f>AB16*PRODUCT(AC5:AC15)*PRODUCT(AC17:AC19)</f>
-        <v>1.8757334481278541E-3</v>
+        <v>1.4395493980392682E-3</v>
       </c>
       <c r="AE16" s="177">
         <f>AB16*AB17*PRODUCT(AC5:AC15)*PRODUCT(AC18:AC19)+AB16*AB18*PRODUCT(AC5:AC15)*AC17*AC19+AB16*AB19*PRODUCT(AC5:AC15)*AC17*AC18</f>
-        <v>2.0346660689738632E-4</v>
+        <v>6.7782531785527732E-5</v>
       </c>
       <c r="AG16" s="203">
         <f>C22</f>
-        <v>0.51867219917012441</v>
+        <v>0.62982005141388187</v>
       </c>
       <c r="AH16">
         <v>1</v>
       </c>
       <c r="AI16" s="207">
         <f t="shared" si="9"/>
-        <v>3.5926179237910666E-2</v>
+        <v>3.7376078048780487E-2</v>
       </c>
       <c r="AK16" s="203">
         <f>B22</f>
-        <v>0.48132780082987553</v>
+        <v>0.37017994858611819</v>
       </c>
       <c r="AL16">
         <v>1</v>
@@ -10827,7 +10824,7 @@
       </c>
       <c r="BJ16" s="107">
         <f t="shared" si="11"/>
-        <v>1.6344305957774342E-2</v>
+        <v>5.0655976199968887E-2</v>
       </c>
       <c r="BP16">
         <f>BP12+1</f>
@@ -10838,7 +10835,7 @@
       </c>
       <c r="BR16" s="107">
         <f>$H$30*H41</f>
-        <v>2.5625343562141634E-2</v>
+        <v>2.344961094368794E-3</v>
       </c>
     </row>
     <row r="17" spans="1:70" x14ac:dyDescent="0.25">
@@ -10846,27 +10843,27 @@
         <v>10</v>
       </c>
       <c r="B17" s="172" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="173" t="s">
         <v>11</v>
-      </c>
-      <c r="C17" s="173" t="s">
-        <v>163</v>
       </c>
       <c r="E17" s="192" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="167"/>
+      <c r="F17" s="167" t="s">
+        <v>154</v>
+      </c>
       <c r="G17" s="167"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="166" t="s">
-        <v>131</v>
-      </c>
+      <c r="J17" s="166"/>
       <c r="K17" s="166"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="O17" s="67">
         <f t="shared" si="1"/>
-        <v>6.2698091650776777E-2</v>
+        <v>6.5228443902439023E-2</v>
       </c>
       <c r="P17" s="210">
         <f>P3</f>
@@ -10874,23 +10871,23 @@
       </c>
       <c r="Q17" s="214">
         <f t="shared" si="2"/>
-        <v>3.5737912240942762E-2</v>
+        <v>3.7180213024390243E-2</v>
       </c>
       <c r="R17" s="157">
         <f t="shared" si="3"/>
-        <v>3.5737912240942762E-2</v>
+        <v>3.7180213024390243E-2</v>
       </c>
       <c r="S17" s="176">
         <f t="shared" si="4"/>
-        <v>0.9642620877590572</v>
+        <v>0.96281978697560977</v>
       </c>
       <c r="T17" s="177">
         <f>R17*PRODUCT(S5:S16)*PRODUCT(S18:S19)</f>
-        <v>2.7799221274515874E-2</v>
+        <v>2.7115717483427729E-2</v>
       </c>
       <c r="U17" s="177">
         <f>R17*R18*PRODUCT(S5:S16)*S19+R17*R19*PRODUCT(S5:S16)*S18</f>
-        <v>2.0731470389834558E-3</v>
+        <v>2.2966941995808531E-4</v>
       </c>
       <c r="W17" s="186" t="s">
         <v>60</v>
@@ -10900,7 +10897,7 @@
       </c>
       <c r="Y17" s="69">
         <f t="shared" si="5"/>
-        <v>6.2698091650776777E-2</v>
+        <v>6.5228443902439023E-2</v>
       </c>
       <c r="Z17" s="69">
         <f>Z3</f>
@@ -10908,23 +10905,23 @@
       </c>
       <c r="AA17" s="69">
         <f t="shared" si="6"/>
-        <v>3.5737912240942762E-2</v>
+        <v>3.7180213024390243E-2</v>
       </c>
       <c r="AB17" s="157">
         <f t="shared" si="7"/>
-        <v>3.5737912240942762E-2</v>
+        <v>3.7180213024390243E-2</v>
       </c>
       <c r="AC17" s="176">
         <f t="shared" si="8"/>
-        <v>0.9642620877590572</v>
+        <v>0.96281978697560977</v>
       </c>
       <c r="AD17" s="177">
         <f>AB17*PRODUCT(AC5:AC16)*PRODUCT(AC18:AC19)</f>
-        <v>2.6732157858161663E-2</v>
+        <v>2.6729651597727801E-2</v>
       </c>
       <c r="AE17" s="177">
         <f>AB17*AB18*PRODUCT(AC5:AC16)*AC19+AB17*AB19*PRODUCT(AC5:AC16)*AC18</f>
-        <v>1.9089606428346929E-3</v>
+        <v>2.263994519740739E-4</v>
       </c>
       <c r="AG17" s="203">
         <f>COUNTA(F14:F15)/(COUNTA(F14:F15)+COUNTA(J14:J15))</f>
@@ -10936,7 +10933,7 @@
       </c>
       <c r="AI17" s="207">
         <f t="shared" si="9"/>
-        <v>0.12539618330155355</v>
+        <v>0.13045688780487805</v>
       </c>
       <c r="AK17" s="203">
         <f>COUNTA(J14:J15)/(COUNTA(F14:F15)+COUNTA(J14:J15))</f>
@@ -10965,7 +10962,7 @@
       </c>
       <c r="BJ17" s="107">
         <f t="shared" si="11"/>
-        <v>1.1435410084469024E-2</v>
+        <v>2.1714733130818922E-2</v>
       </c>
       <c r="BP17">
         <f>BP13+1</f>
@@ -10976,7 +10973,7 @@
       </c>
       <c r="BR17" s="107">
         <f>$H$30*H42</f>
-        <v>3.7733045715804304E-2</v>
+        <v>2.0479860831804312E-3</v>
       </c>
     </row>
     <row r="18" spans="1:70" x14ac:dyDescent="0.25">
@@ -10984,29 +10981,27 @@
         <v>12</v>
       </c>
       <c r="B18" s="172">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C18" s="173">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E18" s="192" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="167" t="s">
-        <v>21</v>
-      </c>
+      <c r="F18" s="167"/>
       <c r="G18" s="167"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="166" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K18" s="166"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
       <c r="O18" s="67">
         <f t="shared" si="1"/>
-        <v>4.7210684254946718E-3</v>
+        <v>1.2279000000000002E-2</v>
       </c>
       <c r="P18" s="210">
         <f>P17*1.2</f>
@@ -11014,23 +11009,23 @@
       </c>
       <c r="Q18" s="214">
         <f t="shared" si="2"/>
-        <v>3.2292108030383552E-3</v>
+        <v>8.3988359999999998E-3</v>
       </c>
       <c r="R18" s="157">
         <f t="shared" si="3"/>
-        <v>3.2292108030383556E-3</v>
+        <v>8.3988359999999998E-3</v>
       </c>
       <c r="S18" s="176">
         <f t="shared" si="4"/>
-        <v>0.9967707891969616</v>
+        <v>0.99160116399999998</v>
       </c>
       <c r="T18" s="177">
         <f>R18*PRODUCT(S5:S17)*PRODUCT(S19:S19)</f>
-        <v>2.4299628754015467E-3</v>
+        <v>5.9475254177213553E-3</v>
       </c>
       <c r="U18" s="177">
         <f>R18*R19*PRODUCT(S5:S17)</f>
-        <v>1.7334395585339707E-4</v>
+        <v>0</v>
       </c>
       <c r="W18" s="186" t="s">
         <v>62</v>
@@ -11040,7 +11035,7 @@
       </c>
       <c r="Y18" s="69">
         <f t="shared" si="5"/>
-        <v>7.5537094807914748E-2</v>
+        <v>1.2279000000000002E-2</v>
       </c>
       <c r="Z18" s="69">
         <f>Z17*1.2</f>
@@ -11048,27 +11043,27 @@
       </c>
       <c r="AA18" s="69">
         <f t="shared" si="6"/>
-        <v>5.1667372848613682E-2</v>
+        <v>8.3988359999999998E-3</v>
       </c>
       <c r="AB18" s="157">
         <f t="shared" si="7"/>
-        <v>5.1667372848613689E-2</v>
+        <v>8.3988359999999998E-3</v>
       </c>
       <c r="AC18" s="176">
         <f t="shared" si="8"/>
-        <v>0.94833262715138633</v>
+        <v>0.99160116399999998</v>
       </c>
       <c r="AD18" s="177">
         <f>AB18*PRODUCT(AC5:AC17)*PRODUCT(AC19:AC19)</f>
-        <v>3.9296658031832694E-2</v>
+        <v>5.8628462396941184E-3</v>
       </c>
       <c r="AE18" s="177">
         <f>AB18*AB19*PRODUCT(AC5:AC17)</f>
-        <v>6.6522614657578796E-4</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="203">
         <f>IF(COUNTA(F14:F15)&gt;0,IF(COUNTIF(F11:F18,"CAB")+COUNTIF(J11:J18,"CAB")=0,0,COUNTIF(F11:F18,"CAB")/(COUNTIF(F11:F18,"CAB")+COUNTIF(J11:J18,"CAB"))),0)</f>
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AH18">
         <f>COUNTIF(F11:F18,"CAB")</f>
@@ -11076,15 +11071,15 @@
       </c>
       <c r="AI18" s="207">
         <f t="shared" si="9"/>
-        <v>0.18884273701978685</v>
+        <v>0.19646400000000003</v>
       </c>
       <c r="AK18" s="203">
         <f>IF(COUNTA(J14:J15)&gt;0,IF(COUNTIF(J11:J18,"CAB")+COUNTIF(F11:F18,"CAB")=0,0,COUNTIF(J11:J18,"CAB")/(COUNTIF(J11:J18,"CAB")+COUNTIF(F11:F18,"CAB"))),0)</f>
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AL18">
         <f>COUNTIF(J11:J18,"CAB")</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AM18" s="208">
         <v>0.16400000000000001</v>
@@ -11105,7 +11100,7 @@
       </c>
       <c r="BJ18" s="107">
         <f t="shared" si="11"/>
-        <v>5.8175342027506826E-3</v>
+        <v>6.9171073620003061E-3</v>
       </c>
       <c r="BP18">
         <f>BL8+1</f>
@@ -11116,7 +11111,7 @@
       </c>
       <c r="BR18" s="107">
         <f>$H$30*H43</f>
-        <v>3.7299522661222995E-2</v>
+        <v>1.2183676234571027E-3</v>
       </c>
     </row>
     <row r="19" spans="1:70" x14ac:dyDescent="0.25">
@@ -11128,7 +11123,7 @@
       </c>
       <c r="O19" s="67">
         <f t="shared" si="1"/>
-        <v>0.11681765652839862</v>
+        <v>0</v>
       </c>
       <c r="P19" s="210">
         <f>P3</f>
@@ -11136,19 +11131,19 @@
       </c>
       <c r="Q19" s="214">
         <f t="shared" si="2"/>
-        <v>6.6586064221187208E-2</v>
+        <v>0</v>
       </c>
       <c r="R19" s="157">
         <f t="shared" si="3"/>
-        <v>6.6586064221187208E-2</v>
+        <v>0</v>
       </c>
       <c r="S19" s="178">
         <f t="shared" si="4"/>
-        <v>0.93341393577881282</v>
+        <v>1</v>
       </c>
       <c r="T19" s="179">
         <f>R19*PRODUCT(S5:S18)</f>
-        <v>5.3506631253661639E-2</v>
+        <v>0</v>
       </c>
       <c r="U19" s="179">
         <v>0</v>
@@ -11164,7 +11159,7 @@
       </c>
       <c r="Y19" s="69">
         <f t="shared" si="5"/>
-        <v>2.9204414132099656E-2</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="69">
         <f>Z3</f>
@@ -11172,19 +11167,19 @@
       </c>
       <c r="AA19" s="69">
         <f t="shared" si="6"/>
-        <v>1.6646516055296802E-2</v>
+        <v>0</v>
       </c>
       <c r="AB19" s="157">
         <f t="shared" si="7"/>
-        <v>1.6646516055296802E-2</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="178">
         <f t="shared" si="8"/>
-        <v>0.98335348394470323</v>
+        <v>1</v>
       </c>
       <c r="AD19" s="179">
         <f>AB19*PRODUCT(AC5:AC18)</f>
-        <v>1.2209942647566547E-2</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="179">
         <v>0</v>
@@ -11194,30 +11189,30 @@
       </c>
       <c r="AG19" s="203">
         <f>IF(COUNTIF(F11:F18,"TEC")&gt;0,IF(COUNTIF(J6:J13,"CAB")&gt;0,IF(COUNTIF(F11:F18,"TEC")+COUNTIF(J11:J18,"TEC")&gt;0,COUNTIF(F11:F18,"TEC")/(COUNTIF(F11:F18,"TEC")+COUNTIF(J11:J18,"TEC")),0),0),0)</f>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="AH19">
         <f>COUNTIF(F11:F18,"TEC")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI19" s="207">
         <f t="shared" si="9"/>
-        <v>0.70090593917039179</v>
+        <v>0</v>
       </c>
       <c r="AK19" s="203">
         <f>IF(COUNTIF(J11:J18,"TEC")&gt;0,IF(COUNTIF(F6:F13,"CAB")&gt;0,IF(COUNTIF(F11:F18,"TEC")+COUNTIF(J11:J18,"TEC")&gt;0,COUNTIF(J11:J18,"TEC")/(COUNTIF(F11:F18,"TEC")+COUNTIF(J11:J18,"TEC")),0),0),0)</f>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="AL19">
         <f>COUNTIF(J11:J18,"TEC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM19" s="208">
         <v>0.60870000000000002</v>
       </c>
       <c r="AN19" s="209">
         <f t="shared" si="10"/>
-        <v>0.60870000000000002</v>
+        <v>0</v>
       </c>
       <c r="AO19">
         <f>1/8</f>
@@ -11231,7 +11226,7 @@
       </c>
       <c r="BJ19" s="107">
         <f t="shared" si="11"/>
-        <v>2.1767437274779577E-3</v>
+        <v>1.6630818649695425E-3</v>
       </c>
       <c r="BP19">
         <f>BP15+1</f>
@@ -11242,7 +11237,7 @@
       </c>
       <c r="BR19" s="107">
         <f>$H$31*H40</f>
-        <v>5.1991757132199201E-3</v>
+        <v>3.0510119549776517E-4</v>
       </c>
     </row>
     <row r="20" spans="1:70" x14ac:dyDescent="0.25">
@@ -11259,19 +11254,19 @@
       <c r="Q20" s="22"/>
       <c r="S20" s="180">
         <f>PRODUCT(S5:S19)</f>
-        <v>0.75006438438591738</v>
+        <v>0.70218934232458907</v>
       </c>
       <c r="T20" s="181">
         <f>SUM(T5:T19)</f>
-        <v>0.22002686181578135</v>
+        <v>0.25602219665966325</v>
       </c>
       <c r="U20" s="181">
         <f>SUM(U5:U19)</f>
-        <v>2.7814909642842278E-2</v>
+        <v>3.8444308463698049E-2</v>
       </c>
       <c r="V20" s="181">
         <f>1-S20-T20-U20</f>
-        <v>2.0938441554589904E-3</v>
+        <v>3.3441525520496312E-3</v>
       </c>
       <c r="W20" s="21"/>
       <c r="X20" s="22"/>
@@ -11281,19 +11276,19 @@
       <c r="AB20" s="23"/>
       <c r="AC20" s="184">
         <f>PRODUCT(AC5:AC19)</f>
-        <v>0.72127342450308907</v>
+        <v>0.69219176986355146</v>
       </c>
       <c r="AD20" s="181">
         <f>SUM(AD5:AD19)</f>
-        <v>0.24281884128330899</v>
+        <v>0.26287338970786606</v>
       </c>
       <c r="AE20" s="181">
         <f>SUM(AE5:AE19)</f>
-        <v>3.3326245396425584E-2</v>
+        <v>4.1268305951347867E-2</v>
       </c>
       <c r="AF20" s="181">
         <f>1-AC20-AD20-AE20</f>
-        <v>2.5814888171763542E-3</v>
+        <v>3.666534477234612E-3</v>
       </c>
       <c r="BH20">
         <v>1</v>
@@ -11303,7 +11298,7 @@
       </c>
       <c r="BJ20" s="107">
         <f t="shared" si="11"/>
-        <v>5.992334731248645E-4</v>
+        <v>3.0300125111933085E-4</v>
       </c>
       <c r="BP20">
         <f>BP16+1</f>
@@ -11314,7 +11309,7 @@
       </c>
       <c r="BR20" s="107">
         <f>$H$31*H41</f>
-        <v>1.2703968907334998E-2</v>
+        <v>4.3695765190776277E-4</v>
       </c>
     </row>
     <row r="21" spans="1:70" x14ac:dyDescent="0.25">
@@ -11339,7 +11334,7 @@
       </c>
       <c r="BJ21" s="107">
         <f t="shared" si="11"/>
-        <v>1.2023525393473227E-4</v>
+        <v>4.1506685433450631E-5</v>
       </c>
       <c r="BP21">
         <f>BP17+1</f>
@@ -11350,7 +11345,7 @@
       </c>
       <c r="BR21" s="107">
         <f>$H$31*H42</f>
-        <v>1.8706459033034153E-2</v>
+        <v>3.8161963206778828E-4</v>
       </c>
     </row>
     <row r="22" spans="1:70" x14ac:dyDescent="0.25">
@@ -11359,11 +11354,11 @@
       </c>
       <c r="B22" s="62">
         <f>(B6)/((B6)+(C6))</f>
-        <v>0.48132780082987553</v>
+        <v>0.37017994858611819</v>
       </c>
       <c r="C22" s="63">
         <f>1-B22</f>
-        <v>0.51867219917012441</v>
+        <v>0.62982005141388187</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
@@ -11373,7 +11368,7 @@
       </c>
       <c r="AS22" s="82">
         <f>Y23+AA23+AC23+AE23+AG23+AI23+AK23+AM23+AO23+AQ23+AS23</f>
-        <v>1</v>
+        <v>1.0000000000000004</v>
       </c>
       <c r="BH22">
         <v>1</v>
@@ -11383,7 +11378,7 @@
       </c>
       <c r="BJ22" s="107">
         <f t="shared" si="11"/>
-        <v>1.7231751372103504E-5</v>
+        <v>4.1752676681817585E-6</v>
       </c>
       <c r="BP22">
         <f>BP18+1</f>
@@ -11394,7 +11389,7 @@
       </c>
       <c r="BR22" s="107">
         <f>$H$31*H43</f>
-        <v>1.8491536513355215E-2</v>
+        <v>2.2702937681341753E-4</v>
       </c>
     </row>
     <row r="23" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11403,11 +11398,11 @@
       </c>
       <c r="B23" s="56">
         <f>((B22^2.8)/((B22^2.8)+(C22^2.8)))*B21</f>
-        <v>2.2394174894043606</v>
+        <v>0.92107615370786133</v>
       </c>
       <c r="C23" s="57">
         <f>B21-B23</f>
-        <v>2.7605825105956394</v>
+        <v>4.0789238462921382</v>
       </c>
       <c r="D23" s="151">
         <f>SUM(D25:D30)</f>
@@ -11419,7 +11414,7 @@
       </c>
       <c r="H23" s="59">
         <f>SUM(H25:H35)</f>
-        <v>0.99997886362567368</v>
+        <v>0.99999998884787078</v>
       </c>
       <c r="J23" s="59">
         <f>SUM(J25:J35)</f>
@@ -11432,78 +11427,78 @@
       </c>
       <c r="N23" s="59">
         <f>SUM(N25:N35)</f>
-        <v>1.0000000000000002</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="O23" s="34"/>
       <c r="P23" s="59">
         <f>SUM(P25:P35)</f>
-        <v>1.0000000000000002</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="R23" s="59">
         <f>SUM(R25:R35)</f>
-        <v>1.0000000000000002</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="T23" s="59">
         <f>SUM(T25:T35)</f>
-        <v>1</v>
+        <v>0.99999999999999967</v>
       </c>
       <c r="V23" s="59">
         <f>SUM(V25:V34)</f>
-        <v>0.99963467687661334</v>
+        <v>0.99915604580610717</v>
       </c>
       <c r="Y23" s="80">
         <f>SUM(Y25:Y35)</f>
-        <v>2.6058741658901131E-3</v>
+        <v>1.2906527283634823E-2</v>
       </c>
       <c r="Z23" s="81"/>
       <c r="AA23" s="80">
         <f>SUM(AA25:AA35)</f>
-        <v>2.116535202227313E-2</v>
+        <v>6.5586643026517982E-2</v>
       </c>
       <c r="AB23" s="81"/>
       <c r="AC23" s="80">
         <f>SUM(AC25:AC35)</f>
-        <v>7.7380053523900039E-2</v>
+        <v>0.15477945112193939</v>
       </c>
       <c r="AD23" s="81"/>
       <c r="AE23" s="80">
         <f>SUM(AE25:AE35)</f>
-        <v>0.16770735275941134</v>
+        <v>0.2251678498657283</v>
       </c>
       <c r="AF23" s="81"/>
       <c r="AG23" s="80">
         <f>SUM(AG25:AG35)</f>
-        <v>0.2386587623412682</v>
+        <v>0.22601824452999073</v>
       </c>
       <c r="AH23" s="81"/>
       <c r="AI23" s="80">
         <f>SUM(AI25:AI35)</f>
-        <v>0.23307425724329978</v>
+        <v>0.16600169037689852</v>
       </c>
       <c r="AJ23" s="81"/>
       <c r="AK23" s="80">
         <f>SUM(AK25:AK35)</f>
-        <v>0.15827207439236882</v>
+        <v>9.2293337168554521E-2</v>
       </c>
       <c r="AL23" s="81"/>
       <c r="AM23" s="80">
         <f>SUM(AM25:AM35)</f>
-        <v>7.3862604638491508E-2</v>
+        <v>3.9629505619687561E-2</v>
       </c>
       <c r="AN23" s="81"/>
       <c r="AO23" s="80">
         <f>SUM(AO25:AO35)</f>
-        <v>2.2721244649913305E-2</v>
+        <v>1.3284142744644791E-2</v>
       </c>
       <c r="AP23" s="81"/>
       <c r="AQ23" s="80">
         <f>SUM(AQ25:AQ35)</f>
-        <v>4.1871011397972445E-3</v>
+        <v>3.4886540685108067E-3</v>
       </c>
       <c r="AR23" s="81"/>
       <c r="AS23" s="80">
         <f>SUM(AS25:AS35)</f>
-        <v>3.6532312338666273E-4</v>
+        <v>8.4395419389282666E-4</v>
       </c>
       <c r="BH23">
         <f t="shared" ref="BH23:BH30" si="12">BH15+1</f>
@@ -11514,7 +11509,7 @@
       </c>
       <c r="BJ23" s="107">
         <f t="shared" ref="BJ23:BJ30" si="13">$H$27*H42</f>
-        <v>3.9614027209821948E-2</v>
+        <v>6.0223513851067827E-2</v>
       </c>
       <c r="BP23">
         <f>BL9+1</f>
@@ -11525,7 +11520,7 @@
       </c>
       <c r="BR23" s="107">
         <f>$H$31*H44</f>
-        <v>1.2937735237485995E-2</v>
+        <v>9.7320843465701848E-5</v>
       </c>
     </row>
     <row r="24" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11534,11 +11529,11 @@
       </c>
       <c r="B24" s="64">
         <f>B23/B21</f>
-        <v>0.44788349788087212</v>
+        <v>0.18421523074157226</v>
       </c>
       <c r="C24" s="65">
         <f>C23/B21</f>
-        <v>0.55211650211912788</v>
+        <v>0.81578476925842769</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>79</v>
@@ -11705,7 +11700,7 @@
       </c>
       <c r="BJ24" s="107">
         <f t="shared" si="13"/>
-        <v>3.9158893155454413E-2</v>
+        <v>3.5827577174261979E-2</v>
       </c>
       <c r="BP24">
         <f>BH49+1</f>
@@ -11716,7 +11711,7 @@
       </c>
       <c r="BR24" s="107">
         <f t="shared" ref="BR24:BR30" si="14">$H$32*H39</f>
-        <v>3.5283638627053838E-4</v>
+        <v>1.4506291983679266E-5</v>
       </c>
     </row>
     <row r="25" spans="1:70" x14ac:dyDescent="0.25">
@@ -11725,11 +11720,11 @@
       </c>
       <c r="B25" s="117">
         <f>1/(1+EXP(-3.1416*4*((B11/(B11+C8))-(3.1416/6))))</f>
-        <v>0.60774254752805823</v>
+        <v>5.9793053310075055E-2</v>
       </c>
       <c r="C25" s="118">
         <f>1/(1+EXP(-3.1416*4*((C11/(C11+B8))-(3.1416/6))))</f>
-        <v>0.80619844242248129</v>
+        <v>0.12216489478261641</v>
       </c>
       <c r="D25" s="153">
         <f>IF(B17="AOW", 0.36-0.08, IF(B17="AIM", 0.36+0.08, IF(B17="TL",(0.361)-(0.36*B32),0.36)))</f>
@@ -11737,144 +11732,144 @@
       </c>
       <c r="E25" s="153">
         <f>IF(C17="AOW", 0.36-0.08, IF(C17="AIM", 0.36+0.08, IF(C17="TL",(0.361)-(0.36*C32),0.36)))</f>
-        <v>0.44</v>
+        <v>0.36</v>
       </c>
       <c r="G25" s="126">
         <v>0</v>
       </c>
       <c r="H25" s="127">
         <f>L25*J25</f>
-        <v>1.3251899049573112E-2</v>
+        <v>0.23781821078428603</v>
       </c>
       <c r="I25" s="97">
         <v>0</v>
       </c>
       <c r="J25" s="98">
         <f t="shared" ref="J25:J35" si="15">Y25+AA25+AC25+AE25+AG25+AI25+AK25+AM25+AO25+AQ25+AS25</f>
-        <v>1.7667682035619553E-2</v>
+        <v>0.33868103152490436</v>
       </c>
       <c r="K25" s="97">
         <v>0</v>
       </c>
       <c r="L25" s="98">
         <f>S20</f>
-        <v>0.75006438438591738</v>
+        <v>0.70218934232458907</v>
       </c>
       <c r="M25" s="84">
         <v>0</v>
       </c>
       <c r="N25" s="71">
         <f>(1-$B$24)^$B$21</f>
-        <v>5.1304284998828727E-2</v>
+        <v>0.36130832118233069</v>
       </c>
       <c r="O25" s="70">
         <v>0</v>
       </c>
       <c r="P25" s="71">
         <f>N25</f>
-        <v>5.1304284998828727E-2</v>
+        <v>0.36130832118233069</v>
       </c>
       <c r="Q25" s="12">
         <v>0</v>
       </c>
       <c r="R25" s="73">
         <f>P25*N25</f>
-        <v>2.6321296592410424E-3</v>
+        <v>0.13054370295559423</v>
       </c>
       <c r="S25" s="70">
         <v>0</v>
       </c>
       <c r="T25" s="135">
         <f>(1-$B$33)^(INT(C23*2*(1-C31)))</f>
-        <v>0.99002500000000004</v>
+        <v>9.8867482623999955E-2</v>
       </c>
       <c r="U25" s="140">
         <v>0</v>
       </c>
       <c r="V25" s="86">
         <f>R25*T25</f>
-        <v>2.6058741658901131E-3</v>
+        <v>1.2906527283634823E-2</v>
       </c>
       <c r="W25" s="136">
         <f>B31</f>
-        <v>0.74035857413417572</v>
+        <v>0.27750426674759959</v>
       </c>
       <c r="X25" s="12">
         <v>0</v>
       </c>
       <c r="Y25" s="79">
         <f>V25</f>
-        <v>2.6058741658901131E-3</v>
+        <v>1.2906527283634823E-2</v>
       </c>
       <c r="Z25" s="12">
         <v>0</v>
       </c>
       <c r="AA25" s="78">
         <f>((1-W25)^Z26)*V26</f>
-        <v>5.4954021780151026E-3</v>
+        <v>4.7386069745007545E-2</v>
       </c>
       <c r="AB25" s="12">
         <v>0</v>
       </c>
       <c r="AC25" s="79">
         <f>(((1-$W$25)^AB27))*V27</f>
-        <v>5.2164733948264277E-3</v>
+        <v>8.0794886575029173E-2</v>
       </c>
       <c r="AD25" s="12">
         <v>0</v>
       </c>
       <c r="AE25" s="79">
         <f>(((1-$W$25)^AB28))*V28</f>
-        <v>2.9354457603251137E-3</v>
+        <v>8.4920440992009752E-2</v>
       </c>
       <c r="AF25" s="12">
         <v>0</v>
       </c>
       <c r="AG25" s="79">
         <f>(((1-$W$25)^AB29))*V29</f>
-        <v>1.0846093049562092E-3</v>
+        <v>6.1586375297416597E-2</v>
       </c>
       <c r="AH25" s="12">
         <v>0</v>
       </c>
       <c r="AI25" s="79">
         <f>(((1-$W$25)^AB30))*V30</f>
-        <v>2.7501997372188632E-4</v>
+        <v>3.2680518915992399E-2</v>
       </c>
       <c r="AJ25" s="12">
         <v>0</v>
       </c>
       <c r="AK25" s="79">
         <f>(((1-$W$25)^AB31))*V31</f>
-        <v>4.8489555980071033E-5</v>
+        <v>1.3127501291848592E-2</v>
       </c>
       <c r="AL25" s="12">
         <v>0</v>
       </c>
       <c r="AM25" s="79">
         <f>(((1-$W$25)^AB32))*V32</f>
-        <v>5.8754686932217462E-6</v>
+        <v>4.0725428384775038E-3</v>
       </c>
       <c r="AN25" s="12">
         <v>0</v>
       </c>
       <c r="AO25" s="79">
         <f>(((1-$W$25)^AB33))*V33</f>
-        <v>4.6927130816279576E-7</v>
+        <v>9.8631542951983179E-4</v>
       </c>
       <c r="AP25" s="12">
         <v>0</v>
       </c>
       <c r="AQ25" s="79">
         <f>(((1-$W$25)^AB34))*V34</f>
-        <v>2.2453255621508626E-8</v>
+        <v>1.8714381887944406E-4</v>
       </c>
       <c r="AR25" s="12">
         <v>0</v>
       </c>
       <c r="AS25" s="79">
         <f>(((1-$W$25)^AB35))*V35</f>
-        <v>5.0864762000793043E-10</v>
+        <v>3.2709337088653562E-5</v>
       </c>
       <c r="AV25" s="14">
         <v>1</v>
@@ -11919,7 +11914,7 @@
       </c>
       <c r="BJ25" s="107">
         <f t="shared" si="13"/>
-        <v>2.7397798526497145E-2</v>
+        <v>1.5358232836965765E-2</v>
       </c>
       <c r="BP25">
         <f>BP19+1</f>
@@ -11930,7 +11925,7 @@
       </c>
       <c r="BR25" s="107">
         <f t="shared" si="14"/>
-        <v>1.8916089165447994E-3</v>
+        <v>4.5144718428676833E-5</v>
       </c>
     </row>
     <row r="26" spans="1:70" x14ac:dyDescent="0.25">
@@ -11939,11 +11934,11 @@
       </c>
       <c r="B26" s="119">
         <f>1/(1+EXP(-3.1416*4*((B10/(B10+C9))-(3.1416/6))))</f>
-        <v>0.83305468158299556</v>
+        <v>0.33527576640065798</v>
       </c>
       <c r="C26" s="120">
         <f>1/(1+EXP(-3.1416*4*((C10/(C10+B9))-(3.1416/6))))</f>
-        <v>0.39689921429588393</v>
+        <v>0.21042000227768004</v>
       </c>
       <c r="D26" s="153">
         <f>IF(B17="AOW", 0.257+0.04, IF(B17="AIM", 0.257-0.04, IF(B17="TL",(0.257)-(0.257*B32),0.257)))</f>
@@ -11951,63 +11946,63 @@
       </c>
       <c r="E26" s="153">
         <f>IF(C17="AOW", 0.257+0.04, IF(C17="AIM", 0.257-0.04, IF(C17="TL",(0.257)-(0.257*C32),0.257)))</f>
-        <v>0.217</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="G26" s="87">
         <v>1</v>
       </c>
       <c r="H26" s="128">
         <f>L25*J26+L26*J25</f>
-        <v>6.9728187569309374E-2</v>
+        <v>0.35389557422789747</v>
       </c>
       <c r="I26" s="93">
         <v>1</v>
       </c>
       <c r="J26" s="86">
         <f t="shared" si="15"/>
-        <v>8.7780228345806954E-2</v>
+        <v>0.38050379928213635</v>
       </c>
       <c r="K26" s="93">
         <v>1</v>
       </c>
       <c r="L26" s="86">
         <f>T20</f>
-        <v>0.22002686181578135</v>
+        <v>0.25602219665966325</v>
       </c>
       <c r="M26" s="85">
         <v>1</v>
       </c>
       <c r="N26" s="71">
         <f>(($B$24)^M26)*((1-($B$24))^($B$21-M26))*HLOOKUP($B$21,$AV$24:$BF$34,M26+1)</f>
-        <v>0.20809324239863622</v>
+        <v>0.40794152001609918</v>
       </c>
       <c r="O26" s="72">
         <v>1</v>
       </c>
       <c r="P26" s="71">
         <f t="shared" ref="P26:P30" si="16">N26</f>
-        <v>0.20809324239863622</v>
+        <v>0.40794152001609918</v>
       </c>
       <c r="Q26" s="28">
         <v>1</v>
       </c>
       <c r="R26" s="37">
         <f>N26*P25+P26*N25</f>
-        <v>2.1352150028699963E-2</v>
+        <v>0.29478533147516989</v>
       </c>
       <c r="S26" s="72">
         <v>1</v>
       </c>
       <c r="T26" s="135">
         <f t="shared" ref="T26:T35" si="17">(($B$33)^S26)*((1-($B$33))^(INT($C$23*2*(1-$C$31))-S26))*HLOOKUP(INT($C$23*2*(1-$C$31)),$AV$24:$BF$34,S26+1)</f>
-        <v>9.9500000000000005E-3</v>
+        <v>0.27915524505599992</v>
       </c>
       <c r="U26" s="93">
         <v>1</v>
       </c>
       <c r="V26" s="86">
         <f>R26*T25+T26*R25</f>
-        <v>2.116535202227313E-2</v>
+        <v>6.5586643026517982E-2</v>
       </c>
       <c r="W26" s="137"/>
       <c r="X26" s="28">
@@ -12019,70 +12014,70 @@
       </c>
       <c r="AA26" s="79">
         <f>(1-((1-W25)^Z26))*V26</f>
-        <v>1.5669949844258027E-2</v>
+        <v>1.8200573281510434E-2</v>
       </c>
       <c r="AB26" s="28">
         <v>1</v>
       </c>
       <c r="AC26" s="79">
         <f>((($W$25)^M26)*((1-($W$25))^($U$27-M26))*HLOOKUP($U$27,$AV$24:$BF$34,M26+1))*V27</f>
-        <v>2.974918807138555E-2</v>
+        <v>6.2065212911440973E-2</v>
       </c>
       <c r="AD26" s="28">
         <v>1</v>
       </c>
       <c r="AE26" s="79">
         <f>((($W$25)^M26)*((1-($W$25))^($U$28-M26))*HLOOKUP($U$28,$AV$24:$BF$34,M26+1))*V28</f>
-        <v>2.5110967138413497E-2</v>
+        <v>9.7851587039633925E-2</v>
       </c>
       <c r="AF26" s="28">
         <v>1</v>
       </c>
       <c r="AG26" s="79">
         <f>((($W$25)^M26)*((1-($W$25))^($U$29-M26))*HLOOKUP($U$29,$AV$24:$BF$34,M26+1))*V29</f>
-        <v>1.2370904154948022E-2</v>
+        <v>9.4619143792682284E-2</v>
       </c>
       <c r="AH26" s="28">
         <v>1</v>
       </c>
       <c r="AI26" s="79">
         <f>((($W$25)^M26)*((1-($W$25))^($U$30-M26))*HLOOKUP($U$30,$AV$24:$BF$34,M26+1))*V30</f>
-        <v>3.9210498656785256E-3</v>
+        <v>6.2761501703881492E-2</v>
       </c>
       <c r="AJ26" s="28">
         <v>1</v>
       </c>
       <c r="AK26" s="79">
         <f>((($W$25)^M26)*((1-($W$25))^($U$31-M26))*HLOOKUP($U$31,$AV$24:$BF$34,M26+1))*V31</f>
-        <v>8.2959778254391493E-4</v>
+        <v>3.0252947824260443E-2</v>
       </c>
       <c r="AL26" s="28">
         <v>1</v>
       </c>
       <c r="AM26" s="79">
         <f>((($W$25)^Q26)*((1-($W$25))^($U$32-Q26))*HLOOKUP($U$32,$AV$24:$BF$34,Q26+1))*V32</f>
-        <v>1.1727587486105188E-4</v>
+        <v>1.0949595596525872E-2</v>
       </c>
       <c r="AN26" s="28">
         <v>1</v>
       </c>
       <c r="AO26" s="79">
         <f>((($W$25)^Q26)*((1-($W$25))^($U$33-Q26))*HLOOKUP($U$33,$AV$24:$BF$34,Q26+1))*V33</f>
-        <v>1.070488764833787E-5</v>
+        <v>3.0306807633990714E-3</v>
       </c>
       <c r="AP26" s="28">
         <v>1</v>
       </c>
       <c r="AQ26" s="79">
         <f>((($W$25)^Q26)*((1-($W$25))^($U$34-Q26))*HLOOKUP($U$34,$AV$24:$BF$34,Q26+1))*V34</f>
-        <v>5.7622215850411971E-7</v>
+        <v>6.4692267732339363E-4</v>
       </c>
       <c r="AR26" s="28">
         <v>1</v>
       </c>
       <c r="AS26" s="79">
         <f>((($W$25)^Q26)*((1-($W$25))^($U$35-Q26))*HLOOKUP($U$35,$AV$24:$BF$34,Q26+1))*V35</f>
-        <v>1.450391151681707E-8</v>
+        <v>1.256336914783671E-4</v>
       </c>
       <c r="AV26" s="14">
         <v>2</v>
@@ -12127,7 +12122,7 @@
       </c>
       <c r="BJ26" s="107">
         <f t="shared" si="13"/>
-        <v>1.39380773256607E-2</v>
+        <v>4.8922795773674952E-3</v>
       </c>
       <c r="BP26">
         <f>BP20+1</f>
@@ -12138,7 +12133,7 @@
       </c>
       <c r="BR26" s="107">
         <f t="shared" si="14"/>
-        <v>4.6220674557159924E-3</v>
+        <v>6.4655040529909124E-5</v>
       </c>
     </row>
     <row r="27" spans="1:70" x14ac:dyDescent="0.25">
@@ -12147,11 +12142,11 @@
       </c>
       <c r="B27" s="119">
         <f>1/(1+EXP(-3.1416*4*((B12/(B12+C7))-(3.1416/6))))</f>
-        <v>0.84030447395617058</v>
+        <v>0.26686889478396048</v>
       </c>
       <c r="C27" s="120">
         <f>1/(1+EXP(-3.1416*4*((C12/(C12+B7))-(3.1416/6))))</f>
-        <v>0.32719892906119757</v>
+        <v>0.32839636256027932</v>
       </c>
       <c r="D27" s="153">
         <f>D26</f>
@@ -12159,63 +12154,63 @@
       </c>
       <c r="E27" s="153">
         <f>E26</f>
-        <v>0.217</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="G27" s="87">
         <v>2</v>
       </c>
       <c r="H27" s="128">
         <f>L25*J27+J26*L26+J25*L27</f>
-        <v>0.16705993230941013</v>
+        <v>0.25030059527877668</v>
       </c>
       <c r="I27" s="93">
         <v>2</v>
       </c>
       <c r="J27" s="86">
         <f t="shared" si="15"/>
-        <v>0.19632247874047312</v>
+        <v>0.19918106167697677</v>
       </c>
       <c r="K27" s="93">
         <v>2</v>
       </c>
       <c r="L27" s="86">
         <f>U20</f>
-        <v>2.7814909642842278E-2</v>
+        <v>3.8444308463698049E-2</v>
       </c>
       <c r="M27" s="85">
         <v>2</v>
       </c>
       <c r="N27" s="71">
         <f>(($B$24)^M27)*((1-($B$24))^($B$21-M27))*HLOOKUP($B$21,$AV$24:$BF$34,M27+1)</f>
-        <v>0.33761544504881941</v>
+        <v>0.18423742161096268</v>
       </c>
       <c r="O27" s="72">
         <v>2</v>
       </c>
       <c r="P27" s="71">
         <f t="shared" si="16"/>
-        <v>0.33761544504881941</v>
+        <v>0.18423742161096268</v>
       </c>
       <c r="Q27" s="28">
         <v>2</v>
       </c>
       <c r="R27" s="37">
         <f>P25*N27+P26*N26+P27*N25</f>
-        <v>7.7945035557559633E-2</v>
+        <v>0.2995493107554818</v>
       </c>
       <c r="S27" s="72">
         <v>2</v>
       </c>
       <c r="T27" s="135">
         <f t="shared" si="17"/>
-        <v>2.5000000000000001E-5</v>
+        <v>0.32841793535999991</v>
       </c>
       <c r="U27" s="93">
         <v>2</v>
       </c>
       <c r="V27" s="86">
         <f>R27*T25+T26*R26+R25*T27</f>
-        <v>7.7380053523900025E-2</v>
+        <v>0.15477945112193936</v>
       </c>
       <c r="W27" s="137"/>
       <c r="X27" s="28">
@@ -12231,63 +12226,63 @@
       </c>
       <c r="AC27" s="79">
         <f>((($W$25)^M27)*((1-($W$25))^($U$27-M27))*HLOOKUP($U$27,$AV$24:$BF$34,M27+1))*V27</f>
-        <v>4.2414392057688051E-2</v>
+        <v>1.1919351635469229E-2</v>
       </c>
       <c r="AD27" s="28">
         <v>2</v>
       </c>
       <c r="AE27" s="79">
         <f>((($W$25)^M27)*((1-($W$25))^($U$28-M27))*HLOOKUP($U$28,$AV$24:$BF$34,M27+1))*V28</f>
-        <v>7.1603057038106668E-2</v>
+        <v>3.7583935325520228E-2</v>
       </c>
       <c r="AF27" s="28">
         <v>2</v>
       </c>
       <c r="AG27" s="79">
         <f>((($W$25)^M27)*((1-($W$25))^($U$29-M27))*HLOOKUP($U$29,$AV$24:$BF$34,M27+1))*V29</f>
-        <v>5.2912810024627638E-2</v>
+        <v>5.4513573388746545E-2</v>
       </c>
       <c r="AH27" s="28">
         <v>2</v>
       </c>
       <c r="AI27" s="79">
         <f>((($W$25)^M27)*((1-($W$25))^($U$30-M27))*HLOOKUP($U$30,$AV$24:$BF$34,M27+1))*V30</f>
-        <v>2.2361477009935529E-2</v>
+        <v>4.8212283363698302E-2</v>
       </c>
       <c r="AJ27" s="28">
         <v>2</v>
       </c>
       <c r="AK27" s="79">
         <f>((($W$25)^M27)*((1-($W$25))^($U$31-M27))*HLOOKUP($U$31,$AV$24:$BF$34,M27+1))*V31</f>
-        <v>5.913923686685584E-3</v>
+        <v>2.9049729003700279E-2</v>
       </c>
       <c r="AL27" s="28">
         <v>2</v>
       </c>
       <c r="AM27" s="79">
         <f>((($W$25)^Q27)*((1-($W$25))^($U$32-Q27))*HLOOKUP($U$32,$AV$24:$BF$34,Q27+1))*V32</f>
-        <v>1.0032243414500718E-3</v>
+        <v>1.2616930553423011E-2</v>
       </c>
       <c r="AN27" s="28">
         <v>2</v>
       </c>
       <c r="AO27" s="79">
         <f>((($W$25)^Q27)*((1-($W$25))^($U$33-Q27))*HLOOKUP($U$33,$AV$24:$BF$34,Q27+1))*V33</f>
-        <v>1.0683616318953559E-4</v>
+        <v>4.0742025385049176E-3</v>
       </c>
       <c r="AP27" s="28">
         <v>2</v>
       </c>
       <c r="AQ27" s="79">
         <f>((($W$25)^Q27)*((1-($W$25))^($U$34-Q27))*HLOOKUP($U$34,$AV$24:$BF$34,Q27+1))*V34</f>
-        <v>6.5723104736774662E-6</v>
+        <v>9.9390927835587119E-4</v>
       </c>
       <c r="AR27" s="28">
         <v>2</v>
       </c>
       <c r="AS27" s="79">
         <f>((($W$25)^Q27)*((1-($W$25))^($U$35-Q27))*HLOOKUP($U$35,$AV$24:$BF$34,Q27+1))*V35</f>
-        <v>1.8610831635852453E-7</v>
+        <v>2.1714658955838425E-4</v>
       </c>
       <c r="AV27" s="14">
         <v>3</v>
@@ -12329,7 +12324,7 @@
       </c>
       <c r="BJ27" s="107">
         <f t="shared" si="13"/>
-        <v>5.2152030971110248E-3</v>
+        <v>1.1762520108012137E-3</v>
       </c>
       <c r="BP27">
         <f>BP21+1</f>
@@ -12340,7 +12335,7 @@
       </c>
       <c r="BR27" s="107">
         <f t="shared" si="14"/>
-        <v>6.805945145091627E-3</v>
+        <v>5.6466874239703685E-5</v>
       </c>
     </row>
     <row r="28" spans="1:70" x14ac:dyDescent="0.25">
@@ -12364,56 +12359,56 @@
       </c>
       <c r="H28" s="128">
         <f>J28*L25+J27*L26+L28*J25+L27*J26</f>
-        <v>0.24092673703061812</v>
+        <v>0.11203642434370767</v>
       </c>
       <c r="I28" s="93">
         <v>3</v>
       </c>
       <c r="J28" s="86">
         <f t="shared" si="15"/>
-        <v>0.26031355401133055</v>
+        <v>6.4485235254562859E-2</v>
       </c>
       <c r="K28" s="93">
         <v>3</v>
       </c>
       <c r="L28" s="86">
         <f>V20</f>
-        <v>2.0938441554589904E-3</v>
+        <v>3.3441525520496312E-3</v>
       </c>
       <c r="M28" s="85">
         <v>3</v>
       </c>
       <c r="N28" s="71">
         <f>(($B$24)^M28)*((1-($B$24))^($B$21-M28))*HLOOKUP($B$21,$AV$24:$BF$34,M28+1)</f>
-        <v>0.27387767959604681</v>
+        <v>4.1603300787470786E-2</v>
       </c>
       <c r="O28" s="72">
         <v>3</v>
       </c>
       <c r="P28" s="71">
         <f t="shared" si="16"/>
-        <v>0.27387767959604681</v>
+        <v>4.1603300787470786E-2</v>
       </c>
       <c r="Q28" s="28">
         <v>3</v>
       </c>
       <c r="R28" s="37">
         <f>P25*N28+P26*N27+P27*N26+P28*N25</f>
-        <v>0.16861318234576184</v>
+        <v>0.18037942515797528</v>
       </c>
       <c r="S28" s="72">
         <v>3</v>
       </c>
       <c r="T28" s="135">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.20606615551999999</v>
       </c>
       <c r="U28" s="93">
         <v>3</v>
       </c>
       <c r="V28" s="86">
         <f>R28*T25+R27*T26+R26*T27+R25*T28</f>
-        <v>0.16770735275941132</v>
+        <v>0.22516784986572827</v>
       </c>
       <c r="W28" s="137"/>
       <c r="X28" s="28">
@@ -12433,56 +12428,56 @@
       </c>
       <c r="AE28" s="79">
         <f>((($W$25)^M28)*((1-($W$25))^($U$28-M28))*HLOOKUP($U$28,$AV$24:$BF$34,M28+1))*V28</f>
-        <v>6.8057882822566043E-2</v>
+        <v>4.8118865085643942E-3</v>
       </c>
       <c r="AF28" s="28">
         <v>3</v>
       </c>
       <c r="AG28" s="79">
         <f>((($W$25)^M28)*((1-($W$25))^($U$29-M28))*HLOOKUP($U$29,$AV$24:$BF$34,M28+1))*V29</f>
-        <v>0.10058603566471488</v>
+        <v>1.3958789895257655E-2</v>
       </c>
       <c r="AH28" s="28">
         <v>3</v>
       </c>
       <c r="AI28" s="79">
         <f>((($W$25)^M28)*((1-($W$25))^($U$30-M28))*HLOOKUP($U$30,$AV$24:$BF$34,M28+1))*V30</f>
-        <v>6.3762980731608923E-2</v>
+        <v>1.8517914677285249E-2</v>
       </c>
       <c r="AJ28" s="28">
         <v>3</v>
       </c>
       <c r="AK28" s="79">
         <f>((($W$25)^M28)*((1-($W$25))^($U$31-M28))*HLOOKUP($U$31,$AV$24:$BF$34,M28+1))*V31</f>
-        <v>2.24844659956819E-2</v>
+        <v>1.4876994424310976E-2</v>
       </c>
       <c r="AL28" s="28">
         <v>3</v>
       </c>
       <c r="AM28" s="79">
         <f>((($W$25)^Q28)*((1-($W$25))^($U$32-Q28))*HLOOKUP($U$32,$AV$24:$BF$34,Q28+1))*V32</f>
-        <v>4.7677660353815775E-3</v>
+        <v>8.0767537225254274E-3</v>
       </c>
       <c r="AN28" s="28">
         <v>3</v>
       </c>
       <c r="AO28" s="79">
         <f>((($W$25)^Q28)*((1-($W$25))^($U$33-Q28))*HLOOKUP($U$33,$AV$24:$BF$34,Q28+1))*V33</f>
-        <v>6.0927927183581211E-4</v>
+        <v>3.1297308371343513E-3</v>
       </c>
       <c r="AP28" s="28">
         <v>3</v>
       </c>
       <c r="AQ28" s="79">
         <f>((($W$25)^Q28)*((1-($W$25))^($U$34-Q28))*HLOOKUP($U$34,$AV$24:$BF$34,Q28+1))*V34</f>
-        <v>4.3728339014507587E-5</v>
+        <v>8.9075426085226568E-4</v>
       </c>
       <c r="AR28" s="28">
         <v>3</v>
       </c>
       <c r="AS28" s="79">
         <f>((($W$25)^Q28)*((1-($W$25))^($U$35-Q28))*HLOOKUP($U$35,$AV$24:$BF$34,Q28+1))*V35</f>
-        <v>1.4151505269159312E-6</v>
+        <v>2.2241092863253454E-4</v>
       </c>
       <c r="AV28" s="14">
         <v>4</v>
@@ -12521,7 +12516,7 @@
       </c>
       <c r="BJ28" s="107">
         <f t="shared" si="13"/>
-        <v>1.4356877318554419E-3</v>
+        <v>2.1430444189885002E-4</v>
       </c>
       <c r="BP28">
         <f>BP22+1</f>
@@ -12532,7 +12527,7 @@
       </c>
       <c r="BR28" s="107">
         <f t="shared" si="14"/>
-        <v>6.7277501816944054E-3</v>
+        <v>3.3592714294542256E-5</v>
       </c>
     </row>
     <row r="29" spans="1:70" x14ac:dyDescent="0.25">
@@ -12541,11 +12536,11 @@
       </c>
       <c r="B29" s="123">
         <f>1/(1+EXP(-3.1416*4*((B14/(B14+C13))-(3.1416/6))))</f>
-        <v>0.3744368526170076</v>
+        <v>0.61657927368868204</v>
       </c>
       <c r="C29" s="118">
         <f>1/(1+EXP(-3.1416*4*((C14/(C14+B13))-(3.1416/6))))</f>
-        <v>0.42639691249266598</v>
+        <v>9.7969192120322693E-2</v>
       </c>
       <c r="D29" s="153">
         <v>0.04</v>
@@ -12558,14 +12553,14 @@
       </c>
       <c r="H29" s="128">
         <f>J29*L25+J28*L26+J27*L27+J26*L28</f>
-        <v>0.23292970080547629</v>
+        <v>3.5585965866395335E-2</v>
       </c>
       <c r="I29" s="93">
         <v>4</v>
       </c>
       <c r="J29" s="86">
         <f t="shared" si="15"/>
-        <v>0.2266595239585015</v>
+        <v>1.4449768383192368E-2</v>
       </c>
       <c r="K29" s="93">
         <v>4</v>
@@ -12576,35 +12571,35 @@
       </c>
       <c r="N29" s="71">
         <f>(($B$24)^M29)*((1-($B$24))^($B$21-M29))*HLOOKUP($B$21,$AV$24:$BF$34,M29+1)</f>
-        <v>0.11108642166839927</v>
+        <v>4.6972939082582594E-3</v>
       </c>
       <c r="O29" s="72">
         <v>4</v>
       </c>
       <c r="P29" s="71">
         <f t="shared" si="16"/>
-        <v>0.11108642166839927</v>
+        <v>4.6972939082582594E-3</v>
       </c>
       <c r="Q29" s="28">
         <v>4</v>
       </c>
       <c r="R29" s="37">
         <f>P25*N29+P26*N28+P27*N27+P28*N26+P29*N25</f>
-        <v>0.23936679634457605</v>
+        <v>7.1281197795896797E-2</v>
       </c>
       <c r="S29" s="72">
         <v>4</v>
       </c>
       <c r="T29" s="135">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>7.272923135999998E-2</v>
       </c>
       <c r="U29" s="93">
         <v>4</v>
       </c>
       <c r="V29" s="86">
         <f>T29*R25+T28*R26+T27*R27+T26*R28+T25*R29</f>
-        <v>0.2386587623412682</v>
+        <v>0.2260182445299907</v>
       </c>
       <c r="W29" s="137"/>
       <c r="X29" s="28">
@@ -12628,49 +12623,49 @@
       </c>
       <c r="AG29" s="79">
         <f>((($W$25)^M29)*((1-($W$25))^($U$29-M29))*HLOOKUP($U$29,$AV$24:$BF$34,M29+1))*V29</f>
-        <v>7.1704403192021468E-2</v>
+        <v>1.3403621558876551E-3</v>
       </c>
       <c r="AH29" s="28">
         <v>4</v>
       </c>
       <c r="AI29" s="79">
         <f>((($W$25)^M29)*((1-($W$25))^($U$30-M29))*HLOOKUP($U$30,$AV$24:$BF$34,M29+1))*V30</f>
-        <v>9.090897059199339E-2</v>
+        <v>3.5562842088227528E-3</v>
       </c>
       <c r="AJ29" s="28">
         <v>4</v>
       </c>
       <c r="AK29" s="79">
         <f>((($W$25)^M29)*((1-($W$25))^($U$31-M29))*HLOOKUP($U$31,$AV$24:$BF$34,M29+1))*V31</f>
-        <v>4.808525968810707E-2</v>
+        <v>4.2855921901523856E-3</v>
       </c>
       <c r="AL29" s="28">
         <v>4</v>
       </c>
       <c r="AM29" s="79">
         <f>((($W$25)^Q29)*((1-($W$25))^($U$32-Q29))*HLOOKUP($U$32,$AV$24:$BF$34,Q29+1))*V32</f>
-        <v>1.3595120470431373E-2</v>
+        <v>3.1022101810632636E-3</v>
       </c>
       <c r="AN29" s="28">
         <v>4</v>
       </c>
       <c r="AO29" s="79">
         <f>((($W$25)^Q29)*((1-($W$25))^($U$33-Q29))*HLOOKUP($U$33,$AV$24:$BF$34,Q29+1))*V33</f>
-        <v>2.1716735467079288E-3</v>
+        <v>1.5026276646067545E-3</v>
       </c>
       <c r="AP29" s="28">
         <v>4</v>
       </c>
       <c r="AQ29" s="79">
         <f>((($W$25)^Q29)*((1-($W$25))^($U$34-Q29))*HLOOKUP($U$34,$AV$24:$BF$34,Q29+1))*V34</f>
-        <v>1.8703477660052042E-4</v>
+        <v>5.1319633452510808E-4</v>
       </c>
       <c r="AR29" s="28">
         <v>4</v>
       </c>
       <c r="AS29" s="79">
         <f>((($W$25)^Q29)*((1-($W$25))^($U$35-Q29))*HLOOKUP($U$35,$AV$24:$BF$34,Q29+1))*V35</f>
-        <v>7.0616926397551948E-6</v>
+        <v>1.4949564813445006E-4</v>
       </c>
       <c r="AV29" s="14">
         <v>5</v>
@@ -12706,7 +12701,7 @@
       </c>
       <c r="BJ29" s="107">
         <f t="shared" si="13"/>
-        <v>2.8806848541094326E-4</v>
+        <v>2.9356535737153192E-5</v>
       </c>
       <c r="BP29">
         <f>BP23+1</f>
@@ -12717,7 +12712,7 @@
       </c>
       <c r="BR29" s="107">
         <f t="shared" si="14"/>
-        <v>4.7071183366426007E-3</v>
+        <v>1.4400212586294589E-5</v>
       </c>
     </row>
     <row r="30" spans="1:70" x14ac:dyDescent="0.25">
@@ -12743,14 +12738,14 @@
       </c>
       <c r="H30" s="128">
         <f>J30*L25+J29*L26+J28*L27+J27*L28</f>
-        <v>0.15912747345079836</v>
+        <v>8.5118270748929907E-3</v>
       </c>
       <c r="I30" s="93">
         <v>5</v>
       </c>
       <c r="J30" s="86">
         <f t="shared" si="15"/>
-        <v>0.13546120193189345</v>
+        <v>2.3742648891223132E-3</v>
       </c>
       <c r="K30" s="93">
         <v>5</v>
@@ -12761,35 +12756,35 @@
       </c>
       <c r="N30" s="71">
         <f>(($B$24)^M30)*((1-($B$24))^($B$21-M30))*HLOOKUP($B$21,$AV$24:$BF$34,M30+1)</f>
-        <v>1.8022926289269655E-2</v>
+        <v>2.1214249487824392E-4</v>
       </c>
       <c r="O30" s="72">
         <v>5</v>
       </c>
       <c r="P30" s="71">
         <f t="shared" si="16"/>
-        <v>1.8022926289269655E-2</v>
+        <v>2.1214249487824392E-4</v>
       </c>
       <c r="Q30" s="28">
         <v>5</v>
       </c>
       <c r="R30" s="37">
         <f>P25*N30+P26*N29+P27*N28+P28*N27+P29*N26+P30*N25</f>
-        <v>0.23301264340810843</v>
+        <v>1.9315509866324156E-2</v>
       </c>
       <c r="S30" s="72">
         <v>5</v>
       </c>
       <c r="T30" s="135">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1.3690208256E-2</v>
       </c>
       <c r="U30" s="93">
         <v>5</v>
       </c>
       <c r="V30" s="86">
         <f>T30*R25+T29*R26+T28*R27+T27*R28+T26*R29+T25*R30</f>
-        <v>0.23307425724329975</v>
+        <v>0.16600169037689846</v>
       </c>
       <c r="W30" s="137"/>
       <c r="X30" s="28">
@@ -12817,42 +12812,42 @@
       </c>
       <c r="AI30" s="79">
         <f>((($W$25)^M30)*((1-($W$25))^($U$30-M30))*HLOOKUP($U$30,$AV$24:$BF$34,M30+1))*V30</f>
-        <v>5.1844759070361505E-2</v>
+        <v>2.7318750721830548E-4</v>
       </c>
       <c r="AJ30" s="28">
         <v>5</v>
       </c>
       <c r="AK30" s="79">
         <f>((($W$25)^M30)*((1-($W$25))^($U$31-M30))*HLOOKUP($U$31,$AV$24:$BF$34,M30+1))*V31</f>
-        <v>5.4845384061256545E-2</v>
+        <v>6.5842333100229469E-4</v>
       </c>
       <c r="AL30" s="28">
         <v>5</v>
       </c>
       <c r="AM30" s="79">
         <f>((($W$25)^Q30)*((1-($W$25))^($U$32-Q30))*HLOOKUP($U$32,$AV$24:$BF$34,Q30+1))*V32</f>
-        <v>2.3259610379444705E-2</v>
+        <v>7.1491901361207561E-4</v>
       </c>
       <c r="AN30" s="28">
         <v>5</v>
       </c>
       <c r="AO30" s="79">
         <f>((($W$25)^Q30)*((1-($W$25))^($U$33-Q30))*HLOOKUP($U$33,$AV$24:$BF$34,Q30+1))*V33</f>
-        <v>4.9539617960855506E-3</v>
+        <v>4.6171687285597682E-4</v>
       </c>
       <c r="AP30" s="28">
         <v>5</v>
       </c>
       <c r="AQ30" s="79">
         <f>((($W$25)^Q30)*((1-($W$25))^($U$34-Q30))*HLOOKUP($U$34,$AV$24:$BF$34,Q30+1))*V34</f>
-        <v>5.3332321703172445E-4</v>
+        <v>1.9711420560070524E-4</v>
       </c>
       <c r="AR30" s="28">
         <v>5</v>
       </c>
       <c r="AS30" s="79">
         <f>((($W$25)^Q30)*((1-($W$25))^($U$35-Q30))*HLOOKUP($U$35,$AV$24:$BF$34,Q30+1))*V35</f>
-        <v>2.4163407713427417E-5</v>
+        <v>6.8903958832955336E-5</v>
       </c>
       <c r="AV30" s="29">
         <v>6</v>
@@ -12884,7 +12879,7 @@
       </c>
       <c r="BJ30" s="107">
         <f t="shared" si="13"/>
-        <v>4.1285100303729422E-5</v>
+        <v>2.9530518573852834E-6</v>
       </c>
       <c r="BP30">
         <f>BL10+1</f>
@@ -12895,7 +12890,7 @@
       </c>
       <c r="BR30" s="107">
         <f t="shared" si="14"/>
-        <v>2.3946515006929665E-3</v>
+        <v>4.5871075594135703E-6</v>
       </c>
     </row>
     <row r="31" spans="1:70" x14ac:dyDescent="0.25">
@@ -12904,25 +12899,25 @@
       </c>
       <c r="B31" s="60">
         <f>(B25*D25)+(B26*D26)+(B27*D27)+(B28*D28)+(B29*D29)+(B30*D30)/(B25+B26+B27+B28+B29+B30)</f>
-        <v>0.74035857413417572</v>
+        <v>0.27750426674759959</v>
       </c>
       <c r="C31" s="61">
         <f>(C25*E25)+(C26*E26)+(C27*E27)+(C28*E28)+(C29*E29)+(C30*E30)/(C25+C26+C27+C28+C29+C30)</f>
-        <v>0.60546237696413152</v>
+        <v>0.26295685658074053</v>
       </c>
       <c r="G31" s="87">
         <v>6</v>
       </c>
       <c r="H31" s="128">
         <f>J31*L25+J30*L26+J29*L27+J28*L28</f>
-        <v>7.8888716950055476E-2</v>
+        <v>1.5860851512725454E-3</v>
       </c>
       <c r="I31" s="93">
         <v>6</v>
       </c>
       <c r="J31" s="86">
         <f t="shared" si="15"/>
-        <v>5.6307224390497679E-2</v>
+        <v>2.9487890149907547E-4</v>
       </c>
       <c r="K31" s="93">
         <v>6</v>
@@ -12937,21 +12932,21 @@
       </c>
       <c r="R31" s="37">
         <f>P26*N30+P27*N29+P28*N28+P29*N27+P30*N26</f>
-        <v>0.15751886509992122</v>
+        <v>3.6347527364668114E-3</v>
       </c>
       <c r="S31" s="70">
         <v>6</v>
       </c>
       <c r="T31" s="135">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1.073741824E-3</v>
       </c>
       <c r="U31" s="93">
         <v>6</v>
       </c>
       <c r="V31" s="86">
         <f>T31*R25+T30*R26+T29*R27+T28*R28+T27*R29+T26*R30+T25*R31</f>
-        <v>0.15827207439236882</v>
+        <v>9.2293337168554493E-2</v>
       </c>
       <c r="W31" s="137"/>
       <c r="X31" s="28">
@@ -12983,35 +12978,35 @@
       </c>
       <c r="AK31" s="79">
         <f>((($W$25)^Q31)*((1-($W$25))^($U$31-Q31))*HLOOKUP($U$31,$AV$24:$BF$34,Q31+1))*V31</f>
-        <v>2.6064953622113734E-2</v>
+        <v>4.2149103279542171E-5</v>
       </c>
       <c r="AL31" s="28">
         <v>6</v>
       </c>
       <c r="AM31" s="79">
         <f>((($W$25)^Q31)*((1-($W$25))^($U$32-Q31))*HLOOKUP($U$32,$AV$24:$BF$34,Q31+1))*V32</f>
-        <v>2.2107992356532026E-2</v>
+        <v>9.1531371755533287E-5</v>
       </c>
       <c r="AN31" s="28">
         <v>6</v>
       </c>
       <c r="AO31" s="79">
         <f>((($W$25)^Q31)*((1-($W$25))^($U$33-Q31))*HLOOKUP($U$33,$AV$24:$BF$34,Q31+1))*V33</f>
-        <v>7.0630256312805267E-3</v>
+        <v>8.8670698213058852E-5</v>
       </c>
       <c r="AP31" s="28">
         <v>6</v>
       </c>
       <c r="AQ31" s="79">
         <f>((($W$25)^Q31)*((1-($W$25))^($U$34-Q31))*HLOOKUP($U$34,$AV$24:$BF$34,Q31+1))*V34</f>
-        <v>1.013835177232227E-3</v>
+        <v>5.047322364523003E-5</v>
       </c>
       <c r="AR31" s="28">
         <v>6</v>
       </c>
       <c r="AS31" s="79">
         <f>((($W$25)^Q31)*((1-($W$25))^($U$35-Q31))*HLOOKUP($U$35,$AV$24:$BF$34,Q31+1))*V35</f>
-        <v>5.7417603339167996E-5</v>
+        <v>2.2054504605711144E-5</v>
       </c>
       <c r="AV31" s="14">
         <v>7</v>
@@ -13039,7 +13034,7 @@
       </c>
       <c r="BJ31" s="107">
         <f t="shared" ref="BJ31:BJ37" si="20">$H$28*H43</f>
-        <v>5.6473292088978159E-2</v>
+        <v>1.6036692341989418E-2</v>
       </c>
       <c r="BP31">
         <f t="shared" ref="BP31:BP37" si="21">BP24+1</f>
@@ -13050,7 +13045,7 @@
       </c>
       <c r="BR31" s="107">
         <f t="shared" ref="BR31:BR38" si="22">$H$33*H39</f>
-        <v>9.4245156232415137E-5</v>
+        <v>1.7182075895467462E-6</v>
       </c>
     </row>
     <row r="32" spans="1:70" x14ac:dyDescent="0.25">
@@ -13070,14 +13065,14 @@
       </c>
       <c r="H32" s="128">
         <f>J32*L25+J31*L26+J30*L27+J29*L28</f>
-        <v>2.8701972895062194E-2</v>
+        <v>2.3468727299244177E-4</v>
       </c>
       <c r="I32" s="93">
         <v>7</v>
       </c>
       <c r="J32" s="86">
         <f t="shared" si="15"/>
-        <v>1.6092538793693108E-2</v>
+        <v>2.7902057342645357E-5</v>
       </c>
       <c r="K32" s="93">
         <v>7</v>
@@ -13092,7 +13087,7 @@
       </c>
       <c r="R32" s="37">
         <f>P27*N30+P28*N29+P29*N28+P30*N27</f>
-        <v>7.3017819362806102E-2</v>
+        <v>4.6901503524581417E-4</v>
       </c>
       <c r="S32" s="72">
         <v>7</v>
@@ -13106,7 +13101,7 @@
       </c>
       <c r="V32" s="86">
         <f>T32*R25+T31*R26+T30*R27+T29*R28+T28*R29+T27*R30+T26*R31+T25*R32</f>
-        <v>7.3862604638491522E-2</v>
+        <v>3.9629505619687547E-2</v>
       </c>
       <c r="W32" s="137"/>
       <c r="X32" s="28">
@@ -13142,28 +13137,28 @@
       </c>
       <c r="AM32" s="79">
         <f>((($W$25)^Q32)*((1-($W$25))^($U$32-Q32))*HLOOKUP($U$32,$AV$24:$BF$34,Q32+1))*V32</f>
-        <v>9.0057397116974965E-3</v>
+        <v>5.0223423048719767E-6</v>
       </c>
       <c r="AN32" s="28">
         <v>7</v>
       </c>
       <c r="AO32" s="79">
         <f>((($W$25)^Q32)*((1-($W$25))^($U$33-Q32))*HLOOKUP($U$33,$AV$24:$BF$34,Q32+1))*V33</f>
-        <v>5.7542783068284141E-3</v>
+        <v>9.7307532990416462E-6</v>
       </c>
       <c r="AP32" s="28">
         <v>7</v>
       </c>
       <c r="AQ32" s="79">
         <f>((($W$25)^Q32)*((1-($W$25))^($U$34-Q32))*HLOOKUP($U$34,$AV$24:$BF$34,Q32+1))*V34</f>
-        <v>1.2389640229839986E-3</v>
+        <v>8.3084237081166347E-6</v>
       </c>
       <c r="AR32" s="28">
         <v>7</v>
       </c>
       <c r="AS32" s="79">
         <f>((($W$25)^Q32)*((1-($W$25))^($U$35-Q32))*HLOOKUP($U$35,$AV$24:$BF$34,Q32+1))*V35</f>
-        <v>9.3556752183200623E-5</v>
+        <v>4.8405380306150998E-6</v>
       </c>
       <c r="AV32" s="14">
         <v>8</v>
@@ -13187,7 +13182,7 @@
       </c>
       <c r="BJ32" s="107">
         <f t="shared" si="20"/>
-        <v>3.9511941071458355E-2</v>
+        <v>6.8744602439931171E-3</v>
       </c>
       <c r="BP32">
         <f t="shared" si="21"/>
@@ -13198,7 +13193,7 @@
       </c>
       <c r="BR32" s="107">
         <f t="shared" si="22"/>
-        <v>5.052624525343065E-4</v>
+        <v>5.347196783256092E-6</v>
       </c>
     </row>
     <row r="33" spans="1:70" x14ac:dyDescent="0.25">
@@ -13207,7 +13202,7 @@
       </c>
       <c r="B33" s="75">
         <f>IF(B17&lt;&gt;"CA",0.005,IF((B18-B16)&lt;0,0.1,0.1+0.055*(B18-B16)))</f>
-        <v>5.0000000000000001E-3</v>
+        <v>0.32</v>
       </c>
       <c r="C33" s="58">
         <f>IF(C17&lt;&gt;"CA",0.005,IF((C18-C16)&lt;0,0.1,0.1+0.055*(C18-C16)))</f>
@@ -13218,14 +13213,14 @@
       </c>
       <c r="H33" s="128">
         <f>J33*L25+J32*L26+J31*L27+J30*L28</f>
-        <v>7.6665050004213493E-3</v>
+        <v>2.7797693171991945E-5</v>
       </c>
       <c r="I33" s="93">
         <v>8</v>
       </c>
       <c r="J33" s="86">
         <f t="shared" si="15"/>
-        <v>3.0342717688724083E-3</v>
+        <v>1.9621883157263537E-6</v>
       </c>
       <c r="K33" s="93">
         <v>8</v>
@@ -13240,7 +13235,7 @@
       </c>
       <c r="R33" s="37">
         <f>P28*N30+P29*N29+P30*N28</f>
-        <v>2.2212347542360934E-2</v>
+        <v>3.9716226109008277E-5</v>
       </c>
       <c r="S33" s="72">
         <v>8</v>
@@ -13254,7 +13249,7 @@
       </c>
       <c r="V33" s="86">
         <f>T33*R25+T32*R26+T31*R27+T30*R28+T29*R29+T28*R30+T27*R31+T26*R32+T25*R33</f>
-        <v>2.2721244649913305E-2</v>
+        <v>1.3284142744644784E-2</v>
       </c>
       <c r="W33" s="137"/>
       <c r="X33" s="28">
@@ -13294,21 +13289,21 @@
       </c>
       <c r="AO33" s="79">
         <f>((($W$25)^Q33)*((1-($W$25))^($U$33-Q33))*HLOOKUP($U$33,$AV$24:$BF$34,Q33+1))*V33</f>
-        <v>2.0510157750290377E-3</v>
+        <v>4.6718711178343257E-7</v>
       </c>
       <c r="AP33" s="28">
         <v>8</v>
       </c>
       <c r="AQ33" s="79">
         <f>((($W$25)^Q33)*((1-($W$25))^($U$34-Q33))*HLOOKUP($U$34,$AV$24:$BF$34,Q33+1))*V34</f>
-        <v>8.8321579886677993E-4</v>
+        <v>7.9779814704588056E-7</v>
       </c>
       <c r="AR33" s="28">
         <v>8</v>
       </c>
       <c r="AS33" s="79">
         <f>((($W$25)^Q33)*((1-($W$25))^($U$35-Q33))*HLOOKUP($U$35,$AV$24:$BF$34,Q33+1))*V35</f>
-        <v>1.0004019497659063E-4</v>
+        <v>6.9720305689704076E-7</v>
       </c>
       <c r="AV33" s="29">
         <v>9</v>
@@ -13329,7 +13324,7 @@
       </c>
       <c r="BJ33" s="107">
         <f t="shared" si="20"/>
-        <v>2.0100902976139447E-2</v>
+        <v>2.1898210434838495E-3</v>
       </c>
       <c r="BP33">
         <f t="shared" si="21"/>
@@ -13340,7 +13335,7 @@
       </c>
       <c r="BR33" s="107">
         <f t="shared" si="22"/>
-        <v>1.2345877194953241E-3</v>
+        <v>7.6581101129033063E-6</v>
       </c>
     </row>
     <row r="34" spans="1:70" x14ac:dyDescent="0.25">
@@ -13349,25 +13344,25 @@
       </c>
       <c r="B34" s="56">
         <f>B23*2</f>
-        <v>4.4788349788087212</v>
+        <v>1.8421523074157227</v>
       </c>
       <c r="C34" s="57">
         <f>C23*2</f>
-        <v>5.5211650211912788</v>
+        <v>8.1578476925842764</v>
       </c>
       <c r="G34" s="87">
         <v>9</v>
       </c>
       <c r="H34" s="128">
         <f>J34*L25+J33*L26+J32*L27+J31*L28</f>
-        <v>1.4905696028388136E-3</v>
+        <v>2.6268533069554845E-6</v>
       </c>
       <c r="I34" s="93">
         <v>9</v>
       </c>
       <c r="J34" s="86">
         <f t="shared" si="15"/>
-        <v>3.4322019259412509E-4</v>
+        <v>9.3556267373190391E-8</v>
       </c>
       <c r="K34" s="93">
         <v>9</v>
@@ -13382,7 +13377,7 @@
       </c>
       <c r="R34" s="37">
         <f>P29*N30+P30*N29</f>
-        <v>4.0042047789365749E-3</v>
+        <v>1.9929912977485682E-6</v>
       </c>
       <c r="S34" s="72">
         <v>9</v>
@@ -13396,7 +13391,7 @@
       </c>
       <c r="V34" s="86">
         <f>T34*R25+T33*R26+T32*R27+T31*R28+T30*R29+T29*R30+T28*R31+T27*R32+T26*R33+T25*R34</f>
-        <v>4.1871011397972445E-3</v>
+        <v>3.4886540685108059E-3</v>
       </c>
       <c r="W34" s="137"/>
       <c r="X34" s="28">
@@ -13440,14 +13435,14 @@
       </c>
       <c r="AQ34" s="79">
         <f>((($W$25)^Q34)*((1-($W$25))^($U$34-Q34))*HLOOKUP($U$34,$AV$24:$BF$34,Q34+1))*V34</f>
-        <v>2.7982882217968396E-4</v>
+        <v>3.4047473626504891E-8</v>
       </c>
       <c r="AR34" s="28">
         <v>9</v>
       </c>
       <c r="AS34" s="79">
         <f>((($W$25)^Q34)*((1-($W$25))^($U$35-Q34))*HLOOKUP($U$35,$AV$24:$BF$34,Q34+1))*V35</f>
-        <v>6.3391370414441148E-5</v>
+        <v>5.9508793746685494E-8</v>
       </c>
       <c r="AV34" s="14">
         <v>10</v>
@@ -13465,7 +13460,7 @@
       </c>
       <c r="BJ34" s="107">
         <f t="shared" si="20"/>
-        <v>7.521144344843949E-3</v>
+        <v>5.2649922494386588E-4</v>
       </c>
       <c r="BP34">
         <f t="shared" si="21"/>
@@ -13476,7 +13471,7 @@
       </c>
       <c r="BR34" s="107">
         <f t="shared" si="22"/>
-        <v>1.8179172797008281E-3</v>
+        <v>6.6882572049285787E-6</v>
       </c>
     </row>
     <row r="35" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13485,14 +13480,14 @@
       </c>
       <c r="H35" s="129">
         <f>J35*L25+J34*L26+J33*L27+J32*L28</f>
-        <v>2.0716896211049008E-4</v>
+        <v>1.9430117072301533E-7</v>
       </c>
       <c r="I35" s="94">
         <v>10</v>
       </c>
       <c r="J35" s="89">
         <f t="shared" si="15"/>
-        <v>1.8075830717668451E-5</v>
+        <v>2.2856805118237326E-9</v>
       </c>
       <c r="K35" s="94">
         <v>10</v>
@@ -13507,7 +13502,7 @@
       </c>
       <c r="R35" s="37">
         <f>P30*N30</f>
-        <v>3.2482587202844728E-4</v>
+        <v>4.5004438133165747E-8</v>
       </c>
       <c r="S35" s="72">
         <v>10</v>
@@ -13521,7 +13516,7 @@
       </c>
       <c r="V35" s="89">
         <f>IF(((T35*R25+T34*R26+T33*R27+T32*R28+T31*R29+T30*R30+T29*R31+T28*R32+T27*R33+T26*R34+T25*R35)+V23)&lt;&gt;1,1-V23,(T35*R25+T34*R26+T33*R27+T32*R28+T31*R29+T30*R30+T29*R31+T28*R32+T27*R33+T26*R34+T25*R35))</f>
-        <v>3.6532312338666273E-4</v>
+        <v>8.4395419389282633E-4</v>
       </c>
       <c r="W35" s="137"/>
       <c r="X35" s="28">
@@ -13569,7 +13564,7 @@
       </c>
       <c r="AS35" s="79">
         <f>((($W$25)^Q35)*((1-($W$25))^($U$35-Q35))*HLOOKUP($U$35,$AV$24:$BF$34,Q35+1))*V35</f>
-        <v>1.8075830717668451E-5</v>
+        <v>2.2856805118237326E-9</v>
       </c>
       <c r="BH35">
         <f t="shared" si="19"/>
@@ -13580,7 +13575,7 @@
       </c>
       <c r="BJ35" s="107">
         <f t="shared" si="20"/>
-        <v>2.0704878533662442E-3</v>
+        <v>9.5924276027308498E-5</v>
       </c>
       <c r="BP35">
         <f t="shared" si="21"/>
@@ -13591,14 +13586,14 @@
       </c>
       <c r="BR35" s="107">
         <f t="shared" si="22"/>
-        <v>1.7970308381978575E-3</v>
+        <v>3.9789118211116073E-6</v>
       </c>
     </row>
     <row r="36" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="108">
         <f>SUM(B37:B39)</f>
-        <v>0.99974583015697527</v>
+        <v>0.99999892839361859</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
@@ -13623,7 +13618,7 @@
       <c r="X36" s="13"/>
       <c r="AS36" s="82">
         <f>Y37+AA37+AC37+AE37+AG37+AI37+AK37+AM37+AO37+AQ37+AS37</f>
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="BH36">
         <f t="shared" si="19"/>
@@ -13634,7 +13629,7 @@
       </c>
       <c r="BJ36" s="107">
         <f t="shared" si="20"/>
-        <v>4.1544013140667021E-4</v>
+        <v>1.3140205645319105E-5</v>
       </c>
       <c r="BP36">
         <f t="shared" si="21"/>
@@ -13645,7 +13640,7 @@
       </c>
       <c r="BR36" s="107">
         <f t="shared" si="22"/>
-        <v>1.2573054262640549E-3</v>
+        <v>1.705642943399684E-6</v>
       </c>
     </row>
     <row r="37" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13654,17 +13649,17 @@
       </c>
       <c r="B37" s="107">
         <f>SUM(BN4:BN14)</f>
-        <v>0.17703276787260702</v>
+        <v>0.18433662404360182</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="59">
         <f>SUM(H39:H49)</f>
-        <v>0.99997407837822405</v>
+        <v>0.99999913384444827</v>
       </c>
       <c r="I37" s="13"/>
       <c r="J37" s="59">
         <f>SUM(J39:J49)</f>
-        <v>0.99999999999999989</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="K37" s="59"/>
       <c r="L37" s="59">
@@ -13674,17 +13669,17 @@
       <c r="M37" s="13"/>
       <c r="N37" s="74">
         <f>SUM(N39:N49)</f>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="O37" s="13"/>
       <c r="P37" s="74">
         <f>SUM(P39:P49)</f>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="Q37" s="13"/>
       <c r="R37" s="59">
         <f>SUM(R39:R49)</f>
-        <v>1.0000000000000002</v>
+        <v>1.0000000000000004</v>
       </c>
       <c r="S37" s="13"/>
       <c r="T37" s="59">
@@ -13694,63 +13689,63 @@
       <c r="U37" s="13"/>
       <c r="V37" s="59">
         <f>SUM(V39:V48)</f>
-        <v>0.99726110959061565</v>
+        <v>0.86798237038703019</v>
       </c>
       <c r="W37" s="13"/>
       <c r="X37" s="13"/>
       <c r="Y37" s="80">
         <f>SUM(Y39:Y49)</f>
-        <v>3.2320174266830501E-4</v>
+        <v>4.4779415942500069E-8</v>
       </c>
       <c r="Z37" s="81"/>
       <c r="AA37" s="80">
         <f>SUM(AA39:AA49)</f>
-        <v>3.9858078844020343E-3</v>
+        <v>1.983251363450497E-6</v>
       </c>
       <c r="AB37" s="81"/>
       <c r="AC37" s="80">
         <f>SUM(AC39:AC49)</f>
-        <v>2.212130682854381E-2</v>
+        <v>3.9527609934952076E-5</v>
       </c>
       <c r="AD37" s="81"/>
       <c r="AE37" s="80">
         <f>SUM(AE39:AE49)</f>
-        <v>7.2763792003703864E-2</v>
+        <v>4.6686854120013105E-4</v>
       </c>
       <c r="AF37" s="81"/>
       <c r="AG37" s="80">
         <f>SUM(AG39:AG49)</f>
-        <v>0.15709635987123566</v>
+        <v>3.6189240479607122E-3</v>
       </c>
       <c r="AH37" s="81"/>
       <c r="AI37" s="80">
         <f>SUM(AI39:AI49)</f>
-        <v>0.23263517451656746</v>
+        <v>1.9237106080674887E-2</v>
       </c>
       <c r="AJ37" s="81"/>
       <c r="AK37" s="80">
         <f>SUM(AK39:AK49)</f>
-        <v>0.2393350255798937</v>
+        <v>7.1021369356249003E-2</v>
       </c>
       <c r="AL37" s="81"/>
       <c r="AM37" s="80">
         <f>SUM(AM39:AM49)</f>
-        <v>0.16896695041575588</v>
+        <v>0.17983393402116502</v>
       </c>
       <c r="AN37" s="81"/>
       <c r="AO37" s="80">
         <f>SUM(AO39:AO49)</f>
-        <v>7.8398376291500621E-2</v>
+        <v>0.29895346132749445</v>
       </c>
       <c r="AP37" s="81"/>
       <c r="AQ37" s="80">
         <f>SUM(AQ39:AQ49)</f>
-        <v>2.1635114456344254E-2</v>
+        <v>0.29480915137157149</v>
       </c>
       <c r="AR37" s="81"/>
       <c r="AS37" s="80">
         <f>SUM(AS39:AS49)</f>
-        <v>2.7388904093843536E-3</v>
+        <v>0.13201762961296976</v>
       </c>
       <c r="BH37">
         <f t="shared" si="19"/>
@@ -13761,7 +13756,7 @@
       </c>
       <c r="BJ37" s="107">
         <f t="shared" si="20"/>
-        <v>5.9539617708794177E-5</v>
+        <v>1.3218081668343713E-6</v>
       </c>
       <c r="BP37">
         <f t="shared" si="21"/>
@@ -13772,7 +13767,7 @@
       </c>
       <c r="BR37" s="107">
         <f t="shared" si="22"/>
-        <v>6.39628772957537E-4</v>
+        <v>5.4332306502027392E-7</v>
       </c>
     </row>
     <row r="38" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13781,7 +13776,7 @@
       </c>
       <c r="B38" s="107">
         <f>SUM(BJ4:BJ59)</f>
-        <v>0.42248056687842694</v>
+        <v>0.63392873230444247</v>
       </c>
       <c r="G38" s="103" t="str">
         <f t="shared" ref="G38:T38" si="23">G24</f>
@@ -13981,7 +13976,7 @@
       </c>
       <c r="BJ38" s="107">
         <f t="shared" ref="BJ38:BJ43" si="36">$H$29*H44</f>
-        <v>3.8200428584432199E-2</v>
+        <v>2.1835247690709641E-3</v>
       </c>
       <c r="BP38">
         <f>BL11+1</f>
@@ -13992,7 +13987,7 @@
       </c>
       <c r="BR38" s="107">
         <f t="shared" si="22"/>
-        <v>2.3932956316637065E-4</v>
+        <v>1.3063130134698134E-7</v>
       </c>
     </row>
     <row r="39" spans="1:70" x14ac:dyDescent="0.25">
@@ -14001,49 +13996,49 @@
       </c>
       <c r="B39" s="107">
         <f>SUM(BR4:BR47)</f>
-        <v>0.40023249540594136</v>
+        <v>0.18173357204557425</v>
       </c>
       <c r="G39" s="130">
         <v>0</v>
       </c>
       <c r="H39" s="131">
         <f>L39*J39</f>
-        <v>1.2293105688607187E-2</v>
+        <v>6.1811157455250877E-2</v>
       </c>
       <c r="I39" s="97">
         <v>0</v>
       </c>
       <c r="J39" s="98">
         <f t="shared" ref="J39:J49" si="37">Y39+AA39+AC39+AE39+AG39+AI39+AK39+AM39+AO39+AQ39+AS39</f>
-        <v>1.7043613796080655E-2</v>
+        <v>8.9297735318978763E-2</v>
       </c>
       <c r="K39" s="102">
         <v>0</v>
       </c>
       <c r="L39" s="98">
         <f>AC20</f>
-        <v>0.72127342450308907</v>
+        <v>0.69219176986355146</v>
       </c>
       <c r="M39" s="84">
         <v>0</v>
       </c>
       <c r="N39" s="71">
         <f>(1-$C$24)^$B$21</f>
-        <v>1.8022926289269655E-2</v>
+        <v>2.1214249487824428E-4</v>
       </c>
       <c r="O39" s="70">
         <v>0</v>
       </c>
       <c r="P39" s="71">
         <f>N39</f>
-        <v>1.8022926289269655E-2</v>
+        <v>2.1214249487824428E-4</v>
       </c>
       <c r="Q39" s="12">
         <v>0</v>
       </c>
       <c r="R39" s="73">
         <f>P39*N39</f>
-        <v>3.2482587202844728E-4</v>
+        <v>4.5004438133165899E-8</v>
       </c>
       <c r="S39" s="70">
         <v>0</v>
@@ -14057,88 +14052,88 @@
       </c>
       <c r="V39" s="86">
         <f>R39*T39</f>
-        <v>3.2320174266830501E-4</v>
+        <v>4.4779415942500069E-8</v>
       </c>
       <c r="W39" s="136">
         <f>C31</f>
-        <v>0.60546237696413152</v>
+        <v>0.26295685658074053</v>
       </c>
       <c r="X39" s="12">
         <v>0</v>
       </c>
       <c r="Y39" s="79">
         <f>V39</f>
-        <v>3.2320174266830501E-4</v>
+        <v>4.4779415942500069E-8</v>
       </c>
       <c r="Z39" s="12">
         <v>0</v>
       </c>
       <c r="AA39" s="78">
         <f>((1-W39)^Z40)*V40</f>
-        <v>1.5725511685896023E-3</v>
+        <v>1.4617418191080866E-6</v>
       </c>
       <c r="AB39" s="12">
         <v>0</v>
       </c>
       <c r="AC39" s="79">
         <f>(((1-$W$39)^AB41))*V41</f>
-        <v>3.4434012049638233E-3</v>
+        <v>2.1472686129442064E-5</v>
       </c>
       <c r="AD39" s="12">
         <v>0</v>
       </c>
       <c r="AE39" s="79">
         <f>(((1-$W$39)^AB42))*V42</f>
-        <v>4.4686937764905413E-3</v>
+        <v>1.8692756219758694E-4</v>
       </c>
       <c r="AF39" s="12">
         <v>0</v>
       </c>
       <c r="AG39" s="79">
         <f>(((1-$W$39)^AB43))*V43</f>
-        <v>3.8064472617975287E-3</v>
+        <v>1.0679504670219715E-3</v>
       </c>
       <c r="AH39" s="12">
         <v>0</v>
       </c>
       <c r="AI39" s="79">
         <f>(((1-$W$39)^AB44))*V44</f>
-        <v>2.2239114950292358E-3</v>
+        <v>4.1841215437004248E-3</v>
       </c>
       <c r="AJ39" s="12">
         <v>0</v>
       </c>
       <c r="AK39" s="79">
         <f>(((1-$W$39)^AB45))*V45</f>
-        <v>9.0268619936909695E-4</v>
+        <v>1.1385353094033499E-2</v>
       </c>
       <c r="AL39" s="12">
         <v>0</v>
       </c>
       <c r="AM39" s="79">
         <f>(((1-$W$39)^AB46))*V46</f>
-        <v>2.5143210548682376E-4</v>
+        <v>2.1248193742462083E-2</v>
       </c>
       <c r="AN39" s="12">
         <v>0</v>
       </c>
       <c r="AO39" s="79">
         <f>(((1-$W$39)^AB47))*V47</f>
-        <v>4.6027189635618947E-5</v>
+        <v>2.6034357797143543E-2</v>
       </c>
       <c r="AP39" s="12">
         <v>0</v>
       </c>
       <c r="AQ39" s="79">
         <f>(((1-$W$39)^AB48))*V48</f>
-        <v>5.0113531777939704E-6</v>
+        <v>1.8922440751353835E-2</v>
       </c>
       <c r="AR39" s="12">
         <v>0</v>
       </c>
       <c r="AS39" s="79">
         <f>(((1-$W$39)^AB49))*V49</f>
-        <v>2.5029887227993263E-7</v>
+        <v>6.2454111537013175E-3</v>
       </c>
       <c r="AV39" s="14">
         <v>1</v>
@@ -14183,7 +14178,7 @@
       </c>
       <c r="BJ39" s="107">
         <f t="shared" si="36"/>
-        <v>1.9433697454496492E-2</v>
+        <v>6.9554966041994286E-4</v>
       </c>
       <c r="BP39">
         <f t="shared" ref="BP39:BP46" si="38">BP31+1</f>
@@ -14194,7 +14189,7 @@
       </c>
       <c r="BR39" s="107">
         <f t="shared" ref="BR39:BR47" si="39">$H$34*H39</f>
-        <v>1.8323729663922776E-5</v>
+        <v>1.6236884336807192E-7</v>
       </c>
     </row>
     <row r="40" spans="1:70" x14ac:dyDescent="0.25">
@@ -14203,42 +14198,42 @@
       </c>
       <c r="H40" s="132">
         <f>L39*J40+L40*J39</f>
-        <v>6.5905187892858277E-2</v>
+        <v>0.1923611700500297</v>
       </c>
       <c r="I40" s="93">
         <v>1</v>
       </c>
       <c r="J40" s="86">
         <f t="shared" si="37"/>
-        <v>8.5635592885135087E-2</v>
+        <v>0.24398899123979165</v>
       </c>
       <c r="K40" s="95">
         <v>1</v>
       </c>
       <c r="L40" s="86">
         <f>AD20</f>
-        <v>0.24281884128330899</v>
+        <v>0.26287338970786606</v>
       </c>
       <c r="M40" s="85">
         <v>1</v>
       </c>
       <c r="N40" s="71">
         <f>(($C$24)^M26)*((1-($C$24))^($B$21-M26))*HLOOKUP($B$21,$AV$24:$BF$34,M26+1)</f>
-        <v>0.11108642166839927</v>
+        <v>4.6972939082582654E-3</v>
       </c>
       <c r="O40" s="72">
         <v>1</v>
       </c>
       <c r="P40" s="71">
         <f t="shared" ref="P40:P44" si="40">N40</f>
-        <v>0.11108642166839927</v>
+        <v>4.6972939082582654E-3</v>
       </c>
       <c r="Q40" s="28">
         <v>1</v>
       </c>
       <c r="R40" s="37">
         <f>P40*N39+P39*N40</f>
-        <v>4.0042047789365749E-3</v>
+        <v>1.9929912977485742E-6</v>
       </c>
       <c r="S40" s="72">
         <v>1</v>
@@ -14252,7 +14247,7 @@
       </c>
       <c r="V40" s="86">
         <f>R40*T39+T40*R39</f>
-        <v>3.9858078844020343E-3</v>
+        <v>1.983251363450497E-6</v>
       </c>
       <c r="W40" s="137"/>
       <c r="X40" s="28">
@@ -14264,70 +14259,70 @@
       </c>
       <c r="AA40" s="79">
         <f>(1-((1-W39)^Z40))*V40</f>
-        <v>2.4132567158124322E-3</v>
+        <v>5.2150954434241042E-7</v>
       </c>
       <c r="AB40" s="28">
         <v>1</v>
       </c>
       <c r="AC40" s="79">
         <f>((($W$39)^M40)*((1-($W$39))^($U$27-M40))*HLOOKUP($U$27,$AV$24:$BF$34,M40+1))*V41</f>
-        <v>1.0568573219233959E-2</v>
+        <v>1.5321735497730727E-5</v>
       </c>
       <c r="AD40" s="28">
         <v>1</v>
       </c>
       <c r="AE40" s="79">
         <f>((($W$39)^M40)*((1-($W$39))^($U$28-M40))*HLOOKUP($U$28,$AV$24:$BF$34,M40+1))*V42</f>
-        <v>2.0573140287760149E-2</v>
+        <v>2.0007194125331264E-4</v>
       </c>
       <c r="AF40" s="28">
         <v>1</v>
       </c>
       <c r="AG40" s="79">
         <f>((($W$39)^M40)*((1-($W$39))^($U$29-M40))*HLOOKUP($U$29,$AV$24:$BF$34,M40+1))*V43</f>
-        <v>2.3365686538918681E-2</v>
+        <v>1.5240621952698204E-3</v>
       </c>
       <c r="AH40" s="28">
         <v>1</v>
       </c>
       <c r="AI40" s="79">
         <f>((($W$39)^M40)*((1-($W$39))^($U$30-M40))*HLOOKUP($U$30,$AV$24:$BF$34,M40+1))*V44</f>
-        <v>1.7064212147593374E-2</v>
+        <v>7.4639012553526793E-3</v>
       </c>
       <c r="AJ40" s="28">
         <v>1</v>
       </c>
       <c r="AK40" s="79">
         <f>((($W$39)^M40)*((1-($W$39))^($U$31-M40))*HLOOKUP($U$31,$AV$24:$BF$34,M40+1))*V45</f>
-        <v>8.3116412734059123E-3</v>
+        <v>2.4371897526485768E-2</v>
       </c>
       <c r="AL40" s="28">
         <v>1</v>
       </c>
       <c r="AM40" s="79">
         <f>((($W$39)^Q40)*((1-($W$39))^($U$32-Q40))*HLOOKUP($U$32,$AV$24:$BF$34,Q40+1))*V46</f>
-        <v>2.700956003719729E-3</v>
+        <v>5.3065424990334044E-2</v>
       </c>
       <c r="AN40" s="28">
         <v>1</v>
       </c>
       <c r="AO40" s="79">
         <f>((($W$39)^Q40)*((1-($W$39))^($U$33-Q40))*HLOOKUP($U$33,$AV$24:$BF$34,Q40+1))*V47</f>
-        <v>5.6507121277459829E-4</v>
+        <v>7.4306780552095095E-2</v>
       </c>
       <c r="AP40" s="28">
         <v>1</v>
       </c>
       <c r="AQ40" s="79">
         <f>((($W$39)^Q40)*((1-($W$39))^($U$34-Q40))*HLOOKUP($U$34,$AV$24:$BF$34,Q40+1))*V48</f>
-        <v>6.9214368078205832E-5</v>
+        <v>6.0759088866291729E-2</v>
       </c>
       <c r="AR40" s="28">
         <v>1</v>
       </c>
       <c r="AS40" s="79">
         <f>((($W$39)^Q40)*((1-($W$39))^($U$35-Q40))*HLOOKUP($U$35,$AV$24:$BF$34,Q40+1))*V49</f>
-        <v>3.841117838038784E-6</v>
+        <v>2.228192066766713E-2</v>
       </c>
       <c r="AV40" s="14">
         <v>2</v>
@@ -14372,7 +14367,7 @@
       </c>
       <c r="BJ40" s="107">
         <f t="shared" si="36"/>
-        <v>7.2714964040568961E-3</v>
+        <v>1.6723118001389775E-4</v>
       </c>
       <c r="BP40">
         <f t="shared" si="38"/>
@@ -14383,7 +14378,7 @@
       </c>
       <c r="BR40" s="107">
         <f t="shared" si="39"/>
-        <v>9.8236269742475141E-5</v>
+        <v>5.0530457567574682E-7</v>
       </c>
     </row>
     <row r="41" spans="1:70" x14ac:dyDescent="0.25">
@@ -14392,42 +14387,42 @@
       </c>
       <c r="H41" s="132">
         <f>L39*J41+J40*L40+J39*L41</f>
-        <v>0.16103657656617604</v>
+        <v>0.27549444716583066</v>
       </c>
       <c r="I41" s="93">
         <v>2</v>
       </c>
       <c r="J41" s="86">
         <f t="shared" si="37"/>
-        <v>0.19365005936495594</v>
+        <v>0.30001955638139832</v>
       </c>
       <c r="K41" s="95">
         <v>2</v>
       </c>
       <c r="L41" s="86">
         <f>AE20</f>
-        <v>3.3326245396425584E-2</v>
+        <v>4.1268305951347867E-2</v>
       </c>
       <c r="M41" s="85">
         <v>2</v>
       </c>
       <c r="N41" s="71">
         <f>(($C$24)^M27)*((1-($C$24))^($B$21-M27))*HLOOKUP($B$21,$AV$24:$BF$34,M27+1)</f>
-        <v>0.27387767959604681</v>
+        <v>4.160330078747082E-2</v>
       </c>
       <c r="O41" s="72">
         <v>2</v>
       </c>
       <c r="P41" s="71">
         <f t="shared" si="40"/>
-        <v>0.27387767959604681</v>
+        <v>4.160330078747082E-2</v>
       </c>
       <c r="Q41" s="28">
         <v>2</v>
       </c>
       <c r="R41" s="37">
         <f>P41*N39+P40*N40+P39*N41</f>
-        <v>2.2212347542360934E-2</v>
+        <v>3.9716226109008372E-5</v>
       </c>
       <c r="S41" s="72">
         <v>2</v>
@@ -14441,7 +14436,7 @@
       </c>
       <c r="V41" s="86">
         <f>R41*T39+T40*R40+R39*T41</f>
-        <v>2.2121306828543814E-2</v>
+        <v>3.9527609934952076E-5</v>
       </c>
       <c r="W41" s="137"/>
       <c r="X41" s="28">
@@ -14457,63 +14452,63 @@
       </c>
       <c r="AC41" s="79">
         <f>((($W$39)^M41)*((1-($W$39))^($U$27-M41))*HLOOKUP($U$27,$AV$24:$BF$34,M41+1))*V41</f>
-        <v>8.109332404346031E-3</v>
+        <v>2.7331883077792838E-6</v>
       </c>
       <c r="AD41" s="28">
         <v>2</v>
       </c>
       <c r="AE41" s="79">
         <f>((($W$39)^M41)*((1-($W$39))^($U$28-M41))*HLOOKUP($U$28,$AV$24:$BF$34,M41+1))*V42</f>
-        <v>3.1571798715661056E-2</v>
+        <v>7.1380202409739886E-5</v>
       </c>
       <c r="AF41" s="28">
         <v>2</v>
       </c>
       <c r="AG41" s="79">
         <f>((($W$39)^M41)*((1-($W$39))^($U$29-M41))*HLOOKUP($U$29,$AV$24:$BF$34,M41+1))*V43</f>
-        <v>5.3785912744117585E-2</v>
+        <v>8.1561562782300724E-4</v>
       </c>
       <c r="AH41" s="28">
         <v>2</v>
       </c>
       <c r="AI41" s="79">
         <f>((($W$39)^M41)*((1-($W$39))^($U$30-M41))*HLOOKUP($U$30,$AV$24:$BF$34,M41+1))*V44</f>
-        <v>5.2373907301422579E-2</v>
+        <v>5.3258320885569413E-3</v>
       </c>
       <c r="AJ41" s="28">
         <v>2</v>
       </c>
       <c r="AK41" s="79">
         <f>((($W$39)^M41)*((1-($W$39))^($U$31-M41))*HLOOKUP($U$31,$AV$24:$BF$34,M41+1))*V45</f>
-        <v>3.1887871954685655E-2</v>
+        <v>2.1738067912623761E-2</v>
       </c>
       <c r="AL41" s="28">
         <v>2</v>
       </c>
       <c r="AM41" s="79">
         <f>((($W$39)^Q41)*((1-($W$39))^($U$32-Q41))*HLOOKUP($U$32,$AV$24:$BF$34,Q41+1))*V46</f>
-        <v>1.2434762719237678E-2</v>
+        <v>5.679688145735224E-2</v>
       </c>
       <c r="AN41" s="28">
         <v>2</v>
       </c>
       <c r="AO41" s="79">
         <f>((($W$39)^Q41)*((1-($W$39))^($U$33-Q41))*HLOOKUP($U$33,$AV$24:$BF$34,Q41+1))*V47</f>
-        <v>3.0350787575787954E-3</v>
+        <v>9.2787201995916932E-2</v>
       </c>
       <c r="AP41" s="28">
         <v>2</v>
       </c>
       <c r="AQ41" s="79">
         <f>((($W$39)^Q41)*((1-($W$39))^($U$34-Q41))*HLOOKUP($U$34,$AV$24:$BF$34,Q41+1))*V48</f>
-        <v>4.2486894399818448E-4</v>
+        <v>8.6708731556039059E-2</v>
       </c>
       <c r="AR41" s="28">
         <v>2</v>
       </c>
       <c r="AS41" s="79">
         <f>((($W$39)^Q41)*((1-($W$39))^($U$35-Q41))*HLOOKUP($U$35,$AV$24:$BF$34,Q41+1))*V49</f>
-        <v>2.6525823908385169E-5</v>
+        <v>3.5773112352368922E-2</v>
       </c>
       <c r="AV41" s="14">
         <v>3</v>
@@ -14555,7 +14550,7 @@
       </c>
       <c r="BJ41" s="107">
         <f t="shared" si="36"/>
-        <v>2.0017625364040933E-3</v>
+        <v>3.04682877239486E-5</v>
       </c>
       <c r="BP41">
         <f t="shared" si="38"/>
@@ -14566,7 +14561,7 @@
       </c>
       <c r="BR41" s="107">
         <f t="shared" si="39"/>
-        <v>2.400362259747672E-4</v>
+        <v>7.2368349958543531E-7</v>
       </c>
     </row>
     <row r="42" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14575,42 +14570,42 @@
       </c>
       <c r="H42" s="132">
         <f>J42*L39+J41*L40+L42*J39+L41*J40</f>
-        <v>0.23712464540242467</v>
+        <v>0.24060475678850396</v>
       </c>
       <c r="I42" s="93">
         <v>3</v>
       </c>
       <c r="J42" s="86">
         <f t="shared" si="37"/>
-        <v>0.25954769069770856</v>
+        <v>0.21864052716081595</v>
       </c>
       <c r="K42" s="95">
         <v>3</v>
       </c>
       <c r="L42" s="86">
         <f>AF20</f>
-        <v>2.5814888171763542E-3</v>
+        <v>3.666534477234612E-3</v>
       </c>
       <c r="M42" s="85">
         <v>3</v>
       </c>
       <c r="N42" s="71">
         <f>(($C$24)^M28)*((1-($C$24))^($B$21-M28))*HLOOKUP($B$21,$AV$24:$BF$34,M28+1)</f>
-        <v>0.33761544504881941</v>
+        <v>0.18423742161096279</v>
       </c>
       <c r="O42" s="72">
         <v>3</v>
       </c>
       <c r="P42" s="71">
         <f t="shared" si="40"/>
-        <v>0.33761544504881941</v>
+        <v>0.18423742161096279</v>
       </c>
       <c r="Q42" s="28">
         <v>3</v>
       </c>
       <c r="R42" s="37">
         <f>P42*N39+P41*N40+P40*N41+P39*N42</f>
-        <v>7.3017819362806102E-2</v>
+        <v>4.690150352458152E-4</v>
       </c>
       <c r="S42" s="72">
         <v>3</v>
@@ -14624,7 +14619,7 @@
       </c>
       <c r="V42" s="86">
         <f>R42*T39+R41*T40+R40*T41+R39*T42</f>
-        <v>7.2763792003703878E-2</v>
+        <v>4.6686854120013115E-4</v>
       </c>
       <c r="W42" s="137"/>
       <c r="X42" s="28">
@@ -14644,56 +14639,56 @@
       </c>
       <c r="AE42" s="79">
         <f>((($W$39)^M42)*((1-($W$39))^($U$28-M42))*HLOOKUP($U$28,$AV$24:$BF$34,M42+1))*V42</f>
-        <v>1.6150159223792128E-2</v>
+        <v>8.48883533949162E-6</v>
       </c>
       <c r="AF42" s="28">
         <v>3</v>
       </c>
       <c r="AG42" s="79">
         <f>((($W$39)^M42)*((1-($W$39))^($U$29-M42))*HLOOKUP($U$29,$AV$24:$BF$34,M42+1))*V43</f>
-        <v>5.502702349255751E-2</v>
+        <v>1.9399291487469516E-4</v>
       </c>
       <c r="AH42" s="28">
         <v>3</v>
       </c>
       <c r="AI42" s="79">
         <f>((($W$39)^M42)*((1-($W$39))^($U$30-M42))*HLOOKUP($U$30,$AV$24:$BF$34,M42+1))*V44</f>
-        <v>8.03736540044383E-2</v>
+        <v>1.9001113804366998E-3</v>
       </c>
       <c r="AJ42" s="28">
         <v>3</v>
       </c>
       <c r="AK42" s="79">
         <f>((($W$39)^M42)*((1-($W$39))^($U$31-M42))*HLOOKUP($U$31,$AV$24:$BF$34,M42+1))*V45</f>
-        <v>6.5247370162740598E-2</v>
+        <v>1.0340731624698785E-2</v>
       </c>
       <c r="AL42" s="28">
         <v>3</v>
       </c>
       <c r="AM42" s="79">
         <f>((($W$39)^Q42)*((1-($W$39))^($U$32-Q42))*HLOOKUP($U$32,$AV$24:$BF$34,Q42+1))*V46</f>
-        <v>3.1804237641700352E-2</v>
+        <v>3.3772625897058241E-2</v>
       </c>
       <c r="AN42" s="28">
         <v>3</v>
       </c>
       <c r="AO42" s="79">
         <f>((($W$39)^Q42)*((1-($W$39))^($U$33-Q42))*HLOOKUP($U$33,$AV$24:$BF$34,Q42+1))*V47</f>
-        <v>9.3153397371684241E-3</v>
+        <v>6.620787720669262E-2</v>
       </c>
       <c r="AP42" s="28">
         <v>3</v>
       </c>
       <c r="AQ42" s="79">
         <f>((($W$39)^Q42)*((1-($W$39))^($U$34-Q42))*HLOOKUP($U$34,$AV$24:$BF$34,Q42+1))*V48</f>
-        <v>1.5213548045293877E-3</v>
+        <v>7.2182381651872823E-2</v>
       </c>
       <c r="AR42" s="28">
         <v>3</v>
       </c>
       <c r="AS42" s="79">
         <f>((($W$39)^Q42)*((1-($W$39))^($U$35-Q42))*HLOOKUP($U$35,$AV$24:$BF$34,Q42+1))*V49</f>
-        <v>1.085516307818568E-4</v>
+        <v>3.4034317649842612E-2</v>
       </c>
       <c r="AV42" s="14">
         <v>4</v>
@@ -14732,7 +14727,7 @@
       </c>
       <c r="BJ42" s="107">
         <f t="shared" si="36"/>
-        <v>4.0165050464633842E-4</v>
+        <v>4.17370433152353E-6</v>
       </c>
       <c r="BP42">
         <f t="shared" si="38"/>
@@ -14743,7 +14738,7 @@
       </c>
       <c r="BR42" s="107">
         <f t="shared" si="39"/>
-        <v>3.5345078852078664E-4</v>
+        <v>6.3203340103910167E-7</v>
       </c>
     </row>
     <row r="43" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14752,14 +14747,14 @@
       </c>
       <c r="H43" s="132">
         <f>J43*L39+J42*L40+J41*L41+J40*L42</f>
-        <v>0.23440026949686893</v>
+        <v>0.14313820202608143</v>
       </c>
       <c r="I43" s="93">
         <v>4</v>
       </c>
       <c r="J43" s="86">
         <f t="shared" si="37"/>
-        <v>0.2283496073247783</v>
+        <v>0.10457728014519851</v>
       </c>
       <c r="K43" s="95">
         <v>4</v>
@@ -14770,21 +14765,21 @@
       </c>
       <c r="N43" s="71">
         <f>(($C$24)^M29)*((1-($C$24))^($B$21-M29))*HLOOKUP($B$21,$AV$24:$BF$34,M29+1)</f>
-        <v>0.20809324239863622</v>
+        <v>0.40794152001609935</v>
       </c>
       <c r="O43" s="72">
         <v>4</v>
       </c>
       <c r="P43" s="71">
         <f t="shared" si="40"/>
-        <v>0.20809324239863622</v>
+        <v>0.40794152001609935</v>
       </c>
       <c r="Q43" s="28">
         <v>4</v>
       </c>
       <c r="R43" s="37">
         <f>P43*N39+P42*N40+P41*N41+P40*N42+P39*N43</f>
-        <v>0.15751886509992122</v>
+        <v>3.6347527364668179E-3</v>
       </c>
       <c r="S43" s="72">
         <v>4</v>
@@ -14798,7 +14793,7 @@
       </c>
       <c r="V43" s="86">
         <f>T43*R39+T42*R40+T41*R41+T40*R42+T39*R43</f>
-        <v>0.15709635987123566</v>
+        <v>3.6189240479607126E-3</v>
       </c>
       <c r="W43" s="137"/>
       <c r="X43" s="28">
@@ -14822,49 +14817,49 @@
       </c>
       <c r="AG43" s="79">
         <f>((($W$39)^M43)*((1-($W$39))^($U$29-M43))*HLOOKUP($U$29,$AV$24:$BF$34,M43+1))*V43</f>
-        <v>2.1111289833844346E-2</v>
+        <v>1.7302842971217862E-5</v>
       </c>
       <c r="AH43" s="28">
         <v>4</v>
       </c>
       <c r="AI43" s="79">
         <f>((($W$39)^M43)*((1-($W$39))^($U$30-M43))*HLOOKUP($U$30,$AV$24:$BF$34,M43+1))*V44</f>
-        <v>6.167120796284084E-2</v>
+        <v>3.3895391349479448E-4</v>
       </c>
       <c r="AJ43" s="28">
         <v>4</v>
       </c>
       <c r="AK43" s="79">
         <f>((($W$39)^M43)*((1-($W$39))^($U$31-M43))*HLOOKUP($U$31,$AV$24:$BF$34,M43+1))*V45</f>
-        <v>7.5097073490884778E-2</v>
+        <v>2.7669678909444887E-3</v>
       </c>
       <c r="AL43" s="28">
         <v>4</v>
       </c>
       <c r="AM43" s="79">
         <f>((($W$39)^Q43)*((1-($W$39))^($U$32-Q43))*HLOOKUP($U$32,$AV$24:$BF$34,Q43+1))*V46</f>
-        <v>4.8807181358025663E-2</v>
+        <v>1.2049150207365848E-2</v>
       </c>
       <c r="AN43" s="28">
         <v>4</v>
       </c>
       <c r="AO43" s="79">
         <f>((($W$39)^Q43)*((1-($W$39))^($U$33-Q43))*HLOOKUP($U$33,$AV$24:$BF$34,Q43+1))*V47</f>
-        <v>1.7869296266650545E-2</v>
+        <v>2.9526452125971669E-2</v>
       </c>
       <c r="AP43" s="28">
         <v>4</v>
       </c>
       <c r="AQ43" s="79">
         <f>((($W$39)^Q43)*((1-($W$39))^($U$34-Q43))*HLOOKUP($U$34,$AV$24:$BF$34,Q43+1))*V48</f>
-        <v>3.5020352016178558E-3</v>
+        <v>3.8629052483208713E-2</v>
       </c>
       <c r="AR43" s="28">
         <v>4</v>
       </c>
       <c r="AS43" s="79">
         <f>((($W$39)^Q43)*((1-($W$39))^($U$35-Q43))*HLOOKUP($U$35,$AV$24:$BF$34,Q43+1))*V49</f>
-        <v>2.9152321091427619E-4</v>
+        <v>2.1249400681241783E-2</v>
       </c>
       <c r="AV43" s="14">
         <v>5</v>
@@ -14900,7 +14895,7 @@
       </c>
       <c r="BJ43" s="107">
         <f t="shared" si="36"/>
-        <v>5.7563330288324886E-5</v>
+        <v>4.1984399790006618E-7</v>
       </c>
       <c r="BP43">
         <f t="shared" si="38"/>
@@ -14911,7 +14906,7 @@
       </c>
       <c r="BR43" s="107">
         <f t="shared" si="39"/>
-        <v>3.4938991660925879E-4</v>
+        <v>3.7600305934387426E-7</v>
       </c>
     </row>
     <row r="44" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14920,14 +14915,14 @@
       </c>
       <c r="H44" s="132">
         <f>J44*L39+J43*L40+J42*L41+J41*L42</f>
-        <v>0.16399981819550807</v>
+        <v>6.1359154259542463E-2</v>
       </c>
       <c r="I44" s="93">
         <v>5</v>
       </c>
       <c r="J44" s="86">
         <f t="shared" si="37"/>
-        <v>0.13781538632305107</v>
+        <v>3.4304964259358792E-2</v>
       </c>
       <c r="K44" s="95">
         <v>5</v>
@@ -14938,21 +14933,21 @@
       </c>
       <c r="N44" s="71">
         <f>(($C$24)^M30)*((1-($C$24))^($B$21-M30))*HLOOKUP($B$21,$AV$24:$BF$34,M30+1)</f>
-        <v>5.1304284998828727E-2</v>
+        <v>0.36130832118233069</v>
       </c>
       <c r="O44" s="72">
         <v>5</v>
       </c>
       <c r="P44" s="71">
         <f t="shared" si="40"/>
-        <v>5.1304284998828727E-2</v>
+        <v>0.36130832118233069</v>
       </c>
       <c r="Q44" s="28">
         <v>5</v>
       </c>
       <c r="R44" s="37">
         <f>P44*N39+P43*N40+P42*N41+P41*N42+P40*N43+P39*N44</f>
-        <v>0.23301264340810843</v>
+        <v>1.9315509866324184E-2</v>
       </c>
       <c r="S44" s="72">
         <v>5</v>
@@ -14966,7 +14961,7 @@
       </c>
       <c r="V44" s="86">
         <f>T44*R39+T43*R40+T42*R41+T41*R42+T40*R43+T39*R44</f>
-        <v>0.23263517451656748</v>
+        <v>1.9237106080674894E-2</v>
       </c>
       <c r="W44" s="137"/>
       <c r="X44" s="28">
@@ -14994,42 +14989,42 @@
       </c>
       <c r="AI44" s="79">
         <f>((($W$39)^M44)*((1-($W$39))^($U$30-M44))*HLOOKUP($U$30,$AV$24:$BF$34,M44+1))*V44</f>
-        <v>1.8928281605243128E-2</v>
+        <v>2.4185899133351157E-5</v>
       </c>
       <c r="AJ44" s="28">
         <v>5</v>
       </c>
       <c r="AK44" s="79">
         <f>((($W$39)^M44)*((1-($W$39))^($U$31-M44))*HLOOKUP($U$31,$AV$24:$BF$34,M44+1))*V45</f>
-        <v>4.6097963757142119E-2</v>
+        <v>3.948714185100126E-4</v>
       </c>
       <c r="AL44" s="28">
         <v>5</v>
       </c>
       <c r="AM44" s="79">
         <f>((($W$39)^Q44)*((1-($W$39))^($U$32-Q44))*HLOOKUP($U$32,$AV$24:$BF$34,Q44+1))*V46</f>
-        <v>4.4940067024122239E-2</v>
+        <v>2.5792845571829311E-3</v>
       </c>
       <c r="AN44" s="28">
         <v>5</v>
       </c>
       <c r="AO44" s="79">
         <f>((($W$39)^Q44)*((1-($W$39))^($U$33-Q44))*HLOOKUP($U$33,$AV$24:$BF$34,Q44+1))*V47</f>
-        <v>2.1937956657277109E-2</v>
+        <v>8.4273851335301356E-3</v>
       </c>
       <c r="AP44" s="28">
         <v>5</v>
       </c>
       <c r="AQ44" s="79">
         <f>((($W$39)^Q44)*((1-($W$39))^($U$34-Q44))*HLOOKUP($U$34,$AV$24:$BF$34,Q44+1))*V48</f>
-        <v>5.3742670751347876E-3</v>
+        <v>1.3781790529321655E-2</v>
       </c>
       <c r="AR44" s="28">
         <v>5</v>
       </c>
       <c r="AS44" s="79">
         <f>((($W$39)^Q44)*((1-($W$39))^($U$35-Q44))*HLOOKUP($U$35,$AV$24:$BF$34,Q44+1))*V49</f>
-        <v>5.3685020413171648E-4</v>
+        <v>9.0974467216807034E-3</v>
       </c>
       <c r="AV44" s="29">
         <v>6</v>
@@ -15061,7 +15056,7 @@
       </c>
       <c r="BJ44" s="107">
         <f>$H$30*H45</f>
-        <v>1.3276259596983666E-2</v>
+        <v>1.6636891222013639E-4</v>
       </c>
       <c r="BP44">
         <f t="shared" si="38"/>
@@ -15072,7 +15067,7 @@
       </c>
       <c r="BR44" s="107">
         <f t="shared" si="39"/>
-        <v>2.4445314387331609E-4</v>
+        <v>1.6118149727867082E-7</v>
       </c>
     </row>
     <row r="45" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15096,14 +15091,14 @@
       </c>
       <c r="H45" s="132">
         <f>J45*L39+J44*L40+J43*L41+J42*L42</f>
-        <v>8.3431599264904038E-2</v>
+        <v>1.9545617028671598E-2</v>
       </c>
       <c r="I45" s="93">
         <v>6</v>
       </c>
       <c r="J45" s="86">
         <f t="shared" si="37"/>
-        <v>5.7796906027289194E-2</v>
+        <v>7.8162942727931107E-3</v>
       </c>
       <c r="K45" s="95">
         <v>6</v>
@@ -15118,7 +15113,7 @@
       </c>
       <c r="R45" s="37">
         <f>P44*N40+P43*N41+P42*N42+P41*N43+P40*N44</f>
-        <v>0.23936679634457605</v>
+        <v>7.1281197795896881E-2</v>
       </c>
       <c r="S45" s="70">
         <v>6</v>
@@ -15132,7 +15127,7 @@
       </c>
       <c r="V45" s="86">
         <f>T45*R39+T44*R40+T43*R41+T42*R42+T41*R43+T40*R44+T39*R45</f>
-        <v>0.23933502557989372</v>
+        <v>7.1021369356249017E-2</v>
       </c>
       <c r="W45" s="137"/>
       <c r="X45" s="28">
@@ -15164,35 +15159,35 @@
       </c>
       <c r="AK45" s="79">
         <f>((($W$39)^Q45)*((1-($W$39))^($U$31-Q45))*HLOOKUP($U$31,$AV$24:$BF$34,Q45+1))*V45</f>
-        <v>1.1790418741665533E-2</v>
+        <v>2.3479888952693676E-5</v>
       </c>
       <c r="AL45" s="28">
         <v>6</v>
       </c>
       <c r="AM45" s="79">
         <f>((($W$39)^Q45)*((1-($W$39))^($U$32-Q45))*HLOOKUP($U$32,$AV$24:$BF$34,Q45+1))*V46</f>
-        <v>2.2988529874524995E-2</v>
+        <v>3.067394201817486E-4</v>
       </c>
       <c r="AN45" s="28">
         <v>6</v>
       </c>
       <c r="AO45" s="79">
         <f>((($W$39)^Q45)*((1-($W$39))^($U$33-Q45))*HLOOKUP($U$33,$AV$24:$BF$34,Q45+1))*V47</f>
-        <v>1.6833131503714072E-2</v>
+        <v>1.5033303841806298E-3</v>
       </c>
       <c r="AP45" s="28">
         <v>6</v>
       </c>
       <c r="AQ45" s="79">
         <f>((($W$39)^Q45)*((1-($W$39))^($U$34-Q45))*HLOOKUP($U$34,$AV$24:$BF$34,Q45+1))*V48</f>
-        <v>5.4982783690151922E-3</v>
+        <v>3.2779775494391986E-3</v>
       </c>
       <c r="AR45" s="28">
         <v>6</v>
       </c>
       <c r="AS45" s="79">
         <f>((($W$39)^Q45)*((1-($W$39))^($U$35-Q45))*HLOOKUP($U$35,$AV$24:$BF$34,Q45+1))*V49</f>
-        <v>6.8654753836940106E-4</v>
+        <v>2.7047670300388398E-3</v>
       </c>
       <c r="AV45" s="14">
         <v>7</v>
@@ -15220,7 +15215,7 @@
       </c>
       <c r="BJ45" s="107">
         <f>$H$30*H46</f>
-        <v>4.96757110399781E-3</v>
+        <v>4.0000119461497853E-5</v>
       </c>
       <c r="BP45">
         <f t="shared" si="38"/>
@@ -15231,7 +15226,7 @@
       </c>
       <c r="BR45" s="107">
         <f t="shared" si="39"/>
-        <v>1.2436060578049506E-4</v>
+        <v>5.1343468728251415E-8</v>
       </c>
     </row>
     <row r="46" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15255,14 +15250,14 @@
       </c>
       <c r="H46" s="132">
         <f>J46*L39+J45*L40+J44*L41+J43*L42</f>
-        <v>3.1217557825008548E-2</v>
+        <v>4.6993576243442104E-3</v>
       </c>
       <c r="I46" s="93">
         <v>7</v>
       </c>
       <c r="J46" s="86">
         <f t="shared" si="37"/>
-        <v>1.6638667562511544E-2</v>
+        <v>1.2215081525377191E-3</v>
       </c>
       <c r="K46" s="95">
         <v>7</v>
@@ -15277,7 +15272,7 @@
       </c>
       <c r="R46" s="37">
         <f>P44*N41+P43*N42+P42*N43+P41*N44</f>
-        <v>0.16861318234576184</v>
+        <v>0.18037942515797545</v>
       </c>
       <c r="S46" s="72">
         <v>7</v>
@@ -15291,7 +15286,7 @@
       </c>
       <c r="V46" s="86">
         <f>T46*R39+T45*R40+T44*R41+T43*R42+T42*R43+T41*R44+T40*R45+T39*R46</f>
-        <v>0.16896695041575591</v>
+        <v>0.17983393402116504</v>
       </c>
       <c r="W46" s="137"/>
       <c r="X46" s="28">
@@ -15327,28 +15322,28 @@
       </c>
       <c r="AM46" s="79">
         <f>((($W$39)^Q46)*((1-($W$39))^($U$32-Q46))*HLOOKUP($U$32,$AV$24:$BF$34,Q46+1))*V46</f>
-        <v>5.0397836889383906E-3</v>
+        <v>1.5633749227875329E-5</v>
       </c>
       <c r="AN46" s="28">
         <v>7</v>
       </c>
       <c r="AO46" s="79">
         <f>((($W$39)^Q46)*((1-($W$39))^($U$33-Q46))*HLOOKUP($U$33,$AV$24:$BF$34,Q46+1))*V47</f>
-        <v>7.38066697167829E-3</v>
+        <v>1.5324205945880501E-4</v>
       </c>
       <c r="AP46" s="28">
         <v>7</v>
       </c>
       <c r="AQ46" s="79">
         <f>((($W$39)^Q46)*((1-($W$39))^($U$34-Q46))*HLOOKUP($U$34,$AV$24:$BF$34,Q46+1))*V48</f>
-        <v>3.6161686448831407E-3</v>
+        <v>5.0121121327189959E-4</v>
       </c>
       <c r="AR46" s="28">
         <v>7</v>
       </c>
       <c r="AS46" s="79">
         <f>((($W$39)^Q46)*((1-($W$39))^($U$35-Q46))*HLOOKUP($U$35,$AV$24:$BF$34,Q46+1))*V49</f>
-        <v>6.0204825701172071E-4</v>
+        <v>5.5142113057913915E-4</v>
       </c>
       <c r="AV46" s="14">
         <v>8</v>
@@ -15372,7 +15367,7 @@
       </c>
       <c r="BJ46" s="107">
         <f>$H$30*H47</f>
-        <v>1.367517382991273E-3</v>
+        <v>7.287726778247631E-6</v>
       </c>
       <c r="BP46">
         <f t="shared" si="38"/>
@@ -15383,7 +15378,7 @@
       </c>
       <c r="BR46" s="107">
         <f t="shared" si="39"/>
-        <v>4.6531942768820685E-5</v>
+        <v>1.2344523116075058E-8</v>
       </c>
     </row>
     <row r="47" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15407,14 +15402,14 @@
       </c>
       <c r="H47" s="132">
         <f>J47*L39+J46*L40+J45*L41+J44*L42</f>
-        <v>8.5938483992464339E-3</v>
+        <v>8.5618830294895891E-4</v>
       </c>
       <c r="I47" s="93">
         <v>8</v>
       </c>
       <c r="J47" s="86">
         <f t="shared" si="37"/>
-        <v>3.1496289645454542E-3</v>
+        <v>1.2531318698001876E-4</v>
       </c>
       <c r="K47" s="95">
         <v>8</v>
@@ -15429,7 +15424,7 @@
       </c>
       <c r="R47" s="37">
         <f>P44*N42+P43*N43+P42*N44</f>
-        <v>7.7945035557559633E-2</v>
+        <v>0.29954931075548202</v>
       </c>
       <c r="S47" s="72">
         <v>8</v>
@@ -15443,7 +15438,7 @@
       </c>
       <c r="V47" s="86">
         <f>T47*R39+T46*R40+T45*R41+T44*R42+T43*R43+T42*R44+T41*R45+T40*R46+T39*R47</f>
-        <v>7.8398376291500649E-2</v>
+        <v>0.29895346132749445</v>
       </c>
       <c r="W47" s="137"/>
       <c r="X47" s="28">
@@ -15483,21 +15478,21 @@
       </c>
       <c r="AO47" s="79">
         <f>((($W$39)^Q47)*((1-($W$39))^($U$33-Q47))*HLOOKUP($U$33,$AV$24:$BF$34,Q47+1))*V47</f>
-        <v>1.4158079950231804E-3</v>
+        <v>6.8340725049531295E-6</v>
       </c>
       <c r="AP47" s="28">
         <v>8</v>
       </c>
       <c r="AQ47" s="79">
         <f>((($W$39)^Q47)*((1-($W$39))^($U$34-Q47))*HLOOKUP($U$34,$AV$24:$BF$34,Q47+1))*V48</f>
-        <v>1.3873544216054768E-3</v>
+        <v>4.4704616785922166E-5</v>
       </c>
       <c r="AR47" s="28">
         <v>8</v>
       </c>
       <c r="AS47" s="79">
         <f>((($W$39)^Q47)*((1-($W$39))^($U$35-Q47))*HLOOKUP($U$35,$AV$24:$BF$34,Q47+1))*V49</f>
-        <v>3.464665479167966E-4</v>
+        <v>7.3774497689143453E-5</v>
       </c>
       <c r="AV47" s="29">
         <v>9</v>
@@ -15518,7 +15513,7 @@
       </c>
       <c r="BJ47" s="107">
         <f>$H$30*H48</f>
-        <v>2.7439021212664238E-4</v>
+        <v>9.9831067295009208E-7</v>
       </c>
       <c r="BP47">
         <f>BL12+1</f>
@@ -15529,7 +15524,7 @@
       </c>
       <c r="BR47" s="107">
         <f t="shared" si="39"/>
-        <v>1.280972919532173E-5</v>
+        <v>2.249081074978077E-9</v>
       </c>
     </row>
     <row r="48" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15553,14 +15548,14 @@
       </c>
       <c r="H48" s="132">
         <f>J48*L39+J47*L40+J46*L41+J45*L42</f>
-        <v>1.7243421652860143E-3</v>
+        <v>1.1728512153339801E-4</v>
       </c>
       <c r="I48" s="93">
         <v>9</v>
       </c>
       <c r="J48" s="86">
         <f t="shared" si="37"/>
-        <v>3.5471503055079965E-4</v>
+        <v>7.6212040219794666E-6</v>
       </c>
       <c r="K48" s="95">
         <v>9</v>
@@ -15575,7 +15570,7 @@
       </c>
       <c r="R48" s="37">
         <f>P44*N43+P43*N44</f>
-        <v>2.1352150028699963E-2</v>
+        <v>0.29478533147517</v>
       </c>
       <c r="S48" s="72">
         <v>9</v>
@@ -15589,7 +15584,7 @@
       </c>
       <c r="V48" s="86">
         <f>T48*R39+T47*R40+T46*R41+T45*R42+T44*R43+T43*R44+T42*R45+T41*R46+T40*R47+T39*R48</f>
-        <v>2.1635114456344261E-2</v>
+        <v>0.2948091513715716</v>
       </c>
       <c r="W48" s="137"/>
       <c r="X48" s="28">
@@ -15633,14 +15628,14 @@
       </c>
       <c r="AQ48" s="79">
         <f>((($W$39)^Q48)*((1-($W$39))^($U$34-Q48))*HLOOKUP($U$34,$AV$24:$BF$34,Q48+1))*V48</f>
-        <v>2.3656127430423201E-4</v>
+        <v>1.7721539866773321E-6</v>
       </c>
       <c r="AR48" s="28">
         <v>9</v>
       </c>
       <c r="AS48" s="79">
         <f>((($W$39)^Q48)*((1-($W$39))^($U$35-Q48))*HLOOKUP($U$35,$AV$24:$BF$34,Q48+1))*V49</f>
-        <v>1.1815375624656761E-4</v>
+        <v>5.8490500353021347E-6</v>
       </c>
       <c r="AV48" s="14">
         <v>10</v>
@@ -15658,7 +15653,7 @@
       </c>
       <c r="BJ48" s="107">
         <f>$H$30*H49</f>
-        <v>3.9324771725201997E-5</v>
+        <v>1.0042272063020695E-7</v>
       </c>
     </row>
     <row r="49" spans="1:62" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15682,14 +15677,14 @@
       </c>
       <c r="H49" s="133">
         <f>J49*L39+J48*L40+J47*L41+J46*L42</f>
-        <v>2.4712748133565431E-4</v>
+        <v>1.179802171104016E-5</v>
       </c>
       <c r="I49" s="94">
         <v>10</v>
       </c>
       <c r="J49" s="89">
         <f t="shared" si="37"/>
-        <v>1.8132023393313682E-5</v>
+        <v>2.0867812488306614E-7</v>
       </c>
       <c r="K49" s="96">
         <v>10</v>
@@ -15704,7 +15699,7 @@
       </c>
       <c r="R49" s="37">
         <f>P44*N44</f>
-        <v>2.6321296592410424E-3</v>
+        <v>0.13054370295559423</v>
       </c>
       <c r="S49" s="72">
         <v>10</v>
@@ -15718,7 +15713,7 @@
       </c>
       <c r="V49" s="89">
         <f>IF(((T49*R39+T48*R40+T47*R41+T46*R42+T45*R43+T44*R44+T43*R45+T42*R46+T41*R47+T40*R48+T39*R49)+V37)&lt;&gt;1,1-V37,(T49*R39+T48*R40+T47*R41+T46*R42+T45*R43+T44*R44+T43*R45+T42*R46+T41*R47+T40*R48+T39*R49))</f>
-        <v>2.7388904093843536E-3</v>
+        <v>0.13201762961296981</v>
       </c>
       <c r="W49" s="137"/>
       <c r="X49" s="28">
@@ -15766,7 +15761,7 @@
       </c>
       <c r="AS49" s="79">
         <f>((($W$39)^Q49)*((1-($W$39))^($U$35-Q49))*HLOOKUP($U$35,$AV$24:$BF$34,Q49+1))*V49</f>
-        <v>1.8132023393313682E-5</v>
+        <v>2.0867812488306614E-7</v>
       </c>
       <c r="BH49">
         <f>BP14+1</f>
@@ -15777,7 +15772,7 @@
       </c>
       <c r="BJ49" s="107">
         <f>$H$31*H39</f>
-        <v>9.6978733510564923E-4</v>
+        <v>9.8037759022742712E-5</v>
       </c>
     </row>
     <row r="50" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15824,7 +15819,7 @@
       </c>
       <c r="BJ50" s="107">
         <f>$H$31*H46</f>
-        <v>2.4627130831290887E-3</v>
+        <v>7.4535813484917761E-6</v>
       </c>
     </row>
     <row r="51" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15852,7 +15847,7 @@
       </c>
       <c r="BJ51" s="107">
         <f>$H$31*H47</f>
-        <v>6.7795767387983927E-4</v>
+        <v>1.3579875540005833E-6</v>
       </c>
     </row>
     <row r="52" spans="1:62" x14ac:dyDescent="0.25">
@@ -15866,7 +15861,7 @@
       </c>
       <c r="BJ52" s="107">
         <f>$H$31*H48</f>
-        <v>1.3603114100229415E-4</v>
+        <v>1.8602418972931845E-7</v>
       </c>
     </row>
     <row r="53" spans="1:62" x14ac:dyDescent="0.25">
@@ -15879,7 +15874,7 @@
       </c>
       <c r="BJ53" s="107">
         <f>$H$31*H49</f>
-        <v>1.9495569925668551E-5</v>
+        <v>1.8712667050271905E-8</v>
       </c>
     </row>
     <row r="54" spans="1:62" x14ac:dyDescent="0.25">
@@ -15892,7 +15887,7 @@
       </c>
       <c r="BJ54" s="107">
         <f>$H$32*H47</f>
-        <v>2.4666040381944479E-4</v>
+        <v>2.0093649798711777E-7</v>
       </c>
     </row>
     <row r="55" spans="1:62" x14ac:dyDescent="0.25">
@@ -15905,7 +15900,7 @@
       </c>
       <c r="BJ55" s="107">
         <f>$H$32*H48</f>
-        <v>4.9492022089852035E-5</v>
+        <v>2.752532533526029E-8</v>
       </c>
     </row>
     <row r="56" spans="1:62" x14ac:dyDescent="0.25">
@@ -15918,7 +15913,7 @@
       </c>
       <c r="BJ56" s="107">
         <f>$H$32*H49</f>
-        <v>7.0930462709209383E-6</v>
+        <v>2.7688455420696369E-9</v>
       </c>
     </row>
     <row r="57" spans="1:62" x14ac:dyDescent="0.25">
@@ -15931,7 +15926,7 @@
       </c>
       <c r="BJ57" s="107">
         <f>$H$33*H48</f>
-        <v>1.3219677832602605E-5</v>
+        <v>3.2602558220251835E-9</v>
       </c>
     </row>
     <row r="58" spans="1:62" x14ac:dyDescent="0.25">
@@ -15944,7 +15939,7 @@
       </c>
       <c r="BJ58" s="107">
         <f>$H$33*H49</f>
-        <v>1.8946040714013275E-6</v>
+        <v>3.2795778755999375E-10</v>
       </c>
     </row>
     <row r="59" spans="1:62" x14ac:dyDescent="0.25">
@@ -15957,7 +15952,7 @@
       </c>
       <c r="BJ59" s="107">
         <f>$H$34*H49</f>
-        <v>3.6836071170504257E-7</v>
+        <v>3.0991672347178447E-11</v>
       </c>
     </row>
   </sheetData>
@@ -15966,72 +15961,72 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <conditionalFormatting sqref="V25:V35 V39:V49">
-    <cfRule type="cellIs" dxfId="83" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="82" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V49">
-    <cfRule type="cellIs" dxfId="81" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V25:V35 V39:V49">
-    <cfRule type="cellIs" dxfId="80" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="79" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V49">
-    <cfRule type="cellIs" dxfId="78" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H35">
-    <cfRule type="cellIs" dxfId="77" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="76" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H35">
-    <cfRule type="cellIs" dxfId="75" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="74" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H49">
-    <cfRule type="cellIs" dxfId="73" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="72" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H49">
-    <cfRule type="cellIs" dxfId="71" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="70" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23292,72 +23287,72 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <conditionalFormatting sqref="V25:V35 V39:V49">
-    <cfRule type="cellIs" dxfId="69" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="83" priority="14" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="68" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="13" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V49">
-    <cfRule type="cellIs" dxfId="67" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="12" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V25:V35 V39:V49">
-    <cfRule type="cellIs" dxfId="66" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="11" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="65" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="79" priority="10" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V49">
-    <cfRule type="cellIs" dxfId="64" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="9" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H35">
-    <cfRule type="cellIs" dxfId="63" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="77" priority="8" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="62" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="7" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H35">
-    <cfRule type="cellIs" dxfId="61" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="6" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="60" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="5" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H49">
-    <cfRule type="cellIs" dxfId="59" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="4" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="58" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="3" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H49">
-    <cfRule type="cellIs" dxfId="57" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="2" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="56" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="1" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30242,72 +30237,72 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <conditionalFormatting sqref="V25:V35 V39:V49">
-    <cfRule type="cellIs" dxfId="55" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="14" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="54" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="13" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V49">
-    <cfRule type="cellIs" dxfId="53" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="12" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V25:V35 V39:V49">
-    <cfRule type="cellIs" dxfId="52" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="11" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="51" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="10" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V49">
-    <cfRule type="cellIs" dxfId="50" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="9" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H35">
-    <cfRule type="cellIs" dxfId="49" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="8" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="48" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="7" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H35">
-    <cfRule type="cellIs" dxfId="47" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="6" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="46" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="5" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H49">
-    <cfRule type="cellIs" dxfId="45" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="4" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="44" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="3" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H49">
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="2" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="1" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37172,72 +37167,72 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <conditionalFormatting sqref="V25:V35 V39:V49">
-    <cfRule type="cellIs" dxfId="41" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="14" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="40" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="13" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V49">
-    <cfRule type="cellIs" dxfId="39" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="12" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V25:V35 V39:V49">
-    <cfRule type="cellIs" dxfId="38" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="11" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="37" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="10" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V49">
-    <cfRule type="cellIs" dxfId="36" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="9" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H35">
-    <cfRule type="cellIs" dxfId="35" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="8" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="34" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="7" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H35">
-    <cfRule type="cellIs" dxfId="33" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="6" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="32" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="5" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H49">
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="4" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H49">
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43977,72 +43972,72 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <conditionalFormatting sqref="V25:V35 V39:V49">
-    <cfRule type="cellIs" dxfId="27" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="14" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="26" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="13" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V49">
-    <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="12" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V25:V35 V39:V49">
-    <cfRule type="cellIs" dxfId="24" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="11" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="10" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V49">
-    <cfRule type="cellIs" dxfId="22" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="9" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H35">
-    <cfRule type="cellIs" dxfId="21" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="8" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="7" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H35">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H49">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H49">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
@@ -50714,72 +50709,72 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <conditionalFormatting sqref="V24:V34 V38:V48">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="14" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V34">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="13" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V48">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V24:V34 V38:V48">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="11" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V34">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V48">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H34">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H34">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:H48">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:H48">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>

--- a/projects/current/hattrick/4-SimuladorPartidos.xlsx
+++ b/projects/current/hattrick/4-SimuladorPartidos.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EED8E01-408A-4449-9B18-DD7E252EC7B8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D82AD7-5FC3-4F51-AF48-624F1048020D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="VADER-Fernando" sheetId="458" r:id="rId1"/>
+    <sheet name="Danger-OBIWAN" sheetId="459" r:id="rId1"/>
     <sheet name="SIMULADOR_v3" sheetId="446" r:id="rId2"/>
     <sheet name="SIMULADOR&gt;22-12-17_v2" sheetId="436" r:id="rId3"/>
     <sheet name="SIMULADOR&gt;22-12-17" sheetId="435" r:id="rId4"/>
@@ -26,7 +26,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="W5" authorId="0" shapeId="0" xr:uid="{3E9731FE-F513-4B26-A829-04329BC824E7}">
+    <comment ref="W5" authorId="0" shapeId="0" xr:uid="{348406E4-E6BA-47DB-B100-37DC34A84D0F}">
       <text>
         <r>
           <rPr>
@@ -42,7 +42,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W6" authorId="0" shapeId="0" xr:uid="{0B09B650-D3C5-469A-A601-B2DA21F7F744}">
+    <comment ref="W6" authorId="0" shapeId="0" xr:uid="{13619DF7-7225-4F07-ACAF-41D387CC8835}">
       <text>
         <r>
           <rPr>
@@ -68,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W7" authorId="0" shapeId="0" xr:uid="{1639D8E1-AAA8-43FF-BD82-4DC8F0E3F076}">
+    <comment ref="W7" authorId="0" shapeId="0" xr:uid="{950620F2-ADEA-4A3A-96D2-421BC52040D1}">
       <text>
         <r>
           <rPr>
@@ -93,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W8" authorId="0" shapeId="0" xr:uid="{ADEA9FAF-30B3-4BB3-9271-F0067CABA137}">
+    <comment ref="W8" authorId="0" shapeId="0" xr:uid="{0BC67DA8-99FE-41E8-B683-5988F99B0310}">
       <text>
         <r>
           <rPr>
@@ -119,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W9" authorId="0" shapeId="0" xr:uid="{FF1008DD-27AB-49F7-BF7F-D7F1E10FD463}">
+    <comment ref="W9" authorId="0" shapeId="0" xr:uid="{1BFED455-29F8-4747-97A9-6A836A72A0C0}">
       <text>
         <r>
           <rPr>
@@ -155,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W10" authorId="0" shapeId="0" xr:uid="{AC5B43CB-60AA-4093-9681-794B40D4308A}">
+    <comment ref="W10" authorId="0" shapeId="0" xr:uid="{28E3545A-3C24-4C5D-8918-90D8C066D9F9}">
       <text>
         <r>
           <rPr>
@@ -180,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W11" authorId="0" shapeId="0" xr:uid="{2B98FA62-F555-484C-B8F3-41B3005CBC1C}">
+    <comment ref="W11" authorId="0" shapeId="0" xr:uid="{291A4DD1-39D8-4D57-A55D-F2D689F19E4B}">
       <text>
         <r>
           <rPr>
@@ -204,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W12" authorId="0" shapeId="0" xr:uid="{9C771387-686B-451C-8855-F17B0BD687F7}">
+    <comment ref="W12" authorId="0" shapeId="0" xr:uid="{34BC0381-D2F9-4B71-8DF7-BD0729C6B5E1}">
       <text>
         <r>
           <rPr>
@@ -220,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W13" authorId="0" shapeId="0" xr:uid="{D873E6B2-0B48-4063-96C5-DFFC6DAD5679}">
+    <comment ref="W13" authorId="0" shapeId="0" xr:uid="{E9B73E43-E8BC-49AE-AC03-D31575DF8A56}">
       <text>
         <r>
           <rPr>
@@ -245,7 +245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W14" authorId="0" shapeId="0" xr:uid="{B9BBA181-D253-4169-9F4D-8E95ED056FDD}">
+    <comment ref="W14" authorId="0" shapeId="0" xr:uid="{F6256942-D21D-4BCB-9991-0CEACEE1D093}">
       <text>
         <r>
           <rPr>
@@ -269,7 +269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W15" authorId="0" shapeId="0" xr:uid="{2F57D298-F570-404D-B2C3-128BCB00C924}">
+    <comment ref="W15" authorId="0" shapeId="0" xr:uid="{92D73754-4A41-407E-8D4C-9077A080A191}">
       <text>
         <r>
           <rPr>
@@ -306,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W16" authorId="0" shapeId="0" xr:uid="{AAD24A6F-6110-430B-A487-ADAB0BAB2A80}">
+    <comment ref="W16" authorId="0" shapeId="0" xr:uid="{B861A6B5-5BDF-4B94-AAD9-500ADADA8197}">
       <text>
         <r>
           <rPr>
@@ -330,7 +330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{4C6131E0-768E-4DD2-988B-AD1B178CF6C4}">
+    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{7A2F8C20-6AB6-48A3-9626-6392AA6428D2}">
       <text>
         <r>
           <rPr>
@@ -344,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W17" authorId="0" shapeId="0" xr:uid="{B39E40EA-960A-48A5-9E8A-9F5847988FE7}">
+    <comment ref="W17" authorId="0" shapeId="0" xr:uid="{40C84945-DDCC-47FD-B487-57313380FECD}">
       <text>
         <r>
           <rPr>
@@ -368,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W18" authorId="0" shapeId="0" xr:uid="{9822F42E-80B5-4B82-A982-0E5379C41073}">
+    <comment ref="W18" authorId="0" shapeId="0" xr:uid="{D5EE9F6F-CF30-4217-AFB2-824E07DD5350}">
       <text>
         <r>
           <rPr>
@@ -382,7 +382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W19" authorId="0" shapeId="0" xr:uid="{5DAD8804-C724-4A03-A919-D8E3FDFD9A2E}">
+    <comment ref="W19" authorId="0" shapeId="0" xr:uid="{3C9F1EE5-23E7-4FAF-AC4B-EAE629D1F83E}">
       <text>
         <r>
           <rPr>
@@ -407,7 +407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{592B6980-3645-4595-9370-CDB4E42CF0BC}">
+    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{DCF55583-5B5C-4648-BF11-75A5763912B9}">
       <text>
         <r>
           <rPr>
@@ -421,7 +421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{8F6D9E56-6E11-4EBD-AF0A-ED3CC5442E28}">
+    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{0DA7C2CA-7918-4373-87F1-FDF6CF199C57}">
       <text>
         <r>
           <rPr>
@@ -435,7 +435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U35" authorId="0" shapeId="0" xr:uid="{E5306390-CAD6-4127-ABED-AA76C786A746}">
+    <comment ref="U35" authorId="0" shapeId="0" xr:uid="{927CEDD1-CD6D-4D78-8269-3A5A2026F8A2}">
       <text>
         <r>
           <rPr>
@@ -459,7 +459,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U49" authorId="0" shapeId="0" xr:uid="{DE44FA7D-F2F7-4033-9C5D-B6A9865FA59A}">
+    <comment ref="U49" authorId="0" shapeId="0" xr:uid="{7C9DA1AF-1DB3-4EB2-A072-07914C793FA1}">
       <text>
         <r>
           <rPr>
@@ -3015,7 +3015,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="164">
   <si>
     <t>LOCAL</t>
   </si>
@@ -3503,7 +3503,10 @@
     <t>N</t>
   </si>
   <si>
-    <t>CA</t>
+    <t>Danger</t>
+  </si>
+  <si>
+    <t>AIM</t>
   </si>
 </sst>
 </file>
@@ -5661,7 +5664,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'VADER-Fernando'!$G$25:$G$35</c:f>
+              <c:f>'Danger-OBIWAN'!$G$25:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5703,42 +5706,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'VADER-Fernando'!$H$25:$H$35</c:f>
+              <c:f>'Danger-OBIWAN'!$H$25:$H$35</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.23781821078428603</c:v>
+                  <c:v>0.20687895151103949</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35389557422789747</c:v>
+                  <c:v>0.34780066463728926</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25030059527877668</c:v>
+                  <c:v>0.26840137644494466</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11203642434370767</c:v>
+                  <c:v>0.12591705143086104</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5585965866395335E-2</c:v>
+                  <c:v>4.0086858444242653E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.5118270748929907E-3</c:v>
+                  <c:v>9.1541940340988514E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5860851512725454E-3</c:v>
+                  <c:v>1.5451596962176325E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3468727299244177E-4</c:v>
+                  <c:v>1.9568037867910855E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7797693171991945E-5</c:v>
+                  <c:v>1.8661180595237491E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6268533069554845E-6</c:v>
+                  <c:v>1.3303078374455717E-6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9430117072301533E-7</c:v>
+                  <c:v>6.9352845103070019E-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5746,7 +5749,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CD5F-4CF0-B366-DCFBC9F29A0B}"/>
+              <c16:uniqueId val="{00000000-48D2-47A3-9A2E-185C71B3507B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5776,42 +5779,42 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'VADER-Fernando'!$H$39:$H$49</c:f>
+              <c:f>'Danger-OBIWAN'!$H$39:$H$49</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>6.1811157455250877E-2</c:v>
+                  <c:v>0.12699555382624356</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1923611700500297</c:v>
+                  <c:v>0.28122307024376914</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27549444716583066</c:v>
+                  <c:v>0.29012280557179915</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24060475678850396</c:v>
+                  <c:v>0.18527930333612563</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14313820202608143</c:v>
+                  <c:v>8.1944401819937077E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.1359154259542463E-2</c:v>
+                  <c:v>2.6548734427154566E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9545617028671598E-2</c:v>
+                  <c:v>6.4855805729870462E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.6993576243442104E-3</c:v>
+                  <c:v>1.2089339089115482E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5618830294895891E-4</c:v>
+                  <c:v>1.7175589033812831E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1728512153339801E-4</c:v>
+                  <c:v>1.8348105091157559E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.179802171104016E-5</c:v>
+                  <c:v>1.4321487830327103E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5819,7 +5822,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CD5F-4CF0-B366-DCFBC9F29A0B}"/>
+              <c16:uniqueId val="{00000001-48D2-47A3-9A2E-185C71B3507B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6409,7 +6412,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-7C2B-41D1-82E8-43FED2477B46}"/>
+                <c16:uniqueId val="{00000001-445C-4967-8B44-40867E573C2B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -6423,7 +6426,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-7C2B-41D1-82E8-43FED2477B46}"/>
+                <c16:uniqueId val="{00000003-445C-4967-8B44-40867E573C2B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -6437,31 +6440,31 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-7C2B-41D1-82E8-43FED2477B46}"/>
+                <c16:uniqueId val="{00000005-445C-4967-8B44-40867E573C2B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>'VADER-Fernando'!$B$37:$B$39</c:f>
+              <c:f>'Danger-OBIWAN'!$B$37:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.18433662404360182</c:v>
+                  <c:v>0.22881964863943663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.63392873230444247</c:v>
+                  <c:v>0.48369883695159366</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18173357204557425</c:v>
+                  <c:v>0.28748136232602001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-7C2B-41D1-82E8-43FED2477B46}"/>
+              <c16:uniqueId val="{00000006-445C-4967-8B44-40867E573C2B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7925,7 +7928,7 @@
         <xdr:cNvPr id="2" name="Graphique 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F313E1A-5B12-44C4-937F-621C531CEA3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8176C35-992C-4A40-B7CC-CE84B71A6770}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7963,7 +7966,7 @@
         <xdr:cNvPr id="3" name="Graphique 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D8B765C-70F3-4E5D-A945-6A9F6BF53BD3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AA026FE-98B7-4949-A07D-331FCD7D0DC8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8711,14 +8714,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9CEB46-6FA4-4009-A53E-CCD437043365}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DAF1CC8-98C2-4952-B075-1B5A2ABB531F}">
   <sheetPr>
-    <tabColor theme="9" tint="-0.249977111117893"/>
+    <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:BR59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8784,7 +8787,7 @@
   <sheetData>
     <row r="1" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A1" s="215" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="B1" t="s">
         <v>145</v>
@@ -8794,7 +8797,7 @@
       </c>
       <c r="G1" s="202">
         <f>IF(D3="SI",COUNTIF($F$6:$F$18,"RAP"),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1" s="13"/>
       <c r="J1" s="205" t="s">
@@ -8832,7 +8835,7 @@
       </c>
       <c r="G2" s="202">
         <f>IF(D3="SI",COUNTIF($F$6:$F$18,"TEC"),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="13"/>
       <c r="J2" s="205" t="s">
@@ -8840,7 +8843,7 @@
       </c>
       <c r="K2" s="202">
         <f>IF(D3="SI",COUNTIF($J$6:$J$18,"TEC"),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2" s="13"/>
       <c r="M2" s="163"/>
@@ -8877,7 +8880,7 @@
       </c>
       <c r="G3" s="202">
         <f>IF(D3="SI",COUNTIF($F$6:$F$18,"POT"),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="13"/>
       <c r="J3" s="205" t="s">
@@ -8914,7 +8917,7 @@
       </c>
       <c r="AI3" s="208">
         <f>SUM(AI5:AI19)</f>
-        <v>3.6836999999999995</v>
+        <v>3.6837000000000009</v>
       </c>
       <c r="AM3" s="208">
         <f>SUM(AM5:AM19)</f>
@@ -8922,7 +8925,7 @@
       </c>
       <c r="AN3" s="208">
         <f>SUM(AN5:AN19)</f>
-        <v>3.0750000000000006</v>
+        <v>3.6798000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:70" ht="15.75" x14ac:dyDescent="0.25">
@@ -9037,7 +9040,7 @@
       </c>
       <c r="BJ4" s="107">
         <f t="shared" ref="BJ4:BJ13" si="0">$H$25*H40</f>
-        <v>4.5746989285669851E-2</v>
+        <v>5.8179133912746366E-2</v>
       </c>
       <c r="BL4">
         <v>0</v>
@@ -9047,7 +9050,7 @@
       </c>
       <c r="BN4" s="107">
         <f>H25*H39</f>
-        <v>1.4699818872513546E-2</v>
+        <v>2.6272707022137048E-2</v>
       </c>
       <c r="BP4">
         <v>1</v>
@@ -9057,7 +9060,7 @@
       </c>
       <c r="BR4" s="107">
         <f>$H$26*H39</f>
-        <v>2.1874695061316996E-2</v>
+        <v>4.4169138026748149E-2</v>
       </c>
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.25">
@@ -9065,7 +9068,7 @@
         <v>150</v>
       </c>
       <c r="B5" s="161">
-        <v>532</v>
+        <v>352</v>
       </c>
       <c r="C5" s="161">
         <v>352</v>
@@ -9091,7 +9094,7 @@
       <c r="M5" s="10"/>
       <c r="O5" s="67">
         <f>AG5*AI5*AO5*AH5</f>
-        <v>0.18891690731707317</v>
+        <v>0</v>
       </c>
       <c r="P5" s="210">
         <f>P3</f>
@@ -9099,23 +9102,23 @@
       </c>
       <c r="Q5" s="214">
         <f>P5*O5</f>
-        <v>0.10768263717073169</v>
+        <v>0</v>
       </c>
       <c r="R5" s="157">
         <f>IF($B$17="JC",IF($C$17="JC",$W$1,$V$1*1.1),IF($C$17="JC",$V$1/0.9,$U$1))*Q5/1.5</f>
-        <v>0.10768263717073169</v>
+        <v>0</v>
       </c>
       <c r="S5" s="176">
         <f>(1-R5)</f>
-        <v>0.89231736282926832</v>
+        <v>1</v>
       </c>
       <c r="T5" s="177">
         <f>R5*PRODUCT(S6:S19)</f>
-        <v>8.4738461140042826E-2</v>
+        <v>0</v>
       </c>
       <c r="U5" s="177">
         <f>R5*R6*PRODUCT(S7:S19)+R5*R7*PRODUCT(S8:S19)*PRODUCT(S6)+R5*R8*PRODUCT(S9:S19)*PRODUCT(S6:S7)+R5*R9*PRODUCT(S10:S19)*PRODUCT(S6:S8)+R5*R10*PRODUCT(S11:S19)*PRODUCT(S6:S9)+R5*R11*PRODUCT(S12:S19)*PRODUCT(S6:S10)+R5*R12*PRODUCT(S13:S19)*PRODUCT(S6:S11)+R5*R13*PRODUCT(S14:S19)*PRODUCT(S6:S12)+R5*R14*PRODUCT(S15:S19)*PRODUCT(S6:S13)+R5*R15*PRODUCT(S16:S19)*PRODUCT(S6:S14)+R5*R16*PRODUCT(S17:S19)*PRODUCT(S6:S15)+R5*R17*PRODUCT(S18:S19)*PRODUCT(S6:S16)+R5*R18*PRODUCT(S19)*PRODUCT(S6:S17)+R5*R19*PRODUCT(S6:S18)</f>
-        <v>2.0670094647408415E-2</v>
+        <v>0</v>
       </c>
       <c r="V5" s="18"/>
       <c r="W5" s="186" t="s">
@@ -9126,7 +9129,7 @@
       </c>
       <c r="Y5" s="69">
         <f>AK5*AI5*AL5*AO5</f>
-        <v>0</v>
+        <v>7.8933568400456566E-2</v>
       </c>
       <c r="Z5" s="69">
         <f>Z3</f>
@@ -9134,44 +9137,44 @@
       </c>
       <c r="AA5" s="69">
         <f>Z5*Y5</f>
-        <v>0</v>
+        <v>4.4992133988260241E-2</v>
       </c>
       <c r="AB5" s="157">
         <f>IF($B$17="JC",IF($C$17="JC",$W$1,$V$1/0.9),IF($C$17="JC",$V$1*1.1,$U$1))*AA5/1.5</f>
-        <v>0</v>
+        <v>4.4992133988260241E-2</v>
       </c>
       <c r="AC5" s="176">
         <f>(1-AB5)</f>
-        <v>1</v>
+        <v>0.95500786601173981</v>
       </c>
       <c r="AD5" s="177">
         <f>AB5*PRODUCT(AC6:AC19)</f>
-        <v>0</v>
+        <v>2.8385658312279533E-2</v>
       </c>
       <c r="AE5" s="177">
         <f>AB5*AB6*PRODUCT(AC7:AC19)+AB5*AB7*PRODUCT(AC8:AC19)*PRODUCT(AC6)+AB5*AB8*PRODUCT(AC9:AC19)*PRODUCT(AC6:AC7)+AB5*AB9*PRODUCT(AC10:AC19)*PRODUCT(AC6:AC8)+AB5*AB10*PRODUCT(AC11:AC19)*PRODUCT(AC6:AC9)+AB5*AB11*PRODUCT(AC12:AC19)*PRODUCT(AC6:AC10)+AB5*AB12*PRODUCT(AC13:AC19)*PRODUCT(AC6:AC11)+AB5*AB13*PRODUCT(AC14:AC19)*PRODUCT(AC6:AC12)+AB5*AB14*PRODUCT(AC15:AC19)*PRODUCT(AC6:AC13)+AB5*AB15*PRODUCT(AC16:AC19)*PRODUCT(AC6:AC14)+AB5*AB16*PRODUCT(AC17:AC19)*PRODUCT(AC6:AC15)+AB5*AB17*PRODUCT(AC18:AC19)*PRODUCT(AC6:AC16)+AB5*AB18*PRODUCT(AC19)*PRODUCT(AC6:AC17)+AB5*AB19*PRODUCT(AC6:AC18)</f>
-        <v>0</v>
+        <v>1.3731374061573466E-2</v>
       </c>
       <c r="AF5" s="18"/>
       <c r="AG5" s="203">
         <f>IF(COUNTIF(F5:F10,"IMP")+COUNTIF(J5:J10,"IMP")=0,0,COUNTIF(F5:F10,"IMP")/(COUNTIF(F5:F10,"IMP")+COUNTIF(J5:J10,"IMP")))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH5">
         <f>COUNTIF(F5:F10,"IMP")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI5" s="207">
         <f>AN5*$AM$3/$AN$3</f>
-        <v>0.56675072195121956</v>
+        <v>0.4736014104027394</v>
       </c>
       <c r="AK5" s="203">
         <f>IF(COUNTIF(F5:F10,"IMP")+COUNTIF(J5:J10,"IMP")=0,0,COUNTIF(J5:J10,"IMP")/(COUNTIF(F5:F10,"IMP")+COUNTIF(J5:J10,"IMP")))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5">
         <f>COUNTIF(J5:J10,"IMP")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5" s="208">
         <v>0.47310000000000002</v>
@@ -9192,7 +9195,7 @@
       </c>
       <c r="BJ5" s="107">
         <f t="shared" si="0"/>
-        <v>6.5517596505983863E-2</v>
+        <v>6.0020301826134971E-2</v>
       </c>
       <c r="BL5">
         <v>1</v>
@@ -9202,7 +9205,7 @@
       </c>
       <c r="BN5" s="107">
         <f>$H$26*H40</f>
-        <v>6.8075766734005491E-2</v>
+        <v>9.7809570742121987E-2</v>
       </c>
       <c r="BP5">
         <f>BP4+1</f>
@@ -9213,7 +9216,7 @@
       </c>
       <c r="BR5" s="107">
         <f>$H$27*H39</f>
-        <v>1.5471369505919489E-2</v>
+        <v>3.4085781449351829E-2</v>
       </c>
     </row>
     <row r="6" spans="1:70" x14ac:dyDescent="0.25">
@@ -9221,18 +9224,15 @@
         <v>1</v>
       </c>
       <c r="B6" s="168">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="C6" s="169">
-        <f>12.25/1.2</f>
-        <v>10.208333333333334</v>
+        <v>8.5</v>
       </c>
       <c r="E6" s="192" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="167" t="s">
-        <v>146</v>
-      </c>
+      <c r="F6" s="167"/>
       <c r="G6" s="167"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
@@ -9244,7 +9244,7 @@
       <c r="M6" s="10"/>
       <c r="O6" s="67">
         <f t="shared" ref="O6:O19" si="1">AG6*AI6*AO6*AH6</f>
-        <v>6.2188642682926835E-2</v>
+        <v>0</v>
       </c>
       <c r="P6" s="210">
         <f>P3</f>
@@ -9252,23 +9252,23 @@
       </c>
       <c r="Q6" s="214">
         <f t="shared" ref="Q6:Q19" si="2">P6*O6</f>
-        <v>3.5447526329268293E-2</v>
+        <v>0</v>
       </c>
       <c r="R6" s="157">
         <f t="shared" ref="R6:R19" si="3">IF($B$17="JC",IF($C$17="JC",$W$1,$V$1*1.1),IF($C$17="JC",$V$1/0.9,$U$1))*Q6/1.5</f>
-        <v>3.5447526329268293E-2</v>
+        <v>0</v>
       </c>
       <c r="S6" s="176">
         <f t="shared" ref="S6:S19" si="4">(1-R6)</f>
-        <v>0.96455247367073171</v>
+        <v>1</v>
       </c>
       <c r="T6" s="177">
         <f>R6*S5*PRODUCT(S7:S19)</f>
-        <v>2.5805620616426342E-2</v>
+        <v>0</v>
       </c>
       <c r="U6" s="177">
         <f>R6*R7*PRODUCT(S8:S19)*PRODUCT(S5)+R6*R8*PRODUCT(S9:S19)*S5*PRODUCT(S7)+R6*R9*PRODUCT(S10:S19)*S5*PRODUCT(S7:S8)+R6*R10*PRODUCT(S11:S19)*S5*PRODUCT(S7:S9)+R6*R11*PRODUCT(S12:S19)*S5*PRODUCT(S7:S10)+R6*R12*PRODUCT(S13:S19)*S5*PRODUCT(S7:S11)+R6*R13*PRODUCT(S14:S19)*S5*PRODUCT(S7:S12)+R6*R14*PRODUCT(S15:S19)*S5*PRODUCT(S7:S13)+R6*R15*PRODUCT(S16:S19)*S5*PRODUCT(S7:S14)+R6*R16*PRODUCT(S17:S19)*S5*PRODUCT(S7:S15)+R6*R17*PRODUCT(S18:S19)*S5*PRODUCT(S7:S16)+R6*R18*PRODUCT(S19)*S5*PRODUCT(S7:S17)+R6*R19*S5*PRODUCT(S7:S18)</f>
-        <v>5.3463543447649425E-3</v>
+        <v>0</v>
       </c>
       <c r="V6" s="18"/>
       <c r="W6" s="186" t="s">
@@ -9279,7 +9279,7 @@
       </c>
       <c r="Y6" s="69">
         <f t="shared" ref="Y6:Y19" si="5">AK6*AI6*AL6*AO6</f>
-        <v>0</v>
+        <v>5.1967518954834514E-2</v>
       </c>
       <c r="Z6" s="69">
         <f>Z3</f>
@@ -9287,44 +9287,44 @@
       </c>
       <c r="AA6" s="69">
         <f t="shared" ref="AA6:AA19" si="6">Z6*Y6</f>
-        <v>0</v>
+        <v>2.9621485804255672E-2</v>
       </c>
       <c r="AB6" s="157">
         <f t="shared" ref="AB6:AB19" si="7">IF($B$17="JC",IF($C$17="JC",$W$1,$V$1/0.9),IF($C$17="JC",$V$1*1.1,$U$1))*AA6/1.5</f>
-        <v>0</v>
+        <v>2.9621485804255675E-2</v>
       </c>
       <c r="AC6" s="176">
         <f t="shared" ref="AC6:AC19" si="8">(1-AB6)</f>
-        <v>1</v>
+        <v>0.97037851419574428</v>
       </c>
       <c r="AD6" s="177">
         <f>AB6*AC5*PRODUCT(AC7:AC19)</f>
-        <v>0</v>
+        <v>1.8392255606561339E-2</v>
       </c>
       <c r="AE6" s="177">
         <f>AB6*AB7*PRODUCT(AC8:AC19)*PRODUCT(AC5)+AB6*AB8*PRODUCT(AC9:AC19)*AC5*PRODUCT(AC7)+AB6*AB9*PRODUCT(AC10:AC19)*AC5*PRODUCT(AC7:AC8)+AB6*AB10*PRODUCT(AC11:AC19)*AC5*PRODUCT(AC7:AC9)+AB6*AB11*PRODUCT(AC12:AC19)*AC5*PRODUCT(AC7:AC10)+AB6*AB12*PRODUCT(AC13:AC19)*AC5*PRODUCT(AC7:AC11)+AB6*AB13*PRODUCT(AC14:AC19)*AC5*PRODUCT(AC7:AC12)+AB6*AB14*PRODUCT(AC15:AC19)*AC5*PRODUCT(AC7:AC13)+AB6*AB15*PRODUCT(AC16:AC19)*AC5*PRODUCT(AC7:AC14)+AB6*AB16*PRODUCT(AC17:AC19)*AC5*PRODUCT(AC7:AC15)+AB6*AB17*PRODUCT(AC18:AC19)*AC5*PRODUCT(AC7:AC16)+AB6*AB18*PRODUCT(AC19)*AC5*PRODUCT(AC7:AC17)+AB6*AB19*AC5*PRODUCT(AC7:AC18)</f>
-        <v>0</v>
+        <v>8.3356952190321645E-3</v>
       </c>
       <c r="AF6" s="18"/>
       <c r="AG6" s="203">
         <f>IF(COUNTIF(F11:F18,"IMP")+COUNTIF(J11:J18,"IMP")=0,0,COUNTIF(F11:F18,"IMP")/(COUNTIF(F11:F18,"IMP")+COUNTIF(J11:J18,"IMP")))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6">
         <f>COUNTIF(F11:F18,"IMP")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="207">
         <f t="shared" ref="AI6:AI19" si="9">AN6*$AM$3/$AN$3</f>
-        <v>0.49750914146341468</v>
+        <v>0.41574015163867611</v>
       </c>
       <c r="AK6" s="203">
         <f>IF(COUNTIF(F11:F18,"IMP")+COUNTIF(J11:J18,"IMP")=0,0,COUNTIF(J11:J18,"IMP")/(COUNTIF(F11:F18,"IMP")+COUNTIF(J11:J18,"IMP")))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6">
         <f>COUNTIF(J11:J18,"IMP")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6" s="208">
         <v>0.4153</v>
@@ -9345,7 +9345,7 @@
       </c>
       <c r="BJ6" s="107">
         <f t="shared" si="0"/>
-        <v>5.7220192765630312E-2</v>
+        <v>3.833038801087351E-2</v>
       </c>
       <c r="BL6">
         <f>BH14+1</f>
@@ -9356,7 +9356,7 @@
       </c>
       <c r="BN6" s="107">
         <f>$H$27*H41</f>
-        <v>6.8956424121604909E-2</v>
+        <v>7.7869360353539946E-2</v>
       </c>
       <c r="BP6">
         <f>BL5+1</f>
@@ -9367,7 +9367,7 @@
       </c>
       <c r="BR6" s="107">
         <f>$H$27*H40</f>
-        <v>4.8148115372044421E-2</v>
+        <v>7.5480659141500997E-2</v>
       </c>
     </row>
     <row r="7" spans="1:70" x14ac:dyDescent="0.25">
@@ -9375,21 +9375,23 @@
         <v>2</v>
       </c>
       <c r="B7" s="168">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C7" s="169">
-        <v>12.25</v>
+        <v>11.75</v>
       </c>
       <c r="E7" s="192" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="167" t="s">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="G7" s="167"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="166"/>
+      <c r="J7" s="166" t="s">
+        <v>146</v>
+      </c>
       <c r="K7" s="166"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
@@ -9429,7 +9431,7 @@
       </c>
       <c r="Y7" s="69">
         <f t="shared" si="5"/>
-        <v>4.6720097560975608E-3</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="69">
         <f>Z2</f>
@@ -9437,23 +9439,23 @@
       </c>
       <c r="AA7" s="69">
         <f t="shared" si="6"/>
-        <v>2.1024043902439023E-3</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="157">
         <f t="shared" si="7"/>
-        <v>2.1024043902439023E-3</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="176">
         <f t="shared" si="8"/>
-        <v>0.99789759560975611</v>
+        <v>1</v>
       </c>
       <c r="AD7" s="177">
         <f>AB7*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC19)</f>
-        <v>1.4583330215988748E-3</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="177">
         <f>AB7*AB8*PRODUCT(AC9:AC19)*PRODUCT(AC5:AC6)+AB7*AB9*PRODUCT(AC10:AC19)*PRODUCT(AC5:AC6)*PRODUCT(AC8)+AB7*AB10*PRODUCT(AC11:AC19)*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC9)+AB7*AB11*PRODUCT(AC12:AC19)*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC10)+AB7*AB12*PRODUCT(AC13:AC19)*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC11)+AB7*AB13*PRODUCT(AC14:AC19)*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC12)+AB7*AB14*PRODUCT(AC15:AC19)*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC13)+AB7*AB15*PRODUCT(AC16:AC19)*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC14)+AB7*AB16*PRODUCT(AC17:AC19)*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC15)+AB7*AB17*PRODUCT(AC18:AC19)*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC16)+AB7*AB18*PRODUCT(AC19)*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC17)+AB7*AB19*PRODUCT(AC5:AC6)*PRODUCT(AC8:AC18)</f>
-        <v>5.5075807905643733E-4</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="203">
         <f>IF(COUNTIF(F14:F18,"IMP")+COUNTIF(J14:J18,"IMP")=0,0,COUNTIF(J14:J18,"IMP")/(COUNTIF(F14:F18,"IMP")+COUNTIF(J14:J18,"IMP")))</f>
@@ -9465,22 +9467,22 @@
       </c>
       <c r="AI7" s="207">
         <f t="shared" si="9"/>
-        <v>4.6720097560975608E-3</v>
+        <v>0</v>
       </c>
       <c r="AK7" s="203">
         <f>IF(COUNTIF(F14:F18,"IMP")+COUNTIF(J14:J18,"IMP")=0,0,COUNTIF(F14:F18,"IMP")/(COUNTIF(F14:F18,"IMP")+COUNTIF(J14:J18,"IMP")))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7">
         <f>COUNTIF(F14:F18,"IMP")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" s="208">
         <v>3.8999999999999998E-3</v>
       </c>
       <c r="AN7" s="209">
         <f t="shared" si="10"/>
-        <v>3.8999999999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="AO7">
         <v>1</v>
@@ -9493,7 +9495,7 @@
       </c>
       <c r="BJ7" s="107">
         <f t="shared" si="0"/>
-        <v>3.4040871100722354E-2</v>
+        <v>1.6952571930707899E-2</v>
       </c>
       <c r="BL7">
         <f>BH23+1</f>
@@ -9504,7 +9506,7 @@
       </c>
       <c r="BN7" s="107">
         <f>$H$28*H42</f>
-        <v>2.6956496630671407E-2</v>
+        <v>2.3329823567249035E-2</v>
       </c>
       <c r="BP7">
         <f>BP5+1</f>
@@ -9515,7 +9517,7 @@
       </c>
       <c r="BR7" s="107">
         <f>$H$28*H39</f>
-        <v>6.9251010658322168E-3</v>
+        <v>1.5990905682629793E-2</v>
       </c>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.25">
@@ -9523,17 +9525,15 @@
         <v>3</v>
       </c>
       <c r="B8" s="168">
-        <v>14.25</v>
+        <v>10.75</v>
       </c>
       <c r="C8" s="169">
-        <v>12</v>
+        <v>13.75</v>
       </c>
       <c r="E8" s="192" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="167" t="s">
-        <v>16</v>
-      </c>
+      <c r="F8" s="167"/>
       <c r="G8" s="167"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -9545,7 +9545,7 @@
       <c r="M8" s="10"/>
       <c r="O8" s="67">
         <f t="shared" si="1"/>
-        <v>0.12716712945590997</v>
+        <v>0</v>
       </c>
       <c r="P8" s="210">
         <f>P2</f>
@@ -9553,23 +9553,23 @@
       </c>
       <c r="Q8" s="214">
         <f t="shared" si="2"/>
-        <v>5.7225208255159483E-2</v>
+        <v>0</v>
       </c>
       <c r="R8" s="157">
         <f t="shared" si="3"/>
-        <v>5.7225208255159483E-2</v>
+        <v>0</v>
       </c>
       <c r="S8" s="176">
         <f t="shared" si="4"/>
-        <v>0.94277479174484047</v>
+        <v>1</v>
       </c>
       <c r="T8" s="177">
         <f>R8*PRODUCT(S5:S7)*PRODUCT(S9:S19)</f>
-        <v>4.2621983214792498E-2</v>
+        <v>0</v>
       </c>
       <c r="U8" s="177">
         <f>R8*R9*PRODUCT(S5:S7)*PRODUCT(S10:S19)+R8*R10*PRODUCT(S5:S7)*PRODUCT(S9)*PRODUCT(S11:S19)+R8*R11*PRODUCT(S5:S7)*PRODUCT(S9:S10)*PRODUCT(S12:S19)+R8*R12*PRODUCT(S5:S7)*PRODUCT(S9:S11)*PRODUCT(S13:S19)+R8*R13*PRODUCT(S5:S7)*PRODUCT(S9:S12)*PRODUCT(S14:S19)+R8*R14*PRODUCT(S5:S7)*PRODUCT(S9:S13)*PRODUCT(S15:S19)+R8*R15*PRODUCT(S5:S7)*PRODUCT(S9:S14)*PRODUCT(S16:S19)+R8*R16*PRODUCT(S5:S7)*PRODUCT(S9:S15)*PRODUCT(S17:S19)+R8*R17*PRODUCT(S5:S7)*PRODUCT(S9:S16)*PRODUCT(S18:S19)+R8*R18*PRODUCT(S5:S7)*PRODUCT(S9:S17)*PRODUCT(S19)+R8*R19*PRODUCT(S5:S7)*PRODUCT(S9:S18)</f>
-        <v>6.2432339172915751E-3</v>
+        <v>0</v>
       </c>
       <c r="W8" s="186" t="s">
         <v>42</v>
@@ -9579,7 +9579,7 @@
       </c>
       <c r="Y8" s="69">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7.0844234845539283E-2</v>
       </c>
       <c r="Z8" s="69">
         <f>Z2</f>
@@ -9587,43 +9587,43 @@
       </c>
       <c r="AA8" s="69">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.1879905680492676E-2</v>
       </c>
       <c r="AB8" s="157">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.1879905680492676E-2</v>
       </c>
       <c r="AC8" s="176">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.9681200943195073</v>
       </c>
       <c r="AD8" s="177">
         <f>AB8*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC19)</f>
-        <v>0</v>
+        <v>1.9840705939837146E-2</v>
       </c>
       <c r="AE8" s="177">
         <f>AB8*AB9*PRODUCT(AC5:AC7)*PRODUCT(AC10:AC19)+AB8*AB10*PRODUCT(AC5:AC7)*PRODUCT(AC9)*PRODUCT(AC11:AC19)+AB8*AB11*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC10)*PRODUCT(AC12:AC19)+AB8*AB12*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC11)*PRODUCT(AC13:AC19)+AB8*AB13*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC12)*PRODUCT(AC14:AC19)+AB8*AB14*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC13)*PRODUCT(AC15:AC19)+AB8*AB15*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC14)*PRODUCT(AC16:AC19)+AB8*AB16*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC15)*PRODUCT(AC17:AC19)+AB8*AB17*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC16)*PRODUCT(AC18:AC19)+AB8*AB18*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC17)*PRODUCT(AC19)+AB8*AB19*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC18)</f>
-        <v>0</v>
+        <v>8.3388099798693896E-3</v>
       </c>
       <c r="AG8" s="203">
         <f>IF(COUNTIF(F6:F18,"IMP")+COUNTIF(J6:J18,"IMP")=0,0,COUNTIF(F6:F18,"IMP")/(COUNTIF(F6:F18,"IMP")+COUNTIF(J6:J18,"IMP")))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH8">
         <f>COUNTIF(F6:F18,"IMP")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI8" s="207">
         <f t="shared" si="9"/>
-        <v>0.55105756097560976</v>
+        <v>0.46048752649600533</v>
       </c>
       <c r="AK8" s="203">
         <f>IF(COUNTIF(F6:F18,"IMP")+COUNTIF(J6:J18,"IMP")=0,0,COUNTIF(J6:J18,"IMP")/(COUNTIF(F6:F18,"IMP")+COUNTIF(J6:J18,"IMP")))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8">
         <f>COUNTIF(J6:J18,"IMP")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM8" s="208">
         <v>0.46</v>
@@ -9644,7 +9644,7 @@
       </c>
       <c r="BJ8" s="107">
         <f t="shared" si="0"/>
-        <v>1.4592324281241392E-2</v>
+        <v>5.4923743422347748E-3</v>
       </c>
       <c r="BL8">
         <f>BH31+1</f>
@@ -9655,7 +9655,7 @@
       </c>
       <c r="BN8" s="107">
         <f>$H$29*H43</f>
-        <v>5.0937111714773331E-3</v>
+        <v>3.2848936360539574E-3</v>
       </c>
       <c r="BP8">
         <f>BP6+1</f>
@@ -9666,7 +9666,7 @@
       </c>
       <c r="BR8" s="107">
         <f>$H$28*H40</f>
-        <v>2.1551457674977237E-2</v>
+        <v>3.5410779799429325E-2</v>
       </c>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.25">
@@ -9674,10 +9674,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="168">
-        <v>14.25</v>
+        <v>6.5</v>
       </c>
       <c r="C9" s="169">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="E9" s="192" t="s">
         <v>18</v>
@@ -9688,13 +9688,15 @@
       <c r="G9" s="167"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="166"/>
+      <c r="J9" s="166" t="s">
+        <v>16</v>
+      </c>
       <c r="K9" s="166"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="O9" s="67">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.3024376324800262E-2</v>
       </c>
       <c r="P9" s="210">
         <f>P2</f>
@@ -9702,23 +9704,23 @@
       </c>
       <c r="Q9" s="214">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.0360969346160119E-2</v>
       </c>
       <c r="R9" s="157">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.0360969346160119E-2</v>
       </c>
       <c r="S9" s="176">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.98963903065383985</v>
       </c>
       <c r="T9" s="177">
         <f>R9*PRODUCT(S5:S8)*PRODUCT(S10:S19)</f>
-        <v>0</v>
+        <v>8.8006716926145034E-3</v>
       </c>
       <c r="U9" s="177">
         <f>R9*R10*PRODUCT(S5:S8)*PRODUCT(S11:S19)+R9*R11*PRODUCT(S5:S8)*PRODUCT(S10)*PRODUCT(S12:S19)+R9*R12*PRODUCT(S5:S8)*PRODUCT(S10:S11)*PRODUCT(S13:S19)+R9*R13*PRODUCT(S5:S8)*PRODUCT(S10:S12)*PRODUCT(S14:S19)+R9*R14*PRODUCT(S5:S8)*PRODUCT(S10:S13)*PRODUCT(S15:S19)+R9*R15*PRODUCT(S5:S8)*PRODUCT(S10:S14)*PRODUCT(S16:S19)+R9*R16*PRODUCT(S5:S8)*PRODUCT(S10:S15)*PRODUCT(S17:S19)+R9*R17*PRODUCT(S5:S8)*PRODUCT(S10:S16)*PRODUCT(S18:S19)+R9*R18*PRODUCT(S5:S8)*PRODUCT(S10:S17)*PRODUCT(S19)+R9*R19*PRODUCT(S5:S8)*PRODUCT(S10:S18)</f>
-        <v>0</v>
+        <v>1.4610780967548734E-3</v>
       </c>
       <c r="W9" s="187" t="s">
         <v>44</v>
@@ -9728,7 +9730,7 @@
       </c>
       <c r="Y9" s="69">
         <f t="shared" si="5"/>
-        <v>2.7552878048780486E-2</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="69">
         <f>Z2</f>
@@ -9736,43 +9738,43 @@
       </c>
       <c r="AA9" s="69">
         <f t="shared" si="6"/>
-        <v>1.2398795121951219E-2</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="157">
         <f t="shared" si="7"/>
-        <v>1.2398795121951219E-2</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="176">
         <f t="shared" si="8"/>
-        <v>0.98760120487804881</v>
+        <v>1</v>
       </c>
       <c r="AD9" s="177">
         <f>AB9*PRODUCT(AC5:AC8)*PRODUCT(AC10:AC19)</f>
-        <v>8.6900905924864168E-3</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="177">
         <f>AB9*AB10*PRODUCT(AC5:AC8)*PRODUCT(AC11:AC19)+AB9*AB11*PRODUCT(AC5:AC8)*PRODUCT(AC10)*PRODUCT(AC12:AC19)+AB9*AB12*PRODUCT(AC5:AC8)*PRODUCT(AC10:AC11)*PRODUCT(AC13:AC19)+AB9*AB13*PRODUCT(AC5:AC8)*PRODUCT(AC10:AC12)*PRODUCT(AC14:AC19)+AB9*AB14*PRODUCT(AC5:AC8)*PRODUCT(AC10:AC13)*PRODUCT(AC15:AC19)+AB9*AB15*PRODUCT(AC5:AC8)*PRODUCT(AC10:AC14)*PRODUCT(AC16:AC19)+AB9*AB16*PRODUCT(AC5:AC8)*PRODUCT(AC10:AC15)*PRODUCT(AC17:AC19)+AB9*AB17*PRODUCT(AC5:AC8)*PRODUCT(AC10:AC16)*PRODUCT(AC18:AC19)+AB9*AB18*PRODUCT(AC5:AC8)*PRODUCT(AC10:AC17)*PRODUCT(AC19)+AB9*AB19*PRODUCT(AC5:AC8)*PRODUCT(AC10:AC18)</f>
-        <v>3.1728242749418131E-3</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="203">
         <f>IF(COUNTIF(J6:J13,"IMP")+COUNTIF(F6:F13,"IMP")=0,0,COUNTIF(J6:J13,"IMP")/(COUNTIF(J6:J13,"IMP")+COUNTIF(F6:F13,"IMP")))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9">
         <f>COUNTIF(J6:J13,"IMP")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI9" s="207">
         <f t="shared" si="9"/>
-        <v>1.3776439024390243E-2</v>
+        <v>1.1512188162400131E-2</v>
       </c>
       <c r="AK9" s="203">
         <f>IF(COUNTIF(J6:J13,"IMP")+COUNTIF(F6:F13,"IMP")=0,0,COUNTIF(F6:F13,"IMP")/(COUNTIF(J6:J13,"IMP")+COUNTIF(F6:F13,"IMP")))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9">
         <f>COUNTIF(F6:F13,"IMP")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="208">
         <v>1.15E-2</v>
@@ -9792,7 +9794,7 @@
       </c>
       <c r="BJ9" s="107">
         <f t="shared" si="0"/>
-        <v>4.6483036704335528E-3</v>
+        <v>1.341730108879927E-3</v>
       </c>
       <c r="BL9">
         <f>BH38+1</f>
@@ -9803,7 +9805,7 @@
       </c>
       <c r="BN9" s="107">
         <f>$H$30*H44</f>
-        <v>5.2227851051890909E-4</v>
+        <v>2.4303226630593313E-4</v>
       </c>
       <c r="BP9">
         <f>BL6+1</f>
@@ -9814,7 +9816,7 @@
       </c>
       <c r="BR9" s="107">
         <f>$H$28*H41</f>
-        <v>3.0865412787006156E-2</v>
+        <v>3.6531408230449931E-2</v>
       </c>
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.25">
@@ -9822,29 +9824,27 @@
         <v>5</v>
       </c>
       <c r="B10" s="168">
-        <v>9.5</v>
+        <v>6.25</v>
       </c>
       <c r="C10" s="169">
-        <v>10.25</v>
+        <v>6.5</v>
       </c>
       <c r="E10" s="192" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="167" t="s">
-        <v>123</v>
-      </c>
+      <c r="F10" s="167"/>
       <c r="G10" s="167"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="166" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K10" s="166"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="O10" s="67">
         <f t="shared" si="1"/>
-        <v>2.495731707317073E-2</v>
+        <v>2.08554133376814E-2</v>
       </c>
       <c r="P10" s="210">
         <f>P3</f>
@@ -9852,23 +9852,23 @@
       </c>
       <c r="Q10" s="214">
         <f t="shared" si="2"/>
-        <v>1.4225670731707314E-2</v>
+        <v>1.1887585602478396E-2</v>
       </c>
       <c r="R10" s="157">
         <f t="shared" si="3"/>
-        <v>1.4225670731707314E-2</v>
+        <v>1.1887585602478398E-2</v>
       </c>
       <c r="S10" s="176">
         <f t="shared" si="4"/>
-        <v>0.98577432926829267</v>
+        <v>0.98811241439752162</v>
       </c>
       <c r="T10" s="177">
         <f>R10*PRODUCT(S5:S9)*PRODUCT(S11:S19)</f>
-        <v>1.0133266893486972E-2</v>
+        <v>1.011298930728613E-2</v>
       </c>
       <c r="U10" s="177">
         <f>R10*R11*PRODUCT(S5:S9)*PRODUCT(S12:S19)+R10*R12*PRODUCT(S5:S9)*S11*PRODUCT(S13:S19)+R10*R13*PRODUCT(S5:S9)*PRODUCT(S11:S12)*PRODUCT(S14:S19)+R10*R14*PRODUCT(S5:S9)*PRODUCT(S11:S13)*PRODUCT(S15:S19)+R10*R15*PRODUCT(S5:S9)*PRODUCT(S11:S14)*PRODUCT(S16:S19)+R10*R16*PRODUCT(S5:S9)*PRODUCT(S11:S15)*PRODUCT(S17:S19)+R10*R17*PRODUCT(S5:S9)*PRODUCT(S11:S16)*PRODUCT(S18:S19)+R10*R18*PRODUCT(S5:S9)*PRODUCT(S11:S17)*PRODUCT(S19)+R10*R19*PRODUCT(S5:S9)*PRODUCT(S11:S18)</f>
-        <v>1.3380800297895304E-3</v>
+        <v>1.5572823296735065E-3</v>
       </c>
       <c r="W10" s="186" t="s">
         <v>46</v>
@@ -9878,7 +9878,7 @@
       </c>
       <c r="Y10" s="69">
         <f t="shared" si="5"/>
-        <v>9.9829268292682918E-2</v>
+        <v>8.34216533507256E-2</v>
       </c>
       <c r="Z10" s="69">
         <f>Z3</f>
@@ -9886,23 +9886,23 @@
       </c>
       <c r="AA10" s="69">
         <f t="shared" si="6"/>
-        <v>5.6902682926829255E-2</v>
+        <v>4.7550342409913585E-2</v>
       </c>
       <c r="AB10" s="157">
         <f t="shared" si="7"/>
-        <v>5.6902682926829255E-2</v>
+        <v>4.7550342409913592E-2</v>
       </c>
       <c r="AC10" s="176">
         <f t="shared" si="8"/>
-        <v>0.94309731707317079</v>
+        <v>0.95244965759008637</v>
       </c>
       <c r="AD10" s="177">
         <f>AB10*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC19)</f>
-        <v>4.1764055619777064E-2</v>
+        <v>3.0080215666687657E-2</v>
       </c>
       <c r="AE10" s="177">
         <f>AB10*AB11*PRODUCT(AC5:AC9)*PRODUCT(AC12:AC19)+AB10*AB12*PRODUCT(AC5:AC9)*AC11*PRODUCT(AC13:AC19)+AB10*AB13*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC12)*PRODUCT(AC14:AC19)+AB10*AB14*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC13)*PRODUCT(AC15:AC19)+AB10*AB15*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC14)*PRODUCT(AC16:AC19)+AB10*AB16*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC15)*PRODUCT(AC17:AC19)+AB10*AB17*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC16)*PRODUCT(AC18:AC19)+AB10*AB18*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC17)*PRODUCT(AC19)+AB10*AB19*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC18)</f>
-        <v>1.2728529263461037E-2</v>
+        <v>1.1140620267828982E-2</v>
       </c>
       <c r="AG10" s="203">
         <f>IF(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")=0,0,COUNTIF(F11:F18,"RAP")/(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")))</f>
@@ -9914,7 +9914,7 @@
       </c>
       <c r="AI10" s="207">
         <f t="shared" si="9"/>
-        <v>0.59897560975609754</v>
+        <v>0.5005299201043536</v>
       </c>
       <c r="AK10" s="203">
         <f>IF(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")=0,0,COUNTIF(J11:J18,"RAP")/(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")))</f>
@@ -9943,7 +9943,7 @@
       </c>
       <c r="BJ10" s="107">
         <f t="shared" si="0"/>
-        <v>1.1175928220570331E-3</v>
+        <v>2.501029795217636E-4</v>
       </c>
       <c r="BL10">
         <f>BH44+1</f>
@@ -9954,7 +9954,7 @@
       </c>
       <c r="BN10" s="107">
         <f>$H$31*H45</f>
-        <v>3.1001012941635831E-5</v>
+        <v>1.0021257707951644E-5</v>
       </c>
       <c r="BP10">
         <f>BP7+1</f>
@@ -9965,7 +9965,7 @@
       </c>
       <c r="BR10" s="107">
         <f>$H$29*H39</f>
-        <v>2.1996097393649451E-3</v>
+        <v>5.0908527892808237E-3</v>
       </c>
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.25">
@@ -9973,10 +9973,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="168">
-        <v>5.25</v>
+        <v>10.25</v>
       </c>
       <c r="C11" s="169">
-        <v>8.25</v>
+        <v>3.5</v>
       </c>
       <c r="E11" s="192" t="s">
         <v>19</v>
@@ -9988,14 +9988,14 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="166" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="K11" s="166"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="O11" s="67">
         <f t="shared" si="1"/>
-        <v>2.495731707317073E-2</v>
+        <v>2.08554133376814E-2</v>
       </c>
       <c r="P11" s="210">
         <f>P3</f>
@@ -10003,23 +10003,23 @@
       </c>
       <c r="Q11" s="214">
         <f t="shared" si="2"/>
-        <v>1.4225670731707314E-2</v>
+        <v>1.1887585602478396E-2</v>
       </c>
       <c r="R11" s="157">
         <f t="shared" si="3"/>
-        <v>1.4225670731707314E-2</v>
+        <v>1.1887585602478398E-2</v>
       </c>
       <c r="S11" s="176">
         <f t="shared" si="4"/>
-        <v>0.98577432926829267</v>
+        <v>0.98811241439752162</v>
       </c>
       <c r="T11" s="177">
         <f>R11*PRODUCT(S5:S10)*PRODUCT(S12:S19)</f>
-        <v>1.0133266893486974E-2</v>
+        <v>1.0112989307286128E-2</v>
       </c>
       <c r="U11" s="177">
         <f>R11*R12*PRODUCT(S5:S10)*PRODUCT(S13:S19)+R11*R13*PRODUCT(S5:S10)*S12*PRODUCT(S14:S19)+R11*R14*PRODUCT(S5:S10)*PRODUCT(S12:S13)*PRODUCT(S15:S19)+R11*R15*PRODUCT(S5:S10)*PRODUCT(S12:S14)*PRODUCT(S16:S19)+R11*R16*PRODUCT(S5:S10)*PRODUCT(S12:S15)*PRODUCT(S17:S19)+R11*R17*PRODUCT(S5:S10)*PRODUCT(S12:S16)*PRODUCT(S18:S19)+R11*R18*PRODUCT(S5:S10)*PRODUCT(S12:S17)*PRODUCT(S19)+R11*R19*PRODUCT(S5:S10)*PRODUCT(S12:S18)</f>
-        <v>1.1918472521818442E-3</v>
+        <v>1.4356169965235195E-3</v>
       </c>
       <c r="W11" s="186" t="s">
         <v>48</v>
@@ -10029,7 +10029,7 @@
       </c>
       <c r="Y11" s="69">
         <f t="shared" si="5"/>
-        <v>9.9829268292682918E-2</v>
+        <v>8.34216533507256E-2</v>
       </c>
       <c r="Z11" s="69">
         <f>Z3</f>
@@ -10037,23 +10037,23 @@
       </c>
       <c r="AA11" s="69">
         <f t="shared" si="6"/>
-        <v>5.6902682926829255E-2</v>
+        <v>4.7550342409913585E-2</v>
       </c>
       <c r="AB11" s="157">
         <f t="shared" si="7"/>
-        <v>5.6902682926829255E-2</v>
+        <v>4.7550342409913592E-2</v>
       </c>
       <c r="AC11" s="176">
         <f t="shared" si="8"/>
-        <v>0.94309731707317079</v>
+        <v>0.95244965759008637</v>
       </c>
       <c r="AD11" s="177">
         <f>AB11*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC19)</f>
-        <v>4.1764055619777078E-2</v>
+        <v>3.008021566668765E-2</v>
       </c>
       <c r="AE11" s="177">
         <f>AB11*AB12*PRODUCT(AC5:AC10)*PRODUCT(AC13:AC19)+AB11*AB13*PRODUCT(AC5:AC10)*AC12*PRODUCT(AC14:AC19)+AB11*AB14*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC13)*PRODUCT(AC15:AC19)+AB11*AB15*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC14)*PRODUCT(AC16:AC19)+AB11*AB16*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC15)*PRODUCT(AC17:AC19)+AB11*AB17*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC16)*PRODUCT(AC18:AC19)+AB11*AB18*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC17)*PRODUCT(AC19)+AB11*AB19*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC18)</f>
-        <v>1.020865483306198E-2</v>
+        <v>9.6388878210620955E-3</v>
       </c>
       <c r="AG11" s="203">
         <f>IF(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")=0,0,COUNTIF(F11:F18,"RAP")/(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")))</f>
@@ -10065,7 +10065,7 @@
       </c>
       <c r="AI11" s="207">
         <f t="shared" si="9"/>
-        <v>0.59897560975609754</v>
+        <v>0.5005299201043536</v>
       </c>
       <c r="AK11" s="203">
         <f>IF(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")=0,0,COUNTIF(J11:J18,"RAP")/(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")))</f>
@@ -10094,7 +10094,7 @@
       </c>
       <c r="BJ11" s="107">
         <f t="shared" si="0"/>
-        <v>2.0361717030175565E-4</v>
+        <v>3.5532678508997066E-5</v>
       </c>
       <c r="BL11">
         <f>BH50+1</f>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="BN11" s="107">
         <f>$H$32*H46</f>
-        <v>1.1028794256735823E-6</v>
+        <v>2.3656464509382667E-7</v>
       </c>
       <c r="BP11">
         <f>BP8+1</f>
@@ -10116,7 +10116,7 @@
       </c>
       <c r="BR11" s="107">
         <f>$H$29*H40</f>
-        <v>6.8453580314202251E-3</v>
+        <v>1.1273349408117282E-2</v>
       </c>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.25">
@@ -10124,16 +10124,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="168">
-        <v>9.75</v>
+        <v>6.5</v>
       </c>
       <c r="C12" s="169">
-        <v>12.25</v>
+        <v>6</v>
       </c>
       <c r="E12" s="192" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="167" t="s">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="G12" s="167"/>
       <c r="H12" s="10"/>
@@ -10146,7 +10146,7 @@
       <c r="M12" s="10"/>
       <c r="O12" s="67">
         <f t="shared" si="1"/>
-        <v>4.3051371951219504E-3</v>
+        <v>2.7409971815238405E-3</v>
       </c>
       <c r="P12" s="210">
         <f>P2</f>
@@ -10154,23 +10154,23 @@
       </c>
       <c r="Q12" s="214">
         <f t="shared" si="2"/>
-        <v>1.9373117378048777E-3</v>
+        <v>1.2334487316857283E-3</v>
       </c>
       <c r="R12" s="157">
         <f t="shared" si="3"/>
-        <v>1.9373117378048777E-3</v>
+        <v>1.2334487316857283E-3</v>
       </c>
       <c r="S12" s="176">
         <f t="shared" si="4"/>
-        <v>0.99806268826219513</v>
+        <v>0.99876655126831426</v>
       </c>
       <c r="T12" s="177">
         <f>R12*PRODUCT(S5:S11)*PRODUCT(S13:S19)</f>
-        <v>1.3630002113550026E-3</v>
+        <v>1.03812430679785E-3</v>
       </c>
       <c r="U12" s="177">
         <f>R12*R13*PRODUCT(S5:S11)*PRODUCT(S14:S19)+R12*R14*PRODUCT(S5:S11)*S13*PRODUCT(S15:S19)+R12*R15*PRODUCT(S5:S11)*PRODUCT(S13:S14)*PRODUCT(S16:S19)+R12*R16*PRODUCT(S5:S11)*PRODUCT(S13:S15)*PRODUCT(S17:S19)+R12*R17*PRODUCT(S5:S11)*PRODUCT(S13:S16)*PRODUCT(S18:S19)+R12*R18*PRODUCT(S5:S11)*PRODUCT(S13:S17)*PRODUCT(S19)+R12*R19*PRODUCT(S5:S11)*PRODUCT(S13:S18)</f>
-        <v>1.5766669065740371E-4</v>
+        <v>1.4608771466352615E-4</v>
       </c>
       <c r="W12" s="187" t="s">
         <v>50</v>
@@ -10180,7 +10180,7 @@
       </c>
       <c r="Y12" s="69">
         <f t="shared" si="5"/>
-        <v>4.3051371951219504E-3</v>
+        <v>2.7409971815238405E-3</v>
       </c>
       <c r="Z12" s="69">
         <f>Z2</f>
@@ -10188,43 +10188,43 @@
       </c>
       <c r="AA12" s="69">
         <f t="shared" si="6"/>
-        <v>1.9373117378048777E-3</v>
+        <v>1.2334487316857283E-3</v>
       </c>
       <c r="AB12" s="157">
         <f t="shared" si="7"/>
-        <v>1.9373117378048777E-3</v>
+        <v>1.2334487316857283E-3</v>
       </c>
       <c r="AC12" s="176">
         <f t="shared" si="8"/>
-        <v>0.99806268826219513</v>
+        <v>0.99876655126831426</v>
       </c>
       <c r="AD12" s="177">
         <f>AB12*PRODUCT(AC5:AC11)*PRODUCT(AC13:AC19)</f>
-        <v>1.343594201385782E-3</v>
+        <v>7.4409166611209073E-4</v>
       </c>
       <c r="AE12" s="177">
         <f>AB12*AB13*PRODUCT(AC5:AC11)*PRODUCT(AC14:AC19)+AB12*AB14*PRODUCT(AC5:AC11)*AC13*PRODUCT(AC15:AC19)+AB12*AB15*PRODUCT(AC5:AC11)*PRODUCT(AC13:AC14)*PRODUCT(AC16:AC19)+AB12*AB16*PRODUCT(AC5:AC11)*PRODUCT(AC13:AC15)*PRODUCT(AC17:AC19)+AB12*AB17*PRODUCT(AC5:AC11)*PRODUCT(AC13:AC16)*PRODUCT(AC18:AC19)+AB12*AB18*PRODUCT(AC5:AC11)*PRODUCT(AC13:AC17)*PRODUCT(AC19)+AB12*AB19*PRODUCT(AC5:AC11)*PRODUCT(AC13:AC18)</f>
-        <v>3.2581529789253374E-4</v>
+        <v>2.3751739326944308E-4</v>
       </c>
       <c r="AG12" s="203">
         <f>IF(COUNTA(F6:F10)+COUNTA(J6:J10)=0,0,COUNTA(F6:F10)/(COUNTA(F6:F10)+COUNTA(J6:J10)))</f>
-        <v>0.625</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AH12">
         <f>COUNTA(J6:J10)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI12" s="207">
         <f t="shared" si="9"/>
-        <v>1.3776439024390243E-2</v>
+        <v>1.1512188162400131E-2</v>
       </c>
       <c r="AK12" s="203">
         <f>IF(COUNTA(J6:J10)+COUNTA(F6:F10)=0,0,COUNTA(J6:J10)/(COUNTA(J6:J10)+COUNTA(F6:F10)))</f>
-        <v>0.375</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AL12">
         <f>COUNTA(F6:F10)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AM12" s="208">
         <v>1.15E-2</v>
@@ -10245,7 +10245,7 @@
       </c>
       <c r="BJ12" s="107">
         <f t="shared" si="0"/>
-        <v>2.7892537754690251E-5</v>
+        <v>3.7958367434730414E-6</v>
       </c>
       <c r="BL12">
         <f>BH54+1</f>
@@ -10256,7 +10256,7 @@
       </c>
       <c r="BN12" s="107">
         <f>$H$33*H47</f>
-        <v>2.3800059742823645E-8</v>
+        <v>3.2051676878956185E-9</v>
       </c>
       <c r="BP12">
         <f>BP9+1</f>
@@ -10267,7 +10267,7 @@
       </c>
       <c r="BR12" s="107">
         <f>$H$29*H41</f>
-        <v>9.8037359932247031E-3</v>
+        <v>1.1630111838403246E-2</v>
       </c>
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.25">
@@ -10275,27 +10275,29 @@
         <v>8</v>
       </c>
       <c r="B13" s="168">
-        <v>8</v>
+        <v>5.75</v>
       </c>
       <c r="C13" s="169">
-        <v>6.25</v>
+        <v>12.5</v>
       </c>
       <c r="E13" s="192" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="167"/>
+      <c r="F13" s="167" t="s">
+        <v>123</v>
+      </c>
       <c r="G13" s="167"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="166" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="K13" s="166"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="O13" s="67">
         <f t="shared" si="1"/>
-        <v>6.5321292820866489E-2</v>
+        <v>7.782406041089189E-2</v>
       </c>
       <c r="P13" s="210">
         <f>P3</f>
@@ -10303,23 +10305,23 @@
       </c>
       <c r="Q13" s="214">
         <f t="shared" si="2"/>
-        <v>3.7233136907893899E-2</v>
+        <v>4.4359714434208372E-2</v>
       </c>
       <c r="R13" s="157">
         <f t="shared" si="3"/>
-        <v>3.7233136907893899E-2</v>
+        <v>4.4359714434208365E-2</v>
       </c>
       <c r="S13" s="176">
         <f t="shared" si="4"/>
-        <v>0.96276686309210613</v>
+        <v>0.95564028556579161</v>
       </c>
       <c r="T13" s="177">
         <f>R13*PRODUCT(S5:S12)*PRODUCT(S14:S19)</f>
-        <v>2.7155807828768391E-2</v>
+        <v>3.9019934743797793E-2</v>
       </c>
       <c r="U13" s="177">
         <f>R13*R14*PRODUCT(S5:S12)*PRODUCT(S15:S19)+R13*R15*PRODUCT(S5:S12)*S14*PRODUCT(S16:S19)+R13*R16*PRODUCT(S5:S12)*PRODUCT(S14:S15)*PRODUCT(S17:S19)+R13*R17*PRODUCT(S5:S12)*PRODUCT(S14:S16)*PRODUCT(S18:S19)+R13*R18*PRODUCT(S5:S12)*PRODUCT(S14:S17)*PRODUCT(S19)+R13*R19*PRODUCT(S5:S12)*PRODUCT(S14:S18)</f>
-        <v>2.0910826896950443E-3</v>
+        <v>3.6797326536620865E-3</v>
       </c>
       <c r="W13" s="186" t="s">
         <v>52</v>
@@ -10329,7 +10331,7 @@
       </c>
       <c r="Y13" s="69">
         <f t="shared" si="5"/>
-        <v>0.11113692181327983</v>
+        <v>6.9632054051850648E-2</v>
       </c>
       <c r="Z13" s="69">
         <f>Z3</f>
@@ -10337,38 +10339,38 @@
       </c>
       <c r="AA13" s="69">
         <f t="shared" si="6"/>
-        <v>6.3348045433569505E-2</v>
+        <v>3.9690270809554867E-2</v>
       </c>
       <c r="AB13" s="157">
         <f t="shared" si="7"/>
-        <v>6.3348045433569505E-2</v>
+        <v>3.9690270809554867E-2</v>
       </c>
       <c r="AC13" s="176">
         <f t="shared" si="8"/>
-        <v>0.93665195456643047</v>
+        <v>0.9603097291904451</v>
       </c>
       <c r="AD13" s="177">
         <f>AB13*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC19)</f>
-        <v>4.6814609708850215E-2</v>
+        <v>2.4902449058100701E-2</v>
       </c>
       <c r="AE13" s="177">
         <f>AB13*AB14*PRODUCT(AC5:AC12)*PRODUCT(AC15:AC19)+AB13*AB15*PRODUCT(AC5:AC12)*AC14*PRODUCT(AC16:AC19)+AB13*AB16*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC15)*PRODUCT(AC17:AC19)+AB13*AB17*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC16)*PRODUCT(AC18:AC19)+AB13*AB18*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC17)*PRODUCT(AC19)+AB13*AB19*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC18)</f>
-        <v>8.1861377877198126E-3</v>
+        <v>6.9197377134242715E-3</v>
       </c>
       <c r="AG13" s="203">
         <f>B22</f>
-        <v>0.37017994858611819</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="AH13">
         <v>1</v>
       </c>
       <c r="AI13" s="207">
         <f t="shared" si="9"/>
-        <v>0.17645821463414632</v>
+        <v>0.14745611446274254</v>
       </c>
       <c r="AK13" s="203">
         <f>C22</f>
-        <v>0.62982005141388187</v>
+        <v>0.47222222222222221</v>
       </c>
       <c r="AL13">
         <v>1</v>
@@ -10391,7 +10393,7 @@
       </c>
       <c r="BJ13" s="107">
         <f t="shared" si="0"/>
-        <v>2.8057844141137314E-6</v>
+        <v>2.9628143864161833E-7</v>
       </c>
       <c r="BL13">
         <f>BH57+1</f>
@@ -10402,7 +10404,7 @@
       </c>
       <c r="BN13" s="107">
         <f>$H$34*H48</f>
-        <v>3.0809080935668247E-10</v>
+        <v>2.4408628005041894E-11</v>
       </c>
       <c r="BP13">
         <f>BL7+1</f>
@@ -10413,7 +10415,7 @@
       </c>
       <c r="BR13" s="107">
         <f>$H$29*H42</f>
-        <v>8.5621526623680527E-3</v>
+        <v>7.4272652054831641E-3</v>
       </c>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.25">
@@ -10421,29 +10423,29 @@
         <v>9</v>
       </c>
       <c r="B14" s="168">
-        <v>8</v>
+        <v>5.75</v>
       </c>
       <c r="C14" s="169">
-        <v>4.25</v>
+        <v>10.75</v>
       </c>
       <c r="E14" s="192" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="167" t="s">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="G14" s="167"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="166" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="K14" s="166"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="O14" s="67">
         <f t="shared" si="1"/>
-        <v>9.2815659113424029E-2</v>
+        <v>0</v>
       </c>
       <c r="P14" s="210">
         <f>IF(COUNTIF(F6:F18,"CAB")-COUNTIF(J6:J18,"CAB")&gt;2,0.8,IF(COUNTIF(F6:F18,"CAB")-COUNTIF(J6:J18,"CAB")&gt;0,0.6,IF(COUNTIF(F6:F18,"CAB")-COUNTIF(J6:J18,"CAB")=0,0.5,0.15)))</f>
@@ -10451,23 +10453,23 @@
       </c>
       <c r="Q14" s="214">
         <f t="shared" si="2"/>
-        <v>1.3922348867013604E-2</v>
+        <v>0</v>
       </c>
       <c r="R14" s="157">
         <f t="shared" si="3"/>
-        <v>1.3922348867013606E-2</v>
+        <v>0</v>
       </c>
       <c r="S14" s="176">
         <f t="shared" si="4"/>
-        <v>0.9860776511329864</v>
+        <v>1</v>
       </c>
       <c r="T14" s="177">
         <f>R14*PRODUCT(S5:S13)*PRODUCT(S15:S19)</f>
-        <v>9.914153295441968E-3</v>
+        <v>0</v>
       </c>
       <c r="U14" s="177">
         <f>R14*R15*PRODUCT(S5:S13)*PRODUCT(S16:S19)+R14*R16*PRODUCT(S5:S13)*S15*PRODUCT(S17:S19)+R14*R17*PRODUCT(S5:S13)*PRODUCT(S15:S16)*PRODUCT(S18:S19)+R14*R18*PRODUCT(S5:S13)*PRODUCT(S15:S17)*PRODUCT(S19)+R14*R19*PRODUCT(S5:S13)*PRODUCT(S15:S18)</f>
-        <v>6.2344390257451892E-4</v>
+        <v>0</v>
       </c>
       <c r="W14" s="186" t="s">
         <v>54</v>
@@ -10477,47 +10479,47 @@
       </c>
       <c r="Y14" s="69">
         <f t="shared" si="5"/>
-        <v>0.15791553113047843</v>
+        <v>0.20952182455568244</v>
       </c>
       <c r="Z14" s="211">
         <f>IF(COUNTIF(J6:J18,"CAB")-COUNTIF(F6:F18,"CAB")&gt;2,0.8,IF(COUNTIF(J6:J18,"CAB")-COUNTIF(F6:F18,"CAB")&gt;0,0.6,IF(COUNTIF(J6:J18,"CAB")-COUNTIF(F6:F18,"CAB")=0,0.5,0.15)))</f>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AA14" s="69">
         <f t="shared" si="6"/>
-        <v>9.4749318678287051E-2</v>
+        <v>0.16761745964454597</v>
       </c>
       <c r="AB14" s="157">
         <f t="shared" si="7"/>
-        <v>9.4749318678287051E-2</v>
+        <v>0.16761745964454597</v>
       </c>
       <c r="AC14" s="176">
         <f t="shared" si="8"/>
-        <v>0.90525068132171294</v>
+        <v>0.832382540355454</v>
       </c>
       <c r="AD14" s="177">
         <f>AB14*PRODUCT(AC5:AC13)*PRODUCT(AC15:AC19)</f>
-        <v>7.2449212071878377E-2</v>
+        <v>0.12132927970303459</v>
       </c>
       <c r="AE14" s="177">
         <f>AB14*AB15*PRODUCT(AC5:AC13)*PRODUCT(AC16:AC19)+AB14*AB16*PRODUCT(AC5:AC13)*AC15*PRODUCT(AC17:AC19)+AB14*AB17*PRODUCT(AC5:AC13)*PRODUCT(AC15:AC16)*PRODUCT(AC18:AC19)+AB14*AB18*PRODUCT(AC5:AC13)*PRODUCT(AC15:AC17)*PRODUCT(AC19)+AB14*AB19*PRODUCT(AC5:AC13)*PRODUCT(AC15:AC18)</f>
-        <v>5.0856810418204827E-3</v>
+        <v>9.2820631920949581E-3</v>
       </c>
       <c r="AG14" s="203">
         <f>IF(AL14=0,1,B22)</f>
-        <v>0.37017994858611819</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="AH14">
         <f>IF(COUNTIF(F6:F18,"CAB")&gt;0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI14" s="207">
         <f t="shared" si="9"/>
-        <v>0.25073119024390245</v>
+        <v>0.20952182455568244</v>
       </c>
       <c r="AK14" s="203">
         <f>IF(AH14=0,1,C22)</f>
-        <v>0.62982005141388187</v>
+        <v>1</v>
       </c>
       <c r="AL14">
         <f>IF(COUNTIF(J6:J18,"CAB")&gt;0,1,0)</f>
@@ -10541,7 +10543,7 @@
       </c>
       <c r="BJ14" s="107">
         <f t="shared" ref="BJ14:BJ22" si="11">$H$26*H41</f>
-        <v>9.7496265576348801E-2</v>
+        <v>0.10090490460430679</v>
       </c>
       <c r="BL14">
         <f>BP39+1</f>
@@ -10552,7 +10554,7 @@
       </c>
       <c r="BN14" s="107">
         <f>$H$35*H49</f>
-        <v>2.2923694306706554E-12</v>
+        <v>9.9323592714217798E-14</v>
       </c>
       <c r="BP14">
         <f>BP10+1</f>
@@ -10563,7 +10565,7 @@
       </c>
       <c r="BR14" s="107">
         <f>$H$30*H39</f>
-        <v>5.2612588355807816E-4</v>
+        <v>1.1625419411932783E-3</v>
       </c>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.25">
@@ -10571,29 +10573,29 @@
         <v>71</v>
       </c>
       <c r="B15" s="170">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="C15" s="171">
-        <v>6</v>
+        <v>8.25</v>
       </c>
       <c r="E15" s="192" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="167" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="G15" s="167"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="166" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="K15" s="166"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="O15" s="67">
         <f t="shared" si="1"/>
-        <v>1.7294843313060377E-2</v>
+        <v>2.0605148377629223E-2</v>
       </c>
       <c r="P15" s="210">
         <f>R3</f>
@@ -10601,23 +10603,23 @@
       </c>
       <c r="Q15" s="214">
         <f t="shared" si="2"/>
-        <v>1.2106390319142263E-2</v>
+        <v>1.4423603864340455E-2</v>
       </c>
       <c r="R15" s="157">
         <f t="shared" si="3"/>
-        <v>1.2106390319142263E-2</v>
+        <v>1.4423603864340455E-2</v>
       </c>
       <c r="S15" s="176">
         <f t="shared" si="4"/>
-        <v>0.98789360968085771</v>
+        <v>0.9855763961356595</v>
       </c>
       <c r="T15" s="177">
         <f>R15*PRODUCT(S5:S14)*PRODUCT(S16:S19)</f>
-        <v>8.605155628923996E-3</v>
+        <v>1.2302000455835132E-2</v>
       </c>
       <c r="U15" s="177">
         <f>R15*R16*PRODUCT(S5:S14)*PRODUCT(S17:S19)+R15*R17*PRODUCT(S5:S14)*S16*PRODUCT(S18:S19)+R15*R18*PRODUCT(S5:S14)*S16*S17*S19+R15*R19*PRODUCT(S5:S14)*S16*S17*S18</f>
-        <v>4.3567455081034725E-4</v>
+        <v>9.8009087075994774E-4</v>
       </c>
       <c r="W15" s="186" t="s">
         <v>56</v>
@@ -10627,7 +10629,7 @@
       </c>
       <c r="Y15" s="69">
         <f t="shared" si="5"/>
-        <v>2.9425254247915235E-2</v>
+        <v>1.8436185390510354E-2</v>
       </c>
       <c r="Z15" s="69">
         <f>AB3</f>
@@ -10635,38 +10637,38 @@
       </c>
       <c r="AA15" s="69">
         <f t="shared" si="6"/>
-        <v>2.0597677973540663E-2</v>
+        <v>1.2905329773357246E-2</v>
       </c>
       <c r="AB15" s="157">
         <f t="shared" si="7"/>
-        <v>2.0597677973540663E-2</v>
+        <v>1.2905329773357246E-2</v>
       </c>
       <c r="AC15" s="176">
         <f t="shared" si="8"/>
-        <v>0.97940232202645938</v>
+        <v>0.98709467022664277</v>
       </c>
       <c r="AD15" s="177">
         <f>AB15*PRODUCT(AC5:AC14)*PRODUCT(AC16:AC19)</f>
-        <v>1.4557391636651052E-2</v>
+        <v>7.87734065258173E-3</v>
       </c>
       <c r="AE15" s="177">
         <f>AB15*AB16*PRODUCT(AC5:AC14)*PRODUCT(AC17:AC19)+AB15*AB17*PRODUCT(AC5:AC14)*AC16*PRODUCT(AC18:AC19)+AB15*AB18*PRODUCT(AC5:AC14)*AC16*AC17*AC19+AB15*AB19*PRODUCT(AC5:AC14)*AC16*AC17*AC18</f>
-        <v>7.1572338963417001E-4</v>
+        <v>4.996520131355011E-4</v>
       </c>
       <c r="AG15" s="203">
         <f>IF(AL15=0,1,B22)</f>
-        <v>0.37017994858611819</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="AH15">
         <v>1</v>
       </c>
       <c r="AI15" s="207">
         <f t="shared" si="9"/>
-        <v>4.6720097560975608E-2</v>
+        <v>3.9041333768139577E-2</v>
       </c>
       <c r="AK15" s="203">
         <f>IF(AH15=0,1,C22)</f>
-        <v>0.62982005141388187</v>
+        <v>0.47222222222222221</v>
       </c>
       <c r="AL15">
         <v>1</v>
@@ -10689,7 +10691,7 @@
       </c>
       <c r="BJ15" s="107">
         <f t="shared" si="11"/>
-        <v>8.5148958565631219E-2</v>
+        <v>6.4440264843838427E-2</v>
       </c>
       <c r="BP15">
         <f>BP11+1</f>
@@ -10700,7 +10702,7 @@
       </c>
       <c r="BR15" s="107">
         <f>$H$30*H40</f>
-        <v>1.6373450153899375E-3</v>
+        <v>2.5743705518764736E-3</v>
       </c>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.25">
@@ -10718,42 +10720,42 @@
       <c r="E16" s="192" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="167"/>
+      <c r="F16" s="167" t="s">
+        <v>16</v>
+      </c>
       <c r="G16" s="167"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="166" t="s">
-        <v>21</v>
-      </c>
+      <c r="J16" s="166"/>
       <c r="K16" s="166"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
       <c r="O16" s="67">
         <f t="shared" si="1"/>
-        <v>2.3540203398332186E-2</v>
+        <v>1.4748948312408285E-2</v>
       </c>
       <c r="P16" s="210">
         <v>0.15</v>
       </c>
       <c r="Q16" s="214">
         <f t="shared" si="2"/>
-        <v>3.5310305097498275E-3</v>
+        <v>2.2123422468612428E-3</v>
       </c>
       <c r="R16" s="157">
         <f t="shared" si="3"/>
-        <v>3.531030509749828E-3</v>
+        <v>2.2123422468612428E-3</v>
       </c>
       <c r="S16" s="176">
         <f t="shared" si="4"/>
-        <v>0.99646896949025021</v>
+        <v>0.99778765775313871</v>
       </c>
       <c r="T16" s="177">
         <f>R16*PRODUCT(S5:S15)*PRODUCT(S17:S19)</f>
-        <v>2.4882380357891818E-3</v>
+        <v>1.8638305739787004E-3</v>
       </c>
       <c r="U16" s="177">
         <f>R16*R17*PRODUCT(S5:S15)*PRODUCT(S18:S19)+R16*R18*PRODUCT(S5:S15)*S17*S19+R16*R19*PRODUCT(S5:S15)*S17*S18</f>
-        <v>1.1716101856633795E-4</v>
+        <v>1.4435736788981319E-4</v>
       </c>
       <c r="W16" s="187" t="s">
         <v>58</v>
@@ -10763,45 +10765,45 @@
       </c>
       <c r="Y16" s="69">
         <f t="shared" si="5"/>
-        <v>1.3835874650448301E-2</v>
+        <v>1.6484118702103378E-2</v>
       </c>
       <c r="Z16" s="69">
         <v>0.15</v>
       </c>
       <c r="AA16" s="69">
         <f t="shared" si="6"/>
-        <v>2.075381197567245E-3</v>
+        <v>2.4726178053155064E-3</v>
       </c>
       <c r="AB16" s="157">
         <f t="shared" si="7"/>
-        <v>2.075381197567245E-3</v>
+        <v>2.4726178053155064E-3</v>
       </c>
       <c r="AC16" s="176">
         <f t="shared" si="8"/>
-        <v>0.99792461880243277</v>
+        <v>0.99752738219468451</v>
       </c>
       <c r="AD16" s="177">
         <f>AB16*PRODUCT(AC5:AC15)*PRODUCT(AC17:AC19)</f>
-        <v>1.4395493980392682E-3</v>
+        <v>1.4934871607683014E-3</v>
       </c>
       <c r="AE16" s="177">
         <f>AB16*AB17*PRODUCT(AC5:AC15)*PRODUCT(AC18:AC19)+AB16*AB18*PRODUCT(AC5:AC15)*AC17*AC19+AB16*AB19*PRODUCT(AC5:AC15)*AC17*AC18</f>
-        <v>6.7782531785527732E-5</v>
+        <v>9.1028453378945602E-5</v>
       </c>
       <c r="AG16" s="203">
         <f>C22</f>
-        <v>0.62982005141388187</v>
+        <v>0.47222222222222221</v>
       </c>
       <c r="AH16">
         <v>1</v>
       </c>
       <c r="AI16" s="207">
         <f t="shared" si="9"/>
-        <v>3.7376078048780487E-2</v>
+        <v>3.1233067014511662E-2</v>
       </c>
       <c r="AK16" s="203">
         <f>B22</f>
-        <v>0.37017994858611819</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="AL16">
         <v>1</v>
@@ -10824,7 +10826,7 @@
       </c>
       <c r="BJ16" s="107">
         <f t="shared" si="11"/>
-        <v>5.0655976199968887E-2</v>
+        <v>2.850031741627921E-2</v>
       </c>
       <c r="BP16">
         <f>BP12+1</f>
@@ -10835,7 +10837,7 @@
       </c>
       <c r="BR16" s="107">
         <f>$H$30*H41</f>
-        <v>2.344961094368794E-3</v>
+        <v>2.6558404559213849E-3</v>
       </c>
     </row>
     <row r="17" spans="1:70" x14ac:dyDescent="0.25">
@@ -10843,7 +10845,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="172" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C17" s="173" t="s">
         <v>11</v>
@@ -10852,18 +10854,20 @@
         <v>22</v>
       </c>
       <c r="F17" s="167" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="G17" s="167"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="166"/>
+      <c r="J17" s="166" t="s">
+        <v>123</v>
+      </c>
       <c r="K17" s="166"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="O17" s="67">
         <f t="shared" si="1"/>
-        <v>6.5228443902439023E-2</v>
+        <v>5.4507708299364105E-2</v>
       </c>
       <c r="P17" s="210">
         <f>P3</f>
@@ -10871,23 +10875,23 @@
       </c>
       <c r="Q17" s="214">
         <f t="shared" si="2"/>
-        <v>3.7180213024390243E-2</v>
+        <v>3.1069393730637537E-2</v>
       </c>
       <c r="R17" s="157">
         <f t="shared" si="3"/>
-        <v>3.7180213024390243E-2</v>
+        <v>3.1069393730637537E-2</v>
       </c>
       <c r="S17" s="176">
         <f t="shared" si="4"/>
-        <v>0.96281978697560977</v>
+        <v>0.96893060626936245</v>
       </c>
       <c r="T17" s="177">
         <f>R17*PRODUCT(S5:S16)*PRODUCT(S18:S19)</f>
-        <v>2.7115717483427729E-2</v>
+        <v>2.6954566444648644E-2</v>
       </c>
       <c r="U17" s="177">
         <f>R17*R18*PRODUCT(S5:S16)*S19+R17*R19*PRODUCT(S5:S16)*S18</f>
-        <v>2.2966941995808531E-4</v>
+        <v>1.2233687288958272E-3</v>
       </c>
       <c r="W17" s="186" t="s">
         <v>60</v>
@@ -10897,7 +10901,7 @@
       </c>
       <c r="Y17" s="69">
         <f t="shared" si="5"/>
-        <v>6.5228443902439023E-2</v>
+        <v>5.4507708299364105E-2</v>
       </c>
       <c r="Z17" s="69">
         <f>Z3</f>
@@ -10905,23 +10909,23 @@
       </c>
       <c r="AA17" s="69">
         <f t="shared" si="6"/>
-        <v>3.7180213024390243E-2</v>
+        <v>3.1069393730637537E-2</v>
       </c>
       <c r="AB17" s="157">
         <f t="shared" si="7"/>
-        <v>3.7180213024390243E-2</v>
+        <v>3.1069393730637537E-2</v>
       </c>
       <c r="AC17" s="176">
         <f t="shared" si="8"/>
-        <v>0.96281978697560977</v>
+        <v>0.96893060626936245</v>
       </c>
       <c r="AD17" s="177">
         <f>AB17*PRODUCT(AC5:AC16)*PRODUCT(AC18:AC19)</f>
-        <v>2.6729651597727801E-2</v>
+        <v>1.9320102731236043E-2</v>
       </c>
       <c r="AE17" s="177">
         <f>AB17*AB18*PRODUCT(AC5:AC16)*AC19+AB17*AB19*PRODUCT(AC5:AC16)*AC18</f>
-        <v>2.263994519740739E-4</v>
+        <v>5.5805384474342883E-4</v>
       </c>
       <c r="AG17" s="203">
         <f>COUNTA(F14:F15)/(COUNTA(F14:F15)+COUNTA(J14:J15))</f>
@@ -10933,7 +10937,7 @@
       </c>
       <c r="AI17" s="207">
         <f t="shared" si="9"/>
-        <v>0.13045688780487805</v>
+        <v>0.10901541659872821</v>
       </c>
       <c r="AK17" s="203">
         <f>COUNTA(J14:J15)/(COUNTA(F14:F15)+COUNTA(J14:J15))</f>
@@ -10962,7 +10966,7 @@
       </c>
       <c r="BJ17" s="107">
         <f t="shared" si="11"/>
-        <v>2.1714733130818922E-2</v>
+        <v>9.2336674790432418E-3</v>
       </c>
       <c r="BP17">
         <f>BP13+1</f>
@@ -10973,7 +10977,7 @@
       </c>
       <c r="BR17" s="107">
         <f>$H$30*H42</f>
-        <v>2.0479860831804312E-3</v>
+        <v>1.6960826932415527E-3</v>
       </c>
     </row>
     <row r="18" spans="1:70" x14ac:dyDescent="0.25">
@@ -10981,27 +10985,27 @@
         <v>12</v>
       </c>
       <c r="B18" s="172">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C18" s="173">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18" s="192" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="167"/>
+      <c r="F18" s="167" t="s">
+        <v>21</v>
+      </c>
       <c r="G18" s="167"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="166" t="s">
-        <v>21</v>
-      </c>
+      <c r="J18" s="166"/>
       <c r="K18" s="166"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
       <c r="O18" s="67">
         <f t="shared" si="1"/>
-        <v>1.2279000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="P18" s="210">
         <f>P17*1.2</f>
@@ -11009,19 +11013,19 @@
       </c>
       <c r="Q18" s="214">
         <f t="shared" si="2"/>
-        <v>8.3988359999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="R18" s="157">
         <f t="shared" si="3"/>
-        <v>8.3988359999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="S18" s="176">
         <f t="shared" si="4"/>
-        <v>0.99160116399999998</v>
+        <v>1</v>
       </c>
       <c r="T18" s="177">
         <f>R18*PRODUCT(S5:S17)*PRODUCT(S19:S19)</f>
-        <v>5.9475254177213553E-3</v>
+        <v>0</v>
       </c>
       <c r="U18" s="177">
         <f>R18*R19*PRODUCT(S5:S17)</f>
@@ -11035,7 +11039,7 @@
       </c>
       <c r="Y18" s="69">
         <f t="shared" si="5"/>
-        <v>1.2279000000000002E-2</v>
+        <v>4.1043453448556998E-2</v>
       </c>
       <c r="Z18" s="69">
         <f>Z17*1.2</f>
@@ -11043,19 +11047,19 @@
       </c>
       <c r="AA18" s="69">
         <f t="shared" si="6"/>
-        <v>8.3988359999999998E-3</v>
+        <v>2.8073722158812982E-2</v>
       </c>
       <c r="AB18" s="157">
         <f t="shared" si="7"/>
-        <v>8.3988359999999998E-3</v>
+        <v>2.8073722158812982E-2</v>
       </c>
       <c r="AC18" s="176">
         <f t="shared" si="8"/>
-        <v>0.99160116399999998</v>
+        <v>0.97192627784118701</v>
       </c>
       <c r="AD18" s="177">
         <f>AB18*PRODUCT(AC5:AC17)*PRODUCT(AC19:AC19)</f>
-        <v>5.8628462396941184E-3</v>
+        <v>1.7403476064130584E-2</v>
       </c>
       <c r="AE18" s="177">
         <f>AB18*AB19*PRODUCT(AC5:AC17)</f>
@@ -11063,23 +11067,23 @@
       </c>
       <c r="AG18" s="203">
         <f>IF(COUNTA(F14:F15)&gt;0,IF(COUNTIF(F11:F18,"CAB")+COUNTIF(J11:J18,"CAB")=0,0,COUNTIF(F11:F18,"CAB")/(COUNTIF(F11:F18,"CAB")+COUNTIF(J11:J18,"CAB"))),0)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AH18">
         <f>COUNTIF(F11:F18,"CAB")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI18" s="207">
         <f t="shared" si="9"/>
-        <v>0.19646400000000003</v>
+        <v>0.16417381379422799</v>
       </c>
       <c r="AK18" s="203">
         <f>IF(COUNTA(J14:J15)&gt;0,IF(COUNTIF(J11:J18,"CAB")+COUNTIF(F11:F18,"CAB")=0,0,COUNTIF(J11:J18,"CAB")/(COUNTIF(J11:J18,"CAB")+COUNTIF(F11:F18,"CAB"))),0)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AL18">
         <f>COUNTIF(J11:J18,"CAB")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM18" s="208">
         <v>0.16400000000000001</v>
@@ -11100,7 +11104,7 @@
       </c>
       <c r="BJ18" s="107">
         <f t="shared" si="11"/>
-        <v>6.9171073620003061E-3</v>
+        <v>2.2556892338435859E-3</v>
       </c>
       <c r="BP18">
         <f>BL8+1</f>
@@ -11111,7 +11115,7 @@
       </c>
       <c r="BR18" s="107">
         <f>$H$30*H43</f>
-        <v>1.2183676234571027E-3</v>
+        <v>7.5013495426786705E-4</v>
       </c>
     </row>
     <row r="19" spans="1:70" x14ac:dyDescent="0.25">
@@ -11123,7 +11127,7 @@
       </c>
       <c r="O19" s="67">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.6168140591880013E-2</v>
       </c>
       <c r="P19" s="210">
         <f>P3</f>
@@ -11131,19 +11135,19 @@
       </c>
       <c r="Q19" s="214">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.3415840137371604E-2</v>
       </c>
       <c r="R19" s="157">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.3415840137371604E-2</v>
       </c>
       <c r="S19" s="178">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.95658415986262835</v>
       </c>
       <c r="T19" s="179">
         <f>R19*PRODUCT(S5:S18)</f>
-        <v>0</v>
+        <v>3.8151996606587461E-2</v>
       </c>
       <c r="U19" s="179">
         <v>0</v>
@@ -11189,15 +11193,15 @@
       </c>
       <c r="AG19" s="203">
         <f>IF(COUNTIF(F11:F18,"TEC")&gt;0,IF(COUNTIF(J6:J13,"CAB")&gt;0,IF(COUNTIF(F11:F18,"TEC")+COUNTIF(J11:J18,"TEC")&gt;0,COUNTIF(F11:F18,"TEC")/(COUNTIF(F11:F18,"TEC")+COUNTIF(J11:J18,"TEC")),0),0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH19">
         <f>COUNTIF(F11:F18,"TEC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI19" s="207">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.6093451247350401</v>
       </c>
       <c r="AK19" s="203">
         <f>IF(COUNTIF(J11:J18,"TEC")&gt;0,IF(COUNTIF(F6:F13,"CAB")&gt;0,IF(COUNTIF(F11:F18,"TEC")+COUNTIF(J11:J18,"TEC")&gt;0,COUNTIF(J11:J18,"TEC")/(COUNTIF(F11:F18,"TEC")+COUNTIF(J11:J18,"TEC")),0),0),0)</f>
@@ -11205,14 +11209,14 @@
       </c>
       <c r="AL19">
         <f>COUNTIF(J11:J18,"TEC")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM19" s="208">
         <v>0.60870000000000002</v>
       </c>
       <c r="AN19" s="209">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.60870000000000002</v>
       </c>
       <c r="AO19">
         <f>1/8</f>
@@ -11226,7 +11230,7 @@
       </c>
       <c r="BJ19" s="107">
         <f t="shared" si="11"/>
-        <v>1.6630818649695425E-3</v>
+        <v>4.2046801702199255E-4</v>
       </c>
       <c r="BP19">
         <f>BP15+1</f>
@@ -11237,7 +11241,7 @@
       </c>
       <c r="BR19" s="107">
         <f>$H$31*H40</f>
-        <v>3.0510119549776517E-4</v>
+        <v>4.3453455378725226E-4</v>
       </c>
     </row>
     <row r="20" spans="1:70" x14ac:dyDescent="0.25">
@@ -11254,19 +11258,19 @@
       <c r="Q20" s="22"/>
       <c r="S20" s="180">
         <f>PRODUCT(S5:S19)</f>
-        <v>0.70218934232458907</v>
+        <v>0.84060553718456177</v>
       </c>
       <c r="T20" s="181">
         <f>SUM(T5:T19)</f>
-        <v>0.25602219665966325</v>
+        <v>0.14835710343883235</v>
       </c>
       <c r="U20" s="181">
         <f>SUM(U5:U19)</f>
-        <v>3.8444308463698049E-2</v>
+        <v>1.0627614758823102E-2</v>
       </c>
       <c r="V20" s="181">
         <f>1-S20-T20-U20</f>
-        <v>3.3441525520496312E-3</v>
+        <v>4.0974461778277987E-4</v>
       </c>
       <c r="W20" s="21"/>
       <c r="X20" s="22"/>
@@ -11276,19 +11280,19 @@
       <c r="AB20" s="23"/>
       <c r="AC20" s="184">
         <f>PRODUCT(AC5:AC19)</f>
-        <v>0.69219176986355146</v>
+        <v>0.60251703058187656</v>
       </c>
       <c r="AD20" s="181">
         <f>SUM(AD5:AD19)</f>
-        <v>0.26287338970786606</v>
+        <v>0.31984927822801729</v>
       </c>
       <c r="AE20" s="181">
         <f>SUM(AE5:AE19)</f>
-        <v>4.1268305951347867E-2</v>
+        <v>6.8773439959412638E-2</v>
       </c>
       <c r="AF20" s="181">
         <f>1-AC20-AD20-AE20</f>
-        <v>3.666534477234612E-3</v>
+        <v>8.8602512306935194E-3</v>
       </c>
       <c r="BH20">
         <v>1</v>
@@ -11298,7 +11302,7 @@
       </c>
       <c r="BJ20" s="107">
         <f t="shared" si="11"/>
-        <v>3.0300125111933085E-4</v>
+        <v>5.9736812814970392E-5</v>
       </c>
       <c r="BP20">
         <f>BP16+1</f>
@@ -11309,7 +11313,7 @@
       </c>
       <c r="BR20" s="107">
         <f>$H$31*H41</f>
-        <v>4.3695765190776277E-4</v>
+        <v>4.4828606612312845E-4</v>
       </c>
     </row>
     <row r="21" spans="1:70" x14ac:dyDescent="0.25">
@@ -11334,7 +11338,7 @@
       </c>
       <c r="BJ21" s="107">
         <f t="shared" si="11"/>
-        <v>4.1506685433450631E-5</v>
+        <v>6.3814831455394295E-6</v>
       </c>
       <c r="BP21">
         <f>BP17+1</f>
@@ -11345,7 +11349,7 @@
       </c>
       <c r="BR21" s="107">
         <f>$H$31*H42</f>
-        <v>3.8161963206778828E-4</v>
+        <v>2.8628611205826248E-4</v>
       </c>
     </row>
     <row r="22" spans="1:70" x14ac:dyDescent="0.25">
@@ -11354,11 +11358,11 @@
       </c>
       <c r="B22" s="62">
         <f>(B6)/((B6)+(C6))</f>
-        <v>0.37017994858611819</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="C22" s="63">
         <f>1-B22</f>
-        <v>0.62982005141388187</v>
+        <v>0.47222222222222221</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
@@ -11368,7 +11372,7 @@
       </c>
       <c r="AS22" s="82">
         <f>Y23+AA23+AC23+AE23+AG23+AI23+AK23+AM23+AO23+AQ23+AS23</f>
-        <v>1.0000000000000004</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="BH22">
         <v>1</v>
@@ -11378,7 +11382,7 @@
       </c>
       <c r="BJ22" s="107">
         <f t="shared" si="11"/>
-        <v>4.1752676681817585E-6</v>
+        <v>4.9810229859826161E-7</v>
       </c>
       <c r="BP22">
         <f>BP18+1</f>
@@ -11389,7 +11393,7 @@
       </c>
       <c r="BR22" s="107">
         <f>$H$31*H43</f>
-        <v>2.2702937681341753E-4</v>
+        <v>1.2661718702282958E-4</v>
       </c>
     </row>
     <row r="23" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11398,11 +11402,11 @@
       </c>
       <c r="B23" s="56">
         <f>((B22^2.8)/((B22^2.8)+(C22^2.8)))*B21</f>
-        <v>0.92107615370786133</v>
+        <v>2.8861735172437304</v>
       </c>
       <c r="C23" s="57">
         <f>B21-B23</f>
-        <v>4.0789238462921382</v>
+        <v>2.1138264827562696</v>
       </c>
       <c r="D23" s="151">
         <f>SUM(D25:D30)</f>
@@ -11414,11 +11418,11 @@
       </c>
       <c r="H23" s="59">
         <f>SUM(H25:H35)</f>
-        <v>0.99999998884787078</v>
+        <v>0.99999999741865053</v>
       </c>
       <c r="J23" s="59">
         <f>SUM(J25:J35)</f>
-        <v>1.0000000000000002</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="K23" s="59"/>
       <c r="L23" s="59">
@@ -11427,78 +11431,78 @@
       </c>
       <c r="N23" s="59">
         <f>SUM(N25:N35)</f>
-        <v>0.99999999999999978</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="O23" s="34"/>
       <c r="P23" s="59">
         <f>SUM(P25:P35)</f>
-        <v>0.99999999999999978</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="R23" s="59">
         <f>SUM(R25:R35)</f>
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
       <c r="T23" s="59">
         <f>SUM(T25:T35)</f>
-        <v>0.99999999999999967</v>
+        <v>1</v>
       </c>
       <c r="V23" s="59">
         <f>SUM(V25:V34)</f>
-        <v>0.99915604580610717</v>
+        <v>0.99559048168678954</v>
       </c>
       <c r="Y23" s="80">
         <f>SUM(Y25:Y35)</f>
-        <v>1.2906527283634823E-2</v>
+        <v>1.8056744963939263E-4</v>
       </c>
       <c r="Z23" s="81"/>
       <c r="AA23" s="80">
         <f>SUM(AA25:AA35)</f>
-        <v>6.5586643026517982E-2</v>
+        <v>2.4672441270289628E-3</v>
       </c>
       <c r="AB23" s="81"/>
       <c r="AC23" s="80">
         <f>SUM(AC25:AC35)</f>
-        <v>0.15477945112193939</v>
+        <v>1.5172883441798247E-2</v>
       </c>
       <c r="AD23" s="81"/>
       <c r="AE23" s="80">
         <f>SUM(AE25:AE35)</f>
-        <v>0.2251678498657283</v>
+        <v>5.5306685941884204E-2</v>
       </c>
       <c r="AF23" s="81"/>
       <c r="AG23" s="80">
         <f>SUM(AG25:AG35)</f>
-        <v>0.22601824452999073</v>
+        <v>0.13234127253421527</v>
       </c>
       <c r="AH23" s="81"/>
       <c r="AI23" s="80">
         <f>SUM(AI25:AI35)</f>
-        <v>0.16600169037689852</v>
+        <v>0.21725216895530047</v>
       </c>
       <c r="AJ23" s="81"/>
       <c r="AK23" s="80">
         <f>SUM(AK25:AK35)</f>
-        <v>9.2293337168554521E-2</v>
+        <v>0.24785772493213945</v>
       </c>
       <c r="AL23" s="81"/>
       <c r="AM23" s="80">
         <f>SUM(AM25:AM35)</f>
-        <v>3.9629505619687561E-2</v>
+        <v>0.19416153948038714</v>
       </c>
       <c r="AN23" s="81"/>
       <c r="AO23" s="80">
         <f>SUM(AO25:AO35)</f>
-        <v>1.3284142744644791E-2</v>
+        <v>0.10007965372276602</v>
       </c>
       <c r="AP23" s="81"/>
       <c r="AQ23" s="80">
         <f>SUM(AQ25:AQ35)</f>
-        <v>3.4886540685108067E-3</v>
+        <v>3.0770741101630257E-2</v>
       </c>
       <c r="AR23" s="81"/>
       <c r="AS23" s="80">
         <f>SUM(AS25:AS35)</f>
-        <v>8.4395419389282666E-4</v>
+        <v>4.4095183132104579E-3</v>
       </c>
       <c r="BH23">
         <f t="shared" ref="BH23:BH30" si="12">BH15+1</f>
@@ -11509,7 +11513,7 @@
       </c>
       <c r="BJ23" s="107">
         <f t="shared" ref="BJ23:BJ30" si="13">$H$27*H42</f>
-        <v>6.0223513851067827E-2</v>
+        <v>4.9729220042176545E-2</v>
       </c>
       <c r="BP23">
         <f>BL9+1</f>
@@ -11520,7 +11524,7 @@
       </c>
       <c r="BR23" s="107">
         <f>$H$31*H44</f>
-        <v>9.7320843465701848E-5</v>
+        <v>4.1022034422424751E-5</v>
       </c>
     </row>
     <row r="24" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11529,11 +11533,11 @@
       </c>
       <c r="B24" s="64">
         <f>B23/B21</f>
-        <v>0.18421523074157226</v>
+        <v>0.57723470344874606</v>
       </c>
       <c r="C24" s="65">
         <f>C23/B21</f>
-        <v>0.81578476925842769</v>
+        <v>0.42276529655125394</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>79</v>
@@ -11700,7 +11704,7 @@
       </c>
       <c r="BJ24" s="107">
         <f t="shared" si="13"/>
-        <v>3.5827577174261979E-2</v>
+        <v>2.1993990240428741E-2</v>
       </c>
       <c r="BP24">
         <f>BH49+1</f>
@@ -11711,7 +11715,7 @@
       </c>
       <c r="BR24" s="107">
         <f t="shared" ref="BR24:BR30" si="14">$H$32*H39</f>
-        <v>1.4506291983679266E-5</v>
+        <v>2.4850538063282451E-5</v>
       </c>
     </row>
     <row r="25" spans="1:70" x14ac:dyDescent="0.25">
@@ -11720,15 +11724,15 @@
       </c>
       <c r="B25" s="117">
         <f>1/(1+EXP(-3.1416*4*((B11/(B11+C8))-(3.1416/6))))</f>
-        <v>5.9793053310075055E-2</v>
+        <v>0.22919415442970489</v>
       </c>
       <c r="C25" s="118">
         <f>1/(1+EXP(-3.1416*4*((C11/(C11+B8))-(3.1416/6))))</f>
-        <v>0.12216489478261641</v>
+        <v>2.9503960032390836E-2</v>
       </c>
       <c r="D25" s="153">
         <f>IF(B17="AOW", 0.36-0.08, IF(B17="AIM", 0.36+0.08, IF(B17="TL",(0.361)-(0.36*B32),0.36)))</f>
-        <v>0.36</v>
+        <v>0.44</v>
       </c>
       <c r="E25" s="153">
         <f>IF(C17="AOW", 0.36-0.08, IF(C17="AIM", 0.36+0.08, IF(C17="TL",(0.361)-(0.36*C32),0.36)))</f>
@@ -11739,137 +11743,137 @@
       </c>
       <c r="H25" s="127">
         <f>L25*J25</f>
-        <v>0.23781821078428603</v>
+        <v>0.20687895151103949</v>
       </c>
       <c r="I25" s="97">
         <v>0</v>
       </c>
       <c r="J25" s="98">
         <f t="shared" ref="J25:J35" si="15">Y25+AA25+AC25+AE25+AG25+AI25+AK25+AM25+AO25+AQ25+AS25</f>
-        <v>0.33868103152490436</v>
+        <v>0.24610705302268018</v>
       </c>
       <c r="K25" s="97">
         <v>0</v>
       </c>
       <c r="L25" s="98">
         <f>S20</f>
-        <v>0.70218934232458907</v>
+        <v>0.84060553718456177</v>
       </c>
       <c r="M25" s="84">
         <v>0</v>
       </c>
       <c r="N25" s="71">
         <f>(1-$B$24)^$B$21</f>
-        <v>0.36130832118233069</v>
+        <v>1.3505064144457556E-2</v>
       </c>
       <c r="O25" s="70">
         <v>0</v>
       </c>
       <c r="P25" s="71">
         <f>N25</f>
-        <v>0.36130832118233069</v>
+        <v>1.3505064144457556E-2</v>
       </c>
       <c r="Q25" s="12">
         <v>0</v>
       </c>
       <c r="R25" s="73">
         <f>P25*N25</f>
-        <v>0.13054370295559423</v>
+        <v>1.8238675754591311E-4</v>
       </c>
       <c r="S25" s="70">
         <v>0</v>
       </c>
       <c r="T25" s="135">
         <f>(1-$B$33)^(INT(C23*2*(1-C31)))</f>
-        <v>9.8867482623999955E-2</v>
+        <v>0.99002500000000004</v>
       </c>
       <c r="U25" s="140">
         <v>0</v>
       </c>
       <c r="V25" s="86">
         <f>R25*T25</f>
-        <v>1.2906527283634823E-2</v>
+        <v>1.8056744963939263E-4</v>
       </c>
       <c r="W25" s="136">
         <f>B31</f>
-        <v>0.27750426674759959</v>
+        <v>0.22628243682933377</v>
       </c>
       <c r="X25" s="12">
         <v>0</v>
       </c>
       <c r="Y25" s="79">
         <f>V25</f>
-        <v>1.2906527283634823E-2</v>
+        <v>1.8056744963939263E-4</v>
       </c>
       <c r="Z25" s="12">
         <v>0</v>
       </c>
       <c r="AA25" s="78">
         <f>((1-W25)^Z26)*V26</f>
-        <v>4.7386069745007545E-2</v>
+        <v>1.9089501137119866E-3</v>
       </c>
       <c r="AB25" s="12">
         <v>0</v>
       </c>
       <c r="AC25" s="79">
         <f>(((1-$W$25)^AB27))*V27</f>
-        <v>8.0794886575029173E-2</v>
+        <v>9.083077761199071E-3</v>
       </c>
       <c r="AD25" s="12">
         <v>0</v>
       </c>
       <c r="AE25" s="79">
         <f>(((1-$W$25)^AB28))*V28</f>
-        <v>8.4920440992009752E-2</v>
+        <v>2.561680731943982E-2</v>
       </c>
       <c r="AF25" s="12">
         <v>0</v>
       </c>
       <c r="AG25" s="79">
         <f>(((1-$W$25)^AB29))*V29</f>
-        <v>6.1586375297416597E-2</v>
+        <v>4.7426942499313257E-2</v>
       </c>
       <c r="AH25" s="12">
         <v>0</v>
       </c>
       <c r="AI25" s="79">
         <f>(((1-$W$25)^AB30))*V30</f>
-        <v>3.2680518915992399E-2</v>
+        <v>6.0238811900213109E-2</v>
       </c>
       <c r="AJ25" s="12">
         <v>0</v>
       </c>
       <c r="AK25" s="79">
         <f>(((1-$W$25)^AB31))*V31</f>
-        <v>1.3127501291848592E-2</v>
+        <v>5.317373795744107E-2</v>
       </c>
       <c r="AL25" s="12">
         <v>0</v>
       </c>
       <c r="AM25" s="79">
         <f>(((1-$W$25)^AB32))*V32</f>
-        <v>4.0725428384775038E-3</v>
+        <v>3.2228522363472512E-2</v>
       </c>
       <c r="AN25" s="12">
         <v>0</v>
       </c>
       <c r="AO25" s="79">
         <f>(((1-$W$25)^AB33))*V33</f>
-        <v>9.8631542951983179E-4</v>
+        <v>1.2853027497910056E-2</v>
       </c>
       <c r="AP25" s="12">
         <v>0</v>
       </c>
       <c r="AQ25" s="79">
         <f>(((1-$W$25)^AB34))*V34</f>
-        <v>1.8714381887944406E-4</v>
+        <v>3.0575956664149204E-3</v>
       </c>
       <c r="AR25" s="12">
         <v>0</v>
       </c>
       <c r="AS25" s="79">
         <f>(((1-$W$25)^AB35))*V35</f>
-        <v>3.2709337088653562E-5</v>
+        <v>3.390124939249885E-4</v>
       </c>
       <c r="AV25" s="14">
         <v>1</v>
@@ -11914,7 +11918,7 @@
       </c>
       <c r="BJ25" s="107">
         <f t="shared" si="13"/>
-        <v>1.5358232836965765E-2</v>
+        <v>7.1257168631195748E-3</v>
       </c>
       <c r="BP25">
         <f>BP19+1</f>
@@ -11925,7 +11929,7 @@
       </c>
       <c r="BR25" s="107">
         <f t="shared" si="14"/>
-        <v>4.5144718428676833E-5</v>
+        <v>5.502983687860229E-5</v>
       </c>
     </row>
     <row r="26" spans="1:70" x14ac:dyDescent="0.25">
@@ -11934,15 +11938,15 @@
       </c>
       <c r="B26" s="119">
         <f>1/(1+EXP(-3.1416*4*((B10/(B10+C9))-(3.1416/6))))</f>
-        <v>0.33527576640065798</v>
+        <v>0.1038669345924982</v>
       </c>
       <c r="C26" s="120">
         <f>1/(1+EXP(-3.1416*4*((C10/(C10+B9))-(3.1416/6))))</f>
-        <v>0.21042000227768004</v>
+        <v>0.42639691249266598</v>
       </c>
       <c r="D26" s="153">
         <f>IF(B17="AOW", 0.257+0.04, IF(B17="AIM", 0.257-0.04, IF(B17="TL",(0.257)-(0.257*B32),0.257)))</f>
-        <v>0.25700000000000001</v>
+        <v>0.217</v>
       </c>
       <c r="E26" s="153">
         <f>IF(C17="AOW", 0.257+0.04, IF(C17="AIM", 0.257-0.04, IF(C17="TL",(0.257)-(0.257*C32),0.257)))</f>
@@ -11953,56 +11957,56 @@
       </c>
       <c r="H26" s="128">
         <f>L25*J26+L26*J25</f>
-        <v>0.35389557422789747</v>
+        <v>0.34780066463728926</v>
       </c>
       <c r="I26" s="93">
         <v>1</v>
       </c>
       <c r="J26" s="86">
         <f t="shared" si="15"/>
-        <v>0.38050379928213635</v>
+        <v>0.37031511374238224</v>
       </c>
       <c r="K26" s="93">
         <v>1</v>
       </c>
       <c r="L26" s="86">
         <f>T20</f>
-        <v>0.25602219665966325</v>
+        <v>0.14835710343883235</v>
       </c>
       <c r="M26" s="85">
         <v>1</v>
       </c>
       <c r="N26" s="71">
         <f>(($B$24)^M26)*((1-($B$24))^($B$21-M26))*HLOOKUP($B$21,$AV$24:$BF$34,M26+1)</f>
-        <v>0.40794152001609918</v>
+        <v>9.2197630222673119E-2</v>
       </c>
       <c r="O26" s="72">
         <v>1</v>
       </c>
       <c r="P26" s="71">
         <f t="shared" ref="P26:P30" si="16">N26</f>
-        <v>0.40794152001609918</v>
+        <v>9.2197630222673119E-2</v>
       </c>
       <c r="Q26" s="28">
         <v>1</v>
       </c>
       <c r="R26" s="37">
         <f>N26*P25+P26*N25</f>
-        <v>0.29478533147516989</v>
+        <v>2.4902698202483582E-3</v>
       </c>
       <c r="S26" s="72">
         <v>1</v>
       </c>
       <c r="T26" s="135">
         <f t="shared" ref="T26:T35" si="17">(($B$33)^S26)*((1-($B$33))^(INT($C$23*2*(1-$C$31))-S26))*HLOOKUP(INT($C$23*2*(1-$C$31)),$AV$24:$BF$34,S26+1)</f>
-        <v>0.27915524505599992</v>
+        <v>9.9500000000000005E-3</v>
       </c>
       <c r="U26" s="93">
         <v>1</v>
       </c>
       <c r="V26" s="86">
         <f>R26*T25+T26*R25</f>
-        <v>6.5586643026517982E-2</v>
+        <v>2.4672441270289628E-3</v>
       </c>
       <c r="W26" s="137"/>
       <c r="X26" s="28">
@@ -12014,70 +12018,70 @@
       </c>
       <c r="AA26" s="79">
         <f>(1-((1-W25)^Z26))*V26</f>
-        <v>1.8200573281510434E-2</v>
+        <v>5.5829401331697608E-4</v>
       </c>
       <c r="AB26" s="28">
         <v>1</v>
       </c>
       <c r="AC26" s="79">
         <f>((($W$25)^M26)*((1-($W$25))^($U$27-M26))*HLOOKUP($U$27,$AV$24:$BF$34,M26+1))*V27</f>
-        <v>6.2065212911440973E-2</v>
+        <v>5.3128972833232403E-3</v>
       </c>
       <c r="AD26" s="28">
         <v>1</v>
       </c>
       <c r="AE26" s="79">
         <f>((($W$25)^M26)*((1-($W$25))^($U$28-M26))*HLOOKUP($U$28,$AV$24:$BF$34,M26+1))*V28</f>
-        <v>9.7851587039633925E-2</v>
+        <v>2.2475773563712179E-2</v>
       </c>
       <c r="AF26" s="28">
         <v>1</v>
       </c>
       <c r="AG26" s="79">
         <f>((($W$25)^M26)*((1-($W$25))^($U$29-M26))*HLOOKUP($U$29,$AV$24:$BF$34,M26+1))*V29</f>
-        <v>9.4619143792682284E-2</v>
+        <v>5.548217918761171E-2</v>
       </c>
       <c r="AH26" s="28">
         <v>1</v>
       </c>
       <c r="AI26" s="79">
         <f>((($W$25)^M26)*((1-($W$25))^($U$30-M26))*HLOOKUP($U$30,$AV$24:$BF$34,M26+1))*V30</f>
-        <v>6.2761501703881492E-2</v>
+        <v>8.8087603263294262E-2</v>
       </c>
       <c r="AJ26" s="28">
         <v>1</v>
       </c>
       <c r="AK26" s="79">
         <f>((($W$25)^M26)*((1-($W$25))^($U$31-M26))*HLOOKUP($U$31,$AV$24:$BF$34,M26+1))*V31</f>
-        <v>3.0252947824260443E-2</v>
+        <v>9.3307560069023257E-2</v>
       </c>
       <c r="AL26" s="28">
         <v>1</v>
       </c>
       <c r="AM26" s="79">
         <f>((($W$25)^Q26)*((1-($W$25))^($U$32-Q26))*HLOOKUP($U$32,$AV$24:$BF$34,Q26+1))*V32</f>
-        <v>1.0949595596525872E-2</v>
+        <v>6.5979166637382194E-2</v>
       </c>
       <c r="AN26" s="28">
         <v>1</v>
       </c>
       <c r="AO26" s="79">
         <f>((($W$25)^Q26)*((1-($W$25))^($U$33-Q26))*HLOOKUP($U$33,$AV$24:$BF$34,Q26+1))*V33</f>
-        <v>3.0306807633990714E-3</v>
+        <v>3.0072104047300645E-2</v>
       </c>
       <c r="AP26" s="28">
         <v>1</v>
       </c>
       <c r="AQ26" s="79">
         <f>((($W$25)^Q26)*((1-($W$25))^($U$34-Q26))*HLOOKUP($U$34,$AV$24:$BF$34,Q26+1))*V34</f>
-        <v>6.4692267732339363E-4</v>
+        <v>8.0480553635087632E-3</v>
       </c>
       <c r="AR26" s="28">
         <v>1</v>
       </c>
       <c r="AS26" s="79">
         <f>((($W$25)^Q26)*((1-($W$25))^($U$35-Q26))*HLOOKUP($U$35,$AV$24:$BF$34,Q26+1))*V35</f>
-        <v>1.256336914783671E-4</v>
+        <v>9.9148031390900327E-4</v>
       </c>
       <c r="AV26" s="14">
         <v>2</v>
@@ -12122,7 +12126,7 @@
       </c>
       <c r="BJ26" s="107">
         <f t="shared" si="13"/>
-        <v>4.8922795773674952E-3</v>
+        <v>1.7407387528343161E-3</v>
       </c>
       <c r="BP26">
         <f>BP20+1</f>
@@ -12133,7 +12137,7 @@
       </c>
       <c r="BR26" s="107">
         <f t="shared" si="14"/>
-        <v>6.4655040529909124E-5</v>
+        <v>5.6771340457735039E-5</v>
       </c>
     </row>
     <row r="27" spans="1:70" x14ac:dyDescent="0.25">
@@ -12142,15 +12146,15 @@
       </c>
       <c r="B27" s="119">
         <f>1/(1+EXP(-3.1416*4*((B12/(B12+C7))-(3.1416/6))))</f>
-        <v>0.26686889478396048</v>
+        <v>0.10870255259833697</v>
       </c>
       <c r="C27" s="120">
         <f>1/(1+EXP(-3.1416*4*((C12/(C12+B7))-(3.1416/6))))</f>
-        <v>0.32839636256027932</v>
+        <v>0.42639691249266598</v>
       </c>
       <c r="D27" s="153">
         <f>D26</f>
-        <v>0.25700000000000001</v>
+        <v>0.217</v>
       </c>
       <c r="E27" s="153">
         <f>E26</f>
@@ -12161,56 +12165,56 @@
       </c>
       <c r="H27" s="128">
         <f>L25*J27+J26*L26+J25*L27</f>
-        <v>0.25030059527877668</v>
+        <v>0.26840137644494466</v>
       </c>
       <c r="I27" s="93">
         <v>2</v>
       </c>
       <c r="J27" s="86">
         <f t="shared" si="15"/>
-        <v>0.19918106167697677</v>
+        <v>0.25082747916191239</v>
       </c>
       <c r="K27" s="93">
         <v>2</v>
       </c>
       <c r="L27" s="86">
         <f>U20</f>
-        <v>3.8444308463698049E-2</v>
+        <v>1.0627614758823102E-2</v>
       </c>
       <c r="M27" s="85">
         <v>2</v>
       </c>
       <c r="N27" s="71">
         <f>(($B$24)^M27)*((1-($B$24))^($B$21-M27))*HLOOKUP($B$21,$AV$24:$BF$34,M27+1)</f>
-        <v>0.18423742161096268</v>
+        <v>0.2517693489716688</v>
       </c>
       <c r="O27" s="72">
         <v>2</v>
       </c>
       <c r="P27" s="71">
         <f t="shared" si="16"/>
-        <v>0.18423742161096268</v>
+        <v>0.2517693489716688</v>
       </c>
       <c r="Q27" s="28">
         <v>2</v>
       </c>
       <c r="R27" s="37">
         <f>P25*N27+P26*N26+P27*N25</f>
-        <v>0.2995493107554818</v>
+        <v>1.5300725433618179E-2</v>
       </c>
       <c r="S27" s="72">
         <v>2</v>
       </c>
       <c r="T27" s="135">
         <f t="shared" si="17"/>
-        <v>0.32841793535999991</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="U27" s="93">
         <v>2</v>
       </c>
       <c r="V27" s="86">
         <f>R27*T25+T26*R26+R25*T27</f>
-        <v>0.15477945112193936</v>
+        <v>1.5172883441798249E-2</v>
       </c>
       <c r="W27" s="137"/>
       <c r="X27" s="28">
@@ -12226,63 +12230,63 @@
       </c>
       <c r="AC27" s="79">
         <f>((($W$25)^M27)*((1-($W$25))^($U$27-M27))*HLOOKUP($U$27,$AV$24:$BF$34,M27+1))*V27</f>
-        <v>1.1919351635469229E-2</v>
+        <v>7.769083972759362E-4</v>
       </c>
       <c r="AD27" s="28">
         <v>2</v>
       </c>
       <c r="AE27" s="79">
         <f>((($W$25)^M27)*((1-($W$25))^($U$28-M27))*HLOOKUP($U$28,$AV$24:$BF$34,M27+1))*V28</f>
-        <v>3.7583935325520228E-2</v>
+        <v>6.5732937362561498E-3</v>
       </c>
       <c r="AF27" s="28">
         <v>2</v>
       </c>
       <c r="AG27" s="79">
         <f>((($W$25)^M27)*((1-($W$25))^($U$29-M27))*HLOOKUP($U$29,$AV$24:$BF$34,M27+1))*V29</f>
-        <v>5.4513573388746545E-2</v>
+        <v>2.4339584568287539E-2</v>
       </c>
       <c r="AH27" s="28">
         <v>2</v>
       </c>
       <c r="AI27" s="79">
         <f>((($W$25)^M27)*((1-($W$25))^($U$30-M27))*HLOOKUP($U$30,$AV$24:$BF$34,M27+1))*V30</f>
-        <v>4.8212283363698302E-2</v>
+        <v>5.1524428214322592E-2</v>
       </c>
       <c r="AJ27" s="28">
         <v>2</v>
       </c>
       <c r="AK27" s="79">
         <f>((($W$25)^M27)*((1-($W$25))^($U$31-M27))*HLOOKUP($U$31,$AV$24:$BF$34,M27+1))*V31</f>
-        <v>2.9049729003700279E-2</v>
+        <v>6.8222123524294173E-2</v>
       </c>
       <c r="AL27" s="28">
         <v>2</v>
       </c>
       <c r="AM27" s="79">
         <f>((($W$25)^Q27)*((1-($W$25))^($U$32-Q27))*HLOOKUP($U$32,$AV$24:$BF$34,Q27+1))*V32</f>
-        <v>1.2616930553423011E-2</v>
+        <v>5.7889056617093829E-2</v>
       </c>
       <c r="AN27" s="28">
         <v>2</v>
       </c>
       <c r="AO27" s="79">
         <f>((($W$25)^Q27)*((1-($W$25))^($U$33-Q27))*HLOOKUP($U$33,$AV$24:$BF$34,Q27+1))*V33</f>
-        <v>4.0742025385049176E-3</v>
+        <v>3.0782242227809065E-2</v>
       </c>
       <c r="AP27" s="28">
         <v>2</v>
       </c>
       <c r="AQ27" s="79">
         <f>((($W$25)^Q27)*((1-($W$25))^($U$34-Q27))*HLOOKUP($U$34,$AV$24:$BF$34,Q27+1))*V34</f>
-        <v>9.9390927835587119E-4</v>
+        <v>9.414978623099696E-3</v>
       </c>
       <c r="AR27" s="28">
         <v>2</v>
       </c>
       <c r="AS27" s="79">
         <f>((($W$25)^Q27)*((1-($W$25))^($U$35-Q27))*HLOOKUP($U$35,$AV$24:$BF$34,Q27+1))*V35</f>
-        <v>2.1714658955838425E-4</v>
+        <v>1.3048632534734036E-3</v>
       </c>
       <c r="AV27" s="14">
         <v>3</v>
@@ -12324,7 +12328,7 @@
       </c>
       <c r="BJ27" s="107">
         <f t="shared" si="13"/>
-        <v>1.1762520108012137E-3</v>
+        <v>3.2447952518282688E-4</v>
       </c>
       <c r="BP27">
         <f>BP21+1</f>
@@ -12335,7 +12339,7 @@
       </c>
       <c r="BR27" s="107">
         <f t="shared" si="14"/>
-        <v>5.6466874239703685E-5</v>
+        <v>3.6255524238214482E-5</v>
       </c>
     </row>
     <row r="28" spans="1:70" x14ac:dyDescent="0.25">
@@ -12359,56 +12363,56 @@
       </c>
       <c r="H28" s="128">
         <f>J28*L25+J27*L26+L28*J25+L27*J26</f>
-        <v>0.11203642434370767</v>
+        <v>0.12591705143086104</v>
       </c>
       <c r="I28" s="93">
         <v>3</v>
       </c>
       <c r="J28" s="86">
         <f t="shared" si="15"/>
-        <v>6.4485235254562859E-2</v>
+        <v>0.10072335002041241</v>
       </c>
       <c r="K28" s="93">
         <v>3</v>
       </c>
       <c r="L28" s="86">
         <f>V20</f>
-        <v>3.3441525520496312E-3</v>
+        <v>4.0974461778277987E-4</v>
       </c>
       <c r="M28" s="85">
         <v>3</v>
       </c>
       <c r="N28" s="71">
         <f>(($B$24)^M28)*((1-($B$24))^($B$21-M28))*HLOOKUP($B$21,$AV$24:$BF$34,M28+1)</f>
-        <v>4.1603300787470786E-2</v>
+        <v>0.34376048998507625</v>
       </c>
       <c r="O28" s="72">
         <v>3</v>
       </c>
       <c r="P28" s="71">
         <f t="shared" si="16"/>
-        <v>4.1603300787470786E-2</v>
+        <v>0.34376048998507625</v>
       </c>
       <c r="Q28" s="28">
         <v>3</v>
       </c>
       <c r="R28" s="37">
         <f>P25*N28+P26*N27+P27*N26+P28*N25</f>
-        <v>0.18037942515797528</v>
+        <v>5.5710089610943356E-2</v>
       </c>
       <c r="S28" s="72">
         <v>3</v>
       </c>
       <c r="T28" s="135">
         <f t="shared" si="17"/>
-        <v>0.20606615551999999</v>
+        <v>0</v>
       </c>
       <c r="U28" s="93">
         <v>3</v>
       </c>
       <c r="V28" s="86">
         <f>R28*T25+R27*T26+R26*T27+R25*T28</f>
-        <v>0.22516784986572827</v>
+        <v>5.5306685941884211E-2</v>
       </c>
       <c r="W28" s="137"/>
       <c r="X28" s="28">
@@ -12428,56 +12432,56 @@
       </c>
       <c r="AE28" s="79">
         <f>((($W$25)^M28)*((1-($W$25))^($U$28-M28))*HLOOKUP($U$28,$AV$24:$BF$34,M28+1))*V28</f>
-        <v>4.8118865085643942E-3</v>
+        <v>6.4081132247605587E-4</v>
       </c>
       <c r="AF28" s="28">
         <v>3</v>
       </c>
       <c r="AG28" s="79">
         <f>((($W$25)^M28)*((1-($W$25))^($U$29-M28))*HLOOKUP($U$29,$AV$24:$BF$34,M28+1))*V29</f>
-        <v>1.3958789895257655E-2</v>
+        <v>4.745590871648931E-3</v>
       </c>
       <c r="AH28" s="28">
         <v>3</v>
       </c>
       <c r="AI28" s="79">
         <f>((($W$25)^M28)*((1-($W$25))^($U$30-M28))*HLOOKUP($U$30,$AV$24:$BF$34,M28+1))*V30</f>
-        <v>1.8517914677285249E-2</v>
+        <v>1.5068900755976822E-2</v>
       </c>
       <c r="AJ28" s="28">
         <v>3</v>
       </c>
       <c r="AK28" s="79">
         <f>((($W$25)^M28)*((1-($W$25))^($U$31-M28))*HLOOKUP($U$31,$AV$24:$BF$34,M28+1))*V31</f>
-        <v>1.4876994424310976E-2</v>
+        <v>2.6603107027818474E-2</v>
       </c>
       <c r="AL28" s="28">
         <v>3</v>
       </c>
       <c r="AM28" s="79">
         <f>((($W$25)^Q28)*((1-($W$25))^($U$32-Q28))*HLOOKUP($U$32,$AV$24:$BF$34,Q28+1))*V32</f>
-        <v>8.0767537225254274E-3</v>
+        <v>2.8217180317899011E-2</v>
       </c>
       <c r="AN28" s="28">
         <v>3</v>
       </c>
       <c r="AO28" s="79">
         <f>((($W$25)^Q28)*((1-($W$25))^($U$33-Q28))*HLOOKUP($U$33,$AV$24:$BF$34,Q28+1))*V33</f>
-        <v>3.1297308371343513E-3</v>
+        <v>1.8005228558687931E-2</v>
       </c>
       <c r="AP28" s="28">
         <v>3</v>
       </c>
       <c r="AQ28" s="79">
         <f>((($W$25)^Q28)*((1-($W$25))^($U$34-Q28))*HLOOKUP($U$34,$AV$24:$BF$34,Q28+1))*V34</f>
-        <v>8.9075426085226568E-4</v>
+        <v>6.4248725239410866E-3</v>
       </c>
       <c r="AR28" s="28">
         <v>3</v>
       </c>
       <c r="AS28" s="79">
         <f>((($W$25)^Q28)*((1-($W$25))^($U$35-Q28))*HLOOKUP($U$35,$AV$24:$BF$34,Q28+1))*V35</f>
-        <v>2.2241092863253454E-4</v>
+        <v>1.0176586419641074E-3</v>
       </c>
       <c r="AV28" s="14">
         <v>4</v>
@@ -12516,7 +12520,7 @@
       </c>
       <c r="BJ28" s="107">
         <f t="shared" si="13"/>
-        <v>2.1430444189885002E-4</v>
+        <v>4.6099517379280613E-5</v>
       </c>
       <c r="BP28">
         <f>BP22+1</f>
@@ -12527,7 +12531,7 @@
       </c>
       <c r="BR28" s="107">
         <f t="shared" si="14"/>
-        <v>3.3592714294542256E-5</v>
+        <v>1.6034911578758319E-5</v>
       </c>
     </row>
     <row r="29" spans="1:70" x14ac:dyDescent="0.25">
@@ -12536,11 +12540,11 @@
       </c>
       <c r="B29" s="123">
         <f>1/(1+EXP(-3.1416*4*((B14/(B14+C13))-(3.1416/6))))</f>
-        <v>0.61657927368868204</v>
+        <v>6.7831283489497657E-2</v>
       </c>
       <c r="C29" s="118">
         <f>1/(1+EXP(-3.1416*4*((C14/(C14+B13))-(3.1416/6))))</f>
-        <v>9.7969192120322693E-2</v>
+        <v>0.83305468158299556</v>
       </c>
       <c r="D29" s="153">
         <v>0.04</v>
@@ -12553,14 +12557,14 @@
       </c>
       <c r="H29" s="128">
         <f>J29*L25+J28*L26+J27*L27+J26*L28</f>
-        <v>3.5585965866395335E-2</v>
+        <v>4.0086858444242653E-2</v>
       </c>
       <c r="I29" s="93">
         <v>4</v>
       </c>
       <c r="J29" s="86">
         <f t="shared" si="15"/>
-        <v>1.4449768383192368E-2</v>
+        <v>2.6559903016029712E-2</v>
       </c>
       <c r="K29" s="93">
         <v>4</v>
@@ -12571,35 +12575,35 @@
       </c>
       <c r="N29" s="71">
         <f>(($B$24)^M29)*((1-($B$24))^($B$21-M29))*HLOOKUP($B$21,$AV$24:$BF$34,M29+1)</f>
-        <v>4.6972939082582594E-3</v>
+        <v>0.23468161425813053</v>
       </c>
       <c r="O29" s="72">
         <v>4</v>
       </c>
       <c r="P29" s="71">
         <f t="shared" si="16"/>
-        <v>4.6972939082582594E-3</v>
+        <v>0.23468161425813053</v>
       </c>
       <c r="Q29" s="28">
         <v>4</v>
       </c>
       <c r="R29" s="37">
         <f>P25*N29+P26*N28+P27*N27+P28*N26+P29*N25</f>
-        <v>7.1281197795896797E-2</v>
+        <v>0.13311439067139771</v>
       </c>
       <c r="S29" s="72">
         <v>4</v>
       </c>
       <c r="T29" s="135">
         <f t="shared" si="17"/>
-        <v>7.272923135999998E-2</v>
+        <v>0</v>
       </c>
       <c r="U29" s="93">
         <v>4</v>
       </c>
       <c r="V29" s="86">
         <f>T29*R25+T28*R26+T27*R27+T26*R28+T25*R29</f>
-        <v>0.2260182445299907</v>
+        <v>0.13234127253421527</v>
       </c>
       <c r="W29" s="137"/>
       <c r="X29" s="28">
@@ -12623,49 +12627,49 @@
       </c>
       <c r="AG29" s="79">
         <f>((($W$25)^M29)*((1-($W$25))^($U$29-M29))*HLOOKUP($U$29,$AV$24:$BF$34,M29+1))*V29</f>
-        <v>1.3403621558876551E-3</v>
+        <v>3.4697540735381189E-4</v>
       </c>
       <c r="AH29" s="28">
         <v>4</v>
       </c>
       <c r="AI29" s="79">
         <f>((($W$25)^M29)*((1-($W$25))^($U$30-M29))*HLOOKUP($U$30,$AV$24:$BF$34,M29+1))*V30</f>
-        <v>3.5562842088227528E-3</v>
+        <v>2.2035350790206164E-3</v>
       </c>
       <c r="AJ29" s="28">
         <v>4</v>
       </c>
       <c r="AK29" s="79">
         <f>((($W$25)^M29)*((1-($W$25))^($U$31-M29))*HLOOKUP($U$31,$AV$24:$BF$34,M29+1))*V31</f>
-        <v>4.2855921901523856E-3</v>
+        <v>5.8352842549069415E-3</v>
       </c>
       <c r="AL29" s="28">
         <v>4</v>
       </c>
       <c r="AM29" s="79">
         <f>((($W$25)^Q29)*((1-($W$25))^($U$32-Q29))*HLOOKUP($U$32,$AV$24:$BF$34,Q29+1))*V32</f>
-        <v>3.1022101810632636E-3</v>
+        <v>8.2524329635496347E-3</v>
       </c>
       <c r="AN29" s="28">
         <v>4</v>
       </c>
       <c r="AO29" s="79">
         <f>((($W$25)^Q29)*((1-($W$25))^($U$33-Q29))*HLOOKUP($U$33,$AV$24:$BF$34,Q29+1))*V33</f>
-        <v>1.5026276646067545E-3</v>
+        <v>6.58229046984668E-3</v>
       </c>
       <c r="AP29" s="28">
         <v>4</v>
       </c>
       <c r="AQ29" s="79">
         <f>((($W$25)^Q29)*((1-($W$25))^($U$34-Q29))*HLOOKUP($U$34,$AV$24:$BF$34,Q29+1))*V34</f>
-        <v>5.1319633452510808E-4</v>
+        <v>2.8185397622566338E-3</v>
       </c>
       <c r="AR29" s="28">
         <v>4</v>
       </c>
       <c r="AS29" s="79">
         <f>((($W$25)^Q29)*((1-($W$25))^($U$35-Q29))*HLOOKUP($U$35,$AV$24:$BF$34,Q29+1))*V35</f>
-        <v>1.4949564813445006E-4</v>
+        <v>5.2084507909539281E-4</v>
       </c>
       <c r="AV29" s="14">
         <v>5</v>
@@ -12701,7 +12705,7 @@
       </c>
       <c r="BJ29" s="107">
         <f t="shared" si="13"/>
-        <v>2.9356535737153192E-5</v>
+        <v>4.9246566616231857E-6</v>
       </c>
       <c r="BP29">
         <f>BP23+1</f>
@@ -12712,7 +12716,7 @@
       </c>
       <c r="BR29" s="107">
         <f t="shared" si="14"/>
-        <v>1.4400212586294589E-5</v>
+        <v>5.1950664061566917E-6</v>
       </c>
     </row>
     <row r="30" spans="1:70" x14ac:dyDescent="0.25">
@@ -12738,14 +12742,14 @@
       </c>
       <c r="H30" s="128">
         <f>J30*L25+J29*L26+J28*L27+J27*L28</f>
-        <v>8.5118270748929907E-3</v>
+        <v>9.1541940340988514E-3</v>
       </c>
       <c r="I30" s="93">
         <v>5</v>
       </c>
       <c r="J30" s="86">
         <f t="shared" si="15"/>
-        <v>2.3742648891223132E-3</v>
+        <v>4.8067962979924644E-3</v>
       </c>
       <c r="K30" s="93">
         <v>5</v>
@@ -12756,35 +12760,35 @@
       </c>
       <c r="N30" s="71">
         <f>(($B$24)^M30)*((1-($B$24))^($B$21-M30))*HLOOKUP($B$21,$AV$24:$BF$34,M30+1)</f>
-        <v>2.1214249487824392E-4</v>
+        <v>6.4085852417993694E-2</v>
       </c>
       <c r="O30" s="72">
         <v>5</v>
       </c>
       <c r="P30" s="71">
         <f t="shared" si="16"/>
-        <v>2.1214249487824392E-4</v>
+        <v>6.4085852417993694E-2</v>
       </c>
       <c r="Q30" s="28">
         <v>5</v>
       </c>
       <c r="R30" s="37">
         <f>P25*N30+P26*N29+P27*N28+P28*N27+P29*N26+P30*N25</f>
-        <v>1.9315509866324156E-2</v>
+        <v>0.21810185400962581</v>
       </c>
       <c r="S30" s="72">
         <v>5</v>
       </c>
       <c r="T30" s="135">
         <f t="shared" si="17"/>
-        <v>1.3690208256E-2</v>
+        <v>0</v>
       </c>
       <c r="U30" s="93">
         <v>5</v>
       </c>
       <c r="V30" s="86">
         <f>T30*R25+T29*R26+T28*R27+T27*R28+T26*R29+T25*R30</f>
-        <v>0.16600169037689846</v>
+        <v>0.21725216895530047</v>
       </c>
       <c r="W30" s="137"/>
       <c r="X30" s="28">
@@ -12812,42 +12816,42 @@
       </c>
       <c r="AI30" s="79">
         <f>((($W$25)^M30)*((1-($W$25))^($U$30-M30))*HLOOKUP($U$30,$AV$24:$BF$34,M30+1))*V30</f>
-        <v>2.7318750721830548E-4</v>
+        <v>1.2888974247304711E-4</v>
       </c>
       <c r="AJ30" s="28">
         <v>5</v>
       </c>
       <c r="AK30" s="79">
         <f>((($W$25)^M30)*((1-($W$25))^($U$31-M30))*HLOOKUP($U$31,$AV$24:$BF$34,M30+1))*V31</f>
-        <v>6.5842333100229469E-4</v>
+        <v>6.8263790491255932E-4</v>
       </c>
       <c r="AL30" s="28">
         <v>5</v>
       </c>
       <c r="AM30" s="79">
         <f>((($W$25)^Q30)*((1-($W$25))^($U$32-Q30))*HLOOKUP($U$32,$AV$24:$BF$34,Q30+1))*V32</f>
-        <v>7.1491901361207561E-4</v>
+        <v>1.4481103154310789E-3</v>
       </c>
       <c r="AN30" s="28">
         <v>5</v>
       </c>
       <c r="AO30" s="79">
         <f>((($W$25)^Q30)*((1-($W$25))^($U$33-Q30))*HLOOKUP($U$33,$AV$24:$BF$34,Q30+1))*V33</f>
-        <v>4.6171687285597682E-4</v>
+        <v>1.5400521309938142E-3</v>
       </c>
       <c r="AP30" s="28">
         <v>5</v>
       </c>
       <c r="AQ30" s="79">
         <f>((($W$25)^Q30)*((1-($W$25))^($U$34-Q30))*HLOOKUP($U$34,$AV$24:$BF$34,Q30+1))*V34</f>
-        <v>1.9711420560070524E-4</v>
+        <v>8.2431377554643894E-4</v>
       </c>
       <c r="AR30" s="28">
         <v>5</v>
       </c>
       <c r="AS30" s="79">
         <f>((($W$25)^Q30)*((1-($W$25))^($U$35-Q30))*HLOOKUP($U$35,$AV$24:$BF$34,Q30+1))*V35</f>
-        <v>6.8903958832955336E-5</v>
+        <v>1.8279242863552603E-4</v>
       </c>
       <c r="AV30" s="29">
         <v>6</v>
@@ -12879,7 +12883,7 @@
       </c>
       <c r="BJ30" s="107">
         <f t="shared" si="13"/>
-        <v>2.9530518573852834E-6</v>
+        <v>3.8439070463993189E-7</v>
       </c>
       <c r="BP30">
         <f>BL10+1</f>
@@ -12890,7 +12894,7 @@
       </c>
       <c r="BR30" s="107">
         <f t="shared" si="14"/>
-        <v>4.5871075594135703E-6</v>
+        <v>1.2691008624759749E-6</v>
       </c>
     </row>
     <row r="31" spans="1:70" x14ac:dyDescent="0.25">
@@ -12899,25 +12903,25 @@
       </c>
       <c r="B31" s="60">
         <f>(B25*D25)+(B26*D26)+(B27*D27)+(B28*D28)+(B29*D29)+(B30*D30)/(B25+B26+B27+B28+B29+B30)</f>
-        <v>0.27750426674759959</v>
+        <v>0.22628243682933377</v>
       </c>
       <c r="C31" s="61">
         <f>(C25*E25)+(C26*E26)+(C27*E27)+(C28*E28)+(C29*E29)+(C30*E30)/(C25+C26+C27+C28+C29+C30)</f>
-        <v>0.26295685658074053</v>
+        <v>0.33966586852958641</v>
       </c>
       <c r="G31" s="87">
         <v>6</v>
       </c>
       <c r="H31" s="128">
         <f>J31*L25+J30*L26+J29*L27+J28*L28</f>
-        <v>1.5860851512725454E-3</v>
+        <v>1.5451596962176325E-3</v>
       </c>
       <c r="I31" s="93">
         <v>6</v>
       </c>
       <c r="J31" s="86">
         <f t="shared" si="15"/>
-        <v>2.9487890149907547E-4</v>
+        <v>6.0491875236522565E-4</v>
       </c>
       <c r="K31" s="93">
         <v>6</v>
@@ -12932,21 +12936,21 @@
       </c>
       <c r="R31" s="37">
         <f>P26*N30+P27*N29+P28*N28+P29*N27+P30*N26</f>
-        <v>3.6347527364668114E-3</v>
+        <v>0.24815967639703734</v>
       </c>
       <c r="S31" s="70">
         <v>6</v>
       </c>
       <c r="T31" s="135">
         <f t="shared" si="17"/>
-        <v>1.073741824E-3</v>
+        <v>0</v>
       </c>
       <c r="U31" s="93">
         <v>6</v>
       </c>
       <c r="V31" s="86">
         <f>T31*R25+T30*R26+T29*R27+T28*R28+T27*R29+T26*R30+T25*R31</f>
-        <v>9.2293337168554493E-2</v>
+        <v>0.24785772493213948</v>
       </c>
       <c r="W31" s="137"/>
       <c r="X31" s="28">
@@ -12978,35 +12982,35 @@
       </c>
       <c r="AK31" s="79">
         <f>((($W$25)^Q31)*((1-($W$25))^($U$31-Q31))*HLOOKUP($U$31,$AV$24:$BF$34,Q31+1))*V31</f>
-        <v>4.2149103279542171E-5</v>
+        <v>3.3274193742971875E-5</v>
       </c>
       <c r="AL31" s="28">
         <v>6</v>
       </c>
       <c r="AM31" s="79">
         <f>((($W$25)^Q31)*((1-($W$25))^($U$32-Q31))*HLOOKUP($U$32,$AV$24:$BF$34,Q31+1))*V32</f>
-        <v>9.1531371755533287E-5</v>
+        <v>1.4117207043468213E-4</v>
       </c>
       <c r="AN31" s="28">
         <v>6</v>
       </c>
       <c r="AO31" s="79">
         <f>((($W$25)^Q31)*((1-($W$25))^($U$33-Q31))*HLOOKUP($U$33,$AV$24:$BF$34,Q31+1))*V33</f>
-        <v>8.8670698213058852E-5</v>
+        <v>2.252028166566381E-4</v>
       </c>
       <c r="AP31" s="28">
         <v>6</v>
       </c>
       <c r="AQ31" s="79">
         <f>((($W$25)^Q31)*((1-($W$25))^($U$34-Q31))*HLOOKUP($U$34,$AV$24:$BF$34,Q31+1))*V34</f>
-        <v>5.047322364523003E-5</v>
+        <v>1.6071991358901293E-4</v>
       </c>
       <c r="AR31" s="28">
         <v>6</v>
       </c>
       <c r="AS31" s="79">
         <f>((($W$25)^Q31)*((1-($W$25))^($U$35-Q31))*HLOOKUP($U$35,$AV$24:$BF$34,Q31+1))*V35</f>
-        <v>2.2054504605711144E-5</v>
+        <v>4.4549757941920506E-5</v>
       </c>
       <c r="AV31" s="14">
         <v>7</v>
@@ -13034,7 +13038,7 @@
       </c>
       <c r="BJ31" s="107">
         <f t="shared" ref="BJ31:BJ37" si="20">$H$28*H43</f>
-        <v>1.6036692341989418E-2</v>
+        <v>1.031819745843216E-2</v>
       </c>
       <c r="BP31">
         <f t="shared" ref="BP31:BP37" si="21">BP24+1</f>
@@ -13045,7 +13049,7 @@
       </c>
       <c r="BR31" s="107">
         <f t="shared" ref="BR31:BR38" si="22">$H$33*H39</f>
-        <v>1.7182075895467462E-6</v>
+        <v>2.3698869647437344E-6</v>
       </c>
     </row>
     <row r="32" spans="1:70" x14ac:dyDescent="0.25">
@@ -13065,14 +13069,14 @@
       </c>
       <c r="H32" s="128">
         <f>J32*L25+J31*L26+J30*L27+J29*L28</f>
-        <v>2.3468727299244177E-4</v>
+        <v>1.9568037867910855E-4</v>
       </c>
       <c r="I32" s="93">
         <v>7</v>
       </c>
       <c r="J32" s="86">
         <f t="shared" si="15"/>
-        <v>2.7902057342645357E-5</v>
+        <v>5.2306136741359457E-5</v>
       </c>
       <c r="K32" s="93">
         <v>7</v>
@@ -13087,7 +13091,7 @@
       </c>
       <c r="R32" s="37">
         <f>P27*N30+P28*N29+P29*N28+P30*N27</f>
-        <v>4.6901503524581417E-4</v>
+        <v>0.19361824009887266</v>
       </c>
       <c r="S32" s="72">
         <v>7</v>
@@ -13101,7 +13105,7 @@
       </c>
       <c r="V32" s="86">
         <f>T32*R25+T31*R26+T30*R27+T29*R28+T28*R29+T27*R30+T26*R31+T25*R32</f>
-        <v>3.9629505619687547E-2</v>
+        <v>0.19416153948038717</v>
       </c>
       <c r="W32" s="137"/>
       <c r="X32" s="28">
@@ -13137,28 +13141,28 @@
       </c>
       <c r="AM32" s="79">
         <f>((($W$25)^Q32)*((1-($W$25))^($U$32-Q32))*HLOOKUP($U$32,$AV$24:$BF$34,Q32+1))*V32</f>
-        <v>5.0223423048719767E-6</v>
+        <v>5.8981951241989505E-6</v>
       </c>
       <c r="AN32" s="28">
         <v>7</v>
       </c>
       <c r="AO32" s="79">
         <f>((($W$25)^Q32)*((1-($W$25))^($U$33-Q32))*HLOOKUP($U$33,$AV$24:$BF$34,Q32+1))*V33</f>
-        <v>9.7307532990416462E-6</v>
+        <v>1.8818030380515383E-5</v>
       </c>
       <c r="AP32" s="28">
         <v>7</v>
       </c>
       <c r="AQ32" s="79">
         <f>((($W$25)^Q32)*((1-($W$25))^($U$34-Q32))*HLOOKUP($U$34,$AV$24:$BF$34,Q32+1))*V34</f>
-        <v>8.3084237081166347E-6</v>
+        <v>2.0144722842986058E-5</v>
       </c>
       <c r="AR32" s="28">
         <v>7</v>
       </c>
       <c r="AS32" s="79">
         <f>((($W$25)^Q32)*((1-($W$25))^($U$35-Q32))*HLOOKUP($U$35,$AV$24:$BF$34,Q32+1))*V35</f>
-        <v>4.8405380306150998E-6</v>
+        <v>7.4451883936590687E-6</v>
       </c>
       <c r="AV32" s="14">
         <v>8</v>
@@ -13182,7 +13186,7 @@
       </c>
       <c r="BJ32" s="107">
         <f t="shared" si="20"/>
-        <v>6.8744602439931171E-3</v>
+        <v>3.3429383582882929E-3</v>
       </c>
       <c r="BP32">
         <f t="shared" si="21"/>
@@ -13193,7 +13197,7 @@
       </c>
       <c r="BR32" s="107">
         <f t="shared" si="22"/>
-        <v>5.347196783256092E-6</v>
+        <v>5.2479545013661347E-6</v>
       </c>
     </row>
     <row r="33" spans="1:70" x14ac:dyDescent="0.25">
@@ -13202,7 +13206,7 @@
       </c>
       <c r="B33" s="75">
         <f>IF(B17&lt;&gt;"CA",0.005,IF((B18-B16)&lt;0,0.1,0.1+0.055*(B18-B16)))</f>
-        <v>0.32</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C33" s="58">
         <f>IF(C17&lt;&gt;"CA",0.005,IF((C18-C16)&lt;0,0.1,0.1+0.055*(C18-C16)))</f>
@@ -13213,14 +13217,14 @@
       </c>
       <c r="H33" s="128">
         <f>J33*L25+J32*L26+J31*L27+J30*L28</f>
-        <v>2.7797693171991945E-5</v>
+        <v>1.8661180595237491E-5</v>
       </c>
       <c r="I33" s="93">
         <v>8</v>
       </c>
       <c r="J33" s="86">
         <f t="shared" si="15"/>
-        <v>1.9621883157263537E-6</v>
+        <v>2.9773671158417228E-6</v>
       </c>
       <c r="K33" s="93">
         <v>8</v>
@@ -13235,7 +13239,7 @@
       </c>
       <c r="R33" s="37">
         <f>P28*N30+P29*N29+P30*N28</f>
-        <v>3.9716226109008277E-5</v>
+        <v>9.9135828127443565E-2</v>
       </c>
       <c r="S33" s="72">
         <v>8</v>
@@ -13249,7 +13253,7 @@
       </c>
       <c r="V33" s="86">
         <f>T33*R25+T32*R26+T31*R27+T30*R28+T29*R29+T28*R30+T27*R31+T26*R32+T25*R33</f>
-        <v>1.3284142744644784E-2</v>
+        <v>0.10007965372276603</v>
       </c>
       <c r="W33" s="137"/>
       <c r="X33" s="28">
@@ -13289,21 +13293,21 @@
       </c>
       <c r="AO33" s="79">
         <f>((($W$25)^Q33)*((1-($W$25))^($U$33-Q33))*HLOOKUP($U$33,$AV$24:$BF$34,Q33+1))*V33</f>
-        <v>4.6718711178343257E-7</v>
+        <v>6.8794318067783531E-7</v>
       </c>
       <c r="AP33" s="28">
         <v>8</v>
       </c>
       <c r="AQ33" s="79">
         <f>((($W$25)^Q33)*((1-($W$25))^($U$34-Q33))*HLOOKUP($U$34,$AV$24:$BF$34,Q33+1))*V34</f>
-        <v>7.9779814704588056E-7</v>
+        <v>1.4728879086970337E-6</v>
       </c>
       <c r="AR33" s="28">
         <v>8</v>
       </c>
       <c r="AS33" s="79">
         <f>((($W$25)^Q33)*((1-($W$25))^($U$35-Q33))*HLOOKUP($U$35,$AV$24:$BF$34,Q33+1))*V35</f>
-        <v>6.9720305689704076E-7</v>
+        <v>8.1653602646685392E-7</v>
       </c>
       <c r="AV33" s="29">
         <v>9</v>
@@ -13324,7 +13328,7 @@
       </c>
       <c r="BJ33" s="107">
         <f t="shared" si="20"/>
-        <v>2.1898210434838495E-3</v>
+        <v>8.1664518256780317E-4</v>
       </c>
       <c r="BP33">
         <f t="shared" si="21"/>
@@ -13335,7 +13339,7 @@
       </c>
       <c r="BR33" s="107">
         <f t="shared" si="22"/>
-        <v>7.6581101129033063E-6</v>
+        <v>5.4140340695723181E-6</v>
       </c>
     </row>
     <row r="34" spans="1:70" x14ac:dyDescent="0.25">
@@ -13344,25 +13348,25 @@
       </c>
       <c r="B34" s="56">
         <f>B23*2</f>
-        <v>1.8421523074157227</v>
+        <v>5.7723470344874608</v>
       </c>
       <c r="C34" s="57">
         <f>C23*2</f>
-        <v>8.1578476925842764</v>
+        <v>4.2276529655125392</v>
       </c>
       <c r="G34" s="87">
         <v>9</v>
       </c>
       <c r="H34" s="128">
         <f>J34*L25+J33*L26+J32*L27+J31*L28</f>
-        <v>2.6268533069554845E-6</v>
+        <v>1.3303078374455717E-6</v>
       </c>
       <c r="I34" s="93">
         <v>9</v>
       </c>
       <c r="J34" s="86">
         <f t="shared" si="15"/>
-        <v>9.3556267373190391E-8</v>
+        <v>1.0093033976722297E-7</v>
       </c>
       <c r="K34" s="93">
         <v>9</v>
@@ -13377,7 +13381,7 @@
       </c>
       <c r="R34" s="37">
         <f>P29*N30+P30*N29</f>
-        <v>1.9929912977485682E-6</v>
+        <v>3.0079542593126157E-2</v>
       </c>
       <c r="S34" s="72">
         <v>9</v>
@@ -13391,7 +13395,7 @@
       </c>
       <c r="V34" s="86">
         <f>T34*R25+T33*R26+T32*R27+T31*R28+T30*R29+T29*R30+T28*R31+T27*R32+T26*R33+T25*R34</f>
-        <v>3.4886540685108059E-3</v>
+        <v>3.0770741101630261E-2</v>
       </c>
       <c r="W34" s="137"/>
       <c r="X34" s="28">
@@ -13435,14 +13439,14 @@
       </c>
       <c r="AQ34" s="79">
         <f>((($W$25)^Q34)*((1-($W$25))^($U$34-Q34))*HLOOKUP($U$34,$AV$24:$BF$34,Q34+1))*V34</f>
-        <v>3.4047473626504891E-8</v>
+        <v>4.7862522022265442E-8</v>
       </c>
       <c r="AR34" s="28">
         <v>9</v>
       </c>
       <c r="AS34" s="79">
         <f>((($W$25)^Q34)*((1-($W$25))^($U$35-Q34))*HLOOKUP($U$35,$AV$24:$BF$34,Q34+1))*V35</f>
-        <v>5.9508793746685494E-8</v>
+        <v>5.3067817744957523E-8</v>
       </c>
       <c r="AV34" s="14">
         <v>10</v>
@@ -13460,7 +13464,7 @@
       </c>
       <c r="BJ34" s="107">
         <f t="shared" si="20"/>
-        <v>5.2649922494386588E-4</v>
+        <v>1.522253931849273E-4</v>
       </c>
       <c r="BP34">
         <f t="shared" si="21"/>
@@ -13471,7 +13475,7 @@
       </c>
       <c r="BR34" s="107">
         <f t="shared" si="22"/>
-        <v>6.6882572049285787E-6</v>
+        <v>3.4575305401152288E-6</v>
       </c>
     </row>
     <row r="35" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13480,14 +13484,14 @@
       </c>
       <c r="H35" s="129">
         <f>J35*L25+J34*L26+J33*L27+J32*L28</f>
-        <v>1.9430117072301533E-7</v>
+        <v>6.9352845103070019E-8</v>
       </c>
       <c r="I35" s="94">
         <v>10</v>
       </c>
       <c r="J35" s="89">
         <f t="shared" si="15"/>
-        <v>2.2856805118237326E-9</v>
+        <v>1.5520282449495283E-9</v>
       </c>
       <c r="K35" s="94">
         <v>10</v>
@@ -13502,7 +13506,7 @@
       </c>
       <c r="R35" s="37">
         <f>P30*N30</f>
-        <v>4.5004438133165747E-8</v>
+        <v>4.1069964801408679E-3</v>
       </c>
       <c r="S35" s="72">
         <v>10</v>
@@ -13516,7 +13520,7 @@
       </c>
       <c r="V35" s="89">
         <f>IF(((T35*R25+T34*R26+T33*R27+T32*R28+T31*R29+T30*R30+T29*R31+T28*R32+T27*R33+T26*R34+T25*R35)+V23)&lt;&gt;1,1-V23,(T35*R25+T34*R26+T33*R27+T32*R28+T31*R29+T30*R30+T29*R31+T28*R32+T27*R33+T26*R34+T25*R35))</f>
-        <v>8.4395419389282633E-4</v>
+        <v>4.4095183132104587E-3</v>
       </c>
       <c r="W35" s="137"/>
       <c r="X35" s="28">
@@ -13564,7 +13568,7 @@
       </c>
       <c r="AS35" s="79">
         <f>((($W$25)^Q35)*((1-($W$25))^($U$35-Q35))*HLOOKUP($U$35,$AV$24:$BF$34,Q35+1))*V35</f>
-        <v>2.2856805118237326E-9</v>
+        <v>1.5520282449495283E-9</v>
       </c>
       <c r="BH35">
         <f t="shared" si="19"/>
@@ -13575,7 +13579,7 @@
       </c>
       <c r="BJ35" s="107">
         <f t="shared" si="20"/>
-        <v>9.5924276027308498E-5</v>
+        <v>2.1626995277259431E-5</v>
       </c>
       <c r="BP35">
         <f t="shared" si="21"/>
@@ -13586,14 +13590,14 @@
       </c>
       <c r="BR35" s="107">
         <f t="shared" si="22"/>
-        <v>3.9789118211116073E-6</v>
+        <v>1.5291792811305536E-6</v>
       </c>
     </row>
     <row r="36" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="108">
         <f>SUM(B37:B39)</f>
-        <v>0.99999892839361859</v>
+        <v>0.99999984791705021</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
@@ -13618,7 +13622,7 @@
       <c r="X36" s="13"/>
       <c r="AS36" s="82">
         <f>Y37+AA37+AC37+AE37+AG37+AI37+AK37+AM37+AO37+AQ37+AS37</f>
-        <v>0.99999999999999978</v>
+        <v>1.0000000000000004</v>
       </c>
       <c r="BH36">
         <f t="shared" si="19"/>
@@ -13629,7 +13633,7 @@
       </c>
       <c r="BJ36" s="107">
         <f t="shared" si="20"/>
-        <v>1.3140205645319105E-5</v>
+        <v>2.3103392924221298E-6</v>
       </c>
       <c r="BP36">
         <f t="shared" si="21"/>
@@ -13640,7 +13644,7 @@
       </c>
       <c r="BR36" s="107">
         <f t="shared" si="22"/>
-        <v>1.705642943399684E-6</v>
+        <v>4.9543072772013029E-7</v>
       </c>
     </row>
     <row r="37" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13649,17 +13653,17 @@
       </c>
       <c r="B37" s="107">
         <f>SUM(BN4:BN14)</f>
-        <v>0.18433662404360182</v>
+        <v>0.22881964863943663</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="59">
         <f>SUM(H39:H49)</f>
-        <v>0.99999913384444827</v>
+        <v>0.99999991985114001</v>
       </c>
       <c r="I37" s="13"/>
       <c r="J37" s="59">
         <f>SUM(J39:J49)</f>
-        <v>0.99999999999999978</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="K37" s="59"/>
       <c r="L37" s="59">
@@ -13669,17 +13673,17 @@
       <c r="M37" s="13"/>
       <c r="N37" s="74">
         <f>SUM(N39:N49)</f>
-        <v>1.0000000000000002</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="O37" s="13"/>
       <c r="P37" s="74">
         <f>SUM(P39:P49)</f>
-        <v>1.0000000000000002</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="Q37" s="13"/>
       <c r="R37" s="59">
         <f>SUM(R39:R49)</f>
-        <v>1.0000000000000004</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="S37" s="13"/>
       <c r="T37" s="59">
@@ -13689,63 +13693,63 @@
       <c r="U37" s="13"/>
       <c r="V37" s="59">
         <f>SUM(V39:V48)</f>
-        <v>0.86798237038703019</v>
+        <v>0.99976587247238002</v>
       </c>
       <c r="W37" s="13"/>
       <c r="X37" s="13"/>
       <c r="Y37" s="80">
         <f>SUM(Y39:Y49)</f>
-        <v>4.4779415942500069E-8</v>
+        <v>4.025470549078705E-3</v>
       </c>
       <c r="Z37" s="81"/>
       <c r="AA37" s="80">
         <f>SUM(AA39:AA49)</f>
-        <v>1.983251363450497E-6</v>
+        <v>2.9563362632567022E-2</v>
       </c>
       <c r="AB37" s="81"/>
       <c r="AC37" s="80">
         <f>SUM(AC39:AC49)</f>
-        <v>3.9527609934952076E-5</v>
+        <v>9.7761154370737818E-2</v>
       </c>
       <c r="AD37" s="81"/>
       <c r="AE37" s="80">
         <f>SUM(AE39:AE49)</f>
-        <v>4.6686854120013105E-4</v>
+        <v>0.19173241458291879</v>
       </c>
       <c r="AF37" s="81"/>
       <c r="AG37" s="80">
         <f>SUM(AG39:AG49)</f>
-        <v>3.6189240479607122E-3</v>
+        <v>0.24706288917845573</v>
       </c>
       <c r="AH37" s="81"/>
       <c r="AI37" s="80">
         <f>SUM(AI39:AI49)</f>
-        <v>1.9237106080674887E-2</v>
+        <v>0.21869034291065576</v>
       </c>
       <c r="AJ37" s="81"/>
       <c r="AK37" s="80">
         <f>SUM(AK39:AK49)</f>
-        <v>7.1021369356249003E-2</v>
+        <v>0.13480588570366575</v>
       </c>
       <c r="AL37" s="81"/>
       <c r="AM37" s="80">
         <f>SUM(AM39:AM49)</f>
-        <v>0.17983393402116502</v>
+        <v>5.7259281870619509E-2</v>
       </c>
       <c r="AN37" s="81"/>
       <c r="AO37" s="80">
         <f>SUM(AO39:AO49)</f>
-        <v>0.29895346132749445</v>
+        <v>1.6114447231121709E-2</v>
       </c>
       <c r="AP37" s="81"/>
       <c r="AQ37" s="80">
         <f>SUM(AQ39:AQ49)</f>
-        <v>0.29480915137157149</v>
+        <v>2.7506234425596315E-3</v>
       </c>
       <c r="AR37" s="81"/>
       <c r="AS37" s="80">
         <f>SUM(AS39:AS49)</f>
-        <v>0.13201762961296976</v>
+        <v>2.3412752761997621E-4</v>
       </c>
       <c r="BH37">
         <f t="shared" si="19"/>
@@ -13756,7 +13760,7 @@
       </c>
       <c r="BJ37" s="107">
         <f t="shared" si="20"/>
-        <v>1.3218081668343713E-6</v>
+        <v>1.8033195196977483E-7</v>
       </c>
       <c r="BP37">
         <f t="shared" si="21"/>
@@ -13767,7 +13771,7 @@
       </c>
       <c r="BR37" s="107">
         <f t="shared" si="22"/>
-        <v>5.4332306502027392E-7</v>
+        <v>1.2102859033747512E-7</v>
       </c>
     </row>
     <row r="38" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13776,7 +13780,7 @@
       </c>
       <c r="B38" s="107">
         <f>SUM(BJ4:BJ59)</f>
-        <v>0.63392873230444247</v>
+        <v>0.48369883695159366</v>
       </c>
       <c r="G38" s="103" t="str">
         <f t="shared" ref="G38:T38" si="23">G24</f>
@@ -13976,7 +13980,7 @@
       </c>
       <c r="BJ38" s="107">
         <f t="shared" ref="BJ38:BJ43" si="36">$H$29*H44</f>
-        <v>2.1835247690709641E-3</v>
+        <v>1.0642553588551366E-3</v>
       </c>
       <c r="BP38">
         <f>BL11+1</f>
@@ -13987,7 +13991,7 @@
       </c>
       <c r="BR38" s="107">
         <f t="shared" si="22"/>
-        <v>1.3063130134698134E-7</v>
+        <v>2.2560134001904793E-8</v>
       </c>
     </row>
     <row r="39" spans="1:70" x14ac:dyDescent="0.25">
@@ -13996,144 +14000,144 @@
       </c>
       <c r="B39" s="107">
         <f>SUM(BR4:BR47)</f>
-        <v>0.18173357204557425</v>
+        <v>0.28748136232602001</v>
       </c>
       <c r="G39" s="130">
         <v>0</v>
       </c>
       <c r="H39" s="131">
         <f>L39*J39</f>
-        <v>6.1811157455250877E-2</v>
+        <v>0.12699555382624356</v>
       </c>
       <c r="I39" s="97">
         <v>0</v>
       </c>
       <c r="J39" s="98">
         <f t="shared" ref="J39:J49" si="37">Y39+AA39+AC39+AE39+AG39+AI39+AK39+AM39+AO39+AQ39+AS39</f>
-        <v>8.9297735318978763E-2</v>
+        <v>0.21077504432297708</v>
       </c>
       <c r="K39" s="102">
         <v>0</v>
       </c>
       <c r="L39" s="98">
         <f>AC20</f>
-        <v>0.69219176986355146</v>
+        <v>0.60251703058187656</v>
       </c>
       <c r="M39" s="84">
         <v>0</v>
       </c>
       <c r="N39" s="71">
         <f>(1-$C$24)^$B$21</f>
-        <v>2.1214249487824428E-4</v>
+        <v>6.4085852417993694E-2</v>
       </c>
       <c r="O39" s="70">
         <v>0</v>
       </c>
       <c r="P39" s="71">
         <f>N39</f>
-        <v>2.1214249487824428E-4</v>
+        <v>6.4085852417993694E-2</v>
       </c>
       <c r="Q39" s="12">
         <v>0</v>
       </c>
       <c r="R39" s="73">
         <f>P39*N39</f>
-        <v>4.5004438133165899E-8</v>
+        <v>4.1069964801408679E-3</v>
       </c>
       <c r="S39" s="70">
         <v>0</v>
       </c>
       <c r="T39" s="135">
         <f>(1-$C$33)^(INT(B23*2*(1-B31)))</f>
-        <v>0.995</v>
+        <v>0.98014950062500006</v>
       </c>
       <c r="U39" s="140">
         <v>0</v>
       </c>
       <c r="V39" s="86">
         <f>R39*T39</f>
-        <v>4.4779415942500069E-8</v>
+        <v>4.025470549078705E-3</v>
       </c>
       <c r="W39" s="136">
         <f>C31</f>
-        <v>0.26295685658074053</v>
+        <v>0.33966586852958641</v>
       </c>
       <c r="X39" s="12">
         <v>0</v>
       </c>
       <c r="Y39" s="79">
         <f>V39</f>
-        <v>4.4779415942500069E-8</v>
+        <v>4.025470549078705E-3</v>
       </c>
       <c r="Z39" s="12">
         <v>0</v>
       </c>
       <c r="AA39" s="78">
         <f>((1-W39)^Z40)*V40</f>
-        <v>1.4617418191080866E-6</v>
+        <v>1.9521697387321027E-2</v>
       </c>
       <c r="AB39" s="12">
         <v>0</v>
       </c>
       <c r="AC39" s="79">
         <f>(((1-$W$39)^AB41))*V41</f>
-        <v>2.1472686129442064E-5</v>
+        <v>4.2627887661626201E-2</v>
       </c>
       <c r="AD39" s="12">
         <v>0</v>
       </c>
       <c r="AE39" s="79">
         <f>(((1-$W$39)^AB42))*V42</f>
-        <v>1.8692756219758694E-4</v>
+        <v>5.5206063271216396E-2</v>
       </c>
       <c r="AF39" s="12">
         <v>0</v>
       </c>
       <c r="AG39" s="79">
         <f>(((1-$W$39)^AB43))*V43</f>
-        <v>1.0679504670219715E-3</v>
+        <v>4.6974535979566058E-2</v>
       </c>
       <c r="AH39" s="12">
         <v>0</v>
       </c>
       <c r="AI39" s="79">
         <f>(((1-$W$39)^AB44))*V44</f>
-        <v>4.1841215437004248E-3</v>
+        <v>2.7456699733141996E-2</v>
       </c>
       <c r="AJ39" s="12">
         <v>0</v>
       </c>
       <c r="AK39" s="79">
         <f>(((1-$W$39)^AB45))*V45</f>
-        <v>1.1385353094033499E-2</v>
+        <v>1.1176127010092725E-2</v>
       </c>
       <c r="AL39" s="12">
         <v>0</v>
       </c>
       <c r="AM39" s="79">
         <f>(((1-$W$39)^AB46))*V46</f>
-        <v>2.1248193742462083E-2</v>
+        <v>3.1346720902019043E-3</v>
       </c>
       <c r="AN39" s="12">
         <v>0</v>
       </c>
       <c r="AO39" s="79">
         <f>(((1-$W$39)^AB47))*V47</f>
-        <v>2.6034357797143543E-2</v>
+        <v>5.8253949984546957E-4</v>
       </c>
       <c r="AP39" s="12">
         <v>0</v>
       </c>
       <c r="AQ39" s="79">
         <f>(((1-$W$39)^AB48))*V48</f>
-        <v>1.8922440751353835E-2</v>
+        <v>6.5660600719526319E-5</v>
       </c>
       <c r="AR39" s="12">
         <v>0</v>
       </c>
       <c r="AS39" s="79">
         <f>(((1-$W$39)^AB49))*V49</f>
-        <v>6.2454111537013175E-3</v>
+        <v>3.6905401671149273E-6</v>
       </c>
       <c r="AV39" s="14">
         <v>1</v>
@@ -14178,7 +14182,7 @@
       </c>
       <c r="BJ39" s="107">
         <f t="shared" si="36"/>
-        <v>6.9554966041994286E-4</v>
+        <v>2.5998655035806189E-4</v>
       </c>
       <c r="BP39">
         <f t="shared" ref="BP39:BP46" si="38">BP31+1</f>
@@ -14189,7 +14193,7 @@
       </c>
       <c r="BR39" s="107">
         <f t="shared" ref="BR39:BR47" si="39">$H$34*H39</f>
-        <v>1.6236884336807192E-7</v>
+        <v>1.6894318057579277E-7</v>
       </c>
     </row>
     <row r="40" spans="1:70" x14ac:dyDescent="0.25">
@@ -14198,56 +14202,56 @@
       </c>
       <c r="H40" s="132">
         <f>L39*J40+L40*J39</f>
-        <v>0.1923611700500297</v>
+        <v>0.28122307024376914</v>
       </c>
       <c r="I40" s="93">
         <v>1</v>
       </c>
       <c r="J40" s="86">
         <f t="shared" si="37"/>
-        <v>0.24398899123979165</v>
+        <v>0.35485606812159998</v>
       </c>
       <c r="K40" s="95">
         <v>1</v>
       </c>
       <c r="L40" s="86">
         <f>AD20</f>
-        <v>0.26287338970786606</v>
+        <v>0.31984927822801729</v>
       </c>
       <c r="M40" s="85">
         <v>1</v>
       </c>
       <c r="N40" s="71">
         <f>(($C$24)^M26)*((1-($C$24))^($B$21-M26))*HLOOKUP($B$21,$AV$24:$BF$34,M26+1)</f>
-        <v>4.6972939082582654E-3</v>
+        <v>0.23468161425813053</v>
       </c>
       <c r="O40" s="72">
         <v>1</v>
       </c>
       <c r="P40" s="71">
         <f t="shared" ref="P40:P44" si="40">N40</f>
-        <v>4.6972939082582654E-3</v>
+        <v>0.23468161425813053</v>
       </c>
       <c r="Q40" s="28">
         <v>1</v>
       </c>
       <c r="R40" s="37">
         <f>P40*N39+P39*N40</f>
-        <v>1.9929912977485742E-6</v>
+        <v>3.0079542593126157E-2</v>
       </c>
       <c r="S40" s="72">
         <v>1</v>
       </c>
       <c r="T40" s="135">
         <f t="shared" ref="T40:T49" si="41">(($C$33)^S40)*((1-($C$33))^(INT($B$23*2*(1-$B$31))-S40))*HLOOKUP(INT($B$23*2*(1-$B$31)),$AV$24:$BF$34,S40+1)</f>
-        <v>5.0000000000000001E-3</v>
+        <v>1.9701497500000002E-2</v>
       </c>
       <c r="U40" s="93">
         <v>1</v>
       </c>
       <c r="V40" s="86">
         <f>R40*T39+T40*R39</f>
-        <v>1.983251363450497E-6</v>
+        <v>2.9563362632567026E-2</v>
       </c>
       <c r="W40" s="137"/>
       <c r="X40" s="28">
@@ -14259,70 +14263,70 @@
       </c>
       <c r="AA40" s="79">
         <f>(1-((1-W39)^Z40))*V40</f>
-        <v>5.2150954434241042E-7</v>
+        <v>1.0041665245245997E-2</v>
       </c>
       <c r="AB40" s="28">
         <v>1</v>
       </c>
       <c r="AC40" s="79">
         <f>((($W$39)^M40)*((1-($W$39))^($U$27-M40))*HLOOKUP($U$27,$AV$24:$BF$34,M40+1))*V41</f>
-        <v>1.5321735497730727E-5</v>
+        <v>4.3854278602639962E-2</v>
       </c>
       <c r="AD40" s="28">
         <v>1</v>
       </c>
       <c r="AE40" s="79">
         <f>((($W$39)^M40)*((1-($W$39))^($U$28-M40))*HLOOKUP($U$28,$AV$24:$BF$34,M40+1))*V42</f>
-        <v>2.0007194125331264E-4</v>
+        <v>8.519148656163561E-2</v>
       </c>
       <c r="AF40" s="28">
         <v>1</v>
       </c>
       <c r="AG40" s="79">
         <f>((($W$39)^M40)*((1-($W$39))^($U$29-M40))*HLOOKUP($U$29,$AV$24:$BF$34,M40+1))*V43</f>
-        <v>1.5240621952698204E-3</v>
+        <v>9.6651957255300569E-2</v>
       </c>
       <c r="AH40" s="28">
         <v>1</v>
       </c>
       <c r="AI40" s="79">
         <f>((($W$39)^M40)*((1-($W$39))^($U$30-M40))*HLOOKUP($U$30,$AV$24:$BF$34,M40+1))*V44</f>
-        <v>7.4639012553526793E-3</v>
+        <v>7.0616550904665731E-2</v>
       </c>
       <c r="AJ40" s="28">
         <v>1</v>
       </c>
       <c r="AK40" s="79">
         <f>((($W$39)^M40)*((1-($W$39))^($U$31-M40))*HLOOKUP($U$31,$AV$24:$BF$34,M40+1))*V45</f>
-        <v>2.4371897526485768E-2</v>
+        <v>3.4492982023149009E-2</v>
       </c>
       <c r="AL40" s="28">
         <v>1</v>
       </c>
       <c r="AM40" s="79">
         <f>((($W$39)^Q40)*((1-($W$39))^($U$32-Q40))*HLOOKUP($U$32,$AV$24:$BF$34,Q40+1))*V46</f>
-        <v>5.3065424990334044E-2</v>
+        <v>1.1286994676347618E-2</v>
       </c>
       <c r="AN40" s="28">
         <v>1</v>
       </c>
       <c r="AO40" s="79">
         <f>((($W$39)^Q40)*((1-($W$39))^($U$33-Q40))*HLOOKUP($U$33,$AV$24:$BF$34,Q40+1))*V47</f>
-        <v>7.4306780552095095E-2</v>
+        <v>2.3971959132531116E-3</v>
       </c>
       <c r="AP40" s="28">
         <v>1</v>
       </c>
       <c r="AQ40" s="79">
         <f>((($W$39)^Q40)*((1-($W$39))^($U$34-Q40))*HLOOKUP($U$34,$AV$24:$BF$34,Q40+1))*V48</f>
-        <v>6.0759088866291729E-2</v>
+        <v>3.0397336011873873E-4</v>
       </c>
       <c r="AR40" s="28">
         <v>1</v>
       </c>
       <c r="AS40" s="79">
         <f>((($W$39)^Q40)*((1-($W$39))^($U$35-Q40))*HLOOKUP($U$35,$AV$24:$BF$34,Q40+1))*V49</f>
-        <v>2.228192066766713E-2</v>
+        <v>1.8983579243663286E-5</v>
       </c>
       <c r="AV40" s="14">
         <v>2</v>
@@ -14367,7 +14371,7 @@
       </c>
       <c r="BJ40" s="107">
         <f t="shared" si="36"/>
-        <v>1.6723118001389775E-4</v>
+        <v>4.846236247498217E-5</v>
       </c>
       <c r="BP40">
         <f t="shared" si="38"/>
@@ -14378,7 +14382,7 @@
       </c>
       <c r="BR40" s="107">
         <f t="shared" si="39"/>
-        <v>5.0530457567574682E-7</v>
+        <v>3.741132544157926E-7</v>
       </c>
     </row>
     <row r="41" spans="1:70" x14ac:dyDescent="0.25">
@@ -14387,56 +14391,56 @@
       </c>
       <c r="H41" s="132">
         <f>L39*J41+J40*L40+J39*L41</f>
-        <v>0.27549444716583066</v>
+        <v>0.29012280557179915</v>
       </c>
       <c r="I41" s="93">
         <v>2</v>
       </c>
       <c r="J41" s="86">
         <f t="shared" si="37"/>
-        <v>0.30001955638139832</v>
+        <v>0.26908222543686749</v>
       </c>
       <c r="K41" s="95">
         <v>2</v>
       </c>
       <c r="L41" s="86">
         <f>AE20</f>
-        <v>4.1268305951347867E-2</v>
+        <v>6.8773439959412638E-2</v>
       </c>
       <c r="M41" s="85">
         <v>2</v>
       </c>
       <c r="N41" s="71">
         <f>(($C$24)^M27)*((1-($C$24))^($B$21-M27))*HLOOKUP($B$21,$AV$24:$BF$34,M27+1)</f>
-        <v>4.160330078747082E-2</v>
+        <v>0.34376048998507625</v>
       </c>
       <c r="O41" s="72">
         <v>2</v>
       </c>
       <c r="P41" s="71">
         <f t="shared" si="40"/>
-        <v>4.160330078747082E-2</v>
+        <v>0.34376048998507625</v>
       </c>
       <c r="Q41" s="28">
         <v>2</v>
       </c>
       <c r="R41" s="37">
         <f>P41*N39+P40*N40+P39*N41</f>
-        <v>3.9716226109008372E-5</v>
+        <v>9.9135828127443565E-2</v>
       </c>
       <c r="S41" s="72">
         <v>2</v>
       </c>
       <c r="T41" s="135">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1.4850375000000001E-4</v>
       </c>
       <c r="U41" s="93">
         <v>2</v>
       </c>
       <c r="V41" s="86">
         <f>R41*T39+T40*R40+R39*T41</f>
-        <v>3.9527609934952076E-5</v>
+        <v>9.7761154370737804E-2</v>
       </c>
       <c r="W41" s="137"/>
       <c r="X41" s="28">
@@ -14452,63 +14456,63 @@
       </c>
       <c r="AC41" s="79">
         <f>((($W$39)^M41)*((1-($W$39))^($U$27-M41))*HLOOKUP($U$27,$AV$24:$BF$34,M41+1))*V41</f>
-        <v>2.7331883077792838E-6</v>
+        <v>1.1278988106471648E-2</v>
       </c>
       <c r="AD41" s="28">
         <v>2</v>
       </c>
       <c r="AE41" s="79">
         <f>((($W$39)^M41)*((1-($W$39))^($U$28-M41))*HLOOKUP($U$28,$AV$24:$BF$34,M41+1))*V42</f>
-        <v>7.1380202409739886E-5</v>
+        <v>4.3821209438090439E-2</v>
       </c>
       <c r="AF41" s="28">
         <v>2</v>
       </c>
       <c r="AG41" s="79">
         <f>((($W$39)^M41)*((1-($W$39))^($U$29-M41))*HLOOKUP($U$29,$AV$24:$BF$34,M41+1))*V43</f>
-        <v>8.1561562782300724E-4</v>
+        <v>7.4574452784462161E-2</v>
       </c>
       <c r="AH41" s="28">
         <v>2</v>
       </c>
       <c r="AI41" s="79">
         <f>((($W$39)^M41)*((1-($W$39))^($U$30-M41))*HLOOKUP($U$30,$AV$24:$BF$34,M41+1))*V44</f>
-        <v>5.3258320885569413E-3</v>
+        <v>7.2648166897523861E-2</v>
       </c>
       <c r="AJ41" s="28">
         <v>2</v>
       </c>
       <c r="AK41" s="79">
         <f>((($W$39)^M41)*((1-($W$39))^($U$31-M41))*HLOOKUP($U$31,$AV$24:$BF$34,M41+1))*V45</f>
-        <v>2.1738067912623761E-2</v>
+        <v>4.4356667854572575E-2</v>
       </c>
       <c r="AL41" s="28">
         <v>2</v>
       </c>
       <c r="AM41" s="79">
         <f>((($W$39)^Q41)*((1-($W$39))^($U$32-Q41))*HLOOKUP($U$32,$AV$24:$BF$34,Q41+1))*V46</f>
-        <v>5.679688145735224E-2</v>
+        <v>1.7417576952868167E-2</v>
       </c>
       <c r="AN41" s="28">
         <v>2</v>
       </c>
       <c r="AO41" s="79">
         <f>((($W$39)^Q41)*((1-($W$39))^($U$33-Q41))*HLOOKUP($U$33,$AV$24:$BF$34,Q41+1))*V47</f>
-        <v>9.2787201995916932E-2</v>
+        <v>4.3157843519937974E-3</v>
       </c>
       <c r="AP41" s="28">
         <v>2</v>
       </c>
       <c r="AQ41" s="79">
         <f>((($W$39)^Q41)*((1-($W$39))^($U$34-Q41))*HLOOKUP($U$34,$AV$24:$BF$34,Q41+1))*V48</f>
-        <v>8.6708731556039059E-2</v>
+        <v>6.2543715645699131E-4</v>
       </c>
       <c r="AR41" s="28">
         <v>2</v>
       </c>
       <c r="AS41" s="79">
         <f>((($W$39)^Q41)*((1-($W$39))^($U$35-Q41))*HLOOKUP($U$35,$AV$24:$BF$34,Q41+1))*V49</f>
-        <v>3.5773112352368922E-2</v>
+        <v>4.3941894427875892E-5</v>
       </c>
       <c r="AV41" s="14">
         <v>3</v>
@@ -14550,7 +14554,7 @@
       </c>
       <c r="BJ41" s="107">
         <f t="shared" si="36"/>
-        <v>3.04682877239486E-5</v>
+        <v>6.885154062949414E-6</v>
       </c>
       <c r="BP41">
         <f t="shared" si="38"/>
@@ -14561,7 +14565,7 @@
       </c>
       <c r="BR41" s="107">
         <f t="shared" si="39"/>
-        <v>7.2368349958543531E-7</v>
+        <v>3.8595264207386216E-7</v>
       </c>
     </row>
     <row r="42" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14570,56 +14574,56 @@
       </c>
       <c r="H42" s="132">
         <f>J42*L39+J41*L40+L42*J39+L41*J40</f>
-        <v>0.24060475678850396</v>
+        <v>0.18527930333612563</v>
       </c>
       <c r="I42" s="93">
         <v>3</v>
       </c>
       <c r="J42" s="86">
         <f t="shared" si="37"/>
-        <v>0.21864052716081595</v>
+        <v>0.12106106832309138</v>
       </c>
       <c r="K42" s="95">
         <v>3</v>
       </c>
       <c r="L42" s="86">
         <f>AF20</f>
-        <v>3.666534477234612E-3</v>
+        <v>8.8602512306935194E-3</v>
       </c>
       <c r="M42" s="85">
         <v>3</v>
       </c>
       <c r="N42" s="71">
         <f>(($C$24)^M28)*((1-($C$24))^($B$21-M28))*HLOOKUP($B$21,$AV$24:$BF$34,M28+1)</f>
-        <v>0.18423742161096279</v>
+        <v>0.2517693489716688</v>
       </c>
       <c r="O42" s="72">
         <v>3</v>
       </c>
       <c r="P42" s="71">
         <f t="shared" si="40"/>
-        <v>0.18423742161096279</v>
+        <v>0.2517693489716688</v>
       </c>
       <c r="Q42" s="28">
         <v>3</v>
       </c>
       <c r="R42" s="37">
         <f>P42*N39+P41*N40+P40*N41+P39*N42</f>
-        <v>4.690150352458152E-4</v>
+        <v>0.19361824009887266</v>
       </c>
       <c r="S42" s="72">
         <v>3</v>
       </c>
       <c r="T42" s="135">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>4.9750000000000011E-7</v>
       </c>
       <c r="U42" s="93">
         <v>3</v>
       </c>
       <c r="V42" s="86">
         <f>R42*T39+R41*T40+R40*T41+R39*T42</f>
-        <v>4.6686854120013115E-4</v>
+        <v>0.19173241458291876</v>
       </c>
       <c r="W42" s="137"/>
       <c r="X42" s="28">
@@ -14639,56 +14643,56 @@
       </c>
       <c r="AE42" s="79">
         <f>((($W$39)^M42)*((1-($W$39))^($U$28-M42))*HLOOKUP($U$28,$AV$24:$BF$34,M42+1))*V42</f>
-        <v>8.48883533949162E-6</v>
+        <v>7.5136553119763555E-3</v>
       </c>
       <c r="AF42" s="28">
         <v>3</v>
       </c>
       <c r="AG42" s="79">
         <f>((($W$39)^M42)*((1-($W$39))^($U$29-M42))*HLOOKUP($U$29,$AV$24:$BF$34,M42+1))*V43</f>
-        <v>1.9399291487469516E-4</v>
+        <v>2.5573312123816222E-2</v>
       </c>
       <c r="AH42" s="28">
         <v>3</v>
       </c>
       <c r="AI42" s="79">
         <f>((($W$39)^M42)*((1-($W$39))^($U$30-M42))*HLOOKUP($U$30,$AV$24:$BF$34,M42+1))*V44</f>
-        <v>1.9001113804366998E-3</v>
+        <v>3.7369115922240362E-2</v>
       </c>
       <c r="AJ42" s="28">
         <v>3</v>
       </c>
       <c r="AK42" s="79">
         <f>((($W$39)^M42)*((1-($W$39))^($U$31-M42))*HLOOKUP($U$31,$AV$24:$BF$34,M42+1))*V45</f>
-        <v>1.0340731624698785E-2</v>
+        <v>3.0421863505883481E-2</v>
       </c>
       <c r="AL42" s="28">
         <v>3</v>
       </c>
       <c r="AM42" s="79">
         <f>((($W$39)^Q42)*((1-($W$39))^($U$32-Q42))*HLOOKUP($U$32,$AV$24:$BF$34,Q42+1))*V46</f>
-        <v>3.3772625897058241E-2</v>
+        <v>1.4932229309937737E-2</v>
       </c>
       <c r="AN42" s="28">
         <v>3</v>
       </c>
       <c r="AO42" s="79">
         <f>((($W$39)^Q42)*((1-($W$39))^($U$33-Q42))*HLOOKUP($U$33,$AV$24:$BF$34,Q42+1))*V47</f>
-        <v>6.620787720669262E-2</v>
+        <v>4.4399481124566169E-3</v>
       </c>
       <c r="AP42" s="28">
         <v>3</v>
       </c>
       <c r="AQ42" s="79">
         <f>((($W$39)^Q42)*((1-($W$39))^($U$34-Q42))*HLOOKUP($U$34,$AV$24:$BF$34,Q42+1))*V48</f>
-        <v>7.2182381651872823E-2</v>
+        <v>7.5066925153941314E-4</v>
       </c>
       <c r="AR42" s="28">
         <v>3</v>
       </c>
       <c r="AS42" s="79">
         <f>((($W$39)^Q42)*((1-($W$39))^($U$35-Q42))*HLOOKUP($U$35,$AV$24:$BF$34,Q42+1))*V49</f>
-        <v>3.4034317649842612E-2</v>
+        <v>6.0274785241199171E-5</v>
       </c>
       <c r="AV42" s="14">
         <v>4</v>
@@ -14727,7 +14731,7 @@
       </c>
       <c r="BJ42" s="107">
         <f t="shared" si="36"/>
-        <v>4.17370433152353E-6</v>
+        <v>7.35517891509321E-7</v>
       </c>
       <c r="BP42">
         <f t="shared" si="38"/>
@@ -14738,7 +14742,7 @@
       </c>
       <c r="BR42" s="107">
         <f t="shared" si="39"/>
-        <v>6.3203340103910167E-7</v>
+        <v>2.464785093445034E-7</v>
       </c>
     </row>
     <row r="43" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14747,14 +14751,14 @@
       </c>
       <c r="H43" s="132">
         <f>J43*L39+J42*L40+J41*L41+J40*L42</f>
-        <v>0.14313820202608143</v>
+        <v>8.1944401819937077E-2</v>
       </c>
       <c r="I43" s="93">
         <v>4</v>
       </c>
       <c r="J43" s="86">
         <f t="shared" si="37"/>
-        <v>0.10457728014519851</v>
+        <v>3.5805265595444426E-2</v>
       </c>
       <c r="K43" s="95">
         <v>4</v>
@@ -14765,35 +14769,35 @@
       </c>
       <c r="N43" s="71">
         <f>(($C$24)^M29)*((1-($C$24))^($B$21-M29))*HLOOKUP($B$21,$AV$24:$BF$34,M29+1)</f>
-        <v>0.40794152001609935</v>
+        <v>9.2197630222673119E-2</v>
       </c>
       <c r="O43" s="72">
         <v>4</v>
       </c>
       <c r="P43" s="71">
         <f t="shared" si="40"/>
-        <v>0.40794152001609935</v>
+        <v>9.2197630222673119E-2</v>
       </c>
       <c r="Q43" s="28">
         <v>4</v>
       </c>
       <c r="R43" s="37">
         <f>P43*N39+P42*N40+P41*N41+P40*N42+P39*N43</f>
-        <v>3.6347527364668179E-3</v>
+        <v>0.24815967639703734</v>
       </c>
       <c r="S43" s="72">
         <v>4</v>
       </c>
       <c r="T43" s="135">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>6.2500000000000001E-10</v>
       </c>
       <c r="U43" s="93">
         <v>4</v>
       </c>
       <c r="V43" s="86">
         <f>T43*R39+T42*R40+T41*R41+T40*R42+T39*R43</f>
-        <v>3.6189240479607126E-3</v>
+        <v>0.2470628891784557</v>
       </c>
       <c r="W43" s="137"/>
       <c r="X43" s="28">
@@ -14817,49 +14821,49 @@
       </c>
       <c r="AG43" s="79">
         <f>((($W$39)^M43)*((1-($W$39))^($U$29-M43))*HLOOKUP($U$29,$AV$24:$BF$34,M43+1))*V43</f>
-        <v>1.7302842971217862E-5</v>
+        <v>3.2886310353107328E-3</v>
       </c>
       <c r="AH43" s="28">
         <v>4</v>
       </c>
       <c r="AI43" s="79">
         <f>((($W$39)^M43)*((1-($W$39))^($U$30-M43))*HLOOKUP($U$30,$AV$24:$BF$34,M43+1))*V44</f>
-        <v>3.3895391349479448E-4</v>
+        <v>9.6110534129487755E-3</v>
       </c>
       <c r="AJ43" s="28">
         <v>4</v>
       </c>
       <c r="AK43" s="79">
         <f>((($W$39)^M43)*((1-($W$39))^($U$31-M43))*HLOOKUP($U$31,$AV$24:$BF$34,M43+1))*V45</f>
-        <v>2.7669678909444887E-3</v>
+        <v>1.1736409111934673E-2</v>
       </c>
       <c r="AL43" s="28">
         <v>4</v>
       </c>
       <c r="AM43" s="79">
         <f>((($W$39)^Q43)*((1-($W$39))^($U$32-Q43))*HLOOKUP($U$32,$AV$24:$BF$34,Q43+1))*V46</f>
-        <v>1.2049150207365848E-2</v>
+        <v>7.6809124289075126E-3</v>
       </c>
       <c r="AN43" s="28">
         <v>4</v>
       </c>
       <c r="AO43" s="79">
         <f>((($W$39)^Q43)*((1-($W$39))^($U$33-Q43))*HLOOKUP($U$33,$AV$24:$BF$34,Q43+1))*V47</f>
-        <v>2.9526452125971669E-2</v>
+        <v>2.8548025158219564E-3</v>
       </c>
       <c r="AP43" s="28">
         <v>4</v>
       </c>
       <c r="AQ43" s="79">
         <f>((($W$39)^Q43)*((1-($W$39))^($U$34-Q43))*HLOOKUP($U$34,$AV$24:$BF$34,Q43+1))*V48</f>
-        <v>3.8629052483208713E-2</v>
+        <v>5.7919932762254983E-4</v>
       </c>
       <c r="AR43" s="28">
         <v>4</v>
       </c>
       <c r="AS43" s="79">
         <f>((($W$39)^Q43)*((1-($W$39))^($U$35-Q43))*HLOOKUP($U$35,$AV$24:$BF$34,Q43+1))*V49</f>
-        <v>2.1249400681241783E-2</v>
+        <v>5.4257762898223231E-5</v>
       </c>
       <c r="AV43" s="14">
         <v>5</v>
@@ -14895,7 +14899,7 @@
       </c>
       <c r="BJ43" s="107">
         <f t="shared" si="36"/>
-        <v>4.1984399790006618E-7</v>
+        <v>5.7410345536526647E-8</v>
       </c>
       <c r="BP43">
         <f t="shared" si="38"/>
@@ -14906,7 +14910,7 @@
       </c>
       <c r="BR43" s="107">
         <f t="shared" si="39"/>
-        <v>3.7600305934387426E-7</v>
+        <v>1.0901127997585145E-7</v>
       </c>
     </row>
     <row r="44" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14915,14 +14919,14 @@
       </c>
       <c r="H44" s="132">
         <f>J44*L39+J43*L40+J42*L41+J41*L42</f>
-        <v>6.1359154259542463E-2</v>
+        <v>2.6548734427154566E-2</v>
       </c>
       <c r="I44" s="93">
         <v>5</v>
       </c>
       <c r="J44" s="86">
         <f t="shared" si="37"/>
-        <v>3.4304964259358792E-2</v>
+        <v>7.280331698886121E-3</v>
       </c>
       <c r="K44" s="95">
         <v>5</v>
@@ -14933,21 +14937,21 @@
       </c>
       <c r="N44" s="71">
         <f>(($C$24)^M30)*((1-($C$24))^($B$21-M30))*HLOOKUP($B$21,$AV$24:$BF$34,M30+1)</f>
-        <v>0.36130832118233069</v>
+        <v>1.3505064144457556E-2</v>
       </c>
       <c r="O44" s="72">
         <v>5</v>
       </c>
       <c r="P44" s="71">
         <f t="shared" si="40"/>
-        <v>0.36130832118233069</v>
+        <v>1.3505064144457556E-2</v>
       </c>
       <c r="Q44" s="28">
         <v>5</v>
       </c>
       <c r="R44" s="37">
         <f>P44*N39+P43*N40+P42*N41+P41*N42+P40*N43+P39*N44</f>
-        <v>1.9315509866324184E-2</v>
+        <v>0.21810185400962581</v>
       </c>
       <c r="S44" s="72">
         <v>5</v>
@@ -14961,7 +14965,7 @@
       </c>
       <c r="V44" s="86">
         <f>T44*R39+T43*R40+T42*R41+T41*R42+T40*R43+T39*R44</f>
-        <v>1.9237106080674894E-2</v>
+        <v>0.21869034291065573</v>
       </c>
       <c r="W44" s="137"/>
       <c r="X44" s="28">
@@ -14989,42 +14993,42 @@
       </c>
       <c r="AI44" s="79">
         <f>((($W$39)^M44)*((1-($W$39))^($U$30-M44))*HLOOKUP($U$30,$AV$24:$BF$34,M44+1))*V44</f>
-        <v>2.4185899133351157E-5</v>
+        <v>9.8875604013504191E-4</v>
       </c>
       <c r="AJ44" s="28">
         <v>5</v>
       </c>
       <c r="AK44" s="79">
         <f>((($W$39)^M44)*((1-($W$39))^($U$31-M44))*HLOOKUP($U$31,$AV$24:$BF$34,M44+1))*V45</f>
-        <v>3.948714185100126E-4</v>
+        <v>2.4148123832683976E-3</v>
       </c>
       <c r="AL44" s="28">
         <v>5</v>
       </c>
       <c r="AM44" s="79">
         <f>((($W$39)^Q44)*((1-($W$39))^($U$32-Q44))*HLOOKUP($U$32,$AV$24:$BF$34,Q44+1))*V46</f>
-        <v>2.5792845571829311E-3</v>
+        <v>2.3705669602039582E-3</v>
       </c>
       <c r="AN44" s="28">
         <v>5</v>
       </c>
       <c r="AO44" s="79">
         <f>((($W$39)^Q44)*((1-($W$39))^($U$33-Q44))*HLOOKUP($U$33,$AV$24:$BF$34,Q44+1))*V47</f>
-        <v>8.4273851335301356E-3</v>
+        <v>1.1747737150679873E-3</v>
       </c>
       <c r="AP44" s="28">
         <v>5</v>
       </c>
       <c r="AQ44" s="79">
         <f>((($W$39)^Q44)*((1-($W$39))^($U$34-Q44))*HLOOKUP($U$34,$AV$24:$BF$34,Q44+1))*V48</f>
-        <v>1.3781790529321655E-2</v>
+        <v>2.9793135519223205E-4</v>
       </c>
       <c r="AR44" s="28">
         <v>5</v>
       </c>
       <c r="AS44" s="79">
         <f>((($W$39)^Q44)*((1-($W$39))^($U$35-Q44))*HLOOKUP($U$35,$AV$24:$BF$34,Q44+1))*V49</f>
-        <v>9.0974467216807034E-3</v>
+        <v>3.3491245018504267E-5</v>
       </c>
       <c r="AV44" s="29">
         <v>6</v>
@@ -15056,7 +15060,7 @@
       </c>
       <c r="BJ44" s="107">
         <f>$H$30*H45</f>
-        <v>1.6636891222013639E-4</v>
+        <v>5.9370262988905429E-5</v>
       </c>
       <c r="BP44">
         <f t="shared" si="38"/>
@@ -15067,7 +15071,7 @@
       </c>
       <c r="BR44" s="107">
         <f t="shared" si="39"/>
-        <v>1.6118149727867082E-7</v>
+        <v>3.5317989482704786E-8</v>
       </c>
     </row>
     <row r="45" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15091,14 +15095,14 @@
       </c>
       <c r="H45" s="132">
         <f>J45*L39+J44*L40+J43*L41+J42*L42</f>
-        <v>1.9545617028671598E-2</v>
+        <v>6.4855805729870462E-3</v>
       </c>
       <c r="I45" s="93">
         <v>6</v>
       </c>
       <c r="J45" s="86">
         <f t="shared" si="37"/>
-        <v>7.8162942727931107E-3</v>
+        <v>1.0321516886905551E-3</v>
       </c>
       <c r="K45" s="95">
         <v>6</v>
@@ -15113,7 +15117,7 @@
       </c>
       <c r="R45" s="37">
         <f>P44*N40+P43*N41+P42*N42+P41*N43+P40*N44</f>
-        <v>7.1281197795896881E-2</v>
+        <v>0.13311439067139771</v>
       </c>
       <c r="S45" s="70">
         <v>6</v>
@@ -15127,7 +15131,7 @@
       </c>
       <c r="V45" s="86">
         <f>T45*R39+T44*R40+T43*R41+T42*R42+T41*R43+T40*R44+T39*R45</f>
-        <v>7.1021369356249017E-2</v>
+        <v>0.13480588570366572</v>
       </c>
       <c r="W45" s="137"/>
       <c r="X45" s="28">
@@ -15159,35 +15163,35 @@
       </c>
       <c r="AK45" s="79">
         <f>((($W$39)^Q45)*((1-($W$39))^($U$31-Q45))*HLOOKUP($U$31,$AV$24:$BF$34,Q45+1))*V45</f>
-        <v>2.3479888952693676E-5</v>
+        <v>2.0702381476490721E-4</v>
       </c>
       <c r="AL45" s="28">
         <v>6</v>
       </c>
       <c r="AM45" s="79">
         <f>((($W$39)^Q45)*((1-($W$39))^($U$32-Q45))*HLOOKUP($U$32,$AV$24:$BF$34,Q45+1))*V46</f>
-        <v>3.067394201817486E-4</v>
+        <v>4.0646123786464524E-4</v>
       </c>
       <c r="AN45" s="28">
         <v>6</v>
       </c>
       <c r="AO45" s="79">
         <f>((($W$39)^Q45)*((1-($W$39))^($U$33-Q45))*HLOOKUP($U$33,$AV$24:$BF$34,Q45+1))*V47</f>
-        <v>1.5033303841806298E-3</v>
+        <v>3.021428964801098E-4</v>
       </c>
       <c r="AP45" s="28">
         <v>6</v>
       </c>
       <c r="AQ45" s="79">
         <f>((($W$39)^Q45)*((1-($W$39))^($U$34-Q45))*HLOOKUP($U$34,$AV$24:$BF$34,Q45+1))*V48</f>
-        <v>3.2779775494391986E-3</v>
+        <v>1.0216758223923525E-4</v>
       </c>
       <c r="AR45" s="28">
         <v>6</v>
       </c>
       <c r="AS45" s="79">
         <f>((($W$39)^Q45)*((1-($W$39))^($U$35-Q45))*HLOOKUP($U$35,$AV$24:$BF$34,Q45+1))*V49</f>
-        <v>2.7047670300388398E-3</v>
+        <v>1.4356157341657791E-5</v>
       </c>
       <c r="AV45" s="14">
         <v>7</v>
@@ -15215,7 +15219,7 @@
       </c>
       <c r="BJ45" s="107">
         <f>$H$30*H46</f>
-        <v>4.0000119461497853E-5</v>
+        <v>1.1066815576577899E-5</v>
       </c>
       <c r="BP45">
         <f t="shared" si="38"/>
@@ -15226,7 +15230,7 @@
       </c>
       <c r="BR45" s="107">
         <f t="shared" si="39"/>
-        <v>5.1343468728251415E-8</v>
+        <v>8.6278186666294096E-9</v>
       </c>
     </row>
     <row r="46" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15250,14 +15254,14 @@
       </c>
       <c r="H46" s="132">
         <f>J46*L39+J45*L40+J44*L41+J43*L42</f>
-        <v>4.6993576243442104E-3</v>
+        <v>1.2089339089115482E-3</v>
       </c>
       <c r="I46" s="93">
         <v>7</v>
       </c>
       <c r="J46" s="86">
         <f t="shared" si="37"/>
-        <v>1.2215081525377191E-3</v>
+        <v>1.0101595413488654E-4</v>
       </c>
       <c r="K46" s="95">
         <v>7</v>
@@ -15272,7 +15276,7 @@
       </c>
       <c r="R46" s="37">
         <f>P44*N41+P43*N42+P42*N43+P41*N44</f>
-        <v>0.18037942515797545</v>
+        <v>5.5710089610943356E-2</v>
       </c>
       <c r="S46" s="72">
         <v>7</v>
@@ -15286,7 +15290,7 @@
       </c>
       <c r="V46" s="86">
         <f>T46*R39+T45*R40+T44*R41+T43*R42+T42*R43+T41*R44+T40*R45+T39*R46</f>
-        <v>0.17983393402116504</v>
+        <v>5.7259281870619488E-2</v>
       </c>
       <c r="W46" s="137"/>
       <c r="X46" s="28">
@@ -15322,28 +15326,28 @@
       </c>
       <c r="AM46" s="79">
         <f>((($W$39)^Q46)*((1-($W$39))^($U$32-Q46))*HLOOKUP($U$32,$AV$24:$BF$34,Q46+1))*V46</f>
-        <v>1.5633749227875329E-5</v>
+        <v>2.9868214287964254E-5</v>
       </c>
       <c r="AN46" s="28">
         <v>7</v>
       </c>
       <c r="AO46" s="79">
         <f>((($W$39)^Q46)*((1-($W$39))^($U$33-Q46))*HLOOKUP($U$33,$AV$24:$BF$34,Q46+1))*V47</f>
-        <v>1.5324205945880501E-4</v>
+        <v>4.4405064675118369E-5</v>
       </c>
       <c r="AP46" s="28">
         <v>7</v>
       </c>
       <c r="AQ46" s="79">
         <f>((($W$39)^Q46)*((1-($W$39))^($U$34-Q46))*HLOOKUP($U$34,$AV$24:$BF$34,Q46+1))*V48</f>
-        <v>5.0121121327189959E-4</v>
+        <v>2.2522909606112683E-5</v>
       </c>
       <c r="AR46" s="28">
         <v>7</v>
       </c>
       <c r="AS46" s="79">
         <f>((($W$39)^Q46)*((1-($W$39))^($U$35-Q46))*HLOOKUP($U$35,$AV$24:$BF$34,Q46+1))*V49</f>
-        <v>5.5142113057913915E-4</v>
+        <v>4.2197655656912358E-6</v>
       </c>
       <c r="AV46" s="14">
         <v>8</v>
@@ -15367,7 +15371,7 @@
       </c>
       <c r="BJ46" s="107">
         <f>$H$30*H47</f>
-        <v>7.287726778247631E-6</v>
+        <v>1.5722867466546306E-6</v>
       </c>
       <c r="BP46">
         <f t="shared" si="38"/>
@@ -15378,7 +15382,7 @@
       </c>
       <c r="BR46" s="107">
         <f t="shared" si="39"/>
-        <v>1.2344523116075058E-8</v>
+        <v>1.6082542539787433E-9</v>
       </c>
     </row>
     <row r="47" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15402,14 +15406,14 @@
       </c>
       <c r="H47" s="132">
         <f>J47*L39+J46*L40+J45*L41+J44*L42</f>
-        <v>8.5618830294895891E-4</v>
+        <v>1.7175589033812831E-4</v>
       </c>
       <c r="I47" s="93">
         <v>8</v>
       </c>
       <c r="J47" s="86">
         <f t="shared" si="37"/>
-        <v>1.2531318698001876E-4</v>
+        <v>6.5654911507995122E-6</v>
       </c>
       <c r="K47" s="95">
         <v>8</v>
@@ -15424,7 +15428,7 @@
       </c>
       <c r="R47" s="37">
         <f>P44*N42+P43*N43+P42*N44</f>
-        <v>0.29954931075548202</v>
+        <v>1.5300725433618179E-2</v>
       </c>
       <c r="S47" s="72">
         <v>8</v>
@@ -15438,7 +15442,7 @@
       </c>
       <c r="V47" s="86">
         <f>T47*R39+T46*R40+T45*R41+T44*R42+T43*R43+T42*R44+T41*R45+T40*R46+T39*R47</f>
-        <v>0.29895346132749445</v>
+        <v>1.6114447231121706E-2</v>
       </c>
       <c r="W47" s="137"/>
       <c r="X47" s="28">
@@ -15478,21 +15482,21 @@
       </c>
       <c r="AO47" s="79">
         <f>((($W$39)^Q47)*((1-($W$39))^($U$33-Q47))*HLOOKUP($U$33,$AV$24:$BF$34,Q47+1))*V47</f>
-        <v>6.8340725049531295E-6</v>
+        <v>2.8551615275437131E-6</v>
       </c>
       <c r="AP47" s="28">
         <v>8</v>
       </c>
       <c r="AQ47" s="79">
         <f>((($W$39)^Q47)*((1-($W$39))^($U$34-Q47))*HLOOKUP($U$34,$AV$24:$BF$34,Q47+1))*V48</f>
-        <v>4.4704616785922166E-5</v>
+        <v>2.8963608302883858E-6</v>
       </c>
       <c r="AR47" s="28">
         <v>8</v>
       </c>
       <c r="AS47" s="79">
         <f>((($W$39)^Q47)*((1-($W$39))^($U$35-Q47))*HLOOKUP($U$35,$AV$24:$BF$34,Q47+1))*V49</f>
-        <v>7.3774497689143453E-5</v>
+        <v>8.1396879296741395E-7</v>
       </c>
       <c r="AV47" s="29">
         <v>9</v>
@@ -15513,7 +15517,7 @@
       </c>
       <c r="BJ47" s="107">
         <f>$H$30*H48</f>
-        <v>9.9831067295009208E-7</v>
+        <v>1.6796211416249329E-7</v>
       </c>
       <c r="BP47">
         <f>BL12+1</f>
@@ -15524,7 +15528,7 @@
       </c>
       <c r="BR47" s="107">
         <f t="shared" si="39"/>
-        <v>2.249081074978077E-9</v>
+        <v>2.2848820704425422E-10</v>
       </c>
     </row>
     <row r="48" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15548,14 +15552,14 @@
       </c>
       <c r="H48" s="132">
         <f>J48*L39+J47*L40+J46*L41+J45*L42</f>
-        <v>1.1728512153339801E-4</v>
+        <v>1.8348105091157559E-5</v>
       </c>
       <c r="I48" s="93">
         <v>9</v>
       </c>
       <c r="J48" s="86">
         <f t="shared" si="37"/>
-        <v>7.6212040219794666E-6</v>
+        <v>2.5858117004619033E-7</v>
       </c>
       <c r="K48" s="95">
         <v>9</v>
@@ -15570,7 +15574,7 @@
       </c>
       <c r="R48" s="37">
         <f>P44*N43+P43*N44</f>
-        <v>0.29478533147517</v>
+        <v>2.4902698202483582E-3</v>
       </c>
       <c r="S48" s="72">
         <v>9</v>
@@ -15584,7 +15588,7 @@
       </c>
       <c r="V48" s="86">
         <f>T48*R39+T47*R40+T46*R41+T45*R42+T44*R43+T43*R44+T42*R45+T41*R46+T40*R47+T39*R48</f>
-        <v>0.2948091513715716</v>
+        <v>2.7506234425596307E-3</v>
       </c>
       <c r="W48" s="137"/>
       <c r="X48" s="28">
@@ -15628,14 +15632,14 @@
       </c>
       <c r="AQ48" s="79">
         <f>((($W$39)^Q48)*((1-($W$39))^($U$34-Q48))*HLOOKUP($U$34,$AV$24:$BF$34,Q48+1))*V48</f>
-        <v>1.7721539866773321E-6</v>
+        <v>1.6553823454402654E-7</v>
       </c>
       <c r="AR48" s="28">
         <v>9</v>
       </c>
       <c r="AS48" s="79">
         <f>((($W$39)^Q48)*((1-($W$39))^($U$35-Q48))*HLOOKUP($U$35,$AV$24:$BF$34,Q48+1))*V49</f>
-        <v>5.8490500353021347E-6</v>
+        <v>9.3042935502163811E-8</v>
       </c>
       <c r="AV48" s="14">
         <v>10</v>
@@ -15653,7 +15657,7 @@
       </c>
       <c r="BJ48" s="107">
         <f>$H$30*H49</f>
-        <v>1.0042272063020695E-7</v>
+        <v>1.3110167845579968E-8</v>
       </c>
     </row>
     <row r="49" spans="1:62" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15677,14 +15681,14 @@
       </c>
       <c r="H49" s="133">
         <f>J49*L39+J48*L40+J47*L41+J46*L42</f>
-        <v>1.179802171104016E-5</v>
+        <v>1.4321487830327103E-6</v>
       </c>
       <c r="I49" s="94">
         <v>10</v>
       </c>
       <c r="J49" s="89">
         <f t="shared" si="37"/>
-        <v>2.0867812488306614E-7</v>
+        <v>4.7859875768515789E-9</v>
       </c>
       <c r="K49" s="96">
         <v>10</v>
@@ -15699,7 +15703,7 @@
       </c>
       <c r="R49" s="37">
         <f>P44*N44</f>
-        <v>0.13054370295559423</v>
+        <v>1.8238675754591311E-4</v>
       </c>
       <c r="S49" s="72">
         <v>10</v>
@@ -15713,7 +15717,7 @@
       </c>
       <c r="V49" s="89">
         <f>IF(((T49*R39+T48*R40+T47*R41+T46*R42+T45*R43+T44*R44+T43*R45+T42*R46+T41*R47+T40*R48+T39*R49)+V37)&lt;&gt;1,1-V37,(T49*R39+T48*R40+T47*R41+T46*R42+T45*R43+T44*R44+T43*R45+T42*R46+T41*R47+T40*R48+T39*R49))</f>
-        <v>0.13201762961296981</v>
+        <v>2.3412752761997613E-4</v>
       </c>
       <c r="W49" s="137"/>
       <c r="X49" s="28">
@@ -15761,7 +15765,7 @@
       </c>
       <c r="AS49" s="79">
         <f>((($W$39)^Q49)*((1-($W$39))^($U$35-Q49))*HLOOKUP($U$35,$AV$24:$BF$34,Q49+1))*V49</f>
-        <v>2.0867812488306614E-7</v>
+        <v>4.7859875768515789E-9</v>
       </c>
       <c r="BH49">
         <f>BP14+1</f>
@@ -15772,7 +15776,7 @@
       </c>
       <c r="BJ49" s="107">
         <f>$H$31*H39</f>
-        <v>9.8037759022742712E-5</v>
+        <v>1.962284113711485E-4</v>
       </c>
     </row>
     <row r="50" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15819,7 +15823,7 @@
       </c>
       <c r="BJ50" s="107">
         <f>$H$31*H46</f>
-        <v>7.4535813484917761E-6</v>
+        <v>1.8679959514409628E-6</v>
       </c>
     </row>
     <row r="51" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15847,7 +15851,7 @@
       </c>
       <c r="BJ51" s="107">
         <f>$H$31*H47</f>
-        <v>1.3579875540005833E-6</v>
+        <v>2.6539027933845137E-7</v>
       </c>
     </row>
     <row r="52" spans="1:62" x14ac:dyDescent="0.25">
@@ -15861,7 +15865,7 @@
       </c>
       <c r="BJ52" s="107">
         <f>$H$31*H48</f>
-        <v>1.8602418972931845E-7</v>
+        <v>2.8350752488822212E-8</v>
       </c>
     </row>
     <row r="53" spans="1:62" x14ac:dyDescent="0.25">
@@ -15874,7 +15878,7 @@
       </c>
       <c r="BJ53" s="107">
         <f>$H$31*H49</f>
-        <v>1.8712667050271905E-8</v>
+        <v>2.2128985785292749E-9</v>
       </c>
     </row>
     <row r="54" spans="1:62" x14ac:dyDescent="0.25">
@@ -15887,7 +15891,7 @@
       </c>
       <c r="BJ54" s="107">
         <f>$H$32*H47</f>
-        <v>2.0093649798711777E-7</v>
+        <v>3.3609257661732386E-8</v>
       </c>
     </row>
     <row r="55" spans="1:62" x14ac:dyDescent="0.25">
@@ -15900,7 +15904,7 @@
       </c>
       <c r="BJ55" s="107">
         <f>$H$32*H48</f>
-        <v>2.752532533526029E-8</v>
+        <v>3.5903641522817906E-9</v>
       </c>
     </row>
     <row r="56" spans="1:62" x14ac:dyDescent="0.25">
@@ -15913,7 +15917,7 @@
       </c>
       <c r="BJ56" s="107">
         <f>$H$32*H49</f>
-        <v>2.7688455420696369E-9</v>
+        <v>2.8024341618866523E-10</v>
       </c>
     </row>
     <row r="57" spans="1:62" x14ac:dyDescent="0.25">
@@ -15926,7 +15930,7 @@
       </c>
       <c r="BJ57" s="107">
         <f>$H$33*H48</f>
-        <v>3.2602558220251835E-9</v>
+        <v>3.4239730268648767E-10</v>
       </c>
     </row>
     <row r="58" spans="1:62" x14ac:dyDescent="0.25">
@@ -15939,7 +15943,7 @@
       </c>
       <c r="BJ58" s="107">
         <f>$H$33*H49</f>
-        <v>3.2795778755999375E-10</v>
+        <v>2.6725587079423003E-11</v>
       </c>
     </row>
     <row r="59" spans="1:62" x14ac:dyDescent="0.25">
@@ -15952,7 +15956,7 @@
       </c>
       <c r="BJ59" s="107">
         <f>$H$34*H49</f>
-        <v>3.0991672347178447E-11</v>
+        <v>1.9051987504565521E-12</v>
       </c>
     </row>
   </sheetData>

--- a/projects/current/hattrick/4-SimuladorPartidos.xlsx
+++ b/projects/current/hattrick/4-SimuladorPartidos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D82AD7-5FC3-4F51-AF48-624F1048020D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22909FA0-D505-4511-8E99-1844F680B7E8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5711,37 +5711,37 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.20687895151103949</c:v>
+                  <c:v>0.12671757988439433</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34780066463728926</c:v>
+                  <c:v>0.28334287692870247</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26840137644494466</c:v>
+                  <c:v>0.29261737984140052</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12591705143086104</c:v>
+                  <c:v>0.18505074922497164</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0086858444242653E-2</c:v>
+                  <c:v>8.0089504314639209E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.1541940340988514E-3</c:v>
+                  <c:v>2.5103812270939333E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5451596962176325E-3</c:v>
+                  <c:v>5.8777694332899106E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9568037867910855E-4</c:v>
+                  <c:v>1.0438195383836169E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.8661180595237491E-5</c:v>
+                  <c:v>1.4102075019059162E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3303078374455717E-6</c:v>
+                  <c:v>1.4356758460576553E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.9352845103070019E-8</c:v>
+                  <c:v>1.0732969014154134E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5784,37 +5784,37 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.12699555382624356</c:v>
+                  <c:v>8.9602686564258974E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28122307024376914</c:v>
+                  <c:v>0.2347035204714526</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29012280557179915</c:v>
+                  <c:v>0.28578132224821895</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18527930333612563</c:v>
+                  <c:v>0.21707650325624261</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.1944401819937077E-2</c:v>
+                  <c:v>0.11418128170125161</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6548734427154566E-2</c:v>
+                  <c:v>4.3460792912143026E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.4855805729870462E-3</c:v>
+                  <c:v>1.2205178018075609E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2089339089115482E-3</c:v>
+                  <c:v>2.5464660928418105E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7175589033812831E-4</c:v>
+                  <c:v>3.9382919164737023E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8348105091157559E-5</c:v>
+                  <c:v>4.4608136942067932E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4321487830327103E-6</c:v>
+                  <c:v>3.6064367807623058E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6451,13 +6451,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.22881964863943663</c:v>
+                  <c:v>0.21196076489443544</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.48369883695159366</c:v>
+                  <c:v>0.45851850212463274</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28748136232602001</c:v>
+                  <c:v>0.32951939696026195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8721,7 +8721,7 @@
   <dimension ref="A1:BR59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9040,7 +9040,7 @@
       </c>
       <c r="BJ4" s="107">
         <f t="shared" ref="BJ4:BJ13" si="0">$H$25*H40</f>
-        <v>5.8179133912746366E-2</v>
+        <v>2.9741062104489874E-2</v>
       </c>
       <c r="BL4">
         <v>0</v>
@@ -9050,7 +9050,7 @@
       </c>
       <c r="BN4" s="107">
         <f>H25*H39</f>
-        <v>2.6272707022137048E-2</v>
+        <v>1.1354235592562833E-2</v>
       </c>
       <c r="BP4">
         <v>1</v>
@@ -9060,7 +9060,7 @@
       </c>
       <c r="BR4" s="107">
         <f>$H$26*H39</f>
-        <v>4.4169138026748149E-2</v>
+        <v>2.5388282991657931E-2</v>
       </c>
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.25">
@@ -9141,19 +9141,19 @@
       </c>
       <c r="AB5" s="157">
         <f>IF($B$17="JC",IF($C$17="JC",$W$1,$V$1/0.9),IF($C$17="JC",$V$1*1.1,$U$1))*AA5/1.5</f>
-        <v>4.4992133988260241E-2</v>
+        <v>8.2485578978477109E-2</v>
       </c>
       <c r="AC5" s="176">
         <f>(1-AB5)</f>
-        <v>0.95500786601173981</v>
+        <v>0.91751442102152292</v>
       </c>
       <c r="AD5" s="177">
         <f>AB5*PRODUCT(AC6:AC19)</f>
-        <v>2.8385658312279533E-2</v>
+        <v>3.4096524891354514E-2</v>
       </c>
       <c r="AE5" s="177">
         <f>AB5*AB6*PRODUCT(AC7:AC19)+AB5*AB7*PRODUCT(AC8:AC19)*PRODUCT(AC6)+AB5*AB8*PRODUCT(AC9:AC19)*PRODUCT(AC6:AC7)+AB5*AB9*PRODUCT(AC10:AC19)*PRODUCT(AC6:AC8)+AB5*AB10*PRODUCT(AC11:AC19)*PRODUCT(AC6:AC9)+AB5*AB11*PRODUCT(AC12:AC19)*PRODUCT(AC6:AC10)+AB5*AB12*PRODUCT(AC13:AC19)*PRODUCT(AC6:AC11)+AB5*AB13*PRODUCT(AC14:AC19)*PRODUCT(AC6:AC12)+AB5*AB14*PRODUCT(AC15:AC19)*PRODUCT(AC6:AC13)+AB5*AB15*PRODUCT(AC16:AC19)*PRODUCT(AC6:AC14)+AB5*AB16*PRODUCT(AC17:AC19)*PRODUCT(AC6:AC15)+AB5*AB17*PRODUCT(AC18:AC19)*PRODUCT(AC6:AC16)+AB5*AB18*PRODUCT(AC19)*PRODUCT(AC6:AC17)+AB5*AB19*PRODUCT(AC6:AC18)</f>
-        <v>1.3731374061573466E-2</v>
+        <v>3.3357180400074585E-2</v>
       </c>
       <c r="AF5" s="18"/>
       <c r="AG5" s="203">
@@ -9195,7 +9195,7 @@
       </c>
       <c r="BJ5" s="107">
         <f t="shared" si="0"/>
-        <v>6.0020301826134971E-2</v>
+        <v>3.6213517531456525E-2</v>
       </c>
       <c r="BL5">
         <v>1</v>
@@ -9205,7 +9205,7 @@
       </c>
       <c r="BN5" s="107">
         <f>$H$26*H40</f>
-        <v>9.7809570742121987E-2</v>
+        <v>6.6501570715676001E-2</v>
       </c>
       <c r="BP5">
         <f>BP4+1</f>
@@ -9216,7 +9216,7 @@
       </c>
       <c r="BR5" s="107">
         <f>$H$27*H39</f>
-        <v>3.4085781449351829E-2</v>
+        <v>2.6219303369183721E-2</v>
       </c>
     </row>
     <row r="6" spans="1:70" x14ac:dyDescent="0.25">
@@ -9291,19 +9291,19 @@
       </c>
       <c r="AB6" s="157">
         <f t="shared" ref="AB6:AB19" si="7">IF($B$17="JC",IF($C$17="JC",$W$1,$V$1/0.9),IF($C$17="JC",$V$1*1.1,$U$1))*AA6/1.5</f>
-        <v>2.9621485804255675E-2</v>
+        <v>5.4306057307802059E-2</v>
       </c>
       <c r="AC6" s="176">
         <f t="shared" ref="AC6:AC19" si="8">(1-AB6)</f>
-        <v>0.97037851419574428</v>
+        <v>0.94569394269219798</v>
       </c>
       <c r="AD6" s="177">
         <f>AB6*AC5*PRODUCT(AC7:AC19)</f>
-        <v>1.8392255606561339E-2</v>
+        <v>2.1779236764610639E-2</v>
       </c>
       <c r="AE6" s="177">
         <f>AB6*AB7*PRODUCT(AC8:AC19)*PRODUCT(AC5)+AB6*AB8*PRODUCT(AC9:AC19)*AC5*PRODUCT(AC7)+AB6*AB9*PRODUCT(AC10:AC19)*AC5*PRODUCT(AC7:AC8)+AB6*AB10*PRODUCT(AC11:AC19)*AC5*PRODUCT(AC7:AC9)+AB6*AB11*PRODUCT(AC12:AC19)*AC5*PRODUCT(AC7:AC10)+AB6*AB12*PRODUCT(AC13:AC19)*AC5*PRODUCT(AC7:AC11)+AB6*AB13*PRODUCT(AC14:AC19)*AC5*PRODUCT(AC7:AC12)+AB6*AB14*PRODUCT(AC15:AC19)*AC5*PRODUCT(AC7:AC13)+AB6*AB15*PRODUCT(AC16:AC19)*AC5*PRODUCT(AC7:AC14)+AB6*AB16*PRODUCT(AC17:AC19)*AC5*PRODUCT(AC7:AC15)+AB6*AB17*PRODUCT(AC18:AC19)*AC5*PRODUCT(AC7:AC16)+AB6*AB18*PRODUCT(AC19)*AC5*PRODUCT(AC7:AC17)+AB6*AB19*AC5*PRODUCT(AC7:AC18)</f>
-        <v>8.3356952190321645E-3</v>
+        <v>2.0056315644132516E-2</v>
       </c>
       <c r="AF6" s="18"/>
       <c r="AG6" s="203">
@@ -9345,7 +9345,7 @@
       </c>
       <c r="BJ6" s="107">
         <f t="shared" si="0"/>
-        <v>3.833038801087351E-2</v>
+        <v>2.7507409142397909E-2</v>
       </c>
       <c r="BL6">
         <f>BH14+1</f>
@@ -9356,7 +9356,7 @@
       </c>
       <c r="BN6" s="107">
         <f>$H$27*H41</f>
-        <v>7.7869360353539946E-2</v>
+        <v>8.3624581723884775E-2</v>
       </c>
       <c r="BP6">
         <f>BL5+1</f>
@@ -9367,7 +9367,7 @@
       </c>
       <c r="BR6" s="107">
         <f>$H$27*H40</f>
-        <v>7.5480659141500997E-2</v>
+        <v>6.8678329199908961E-2</v>
       </c>
     </row>
     <row r="7" spans="1:70" x14ac:dyDescent="0.25">
@@ -9378,7 +9378,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="169">
-        <v>11.75</v>
+        <v>10</v>
       </c>
       <c r="E7" s="192" t="s">
         <v>18</v>
@@ -9495,7 +9495,7 @@
       </c>
       <c r="BJ7" s="107">
         <f t="shared" si="0"/>
-        <v>1.6952571930707899E-2</v>
+        <v>1.4468775685280884E-2</v>
       </c>
       <c r="BL7">
         <f>BH23+1</f>
@@ -9506,7 +9506,7 @@
       </c>
       <c r="BN7" s="107">
         <f>$H$28*H42</f>
-        <v>2.3329823567249035E-2</v>
+        <v>4.0170169566704689E-2</v>
       </c>
       <c r="BP7">
         <f>BP5+1</f>
@@ -9517,7 +9517,7 @@
       </c>
       <c r="BR7" s="107">
         <f>$H$28*H39</f>
-        <v>1.5990905682629793E-2</v>
+        <v>1.6581044281286424E-2</v>
       </c>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.25">
@@ -9528,7 +9528,7 @@
         <v>10.75</v>
       </c>
       <c r="C8" s="169">
-        <v>13.75</v>
+        <v>12.5</v>
       </c>
       <c r="E8" s="192" t="s">
         <v>18</v>
@@ -9591,19 +9591,19 @@
       </c>
       <c r="AB8" s="157">
         <f t="shared" si="7"/>
-        <v>3.1879905680492676E-2</v>
+        <v>5.8446493747569904E-2</v>
       </c>
       <c r="AC8" s="176">
         <f t="shared" si="8"/>
-        <v>0.9681200943195073</v>
+        <v>0.94155350625243006</v>
       </c>
       <c r="AD8" s="177">
         <f>AB8*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC19)</f>
-        <v>1.9840705939837146E-2</v>
+        <v>2.3542818123899058E-2</v>
       </c>
       <c r="AE8" s="177">
         <f>AB8*AB9*PRODUCT(AC5:AC7)*PRODUCT(AC10:AC19)+AB8*AB10*PRODUCT(AC5:AC7)*PRODUCT(AC9)*PRODUCT(AC11:AC19)+AB8*AB11*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC10)*PRODUCT(AC12:AC19)+AB8*AB12*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC11)*PRODUCT(AC13:AC19)+AB8*AB13*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC12)*PRODUCT(AC14:AC19)+AB8*AB14*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC13)*PRODUCT(AC15:AC19)+AB8*AB15*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC14)*PRODUCT(AC16:AC19)+AB8*AB16*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC15)*PRODUCT(AC17:AC19)+AB8*AB17*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC16)*PRODUCT(AC18:AC19)+AB8*AB18*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC17)*PRODUCT(AC19)+AB8*AB19*PRODUCT(AC5:AC7)*PRODUCT(AC9:AC18)</f>
-        <v>8.3388099798693896E-3</v>
+        <v>2.021897343018577E-2</v>
       </c>
       <c r="AG8" s="203">
         <f>IF(COUNTIF(F6:F18,"IMP")+COUNTIF(J6:J18,"IMP")=0,0,COUNTIF(F6:F18,"IMP")/(COUNTIF(F6:F18,"IMP")+COUNTIF(J6:J18,"IMP")))</f>
@@ -9644,7 +9644,7 @@
       </c>
       <c r="BJ8" s="107">
         <f t="shared" si="0"/>
-        <v>5.4923743422347748E-3</v>
+        <v>5.507246497683603E-3</v>
       </c>
       <c r="BL8">
         <f>BH31+1</f>
@@ -9655,7 +9655,7 @@
       </c>
       <c r="BN8" s="107">
         <f>$H$29*H43</f>
-        <v>3.2848936360539574E-3</v>
+        <v>9.1447222534634248E-3</v>
       </c>
       <c r="BP8">
         <f>BP6+1</f>
@@ -9666,7 +9666,7 @@
       </c>
       <c r="BR8" s="107">
         <f>$H$28*H40</f>
-        <v>3.5410779799429325E-2</v>
+        <v>4.3432062308980772E-2</v>
       </c>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.25">
@@ -9677,7 +9677,7 @@
         <v>6.5</v>
       </c>
       <c r="C9" s="169">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="E9" s="192" t="s">
         <v>18</v>
@@ -9708,19 +9708,19 @@
       </c>
       <c r="R9" s="157">
         <f t="shared" si="3"/>
-        <v>1.0360969346160119E-2</v>
+        <v>1.9186980270666888E-2</v>
       </c>
       <c r="S9" s="176">
         <f t="shared" si="4"/>
-        <v>0.98963903065383985</v>
+        <v>0.9808130197293331</v>
       </c>
       <c r="T9" s="177">
         <f>R9*PRODUCT(S5:S8)*PRODUCT(S10:S19)</f>
-        <v>8.8006716926145034E-3</v>
+        <v>1.4118047624687734E-2</v>
       </c>
       <c r="U9" s="177">
         <f>R9*R10*PRODUCT(S5:S8)*PRODUCT(S11:S19)+R9*R11*PRODUCT(S5:S8)*PRODUCT(S10)*PRODUCT(S12:S19)+R9*R12*PRODUCT(S5:S8)*PRODUCT(S10:S11)*PRODUCT(S13:S19)+R9*R13*PRODUCT(S5:S8)*PRODUCT(S10:S12)*PRODUCT(S14:S19)+R9*R14*PRODUCT(S5:S8)*PRODUCT(S10:S13)*PRODUCT(S15:S19)+R9*R15*PRODUCT(S5:S8)*PRODUCT(S10:S14)*PRODUCT(S16:S19)+R9*R16*PRODUCT(S5:S8)*PRODUCT(S10:S15)*PRODUCT(S17:S19)+R9*R17*PRODUCT(S5:S8)*PRODUCT(S10:S16)*PRODUCT(S18:S19)+R9*R18*PRODUCT(S5:S8)*PRODUCT(S10:S17)*PRODUCT(S19)+R9*R19*PRODUCT(S5:S8)*PRODUCT(S10:S18)</f>
-        <v>1.4610780967548734E-3</v>
+        <v>4.4732031467451736E-3</v>
       </c>
       <c r="W9" s="187" t="s">
         <v>44</v>
@@ -9794,7 +9794,7 @@
       </c>
       <c r="BJ9" s="107">
         <f t="shared" si="0"/>
-        <v>1.341730108879927E-3</v>
+        <v>1.5466106205087498E-3</v>
       </c>
       <c r="BL9">
         <f>BH38+1</f>
@@ -9805,7 +9805,7 @@
       </c>
       <c r="BN9" s="107">
         <f>$H$30*H44</f>
-        <v>2.4303226630593313E-4</v>
+        <v>1.0910315864126093E-3</v>
       </c>
       <c r="BP9">
         <f>BL6+1</f>
@@ -9816,7 +9816,7 @@
       </c>
       <c r="BR9" s="107">
         <f>$H$28*H41</f>
-        <v>3.6531408230449931E-2</v>
+        <v>5.2884047796535973E-2</v>
       </c>
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.25">
@@ -9827,7 +9827,7 @@
         <v>6.25</v>
       </c>
       <c r="C10" s="169">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="E10" s="192" t="s">
         <v>17</v>
@@ -9856,19 +9856,19 @@
       </c>
       <c r="R10" s="157">
         <f t="shared" si="3"/>
-        <v>1.1887585602478398E-2</v>
+        <v>2.2014047411997029E-2</v>
       </c>
       <c r="S10" s="176">
         <f t="shared" si="4"/>
-        <v>0.98811241439752162</v>
+        <v>0.97798595258800303</v>
       </c>
       <c r="T10" s="177">
         <f>R10*PRODUCT(S5:S9)*PRODUCT(S11:S19)</f>
-        <v>1.011298930728613E-2</v>
+        <v>1.6245067360969728E-2</v>
       </c>
       <c r="U10" s="177">
         <f>R10*R11*PRODUCT(S5:S9)*PRODUCT(S12:S19)+R10*R12*PRODUCT(S5:S9)*S11*PRODUCT(S13:S19)+R10*R13*PRODUCT(S5:S9)*PRODUCT(S11:S12)*PRODUCT(S14:S19)+R10*R14*PRODUCT(S5:S9)*PRODUCT(S11:S13)*PRODUCT(S15:S19)+R10*R15*PRODUCT(S5:S9)*PRODUCT(S11:S14)*PRODUCT(S16:S19)+R10*R16*PRODUCT(S5:S9)*PRODUCT(S11:S15)*PRODUCT(S17:S19)+R10*R17*PRODUCT(S5:S9)*PRODUCT(S11:S16)*PRODUCT(S18:S19)+R10*R18*PRODUCT(S5:S9)*PRODUCT(S11:S17)*PRODUCT(S19)+R10*R19*PRODUCT(S5:S9)*PRODUCT(S11:S18)</f>
-        <v>1.5572823296735065E-3</v>
+        <v>4.7814646976886621E-3</v>
       </c>
       <c r="W10" s="186" t="s">
         <v>46</v>
@@ -9890,19 +9890,19 @@
       </c>
       <c r="AB10" s="157">
         <f t="shared" si="7"/>
-        <v>4.7550342409913592E-2</v>
+        <v>8.7175627751508236E-2</v>
       </c>
       <c r="AC10" s="176">
         <f t="shared" si="8"/>
-        <v>0.95244965759008637</v>
+        <v>0.91282437224849178</v>
       </c>
       <c r="AD10" s="177">
         <f>AB10*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC19)</f>
-        <v>3.0080215666687657E-2</v>
+        <v>3.6220366979096107E-2</v>
       </c>
       <c r="AE10" s="177">
         <f>AB10*AB11*PRODUCT(AC5:AC9)*PRODUCT(AC12:AC19)+AB10*AB12*PRODUCT(AC5:AC9)*AC11*PRODUCT(AC13:AC19)+AB10*AB13*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC12)*PRODUCT(AC14:AC19)+AB10*AB14*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC13)*PRODUCT(AC15:AC19)+AB10*AB15*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC14)*PRODUCT(AC16:AC19)+AB10*AB16*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC15)*PRODUCT(AC17:AC19)+AB10*AB17*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC16)*PRODUCT(AC18:AC19)+AB10*AB18*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC17)*PRODUCT(AC19)+AB10*AB19*PRODUCT(AC5:AC9)*PRODUCT(AC11:AC18)</f>
-        <v>1.1140620267828982E-2</v>
+        <v>2.7647587676474801E-2</v>
       </c>
       <c r="AG10" s="203">
         <f>IF(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")=0,0,COUNTIF(F11:F18,"RAP")/(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")))</f>
@@ -9943,7 +9943,7 @@
       </c>
       <c r="BJ10" s="107">
         <f t="shared" si="0"/>
-        <v>2.501029795217636E-4</v>
+        <v>3.2268202054258361E-4</v>
       </c>
       <c r="BL10">
         <f>BH44+1</f>
@@ -9954,7 +9954,7 @@
       </c>
       <c r="BN10" s="107">
         <f>$H$31*H45</f>
-        <v>1.0021257707951644E-5</v>
+        <v>7.1739222282506744E-5</v>
       </c>
       <c r="BP10">
         <f>BP7+1</f>
@@ -9965,7 +9965,7 @@
       </c>
       <c r="BR10" s="107">
         <f>$H$29*H39</f>
-        <v>5.0908527892808237E-3</v>
+        <v>7.1762347521914837E-3</v>
       </c>
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.25">
@@ -10007,19 +10007,19 @@
       </c>
       <c r="R11" s="157">
         <f t="shared" si="3"/>
-        <v>1.1887585602478398E-2</v>
+        <v>2.2014047411997029E-2</v>
       </c>
       <c r="S11" s="176">
         <f t="shared" si="4"/>
-        <v>0.98811241439752162</v>
+        <v>0.97798595258800303</v>
       </c>
       <c r="T11" s="177">
         <f>R11*PRODUCT(S5:S10)*PRODUCT(S12:S19)</f>
-        <v>1.0112989307286128E-2</v>
+        <v>1.6245067360969732E-2</v>
       </c>
       <c r="U11" s="177">
         <f>R11*R12*PRODUCT(S5:S10)*PRODUCT(S13:S19)+R11*R13*PRODUCT(S5:S10)*S12*PRODUCT(S14:S19)+R11*R14*PRODUCT(S5:S10)*PRODUCT(S12:S13)*PRODUCT(S15:S19)+R11*R15*PRODUCT(S5:S10)*PRODUCT(S12:S14)*PRODUCT(S16:S19)+R11*R16*PRODUCT(S5:S10)*PRODUCT(S12:S15)*PRODUCT(S17:S19)+R11*R17*PRODUCT(S5:S10)*PRODUCT(S12:S16)*PRODUCT(S18:S19)+R11*R18*PRODUCT(S5:S10)*PRODUCT(S12:S17)*PRODUCT(S19)+R11*R19*PRODUCT(S5:S10)*PRODUCT(S12:S18)</f>
-        <v>1.4356169965235195E-3</v>
+        <v>4.415795147784474E-3</v>
       </c>
       <c r="W11" s="186" t="s">
         <v>48</v>
@@ -10041,19 +10041,19 @@
       </c>
       <c r="AB11" s="157">
         <f t="shared" si="7"/>
-        <v>4.7550342409913592E-2</v>
+        <v>8.7175627751508236E-2</v>
       </c>
       <c r="AC11" s="176">
         <f t="shared" si="8"/>
-        <v>0.95244965759008637</v>
+        <v>0.91282437224849178</v>
       </c>
       <c r="AD11" s="177">
         <f>AB11*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC19)</f>
-        <v>3.008021566668765E-2</v>
+        <v>3.6220366979096107E-2</v>
       </c>
       <c r="AE11" s="177">
         <f>AB11*AB12*PRODUCT(AC5:AC10)*PRODUCT(AC13:AC19)+AB11*AB13*PRODUCT(AC5:AC10)*AC12*PRODUCT(AC14:AC19)+AB11*AB14*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC13)*PRODUCT(AC15:AC19)+AB11*AB15*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC14)*PRODUCT(AC16:AC19)+AB11*AB16*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC15)*PRODUCT(AC17:AC19)+AB11*AB17*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC16)*PRODUCT(AC18:AC19)+AB11*AB18*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC17)*PRODUCT(AC19)+AB11*AB19*PRODUCT(AC5:AC10)*PRODUCT(AC12:AC18)</f>
-        <v>9.6388878210620955E-3</v>
+        <v>2.4188506910461743E-2</v>
       </c>
       <c r="AG11" s="203">
         <f>IF(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")=0,0,COUNTIF(F11:F18,"RAP")/(COUNTIF(F11:F18,"RAP")+COUNTIF(J11:J18,"RAP")))</f>
@@ -10094,7 +10094,7 @@
       </c>
       <c r="BJ11" s="107">
         <f t="shared" si="0"/>
-        <v>3.5532678508997066E-5</v>
+        <v>4.9905082053382085E-5</v>
       </c>
       <c r="BL11">
         <f>BH50+1</f>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="BN11" s="107">
         <f>$H$32*H46</f>
-        <v>2.3656464509382667E-7</v>
+        <v>2.6580510615396712E-6</v>
       </c>
       <c r="BP11">
         <f>BP8+1</f>
@@ -10116,7 +10116,7 @@
       </c>
       <c r="BR11" s="107">
         <f>$H$29*H40</f>
-        <v>1.1273349408117282E-2</v>
+        <v>1.8797288615459415E-2</v>
       </c>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.25">
@@ -10127,7 +10127,7 @@
         <v>6.5</v>
       </c>
       <c r="C12" s="169">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="E12" s="192" t="s">
         <v>19</v>
@@ -10158,19 +10158,19 @@
       </c>
       <c r="R12" s="157">
         <f t="shared" si="3"/>
-        <v>1.2334487316857283E-3</v>
+        <v>2.2841643179365339E-3</v>
       </c>
       <c r="S12" s="176">
         <f t="shared" si="4"/>
-        <v>0.99876655126831426</v>
+        <v>0.99771583568206346</v>
       </c>
       <c r="T12" s="177">
         <f>R12*PRODUCT(S5:S11)*PRODUCT(S13:S19)</f>
-        <v>1.03812430679785E-3</v>
+        <v>1.6522460160911358E-3</v>
       </c>
       <c r="U12" s="177">
         <f>R12*R13*PRODUCT(S5:S11)*PRODUCT(S14:S19)+R12*R14*PRODUCT(S5:S11)*S13*PRODUCT(S15:S19)+R12*R15*PRODUCT(S5:S11)*PRODUCT(S13:S14)*PRODUCT(S16:S19)+R12*R16*PRODUCT(S5:S11)*PRODUCT(S13:S15)*PRODUCT(S17:S19)+R12*R17*PRODUCT(S5:S11)*PRODUCT(S13:S16)*PRODUCT(S18:S19)+R12*R18*PRODUCT(S5:S11)*PRODUCT(S13:S17)*PRODUCT(S19)+R12*R19*PRODUCT(S5:S11)*PRODUCT(S13:S18)</f>
-        <v>1.4608771466352615E-4</v>
+        <v>4.4533706835142291E-4</v>
       </c>
       <c r="W12" s="187" t="s">
         <v>50</v>
@@ -10192,19 +10192,19 @@
       </c>
       <c r="AB12" s="157">
         <f t="shared" si="7"/>
-        <v>1.2334487316857283E-3</v>
+        <v>2.2613226747571686E-3</v>
       </c>
       <c r="AC12" s="176">
         <f t="shared" si="8"/>
-        <v>0.99876655126831426</v>
+        <v>0.9977386773252428</v>
       </c>
       <c r="AD12" s="177">
         <f>AB12*PRODUCT(AC5:AC11)*PRODUCT(AC13:AC19)</f>
-        <v>7.4409166611209073E-4</v>
+        <v>8.5958874314400868E-4</v>
       </c>
       <c r="AE12" s="177">
         <f>AB12*AB13*PRODUCT(AC5:AC11)*PRODUCT(AC14:AC19)+AB12*AB14*PRODUCT(AC5:AC11)*AC13*PRODUCT(AC15:AC19)+AB12*AB15*PRODUCT(AC5:AC11)*PRODUCT(AC13:AC14)*PRODUCT(AC16:AC19)+AB12*AB16*PRODUCT(AC5:AC11)*PRODUCT(AC13:AC15)*PRODUCT(AC17:AC19)+AB12*AB17*PRODUCT(AC5:AC11)*PRODUCT(AC13:AC16)*PRODUCT(AC18:AC19)+AB12*AB18*PRODUCT(AC5:AC11)*PRODUCT(AC13:AC17)*PRODUCT(AC19)+AB12*AB19*PRODUCT(AC5:AC11)*PRODUCT(AC13:AC18)</f>
-        <v>2.3751739326944308E-4</v>
+        <v>5.7209810364088065E-4</v>
       </c>
       <c r="AG12" s="203">
         <f>IF(COUNTA(F6:F10)+COUNTA(J6:J10)=0,0,COUNTA(F6:F10)/(COUNTA(F6:F10)+COUNTA(J6:J10)))</f>
@@ -10245,7 +10245,7 @@
       </c>
       <c r="BJ12" s="107">
         <f t="shared" si="0"/>
-        <v>3.7958367434730414E-6</v>
+        <v>5.6526351564504953E-6</v>
       </c>
       <c r="BL12">
         <f>BH54+1</f>
@@ -10256,7 +10256,7 @@
       </c>
       <c r="BN12" s="107">
         <f>$H$33*H47</f>
-        <v>3.2051676878956185E-9</v>
+        <v>5.5538088053066428E-8</v>
       </c>
       <c r="BP12">
         <f>BP9+1</f>
@@ -10267,7 +10267,7 @@
       </c>
       <c r="BR12" s="107">
         <f>$H$29*H41</f>
-        <v>1.1630111838403246E-2</v>
+        <v>2.2888084441242029E-2</v>
       </c>
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.25">
@@ -10278,7 +10278,7 @@
         <v>5.75</v>
       </c>
       <c r="C13" s="169">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="E13" s="192" t="s">
         <v>19</v>
@@ -10309,19 +10309,19 @@
       </c>
       <c r="R13" s="157">
         <f t="shared" si="3"/>
-        <v>4.4359714434208365E-2</v>
+        <v>8.2147619322608098E-2</v>
       </c>
       <c r="S13" s="176">
         <f t="shared" si="4"/>
-        <v>0.95564028556579161</v>
+        <v>0.91785238067739194</v>
       </c>
       <c r="T13" s="177">
         <f>R13*PRODUCT(S5:S12)*PRODUCT(S14:S19)</f>
-        <v>3.9019934743797793E-2</v>
+        <v>6.4591650033093237E-2</v>
       </c>
       <c r="U13" s="177">
         <f>R13*R14*PRODUCT(S5:S12)*PRODUCT(S15:S19)+R13*R15*PRODUCT(S5:S12)*S14*PRODUCT(S16:S19)+R13*R16*PRODUCT(S5:S12)*PRODUCT(S14:S15)*PRODUCT(S17:S19)+R13*R17*PRODUCT(S5:S12)*PRODUCT(S14:S16)*PRODUCT(S18:S19)+R13*R18*PRODUCT(S5:S12)*PRODUCT(S14:S17)*PRODUCT(S19)+R13*R19*PRODUCT(S5:S12)*PRODUCT(S14:S18)</f>
-        <v>3.6797326536620865E-3</v>
+        <v>1.1628728087727675E-2</v>
       </c>
       <c r="W13" s="186" t="s">
         <v>52</v>
@@ -10343,19 +10343,19 @@
       </c>
       <c r="AB13" s="157">
         <f t="shared" si="7"/>
-        <v>3.9690270809554867E-2</v>
+        <v>7.2765496484183914E-2</v>
       </c>
       <c r="AC13" s="176">
         <f t="shared" si="8"/>
-        <v>0.9603097291904451</v>
+        <v>0.92723450351581604</v>
       </c>
       <c r="AD13" s="177">
         <f>AB13*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC19)</f>
-        <v>2.4902449058100701E-2</v>
+        <v>2.9763287740842255E-2</v>
       </c>
       <c r="AE13" s="177">
         <f>AB13*AB14*PRODUCT(AC5:AC12)*PRODUCT(AC15:AC19)+AB13*AB15*PRODUCT(AC5:AC12)*AC14*PRODUCT(AC16:AC19)+AB13*AB16*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC15)*PRODUCT(AC17:AC19)+AB13*AB17*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC16)*PRODUCT(AC18:AC19)+AB13*AB18*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC17)*PRODUCT(AC19)+AB13*AB19*PRODUCT(AC5:AC12)*PRODUCT(AC14:AC18)</f>
-        <v>6.9197377134242715E-3</v>
+        <v>1.7473216463632268E-2</v>
       </c>
       <c r="AG13" s="203">
         <f>B22</f>
@@ -10393,7 +10393,7 @@
       </c>
       <c r="BJ13" s="107">
         <f t="shared" si="0"/>
-        <v>2.9628143864161833E-7</v>
+        <v>4.569989408642654E-7</v>
       </c>
       <c r="BL13">
         <f>BH57+1</f>
@@ -10404,7 +10404,7 @@
       </c>
       <c r="BN13" s="107">
         <f>$H$34*H48</f>
-        <v>2.4408628005041894E-11</v>
+        <v>6.4042824745359127E-10</v>
       </c>
       <c r="BP13">
         <f>BL7+1</f>
@@ -10415,7 +10415,7 @@
       </c>
       <c r="BR13" s="107">
         <f>$H$29*H42</f>
-        <v>7.4272652054831641E-3</v>
+        <v>1.7385549544147637E-2</v>
       </c>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.25">
@@ -10426,7 +10426,7 @@
         <v>5.75</v>
       </c>
       <c r="C14" s="169">
-        <v>10.75</v>
+        <v>7.75</v>
       </c>
       <c r="E14" s="192" t="s">
         <v>20</v>
@@ -10491,19 +10491,19 @@
       </c>
       <c r="AB14" s="157">
         <f t="shared" si="7"/>
-        <v>0.16761745964454597</v>
+        <v>0.30729867601500094</v>
       </c>
       <c r="AC14" s="176">
         <f t="shared" si="8"/>
-        <v>0.832382540355454</v>
+        <v>0.69270132398499906</v>
       </c>
       <c r="AD14" s="177">
         <f>AB14*PRODUCT(AC5:AC13)*PRODUCT(AC15:AC19)</f>
-        <v>0.12132927970303459</v>
+        <v>0.16825177761821083</v>
       </c>
       <c r="AE14" s="177">
         <f>AB14*AB15*PRODUCT(AC5:AC13)*PRODUCT(AC16:AC19)+AB14*AB16*PRODUCT(AC5:AC13)*AC15*PRODUCT(AC17:AC19)+AB14*AB17*PRODUCT(AC5:AC13)*PRODUCT(AC15:AC16)*PRODUCT(AC18:AC19)+AB14*AB18*PRODUCT(AC5:AC13)*PRODUCT(AC15:AC17)*PRODUCT(AC19)+AB14*AB19*PRODUCT(AC5:AC13)*PRODUCT(AC15:AC18)</f>
-        <v>9.2820631920949581E-3</v>
+        <v>2.4135576637269063E-2</v>
       </c>
       <c r="AG14" s="203">
         <f>IF(AL14=0,1,B22)</f>
@@ -10543,7 +10543,7 @@
       </c>
       <c r="BJ14" s="107">
         <f t="shared" ref="BJ14:BJ22" si="11">$H$26*H41</f>
-        <v>0.10090490460430679</v>
+        <v>8.0974102018298966E-2</v>
       </c>
       <c r="BL14">
         <f>BP39+1</f>
@@ -10554,7 +10554,7 @@
       </c>
       <c r="BN14" s="107">
         <f>$H$35*H49</f>
-        <v>9.9323592714217798E-14</v>
+        <v>3.8707774219427614E-12</v>
       </c>
       <c r="BP14">
         <f>BP10+1</f>
@@ -10565,7 +10565,7 @@
       </c>
       <c r="BR14" s="107">
         <f>$H$30*H39</f>
-        <v>1.1625419411932783E-3</v>
+        <v>2.2493690224809752E-3</v>
       </c>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.25">
@@ -10607,19 +10607,19 @@
       </c>
       <c r="R15" s="157">
         <f t="shared" si="3"/>
-        <v>1.4423603864340455E-2</v>
+        <v>2.67103775265564E-2</v>
       </c>
       <c r="S15" s="176">
         <f t="shared" si="4"/>
-        <v>0.9855763961356595</v>
+        <v>0.97328962247344364</v>
       </c>
       <c r="T15" s="177">
         <f>R15*PRODUCT(S5:S14)*PRODUCT(S16:S19)</f>
-        <v>1.2302000455835132E-2</v>
+        <v>1.9805789976641893E-2</v>
       </c>
       <c r="U15" s="177">
         <f>R15*R16*PRODUCT(S5:S14)*PRODUCT(S17:S19)+R15*R17*PRODUCT(S5:S14)*S16*PRODUCT(S18:S19)+R15*R18*PRODUCT(S5:S14)*S16*S17*S19+R15*R19*PRODUCT(S5:S14)*S16*S17*S18</f>
-        <v>9.8009087075994774E-4</v>
+        <v>3.0221880751533769E-3</v>
       </c>
       <c r="W15" s="186" t="s">
         <v>56</v>
@@ -10641,19 +10641,19 @@
       </c>
       <c r="AB15" s="157">
         <f t="shared" si="7"/>
-        <v>1.2905329773357246E-2</v>
+        <v>2.3659771251154954E-2</v>
       </c>
       <c r="AC15" s="176">
         <f t="shared" si="8"/>
-        <v>0.98709467022664277</v>
+        <v>0.97634022874884507</v>
       </c>
       <c r="AD15" s="177">
         <f>AB15*PRODUCT(AC5:AC14)*PRODUCT(AC16:AC19)</f>
-        <v>7.87734065258173E-3</v>
+        <v>9.1908218319288835E-3</v>
       </c>
       <c r="AE15" s="177">
         <f>AB15*AB16*PRODUCT(AC5:AC14)*PRODUCT(AC17:AC19)+AB15*AB17*PRODUCT(AC5:AC14)*AC16*PRODUCT(AC18:AC19)+AB15*AB18*PRODUCT(AC5:AC14)*AC16*AC17*AC19+AB15*AB19*PRODUCT(AC5:AC14)*AC16*AC17*AC18</f>
-        <v>4.996520131355011E-4</v>
+        <v>1.0956933962985999E-3</v>
       </c>
       <c r="AG15" s="203">
         <f>IF(AL15=0,1,B22)</f>
@@ -10691,7 +10691,7 @@
       </c>
       <c r="BJ15" s="107">
         <f t="shared" si="11"/>
-        <v>6.4440264843838427E-2</v>
+        <v>6.1507080946246635E-2</v>
       </c>
       <c r="BP15">
         <f>BP11+1</f>
@@ -10702,7 +10702,7 @@
       </c>
       <c r="BR15" s="107">
         <f>$H$30*H40</f>
-        <v>2.5743705518764736E-3</v>
+        <v>5.8919531172439126E-3</v>
       </c>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.25">
@@ -10743,19 +10743,19 @@
       </c>
       <c r="R16" s="157">
         <f t="shared" si="3"/>
-        <v>2.2123422468612428E-3</v>
+        <v>4.0969300867800791E-3</v>
       </c>
       <c r="S16" s="176">
         <f t="shared" si="4"/>
-        <v>0.99778765775313871</v>
+        <v>0.99590306991321997</v>
       </c>
       <c r="T16" s="177">
         <f>R16*PRODUCT(S5:S15)*PRODUCT(S17:S19)</f>
-        <v>1.8638305739787004E-3</v>
+        <v>2.9689010108741947E-3</v>
       </c>
       <c r="U16" s="177">
         <f>R16*R17*PRODUCT(S5:S15)*PRODUCT(S18:S19)+R16*R18*PRODUCT(S5:S15)*S17*S19+R16*R19*PRODUCT(S5:S15)*S17*S18</f>
-        <v>1.4435736788981319E-4</v>
+        <v>4.4081457300529597E-4</v>
       </c>
       <c r="W16" s="187" t="s">
         <v>58</v>
@@ -10776,19 +10776,19 @@
       </c>
       <c r="AB16" s="157">
         <f t="shared" si="7"/>
-        <v>2.4726178053155064E-3</v>
+        <v>4.5331326430784287E-3</v>
       </c>
       <c r="AC16" s="176">
         <f t="shared" si="8"/>
-        <v>0.99752738219468451</v>
+        <v>0.99546686735692158</v>
       </c>
       <c r="AD16" s="177">
         <f>AB16*PRODUCT(AC5:AC15)*PRODUCT(AC17:AC19)</f>
-        <v>1.4934871607683014E-3</v>
+        <v>1.7270965125947674E-3</v>
       </c>
       <c r="AE16" s="177">
         <f>AB16*AB17*PRODUCT(AC5:AC15)*PRODUCT(AC18:AC19)+AB16*AB18*PRODUCT(AC5:AC15)*AC17*AC19+AB16*AB19*PRODUCT(AC5:AC15)*AC17*AC18</f>
-        <v>9.1028453378945602E-5</v>
+        <v>1.9803279959548867E-4</v>
       </c>
       <c r="AG16" s="203">
         <f>C22</f>
@@ -10826,7 +10826,7 @@
       </c>
       <c r="BJ16" s="107">
         <f t="shared" si="11"/>
-        <v>2.850031741627921E-2</v>
+        <v>3.2352452848639239E-2</v>
       </c>
       <c r="BP16">
         <f>BP12+1</f>
@@ -10837,7 +10837,7 @@
       </c>
       <c r="BR16" s="107">
         <f>$H$30*H41</f>
-        <v>2.6558404559213849E-3</v>
+        <v>7.1742006642601065E-3</v>
       </c>
     </row>
     <row r="17" spans="1:70" x14ac:dyDescent="0.25">
@@ -10848,7 +10848,7 @@
         <v>163</v>
       </c>
       <c r="C17" s="173" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="E17" s="192" t="s">
         <v>22</v>
@@ -10879,19 +10879,19 @@
       </c>
       <c r="R17" s="157">
         <f t="shared" si="3"/>
-        <v>3.1069393730637537E-2</v>
+        <v>5.7535914315995439E-2</v>
       </c>
       <c r="S17" s="176">
         <f t="shared" si="4"/>
-        <v>0.96893060626936245</v>
+        <v>0.94246408568400453</v>
       </c>
       <c r="T17" s="177">
         <f>R17*PRODUCT(S5:S16)*PRODUCT(S18:S19)</f>
-        <v>2.6954566444648644E-2</v>
+        <v>4.4058371965183203E-2</v>
       </c>
       <c r="U17" s="177">
         <f>R17*R18*PRODUCT(S5:S16)*S19+R17*R19*PRODUCT(S5:S16)*S18</f>
-        <v>1.2233687288958272E-3</v>
+        <v>3.8519779496841004E-3</v>
       </c>
       <c r="W17" s="186" t="s">
         <v>60</v>
@@ -10913,19 +10913,19 @@
       </c>
       <c r="AB17" s="157">
         <f t="shared" si="7"/>
-        <v>3.1069393730637537E-2</v>
+        <v>5.6960555172835485E-2</v>
       </c>
       <c r="AC17" s="176">
         <f t="shared" si="8"/>
-        <v>0.96893060626936245</v>
+        <v>0.94303944482716451</v>
       </c>
       <c r="AD17" s="177">
         <f>AB17*PRODUCT(AC5:AC16)*PRODUCT(AC18:AC19)</f>
-        <v>1.9320102731236043E-2</v>
+        <v>2.2908114491867922E-2</v>
       </c>
       <c r="AE17" s="177">
         <f>AB17*AB18*PRODUCT(AC5:AC16)*AC19+AB17*AB19*PRODUCT(AC5:AC16)*AC18</f>
-        <v>5.5805384474342883E-4</v>
+        <v>1.2430225715176441E-3</v>
       </c>
       <c r="AG17" s="203">
         <f>COUNTA(F14:F15)/(COUNTA(F14:F15)+COUNTA(J14:J15))</f>
@@ -10966,7 +10966,7 @@
       </c>
       <c r="BJ17" s="107">
         <f t="shared" si="11"/>
-        <v>9.2336674790432418E-3</v>
+        <v>1.2314306097329166E-2</v>
       </c>
       <c r="BP17">
         <f>BP13+1</f>
@@ -10977,7 +10977,7 @@
       </c>
       <c r="BR17" s="107">
         <f>$H$30*H42</f>
-        <v>1.6960826932415527E-3</v>
+        <v>5.4494477861766651E-3</v>
       </c>
     </row>
     <row r="18" spans="1:70" x14ac:dyDescent="0.25">
@@ -11051,15 +11051,15 @@
       </c>
       <c r="AB18" s="157">
         <f t="shared" si="7"/>
-        <v>2.8073722158812982E-2</v>
+        <v>5.1468490624490465E-2</v>
       </c>
       <c r="AC18" s="176">
         <f t="shared" si="8"/>
-        <v>0.97192627784118701</v>
+        <v>0.94853150937550956</v>
       </c>
       <c r="AD18" s="177">
         <f>AB18*PRODUCT(AC5:AC17)*PRODUCT(AC19:AC19)</f>
-        <v>1.7403476064130584E-2</v>
+        <v>2.0579492460962974E-2</v>
       </c>
       <c r="AE18" s="177">
         <f>AB18*AB19*PRODUCT(AC5:AC17)</f>
@@ -11104,7 +11104,7 @@
       </c>
       <c r="BJ18" s="107">
         <f t="shared" si="11"/>
-        <v>2.2556892338435859E-3</v>
+        <v>3.4582502530685019E-3</v>
       </c>
       <c r="BP18">
         <f>BL8+1</f>
@@ -11115,7 +11115,7 @@
       </c>
       <c r="BR18" s="107">
         <f>$H$30*H43</f>
-        <v>7.5013495426786705E-4</v>
+        <v>2.8663854606834609E-3</v>
       </c>
     </row>
     <row r="19" spans="1:70" x14ac:dyDescent="0.25">
@@ -11139,15 +11139,15 @@
       </c>
       <c r="R19" s="157">
         <f t="shared" si="3"/>
-        <v>4.3415840137371604E-2</v>
+        <v>8.0399703958095564E-2</v>
       </c>
       <c r="S19" s="178">
         <f t="shared" si="4"/>
-        <v>0.95658415986262835</v>
+        <v>0.91960029604190441</v>
       </c>
       <c r="T19" s="179">
         <f>R19*PRODUCT(S5:S18)</f>
-        <v>3.8151996606587461E-2</v>
+        <v>6.3097126717854307E-2</v>
       </c>
       <c r="U19" s="179">
         <v>0</v>
@@ -11230,7 +11230,7 @@
       </c>
       <c r="BJ19" s="107">
         <f t="shared" si="11"/>
-        <v>4.2046801702199255E-4</v>
+        <v>7.2152302874719089E-4</v>
       </c>
       <c r="BP19">
         <f>BP15+1</f>
@@ -11241,7 +11241,7 @@
       </c>
       <c r="BR19" s="107">
         <f>$H$31*H40</f>
-        <v>4.3453455378725226E-4</v>
+        <v>1.3795331785126368E-3</v>
       </c>
     </row>
     <row r="20" spans="1:70" x14ac:dyDescent="0.25">
@@ -11258,19 +11258,19 @@
       <c r="Q20" s="22"/>
       <c r="S20" s="180">
         <f>PRODUCT(S5:S19)</f>
-        <v>0.84060553718456177</v>
+        <v>0.7216958962855714</v>
       </c>
       <c r="T20" s="181">
         <f>SUM(T5:T19)</f>
-        <v>0.14835710343883235</v>
+        <v>0.24278226806636516</v>
       </c>
       <c r="U20" s="181">
         <f>SUM(U5:U19)</f>
-        <v>1.0627614758823102E-2</v>
+        <v>3.3059508746140179E-2</v>
       </c>
       <c r="V20" s="181">
         <f>1-S20-T20-U20</f>
-        <v>4.0974461778277987E-4</v>
+        <v>2.4623269019232591E-3</v>
       </c>
       <c r="W20" s="21"/>
       <c r="X20" s="22"/>
@@ -11280,19 +11280,19 @@
       <c r="AB20" s="23"/>
       <c r="AC20" s="184">
         <f>PRODUCT(AC5:AC19)</f>
-        <v>0.60251703058187656</v>
+        <v>0.37926694195478711</v>
       </c>
       <c r="AD20" s="181">
         <f>SUM(AD5:AD19)</f>
-        <v>0.31984927822801729</v>
+        <v>0.40513949313760811</v>
       </c>
       <c r="AE20" s="181">
         <f>SUM(AE5:AE19)</f>
-        <v>6.8773439959412638E-2</v>
+        <v>0.17018620403328336</v>
       </c>
       <c r="AF20" s="181">
         <f>1-AC20-AD20-AE20</f>
-        <v>8.8602512306935194E-3</v>
+        <v>4.5407360874321373E-2</v>
       </c>
       <c r="BH20">
         <v>1</v>
@@ -11302,7 +11302,7 @@
       </c>
       <c r="BJ20" s="107">
         <f t="shared" si="11"/>
-        <v>5.9736812814970392E-5</v>
+        <v>1.115886961798712E-4</v>
       </c>
       <c r="BP20">
         <f>BP16+1</f>
@@ -11313,7 +11313,7 @@
       </c>
       <c r="BR20" s="107">
         <f>$H$31*H41</f>
-        <v>4.4828606612312845E-4</v>
+        <v>1.6797567205157553E-3</v>
       </c>
     </row>
     <row r="21" spans="1:70" x14ac:dyDescent="0.25">
@@ -11338,7 +11338,7 @@
       </c>
       <c r="BJ21" s="107">
         <f t="shared" si="11"/>
-        <v>6.3814831455394295E-6</v>
+        <v>1.2639397855595061E-5</v>
       </c>
       <c r="BP21">
         <f>BP17+1</f>
@@ -11349,7 +11349,7 @@
       </c>
       <c r="BR21" s="107">
         <f>$H$31*H42</f>
-        <v>2.8628611205826248E-4</v>
+        <v>1.2759256355250005E-3</v>
       </c>
     </row>
     <row r="22" spans="1:70" x14ac:dyDescent="0.25">
@@ -11372,7 +11372,7 @@
       </c>
       <c r="AS22" s="82">
         <f>Y23+AA23+AC23+AE23+AG23+AI23+AK23+AM23+AO23+AQ23+AS23</f>
-        <v>0.99999999999999989</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="BH22">
         <v>1</v>
@@ -11382,7 +11382,7 @@
       </c>
       <c r="BJ22" s="107">
         <f t="shared" si="11"/>
-        <v>4.9810229859826161E-7</v>
+        <v>1.02185817292268E-6</v>
       </c>
       <c r="BP22">
         <f>BP18+1</f>
@@ -11393,7 +11393,7 @@
       </c>
       <c r="BR22" s="107">
         <f>$H$31*H43</f>
-        <v>1.2661718702282958E-4</v>
+        <v>6.7113124743748125E-4</v>
       </c>
     </row>
     <row r="23" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11418,7 +11418,7 @@
       </c>
       <c r="H23" s="59">
         <f>SUM(H25:H35)</f>
-        <v>0.99999999741865053</v>
+        <v>0.99999994224227373</v>
       </c>
       <c r="J23" s="59">
         <f>SUM(J25:J35)</f>
@@ -11462,12 +11462,12 @@
       <c r="AB23" s="81"/>
       <c r="AC23" s="80">
         <f>SUM(AC25:AC35)</f>
-        <v>1.5172883441798247E-2</v>
+        <v>1.5172883441798249E-2</v>
       </c>
       <c r="AD23" s="81"/>
       <c r="AE23" s="80">
         <f>SUM(AE25:AE35)</f>
-        <v>5.5306685941884204E-2</v>
+        <v>5.5306685941884211E-2</v>
       </c>
       <c r="AF23" s="81"/>
       <c r="AG23" s="80">
@@ -11477,7 +11477,7 @@
       <c r="AH23" s="81"/>
       <c r="AI23" s="80">
         <f>SUM(AI25:AI35)</f>
-        <v>0.21725216895530047</v>
+        <v>0.21725216895530045</v>
       </c>
       <c r="AJ23" s="81"/>
       <c r="AK23" s="80">
@@ -11487,12 +11487,12 @@
       <c r="AL23" s="81"/>
       <c r="AM23" s="80">
         <f>SUM(AM25:AM35)</f>
-        <v>0.19416153948038714</v>
+        <v>0.19416153948038717</v>
       </c>
       <c r="AN23" s="81"/>
       <c r="AO23" s="80">
         <f>SUM(AO25:AO35)</f>
-        <v>0.10007965372276602</v>
+        <v>0.100079653722766</v>
       </c>
       <c r="AP23" s="81"/>
       <c r="AQ23" s="80">
@@ -11502,7 +11502,7 @@
       <c r="AR23" s="81"/>
       <c r="AS23" s="80">
         <f>SUM(AS25:AS35)</f>
-        <v>4.4095183132104579E-3</v>
+        <v>4.409518313210457E-3</v>
       </c>
       <c r="BH23">
         <f t="shared" ref="BH23:BH30" si="12">BH15+1</f>
@@ -11513,7 +11513,7 @@
       </c>
       <c r="BJ23" s="107">
         <f t="shared" ref="BJ23:BJ30" si="13">$H$27*H42</f>
-        <v>4.9729220042176545E-2</v>
+        <v>6.3520357607974962E-2</v>
       </c>
       <c r="BP23">
         <f>BL9+1</f>
@@ -11524,7 +11524,7 @@
       </c>
       <c r="BR23" s="107">
         <f>$H$31*H44</f>
-        <v>4.1022034422424751E-5</v>
+        <v>2.5545252012553707E-4</v>
       </c>
     </row>
     <row r="24" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="BJ24" s="107">
         <f t="shared" si="13"/>
-        <v>2.1993990240428741E-2</v>
+        <v>3.3411427478353094E-2</v>
       </c>
       <c r="BP24">
         <f>BH49+1</f>
@@ -11715,7 +11715,7 @@
       </c>
       <c r="BR24" s="107">
         <f t="shared" ref="BR24:BR30" si="14">$H$32*H39</f>
-        <v>2.4850538063282451E-5</v>
+        <v>9.3529034927436708E-5</v>
       </c>
     </row>
     <row r="25" spans="1:70" x14ac:dyDescent="0.25">
@@ -11724,7 +11724,7 @@
       </c>
       <c r="B25" s="117">
         <f>1/(1+EXP(-3.1416*4*((B11/(B11+C8))-(3.1416/6))))</f>
-        <v>0.22919415442970489</v>
+        <v>0.28536916748729962</v>
       </c>
       <c r="C25" s="118">
         <f>1/(1+EXP(-3.1416*4*((C11/(C11+B8))-(3.1416/6))))</f>
@@ -11743,21 +11743,21 @@
       </c>
       <c r="H25" s="127">
         <f>L25*J25</f>
-        <v>0.20687895151103949</v>
+        <v>0.12671757988439433</v>
       </c>
       <c r="I25" s="97">
         <v>0</v>
       </c>
       <c r="J25" s="98">
         <f t="shared" ref="J25:J35" si="15">Y25+AA25+AC25+AE25+AG25+AI25+AK25+AM25+AO25+AQ25+AS25</f>
-        <v>0.24610705302268018</v>
+        <v>0.17558306834857329</v>
       </c>
       <c r="K25" s="97">
         <v>0</v>
       </c>
       <c r="L25" s="98">
         <f>S20</f>
-        <v>0.84060553718456177</v>
+        <v>0.7216958962855714</v>
       </c>
       <c r="M25" s="84">
         <v>0</v>
@@ -11796,7 +11796,7 @@
       </c>
       <c r="W25" s="136">
         <f>B31</f>
-        <v>0.22628243682933377</v>
+        <v>0.27621523567293232</v>
       </c>
       <c r="X25" s="12">
         <v>0</v>
@@ -11810,70 +11810,70 @@
       </c>
       <c r="AA25" s="78">
         <f>((1-W25)^Z26)*V26</f>
-        <v>1.9089501137119866E-3</v>
+        <v>1.7857537090189995E-3</v>
       </c>
       <c r="AB25" s="12">
         <v>0</v>
       </c>
       <c r="AC25" s="79">
         <f>(((1-$W$25)^AB27))*V27</f>
-        <v>9.083077761199071E-3</v>
+        <v>7.9485332540066012E-3</v>
       </c>
       <c r="AD25" s="12">
         <v>0</v>
       </c>
       <c r="AE25" s="79">
         <f>(((1-$W$25)^AB28))*V28</f>
-        <v>2.561680731943982E-2</v>
+        <v>2.0970362920582603E-2</v>
       </c>
       <c r="AF25" s="12">
         <v>0</v>
       </c>
       <c r="AG25" s="79">
         <f>(((1-$W$25)^AB29))*V29</f>
-        <v>4.7426942499313257E-2</v>
+        <v>3.6318930751446404E-2</v>
       </c>
       <c r="AH25" s="12">
         <v>0</v>
       </c>
       <c r="AI25" s="79">
         <f>(((1-$W$25)^AB30))*V30</f>
-        <v>6.0238811900213109E-2</v>
+        <v>4.3153031051777355E-2</v>
       </c>
       <c r="AJ25" s="12">
         <v>0</v>
       </c>
       <c r="AK25" s="79">
         <f>(((1-$W$25)^AB31))*V31</f>
-        <v>5.317373795744107E-2</v>
+        <v>3.5633549149889185E-2</v>
       </c>
       <c r="AL25" s="12">
         <v>0</v>
       </c>
       <c r="AM25" s="79">
         <f>(((1-$W$25)^AB32))*V32</f>
-        <v>3.2228522363472512E-2</v>
+        <v>2.0203623446525969E-2</v>
       </c>
       <c r="AN25" s="12">
         <v>0</v>
       </c>
       <c r="AO25" s="79">
         <f>(((1-$W$25)^AB33))*V33</f>
-        <v>1.2853027497910056E-2</v>
+        <v>7.5373952521445124E-3</v>
       </c>
       <c r="AP25" s="12">
         <v>0</v>
       </c>
       <c r="AQ25" s="79">
         <f>(((1-$W$25)^AB34))*V34</f>
-        <v>3.0575956664149204E-3</v>
+        <v>1.6773468942774333E-3</v>
       </c>
       <c r="AR25" s="12">
         <v>0</v>
       </c>
       <c r="AS25" s="79">
         <f>(((1-$W$25)^AB35))*V35</f>
-        <v>3.390124939249885E-4</v>
+        <v>1.7397446926488089E-4</v>
       </c>
       <c r="AV25" s="14">
         <v>1</v>
@@ -11918,7 +11918,7 @@
       </c>
       <c r="BJ25" s="107">
         <f t="shared" si="13"/>
-        <v>7.1257168631195748E-3</v>
+        <v>1.2717383347781002E-2</v>
       </c>
       <c r="BP25">
         <f>BP19+1</f>
@@ -11929,7 +11929,7 @@
       </c>
       <c r="BR25" s="107">
         <f t="shared" si="14"/>
-        <v>5.502983687860229E-5</v>
+        <v>2.4498812039552143E-4</v>
       </c>
     </row>
     <row r="26" spans="1:70" x14ac:dyDescent="0.25">
@@ -11938,11 +11938,11 @@
       </c>
       <c r="B26" s="119">
         <f>1/(1+EXP(-3.1416*4*((B10/(B10+C9))-(3.1416/6))))</f>
-        <v>0.1038669345924982</v>
+        <v>0.14848460831191063</v>
       </c>
       <c r="C26" s="120">
         <f>1/(1+EXP(-3.1416*4*((C10/(C10+B9))-(3.1416/6))))</f>
-        <v>0.42639691249266598</v>
+        <v>0.39657249676084283</v>
       </c>
       <c r="D26" s="153">
         <f>IF(B17="AOW", 0.257+0.04, IF(B17="AIM", 0.257-0.04, IF(B17="TL",(0.257)-(0.257*B32),0.257)))</f>
@@ -11957,21 +11957,21 @@
       </c>
       <c r="H26" s="128">
         <f>L25*J26+L26*J25</f>
-        <v>0.34780066463728926</v>
+        <v>0.28334287692870247</v>
       </c>
       <c r="I26" s="93">
         <v>1</v>
       </c>
       <c r="J26" s="86">
         <f t="shared" si="15"/>
-        <v>0.37031511374238224</v>
+        <v>0.33353996136031061</v>
       </c>
       <c r="K26" s="93">
         <v>1</v>
       </c>
       <c r="L26" s="86">
         <f>T20</f>
-        <v>0.14835710343883235</v>
+        <v>0.24278226806636516</v>
       </c>
       <c r="M26" s="85">
         <v>1</v>
@@ -12018,70 +12018,70 @@
       </c>
       <c r="AA26" s="79">
         <f>(1-((1-W25)^Z26))*V26</f>
-        <v>5.5829401331697608E-4</v>
+        <v>6.8149041800996332E-4</v>
       </c>
       <c r="AB26" s="28">
         <v>1</v>
       </c>
       <c r="AC26" s="79">
         <f>((($W$25)^M26)*((1-($W$25))^($U$27-M26))*HLOOKUP($U$27,$AV$24:$BF$34,M26+1))*V27</f>
-        <v>5.3128972833232403E-3</v>
+        <v>6.0667372241548214E-3</v>
       </c>
       <c r="AD26" s="28">
         <v>1</v>
       </c>
       <c r="AE26" s="79">
         <f>((($W$25)^M26)*((1-($W$25))^($U$28-M26))*HLOOKUP($U$28,$AV$24:$BF$34,M26+1))*V28</f>
-        <v>2.2475773563712179E-2</v>
+        <v>2.4008520302196534E-2</v>
       </c>
       <c r="AF26" s="28">
         <v>1</v>
       </c>
       <c r="AG26" s="79">
         <f>((($W$25)^M26)*((1-($W$25))^($U$29-M26))*HLOOKUP($U$29,$AV$24:$BF$34,M26+1))*V29</f>
-        <v>5.548217918761171E-2</v>
+        <v>5.5441023416549488E-2</v>
       </c>
       <c r="AH26" s="28">
         <v>1</v>
       </c>
       <c r="AI26" s="79">
         <f>((($W$25)^M26)*((1-($W$25))^($U$30-M26))*HLOOKUP($U$30,$AV$24:$BF$34,M26+1))*V30</f>
-        <v>8.8087603263294262E-2</v>
+        <v>8.2341638215126842E-2</v>
       </c>
       <c r="AJ26" s="28">
         <v>1</v>
       </c>
       <c r="AK26" s="79">
         <f>((($W$25)^M26)*((1-($W$25))^($U$31-M26))*HLOOKUP($U$31,$AV$24:$BF$34,M26+1))*V31</f>
-        <v>9.3307560069023257E-2</v>
+        <v>8.1592177631293436E-2</v>
       </c>
       <c r="AL26" s="28">
         <v>1</v>
       </c>
       <c r="AM26" s="79">
         <f>((($W$25)^Q26)*((1-($W$25))^($U$32-Q26))*HLOOKUP($U$32,$AV$24:$BF$34,Q26+1))*V32</f>
-        <v>6.5979166637382194E-2</v>
+        <v>5.3971625554213913E-2</v>
       </c>
       <c r="AN26" s="28">
         <v>1</v>
       </c>
       <c r="AO26" s="79">
         <f>((($W$25)^Q26)*((1-($W$25))^($U$33-Q26))*HLOOKUP($U$33,$AV$24:$BF$34,Q26+1))*V33</f>
-        <v>3.0072104047300645E-2</v>
+        <v>2.3011740600721881E-2</v>
       </c>
       <c r="AP26" s="28">
         <v>1</v>
       </c>
       <c r="AQ26" s="79">
         <f>((($W$25)^Q26)*((1-($W$25))^($U$34-Q26))*HLOOKUP($U$34,$AV$24:$BF$34,Q26+1))*V34</f>
-        <v>8.0480553635087632E-3</v>
+        <v>5.7610758265265989E-3</v>
       </c>
       <c r="AR26" s="28">
         <v>1</v>
       </c>
       <c r="AS26" s="79">
         <f>((($W$25)^Q26)*((1-($W$25))^($U$35-Q26))*HLOOKUP($U$35,$AV$24:$BF$34,Q26+1))*V35</f>
-        <v>9.9148031390900327E-4</v>
+        <v>6.63932171517185E-4</v>
       </c>
       <c r="AV26" s="14">
         <v>2</v>
@@ -12126,7 +12126,7 @@
       </c>
       <c r="BJ26" s="107">
         <f t="shared" si="13"/>
-        <v>1.7407387528343161E-3</v>
+        <v>3.5714472121471425E-3</v>
       </c>
       <c r="BP26">
         <f>BP20+1</f>
@@ -12137,7 +12137,7 @@
       </c>
       <c r="BR26" s="107">
         <f t="shared" si="14"/>
-        <v>5.6771340457735039E-5</v>
+        <v>2.9830412786779556E-4</v>
       </c>
     </row>
     <row r="27" spans="1:70" x14ac:dyDescent="0.25">
@@ -12146,11 +12146,11 @@
       </c>
       <c r="B27" s="119">
         <f>1/(1+EXP(-3.1416*4*((B12/(B12+C7))-(3.1416/6))))</f>
-        <v>0.10870255259833697</v>
+        <v>0.16391708884845604</v>
       </c>
       <c r="C27" s="120">
         <f>1/(1+EXP(-3.1416*4*((C12/(C12+B7))-(3.1416/6))))</f>
-        <v>0.42639691249266598</v>
+        <v>0.39406612294784804</v>
       </c>
       <c r="D27" s="153">
         <f>D26</f>
@@ -12165,21 +12165,21 @@
       </c>
       <c r="H27" s="128">
         <f>L25*J27+J26*L26+J25*L27</f>
-        <v>0.26840137644494466</v>
+        <v>0.29261737984140052</v>
       </c>
       <c r="I27" s="93">
         <v>2</v>
       </c>
       <c r="J27" s="86">
         <f t="shared" si="15"/>
-        <v>0.25082747916191239</v>
+        <v>0.28521029786538349</v>
       </c>
       <c r="K27" s="93">
         <v>2</v>
       </c>
       <c r="L27" s="86">
         <f>U20</f>
-        <v>1.0627614758823102E-2</v>
+        <v>3.3059508746140179E-2</v>
       </c>
       <c r="M27" s="85">
         <v>2</v>
@@ -12230,63 +12230,63 @@
       </c>
       <c r="AC27" s="79">
         <f>((($W$25)^M27)*((1-($W$25))^($U$27-M27))*HLOOKUP($U$27,$AV$24:$BF$34,M27+1))*V27</f>
-        <v>7.769083972759362E-4</v>
+        <v>1.157612963636825E-3</v>
       </c>
       <c r="AD27" s="28">
         <v>2</v>
       </c>
       <c r="AE27" s="79">
         <f>((($W$25)^M27)*((1-($W$25))^($U$28-M27))*HLOOKUP($U$28,$AV$24:$BF$34,M27+1))*V28</f>
-        <v>6.5732937362561498E-3</v>
+        <v>9.1622805843325425E-3</v>
       </c>
       <c r="AF27" s="28">
         <v>2</v>
       </c>
       <c r="AG27" s="79">
         <f>((($W$25)^M27)*((1-($W$25))^($U$29-M27))*HLOOKUP($U$29,$AV$24:$BF$34,M27+1))*V29</f>
-        <v>2.4339584568287539E-2</v>
+        <v>3.1736621376360095E-2</v>
       </c>
       <c r="AH27" s="28">
         <v>2</v>
       </c>
       <c r="AI27" s="79">
         <f>((($W$25)^M27)*((1-($W$25))^($U$30-M27))*HLOOKUP($U$30,$AV$24:$BF$34,M27+1))*V30</f>
-        <v>5.1524428214322592E-2</v>
+        <v>6.2847454454039609E-2</v>
       </c>
       <c r="AJ27" s="28">
         <v>2</v>
       </c>
       <c r="AK27" s="79">
         <f>((($W$25)^M27)*((1-($W$25))^($U$31-M27))*HLOOKUP($U$31,$AV$24:$BF$34,M27+1))*V31</f>
-        <v>6.8222123524294173E-2</v>
+        <v>7.7844283564220407E-2</v>
       </c>
       <c r="AL27" s="28">
         <v>2</v>
       </c>
       <c r="AM27" s="79">
         <f>((($W$25)^Q27)*((1-($W$25))^($U$32-Q27))*HLOOKUP($U$32,$AV$24:$BF$34,Q27+1))*V32</f>
-        <v>5.7889056617093829E-2</v>
+        <v>6.1790960545993943E-2</v>
       </c>
       <c r="AN27" s="28">
         <v>2</v>
       </c>
       <c r="AO27" s="79">
         <f>((($W$25)^Q27)*((1-($W$25))^($U$33-Q27))*HLOOKUP($U$33,$AV$24:$BF$34,Q27+1))*V33</f>
-        <v>3.0782242227809065E-2</v>
+        <v>3.0736591640110545E-2</v>
       </c>
       <c r="AP27" s="28">
         <v>2</v>
       </c>
       <c r="AQ27" s="79">
         <f>((($W$25)^Q27)*((1-($W$25))^($U$34-Q27))*HLOOKUP($U$34,$AV$24:$BF$34,Q27+1))*V34</f>
-        <v>9.414978623099696E-3</v>
+        <v>8.7943101075534345E-3</v>
       </c>
       <c r="AR27" s="28">
         <v>2</v>
       </c>
       <c r="AS27" s="79">
         <f>((($W$25)^Q27)*((1-($W$25))^($U$35-Q27))*HLOOKUP($U$35,$AV$24:$BF$34,Q27+1))*V35</f>
-        <v>1.3048632534734036E-3</v>
+        <v>1.1401826291360807E-3</v>
       </c>
       <c r="AV27" s="14">
         <v>3</v>
@@ -12328,7 +12328,7 @@
       </c>
       <c r="BJ27" s="107">
         <f t="shared" si="13"/>
-        <v>3.2447952518282688E-4</v>
+        <v>7.4514023594233916E-4</v>
       </c>
       <c r="BP27">
         <f>BP21+1</f>
@@ -12339,7 +12339,7 @@
       </c>
       <c r="BR27" s="107">
         <f t="shared" si="14"/>
-        <v>3.6255524238214482E-5</v>
+        <v>2.2658869542286088E-4</v>
       </c>
     </row>
     <row r="28" spans="1:70" x14ac:dyDescent="0.25">
@@ -12363,21 +12363,21 @@
       </c>
       <c r="H28" s="128">
         <f>J28*L25+J27*L26+L28*J25+L27*J26</f>
-        <v>0.12591705143086104</v>
+        <v>0.18505074922497164</v>
       </c>
       <c r="I28" s="93">
         <v>3</v>
       </c>
       <c r="J28" s="86">
         <f t="shared" si="15"/>
-        <v>0.10072335002041241</v>
+        <v>0.1445868496521768</v>
       </c>
       <c r="K28" s="93">
         <v>3</v>
       </c>
       <c r="L28" s="86">
         <f>V20</f>
-        <v>4.0974461778277987E-4</v>
+        <v>2.4623269019232591E-3</v>
       </c>
       <c r="M28" s="85">
         <v>3</v>
@@ -12432,56 +12432,56 @@
       </c>
       <c r="AE28" s="79">
         <f>((($W$25)^M28)*((1-($W$25))^($U$28-M28))*HLOOKUP($U$28,$AV$24:$BF$34,M28+1))*V28</f>
-        <v>6.4081132247605587E-4</v>
+        <v>1.1655221347725282E-3</v>
       </c>
       <c r="AF28" s="28">
         <v>3</v>
       </c>
       <c r="AG28" s="79">
         <f>((($W$25)^M28)*((1-($W$25))^($U$29-M28))*HLOOKUP($U$29,$AV$24:$BF$34,M28+1))*V29</f>
-        <v>4.745590871648931E-3</v>
+        <v>8.0743509995306068E-3</v>
       </c>
       <c r="AH28" s="28">
         <v>3</v>
       </c>
       <c r="AI28" s="79">
         <f>((($W$25)^M28)*((1-($W$25))^($U$30-M28))*HLOOKUP($U$30,$AV$24:$BF$34,M28+1))*V30</f>
-        <v>1.5068900755976822E-2</v>
+        <v>2.3984235782589593E-2</v>
       </c>
       <c r="AJ28" s="28">
         <v>3</v>
       </c>
       <c r="AK28" s="79">
         <f>((($W$25)^M28)*((1-($W$25))^($U$31-M28))*HLOOKUP($U$31,$AV$24:$BF$34,M28+1))*V31</f>
-        <v>2.6603107027818474E-2</v>
+        <v>3.9609891761994177E-2</v>
       </c>
       <c r="AL28" s="28">
         <v>3</v>
       </c>
       <c r="AM28" s="79">
         <f>((($W$25)^Q28)*((1-($W$25))^($U$32-Q28))*HLOOKUP($U$32,$AV$24:$BF$34,Q28+1))*V32</f>
-        <v>2.8217180317899011E-2</v>
+        <v>3.9301750029552489E-2</v>
       </c>
       <c r="AN28" s="28">
         <v>3</v>
       </c>
       <c r="AO28" s="79">
         <f>((($W$25)^Q28)*((1-($W$25))^($U$33-Q28))*HLOOKUP($U$33,$AV$24:$BF$34,Q28+1))*V33</f>
-        <v>1.8005228558687931E-2</v>
+        <v>2.3459777884518581E-2</v>
       </c>
       <c r="AP28" s="28">
         <v>3</v>
       </c>
       <c r="AQ28" s="79">
         <f>((($W$25)^Q28)*((1-($W$25))^($U$34-Q28))*HLOOKUP($U$34,$AV$24:$BF$34,Q28+1))*V34</f>
-        <v>6.4248725239410866E-3</v>
+        <v>7.8309915279764341E-3</v>
       </c>
       <c r="AR28" s="28">
         <v>3</v>
       </c>
       <c r="AS28" s="79">
         <f>((($W$25)^Q28)*((1-($W$25))^($U$35-Q28))*HLOOKUP($U$35,$AV$24:$BF$34,Q28+1))*V35</f>
-        <v>1.0176586419641074E-3</v>
+        <v>1.1603295312423985E-3</v>
       </c>
       <c r="AV28" s="14">
         <v>4</v>
@@ -12520,7 +12520,7 @@
       </c>
       <c r="BJ28" s="107">
         <f t="shared" si="13"/>
-        <v>4.6099517379280613E-5</v>
+        <v>1.1524126616491025E-4</v>
       </c>
       <c r="BP28">
         <f>BP22+1</f>
@@ -12531,7 +12531,7 @@
       </c>
       <c r="BR28" s="107">
         <f t="shared" si="14"/>
-        <v>1.6034911578758319E-5</v>
+        <v>1.1918465275745017E-4</v>
       </c>
     </row>
     <row r="29" spans="1:70" x14ac:dyDescent="0.25">
@@ -12540,11 +12540,11 @@
       </c>
       <c r="B29" s="123">
         <f>1/(1+EXP(-3.1416*4*((B14/(B14+C13))-(3.1416/6))))</f>
-        <v>6.7831283489497657E-2</v>
+        <v>0.15696297364276415</v>
       </c>
       <c r="C29" s="118">
         <f>1/(1+EXP(-3.1416*4*((C14/(C14+B13))-(3.1416/6))))</f>
-        <v>0.83305468158299556</v>
+        <v>0.65345871698091662</v>
       </c>
       <c r="D29" s="153">
         <v>0.04</v>
@@ -12557,14 +12557,14 @@
       </c>
       <c r="H29" s="128">
         <f>J29*L25+J28*L26+J27*L27+J26*L28</f>
-        <v>4.0086858444242653E-2</v>
+        <v>8.0089504314639209E-2</v>
       </c>
       <c r="I29" s="93">
         <v>4</v>
       </c>
       <c r="J29" s="86">
         <f t="shared" si="15"/>
-        <v>2.6559903016029712E-2</v>
+        <v>4.813133127928225E-2</v>
       </c>
       <c r="K29" s="93">
         <v>4</v>
@@ -12627,49 +12627,49 @@
       </c>
       <c r="AG29" s="79">
         <f>((($W$25)^M29)*((1-($W$25))^($U$29-M29))*HLOOKUP($U$29,$AV$24:$BF$34,M29+1))*V29</f>
-        <v>3.4697540735381189E-4</v>
+        <v>7.7034599032866019E-4</v>
       </c>
       <c r="AH29" s="28">
         <v>4</v>
       </c>
       <c r="AI29" s="79">
         <f>((($W$25)^M29)*((1-($W$25))^($U$30-M29))*HLOOKUP($U$30,$AV$24:$BF$34,M29+1))*V30</f>
-        <v>2.2035350790206164E-3</v>
+        <v>4.5765064875899408E-3</v>
       </c>
       <c r="AJ29" s="28">
         <v>4</v>
       </c>
       <c r="AK29" s="79">
         <f>((($W$25)^M29)*((1-($W$25))^($U$31-M29))*HLOOKUP($U$31,$AV$24:$BF$34,M29+1))*V31</f>
-        <v>5.8352842549069415E-3</v>
+        <v>1.1337129621183785E-2</v>
       </c>
       <c r="AL29" s="28">
         <v>4</v>
       </c>
       <c r="AM29" s="79">
         <f>((($W$25)^Q29)*((1-($W$25))^($U$32-Q29))*HLOOKUP($U$32,$AV$24:$BF$34,Q29+1))*V32</f>
-        <v>8.2524329635496347E-3</v>
+        <v>1.4998577867088076E-2</v>
       </c>
       <c r="AN29" s="28">
         <v>4</v>
       </c>
       <c r="AO29" s="79">
         <f>((($W$25)^Q29)*((1-($W$25))^($U$33-Q29))*HLOOKUP($U$33,$AV$24:$BF$34,Q29+1))*V33</f>
-        <v>6.58229046984668E-3</v>
+        <v>1.119108261976131E-2</v>
       </c>
       <c r="AP29" s="28">
         <v>4</v>
       </c>
       <c r="AQ29" s="79">
         <f>((($W$25)^Q29)*((1-($W$25))^($U$34-Q29))*HLOOKUP($U$34,$AV$24:$BF$34,Q29+1))*V34</f>
-        <v>2.8185397622566338E-3</v>
+        <v>4.4827674131766521E-3</v>
       </c>
       <c r="AR29" s="28">
         <v>4</v>
       </c>
       <c r="AS29" s="79">
         <f>((($W$25)^Q29)*((1-($W$25))^($U$35-Q29))*HLOOKUP($U$35,$AV$24:$BF$34,Q29+1))*V35</f>
-        <v>5.2084507909539281E-4</v>
+        <v>7.749212801538292E-4</v>
       </c>
       <c r="AV29" s="14">
         <v>5</v>
@@ -12705,7 +12705,7 @@
       </c>
       <c r="BJ29" s="107">
         <f t="shared" si="13"/>
-        <v>4.9246566616231857E-6</v>
+        <v>1.3053116151594302E-5</v>
       </c>
       <c r="BP29">
         <f>BP23+1</f>
@@ -12716,7 +12716,7 @@
       </c>
       <c r="BR29" s="107">
         <f t="shared" si="14"/>
-        <v>5.1950664061566917E-6</v>
+        <v>4.5365224795339099E-5</v>
       </c>
     </row>
     <row r="30" spans="1:70" x14ac:dyDescent="0.25">
@@ -12742,14 +12742,14 @@
       </c>
       <c r="H30" s="128">
         <f>J30*L25+J29*L26+J28*L27+J27*L28</f>
-        <v>9.1541940340988514E-3</v>
+        <v>2.5103812270939333E-2</v>
       </c>
       <c r="I30" s="93">
         <v>5</v>
       </c>
       <c r="J30" s="86">
         <f t="shared" si="15"/>
-        <v>4.8067962979924644E-3</v>
+        <v>1.0996497733955307E-2</v>
       </c>
       <c r="K30" s="93">
         <v>5</v>
@@ -12816,42 +12816,42 @@
       </c>
       <c r="AI30" s="79">
         <f>((($W$25)^M30)*((1-($W$25))^($U$30-M30))*HLOOKUP($U$30,$AV$24:$BF$34,M30+1))*V30</f>
-        <v>1.2888974247304711E-4</v>
+        <v>3.4930296417710465E-4</v>
       </c>
       <c r="AJ30" s="28">
         <v>5</v>
       </c>
       <c r="AK30" s="79">
         <f>((($W$25)^M30)*((1-($W$25))^($U$31-M30))*HLOOKUP($U$31,$AV$24:$BF$34,M30+1))*V31</f>
-        <v>6.8263790491255932E-4</v>
+        <v>1.7306183188762385E-3</v>
       </c>
       <c r="AL30" s="28">
         <v>5</v>
       </c>
       <c r="AM30" s="79">
         <f>((($W$25)^Q30)*((1-($W$25))^($U$32-Q30))*HLOOKUP($U$32,$AV$24:$BF$34,Q30+1))*V32</f>
-        <v>1.4481103154310789E-3</v>
+        <v>3.4343102462249175E-3</v>
       </c>
       <c r="AN30" s="28">
         <v>5</v>
       </c>
       <c r="AO30" s="79">
         <f>((($W$25)^Q30)*((1-($W$25))^($U$33-Q30))*HLOOKUP($U$33,$AV$24:$BF$34,Q30+1))*V33</f>
-        <v>1.5400521309938142E-3</v>
+        <v>3.4166483469727006E-3</v>
       </c>
       <c r="AP30" s="28">
         <v>5</v>
       </c>
       <c r="AQ30" s="79">
         <f>((($W$25)^Q30)*((1-($W$25))^($U$34-Q30))*HLOOKUP($U$34,$AV$24:$BF$34,Q30+1))*V34</f>
-        <v>8.2431377554643894E-4</v>
+        <v>1.7107415332909685E-3</v>
       </c>
       <c r="AR30" s="28">
         <v>5</v>
       </c>
       <c r="AS30" s="79">
         <f>((($W$25)^Q30)*((1-($W$25))^($U$35-Q30))*HLOOKUP($U$35,$AV$24:$BF$34,Q30+1))*V35</f>
-        <v>1.8279242863552603E-4</v>
+        <v>3.5487632441337752E-4</v>
       </c>
       <c r="AV30" s="29">
         <v>6</v>
@@ -12883,7 +12883,7 @@
       </c>
       <c r="BJ30" s="107">
         <f t="shared" si="13"/>
-        <v>3.8439070463993189E-7</v>
+        <v>1.0553060813503214E-6</v>
       </c>
       <c r="BP30">
         <f>BL10+1</f>
@@ -12894,7 +12894,7 @@
       </c>
       <c r="BR30" s="107">
         <f t="shared" si="14"/>
-        <v>1.2691008624759749E-6</v>
+        <v>1.274000328471755E-5</v>
       </c>
     </row>
     <row r="31" spans="1:70" x14ac:dyDescent="0.25">
@@ -12903,25 +12903,25 @@
       </c>
       <c r="B31" s="60">
         <f>(B25*D25)+(B26*D26)+(B27*D27)+(B28*D28)+(B29*D29)+(B30*D30)/(B25+B26+B27+B28+B29+B30)</f>
-        <v>0.22628243682933377</v>
+        <v>0.27621523567293232</v>
       </c>
       <c r="C31" s="61">
         <f>(C25*E25)+(C26*E26)+(C27*E27)+(C28*E28)+(C29*E29)+(C30*E30)/(C25+C26+C27+C28+C29+C30)</f>
-        <v>0.33966586852958641</v>
+        <v>0.31651333842230306</v>
       </c>
       <c r="G31" s="87">
         <v>6</v>
       </c>
       <c r="H31" s="128">
         <f>J31*L25+J30*L26+J29*L27+J28*L28</f>
-        <v>1.5451596962176325E-3</v>
+        <v>5.8777694332899106E-3</v>
       </c>
       <c r="I31" s="93">
         <v>6</v>
       </c>
       <c r="J31" s="86">
         <f t="shared" si="15"/>
-        <v>6.0491875236522565E-4</v>
+        <v>1.7469913881857724E-3</v>
       </c>
       <c r="K31" s="93">
         <v>6</v>
@@ -12982,35 +12982,35 @@
       </c>
       <c r="AK31" s="79">
         <f>((($W$25)^Q31)*((1-($W$25))^($U$31-Q31))*HLOOKUP($U$31,$AV$24:$BF$34,Q31+1))*V31</f>
-        <v>3.3274193742971875E-5</v>
+        <v>1.1007488468221902E-4</v>
       </c>
       <c r="AL31" s="28">
         <v>6</v>
       </c>
       <c r="AM31" s="79">
         <f>((($W$25)^Q31)*((1-($W$25))^($U$32-Q31))*HLOOKUP($U$32,$AV$24:$BF$34,Q31+1))*V32</f>
-        <v>1.4117207043468213E-4</v>
+        <v>4.3687426648949634E-4</v>
       </c>
       <c r="AN31" s="28">
         <v>6</v>
       </c>
       <c r="AO31" s="79">
         <f>((($W$25)^Q31)*((1-($W$25))^($U$33-Q31))*HLOOKUP($U$33,$AV$24:$BF$34,Q31+1))*V33</f>
-        <v>2.252028166566381E-4</v>
+        <v>6.5194127790740679E-4</v>
       </c>
       <c r="AP31" s="28">
         <v>6</v>
       </c>
       <c r="AQ31" s="79">
         <f>((($W$25)^Q31)*((1-($W$25))^($U$34-Q31))*HLOOKUP($U$34,$AV$24:$BF$34,Q31+1))*V34</f>
-        <v>1.6071991358901293E-4</v>
+        <v>4.3524253717680073E-4</v>
       </c>
       <c r="AR31" s="28">
         <v>6</v>
       </c>
       <c r="AS31" s="79">
         <f>((($W$25)^Q31)*((1-($W$25))^($U$35-Q31))*HLOOKUP($U$35,$AV$24:$BF$34,Q31+1))*V35</f>
-        <v>4.4549757941920506E-5</v>
+        <v>1.1285842192984952E-4</v>
       </c>
       <c r="AV31" s="14">
         <v>7</v>
@@ -13038,7 +13038,7 @@
       </c>
       <c r="BJ31" s="107">
         <f t="shared" ref="BJ31:BJ37" si="20">$H$28*H43</f>
-        <v>1.031819745843216E-2</v>
+        <v>2.1129331726284156E-2</v>
       </c>
       <c r="BP31">
         <f t="shared" ref="BP31:BP37" si="21">BP24+1</f>
@@ -13049,7 +13049,7 @@
       </c>
       <c r="BR31" s="107">
         <f t="shared" ref="BR31:BR38" si="22">$H$33*H39</f>
-        <v>2.3698869647437344E-6</v>
+        <v>1.2635838078384245E-5</v>
       </c>
     </row>
     <row r="32" spans="1:70" x14ac:dyDescent="0.25">
@@ -13069,14 +13069,14 @@
       </c>
       <c r="H32" s="128">
         <f>J32*L25+J31*L26+J30*L27+J29*L28</f>
-        <v>1.9568037867910855E-4</v>
+        <v>1.0438195383836169E-3</v>
       </c>
       <c r="I32" s="93">
         <v>7</v>
       </c>
       <c r="J32" s="86">
         <f t="shared" si="15"/>
-        <v>5.2306136741359457E-5</v>
+        <v>1.9069960454097645E-4</v>
       </c>
       <c r="K32" s="93">
         <v>7</v>
@@ -13141,28 +13141,28 @@
       </c>
       <c r="AM32" s="79">
         <f>((($W$25)^Q32)*((1-($W$25))^($U$32-Q32))*HLOOKUP($U$32,$AV$24:$BF$34,Q32+1))*V32</f>
-        <v>5.8981951241989505E-6</v>
+        <v>2.3817524298327788E-5</v>
       </c>
       <c r="AN32" s="28">
         <v>7</v>
       </c>
       <c r="AO32" s="79">
         <f>((($W$25)^Q32)*((1-($W$25))^($U$33-Q32))*HLOOKUP($U$33,$AV$24:$BF$34,Q32+1))*V33</f>
-        <v>1.8818030380515383E-5</v>
+        <v>7.1085108090319872E-5</v>
       </c>
       <c r="AP32" s="28">
         <v>7</v>
       </c>
       <c r="AQ32" s="79">
         <f>((($W$25)^Q32)*((1-($W$25))^($U$34-Q32))*HLOOKUP($U$34,$AV$24:$BF$34,Q32+1))*V34</f>
-        <v>2.0144722842986058E-5</v>
+        <v>7.118569689288524E-5</v>
       </c>
       <c r="AR32" s="28">
         <v>7</v>
       </c>
       <c r="AS32" s="79">
         <f>((($W$25)^Q32)*((1-($W$25))^($U$35-Q32))*HLOOKUP($U$35,$AV$24:$BF$34,Q32+1))*V35</f>
-        <v>7.4451883936590687E-6</v>
+        <v>2.461127525944353E-5</v>
       </c>
       <c r="AV32" s="14">
         <v>8</v>
@@ -13186,7 +13186,7 @@
       </c>
       <c r="BJ32" s="107">
         <f t="shared" si="20"/>
-        <v>3.3429383582882929E-3</v>
+        <v>8.0424522903034031E-3</v>
       </c>
       <c r="BP32">
         <f t="shared" si="21"/>
@@ -13197,7 +13197,7 @@
       </c>
       <c r="BR32" s="107">
         <f t="shared" si="22"/>
-        <v>5.2479545013661347E-6</v>
+        <v>3.309806652925712E-5</v>
       </c>
     </row>
     <row r="33" spans="1:70" x14ac:dyDescent="0.25">
@@ -13217,14 +13217,14 @@
       </c>
       <c r="H33" s="128">
         <f>J33*L25+J32*L26+J31*L27+J30*L28</f>
-        <v>1.8661180595237491E-5</v>
+        <v>1.4102075019059162E-4</v>
       </c>
       <c r="I33" s="93">
         <v>8</v>
       </c>
       <c r="J33" s="86">
         <f t="shared" si="15"/>
-        <v>2.9773671158417228E-6</v>
+        <v>1.370468982470888E-5</v>
       </c>
       <c r="K33" s="93">
         <v>8</v>
@@ -13293,21 +13293,21 @@
       </c>
       <c r="AO33" s="79">
         <f>((($W$25)^Q33)*((1-($W$25))^($U$33-Q33))*HLOOKUP($U$33,$AV$24:$BF$34,Q33+1))*V33</f>
-        <v>6.8794318067783531E-7</v>
+        <v>3.3909925387588878E-6</v>
       </c>
       <c r="AP33" s="28">
         <v>8</v>
       </c>
       <c r="AQ33" s="79">
         <f>((($W$25)^Q33)*((1-($W$25))^($U$34-Q33))*HLOOKUP($U$34,$AV$24:$BF$34,Q33+1))*V34</f>
-        <v>1.4728879086970337E-6</v>
+        <v>6.7915819083630895E-6</v>
       </c>
       <c r="AR33" s="28">
         <v>8</v>
       </c>
       <c r="AS33" s="79">
         <f>((($W$25)^Q33)*((1-($W$25))^($U$35-Q33))*HLOOKUP($U$35,$AV$24:$BF$34,Q33+1))*V35</f>
-        <v>8.1653602646685392E-7</v>
+        <v>3.5221153775869018E-6</v>
       </c>
       <c r="AV33" s="29">
         <v>9</v>
@@ -13328,7 +13328,7 @@
       </c>
       <c r="BJ33" s="107">
         <f t="shared" si="20"/>
-        <v>8.1664518256780317E-4</v>
+        <v>2.2585773366690458E-3</v>
       </c>
       <c r="BP33">
         <f t="shared" si="21"/>
@@ -13339,7 +13339,7 @@
       </c>
       <c r="BR33" s="107">
         <f t="shared" si="22"/>
-        <v>5.4140340695723181E-6</v>
+        <v>4.0301096453903044E-5</v>
       </c>
     </row>
     <row r="34" spans="1:70" x14ac:dyDescent="0.25">
@@ -13359,14 +13359,14 @@
       </c>
       <c r="H34" s="128">
         <f>J34*L25+J33*L26+J32*L27+J31*L28</f>
-        <v>1.3303078374455717E-6</v>
+        <v>1.4356758460576553E-5</v>
       </c>
       <c r="I34" s="93">
         <v>9</v>
       </c>
       <c r="J34" s="86">
         <f t="shared" si="15"/>
-        <v>1.0093033976722297E-7</v>
+        <v>5.8667874821084727E-7</v>
       </c>
       <c r="K34" s="93">
         <v>9</v>
@@ -13439,14 +13439,14 @@
       </c>
       <c r="AQ34" s="79">
         <f>((($W$25)^Q34)*((1-($W$25))^($U$34-Q34))*HLOOKUP($U$34,$AV$24:$BF$34,Q34+1))*V34</f>
-        <v>4.7862522022265442E-8</v>
+        <v>2.8798285068362079E-7</v>
       </c>
       <c r="AR34" s="28">
         <v>9</v>
       </c>
       <c r="AS34" s="79">
         <f>((($W$25)^Q34)*((1-($W$25))^($U$35-Q34))*HLOOKUP($U$35,$AV$24:$BF$34,Q34+1))*V35</f>
-        <v>5.3067817744957523E-8</v>
+        <v>2.9869589752722643E-7</v>
       </c>
       <c r="AV34" s="14">
         <v>10</v>
@@ -13464,7 +13464,7 @@
       </c>
       <c r="BJ34" s="107">
         <f t="shared" si="20"/>
-        <v>1.522253931849273E-4</v>
+        <v>4.712254583563632E-4</v>
       </c>
       <c r="BP34">
         <f t="shared" si="21"/>
@@ -13475,7 +13475,7 @@
       </c>
       <c r="BR34" s="107">
         <f t="shared" si="22"/>
-        <v>3.4575305401152288E-6</v>
+        <v>3.0612291337945736E-5</v>
       </c>
     </row>
     <row r="35" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13484,14 +13484,14 @@
       </c>
       <c r="H35" s="129">
         <f>J35*L25+J34*L26+J33*L27+J32*L28</f>
-        <v>6.9352845103070019E-8</v>
+        <v>1.0732969014154134E-6</v>
       </c>
       <c r="I35" s="94">
         <v>10</v>
       </c>
       <c r="J35" s="89">
         <f t="shared" si="15"/>
-        <v>1.5520282449495283E-9</v>
+        <v>1.1399018298862451E-8</v>
       </c>
       <c r="K35" s="94">
         <v>10</v>
@@ -13568,7 +13568,7 @@
       </c>
       <c r="AS35" s="79">
         <f>((($W$25)^Q35)*((1-($W$25))^($U$35-Q35))*HLOOKUP($U$35,$AV$24:$BF$34,Q35+1))*V35</f>
-        <v>1.5520282449495283E-9</v>
+        <v>1.1399018298862451E-8</v>
       </c>
       <c r="BH35">
         <f t="shared" si="19"/>
@@ -13579,7 +13579,7 @@
       </c>
       <c r="BJ35" s="107">
         <f t="shared" si="20"/>
-        <v>2.1626995277259431E-5</v>
+        <v>7.287838698101081E-5</v>
       </c>
       <c r="BP35">
         <f t="shared" si="21"/>
@@ -13590,14 +13590,14 @@
       </c>
       <c r="BR35" s="107">
         <f t="shared" si="22"/>
-        <v>1.5291792811305536E-6</v>
+        <v>1.6101930003233773E-5</v>
       </c>
     </row>
     <row r="36" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="108">
         <f>SUM(B37:B39)</f>
-        <v>0.99999984791705021</v>
+        <v>0.99999866397933013</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
@@ -13622,7 +13622,7 @@
       <c r="X36" s="13"/>
       <c r="AS36" s="82">
         <f>Y37+AA37+AC37+AE37+AG37+AI37+AK37+AM37+AO37+AQ37+AS37</f>
-        <v>1.0000000000000004</v>
+        <v>1</v>
       </c>
       <c r="BH36">
         <f t="shared" si="19"/>
@@ -13633,7 +13633,7 @@
       </c>
       <c r="BJ36" s="107">
         <f t="shared" si="20"/>
-        <v>2.3103392924221298E-6</v>
+        <v>8.2547691626598055E-6</v>
       </c>
       <c r="BP36">
         <f t="shared" si="21"/>
@@ -13644,7 +13644,7 @@
       </c>
       <c r="BR36" s="107">
         <f t="shared" si="22"/>
-        <v>4.9543072772013029E-7</v>
+        <v>6.1288736203483562E-6</v>
       </c>
     </row>
     <row r="37" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13653,22 +13653,22 @@
       </c>
       <c r="B37" s="107">
         <f>SUM(BN4:BN14)</f>
-        <v>0.22881964863943663</v>
+        <v>0.21196076489443544</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="59">
         <f>SUM(H39:H49)</f>
-        <v>0.99999991985114001</v>
+        <v>0.99999979502985537</v>
       </c>
       <c r="I37" s="13"/>
       <c r="J37" s="59">
         <f>SUM(J39:J49)</f>
-        <v>1.0000000000000002</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="K37" s="59"/>
       <c r="L37" s="59">
         <f>SUM(L39:L49)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="74">
@@ -13704,52 +13704,52 @@
       <c r="Z37" s="81"/>
       <c r="AA37" s="80">
         <f>SUM(AA39:AA49)</f>
-        <v>2.9563362632567022E-2</v>
+        <v>2.9563362632567026E-2</v>
       </c>
       <c r="AB37" s="81"/>
       <c r="AC37" s="80">
         <f>SUM(AC39:AC49)</f>
-        <v>9.7761154370737818E-2</v>
+        <v>9.7761154370737791E-2</v>
       </c>
       <c r="AD37" s="81"/>
       <c r="AE37" s="80">
         <f>SUM(AE39:AE49)</f>
-        <v>0.19173241458291879</v>
+        <v>0.1917324145829187</v>
       </c>
       <c r="AF37" s="81"/>
       <c r="AG37" s="80">
         <f>SUM(AG39:AG49)</f>
-        <v>0.24706288917845573</v>
+        <v>0.24706288917845559</v>
       </c>
       <c r="AH37" s="81"/>
       <c r="AI37" s="80">
         <f>SUM(AI39:AI49)</f>
-        <v>0.21869034291065576</v>
+        <v>0.21869034291065564</v>
       </c>
       <c r="AJ37" s="81"/>
       <c r="AK37" s="80">
         <f>SUM(AK39:AK49)</f>
-        <v>0.13480588570366575</v>
+        <v>0.13480588570366567</v>
       </c>
       <c r="AL37" s="81"/>
       <c r="AM37" s="80">
         <f>SUM(AM39:AM49)</f>
-        <v>5.7259281870619509E-2</v>
+        <v>5.7259281870619454E-2</v>
       </c>
       <c r="AN37" s="81"/>
       <c r="AO37" s="80">
         <f>SUM(AO39:AO49)</f>
-        <v>1.6114447231121709E-2</v>
+        <v>1.6114447231121695E-2</v>
       </c>
       <c r="AP37" s="81"/>
       <c r="AQ37" s="80">
         <f>SUM(AQ39:AQ49)</f>
-        <v>2.7506234425596315E-3</v>
+        <v>2.7506234425596281E-3</v>
       </c>
       <c r="AR37" s="81"/>
       <c r="AS37" s="80">
         <f>SUM(AS39:AS49)</f>
-        <v>2.3412752761997621E-4</v>
+        <v>2.3412752761997588E-4</v>
       </c>
       <c r="BH37">
         <f t="shared" si="19"/>
@@ -13760,7 +13760,7 @@
       </c>
       <c r="BJ37" s="107">
         <f t="shared" si="20"/>
-        <v>1.8033195196977483E-7</v>
+        <v>6.6737382831255949E-7</v>
       </c>
       <c r="BP37">
         <f t="shared" si="21"/>
@@ -13771,7 +13771,7 @@
       </c>
       <c r="BR37" s="107">
         <f t="shared" si="22"/>
-        <v>1.2102859033747512E-7</v>
+        <v>1.7211833603187405E-6</v>
       </c>
     </row>
     <row r="38" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13780,7 +13780,7 @@
       </c>
       <c r="B38" s="107">
         <f>SUM(BJ4:BJ59)</f>
-        <v>0.48369883695159366</v>
+        <v>0.45851850212463274</v>
       </c>
       <c r="G38" s="103" t="str">
         <f t="shared" ref="G38:T38" si="23">G24</f>
@@ -13980,7 +13980,7 @@
       </c>
       <c r="BJ38" s="107">
         <f t="shared" ref="BJ38:BJ43" si="36">$H$29*H44</f>
-        <v>1.0642553588551366E-3</v>
+        <v>3.4807533614547199E-3</v>
       </c>
       <c r="BP38">
         <f>BL11+1</f>
@@ -13991,7 +13991,7 @@
       </c>
       <c r="BR38" s="107">
         <f t="shared" si="22"/>
-        <v>2.2560134001904793E-8</v>
+        <v>3.5910455874745681E-7</v>
       </c>
     </row>
     <row r="39" spans="1:70" x14ac:dyDescent="0.25">
@@ -14000,28 +14000,28 @@
       </c>
       <c r="B39" s="107">
         <f>SUM(BR4:BR47)</f>
-        <v>0.28748136232602001</v>
+        <v>0.32951939696026195</v>
       </c>
       <c r="G39" s="130">
         <v>0</v>
       </c>
       <c r="H39" s="131">
         <f>L39*J39</f>
-        <v>0.12699555382624356</v>
+        <v>8.9602686564258974E-2</v>
       </c>
       <c r="I39" s="97">
         <v>0</v>
       </c>
       <c r="J39" s="98">
         <f t="shared" ref="J39:J49" si="37">Y39+AA39+AC39+AE39+AG39+AI39+AK39+AM39+AO39+AQ39+AS39</f>
-        <v>0.21077504432297708</v>
+        <v>0.2362522979261942</v>
       </c>
       <c r="K39" s="102">
         <v>0</v>
       </c>
       <c r="L39" s="98">
         <f>AC20</f>
-        <v>0.60251703058187656</v>
+        <v>0.37926694195478711</v>
       </c>
       <c r="M39" s="84">
         <v>0</v>
@@ -14060,7 +14060,7 @@
       </c>
       <c r="W39" s="136">
         <f>C31</f>
-        <v>0.33966586852958641</v>
+        <v>0.31651333842230306</v>
       </c>
       <c r="X39" s="12">
         <v>0</v>
@@ -14074,70 +14074,70 @@
       </c>
       <c r="AA39" s="78">
         <f>((1-W39)^Z40)*V40</f>
-        <v>1.9521697387321027E-2</v>
+        <v>2.0206164030744069E-2</v>
       </c>
       <c r="AB39" s="12">
         <v>0</v>
       </c>
       <c r="AC39" s="79">
         <f>(((1-$W$39)^AB41))*V41</f>
-        <v>4.2627887661626201E-2</v>
+        <v>4.5669515927306913E-2</v>
       </c>
       <c r="AD39" s="12">
         <v>0</v>
       </c>
       <c r="AE39" s="79">
         <f>(((1-$W$39)^AB42))*V42</f>
-        <v>5.5206063271216396E-2</v>
+        <v>6.1218921234903446E-2</v>
       </c>
       <c r="AF39" s="12">
         <v>0</v>
       </c>
       <c r="AG39" s="79">
         <f>(((1-$W$39)^AB43))*V43</f>
-        <v>4.6974535979566058E-2</v>
+        <v>5.3917244656462672E-2</v>
       </c>
       <c r="AH39" s="12">
         <v>0</v>
       </c>
       <c r="AI39" s="79">
         <f>(((1-$W$39)^AB44))*V44</f>
-        <v>2.7456699733141996E-2</v>
+        <v>3.2619689565800004E-2</v>
       </c>
       <c r="AJ39" s="12">
         <v>0</v>
       </c>
       <c r="AK39" s="79">
         <f>(((1-$W$39)^AB45))*V45</f>
-        <v>1.1176127010092725E-2</v>
+        <v>1.3743239530141449E-2</v>
       </c>
       <c r="AL39" s="12">
         <v>0</v>
       </c>
       <c r="AM39" s="79">
         <f>(((1-$W$39)^AB46))*V46</f>
-        <v>3.1346720902019043E-3</v>
+        <v>3.9898466349167876E-3</v>
       </c>
       <c r="AN39" s="12">
         <v>0</v>
       </c>
       <c r="AO39" s="79">
         <f>(((1-$W$39)^AB47))*V47</f>
-        <v>5.8253949984546957E-4</v>
+        <v>7.6746002162652964E-4</v>
       </c>
       <c r="AP39" s="12">
         <v>0</v>
       </c>
       <c r="AQ39" s="79">
         <f>(((1-$W$39)^AB48))*V48</f>
-        <v>6.5660600719526319E-5</v>
+        <v>8.9536792512425291E-5</v>
       </c>
       <c r="AR39" s="12">
         <v>0</v>
       </c>
       <c r="AS39" s="79">
         <f>(((1-$W$39)^AB49))*V49</f>
-        <v>3.6905401671149273E-6</v>
+        <v>5.2089827012439441E-6</v>
       </c>
       <c r="AV39" s="14">
         <v>1</v>
@@ -14182,7 +14182,7 @@
       </c>
       <c r="BJ39" s="107">
         <f t="shared" si="36"/>
-        <v>2.5998655035806189E-4</v>
+        <v>9.7750665753960604E-4</v>
       </c>
       <c r="BP39">
         <f t="shared" ref="BP39:BP46" si="38">BP31+1</f>
@@ -14193,7 +14193,7 @@
       </c>
       <c r="BR39" s="107">
         <f t="shared" ref="BR39:BR47" si="39">$H$34*H39</f>
-        <v>1.6894318057579277E-7</v>
+        <v>1.2864041284218142E-6</v>
       </c>
     </row>
     <row r="40" spans="1:70" x14ac:dyDescent="0.25">
@@ -14202,21 +14202,21 @@
       </c>
       <c r="H40" s="132">
         <f>L39*J40+L40*J39</f>
-        <v>0.28122307024376914</v>
+        <v>0.2347035204714526</v>
       </c>
       <c r="I40" s="93">
         <v>1</v>
       </c>
       <c r="J40" s="86">
         <f t="shared" si="37"/>
-        <v>0.35485606812159998</v>
+        <v>0.36646585521183667</v>
       </c>
       <c r="K40" s="95">
         <v>1</v>
       </c>
       <c r="L40" s="86">
         <f>AD20</f>
-        <v>0.31984927822801729</v>
+        <v>0.40513949313760811</v>
       </c>
       <c r="M40" s="85">
         <v>1</v>
@@ -14263,70 +14263,70 @@
       </c>
       <c r="AA40" s="79">
         <f>(1-((1-W39)^Z40))*V40</f>
-        <v>1.0041665245245997E-2</v>
+        <v>9.3571986018229567E-3</v>
       </c>
       <c r="AB40" s="28">
         <v>1</v>
       </c>
       <c r="AC40" s="79">
         <f>((($W$39)^M40)*((1-($W$39))^($U$27-M40))*HLOOKUP($U$27,$AV$24:$BF$34,M40+1))*V41</f>
-        <v>4.3854278602639962E-2</v>
+        <v>4.2297858211061072E-2</v>
       </c>
       <c r="AD40" s="28">
         <v>1</v>
       </c>
       <c r="AE40" s="79">
         <f>((($W$39)^M40)*((1-($W$39))^($U$28-M40))*HLOOKUP($U$28,$AV$24:$BF$34,M40+1))*V42</f>
-        <v>8.519148656163561E-2</v>
+        <v>8.5048939023670889E-2</v>
       </c>
       <c r="AF40" s="28">
         <v>1</v>
       </c>
       <c r="AG40" s="79">
         <f>((($W$39)^M40)*((1-($W$39))^($U$29-M40))*HLOOKUP($U$29,$AV$24:$BF$34,M40+1))*V43</f>
-        <v>9.6651957255300569E-2</v>
+        <v>9.9873358554542158E-2</v>
       </c>
       <c r="AH40" s="28">
         <v>1</v>
       </c>
       <c r="AI40" s="79">
         <f>((($W$39)^M40)*((1-($W$39))^($U$30-M40))*HLOOKUP($U$30,$AV$24:$BF$34,M40+1))*V44</f>
-        <v>7.0616550904665731E-2</v>
+        <v>7.5528663711873029E-2</v>
       </c>
       <c r="AJ40" s="28">
         <v>1</v>
       </c>
       <c r="AK40" s="79">
         <f>((($W$39)^M40)*((1-($W$39))^($U$31-M40))*HLOOKUP($U$31,$AV$24:$BF$34,M40+1))*V45</f>
-        <v>3.4492982023149009E-2</v>
+        <v>3.8185839188564295E-2</v>
       </c>
       <c r="AL40" s="28">
         <v>1</v>
       </c>
       <c r="AM40" s="79">
         <f>((($W$39)^Q40)*((1-($W$39))^($U$32-Q40))*HLOOKUP($U$32,$AV$24:$BF$34,Q40+1))*V46</f>
-        <v>1.1286994676347618E-2</v>
+        <v>1.293350440382901E-2</v>
       </c>
       <c r="AN40" s="28">
         <v>1</v>
       </c>
       <c r="AO40" s="79">
         <f>((($W$39)^Q40)*((1-($W$39))^($U$33-Q40))*HLOOKUP($U$33,$AV$24:$BF$34,Q40+1))*V47</f>
-        <v>2.3971959132531116E-3</v>
+        <v>2.8432020369199532E-3</v>
       </c>
       <c r="AP40" s="28">
         <v>1</v>
       </c>
       <c r="AQ40" s="79">
         <f>((($W$39)^Q40)*((1-($W$39))^($U$34-Q40))*HLOOKUP($U$34,$AV$24:$BF$34,Q40+1))*V48</f>
-        <v>3.0397336011873873E-4</v>
+        <v>3.7316939206808651E-4</v>
       </c>
       <c r="AR40" s="28">
         <v>1</v>
       </c>
       <c r="AS40" s="79">
         <f>((($W$39)^Q40)*((1-($W$39))^($U$35-Q40))*HLOOKUP($U$35,$AV$24:$BF$34,Q40+1))*V49</f>
-        <v>1.8983579243663286E-5</v>
+        <v>2.412208748520436E-5</v>
       </c>
       <c r="AV40" s="14">
         <v>2</v>
@@ -14371,7 +14371,7 @@
       </c>
       <c r="BJ40" s="107">
         <f t="shared" si="36"/>
-        <v>4.846236247498217E-5</v>
+        <v>2.0394520712973662E-4</v>
       </c>
       <c r="BP40">
         <f t="shared" si="38"/>
@@ -14382,7 +14382,7 @@
       </c>
       <c r="BR40" s="107">
         <f t="shared" si="39"/>
-        <v>3.741132544157926E-7</v>
+        <v>3.3695817532556295E-6</v>
       </c>
     </row>
     <row r="41" spans="1:70" x14ac:dyDescent="0.25">
@@ -14391,21 +14391,21 @@
       </c>
       <c r="H41" s="132">
         <f>L39*J41+J40*L40+J39*L41</f>
-        <v>0.29012280557179915</v>
+        <v>0.28578132224821895</v>
       </c>
       <c r="I41" s="93">
         <v>2</v>
       </c>
       <c r="J41" s="86">
         <f t="shared" si="37"/>
-        <v>0.26908222543686749</v>
+        <v>0.25603246393362705</v>
       </c>
       <c r="K41" s="95">
         <v>2</v>
       </c>
       <c r="L41" s="86">
         <f>AE20</f>
-        <v>6.8773439959412638E-2</v>
+        <v>0.17018620403328336</v>
       </c>
       <c r="M41" s="85">
         <v>2</v>
@@ -14456,63 +14456,63 @@
       </c>
       <c r="AC41" s="79">
         <f>((($W$39)^M41)*((1-($W$39))^($U$27-M41))*HLOOKUP($U$27,$AV$24:$BF$34,M41+1))*V41</f>
-        <v>1.1278988106471648E-2</v>
+        <v>9.7937802323698094E-3</v>
       </c>
       <c r="AD41" s="28">
         <v>2</v>
       </c>
       <c r="AE41" s="79">
         <f>((($W$39)^M41)*((1-($W$39))^($U$28-M41))*HLOOKUP($U$28,$AV$24:$BF$34,M41+1))*V42</f>
-        <v>4.3821209438090439E-2</v>
+        <v>3.9385002126478032E-2</v>
       </c>
       <c r="AF41" s="28">
         <v>2</v>
       </c>
       <c r="AG41" s="79">
         <f>((($W$39)^M41)*((1-($W$39))^($U$29-M41))*HLOOKUP($U$29,$AV$24:$BF$34,M41+1))*V43</f>
-        <v>7.4574452784462161E-2</v>
+        <v>6.9374982525432213E-2</v>
       </c>
       <c r="AH41" s="28">
         <v>2</v>
       </c>
       <c r="AI41" s="79">
         <f>((($W$39)^M41)*((1-($W$39))^($U$30-M41))*HLOOKUP($U$30,$AV$24:$BF$34,M41+1))*V44</f>
-        <v>7.2648166897523861E-2</v>
+        <v>6.9952585300899359E-2</v>
       </c>
       <c r="AJ41" s="28">
         <v>2</v>
       </c>
       <c r="AK41" s="79">
         <f>((($W$39)^M41)*((1-($W$39))^($U$31-M41))*HLOOKUP($U$31,$AV$24:$BF$34,M41+1))*V45</f>
-        <v>4.4356667854572575E-2</v>
+        <v>4.420835153582494E-2</v>
       </c>
       <c r="AL41" s="28">
         <v>2</v>
       </c>
       <c r="AM41" s="79">
         <f>((($W$39)^Q41)*((1-($W$39))^($U$32-Q41))*HLOOKUP($U$32,$AV$24:$BF$34,Q41+1))*V46</f>
-        <v>1.7417576952868167E-2</v>
+        <v>1.7967987759583186E-2</v>
       </c>
       <c r="AN41" s="28">
         <v>2</v>
       </c>
       <c r="AO41" s="79">
         <f>((($W$39)^Q41)*((1-($W$39))^($U$33-Q41))*HLOOKUP($U$33,$AV$24:$BF$34,Q41+1))*V47</f>
-        <v>4.3157843519937974E-3</v>
+        <v>4.6082681153290436E-3</v>
       </c>
       <c r="AP41" s="28">
         <v>2</v>
       </c>
       <c r="AQ41" s="79">
         <f>((($W$39)^Q41)*((1-($W$39))^($U$34-Q41))*HLOOKUP($U$34,$AV$24:$BF$34,Q41+1))*V48</f>
-        <v>6.2543715645699131E-4</v>
+        <v>6.9123859598283985E-4</v>
       </c>
       <c r="AR41" s="28">
         <v>2</v>
       </c>
       <c r="AS41" s="79">
         <f>((($W$39)^Q41)*((1-($W$39))^($U$35-Q41))*HLOOKUP($U$35,$AV$24:$BF$34,Q41+1))*V49</f>
-        <v>4.3941894427875892E-5</v>
+        <v>5.0267741727612854E-5</v>
       </c>
       <c r="AV41" s="14">
         <v>3</v>
@@ -14554,7 +14554,7 @@
       </c>
       <c r="BJ41" s="107">
         <f t="shared" si="36"/>
-        <v>6.885154062949414E-6</v>
+        <v>3.1541584743672931E-5</v>
       </c>
       <c r="BP41">
         <f t="shared" si="38"/>
@@ -14565,7 +14565,7 @@
       </c>
       <c r="BR41" s="107">
         <f t="shared" si="39"/>
-        <v>3.8595264207386216E-7</v>
+        <v>4.1028934160618715E-6</v>
       </c>
     </row>
     <row r="42" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14574,21 +14574,21 @@
       </c>
       <c r="H42" s="132">
         <f>J42*L39+J41*L40+L42*J39+L41*J40</f>
-        <v>0.18527930333612563</v>
+        <v>0.21707650325624261</v>
       </c>
       <c r="I42" s="93">
         <v>3</v>
       </c>
       <c r="J42" s="86">
         <f t="shared" si="37"/>
-        <v>0.12106106832309138</v>
+        <v>0.10613267327834472</v>
       </c>
       <c r="K42" s="95">
         <v>3</v>
       </c>
       <c r="L42" s="86">
         <f>AF20</f>
-        <v>8.8602512306935194E-3</v>
+        <v>4.5407360874321373E-2</v>
       </c>
       <c r="M42" s="85">
         <v>3</v>
@@ -14643,56 +14643,56 @@
       </c>
       <c r="AE42" s="79">
         <f>((($W$39)^M42)*((1-($W$39))^($U$28-M42))*HLOOKUP($U$28,$AV$24:$BF$34,M42+1))*V42</f>
-        <v>7.5136553119763555E-3</v>
+        <v>6.0795521978663511E-3</v>
       </c>
       <c r="AF42" s="28">
         <v>3</v>
       </c>
       <c r="AG42" s="79">
         <f>((($W$39)^M42)*((1-($W$39))^($U$29-M42))*HLOOKUP($U$29,$AV$24:$BF$34,M42+1))*V43</f>
-        <v>2.5573312123816222E-2</v>
+        <v>2.1417737956950948E-2</v>
       </c>
       <c r="AH42" s="28">
         <v>3</v>
       </c>
       <c r="AI42" s="79">
         <f>((($W$39)^M42)*((1-($W$39))^($U$30-M42))*HLOOKUP($U$30,$AV$24:$BF$34,M42+1))*V44</f>
-        <v>3.7369115922240362E-2</v>
+        <v>3.2394086892274576E-2</v>
       </c>
       <c r="AJ42" s="28">
         <v>3</v>
       </c>
       <c r="AK42" s="79">
         <f>((($W$39)^M42)*((1-($W$39))^($U$31-M42))*HLOOKUP($U$31,$AV$24:$BF$34,M42+1))*V45</f>
-        <v>3.0421863505883481E-2</v>
+        <v>2.7296378441780941E-2</v>
       </c>
       <c r="AL42" s="28">
         <v>3</v>
       </c>
       <c r="AM42" s="79">
         <f>((($W$39)^Q42)*((1-($W$39))^($U$32-Q42))*HLOOKUP($U$32,$AV$24:$BF$34,Q42+1))*V46</f>
-        <v>1.4932229309937737E-2</v>
+        <v>1.3867882896668781E-2</v>
       </c>
       <c r="AN42" s="28">
         <v>3</v>
       </c>
       <c r="AO42" s="79">
         <f>((($W$39)^Q42)*((1-($W$39))^($U$33-Q42))*HLOOKUP($U$33,$AV$24:$BF$34,Q42+1))*V47</f>
-        <v>4.4399481124566169E-3</v>
+        <v>4.2680520557958042E-3</v>
       </c>
       <c r="AP42" s="28">
         <v>3</v>
       </c>
       <c r="AQ42" s="79">
         <f>((($W$39)^Q42)*((1-($W$39))^($U$34-Q42))*HLOOKUP($U$34,$AV$24:$BF$34,Q42+1))*V48</f>
-        <v>7.5066925153941314E-4</v>
+        <v>7.4690735787534795E-4</v>
       </c>
       <c r="AR42" s="28">
         <v>3</v>
       </c>
       <c r="AS42" s="79">
         <f>((($W$39)^Q42)*((1-($W$39))^($U$35-Q42))*HLOOKUP($U$35,$AV$24:$BF$34,Q42+1))*V49</f>
-        <v>6.0274785241199171E-5</v>
+        <v>6.2075479131977967E-5</v>
       </c>
       <c r="AV42" s="14">
         <v>4</v>
@@ -14731,7 +14731,7 @@
       </c>
       <c r="BJ42" s="107">
         <f t="shared" si="36"/>
-        <v>7.35517891509321E-7</v>
+        <v>3.5726435760897664E-6</v>
       </c>
       <c r="BP42">
         <f t="shared" si="38"/>
@@ -14742,7 +14742,7 @@
       </c>
       <c r="BR42" s="107">
         <f t="shared" si="39"/>
-        <v>2.464785093445034E-7</v>
+        <v>3.1165149247164349E-6</v>
       </c>
     </row>
     <row r="43" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14751,14 +14751,14 @@
       </c>
       <c r="H43" s="132">
         <f>J43*L39+J42*L40+J41*L41+J40*L42</f>
-        <v>8.1944401819937077E-2</v>
+        <v>0.11418128170125161</v>
       </c>
       <c r="I43" s="93">
         <v>4</v>
       </c>
       <c r="J43" s="86">
         <f t="shared" si="37"/>
-        <v>3.5805265595444426E-2</v>
+        <v>2.8922383020026438E-2</v>
       </c>
       <c r="K43" s="95">
         <v>4</v>
@@ -14821,49 +14821,49 @@
       </c>
       <c r="AG43" s="79">
         <f>((($W$39)^M43)*((1-($W$39))^($U$29-M43))*HLOOKUP($U$29,$AV$24:$BF$34,M43+1))*V43</f>
-        <v>3.2886310353107328E-3</v>
+        <v>2.4795654850676275E-3</v>
       </c>
       <c r="AH43" s="28">
         <v>4</v>
       </c>
       <c r="AI43" s="79">
         <f>((($W$39)^M43)*((1-($W$39))^($U$30-M43))*HLOOKUP($U$30,$AV$24:$BF$34,M43+1))*V44</f>
-        <v>9.6110534129487755E-3</v>
+        <v>7.5006296126895544E-3</v>
       </c>
       <c r="AJ43" s="28">
         <v>4</v>
       </c>
       <c r="AK43" s="79">
         <f>((($W$39)^M43)*((1-($W$39))^($U$31-M43))*HLOOKUP($U$31,$AV$24:$BF$34,M43+1))*V45</f>
-        <v>1.1736409111934673E-2</v>
+        <v>9.4804350470099105E-3</v>
       </c>
       <c r="AL43" s="28">
         <v>4</v>
       </c>
       <c r="AM43" s="79">
         <f>((($W$39)^Q43)*((1-($W$39))^($U$32-Q43))*HLOOKUP($U$32,$AV$24:$BF$34,Q43+1))*V46</f>
-        <v>7.6809124289075126E-3</v>
+        <v>6.4220271721794585E-3</v>
       </c>
       <c r="AN43" s="28">
         <v>4</v>
       </c>
       <c r="AO43" s="79">
         <f>((($W$39)^Q43)*((1-($W$39))^($U$33-Q43))*HLOOKUP($U$33,$AV$24:$BF$34,Q43+1))*V47</f>
-        <v>2.8548025158219564E-3</v>
+        <v>2.4705957714336057E-3</v>
       </c>
       <c r="AP43" s="28">
         <v>4</v>
       </c>
       <c r="AQ43" s="79">
         <f>((($W$39)^Q43)*((1-($W$39))^($U$34-Q43))*HLOOKUP($U$34,$AV$24:$BF$34,Q43+1))*V48</f>
-        <v>5.7919932762254983E-4</v>
+        <v>5.1882389508730946E-4</v>
       </c>
       <c r="AR43" s="28">
         <v>4</v>
       </c>
       <c r="AS43" s="79">
         <f>((($W$39)^Q43)*((1-($W$39))^($U$35-Q43))*HLOOKUP($U$35,$AV$24:$BF$34,Q43+1))*V49</f>
-        <v>5.4257762898223231E-5</v>
+        <v>5.0306036558970209E-5</v>
       </c>
       <c r="AV43" s="14">
         <v>5</v>
@@ -14899,7 +14899,7 @@
       </c>
       <c r="BJ43" s="107">
         <f t="shared" si="36"/>
-        <v>5.7410345536526647E-8</v>
+        <v>2.8883773411333621E-7</v>
       </c>
       <c r="BP43">
         <f t="shared" si="38"/>
@@ -14910,7 +14910,7 @@
       </c>
       <c r="BR43" s="107">
         <f t="shared" si="39"/>
-        <v>1.0901127997585145E-7</v>
+        <v>1.6392730821039188E-6</v>
       </c>
     </row>
     <row r="44" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14919,14 +14919,14 @@
       </c>
       <c r="H44" s="132">
         <f>J44*L39+J43*L40+J42*L41+J41*L42</f>
-        <v>2.6548734427154566E-2</v>
+        <v>4.3460792912143026E-2</v>
       </c>
       <c r="I44" s="93">
         <v>5</v>
       </c>
       <c r="J44" s="86">
         <f t="shared" si="37"/>
-        <v>7.280331698886121E-3</v>
+        <v>5.418658504649454E-3</v>
       </c>
       <c r="K44" s="95">
         <v>5</v>
@@ -14993,42 +14993,42 @@
       </c>
       <c r="AI44" s="79">
         <f>((($W$39)^M44)*((1-($W$39))^($U$30-M44))*HLOOKUP($U$30,$AV$24:$BF$34,M44+1))*V44</f>
-        <v>9.8875604013504191E-4</v>
+        <v>6.9468782711911976E-4</v>
       </c>
       <c r="AJ44" s="28">
         <v>5</v>
       </c>
       <c r="AK44" s="79">
         <f>((($W$39)^M44)*((1-($W$39))^($U$31-M44))*HLOOKUP($U$31,$AV$24:$BF$34,M44+1))*V45</f>
-        <v>2.4148123832683976E-3</v>
+        <v>1.7561039974055451E-3</v>
       </c>
       <c r="AL44" s="28">
         <v>5</v>
       </c>
       <c r="AM44" s="79">
         <f>((($W$39)^Q44)*((1-($W$39))^($U$32-Q44))*HLOOKUP($U$32,$AV$24:$BF$34,Q44+1))*V46</f>
-        <v>2.3705669602039582E-3</v>
+        <v>1.7843718456889265E-3</v>
       </c>
       <c r="AN44" s="28">
         <v>5</v>
       </c>
       <c r="AO44" s="79">
         <f>((($W$39)^Q44)*((1-($W$39))^($U$33-Q44))*HLOOKUP($U$33,$AV$24:$BF$34,Q44+1))*V47</f>
-        <v>1.1747737150679873E-3</v>
+        <v>9.1527932814774657E-4</v>
       </c>
       <c r="AP44" s="28">
         <v>5</v>
       </c>
       <c r="AQ44" s="79">
         <f>((($W$39)^Q44)*((1-($W$39))^($U$34-Q44))*HLOOKUP($U$34,$AV$24:$BF$34,Q44+1))*V48</f>
-        <v>2.9793135519223205E-4</v>
+        <v>2.4026026010264659E-4</v>
       </c>
       <c r="AR44" s="28">
         <v>5</v>
       </c>
       <c r="AS44" s="79">
         <f>((($W$39)^Q44)*((1-($W$39))^($U$35-Q44))*HLOOKUP($U$35,$AV$24:$BF$34,Q44+1))*V49</f>
-        <v>3.3491245018504267E-5</v>
+        <v>2.7955246185469077E-5</v>
       </c>
       <c r="AV44" s="29">
         <v>6</v>
@@ -15060,7 +15060,7 @@
       </c>
       <c r="BJ44" s="107">
         <f>$H$30*H45</f>
-        <v>5.9370262988905429E-5</v>
+        <v>3.0639649769916548E-4</v>
       </c>
       <c r="BP44">
         <f t="shared" si="38"/>
@@ -15071,7 +15071,7 @@
       </c>
       <c r="BR44" s="107">
         <f t="shared" si="39"/>
-        <v>3.5317989482704786E-8</v>
+        <v>6.2395610634477491E-7</v>
       </c>
     </row>
     <row r="45" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15095,14 +15095,14 @@
       </c>
       <c r="H45" s="132">
         <f>J45*L39+J44*L40+J43*L41+J42*L42</f>
-        <v>6.4855805729870462E-3</v>
+        <v>1.2205178018075609E-2</v>
       </c>
       <c r="I45" s="93">
         <v>6</v>
       </c>
       <c r="J45" s="86">
         <f t="shared" si="37"/>
-        <v>1.0321516886905551E-3</v>
+        <v>7.0786629267285766E-4</v>
       </c>
       <c r="K45" s="95">
         <v>6</v>
@@ -15163,35 +15163,35 @@
       </c>
       <c r="AK45" s="79">
         <f>((($W$39)^Q45)*((1-($W$39))^($U$31-Q45))*HLOOKUP($U$31,$AV$24:$BF$34,Q45+1))*V45</f>
-        <v>2.0702381476490721E-4</v>
+        <v>1.3553796293857767E-4</v>
       </c>
       <c r="AL45" s="28">
         <v>6</v>
       </c>
       <c r="AM45" s="79">
         <f>((($W$39)^Q45)*((1-($W$39))^($U$32-Q45))*HLOOKUP($U$32,$AV$24:$BF$34,Q45+1))*V46</f>
-        <v>4.0646123786464524E-4</v>
+        <v>2.7543941070339202E-4</v>
       </c>
       <c r="AN45" s="28">
         <v>6</v>
       </c>
       <c r="AO45" s="79">
         <f>((($W$39)^Q45)*((1-($W$39))^($U$33-Q45))*HLOOKUP($U$33,$AV$24:$BF$34,Q45+1))*V47</f>
-        <v>3.021428964801098E-4</v>
+        <v>2.1192667832921111E-4</v>
       </c>
       <c r="AP45" s="28">
         <v>6</v>
       </c>
       <c r="AQ45" s="79">
         <f>((($W$39)^Q45)*((1-($W$39))^($U$34-Q45))*HLOOKUP($U$34,$AV$24:$BF$34,Q45+1))*V48</f>
-        <v>1.0216758223923525E-4</v>
+        <v>7.4174163437964793E-5</v>
       </c>
       <c r="AR45" s="28">
         <v>6</v>
       </c>
       <c r="AS45" s="79">
         <f>((($W$39)^Q45)*((1-($W$39))^($U$35-Q45))*HLOOKUP($U$35,$AV$24:$BF$34,Q45+1))*V49</f>
-        <v>1.4356157341657791E-5</v>
+        <v>1.0788077263712056E-5</v>
       </c>
       <c r="AV45" s="14">
         <v>7</v>
@@ -15219,7 +15219,7 @@
       </c>
       <c r="BJ45" s="107">
         <f>$H$30*H46</f>
-        <v>1.1066815576577899E-5</v>
+        <v>6.3926006749013184E-5</v>
       </c>
       <c r="BP45">
         <f t="shared" si="38"/>
@@ -15230,7 +15230,7 @@
       </c>
       <c r="BR45" s="107">
         <f t="shared" si="39"/>
-        <v>8.6278186666294096E-9</v>
+        <v>1.7522679277384996E-7</v>
       </c>
     </row>
     <row r="46" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15254,14 +15254,14 @@
       </c>
       <c r="H46" s="132">
         <f>J46*L39+J45*L40+J44*L41+J43*L42</f>
-        <v>1.2089339089115482E-3</v>
+        <v>2.5464660928418105E-3</v>
       </c>
       <c r="I46" s="93">
         <v>7</v>
       </c>
       <c r="J46" s="86">
         <f t="shared" si="37"/>
-        <v>1.0101595413488654E-4</v>
+        <v>6.3837614477282918E-5</v>
       </c>
       <c r="K46" s="95">
         <v>7</v>
@@ -15326,28 +15326,28 @@
       </c>
       <c r="AM46" s="79">
         <f>((($W$39)^Q46)*((1-($W$39))^($U$32-Q46))*HLOOKUP($U$32,$AV$24:$BF$34,Q46+1))*V46</f>
-        <v>2.9868214287964254E-5</v>
+        <v>1.8221747049911844E-5</v>
       </c>
       <c r="AN46" s="28">
         <v>7</v>
       </c>
       <c r="AO46" s="79">
         <f>((($W$39)^Q46)*((1-($W$39))^($U$33-Q46))*HLOOKUP($U$33,$AV$24:$BF$34,Q46+1))*V47</f>
-        <v>4.4405064675118369E-5</v>
+        <v>2.8040100113352164E-5</v>
       </c>
       <c r="AP46" s="28">
         <v>7</v>
       </c>
       <c r="AQ46" s="79">
         <f>((($W$39)^Q46)*((1-($W$39))^($U$34-Q46))*HLOOKUP($U$34,$AV$24:$BF$34,Q46+1))*V48</f>
-        <v>2.2522909606112683E-5</v>
+        <v>1.4721018031013047E-5</v>
       </c>
       <c r="AR46" s="28">
         <v>7</v>
       </c>
       <c r="AS46" s="79">
         <f>((($W$39)^Q46)*((1-($W$39))^($U$35-Q46))*HLOOKUP($U$35,$AV$24:$BF$34,Q46+1))*V49</f>
-        <v>4.2197655656912358E-6</v>
+        <v>2.8547492830058599E-6</v>
       </c>
       <c r="AV46" s="14">
         <v>8</v>
@@ -15371,7 +15371,7 @@
       </c>
       <c r="BJ46" s="107">
         <f>$H$30*H47</f>
-        <v>1.5722867466546306E-6</v>
+        <v>9.8866140939313709E-6</v>
       </c>
       <c r="BP46">
         <f t="shared" si="38"/>
@@ -15382,7 +15382,7 @@
       </c>
       <c r="BR46" s="107">
         <f t="shared" si="39"/>
-        <v>1.6082542539787433E-9</v>
+        <v>3.6558998622977978E-8</v>
       </c>
     </row>
     <row r="47" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15406,14 +15406,14 @@
       </c>
       <c r="H47" s="132">
         <f>J47*L39+J46*L40+J45*L41+J44*L42</f>
-        <v>1.7175589033812831E-4</v>
+        <v>3.9382919164737023E-4</v>
       </c>
       <c r="I47" s="93">
         <v>8</v>
       </c>
       <c r="J47" s="86">
         <f t="shared" si="37"/>
-        <v>6.5654911507995122E-6</v>
+        <v>3.8231473036410193E-6</v>
       </c>
       <c r="K47" s="95">
         <v>8</v>
@@ -15482,21 +15482,21 @@
       </c>
       <c r="AO47" s="79">
         <f>((($W$39)^Q47)*((1-($W$39))^($U$33-Q47))*HLOOKUP($U$33,$AV$24:$BF$34,Q47+1))*V47</f>
-        <v>2.8551615275437131E-6</v>
+        <v>1.6231234264481326E-6</v>
       </c>
       <c r="AP47" s="28">
         <v>8</v>
       </c>
       <c r="AQ47" s="79">
         <f>((($W$39)^Q47)*((1-($W$39))^($U$34-Q47))*HLOOKUP($U$34,$AV$24:$BF$34,Q47+1))*V48</f>
-        <v>2.8963608302883858E-6</v>
+        <v>1.7042756003517086E-6</v>
       </c>
       <c r="AR47" s="28">
         <v>8</v>
       </c>
       <c r="AS47" s="79">
         <f>((($W$39)^Q47)*((1-($W$39))^($U$35-Q47))*HLOOKUP($U$35,$AV$24:$BF$34,Q47+1))*V49</f>
-        <v>8.1396879296741395E-7</v>
+        <v>4.9574827684117812E-7</v>
       </c>
       <c r="AV47" s="29">
         <v>9</v>
@@ -15517,7 +15517,7 @@
       </c>
       <c r="BJ47" s="107">
         <f>$H$30*H48</f>
-        <v>1.6796211416249329E-7</v>
+        <v>1.119834295550027E-6</v>
       </c>
       <c r="BP47">
         <f>BL12+1</f>
@@ -15528,7 +15528,7 @@
       </c>
       <c r="BR47" s="107">
         <f t="shared" si="39"/>
-        <v>2.2848820704425422E-10</v>
+        <v>5.6541105792054075E-9</v>
       </c>
     </row>
     <row r="48" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15552,14 +15552,14 @@
       </c>
       <c r="H48" s="132">
         <f>J48*L39+J47*L40+J46*L41+J45*L42</f>
-        <v>1.8348105091157559E-5</v>
+        <v>4.4608136942067932E-5</v>
       </c>
       <c r="I48" s="93">
         <v>9</v>
       </c>
       <c r="J48" s="86">
         <f t="shared" si="37"/>
-        <v>2.5858117004619033E-7</v>
+        <v>1.3870836307497649E-7</v>
       </c>
       <c r="K48" s="95">
         <v>9</v>
@@ -15632,14 +15632,14 @@
       </c>
       <c r="AQ48" s="79">
         <f>((($W$39)^Q48)*((1-($W$39))^($U$34-Q48))*HLOOKUP($U$34,$AV$24:$BF$34,Q48+1))*V48</f>
-        <v>1.6553823454402654E-7</v>
+        <v>8.7691861643297145E-8</v>
       </c>
       <c r="AR48" s="28">
         <v>9</v>
       </c>
       <c r="AS48" s="79">
         <f>((($W$39)^Q48)*((1-($W$39))^($U$35-Q48))*HLOOKUP($U$35,$AV$24:$BF$34,Q48+1))*V49</f>
-        <v>9.3042935502163811E-8</v>
+        <v>5.1016501431679353E-8</v>
       </c>
       <c r="AV48" s="14">
         <v>10</v>
@@ -15657,7 +15657,7 @@
       </c>
       <c r="BJ48" s="107">
         <f>$H$30*H49</f>
-        <v>1.3110167845579968E-8</v>
+        <v>9.0535311911267717E-8</v>
       </c>
     </row>
     <row r="49" spans="1:62" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15681,14 +15681,14 @@
       </c>
       <c r="H49" s="133">
         <f>J49*L39+J48*L40+J47*L41+J46*L42</f>
-        <v>1.4321487830327103E-6</v>
+        <v>3.6064367807623058E-6</v>
       </c>
       <c r="I49" s="94">
         <v>10</v>
       </c>
       <c r="J49" s="89">
         <f t="shared" si="37"/>
-        <v>4.7859875768515789E-9</v>
+        <v>2.3625045067439761E-9</v>
       </c>
       <c r="K49" s="96">
         <v>10</v>
@@ -15765,7 +15765,7 @@
       </c>
       <c r="AS49" s="79">
         <f>((($W$39)^Q49)*((1-($W$39))^($U$35-Q49))*HLOOKUP($U$35,$AV$24:$BF$34,Q49+1))*V49</f>
-        <v>4.7859875768515789E-9</v>
+        <v>2.3625045067439761E-9</v>
       </c>
       <c r="BH49">
         <f>BP14+1</f>
@@ -15776,7 +15776,7 @@
       </c>
       <c r="BJ49" s="107">
         <f>$H$31*H39</f>
-        <v>1.962284113711485E-4</v>
+        <v>5.266639322280579E-4</v>
       </c>
     </row>
     <row r="50" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15823,7 +15823,7 @@
       </c>
       <c r="BJ50" s="107">
         <f>$H$31*H46</f>
-        <v>1.8679959514409628E-6</v>
+        <v>1.4967540563414781E-5</v>
       </c>
     </row>
     <row r="51" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15851,7 +15851,7 @@
       </c>
       <c r="BJ51" s="107">
         <f>$H$31*H47</f>
-        <v>2.6539027933845137E-7</v>
+        <v>2.3148371846021867E-6</v>
       </c>
     </row>
     <row r="52" spans="1:62" x14ac:dyDescent="0.25">
@@ -15865,7 +15865,7 @@
       </c>
       <c r="BJ52" s="107">
         <f>$H$31*H48</f>
-        <v>2.8350752488822212E-8</v>
+        <v>2.6219634379409733E-7</v>
       </c>
     </row>
     <row r="53" spans="1:62" x14ac:dyDescent="0.25">
@@ -15878,7 +15878,7 @@
       </c>
       <c r="BJ53" s="107">
         <f>$H$31*H49</f>
-        <v>2.2128985785292749E-9</v>
+        <v>2.1197803873057147E-8</v>
       </c>
     </row>
     <row r="54" spans="1:62" x14ac:dyDescent="0.25">
@@ -15891,7 +15891,7 @@
       </c>
       <c r="BJ54" s="107">
         <f>$H$32*H47</f>
-        <v>3.3609257661732386E-8</v>
+        <v>4.1108660502735099E-7</v>
       </c>
     </row>
     <row r="55" spans="1:62" x14ac:dyDescent="0.25">
@@ -15904,7 +15904,7 @@
       </c>
       <c r="BJ55" s="107">
         <f>$H$32*H48</f>
-        <v>3.5903641522817906E-9</v>
+        <v>4.6562844911022516E-8</v>
       </c>
     </row>
     <row r="56" spans="1:62" x14ac:dyDescent="0.25">
@@ -15917,7 +15917,7 @@
       </c>
       <c r="BJ56" s="107">
         <f>$H$32*H49</f>
-        <v>2.8024341618866523E-10</v>
+        <v>3.7644691757050069E-9</v>
       </c>
     </row>
     <row r="57" spans="1:62" x14ac:dyDescent="0.25">
@@ -15930,7 +15930,7 @@
       </c>
       <c r="BJ57" s="107">
         <f>$H$33*H48</f>
-        <v>3.4239730268648767E-10</v>
+        <v>6.2906729361750631E-9</v>
       </c>
     </row>
     <row r="58" spans="1:62" x14ac:dyDescent="0.25">
@@ -15943,7 +15943,7 @@
       </c>
       <c r="BJ58" s="107">
         <f>$H$33*H49</f>
-        <v>2.6725587079423003E-11</v>
+        <v>5.085824203380426E-10</v>
       </c>
     </row>
     <row r="59" spans="1:62" x14ac:dyDescent="0.25">
@@ -15956,7 +15956,7 @@
       </c>
       <c r="BJ59" s="107">
         <f>$H$34*H49</f>
-        <v>1.9051987504565521E-12</v>
+        <v>5.1776741764743702E-11</v>
       </c>
     </row>
   </sheetData>
@@ -15965,72 +15965,72 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <conditionalFormatting sqref="V25:V35 V39:V49">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="83" priority="14" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="13" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V49">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="12" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V25:V35 V39:V49">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="11" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="79" priority="10" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V49">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="9" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H35">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="77" priority="8" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="7" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H35">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="6" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="5" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H49">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="4" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="3" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H49">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="2" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="1" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23291,72 +23291,72 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <conditionalFormatting sqref="V25:V35 V39:V49">
-    <cfRule type="cellIs" dxfId="83" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="14" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="82" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="13" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V49">
-    <cfRule type="cellIs" dxfId="81" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="12" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V25:V35 V39:V49">
-    <cfRule type="cellIs" dxfId="80" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="11" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="79" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="10" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V49">
-    <cfRule type="cellIs" dxfId="78" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="9" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H35">
-    <cfRule type="cellIs" dxfId="77" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="8" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="76" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="7" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H35">
-    <cfRule type="cellIs" dxfId="75" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="6" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="74" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="5" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H49">
-    <cfRule type="cellIs" dxfId="73" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="4" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="72" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="3" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H49">
-    <cfRule type="cellIs" dxfId="71" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="2" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="70" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="1" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30241,72 +30241,72 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <conditionalFormatting sqref="V25:V35 V39:V49">
-    <cfRule type="cellIs" dxfId="69" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="14" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="68" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="13" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V49">
-    <cfRule type="cellIs" dxfId="67" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="12" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V25:V35 V39:V49">
-    <cfRule type="cellIs" dxfId="66" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="11" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="65" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="10" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V49">
-    <cfRule type="cellIs" dxfId="64" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="9" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H35">
-    <cfRule type="cellIs" dxfId="63" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="8" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="62" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="7" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H35">
-    <cfRule type="cellIs" dxfId="61" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="6" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="60" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="5" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H49">
-    <cfRule type="cellIs" dxfId="59" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="4" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="58" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H49">
-    <cfRule type="cellIs" dxfId="57" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="56" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37171,72 +37171,72 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <conditionalFormatting sqref="V25:V35 V39:V49">
-    <cfRule type="cellIs" dxfId="55" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="14" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="54" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="13" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V49">
-    <cfRule type="cellIs" dxfId="53" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="12" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V25:V35 V39:V49">
-    <cfRule type="cellIs" dxfId="52" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="11" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="51" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="10" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V49">
-    <cfRule type="cellIs" dxfId="50" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="9" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H35">
-    <cfRule type="cellIs" dxfId="49" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="8" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="48" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="7" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H35">
-    <cfRule type="cellIs" dxfId="47" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="46" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H49">
-    <cfRule type="cellIs" dxfId="45" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="44" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H49">
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43976,72 +43976,72 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <conditionalFormatting sqref="V25:V35 V39:V49">
-    <cfRule type="cellIs" dxfId="41" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="14" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="40" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="13" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V49">
-    <cfRule type="cellIs" dxfId="39" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V25:V35 V39:V49">
-    <cfRule type="cellIs" dxfId="38" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="11" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="37" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V49">
-    <cfRule type="cellIs" dxfId="36" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H35">
-    <cfRule type="cellIs" dxfId="35" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="34" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H35">
-    <cfRule type="cellIs" dxfId="33" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="32" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H49">
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H49">
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
@@ -50713,72 +50713,72 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <conditionalFormatting sqref="V24:V34 V38:V48">
-    <cfRule type="cellIs" dxfId="27" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V34">
-    <cfRule type="cellIs" dxfId="26" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V48">
-    <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V24:V34 V38:V48">
-    <cfRule type="cellIs" dxfId="24" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V34">
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V48">
-    <cfRule type="cellIs" dxfId="22" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H34">
-    <cfRule type="cellIs" dxfId="21" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H34">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:H48">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:H48">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
